--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2019-2020\Winter 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A94611-0272-42D0-A73A-1C1F0E419E28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8AFADD-570A-4BD0-A62D-667664ECDF6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1091,13 +1091,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AS151"/>
+  <dimension ref="A1:AS154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V142" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AB142" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W151" sqref="W151"/>
+      <selection pane="bottomRight" activeCell="AM150" sqref="AM150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6520,7 +6520,7 @@
     </row>
     <row r="79" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <f t="shared" ref="A79:A151" si="14">A78+1</f>
+        <f t="shared" ref="A79:A152" si="14">A78+1</f>
         <v>43984</v>
       </c>
       <c r="B79">
@@ -11933,7 +11933,7 @@
         <v>11866</v>
       </c>
       <c r="T134" s="3">
-        <f t="shared" ref="T134:T165" si="86">F134/S134</f>
+        <f t="shared" ref="T134:T151" si="86">F134/S134</f>
         <v>2.0310129782572055E-2</v>
       </c>
       <c r="U134">
@@ -13902,7 +13902,7 @@
         <v>4</v>
       </c>
       <c r="AK150">
-        <f t="shared" ref="AK150" si="192">-(AH150-AH149)+AJ150</f>
+        <f t="shared" ref="AK150:AK154" si="192">-(AH150-AH149)+AJ150</f>
         <v>4</v>
       </c>
       <c r="AL150">
@@ -14030,8 +14030,383 @@
         <v>8</v>
       </c>
       <c r="AK151">
-        <f t="shared" ref="AK151" si="199">-(AH151-AH150)+AJ151</f>
+        <f t="shared" si="192"/>
         <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <f t="shared" si="14"/>
+        <v>44057</v>
+      </c>
+      <c r="B152">
+        <v>540974</v>
+      </c>
+      <c r="C152">
+        <v>50681</v>
+      </c>
+      <c r="D152">
+        <v>39788</v>
+      </c>
+      <c r="E152">
+        <v>964</v>
+      </c>
+      <c r="F152">
+        <v>258</v>
+      </c>
+      <c r="H152">
+        <v>75</v>
+      </c>
+      <c r="I152">
+        <v>31</v>
+      </c>
+      <c r="J152" s="7">
+        <f t="shared" ref="J152:J154" si="199">B152-C152</f>
+        <v>490293</v>
+      </c>
+      <c r="K152" s="4">
+        <f t="shared" ref="K152:K154" si="200">C152/B152</f>
+        <v>9.3684724219648269E-2</v>
+      </c>
+      <c r="N152">
+        <f t="shared" ref="N152:N154" si="201">C152-C151</f>
+        <v>678</v>
+      </c>
+      <c r="O152">
+        <f t="shared" ref="O152:O154" si="202">J152-J151</f>
+        <v>4411</v>
+      </c>
+      <c r="P152" s="8">
+        <f t="shared" ref="P152:P154" si="203">N152/R152</f>
+        <v>0.13322853212811947</v>
+      </c>
+      <c r="Q152" s="8">
+        <f t="shared" ref="Q152:Q154" si="204">SUM(N146:N152)/SUM(R146:R152)</f>
+        <v>9.697228425062393E-2</v>
+      </c>
+      <c r="R152">
+        <f t="shared" ref="R152:R154" si="205">B152-B151</f>
+        <v>5089</v>
+      </c>
+      <c r="S152">
+        <f t="shared" ref="S152:S154" si="206">C152-D152-E152</f>
+        <v>9929</v>
+      </c>
+      <c r="T152" s="3">
+        <f t="shared" ref="T152:T154" si="207">F152/S152</f>
+        <v>2.5984489878134755E-2</v>
+      </c>
+      <c r="U152">
+        <f t="shared" ref="U152:U154" si="208">E152-E151</f>
+        <v>10</v>
+      </c>
+      <c r="V152">
+        <v>235</v>
+      </c>
+      <c r="W152">
+        <v>132</v>
+      </c>
+      <c r="X152">
+        <v>3217</v>
+      </c>
+      <c r="Y152">
+        <v>127</v>
+      </c>
+      <c r="Z152">
+        <v>111</v>
+      </c>
+      <c r="AA152">
+        <v>2612</v>
+      </c>
+      <c r="AB152">
+        <v>7</v>
+      </c>
+      <c r="AC152">
+        <v>2</v>
+      </c>
+      <c r="AD152">
+        <v>66</v>
+      </c>
+      <c r="AE152">
+        <f t="shared" ref="AE152:AE154" si="209">V152-Y152-AB152</f>
+        <v>101</v>
+      </c>
+      <c r="AF152">
+        <f t="shared" ref="AF152:AF154" si="210">W152-Z152-AC152</f>
+        <v>19</v>
+      </c>
+      <c r="AG152">
+        <f t="shared" ref="AG152:AG154" si="211">X152-AA152-AD152</f>
+        <v>539</v>
+      </c>
+      <c r="AH152">
+        <v>61</v>
+      </c>
+      <c r="AI152">
+        <v>18</v>
+      </c>
+      <c r="AJ152">
+        <v>12</v>
+      </c>
+      <c r="AK152">
+        <f t="shared" si="192"/>
+        <v>4</v>
+      </c>
+      <c r="AL152">
+        <v>17</v>
+      </c>
+      <c r="AM152">
+        <v>18</v>
+      </c>
+      <c r="AN152">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <f t="shared" ref="A153:A154" si="212">A152+1</f>
+        <v>44058</v>
+      </c>
+      <c r="B153">
+        <v>552417</v>
+      </c>
+      <c r="C153">
+        <v>51648</v>
+      </c>
+      <c r="D153">
+        <v>40359</v>
+      </c>
+      <c r="E153">
+        <v>972</v>
+      </c>
+      <c r="F153">
+        <v>261</v>
+      </c>
+      <c r="H153">
+        <v>82</v>
+      </c>
+      <c r="I153">
+        <v>33</v>
+      </c>
+      <c r="J153" s="7">
+        <f t="shared" si="199"/>
+        <v>500769</v>
+      </c>
+      <c r="K153" s="4">
+        <f t="shared" si="200"/>
+        <v>9.3494588327296221E-2</v>
+      </c>
+      <c r="N153">
+        <f t="shared" si="201"/>
+        <v>967</v>
+      </c>
+      <c r="O153">
+        <f t="shared" si="202"/>
+        <v>10476</v>
+      </c>
+      <c r="P153" s="8">
+        <f t="shared" si="203"/>
+        <v>8.4505811413090978E-2</v>
+      </c>
+      <c r="Q153" s="8">
+        <f t="shared" si="204"/>
+        <v>9.3135963757045775E-2</v>
+      </c>
+      <c r="R153">
+        <f t="shared" si="205"/>
+        <v>11443</v>
+      </c>
+      <c r="S153">
+        <f t="shared" si="206"/>
+        <v>10317</v>
+      </c>
+      <c r="T153" s="3">
+        <f t="shared" si="207"/>
+        <v>2.5298051759232335E-2</v>
+      </c>
+      <c r="U153">
+        <f t="shared" si="208"/>
+        <v>8</v>
+      </c>
+      <c r="V153">
+        <v>242</v>
+      </c>
+      <c r="W153">
+        <v>134</v>
+      </c>
+      <c r="X153">
+        <v>3265</v>
+      </c>
+      <c r="Y153">
+        <v>132</v>
+      </c>
+      <c r="Z153">
+        <v>114</v>
+      </c>
+      <c r="AA153">
+        <v>2648</v>
+      </c>
+      <c r="AB153">
+        <v>7</v>
+      </c>
+      <c r="AC153">
+        <v>2</v>
+      </c>
+      <c r="AD153">
+        <v>66</v>
+      </c>
+      <c r="AE153">
+        <f t="shared" si="209"/>
+        <v>103</v>
+      </c>
+      <c r="AF153">
+        <f t="shared" si="210"/>
+        <v>18</v>
+      </c>
+      <c r="AG153">
+        <f t="shared" si="211"/>
+        <v>551</v>
+      </c>
+      <c r="AH153">
+        <v>64</v>
+      </c>
+      <c r="AI153">
+        <v>21</v>
+      </c>
+      <c r="AJ153">
+        <v>11</v>
+      </c>
+      <c r="AK153">
+        <f t="shared" si="192"/>
+        <v>8</v>
+      </c>
+      <c r="AL153">
+        <v>17</v>
+      </c>
+      <c r="AM153">
+        <v>18</v>
+      </c>
+      <c r="AN153">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <f t="shared" si="212"/>
+        <v>44059</v>
+      </c>
+      <c r="B154">
+        <v>558674</v>
+      </c>
+      <c r="C154">
+        <v>52221</v>
+      </c>
+      <c r="D154">
+        <v>40489</v>
+      </c>
+      <c r="E154">
+        <v>975</v>
+      </c>
+      <c r="F154">
+        <v>271</v>
+      </c>
+      <c r="H154">
+        <v>80</v>
+      </c>
+      <c r="I154">
+        <v>43</v>
+      </c>
+      <c r="J154" s="7">
+        <f t="shared" si="199"/>
+        <v>506453</v>
+      </c>
+      <c r="K154" s="4">
+        <f t="shared" si="200"/>
+        <v>9.3473116701332085E-2</v>
+      </c>
+      <c r="N154">
+        <f t="shared" si="201"/>
+        <v>573</v>
+      </c>
+      <c r="O154">
+        <f t="shared" si="202"/>
+        <v>5684</v>
+      </c>
+      <c r="P154" s="8">
+        <f t="shared" si="203"/>
+        <v>9.1577433274732306E-2</v>
+      </c>
+      <c r="Q154" s="8">
+        <f t="shared" si="204"/>
+        <v>9.3558940255282635E-2</v>
+      </c>
+      <c r="R154">
+        <f t="shared" si="205"/>
+        <v>6257</v>
+      </c>
+      <c r="S154">
+        <f t="shared" si="206"/>
+        <v>10757</v>
+      </c>
+      <c r="T154" s="3">
+        <f t="shared" si="207"/>
+        <v>2.5192897648043135E-2</v>
+      </c>
+      <c r="U154">
+        <f t="shared" si="208"/>
+        <v>3</v>
+      </c>
+      <c r="V154">
+        <v>243</v>
+      </c>
+      <c r="W154">
+        <v>138</v>
+      </c>
+      <c r="X154">
+        <v>3285</v>
+      </c>
+      <c r="Y154">
+        <v>133</v>
+      </c>
+      <c r="Z154">
+        <v>116</v>
+      </c>
+      <c r="AA154">
+        <v>2651</v>
+      </c>
+      <c r="AB154">
+        <v>7</v>
+      </c>
+      <c r="AC154">
+        <v>2</v>
+      </c>
+      <c r="AD154">
+        <v>66</v>
+      </c>
+      <c r="AE154">
+        <f t="shared" si="209"/>
+        <v>103</v>
+      </c>
+      <c r="AF154">
+        <f t="shared" si="210"/>
+        <v>20</v>
+      </c>
+      <c r="AG154">
+        <f t="shared" si="211"/>
+        <v>568</v>
+      </c>
+      <c r="AH154">
+        <v>62</v>
+      </c>
+      <c r="AI154">
+        <v>19</v>
+      </c>
+      <c r="AJ154">
+        <v>13</v>
+      </c>
+      <c r="AK154">
+        <f t="shared" si="192"/>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2019-2020\Winter 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8AFADD-570A-4BD0-A62D-667664ECDF6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AD17A0D-F25E-43D9-A4C6-CA9D5D4EDA63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1091,13 +1091,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AS154"/>
+  <dimension ref="A1:AS155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AB142" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U142" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM150" sqref="AM150"/>
+      <selection pane="bottomRight" activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14061,11 +14061,11 @@
         <v>31</v>
       </c>
       <c r="J152" s="7">
-        <f t="shared" ref="J152:J154" si="199">B152-C152</f>
+        <f t="shared" ref="J152:J155" si="199">B152-C152</f>
         <v>490293</v>
       </c>
       <c r="K152" s="4">
-        <f t="shared" ref="K152:K154" si="200">C152/B152</f>
+        <f t="shared" ref="K152:K155" si="200">C152/B152</f>
         <v>9.3684724219648269E-2</v>
       </c>
       <c r="N152">
@@ -14089,11 +14089,11 @@
         <v>5089</v>
       </c>
       <c r="S152">
-        <f t="shared" ref="S152:S154" si="206">C152-D152-E152</f>
+        <f t="shared" ref="S152:S155" si="206">C152-D152-E152</f>
         <v>9929</v>
       </c>
       <c r="T152" s="3">
-        <f t="shared" ref="T152:T154" si="207">F152/S152</f>
+        <f t="shared" ref="T152:T155" si="207">F152/S152</f>
         <v>2.5984489878134755E-2</v>
       </c>
       <c r="U152">
@@ -14164,7 +14164,7 @@
     </row>
     <row r="153" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <f t="shared" ref="A153:A154" si="212">A152+1</f>
+        <f t="shared" ref="A153:A155" si="212">A152+1</f>
         <v>44058</v>
       </c>
       <c r="B153">
@@ -14407,6 +14407,125 @@
       <c r="AK154">
         <f t="shared" si="192"/>
         <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <f t="shared" si="212"/>
+        <v>44060</v>
+      </c>
+      <c r="B155">
+        <v>561218</v>
+      </c>
+      <c r="C155">
+        <v>52611</v>
+      </c>
+      <c r="D155">
+        <v>40636</v>
+      </c>
+      <c r="E155">
+        <v>975</v>
+      </c>
+      <c r="F155">
+        <v>283</v>
+      </c>
+      <c r="H155">
+        <v>85</v>
+      </c>
+      <c r="I155">
+        <v>31</v>
+      </c>
+      <c r="J155" s="7">
+        <f t="shared" si="199"/>
+        <v>508607</v>
+      </c>
+      <c r="K155" s="4">
+        <f t="shared" si="200"/>
+        <v>9.3744320388868499E-2</v>
+      </c>
+      <c r="N155">
+        <f t="shared" ref="N155" si="213">C155-C154</f>
+        <v>390</v>
+      </c>
+      <c r="O155">
+        <f t="shared" ref="O155" si="214">J155-J154</f>
+        <v>2154</v>
+      </c>
+      <c r="P155" s="8">
+        <f t="shared" ref="P155" si="215">N155/R155</f>
+        <v>0.15330188679245282</v>
+      </c>
+      <c r="Q155" s="8">
+        <f t="shared" ref="Q155" si="216">SUM(N149:N155)/SUM(R149:R155)</f>
+        <v>9.6835612764816309E-2</v>
+      </c>
+      <c r="R155">
+        <f t="shared" ref="R155" si="217">B155-B154</f>
+        <v>2544</v>
+      </c>
+      <c r="S155">
+        <f t="shared" ref="S155" si="218">C155-D155-E155</f>
+        <v>11000</v>
+      </c>
+      <c r="T155" s="3">
+        <f t="shared" ref="T155" si="219">F155/S155</f>
+        <v>2.5727272727272727E-2</v>
+      </c>
+      <c r="U155">
+        <f t="shared" ref="U155" si="220">E155-E154</f>
+        <v>0</v>
+      </c>
+      <c r="V155">
+        <v>244</v>
+      </c>
+      <c r="W155">
+        <v>140</v>
+      </c>
+      <c r="X155">
+        <v>3309</v>
+      </c>
+      <c r="Y155">
+        <v>133</v>
+      </c>
+      <c r="Z155">
+        <v>116</v>
+      </c>
+      <c r="AA155">
+        <v>2656</v>
+      </c>
+      <c r="AB155">
+        <v>7</v>
+      </c>
+      <c r="AC155">
+        <v>2</v>
+      </c>
+      <c r="AD155">
+        <v>66</v>
+      </c>
+      <c r="AE155">
+        <f t="shared" ref="AE155" si="221">V155-Y155-AB155</f>
+        <v>104</v>
+      </c>
+      <c r="AF155">
+        <f t="shared" ref="AF155" si="222">W155-Z155-AC155</f>
+        <v>22</v>
+      </c>
+      <c r="AG155">
+        <f t="shared" ref="AG155" si="223">X155-AA155-AD155</f>
+        <v>587</v>
+      </c>
+      <c r="AH155">
+        <v>62</v>
+      </c>
+      <c r="AI155">
+        <v>20</v>
+      </c>
+      <c r="AJ155">
+        <v>5</v>
+      </c>
+      <c r="AK155">
+        <f t="shared" ref="AK155" si="224">-(AH155-AH154)+AJ155</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2019-2020\Winter 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BC5B87-5688-48AD-9A0D-FCD19028D804}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E914755E-A0BB-48BB-92C0-1CA7D10CE060}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1091,13 +1091,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AS171"/>
+  <dimension ref="A1:AS173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X154" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AA154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI171" sqref="AI171"/>
+      <selection pane="bottomRight" activeCell="AL173" sqref="AL173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10700,11 +10700,11 @@
         <v>879</v>
       </c>
       <c r="R123">
-        <f t="shared" ref="R123" si="25">M123-M122</f>
+        <f t="shared" ref="R123:R154" si="25">M123-M122</f>
         <v>9221</v>
       </c>
       <c r="S123" s="8">
-        <f t="shared" ref="S123" si="26">Q123/U123</f>
+        <f t="shared" ref="S123:S154" si="26">Q123/U123</f>
         <v>8.7029702970297024E-2</v>
       </c>
       <c r="T123" s="8">
@@ -10755,15 +10755,15 @@
         <v>60</v>
       </c>
       <c r="AH123">
-        <f t="shared" ref="AH123" si="27">Y123-AB123-AE123</f>
+        <f t="shared" ref="AH123:AH154" si="27">Y123-AB123-AE123</f>
         <v>45</v>
       </c>
       <c r="AI123">
-        <f t="shared" ref="AI123" si="28">Z123-AC123-AF123</f>
+        <f t="shared" ref="AI123:AI154" si="28">Z123-AC123-AF123</f>
         <v>17</v>
       </c>
       <c r="AJ123">
-        <f t="shared" ref="AJ123" si="29">AA123-AD123-AG123</f>
+        <f t="shared" ref="AJ123:AJ154" si="29">AA123-AD123-AG123</f>
         <v>668</v>
       </c>
     </row>
@@ -10803,11 +10803,11 @@
         <v>287</v>
       </c>
       <c r="R124">
-        <f t="shared" ref="R124" si="30">M124-M123</f>
+        <f t="shared" si="25"/>
         <v>427</v>
       </c>
       <c r="S124" s="8">
-        <f t="shared" ref="S124" si="31">Q124/U124</f>
+        <f t="shared" si="26"/>
         <v>0.40196078431372551</v>
       </c>
       <c r="T124" s="8">
@@ -10858,15 +10858,15 @@
         <v>60</v>
       </c>
       <c r="AH124">
-        <f t="shared" ref="AH124" si="32">Y124-AB124-AE124</f>
+        <f t="shared" si="27"/>
         <v>45</v>
       </c>
       <c r="AI124">
-        <f t="shared" ref="AI124" si="33">Z124-AC124-AF124</f>
+        <f t="shared" si="28"/>
         <v>19</v>
       </c>
       <c r="AJ124">
-        <f t="shared" ref="AJ124" si="34">AA124-AD124-AG124</f>
+        <f t="shared" si="29"/>
         <v>669</v>
       </c>
     </row>
@@ -10906,11 +10906,11 @@
         <v>661</v>
       </c>
       <c r="R125">
-        <f t="shared" ref="R125" si="35">M125-M124</f>
+        <f t="shared" si="25"/>
         <v>10110</v>
       </c>
       <c r="S125" s="8">
-        <f t="shared" ref="S125" si="36">Q125/U125</f>
+        <f t="shared" si="26"/>
         <v>6.1368489462445455E-2</v>
       </c>
       <c r="T125" s="8">
@@ -10961,15 +10961,15 @@
         <v>60</v>
       </c>
       <c r="AH125">
-        <f t="shared" ref="AH125" si="37">Y125-AB125-AE125</f>
+        <f t="shared" si="27"/>
         <v>49</v>
       </c>
       <c r="AI125">
-        <f t="shared" ref="AI125" si="38">Z125-AC125-AF125</f>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="AJ125">
-        <f t="shared" ref="AJ125" si="39">AA125-AD125-AG125</f>
+        <f t="shared" si="29"/>
         <v>693</v>
       </c>
     </row>
@@ -11009,15 +11009,15 @@
         <v>343</v>
       </c>
       <c r="R126">
-        <f t="shared" ref="R126" si="40">M126-M125</f>
+        <f t="shared" si="25"/>
         <v>4427</v>
       </c>
       <c r="S126" s="8">
-        <f t="shared" ref="S126" si="41">Q126/U126</f>
+        <f t="shared" si="26"/>
         <v>7.1907756813417184E-2</v>
       </c>
       <c r="T126" s="8">
-        <f t="shared" ref="T126:T133" si="42">SUM(Q120:Q126)/SUM(U120:U126)</f>
+        <f t="shared" ref="T126:T133" si="30">SUM(Q120:Q126)/SUM(U120:U126)</f>
         <v>8.1735039247221489E-2</v>
       </c>
       <c r="U126">
@@ -11064,15 +11064,15 @@
         <v>60</v>
       </c>
       <c r="AH126">
-        <f t="shared" ref="AH126" si="43">Y126-AB126-AE126</f>
+        <f t="shared" si="27"/>
         <v>49</v>
       </c>
       <c r="AI126">
-        <f t="shared" ref="AI126" si="44">Z126-AC126-AF126</f>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="AJ126">
-        <f t="shared" ref="AJ126" si="45">AA126-AD126-AG126</f>
+        <f t="shared" si="29"/>
         <v>702</v>
       </c>
     </row>
@@ -11124,15 +11124,15 @@
         <v>512</v>
       </c>
       <c r="R127">
-        <f t="shared" ref="R127" si="46">M127-M126</f>
+        <f t="shared" si="25"/>
         <v>3442</v>
       </c>
       <c r="S127" s="8">
-        <f t="shared" ref="S127" si="47">Q127/U127</f>
+        <f t="shared" si="26"/>
         <v>0.12948912493677289</v>
       </c>
       <c r="T127" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="30"/>
         <v>8.5611373503172564E-2</v>
       </c>
       <c r="U127">
@@ -11179,15 +11179,15 @@
         <v>60</v>
       </c>
       <c r="AH127">
-        <f t="shared" ref="AH127" si="48">Y127-AB127-AE127</f>
+        <f t="shared" si="27"/>
         <v>54</v>
       </c>
       <c r="AI127">
-        <f t="shared" ref="AI127" si="49">Z127-AC127-AF127</f>
+        <f t="shared" si="28"/>
         <v>17</v>
       </c>
       <c r="AJ127">
-        <f t="shared" ref="AJ127" si="50">AA127-AD127-AG127</f>
+        <f t="shared" si="29"/>
         <v>713</v>
       </c>
     </row>
@@ -11239,15 +11239,15 @@
         <v>374</v>
       </c>
       <c r="R128">
-        <f t="shared" ref="R128" si="51">M128-M127</f>
+        <f t="shared" si="25"/>
         <v>4313</v>
       </c>
       <c r="S128" s="8">
-        <f t="shared" ref="S128" si="52">Q128/U128</f>
+        <f t="shared" si="26"/>
         <v>7.9795178152336249E-2</v>
       </c>
       <c r="T128" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="30"/>
         <v>8.7082493104327474E-2</v>
       </c>
       <c r="U128">
@@ -11294,19 +11294,19 @@
         <v>61</v>
       </c>
       <c r="AH128">
-        <f t="shared" ref="AH128" si="53">Y128-AB128-AE128</f>
+        <f t="shared" si="27"/>
         <v>57</v>
       </c>
       <c r="AI128">
-        <f t="shared" ref="AI128" si="54">Z128-AC128-AF128</f>
+        <f t="shared" si="28"/>
         <v>18</v>
       </c>
       <c r="AJ128">
-        <f t="shared" ref="AJ128" si="55">AA128-AD128-AG128</f>
+        <f t="shared" si="29"/>
         <v>712</v>
       </c>
       <c r="AK128">
-        <f t="shared" ref="AK128:AK169" si="56">-(J128-J127)+L128</f>
+        <f t="shared" ref="AK128:AK169" si="31">-(J128-J127)+L128</f>
         <v>2</v>
       </c>
     </row>
@@ -11358,15 +11358,15 @@
         <v>716</v>
       </c>
       <c r="R129">
-        <f t="shared" ref="R129" si="57">M129-M128</f>
+        <f t="shared" si="25"/>
         <v>8110</v>
       </c>
       <c r="S129" s="8">
-        <f t="shared" ref="S129" si="58">Q129/U129</f>
+        <f t="shared" si="26"/>
         <v>8.1123951960117832E-2</v>
       </c>
       <c r="T129" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="30"/>
         <v>8.607548719821094E-2</v>
       </c>
       <c r="U129">
@@ -11413,19 +11413,19 @@
         <v>61</v>
       </c>
       <c r="AH129">
-        <f t="shared" ref="AH129" si="59">Y129-AB129-AE129</f>
+        <f t="shared" si="27"/>
         <v>65</v>
       </c>
       <c r="AI129">
-        <f t="shared" ref="AI129" si="60">Z129-AC129-AF129</f>
+        <f t="shared" si="28"/>
         <v>19</v>
       </c>
       <c r="AJ129">
-        <f t="shared" ref="AJ129" si="61">AA129-AD129-AG129</f>
+        <f t="shared" si="29"/>
         <v>740</v>
       </c>
       <c r="AK129">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
     </row>
@@ -11477,15 +11477,15 @@
         <v>451</v>
       </c>
       <c r="R130">
-        <f t="shared" ref="R130" si="62">M130-M129</f>
+        <f t="shared" si="25"/>
         <v>4071</v>
       </c>
       <c r="S130" s="8">
-        <f t="shared" ref="S130" si="63">Q130/U130</f>
+        <f t="shared" si="26"/>
         <v>9.9734630694383014E-2</v>
       </c>
       <c r="T130" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="30"/>
         <v>8.7438552452672319E-2</v>
       </c>
       <c r="U130">
@@ -11532,19 +11532,19 @@
         <v>61</v>
       </c>
       <c r="AH130">
-        <f t="shared" ref="AH130" si="64">Y130-AB130-AE130</f>
+        <f t="shared" si="27"/>
         <v>68</v>
       </c>
       <c r="AI130">
-        <f t="shared" ref="AI130" si="65">Z130-AC130-AF130</f>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="AJ130">
-        <f t="shared" ref="AJ130" si="66">AA130-AD130-AG130</f>
+        <f t="shared" si="29"/>
         <v>744</v>
       </c>
       <c r="AK130">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>9</v>
       </c>
     </row>
@@ -11596,15 +11596,15 @@
         <v>668</v>
       </c>
       <c r="R131">
-        <f t="shared" ref="R131" si="67">M131-M130</f>
+        <f t="shared" si="25"/>
         <v>5327</v>
       </c>
       <c r="S131" s="8">
-        <f t="shared" ref="S131" si="68">Q131/U131</f>
+        <f t="shared" si="26"/>
         <v>0.11142618849040867</v>
       </c>
       <c r="T131" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="30"/>
         <v>8.5582998276852382E-2</v>
       </c>
       <c r="U131">
@@ -11651,19 +11651,19 @@
         <v>61</v>
       </c>
       <c r="AH131">
-        <f t="shared" ref="AH131" si="69">Y131-AB131-AE131</f>
+        <f t="shared" si="27"/>
         <v>77</v>
       </c>
       <c r="AI131">
-        <f t="shared" ref="AI131" si="70">Z131-AC131-AF131</f>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="AJ131">
-        <f t="shared" ref="AJ131" si="71">AA131-AD131-AG131</f>
+        <f t="shared" si="29"/>
         <v>744</v>
       </c>
       <c r="AK131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
     </row>
@@ -11715,15 +11715,15 @@
         <v>388</v>
       </c>
       <c r="R132">
-        <f t="shared" ref="R132" si="72">M132-M131</f>
+        <f t="shared" si="25"/>
         <v>3698</v>
       </c>
       <c r="S132" s="8">
-        <f t="shared" ref="S132" si="73">Q132/U132</f>
+        <f t="shared" si="26"/>
         <v>9.4958394517865877E-2</v>
       </c>
       <c r="T132" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="30"/>
         <v>9.3702497285559169E-2</v>
       </c>
       <c r="U132">
@@ -11770,19 +11770,19 @@
         <v>61</v>
       </c>
       <c r="AH132">
-        <f t="shared" ref="AH132" si="74">Y132-AB132-AE132</f>
+        <f t="shared" si="27"/>
         <v>80</v>
       </c>
       <c r="AI132">
-        <f t="shared" ref="AI132" si="75">Z132-AC132-AF132</f>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="AJ132">
-        <f t="shared" ref="AJ132" si="76">AA132-AD132-AG132</f>
+        <f t="shared" si="29"/>
         <v>758</v>
       </c>
       <c r="AK132">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
     </row>
@@ -11822,43 +11822,43 @@
         <v>7</v>
       </c>
       <c r="M133" s="7">
-        <f t="shared" ref="M133:M150" si="77">B133-C133</f>
+        <f t="shared" ref="M133:M150" si="32">B133-C133</f>
         <v>413315</v>
       </c>
       <c r="N133" s="4">
-        <f t="shared" ref="N133:N150" si="78">C133/B133</f>
+        <f t="shared" ref="N133:N150" si="33">C133/B133</f>
         <v>9.3084388583766511E-2</v>
       </c>
       <c r="Q133">
-        <f t="shared" ref="Q133:Q150" si="79">C133-C132</f>
+        <f t="shared" ref="Q133:Q150" si="34">C133-C132</f>
         <v>406</v>
       </c>
       <c r="R133">
-        <f t="shared" ref="R133" si="80">M133-M132</f>
+        <f t="shared" si="25"/>
         <v>3994</v>
       </c>
       <c r="S133" s="8">
-        <f t="shared" ref="S133" si="81">Q133/U133</f>
+        <f t="shared" si="26"/>
         <v>9.227272727272727E-2</v>
       </c>
       <c r="T133" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="30"/>
         <v>9.6380586783657796E-2</v>
       </c>
       <c r="U133">
-        <f t="shared" ref="U133:U150" si="82">B133-B132</f>
+        <f t="shared" ref="U133:U150" si="35">B133-B132</f>
         <v>4400</v>
       </c>
       <c r="V133">
-        <f t="shared" ref="V133:V150" si="83">C133-D133-E133</f>
+        <f t="shared" ref="V133:V150" si="36">C133-D133-E133</f>
         <v>11866</v>
       </c>
       <c r="W133" s="3">
-        <f t="shared" ref="W133:W150" si="84">F133/V133</f>
+        <f t="shared" ref="W133:W150" si="37">F133/V133</f>
         <v>2.0310129782572055E-2</v>
       </c>
       <c r="X133">
-        <f t="shared" ref="X133:X150" si="85">E133-E132</f>
+        <f t="shared" ref="X133:X150" si="38">E133-E132</f>
         <v>3</v>
       </c>
       <c r="Y133">
@@ -11889,19 +11889,19 @@
         <v>61</v>
       </c>
       <c r="AH133">
-        <f t="shared" ref="AH133" si="86">Y133-AB133-AE133</f>
+        <f t="shared" si="27"/>
         <v>78</v>
       </c>
       <c r="AI133">
-        <f t="shared" ref="AI133" si="87">Z133-AC133-AF133</f>
+        <f t="shared" si="28"/>
         <v>17</v>
       </c>
       <c r="AJ133">
-        <f t="shared" ref="AJ133" si="88">AA133-AD133-AG133</f>
+        <f t="shared" si="29"/>
         <v>764</v>
       </c>
       <c r="AK133">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
     </row>
@@ -11941,43 +11941,43 @@
         <v>5</v>
       </c>
       <c r="M134" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="32"/>
         <v>416054</v>
       </c>
       <c r="N134" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="33"/>
         <v>9.3153324382290889E-2</v>
       </c>
       <c r="Q134">
-        <f t="shared" si="79"/>
+        <f t="shared" si="34"/>
         <v>316</v>
       </c>
       <c r="R134">
-        <f t="shared" ref="R134" si="89">M134-M133</f>
+        <f t="shared" si="25"/>
         <v>2739</v>
       </c>
       <c r="S134" s="8">
-        <f t="shared" ref="S134" si="90">Q134/U134</f>
+        <f t="shared" si="26"/>
         <v>0.10343698854337152</v>
       </c>
       <c r="T134" s="8">
-        <f t="shared" ref="T134" si="91">SUM(Q128:Q134)/SUM(U128:U134)</f>
+        <f t="shared" ref="T134:T172" si="39">SUM(Q128:Q134)/SUM(U128:U134)</f>
         <v>9.3306345056366147E-2</v>
       </c>
       <c r="U134">
-        <f t="shared" si="82"/>
+        <f t="shared" si="35"/>
         <v>3055</v>
       </c>
       <c r="V134">
-        <f t="shared" si="83"/>
+        <f t="shared" si="36"/>
         <v>11426</v>
       </c>
       <c r="W134" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="37"/>
         <v>2.2142482058463153E-2</v>
       </c>
       <c r="X134">
-        <f t="shared" si="85"/>
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="Y134">
@@ -12008,19 +12008,19 @@
         <v>62</v>
       </c>
       <c r="AH134">
-        <f t="shared" ref="AH134" si="92">Y134-AB134-AE134</f>
+        <f t="shared" si="27"/>
         <v>80</v>
       </c>
       <c r="AI134">
-        <f t="shared" ref="AI134" si="93">Z134-AC134-AF134</f>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="AJ134">
-        <f t="shared" ref="AJ134" si="94">AA134-AD134-AG134</f>
+        <f t="shared" si="29"/>
         <v>770</v>
       </c>
       <c r="AK134">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>9</v>
       </c>
     </row>
@@ -12060,43 +12060,43 @@
         <v>5</v>
       </c>
       <c r="M135" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="32"/>
         <v>420769</v>
       </c>
       <c r="N135" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="33"/>
         <v>9.3099895681561504E-2</v>
       </c>
       <c r="Q135">
-        <f t="shared" si="79"/>
+        <f t="shared" si="34"/>
         <v>457</v>
       </c>
       <c r="R135">
-        <f t="shared" ref="R135" si="95">M135-M134</f>
+        <f t="shared" si="25"/>
         <v>4715</v>
       </c>
       <c r="S135" s="8">
-        <f t="shared" ref="S135" si="96">Q135/U135</f>
+        <f t="shared" si="26"/>
         <v>8.8360402165506571E-2</v>
       </c>
       <c r="T135" s="8">
-        <f t="shared" ref="T135" si="97">SUM(Q129:Q135)/SUM(U129:U135)</f>
+        <f t="shared" si="39"/>
         <v>9.4353228311515422E-2</v>
       </c>
       <c r="U135">
-        <f t="shared" si="82"/>
+        <f t="shared" si="35"/>
         <v>5172</v>
       </c>
       <c r="V135">
-        <f t="shared" si="83"/>
+        <f t="shared" si="36"/>
         <v>11137</v>
       </c>
       <c r="W135" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="37"/>
         <v>2.2088533716440692E-2</v>
       </c>
       <c r="X135">
-        <f t="shared" si="85"/>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="Y135">
@@ -12127,19 +12127,19 @@
         <v>62</v>
       </c>
       <c r="AH135">
-        <f t="shared" ref="AH135" si="98">Y135-AB135-AE135</f>
+        <f t="shared" si="27"/>
         <v>79</v>
       </c>
       <c r="AI135">
-        <f t="shared" ref="AI135" si="99">Z135-AC135-AF135</f>
+        <f t="shared" si="28"/>
         <v>17</v>
       </c>
       <c r="AJ135">
-        <f t="shared" ref="AJ135" si="100">AA135-AD135-AG135</f>
+        <f t="shared" si="29"/>
         <v>754</v>
       </c>
       <c r="AK135">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
     </row>
@@ -12179,43 +12179,43 @@
         <v>7</v>
       </c>
       <c r="M136" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="32"/>
         <v>425833</v>
       </c>
       <c r="N136" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="33"/>
         <v>9.3129143480214588E-2</v>
       </c>
       <c r="Q136">
-        <f t="shared" si="79"/>
+        <f t="shared" si="34"/>
         <v>535</v>
       </c>
       <c r="R136">
-        <f t="shared" ref="R136" si="101">M136-M135</f>
+        <f t="shared" si="25"/>
         <v>5064</v>
       </c>
       <c r="S136" s="8">
-        <f t="shared" ref="S136" si="102">Q136/U136</f>
+        <f t="shared" si="26"/>
         <v>9.5552777281657439E-2</v>
       </c>
       <c r="T136" s="8">
-        <f t="shared" ref="T136" si="103">SUM(Q130:Q136)/SUM(U130:U136)</f>
+        <f t="shared" si="39"/>
         <v>9.8114471960766392E-2</v>
       </c>
       <c r="U136">
-        <f t="shared" si="82"/>
+        <f t="shared" si="35"/>
         <v>5599</v>
       </c>
       <c r="V136">
-        <f t="shared" si="83"/>
+        <f t="shared" si="36"/>
         <v>11140</v>
       </c>
       <c r="W136" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="37"/>
         <v>2.1274685816876124E-2</v>
       </c>
       <c r="X136">
-        <f t="shared" si="85"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="Y136">
@@ -12246,19 +12246,19 @@
         <v>62</v>
       </c>
       <c r="AH136">
-        <f t="shared" ref="AH136" si="104">Y136-AB136-AE136</f>
+        <f t="shared" si="27"/>
         <v>80</v>
       </c>
       <c r="AI136">
-        <f t="shared" ref="AI136" si="105">Z136-AC136-AF136</f>
+        <f t="shared" si="28"/>
         <v>17</v>
       </c>
       <c r="AJ136">
-        <f t="shared" ref="AJ136" si="106">AA136-AD136-AG136</f>
+        <f t="shared" si="29"/>
         <v>714</v>
       </c>
       <c r="AK136">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>11</v>
       </c>
     </row>
@@ -12298,43 +12298,43 @@
         <v>5</v>
       </c>
       <c r="M137" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="32"/>
         <v>431023</v>
       </c>
       <c r="N137" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="33"/>
         <v>9.3531610083764982E-2</v>
       </c>
       <c r="Q137">
-        <f t="shared" si="79"/>
+        <f t="shared" si="34"/>
         <v>744</v>
       </c>
       <c r="R137">
-        <f t="shared" ref="R137" si="107">M137-M136</f>
+        <f t="shared" si="25"/>
         <v>5190</v>
       </c>
       <c r="S137" s="8">
-        <f t="shared" ref="S137" si="108">Q137/U137</f>
+        <f t="shared" si="26"/>
         <v>0.12537917087967643</v>
       </c>
       <c r="T137" s="8">
-        <f t="shared" ref="T137" si="109">SUM(Q131:Q137)/SUM(U131:U137)</f>
+        <f t="shared" si="39"/>
         <v>0.10262550743261004</v>
       </c>
       <c r="U137">
-        <f t="shared" si="82"/>
+        <f t="shared" si="35"/>
         <v>5934</v>
       </c>
       <c r="V137">
-        <f t="shared" si="83"/>
+        <f t="shared" si="36"/>
         <v>11114</v>
       </c>
       <c r="W137" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="37"/>
         <v>2.0244736368544177E-2</v>
       </c>
       <c r="X137">
-        <f t="shared" si="85"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="Y137">
@@ -12365,19 +12365,19 @@
         <v>62</v>
       </c>
       <c r="AH137">
-        <f t="shared" ref="AH137" si="110">Y137-AB137-AE137</f>
+        <f t="shared" si="27"/>
         <v>84</v>
       </c>
       <c r="AI137">
-        <f t="shared" ref="AI137" si="111">Z137-AC137-AF137</f>
+        <f t="shared" si="28"/>
         <v>21</v>
       </c>
       <c r="AJ137">
-        <f t="shared" ref="AJ137" si="112">AA137-AD137-AG137</f>
+        <f t="shared" si="29"/>
         <v>710</v>
       </c>
       <c r="AK137">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
     </row>
@@ -12417,43 +12417,43 @@
         <v>9</v>
       </c>
       <c r="M138" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="32"/>
         <v>435488</v>
       </c>
       <c r="N138" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="33"/>
         <v>9.353593172711662E-2</v>
       </c>
       <c r="Q138">
-        <f t="shared" si="79"/>
+        <f t="shared" si="34"/>
         <v>463</v>
       </c>
       <c r="R138">
-        <f t="shared" ref="R138:R140" si="113">M138-M137</f>
+        <f t="shared" si="25"/>
         <v>4465</v>
       </c>
       <c r="S138" s="8">
-        <f t="shared" ref="S138:S140" si="114">Q138/U138</f>
+        <f t="shared" si="26"/>
         <v>9.395292207792208E-2</v>
       </c>
       <c r="T138" s="8">
-        <f t="shared" ref="T138:T140" si="115">SUM(Q132:Q138)/SUM(U132:U138)</f>
+        <f t="shared" si="39"/>
         <v>9.9746789654548737E-2</v>
       </c>
       <c r="U138">
-        <f t="shared" si="82"/>
+        <f t="shared" si="35"/>
         <v>4928</v>
       </c>
       <c r="V138">
-        <f t="shared" si="83"/>
+        <f t="shared" si="36"/>
         <v>11263</v>
       </c>
       <c r="W138" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="37"/>
         <v>2.1486282517979224E-2</v>
       </c>
       <c r="X138">
-        <f t="shared" si="85"/>
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="Y138">
@@ -12484,19 +12484,19 @@
         <v>62</v>
       </c>
       <c r="AH138">
-        <f t="shared" ref="AH138:AH139" si="116">Y138-AB138-AE138</f>
+        <f t="shared" si="27"/>
         <v>85</v>
       </c>
       <c r="AI138">
-        <f t="shared" ref="AI138:AI139" si="117">Z138-AC138-AF138</f>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="AJ138">
-        <f t="shared" ref="AJ138:AJ139" si="118">AA138-AD138-AG138</f>
+        <f t="shared" si="29"/>
         <v>663</v>
       </c>
       <c r="AK138">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>9</v>
       </c>
     </row>
@@ -12536,43 +12536,43 @@
         <v>7</v>
       </c>
       <c r="M139" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="32"/>
         <v>440348</v>
       </c>
       <c r="N139" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="33"/>
         <v>9.3613377573956214E-2</v>
       </c>
       <c r="Q139">
-        <f t="shared" si="79"/>
+        <f t="shared" si="34"/>
         <v>543</v>
       </c>
       <c r="R139">
-        <f t="shared" si="113"/>
+        <f t="shared" si="25"/>
         <v>4860</v>
       </c>
       <c r="S139" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="26"/>
         <v>0.10049972237645752</v>
       </c>
       <c r="T139" s="8">
-        <f t="shared" si="115"/>
+        <f t="shared" si="39"/>
         <v>0.10043199675277609</v>
       </c>
       <c r="U139">
-        <f t="shared" si="82"/>
+        <f t="shared" si="35"/>
         <v>5403</v>
       </c>
       <c r="V139">
-        <f t="shared" si="83"/>
+        <f t="shared" si="36"/>
         <v>11689</v>
       </c>
       <c r="W139" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="37"/>
         <v>1.9762169561125843E-2</v>
       </c>
       <c r="X139">
-        <f t="shared" si="85"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="Y139">
@@ -12603,19 +12603,19 @@
         <v>62</v>
       </c>
       <c r="AH139">
-        <f t="shared" si="116"/>
+        <f t="shared" si="27"/>
         <v>89</v>
       </c>
       <c r="AI139">
-        <f t="shared" si="117"/>
+        <f t="shared" si="28"/>
         <v>17</v>
       </c>
       <c r="AJ139">
-        <f t="shared" si="118"/>
+        <f t="shared" si="29"/>
         <v>672</v>
       </c>
       <c r="AK139">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
     </row>
@@ -12655,43 +12655,43 @@
         <v>7</v>
       </c>
       <c r="M140" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="32"/>
         <v>442356</v>
       </c>
       <c r="N140" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="33"/>
         <v>9.3789051456760184E-2</v>
       </c>
       <c r="Q140">
-        <f t="shared" si="79"/>
+        <f t="shared" si="34"/>
         <v>302</v>
       </c>
       <c r="R140">
-        <f t="shared" si="113"/>
+        <f t="shared" si="25"/>
         <v>2008</v>
       </c>
       <c r="S140" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="26"/>
         <v>0.13073593073593073</v>
       </c>
       <c r="T140" s="8">
-        <f t="shared" si="115"/>
+        <f t="shared" si="39"/>
         <v>0.10370050307089287</v>
       </c>
       <c r="U140">
-        <f t="shared" si="82"/>
+        <f t="shared" si="35"/>
         <v>2310</v>
       </c>
       <c r="V140">
-        <f t="shared" si="83"/>
+        <f t="shared" si="36"/>
         <v>11802</v>
       </c>
       <c r="W140" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="37"/>
         <v>2.0420267751228606E-2</v>
       </c>
       <c r="X140">
-        <f t="shared" si="85"/>
+        <f t="shared" si="38"/>
         <v>4</v>
       </c>
       <c r="Y140">
@@ -12722,19 +12722,19 @@
         <v>62</v>
       </c>
       <c r="AH140">
-        <f t="shared" ref="AH140" si="119">Y140-AB140-AE140</f>
+        <f t="shared" si="27"/>
         <v>88</v>
       </c>
       <c r="AI140">
-        <f t="shared" ref="AI140" si="120">Z140-AC140-AF140</f>
+        <f t="shared" si="28"/>
         <v>17</v>
       </c>
       <c r="AJ140">
-        <f t="shared" ref="AJ140" si="121">AA140-AD140-AG140</f>
+        <f t="shared" si="29"/>
         <v>676</v>
       </c>
       <c r="AK140">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
     </row>
@@ -12774,43 +12774,43 @@
         <v>6</v>
       </c>
       <c r="M141" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="32"/>
         <v>445947</v>
       </c>
       <c r="N141" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="33"/>
         <v>9.3472838560036103E-2</v>
       </c>
       <c r="Q141">
-        <f t="shared" si="79"/>
+        <f t="shared" si="34"/>
         <v>200</v>
       </c>
       <c r="R141">
-        <f t="shared" ref="R141" si="122">M141-M140</f>
+        <f t="shared" si="25"/>
         <v>3591</v>
       </c>
       <c r="S141" s="8">
-        <f t="shared" ref="S141" si="123">Q141/U141</f>
+        <f t="shared" si="26"/>
         <v>5.2756528620416777E-2</v>
       </c>
       <c r="T141" s="8">
-        <f t="shared" ref="T141" si="124">SUM(Q135:Q141)/SUM(U135:U141)</f>
+        <f t="shared" si="39"/>
         <v>9.7896611039019824E-2</v>
       </c>
       <c r="U141">
-        <f t="shared" si="82"/>
+        <f t="shared" si="35"/>
         <v>3791</v>
       </c>
       <c r="V141">
-        <f t="shared" si="83"/>
+        <f t="shared" si="36"/>
         <v>11174</v>
       </c>
       <c r="W141" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="37"/>
         <v>2.1746912475389298E-2</v>
       </c>
       <c r="X141">
-        <f t="shared" si="85"/>
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="Y141">
@@ -12841,19 +12841,19 @@
         <v>62</v>
       </c>
       <c r="AH141">
-        <f t="shared" ref="AH141" si="125">Y141-AB141-AE141</f>
+        <f t="shared" si="27"/>
         <v>89</v>
       </c>
       <c r="AI141">
-        <f t="shared" ref="AI141" si="126">Z141-AC141-AF141</f>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="AJ141">
-        <f t="shared" ref="AJ141" si="127">AA141-AD141-AG141</f>
+        <f t="shared" si="29"/>
         <v>619</v>
       </c>
       <c r="AK141">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>12</v>
       </c>
     </row>
@@ -12893,43 +12893,43 @@
         <v>8</v>
       </c>
       <c r="M142" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="32"/>
         <v>450768</v>
       </c>
       <c r="N142" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="33"/>
         <v>9.335049680196307E-2</v>
       </c>
       <c r="Q142">
-        <f t="shared" si="79"/>
+        <f t="shared" si="34"/>
         <v>430</v>
       </c>
       <c r="R142">
-        <f t="shared" ref="R142" si="128">M142-M141</f>
+        <f t="shared" si="25"/>
         <v>4821</v>
       </c>
       <c r="S142" s="8">
-        <f t="shared" ref="S142" si="129">Q142/U142</f>
+        <f t="shared" si="26"/>
         <v>8.1889163968767859E-2</v>
       </c>
       <c r="T142" s="8">
-        <f t="shared" ref="T142" si="130">SUM(Q136:Q142)/SUM(U136:U142)</f>
+        <f t="shared" si="39"/>
         <v>9.6850915221579958E-2</v>
       </c>
       <c r="U142">
-        <f t="shared" si="82"/>
+        <f t="shared" si="35"/>
         <v>5251</v>
       </c>
       <c r="V142">
-        <f t="shared" si="83"/>
+        <f t="shared" si="36"/>
         <v>10860</v>
       </c>
       <c r="W142" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="37"/>
         <v>2.2836095764272559E-2</v>
       </c>
       <c r="X142">
-        <f t="shared" si="85"/>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="Y142">
@@ -12960,19 +12960,19 @@
         <v>62</v>
       </c>
       <c r="AH142">
-        <f t="shared" ref="AH142" si="131">Y142-AB142-AE142</f>
+        <f t="shared" si="27"/>
         <v>83</v>
       </c>
       <c r="AI142">
-        <f t="shared" ref="AI142" si="132">Z142-AC142-AF142</f>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="AJ142">
-        <f t="shared" ref="AJ142" si="133">AA142-AD142-AG142</f>
+        <f t="shared" si="29"/>
         <v>593</v>
       </c>
       <c r="AK142">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
     </row>
@@ -13012,43 +13012,43 @@
         <v>9</v>
       </c>
       <c r="M143" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="32"/>
         <v>456637</v>
       </c>
       <c r="N143" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="33"/>
         <v>9.335718554492442E-2</v>
       </c>
       <c r="Q143">
-        <f t="shared" si="79"/>
+        <f t="shared" si="34"/>
         <v>608</v>
       </c>
       <c r="R143">
-        <f t="shared" ref="R143" si="134">M143-M142</f>
+        <f t="shared" si="25"/>
         <v>5869</v>
       </c>
       <c r="S143" s="8">
-        <f t="shared" ref="S143" si="135">Q143/U143</f>
+        <f t="shared" si="26"/>
         <v>9.3870619113787246E-2</v>
       </c>
       <c r="T143" s="8">
-        <f t="shared" ref="T143" si="136">SUM(Q137:Q143)/SUM(U137:U143)</f>
+        <f t="shared" si="39"/>
         <v>9.6497917522144663E-2</v>
       </c>
       <c r="U143">
-        <f t="shared" si="82"/>
+        <f t="shared" si="35"/>
         <v>6477</v>
       </c>
       <c r="V143">
-        <f t="shared" si="83"/>
+        <f t="shared" si="36"/>
         <v>10646</v>
       </c>
       <c r="W143" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="37"/>
         <v>2.2261882397144467E-2</v>
       </c>
       <c r="X143">
-        <f t="shared" si="85"/>
+        <f t="shared" si="38"/>
         <v>13</v>
       </c>
       <c r="Y143">
@@ -13079,19 +13079,19 @@
         <v>62</v>
       </c>
       <c r="AH143">
-        <f t="shared" ref="AH143" si="137">Y143-AB143-AE143</f>
+        <f t="shared" si="27"/>
         <v>86</v>
       </c>
       <c r="AI143">
-        <f t="shared" ref="AI143" si="138">Z143-AC143-AF143</f>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="AJ143">
-        <f t="shared" ref="AJ143" si="139">AA143-AD143-AG143</f>
+        <f t="shared" si="29"/>
         <v>579</v>
       </c>
       <c r="AK143">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>7</v>
       </c>
     </row>
@@ -13131,43 +13131,43 @@
         <v>9</v>
       </c>
       <c r="M144" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="32"/>
         <v>462794</v>
       </c>
       <c r="N144" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="33"/>
         <v>9.3488625367760841E-2</v>
       </c>
       <c r="Q144">
-        <f t="shared" si="79"/>
+        <f t="shared" si="34"/>
         <v>708</v>
       </c>
       <c r="R144">
-        <f t="shared" ref="R144" si="140">M144-M143</f>
+        <f t="shared" si="25"/>
         <v>6157</v>
       </c>
       <c r="S144" s="8">
-        <f t="shared" ref="S144" si="141">Q144/U144</f>
+        <f t="shared" si="26"/>
         <v>0.10313182811361982</v>
       </c>
       <c r="T144" s="8">
-        <f t="shared" ref="T144" si="142">SUM(Q138:Q144)/SUM(U138:U144)</f>
+        <f t="shared" si="39"/>
         <v>9.2905067808708067E-2</v>
       </c>
       <c r="U144">
-        <f t="shared" si="82"/>
+        <f t="shared" si="35"/>
         <v>6865</v>
       </c>
       <c r="V144">
-        <f t="shared" si="83"/>
+        <f t="shared" si="36"/>
         <v>10568</v>
       </c>
       <c r="W144" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="37"/>
         <v>2.1101438304314914E-2</v>
       </c>
       <c r="X144">
-        <f t="shared" si="85"/>
+        <f t="shared" si="38"/>
         <v>6</v>
       </c>
       <c r="Y144">
@@ -13198,19 +13198,19 @@
         <v>63</v>
       </c>
       <c r="AH144">
-        <f t="shared" ref="AH144" si="143">Y144-AB144-AE144</f>
+        <f t="shared" si="27"/>
         <v>91</v>
       </c>
       <c r="AI144">
-        <f t="shared" ref="AI144" si="144">Z144-AC144-AF144</f>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="AJ144">
-        <f t="shared" ref="AJ144" si="145">AA144-AD144-AG144</f>
+        <f t="shared" si="29"/>
         <v>569</v>
       </c>
       <c r="AK144">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>12</v>
       </c>
     </row>
@@ -13250,43 +13250,43 @@
         <v>7</v>
       </c>
       <c r="M145" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="32"/>
         <v>466339</v>
       </c>
       <c r="N145" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="33"/>
         <v>9.3521054483322999E-2</v>
       </c>
       <c r="Q145">
-        <f t="shared" si="79"/>
+        <f t="shared" si="34"/>
         <v>384</v>
       </c>
       <c r="R145">
-        <f t="shared" ref="R145" si="146">M145-M144</f>
+        <f t="shared" si="25"/>
         <v>3545</v>
       </c>
       <c r="S145" s="8">
-        <f t="shared" ref="S145" si="147">Q145/U145</f>
+        <f t="shared" si="26"/>
         <v>9.7734792568083484E-2</v>
       </c>
       <c r="T145" s="8">
-        <f t="shared" ref="T145" si="148">SUM(Q139:Q145)/SUM(U139:U145)</f>
+        <f t="shared" si="39"/>
         <v>9.3310997472521015E-2</v>
       </c>
       <c r="U145">
-        <f t="shared" si="82"/>
+        <f t="shared" si="35"/>
         <v>3929</v>
       </c>
       <c r="V145">
-        <f t="shared" si="83"/>
+        <f t="shared" si="36"/>
         <v>10337</v>
       </c>
       <c r="W145" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="37"/>
         <v>2.2153429428267389E-2</v>
       </c>
       <c r="X145">
-        <f t="shared" si="85"/>
+        <f t="shared" si="38"/>
         <v>13</v>
       </c>
       <c r="Y145">
@@ -13317,19 +13317,19 @@
         <v>66</v>
       </c>
       <c r="AH145">
-        <f t="shared" ref="AH145" si="149">Y145-AB145-AE145</f>
+        <f t="shared" si="27"/>
         <v>97</v>
       </c>
       <c r="AI145">
-        <f t="shared" ref="AI145" si="150">Z145-AC145-AF145</f>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
       <c r="AJ145">
-        <f t="shared" ref="AJ145" si="151">AA145-AD145-AG145</f>
+        <f t="shared" si="29"/>
         <v>549</v>
       </c>
       <c r="AK145">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
     </row>
@@ -13369,43 +13369,43 @@
         <v>10</v>
       </c>
       <c r="M146" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="32"/>
         <v>472650</v>
       </c>
       <c r="N146" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="33"/>
         <v>9.3466978146541313E-2</v>
       </c>
       <c r="Q146">
-        <f t="shared" si="79"/>
+        <f t="shared" si="34"/>
         <v>620</v>
       </c>
       <c r="R146">
-        <f t="shared" ref="R146" si="152">M146-M145</f>
+        <f t="shared" si="25"/>
         <v>6311</v>
       </c>
       <c r="S146" s="8">
-        <f t="shared" ref="S146" si="153">Q146/U146</f>
+        <f t="shared" si="26"/>
         <v>8.9453181359111233E-2</v>
       </c>
       <c r="T146" s="8">
-        <f t="shared" ref="T146" si="154">SUM(Q140:Q146)/SUM(U140:U146)</f>
+        <f t="shared" si="39"/>
         <v>9.1466501659447599E-2</v>
       </c>
       <c r="U146">
-        <f t="shared" si="82"/>
+        <f t="shared" si="35"/>
         <v>6931</v>
       </c>
       <c r="V146">
-        <f t="shared" si="83"/>
+        <f t="shared" si="36"/>
         <v>10716</v>
       </c>
       <c r="W146" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="37"/>
         <v>2.0623366927958194E-2</v>
       </c>
       <c r="X146">
-        <f t="shared" si="85"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="Y146">
@@ -13436,19 +13436,19 @@
         <v>66</v>
       </c>
       <c r="AH146">
-        <f t="shared" ref="AH146" si="155">Y146-AB146-AE146</f>
+        <f t="shared" si="27"/>
         <v>108</v>
       </c>
       <c r="AI146">
-        <f t="shared" ref="AI146" si="156">Z146-AC146-AF146</f>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="AJ146">
-        <f t="shared" ref="AJ146" si="157">AA146-AD146-AG146</f>
+        <f t="shared" si="29"/>
         <v>563</v>
       </c>
       <c r="AK146">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>12</v>
       </c>
     </row>
@@ -13488,43 +13488,43 @@
         <v>7</v>
       </c>
       <c r="M147" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="32"/>
         <v>474928</v>
       </c>
       <c r="N147" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="33"/>
         <v>9.3524301048999101E-2</v>
       </c>
       <c r="Q147">
-        <f t="shared" si="79"/>
+        <f t="shared" si="34"/>
         <v>268</v>
       </c>
       <c r="R147">
-        <f t="shared" ref="R147" si="158">M147-M146</f>
+        <f t="shared" si="25"/>
         <v>2278</v>
       </c>
       <c r="S147" s="8">
-        <f t="shared" ref="S147" si="159">Q147/U147</f>
+        <f t="shared" si="26"/>
         <v>0.10526315789473684</v>
       </c>
       <c r="T147" s="8">
-        <f t="shared" ref="T147" si="160">SUM(Q141:Q147)/SUM(U141:U147)</f>
+        <f t="shared" si="39"/>
         <v>8.9913383626711377E-2</v>
       </c>
       <c r="U147">
-        <f t="shared" si="82"/>
+        <f t="shared" si="35"/>
         <v>2546</v>
       </c>
       <c r="V147">
-        <f t="shared" si="83"/>
+        <f t="shared" si="36"/>
         <v>10822</v>
       </c>
       <c r="W147" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="37"/>
         <v>2.0698576972833119E-2</v>
       </c>
       <c r="X147">
-        <f t="shared" si="85"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="Y147">
@@ -13555,19 +13555,19 @@
         <v>66</v>
       </c>
       <c r="AH147">
-        <f t="shared" ref="AH147" si="161">Y147-AB147-AE147</f>
+        <f t="shared" si="27"/>
         <v>106</v>
       </c>
       <c r="AI147">
-        <f t="shared" ref="AI147" si="162">Z147-AC147-AF147</f>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="AJ147">
-        <f t="shared" ref="AJ147" si="163">AA147-AD147-AG147</f>
+        <f t="shared" si="29"/>
         <v>559</v>
       </c>
       <c r="AK147">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>9</v>
       </c>
     </row>
@@ -13607,43 +13607,43 @@
         <v>10</v>
       </c>
       <c r="M148" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="32"/>
         <v>476429</v>
       </c>
       <c r="N148" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="33"/>
         <v>9.3540058562423783E-2</v>
       </c>
       <c r="Q148">
-        <f t="shared" si="79"/>
+        <f t="shared" si="34"/>
         <v>164</v>
       </c>
       <c r="R148">
-        <f t="shared" ref="R148" si="164">M148-M147</f>
+        <f t="shared" si="25"/>
         <v>1501</v>
       </c>
       <c r="S148" s="8">
-        <f t="shared" ref="S148" si="165">Q148/U148</f>
+        <f t="shared" si="26"/>
         <v>9.8498498498498496E-2</v>
       </c>
       <c r="T148" s="8">
-        <f t="shared" ref="T148" si="166">SUM(Q142:Q148)/SUM(U142:U148)</f>
+        <f t="shared" si="39"/>
         <v>9.452233840304182E-2</v>
       </c>
       <c r="U148">
-        <f t="shared" si="82"/>
+        <f t="shared" si="35"/>
         <v>1665</v>
       </c>
       <c r="V148">
-        <f t="shared" si="83"/>
+        <f t="shared" si="36"/>
         <v>10250</v>
       </c>
       <c r="W148" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="37"/>
         <v>2.3804878048780488E-2</v>
       </c>
       <c r="X148">
-        <f t="shared" si="85"/>
+        <f t="shared" si="38"/>
         <v>4</v>
       </c>
       <c r="Y148">
@@ -13674,19 +13674,19 @@
         <v>66</v>
       </c>
       <c r="AH148">
-        <f t="shared" ref="AH148" si="167">Y148-AB148-AE148</f>
+        <f t="shared" si="27"/>
         <v>104</v>
       </c>
       <c r="AI148">
-        <f t="shared" ref="AI148" si="168">Z148-AC148-AF148</f>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
       <c r="AJ148">
-        <f t="shared" ref="AJ148" si="169">AA148-AD148-AG148</f>
+        <f t="shared" si="29"/>
         <v>535</v>
       </c>
       <c r="AK148">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="AL148">
@@ -13735,43 +13735,43 @@
         <v>4</v>
       </c>
       <c r="M149" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="32"/>
         <v>480810</v>
       </c>
       <c r="N149" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="33"/>
         <v>9.3509147674997364E-2</v>
       </c>
       <c r="Q149">
-        <f t="shared" si="79"/>
+        <f t="shared" si="34"/>
         <v>434</v>
       </c>
       <c r="R149">
-        <f t="shared" ref="R149" si="170">M149-M148</f>
+        <f t="shared" si="25"/>
         <v>4381</v>
       </c>
       <c r="S149" s="8">
-        <f t="shared" ref="S149" si="171">Q149/U149</f>
+        <f t="shared" si="26"/>
         <v>9.0134994807891999E-2</v>
       </c>
       <c r="T149" s="8">
-        <f t="shared" ref="T149" si="172">SUM(Q143:Q149)/SUM(U143:U149)</f>
+        <f t="shared" si="39"/>
         <v>9.5882990249187436E-2</v>
       </c>
       <c r="U149">
-        <f t="shared" si="82"/>
+        <f t="shared" si="35"/>
         <v>4815</v>
       </c>
       <c r="V149">
-        <f t="shared" si="83"/>
+        <f t="shared" si="36"/>
         <v>10121</v>
       </c>
       <c r="W149" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="37"/>
         <v>2.4009485228732339E-2</v>
       </c>
       <c r="X149">
-        <f t="shared" si="85"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="Y149">
@@ -13802,19 +13802,19 @@
         <v>66</v>
       </c>
       <c r="AH149">
-        <f t="shared" ref="AH149" si="173">Y149-AB149-AE149</f>
+        <f t="shared" si="27"/>
         <v>103</v>
       </c>
       <c r="AI149">
-        <f t="shared" ref="AI149" si="174">Z149-AC149-AF149</f>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="AJ149">
-        <f t="shared" ref="AJ149" si="175">AA149-AD149-AG149</f>
+        <f t="shared" si="29"/>
         <v>529</v>
       </c>
       <c r="AK149">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="AL149">
@@ -13863,43 +13863,43 @@
         <v>8</v>
       </c>
       <c r="M150" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="32"/>
         <v>485882</v>
       </c>
       <c r="N150" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="33"/>
         <v>9.3309198801981769E-2</v>
       </c>
       <c r="Q150">
-        <f t="shared" si="79"/>
+        <f t="shared" si="34"/>
         <v>405</v>
       </c>
       <c r="R150">
-        <f t="shared" ref="R150" si="176">M150-M149</f>
+        <f t="shared" si="25"/>
         <v>5072</v>
       </c>
       <c r="S150" s="8">
-        <f t="shared" ref="S150" si="177">Q150/U150</f>
+        <f t="shared" si="26"/>
         <v>7.3945590651816689E-2</v>
       </c>
       <c r="T150" s="8">
-        <f t="shared" ref="T150" si="178">SUM(Q144:Q150)/SUM(U144:U150)</f>
+        <f t="shared" si="39"/>
         <v>9.2559265235199209E-2</v>
       </c>
       <c r="U150">
-        <f t="shared" si="82"/>
+        <f t="shared" si="35"/>
         <v>5477</v>
       </c>
       <c r="V150">
-        <f t="shared" si="83"/>
+        <f t="shared" si="36"/>
         <v>9808</v>
       </c>
       <c r="W150" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="37"/>
         <v>2.6610929853181076E-2</v>
       </c>
       <c r="X150">
-        <f t="shared" si="85"/>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="Y150">
@@ -13930,19 +13930,19 @@
         <v>66</v>
       </c>
       <c r="AH150">
-        <f t="shared" ref="AH150" si="179">Y150-AB150-AE150</f>
+        <f t="shared" si="27"/>
         <v>101</v>
       </c>
       <c r="AI150">
-        <f t="shared" ref="AI150" si="180">Z150-AC150-AF150</f>
+        <f t="shared" si="28"/>
         <v>17</v>
       </c>
       <c r="AJ150">
-        <f t="shared" ref="AJ150" si="181">AA150-AD150-AG150</f>
+        <f t="shared" si="29"/>
         <v>525</v>
       </c>
       <c r="AK150">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>6</v>
       </c>
     </row>
@@ -13982,43 +13982,43 @@
         <v>12</v>
       </c>
       <c r="M151" s="7">
-        <f t="shared" ref="M151:M157" si="182">B151-C151</f>
+        <f t="shared" ref="M151:M157" si="40">B151-C151</f>
         <v>490293</v>
       </c>
       <c r="N151" s="4">
-        <f t="shared" ref="N151:N156" si="183">C151/B151</f>
+        <f t="shared" ref="N151:N156" si="41">C151/B151</f>
         <v>9.3684724219648269E-2</v>
       </c>
       <c r="Q151">
-        <f t="shared" ref="Q151:Q153" si="184">C151-C150</f>
+        <f t="shared" ref="Q151:Q172" si="42">C151-C150</f>
         <v>678</v>
       </c>
       <c r="R151">
-        <f t="shared" ref="R151:R153" si="185">M151-M150</f>
+        <f t="shared" si="25"/>
         <v>4411</v>
       </c>
       <c r="S151" s="8">
-        <f t="shared" ref="S151:S153" si="186">Q151/U151</f>
+        <f t="shared" si="26"/>
         <v>0.13322853212811947</v>
       </c>
       <c r="T151" s="8">
-        <f t="shared" ref="T151:T153" si="187">SUM(Q145:Q151)/SUM(U145:U151)</f>
+        <f t="shared" si="39"/>
         <v>9.697228425062393E-2</v>
       </c>
       <c r="U151">
-        <f t="shared" ref="U151:U153" si="188">B151-B150</f>
+        <f t="shared" ref="U151:U172" si="43">B151-B150</f>
         <v>5089</v>
       </c>
       <c r="V151">
-        <f t="shared" ref="V151:V153" si="189">C151-D151-E151</f>
+        <f t="shared" ref="V151:V173" si="44">C151-D151-E151</f>
         <v>9929</v>
       </c>
       <c r="W151" s="3">
-        <f t="shared" ref="W151:W153" si="190">F151/V151</f>
+        <f t="shared" ref="W151:W173" si="45">F151/V151</f>
         <v>2.5984489878134755E-2</v>
       </c>
       <c r="X151">
-        <f t="shared" ref="X151:X153" si="191">E151-E150</f>
+        <f t="shared" ref="X151:X173" si="46">E151-E150</f>
         <v>10</v>
       </c>
       <c r="Y151">
@@ -14049,19 +14049,19 @@
         <v>66</v>
       </c>
       <c r="AH151">
-        <f t="shared" ref="AH151:AH153" si="192">Y151-AB151-AE151</f>
+        <f t="shared" si="27"/>
         <v>101</v>
       </c>
       <c r="AI151">
-        <f t="shared" ref="AI151:AI153" si="193">Z151-AC151-AF151</f>
+        <f t="shared" si="28"/>
         <v>19</v>
       </c>
       <c r="AJ151">
-        <f t="shared" ref="AJ151:AJ153" si="194">AA151-AD151-AG151</f>
+        <f t="shared" si="29"/>
         <v>539</v>
       </c>
       <c r="AK151">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="AL151">
@@ -14076,7 +14076,7 @@
     </row>
     <row r="152" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <f t="shared" ref="A152:A171" si="195">A151+1</f>
+        <f t="shared" ref="A152:A173" si="47">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -14110,43 +14110,43 @@
         <v>11</v>
       </c>
       <c r="M152" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="40"/>
         <v>500769</v>
       </c>
       <c r="N152" s="4">
-        <f t="shared" si="183"/>
+        <f t="shared" si="41"/>
         <v>9.3494588327296221E-2</v>
       </c>
       <c r="Q152">
-        <f t="shared" si="184"/>
+        <f t="shared" si="42"/>
         <v>967</v>
       </c>
       <c r="R152">
-        <f t="shared" si="185"/>
+        <f t="shared" si="25"/>
         <v>10476</v>
       </c>
       <c r="S152" s="8">
-        <f t="shared" si="186"/>
+        <f t="shared" si="26"/>
         <v>8.4505811413090978E-2</v>
       </c>
       <c r="T152" s="8">
-        <f t="shared" si="187"/>
+        <f t="shared" si="39"/>
         <v>9.3135963757045775E-2</v>
       </c>
       <c r="U152">
-        <f t="shared" si="188"/>
+        <f t="shared" si="43"/>
         <v>11443</v>
       </c>
       <c r="V152">
-        <f t="shared" si="189"/>
+        <f t="shared" si="44"/>
         <v>10317</v>
       </c>
       <c r="W152" s="3">
-        <f t="shared" si="190"/>
+        <f t="shared" si="45"/>
         <v>2.5298051759232335E-2</v>
       </c>
       <c r="X152">
-        <f t="shared" si="191"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="Y152">
@@ -14177,19 +14177,19 @@
         <v>66</v>
       </c>
       <c r="AH152">
-        <f t="shared" si="192"/>
+        <f t="shared" si="27"/>
         <v>103</v>
       </c>
       <c r="AI152">
-        <f t="shared" si="193"/>
+        <f t="shared" si="28"/>
         <v>18</v>
       </c>
       <c r="AJ152">
-        <f t="shared" si="194"/>
+        <f t="shared" si="29"/>
         <v>551</v>
       </c>
       <c r="AK152">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="AL152">
@@ -14204,7 +14204,7 @@
     </row>
     <row r="153" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <f t="shared" si="195"/>
+        <f t="shared" si="47"/>
         <v>44059</v>
       </c>
       <c r="B153">
@@ -14238,43 +14238,43 @@
         <v>13</v>
       </c>
       <c r="M153" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="40"/>
         <v>506453</v>
       </c>
       <c r="N153" s="4">
-        <f t="shared" si="183"/>
+        <f t="shared" si="41"/>
         <v>9.3473116701332085E-2</v>
       </c>
       <c r="Q153">
-        <f t="shared" si="184"/>
+        <f t="shared" si="42"/>
         <v>573</v>
       </c>
       <c r="R153">
-        <f t="shared" si="185"/>
+        <f t="shared" si="25"/>
         <v>5684</v>
       </c>
       <c r="S153" s="8">
-        <f t="shared" si="186"/>
+        <f t="shared" si="26"/>
         <v>9.1577433274732306E-2</v>
       </c>
       <c r="T153" s="8">
-        <f t="shared" si="187"/>
+        <f t="shared" si="39"/>
         <v>9.3558940255282635E-2</v>
       </c>
       <c r="U153">
-        <f t="shared" si="188"/>
+        <f t="shared" si="43"/>
         <v>6257</v>
       </c>
       <c r="V153">
-        <f t="shared" si="189"/>
+        <f t="shared" si="44"/>
         <v>10757</v>
       </c>
       <c r="W153" s="3">
-        <f t="shared" si="190"/>
+        <f t="shared" si="45"/>
         <v>2.5192897648043135E-2</v>
       </c>
       <c r="X153">
-        <f t="shared" si="191"/>
+        <f t="shared" si="46"/>
         <v>3</v>
       </c>
       <c r="Y153">
@@ -14305,25 +14305,25 @@
         <v>66</v>
       </c>
       <c r="AH153">
-        <f t="shared" si="192"/>
+        <f t="shared" si="27"/>
         <v>103</v>
       </c>
       <c r="AI153">
-        <f t="shared" si="193"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="AJ153">
-        <f t="shared" si="194"/>
+        <f t="shared" si="29"/>
         <v>568</v>
       </c>
       <c r="AK153">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
-        <f t="shared" si="195"/>
+        <f t="shared" si="47"/>
         <v>44060</v>
       </c>
       <c r="B154">
@@ -14357,43 +14357,43 @@
         <v>5</v>
       </c>
       <c r="M154" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="40"/>
         <v>508607</v>
       </c>
       <c r="N154" s="4">
-        <f t="shared" si="183"/>
+        <f t="shared" si="41"/>
         <v>9.3744320388868499E-2</v>
       </c>
       <c r="Q154">
-        <f t="shared" ref="Q154" si="196">C154-C153</f>
+        <f t="shared" si="42"/>
         <v>390</v>
       </c>
       <c r="R154">
-        <f t="shared" ref="R154" si="197">M154-M153</f>
+        <f t="shared" si="25"/>
         <v>2154</v>
       </c>
       <c r="S154" s="8">
-        <f t="shared" ref="S154" si="198">Q154/U154</f>
+        <f t="shared" si="26"/>
         <v>0.15330188679245282</v>
       </c>
       <c r="T154" s="8">
-        <f t="shared" ref="T154" si="199">SUM(Q148:Q154)/SUM(U148:U154)</f>
+        <f t="shared" si="39"/>
         <v>9.6835612764816309E-2</v>
       </c>
       <c r="U154">
-        <f t="shared" ref="U154" si="200">B154-B153</f>
+        <f t="shared" si="43"/>
         <v>2544</v>
       </c>
       <c r="V154">
-        <f t="shared" ref="V154" si="201">C154-D154-E154</f>
+        <f t="shared" si="44"/>
         <v>11000</v>
       </c>
       <c r="W154" s="3">
-        <f t="shared" ref="W154" si="202">F154/V154</f>
+        <f t="shared" si="45"/>
         <v>2.5727272727272727E-2</v>
       </c>
       <c r="X154">
-        <f t="shared" ref="X154" si="203">E154-E153</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y154">
@@ -14424,19 +14424,19 @@
         <v>66</v>
       </c>
       <c r="AH154">
-        <f t="shared" ref="AH154" si="204">Y154-AB154-AE154</f>
+        <f t="shared" si="27"/>
         <v>104</v>
       </c>
       <c r="AI154">
-        <f t="shared" ref="AI154" si="205">Z154-AC154-AF154</f>
+        <f t="shared" si="28"/>
         <v>22</v>
       </c>
       <c r="AJ154">
-        <f t="shared" ref="AJ154" si="206">AA154-AD154-AG154</f>
+        <f t="shared" si="29"/>
         <v>587</v>
       </c>
       <c r="AK154">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="AL154">
@@ -14451,7 +14451,7 @@
     </row>
     <row r="155" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
-        <f t="shared" si="195"/>
+        <f t="shared" si="47"/>
         <v>44061</v>
       </c>
       <c r="B155">
@@ -14485,43 +14485,43 @@
         <v>7</v>
       </c>
       <c r="M155" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="40"/>
         <v>511525</v>
       </c>
       <c r="N155" s="4">
-        <f t="shared" si="183"/>
+        <f t="shared" si="41"/>
         <v>9.3752602122800704E-2</v>
       </c>
       <c r="Q155">
-        <f t="shared" ref="Q155" si="207">C155-C154</f>
+        <f t="shared" si="42"/>
         <v>307</v>
       </c>
       <c r="R155">
-        <f t="shared" ref="R155" si="208">M155-M154</f>
+        <f t="shared" ref="R155:R172" si="48">M155-M154</f>
         <v>2918</v>
       </c>
       <c r="S155" s="8">
-        <f t="shared" ref="S155" si="209">Q155/U155</f>
+        <f t="shared" ref="S155:S172" si="49">Q155/U155</f>
         <v>9.5193798449612399E-2</v>
       </c>
       <c r="T155" s="8">
-        <f t="shared" ref="T155" si="210">SUM(Q149:Q155)/SUM(U149:U155)</f>
+        <f t="shared" si="39"/>
         <v>9.6628056628056624E-2</v>
       </c>
       <c r="U155">
-        <f t="shared" ref="U155" si="211">B155-B154</f>
+        <f t="shared" si="43"/>
         <v>3225</v>
       </c>
       <c r="V155">
-        <f t="shared" ref="V155" si="212">C155-D155-E155</f>
+        <f t="shared" si="44"/>
         <v>10444</v>
       </c>
       <c r="W155" s="3">
-        <f t="shared" ref="W155" si="213">F155/V155</f>
+        <f t="shared" si="45"/>
         <v>2.7479892761394103E-2</v>
       </c>
       <c r="X155">
-        <f t="shared" ref="X155" si="214">E155-E154</f>
+        <f t="shared" si="46"/>
         <v>12</v>
       </c>
       <c r="Y155">
@@ -14552,25 +14552,25 @@
         <v>67</v>
       </c>
       <c r="AH155">
-        <f t="shared" ref="AH155" si="215">Y155-AB155-AE155</f>
+        <f t="shared" ref="AH155:AH173" si="50">Y155-AB155-AE155</f>
         <v>100</v>
       </c>
       <c r="AI155">
-        <f t="shared" ref="AI155" si="216">Z155-AC155-AF155</f>
+        <f t="shared" ref="AI155:AI173" si="51">Z155-AC155-AF155</f>
         <v>21</v>
       </c>
       <c r="AJ155">
-        <f t="shared" ref="AJ155" si="217">AA155-AD155-AG155</f>
+        <f t="shared" ref="AJ155:AJ173" si="52">AA155-AD155-AG155</f>
         <v>575</v>
       </c>
       <c r="AK155">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
-        <f t="shared" si="195"/>
+        <f t="shared" si="47"/>
         <v>44062</v>
       </c>
       <c r="B156">
@@ -14604,43 +14604,43 @@
         <v>12</v>
       </c>
       <c r="M156" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="40"/>
         <v>516478</v>
       </c>
       <c r="N156" s="4">
-        <f t="shared" si="183"/>
+        <f t="shared" si="41"/>
         <v>9.3836244936057023E-2</v>
       </c>
       <c r="Q156">
-        <f t="shared" ref="Q156" si="218">C156-C155</f>
+        <f t="shared" si="42"/>
         <v>565</v>
       </c>
       <c r="R156">
-        <f t="shared" ref="R156" si="219">M156-M155</f>
+        <f t="shared" si="48"/>
         <v>4953</v>
       </c>
       <c r="S156" s="8">
-        <f t="shared" ref="S156" si="220">Q156/U156</f>
+        <f t="shared" si="49"/>
         <v>0.10239217107647698</v>
       </c>
       <c r="T156" s="8">
-        <f t="shared" ref="T156" si="221">SUM(Q150:Q156)/SUM(U150:U156)</f>
+        <f t="shared" si="39"/>
         <v>9.8222637979420019E-2</v>
       </c>
       <c r="U156">
-        <f t="shared" ref="U156" si="222">B156-B155</f>
+        <f t="shared" si="43"/>
         <v>5518</v>
       </c>
       <c r="V156">
-        <f t="shared" ref="V156" si="223">C156-D156-E156</f>
+        <f t="shared" si="44"/>
         <v>10541</v>
       </c>
       <c r="W156" s="3">
-        <f t="shared" ref="W156" si="224">F156/V156</f>
+        <f t="shared" si="45"/>
         <v>2.8365430224836355E-2</v>
       </c>
       <c r="X156">
-        <f t="shared" ref="X156" si="225">E156-E155</f>
+        <f t="shared" si="46"/>
         <v>15</v>
       </c>
       <c r="Y156">
@@ -14671,19 +14671,19 @@
         <v>67</v>
       </c>
       <c r="AH156">
-        <f t="shared" ref="AH156" si="226">Y156-AB156-AE156</f>
+        <f t="shared" si="50"/>
         <v>95</v>
       </c>
       <c r="AI156">
-        <f t="shared" ref="AI156" si="227">Z156-AC156-AF156</f>
+        <f t="shared" si="51"/>
         <v>21</v>
       </c>
       <c r="AJ156">
-        <f t="shared" ref="AJ156" si="228">AA156-AD156-AG156</f>
+        <f t="shared" si="52"/>
         <v>582</v>
       </c>
       <c r="AK156">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="AL156">
@@ -14698,7 +14698,7 @@
     </row>
     <row r="157" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
-        <f t="shared" si="195"/>
+        <f t="shared" si="47"/>
         <v>44063</v>
       </c>
       <c r="B157">
@@ -14732,43 +14732,43 @@
         <v>3</v>
       </c>
       <c r="M157" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="40"/>
         <v>522680</v>
       </c>
       <c r="N157" s="4">
-        <f t="shared" ref="N157" si="229">C157/B157</f>
+        <f>C157/B157</f>
         <v>9.3295123173987485E-2</v>
       </c>
       <c r="Q157">
-        <f t="shared" ref="Q157" si="230">C157-C156</f>
+        <f t="shared" si="42"/>
         <v>298</v>
       </c>
       <c r="R157">
-        <f t="shared" ref="R157" si="231">M157-M156</f>
+        <f t="shared" si="48"/>
         <v>6202</v>
       </c>
       <c r="S157" s="8">
-        <f t="shared" ref="S157" si="232">Q157/U157</f>
+        <f t="shared" si="49"/>
         <v>4.5846153846153849E-2</v>
       </c>
       <c r="T157" s="8">
-        <f t="shared" ref="T157" si="233">SUM(Q151:Q157)/SUM(U151:U157)</f>
+        <f t="shared" si="39"/>
         <v>9.3109227129337543E-2</v>
       </c>
       <c r="U157">
-        <f t="shared" ref="U157" si="234">B157-B156</f>
+        <f t="shared" si="43"/>
         <v>6500</v>
       </c>
       <c r="V157">
-        <f t="shared" ref="V157" si="235">C157-D157-E157</f>
+        <f t="shared" si="44"/>
         <v>10470</v>
       </c>
       <c r="W157" s="3">
-        <f t="shared" ref="W157" si="236">F157/V157</f>
+        <f t="shared" si="45"/>
         <v>2.865329512893983E-2</v>
       </c>
       <c r="X157">
-        <f t="shared" ref="X157" si="237">E157-E156</f>
+        <f t="shared" si="46"/>
         <v>9</v>
       </c>
       <c r="Y157">
@@ -14799,19 +14799,19 @@
         <v>67</v>
       </c>
       <c r="AH157">
-        <f t="shared" ref="AH157" si="238">Y157-AB157-AE157</f>
+        <f t="shared" si="50"/>
         <v>95</v>
       </c>
       <c r="AI157">
-        <f t="shared" ref="AI157" si="239">Z157-AC157-AF157</f>
+        <f t="shared" si="51"/>
         <v>21</v>
       </c>
       <c r="AJ157">
-        <f t="shared" ref="AJ157" si="240">AA157-AD157-AG157</f>
+        <f t="shared" si="52"/>
         <v>588</v>
       </c>
       <c r="AK157">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>6</v>
       </c>
       <c r="AL157">
@@ -14826,7 +14826,7 @@
     </row>
     <row r="158" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
-        <f t="shared" si="195"/>
+        <f t="shared" si="47"/>
         <v>44064</v>
       </c>
       <c r="B158">
@@ -14860,43 +14860,43 @@
         <v>11</v>
       </c>
       <c r="M158" s="7">
-        <f t="shared" ref="M158:M159" si="241">B158-C158</f>
+        <f>B158-C158</f>
         <v>530839</v>
       </c>
       <c r="N158" s="4">
-        <f t="shared" ref="N158:N159" si="242">C158/B158</f>
+        <f>C158/B158</f>
         <v>9.3340780100053117E-2</v>
       </c>
       <c r="Q158">
-        <f t="shared" ref="Q158:Q159" si="243">C158-C157</f>
+        <f t="shared" si="42"/>
         <v>869</v>
       </c>
       <c r="R158">
-        <f t="shared" ref="R158:R159" si="244">M158-M157</f>
+        <f t="shared" si="48"/>
         <v>8159</v>
       </c>
       <c r="S158" s="8">
-        <f t="shared" ref="S158:S159" si="245">Q158/U158</f>
+        <f t="shared" si="49"/>
         <v>9.6256092157731496E-2</v>
       </c>
       <c r="T158" s="8">
-        <f t="shared" ref="T158:T159" si="246">SUM(Q152:Q158)/SUM(U152:U158)</f>
+        <f t="shared" si="39"/>
         <v>8.9160956980792988E-2</v>
       </c>
       <c r="U158">
-        <f t="shared" ref="U158:U159" si="247">B158-B157</f>
+        <f t="shared" si="43"/>
         <v>9028</v>
       </c>
       <c r="V158">
-        <f t="shared" ref="V158:V159" si="248">C158-D158-E158</f>
+        <f t="shared" si="44"/>
         <v>10825</v>
       </c>
       <c r="W158" s="3">
-        <f t="shared" ref="W158:W159" si="249">F158/V158</f>
+        <f t="shared" si="45"/>
         <v>2.7066974595842955E-2</v>
       </c>
       <c r="X158">
-        <f t="shared" ref="X158:X159" si="250">E158-E157</f>
+        <f t="shared" si="46"/>
         <v>5</v>
       </c>
       <c r="Y158">
@@ -14927,19 +14927,19 @@
         <v>67</v>
       </c>
       <c r="AH158">
-        <f t="shared" ref="AH158:AH159" si="251">Y158-AB158-AE158</f>
+        <f t="shared" si="50"/>
         <v>96</v>
       </c>
       <c r="AI158">
-        <f t="shared" ref="AI158:AI159" si="252">Z158-AC158-AF158</f>
+        <f t="shared" si="51"/>
         <v>19</v>
       </c>
       <c r="AJ158">
-        <f t="shared" ref="AJ158:AJ159" si="253">AA158-AD158-AG158</f>
+        <f t="shared" si="52"/>
         <v>594</v>
       </c>
       <c r="AK158">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>9</v>
       </c>
       <c r="AL158">
@@ -14954,7 +14954,7 @@
     </row>
     <row r="159" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
-        <f t="shared" si="195"/>
+        <f t="shared" si="47"/>
         <v>44065</v>
       </c>
       <c r="B159">
@@ -14988,43 +14988,43 @@
         <v>9</v>
       </c>
       <c r="M159" s="7">
-        <f t="shared" si="241"/>
+        <f>B159-C159</f>
         <v>535517</v>
       </c>
       <c r="N159" s="4">
-        <f t="shared" si="242"/>
+        <f>C159/B159</f>
         <v>9.3899795774373823E-2</v>
       </c>
       <c r="Q159">
-        <f t="shared" si="243"/>
+        <f t="shared" si="42"/>
         <v>846</v>
       </c>
       <c r="R159">
-        <f t="shared" si="244"/>
+        <f t="shared" si="48"/>
         <v>4678</v>
       </c>
       <c r="S159" s="8">
-        <f t="shared" si="245"/>
+        <f t="shared" si="49"/>
         <v>0.15314989138305576</v>
       </c>
       <c r="T159" s="8">
-        <f t="shared" si="246"/>
+        <f t="shared" si="39"/>
         <v>9.9699450720281899E-2</v>
       </c>
       <c r="U159">
-        <f t="shared" si="247"/>
+        <f t="shared" si="43"/>
         <v>5524</v>
       </c>
       <c r="V159">
-        <f t="shared" si="248"/>
+        <f t="shared" si="44"/>
         <v>11117</v>
       </c>
       <c r="W159" s="3">
-        <f t="shared" si="249"/>
+        <f t="shared" si="45"/>
         <v>2.410722317171899E-2</v>
       </c>
       <c r="X159">
-        <f t="shared" si="250"/>
+        <f t="shared" si="46"/>
         <v>14</v>
       </c>
       <c r="Y159">
@@ -15055,19 +15055,19 @@
         <v>69</v>
       </c>
       <c r="AH159">
-        <f t="shared" si="251"/>
+        <f t="shared" si="50"/>
         <v>92</v>
       </c>
       <c r="AI159">
-        <f t="shared" si="252"/>
+        <f t="shared" si="51"/>
         <v>16</v>
       </c>
       <c r="AJ159">
-        <f t="shared" si="253"/>
+        <f t="shared" si="52"/>
         <v>617</v>
       </c>
       <c r="AK159">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>9</v>
       </c>
       <c r="AL159">
@@ -15082,7 +15082,7 @@
     </row>
     <row r="160" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
-        <f t="shared" si="195"/>
+        <f t="shared" si="47"/>
         <v>44066</v>
       </c>
       <c r="B160">
@@ -15116,43 +15116,43 @@
         <v>6</v>
       </c>
       <c r="M160" s="7">
-        <f t="shared" ref="M160:M171" si="254">B160-C160</f>
+        <f t="shared" ref="M160:M171" si="53">B160-C160</f>
         <v>539169</v>
       </c>
       <c r="N160" s="4">
-        <f t="shared" ref="N160:N171" si="255">C160/B160</f>
+        <f t="shared" ref="N160:N171" si="54">C160/B160</f>
         <v>9.4223325762361074E-2</v>
       </c>
       <c r="Q160">
-        <f t="shared" ref="Q160:Q163" si="256">C160-C159</f>
+        <f t="shared" si="42"/>
         <v>591</v>
       </c>
       <c r="R160">
-        <f t="shared" ref="R160:R163" si="257">M160-M159</f>
+        <f t="shared" si="48"/>
         <v>3652</v>
       </c>
       <c r="S160" s="8">
-        <f t="shared" ref="S160:S163" si="258">Q160/U160</f>
+        <f t="shared" si="49"/>
         <v>0.13928823945321706</v>
       </c>
       <c r="T160" s="8">
-        <f t="shared" ref="T160:T163" si="259">SUM(Q154:Q160)/SUM(U154:U160)</f>
+        <f t="shared" si="39"/>
         <v>0.10568038926247882</v>
       </c>
       <c r="U160">
-        <f t="shared" ref="U160:U163" si="260">B160-B159</f>
+        <f t="shared" si="43"/>
         <v>4243</v>
       </c>
       <c r="V160">
-        <f t="shared" ref="V160:V163" si="261">C160-D160-E160</f>
+        <f t="shared" si="44"/>
         <v>11582</v>
       </c>
       <c r="W160" s="3">
-        <f t="shared" ref="W160:W163" si="262">F160/V160</f>
+        <f t="shared" si="45"/>
         <v>2.2448627180107063E-2</v>
       </c>
       <c r="X160">
-        <f t="shared" ref="X160:X163" si="263">E160-E159</f>
+        <f t="shared" si="46"/>
         <v>3</v>
       </c>
       <c r="Y160">
@@ -15183,19 +15183,19 @@
         <v>69</v>
       </c>
       <c r="AH160">
-        <f t="shared" ref="AH160:AH164" si="264">Y160-AB160-AE160</f>
+        <f t="shared" si="50"/>
         <v>97</v>
       </c>
       <c r="AI160">
-        <f t="shared" ref="AI160:AI164" si="265">Z160-AC160-AF160</f>
+        <f t="shared" si="51"/>
         <v>23</v>
       </c>
       <c r="AJ160">
-        <f t="shared" ref="AJ160:AJ164" si="266">AA160-AD160-AG160</f>
+        <f t="shared" si="52"/>
         <v>619</v>
       </c>
       <c r="AK160">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>13</v>
       </c>
       <c r="AL160">
@@ -15210,7 +15210,7 @@
     </row>
     <row r="161" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <f t="shared" si="195"/>
+        <f t="shared" si="47"/>
         <v>44067</v>
       </c>
       <c r="B161">
@@ -15244,43 +15244,43 @@
         <v>8</v>
       </c>
       <c r="M161" s="7">
-        <f t="shared" si="254"/>
+        <f t="shared" si="53"/>
         <v>541046</v>
       </c>
       <c r="N161" s="4">
-        <f t="shared" si="255"/>
+        <f t="shared" si="54"/>
         <v>9.4559451091958832E-2</v>
       </c>
       <c r="Q161">
-        <f t="shared" si="256"/>
+        <f t="shared" si="42"/>
         <v>417</v>
       </c>
       <c r="R161">
-        <f t="shared" si="257"/>
+        <f t="shared" si="48"/>
         <v>1877</v>
       </c>
       <c r="S161" s="8">
-        <f t="shared" si="258"/>
+        <f t="shared" si="49"/>
         <v>0.18177855274629467</v>
       </c>
       <c r="T161" s="8">
-        <f t="shared" si="259"/>
+        <f t="shared" si="39"/>
         <v>0.10715072112738082</v>
       </c>
       <c r="U161">
-        <f t="shared" si="260"/>
+        <f t="shared" si="43"/>
         <v>2294</v>
       </c>
       <c r="V161">
-        <f t="shared" si="261"/>
+        <f t="shared" si="44"/>
         <v>11868</v>
       </c>
       <c r="W161" s="3">
-        <f t="shared" si="262"/>
+        <f t="shared" si="45"/>
         <v>2.3171553758004719E-2</v>
       </c>
       <c r="X161">
-        <f t="shared" si="263"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="Y161">
@@ -15311,25 +15311,25 @@
         <v>70</v>
       </c>
       <c r="AH161">
-        <f t="shared" si="264"/>
+        <f t="shared" si="50"/>
         <v>95</v>
       </c>
       <c r="AI161">
-        <f t="shared" si="265"/>
+        <f t="shared" si="51"/>
         <v>27</v>
       </c>
       <c r="AJ161">
-        <f t="shared" si="266"/>
+        <f t="shared" si="52"/>
         <v>626</v>
       </c>
       <c r="AK161">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <f t="shared" si="195"/>
+        <f t="shared" si="47"/>
         <v>44068</v>
       </c>
       <c r="B162">
@@ -15363,43 +15363,43 @@
         <v>4</v>
       </c>
       <c r="M162" s="7">
-        <f t="shared" si="254"/>
+        <f t="shared" si="53"/>
         <v>544392</v>
       </c>
       <c r="N162" s="4">
-        <f t="shared" si="255"/>
+        <f t="shared" si="54"/>
         <v>9.4853859314546235E-2</v>
       </c>
       <c r="Q162">
-        <f t="shared" si="256"/>
+        <f t="shared" si="42"/>
         <v>545</v>
       </c>
       <c r="R162">
-        <f t="shared" si="257"/>
+        <f t="shared" si="48"/>
         <v>3346</v>
       </c>
       <c r="S162" s="8">
-        <f t="shared" si="258"/>
+        <f t="shared" si="49"/>
         <v>0.14006682086867128</v>
       </c>
       <c r="T162" s="8">
-        <f t="shared" si="259"/>
+        <f t="shared" si="39"/>
         <v>0.11165468403697497</v>
       </c>
       <c r="U162">
-        <f t="shared" si="260"/>
+        <f t="shared" si="43"/>
         <v>3891</v>
       </c>
       <c r="V162">
-        <f t="shared" si="261"/>
+        <f t="shared" si="44"/>
         <v>11701</v>
       </c>
       <c r="W162" s="3">
-        <f t="shared" si="262"/>
+        <f t="shared" si="45"/>
         <v>2.5211520382873259E-2</v>
       </c>
       <c r="X162">
-        <f t="shared" si="263"/>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="Y162">
@@ -15430,25 +15430,25 @@
         <v>70</v>
       </c>
       <c r="AH162">
-        <f t="shared" si="264"/>
+        <f t="shared" si="50"/>
         <v>95</v>
       </c>
       <c r="AI162">
-        <f t="shared" si="265"/>
+        <f t="shared" si="51"/>
         <v>27</v>
       </c>
       <c r="AJ162">
-        <f t="shared" si="266"/>
+        <f t="shared" si="52"/>
         <v>626</v>
       </c>
       <c r="AK162">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
-        <f t="shared" si="195"/>
+        <f t="shared" si="47"/>
         <v>44069</v>
       </c>
       <c r="B163">
@@ -15482,43 +15482,43 @@
         <v>9</v>
       </c>
       <c r="M163" s="7">
-        <f t="shared" si="254"/>
+        <f t="shared" si="53"/>
         <v>549681</v>
       </c>
       <c r="N163" s="4">
-        <f t="shared" si="255"/>
+        <f t="shared" si="54"/>
         <v>9.5218499857619959E-2</v>
       </c>
       <c r="Q163">
-        <f t="shared" si="256"/>
+        <f t="shared" si="42"/>
         <v>799</v>
       </c>
       <c r="R163">
-        <f t="shared" si="257"/>
+        <f t="shared" si="48"/>
         <v>5289</v>
       </c>
       <c r="S163" s="8">
-        <f t="shared" si="258"/>
+        <f t="shared" si="49"/>
         <v>0.13124178712220763</v>
       </c>
       <c r="T163" s="8">
-        <f t="shared" si="259"/>
+        <f t="shared" si="39"/>
         <v>0.11618931005110733</v>
       </c>
       <c r="U163">
-        <f t="shared" si="260"/>
+        <f t="shared" si="43"/>
         <v>6088</v>
       </c>
       <c r="V163">
-        <f t="shared" si="261"/>
+        <f t="shared" si="44"/>
         <v>11935</v>
       </c>
       <c r="W163" s="3">
-        <f t="shared" si="262"/>
+        <f t="shared" si="45"/>
         <v>2.6225387515710095E-2</v>
       </c>
       <c r="X163">
-        <f t="shared" si="263"/>
+        <f t="shared" si="46"/>
         <v>13</v>
       </c>
       <c r="Y163">
@@ -15549,19 +15549,19 @@
         <v>72</v>
       </c>
       <c r="AH163">
-        <f t="shared" si="264"/>
+        <f t="shared" si="50"/>
         <v>91</v>
       </c>
       <c r="AI163">
-        <f t="shared" si="265"/>
+        <f t="shared" si="51"/>
         <v>31</v>
       </c>
       <c r="AJ163">
-        <f t="shared" si="266"/>
+        <f t="shared" si="52"/>
         <v>603</v>
       </c>
       <c r="AK163">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>9</v>
       </c>
       <c r="AL163">
@@ -15576,7 +15576,7 @@
     </row>
     <row r="164" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
-        <f t="shared" si="195"/>
+        <f t="shared" si="47"/>
         <v>44070</v>
       </c>
       <c r="B164">
@@ -15610,43 +15610,43 @@
         <v>6</v>
       </c>
       <c r="M164" s="7">
-        <f t="shared" si="254"/>
+        <f t="shared" si="53"/>
         <v>555411</v>
       </c>
       <c r="N164" s="4">
-        <f t="shared" si="255"/>
+        <f t="shared" si="54"/>
         <v>9.6175501861639812E-2</v>
       </c>
       <c r="Q164">
-        <f t="shared" ref="Q164" si="267">C164-C163</f>
+        <f t="shared" si="42"/>
         <v>1253</v>
       </c>
       <c r="R164">
-        <f t="shared" ref="R164" si="268">M164-M163</f>
+        <f t="shared" si="48"/>
         <v>5730</v>
       </c>
       <c r="S164" s="8">
-        <f t="shared" ref="S164" si="269">Q164/U164</f>
+        <f t="shared" si="49"/>
         <v>0.17943577259057711</v>
       </c>
       <c r="T164" s="8">
-        <f t="shared" ref="T164" si="270">SUM(Q158:Q164)/SUM(U158:U164)</f>
+        <f t="shared" si="39"/>
         <v>0.13981235709968201</v>
       </c>
       <c r="U164">
-        <f t="shared" ref="U164" si="271">B164-B163</f>
+        <f t="shared" si="43"/>
         <v>6983</v>
       </c>
       <c r="V164">
-        <f t="shared" ref="V164" si="272">C164-D164-E164</f>
+        <f t="shared" si="44"/>
         <v>12669</v>
       </c>
       <c r="W164" s="3">
-        <f t="shared" ref="W164" si="273">F164/V164</f>
+        <f t="shared" si="45"/>
         <v>2.4074512589786091E-2</v>
       </c>
       <c r="X164">
-        <f t="shared" ref="X164" si="274">E164-E163</f>
+        <f t="shared" si="46"/>
         <v>17</v>
       </c>
       <c r="Y164">
@@ -15677,19 +15677,19 @@
         <v>72</v>
       </c>
       <c r="AH164">
-        <f t="shared" si="264"/>
+        <f t="shared" si="50"/>
         <v>93</v>
       </c>
       <c r="AI164">
-        <f t="shared" si="265"/>
+        <f t="shared" si="51"/>
         <v>30</v>
       </c>
       <c r="AJ164">
-        <f t="shared" si="266"/>
+        <f t="shared" si="52"/>
         <v>621</v>
       </c>
       <c r="AK164">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="AL164">
@@ -15704,7 +15704,7 @@
     </row>
     <row r="165" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
-        <f t="shared" si="195"/>
+        <f t="shared" si="47"/>
         <v>44071</v>
       </c>
       <c r="B165">
@@ -15738,43 +15738,43 @@
         <v>9</v>
       </c>
       <c r="M165" s="7">
-        <f t="shared" si="254"/>
+        <f t="shared" si="53"/>
         <v>555718</v>
       </c>
       <c r="N165" s="4">
-        <f t="shared" si="255"/>
+        <f t="shared" si="54"/>
         <v>9.9887104846716895E-2</v>
       </c>
       <c r="Q165">
-        <f t="shared" ref="Q165" si="275">C165-C164</f>
+        <f t="shared" si="42"/>
         <v>2568</v>
       </c>
       <c r="R165">
-        <f t="shared" ref="R165" si="276">M165-M164</f>
+        <f t="shared" si="48"/>
         <v>307</v>
       </c>
       <c r="S165" s="8">
-        <f t="shared" ref="S165" si="277">Q165/U165</f>
+        <f t="shared" si="49"/>
         <v>0.89321739130434785</v>
       </c>
       <c r="T165" s="8">
-        <f t="shared" ref="T165" si="278">SUM(Q159:Q165)/SUM(U159:U165)</f>
+        <f t="shared" si="39"/>
         <v>0.22004514389616903</v>
       </c>
       <c r="U165">
-        <f t="shared" ref="U165" si="279">B165-B164</f>
+        <f t="shared" si="43"/>
         <v>2875</v>
       </c>
       <c r="V165">
-        <f t="shared" ref="V165" si="280">C165-D165-E165</f>
+        <f t="shared" si="44"/>
         <v>14692</v>
       </c>
       <c r="W165" s="3">
-        <f t="shared" ref="W165" si="281">F165/V165</f>
+        <f t="shared" si="45"/>
         <v>2.0351211543697251E-2</v>
       </c>
       <c r="X165">
-        <f t="shared" ref="X165" si="282">E165-E164</f>
+        <f t="shared" si="46"/>
         <v>14</v>
       </c>
       <c r="Y165">
@@ -15805,19 +15805,19 @@
         <v>73</v>
       </c>
       <c r="AH165">
-        <f t="shared" ref="AH165" si="283">Y165-AB165-AE165</f>
+        <f t="shared" si="50"/>
         <v>98</v>
       </c>
       <c r="AI165">
-        <f t="shared" ref="AI165" si="284">Z165-AC165-AF165</f>
+        <f t="shared" si="51"/>
         <v>37</v>
       </c>
       <c r="AJ165">
-        <f t="shared" ref="AJ165" si="285">AA165-AD165-AG165</f>
+        <f t="shared" si="52"/>
         <v>652</v>
       </c>
       <c r="AK165">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>9</v>
       </c>
       <c r="AL165">
@@ -15832,7 +15832,7 @@
     </row>
     <row r="166" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
-        <f t="shared" si="195"/>
+        <f t="shared" si="47"/>
         <v>44072</v>
       </c>
       <c r="B166">
@@ -15866,43 +15866,43 @@
         <v>10</v>
       </c>
       <c r="M166" s="7">
-        <f t="shared" si="254"/>
+        <f t="shared" si="53"/>
         <v>561637</v>
       </c>
       <c r="N166" s="4">
-        <f t="shared" si="255"/>
+        <f t="shared" si="54"/>
         <v>0.10099962384050838</v>
       </c>
       <c r="Q166">
-        <f t="shared" ref="Q166" si="286">C166-C165</f>
+        <f t="shared" si="42"/>
         <v>1429</v>
       </c>
       <c r="R166">
-        <f t="shared" ref="R166" si="287">M166-M165</f>
+        <f t="shared" si="48"/>
         <v>5919</v>
       </c>
       <c r="S166" s="8">
-        <f t="shared" ref="S166" si="288">Q166/U166</f>
+        <f t="shared" si="49"/>
         <v>0.19447468698965706</v>
       </c>
       <c r="T166" s="8">
-        <f t="shared" ref="T166" si="289">SUM(Q160:Q166)/SUM(U160:U166)</f>
+        <f t="shared" si="39"/>
         <v>0.22543146907063638</v>
       </c>
       <c r="U166">
-        <f t="shared" ref="U166" si="290">B166-B165</f>
+        <f t="shared" si="43"/>
         <v>7348</v>
       </c>
       <c r="V166">
-        <f t="shared" ref="V166" si="291">C166-D166-E166</f>
+        <f t="shared" si="44"/>
         <v>15596</v>
       </c>
       <c r="W166" s="3">
-        <f t="shared" ref="W166" si="292">F166/V166</f>
+        <f t="shared" si="45"/>
         <v>2.0197486535008975E-2</v>
       </c>
       <c r="X166">
-        <f t="shared" ref="X166" si="293">E166-E165</f>
+        <f t="shared" si="46"/>
         <v>17</v>
       </c>
       <c r="Y166">
@@ -15933,19 +15933,19 @@
         <v>74</v>
       </c>
       <c r="AH166">
-        <f t="shared" ref="AH166" si="294">Y166-AB166-AE166</f>
+        <f t="shared" si="50"/>
         <v>96</v>
       </c>
       <c r="AI166">
-        <f t="shared" ref="AI166" si="295">Z166-AC166-AF166</f>
+        <f t="shared" si="51"/>
         <v>42</v>
       </c>
       <c r="AJ166">
-        <f t="shared" ref="AJ166" si="296">AA166-AD166-AG166</f>
+        <f t="shared" si="52"/>
         <v>698</v>
       </c>
       <c r="AK166">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="AL166">
@@ -15960,7 +15960,7 @@
     </row>
     <row r="167" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
-        <f t="shared" si="195"/>
+        <f t="shared" si="47"/>
         <v>44073</v>
       </c>
       <c r="B167">
@@ -15994,43 +15994,43 @@
         <v>12</v>
       </c>
       <c r="M167" s="7">
-        <f t="shared" si="254"/>
+        <f t="shared" si="53"/>
         <v>566342</v>
       </c>
       <c r="N167" s="4">
-        <f t="shared" si="255"/>
+        <f t="shared" si="54"/>
         <v>0.10168039768671702</v>
       </c>
       <c r="Q167">
-        <f t="shared" ref="Q167:Q168" si="297">C167-C166</f>
+        <f t="shared" si="42"/>
         <v>1006</v>
       </c>
       <c r="R167">
-        <f t="shared" ref="R167:R168" si="298">M167-M166</f>
+        <f t="shared" si="48"/>
         <v>4705</v>
       </c>
       <c r="S167" s="8">
-        <f t="shared" ref="S167:S168" si="299">Q167/U167</f>
+        <f t="shared" si="49"/>
         <v>0.17615128699001925</v>
       </c>
       <c r="T167" s="8">
-        <f t="shared" ref="T167:T168" si="300">SUM(Q161:Q167)/SUM(U161:U167)</f>
+        <f t="shared" si="39"/>
         <v>0.22782040352372834</v>
       </c>
       <c r="U167">
-        <f t="shared" ref="U167:U168" si="301">B167-B166</f>
+        <f t="shared" si="43"/>
         <v>5711</v>
       </c>
       <c r="V167">
-        <f t="shared" ref="V167:V168" si="302">C167-D167-E167</f>
+        <f t="shared" si="44"/>
         <v>16468</v>
       </c>
       <c r="W167" s="3">
-        <f t="shared" ref="W167:W168" si="303">F167/V167</f>
+        <f t="shared" si="45"/>
         <v>1.9128005829487493E-2</v>
       </c>
       <c r="X167">
-        <f t="shared" ref="X167:X168" si="304">E167-E166</f>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="Y167">
@@ -16061,25 +16061,25 @@
         <v>74</v>
       </c>
       <c r="AH167">
-        <f t="shared" ref="AH167" si="305">Y167-AB167-AE167</f>
+        <f t="shared" si="50"/>
         <v>101</v>
       </c>
       <c r="AI167">
-        <f t="shared" ref="AI167" si="306">Z167-AC167-AF167</f>
+        <f t="shared" si="51"/>
         <v>46</v>
       </c>
       <c r="AJ167">
-        <f t="shared" ref="AJ167" si="307">AA167-AD167-AG167</f>
+        <f t="shared" si="52"/>
         <v>748</v>
       </c>
       <c r="AK167">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
-        <f t="shared" si="195"/>
+        <f t="shared" si="47"/>
         <v>44074</v>
       </c>
       <c r="B168">
@@ -16113,43 +16113,43 @@
         <v>7</v>
       </c>
       <c r="M168" s="7">
-        <f t="shared" si="254"/>
+        <f t="shared" si="53"/>
         <v>568951</v>
       </c>
       <c r="N168" s="4">
-        <f t="shared" si="255"/>
+        <f t="shared" si="54"/>
         <v>0.10212510099989899</v>
       </c>
       <c r="Q168">
-        <f t="shared" si="297"/>
+        <f t="shared" si="42"/>
         <v>609</v>
       </c>
       <c r="R168">
-        <f t="shared" si="298"/>
+        <f t="shared" si="48"/>
         <v>2609</v>
       </c>
       <c r="S168" s="8">
-        <f t="shared" si="299"/>
+        <f t="shared" si="49"/>
         <v>0.18924798011187072</v>
       </c>
       <c r="T168" s="8">
-        <f t="shared" si="300"/>
+        <f t="shared" si="39"/>
         <v>0.22730796920861715</v>
       </c>
       <c r="U168">
-        <f t="shared" si="301"/>
+        <f t="shared" si="43"/>
         <v>3218</v>
       </c>
       <c r="V168">
-        <f t="shared" si="302"/>
+        <f t="shared" si="44"/>
         <v>16950</v>
       </c>
       <c r="W168" s="3">
-        <f t="shared" si="303"/>
+        <f t="shared" si="45"/>
         <v>1.7699115044247787E-2</v>
       </c>
       <c r="X168">
-        <f t="shared" si="304"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="Y168">
@@ -16180,19 +16180,19 @@
         <v>74</v>
       </c>
       <c r="AH168">
-        <f t="shared" ref="AH168:AJ168" si="308">Y168-AB168-AE168</f>
+        <f t="shared" si="50"/>
         <v>105</v>
       </c>
       <c r="AI168">
-        <f t="shared" si="308"/>
+        <f t="shared" si="51"/>
         <v>45</v>
       </c>
       <c r="AJ168">
-        <f t="shared" si="308"/>
+        <f t="shared" si="52"/>
         <v>766</v>
       </c>
       <c r="AK168">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>7</v>
       </c>
       <c r="AL168">
@@ -16207,7 +16207,7 @@
     </row>
     <row r="169" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
-        <f t="shared" si="195"/>
+        <f t="shared" si="47"/>
         <v>44075</v>
       </c>
       <c r="B169">
@@ -16241,43 +16241,43 @@
         <v>10</v>
       </c>
       <c r="M169" s="7">
-        <f t="shared" si="254"/>
+        <f t="shared" si="53"/>
         <v>571703</v>
       </c>
       <c r="N169" s="4">
-        <f t="shared" si="255"/>
+        <f t="shared" si="54"/>
         <v>0.10264793595981793</v>
       </c>
       <c r="Q169">
-        <f t="shared" ref="Q169" si="309">C169-C168</f>
+        <f t="shared" si="42"/>
         <v>684</v>
       </c>
       <c r="R169">
-        <f t="shared" ref="R169" si="310">M169-M168</f>
+        <f t="shared" si="48"/>
         <v>2752</v>
       </c>
       <c r="S169" s="8">
-        <f t="shared" ref="S169" si="311">Q169/U169</f>
+        <f t="shared" si="49"/>
         <v>0.19906868451688009</v>
       </c>
       <c r="T169" s="8">
-        <f t="shared" ref="T169" si="312">SUM(Q163:Q169)/SUM(U163:U169)</f>
+        <f t="shared" si="39"/>
         <v>0.23410639670209485</v>
       </c>
       <c r="U169">
-        <f t="shared" ref="U169" si="313">B169-B168</f>
+        <f t="shared" si="43"/>
         <v>3436</v>
       </c>
       <c r="V169">
-        <f t="shared" ref="V169" si="314">C169-D169-E169</f>
+        <f t="shared" si="44"/>
         <v>16904</v>
       </c>
       <c r="W169" s="3">
-        <f t="shared" ref="W169" si="315">F169/V169</f>
+        <f t="shared" si="45"/>
         <v>1.8398012304779932E-2</v>
       </c>
       <c r="X169">
-        <f t="shared" ref="X169" si="316">E169-E168</f>
+        <f t="shared" si="46"/>
         <v>9</v>
       </c>
       <c r="Y169">
@@ -16308,25 +16308,25 @@
         <v>75</v>
       </c>
       <c r="AH169">
-        <f t="shared" ref="AH169" si="317">Y169-AB169-AE169</f>
+        <f t="shared" si="50"/>
         <v>133</v>
       </c>
       <c r="AI169">
-        <f t="shared" ref="AI169" si="318">Z169-AC169-AF169</f>
+        <f t="shared" si="51"/>
         <v>49</v>
       </c>
       <c r="AJ169">
-        <f t="shared" ref="AJ169" si="319">AA169-AD169-AG169</f>
+        <f t="shared" si="52"/>
         <v>751</v>
       </c>
       <c r="AK169">
-        <f t="shared" si="56"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
-        <f t="shared" si="195"/>
+        <f t="shared" si="47"/>
         <v>44076</v>
       </c>
       <c r="B170">
@@ -16360,43 +16360,43 @@
         <v>15</v>
       </c>
       <c r="M170" s="7">
-        <f t="shared" si="254"/>
+        <f t="shared" si="53"/>
         <v>575501</v>
       </c>
       <c r="N170" s="4">
-        <f t="shared" si="255"/>
+        <f t="shared" si="54"/>
         <v>0.10287111920335718</v>
       </c>
       <c r="Q170">
-        <f t="shared" ref="Q170" si="320">C170-C169</f>
+        <f t="shared" si="42"/>
         <v>594</v>
       </c>
       <c r="R170">
-        <f t="shared" ref="R170" si="321">M170-M169</f>
+        <f t="shared" si="48"/>
         <v>3798</v>
       </c>
       <c r="S170" s="8">
-        <f t="shared" ref="S170" si="322">Q170/U170</f>
+        <f t="shared" si="49"/>
         <v>0.13524590163934427</v>
       </c>
       <c r="T170" s="8">
-        <f t="shared" ref="T170" si="323">SUM(Q164:Q170)/SUM(U164:U170)</f>
+        <f t="shared" si="39"/>
         <v>0.23976091629125815</v>
       </c>
       <c r="U170">
-        <f t="shared" ref="U170" si="324">B170-B169</f>
+        <f t="shared" si="43"/>
         <v>4392</v>
       </c>
       <c r="V170">
-        <f t="shared" ref="V170:V171" si="325">C170-D170-E170</f>
+        <f t="shared" si="44"/>
         <v>16862</v>
       </c>
       <c r="W170" s="3">
-        <f t="shared" ref="W170:W171" si="326">F170/V170</f>
+        <f t="shared" si="45"/>
         <v>1.8384533270074725E-2</v>
       </c>
       <c r="X170">
-        <f t="shared" ref="X170" si="327">E170-E169</f>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="Y170">
@@ -16427,19 +16427,19 @@
         <v>76</v>
       </c>
       <c r="AH170">
-        <f t="shared" ref="AH170:AH171" si="328">Y170-AB170-AE170</f>
+        <f t="shared" si="50"/>
         <v>137</v>
       </c>
       <c r="AI170">
-        <f t="shared" ref="AI170:AI171" si="329">Z170-AC170-AF170</f>
+        <f t="shared" si="51"/>
         <v>48</v>
       </c>
       <c r="AJ170">
-        <f t="shared" ref="AJ170:AJ171" si="330">AA170-AD170-AG170</f>
+        <f t="shared" si="52"/>
         <v>744</v>
       </c>
       <c r="AK170">
-        <f t="shared" ref="AK170" si="331">-(J170-J169)+L170</f>
+        <f>-(J170-J169)+L170</f>
         <v>11</v>
       </c>
       <c r="AL170">
@@ -16454,7 +16454,7 @@
     </row>
     <row r="171" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
-        <f t="shared" si="195"/>
+        <f t="shared" si="47"/>
         <v>44077</v>
       </c>
       <c r="B171">
@@ -16488,43 +16488,43 @@
         <v>13</v>
       </c>
       <c r="M171" s="7">
-        <f t="shared" si="254"/>
+        <f t="shared" si="53"/>
         <v>580286</v>
       </c>
       <c r="N171" s="4">
-        <f t="shared" si="255"/>
+        <f t="shared" si="54"/>
         <v>0.10297973115021704</v>
       </c>
       <c r="Q171">
-        <f t="shared" ref="Q171" si="332">C171-C170</f>
+        <f t="shared" si="42"/>
         <v>627</v>
       </c>
       <c r="R171">
-        <f t="shared" ref="R171" si="333">M171-M170</f>
+        <f t="shared" si="48"/>
         <v>4785</v>
       </c>
       <c r="S171" s="8">
-        <f t="shared" ref="S171" si="334">Q171/U171</f>
+        <f t="shared" si="49"/>
         <v>0.11585365853658537</v>
       </c>
       <c r="T171" s="8">
-        <f t="shared" ref="T171" si="335">SUM(Q165:Q171)/SUM(U165:U171)</f>
+        <f t="shared" si="39"/>
         <v>0.23206347246233638</v>
       </c>
       <c r="U171">
-        <f t="shared" ref="U171" si="336">B171-B170</f>
+        <f t="shared" si="43"/>
         <v>5412</v>
       </c>
       <c r="V171">
-        <f t="shared" ref="V171" si="337">C171-D171-E171</f>
+        <f t="shared" si="44"/>
         <v>16975</v>
       </c>
       <c r="W171" s="3">
-        <f t="shared" ref="W171" si="338">F171/V171</f>
+        <f t="shared" si="45"/>
         <v>1.9027982326951399E-2</v>
       </c>
       <c r="X171">
-        <f t="shared" ref="X171" si="339">E171-E170</f>
+        <f t="shared" si="46"/>
         <v>9</v>
       </c>
       <c r="Y171">
@@ -16555,16 +16555,276 @@
         <v>76</v>
       </c>
       <c r="AH171">
-        <f t="shared" si="328"/>
+        <f t="shared" si="50"/>
         <v>137</v>
       </c>
       <c r="AI171">
-        <f t="shared" si="329"/>
+        <f t="shared" si="51"/>
         <v>39</v>
       </c>
       <c r="AJ171">
-        <f t="shared" si="330"/>
+        <f t="shared" si="52"/>
         <v>738</v>
+      </c>
+      <c r="AK171">
+        <f>-(J171-J170)+L171</f>
+        <v>7</v>
+      </c>
+      <c r="AL171">
+        <v>65</v>
+      </c>
+      <c r="AM171">
+        <v>65</v>
+      </c>
+      <c r="AN171">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="172" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <f t="shared" si="47"/>
+        <v>44078</v>
+      </c>
+      <c r="B172">
+        <v>654603</v>
+      </c>
+      <c r="C172">
+        <v>67844</v>
+      </c>
+      <c r="D172">
+        <v>48994</v>
+      </c>
+      <c r="E172">
+        <v>1137</v>
+      </c>
+      <c r="F172">
+        <v>317</v>
+      </c>
+      <c r="H172">
+        <v>87</v>
+      </c>
+      <c r="I172">
+        <v>41</v>
+      </c>
+      <c r="J172">
+        <v>68</v>
+      </c>
+      <c r="K172">
+        <v>16</v>
+      </c>
+      <c r="L172">
+        <v>5</v>
+      </c>
+      <c r="M172" s="7">
+        <f>B172-C172</f>
+        <v>586759</v>
+      </c>
+      <c r="N172" s="4">
+        <f>C172/B172</f>
+        <v>0.10364144374529295</v>
+      </c>
+      <c r="Q172">
+        <f t="shared" si="42"/>
+        <v>1226</v>
+      </c>
+      <c r="R172">
+        <f t="shared" si="48"/>
+        <v>6473</v>
+      </c>
+      <c r="S172" s="8">
+        <f t="shared" si="49"/>
+        <v>0.15924145992986102</v>
+      </c>
+      <c r="T172" s="8">
+        <f t="shared" si="39"/>
+        <v>0.16592325881341358</v>
+      </c>
+      <c r="U172">
+        <f t="shared" si="43"/>
+        <v>7699</v>
+      </c>
+      <c r="V172">
+        <f t="shared" si="44"/>
+        <v>17713</v>
+      </c>
+      <c r="W172" s="3">
+        <f t="shared" si="45"/>
+        <v>1.7896460226951957E-2</v>
+      </c>
+      <c r="X172">
+        <f t="shared" si="46"/>
+        <v>3</v>
+      </c>
+      <c r="Y172">
+        <v>366</v>
+      </c>
+      <c r="Z172">
+        <v>217</v>
+      </c>
+      <c r="AA172">
+        <v>3904</v>
+      </c>
+      <c r="AB172">
+        <v>220</v>
+      </c>
+      <c r="AC172">
+        <v>178</v>
+      </c>
+      <c r="AD172">
+        <v>3048</v>
+      </c>
+      <c r="AE172">
+        <v>7</v>
+      </c>
+      <c r="AF172">
+        <v>2</v>
+      </c>
+      <c r="AG172">
+        <v>76</v>
+      </c>
+      <c r="AH172">
+        <f t="shared" si="50"/>
+        <v>139</v>
+      </c>
+      <c r="AI172">
+        <f t="shared" si="51"/>
+        <v>37</v>
+      </c>
+      <c r="AJ172">
+        <f t="shared" si="52"/>
+        <v>780</v>
+      </c>
+      <c r="AK172">
+        <f>-(J172-J171)+L172</f>
+        <v>10</v>
+      </c>
+      <c r="AL172">
+        <v>68</v>
+      </c>
+      <c r="AM172">
+        <v>68</v>
+      </c>
+      <c r="AN172">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="173" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <f t="shared" si="47"/>
+        <v>44079</v>
+      </c>
+      <c r="B173">
+        <v>661816</v>
+      </c>
+      <c r="C173">
+        <v>68933</v>
+      </c>
+      <c r="D173">
+        <v>49487</v>
+      </c>
+      <c r="E173">
+        <v>1158</v>
+      </c>
+      <c r="F173">
+        <v>315</v>
+      </c>
+      <c r="H173">
+        <v>94</v>
+      </c>
+      <c r="I173">
+        <v>36</v>
+      </c>
+      <c r="J173">
+        <v>68</v>
+      </c>
+      <c r="K173">
+        <v>19</v>
+      </c>
+      <c r="L173">
+        <v>10</v>
+      </c>
+      <c r="M173" s="7">
+        <f>B173-C173</f>
+        <v>592883</v>
+      </c>
+      <c r="N173" s="4">
+        <f>C173/B173</f>
+        <v>0.10415734887038089</v>
+      </c>
+      <c r="Q173">
+        <f t="shared" ref="Q173" si="55">C173-C172</f>
+        <v>1089</v>
+      </c>
+      <c r="R173">
+        <f t="shared" ref="R173" si="56">M173-M172</f>
+        <v>6124</v>
+      </c>
+      <c r="S173" s="8">
+        <f t="shared" ref="S173" si="57">Q173/U173</f>
+        <v>0.15097740191321227</v>
+      </c>
+      <c r="T173" s="8">
+        <f t="shared" ref="T173" si="58">SUM(Q167:Q173)/SUM(U167:U173)</f>
+        <v>0.15735821579784795</v>
+      </c>
+      <c r="U173">
+        <f t="shared" ref="U173" si="59">B173-B172</f>
+        <v>7213</v>
+      </c>
+      <c r="V173">
+        <f t="shared" ref="V173" si="60">C173-D173-E173</f>
+        <v>18288</v>
+      </c>
+      <c r="W173" s="3">
+        <f t="shared" ref="W173" si="61">F173/V173</f>
+        <v>1.7224409448818898E-2</v>
+      </c>
+      <c r="X173">
+        <f t="shared" si="46"/>
+        <v>21</v>
+      </c>
+      <c r="Y173">
+        <v>372</v>
+      </c>
+      <c r="Z173">
+        <v>219</v>
+      </c>
+      <c r="AA173">
+        <v>3966</v>
+      </c>
+      <c r="AB173">
+        <v>222</v>
+      </c>
+      <c r="AC173">
+        <v>183</v>
+      </c>
+      <c r="AD173">
+        <v>3070</v>
+      </c>
+      <c r="AE173">
+        <v>7</v>
+      </c>
+      <c r="AF173">
+        <v>2</v>
+      </c>
+      <c r="AG173">
+        <v>78</v>
+      </c>
+      <c r="AH173">
+        <f t="shared" si="50"/>
+        <v>143</v>
+      </c>
+      <c r="AI173">
+        <f t="shared" si="51"/>
+        <v>34</v>
+      </c>
+      <c r="AJ173">
+        <f t="shared" si="52"/>
+        <v>818</v>
+      </c>
+      <c r="AK173">
+        <f>-(J173-J172)+L173</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
-  <workbookPr codeName="ThisWorkbook" checkCompatibility="1" defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2019-2020\Winter 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E914755E-A0BB-48BB-92C0-1CA7D10CE060}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B38ED68-BD0A-4300-8D8A-CD8D0F992D8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1091,13 +1091,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AS173"/>
+  <dimension ref="A1:AS174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA154" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL173" sqref="AL173"/>
+      <selection pane="bottomRight" activeCell="AH174" sqref="AH174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14010,11 +14010,11 @@
         <v>5089</v>
       </c>
       <c r="V151">
-        <f t="shared" ref="V151:V173" si="44">C151-D151-E151</f>
+        <f t="shared" ref="V151:V172" si="44">C151-D151-E151</f>
         <v>9929</v>
       </c>
       <c r="W151" s="3">
-        <f t="shared" ref="W151:W173" si="45">F151/V151</f>
+        <f t="shared" ref="W151:W172" si="45">F151/V151</f>
         <v>2.5984489878134755E-2</v>
       </c>
       <c r="X151">
@@ -14076,7 +14076,7 @@
     </row>
     <row r="152" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <f t="shared" ref="A152:A173" si="47">A151+1</f>
+        <f t="shared" ref="A152:A174" si="47">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -16772,11 +16772,11 @@
         <v>7213</v>
       </c>
       <c r="V173">
-        <f t="shared" ref="V173" si="60">C173-D173-E173</f>
+        <f t="shared" ref="V173:V174" si="60">C173-D173-E173</f>
         <v>18288</v>
       </c>
       <c r="W173" s="3">
-        <f t="shared" ref="W173" si="61">F173/V173</f>
+        <f t="shared" ref="W173:W174" si="61">F173/V173</f>
         <v>1.7224409448818898E-2</v>
       </c>
       <c r="X173">
@@ -16825,6 +16825,118 @@
       <c r="AK173">
         <f>-(J173-J172)+L173</f>
         <v>10</v>
+      </c>
+      <c r="AL173">
+        <v>78</v>
+      </c>
+      <c r="AM173">
+        <v>78</v>
+      </c>
+      <c r="AN173">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="174" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <f t="shared" si="47"/>
+        <v>44080</v>
+      </c>
+      <c r="B174">
+        <v>667907</v>
+      </c>
+      <c r="C174">
+        <v>69754</v>
+      </c>
+      <c r="D174">
+        <v>49656</v>
+      </c>
+      <c r="E174">
+        <v>1165</v>
+      </c>
+      <c r="F174">
+        <v>309</v>
+      </c>
+      <c r="H174">
+        <v>91</v>
+      </c>
+      <c r="I174">
+        <v>52</v>
+      </c>
+      <c r="J174">
+        <v>66</v>
+      </c>
+      <c r="K174">
+        <v>20</v>
+      </c>
+      <c r="L174">
+        <v>9</v>
+      </c>
+      <c r="M174" s="7">
+        <f>B174-C174</f>
+        <v>598153</v>
+      </c>
+      <c r="N174" s="4">
+        <f>C174/B174</f>
+        <v>0.10443669552797021</v>
+      </c>
+      <c r="Q174">
+        <f t="shared" ref="Q174" si="62">C174-C173</f>
+        <v>821</v>
+      </c>
+      <c r="R174">
+        <f t="shared" ref="R174" si="63">M174-M173</f>
+        <v>5270</v>
+      </c>
+      <c r="S174" s="8">
+        <f t="shared" ref="S174" si="64">Q174/U174</f>
+        <v>0.13478903299950748</v>
+      </c>
+      <c r="T174" s="8">
+        <f t="shared" ref="T174" si="65">SUM(Q168:Q174)/SUM(U168:U174)</f>
+        <v>0.15082352313072261</v>
+      </c>
+      <c r="U174">
+        <f t="shared" ref="U174" si="66">B174-B173</f>
+        <v>6091</v>
+      </c>
+      <c r="V174">
+        <f t="shared" ref="V174" si="67">C174-D174-E174</f>
+        <v>18933</v>
+      </c>
+      <c r="W174" s="3">
+        <f t="shared" ref="W174" si="68">F174/V174</f>
+        <v>1.6320709871652669E-2</v>
+      </c>
+      <c r="X174">
+        <f t="shared" ref="X174" si="69">E174-E173</f>
+        <v>7</v>
+      </c>
+      <c r="Y174">
+        <v>376</v>
+      </c>
+      <c r="Z174">
+        <v>223</v>
+      </c>
+      <c r="AA174">
+        <v>3994</v>
+      </c>
+      <c r="AB174">
+        <v>223</v>
+      </c>
+      <c r="AC174">
+        <v>190</v>
+      </c>
+      <c r="AD174">
+        <v>3073</v>
+      </c>
+      <c r="AE174">
+        <v>7</v>
+      </c>
+      <c r="AF174">
+        <v>2</v>
+      </c>
+      <c r="AG174">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
-  <workbookPr codeName="ThisWorkbook" checkCompatibility="1" defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2019-2020\Winter 2020\COVID19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E914755E-A0BB-48BB-92C0-1CA7D10CE060}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FB6F741-3796-43B2-AECF-3BE32B75720B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1091,13 +1091,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AS173"/>
+  <dimension ref="A1:AS175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA154" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AC162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL173" sqref="AL173"/>
+      <selection pane="bottomRight" activeCell="AK174" sqref="AK174:AK175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14010,11 +14010,11 @@
         <v>5089</v>
       </c>
       <c r="V151">
-        <f t="shared" ref="V151:V173" si="44">C151-D151-E151</f>
+        <f t="shared" ref="V151:V172" si="44">C151-D151-E151</f>
         <v>9929</v>
       </c>
       <c r="W151" s="3">
-        <f t="shared" ref="W151:W173" si="45">F151/V151</f>
+        <f t="shared" ref="W151:W172" si="45">F151/V151</f>
         <v>2.5984489878134755E-2</v>
       </c>
       <c r="X151">
@@ -14076,7 +14076,7 @@
     </row>
     <row r="152" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <f t="shared" ref="A152:A173" si="47">A151+1</f>
+        <f t="shared" ref="A152:A175" si="47">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -16825,6 +16825,253 @@
       <c r="AK173">
         <f>-(J173-J172)+L173</f>
         <v>10</v>
+      </c>
+      <c r="AL173">
+        <v>78</v>
+      </c>
+      <c r="AM173">
+        <v>78</v>
+      </c>
+      <c r="AN173">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="174" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <f t="shared" si="47"/>
+        <v>44080</v>
+      </c>
+      <c r="B174">
+        <v>667907</v>
+      </c>
+      <c r="C174">
+        <v>69754</v>
+      </c>
+      <c r="D174">
+        <v>49656</v>
+      </c>
+      <c r="E174">
+        <v>1165</v>
+      </c>
+      <c r="F174">
+        <v>309</v>
+      </c>
+      <c r="H174">
+        <v>91</v>
+      </c>
+      <c r="I174">
+        <v>52</v>
+      </c>
+      <c r="J174">
+        <v>66</v>
+      </c>
+      <c r="K174">
+        <v>20</v>
+      </c>
+      <c r="L174">
+        <v>9</v>
+      </c>
+      <c r="M174" s="7">
+        <f>B174-C174</f>
+        <v>598153</v>
+      </c>
+      <c r="N174" s="4">
+        <f>C174/B174</f>
+        <v>0.10443669552797021</v>
+      </c>
+      <c r="Q174">
+        <f t="shared" ref="Q174" si="62">C174-C173</f>
+        <v>821</v>
+      </c>
+      <c r="R174">
+        <f t="shared" ref="R174" si="63">M174-M173</f>
+        <v>5270</v>
+      </c>
+      <c r="S174" s="8">
+        <f t="shared" ref="S174" si="64">Q174/U174</f>
+        <v>0.13478903299950748</v>
+      </c>
+      <c r="T174" s="8">
+        <f t="shared" ref="T174" si="65">SUM(Q168:Q174)/SUM(U168:U174)</f>
+        <v>0.15082352313072261</v>
+      </c>
+      <c r="U174">
+        <f t="shared" ref="U174" si="66">B174-B173</f>
+        <v>6091</v>
+      </c>
+      <c r="V174">
+        <f t="shared" ref="V174:V175" si="67">C174-D174-E174</f>
+        <v>18933</v>
+      </c>
+      <c r="W174" s="3">
+        <f t="shared" ref="W174:W175" si="68">F174/V174</f>
+        <v>1.6320709871652669E-2</v>
+      </c>
+      <c r="X174">
+        <f t="shared" ref="X174" si="69">E174-E173</f>
+        <v>7</v>
+      </c>
+      <c r="Y174">
+        <v>376</v>
+      </c>
+      <c r="Z174">
+        <v>223</v>
+      </c>
+      <c r="AA174">
+        <v>3994</v>
+      </c>
+      <c r="AB174">
+        <v>223</v>
+      </c>
+      <c r="AC174">
+        <v>190</v>
+      </c>
+      <c r="AD174">
+        <v>3073</v>
+      </c>
+      <c r="AE174">
+        <v>7</v>
+      </c>
+      <c r="AF174">
+        <v>2</v>
+      </c>
+      <c r="AG174">
+        <v>78</v>
+      </c>
+      <c r="AH174">
+        <f t="shared" ref="AH174" si="70">Y174-AB174-AE174</f>
+        <v>146</v>
+      </c>
+      <c r="AI174">
+        <f t="shared" ref="AI174" si="71">Z174-AC174-AF174</f>
+        <v>31</v>
+      </c>
+      <c r="AJ174">
+        <f t="shared" ref="AJ174" si="72">AA174-AD174-AG174</f>
+        <v>843</v>
+      </c>
+      <c r="AK174">
+        <f>-(J174-J173)+L174</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <f t="shared" si="47"/>
+        <v>44081</v>
+      </c>
+      <c r="B175">
+        <v>670523</v>
+      </c>
+      <c r="C175">
+        <v>70260</v>
+      </c>
+      <c r="D175">
+        <v>49863</v>
+      </c>
+      <c r="E175">
+        <v>1167</v>
+      </c>
+      <c r="F175">
+        <v>311</v>
+      </c>
+      <c r="H175">
+        <v>99</v>
+      </c>
+      <c r="I175">
+        <v>31</v>
+      </c>
+      <c r="J175">
+        <v>67</v>
+      </c>
+      <c r="K175">
+        <v>16</v>
+      </c>
+      <c r="L175">
+        <v>8</v>
+      </c>
+      <c r="M175" s="7">
+        <f>B175-C175</f>
+        <v>600263</v>
+      </c>
+      <c r="N175" s="4">
+        <f>C175/B175</f>
+        <v>0.1047838776596776</v>
+      </c>
+      <c r="Q175">
+        <f t="shared" ref="Q175" si="73">C175-C174</f>
+        <v>506</v>
+      </c>
+      <c r="R175">
+        <f t="shared" ref="R175" si="74">M175-M174</f>
+        <v>2110</v>
+      </c>
+      <c r="S175" s="8">
+        <f t="shared" ref="S175" si="75">Q175/U175</f>
+        <v>0.19342507645259938</v>
+      </c>
+      <c r="T175" s="8">
+        <f t="shared" ref="T175" si="76">SUM(Q169:Q175)/SUM(U169:U175)</f>
+        <v>0.15049241704875335</v>
+      </c>
+      <c r="U175">
+        <f t="shared" ref="U175" si="77">B175-B174</f>
+        <v>2616</v>
+      </c>
+      <c r="V175">
+        <f t="shared" ref="V175" si="78">C175-D175-E175</f>
+        <v>19230</v>
+      </c>
+      <c r="W175" s="3">
+        <f t="shared" ref="W175" si="79">F175/V175</f>
+        <v>1.6172646905876234E-2</v>
+      </c>
+      <c r="X175">
+        <f t="shared" ref="X175" si="80">E175-E174</f>
+        <v>2</v>
+      </c>
+      <c r="Y175">
+        <v>382</v>
+      </c>
+      <c r="Z175">
+        <v>224</v>
+      </c>
+      <c r="AA175">
+        <v>4022</v>
+      </c>
+      <c r="AB175">
+        <v>223</v>
+      </c>
+      <c r="AC175">
+        <v>196</v>
+      </c>
+      <c r="AD175">
+        <v>3078</v>
+      </c>
+      <c r="AE175">
+        <v>7</v>
+      </c>
+      <c r="AF175">
+        <v>2</v>
+      </c>
+      <c r="AG175">
+        <v>78</v>
+      </c>
+      <c r="AH175">
+        <f t="shared" ref="AH175" si="81">Y175-AB175-AE175</f>
+        <v>152</v>
+      </c>
+      <c r="AI175">
+        <f t="shared" ref="AI175" si="82">Z175-AC175-AF175</f>
+        <v>26</v>
+      </c>
+      <c r="AJ175">
+        <f t="shared" ref="AJ175" si="83">AA175-AD175-AG175</f>
+        <v>866</v>
+      </c>
+      <c r="AK175">
+        <f>-(J175-J174)+L175</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FB6F741-3796-43B2-AECF-3BE32B75720B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6F717E4C-B026-4615-8B8E-759922902777}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1091,13 +1091,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AS175"/>
+  <dimension ref="A1:AS176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC162" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK174" sqref="AK174:AK175"/>
+      <selection pane="bottomRight" activeCell="AO175" sqref="AO175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14076,7 +14076,7 @@
     </row>
     <row r="152" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <f t="shared" ref="A152:A175" si="47">A151+1</f>
+        <f t="shared" ref="A152:A176" si="47">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -17019,11 +17019,11 @@
         <v>2616</v>
       </c>
       <c r="V175">
-        <f t="shared" ref="V175" si="78">C175-D175-E175</f>
+        <f t="shared" ref="V175:V176" si="78">C175-D175-E175</f>
         <v>19230</v>
       </c>
       <c r="W175" s="3">
-        <f t="shared" ref="W175" si="79">F175/V175</f>
+        <f t="shared" ref="W175:W176" si="79">F175/V175</f>
         <v>1.6172646905876234E-2</v>
       </c>
       <c r="X175">
@@ -17058,20 +17058,148 @@
         <v>78</v>
       </c>
       <c r="AH175">
-        <f t="shared" ref="AH175" si="81">Y175-AB175-AE175</f>
+        <f t="shared" ref="AH175:AH176" si="81">Y175-AB175-AE175</f>
         <v>152</v>
       </c>
       <c r="AI175">
-        <f t="shared" ref="AI175" si="82">Z175-AC175-AF175</f>
+        <f t="shared" ref="AI175:AI176" si="82">Z175-AC175-AF175</f>
         <v>26</v>
       </c>
       <c r="AJ175">
-        <f t="shared" ref="AJ175" si="83">AA175-AD175-AG175</f>
+        <f t="shared" ref="AJ175:AJ176" si="83">AA175-AD175-AG175</f>
         <v>866</v>
       </c>
       <c r="AK175">
         <f>-(J175-J174)+L175</f>
         <v>7</v>
+      </c>
+      <c r="AL175">
+        <v>67</v>
+      </c>
+      <c r="AM175">
+        <v>68</v>
+      </c>
+      <c r="AN175">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="176" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <f t="shared" si="47"/>
+        <v>44082</v>
+      </c>
+      <c r="B176">
+        <v>673617</v>
+      </c>
+      <c r="C176">
+        <v>70650</v>
+      </c>
+      <c r="D176">
+        <v>50362</v>
+      </c>
+      <c r="E176">
+        <v>1170</v>
+      </c>
+      <c r="F176">
+        <v>326</v>
+      </c>
+      <c r="H176">
+        <v>92</v>
+      </c>
+      <c r="I176">
+        <v>41</v>
+      </c>
+      <c r="J176">
+        <v>74</v>
+      </c>
+      <c r="K176">
+        <v>18</v>
+      </c>
+      <c r="L176">
+        <v>12</v>
+      </c>
+      <c r="M176" s="7">
+        <f>B176-C176</f>
+        <v>602967</v>
+      </c>
+      <c r="N176" s="4">
+        <f>C176/B176</f>
+        <v>0.10488155732411741</v>
+      </c>
+      <c r="Q176">
+        <f t="shared" ref="Q176" si="84">C176-C175</f>
+        <v>390</v>
+      </c>
+      <c r="R176">
+        <f t="shared" ref="R176" si="85">M176-M175</f>
+        <v>2704</v>
+      </c>
+      <c r="S176" s="8">
+        <f t="shared" ref="S176" si="86">Q176/U176</f>
+        <v>0.12605042016806722</v>
+      </c>
+      <c r="T176" s="8">
+        <f t="shared" ref="T176" si="87">SUM(Q170:Q176)/SUM(U170:U176)</f>
+        <v>0.14385080921214777</v>
+      </c>
+      <c r="U176">
+        <f t="shared" ref="U176" si="88">B176-B175</f>
+        <v>3094</v>
+      </c>
+      <c r="V176">
+        <f t="shared" ref="V176" si="89">C176-D176-E176</f>
+        <v>19118</v>
+      </c>
+      <c r="W176" s="3">
+        <f t="shared" ref="W176" si="90">F176/V176</f>
+        <v>1.7051992886285176E-2</v>
+      </c>
+      <c r="X176">
+        <f t="shared" ref="X176" si="91">E176-E175</f>
+        <v>3</v>
+      </c>
+      <c r="Y176">
+        <v>387</v>
+      </c>
+      <c r="Z176">
+        <v>230</v>
+      </c>
+      <c r="AA176">
+        <v>4037</v>
+      </c>
+      <c r="AB176">
+        <v>226</v>
+      </c>
+      <c r="AC176">
+        <v>196</v>
+      </c>
+      <c r="AD176">
+        <v>3112</v>
+      </c>
+      <c r="AE176">
+        <v>7</v>
+      </c>
+      <c r="AF176">
+        <v>2</v>
+      </c>
+      <c r="AG176">
+        <v>79</v>
+      </c>
+      <c r="AH176">
+        <f t="shared" si="81"/>
+        <v>154</v>
+      </c>
+      <c r="AI176">
+        <f t="shared" si="82"/>
+        <v>32</v>
+      </c>
+      <c r="AJ176">
+        <f t="shared" si="83"/>
+        <v>846</v>
+      </c>
+      <c r="AK176">
+        <f>-(J176-J175)+L176</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E6F7C3-D1E2-4A81-A682-3CDDA2321243}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFAA8DD7-645F-47D9-8B1D-743A46F6924F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1091,13 +1091,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AS177"/>
+  <dimension ref="A1:AS181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W162" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AG161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AN176" sqref="AN176"/>
+      <selection pane="bottomRight" activeCell="AL180" sqref="AL180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14076,7 +14076,7 @@
     </row>
     <row r="152" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <f t="shared" ref="A152:A177" si="47">A151+1</f>
+        <f t="shared" ref="A152:A181" si="47">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -16323,6 +16323,15 @@
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
+      <c r="AL169">
+        <v>42</v>
+      </c>
+      <c r="AM169">
+        <v>44</v>
+      </c>
+      <c r="AN169">
+        <v>82</v>
+      </c>
     </row>
     <row r="170" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
@@ -16616,11 +16625,11 @@
         <v>5</v>
       </c>
       <c r="M172" s="7">
-        <f>B172-C172</f>
+        <f t="shared" ref="M172:M181" si="56">B172-C172</f>
         <v>586759</v>
       </c>
       <c r="N172" s="4">
-        <f>C172/B172</f>
+        <f t="shared" ref="N172:N181" si="57">C172/B172</f>
         <v>0.10364144374529295</v>
       </c>
       <c r="Q172">
@@ -16744,39 +16753,39 @@
         <v>10</v>
       </c>
       <c r="M173" s="7">
-        <f>B173-C173</f>
+        <f t="shared" si="56"/>
         <v>592883</v>
       </c>
       <c r="N173" s="4">
-        <f>C173/B173</f>
+        <f t="shared" si="57"/>
         <v>0.10415734887038089</v>
       </c>
       <c r="Q173">
-        <f t="shared" ref="Q173" si="56">C173-C172</f>
+        <f t="shared" ref="Q173" si="58">C173-C172</f>
         <v>1089</v>
       </c>
       <c r="R173">
-        <f t="shared" ref="R173" si="57">M173-M172</f>
+        <f t="shared" ref="R173" si="59">M173-M172</f>
         <v>6124</v>
       </c>
       <c r="S173" s="8">
-        <f t="shared" ref="S173" si="58">Q173/U173</f>
+        <f t="shared" ref="S173" si="60">Q173/U173</f>
         <v>0.15097740191321227</v>
       </c>
       <c r="T173" s="8">
-        <f t="shared" ref="T173" si="59">SUM(Q167:Q173)/SUM(U167:U173)</f>
+        <f t="shared" ref="T173" si="61">SUM(Q167:Q173)/SUM(U167:U173)</f>
         <v>0.15735821579784795</v>
       </c>
       <c r="U173">
-        <f t="shared" ref="U173" si="60">B173-B172</f>
+        <f t="shared" ref="U173" si="62">B173-B172</f>
         <v>7213</v>
       </c>
       <c r="V173">
-        <f t="shared" ref="V173" si="61">C173-D173-E173</f>
+        <f t="shared" ref="V173" si="63">C173-D173-E173</f>
         <v>18288</v>
       </c>
       <c r="W173" s="3">
-        <f t="shared" ref="W173" si="62">F173/V173</f>
+        <f t="shared" ref="W173" si="64">F173/V173</f>
         <v>1.7224409448818898E-2</v>
       </c>
       <c r="X173">
@@ -16872,43 +16881,43 @@
         <v>9</v>
       </c>
       <c r="M174" s="7">
-        <f>B174-C174</f>
+        <f t="shared" si="56"/>
         <v>598153</v>
       </c>
       <c r="N174" s="4">
-        <f>C174/B174</f>
+        <f t="shared" si="57"/>
         <v>0.10443669552797021</v>
       </c>
       <c r="Q174">
-        <f t="shared" ref="Q174" si="63">C174-C173</f>
+        <f t="shared" ref="Q174" si="65">C174-C173</f>
         <v>821</v>
       </c>
       <c r="R174">
-        <f t="shared" ref="R174" si="64">M174-M173</f>
+        <f t="shared" ref="R174" si="66">M174-M173</f>
         <v>5270</v>
       </c>
       <c r="S174" s="8">
-        <f t="shared" ref="S174" si="65">Q174/U174</f>
+        <f t="shared" ref="S174" si="67">Q174/U174</f>
         <v>0.13478903299950748</v>
       </c>
       <c r="T174" s="8">
-        <f t="shared" ref="T174" si="66">SUM(Q168:Q174)/SUM(U168:U174)</f>
+        <f t="shared" ref="T174" si="68">SUM(Q168:Q174)/SUM(U168:U174)</f>
         <v>0.15082352313072261</v>
       </c>
       <c r="U174">
-        <f t="shared" ref="U174" si="67">B174-B173</f>
+        <f t="shared" ref="U174" si="69">B174-B173</f>
         <v>6091</v>
       </c>
       <c r="V174">
-        <f t="shared" ref="V174" si="68">C174-D174-E174</f>
+        <f t="shared" ref="V174" si="70">C174-D174-E174</f>
         <v>18933</v>
       </c>
       <c r="W174" s="3">
-        <f t="shared" ref="W174" si="69">F174/V174</f>
+        <f t="shared" ref="W174" si="71">F174/V174</f>
         <v>1.6320709871652669E-2</v>
       </c>
       <c r="X174">
-        <f t="shared" ref="X174" si="70">E174-E173</f>
+        <f t="shared" ref="X174" si="72">E174-E173</f>
         <v>7</v>
       </c>
       <c r="Y174">
@@ -16939,20 +16948,29 @@
         <v>78</v>
       </c>
       <c r="AH174">
-        <f t="shared" ref="AH174" si="71">Y174-AB174-AE174</f>
+        <f t="shared" ref="AH174" si="73">Y174-AB174-AE174</f>
         <v>146</v>
       </c>
       <c r="AI174">
-        <f t="shared" ref="AI174" si="72">Z174-AC174-AF174</f>
+        <f t="shared" ref="AI174" si="74">Z174-AC174-AF174</f>
         <v>31</v>
       </c>
       <c r="AJ174">
-        <f t="shared" ref="AJ174" si="73">AA174-AD174-AG174</f>
+        <f t="shared" ref="AJ174" si="75">AA174-AD174-AG174</f>
         <v>843</v>
       </c>
       <c r="AK174">
         <f t="shared" si="55"/>
         <v>11</v>
+      </c>
+      <c r="AL174">
+        <v>75</v>
+      </c>
+      <c r="AM174">
+        <v>75</v>
+      </c>
+      <c r="AN174">
+        <v>103</v>
       </c>
     </row>
     <row r="175" spans="1:40" x14ac:dyDescent="0.35">
@@ -16991,43 +17009,43 @@
         <v>8</v>
       </c>
       <c r="M175" s="7">
-        <f>B175-C175</f>
+        <f t="shared" si="56"/>
         <v>600263</v>
       </c>
       <c r="N175" s="4">
-        <f>C175/B175</f>
+        <f t="shared" si="57"/>
         <v>0.1047838776596776</v>
       </c>
       <c r="Q175">
-        <f t="shared" ref="Q175" si="74">C175-C174</f>
+        <f t="shared" ref="Q175" si="76">C175-C174</f>
         <v>506</v>
       </c>
       <c r="R175">
-        <f t="shared" ref="R175" si="75">M175-M174</f>
+        <f t="shared" ref="R175" si="77">M175-M174</f>
         <v>2110</v>
       </c>
       <c r="S175" s="8">
-        <f t="shared" ref="S175" si="76">Q175/U175</f>
+        <f t="shared" ref="S175" si="78">Q175/U175</f>
         <v>0.19342507645259938</v>
       </c>
       <c r="T175" s="8">
-        <f t="shared" ref="T175" si="77">SUM(Q169:Q175)/SUM(U169:U175)</f>
+        <f t="shared" ref="T175" si="79">SUM(Q169:Q175)/SUM(U169:U175)</f>
         <v>0.15049241704875335</v>
       </c>
       <c r="U175">
-        <f t="shared" ref="U175" si="78">B175-B174</f>
+        <f t="shared" ref="U175" si="80">B175-B174</f>
         <v>2616</v>
       </c>
       <c r="V175">
-        <f t="shared" ref="V175" si="79">C175-D175-E175</f>
+        <f t="shared" ref="V175" si="81">C175-D175-E175</f>
         <v>19230</v>
       </c>
       <c r="W175" s="3">
-        <f t="shared" ref="W175" si="80">F175/V175</f>
+        <f t="shared" ref="W175" si="82">F175/V175</f>
         <v>1.6172646905876234E-2</v>
       </c>
       <c r="X175">
-        <f t="shared" ref="X175" si="81">E175-E174</f>
+        <f t="shared" ref="X175" si="83">E175-E174</f>
         <v>2</v>
       </c>
       <c r="Y175">
@@ -17058,15 +17076,15 @@
         <v>78</v>
       </c>
       <c r="AH175">
-        <f t="shared" ref="AH175:AH176" si="82">Y175-AB175-AE175</f>
+        <f t="shared" ref="AH175:AH176" si="84">Y175-AB175-AE175</f>
         <v>152</v>
       </c>
       <c r="AI175">
-        <f t="shared" ref="AI175:AI176" si="83">Z175-AC175-AF175</f>
+        <f t="shared" ref="AI175:AI176" si="85">Z175-AC175-AF175</f>
         <v>26</v>
       </c>
       <c r="AJ175">
-        <f t="shared" ref="AJ175:AJ176" si="84">AA175-AD175-AG175</f>
+        <f t="shared" ref="AJ175:AJ176" si="86">AA175-AD175-AG175</f>
         <v>866</v>
       </c>
       <c r="AK175">
@@ -17119,43 +17137,43 @@
         <v>12</v>
       </c>
       <c r="M176" s="7">
-        <f>B176-C176</f>
+        <f t="shared" si="56"/>
         <v>602967</v>
       </c>
       <c r="N176" s="4">
-        <f>C176/B176</f>
+        <f t="shared" si="57"/>
         <v>0.10488155732411741</v>
       </c>
       <c r="Q176">
-        <f t="shared" ref="Q176" si="85">C176-C175</f>
+        <f t="shared" ref="Q176" si="87">C176-C175</f>
         <v>390</v>
       </c>
       <c r="R176">
-        <f t="shared" ref="R176" si="86">M176-M175</f>
+        <f t="shared" ref="R176" si="88">M176-M175</f>
         <v>2704</v>
       </c>
       <c r="S176" s="8">
-        <f t="shared" ref="S176" si="87">Q176/U176</f>
+        <f t="shared" ref="S176" si="89">Q176/U176</f>
         <v>0.12605042016806722</v>
       </c>
       <c r="T176" s="8">
-        <f t="shared" ref="T176" si="88">SUM(Q170:Q176)/SUM(U170:U176)</f>
+        <f t="shared" ref="T176" si="90">SUM(Q170:Q176)/SUM(U170:U176)</f>
         <v>0.14385080921214777</v>
       </c>
       <c r="U176">
-        <f t="shared" ref="U176" si="89">B176-B175</f>
+        <f t="shared" ref="U176" si="91">B176-B175</f>
         <v>3094</v>
       </c>
       <c r="V176">
-        <f t="shared" ref="V176" si="90">C176-D176-E176</f>
+        <f t="shared" ref="V176" si="92">C176-D176-E176</f>
         <v>19118</v>
       </c>
       <c r="W176" s="3">
-        <f t="shared" ref="W176" si="91">F176/V176</f>
+        <f t="shared" ref="W176" si="93">F176/V176</f>
         <v>1.7051992886285176E-2</v>
       </c>
       <c r="X176">
-        <f t="shared" ref="X176" si="92">E176-E175</f>
+        <f t="shared" ref="X176" si="94">E176-E175</f>
         <v>3</v>
       </c>
       <c r="Y176">
@@ -17186,15 +17204,15 @@
         <v>79</v>
       </c>
       <c r="AH176">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>154</v>
       </c>
       <c r="AI176">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>32</v>
       </c>
       <c r="AJ176">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>846</v>
       </c>
       <c r="AK176">
@@ -17211,7 +17229,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="177" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <f t="shared" si="47"/>
         <v>44083</v>
@@ -17247,43 +17265,43 @@
         <v>5</v>
       </c>
       <c r="M177" s="7">
-        <f>B177-C177</f>
+        <f t="shared" si="56"/>
         <v>605523</v>
       </c>
       <c r="N177" s="4">
-        <f>C177/B177</f>
+        <f t="shared" si="57"/>
         <v>0.10504760581615671</v>
       </c>
       <c r="Q177">
-        <f t="shared" ref="Q177" si="93">C177-C176</f>
+        <f t="shared" ref="Q177" si="95">C177-C176</f>
         <v>425</v>
       </c>
       <c r="R177">
-        <f t="shared" ref="R177" si="94">M177-M176</f>
+        <f t="shared" ref="R177" si="96">M177-M176</f>
         <v>2556</v>
       </c>
       <c r="S177" s="8">
-        <f t="shared" ref="S177" si="95">Q177/U177</f>
+        <f t="shared" ref="S177" si="97">Q177/U177</f>
         <v>0.14256960751425696</v>
       </c>
       <c r="T177" s="8">
-        <f t="shared" ref="T177" si="96">SUM(Q171:Q177)/SUM(U171:U177)</f>
+        <f t="shared" ref="T177" si="98">SUM(Q171:Q177)/SUM(U171:U177)</f>
         <v>0.1448185495356919</v>
       </c>
       <c r="U177">
-        <f t="shared" ref="U177" si="97">B177-B176</f>
+        <f t="shared" ref="U177" si="99">B177-B176</f>
         <v>2981</v>
       </c>
       <c r="V177">
-        <f t="shared" ref="V177" si="98">C177-D177-E177</f>
+        <f t="shared" ref="V177" si="100">C177-D177-E177</f>
         <v>18961</v>
       </c>
       <c r="W177" s="3">
-        <f t="shared" ref="W177" si="99">F177/V177</f>
+        <f t="shared" ref="W177" si="101">F177/V177</f>
         <v>1.6982226675808239E-2</v>
       </c>
       <c r="X177">
-        <f t="shared" ref="X177" si="100">E177-E176</f>
+        <f t="shared" ref="X177" si="102">E177-E176</f>
         <v>15</v>
       </c>
       <c r="Y177">
@@ -17314,20 +17332,532 @@
         <v>79</v>
       </c>
       <c r="AH177">
-        <f t="shared" ref="AH177" si="101">Y177-AB177-AE177</f>
+        <f t="shared" ref="AH177" si="103">Y177-AB177-AE177</f>
         <v>155</v>
       </c>
       <c r="AI177">
-        <f t="shared" ref="AI177" si="102">Z177-AC177-AF177</f>
+        <f t="shared" ref="AI177" si="104">Z177-AC177-AF177</f>
         <v>34</v>
       </c>
       <c r="AJ177">
-        <f t="shared" ref="AJ177" si="103">AA177-AD177-AG177</f>
+        <f t="shared" ref="AJ177" si="105">AA177-AD177-AG177</f>
         <v>862</v>
       </c>
       <c r="AK177">
-        <f t="shared" ref="AK177" si="104">-(J177-J176)+L177</f>
+        <f t="shared" ref="AK177" si="106">-(J177-J176)+L177</f>
         <v>2</v>
+      </c>
+      <c r="AL177">
+        <v>67</v>
+      </c>
+      <c r="AM177">
+        <v>67</v>
+      </c>
+      <c r="AN177">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="178" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <f t="shared" si="47"/>
+        <v>44084</v>
+      </c>
+      <c r="B178">
+        <v>681906</v>
+      </c>
+      <c r="C178">
+        <v>71731</v>
+      </c>
+      <c r="D178">
+        <v>51621</v>
+      </c>
+      <c r="E178">
+        <v>1204</v>
+      </c>
+      <c r="F178">
+        <v>302</v>
+      </c>
+      <c r="H178">
+        <v>85</v>
+      </c>
+      <c r="I178">
+        <v>48</v>
+      </c>
+      <c r="J178">
+        <v>72</v>
+      </c>
+      <c r="K178">
+        <v>19</v>
+      </c>
+      <c r="L178">
+        <v>10</v>
+      </c>
+      <c r="M178" s="7">
+        <f t="shared" si="56"/>
+        <v>610175</v>
+      </c>
+      <c r="N178" s="4">
+        <f t="shared" si="57"/>
+        <v>0.10519191794763501</v>
+      </c>
+      <c r="Q178">
+        <f t="shared" ref="Q178" si="107">C178-C177</f>
+        <v>656</v>
+      </c>
+      <c r="R178">
+        <f t="shared" ref="R178" si="108">M178-M177</f>
+        <v>4652</v>
+      </c>
+      <c r="S178" s="8">
+        <f t="shared" ref="S178" si="109">Q178/U178</f>
+        <v>0.12358703843255464</v>
+      </c>
+      <c r="T178" s="8">
+        <f t="shared" ref="T178" si="110">SUM(Q172:Q178)/SUM(U172:U178)</f>
+        <v>0.14607736700759957</v>
+      </c>
+      <c r="U178">
+        <f t="shared" ref="U178" si="111">B178-B177</f>
+        <v>5308</v>
+      </c>
+      <c r="V178">
+        <f t="shared" ref="V178" si="112">C178-D178-E178</f>
+        <v>18906</v>
+      </c>
+      <c r="W178" s="3">
+        <f t="shared" ref="W178" si="113">F178/V178</f>
+        <v>1.5973764942346345E-2</v>
+      </c>
+      <c r="X178">
+        <f t="shared" ref="X178" si="114">E178-E177</f>
+        <v>19</v>
+      </c>
+      <c r="Y178">
+        <v>400</v>
+      </c>
+      <c r="Z178">
+        <v>233</v>
+      </c>
+      <c r="AA178">
+        <v>4078</v>
+      </c>
+      <c r="AB178">
+        <v>234</v>
+      </c>
+      <c r="AC178">
+        <v>207</v>
+      </c>
+      <c r="AD178">
+        <v>3173</v>
+      </c>
+      <c r="AE178">
+        <v>7</v>
+      </c>
+      <c r="AF178">
+        <v>2</v>
+      </c>
+      <c r="AG178">
+        <v>81</v>
+      </c>
+      <c r="AH178">
+        <f t="shared" ref="AH178" si="115">Y178-AB178-AE178</f>
+        <v>159</v>
+      </c>
+      <c r="AI178">
+        <f t="shared" ref="AI178" si="116">Z178-AC178-AF178</f>
+        <v>24</v>
+      </c>
+      <c r="AJ178">
+        <f t="shared" ref="AJ178" si="117">AA178-AD178-AG178</f>
+        <v>824</v>
+      </c>
+      <c r="AK178">
+        <f t="shared" ref="AK178" si="118">-(J178-J177)+L178</f>
+        <v>15</v>
+      </c>
+      <c r="AL178">
+        <v>43</v>
+      </c>
+      <c r="AM178">
+        <v>43</v>
+      </c>
+      <c r="AN178">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="179" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <f t="shared" si="47"/>
+        <v>44085</v>
+      </c>
+      <c r="B179">
+        <v>688102</v>
+      </c>
+      <c r="C179">
+        <v>72631</v>
+      </c>
+      <c r="D179">
+        <v>52261</v>
+      </c>
+      <c r="E179">
+        <v>1208</v>
+      </c>
+      <c r="F179">
+        <v>281</v>
+      </c>
+      <c r="H179">
+        <v>83</v>
+      </c>
+      <c r="I179">
+        <v>27</v>
+      </c>
+      <c r="J179">
+        <v>62</v>
+      </c>
+      <c r="K179">
+        <v>20</v>
+      </c>
+      <c r="L179">
+        <v>7</v>
+      </c>
+      <c r="M179" s="7">
+        <f t="shared" si="56"/>
+        <v>615471</v>
+      </c>
+      <c r="N179" s="4">
+        <f t="shared" si="57"/>
+        <v>0.10555266515720053</v>
+      </c>
+      <c r="Q179">
+        <f t="shared" ref="Q179" si="119">C179-C178</f>
+        <v>900</v>
+      </c>
+      <c r="R179">
+        <f t="shared" ref="R179" si="120">M179-M178</f>
+        <v>5296</v>
+      </c>
+      <c r="S179" s="8">
+        <f t="shared" ref="S179" si="121">Q179/U179</f>
+        <v>0.14525500322788895</v>
+      </c>
+      <c r="T179" s="8">
+        <f t="shared" ref="T179" si="122">SUM(Q173:Q179)/SUM(U173:U179)</f>
+        <v>0.14289978805337472</v>
+      </c>
+      <c r="U179">
+        <f t="shared" ref="U179" si="123">B179-B178</f>
+        <v>6196</v>
+      </c>
+      <c r="V179">
+        <f t="shared" ref="V179:V180" si="124">C179-D179-E179</f>
+        <v>19162</v>
+      </c>
+      <c r="W179" s="3">
+        <f t="shared" ref="W179:W180" si="125">F179/V179</f>
+        <v>1.4664440037574366E-2</v>
+      </c>
+      <c r="X179">
+        <f t="shared" ref="X179" si="126">E179-E178</f>
+        <v>4</v>
+      </c>
+      <c r="Y179">
+        <v>414</v>
+      </c>
+      <c r="Z179">
+        <v>236</v>
+      </c>
+      <c r="AA179">
+        <v>4117</v>
+      </c>
+      <c r="AB179">
+        <v>236</v>
+      </c>
+      <c r="AC179">
+        <v>210</v>
+      </c>
+      <c r="AD179">
+        <v>3209</v>
+      </c>
+      <c r="AE179">
+        <v>7</v>
+      </c>
+      <c r="AF179">
+        <v>2</v>
+      </c>
+      <c r="AG179">
+        <v>81</v>
+      </c>
+      <c r="AH179">
+        <f t="shared" ref="AH179" si="127">Y179-AB179-AE179</f>
+        <v>171</v>
+      </c>
+      <c r="AI179">
+        <f t="shared" ref="AI179" si="128">Z179-AC179-AF179</f>
+        <v>24</v>
+      </c>
+      <c r="AJ179">
+        <f t="shared" ref="AJ179" si="129">AA179-AD179-AG179</f>
+        <v>827</v>
+      </c>
+      <c r="AK179">
+        <f t="shared" ref="AK179" si="130">-(J179-J178)+L179</f>
+        <v>17</v>
+      </c>
+      <c r="AL179">
+        <v>42</v>
+      </c>
+      <c r="AM179">
+        <v>43</v>
+      </c>
+      <c r="AN179">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="180" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <f t="shared" si="47"/>
+        <v>44086</v>
+      </c>
+      <c r="B180">
+        <v>694371</v>
+      </c>
+      <c r="C180">
+        <v>73495</v>
+      </c>
+      <c r="D180">
+        <v>52930</v>
+      </c>
+      <c r="E180">
+        <v>1216</v>
+      </c>
+      <c r="F180">
+        <v>290</v>
+      </c>
+      <c r="H180">
+        <v>90</v>
+      </c>
+      <c r="I180">
+        <v>50</v>
+      </c>
+      <c r="J180">
+        <v>67</v>
+      </c>
+      <c r="K180">
+        <v>18</v>
+      </c>
+      <c r="L180">
+        <v>12</v>
+      </c>
+      <c r="M180" s="7">
+        <f t="shared" si="56"/>
+        <v>620876</v>
+      </c>
+      <c r="N180" s="4">
+        <f t="shared" si="57"/>
+        <v>0.10584399406081187</v>
+      </c>
+      <c r="Q180">
+        <f t="shared" ref="Q180" si="131">C180-C179</f>
+        <v>864</v>
+      </c>
+      <c r="R180">
+        <f t="shared" ref="R180" si="132">M180-M179</f>
+        <v>5405</v>
+      </c>
+      <c r="S180" s="8">
+        <f t="shared" ref="S180" si="133">Q180/U180</f>
+        <v>0.13782102408677621</v>
+      </c>
+      <c r="T180" s="8">
+        <f t="shared" ref="T180" si="134">SUM(Q174:Q180)/SUM(U174:U180)</f>
+        <v>0.1401320841652588</v>
+      </c>
+      <c r="U180">
+        <f t="shared" ref="U180" si="135">B180-B179</f>
+        <v>6269</v>
+      </c>
+      <c r="V180">
+        <f t="shared" ref="V180:V181" si="136">C180-D180-E180</f>
+        <v>19349</v>
+      </c>
+      <c r="W180" s="3">
+        <f t="shared" ref="W180:W181" si="137">F180/V180</f>
+        <v>1.4987854669491964E-2</v>
+      </c>
+      <c r="X180">
+        <f t="shared" ref="X180" si="138">E180-E179</f>
+        <v>8</v>
+      </c>
+      <c r="Y180">
+        <v>418</v>
+      </c>
+      <c r="Z180">
+        <v>238</v>
+      </c>
+      <c r="AA180">
+        <v>4151</v>
+      </c>
+      <c r="AB180">
+        <v>239</v>
+      </c>
+      <c r="AC180">
+        <v>212</v>
+      </c>
+      <c r="AD180">
+        <v>3244</v>
+      </c>
+      <c r="AE180">
+        <v>7</v>
+      </c>
+      <c r="AF180">
+        <v>2</v>
+      </c>
+      <c r="AG180">
+        <v>81</v>
+      </c>
+      <c r="AH180">
+        <f t="shared" ref="AH180" si="139">Y180-AB180-AE180</f>
+        <v>172</v>
+      </c>
+      <c r="AI180">
+        <f t="shared" ref="AI180" si="140">Z180-AC180-AF180</f>
+        <v>24</v>
+      </c>
+      <c r="AJ180">
+        <f t="shared" ref="AJ180" si="141">AA180-AD180-AG180</f>
+        <v>826</v>
+      </c>
+      <c r="AK180">
+        <f t="shared" ref="AK180" si="142">-(J180-J179)+L180</f>
+        <v>7</v>
+      </c>
+      <c r="AL180">
+        <v>26</v>
+      </c>
+      <c r="AM180">
+        <v>30</v>
+      </c>
+      <c r="AN180">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="181" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <f t="shared" si="47"/>
+        <v>44087</v>
+      </c>
+      <c r="B181">
+        <v>700464</v>
+      </c>
+      <c r="C181">
+        <v>74299</v>
+      </c>
+      <c r="D181">
+        <v>53117</v>
+      </c>
+      <c r="E181">
+        <v>1218</v>
+      </c>
+      <c r="F181">
+        <v>274</v>
+      </c>
+      <c r="H181">
+        <v>79</v>
+      </c>
+      <c r="I181">
+        <v>36</v>
+      </c>
+      <c r="J181">
+        <v>74</v>
+      </c>
+      <c r="K181">
+        <v>19</v>
+      </c>
+      <c r="L181">
+        <v>13</v>
+      </c>
+      <c r="M181" s="7">
+        <f t="shared" si="56"/>
+        <v>626165</v>
+      </c>
+      <c r="N181" s="4">
+        <f t="shared" si="57"/>
+        <v>0.10607111857283172</v>
+      </c>
+      <c r="Q181">
+        <f t="shared" ref="Q181" si="143">C181-C180</f>
+        <v>804</v>
+      </c>
+      <c r="R181">
+        <f t="shared" ref="R181" si="144">M181-M180</f>
+        <v>5289</v>
+      </c>
+      <c r="S181" s="8">
+        <f t="shared" ref="S181" si="145">Q181/U181</f>
+        <v>0.13195470211718366</v>
+      </c>
+      <c r="T181" s="8">
+        <f t="shared" ref="T181" si="146">SUM(Q175:Q181)/SUM(U175:U181)</f>
+        <v>0.13960131461744019</v>
+      </c>
+      <c r="U181">
+        <f t="shared" ref="U181" si="147">B181-B180</f>
+        <v>6093</v>
+      </c>
+      <c r="V181">
+        <f t="shared" ref="V181" si="148">C181-D181-E181</f>
+        <v>19964</v>
+      </c>
+      <c r="W181" s="3">
+        <f t="shared" ref="W181" si="149">F181/V181</f>
+        <v>1.3724704468042477E-2</v>
+      </c>
+      <c r="X181">
+        <f t="shared" ref="X181" si="150">E181-E180</f>
+        <v>2</v>
+      </c>
+      <c r="Y181">
+        <v>424</v>
+      </c>
+      <c r="Z181">
+        <v>239</v>
+      </c>
+      <c r="AA181">
+        <v>4168</v>
+      </c>
+      <c r="AB181">
+        <v>241</v>
+      </c>
+      <c r="AC181">
+        <v>213</v>
+      </c>
+      <c r="AD181">
+        <v>3249</v>
+      </c>
+      <c r="AE181">
+        <v>7</v>
+      </c>
+      <c r="AF181">
+        <v>2</v>
+      </c>
+      <c r="AG181">
+        <v>81</v>
+      </c>
+      <c r="AH181">
+        <f t="shared" ref="AH181" si="151">Y181-AB181-AE181</f>
+        <v>176</v>
+      </c>
+      <c r="AI181">
+        <f t="shared" ref="AI181" si="152">Z181-AC181-AF181</f>
+        <v>24</v>
+      </c>
+      <c r="AJ181">
+        <f t="shared" ref="AJ181" si="153">AA181-AD181-AG181</f>
+        <v>838</v>
+      </c>
+      <c r="AK181">
+        <f t="shared" ref="AK181" si="154">-(J181-J180)+L181</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFAA8DD7-645F-47D9-8B1D-743A46F6924F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DC2F9F79-2395-4296-B9E0-E9BFE7379F41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1091,13 +1091,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AS181"/>
+  <dimension ref="A1:AS182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AA181" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL180" sqref="AL180"/>
+      <selection pane="bottomRight" activeCell="AH181" sqref="AH181:AK182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14076,7 +14076,7 @@
     </row>
     <row r="152" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <f t="shared" ref="A152:A181" si="47">A151+1</f>
+        <f t="shared" ref="A152:A182" si="47">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -16625,11 +16625,11 @@
         <v>5</v>
       </c>
       <c r="M172" s="7">
-        <f t="shared" ref="M172:M181" si="56">B172-C172</f>
+        <f t="shared" ref="M172:M182" si="56">B172-C172</f>
         <v>586759</v>
       </c>
       <c r="N172" s="4">
-        <f t="shared" ref="N172:N181" si="57">C172/B172</f>
+        <f t="shared" ref="N172:N182" si="57">C172/B172</f>
         <v>0.10364144374529295</v>
       </c>
       <c r="Q172">
@@ -17805,11 +17805,11 @@
         <v>6093</v>
       </c>
       <c r="V181">
-        <f t="shared" ref="V181" si="148">C181-D181-E181</f>
+        <f t="shared" ref="V181:V182" si="148">C181-D181-E181</f>
         <v>19964</v>
       </c>
       <c r="W181" s="3">
-        <f t="shared" ref="W181" si="149">F181/V181</f>
+        <f t="shared" ref="W181:W182" si="149">F181/V181</f>
         <v>1.3724704468042477E-2</v>
       </c>
       <c r="X181">
@@ -17858,6 +17858,125 @@
       <c r="AK181">
         <f t="shared" ref="AK181" si="154">-(J181-J180)+L181</f>
         <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <f t="shared" si="47"/>
+        <v>44088</v>
+      </c>
+      <c r="B182">
+        <v>703686</v>
+      </c>
+      <c r="C182">
+        <v>74739</v>
+      </c>
+      <c r="D182">
+        <v>53301</v>
+      </c>
+      <c r="E182">
+        <v>1220</v>
+      </c>
+      <c r="F182">
+        <v>272</v>
+      </c>
+      <c r="H182">
+        <v>75</v>
+      </c>
+      <c r="I182">
+        <v>34</v>
+      </c>
+      <c r="J182">
+        <v>70</v>
+      </c>
+      <c r="K182">
+        <v>16</v>
+      </c>
+      <c r="L182">
+        <v>9</v>
+      </c>
+      <c r="M182" s="7">
+        <f t="shared" si="56"/>
+        <v>628947</v>
+      </c>
+      <c r="N182" s="4">
+        <f t="shared" si="57"/>
+        <v>0.10621072466981012</v>
+      </c>
+      <c r="Q182">
+        <f t="shared" ref="Q182" si="155">C182-C181</f>
+        <v>440</v>
+      </c>
+      <c r="R182">
+        <f t="shared" ref="R182" si="156">M182-M181</f>
+        <v>2782</v>
+      </c>
+      <c r="S182" s="8">
+        <f t="shared" ref="S182" si="157">Q182/U182</f>
+        <v>0.13656114214773432</v>
+      </c>
+      <c r="T182" s="8">
+        <f t="shared" ref="T182" si="158">SUM(Q176:Q182)/SUM(U176:U182)</f>
+        <v>0.13506015740433616</v>
+      </c>
+      <c r="U182">
+        <f t="shared" ref="U182" si="159">B182-B181</f>
+        <v>3222</v>
+      </c>
+      <c r="V182">
+        <f t="shared" ref="V182" si="160">C182-D182-E182</f>
+        <v>20218</v>
+      </c>
+      <c r="W182" s="3">
+        <f t="shared" ref="W182" si="161">F182/V182</f>
+        <v>1.3453358393510733E-2</v>
+      </c>
+      <c r="X182">
+        <f t="shared" ref="X182" si="162">E182-E181</f>
+        <v>2</v>
+      </c>
+      <c r="Y182">
+        <v>428</v>
+      </c>
+      <c r="Z182">
+        <v>244</v>
+      </c>
+      <c r="AA182">
+        <v>4179</v>
+      </c>
+      <c r="AB182">
+        <v>241</v>
+      </c>
+      <c r="AC182">
+        <v>216</v>
+      </c>
+      <c r="AD182">
+        <v>3254</v>
+      </c>
+      <c r="AE182">
+        <v>7</v>
+      </c>
+      <c r="AF182">
+        <v>2</v>
+      </c>
+      <c r="AG182">
+        <v>81</v>
+      </c>
+      <c r="AH182">
+        <f t="shared" ref="AH182" si="163">Y182-AB182-AE182</f>
+        <v>180</v>
+      </c>
+      <c r="AI182">
+        <f t="shared" ref="AI182" si="164">Z182-AC182-AF182</f>
+        <v>26</v>
+      </c>
+      <c r="AJ182">
+        <f t="shared" ref="AJ182" si="165">AA182-AD182-AG182</f>
+        <v>844</v>
+      </c>
+      <c r="AK182">
+        <f t="shared" ref="AK182" si="166">-(J182-J181)+L182</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DC2F9F79-2395-4296-B9E0-E9BFE7379F41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5242567-03F9-40C7-AD2F-564C71CAE57A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1091,13 +1091,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AS182"/>
+  <dimension ref="A1:AS186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA181" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH181" sqref="AH181:AK182"/>
+      <selection pane="bottomRight" activeCell="AI186" sqref="AI186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14076,7 +14076,7 @@
     </row>
     <row r="152" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <f t="shared" ref="A152:A182" si="47">A151+1</f>
+        <f t="shared" ref="A152:A186" si="47">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -16625,7 +16625,7 @@
         <v>5</v>
       </c>
       <c r="M172" s="7">
-        <f t="shared" ref="M172:M182" si="56">B172-C172</f>
+        <f t="shared" ref="M172:M186" si="56">B172-C172</f>
         <v>586759</v>
       </c>
       <c r="N172" s="4">
@@ -17549,11 +17549,11 @@
         <v>6196</v>
       </c>
       <c r="V179">
-        <f t="shared" ref="V179:V180" si="124">C179-D179-E179</f>
+        <f t="shared" ref="V179" si="124">C179-D179-E179</f>
         <v>19162</v>
       </c>
       <c r="W179" s="3">
-        <f t="shared" ref="W179:W180" si="125">F179/V179</f>
+        <f t="shared" ref="W179" si="125">F179/V179</f>
         <v>1.4664440037574366E-2</v>
       </c>
       <c r="X179">
@@ -17677,11 +17677,11 @@
         <v>6269</v>
       </c>
       <c r="V180">
-        <f t="shared" ref="V180:V181" si="136">C180-D180-E180</f>
+        <f t="shared" ref="V180" si="136">C180-D180-E180</f>
         <v>19349</v>
       </c>
       <c r="W180" s="3">
-        <f t="shared" ref="W180:W181" si="137">F180/V180</f>
+        <f t="shared" ref="W180" si="137">F180/V180</f>
         <v>1.4987854669491964E-2</v>
       </c>
       <c r="X180">
@@ -17805,11 +17805,11 @@
         <v>6093</v>
       </c>
       <c r="V181">
-        <f t="shared" ref="V181:V182" si="148">C181-D181-E181</f>
+        <f t="shared" ref="V181" si="148">C181-D181-E181</f>
         <v>19964</v>
       </c>
       <c r="W181" s="3">
-        <f t="shared" ref="W181:W182" si="149">F181/V181</f>
+        <f t="shared" ref="W181" si="149">F181/V181</f>
         <v>1.3724704468042477E-2</v>
       </c>
       <c r="X181">
@@ -17977,6 +17977,509 @@
       <c r="AK182">
         <f t="shared" ref="AK182" si="166">-(J182-J181)+L182</f>
         <v>13</v>
+      </c>
+      <c r="AL182">
+        <v>9</v>
+      </c>
+      <c r="AM182">
+        <v>12</v>
+      </c>
+      <c r="AN182">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="183" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <f t="shared" si="47"/>
+        <v>44089</v>
+      </c>
+      <c r="B183">
+        <v>707012</v>
+      </c>
+      <c r="C183">
+        <v>75167</v>
+      </c>
+      <c r="D183">
+        <v>54237</v>
+      </c>
+      <c r="E183">
+        <v>1233</v>
+      </c>
+      <c r="F183">
+        <v>284</v>
+      </c>
+      <c r="H183">
+        <v>74</v>
+      </c>
+      <c r="I183">
+        <v>36</v>
+      </c>
+      <c r="J183">
+        <v>72</v>
+      </c>
+      <c r="K183">
+        <v>15</v>
+      </c>
+      <c r="L183">
+        <v>9</v>
+      </c>
+      <c r="M183" s="7">
+        <f t="shared" si="56"/>
+        <v>631845</v>
+      </c>
+      <c r="N183" s="4">
+        <f t="shared" ref="N183" si="167">C183/B183</f>
+        <v>0.10631644158797871</v>
+      </c>
+      <c r="Q183">
+        <f t="shared" ref="Q183" si="168">C183-C182</f>
+        <v>428</v>
+      </c>
+      <c r="R183">
+        <f t="shared" ref="R183" si="169">M183-M182</f>
+        <v>2898</v>
+      </c>
+      <c r="S183" s="8">
+        <f t="shared" ref="S183" si="170">Q183/U183</f>
+        <v>0.12868310282621767</v>
+      </c>
+      <c r="T183" s="8">
+        <f t="shared" ref="T183" si="171">SUM(Q177:Q183)/SUM(U177:U183)</f>
+        <v>0.13525976942656087</v>
+      </c>
+      <c r="U183">
+        <f t="shared" ref="U183" si="172">B183-B182</f>
+        <v>3326</v>
+      </c>
+      <c r="V183">
+        <f t="shared" ref="V183" si="173">C183-D183-E183</f>
+        <v>19697</v>
+      </c>
+      <c r="W183" s="3">
+        <f t="shared" ref="W183" si="174">F183/V183</f>
+        <v>1.4418439356247145E-2</v>
+      </c>
+      <c r="X183">
+        <f t="shared" ref="X183" si="175">E183-E182</f>
+        <v>13</v>
+      </c>
+      <c r="Y183">
+        <v>436</v>
+      </c>
+      <c r="Z183">
+        <v>246</v>
+      </c>
+      <c r="AA183">
+        <v>4193</v>
+      </c>
+      <c r="AB183">
+        <v>244</v>
+      </c>
+      <c r="AC183">
+        <v>218</v>
+      </c>
+      <c r="AD183">
+        <v>3288</v>
+      </c>
+      <c r="AE183">
+        <v>7</v>
+      </c>
+      <c r="AF183">
+        <v>2</v>
+      </c>
+      <c r="AG183">
+        <v>81</v>
+      </c>
+      <c r="AH183">
+        <f t="shared" ref="AH183" si="176">Y183-AB183-AE183</f>
+        <v>185</v>
+      </c>
+      <c r="AI183">
+        <f t="shared" ref="AI183" si="177">Z183-AC183-AF183</f>
+        <v>26</v>
+      </c>
+      <c r="AJ183">
+        <f t="shared" ref="AJ183" si="178">AA183-AD183-AG183</f>
+        <v>824</v>
+      </c>
+      <c r="AK183">
+        <f t="shared" ref="AK183" si="179">-(J183-J182)+L183</f>
+        <v>7</v>
+      </c>
+      <c r="AL183">
+        <v>15</v>
+      </c>
+      <c r="AM183">
+        <v>15</v>
+      </c>
+      <c r="AN183">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="184" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <f t="shared" si="47"/>
+        <v>44090</v>
+      </c>
+      <c r="B184">
+        <v>712506</v>
+      </c>
+      <c r="C184">
+        <v>75860</v>
+      </c>
+      <c r="D184">
+        <v>54996</v>
+      </c>
+      <c r="E184">
+        <v>1234</v>
+      </c>
+      <c r="F184">
+        <v>291</v>
+      </c>
+      <c r="H184">
+        <v>79</v>
+      </c>
+      <c r="I184">
+        <v>44</v>
+      </c>
+      <c r="J184">
+        <v>69</v>
+      </c>
+      <c r="K184">
+        <v>16</v>
+      </c>
+      <c r="L184">
+        <v>11</v>
+      </c>
+      <c r="M184" s="7">
+        <f t="shared" si="56"/>
+        <v>636646</v>
+      </c>
+      <c r="N184" s="4">
+        <f t="shared" ref="N184:N186" si="180">C184/B184</f>
+        <v>0.10646927885519561</v>
+      </c>
+      <c r="Q184">
+        <f t="shared" ref="Q184" si="181">C184-C183</f>
+        <v>693</v>
+      </c>
+      <c r="R184">
+        <f t="shared" ref="R184" si="182">M184-M183</f>
+        <v>4801</v>
+      </c>
+      <c r="S184" s="8">
+        <f t="shared" ref="S184" si="183">Q184/U184</f>
+        <v>0.1261376046596287</v>
+      </c>
+      <c r="T184" s="8">
+        <f t="shared" ref="T184" si="184">SUM(Q178:Q184)/SUM(U178:U184)</f>
+        <v>0.13325721287735323</v>
+      </c>
+      <c r="U184">
+        <f t="shared" ref="U184" si="185">B184-B183</f>
+        <v>5494</v>
+      </c>
+      <c r="V184">
+        <f t="shared" ref="V184" si="186">C184-D184-E184</f>
+        <v>19630</v>
+      </c>
+      <c r="W184" s="3">
+        <f t="shared" ref="W184" si="187">F184/V184</f>
+        <v>1.4824248599083037E-2</v>
+      </c>
+      <c r="X184">
+        <f t="shared" ref="X184" si="188">E184-E183</f>
+        <v>1</v>
+      </c>
+      <c r="Y184">
+        <v>441</v>
+      </c>
+      <c r="Z184">
+        <v>248</v>
+      </c>
+      <c r="AA184">
+        <v>4221</v>
+      </c>
+      <c r="AB184">
+        <v>249</v>
+      </c>
+      <c r="AC184">
+        <v>221</v>
+      </c>
+      <c r="AD184">
+        <v>3340</v>
+      </c>
+      <c r="AE184">
+        <v>7</v>
+      </c>
+      <c r="AF184">
+        <v>2</v>
+      </c>
+      <c r="AG184">
+        <v>83</v>
+      </c>
+      <c r="AH184">
+        <f t="shared" ref="AH184" si="189">Y184-AB184-AE184</f>
+        <v>185</v>
+      </c>
+      <c r="AI184">
+        <f t="shared" ref="AI184" si="190">Z184-AC184-AF184</f>
+        <v>25</v>
+      </c>
+      <c r="AJ184">
+        <f t="shared" ref="AJ184" si="191">AA184-AD184-AG184</f>
+        <v>798</v>
+      </c>
+      <c r="AK184">
+        <f t="shared" ref="AK184" si="192">-(J184-J183)+L184</f>
+        <v>14</v>
+      </c>
+      <c r="AL184">
+        <v>20</v>
+      </c>
+      <c r="AM184">
+        <v>20</v>
+      </c>
+      <c r="AN184">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <f t="shared" si="47"/>
+        <v>44091</v>
+      </c>
+      <c r="B185">
+        <v>719629</v>
+      </c>
+      <c r="C185">
+        <v>76967</v>
+      </c>
+      <c r="D185">
+        <v>55725</v>
+      </c>
+      <c r="E185">
+        <v>1248</v>
+      </c>
+      <c r="F185">
+        <v>271</v>
+      </c>
+      <c r="H185">
+        <v>85</v>
+      </c>
+      <c r="I185">
+        <v>34</v>
+      </c>
+      <c r="J185">
+        <v>60</v>
+      </c>
+      <c r="K185">
+        <v>17</v>
+      </c>
+      <c r="L185">
+        <v>8</v>
+      </c>
+      <c r="M185" s="7">
+        <f t="shared" si="56"/>
+        <v>642662</v>
+      </c>
+      <c r="N185" s="4">
+        <f t="shared" si="180"/>
+        <v>0.10695372198730178</v>
+      </c>
+      <c r="Q185">
+        <f t="shared" ref="Q185" si="193">C185-C184</f>
+        <v>1107</v>
+      </c>
+      <c r="R185">
+        <f t="shared" ref="R185" si="194">M185-M184</f>
+        <v>6016</v>
+      </c>
+      <c r="S185" s="8">
+        <f t="shared" ref="S185" si="195">Q185/U185</f>
+        <v>0.15541204548645235</v>
+      </c>
+      <c r="T185" s="8">
+        <f t="shared" ref="T185" si="196">SUM(Q179:Q185)/SUM(U179:U185)</f>
+        <v>0.13880126182965299</v>
+      </c>
+      <c r="U185">
+        <f t="shared" ref="U185" si="197">B185-B184</f>
+        <v>7123</v>
+      </c>
+      <c r="V185">
+        <f t="shared" ref="V185:V186" si="198">C185-D185-E185</f>
+        <v>19994</v>
+      </c>
+      <c r="W185" s="3">
+        <f t="shared" ref="W185:W186" si="199">F185/V185</f>
+        <v>1.3554066219865961E-2</v>
+      </c>
+      <c r="X185">
+        <f t="shared" ref="X185" si="200">E185-E184</f>
+        <v>14</v>
+      </c>
+      <c r="Y185">
+        <v>447</v>
+      </c>
+      <c r="Z185">
+        <v>251</v>
+      </c>
+      <c r="AA185">
+        <v>4249</v>
+      </c>
+      <c r="AB185">
+        <v>251</v>
+      </c>
+      <c r="AC185">
+        <v>223</v>
+      </c>
+      <c r="AD185">
+        <v>3373</v>
+      </c>
+      <c r="AE185">
+        <v>7</v>
+      </c>
+      <c r="AF185">
+        <v>2</v>
+      </c>
+      <c r="AG185">
+        <v>84</v>
+      </c>
+      <c r="AH185">
+        <f t="shared" ref="AH185" si="201">Y185-AB185-AE185</f>
+        <v>189</v>
+      </c>
+      <c r="AI185">
+        <f t="shared" ref="AI185" si="202">Z185-AC185-AF185</f>
+        <v>26</v>
+      </c>
+      <c r="AJ185">
+        <f t="shared" ref="AJ185" si="203">AA185-AD185-AG185</f>
+        <v>792</v>
+      </c>
+      <c r="AK185">
+        <f t="shared" ref="AK185" si="204">-(J185-J184)+L185</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <f t="shared" si="47"/>
+        <v>44092</v>
+      </c>
+      <c r="B186">
+        <v>725004</v>
+      </c>
+      <c r="C186">
+        <v>77979</v>
+      </c>
+      <c r="D186">
+        <v>56452</v>
+      </c>
+      <c r="E186">
+        <v>1257</v>
+      </c>
+      <c r="F186">
+        <v>281</v>
+      </c>
+      <c r="H186">
+        <v>91</v>
+      </c>
+      <c r="I186">
+        <v>55</v>
+      </c>
+      <c r="J186">
+        <v>67</v>
+      </c>
+      <c r="K186">
+        <v>20</v>
+      </c>
+      <c r="L186">
+        <v>21</v>
+      </c>
+      <c r="M186" s="7">
+        <f t="shared" si="56"/>
+        <v>647025</v>
+      </c>
+      <c r="N186" s="4">
+        <f t="shared" si="180"/>
+        <v>0.10755664796332158</v>
+      </c>
+      <c r="Q186">
+        <f t="shared" ref="Q186" si="205">C186-C185</f>
+        <v>1012</v>
+      </c>
+      <c r="R186">
+        <f t="shared" ref="R186" si="206">M186-M185</f>
+        <v>4363</v>
+      </c>
+      <c r="S186" s="8">
+        <f t="shared" ref="S186" si="207">Q186/U186</f>
+        <v>0.18827906976744185</v>
+      </c>
+      <c r="T186" s="8">
+        <f t="shared" ref="T186" si="208">SUM(Q180:Q186)/SUM(U180:U186)</f>
+        <v>0.1449243943417701</v>
+      </c>
+      <c r="U186">
+        <f t="shared" ref="U186" si="209">B186-B185</f>
+        <v>5375</v>
+      </c>
+      <c r="V186">
+        <f t="shared" ref="V186" si="210">C186-D186-E186</f>
+        <v>20270</v>
+      </c>
+      <c r="W186" s="3">
+        <f t="shared" ref="W186" si="211">F186/V186</f>
+        <v>1.3862851504686729E-2</v>
+      </c>
+      <c r="X186">
+        <f t="shared" ref="X186" si="212">E186-E185</f>
+        <v>9</v>
+      </c>
+      <c r="Y186">
+        <v>452</v>
+      </c>
+      <c r="Z186">
+        <v>254</v>
+      </c>
+      <c r="AA186">
+        <v>4288</v>
+      </c>
+      <c r="AB186">
+        <v>255</v>
+      </c>
+      <c r="AC186">
+        <v>227</v>
+      </c>
+      <c r="AD186">
+        <v>3407</v>
+      </c>
+      <c r="AE186">
+        <v>7</v>
+      </c>
+      <c r="AF186">
+        <v>2</v>
+      </c>
+      <c r="AG186">
+        <v>84</v>
+      </c>
+      <c r="AH186">
+        <f t="shared" ref="AH186" si="213">Y186-AB186-AE186</f>
+        <v>190</v>
+      </c>
+      <c r="AI186">
+        <f t="shared" ref="AI186" si="214">Z186-AC186-AF186</f>
+        <v>25</v>
+      </c>
+      <c r="AJ186">
+        <f t="shared" ref="AJ186" si="215">AA186-AD186-AG186</f>
+        <v>797</v>
+      </c>
+      <c r="AK186">
+        <f t="shared" ref="AK186" si="216">-(J186-J185)+L186</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5242567-03F9-40C7-AD2F-564C71CAE57A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A04668-9DA4-4D30-9EDC-E8E894820CAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="covid19" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="NewRecovered" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Wartburg Positive Tests" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="NewRecovered" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="167">
   <si>
     <t>date</t>
   </si>
@@ -198,6 +199,333 @@
   <si>
     <t>Kights Quarantine</t>
   </si>
+  <si>
+    <t xml:space="preserve">ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive Test Date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">End of Clear Period </t>
+  </si>
+  <si>
+    <t>Farmer, Robert</t>
+  </si>
+  <si>
+    <t>Makondo, Joseph Gaetan</t>
+  </si>
+  <si>
+    <t>Bockarie, Saffa</t>
+  </si>
+  <si>
+    <t>Opoku, Frank Antwi</t>
+  </si>
+  <si>
+    <t>Kacmaz, Yigit</t>
+  </si>
+  <si>
+    <t>Tembe, Mayibongwe Samuel Sakhile</t>
+  </si>
+  <si>
+    <t>Isaac Nguyen</t>
+  </si>
+  <si>
+    <t>Ovitio Svosve</t>
+  </si>
+  <si>
+    <t>Iteriteka, Peace Alberto</t>
+  </si>
+  <si>
+    <t>Ibrahim, Shaukat</t>
+  </si>
+  <si>
+    <t>Sesay, Foday</t>
+  </si>
+  <si>
+    <t>Lekhooana, Iketleng Phillip</t>
+  </si>
+  <si>
+    <t>Chekenya, Danai Christiane</t>
+  </si>
+  <si>
+    <t>Amaro Trevino, Rebeca</t>
+  </si>
+  <si>
+    <t>Smith, Derrick Divondre</t>
+  </si>
+  <si>
+    <t>Freeland, Madison</t>
+  </si>
+  <si>
+    <t>Mcebo Zwane</t>
+  </si>
+  <si>
+    <t>Kelsey Stortz</t>
+  </si>
+  <si>
+    <t>Sam Reyes</t>
+  </si>
+  <si>
+    <t>Emma Nelson</t>
+  </si>
+  <si>
+    <t>Miranda Wood</t>
+  </si>
+  <si>
+    <t>Natalie Flugrad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sydney Fellows </t>
+  </si>
+  <si>
+    <t>Peter Unmacht</t>
+  </si>
+  <si>
+    <t>Haley Meyer</t>
+  </si>
+  <si>
+    <t>Bryeen Gryp</t>
+  </si>
+  <si>
+    <t>Darren Kilpatrick</t>
+  </si>
+  <si>
+    <t>Abram Becker</t>
+  </si>
+  <si>
+    <t>Ryan Fitz</t>
+  </si>
+  <si>
+    <t>Anthony AJ Toigo</t>
+  </si>
+  <si>
+    <t>Bailey Brown</t>
+  </si>
+  <si>
+    <t>Noah May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aidan Weber </t>
+  </si>
+  <si>
+    <t>Hunter Horman</t>
+  </si>
+  <si>
+    <t>Kelsee Harvey</t>
+  </si>
+  <si>
+    <t>Kenzie Diamond</t>
+  </si>
+  <si>
+    <t>Caleb Andrews</t>
+  </si>
+  <si>
+    <t>Katie Rinnman</t>
+  </si>
+  <si>
+    <t>Parker Ingamells</t>
+  </si>
+  <si>
+    <t>Steve Borneman</t>
+  </si>
+  <si>
+    <t>Becca Montgomery</t>
+  </si>
+  <si>
+    <t>Braden Holmquist</t>
+  </si>
+  <si>
+    <t>Ambriel  Jacobs</t>
+  </si>
+  <si>
+    <t>Abby McGrane</t>
+  </si>
+  <si>
+    <t>Brett Kelting</t>
+  </si>
+  <si>
+    <t>Sydney Illg</t>
+  </si>
+  <si>
+    <t>Carlye Brown</t>
+  </si>
+  <si>
+    <t>Brea Dillavou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hannah Anderson </t>
+  </si>
+  <si>
+    <t>Amber Laube</t>
+  </si>
+  <si>
+    <t>Parker Ridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drew Olson </t>
+  </si>
+  <si>
+    <t>Jack Molestead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theo Arndt </t>
+  </si>
+  <si>
+    <t>Sam Niichel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cael Boehmer </t>
+  </si>
+  <si>
+    <t>Dylan Berg</t>
+  </si>
+  <si>
+    <t>Jordan Downing</t>
+  </si>
+  <si>
+    <t>Donaven Juarez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riley Konrady </t>
+  </si>
+  <si>
+    <t>Jack Veber</t>
+  </si>
+  <si>
+    <t>Dallin Ewart</t>
+  </si>
+  <si>
+    <t>Zach Oldham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brady Arens </t>
+  </si>
+  <si>
+    <t>Nick Mehling</t>
+  </si>
+  <si>
+    <t>Lauren Ulveling</t>
+  </si>
+  <si>
+    <t>Ashley Nelson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brady Fritz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna Rood </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarah Wedhe </t>
+  </si>
+  <si>
+    <t>Ben Dunlap</t>
+  </si>
+  <si>
+    <t>Gavin Woods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben Midtgaard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broden Coulter </t>
+  </si>
+  <si>
+    <t>Dakota Stevenson</t>
+  </si>
+  <si>
+    <t>Gianna Witmer</t>
+  </si>
+  <si>
+    <t>Chloe Zierke</t>
+  </si>
+  <si>
+    <t>Morgan Frawley</t>
+  </si>
+  <si>
+    <t>Dylan Gotto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lauren Wisdom </t>
+  </si>
+  <si>
+    <t>Madi Flemming</t>
+  </si>
+  <si>
+    <t>Kjirsten Zahn</t>
+  </si>
+  <si>
+    <t>Draven Williams</t>
+  </si>
+  <si>
+    <t>Nell Sysbesma</t>
+  </si>
+  <si>
+    <t>Hazkett Zeledon-Pena</t>
+  </si>
+  <si>
+    <t>Molly Close</t>
+  </si>
+  <si>
+    <t>Blake Bauer</t>
+  </si>
+  <si>
+    <t>Morgan Pruitt</t>
+  </si>
+  <si>
+    <t>Riley Linck-Tollesfbol</t>
+  </si>
+  <si>
+    <t>Gavin Dooley</t>
+  </si>
+  <si>
+    <t>Austin Derbas</t>
+  </si>
+  <si>
+    <t>Matthew Buckner</t>
+  </si>
+  <si>
+    <t>Reegan Deputy</t>
+  </si>
+  <si>
+    <t>Jessica Steingard</t>
+  </si>
+  <si>
+    <t>Ashley Matejka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam Sacia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon Russel </t>
+  </si>
+  <si>
+    <t>Tucker Kinney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peyton Meisner </t>
+  </si>
+  <si>
+    <t>Baily Naig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lauren Fox </t>
+  </si>
+  <si>
+    <t>Nile Mcglauglin</t>
+  </si>
+  <si>
+    <t>End Isolation</t>
+  </si>
+  <si>
+    <t>Bremer Wartburg Recovered</t>
+  </si>
+  <si>
+    <t>Bremer True SS</t>
+  </si>
 </sst>
 </file>
 
@@ -206,7 +534,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,8 +675,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,6 +861,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -716,7 +1057,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -734,6 +1075,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1091,13 +1435,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AS186"/>
+  <dimension ref="A1:AT188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X173" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI186" sqref="AI186"/>
+      <selection pane="bottomRight" activeCell="AS136" sqref="AS136:AS137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1108,7 +1452,7 @@
     <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1241,8 +1585,14 @@
       <c r="AR1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="AS1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43898</v>
       </c>
@@ -1271,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43899</v>
       </c>
@@ -1306,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43900</v>
       </c>
@@ -1344,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43901</v>
       </c>
@@ -1385,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43903</v>
       </c>
@@ -1420,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43904</v>
       </c>
@@ -1455,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43908</v>
       </c>
@@ -1494,7 +1844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43909</v>
       </c>
@@ -1536,7 +1886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43913</v>
       </c>
@@ -1585,7 +1935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43914</v>
       </c>
@@ -1621,7 +1971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43917</v>
       </c>
@@ -1660,7 +2010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43918</v>
       </c>
@@ -1712,7 +2062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43919</v>
       </c>
@@ -1776,7 +2126,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43920</v>
       </c>
@@ -1840,7 +2190,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43921</v>
       </c>
@@ -9695,7 +10045,7 @@
         <v>24958</v>
       </c>
     </row>
-    <row r="113" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <f t="shared" si="14"/>
         <v>44019</v>
@@ -9786,7 +10136,7 @@
         <v>25415</v>
       </c>
     </row>
-    <row r="114" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <f t="shared" si="14"/>
         <v>44020</v>
@@ -9877,7 +10227,7 @@
         <v>25868</v>
       </c>
     </row>
-    <row r="115" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <f t="shared" si="14"/>
         <v>44021</v>
@@ -9968,7 +10318,7 @@
         <v>26232</v>
       </c>
     </row>
-    <row r="116" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <f t="shared" si="14"/>
         <v>44022</v>
@@ -10059,7 +10409,7 @@
         <v>25750</v>
       </c>
     </row>
-    <row r="117" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <f t="shared" si="14"/>
         <v>44023</v>
@@ -10149,7 +10499,7 @@
         <v>26081</v>
       </c>
     </row>
-    <row r="118" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <f t="shared" si="14"/>
         <v>44024</v>
@@ -10251,8 +10601,12 @@
         <f t="shared" si="24"/>
         <v>569</v>
       </c>
-    </row>
-    <row r="119" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT118">
+        <f>AH118-AS118</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <f t="shared" si="14"/>
         <v>44025</v>
@@ -10354,8 +10708,12 @@
         <f t="shared" si="24"/>
         <v>573</v>
       </c>
-    </row>
-    <row r="120" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT119">
+        <f t="shared" ref="AT119:AT137" si="25">AH119-AS119</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <f t="shared" si="14"/>
         <v>44026</v>
@@ -10457,8 +10815,12 @@
         <f t="shared" si="24"/>
         <v>582</v>
       </c>
-    </row>
-    <row r="121" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT120">
+        <f t="shared" si="25"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <f t="shared" si="14"/>
         <v>44027</v>
@@ -10560,8 +10922,12 @@
         <f t="shared" si="24"/>
         <v>594</v>
       </c>
-    </row>
-    <row r="122" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT121">
+        <f t="shared" si="25"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <f t="shared" si="14"/>
         <v>44028</v>
@@ -10663,8 +11029,12 @@
         <f t="shared" si="24"/>
         <v>615</v>
       </c>
-    </row>
-    <row r="123" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT122">
+        <f t="shared" si="25"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <f t="shared" si="14"/>
         <v>44029</v>
@@ -10700,11 +11070,11 @@
         <v>879</v>
       </c>
       <c r="R123">
-        <f t="shared" ref="R123:R154" si="25">M123-M122</f>
+        <f t="shared" ref="R123:R154" si="26">M123-M122</f>
         <v>9221</v>
       </c>
       <c r="S123" s="8">
-        <f t="shared" ref="S123:S154" si="26">Q123/U123</f>
+        <f t="shared" ref="S123:S154" si="27">Q123/U123</f>
         <v>8.7029702970297024E-2</v>
       </c>
       <c r="T123" s="8">
@@ -10755,19 +11125,23 @@
         <v>60</v>
       </c>
       <c r="AH123">
-        <f t="shared" ref="AH123:AH154" si="27">Y123-AB123-AE123</f>
+        <f t="shared" ref="AH123:AH154" si="28">Y123-AB123-AE123</f>
         <v>45</v>
       </c>
       <c r="AI123">
-        <f t="shared" ref="AI123:AI154" si="28">Z123-AC123-AF123</f>
+        <f t="shared" ref="AI123:AI154" si="29">Z123-AC123-AF123</f>
         <v>17</v>
       </c>
       <c r="AJ123">
-        <f t="shared" ref="AJ123:AJ154" si="29">AA123-AD123-AG123</f>
+        <f t="shared" ref="AJ123:AJ154" si="30">AA123-AD123-AG123</f>
         <v>668</v>
       </c>
-    </row>
-    <row r="124" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT123">
+        <f t="shared" si="25"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <f t="shared" si="14"/>
         <v>44030</v>
@@ -10803,11 +11177,11 @@
         <v>287</v>
       </c>
       <c r="R124">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>427</v>
       </c>
       <c r="S124" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.40196078431372551</v>
       </c>
       <c r="T124" s="8">
@@ -10858,19 +11232,23 @@
         <v>60</v>
       </c>
       <c r="AH124">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>45</v>
       </c>
       <c r="AI124">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="AJ124">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>669</v>
       </c>
-    </row>
-    <row r="125" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT124">
+        <f t="shared" si="25"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <f t="shared" si="14"/>
         <v>44031</v>
@@ -10906,11 +11284,11 @@
         <v>661</v>
       </c>
       <c r="R125">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>10110</v>
       </c>
       <c r="S125" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.1368489462445455E-2</v>
       </c>
       <c r="T125" s="8">
@@ -10961,19 +11339,23 @@
         <v>60</v>
       </c>
       <c r="AH125">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>49</v>
       </c>
       <c r="AI125">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>15</v>
       </c>
       <c r="AJ125">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>693</v>
       </c>
-    </row>
-    <row r="126" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT125">
+        <f t="shared" si="25"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="126" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <f t="shared" si="14"/>
         <v>44032</v>
@@ -11009,15 +11391,15 @@
         <v>343</v>
       </c>
       <c r="R126">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4427</v>
       </c>
       <c r="S126" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.1907756813417184E-2</v>
       </c>
       <c r="T126" s="8">
-        <f t="shared" ref="T126:T133" si="30">SUM(Q120:Q126)/SUM(U120:U126)</f>
+        <f t="shared" ref="T126:T133" si="31">SUM(Q120:Q126)/SUM(U120:U126)</f>
         <v>8.1735039247221489E-2</v>
       </c>
       <c r="U126">
@@ -11064,19 +11446,23 @@
         <v>60</v>
       </c>
       <c r="AH126">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>49</v>
       </c>
       <c r="AI126">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>15</v>
       </c>
       <c r="AJ126">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>702</v>
       </c>
-    </row>
-    <row r="127" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT126">
+        <f t="shared" si="25"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="127" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <f t="shared" si="14"/>
         <v>44033</v>
@@ -11124,15 +11510,15 @@
         <v>512</v>
       </c>
       <c r="R127">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3442</v>
       </c>
       <c r="S127" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.12948912493677289</v>
       </c>
       <c r="T127" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>8.5611373503172564E-2</v>
       </c>
       <c r="U127">
@@ -11179,19 +11565,23 @@
         <v>60</v>
       </c>
       <c r="AH127">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>54</v>
       </c>
       <c r="AI127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>17</v>
       </c>
       <c r="AJ127">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>713</v>
       </c>
-    </row>
-    <row r="128" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT127">
+        <f t="shared" si="25"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="128" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <f t="shared" si="14"/>
         <v>44034</v>
@@ -11239,15 +11629,15 @@
         <v>374</v>
       </c>
       <c r="R128">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4313</v>
       </c>
       <c r="S128" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.9795178152336249E-2</v>
       </c>
       <c r="T128" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>8.7082493104327474E-2</v>
       </c>
       <c r="U128">
@@ -11294,23 +11684,27 @@
         <v>61</v>
       </c>
       <c r="AH128">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>57</v>
       </c>
       <c r="AI128">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>18</v>
       </c>
       <c r="AJ128">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>712</v>
       </c>
       <c r="AK128">
-        <f t="shared" ref="AK128:AK169" si="31">-(J128-J127)+L128</f>
+        <f t="shared" ref="AK128:AK169" si="32">-(J128-J127)+L128</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AT128">
+        <f t="shared" si="25"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="129" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <f t="shared" si="14"/>
         <v>44035</v>
@@ -11358,15 +11752,15 @@
         <v>716</v>
       </c>
       <c r="R129">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8110</v>
       </c>
       <c r="S129" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>8.1123951960117832E-2</v>
       </c>
       <c r="T129" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>8.607548719821094E-2</v>
       </c>
       <c r="U129">
@@ -11413,23 +11807,27 @@
         <v>61</v>
       </c>
       <c r="AH129">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>65</v>
       </c>
       <c r="AI129">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="AJ129">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>740</v>
       </c>
       <c r="AK129">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AT129">
+        <f t="shared" si="25"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="130" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <f t="shared" si="14"/>
         <v>44036</v>
@@ -11477,15 +11875,15 @@
         <v>451</v>
       </c>
       <c r="R130">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4071</v>
       </c>
       <c r="S130" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.9734630694383014E-2</v>
       </c>
       <c r="T130" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>8.7438552452672319E-2</v>
       </c>
       <c r="U130">
@@ -11532,23 +11930,27 @@
         <v>61</v>
       </c>
       <c r="AH130">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>68</v>
       </c>
       <c r="AI130">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="AJ130">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>744</v>
       </c>
       <c r="AK130">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AT130">
+        <f t="shared" si="25"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="131" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <f t="shared" si="14"/>
         <v>44037</v>
@@ -11596,15 +11998,15 @@
         <v>668</v>
       </c>
       <c r="R131">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5327</v>
       </c>
       <c r="S131" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.11142618849040867</v>
       </c>
       <c r="T131" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>8.5582998276852382E-2</v>
       </c>
       <c r="U131">
@@ -11651,23 +12053,27 @@
         <v>61</v>
       </c>
       <c r="AH131">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>77</v>
       </c>
       <c r="AI131">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>15</v>
       </c>
       <c r="AJ131">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>744</v>
       </c>
       <c r="AK131">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AT131">
+        <f t="shared" si="25"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="132" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <f t="shared" si="14"/>
         <v>44038</v>
@@ -11715,15 +12121,15 @@
         <v>388</v>
       </c>
       <c r="R132">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3698</v>
       </c>
       <c r="S132" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.4958394517865877E-2</v>
       </c>
       <c r="T132" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>9.3702497285559169E-2</v>
       </c>
       <c r="U132">
@@ -11770,23 +12176,27 @@
         <v>61</v>
       </c>
       <c r="AH132">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>80</v>
       </c>
       <c r="AI132">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>15</v>
       </c>
       <c r="AJ132">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>758</v>
       </c>
       <c r="AK132">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AT132">
+        <f t="shared" si="25"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <f t="shared" si="14"/>
         <v>44039</v>
@@ -11822,43 +12232,43 @@
         <v>7</v>
       </c>
       <c r="M133" s="7">
-        <f t="shared" ref="M133:M150" si="32">B133-C133</f>
+        <f t="shared" ref="M133:M150" si="33">B133-C133</f>
         <v>413315</v>
       </c>
       <c r="N133" s="4">
-        <f t="shared" ref="N133:N150" si="33">C133/B133</f>
+        <f t="shared" ref="N133:N150" si="34">C133/B133</f>
         <v>9.3084388583766511E-2</v>
       </c>
       <c r="Q133">
-        <f t="shared" ref="Q133:Q150" si="34">C133-C132</f>
+        <f t="shared" ref="Q133:Q150" si="35">C133-C132</f>
         <v>406</v>
       </c>
       <c r="R133">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3994</v>
       </c>
       <c r="S133" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.227272727272727E-2</v>
       </c>
       <c r="T133" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>9.6380586783657796E-2</v>
       </c>
       <c r="U133">
-        <f t="shared" ref="U133:U150" si="35">B133-B132</f>
+        <f t="shared" ref="U133:U150" si="36">B133-B132</f>
         <v>4400</v>
       </c>
       <c r="V133">
-        <f t="shared" ref="V133:V150" si="36">C133-D133-E133</f>
+        <f t="shared" ref="V133:V150" si="37">C133-D133-E133</f>
         <v>11866</v>
       </c>
       <c r="W133" s="3">
-        <f t="shared" ref="W133:W150" si="37">F133/V133</f>
+        <f t="shared" ref="W133:W150" si="38">F133/V133</f>
         <v>2.0310129782572055E-2</v>
       </c>
       <c r="X133">
-        <f t="shared" ref="X133:X150" si="38">E133-E132</f>
+        <f t="shared" ref="X133:X150" si="39">E133-E132</f>
         <v>3</v>
       </c>
       <c r="Y133">
@@ -11889,23 +12299,27 @@
         <v>61</v>
       </c>
       <c r="AH133">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>78</v>
       </c>
       <c r="AI133">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>17</v>
       </c>
       <c r="AJ133">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>764</v>
       </c>
       <c r="AK133">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AT133">
+        <f t="shared" si="25"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="134" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <f t="shared" si="14"/>
         <v>44040</v>
@@ -11941,43 +12355,43 @@
         <v>5</v>
       </c>
       <c r="M134" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>416054</v>
       </c>
       <c r="N134" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.3153324382290889E-2</v>
       </c>
       <c r="Q134">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>316</v>
       </c>
       <c r="R134">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2739</v>
       </c>
       <c r="S134" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.10343698854337152</v>
       </c>
       <c r="T134" s="8">
-        <f t="shared" ref="T134:T172" si="39">SUM(Q128:Q134)/SUM(U128:U134)</f>
+        <f t="shared" ref="T134:T172" si="40">SUM(Q128:Q134)/SUM(U128:U134)</f>
         <v>9.3306345056366147E-2</v>
       </c>
       <c r="U134">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3055</v>
       </c>
       <c r="V134">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>11426</v>
       </c>
       <c r="W134" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>2.2142482058463153E-2</v>
       </c>
       <c r="X134">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>7</v>
       </c>
       <c r="Y134">
@@ -12008,23 +12422,27 @@
         <v>62</v>
       </c>
       <c r="AH134">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>80</v>
       </c>
       <c r="AI134">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="AJ134">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>770</v>
       </c>
       <c r="AK134">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AT134">
+        <f t="shared" si="25"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="135" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <f t="shared" si="14"/>
         <v>44041</v>
@@ -12060,43 +12478,43 @@
         <v>5</v>
       </c>
       <c r="M135" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>420769</v>
       </c>
       <c r="N135" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.3099895681561504E-2</v>
       </c>
       <c r="Q135">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>457</v>
       </c>
       <c r="R135">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4715</v>
       </c>
       <c r="S135" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>8.8360402165506571E-2</v>
       </c>
       <c r="T135" s="8">
+        <f t="shared" si="40"/>
+        <v>9.4353228311515422E-2</v>
+      </c>
+      <c r="U135">
+        <f t="shared" si="36"/>
+        <v>5172</v>
+      </c>
+      <c r="V135">
+        <f t="shared" si="37"/>
+        <v>11137</v>
+      </c>
+      <c r="W135" s="3">
+        <f t="shared" si="38"/>
+        <v>2.2088533716440692E-2</v>
+      </c>
+      <c r="X135">
         <f t="shared" si="39"/>
-        <v>9.4353228311515422E-2</v>
-      </c>
-      <c r="U135">
-        <f t="shared" si="35"/>
-        <v>5172</v>
-      </c>
-      <c r="V135">
-        <f t="shared" si="36"/>
-        <v>11137</v>
-      </c>
-      <c r="W135" s="3">
-        <f t="shared" si="37"/>
-        <v>2.2088533716440692E-2</v>
-      </c>
-      <c r="X135">
-        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="Y135">
@@ -12127,23 +12545,27 @@
         <v>62</v>
       </c>
       <c r="AH135">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>79</v>
       </c>
       <c r="AI135">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>17</v>
       </c>
       <c r="AJ135">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>754</v>
       </c>
       <c r="AK135">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AT135">
+        <f t="shared" si="25"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <f t="shared" si="14"/>
         <v>44042</v>
@@ -12179,43 +12601,43 @@
         <v>7</v>
       </c>
       <c r="M136" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>425833</v>
       </c>
       <c r="N136" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.3129143480214588E-2</v>
       </c>
       <c r="Q136">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>535</v>
       </c>
       <c r="R136">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5064</v>
       </c>
       <c r="S136" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.5552777281657439E-2</v>
       </c>
       <c r="T136" s="8">
+        <f t="shared" si="40"/>
+        <v>9.8114471960766392E-2</v>
+      </c>
+      <c r="U136">
+        <f t="shared" si="36"/>
+        <v>5599</v>
+      </c>
+      <c r="V136">
+        <f t="shared" si="37"/>
+        <v>11140</v>
+      </c>
+      <c r="W136" s="3">
+        <f t="shared" si="38"/>
+        <v>2.1274685816876124E-2</v>
+      </c>
+      <c r="X136">
         <f t="shared" si="39"/>
-        <v>9.8114471960766392E-2</v>
-      </c>
-      <c r="U136">
-        <f t="shared" si="35"/>
-        <v>5599</v>
-      </c>
-      <c r="V136">
-        <f t="shared" si="36"/>
-        <v>11140</v>
-      </c>
-      <c r="W136" s="3">
-        <f t="shared" si="37"/>
-        <v>2.1274685816876124E-2</v>
-      </c>
-      <c r="X136">
-        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="Y136">
@@ -12246,23 +12668,31 @@
         <v>62</v>
       </c>
       <c r="AH136">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>80</v>
       </c>
       <c r="AI136">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>17</v>
       </c>
       <c r="AJ136">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>714</v>
       </c>
       <c r="AK136">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AS136">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A136)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A136)</f>
+        <v>0</v>
+      </c>
+      <c r="AT136">
+        <f t="shared" si="25"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <f t="shared" si="14"/>
         <v>44043</v>
@@ -12298,43 +12728,43 @@
         <v>5</v>
       </c>
       <c r="M137" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>431023</v>
       </c>
       <c r="N137" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.3531610083764982E-2</v>
       </c>
       <c r="Q137">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>744</v>
       </c>
       <c r="R137">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5190</v>
       </c>
       <c r="S137" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.12537917087967643</v>
       </c>
       <c r="T137" s="8">
+        <f t="shared" si="40"/>
+        <v>0.10262550743261004</v>
+      </c>
+      <c r="U137">
+        <f t="shared" si="36"/>
+        <v>5934</v>
+      </c>
+      <c r="V137">
+        <f t="shared" si="37"/>
+        <v>11114</v>
+      </c>
+      <c r="W137" s="3">
+        <f t="shared" si="38"/>
+        <v>2.0244736368544177E-2</v>
+      </c>
+      <c r="X137">
         <f t="shared" si="39"/>
-        <v>0.10262550743261004</v>
-      </c>
-      <c r="U137">
-        <f t="shared" si="35"/>
-        <v>5934</v>
-      </c>
-      <c r="V137">
-        <f t="shared" si="36"/>
-        <v>11114</v>
-      </c>
-      <c r="W137" s="3">
-        <f t="shared" si="37"/>
-        <v>2.0244736368544177E-2</v>
-      </c>
-      <c r="X137">
-        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="Y137">
@@ -12365,23 +12795,31 @@
         <v>62</v>
       </c>
       <c r="AH137">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>84</v>
       </c>
       <c r="AI137">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>21</v>
       </c>
       <c r="AJ137">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>710</v>
       </c>
       <c r="AK137">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AS137">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A137)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A137)</f>
+        <v>0</v>
+      </c>
+      <c r="AT137">
+        <f t="shared" si="25"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="138" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <f t="shared" si="14"/>
         <v>44044</v>
@@ -12417,43 +12855,43 @@
         <v>9</v>
       </c>
       <c r="M138" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>435488</v>
       </c>
       <c r="N138" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.353593172711662E-2</v>
       </c>
       <c r="Q138">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>463</v>
       </c>
       <c r="R138">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4465</v>
       </c>
       <c r="S138" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.395292207792208E-2</v>
       </c>
       <c r="T138" s="8">
+        <f t="shared" si="40"/>
+        <v>9.9746789654548737E-2</v>
+      </c>
+      <c r="U138">
+        <f t="shared" si="36"/>
+        <v>4928</v>
+      </c>
+      <c r="V138">
+        <f t="shared" si="37"/>
+        <v>11263</v>
+      </c>
+      <c r="W138" s="3">
+        <f t="shared" si="38"/>
+        <v>2.1486282517979224E-2</v>
+      </c>
+      <c r="X138">
         <f t="shared" si="39"/>
-        <v>9.9746789654548737E-2</v>
-      </c>
-      <c r="U138">
-        <f t="shared" si="35"/>
-        <v>4928</v>
-      </c>
-      <c r="V138">
-        <f t="shared" si="36"/>
-        <v>11263</v>
-      </c>
-      <c r="W138" s="3">
-        <f t="shared" si="37"/>
-        <v>2.1486282517979224E-2</v>
-      </c>
-      <c r="X138">
-        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="Y138">
@@ -12484,23 +12922,31 @@
         <v>62</v>
       </c>
       <c r="AH138">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>85</v>
       </c>
       <c r="AI138">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="AJ138">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>663</v>
       </c>
       <c r="AK138">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="139" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AS138">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A138)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A138)</f>
+        <v>1</v>
+      </c>
+      <c r="AT138">
+        <f>AH138-AS138</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="139" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <f t="shared" si="14"/>
         <v>44045</v>
@@ -12536,43 +12982,43 @@
         <v>7</v>
       </c>
       <c r="M139" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>440348</v>
       </c>
       <c r="N139" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.3613377573956214E-2</v>
       </c>
       <c r="Q139">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>543</v>
       </c>
       <c r="R139">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4860</v>
       </c>
       <c r="S139" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.10049972237645752</v>
       </c>
       <c r="T139" s="8">
+        <f t="shared" si="40"/>
+        <v>0.10043199675277609</v>
+      </c>
+      <c r="U139">
+        <f t="shared" si="36"/>
+        <v>5403</v>
+      </c>
+      <c r="V139">
+        <f t="shared" si="37"/>
+        <v>11689</v>
+      </c>
+      <c r="W139" s="3">
+        <f t="shared" si="38"/>
+        <v>1.9762169561125843E-2</v>
+      </c>
+      <c r="X139">
         <f t="shared" si="39"/>
-        <v>0.10043199675277609</v>
-      </c>
-      <c r="U139">
-        <f t="shared" si="35"/>
-        <v>5403</v>
-      </c>
-      <c r="V139">
-        <f t="shared" si="36"/>
-        <v>11689</v>
-      </c>
-      <c r="W139" s="3">
-        <f t="shared" si="37"/>
-        <v>1.9762169561125843E-2</v>
-      </c>
-      <c r="X139">
-        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="Y139">
@@ -12603,23 +13049,31 @@
         <v>62</v>
       </c>
       <c r="AH139">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>89</v>
       </c>
       <c r="AI139">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>17</v>
       </c>
       <c r="AJ139">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>672</v>
       </c>
       <c r="AK139">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AS139">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A139)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A139)</f>
+        <v>1</v>
+      </c>
+      <c r="AT139">
+        <f t="shared" ref="AT139:AT188" si="41">AH139-AS139</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="140" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <f t="shared" si="14"/>
         <v>44046</v>
@@ -12655,43 +13109,43 @@
         <v>7</v>
       </c>
       <c r="M140" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>442356</v>
       </c>
       <c r="N140" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.3789051456760184E-2</v>
       </c>
       <c r="Q140">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>302</v>
       </c>
       <c r="R140">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2008</v>
       </c>
       <c r="S140" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.13073593073593073</v>
       </c>
       <c r="T140" s="8">
+        <f t="shared" si="40"/>
+        <v>0.10370050307089287</v>
+      </c>
+      <c r="U140">
+        <f t="shared" si="36"/>
+        <v>2310</v>
+      </c>
+      <c r="V140">
+        <f t="shared" si="37"/>
+        <v>11802</v>
+      </c>
+      <c r="W140" s="3">
+        <f t="shared" si="38"/>
+        <v>2.0420267751228606E-2</v>
+      </c>
+      <c r="X140">
         <f t="shared" si="39"/>
-        <v>0.10370050307089287</v>
-      </c>
-      <c r="U140">
-        <f t="shared" si="35"/>
-        <v>2310</v>
-      </c>
-      <c r="V140">
-        <f t="shared" si="36"/>
-        <v>11802</v>
-      </c>
-      <c r="W140" s="3">
-        <f t="shared" si="37"/>
-        <v>2.0420267751228606E-2</v>
-      </c>
-      <c r="X140">
-        <f t="shared" si="38"/>
         <v>4</v>
       </c>
       <c r="Y140">
@@ -12722,23 +13176,31 @@
         <v>62</v>
       </c>
       <c r="AH140">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>88</v>
       </c>
       <c r="AI140">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>17</v>
       </c>
       <c r="AJ140">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>676</v>
       </c>
       <c r="AK140">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AS140">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A140)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A140)</f>
+        <v>1</v>
+      </c>
+      <c r="AT140">
+        <f t="shared" si="41"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="141" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <f t="shared" si="14"/>
         <v>44047</v>
@@ -12774,43 +13236,43 @@
         <v>6</v>
       </c>
       <c r="M141" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>445947</v>
       </c>
       <c r="N141" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.3472838560036103E-2</v>
       </c>
       <c r="Q141">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>200</v>
       </c>
       <c r="R141">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3591</v>
       </c>
       <c r="S141" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.2756528620416777E-2</v>
       </c>
       <c r="T141" s="8">
+        <f t="shared" si="40"/>
+        <v>9.7896611039019824E-2</v>
+      </c>
+      <c r="U141">
+        <f t="shared" si="36"/>
+        <v>3791</v>
+      </c>
+      <c r="V141">
+        <f t="shared" si="37"/>
+        <v>11174</v>
+      </c>
+      <c r="W141" s="3">
+        <f t="shared" si="38"/>
+        <v>2.1746912475389298E-2</v>
+      </c>
+      <c r="X141">
         <f t="shared" si="39"/>
-        <v>9.7896611039019824E-2</v>
-      </c>
-      <c r="U141">
-        <f t="shared" si="35"/>
-        <v>3791</v>
-      </c>
-      <c r="V141">
-        <f t="shared" si="36"/>
-        <v>11174</v>
-      </c>
-      <c r="W141" s="3">
-        <f t="shared" si="37"/>
-        <v>2.1746912475389298E-2</v>
-      </c>
-      <c r="X141">
-        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="Y141">
@@ -12841,23 +13303,31 @@
         <v>62</v>
       </c>
       <c r="AH141">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>89</v>
       </c>
       <c r="AI141">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="AJ141">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>619</v>
       </c>
       <c r="AK141">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AS141">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A141)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A141)</f>
+        <v>1</v>
+      </c>
+      <c r="AT141">
+        <f t="shared" si="41"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="142" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <f t="shared" si="14"/>
         <v>44048</v>
@@ -12893,43 +13363,43 @@
         <v>8</v>
       </c>
       <c r="M142" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>450768</v>
       </c>
       <c r="N142" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.335049680196307E-2</v>
       </c>
       <c r="Q142">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>430</v>
       </c>
       <c r="R142">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4821</v>
       </c>
       <c r="S142" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>8.1889163968767859E-2</v>
       </c>
       <c r="T142" s="8">
+        <f t="shared" si="40"/>
+        <v>9.6850915221579958E-2</v>
+      </c>
+      <c r="U142">
+        <f t="shared" si="36"/>
+        <v>5251</v>
+      </c>
+      <c r="V142">
+        <f t="shared" si="37"/>
+        <v>10860</v>
+      </c>
+      <c r="W142" s="3">
+        <f t="shared" si="38"/>
+        <v>2.2836095764272559E-2</v>
+      </c>
+      <c r="X142">
         <f t="shared" si="39"/>
-        <v>9.6850915221579958E-2</v>
-      </c>
-      <c r="U142">
-        <f t="shared" si="35"/>
-        <v>5251</v>
-      </c>
-      <c r="V142">
-        <f t="shared" si="36"/>
-        <v>10860</v>
-      </c>
-      <c r="W142" s="3">
-        <f t="shared" si="37"/>
-        <v>2.2836095764272559E-2</v>
-      </c>
-      <c r="X142">
-        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="Y142">
@@ -12960,23 +13430,31 @@
         <v>62</v>
       </c>
       <c r="AH142">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>83</v>
       </c>
       <c r="AI142">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="AJ142">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>593</v>
       </c>
       <c r="AK142">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AS142">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A142)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A142)</f>
+        <v>1</v>
+      </c>
+      <c r="AT142">
+        <f t="shared" si="41"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="143" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <f t="shared" si="14"/>
         <v>44049</v>
@@ -13012,43 +13490,43 @@
         <v>9</v>
       </c>
       <c r="M143" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>456637</v>
       </c>
       <c r="N143" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.335718554492442E-2</v>
       </c>
       <c r="Q143">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>608</v>
       </c>
       <c r="R143">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5869</v>
       </c>
       <c r="S143" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.3870619113787246E-2</v>
       </c>
       <c r="T143" s="8">
+        <f t="shared" si="40"/>
+        <v>9.6497917522144663E-2</v>
+      </c>
+      <c r="U143">
+        <f t="shared" si="36"/>
+        <v>6477</v>
+      </c>
+      <c r="V143">
+        <f t="shared" si="37"/>
+        <v>10646</v>
+      </c>
+      <c r="W143" s="3">
+        <f t="shared" si="38"/>
+        <v>2.2261882397144467E-2</v>
+      </c>
+      <c r="X143">
         <f t="shared" si="39"/>
-        <v>9.6497917522144663E-2</v>
-      </c>
-      <c r="U143">
-        <f t="shared" si="35"/>
-        <v>6477</v>
-      </c>
-      <c r="V143">
-        <f t="shared" si="36"/>
-        <v>10646</v>
-      </c>
-      <c r="W143" s="3">
-        <f t="shared" si="37"/>
-        <v>2.2261882397144467E-2</v>
-      </c>
-      <c r="X143">
-        <f t="shared" si="38"/>
         <v>13</v>
       </c>
       <c r="Y143">
@@ -13079,23 +13557,31 @@
         <v>62</v>
       </c>
       <c r="AH143">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>86</v>
       </c>
       <c r="AI143">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>15</v>
       </c>
       <c r="AJ143">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>579</v>
       </c>
       <c r="AK143">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AS143">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A143)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A143)</f>
+        <v>1</v>
+      </c>
+      <c r="AT143">
+        <f t="shared" si="41"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="144" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <f t="shared" si="14"/>
         <v>44050</v>
@@ -13131,43 +13617,43 @@
         <v>9</v>
       </c>
       <c r="M144" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>462794</v>
       </c>
       <c r="N144" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.3488625367760841E-2</v>
       </c>
       <c r="Q144">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>708</v>
       </c>
       <c r="R144">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6157</v>
       </c>
       <c r="S144" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.10313182811361982</v>
       </c>
       <c r="T144" s="8">
+        <f t="shared" si="40"/>
+        <v>9.2905067808708067E-2</v>
+      </c>
+      <c r="U144">
+        <f t="shared" si="36"/>
+        <v>6865</v>
+      </c>
+      <c r="V144">
+        <f t="shared" si="37"/>
+        <v>10568</v>
+      </c>
+      <c r="W144" s="3">
+        <f t="shared" si="38"/>
+        <v>2.1101438304314914E-2</v>
+      </c>
+      <c r="X144">
         <f t="shared" si="39"/>
-        <v>9.2905067808708067E-2</v>
-      </c>
-      <c r="U144">
-        <f t="shared" si="35"/>
-        <v>6865</v>
-      </c>
-      <c r="V144">
-        <f t="shared" si="36"/>
-        <v>10568</v>
-      </c>
-      <c r="W144" s="3">
-        <f t="shared" si="37"/>
-        <v>2.1101438304314914E-2</v>
-      </c>
-      <c r="X144">
-        <f t="shared" si="38"/>
         <v>6</v>
       </c>
       <c r="Y144">
@@ -13198,23 +13684,31 @@
         <v>63</v>
       </c>
       <c r="AH144">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>91</v>
       </c>
       <c r="AI144">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>14</v>
       </c>
       <c r="AJ144">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>569</v>
       </c>
       <c r="AK144">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="145" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS144">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A144)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A144)</f>
+        <v>1</v>
+      </c>
+      <c r="AT144">
+        <f t="shared" si="41"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <f t="shared" si="14"/>
         <v>44051</v>
@@ -13250,43 +13744,43 @@
         <v>7</v>
       </c>
       <c r="M145" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>466339</v>
       </c>
       <c r="N145" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.3521054483322999E-2</v>
       </c>
       <c r="Q145">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>384</v>
       </c>
       <c r="R145">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3545</v>
       </c>
       <c r="S145" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.7734792568083484E-2</v>
       </c>
       <c r="T145" s="8">
+        <f t="shared" si="40"/>
+        <v>9.3310997472521015E-2</v>
+      </c>
+      <c r="U145">
+        <f t="shared" si="36"/>
+        <v>3929</v>
+      </c>
+      <c r="V145">
+        <f t="shared" si="37"/>
+        <v>10337</v>
+      </c>
+      <c r="W145" s="3">
+        <f t="shared" si="38"/>
+        <v>2.2153429428267389E-2</v>
+      </c>
+      <c r="X145">
         <f t="shared" si="39"/>
-        <v>9.3310997472521015E-2</v>
-      </c>
-      <c r="U145">
-        <f t="shared" si="35"/>
-        <v>3929</v>
-      </c>
-      <c r="V145">
-        <f t="shared" si="36"/>
-        <v>10337</v>
-      </c>
-      <c r="W145" s="3">
-        <f t="shared" si="37"/>
-        <v>2.2153429428267389E-2</v>
-      </c>
-      <c r="X145">
-        <f t="shared" si="38"/>
         <v>13</v>
       </c>
       <c r="Y145">
@@ -13317,23 +13811,31 @@
         <v>66</v>
       </c>
       <c r="AH145">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>97</v>
       </c>
       <c r="AI145">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>13</v>
       </c>
       <c r="AJ145">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>549</v>
       </c>
       <c r="AK145">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="146" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS145">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A145)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A145)</f>
+        <v>1</v>
+      </c>
+      <c r="AT145">
+        <f t="shared" si="41"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="146" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <f t="shared" si="14"/>
         <v>44052</v>
@@ -13369,43 +13871,43 @@
         <v>10</v>
       </c>
       <c r="M146" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>472650</v>
       </c>
       <c r="N146" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.3466978146541313E-2</v>
       </c>
       <c r="Q146">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>620</v>
       </c>
       <c r="R146">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6311</v>
       </c>
       <c r="S146" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>8.9453181359111233E-2</v>
       </c>
       <c r="T146" s="8">
+        <f t="shared" si="40"/>
+        <v>9.1466501659447599E-2</v>
+      </c>
+      <c r="U146">
+        <f t="shared" si="36"/>
+        <v>6931</v>
+      </c>
+      <c r="V146">
+        <f t="shared" si="37"/>
+        <v>10716</v>
+      </c>
+      <c r="W146" s="3">
+        <f t="shared" si="38"/>
+        <v>2.0623366927958194E-2</v>
+      </c>
+      <c r="X146">
         <f t="shared" si="39"/>
-        <v>9.1466501659447599E-2</v>
-      </c>
-      <c r="U146">
-        <f t="shared" si="35"/>
-        <v>6931</v>
-      </c>
-      <c r="V146">
-        <f t="shared" si="36"/>
-        <v>10716</v>
-      </c>
-      <c r="W146" s="3">
-        <f t="shared" si="37"/>
-        <v>2.0623366927958194E-2</v>
-      </c>
-      <c r="X146">
-        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="Y146">
@@ -13436,23 +13938,31 @@
         <v>66</v>
       </c>
       <c r="AH146">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>108</v>
       </c>
       <c r="AI146">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>15</v>
       </c>
       <c r="AJ146">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>563</v>
       </c>
       <c r="AK146">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="147" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS146">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A146)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A146)</f>
+        <v>1</v>
+      </c>
+      <c r="AT146">
+        <f t="shared" si="41"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="147" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <f t="shared" si="14"/>
         <v>44053</v>
@@ -13488,43 +13998,43 @@
         <v>7</v>
       </c>
       <c r="M147" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>474928</v>
       </c>
       <c r="N147" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.3524301048999101E-2</v>
       </c>
       <c r="Q147">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>268</v>
       </c>
       <c r="R147">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2278</v>
       </c>
       <c r="S147" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.10526315789473684</v>
       </c>
       <c r="T147" s="8">
+        <f t="shared" si="40"/>
+        <v>8.9913383626711377E-2</v>
+      </c>
+      <c r="U147">
+        <f t="shared" si="36"/>
+        <v>2546</v>
+      </c>
+      <c r="V147">
+        <f t="shared" si="37"/>
+        <v>10822</v>
+      </c>
+      <c r="W147" s="3">
+        <f t="shared" si="38"/>
+        <v>2.0698576972833119E-2</v>
+      </c>
+      <c r="X147">
         <f t="shared" si="39"/>
-        <v>8.9913383626711377E-2</v>
-      </c>
-      <c r="U147">
-        <f t="shared" si="35"/>
-        <v>2546</v>
-      </c>
-      <c r="V147">
-        <f t="shared" si="36"/>
-        <v>10822</v>
-      </c>
-      <c r="W147" s="3">
-        <f t="shared" si="37"/>
-        <v>2.0698576972833119E-2</v>
-      </c>
-      <c r="X147">
-        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="Y147">
@@ -13555,23 +14065,31 @@
         <v>66</v>
       </c>
       <c r="AH147">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>106</v>
       </c>
       <c r="AI147">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>15</v>
       </c>
       <c r="AJ147">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>559</v>
       </c>
       <c r="AK147">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="148" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS147">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A147)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A147)</f>
+        <v>2</v>
+      </c>
+      <c r="AT147">
+        <f t="shared" si="41"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="148" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <f t="shared" si="14"/>
         <v>44054</v>
@@ -13607,43 +14125,43 @@
         <v>10</v>
       </c>
       <c r="M148" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>476429</v>
       </c>
       <c r="N148" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.3540058562423783E-2</v>
       </c>
       <c r="Q148">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>164</v>
       </c>
       <c r="R148">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1501</v>
       </c>
       <c r="S148" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.8498498498498496E-2</v>
       </c>
       <c r="T148" s="8">
+        <f t="shared" si="40"/>
+        <v>9.452233840304182E-2</v>
+      </c>
+      <c r="U148">
+        <f t="shared" si="36"/>
+        <v>1665</v>
+      </c>
+      <c r="V148">
+        <f t="shared" si="37"/>
+        <v>10250</v>
+      </c>
+      <c r="W148" s="3">
+        <f t="shared" si="38"/>
+        <v>2.3804878048780488E-2</v>
+      </c>
+      <c r="X148">
         <f t="shared" si="39"/>
-        <v>9.452233840304182E-2</v>
-      </c>
-      <c r="U148">
-        <f t="shared" si="35"/>
-        <v>1665</v>
-      </c>
-      <c r="V148">
-        <f t="shared" si="36"/>
-        <v>10250</v>
-      </c>
-      <c r="W148" s="3">
-        <f t="shared" si="37"/>
-        <v>2.3804878048780488E-2</v>
-      </c>
-      <c r="X148">
-        <f t="shared" si="38"/>
         <v>4</v>
       </c>
       <c r="Y148">
@@ -13674,19 +14192,19 @@
         <v>66</v>
       </c>
       <c r="AH148">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>104</v>
       </c>
       <c r="AI148">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>13</v>
       </c>
       <c r="AJ148">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>535</v>
       </c>
       <c r="AK148">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="AL148">
@@ -13698,8 +14216,16 @@
       <c r="AN148">
         <v>5</v>
       </c>
-    </row>
-    <row r="149" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS148">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A148)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A148)</f>
+        <v>2</v>
+      </c>
+      <c r="AT148">
+        <f t="shared" si="41"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="149" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <f t="shared" si="14"/>
         <v>44055</v>
@@ -13735,43 +14261,43 @@
         <v>4</v>
       </c>
       <c r="M149" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>480810</v>
       </c>
       <c r="N149" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.3509147674997364E-2</v>
       </c>
       <c r="Q149">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>434</v>
       </c>
       <c r="R149">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4381</v>
       </c>
       <c r="S149" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.0134994807891999E-2</v>
       </c>
       <c r="T149" s="8">
+        <f t="shared" si="40"/>
+        <v>9.5882990249187436E-2</v>
+      </c>
+      <c r="U149">
+        <f t="shared" si="36"/>
+        <v>4815</v>
+      </c>
+      <c r="V149">
+        <f t="shared" si="37"/>
+        <v>10121</v>
+      </c>
+      <c r="W149" s="3">
+        <f t="shared" si="38"/>
+        <v>2.4009485228732339E-2</v>
+      </c>
+      <c r="X149">
         <f t="shared" si="39"/>
-        <v>9.5882990249187436E-2</v>
-      </c>
-      <c r="U149">
-        <f t="shared" si="35"/>
-        <v>4815</v>
-      </c>
-      <c r="V149">
-        <f t="shared" si="36"/>
-        <v>10121</v>
-      </c>
-      <c r="W149" s="3">
-        <f t="shared" si="37"/>
-        <v>2.4009485228732339E-2</v>
-      </c>
-      <c r="X149">
-        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="Y149">
@@ -13802,19 +14328,19 @@
         <v>66</v>
       </c>
       <c r="AH149">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>103</v>
       </c>
       <c r="AI149">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>15</v>
       </c>
       <c r="AJ149">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>529</v>
       </c>
       <c r="AK149">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="AL149">
@@ -13826,8 +14352,16 @@
       <c r="AN149">
         <v>10</v>
       </c>
-    </row>
-    <row r="150" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS149">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A149)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A149)</f>
+        <v>2</v>
+      </c>
+      <c r="AT149">
+        <f t="shared" si="41"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="150" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <f t="shared" si="14"/>
         <v>44056</v>
@@ -13863,43 +14397,43 @@
         <v>8</v>
       </c>
       <c r="M150" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>485882</v>
       </c>
       <c r="N150" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.3309198801981769E-2</v>
       </c>
       <c r="Q150">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>405</v>
       </c>
       <c r="R150">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5072</v>
       </c>
       <c r="S150" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.3945590651816689E-2</v>
       </c>
       <c r="T150" s="8">
+        <f t="shared" si="40"/>
+        <v>9.2559265235199209E-2</v>
+      </c>
+      <c r="U150">
+        <f t="shared" si="36"/>
+        <v>5477</v>
+      </c>
+      <c r="V150">
+        <f t="shared" si="37"/>
+        <v>9808</v>
+      </c>
+      <c r="W150" s="3">
+        <f t="shared" si="38"/>
+        <v>2.6610929853181076E-2</v>
+      </c>
+      <c r="X150">
         <f t="shared" si="39"/>
-        <v>9.2559265235199209E-2</v>
-      </c>
-      <c r="U150">
-        <f t="shared" si="35"/>
-        <v>5477</v>
-      </c>
-      <c r="V150">
-        <f t="shared" si="36"/>
-        <v>9808</v>
-      </c>
-      <c r="W150" s="3">
-        <f t="shared" si="37"/>
-        <v>2.6610929853181076E-2</v>
-      </c>
-      <c r="X150">
-        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="Y150">
@@ -13930,23 +14464,31 @@
         <v>66</v>
       </c>
       <c r="AH150">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>101</v>
       </c>
       <c r="AI150">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>17</v>
       </c>
       <c r="AJ150">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>525</v>
       </c>
       <c r="AK150">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="151" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS150">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A150)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A150)</f>
+        <v>2</v>
+      </c>
+      <c r="AT150">
+        <f t="shared" si="41"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="151" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <f t="shared" si="14"/>
         <v>44057</v>
@@ -13982,43 +14524,43 @@
         <v>12</v>
       </c>
       <c r="M151" s="7">
-        <f t="shared" ref="M151:M157" si="40">B151-C151</f>
+        <f t="shared" ref="M151:M157" si="42">B151-C151</f>
         <v>490293</v>
       </c>
       <c r="N151" s="4">
-        <f t="shared" ref="N151:N156" si="41">C151/B151</f>
+        <f t="shared" ref="N151:N156" si="43">C151/B151</f>
         <v>9.3684724219648269E-2</v>
       </c>
       <c r="Q151">
-        <f t="shared" ref="Q151:Q172" si="42">C151-C150</f>
+        <f t="shared" ref="Q151:Q172" si="44">C151-C150</f>
         <v>678</v>
       </c>
       <c r="R151">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4411</v>
       </c>
       <c r="S151" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.13322853212811947</v>
       </c>
       <c r="T151" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>9.697228425062393E-2</v>
       </c>
       <c r="U151">
-        <f t="shared" ref="U151:U172" si="43">B151-B150</f>
+        <f t="shared" ref="U151:U172" si="45">B151-B150</f>
         <v>5089</v>
       </c>
       <c r="V151">
-        <f t="shared" ref="V151:V172" si="44">C151-D151-E151</f>
+        <f t="shared" ref="V151:V172" si="46">C151-D151-E151</f>
         <v>9929</v>
       </c>
       <c r="W151" s="3">
-        <f t="shared" ref="W151:W172" si="45">F151/V151</f>
+        <f t="shared" ref="W151:W172" si="47">F151/V151</f>
         <v>2.5984489878134755E-2</v>
       </c>
       <c r="X151">
-        <f t="shared" ref="X151:X173" si="46">E151-E150</f>
+        <f t="shared" ref="X151:X173" si="48">E151-E150</f>
         <v>10</v>
       </c>
       <c r="Y151">
@@ -14049,19 +14591,19 @@
         <v>66</v>
       </c>
       <c r="AH151">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>101</v>
       </c>
       <c r="AI151">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="AJ151">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>539</v>
       </c>
       <c r="AK151">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="AL151">
@@ -14073,10 +14615,18 @@
       <c r="AN151">
         <v>12</v>
       </c>
-    </row>
-    <row r="152" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS151">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A151)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A151)</f>
+        <v>17</v>
+      </c>
+      <c r="AT151">
+        <f t="shared" si="41"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <f t="shared" ref="A152:A186" si="47">A151+1</f>
+        <f t="shared" ref="A152:A188" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -14110,43 +14660,43 @@
         <v>11</v>
       </c>
       <c r="M152" s="7">
+        <f t="shared" si="42"/>
+        <v>500769</v>
+      </c>
+      <c r="N152" s="4">
+        <f t="shared" si="43"/>
+        <v>9.3494588327296221E-2</v>
+      </c>
+      <c r="Q152">
+        <f t="shared" si="44"/>
+        <v>967</v>
+      </c>
+      <c r="R152">
+        <f t="shared" si="26"/>
+        <v>10476</v>
+      </c>
+      <c r="S152" s="8">
+        <f t="shared" si="27"/>
+        <v>8.4505811413090978E-2</v>
+      </c>
+      <c r="T152" s="8">
         <f t="shared" si="40"/>
-        <v>500769</v>
-      </c>
-      <c r="N152" s="4">
-        <f t="shared" si="41"/>
-        <v>9.3494588327296221E-2</v>
-      </c>
-      <c r="Q152">
-        <f t="shared" si="42"/>
-        <v>967</v>
-      </c>
-      <c r="R152">
-        <f t="shared" si="25"/>
-        <v>10476</v>
-      </c>
-      <c r="S152" s="8">
-        <f t="shared" si="26"/>
-        <v>8.4505811413090978E-2</v>
-      </c>
-      <c r="T152" s="8">
-        <f t="shared" si="39"/>
         <v>9.3135963757045775E-2</v>
       </c>
       <c r="U152">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>11443</v>
       </c>
       <c r="V152">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10317</v>
       </c>
       <c r="W152" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2.5298051759232335E-2</v>
       </c>
       <c r="X152">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>8</v>
       </c>
       <c r="Y152">
@@ -14177,19 +14727,19 @@
         <v>66</v>
       </c>
       <c r="AH152">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>103</v>
       </c>
       <c r="AI152">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>18</v>
       </c>
       <c r="AJ152">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>551</v>
       </c>
       <c r="AK152">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="AL152">
@@ -14201,10 +14751,18 @@
       <c r="AN152">
         <v>12</v>
       </c>
-    </row>
-    <row r="153" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS152">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A152)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A152)</f>
+        <v>17</v>
+      </c>
+      <c r="AT152">
+        <f t="shared" si="41"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="153" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44059</v>
       </c>
       <c r="B153">
@@ -14238,43 +14796,43 @@
         <v>13</v>
       </c>
       <c r="M153" s="7">
+        <f t="shared" si="42"/>
+        <v>506453</v>
+      </c>
+      <c r="N153" s="4">
+        <f t="shared" si="43"/>
+        <v>9.3473116701332085E-2</v>
+      </c>
+      <c r="Q153">
+        <f t="shared" si="44"/>
+        <v>573</v>
+      </c>
+      <c r="R153">
+        <f t="shared" si="26"/>
+        <v>5684</v>
+      </c>
+      <c r="S153" s="8">
+        <f t="shared" si="27"/>
+        <v>9.1577433274732306E-2</v>
+      </c>
+      <c r="T153" s="8">
         <f t="shared" si="40"/>
-        <v>506453</v>
-      </c>
-      <c r="N153" s="4">
-        <f t="shared" si="41"/>
-        <v>9.3473116701332085E-2</v>
-      </c>
-      <c r="Q153">
-        <f t="shared" si="42"/>
-        <v>573</v>
-      </c>
-      <c r="R153">
-        <f t="shared" si="25"/>
-        <v>5684</v>
-      </c>
-      <c r="S153" s="8">
-        <f t="shared" si="26"/>
-        <v>9.1577433274732306E-2</v>
-      </c>
-      <c r="T153" s="8">
-        <f t="shared" si="39"/>
         <v>9.3558940255282635E-2</v>
       </c>
       <c r="U153">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>6257</v>
       </c>
       <c r="V153">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10757</v>
       </c>
       <c r="W153" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2.5192897648043135E-2</v>
       </c>
       <c r="X153">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="Y153">
@@ -14305,25 +14863,33 @@
         <v>66</v>
       </c>
       <c r="AH153">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>103</v>
       </c>
       <c r="AI153">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="AJ153">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>568</v>
       </c>
       <c r="AK153">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="154" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS153">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A153)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A153)</f>
+        <v>17</v>
+      </c>
+      <c r="AT153">
+        <f t="shared" si="41"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="154" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44060</v>
       </c>
       <c r="B154">
@@ -14357,43 +14923,43 @@
         <v>5</v>
       </c>
       <c r="M154" s="7">
+        <f t="shared" si="42"/>
+        <v>508607</v>
+      </c>
+      <c r="N154" s="4">
+        <f t="shared" si="43"/>
+        <v>9.3744320388868499E-2</v>
+      </c>
+      <c r="Q154">
+        <f t="shared" si="44"/>
+        <v>390</v>
+      </c>
+      <c r="R154">
+        <f t="shared" si="26"/>
+        <v>2154</v>
+      </c>
+      <c r="S154" s="8">
+        <f t="shared" si="27"/>
+        <v>0.15330188679245282</v>
+      </c>
+      <c r="T154" s="8">
         <f t="shared" si="40"/>
-        <v>508607</v>
-      </c>
-      <c r="N154" s="4">
-        <f t="shared" si="41"/>
-        <v>9.3744320388868499E-2</v>
-      </c>
-      <c r="Q154">
-        <f t="shared" si="42"/>
-        <v>390</v>
-      </c>
-      <c r="R154">
-        <f t="shared" si="25"/>
-        <v>2154</v>
-      </c>
-      <c r="S154" s="8">
-        <f t="shared" si="26"/>
-        <v>0.15330188679245282</v>
-      </c>
-      <c r="T154" s="8">
-        <f t="shared" si="39"/>
         <v>9.6835612764816309E-2</v>
       </c>
       <c r="U154">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>2544</v>
       </c>
       <c r="V154">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>11000</v>
       </c>
       <c r="W154" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2.5727272727272727E-2</v>
       </c>
       <c r="X154">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Y154">
@@ -14424,19 +14990,19 @@
         <v>66</v>
       </c>
       <c r="AH154">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>104</v>
       </c>
       <c r="AI154">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>22</v>
       </c>
       <c r="AJ154">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>587</v>
       </c>
       <c r="AK154">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="AL154">
@@ -14448,10 +15014,18 @@
       <c r="AN154">
         <v>18</v>
       </c>
-    </row>
-    <row r="155" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS154">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A154)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A154)</f>
+        <v>18</v>
+      </c>
+      <c r="AT154">
+        <f t="shared" si="41"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="155" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44061</v>
       </c>
       <c r="B155">
@@ -14485,43 +15059,43 @@
         <v>7</v>
       </c>
       <c r="M155" s="7">
+        <f t="shared" si="42"/>
+        <v>511525</v>
+      </c>
+      <c r="N155" s="4">
+        <f t="shared" si="43"/>
+        <v>9.3752602122800704E-2</v>
+      </c>
+      <c r="Q155">
+        <f t="shared" si="44"/>
+        <v>307</v>
+      </c>
+      <c r="R155">
+        <f t="shared" ref="R155:R172" si="50">M155-M154</f>
+        <v>2918</v>
+      </c>
+      <c r="S155" s="8">
+        <f t="shared" ref="S155:S172" si="51">Q155/U155</f>
+        <v>9.5193798449612399E-2</v>
+      </c>
+      <c r="T155" s="8">
         <f t="shared" si="40"/>
-        <v>511525</v>
-      </c>
-      <c r="N155" s="4">
-        <f t="shared" si="41"/>
-        <v>9.3752602122800704E-2</v>
-      </c>
-      <c r="Q155">
-        <f t="shared" si="42"/>
-        <v>307</v>
-      </c>
-      <c r="R155">
-        <f t="shared" ref="R155:R172" si="48">M155-M154</f>
-        <v>2918</v>
-      </c>
-      <c r="S155" s="8">
-        <f t="shared" ref="S155:S172" si="49">Q155/U155</f>
-        <v>9.5193798449612399E-2</v>
-      </c>
-      <c r="T155" s="8">
-        <f t="shared" si="39"/>
         <v>9.6628056628056624E-2</v>
       </c>
       <c r="U155">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>3225</v>
       </c>
       <c r="V155">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10444</v>
       </c>
       <c r="W155" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2.7479892761394103E-2</v>
       </c>
       <c r="X155">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>12</v>
       </c>
       <c r="Y155">
@@ -14552,25 +15126,33 @@
         <v>67</v>
       </c>
       <c r="AH155">
-        <f t="shared" ref="AH155:AH173" si="50">Y155-AB155-AE155</f>
+        <f t="shared" ref="AH155:AH173" si="52">Y155-AB155-AE155</f>
         <v>100</v>
       </c>
       <c r="AI155">
-        <f t="shared" ref="AI155:AI173" si="51">Z155-AC155-AF155</f>
+        <f t="shared" ref="AI155:AI173" si="53">Z155-AC155-AF155</f>
         <v>21</v>
       </c>
       <c r="AJ155">
-        <f t="shared" ref="AJ155:AJ173" si="52">AA155-AD155-AG155</f>
+        <f t="shared" ref="AJ155:AJ173" si="54">AA155-AD155-AG155</f>
         <v>575</v>
       </c>
       <c r="AK155">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="156" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS155">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A155)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A155)</f>
+        <v>18</v>
+      </c>
+      <c r="AT155">
+        <f t="shared" si="41"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="156" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44062</v>
       </c>
       <c r="B156">
@@ -14604,43 +15186,43 @@
         <v>12</v>
       </c>
       <c r="M156" s="7">
+        <f t="shared" si="42"/>
+        <v>516478</v>
+      </c>
+      <c r="N156" s="4">
+        <f t="shared" si="43"/>
+        <v>9.3836244936057023E-2</v>
+      </c>
+      <c r="Q156">
+        <f t="shared" si="44"/>
+        <v>565</v>
+      </c>
+      <c r="R156">
+        <f t="shared" si="50"/>
+        <v>4953</v>
+      </c>
+      <c r="S156" s="8">
+        <f t="shared" si="51"/>
+        <v>0.10239217107647698</v>
+      </c>
+      <c r="T156" s="8">
         <f t="shared" si="40"/>
-        <v>516478</v>
-      </c>
-      <c r="N156" s="4">
-        <f t="shared" si="41"/>
-        <v>9.3836244936057023E-2</v>
-      </c>
-      <c r="Q156">
-        <f t="shared" si="42"/>
-        <v>565</v>
-      </c>
-      <c r="R156">
+        <v>9.8222637979420019E-2</v>
+      </c>
+      <c r="U156">
+        <f t="shared" si="45"/>
+        <v>5518</v>
+      </c>
+      <c r="V156">
+        <f t="shared" si="46"/>
+        <v>10541</v>
+      </c>
+      <c r="W156" s="3">
+        <f t="shared" si="47"/>
+        <v>2.8365430224836355E-2</v>
+      </c>
+      <c r="X156">
         <f t="shared" si="48"/>
-        <v>4953</v>
-      </c>
-      <c r="S156" s="8">
-        <f t="shared" si="49"/>
-        <v>0.10239217107647698</v>
-      </c>
-      <c r="T156" s="8">
-        <f t="shared" si="39"/>
-        <v>9.8222637979420019E-2</v>
-      </c>
-      <c r="U156">
-        <f t="shared" si="43"/>
-        <v>5518</v>
-      </c>
-      <c r="V156">
-        <f t="shared" si="44"/>
-        <v>10541</v>
-      </c>
-      <c r="W156" s="3">
-        <f t="shared" si="45"/>
-        <v>2.8365430224836355E-2</v>
-      </c>
-      <c r="X156">
-        <f t="shared" si="46"/>
         <v>15</v>
       </c>
       <c r="Y156">
@@ -14671,19 +15253,19 @@
         <v>67</v>
       </c>
       <c r="AH156">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>95</v>
       </c>
       <c r="AI156">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>21</v>
       </c>
       <c r="AJ156">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>582</v>
       </c>
       <c r="AK156">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="AL156">
@@ -14695,10 +15277,18 @@
       <c r="AN156">
         <v>19</v>
       </c>
-    </row>
-    <row r="157" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS156">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A156)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A156)</f>
+        <v>17</v>
+      </c>
+      <c r="AT156">
+        <f t="shared" si="41"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="157" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44063</v>
       </c>
       <c r="B157">
@@ -14732,7 +15322,7 @@
         <v>3</v>
       </c>
       <c r="M157" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>522680</v>
       </c>
       <c r="N157" s="4">
@@ -14740,35 +15330,35 @@
         <v>9.3295123173987485E-2</v>
       </c>
       <c r="Q157">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>298</v>
       </c>
       <c r="R157">
+        <f t="shared" si="50"/>
+        <v>6202</v>
+      </c>
+      <c r="S157" s="8">
+        <f t="shared" si="51"/>
+        <v>4.5846153846153849E-2</v>
+      </c>
+      <c r="T157" s="8">
+        <f t="shared" si="40"/>
+        <v>9.3109227129337543E-2</v>
+      </c>
+      <c r="U157">
+        <f t="shared" si="45"/>
+        <v>6500</v>
+      </c>
+      <c r="V157">
+        <f t="shared" si="46"/>
+        <v>10470</v>
+      </c>
+      <c r="W157" s="3">
+        <f t="shared" si="47"/>
+        <v>2.865329512893983E-2</v>
+      </c>
+      <c r="X157">
         <f t="shared" si="48"/>
-        <v>6202</v>
-      </c>
-      <c r="S157" s="8">
-        <f t="shared" si="49"/>
-        <v>4.5846153846153849E-2</v>
-      </c>
-      <c r="T157" s="8">
-        <f t="shared" si="39"/>
-        <v>9.3109227129337543E-2</v>
-      </c>
-      <c r="U157">
-        <f t="shared" si="43"/>
-        <v>6500</v>
-      </c>
-      <c r="V157">
-        <f t="shared" si="44"/>
-        <v>10470</v>
-      </c>
-      <c r="W157" s="3">
-        <f t="shared" si="45"/>
-        <v>2.865329512893983E-2</v>
-      </c>
-      <c r="X157">
-        <f t="shared" si="46"/>
         <v>9</v>
       </c>
       <c r="Y157">
@@ -14799,19 +15389,19 @@
         <v>67</v>
       </c>
       <c r="AH157">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>95</v>
       </c>
       <c r="AI157">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>21</v>
       </c>
       <c r="AJ157">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>588</v>
       </c>
       <c r="AK157">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="AL157">
@@ -14823,10 +15413,18 @@
       <c r="AN157">
         <v>17</v>
       </c>
-    </row>
-    <row r="158" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS157">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A157)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A157)</f>
+        <v>17</v>
+      </c>
+      <c r="AT157">
+        <f t="shared" si="41"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="158" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44064</v>
       </c>
       <c r="B158">
@@ -14868,35 +15466,35 @@
         <v>9.3340780100053117E-2</v>
       </c>
       <c r="Q158">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>869</v>
       </c>
       <c r="R158">
+        <f t="shared" si="50"/>
+        <v>8159</v>
+      </c>
+      <c r="S158" s="8">
+        <f t="shared" si="51"/>
+        <v>9.6256092157731496E-2</v>
+      </c>
+      <c r="T158" s="8">
+        <f t="shared" si="40"/>
+        <v>8.9160956980792988E-2</v>
+      </c>
+      <c r="U158">
+        <f t="shared" si="45"/>
+        <v>9028</v>
+      </c>
+      <c r="V158">
+        <f t="shared" si="46"/>
+        <v>10825</v>
+      </c>
+      <c r="W158" s="3">
+        <f t="shared" si="47"/>
+        <v>2.7066974595842955E-2</v>
+      </c>
+      <c r="X158">
         <f t="shared" si="48"/>
-        <v>8159</v>
-      </c>
-      <c r="S158" s="8">
-        <f t="shared" si="49"/>
-        <v>9.6256092157731496E-2</v>
-      </c>
-      <c r="T158" s="8">
-        <f t="shared" si="39"/>
-        <v>8.9160956980792988E-2</v>
-      </c>
-      <c r="U158">
-        <f t="shared" si="43"/>
-        <v>9028</v>
-      </c>
-      <c r="V158">
-        <f t="shared" si="44"/>
-        <v>10825</v>
-      </c>
-      <c r="W158" s="3">
-        <f t="shared" si="45"/>
-        <v>2.7066974595842955E-2</v>
-      </c>
-      <c r="X158">
-        <f t="shared" si="46"/>
         <v>5</v>
       </c>
       <c r="Y158">
@@ -14927,19 +15525,19 @@
         <v>67</v>
       </c>
       <c r="AH158">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>96</v>
       </c>
       <c r="AI158">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>19</v>
       </c>
       <c r="AJ158">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>594</v>
       </c>
       <c r="AK158">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
       <c r="AL158">
@@ -14951,10 +15549,18 @@
       <c r="AN158">
         <v>20</v>
       </c>
-    </row>
-    <row r="159" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS158">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A158)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A158)</f>
+        <v>17</v>
+      </c>
+      <c r="AT158">
+        <f t="shared" si="41"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="159" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44065</v>
       </c>
       <c r="B159">
@@ -14996,35 +15602,35 @@
         <v>9.3899795774373823E-2</v>
       </c>
       <c r="Q159">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>846</v>
       </c>
       <c r="R159">
+        <f t="shared" si="50"/>
+        <v>4678</v>
+      </c>
+      <c r="S159" s="8">
+        <f t="shared" si="51"/>
+        <v>0.15314989138305576</v>
+      </c>
+      <c r="T159" s="8">
+        <f t="shared" si="40"/>
+        <v>9.9699450720281899E-2</v>
+      </c>
+      <c r="U159">
+        <f t="shared" si="45"/>
+        <v>5524</v>
+      </c>
+      <c r="V159">
+        <f t="shared" si="46"/>
+        <v>11117</v>
+      </c>
+      <c r="W159" s="3">
+        <f t="shared" si="47"/>
+        <v>2.410722317171899E-2</v>
+      </c>
+      <c r="X159">
         <f t="shared" si="48"/>
-        <v>4678</v>
-      </c>
-      <c r="S159" s="8">
-        <f t="shared" si="49"/>
-        <v>0.15314989138305576</v>
-      </c>
-      <c r="T159" s="8">
-        <f t="shared" si="39"/>
-        <v>9.9699450720281899E-2</v>
-      </c>
-      <c r="U159">
-        <f t="shared" si="43"/>
-        <v>5524</v>
-      </c>
-      <c r="V159">
-        <f t="shared" si="44"/>
-        <v>11117</v>
-      </c>
-      <c r="W159" s="3">
-        <f t="shared" si="45"/>
-        <v>2.410722317171899E-2</v>
-      </c>
-      <c r="X159">
-        <f t="shared" si="46"/>
         <v>14</v>
       </c>
       <c r="Y159">
@@ -15055,19 +15661,19 @@
         <v>69</v>
       </c>
       <c r="AH159">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>92</v>
       </c>
       <c r="AI159">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>16</v>
       </c>
       <c r="AJ159">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>617</v>
       </c>
       <c r="AK159">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
       <c r="AL159">
@@ -15079,10 +15685,18 @@
       <c r="AN159">
         <v>20</v>
       </c>
-    </row>
-    <row r="160" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS159">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A159)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A159)</f>
+        <v>17</v>
+      </c>
+      <c r="AT159">
+        <f t="shared" si="41"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="160" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44066</v>
       </c>
       <c r="B160">
@@ -15116,43 +15730,43 @@
         <v>6</v>
       </c>
       <c r="M160" s="7">
-        <f t="shared" ref="M160:M171" si="53">B160-C160</f>
+        <f t="shared" ref="M160:M171" si="55">B160-C160</f>
         <v>539169</v>
       </c>
       <c r="N160" s="4">
-        <f t="shared" ref="N160:N171" si="54">C160/B160</f>
+        <f t="shared" ref="N160:N171" si="56">C160/B160</f>
         <v>9.4223325762361074E-2</v>
       </c>
       <c r="Q160">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>591</v>
       </c>
       <c r="R160">
+        <f t="shared" si="50"/>
+        <v>3652</v>
+      </c>
+      <c r="S160" s="8">
+        <f t="shared" si="51"/>
+        <v>0.13928823945321706</v>
+      </c>
+      <c r="T160" s="8">
+        <f t="shared" si="40"/>
+        <v>0.10568038926247882</v>
+      </c>
+      <c r="U160">
+        <f t="shared" si="45"/>
+        <v>4243</v>
+      </c>
+      <c r="V160">
+        <f t="shared" si="46"/>
+        <v>11582</v>
+      </c>
+      <c r="W160" s="3">
+        <f t="shared" si="47"/>
+        <v>2.2448627180107063E-2</v>
+      </c>
+      <c r="X160">
         <f t="shared" si="48"/>
-        <v>3652</v>
-      </c>
-      <c r="S160" s="8">
-        <f t="shared" si="49"/>
-        <v>0.13928823945321706</v>
-      </c>
-      <c r="T160" s="8">
-        <f t="shared" si="39"/>
-        <v>0.10568038926247882</v>
-      </c>
-      <c r="U160">
-        <f t="shared" si="43"/>
-        <v>4243</v>
-      </c>
-      <c r="V160">
-        <f t="shared" si="44"/>
-        <v>11582</v>
-      </c>
-      <c r="W160" s="3">
-        <f t="shared" si="45"/>
-        <v>2.2448627180107063E-2</v>
-      </c>
-      <c r="X160">
-        <f t="shared" si="46"/>
         <v>3</v>
       </c>
       <c r="Y160">
@@ -15183,19 +15797,19 @@
         <v>69</v>
       </c>
       <c r="AH160">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>97</v>
       </c>
       <c r="AI160">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>23</v>
       </c>
       <c r="AJ160">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>619</v>
       </c>
       <c r="AK160">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>13</v>
       </c>
       <c r="AL160">
@@ -15207,10 +15821,18 @@
       <c r="AN160">
         <v>20</v>
       </c>
-    </row>
-    <row r="161" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS160">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A160)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A160)</f>
+        <v>17</v>
+      </c>
+      <c r="AT160">
+        <f t="shared" si="41"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="161" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44067</v>
       </c>
       <c r="B161">
@@ -15244,43 +15866,43 @@
         <v>8</v>
       </c>
       <c r="M161" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>541046</v>
       </c>
       <c r="N161" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>9.4559451091958832E-2</v>
       </c>
       <c r="Q161">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>417</v>
       </c>
       <c r="R161">
+        <f t="shared" si="50"/>
+        <v>1877</v>
+      </c>
+      <c r="S161" s="8">
+        <f t="shared" si="51"/>
+        <v>0.18177855274629467</v>
+      </c>
+      <c r="T161" s="8">
+        <f t="shared" si="40"/>
+        <v>0.10715072112738082</v>
+      </c>
+      <c r="U161">
+        <f t="shared" si="45"/>
+        <v>2294</v>
+      </c>
+      <c r="V161">
+        <f t="shared" si="46"/>
+        <v>11868</v>
+      </c>
+      <c r="W161" s="3">
+        <f t="shared" si="47"/>
+        <v>2.3171553758004719E-2</v>
+      </c>
+      <c r="X161">
         <f t="shared" si="48"/>
-        <v>1877</v>
-      </c>
-      <c r="S161" s="8">
-        <f t="shared" si="49"/>
-        <v>0.18177855274629467</v>
-      </c>
-      <c r="T161" s="8">
-        <f t="shared" si="39"/>
-        <v>0.10715072112738082</v>
-      </c>
-      <c r="U161">
-        <f t="shared" si="43"/>
-        <v>2294</v>
-      </c>
-      <c r="V161">
-        <f t="shared" si="44"/>
-        <v>11868</v>
-      </c>
-      <c r="W161" s="3">
-        <f t="shared" si="45"/>
-        <v>2.3171553758004719E-2</v>
-      </c>
-      <c r="X161">
-        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="Y161">
@@ -15311,25 +15933,33 @@
         <v>70</v>
       </c>
       <c r="AH161">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>95</v>
       </c>
       <c r="AI161">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>27</v>
       </c>
       <c r="AJ161">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>626</v>
       </c>
       <c r="AK161">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="162" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS161">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A161)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A161)</f>
+        <v>17</v>
+      </c>
+      <c r="AT161">
+        <f t="shared" si="41"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="162" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44068</v>
       </c>
       <c r="B162">
@@ -15363,43 +15993,43 @@
         <v>4</v>
       </c>
       <c r="M162" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>544392</v>
       </c>
       <c r="N162" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>9.4853859314546235E-2</v>
       </c>
       <c r="Q162">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>545</v>
       </c>
       <c r="R162">
+        <f t="shared" si="50"/>
+        <v>3346</v>
+      </c>
+      <c r="S162" s="8">
+        <f t="shared" si="51"/>
+        <v>0.14006682086867128</v>
+      </c>
+      <c r="T162" s="8">
+        <f t="shared" si="40"/>
+        <v>0.11165468403697497</v>
+      </c>
+      <c r="U162">
+        <f t="shared" si="45"/>
+        <v>3891</v>
+      </c>
+      <c r="V162">
+        <f t="shared" si="46"/>
+        <v>11701</v>
+      </c>
+      <c r="W162" s="3">
+        <f t="shared" si="47"/>
+        <v>2.5211520382873259E-2</v>
+      </c>
+      <c r="X162">
         <f t="shared" si="48"/>
-        <v>3346</v>
-      </c>
-      <c r="S162" s="8">
-        <f t="shared" si="49"/>
-        <v>0.14006682086867128</v>
-      </c>
-      <c r="T162" s="8">
-        <f t="shared" si="39"/>
-        <v>0.11165468403697497</v>
-      </c>
-      <c r="U162">
-        <f t="shared" si="43"/>
-        <v>3891</v>
-      </c>
-      <c r="V162">
-        <f t="shared" si="44"/>
-        <v>11701</v>
-      </c>
-      <c r="W162" s="3">
-        <f t="shared" si="45"/>
-        <v>2.5211520382873259E-2</v>
-      </c>
-      <c r="X162">
-        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="Y162">
@@ -15430,25 +16060,33 @@
         <v>70</v>
       </c>
       <c r="AH162">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>95</v>
       </c>
       <c r="AI162">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>27</v>
       </c>
       <c r="AJ162">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>626</v>
       </c>
       <c r="AK162">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS162">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A162)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A162)</f>
+        <v>18</v>
+      </c>
+      <c r="AT162">
+        <f t="shared" si="41"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="163" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44069</v>
       </c>
       <c r="B163">
@@ -15482,43 +16120,43 @@
         <v>9</v>
       </c>
       <c r="M163" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>549681</v>
       </c>
       <c r="N163" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>9.5218499857619959E-2</v>
       </c>
       <c r="Q163">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>799</v>
       </c>
       <c r="R163">
+        <f t="shared" si="50"/>
+        <v>5289</v>
+      </c>
+      <c r="S163" s="8">
+        <f t="shared" si="51"/>
+        <v>0.13124178712220763</v>
+      </c>
+      <c r="T163" s="8">
+        <f t="shared" si="40"/>
+        <v>0.11618931005110733</v>
+      </c>
+      <c r="U163">
+        <f t="shared" si="45"/>
+        <v>6088</v>
+      </c>
+      <c r="V163">
+        <f t="shared" si="46"/>
+        <v>11935</v>
+      </c>
+      <c r="W163" s="3">
+        <f t="shared" si="47"/>
+        <v>2.6225387515710095E-2</v>
+      </c>
+      <c r="X163">
         <f t="shared" si="48"/>
-        <v>5289</v>
-      </c>
-      <c r="S163" s="8">
-        <f t="shared" si="49"/>
-        <v>0.13124178712220763</v>
-      </c>
-      <c r="T163" s="8">
-        <f t="shared" si="39"/>
-        <v>0.11618931005110733</v>
-      </c>
-      <c r="U163">
-        <f t="shared" si="43"/>
-        <v>6088</v>
-      </c>
-      <c r="V163">
-        <f t="shared" si="44"/>
-        <v>11935</v>
-      </c>
-      <c r="W163" s="3">
-        <f t="shared" si="45"/>
-        <v>2.6225387515710095E-2</v>
-      </c>
-      <c r="X163">
-        <f t="shared" si="46"/>
         <v>13</v>
       </c>
       <c r="Y163">
@@ -15549,19 +16187,19 @@
         <v>72</v>
       </c>
       <c r="AH163">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>91</v>
       </c>
       <c r="AI163">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>31</v>
       </c>
       <c r="AJ163">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>603</v>
       </c>
       <c r="AK163">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
       <c r="AL163">
@@ -15573,10 +16211,18 @@
       <c r="AN163">
         <v>11</v>
       </c>
-    </row>
-    <row r="164" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS163">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A163)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A163)</f>
+        <v>19</v>
+      </c>
+      <c r="AT163">
+        <f t="shared" si="41"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="164" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44070</v>
       </c>
       <c r="B164">
@@ -15610,43 +16256,43 @@
         <v>6</v>
       </c>
       <c r="M164" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>555411</v>
       </c>
       <c r="N164" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>9.6175501861639812E-2</v>
       </c>
       <c r="Q164">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1253</v>
       </c>
       <c r="R164">
+        <f t="shared" si="50"/>
+        <v>5730</v>
+      </c>
+      <c r="S164" s="8">
+        <f t="shared" si="51"/>
+        <v>0.17943577259057711</v>
+      </c>
+      <c r="T164" s="8">
+        <f t="shared" si="40"/>
+        <v>0.13981235709968201</v>
+      </c>
+      <c r="U164">
+        <f t="shared" si="45"/>
+        <v>6983</v>
+      </c>
+      <c r="V164">
+        <f t="shared" si="46"/>
+        <v>12669</v>
+      </c>
+      <c r="W164" s="3">
+        <f t="shared" si="47"/>
+        <v>2.4074512589786091E-2</v>
+      </c>
+      <c r="X164">
         <f t="shared" si="48"/>
-        <v>5730</v>
-      </c>
-      <c r="S164" s="8">
-        <f t="shared" si="49"/>
-        <v>0.17943577259057711</v>
-      </c>
-      <c r="T164" s="8">
-        <f t="shared" si="39"/>
-        <v>0.13981235709968201</v>
-      </c>
-      <c r="U164">
-        <f t="shared" si="43"/>
-        <v>6983</v>
-      </c>
-      <c r="V164">
-        <f t="shared" si="44"/>
-        <v>12669</v>
-      </c>
-      <c r="W164" s="3">
-        <f t="shared" si="45"/>
-        <v>2.4074512589786091E-2</v>
-      </c>
-      <c r="X164">
-        <f t="shared" si="46"/>
         <v>17</v>
       </c>
       <c r="Y164">
@@ -15677,19 +16323,19 @@
         <v>72</v>
       </c>
       <c r="AH164">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>93</v>
       </c>
       <c r="AI164">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>30</v>
       </c>
       <c r="AJ164">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>621</v>
       </c>
       <c r="AK164">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="AL164">
@@ -15701,10 +16347,18 @@
       <c r="AN164">
         <v>24</v>
       </c>
-    </row>
-    <row r="165" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS164">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A164)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A164)</f>
+        <v>19</v>
+      </c>
+      <c r="AT164">
+        <f t="shared" si="41"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="165" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44071</v>
       </c>
       <c r="B165">
@@ -15738,43 +16392,43 @@
         <v>9</v>
       </c>
       <c r="M165" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>555718</v>
       </c>
       <c r="N165" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>9.9887104846716895E-2</v>
       </c>
       <c r="Q165">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>2568</v>
       </c>
       <c r="R165">
+        <f t="shared" si="50"/>
+        <v>307</v>
+      </c>
+      <c r="S165" s="8">
+        <f t="shared" si="51"/>
+        <v>0.89321739130434785</v>
+      </c>
+      <c r="T165" s="8">
+        <f t="shared" si="40"/>
+        <v>0.22004514389616903</v>
+      </c>
+      <c r="U165">
+        <f t="shared" si="45"/>
+        <v>2875</v>
+      </c>
+      <c r="V165">
+        <f t="shared" si="46"/>
+        <v>14692</v>
+      </c>
+      <c r="W165" s="3">
+        <f t="shared" si="47"/>
+        <v>2.0351211543697251E-2</v>
+      </c>
+      <c r="X165">
         <f t="shared" si="48"/>
-        <v>307</v>
-      </c>
-      <c r="S165" s="8">
-        <f t="shared" si="49"/>
-        <v>0.89321739130434785</v>
-      </c>
-      <c r="T165" s="8">
-        <f t="shared" si="39"/>
-        <v>0.22004514389616903</v>
-      </c>
-      <c r="U165">
-        <f t="shared" si="43"/>
-        <v>2875</v>
-      </c>
-      <c r="V165">
-        <f t="shared" si="44"/>
-        <v>14692</v>
-      </c>
-      <c r="W165" s="3">
-        <f t="shared" si="45"/>
-        <v>2.0351211543697251E-2</v>
-      </c>
-      <c r="X165">
-        <f t="shared" si="46"/>
         <v>14</v>
       </c>
       <c r="Y165">
@@ -15805,19 +16459,19 @@
         <v>73</v>
       </c>
       <c r="AH165">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>98</v>
       </c>
       <c r="AI165">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>37</v>
       </c>
       <c r="AJ165">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>652</v>
       </c>
       <c r="AK165">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
       <c r="AL165">
@@ -15829,10 +16483,18 @@
       <c r="AN165">
         <v>44</v>
       </c>
-    </row>
-    <row r="166" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS165">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A165)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A165)</f>
+        <v>19</v>
+      </c>
+      <c r="AT165">
+        <f t="shared" si="41"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="166" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44072</v>
       </c>
       <c r="B166">
@@ -15866,43 +16528,43 @@
         <v>10</v>
       </c>
       <c r="M166" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>561637</v>
       </c>
       <c r="N166" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.10099962384050838</v>
       </c>
       <c r="Q166">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1429</v>
       </c>
       <c r="R166">
+        <f t="shared" si="50"/>
+        <v>5919</v>
+      </c>
+      <c r="S166" s="8">
+        <f t="shared" si="51"/>
+        <v>0.19447468698965706</v>
+      </c>
+      <c r="T166" s="8">
+        <f t="shared" si="40"/>
+        <v>0.22543146907063638</v>
+      </c>
+      <c r="U166">
+        <f t="shared" si="45"/>
+        <v>7348</v>
+      </c>
+      <c r="V166">
+        <f t="shared" si="46"/>
+        <v>15596</v>
+      </c>
+      <c r="W166" s="3">
+        <f t="shared" si="47"/>
+        <v>2.0197486535008975E-2</v>
+      </c>
+      <c r="X166">
         <f t="shared" si="48"/>
-        <v>5919</v>
-      </c>
-      <c r="S166" s="8">
-        <f t="shared" si="49"/>
-        <v>0.19447468698965706</v>
-      </c>
-      <c r="T166" s="8">
-        <f t="shared" si="39"/>
-        <v>0.22543146907063638</v>
-      </c>
-      <c r="U166">
-        <f t="shared" si="43"/>
-        <v>7348</v>
-      </c>
-      <c r="V166">
-        <f t="shared" si="44"/>
-        <v>15596</v>
-      </c>
-      <c r="W166" s="3">
-        <f t="shared" si="45"/>
-        <v>2.0197486535008975E-2</v>
-      </c>
-      <c r="X166">
-        <f t="shared" si="46"/>
         <v>17</v>
       </c>
       <c r="Y166">
@@ -15933,19 +16595,19 @@
         <v>74</v>
       </c>
       <c r="AH166">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>96</v>
       </c>
       <c r="AI166">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>42</v>
       </c>
       <c r="AJ166">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>698</v>
       </c>
       <c r="AK166">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="AL166">
@@ -15957,10 +16619,18 @@
       <c r="AN166">
         <v>75</v>
       </c>
-    </row>
-    <row r="167" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS166">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A166)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A166)</f>
+        <v>20</v>
+      </c>
+      <c r="AT166">
+        <f t="shared" si="41"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="167" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44073</v>
       </c>
       <c r="B167">
@@ -15994,43 +16664,43 @@
         <v>12</v>
       </c>
       <c r="M167" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>566342</v>
       </c>
       <c r="N167" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.10168039768671702</v>
       </c>
       <c r="Q167">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1006</v>
       </c>
       <c r="R167">
+        <f t="shared" si="50"/>
+        <v>4705</v>
+      </c>
+      <c r="S167" s="8">
+        <f t="shared" si="51"/>
+        <v>0.17615128699001925</v>
+      </c>
+      <c r="T167" s="8">
+        <f t="shared" si="40"/>
+        <v>0.22782040352372834</v>
+      </c>
+      <c r="U167">
+        <f t="shared" si="45"/>
+        <v>5711</v>
+      </c>
+      <c r="V167">
+        <f t="shared" si="46"/>
+        <v>16468</v>
+      </c>
+      <c r="W167" s="3">
+        <f t="shared" si="47"/>
+        <v>1.9128005829487493E-2</v>
+      </c>
+      <c r="X167">
         <f t="shared" si="48"/>
-        <v>4705</v>
-      </c>
-      <c r="S167" s="8">
-        <f t="shared" si="49"/>
-        <v>0.17615128699001925</v>
-      </c>
-      <c r="T167" s="8">
-        <f t="shared" si="39"/>
-        <v>0.22782040352372834</v>
-      </c>
-      <c r="U167">
-        <f t="shared" si="43"/>
-        <v>5711</v>
-      </c>
-      <c r="V167">
-        <f t="shared" si="44"/>
-        <v>16468</v>
-      </c>
-      <c r="W167" s="3">
-        <f t="shared" si="45"/>
-        <v>1.9128005829487493E-2</v>
-      </c>
-      <c r="X167">
-        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="Y167">
@@ -16061,25 +16731,33 @@
         <v>74</v>
       </c>
       <c r="AH167">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>101</v>
       </c>
       <c r="AI167">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>46</v>
       </c>
       <c r="AJ167">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>748</v>
       </c>
       <c r="AK167">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="168" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS167">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A167)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A167)</f>
+        <v>20</v>
+      </c>
+      <c r="AT167">
+        <f t="shared" si="41"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="168" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44074</v>
       </c>
       <c r="B168">
@@ -16113,43 +16791,43 @@
         <v>7</v>
       </c>
       <c r="M168" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>568951</v>
       </c>
       <c r="N168" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.10212510099989899</v>
       </c>
       <c r="Q168">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>609</v>
       </c>
       <c r="R168">
+        <f t="shared" si="50"/>
+        <v>2609</v>
+      </c>
+      <c r="S168" s="8">
+        <f t="shared" si="51"/>
+        <v>0.18924798011187072</v>
+      </c>
+      <c r="T168" s="8">
+        <f t="shared" si="40"/>
+        <v>0.22730796920861715</v>
+      </c>
+      <c r="U168">
+        <f t="shared" si="45"/>
+        <v>3218</v>
+      </c>
+      <c r="V168">
+        <f t="shared" si="46"/>
+        <v>16950</v>
+      </c>
+      <c r="W168" s="3">
+        <f t="shared" si="47"/>
+        <v>1.7699115044247787E-2</v>
+      </c>
+      <c r="X168">
         <f t="shared" si="48"/>
-        <v>2609</v>
-      </c>
-      <c r="S168" s="8">
-        <f t="shared" si="49"/>
-        <v>0.18924798011187072</v>
-      </c>
-      <c r="T168" s="8">
-        <f t="shared" si="39"/>
-        <v>0.22730796920861715</v>
-      </c>
-      <c r="U168">
-        <f t="shared" si="43"/>
-        <v>3218</v>
-      </c>
-      <c r="V168">
-        <f t="shared" si="44"/>
-        <v>16950</v>
-      </c>
-      <c r="W168" s="3">
-        <f t="shared" si="45"/>
-        <v>1.7699115044247787E-2</v>
-      </c>
-      <c r="X168">
-        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="Y168">
@@ -16180,19 +16858,19 @@
         <v>74</v>
       </c>
       <c r="AH168">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>105</v>
       </c>
       <c r="AI168">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>45</v>
       </c>
       <c r="AJ168">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>766</v>
       </c>
       <c r="AK168">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>7</v>
       </c>
       <c r="AL168">
@@ -16204,10 +16882,18 @@
       <c r="AN168">
         <v>78</v>
       </c>
-    </row>
-    <row r="169" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS168">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A168)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A168)</f>
+        <v>20</v>
+      </c>
+      <c r="AT168">
+        <f t="shared" si="41"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="169" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44075</v>
       </c>
       <c r="B169">
@@ -16241,43 +16927,43 @@
         <v>10</v>
       </c>
       <c r="M169" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>571703</v>
       </c>
       <c r="N169" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.10264793595981793</v>
       </c>
       <c r="Q169">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>684</v>
       </c>
       <c r="R169">
+        <f t="shared" si="50"/>
+        <v>2752</v>
+      </c>
+      <c r="S169" s="8">
+        <f t="shared" si="51"/>
+        <v>0.19906868451688009</v>
+      </c>
+      <c r="T169" s="8">
+        <f t="shared" si="40"/>
+        <v>0.23410639670209485</v>
+      </c>
+      <c r="U169">
+        <f t="shared" si="45"/>
+        <v>3436</v>
+      </c>
+      <c r="V169">
+        <f t="shared" si="46"/>
+        <v>16904</v>
+      </c>
+      <c r="W169" s="3">
+        <f t="shared" si="47"/>
+        <v>1.8398012304779932E-2</v>
+      </c>
+      <c r="X169">
         <f t="shared" si="48"/>
-        <v>2752</v>
-      </c>
-      <c r="S169" s="8">
-        <f t="shared" si="49"/>
-        <v>0.19906868451688009</v>
-      </c>
-      <c r="T169" s="8">
-        <f t="shared" si="39"/>
-        <v>0.23410639670209485</v>
-      </c>
-      <c r="U169">
-        <f t="shared" si="43"/>
-        <v>3436</v>
-      </c>
-      <c r="V169">
-        <f t="shared" si="44"/>
-        <v>16904</v>
-      </c>
-      <c r="W169" s="3">
-        <f t="shared" si="45"/>
-        <v>1.8398012304779932E-2</v>
-      </c>
-      <c r="X169">
-        <f t="shared" si="46"/>
         <v>9</v>
       </c>
       <c r="Y169">
@@ -16308,19 +16994,19 @@
         <v>75</v>
       </c>
       <c r="AH169">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>133</v>
       </c>
       <c r="AI169">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>49</v>
       </c>
       <c r="AJ169">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>751</v>
       </c>
       <c r="AK169">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="AL169">
@@ -16332,10 +17018,18 @@
       <c r="AN169">
         <v>82</v>
       </c>
-    </row>
-    <row r="170" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS169">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A169)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A169)</f>
+        <v>5</v>
+      </c>
+      <c r="AT169">
+        <f t="shared" si="41"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="170" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44076</v>
       </c>
       <c r="B170">
@@ -16369,43 +17063,43 @@
         <v>15</v>
       </c>
       <c r="M170" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>575501</v>
       </c>
       <c r="N170" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.10287111920335718</v>
       </c>
       <c r="Q170">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>594</v>
       </c>
       <c r="R170">
+        <f t="shared" si="50"/>
+        <v>3798</v>
+      </c>
+      <c r="S170" s="8">
+        <f t="shared" si="51"/>
+        <v>0.13524590163934427</v>
+      </c>
+      <c r="T170" s="8">
+        <f t="shared" si="40"/>
+        <v>0.23976091629125815</v>
+      </c>
+      <c r="U170">
+        <f t="shared" si="45"/>
+        <v>4392</v>
+      </c>
+      <c r="V170">
+        <f t="shared" si="46"/>
+        <v>16862</v>
+      </c>
+      <c r="W170" s="3">
+        <f t="shared" si="47"/>
+        <v>1.8384533270074725E-2</v>
+      </c>
+      <c r="X170">
         <f t="shared" si="48"/>
-        <v>3798</v>
-      </c>
-      <c r="S170" s="8">
-        <f t="shared" si="49"/>
-        <v>0.13524590163934427</v>
-      </c>
-      <c r="T170" s="8">
-        <f t="shared" si="39"/>
-        <v>0.23976091629125815</v>
-      </c>
-      <c r="U170">
-        <f t="shared" si="43"/>
-        <v>4392</v>
-      </c>
-      <c r="V170">
-        <f t="shared" si="44"/>
-        <v>16862</v>
-      </c>
-      <c r="W170" s="3">
-        <f t="shared" si="45"/>
-        <v>1.8384533270074725E-2</v>
-      </c>
-      <c r="X170">
-        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="Y170">
@@ -16436,19 +17130,19 @@
         <v>76</v>
       </c>
       <c r="AH170">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>137</v>
       </c>
       <c r="AI170">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>48</v>
       </c>
       <c r="AJ170">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>744</v>
       </c>
       <c r="AK170">
-        <f t="shared" ref="AK170:AK176" si="55">-(J170-J169)+L170</f>
+        <f t="shared" ref="AK170:AK176" si="57">-(J170-J169)+L170</f>
         <v>11</v>
       </c>
       <c r="AL170">
@@ -16460,10 +17154,18 @@
       <c r="AN170">
         <v>123</v>
       </c>
-    </row>
-    <row r="171" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS170">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A170)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A170)</f>
+        <v>5</v>
+      </c>
+      <c r="AT170">
+        <f t="shared" si="41"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="171" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44077</v>
       </c>
       <c r="B171">
@@ -16497,43 +17199,43 @@
         <v>13</v>
       </c>
       <c r="M171" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>580286</v>
       </c>
       <c r="N171" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.10297973115021704</v>
       </c>
       <c r="Q171">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>627</v>
       </c>
       <c r="R171">
+        <f t="shared" si="50"/>
+        <v>4785</v>
+      </c>
+      <c r="S171" s="8">
+        <f t="shared" si="51"/>
+        <v>0.11585365853658537</v>
+      </c>
+      <c r="T171" s="8">
+        <f t="shared" si="40"/>
+        <v>0.23206347246233638</v>
+      </c>
+      <c r="U171">
+        <f t="shared" si="45"/>
+        <v>5412</v>
+      </c>
+      <c r="V171">
+        <f t="shared" si="46"/>
+        <v>16975</v>
+      </c>
+      <c r="W171" s="3">
+        <f t="shared" si="47"/>
+        <v>1.9027982326951399E-2</v>
+      </c>
+      <c r="X171">
         <f t="shared" si="48"/>
-        <v>4785</v>
-      </c>
-      <c r="S171" s="8">
-        <f t="shared" si="49"/>
-        <v>0.11585365853658537</v>
-      </c>
-      <c r="T171" s="8">
-        <f t="shared" si="39"/>
-        <v>0.23206347246233638</v>
-      </c>
-      <c r="U171">
-        <f t="shared" si="43"/>
-        <v>5412</v>
-      </c>
-      <c r="V171">
-        <f t="shared" si="44"/>
-        <v>16975</v>
-      </c>
-      <c r="W171" s="3">
-        <f t="shared" si="45"/>
-        <v>1.9027982326951399E-2</v>
-      </c>
-      <c r="X171">
-        <f t="shared" si="46"/>
         <v>9</v>
       </c>
       <c r="Y171">
@@ -16564,19 +17266,19 @@
         <v>76</v>
       </c>
       <c r="AH171">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>137</v>
       </c>
       <c r="AI171">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>39</v>
       </c>
       <c r="AJ171">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>738</v>
       </c>
       <c r="AK171">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>7</v>
       </c>
       <c r="AL171">
@@ -16588,10 +17290,18 @@
       <c r="AN171">
         <v>126</v>
       </c>
-    </row>
-    <row r="172" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS171">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A171)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A171)</f>
+        <v>6</v>
+      </c>
+      <c r="AT171">
+        <f t="shared" si="41"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="172" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44078</v>
       </c>
       <c r="B172">
@@ -16625,43 +17335,43 @@
         <v>5</v>
       </c>
       <c r="M172" s="7">
-        <f t="shared" ref="M172:M186" si="56">B172-C172</f>
+        <f t="shared" ref="M172:M187" si="58">B172-C172</f>
         <v>586759</v>
       </c>
       <c r="N172" s="4">
-        <f t="shared" ref="N172:N182" si="57">C172/B172</f>
+        <f t="shared" ref="N172:N182" si="59">C172/B172</f>
         <v>0.10364144374529295</v>
       </c>
       <c r="Q172">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1226</v>
       </c>
       <c r="R172">
+        <f t="shared" si="50"/>
+        <v>6473</v>
+      </c>
+      <c r="S172" s="8">
+        <f t="shared" si="51"/>
+        <v>0.15924145992986102</v>
+      </c>
+      <c r="T172" s="8">
+        <f t="shared" si="40"/>
+        <v>0.16592325881341358</v>
+      </c>
+      <c r="U172">
+        <f t="shared" si="45"/>
+        <v>7699</v>
+      </c>
+      <c r="V172">
+        <f t="shared" si="46"/>
+        <v>17713</v>
+      </c>
+      <c r="W172" s="3">
+        <f t="shared" si="47"/>
+        <v>1.7896460226951957E-2</v>
+      </c>
+      <c r="X172">
         <f t="shared" si="48"/>
-        <v>6473</v>
-      </c>
-      <c r="S172" s="8">
-        <f t="shared" si="49"/>
-        <v>0.15924145992986102</v>
-      </c>
-      <c r="T172" s="8">
-        <f t="shared" si="39"/>
-        <v>0.16592325881341358</v>
-      </c>
-      <c r="U172">
-        <f t="shared" si="43"/>
-        <v>7699</v>
-      </c>
-      <c r="V172">
-        <f t="shared" si="44"/>
-        <v>17713</v>
-      </c>
-      <c r="W172" s="3">
-        <f t="shared" si="45"/>
-        <v>1.7896460226951957E-2</v>
-      </c>
-      <c r="X172">
-        <f t="shared" si="46"/>
         <v>3</v>
       </c>
       <c r="Y172">
@@ -16692,19 +17402,19 @@
         <v>76</v>
       </c>
       <c r="AH172">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>139</v>
       </c>
       <c r="AI172">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>37</v>
       </c>
       <c r="AJ172">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>780</v>
       </c>
       <c r="AK172">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>10</v>
       </c>
       <c r="AL172">
@@ -16716,10 +17426,18 @@
       <c r="AN172">
         <v>125</v>
       </c>
-    </row>
-    <row r="173" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS172">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A172)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A172)</f>
+        <v>5</v>
+      </c>
+      <c r="AT172">
+        <f t="shared" si="41"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="173" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44079</v>
       </c>
       <c r="B173">
@@ -16753,43 +17471,43 @@
         <v>10</v>
       </c>
       <c r="M173" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>592883</v>
       </c>
       <c r="N173" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.10415734887038089</v>
       </c>
       <c r="Q173">
-        <f t="shared" ref="Q173" si="58">C173-C172</f>
+        <f t="shared" ref="Q173" si="60">C173-C172</f>
         <v>1089</v>
       </c>
       <c r="R173">
-        <f t="shared" ref="R173" si="59">M173-M172</f>
+        <f t="shared" ref="R173" si="61">M173-M172</f>
         <v>6124</v>
       </c>
       <c r="S173" s="8">
-        <f t="shared" ref="S173" si="60">Q173/U173</f>
+        <f t="shared" ref="S173" si="62">Q173/U173</f>
         <v>0.15097740191321227</v>
       </c>
       <c r="T173" s="8">
-        <f t="shared" ref="T173" si="61">SUM(Q167:Q173)/SUM(U167:U173)</f>
+        <f t="shared" ref="T173" si="63">SUM(Q167:Q173)/SUM(U167:U173)</f>
         <v>0.15735821579784795</v>
       </c>
       <c r="U173">
-        <f t="shared" ref="U173" si="62">B173-B172</f>
+        <f t="shared" ref="U173" si="64">B173-B172</f>
         <v>7213</v>
       </c>
       <c r="V173">
-        <f t="shared" ref="V173" si="63">C173-D173-E173</f>
+        <f t="shared" ref="V173" si="65">C173-D173-E173</f>
         <v>18288</v>
       </c>
       <c r="W173" s="3">
-        <f t="shared" ref="W173" si="64">F173/V173</f>
+        <f t="shared" ref="W173" si="66">F173/V173</f>
         <v>1.7224409448818898E-2</v>
       </c>
       <c r="X173">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>21</v>
       </c>
       <c r="Y173">
@@ -16820,19 +17538,19 @@
         <v>78</v>
       </c>
       <c r="AH173">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>143</v>
       </c>
       <c r="AI173">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>34</v>
       </c>
       <c r="AJ173">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>818</v>
       </c>
       <c r="AK173">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>10</v>
       </c>
       <c r="AL173">
@@ -16844,10 +17562,18 @@
       <c r="AN173">
         <v>110</v>
       </c>
-    </row>
-    <row r="174" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS173">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A173)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A173)</f>
+        <v>6</v>
+      </c>
+      <c r="AT173">
+        <f t="shared" si="41"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="174" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44080</v>
       </c>
       <c r="B174">
@@ -16881,43 +17607,43 @@
         <v>9</v>
       </c>
       <c r="M174" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>598153</v>
       </c>
       <c r="N174" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.10443669552797021</v>
       </c>
       <c r="Q174">
-        <f t="shared" ref="Q174" si="65">C174-C173</f>
+        <f t="shared" ref="Q174" si="67">C174-C173</f>
         <v>821</v>
       </c>
       <c r="R174">
-        <f t="shared" ref="R174" si="66">M174-M173</f>
+        <f t="shared" ref="R174" si="68">M174-M173</f>
         <v>5270</v>
       </c>
       <c r="S174" s="8">
-        <f t="shared" ref="S174" si="67">Q174/U174</f>
+        <f t="shared" ref="S174" si="69">Q174/U174</f>
         <v>0.13478903299950748</v>
       </c>
       <c r="T174" s="8">
-        <f t="shared" ref="T174" si="68">SUM(Q168:Q174)/SUM(U168:U174)</f>
+        <f t="shared" ref="T174" si="70">SUM(Q168:Q174)/SUM(U168:U174)</f>
         <v>0.15082352313072261</v>
       </c>
       <c r="U174">
-        <f t="shared" ref="U174" si="69">B174-B173</f>
+        <f t="shared" ref="U174" si="71">B174-B173</f>
         <v>6091</v>
       </c>
       <c r="V174">
-        <f t="shared" ref="V174" si="70">C174-D174-E174</f>
+        <f t="shared" ref="V174" si="72">C174-D174-E174</f>
         <v>18933</v>
       </c>
       <c r="W174" s="3">
-        <f t="shared" ref="W174" si="71">F174/V174</f>
+        <f t="shared" ref="W174" si="73">F174/V174</f>
         <v>1.6320709871652669E-2</v>
       </c>
       <c r="X174">
-        <f t="shared" ref="X174" si="72">E174-E173</f>
+        <f t="shared" ref="X174" si="74">E174-E173</f>
         <v>7</v>
       </c>
       <c r="Y174">
@@ -16948,19 +17674,19 @@
         <v>78</v>
       </c>
       <c r="AH174">
-        <f t="shared" ref="AH174" si="73">Y174-AB174-AE174</f>
+        <f t="shared" ref="AH174" si="75">Y174-AB174-AE174</f>
         <v>146</v>
       </c>
       <c r="AI174">
-        <f t="shared" ref="AI174" si="74">Z174-AC174-AF174</f>
+        <f t="shared" ref="AI174" si="76">Z174-AC174-AF174</f>
         <v>31</v>
       </c>
       <c r="AJ174">
-        <f t="shared" ref="AJ174" si="75">AA174-AD174-AG174</f>
+        <f t="shared" ref="AJ174" si="77">AA174-AD174-AG174</f>
         <v>843</v>
       </c>
       <c r="AK174">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>11</v>
       </c>
       <c r="AL174">
@@ -16972,10 +17698,18 @@
       <c r="AN174">
         <v>103</v>
       </c>
-    </row>
-    <row r="175" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS174">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A174)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A174)</f>
+        <v>11</v>
+      </c>
+      <c r="AT174">
+        <f t="shared" si="41"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="175" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44081</v>
       </c>
       <c r="B175">
@@ -17009,43 +17743,43 @@
         <v>8</v>
       </c>
       <c r="M175" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>600263</v>
       </c>
       <c r="N175" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.1047838776596776</v>
       </c>
       <c r="Q175">
-        <f t="shared" ref="Q175" si="76">C175-C174</f>
+        <f t="shared" ref="Q175" si="78">C175-C174</f>
         <v>506</v>
       </c>
       <c r="R175">
-        <f t="shared" ref="R175" si="77">M175-M174</f>
+        <f t="shared" ref="R175" si="79">M175-M174</f>
         <v>2110</v>
       </c>
       <c r="S175" s="8">
-        <f t="shared" ref="S175" si="78">Q175/U175</f>
+        <f t="shared" ref="S175" si="80">Q175/U175</f>
         <v>0.19342507645259938</v>
       </c>
       <c r="T175" s="8">
-        <f t="shared" ref="T175" si="79">SUM(Q169:Q175)/SUM(U169:U175)</f>
+        <f t="shared" ref="T175" si="81">SUM(Q169:Q175)/SUM(U169:U175)</f>
         <v>0.15049241704875335</v>
       </c>
       <c r="U175">
-        <f t="shared" ref="U175" si="80">B175-B174</f>
+        <f t="shared" ref="U175" si="82">B175-B174</f>
         <v>2616</v>
       </c>
       <c r="V175">
-        <f t="shared" ref="V175" si="81">C175-D175-E175</f>
+        <f t="shared" ref="V175" si="83">C175-D175-E175</f>
         <v>19230</v>
       </c>
       <c r="W175" s="3">
-        <f t="shared" ref="W175" si="82">F175/V175</f>
+        <f t="shared" ref="W175" si="84">F175/V175</f>
         <v>1.6172646905876234E-2</v>
       </c>
       <c r="X175">
-        <f t="shared" ref="X175" si="83">E175-E174</f>
+        <f t="shared" ref="X175" si="85">E175-E174</f>
         <v>2</v>
       </c>
       <c r="Y175">
@@ -17076,19 +17810,19 @@
         <v>78</v>
       </c>
       <c r="AH175">
-        <f t="shared" ref="AH175:AH176" si="84">Y175-AB175-AE175</f>
+        <f t="shared" ref="AH175:AH176" si="86">Y175-AB175-AE175</f>
         <v>152</v>
       </c>
       <c r="AI175">
-        <f t="shared" ref="AI175:AI176" si="85">Z175-AC175-AF175</f>
+        <f t="shared" ref="AI175:AI176" si="87">Z175-AC175-AF175</f>
         <v>26</v>
       </c>
       <c r="AJ175">
-        <f t="shared" ref="AJ175:AJ176" si="86">AA175-AD175-AG175</f>
+        <f t="shared" ref="AJ175:AJ176" si="88">AA175-AD175-AG175</f>
         <v>866</v>
       </c>
       <c r="AK175">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>7</v>
       </c>
       <c r="AL175">
@@ -17100,10 +17834,18 @@
       <c r="AN175">
         <v>101</v>
       </c>
-    </row>
-    <row r="176" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS175">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A175)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A175)</f>
+        <v>24</v>
+      </c>
+      <c r="AT175">
+        <f t="shared" si="41"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="176" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44082</v>
       </c>
       <c r="B176">
@@ -17137,43 +17879,43 @@
         <v>12</v>
       </c>
       <c r="M176" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>602967</v>
       </c>
       <c r="N176" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.10488155732411741</v>
       </c>
       <c r="Q176">
-        <f t="shared" ref="Q176" si="87">C176-C175</f>
+        <f t="shared" ref="Q176" si="89">C176-C175</f>
         <v>390</v>
       </c>
       <c r="R176">
-        <f t="shared" ref="R176" si="88">M176-M175</f>
+        <f t="shared" ref="R176" si="90">M176-M175</f>
         <v>2704</v>
       </c>
       <c r="S176" s="8">
-        <f t="shared" ref="S176" si="89">Q176/U176</f>
+        <f t="shared" ref="S176" si="91">Q176/U176</f>
         <v>0.12605042016806722</v>
       </c>
       <c r="T176" s="8">
-        <f t="shared" ref="T176" si="90">SUM(Q170:Q176)/SUM(U170:U176)</f>
+        <f t="shared" ref="T176" si="92">SUM(Q170:Q176)/SUM(U170:U176)</f>
         <v>0.14385080921214777</v>
       </c>
       <c r="U176">
-        <f t="shared" ref="U176" si="91">B176-B175</f>
+        <f t="shared" ref="U176" si="93">B176-B175</f>
         <v>3094</v>
       </c>
       <c r="V176">
-        <f t="shared" ref="V176" si="92">C176-D176-E176</f>
+        <f t="shared" ref="V176" si="94">C176-D176-E176</f>
         <v>19118</v>
       </c>
       <c r="W176" s="3">
-        <f t="shared" ref="W176" si="93">F176/V176</f>
+        <f t="shared" ref="W176" si="95">F176/V176</f>
         <v>1.7051992886285176E-2</v>
       </c>
       <c r="X176">
-        <f t="shared" ref="X176" si="94">E176-E175</f>
+        <f t="shared" ref="X176" si="96">E176-E175</f>
         <v>3</v>
       </c>
       <c r="Y176">
@@ -17204,19 +17946,19 @@
         <v>79</v>
       </c>
       <c r="AH176">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>154</v>
       </c>
       <c r="AI176">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>32</v>
       </c>
       <c r="AJ176">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>846</v>
       </c>
       <c r="AK176">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>5</v>
       </c>
       <c r="AL176">
@@ -17228,10 +17970,18 @@
       <c r="AN176">
         <v>99</v>
       </c>
-    </row>
-    <row r="177" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS176">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A176)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A176)</f>
+        <v>27</v>
+      </c>
+      <c r="AT176">
+        <f t="shared" si="41"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="177" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44083</v>
       </c>
       <c r="B177">
@@ -17265,43 +18015,43 @@
         <v>5</v>
       </c>
       <c r="M177" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>605523</v>
       </c>
       <c r="N177" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.10504760581615671</v>
       </c>
       <c r="Q177">
-        <f t="shared" ref="Q177" si="95">C177-C176</f>
+        <f t="shared" ref="Q177" si="97">C177-C176</f>
         <v>425</v>
       </c>
       <c r="R177">
-        <f t="shared" ref="R177" si="96">M177-M176</f>
+        <f t="shared" ref="R177" si="98">M177-M176</f>
         <v>2556</v>
       </c>
       <c r="S177" s="8">
-        <f t="shared" ref="S177" si="97">Q177/U177</f>
+        <f t="shared" ref="S177" si="99">Q177/U177</f>
         <v>0.14256960751425696</v>
       </c>
       <c r="T177" s="8">
-        <f t="shared" ref="T177" si="98">SUM(Q171:Q177)/SUM(U171:U177)</f>
+        <f t="shared" ref="T177" si="100">SUM(Q171:Q177)/SUM(U171:U177)</f>
         <v>0.1448185495356919</v>
       </c>
       <c r="U177">
-        <f t="shared" ref="U177" si="99">B177-B176</f>
+        <f t="shared" ref="U177" si="101">B177-B176</f>
         <v>2981</v>
       </c>
       <c r="V177">
-        <f t="shared" ref="V177" si="100">C177-D177-E177</f>
+        <f t="shared" ref="V177" si="102">C177-D177-E177</f>
         <v>18961</v>
       </c>
       <c r="W177" s="3">
-        <f t="shared" ref="W177" si="101">F177/V177</f>
+        <f t="shared" ref="W177" si="103">F177/V177</f>
         <v>1.6982226675808239E-2</v>
       </c>
       <c r="X177">
-        <f t="shared" ref="X177" si="102">E177-E176</f>
+        <f t="shared" ref="X177" si="104">E177-E176</f>
         <v>15</v>
       </c>
       <c r="Y177">
@@ -17332,19 +18082,19 @@
         <v>79</v>
       </c>
       <c r="AH177">
-        <f t="shared" ref="AH177" si="103">Y177-AB177-AE177</f>
+        <f t="shared" ref="AH177" si="105">Y177-AB177-AE177</f>
         <v>155</v>
       </c>
       <c r="AI177">
-        <f t="shared" ref="AI177" si="104">Z177-AC177-AF177</f>
+        <f t="shared" ref="AI177" si="106">Z177-AC177-AF177</f>
         <v>34</v>
       </c>
       <c r="AJ177">
-        <f t="shared" ref="AJ177" si="105">AA177-AD177-AG177</f>
+        <f t="shared" ref="AJ177" si="107">AA177-AD177-AG177</f>
         <v>862</v>
       </c>
       <c r="AK177">
-        <f t="shared" ref="AK177" si="106">-(J177-J176)+L177</f>
+        <f t="shared" ref="AK177" si="108">-(J177-J176)+L177</f>
         <v>2</v>
       </c>
       <c r="AL177">
@@ -17356,10 +18106,18 @@
       <c r="AN177">
         <v>97</v>
       </c>
-    </row>
-    <row r="178" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS177">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A177)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A177)</f>
+        <v>28</v>
+      </c>
+      <c r="AT177">
+        <f t="shared" si="41"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="178" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44084</v>
       </c>
       <c r="B178">
@@ -17393,43 +18151,43 @@
         <v>10</v>
       </c>
       <c r="M178" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>610175</v>
       </c>
       <c r="N178" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.10519191794763501</v>
       </c>
       <c r="Q178">
-        <f t="shared" ref="Q178" si="107">C178-C177</f>
+        <f t="shared" ref="Q178" si="109">C178-C177</f>
         <v>656</v>
       </c>
       <c r="R178">
-        <f t="shared" ref="R178" si="108">M178-M177</f>
+        <f t="shared" ref="R178" si="110">M178-M177</f>
         <v>4652</v>
       </c>
       <c r="S178" s="8">
-        <f t="shared" ref="S178" si="109">Q178/U178</f>
+        <f t="shared" ref="S178" si="111">Q178/U178</f>
         <v>0.12358703843255464</v>
       </c>
       <c r="T178" s="8">
-        <f t="shared" ref="T178" si="110">SUM(Q172:Q178)/SUM(U172:U178)</f>
+        <f t="shared" ref="T178" si="112">SUM(Q172:Q178)/SUM(U172:U178)</f>
         <v>0.14607736700759957</v>
       </c>
       <c r="U178">
-        <f t="shared" ref="U178" si="111">B178-B177</f>
+        <f t="shared" ref="U178" si="113">B178-B177</f>
         <v>5308</v>
       </c>
       <c r="V178">
-        <f t="shared" ref="V178" si="112">C178-D178-E178</f>
+        <f t="shared" ref="V178" si="114">C178-D178-E178</f>
         <v>18906</v>
       </c>
       <c r="W178" s="3">
-        <f t="shared" ref="W178" si="113">F178/V178</f>
+        <f t="shared" ref="W178" si="115">F178/V178</f>
         <v>1.5973764942346345E-2</v>
       </c>
       <c r="X178">
-        <f t="shared" ref="X178" si="114">E178-E177</f>
+        <f t="shared" ref="X178" si="116">E178-E177</f>
         <v>19</v>
       </c>
       <c r="Y178">
@@ -17460,19 +18218,19 @@
         <v>81</v>
       </c>
       <c r="AH178">
-        <f t="shared" ref="AH178" si="115">Y178-AB178-AE178</f>
+        <f t="shared" ref="AH178" si="117">Y178-AB178-AE178</f>
         <v>159</v>
       </c>
       <c r="AI178">
-        <f t="shared" ref="AI178" si="116">Z178-AC178-AF178</f>
+        <f t="shared" ref="AI178" si="118">Z178-AC178-AF178</f>
         <v>24</v>
       </c>
       <c r="AJ178">
-        <f t="shared" ref="AJ178" si="117">AA178-AD178-AG178</f>
+        <f t="shared" ref="AJ178" si="119">AA178-AD178-AG178</f>
         <v>824</v>
       </c>
       <c r="AK178">
-        <f t="shared" ref="AK178" si="118">-(J178-J177)+L178</f>
+        <f t="shared" ref="AK178" si="120">-(J178-J177)+L178</f>
         <v>15</v>
       </c>
       <c r="AL178">
@@ -17484,10 +18242,18 @@
       <c r="AN178">
         <v>85</v>
       </c>
-    </row>
-    <row r="179" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS178">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A178)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A178)</f>
+        <v>31</v>
+      </c>
+      <c r="AT178">
+        <f t="shared" si="41"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="179" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44085</v>
       </c>
       <c r="B179">
@@ -17521,43 +18287,43 @@
         <v>7</v>
       </c>
       <c r="M179" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>615471</v>
       </c>
       <c r="N179" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.10555266515720053</v>
       </c>
       <c r="Q179">
-        <f t="shared" ref="Q179" si="119">C179-C178</f>
+        <f t="shared" ref="Q179" si="121">C179-C178</f>
         <v>900</v>
       </c>
       <c r="R179">
-        <f t="shared" ref="R179" si="120">M179-M178</f>
+        <f t="shared" ref="R179" si="122">M179-M178</f>
         <v>5296</v>
       </c>
       <c r="S179" s="8">
-        <f t="shared" ref="S179" si="121">Q179/U179</f>
+        <f t="shared" ref="S179" si="123">Q179/U179</f>
         <v>0.14525500322788895</v>
       </c>
       <c r="T179" s="8">
-        <f t="shared" ref="T179" si="122">SUM(Q173:Q179)/SUM(U173:U179)</f>
+        <f t="shared" ref="T179" si="124">SUM(Q173:Q179)/SUM(U173:U179)</f>
         <v>0.14289978805337472</v>
       </c>
       <c r="U179">
-        <f t="shared" ref="U179" si="123">B179-B178</f>
+        <f t="shared" ref="U179" si="125">B179-B178</f>
         <v>6196</v>
       </c>
       <c r="V179">
-        <f t="shared" ref="V179" si="124">C179-D179-E179</f>
+        <f t="shared" ref="V179" si="126">C179-D179-E179</f>
         <v>19162</v>
       </c>
       <c r="W179" s="3">
-        <f t="shared" ref="W179" si="125">F179/V179</f>
+        <f t="shared" ref="W179" si="127">F179/V179</f>
         <v>1.4664440037574366E-2</v>
       </c>
       <c r="X179">
-        <f t="shared" ref="X179" si="126">E179-E178</f>
+        <f t="shared" ref="X179" si="128">E179-E178</f>
         <v>4</v>
       </c>
       <c r="Y179">
@@ -17588,19 +18354,19 @@
         <v>81</v>
       </c>
       <c r="AH179">
-        <f t="shared" ref="AH179" si="127">Y179-AB179-AE179</f>
+        <f t="shared" ref="AH179" si="129">Y179-AB179-AE179</f>
         <v>171</v>
       </c>
       <c r="AI179">
-        <f t="shared" ref="AI179" si="128">Z179-AC179-AF179</f>
+        <f t="shared" ref="AI179" si="130">Z179-AC179-AF179</f>
         <v>24</v>
       </c>
       <c r="AJ179">
-        <f t="shared" ref="AJ179" si="129">AA179-AD179-AG179</f>
+        <f t="shared" ref="AJ179" si="131">AA179-AD179-AG179</f>
         <v>827</v>
       </c>
       <c r="AK179">
-        <f t="shared" ref="AK179" si="130">-(J179-J178)+L179</f>
+        <f t="shared" ref="AK179" si="132">-(J179-J178)+L179</f>
         <v>17</v>
       </c>
       <c r="AL179">
@@ -17612,10 +18378,18 @@
       <c r="AN179">
         <v>57</v>
       </c>
-    </row>
-    <row r="180" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS179">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A179)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A179)</f>
+        <v>34</v>
+      </c>
+      <c r="AT179">
+        <f t="shared" si="41"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="180" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44086</v>
       </c>
       <c r="B180">
@@ -17649,43 +18423,43 @@
         <v>12</v>
       </c>
       <c r="M180" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>620876</v>
       </c>
       <c r="N180" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.10584399406081187</v>
       </c>
       <c r="Q180">
-        <f t="shared" ref="Q180" si="131">C180-C179</f>
+        <f t="shared" ref="Q180" si="133">C180-C179</f>
         <v>864</v>
       </c>
       <c r="R180">
-        <f t="shared" ref="R180" si="132">M180-M179</f>
+        <f t="shared" ref="R180" si="134">M180-M179</f>
         <v>5405</v>
       </c>
       <c r="S180" s="8">
-        <f t="shared" ref="S180" si="133">Q180/U180</f>
+        <f t="shared" ref="S180" si="135">Q180/U180</f>
         <v>0.13782102408677621</v>
       </c>
       <c r="T180" s="8">
-        <f t="shared" ref="T180" si="134">SUM(Q174:Q180)/SUM(U174:U180)</f>
+        <f t="shared" ref="T180" si="136">SUM(Q174:Q180)/SUM(U174:U180)</f>
         <v>0.1401320841652588</v>
       </c>
       <c r="U180">
-        <f t="shared" ref="U180" si="135">B180-B179</f>
+        <f t="shared" ref="U180" si="137">B180-B179</f>
         <v>6269</v>
       </c>
       <c r="V180">
-        <f t="shared" ref="V180" si="136">C180-D180-E180</f>
+        <f t="shared" ref="V180" si="138">C180-D180-E180</f>
         <v>19349</v>
       </c>
       <c r="W180" s="3">
-        <f t="shared" ref="W180" si="137">F180/V180</f>
+        <f t="shared" ref="W180" si="139">F180/V180</f>
         <v>1.4987854669491964E-2</v>
       </c>
       <c r="X180">
-        <f t="shared" ref="X180" si="138">E180-E179</f>
+        <f t="shared" ref="X180" si="140">E180-E179</f>
         <v>8</v>
       </c>
       <c r="Y180">
@@ -17716,19 +18490,19 @@
         <v>81</v>
       </c>
       <c r="AH180">
-        <f t="shared" ref="AH180" si="139">Y180-AB180-AE180</f>
+        <f t="shared" ref="AH180" si="141">Y180-AB180-AE180</f>
         <v>172</v>
       </c>
       <c r="AI180">
-        <f t="shared" ref="AI180" si="140">Z180-AC180-AF180</f>
+        <f t="shared" ref="AI180" si="142">Z180-AC180-AF180</f>
         <v>24</v>
       </c>
       <c r="AJ180">
-        <f t="shared" ref="AJ180" si="141">AA180-AD180-AG180</f>
+        <f t="shared" ref="AJ180" si="143">AA180-AD180-AG180</f>
         <v>826</v>
       </c>
       <c r="AK180">
-        <f t="shared" ref="AK180" si="142">-(J180-J179)+L180</f>
+        <f t="shared" ref="AK180" si="144">-(J180-J179)+L180</f>
         <v>7</v>
       </c>
       <c r="AL180">
@@ -17740,10 +18514,18 @@
       <c r="AN180">
         <v>52</v>
       </c>
-    </row>
-    <row r="181" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS180">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A180)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A180)</f>
+        <v>47</v>
+      </c>
+      <c r="AT180">
+        <f t="shared" si="41"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="181" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44087</v>
       </c>
       <c r="B181">
@@ -17777,43 +18559,43 @@
         <v>13</v>
       </c>
       <c r="M181" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>626165</v>
       </c>
       <c r="N181" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.10607111857283172</v>
       </c>
       <c r="Q181">
-        <f t="shared" ref="Q181" si="143">C181-C180</f>
+        <f t="shared" ref="Q181" si="145">C181-C180</f>
         <v>804</v>
       </c>
       <c r="R181">
-        <f t="shared" ref="R181" si="144">M181-M180</f>
+        <f t="shared" ref="R181" si="146">M181-M180</f>
         <v>5289</v>
       </c>
       <c r="S181" s="8">
-        <f t="shared" ref="S181" si="145">Q181/U181</f>
+        <f t="shared" ref="S181" si="147">Q181/U181</f>
         <v>0.13195470211718366</v>
       </c>
       <c r="T181" s="8">
-        <f t="shared" ref="T181" si="146">SUM(Q175:Q181)/SUM(U175:U181)</f>
+        <f t="shared" ref="T181" si="148">SUM(Q175:Q181)/SUM(U175:U181)</f>
         <v>0.13960131461744019</v>
       </c>
       <c r="U181">
-        <f t="shared" ref="U181" si="147">B181-B180</f>
+        <f t="shared" ref="U181" si="149">B181-B180</f>
         <v>6093</v>
       </c>
       <c r="V181">
-        <f t="shared" ref="V181" si="148">C181-D181-E181</f>
+        <f t="shared" ref="V181" si="150">C181-D181-E181</f>
         <v>19964</v>
       </c>
       <c r="W181" s="3">
-        <f t="shared" ref="W181" si="149">F181/V181</f>
+        <f t="shared" ref="W181" si="151">F181/V181</f>
         <v>1.3724704468042477E-2</v>
       </c>
       <c r="X181">
-        <f t="shared" ref="X181" si="150">E181-E180</f>
+        <f t="shared" ref="X181" si="152">E181-E180</f>
         <v>2</v>
       </c>
       <c r="Y181">
@@ -17844,25 +18626,33 @@
         <v>81</v>
       </c>
       <c r="AH181">
-        <f t="shared" ref="AH181" si="151">Y181-AB181-AE181</f>
+        <f t="shared" ref="AH181" si="153">Y181-AB181-AE181</f>
         <v>176</v>
       </c>
       <c r="AI181">
-        <f t="shared" ref="AI181" si="152">Z181-AC181-AF181</f>
+        <f t="shared" ref="AI181" si="154">Z181-AC181-AF181</f>
         <v>24</v>
       </c>
       <c r="AJ181">
-        <f t="shared" ref="AJ181" si="153">AA181-AD181-AG181</f>
+        <f t="shared" ref="AJ181" si="155">AA181-AD181-AG181</f>
         <v>838</v>
       </c>
       <c r="AK181">
-        <f t="shared" ref="AK181" si="154">-(J181-J180)+L181</f>
+        <f t="shared" ref="AK181" si="156">-(J181-J180)+L181</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="182" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS181">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A181)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A181)</f>
+        <v>48</v>
+      </c>
+      <c r="AT181">
+        <f t="shared" si="41"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="182" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44088</v>
       </c>
       <c r="B182">
@@ -17896,43 +18686,43 @@
         <v>9</v>
       </c>
       <c r="M182" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>628947</v>
       </c>
       <c r="N182" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.10621072466981012</v>
       </c>
       <c r="Q182">
-        <f t="shared" ref="Q182" si="155">C182-C181</f>
+        <f t="shared" ref="Q182" si="157">C182-C181</f>
         <v>440</v>
       </c>
       <c r="R182">
-        <f t="shared" ref="R182" si="156">M182-M181</f>
+        <f t="shared" ref="R182" si="158">M182-M181</f>
         <v>2782</v>
       </c>
       <c r="S182" s="8">
-        <f t="shared" ref="S182" si="157">Q182/U182</f>
+        <f t="shared" ref="S182" si="159">Q182/U182</f>
         <v>0.13656114214773432</v>
       </c>
       <c r="T182" s="8">
-        <f t="shared" ref="T182" si="158">SUM(Q176:Q182)/SUM(U176:U182)</f>
+        <f t="shared" ref="T182" si="160">SUM(Q176:Q182)/SUM(U176:U182)</f>
         <v>0.13506015740433616</v>
       </c>
       <c r="U182">
-        <f t="shared" ref="U182" si="159">B182-B181</f>
+        <f t="shared" ref="U182" si="161">B182-B181</f>
         <v>3222</v>
       </c>
       <c r="V182">
-        <f t="shared" ref="V182" si="160">C182-D182-E182</f>
+        <f t="shared" ref="V182" si="162">C182-D182-E182</f>
         <v>20218</v>
       </c>
       <c r="W182" s="3">
-        <f t="shared" ref="W182" si="161">F182/V182</f>
+        <f t="shared" ref="W182" si="163">F182/V182</f>
         <v>1.3453358393510733E-2</v>
       </c>
       <c r="X182">
-        <f t="shared" ref="X182" si="162">E182-E181</f>
+        <f t="shared" ref="X182" si="164">E182-E181</f>
         <v>2</v>
       </c>
       <c r="Y182">
@@ -17963,19 +18753,19 @@
         <v>81</v>
       </c>
       <c r="AH182">
-        <f t="shared" ref="AH182" si="163">Y182-AB182-AE182</f>
+        <f t="shared" ref="AH182" si="165">Y182-AB182-AE182</f>
         <v>180</v>
       </c>
       <c r="AI182">
-        <f t="shared" ref="AI182" si="164">Z182-AC182-AF182</f>
+        <f t="shared" ref="AI182" si="166">Z182-AC182-AF182</f>
         <v>26</v>
       </c>
       <c r="AJ182">
-        <f t="shared" ref="AJ182" si="165">AA182-AD182-AG182</f>
+        <f t="shared" ref="AJ182" si="167">AA182-AD182-AG182</f>
         <v>844</v>
       </c>
       <c r="AK182">
-        <f t="shared" ref="AK182" si="166">-(J182-J181)+L182</f>
+        <f t="shared" ref="AK182" si="168">-(J182-J181)+L182</f>
         <v>13</v>
       </c>
       <c r="AL182">
@@ -17987,10 +18777,18 @@
       <c r="AN182">
         <v>39</v>
       </c>
-    </row>
-    <row r="183" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS182">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A182)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A182)</f>
+        <v>63</v>
+      </c>
+      <c r="AT182">
+        <f t="shared" si="41"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="183" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44089</v>
       </c>
       <c r="B183">
@@ -18024,43 +18822,43 @@
         <v>9</v>
       </c>
       <c r="M183" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>631845</v>
       </c>
       <c r="N183" s="4">
-        <f t="shared" ref="N183" si="167">C183/B183</f>
+        <f t="shared" ref="N183" si="169">C183/B183</f>
         <v>0.10631644158797871</v>
       </c>
       <c r="Q183">
-        <f t="shared" ref="Q183" si="168">C183-C182</f>
+        <f t="shared" ref="Q183" si="170">C183-C182</f>
         <v>428</v>
       </c>
       <c r="R183">
-        <f t="shared" ref="R183" si="169">M183-M182</f>
+        <f t="shared" ref="R183" si="171">M183-M182</f>
         <v>2898</v>
       </c>
       <c r="S183" s="8">
-        <f t="shared" ref="S183" si="170">Q183/U183</f>
+        <f t="shared" ref="S183" si="172">Q183/U183</f>
         <v>0.12868310282621767</v>
       </c>
       <c r="T183" s="8">
-        <f t="shared" ref="T183" si="171">SUM(Q177:Q183)/SUM(U177:U183)</f>
+        <f t="shared" ref="T183" si="173">SUM(Q177:Q183)/SUM(U177:U183)</f>
         <v>0.13525976942656087</v>
       </c>
       <c r="U183">
-        <f t="shared" ref="U183" si="172">B183-B182</f>
+        <f t="shared" ref="U183" si="174">B183-B182</f>
         <v>3326</v>
       </c>
       <c r="V183">
-        <f t="shared" ref="V183" si="173">C183-D183-E183</f>
+        <f t="shared" ref="V183" si="175">C183-D183-E183</f>
         <v>19697</v>
       </c>
       <c r="W183" s="3">
-        <f t="shared" ref="W183" si="174">F183/V183</f>
+        <f t="shared" ref="W183" si="176">F183/V183</f>
         <v>1.4418439356247145E-2</v>
       </c>
       <c r="X183">
-        <f t="shared" ref="X183" si="175">E183-E182</f>
+        <f t="shared" ref="X183" si="177">E183-E182</f>
         <v>13</v>
       </c>
       <c r="Y183">
@@ -18091,19 +18889,19 @@
         <v>81</v>
       </c>
       <c r="AH183">
-        <f t="shared" ref="AH183" si="176">Y183-AB183-AE183</f>
+        <f t="shared" ref="AH183" si="178">Y183-AB183-AE183</f>
         <v>185</v>
       </c>
       <c r="AI183">
-        <f t="shared" ref="AI183" si="177">Z183-AC183-AF183</f>
+        <f t="shared" ref="AI183" si="179">Z183-AC183-AF183</f>
         <v>26</v>
       </c>
       <c r="AJ183">
-        <f t="shared" ref="AJ183" si="178">AA183-AD183-AG183</f>
+        <f t="shared" ref="AJ183" si="180">AA183-AD183-AG183</f>
         <v>824</v>
       </c>
       <c r="AK183">
-        <f t="shared" ref="AK183" si="179">-(J183-J182)+L183</f>
+        <f t="shared" ref="AK183" si="181">-(J183-J182)+L183</f>
         <v>7</v>
       </c>
       <c r="AL183">
@@ -18115,10 +18913,18 @@
       <c r="AN183">
         <v>38</v>
       </c>
-    </row>
-    <row r="184" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS183">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A183)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A183)</f>
+        <v>63</v>
+      </c>
+      <c r="AT183">
+        <f t="shared" si="41"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="184" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44090</v>
       </c>
       <c r="B184">
@@ -18152,43 +18958,43 @@
         <v>11</v>
       </c>
       <c r="M184" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>636646</v>
       </c>
       <c r="N184" s="4">
-        <f t="shared" ref="N184:N186" si="180">C184/B184</f>
+        <f t="shared" ref="N184:N187" si="182">C184/B184</f>
         <v>0.10646927885519561</v>
       </c>
       <c r="Q184">
-        <f t="shared" ref="Q184" si="181">C184-C183</f>
+        <f t="shared" ref="Q184" si="183">C184-C183</f>
         <v>693</v>
       </c>
       <c r="R184">
-        <f t="shared" ref="R184" si="182">M184-M183</f>
+        <f t="shared" ref="R184" si="184">M184-M183</f>
         <v>4801</v>
       </c>
       <c r="S184" s="8">
-        <f t="shared" ref="S184" si="183">Q184/U184</f>
+        <f t="shared" ref="S184" si="185">Q184/U184</f>
         <v>0.1261376046596287</v>
       </c>
       <c r="T184" s="8">
-        <f t="shared" ref="T184" si="184">SUM(Q178:Q184)/SUM(U178:U184)</f>
+        <f t="shared" ref="T184" si="186">SUM(Q178:Q184)/SUM(U178:U184)</f>
         <v>0.13325721287735323</v>
       </c>
       <c r="U184">
-        <f t="shared" ref="U184" si="185">B184-B183</f>
+        <f t="shared" ref="U184" si="187">B184-B183</f>
         <v>5494</v>
       </c>
       <c r="V184">
-        <f t="shared" ref="V184" si="186">C184-D184-E184</f>
+        <f t="shared" ref="V184" si="188">C184-D184-E184</f>
         <v>19630</v>
       </c>
       <c r="W184" s="3">
-        <f t="shared" ref="W184" si="187">F184/V184</f>
+        <f t="shared" ref="W184" si="189">F184/V184</f>
         <v>1.4824248599083037E-2</v>
       </c>
       <c r="X184">
-        <f t="shared" ref="X184" si="188">E184-E183</f>
+        <f t="shared" ref="X184" si="190">E184-E183</f>
         <v>1</v>
       </c>
       <c r="Y184">
@@ -18219,19 +19025,19 @@
         <v>83</v>
       </c>
       <c r="AH184">
-        <f t="shared" ref="AH184" si="189">Y184-AB184-AE184</f>
+        <f t="shared" ref="AH184" si="191">Y184-AB184-AE184</f>
         <v>185</v>
       </c>
       <c r="AI184">
-        <f t="shared" ref="AI184" si="190">Z184-AC184-AF184</f>
+        <f t="shared" ref="AI184" si="192">Z184-AC184-AF184</f>
         <v>25</v>
       </c>
       <c r="AJ184">
-        <f t="shared" ref="AJ184" si="191">AA184-AD184-AG184</f>
+        <f t="shared" ref="AJ184" si="193">AA184-AD184-AG184</f>
         <v>798</v>
       </c>
       <c r="AK184">
-        <f t="shared" ref="AK184" si="192">-(J184-J183)+L184</f>
+        <f t="shared" ref="AK184" si="194">-(J184-J183)+L184</f>
         <v>14</v>
       </c>
       <c r="AL184">
@@ -18243,10 +19049,18 @@
       <c r="AN184">
         <v>21</v>
       </c>
-    </row>
-    <row r="185" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS184">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A184)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A184)</f>
+        <v>62</v>
+      </c>
+      <c r="AT184">
+        <f t="shared" si="41"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="185" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44091</v>
       </c>
       <c r="B185">
@@ -18280,43 +19094,43 @@
         <v>8</v>
       </c>
       <c r="M185" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>642662</v>
       </c>
       <c r="N185" s="4">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>0.10695372198730178</v>
       </c>
       <c r="Q185">
-        <f t="shared" ref="Q185" si="193">C185-C184</f>
+        <f t="shared" ref="Q185" si="195">C185-C184</f>
         <v>1107</v>
       </c>
       <c r="R185">
-        <f t="shared" ref="R185" si="194">M185-M184</f>
+        <f t="shared" ref="R185" si="196">M185-M184</f>
         <v>6016</v>
       </c>
       <c r="S185" s="8">
-        <f t="shared" ref="S185" si="195">Q185/U185</f>
+        <f t="shared" ref="S185" si="197">Q185/U185</f>
         <v>0.15541204548645235</v>
       </c>
       <c r="T185" s="8">
-        <f t="shared" ref="T185" si="196">SUM(Q179:Q185)/SUM(U179:U185)</f>
+        <f t="shared" ref="T185" si="198">SUM(Q179:Q185)/SUM(U179:U185)</f>
         <v>0.13880126182965299</v>
       </c>
       <c r="U185">
-        <f t="shared" ref="U185" si="197">B185-B184</f>
+        <f t="shared" ref="U185" si="199">B185-B184</f>
         <v>7123</v>
       </c>
       <c r="V185">
-        <f t="shared" ref="V185:V186" si="198">C185-D185-E185</f>
+        <f t="shared" ref="V185" si="200">C185-D185-E185</f>
         <v>19994</v>
       </c>
       <c r="W185" s="3">
-        <f t="shared" ref="W185:W186" si="199">F185/V185</f>
+        <f t="shared" ref="W185" si="201">F185/V185</f>
         <v>1.3554066219865961E-2</v>
       </c>
       <c r="X185">
-        <f t="shared" ref="X185" si="200">E185-E184</f>
+        <f t="shared" ref="X185" si="202">E185-E184</f>
         <v>14</v>
       </c>
       <c r="Y185">
@@ -18347,25 +19161,42 @@
         <v>84</v>
       </c>
       <c r="AH185">
-        <f t="shared" ref="AH185" si="201">Y185-AB185-AE185</f>
+        <f t="shared" ref="AH185" si="203">Y185-AB185-AE185</f>
         <v>189</v>
       </c>
       <c r="AI185">
-        <f t="shared" ref="AI185" si="202">Z185-AC185-AF185</f>
+        <f t="shared" ref="AI185" si="204">Z185-AC185-AF185</f>
         <v>26</v>
       </c>
       <c r="AJ185">
-        <f t="shared" ref="AJ185" si="203">AA185-AD185-AG185</f>
+        <f t="shared" ref="AJ185" si="205">AA185-AD185-AG185</f>
         <v>792</v>
       </c>
       <c r="AK185">
-        <f t="shared" ref="AK185" si="204">-(J185-J184)+L185</f>
+        <f t="shared" ref="AK185" si="206">-(J185-J184)+L185</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="186" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AL185">
+        <v>29</v>
+      </c>
+      <c r="AM185">
+        <v>29</v>
+      </c>
+      <c r="AN185">
+        <v>51</v>
+      </c>
+      <c r="AS185">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A185)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A185)</f>
+        <v>63</v>
+      </c>
+      <c r="AT185">
+        <f t="shared" si="41"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="186" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44092</v>
       </c>
       <c r="B186">
@@ -18399,43 +19230,43 @@
         <v>21</v>
       </c>
       <c r="M186" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>647025</v>
       </c>
       <c r="N186" s="4">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>0.10755664796332158</v>
       </c>
       <c r="Q186">
-        <f t="shared" ref="Q186" si="205">C186-C185</f>
+        <f t="shared" ref="Q186" si="207">C186-C185</f>
         <v>1012</v>
       </c>
       <c r="R186">
-        <f t="shared" ref="R186" si="206">M186-M185</f>
+        <f t="shared" ref="R186" si="208">M186-M185</f>
         <v>4363</v>
       </c>
       <c r="S186" s="8">
-        <f t="shared" ref="S186" si="207">Q186/U186</f>
+        <f t="shared" ref="S186" si="209">Q186/U186</f>
         <v>0.18827906976744185</v>
       </c>
       <c r="T186" s="8">
-        <f t="shared" ref="T186" si="208">SUM(Q180:Q186)/SUM(U180:U186)</f>
+        <f t="shared" ref="T186" si="210">SUM(Q180:Q186)/SUM(U180:U186)</f>
         <v>0.1449243943417701</v>
       </c>
       <c r="U186">
-        <f t="shared" ref="U186" si="209">B186-B185</f>
+        <f t="shared" ref="U186" si="211">B186-B185</f>
         <v>5375</v>
       </c>
       <c r="V186">
-        <f t="shared" ref="V186" si="210">C186-D186-E186</f>
+        <f t="shared" ref="V186:V187" si="212">C186-D186-E186</f>
         <v>20270</v>
       </c>
       <c r="W186" s="3">
-        <f t="shared" ref="W186" si="211">F186/V186</f>
+        <f t="shared" ref="W186:W187" si="213">F186/V186</f>
         <v>1.3862851504686729E-2</v>
       </c>
       <c r="X186">
-        <f t="shared" ref="X186" si="212">E186-E185</f>
+        <f t="shared" ref="X186" si="214">E186-E185</f>
         <v>9</v>
       </c>
       <c r="Y186">
@@ -18466,20 +19297,309 @@
         <v>84</v>
       </c>
       <c r="AH186">
-        <f t="shared" ref="AH186" si="213">Y186-AB186-AE186</f>
+        <f t="shared" ref="AH186" si="215">Y186-AB186-AE186</f>
         <v>190</v>
       </c>
       <c r="AI186">
-        <f t="shared" ref="AI186" si="214">Z186-AC186-AF186</f>
+        <f t="shared" ref="AI186" si="216">Z186-AC186-AF186</f>
         <v>25</v>
       </c>
       <c r="AJ186">
-        <f t="shared" ref="AJ186" si="215">AA186-AD186-AG186</f>
+        <f t="shared" ref="AJ186" si="217">AA186-AD186-AG186</f>
         <v>797</v>
       </c>
       <c r="AK186">
-        <f t="shared" ref="AK186" si="216">-(J186-J185)+L186</f>
+        <f t="shared" ref="AK186" si="218">-(J186-J185)+L186</f>
         <v>14</v>
+      </c>
+      <c r="AL186">
+        <v>29</v>
+      </c>
+      <c r="AM186">
+        <v>29</v>
+      </c>
+      <c r="AN186">
+        <v>51</v>
+      </c>
+      <c r="AS186">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A186)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A186)</f>
+        <v>63</v>
+      </c>
+      <c r="AT186">
+        <f t="shared" si="41"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="187" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <f t="shared" si="49"/>
+        <v>44093</v>
+      </c>
+      <c r="B187">
+        <v>732185</v>
+      </c>
+      <c r="C187">
+        <v>79073</v>
+      </c>
+      <c r="D187">
+        <v>57227</v>
+      </c>
+      <c r="E187">
+        <v>1264</v>
+      </c>
+      <c r="F187">
+        <v>282</v>
+      </c>
+      <c r="H187">
+        <v>81</v>
+      </c>
+      <c r="I187">
+        <v>34</v>
+      </c>
+      <c r="J187">
+        <v>68</v>
+      </c>
+      <c r="K187">
+        <v>13</v>
+      </c>
+      <c r="L187">
+        <v>7</v>
+      </c>
+      <c r="M187" s="7">
+        <f t="shared" ref="M187:M188" si="219">B187-C187</f>
+        <v>653112</v>
+      </c>
+      <c r="N187" s="4">
+        <f t="shared" ref="N187:N188" si="220">C187/B187</f>
+        <v>0.10799592999037129</v>
+      </c>
+      <c r="Q187">
+        <f t="shared" ref="Q187:Q188" si="221">C187-C186</f>
+        <v>1094</v>
+      </c>
+      <c r="R187">
+        <f t="shared" ref="R187:R188" si="222">M187-M186</f>
+        <v>6087</v>
+      </c>
+      <c r="S187" s="8">
+        <f t="shared" ref="S187:S188" si="223">Q187/U187</f>
+        <v>0.15234646985099567</v>
+      </c>
+      <c r="T187" s="8">
+        <f t="shared" ref="T187:T188" si="224">SUM(Q181:Q187)/SUM(U181:U187)</f>
+        <v>0.14751150367588725</v>
+      </c>
+      <c r="U187">
+        <f t="shared" ref="U187:U188" si="225">B187-B186</f>
+        <v>7181</v>
+      </c>
+      <c r="V187">
+        <f t="shared" ref="V187:V188" si="226">C187-D187-E187</f>
+        <v>20582</v>
+      </c>
+      <c r="W187" s="3">
+        <f t="shared" ref="W187:W188" si="227">F187/V187</f>
+        <v>1.3701292391409971E-2</v>
+      </c>
+      <c r="X187">
+        <f t="shared" ref="X187:X188" si="228">E187-E186</f>
+        <v>7</v>
+      </c>
+      <c r="Y187">
+        <v>459</v>
+      </c>
+      <c r="Z187">
+        <v>257</v>
+      </c>
+      <c r="AA187">
+        <v>4319</v>
+      </c>
+      <c r="AB187">
+        <v>258</v>
+      </c>
+      <c r="AC187">
+        <v>231</v>
+      </c>
+      <c r="AD187">
+        <v>3439</v>
+      </c>
+      <c r="AE187">
+        <v>7</v>
+      </c>
+      <c r="AF187">
+        <v>2</v>
+      </c>
+      <c r="AG187">
+        <v>86</v>
+      </c>
+      <c r="AH187">
+        <f t="shared" ref="AH187:AH188" si="229">Y187-AB187-AE187</f>
+        <v>194</v>
+      </c>
+      <c r="AI187">
+        <f t="shared" ref="AI187:AI188" si="230">Z187-AC187-AF187</f>
+        <v>24</v>
+      </c>
+      <c r="AJ187">
+        <f t="shared" ref="AJ187:AJ188" si="231">AA187-AD187-AG187</f>
+        <v>794</v>
+      </c>
+      <c r="AK187">
+        <f t="shared" ref="AK187:AK188" si="232">-(J187-J186)+L187</f>
+        <v>6</v>
+      </c>
+      <c r="AL187" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM187" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN187" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS187">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A187)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A187)</f>
+        <v>63</v>
+      </c>
+      <c r="AT187">
+        <f t="shared" si="41"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="188" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <f t="shared" si="49"/>
+        <v>44094</v>
+      </c>
+      <c r="B188">
+        <v>737979</v>
+      </c>
+      <c r="C188">
+        <v>80009</v>
+      </c>
+      <c r="D188">
+        <v>57511</v>
+      </c>
+      <c r="E188">
+        <v>1265</v>
+      </c>
+      <c r="F188">
+        <v>269</v>
+      </c>
+      <c r="H188">
+        <v>73</v>
+      </c>
+      <c r="I188">
+        <v>46</v>
+      </c>
+      <c r="J188">
+        <v>62</v>
+      </c>
+      <c r="K188">
+        <v>13</v>
+      </c>
+      <c r="L188">
+        <v>12</v>
+      </c>
+      <c r="M188" s="7">
+        <f t="shared" si="219"/>
+        <v>657970</v>
+      </c>
+      <c r="N188" s="4">
+        <f t="shared" si="220"/>
+        <v>0.10841636415128343</v>
+      </c>
+      <c r="Q188">
+        <f t="shared" si="221"/>
+        <v>936</v>
+      </c>
+      <c r="R188">
+        <f t="shared" si="222"/>
+        <v>4858</v>
+      </c>
+      <c r="S188" s="8">
+        <f t="shared" si="223"/>
+        <v>0.16154642733862618</v>
+      </c>
+      <c r="T188" s="8">
+        <f t="shared" si="224"/>
+        <v>0.15220578435292551</v>
+      </c>
+      <c r="U188">
+        <f t="shared" si="225"/>
+        <v>5794</v>
+      </c>
+      <c r="V188">
+        <f t="shared" si="226"/>
+        <v>21233</v>
+      </c>
+      <c r="W188" s="3">
+        <f t="shared" si="227"/>
+        <v>1.2668958696368859E-2</v>
+      </c>
+      <c r="X188">
+        <f t="shared" si="228"/>
+        <v>1</v>
+      </c>
+      <c r="Y188">
+        <v>463</v>
+      </c>
+      <c r="Z188">
+        <v>258</v>
+      </c>
+      <c r="AA188">
+        <v>4339</v>
+      </c>
+      <c r="AB188">
+        <v>258</v>
+      </c>
+      <c r="AC188">
+        <v>232</v>
+      </c>
+      <c r="AD188">
+        <v>3445</v>
+      </c>
+      <c r="AE188">
+        <v>7</v>
+      </c>
+      <c r="AF188">
+        <v>2</v>
+      </c>
+      <c r="AG188">
+        <v>86</v>
+      </c>
+      <c r="AH188">
+        <f t="shared" si="229"/>
+        <v>198</v>
+      </c>
+      <c r="AI188">
+        <f t="shared" si="230"/>
+        <v>24</v>
+      </c>
+      <c r="AJ188">
+        <f t="shared" si="231"/>
+        <v>808</v>
+      </c>
+      <c r="AK188">
+        <f t="shared" si="232"/>
+        <v>18</v>
+      </c>
+      <c r="AL188">
+        <v>30</v>
+      </c>
+      <c r="AM188">
+        <v>31</v>
+      </c>
+      <c r="AN188">
+        <v>49</v>
+      </c>
+      <c r="AS188">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A188)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A188)</f>
+        <v>63</v>
+      </c>
+      <c r="AT188">
+        <f t="shared" si="41"/>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -18489,6 +19609,2216 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5E6789-177F-4707-8258-EFFA27DED671}">
+  <dimension ref="A1:H103"/>
+  <sheetViews>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="12">
+        <v>44043</v>
+      </c>
+      <c r="D2" s="12">
+        <v>44134</v>
+      </c>
+      <c r="G2" s="1">
+        <f>C2+10</f>
+        <v>44053</v>
+      </c>
+      <c r="H2" s="1">
+        <f>C2+28</f>
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="12">
+        <v>44047</v>
+      </c>
+      <c r="D3" s="12">
+        <v>44137</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G66" si="0">C3+10</f>
+        <v>44057</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H66" si="1">C3+28</f>
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="12">
+        <v>44047</v>
+      </c>
+      <c r="D4" s="12">
+        <v>44137</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>44057</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="12">
+        <v>44047</v>
+      </c>
+      <c r="D5" s="12">
+        <v>44137</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>44057</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="12">
+        <v>44047</v>
+      </c>
+      <c r="D6" s="12">
+        <v>44137</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>44057</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="12">
+        <v>44047</v>
+      </c>
+      <c r="D7" s="12">
+        <v>44137</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>44057</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="12">
+        <v>44047</v>
+      </c>
+      <c r="D8" s="12">
+        <v>44137</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>44057</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="12">
+        <v>44047</v>
+      </c>
+      <c r="D9" s="12">
+        <v>44137</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>44057</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="12">
+        <v>44047</v>
+      </c>
+      <c r="D10" s="12">
+        <v>44137</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>44057</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="12">
+        <v>44047</v>
+      </c>
+      <c r="D11" s="12">
+        <v>44137</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>44057</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="12">
+        <v>44047</v>
+      </c>
+      <c r="D12" s="12">
+        <v>44137</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>44057</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="12">
+        <v>44047</v>
+      </c>
+      <c r="D13" s="12">
+        <v>44137</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>44057</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="12">
+        <v>44047</v>
+      </c>
+      <c r="D14" s="12">
+        <v>44137</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>44057</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="12">
+        <v>44047</v>
+      </c>
+      <c r="D15" s="12">
+        <v>44137</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>44057</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="12">
+        <v>44047</v>
+      </c>
+      <c r="D16" s="12">
+        <v>44137</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>44057</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="12">
+        <v>44047</v>
+      </c>
+      <c r="D17" s="12">
+        <v>44137</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>44057</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="12">
+        <v>44050</v>
+      </c>
+      <c r="D18" s="12">
+        <v>44140</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>44060</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="12">
+        <v>44059</v>
+      </c>
+      <c r="D19" s="12">
+        <v>44149</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>44069</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="1"/>
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="12">
+        <v>44058</v>
+      </c>
+      <c r="D20" s="12">
+        <v>44148</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>44068</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="1"/>
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="12">
+        <v>44062</v>
+      </c>
+      <c r="D21" s="12">
+        <v>44152</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>44072</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="1"/>
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="12">
+        <v>44071</v>
+      </c>
+      <c r="D22" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>44081</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="1"/>
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="11">
+        <v>1233496</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="12">
+        <v>44061</v>
+      </c>
+      <c r="D23" s="12">
+        <v>44151</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>44071</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="1"/>
+        <v>44089</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
+        <v>1239767</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="12">
+        <v>44067</v>
+      </c>
+      <c r="D24" s="12">
+        <v>44157</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>44077</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="1"/>
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>1233431</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="12">
+        <v>44070</v>
+      </c>
+      <c r="D25" s="12">
+        <v>44160</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>44080</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="1"/>
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>1222083</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="12">
+        <v>44069</v>
+      </c>
+      <c r="D26" s="12">
+        <v>44159</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>44079</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="1"/>
+        <v>44097</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="12">
+        <v>44070</v>
+      </c>
+      <c r="D27" s="12">
+        <v>44160</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>44080</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="1"/>
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="12">
+        <v>44070</v>
+      </c>
+      <c r="D28" s="12">
+        <v>44160</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>44080</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="1"/>
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="12">
+        <v>44070</v>
+      </c>
+      <c r="D29" s="12">
+        <v>44160</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>44080</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="1"/>
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="12">
+        <v>44071</v>
+      </c>
+      <c r="D30" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>44081</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="1"/>
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="12">
+        <v>44071</v>
+      </c>
+      <c r="D31" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="0"/>
+        <v>44081</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="1"/>
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="12">
+        <v>44071</v>
+      </c>
+      <c r="D32" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>44081</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="1"/>
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="12">
+        <v>44071</v>
+      </c>
+      <c r="D33" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>44081</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="1"/>
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="12">
+        <v>44071</v>
+      </c>
+      <c r="D34" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>44081</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="1"/>
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="12">
+        <v>44071</v>
+      </c>
+      <c r="D35" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
+        <v>44081</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="1"/>
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="12">
+        <v>44071</v>
+      </c>
+      <c r="D36" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="0"/>
+        <v>44081</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="1"/>
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="12">
+        <v>44072</v>
+      </c>
+      <c r="D37" s="12">
+        <v>44162</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="0"/>
+        <v>44082</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="1"/>
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="12">
+        <v>44072</v>
+      </c>
+      <c r="D38" s="12">
+        <v>44162</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="0"/>
+        <v>44082</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="1"/>
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="12">
+        <v>44072</v>
+      </c>
+      <c r="D39" s="12">
+        <v>44162</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="0"/>
+        <v>44082</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="1"/>
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="12">
+        <v>44073</v>
+      </c>
+      <c r="D40" s="12">
+        <v>44163</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="0"/>
+        <v>44083</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="1"/>
+        <v>44101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="12">
+        <v>44074</v>
+      </c>
+      <c r="D41" s="12">
+        <v>44164</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="0"/>
+        <v>44084</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="1"/>
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="11">
+        <v>1093584</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="12">
+        <v>44071</v>
+      </c>
+      <c r="D42" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="0"/>
+        <v>44081</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="1"/>
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="11">
+        <v>1216062</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="12">
+        <v>44071</v>
+      </c>
+      <c r="D43" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="0"/>
+        <v>44081</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="1"/>
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="11">
+        <v>1229259</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="12">
+        <v>44071</v>
+      </c>
+      <c r="D44" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="0"/>
+        <v>44081</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="1"/>
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="11">
+        <v>1228823</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="12">
+        <v>44071</v>
+      </c>
+      <c r="D45" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="0"/>
+        <v>44081</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="1"/>
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="11">
+        <v>1102336</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="12">
+        <v>44070</v>
+      </c>
+      <c r="D46" s="12">
+        <v>44160</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="0"/>
+        <v>44080</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="1"/>
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="11">
+        <v>1227710</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="12">
+        <v>44074</v>
+      </c>
+      <c r="D47" s="12">
+        <v>44164</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="0"/>
+        <v>44084</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="1"/>
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="11">
+        <v>983268</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="12">
+        <v>44071</v>
+      </c>
+      <c r="D48" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="0"/>
+        <v>44081</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="1"/>
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="11">
+        <v>1227868</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="12">
+        <v>44436</v>
+      </c>
+      <c r="D49" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="0"/>
+        <v>44446</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="1"/>
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="11">
+        <v>1227597</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="12">
+        <v>44801</v>
+      </c>
+      <c r="D50" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="0"/>
+        <v>44811</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="1"/>
+        <v>44829</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="11">
+        <v>1093560</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="12">
+        <v>45166</v>
+      </c>
+      <c r="D51" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="0"/>
+        <v>45176</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="1"/>
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="11">
+        <v>1224820</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="12">
+        <v>45532</v>
+      </c>
+      <c r="D52" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="0"/>
+        <v>45542</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="1"/>
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="11">
+        <v>983841</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="12">
+        <v>45897</v>
+      </c>
+      <c r="D53" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="0"/>
+        <v>45907</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="1"/>
+        <v>45925</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="11">
+        <v>877801</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="12">
+        <v>46262</v>
+      </c>
+      <c r="D54" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="0"/>
+        <v>46272</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="1"/>
+        <v>46290</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="11">
+        <v>1229581</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="12">
+        <v>46627</v>
+      </c>
+      <c r="D55" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="0"/>
+        <v>46637</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="1"/>
+        <v>46655</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="11">
+        <v>1230421</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="12">
+        <v>46993</v>
+      </c>
+      <c r="D56" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="0"/>
+        <v>47003</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="1"/>
+        <v>47021</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="11">
+        <v>1235428</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="12">
+        <v>47358</v>
+      </c>
+      <c r="D57" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="0"/>
+        <v>47368</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="1"/>
+        <v>47386</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="11">
+        <v>1229913</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="12">
+        <v>47723</v>
+      </c>
+      <c r="D58" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="0"/>
+        <v>47733</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="1"/>
+        <v>47751</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="11">
+        <v>1227425</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="12">
+        <v>48088</v>
+      </c>
+      <c r="D59" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="0"/>
+        <v>48098</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="1"/>
+        <v>48116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="11">
+        <v>1227427</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="12">
+        <v>48454</v>
+      </c>
+      <c r="D60" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="0"/>
+        <v>48464</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="1"/>
+        <v>48482</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="11">
+        <v>1234554</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="12">
+        <v>48819</v>
+      </c>
+      <c r="D61" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="0"/>
+        <v>48829</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="1"/>
+        <v>48847</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="11">
+        <v>1232664</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="12">
+        <v>49184</v>
+      </c>
+      <c r="D62" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="0"/>
+        <v>49194</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="1"/>
+        <v>49212</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="11">
+        <v>1237850</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="12">
+        <v>49549</v>
+      </c>
+      <c r="D63" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="0"/>
+        <v>49559</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="1"/>
+        <v>49577</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="11">
+        <v>1244748</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="12">
+        <v>49915</v>
+      </c>
+      <c r="D64" s="12">
+        <v>44161</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" si="0"/>
+        <v>49925</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" si="1"/>
+        <v>49943</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="11">
+        <v>1224659</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="12">
+        <v>44074</v>
+      </c>
+      <c r="D65" s="12">
+        <v>44164</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" si="0"/>
+        <v>44084</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" si="1"/>
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="11">
+        <v>1223656</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="12">
+        <v>44001</v>
+      </c>
+      <c r="D66" s="13">
+        <v>44091</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" si="0"/>
+        <v>44011</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" si="1"/>
+        <v>44029</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="11">
+        <v>1241799</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="12">
+        <v>44075</v>
+      </c>
+      <c r="D67" s="12">
+        <v>44164</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" ref="G67:G103" si="2">C67+10</f>
+        <v>44085</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" ref="H67:H103" si="3">C67+28</f>
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="11">
+        <v>1239521</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="12">
+        <v>44075</v>
+      </c>
+      <c r="D68" s="12">
+        <v>44164</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" si="2"/>
+        <v>44085</v>
+      </c>
+      <c r="H68" s="1">
+        <f t="shared" si="3"/>
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="11">
+        <v>1227874</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="12">
+        <v>44075</v>
+      </c>
+      <c r="D69" s="12">
+        <v>44164</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" si="2"/>
+        <v>44085</v>
+      </c>
+      <c r="H69" s="1">
+        <f t="shared" si="3"/>
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="11">
+        <v>1221470</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" s="12">
+        <v>44079</v>
+      </c>
+      <c r="D70" s="12">
+        <v>44168</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="2"/>
+        <v>44089</v>
+      </c>
+      <c r="H70" s="1">
+        <f t="shared" si="3"/>
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="11">
+        <v>1240643</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="12">
+        <v>44078</v>
+      </c>
+      <c r="D71" s="12">
+        <v>44167</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="2"/>
+        <v>44088</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" si="3"/>
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="11">
+        <v>1238917</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" s="12">
+        <v>44078</v>
+      </c>
+      <c r="D72" s="12">
+        <v>44167</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" si="2"/>
+        <v>44088</v>
+      </c>
+      <c r="H72" s="1">
+        <f t="shared" si="3"/>
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="11">
+        <v>1224711</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" s="12">
+        <v>44078</v>
+      </c>
+      <c r="D73" s="12">
+        <v>44167</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" si="2"/>
+        <v>44088</v>
+      </c>
+      <c r="H73" s="1">
+        <f t="shared" si="3"/>
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="11">
+        <v>1224156</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="12">
+        <v>44078</v>
+      </c>
+      <c r="D74" s="12">
+        <v>44167</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" si="2"/>
+        <v>44088</v>
+      </c>
+      <c r="H74" s="1">
+        <f t="shared" si="3"/>
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="11">
+        <v>1225769</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="12">
+        <v>44078</v>
+      </c>
+      <c r="D75" s="12">
+        <v>44167</v>
+      </c>
+      <c r="G75" s="1">
+        <f t="shared" si="2"/>
+        <v>44088</v>
+      </c>
+      <c r="H75" s="1">
+        <f t="shared" si="3"/>
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="11">
+        <v>1239313</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="12">
+        <v>44078</v>
+      </c>
+      <c r="D76" s="12">
+        <v>44167</v>
+      </c>
+      <c r="G76" s="1">
+        <f t="shared" si="2"/>
+        <v>44088</v>
+      </c>
+      <c r="H76" s="1">
+        <f t="shared" si="3"/>
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="11">
+        <v>1234008</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="12">
+        <v>44078</v>
+      </c>
+      <c r="D77" s="12">
+        <v>44167</v>
+      </c>
+      <c r="G77" s="1">
+        <f t="shared" si="2"/>
+        <v>44088</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" si="3"/>
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="11">
+        <v>1234324</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" s="12">
+        <v>44078</v>
+      </c>
+      <c r="D78" s="12">
+        <v>44167</v>
+      </c>
+      <c r="G78" s="1">
+        <f t="shared" si="2"/>
+        <v>44088</v>
+      </c>
+      <c r="H78" s="1">
+        <f t="shared" si="3"/>
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="11">
+        <v>1239995</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C79" s="12">
+        <v>44078</v>
+      </c>
+      <c r="D79" s="12">
+        <v>44167</v>
+      </c>
+      <c r="G79" s="1">
+        <f t="shared" si="2"/>
+        <v>44088</v>
+      </c>
+      <c r="H79" s="1">
+        <f t="shared" si="3"/>
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="11">
+        <v>1224611</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" s="12">
+        <v>44078</v>
+      </c>
+      <c r="D80" s="12">
+        <v>44167</v>
+      </c>
+      <c r="G80" s="1">
+        <f t="shared" si="2"/>
+        <v>44088</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" si="3"/>
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="11">
+        <v>1223474</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" s="12">
+        <v>44078</v>
+      </c>
+      <c r="D81" s="12">
+        <v>44167</v>
+      </c>
+      <c r="G81" s="1">
+        <f t="shared" si="2"/>
+        <v>44088</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" si="3"/>
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="11">
+        <v>1233584</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C82" s="12">
+        <v>44078</v>
+      </c>
+      <c r="D82" s="12">
+        <v>44167</v>
+      </c>
+      <c r="G82" s="1">
+        <f t="shared" si="2"/>
+        <v>44088</v>
+      </c>
+      <c r="H82" s="1">
+        <f t="shared" si="3"/>
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="11">
+        <v>1233381</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" s="12">
+        <v>44078</v>
+      </c>
+      <c r="D83" s="12">
+        <v>44167</v>
+      </c>
+      <c r="G83" s="1">
+        <f t="shared" si="2"/>
+        <v>44088</v>
+      </c>
+      <c r="H83" s="1">
+        <f t="shared" si="3"/>
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="11">
+        <v>1244839</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C84" s="12">
+        <v>44078</v>
+      </c>
+      <c r="D84" s="12">
+        <v>44167</v>
+      </c>
+      <c r="G84" s="1">
+        <f t="shared" si="2"/>
+        <v>44088</v>
+      </c>
+      <c r="H84" s="1">
+        <f t="shared" si="3"/>
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="11">
+        <v>1239508</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="12">
+        <v>44078</v>
+      </c>
+      <c r="D85" s="12">
+        <v>44167</v>
+      </c>
+      <c r="G85" s="1">
+        <f t="shared" si="2"/>
+        <v>44088</v>
+      </c>
+      <c r="H85" s="1">
+        <f t="shared" si="3"/>
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="11">
+        <v>1223576</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C86" s="12">
+        <v>44077</v>
+      </c>
+      <c r="D86" s="12">
+        <v>44167</v>
+      </c>
+      <c r="G86" s="1">
+        <f t="shared" si="2"/>
+        <v>44087</v>
+      </c>
+      <c r="H86" s="1">
+        <f t="shared" si="3"/>
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="11">
+        <v>1222666</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C87" s="12">
+        <v>44077</v>
+      </c>
+      <c r="D87" s="12">
+        <v>44167</v>
+      </c>
+      <c r="G87" s="1">
+        <f t="shared" si="2"/>
+        <v>44087</v>
+      </c>
+      <c r="H87" s="1">
+        <f t="shared" si="3"/>
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="11">
+        <v>1233315</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C88" s="12">
+        <v>44076</v>
+      </c>
+      <c r="D88" s="12">
+        <v>44166</v>
+      </c>
+      <c r="G88" s="1">
+        <f t="shared" si="2"/>
+        <v>44086</v>
+      </c>
+      <c r="H88" s="1">
+        <f t="shared" si="3"/>
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="11">
+        <v>1239055</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C89" s="12">
+        <v>44076</v>
+      </c>
+      <c r="D89" s="12">
+        <v>44166</v>
+      </c>
+      <c r="G89" s="1">
+        <f t="shared" si="2"/>
+        <v>44086</v>
+      </c>
+      <c r="H89" s="1">
+        <f t="shared" si="3"/>
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="11">
+        <v>1223120</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C90" s="12">
+        <v>44076</v>
+      </c>
+      <c r="D90" s="12">
+        <v>44166</v>
+      </c>
+      <c r="G90" s="1">
+        <f t="shared" si="2"/>
+        <v>44086</v>
+      </c>
+      <c r="H90" s="1">
+        <f t="shared" si="3"/>
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="11">
+        <v>1230550</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C91" s="12">
+        <v>44076</v>
+      </c>
+      <c r="D91" s="12">
+        <v>44166</v>
+      </c>
+      <c r="G91" s="1">
+        <f t="shared" si="2"/>
+        <v>44086</v>
+      </c>
+      <c r="H91" s="1">
+        <f t="shared" si="3"/>
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="11">
+        <v>1228167</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C92" s="12">
+        <v>44076</v>
+      </c>
+      <c r="D92" s="12">
+        <v>44166</v>
+      </c>
+      <c r="G92" s="1">
+        <f t="shared" si="2"/>
+        <v>44086</v>
+      </c>
+      <c r="H92" s="1">
+        <f t="shared" si="3"/>
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="11">
+        <v>1234346</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C93" s="12">
+        <v>44076</v>
+      </c>
+      <c r="D93" s="12">
+        <v>44166</v>
+      </c>
+      <c r="G93" s="1">
+        <f t="shared" si="2"/>
+        <v>44086</v>
+      </c>
+      <c r="H93" s="1">
+        <f t="shared" si="3"/>
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" s="11">
+        <v>1239570</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C94" s="12">
+        <v>44076</v>
+      </c>
+      <c r="D94" s="12">
+        <v>44166</v>
+      </c>
+      <c r="G94" s="1">
+        <f t="shared" si="2"/>
+        <v>44086</v>
+      </c>
+      <c r="H94" s="1">
+        <f t="shared" si="3"/>
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" s="11">
+        <v>1241593</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C95" s="12">
+        <v>44076</v>
+      </c>
+      <c r="D95" s="12">
+        <v>44166</v>
+      </c>
+      <c r="G95" s="1">
+        <f t="shared" si="2"/>
+        <v>44086</v>
+      </c>
+      <c r="H95" s="1">
+        <f t="shared" si="3"/>
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" s="11">
+        <v>1240143</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C96" s="12">
+        <v>44076</v>
+      </c>
+      <c r="D96" s="12">
+        <v>44166</v>
+      </c>
+      <c r="G96" s="1">
+        <f t="shared" si="2"/>
+        <v>44086</v>
+      </c>
+      <c r="H96" s="1">
+        <f t="shared" si="3"/>
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" s="11">
+        <v>1221754</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C97" s="12">
+        <v>44076</v>
+      </c>
+      <c r="D97" s="12">
+        <v>44166</v>
+      </c>
+      <c r="G97" s="1">
+        <f t="shared" si="2"/>
+        <v>44086</v>
+      </c>
+      <c r="H97" s="1">
+        <f t="shared" si="3"/>
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="11">
+        <v>1225098</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C98" s="12">
+        <v>44076</v>
+      </c>
+      <c r="D98" s="12">
+        <v>44166</v>
+      </c>
+      <c r="G98" s="1">
+        <f t="shared" si="2"/>
+        <v>44086</v>
+      </c>
+      <c r="H98" s="1">
+        <f t="shared" si="3"/>
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" s="11">
+        <v>1102347</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C99" s="12">
+        <v>44076</v>
+      </c>
+      <c r="D99" s="12">
+        <v>44166</v>
+      </c>
+      <c r="G99" s="1">
+        <f t="shared" si="2"/>
+        <v>44086</v>
+      </c>
+      <c r="H99" s="1">
+        <f t="shared" si="3"/>
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="11">
+        <v>1224640</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C100" s="12">
+        <v>44076</v>
+      </c>
+      <c r="D100" s="12">
+        <v>44166</v>
+      </c>
+      <c r="G100" s="1">
+        <f t="shared" si="2"/>
+        <v>44086</v>
+      </c>
+      <c r="H100" s="1">
+        <f t="shared" si="3"/>
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" s="11">
+        <v>1222300</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C101" s="12">
+        <v>44076</v>
+      </c>
+      <c r="D101" s="12">
+        <v>44166</v>
+      </c>
+      <c r="G101" s="1">
+        <f t="shared" si="2"/>
+        <v>44086</v>
+      </c>
+      <c r="H101" s="1">
+        <f t="shared" si="3"/>
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C102" s="12">
+        <v>44034</v>
+      </c>
+      <c r="D102" s="12">
+        <v>44125</v>
+      </c>
+      <c r="G102" s="1">
+        <f t="shared" si="2"/>
+        <v>44044</v>
+      </c>
+      <c r="H102" s="1">
+        <f t="shared" si="3"/>
+        <v>44062</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" s="11">
+        <v>983759</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C103" s="12">
+        <v>44081</v>
+      </c>
+      <c r="D103" s="12">
+        <v>44171</v>
+      </c>
+      <c r="G103" s="1">
+        <f t="shared" si="2"/>
+        <v>44091</v>
+      </c>
+      <c r="H103" s="1">
+        <f t="shared" si="3"/>
+        <v>44109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE6A915-CDE2-4E7D-B4AC-967E21E41E66}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D115"/>
@@ -20549,7 +23879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C3D5DD-C039-4D76-9B18-3584F8CD7AD6}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y134"/>
@@ -31376,7 +34706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608A259B-9973-473A-82BF-CDC9E6EAD895}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:R119"/>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A04668-9DA4-4D30-9EDC-E8E894820CAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29809FE0-8853-4022-8629-B7E5E4EC4212}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1435,13 +1435,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AT188"/>
+  <dimension ref="A1:AT189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD119" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS136" sqref="AS136:AS137"/>
+      <selection pane="bottomRight" activeCell="M189" sqref="M189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14626,7 +14626,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <f t="shared" ref="A152:A188" si="49">A151+1</f>
+        <f t="shared" ref="A152:A189" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -19366,11 +19366,11 @@
         <v>7</v>
       </c>
       <c r="M187" s="7">
-        <f t="shared" ref="M187:M188" si="219">B187-C187</f>
+        <f t="shared" ref="M187:M189" si="219">B187-C187</f>
         <v>653112</v>
       </c>
       <c r="N187" s="4">
-        <f t="shared" ref="N187:N188" si="220">C187/B187</f>
+        <f t="shared" ref="N187:N189" si="220">C187/B187</f>
         <v>0.10799592999037129</v>
       </c>
       <c r="Q187">
@@ -19394,11 +19394,11 @@
         <v>7181</v>
       </c>
       <c r="V187">
-        <f t="shared" ref="V187:V188" si="226">C187-D187-E187</f>
+        <f t="shared" ref="V187:V189" si="226">C187-D187-E187</f>
         <v>20582</v>
       </c>
       <c r="W187" s="3">
-        <f t="shared" ref="W187:W188" si="227">F187/V187</f>
+        <f t="shared" ref="W187:W189" si="227">F187/V187</f>
         <v>1.3701292391409971E-2</v>
       </c>
       <c r="X187">
@@ -19600,6 +19600,58 @@
       <c r="AT188">
         <f t="shared" si="41"/>
         <v>135</v>
+      </c>
+    </row>
+    <row r="189" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <f t="shared" si="49"/>
+        <v>44095</v>
+      </c>
+      <c r="B189">
+        <v>740655</v>
+      </c>
+      <c r="C189">
+        <v>80475</v>
+      </c>
+      <c r="D189">
+        <v>57815</v>
+      </c>
+      <c r="E189">
+        <v>1265</v>
+      </c>
+      <c r="F189">
+        <v>271</v>
+      </c>
+      <c r="H189">
+        <v>74</v>
+      </c>
+      <c r="I189">
+        <v>34</v>
+      </c>
+      <c r="J189">
+        <v>65</v>
+      </c>
+      <c r="K189">
+        <v>16</v>
+      </c>
+      <c r="L189">
+        <v>8</v>
+      </c>
+      <c r="M189" s="7">
+        <f t="shared" si="219"/>
+        <v>660180</v>
+      </c>
+      <c r="N189" s="4">
+        <f t="shared" si="220"/>
+        <v>0.10865382668043826</v>
+      </c>
+      <c r="V189">
+        <f t="shared" si="226"/>
+        <v>21395</v>
+      </c>
+      <c r="W189" s="3">
+        <f t="shared" si="227"/>
+        <v>1.2666510867025006E-2</v>
       </c>
     </row>
   </sheetData>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29809FE0-8853-4022-8629-B7E5E4EC4212}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F72B604-4F0D-454E-942A-AD770658106E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="205">
   <si>
     <t>date</t>
   </si>
@@ -525,6 +525,120 @@
   </si>
   <si>
     <t>Bremer True SS</t>
+  </si>
+  <si>
+    <t>Colby Gibson</t>
+  </si>
+  <si>
+    <t>Jarret Johnson</t>
+  </si>
+  <si>
+    <t>Robert Solorio</t>
+  </si>
+  <si>
+    <t>Jamal Chakkour</t>
+  </si>
+  <si>
+    <t>Damari Dancy</t>
+  </si>
+  <si>
+    <t>Devin Nobiling</t>
+  </si>
+  <si>
+    <t>Alexa Ganzeveld</t>
+  </si>
+  <si>
+    <t>Lakota Daniels</t>
+  </si>
+  <si>
+    <t>Dalton Whitehall Gilkes</t>
+  </si>
+  <si>
+    <t>Kyler Romero</t>
+  </si>
+  <si>
+    <t>Adrian Coello</t>
+  </si>
+  <si>
+    <t>Zachary Heyerhoff</t>
+  </si>
+  <si>
+    <t>Drake Strnad</t>
+  </si>
+  <si>
+    <t>Emma Ammons</t>
+  </si>
+  <si>
+    <t>Hannah Happ</t>
+  </si>
+  <si>
+    <t>Maddy Schuchmann</t>
+  </si>
+  <si>
+    <t>Sophia Huntington</t>
+  </si>
+  <si>
+    <t>Taylor Zumbach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabrina Moody </t>
+  </si>
+  <si>
+    <t>Grant McCallips</t>
+  </si>
+  <si>
+    <t>Kaiden Tripp</t>
+  </si>
+  <si>
+    <t>Raymon Dominguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jensen Clapp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jessi Sarcone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rachel Nagel </t>
+  </si>
+  <si>
+    <t>Isabel Schneider</t>
+  </si>
+  <si>
+    <t>Ella Brase</t>
+  </si>
+  <si>
+    <t>Joshua Henkenius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breya Christopher </t>
+  </si>
+  <si>
+    <t>Katie Crock</t>
+  </si>
+  <si>
+    <t>Lexus Church</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achilles Solomon </t>
+  </si>
+  <si>
+    <t>Sanam Tamang</t>
+  </si>
+  <si>
+    <t>Belle Albers</t>
+  </si>
+  <si>
+    <t>Lauryn Henderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethan Beck </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brenna Jacobs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellie Johnson </t>
   </si>
 </sst>
 </file>
@@ -1435,13 +1549,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AT189"/>
+  <dimension ref="A1:AT190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B171" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AC179" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M189" sqref="M189"/>
+      <selection pane="bottomRight" activeCell="AS188" sqref="AS188:AT189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14626,7 +14740,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <f t="shared" ref="A152:A189" si="49">A151+1</f>
+        <f t="shared" ref="A152:A190" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -17335,7 +17449,7 @@
         <v>5</v>
       </c>
       <c r="M172" s="7">
-        <f t="shared" ref="M172:M187" si="58">B172-C172</f>
+        <f t="shared" ref="M172:M186" si="58">B172-C172</f>
         <v>586759</v>
       </c>
       <c r="N172" s="4">
@@ -18962,7 +19076,7 @@
         <v>636646</v>
       </c>
       <c r="N184" s="4">
-        <f t="shared" ref="N184:N187" si="182">C184/B184</f>
+        <f t="shared" ref="N184:N186" si="182">C184/B184</f>
         <v>0.10646927885519561</v>
       </c>
       <c r="Q184">
@@ -19258,11 +19372,11 @@
         <v>5375</v>
       </c>
       <c r="V186">
-        <f t="shared" ref="V186:V187" si="212">C186-D186-E186</f>
+        <f t="shared" ref="V186" si="212">C186-D186-E186</f>
         <v>20270</v>
       </c>
       <c r="W186" s="3">
-        <f t="shared" ref="W186:W187" si="213">F186/V186</f>
+        <f t="shared" ref="W186" si="213">F186/V186</f>
         <v>1.3862851504686729E-2</v>
       </c>
       <c r="X186">
@@ -19366,11 +19480,11 @@
         <v>7</v>
       </c>
       <c r="M187" s="7">
-        <f t="shared" ref="M187:M189" si="219">B187-C187</f>
+        <f t="shared" ref="M187:M190" si="219">B187-C187</f>
         <v>653112</v>
       </c>
       <c r="N187" s="4">
-        <f t="shared" ref="N187:N189" si="220">C187/B187</f>
+        <f t="shared" ref="N187:N190" si="220">C187/B187</f>
         <v>0.10799592999037129</v>
       </c>
       <c r="Q187">
@@ -19394,11 +19508,11 @@
         <v>7181</v>
       </c>
       <c r="V187">
-        <f t="shared" ref="V187:V189" si="226">C187-D187-E187</f>
+        <f t="shared" ref="V187:V188" si="226">C187-D187-E187</f>
         <v>20582</v>
       </c>
       <c r="W187" s="3">
-        <f t="shared" ref="W187:W189" si="227">F187/V187</f>
+        <f t="shared" ref="W187:W188" si="227">F187/V187</f>
         <v>1.3701292391409971E-2</v>
       </c>
       <c r="X187">
@@ -19445,7 +19559,7 @@
         <v>794</v>
       </c>
       <c r="AK187">
-        <f t="shared" ref="AK187:AK188" si="232">-(J187-J186)+L187</f>
+        <f t="shared" ref="AK187:AK190" si="232">-(J187-J186)+L187</f>
         <v>6</v>
       </c>
       <c r="AL187" t="s">
@@ -19459,11 +19573,11 @@
       </c>
       <c r="AS187">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A187)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A187)</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AT187">
         <f t="shared" si="41"/>
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="188" spans="1:46" x14ac:dyDescent="0.35">
@@ -19595,11 +19709,11 @@
       </c>
       <c r="AS188">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A188)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A188)</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AT188">
         <f t="shared" si="41"/>
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="189" spans="1:46" x14ac:dyDescent="0.35">
@@ -19645,13 +19759,177 @@
         <f t="shared" si="220"/>
         <v>0.10865382668043826</v>
       </c>
+      <c r="Q189">
+        <f t="shared" ref="Q189:Q190" si="233">C189-C188</f>
+        <v>466</v>
+      </c>
+      <c r="R189">
+        <f t="shared" ref="R189:R190" si="234">M189-M188</f>
+        <v>2210</v>
+      </c>
+      <c r="S189" s="8">
+        <f t="shared" ref="S189:S190" si="235">Q189/U189</f>
+        <v>0.1741405082212257</v>
+      </c>
+      <c r="T189" s="8">
+        <f t="shared" ref="T189:T190" si="236">SUM(Q183:Q189)/SUM(U183:U189)</f>
+        <v>0.15515702345208146</v>
+      </c>
+      <c r="U189">
+        <f t="shared" ref="U189:U190" si="237">B189-B188</f>
+        <v>2676</v>
+      </c>
       <c r="V189">
-        <f t="shared" si="226"/>
+        <f t="shared" ref="V189:V190" si="238">C189-D189-E189</f>
         <v>21395</v>
       </c>
       <c r="W189" s="3">
-        <f t="shared" si="227"/>
+        <f t="shared" ref="W189:W190" si="239">F189/V189</f>
         <v>1.2666510867025006E-2</v>
+      </c>
+      <c r="X189">
+        <f t="shared" ref="X189:X190" si="240">E189-E188</f>
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <v>462</v>
+      </c>
+      <c r="Z189">
+        <v>260</v>
+      </c>
+      <c r="AA189">
+        <v>4352</v>
+      </c>
+      <c r="AB189">
+        <v>258</v>
+      </c>
+      <c r="AC189">
+        <v>234</v>
+      </c>
+      <c r="AD189">
+        <v>3450</v>
+      </c>
+      <c r="AE189">
+        <v>7</v>
+      </c>
+      <c r="AF189">
+        <v>2</v>
+      </c>
+      <c r="AG189">
+        <v>86</v>
+      </c>
+      <c r="AH189">
+        <f t="shared" ref="AH189" si="241">Y189-AB189-AE189</f>
+        <v>197</v>
+      </c>
+      <c r="AI189">
+        <f t="shared" ref="AI189" si="242">Z189-AC189-AF189</f>
+        <v>24</v>
+      </c>
+      <c r="AJ189">
+        <f t="shared" ref="AJ189" si="243">AA189-AD189-AG189</f>
+        <v>816</v>
+      </c>
+      <c r="AK189">
+        <f t="shared" si="232"/>
+        <v>5</v>
+      </c>
+      <c r="AL189">
+        <v>27</v>
+      </c>
+      <c r="AM189">
+        <v>28</v>
+      </c>
+      <c r="AN189">
+        <v>47</v>
+      </c>
+      <c r="AS189">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A189)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A189)</f>
+        <v>65</v>
+      </c>
+      <c r="AT189">
+        <f t="shared" ref="AT189" si="244">AH189-AS189</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="190" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <f t="shared" si="49"/>
+        <v>44096</v>
+      </c>
+      <c r="B190">
+        <v>744666</v>
+      </c>
+      <c r="C190">
+        <v>81081</v>
+      </c>
+      <c r="D190">
+        <v>59162</v>
+      </c>
+      <c r="E190">
+        <v>1284</v>
+      </c>
+      <c r="F190">
+        <v>285</v>
+      </c>
+      <c r="H190">
+        <v>72</v>
+      </c>
+      <c r="I190">
+        <v>37</v>
+      </c>
+      <c r="J190">
+        <v>74</v>
+      </c>
+      <c r="K190">
+        <v>17</v>
+      </c>
+      <c r="L190">
+        <v>10</v>
+      </c>
+      <c r="M190" s="7">
+        <f t="shared" si="219"/>
+        <v>663585</v>
+      </c>
+      <c r="N190" s="4">
+        <f t="shared" si="220"/>
+        <v>0.10888237142557872</v>
+      </c>
+      <c r="Q190">
+        <f t="shared" si="233"/>
+        <v>606</v>
+      </c>
+      <c r="R190">
+        <f t="shared" si="234"/>
+        <v>3405</v>
+      </c>
+      <c r="S190" s="8">
+        <f t="shared" si="235"/>
+        <v>0.15108451757666416</v>
+      </c>
+      <c r="T190" s="8">
+        <f t="shared" si="236"/>
+        <v>0.15706166675519201</v>
+      </c>
+      <c r="U190">
+        <f t="shared" si="237"/>
+        <v>4011</v>
+      </c>
+      <c r="V190">
+        <f t="shared" si="238"/>
+        <v>20635</v>
+      </c>
+      <c r="W190" s="3">
+        <f t="shared" si="239"/>
+        <v>1.3811485340440998E-2</v>
+      </c>
+      <c r="X190">
+        <f t="shared" si="240"/>
+        <v>19</v>
+      </c>
+      <c r="AK190">
+        <f t="shared" si="232"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -19662,17 +19940,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5E6789-177F-4707-8258-EFFA27DED671}">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H103"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103:H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -21863,6 +22142,839 @@
       <c r="H103" s="1">
         <f t="shared" si="3"/>
         <v>44109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>1240207</v>
+      </c>
+      <c r="B104" t="s">
+        <v>167</v>
+      </c>
+      <c r="C104" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D104" s="1">
+        <v>44173</v>
+      </c>
+      <c r="G104" s="1">
+        <f t="shared" ref="G104:G141" si="4">C104+10</f>
+        <v>44093</v>
+      </c>
+      <c r="H104" s="1">
+        <f t="shared" ref="H104:H141" si="5">C104+28</f>
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>1241861</v>
+      </c>
+      <c r="B105" t="s">
+        <v>168</v>
+      </c>
+      <c r="C105" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D105" s="1">
+        <v>44173</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="4"/>
+        <v>44093</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="5"/>
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>1244453</v>
+      </c>
+      <c r="B106" t="s">
+        <v>169</v>
+      </c>
+      <c r="C106" s="1">
+        <v>44085</v>
+      </c>
+      <c r="D106" s="1">
+        <v>44175</v>
+      </c>
+      <c r="G106" s="1">
+        <f t="shared" si="4"/>
+        <v>44095</v>
+      </c>
+      <c r="H106" s="1">
+        <f t="shared" si="5"/>
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>1244727</v>
+      </c>
+      <c r="B107" t="s">
+        <v>170</v>
+      </c>
+      <c r="C107" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D107" s="1">
+        <v>44178</v>
+      </c>
+      <c r="G107" s="1">
+        <f t="shared" si="4"/>
+        <v>44098</v>
+      </c>
+      <c r="H107" s="1">
+        <f t="shared" si="5"/>
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>1244442</v>
+      </c>
+      <c r="B108" t="s">
+        <v>171</v>
+      </c>
+      <c r="C108" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D108" s="1">
+        <v>44178</v>
+      </c>
+      <c r="G108" s="1">
+        <f t="shared" si="4"/>
+        <v>44098</v>
+      </c>
+      <c r="H108" s="1">
+        <f t="shared" si="5"/>
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>1242029</v>
+      </c>
+      <c r="B109" t="s">
+        <v>172</v>
+      </c>
+      <c r="C109" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D109" s="1">
+        <v>44178</v>
+      </c>
+      <c r="G109" s="1">
+        <f t="shared" si="4"/>
+        <v>44098</v>
+      </c>
+      <c r="H109" s="1">
+        <f t="shared" si="5"/>
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>1227238</v>
+      </c>
+      <c r="B110" t="s">
+        <v>173</v>
+      </c>
+      <c r="C110" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D110" s="1">
+        <v>44178</v>
+      </c>
+      <c r="G110" s="1">
+        <f t="shared" si="4"/>
+        <v>44098</v>
+      </c>
+      <c r="H110" s="1">
+        <f t="shared" si="5"/>
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>1243966</v>
+      </c>
+      <c r="B111" t="s">
+        <v>174</v>
+      </c>
+      <c r="C111" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D111" s="1">
+        <v>44178</v>
+      </c>
+      <c r="G111" s="1">
+        <f t="shared" si="4"/>
+        <v>44098</v>
+      </c>
+      <c r="H111" s="1">
+        <f t="shared" si="5"/>
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>1244603</v>
+      </c>
+      <c r="B112" t="s">
+        <v>175</v>
+      </c>
+      <c r="C112" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D112" s="1">
+        <v>44178</v>
+      </c>
+      <c r="G112" s="1">
+        <f t="shared" si="4"/>
+        <v>44098</v>
+      </c>
+      <c r="H112" s="1">
+        <f t="shared" si="5"/>
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>1244705</v>
+      </c>
+      <c r="B113" t="s">
+        <v>176</v>
+      </c>
+      <c r="C113" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D113" s="1">
+        <v>44178</v>
+      </c>
+      <c r="G113" s="1">
+        <f t="shared" si="4"/>
+        <v>44098</v>
+      </c>
+      <c r="H113" s="1">
+        <f t="shared" si="5"/>
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>1240803</v>
+      </c>
+      <c r="B114" t="s">
+        <v>177</v>
+      </c>
+      <c r="C114" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D114" s="1">
+        <v>44178</v>
+      </c>
+      <c r="G114" s="1">
+        <f t="shared" si="4"/>
+        <v>44098</v>
+      </c>
+      <c r="H114" s="1">
+        <f t="shared" si="5"/>
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>1235180</v>
+      </c>
+      <c r="B115" t="s">
+        <v>178</v>
+      </c>
+      <c r="C115" s="1">
+        <v>44089</v>
+      </c>
+      <c r="D115" s="1">
+        <v>44179</v>
+      </c>
+      <c r="G115" s="1">
+        <f t="shared" si="4"/>
+        <v>44099</v>
+      </c>
+      <c r="H115" s="1">
+        <f t="shared" si="5"/>
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>1233667</v>
+      </c>
+      <c r="B116" t="s">
+        <v>179</v>
+      </c>
+      <c r="C116" s="1">
+        <v>44089</v>
+      </c>
+      <c r="D116" s="1">
+        <v>44179</v>
+      </c>
+      <c r="G116" s="1">
+        <f t="shared" si="4"/>
+        <v>44099</v>
+      </c>
+      <c r="H116" s="1">
+        <f t="shared" si="5"/>
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>1233385</v>
+      </c>
+      <c r="B117" t="s">
+        <v>180</v>
+      </c>
+      <c r="C117" s="1">
+        <v>44089</v>
+      </c>
+      <c r="D117" s="1">
+        <v>44179</v>
+      </c>
+      <c r="G117" s="1">
+        <f t="shared" si="4"/>
+        <v>44099</v>
+      </c>
+      <c r="H117" s="1">
+        <f t="shared" si="5"/>
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>1233380</v>
+      </c>
+      <c r="B118" t="s">
+        <v>181</v>
+      </c>
+      <c r="C118" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D118" s="1">
+        <v>44178</v>
+      </c>
+      <c r="G118" s="1">
+        <f t="shared" si="4"/>
+        <v>44098</v>
+      </c>
+      <c r="H118" s="1">
+        <f t="shared" si="5"/>
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>1234200</v>
+      </c>
+      <c r="B119" t="s">
+        <v>182</v>
+      </c>
+      <c r="C119" s="1">
+        <v>44089</v>
+      </c>
+      <c r="D119" s="1">
+        <v>44178</v>
+      </c>
+      <c r="G119" s="1">
+        <f t="shared" si="4"/>
+        <v>44099</v>
+      </c>
+      <c r="H119" s="1">
+        <f t="shared" si="5"/>
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>1236149</v>
+      </c>
+      <c r="B120" t="s">
+        <v>183</v>
+      </c>
+      <c r="C120" s="1">
+        <v>44089</v>
+      </c>
+      <c r="D120" s="1">
+        <v>44178</v>
+      </c>
+      <c r="G120" s="1">
+        <f t="shared" si="4"/>
+        <v>44099</v>
+      </c>
+      <c r="H120" s="1">
+        <f t="shared" si="5"/>
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>1234979</v>
+      </c>
+      <c r="B121" t="s">
+        <v>184</v>
+      </c>
+      <c r="C121" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D121" s="1">
+        <v>44178</v>
+      </c>
+      <c r="G121" s="1">
+        <f t="shared" si="4"/>
+        <v>44098</v>
+      </c>
+      <c r="H121" s="1">
+        <f t="shared" si="5"/>
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>1234055</v>
+      </c>
+      <c r="B122" t="s">
+        <v>185</v>
+      </c>
+      <c r="C122" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D122" s="1">
+        <v>44178</v>
+      </c>
+      <c r="G122" s="1">
+        <f t="shared" si="4"/>
+        <v>44098</v>
+      </c>
+      <c r="H122" s="1">
+        <f t="shared" si="5"/>
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>1242671</v>
+      </c>
+      <c r="B123" t="s">
+        <v>186</v>
+      </c>
+      <c r="C123" s="1">
+        <v>44090</v>
+      </c>
+      <c r="D123" s="1">
+        <v>44180</v>
+      </c>
+      <c r="G123" s="1">
+        <f t="shared" si="4"/>
+        <v>44100</v>
+      </c>
+      <c r="H123" s="1">
+        <f t="shared" si="5"/>
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>1244546</v>
+      </c>
+      <c r="B124" t="s">
+        <v>187</v>
+      </c>
+      <c r="C124" s="1">
+        <v>44090</v>
+      </c>
+      <c r="D124" s="1">
+        <v>44180</v>
+      </c>
+      <c r="G124" s="1">
+        <f t="shared" si="4"/>
+        <v>44100</v>
+      </c>
+      <c r="H124" s="1">
+        <f t="shared" si="5"/>
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>1243657</v>
+      </c>
+      <c r="B125" t="s">
+        <v>188</v>
+      </c>
+      <c r="C125" s="1">
+        <v>44090</v>
+      </c>
+      <c r="D125" s="1">
+        <v>44180</v>
+      </c>
+      <c r="G125" s="1">
+        <f t="shared" si="4"/>
+        <v>44100</v>
+      </c>
+      <c r="H125" s="1">
+        <f t="shared" si="5"/>
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>1244466</v>
+      </c>
+      <c r="B126" t="s">
+        <v>189</v>
+      </c>
+      <c r="C126" s="1">
+        <v>44090</v>
+      </c>
+      <c r="D126" s="1">
+        <v>44180</v>
+      </c>
+      <c r="G126" s="1">
+        <f t="shared" si="4"/>
+        <v>44100</v>
+      </c>
+      <c r="H126" s="1">
+        <f t="shared" si="5"/>
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>1235741</v>
+      </c>
+      <c r="B127" t="s">
+        <v>190</v>
+      </c>
+      <c r="C127" s="1">
+        <v>44090</v>
+      </c>
+      <c r="D127" s="1">
+        <v>44180</v>
+      </c>
+      <c r="G127" s="1">
+        <f t="shared" si="4"/>
+        <v>44100</v>
+      </c>
+      <c r="H127" s="1">
+        <f t="shared" si="5"/>
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>1238885</v>
+      </c>
+      <c r="B128" t="s">
+        <v>191</v>
+      </c>
+      <c r="C128" s="1">
+        <v>44090</v>
+      </c>
+      <c r="D128" s="1">
+        <v>44180</v>
+      </c>
+      <c r="G128" s="1">
+        <f t="shared" si="4"/>
+        <v>44100</v>
+      </c>
+      <c r="H128" s="1">
+        <f t="shared" si="5"/>
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>1233558</v>
+      </c>
+      <c r="B129" t="s">
+        <v>192</v>
+      </c>
+      <c r="C129" s="1">
+        <v>44089</v>
+      </c>
+      <c r="D129" s="1">
+        <v>44179</v>
+      </c>
+      <c r="G129" s="1">
+        <f t="shared" si="4"/>
+        <v>44099</v>
+      </c>
+      <c r="H129" s="1">
+        <f t="shared" si="5"/>
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>1235480</v>
+      </c>
+      <c r="B130" t="s">
+        <v>193</v>
+      </c>
+      <c r="C130" s="1">
+        <v>44089</v>
+      </c>
+      <c r="D130" s="1">
+        <v>44179</v>
+      </c>
+      <c r="G130" s="1">
+        <f t="shared" si="4"/>
+        <v>44099</v>
+      </c>
+      <c r="H130" s="1">
+        <f t="shared" si="5"/>
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>1243913</v>
+      </c>
+      <c r="B131" t="s">
+        <v>194</v>
+      </c>
+      <c r="C131" s="1">
+        <v>44091</v>
+      </c>
+      <c r="D131" s="1">
+        <v>44181</v>
+      </c>
+      <c r="G131" s="1">
+        <f t="shared" si="4"/>
+        <v>44101</v>
+      </c>
+      <c r="H131" s="1">
+        <f t="shared" si="5"/>
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>1236635</v>
+      </c>
+      <c r="B132" t="s">
+        <v>195</v>
+      </c>
+      <c r="C132" s="1">
+        <v>44091</v>
+      </c>
+      <c r="D132" s="1">
+        <v>44181</v>
+      </c>
+      <c r="G132" s="1">
+        <f t="shared" si="4"/>
+        <v>44101</v>
+      </c>
+      <c r="H132" s="1">
+        <f t="shared" si="5"/>
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>1241405</v>
+      </c>
+      <c r="B133" t="s">
+        <v>196</v>
+      </c>
+      <c r="C133" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D133" s="1">
+        <v>44178</v>
+      </c>
+      <c r="G133" s="1">
+        <f t="shared" si="4"/>
+        <v>44098</v>
+      </c>
+      <c r="H133" s="1">
+        <f t="shared" si="5"/>
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>1233006</v>
+      </c>
+      <c r="B134" t="s">
+        <v>197</v>
+      </c>
+      <c r="C134" s="1">
+        <v>44089</v>
+      </c>
+      <c r="D134" s="1">
+        <v>44179</v>
+      </c>
+      <c r="G134" s="1">
+        <f t="shared" si="4"/>
+        <v>44099</v>
+      </c>
+      <c r="H134" s="1">
+        <f t="shared" si="5"/>
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>1243924</v>
+      </c>
+      <c r="B135" t="s">
+        <v>198</v>
+      </c>
+      <c r="C135" s="1">
+        <v>44092</v>
+      </c>
+      <c r="D135" s="1">
+        <v>44182</v>
+      </c>
+      <c r="G135" s="1">
+        <f t="shared" si="4"/>
+        <v>44102</v>
+      </c>
+      <c r="H135" s="1">
+        <f t="shared" si="5"/>
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>1236755</v>
+      </c>
+      <c r="B136" t="s">
+        <v>199</v>
+      </c>
+      <c r="C136" s="1">
+        <v>44091</v>
+      </c>
+      <c r="D136" s="1">
+        <v>44181</v>
+      </c>
+      <c r="G136" s="1">
+        <f t="shared" si="4"/>
+        <v>44101</v>
+      </c>
+      <c r="H136" s="1">
+        <f t="shared" si="5"/>
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>1235286</v>
+      </c>
+      <c r="B137" t="s">
+        <v>200</v>
+      </c>
+      <c r="C137" s="1">
+        <v>44092</v>
+      </c>
+      <c r="D137" s="1">
+        <v>44182</v>
+      </c>
+      <c r="G137" s="1">
+        <f t="shared" si="4"/>
+        <v>44102</v>
+      </c>
+      <c r="H137" s="1">
+        <f t="shared" si="5"/>
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>1239446</v>
+      </c>
+      <c r="B138" t="s">
+        <v>201</v>
+      </c>
+      <c r="C138" s="1">
+        <v>44092</v>
+      </c>
+      <c r="D138" s="1">
+        <v>44182</v>
+      </c>
+      <c r="G138" s="1">
+        <f t="shared" si="4"/>
+        <v>44102</v>
+      </c>
+      <c r="H138" s="1">
+        <f t="shared" si="5"/>
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B139" t="s">
+        <v>202</v>
+      </c>
+      <c r="C139" s="1">
+        <v>44095</v>
+      </c>
+      <c r="D139" s="1">
+        <v>44185</v>
+      </c>
+      <c r="G139" s="1">
+        <f t="shared" si="4"/>
+        <v>44105</v>
+      </c>
+      <c r="H139" s="1">
+        <f t="shared" si="5"/>
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>1230738</v>
+      </c>
+      <c r="B140" t="s">
+        <v>203</v>
+      </c>
+      <c r="C140" s="1">
+        <v>44095</v>
+      </c>
+      <c r="D140" s="1">
+        <v>44185</v>
+      </c>
+      <c r="G140" s="1">
+        <f t="shared" si="4"/>
+        <v>44105</v>
+      </c>
+      <c r="H140" s="1">
+        <f t="shared" si="5"/>
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>129886</v>
+      </c>
+      <c r="B141" t="s">
+        <v>204</v>
+      </c>
+      <c r="C141" s="1">
+        <v>44095</v>
+      </c>
+      <c r="D141" s="1">
+        <v>44185</v>
+      </c>
+      <c r="G141" s="1">
+        <f t="shared" si="4"/>
+        <v>44105</v>
+      </c>
+      <c r="H141" s="1">
+        <f t="shared" si="5"/>
+        <v>44123</v>
       </c>
     </row>
   </sheetData>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F72B604-4F0D-454E-942A-AD770658106E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF451FBB-3A7D-4390-8F75-F713683AC80A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="206">
   <si>
     <t>date</t>
   </si>
@@ -639,6 +639,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ellie Johnson </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justin Henry </t>
   </si>
 </sst>
 </file>
@@ -1549,13 +1552,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AT190"/>
+  <dimension ref="A1:AT193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC179" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD182" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS188" sqref="AS188:AT189"/>
+      <selection pane="bottomRight" activeCell="AK192" sqref="AK192:AK193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14740,7 +14743,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <f t="shared" ref="A152:A190" si="49">A151+1</f>
+        <f t="shared" ref="A152:A193" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -19480,11 +19483,11 @@
         <v>7</v>
       </c>
       <c r="M187" s="7">
-        <f t="shared" ref="M187:M190" si="219">B187-C187</f>
+        <f t="shared" ref="M187:M193" si="219">B187-C187</f>
         <v>653112</v>
       </c>
       <c r="N187" s="4">
-        <f t="shared" ref="N187:N190" si="220">C187/B187</f>
+        <f t="shared" ref="N187:N193" si="220">C187/B187</f>
         <v>0.10799592999037129</v>
       </c>
       <c r="Q187">
@@ -19827,7 +19830,7 @@
         <v>24</v>
       </c>
       <c r="AJ189">
-        <f t="shared" ref="AJ189" si="243">AA189-AD189-AG189</f>
+        <f t="shared" ref="AJ189:AJ190" si="243">AA189-AD189-AG189</f>
         <v>816</v>
       </c>
       <c r="AK189">
@@ -19927,9 +19930,457 @@
         <f t="shared" si="240"/>
         <v>19</v>
       </c>
+      <c r="Y190">
+        <v>468</v>
+      </c>
+      <c r="Z190">
+        <v>262</v>
+      </c>
+      <c r="AA190">
+        <v>4375</v>
+      </c>
+      <c r="AB190">
+        <v>265</v>
+      </c>
+      <c r="AC190">
+        <v>234</v>
+      </c>
+      <c r="AD190">
+        <v>3491</v>
+      </c>
+      <c r="AE190">
+        <v>7</v>
+      </c>
+      <c r="AF190">
+        <v>2</v>
+      </c>
+      <c r="AG190">
+        <v>86</v>
+      </c>
+      <c r="AH190">
+        <f t="shared" ref="AH190" si="245">Y190-AB190-AE190</f>
+        <v>196</v>
+      </c>
+      <c r="AI190">
+        <f t="shared" ref="AI190" si="246">Z190-AC190-AF190</f>
+        <v>26</v>
+      </c>
+      <c r="AJ190">
+        <f t="shared" si="243"/>
+        <v>798</v>
+      </c>
       <c r="AK190">
         <f t="shared" si="232"/>
         <v>1</v>
+      </c>
+      <c r="AL190">
+        <v>25</v>
+      </c>
+      <c r="AM190">
+        <v>26</v>
+      </c>
+      <c r="AN190">
+        <v>60</v>
+      </c>
+      <c r="AS190">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A190)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A190)</f>
+        <v>65</v>
+      </c>
+      <c r="AT190">
+        <f t="shared" ref="AT190:AT191" si="247">AH190-AS190</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="191" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <f t="shared" si="49"/>
+        <v>44097</v>
+      </c>
+      <c r="B191">
+        <v>750122</v>
+      </c>
+      <c r="C191">
+        <v>81794</v>
+      </c>
+      <c r="D191">
+        <v>60285</v>
+      </c>
+      <c r="E191">
+        <v>1293</v>
+      </c>
+      <c r="F191">
+        <v>301</v>
+      </c>
+      <c r="H191">
+        <v>77</v>
+      </c>
+      <c r="I191">
+        <v>59</v>
+      </c>
+      <c r="J191">
+        <v>71</v>
+      </c>
+      <c r="K191">
+        <v>17</v>
+      </c>
+      <c r="L191">
+        <v>12</v>
+      </c>
+      <c r="M191" s="7">
+        <f t="shared" si="219"/>
+        <v>668328</v>
+      </c>
+      <c r="N191" s="4">
+        <f t="shared" si="220"/>
+        <v>0.10904092934216034</v>
+      </c>
+      <c r="Q191">
+        <f t="shared" ref="Q191:Q192" si="248">C191-C190</f>
+        <v>713</v>
+      </c>
+      <c r="R191">
+        <f t="shared" ref="R191:R192" si="249">M191-M190</f>
+        <v>4743</v>
+      </c>
+      <c r="S191" s="8">
+        <f t="shared" ref="S191:S192" si="250">Q191/U191</f>
+        <v>0.13068181818181818</v>
+      </c>
+      <c r="T191" s="8">
+        <f t="shared" ref="T191:T192" si="251">SUM(Q185:Q191)/SUM(U185:U191)</f>
+        <v>0.15775202041684389</v>
+      </c>
+      <c r="U191">
+        <f t="shared" ref="U191:U192" si="252">B191-B190</f>
+        <v>5456</v>
+      </c>
+      <c r="V191">
+        <f t="shared" ref="V191:V192" si="253">C191-D191-E191</f>
+        <v>20216</v>
+      </c>
+      <c r="W191" s="3">
+        <f t="shared" ref="W191:W192" si="254">F191/V191</f>
+        <v>1.4889196675900277E-2</v>
+      </c>
+      <c r="X191">
+        <f t="shared" ref="X191:X192" si="255">E191-E190</f>
+        <v>9</v>
+      </c>
+      <c r="Y191">
+        <v>472</v>
+      </c>
+      <c r="Z191">
+        <v>264</v>
+      </c>
+      <c r="AA191">
+        <v>4401</v>
+      </c>
+      <c r="AB191">
+        <v>272</v>
+      </c>
+      <c r="AC191">
+        <v>238</v>
+      </c>
+      <c r="AD191">
+        <v>3543</v>
+      </c>
+      <c r="AE191">
+        <v>7</v>
+      </c>
+      <c r="AF191">
+        <v>2</v>
+      </c>
+      <c r="AG191">
+        <v>88</v>
+      </c>
+      <c r="AH191">
+        <f t="shared" ref="AH191:AH193" si="256">Y191-AB191-AE191</f>
+        <v>193</v>
+      </c>
+      <c r="AI191">
+        <f t="shared" ref="AI191:AI193" si="257">Z191-AC191-AF191</f>
+        <v>24</v>
+      </c>
+      <c r="AJ191">
+        <f t="shared" ref="AJ191:AJ193" si="258">AA191-AD191-AG191</f>
+        <v>770</v>
+      </c>
+      <c r="AK191">
+        <f t="shared" ref="AK191:AK193" si="259">-(J191-J190)+L191</f>
+        <v>15</v>
+      </c>
+      <c r="AL191">
+        <v>31</v>
+      </c>
+      <c r="AM191">
+        <v>32</v>
+      </c>
+      <c r="AN191">
+        <v>66</v>
+      </c>
+      <c r="AS191">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A191)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A191)</f>
+        <v>64</v>
+      </c>
+      <c r="AT191">
+        <f t="shared" si="247"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="192" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <f t="shared" si="49"/>
+        <v>44098</v>
+      </c>
+      <c r="B192">
+        <v>757067</v>
+      </c>
+      <c r="C192">
+        <v>83098</v>
+      </c>
+      <c r="D192">
+        <v>61452</v>
+      </c>
+      <c r="E192">
+        <v>1298</v>
+      </c>
+      <c r="F192">
+        <v>305</v>
+      </c>
+      <c r="H192">
+        <v>79</v>
+      </c>
+      <c r="I192">
+        <v>56</v>
+      </c>
+      <c r="J192">
+        <v>77</v>
+      </c>
+      <c r="K192">
+        <v>22</v>
+      </c>
+      <c r="L192">
+        <v>14</v>
+      </c>
+      <c r="M192" s="7">
+        <f t="shared" si="219"/>
+        <v>673969</v>
+      </c>
+      <c r="N192" s="4">
+        <f t="shared" si="220"/>
+        <v>0.10976307248896068</v>
+      </c>
+      <c r="Q192">
+        <f t="shared" si="248"/>
+        <v>1304</v>
+      </c>
+      <c r="R192">
+        <f t="shared" si="249"/>
+        <v>5641</v>
+      </c>
+      <c r="S192" s="8">
+        <f t="shared" si="250"/>
+        <v>0.18776097912167028</v>
+      </c>
+      <c r="T192" s="8">
+        <f t="shared" si="251"/>
+        <v>0.16376408996207062</v>
+      </c>
+      <c r="U192">
+        <f t="shared" si="252"/>
+        <v>6945</v>
+      </c>
+      <c r="V192">
+        <f t="shared" si="253"/>
+        <v>20348</v>
+      </c>
+      <c r="W192" s="3">
+        <f t="shared" si="254"/>
+        <v>1.4989188126597209E-2</v>
+      </c>
+      <c r="X192">
+        <f t="shared" si="255"/>
+        <v>5</v>
+      </c>
+      <c r="Y192">
+        <v>476</v>
+      </c>
+      <c r="Z192">
+        <v>265</v>
+      </c>
+      <c r="AA192">
+        <v>4423</v>
+      </c>
+      <c r="AB192">
+        <v>284</v>
+      </c>
+      <c r="AC192">
+        <v>239</v>
+      </c>
+      <c r="AD192">
+        <v>3600</v>
+      </c>
+      <c r="AE192">
+        <v>7</v>
+      </c>
+      <c r="AF192">
+        <v>2</v>
+      </c>
+      <c r="AG192">
+        <v>88</v>
+      </c>
+      <c r="AH192">
+        <f t="shared" si="256"/>
+        <v>185</v>
+      </c>
+      <c r="AI192">
+        <f t="shared" si="257"/>
+        <v>24</v>
+      </c>
+      <c r="AJ192">
+        <f t="shared" si="258"/>
+        <v>735</v>
+      </c>
+      <c r="AK192">
+        <f t="shared" si="259"/>
+        <v>8</v>
+      </c>
+      <c r="AL192">
+        <v>28</v>
+      </c>
+      <c r="AM192">
+        <v>28</v>
+      </c>
+      <c r="AN192">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="193" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <f t="shared" si="49"/>
+        <v>44099</v>
+      </c>
+      <c r="B193">
+        <v>763690</v>
+      </c>
+      <c r="C193">
+        <v>84160</v>
+      </c>
+      <c r="D193">
+        <v>62574</v>
+      </c>
+      <c r="E193">
+        <v>1303</v>
+      </c>
+      <c r="F193">
+        <v>330</v>
+      </c>
+      <c r="H193">
+        <v>87</v>
+      </c>
+      <c r="I193">
+        <v>69</v>
+      </c>
+      <c r="J193">
+        <v>81</v>
+      </c>
+      <c r="K193">
+        <v>21</v>
+      </c>
+      <c r="L193">
+        <v>15</v>
+      </c>
+      <c r="M193" s="7">
+        <f t="shared" si="219"/>
+        <v>679530</v>
+      </c>
+      <c r="N193" s="4">
+        <f t="shared" si="220"/>
+        <v>0.11020178344616272</v>
+      </c>
+      <c r="Q193">
+        <f t="shared" ref="Q193" si="260">C193-C192</f>
+        <v>1062</v>
+      </c>
+      <c r="R193">
+        <f t="shared" ref="R193" si="261">M193-M192</f>
+        <v>5561</v>
+      </c>
+      <c r="S193" s="8">
+        <f t="shared" ref="S193" si="262">Q193/U193</f>
+        <v>0.16035029442850671</v>
+      </c>
+      <c r="T193" s="8">
+        <f t="shared" ref="T193" si="263">SUM(Q187:Q193)/SUM(U187:U193)</f>
+        <v>0.15977356149511451</v>
+      </c>
+      <c r="U193">
+        <f t="shared" ref="U193" si="264">B193-B192</f>
+        <v>6623</v>
+      </c>
+      <c r="V193">
+        <f t="shared" ref="V193" si="265">C193-D193-E193</f>
+        <v>20283</v>
+      </c>
+      <c r="W193" s="3">
+        <f t="shared" ref="W193" si="266">F193/V193</f>
+        <v>1.6269782576541932E-2</v>
+      </c>
+      <c r="X193">
+        <f t="shared" ref="X193" si="267">E193-E192</f>
+        <v>5</v>
+      </c>
+      <c r="Y193">
+        <v>484</v>
+      </c>
+      <c r="Z193">
+        <v>268</v>
+      </c>
+      <c r="AA193">
+        <v>4442</v>
+      </c>
+      <c r="AB193">
+        <v>289</v>
+      </c>
+      <c r="AC193">
+        <v>242</v>
+      </c>
+      <c r="AD193">
+        <v>3676</v>
+      </c>
+      <c r="AE193">
+        <v>7</v>
+      </c>
+      <c r="AF193">
+        <v>2</v>
+      </c>
+      <c r="AG193">
+        <v>88</v>
+      </c>
+      <c r="AH193">
+        <f t="shared" si="256"/>
+        <v>188</v>
+      </c>
+      <c r="AI193">
+        <f t="shared" si="257"/>
+        <v>24</v>
+      </c>
+      <c r="AJ193">
+        <f t="shared" si="258"/>
+        <v>678</v>
+      </c>
+      <c r="AK193">
+        <f t="shared" si="259"/>
+        <v>11</v>
+      </c>
+      <c r="AL193">
+        <v>20</v>
+      </c>
+      <c r="AM193">
+        <v>20</v>
+      </c>
+      <c r="AN193">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -19940,10 +20391,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5E6789-177F-4707-8258-EFFA27DED671}">
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103:H141"/>
+    <sheetView topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="G141" sqref="G141:H142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22975,6 +23426,28 @@
       <c r="H141" s="1">
         <f t="shared" si="5"/>
         <v>44123</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>1232531</v>
+      </c>
+      <c r="B142" t="s">
+        <v>205</v>
+      </c>
+      <c r="C142" s="1">
+        <v>44096</v>
+      </c>
+      <c r="D142" s="1">
+        <v>44186</v>
+      </c>
+      <c r="G142" s="1">
+        <f t="shared" ref="G142" si="6">C142+10</f>
+        <v>44106</v>
+      </c>
+      <c r="H142" s="1">
+        <f t="shared" ref="H142" si="7">C142+28</f>
+        <v>44124</v>
       </c>
     </row>
   </sheetData>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF451FBB-3A7D-4390-8F75-F713683AC80A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3D0BD5-EFDE-4E08-8D31-10EA2A383AE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1552,13 +1552,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AT193"/>
+  <dimension ref="A1:AT200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD182" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AC178" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK192" sqref="AK192:AK193"/>
+      <selection pane="bottomRight" activeCell="AK196" sqref="AK196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14743,7 +14743,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <f t="shared" ref="A152:A193" si="49">A151+1</f>
+        <f t="shared" ref="A152:A196" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -19483,7 +19483,7 @@
         <v>7</v>
       </c>
       <c r="M187" s="7">
-        <f t="shared" ref="M187:M193" si="219">B187-C187</f>
+        <f t="shared" ref="M187:M196" si="219">B187-C187</f>
         <v>653112</v>
       </c>
       <c r="N187" s="4">
@@ -19987,7 +19987,7 @@
         <v>65</v>
       </c>
       <c r="AT190">
-        <f t="shared" ref="AT190:AT191" si="247">AH190-AS190</f>
+        <f t="shared" ref="AT190" si="247">AH190-AS190</f>
         <v>131</v>
       </c>
     </row>
@@ -20123,7 +20123,7 @@
         <v>64</v>
       </c>
       <c r="AT191">
-        <f t="shared" si="247"/>
+        <f t="shared" ref="AT191:AT194" si="260">AH191-AS191</f>
         <v>129</v>
       </c>
     </row>
@@ -20254,8 +20254,16 @@
       <c r="AN192">
         <v>66</v>
       </c>
-    </row>
-    <row r="193" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AS192">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A192)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A192)</f>
+        <v>71</v>
+      </c>
+      <c r="AT192">
+        <f t="shared" si="260"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="193" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <f t="shared" si="49"/>
         <v>44099</v>
@@ -20299,35 +20307,35 @@
         <v>0.11020178344616272</v>
       </c>
       <c r="Q193">
-        <f t="shared" ref="Q193" si="260">C193-C192</f>
+        <f t="shared" ref="Q193" si="261">C193-C192</f>
         <v>1062</v>
       </c>
       <c r="R193">
-        <f t="shared" ref="R193" si="261">M193-M192</f>
+        <f t="shared" ref="R193" si="262">M193-M192</f>
         <v>5561</v>
       </c>
       <c r="S193" s="8">
-        <f t="shared" ref="S193" si="262">Q193/U193</f>
+        <f t="shared" ref="S193" si="263">Q193/U193</f>
         <v>0.16035029442850671</v>
       </c>
       <c r="T193" s="8">
-        <f t="shared" ref="T193" si="263">SUM(Q187:Q193)/SUM(U187:U193)</f>
+        <f t="shared" ref="T193" si="264">SUM(Q187:Q193)/SUM(U187:U193)</f>
         <v>0.15977356149511451</v>
       </c>
       <c r="U193">
-        <f t="shared" ref="U193" si="264">B193-B192</f>
+        <f t="shared" ref="U193" si="265">B193-B192</f>
         <v>6623</v>
       </c>
       <c r="V193">
-        <f t="shared" ref="V193" si="265">C193-D193-E193</f>
+        <f t="shared" ref="V193" si="266">C193-D193-E193</f>
         <v>20283</v>
       </c>
       <c r="W193" s="3">
-        <f t="shared" ref="W193" si="266">F193/V193</f>
+        <f t="shared" ref="W193" si="267">F193/V193</f>
         <v>1.6269782576541932E-2</v>
       </c>
       <c r="X193">
-        <f t="shared" ref="X193" si="267">E193-E192</f>
+        <f t="shared" ref="X193" si="268">E193-E192</f>
         <v>5</v>
       </c>
       <c r="Y193">
@@ -20381,6 +20389,409 @@
       </c>
       <c r="AN193">
         <v>61</v>
+      </c>
+      <c r="AS193">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A193)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A193)</f>
+        <v>66</v>
+      </c>
+      <c r="AT193">
+        <f t="shared" si="260"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="194" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <f t="shared" si="49"/>
+        <v>44100</v>
+      </c>
+      <c r="B194">
+        <v>771755</v>
+      </c>
+      <c r="C194">
+        <v>85422</v>
+      </c>
+      <c r="D194">
+        <v>65442</v>
+      </c>
+      <c r="E194">
+        <v>1311</v>
+      </c>
+      <c r="F194">
+        <v>334</v>
+      </c>
+      <c r="H194">
+        <v>84</v>
+      </c>
+      <c r="I194">
+        <v>57</v>
+      </c>
+      <c r="J194">
+        <v>85</v>
+      </c>
+      <c r="K194">
+        <v>20</v>
+      </c>
+      <c r="L194">
+        <v>12</v>
+      </c>
+      <c r="M194" s="7">
+        <f t="shared" si="219"/>
+        <v>686333</v>
+      </c>
+      <c r="N194" s="4">
+        <f t="shared" ref="N194:N196" si="269">C194/B194</f>
+        <v>0.11068538590614897</v>
+      </c>
+      <c r="Q194">
+        <f t="shared" ref="Q194" si="270">C194-C193</f>
+        <v>1262</v>
+      </c>
+      <c r="R194">
+        <f t="shared" ref="R194" si="271">M194-M193</f>
+        <v>6803</v>
+      </c>
+      <c r="S194" s="8">
+        <f t="shared" ref="S194" si="272">Q194/U194</f>
+        <v>0.15647861128332299</v>
+      </c>
+      <c r="T194" s="8">
+        <f t="shared" ref="T194" si="273">SUM(Q188:Q194)/SUM(U188:U194)</f>
+        <v>0.16044983573414204</v>
+      </c>
+      <c r="U194">
+        <f t="shared" ref="U194" si="274">B194-B193</f>
+        <v>8065</v>
+      </c>
+      <c r="V194">
+        <f t="shared" ref="V194" si="275">C194-D194-E194</f>
+        <v>18669</v>
+      </c>
+      <c r="W194" s="3">
+        <f t="shared" ref="W194" si="276">F194/V194</f>
+        <v>1.7890620815255234E-2</v>
+      </c>
+      <c r="X194">
+        <f t="shared" ref="X194" si="277">E194-E193</f>
+        <v>8</v>
+      </c>
+      <c r="Y194">
+        <v>491</v>
+      </c>
+      <c r="Z194">
+        <v>270</v>
+      </c>
+      <c r="AA194">
+        <v>4482</v>
+      </c>
+      <c r="AB194">
+        <v>312</v>
+      </c>
+      <c r="AC194">
+        <v>249</v>
+      </c>
+      <c r="AD194">
+        <v>3718</v>
+      </c>
+      <c r="AE194">
+        <v>7</v>
+      </c>
+      <c r="AF194">
+        <v>2</v>
+      </c>
+      <c r="AG194">
+        <v>90</v>
+      </c>
+      <c r="AH194">
+        <f t="shared" ref="AH194" si="278">Y194-AB194-AE194</f>
+        <v>172</v>
+      </c>
+      <c r="AI194">
+        <f t="shared" ref="AI194" si="279">Z194-AC194-AF194</f>
+        <v>19</v>
+      </c>
+      <c r="AJ194">
+        <f t="shared" ref="AJ194" si="280">AA194-AD194-AG194</f>
+        <v>674</v>
+      </c>
+      <c r="AK194">
+        <f t="shared" ref="AK194" si="281">-(J194-J193)+L194</f>
+        <v>8</v>
+      </c>
+      <c r="AL194">
+        <v>13</v>
+      </c>
+      <c r="AM194">
+        <v>13</v>
+      </c>
+      <c r="AN194">
+        <v>55</v>
+      </c>
+      <c r="AS194">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A194)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A194)</f>
+        <v>69</v>
+      </c>
+      <c r="AT194">
+        <f t="shared" si="260"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="195" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <f t="shared" si="49"/>
+        <v>44101</v>
+      </c>
+      <c r="B195">
+        <v>777570</v>
+      </c>
+      <c r="C195">
+        <v>86191</v>
+      </c>
+      <c r="D195">
+        <v>65767</v>
+      </c>
+      <c r="E195">
+        <v>1314</v>
+      </c>
+      <c r="F195">
+        <v>343</v>
+      </c>
+      <c r="H195">
+        <v>89</v>
+      </c>
+      <c r="I195">
+        <v>57</v>
+      </c>
+      <c r="J195">
+        <v>90</v>
+      </c>
+      <c r="K195">
+        <v>23</v>
+      </c>
+      <c r="L195">
+        <v>19</v>
+      </c>
+      <c r="M195" s="7">
+        <f t="shared" si="219"/>
+        <v>691379</v>
+      </c>
+      <c r="N195" s="4">
+        <f t="shared" si="269"/>
+        <v>0.11084661188060239</v>
+      </c>
+      <c r="Q195">
+        <f t="shared" ref="Q195" si="282">C195-C194</f>
+        <v>769</v>
+      </c>
+      <c r="R195">
+        <f t="shared" ref="R195" si="283">M195-M194</f>
+        <v>5046</v>
+      </c>
+      <c r="S195" s="8">
+        <f t="shared" ref="S195" si="284">Q195/U195</f>
+        <v>0.13224419604471196</v>
+      </c>
+      <c r="T195" s="8">
+        <f t="shared" ref="T195" si="285">SUM(Q189:Q195)/SUM(U189:U195)</f>
+        <v>0.15614659897451441</v>
+      </c>
+      <c r="U195">
+        <f t="shared" ref="U195" si="286">B195-B194</f>
+        <v>5815</v>
+      </c>
+      <c r="V195">
+        <f t="shared" ref="V195:V196" si="287">C195-D195-E195</f>
+        <v>19110</v>
+      </c>
+      <c r="W195" s="3">
+        <f t="shared" ref="W195:W196" si="288">F195/V195</f>
+        <v>1.7948717948717947E-2</v>
+      </c>
+      <c r="X195">
+        <f t="shared" ref="X195" si="289">E195-E194</f>
+        <v>3</v>
+      </c>
+      <c r="Y195">
+        <v>494</v>
+      </c>
+      <c r="Z195">
+        <v>271</v>
+      </c>
+      <c r="AA195">
+        <v>4495</v>
+      </c>
+      <c r="AB195">
+        <v>315</v>
+      </c>
+      <c r="AC195">
+        <v>250</v>
+      </c>
+      <c r="AD195">
+        <v>3723</v>
+      </c>
+      <c r="AE195">
+        <v>7</v>
+      </c>
+      <c r="AF195">
+        <v>2</v>
+      </c>
+      <c r="AG195">
+        <v>90</v>
+      </c>
+      <c r="AH195">
+        <f t="shared" ref="AH195" si="290">Y195-AB195-AE195</f>
+        <v>172</v>
+      </c>
+      <c r="AI195">
+        <f t="shared" ref="AI195" si="291">Z195-AC195-AF195</f>
+        <v>19</v>
+      </c>
+      <c r="AJ195">
+        <f t="shared" ref="AJ195" si="292">AA195-AD195-AG195</f>
+        <v>682</v>
+      </c>
+      <c r="AK195">
+        <f t="shared" ref="AK195" si="293">-(J195-J194)+L195</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <f t="shared" si="49"/>
+        <v>44102</v>
+      </c>
+      <c r="B196">
+        <v>785124</v>
+      </c>
+      <c r="C196">
+        <v>86661</v>
+      </c>
+      <c r="D196">
+        <v>66162</v>
+      </c>
+      <c r="E196">
+        <v>1316</v>
+      </c>
+      <c r="F196">
+        <v>353</v>
+      </c>
+      <c r="H196">
+        <v>96</v>
+      </c>
+      <c r="I196">
+        <v>51</v>
+      </c>
+      <c r="J196">
+        <v>88</v>
+      </c>
+      <c r="K196">
+        <v>23</v>
+      </c>
+      <c r="L196">
+        <v>11</v>
+      </c>
+      <c r="M196" s="7">
+        <f t="shared" si="219"/>
+        <v>698463</v>
+      </c>
+      <c r="N196" s="4">
+        <f t="shared" si="269"/>
+        <v>0.11037874272089504</v>
+      </c>
+      <c r="Q196">
+        <f t="shared" ref="Q196" si="294">C196-C195</f>
+        <v>470</v>
+      </c>
+      <c r="R196">
+        <f t="shared" ref="R196" si="295">M196-M195</f>
+        <v>7084</v>
+      </c>
+      <c r="S196" s="8">
+        <f t="shared" ref="S196" si="296">Q196/U196</f>
+        <v>6.2218692083664283E-2</v>
+      </c>
+      <c r="T196" s="8">
+        <f t="shared" ref="T196" si="297">SUM(Q190:Q196)/SUM(U190:U196)</f>
+        <v>0.13910814275113001</v>
+      </c>
+      <c r="U196">
+        <f t="shared" ref="U196" si="298">B196-B195</f>
+        <v>7554</v>
+      </c>
+      <c r="V196">
+        <f t="shared" ref="V196" si="299">C196-D196-E196</f>
+        <v>19183</v>
+      </c>
+      <c r="W196" s="3">
+        <f t="shared" ref="W196" si="300">F196/V196</f>
+        <v>1.8401709847260594E-2</v>
+      </c>
+      <c r="X196">
+        <f t="shared" ref="X196" si="301">E196-E195</f>
+        <v>2</v>
+      </c>
+      <c r="Y196">
+        <v>495</v>
+      </c>
+      <c r="Z196">
+        <v>271</v>
+      </c>
+      <c r="AA196">
+        <v>4503</v>
+      </c>
+      <c r="AB196">
+        <v>316</v>
+      </c>
+      <c r="AC196">
+        <v>252</v>
+      </c>
+      <c r="AD196">
+        <v>3734</v>
+      </c>
+      <c r="AE196">
+        <v>7</v>
+      </c>
+      <c r="AF196">
+        <v>2</v>
+      </c>
+      <c r="AG196">
+        <v>90</v>
+      </c>
+      <c r="AH196">
+        <f t="shared" ref="AH196" si="302">Y196-AB196-AE196</f>
+        <v>172</v>
+      </c>
+      <c r="AI196">
+        <f t="shared" ref="AI196" si="303">Z196-AC196-AF196</f>
+        <v>17</v>
+      </c>
+      <c r="AJ196">
+        <f t="shared" ref="AJ196" si="304">AA196-AD196-AG196</f>
+        <v>679</v>
+      </c>
+      <c r="AK196">
+        <f t="shared" ref="AK196" si="305">-(J196-J195)+L196</f>
+        <v>13</v>
+      </c>
+      <c r="AL196">
+        <v>8</v>
+      </c>
+      <c r="AM196">
+        <v>8</v>
+      </c>
+      <c r="AN196">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="199" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="E199">
+        <f>MAX(F:F)</f>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="200" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="E200" s="1">
+        <f>INDEX(A:A,MATCH(E199,F:F,0))</f>
+        <v>43958</v>
       </c>
     </row>
   </sheetData>
@@ -20393,8 +20804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5E6789-177F-4707-8258-EFFA27DED671}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="G141" sqref="G141:H142"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3D0BD5-EFDE-4E08-8D31-10EA2A383AE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D3CA1F-086F-46C5-BDB2-9F2277FC98A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -648,8 +648,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1174,7 +1175,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1195,6 +1196,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1555,22 +1557,23 @@
   <dimension ref="A1:AT200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC178" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B190" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK196" sqref="AK196"/>
+      <selection pane="bottomRight" activeCell="A198" sqref="A198:XFD206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1710,7 +1713,7 @@
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2" s="14">
         <v>43898</v>
       </c>
       <c r="C2">
@@ -1739,7 +1742,7 @@
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3" s="14">
         <v>43899</v>
       </c>
       <c r="C3">
@@ -1774,7 +1777,7 @@
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4" s="14">
         <v>43900</v>
       </c>
       <c r="B4">
@@ -1812,7 +1815,7 @@
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5" s="14">
         <v>43901</v>
       </c>
       <c r="B5">
@@ -1853,7 +1856,7 @@
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6" s="14">
         <v>43903</v>
       </c>
       <c r="C6">
@@ -1888,7 +1891,7 @@
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7" s="14">
         <v>43904</v>
       </c>
       <c r="C7">
@@ -1923,7 +1926,7 @@
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8" s="14">
         <v>43908</v>
       </c>
       <c r="C8">
@@ -1962,7 +1965,7 @@
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9" s="14">
         <v>43909</v>
       </c>
       <c r="B9">
@@ -2004,7 +2007,7 @@
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10" s="14">
         <v>43913</v>
       </c>
       <c r="B10">
@@ -2053,7 +2056,7 @@
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11" s="14">
         <v>43914</v>
       </c>
       <c r="C11" t="s">
@@ -2089,7 +2092,7 @@
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12" s="14">
         <v>43917</v>
       </c>
       <c r="B12">
@@ -2128,7 +2131,7 @@
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13" s="14">
         <v>43918</v>
       </c>
       <c r="B13">
@@ -2180,7 +2183,7 @@
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="A14" s="14">
         <v>43919</v>
       </c>
       <c r="B14">
@@ -2244,7 +2247,7 @@
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="A15" s="14">
         <v>43920</v>
       </c>
       <c r="B15">
@@ -2308,7 +2311,7 @@
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="A16" s="14">
         <v>43921</v>
       </c>
       <c r="B16">
@@ -2378,7 +2381,7 @@
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="A17" s="14">
         <v>43922</v>
       </c>
       <c r="B17">
@@ -2448,7 +2451,7 @@
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="A18" s="14">
         <v>43923</v>
       </c>
       <c r="B18">
@@ -2509,7 +2512,7 @@
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="A19" s="14">
         <v>43924</v>
       </c>
       <c r="B19">
@@ -2576,7 +2579,7 @@
       </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="A20" s="14">
         <v>43925</v>
       </c>
       <c r="B20">
@@ -2649,7 +2652,7 @@
       </c>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="A21" s="14">
         <v>43926</v>
       </c>
       <c r="B21">
@@ -2722,7 +2725,7 @@
       </c>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+      <c r="A22" s="14">
         <v>43927</v>
       </c>
       <c r="B22">
@@ -2795,7 +2798,7 @@
       </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+      <c r="A23" s="14">
         <v>43928</v>
       </c>
       <c r="B23">
@@ -2868,7 +2871,7 @@
       </c>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="A24" s="14">
         <v>43929</v>
       </c>
       <c r="B24">
@@ -2935,7 +2938,7 @@
       </c>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="A25" s="14">
         <v>43930</v>
       </c>
       <c r="B25">
@@ -2996,7 +2999,7 @@
       </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+      <c r="A26" s="14">
         <v>43931</v>
       </c>
       <c r="B26">
@@ -3063,7 +3066,7 @@
       </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+      <c r="A27" s="14">
         <v>43932</v>
       </c>
       <c r="B27">
@@ -3136,7 +3139,7 @@
       </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+      <c r="A28" s="14">
         <v>43933</v>
       </c>
       <c r="B28">
@@ -3209,7 +3212,7 @@
       </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+      <c r="A29" s="14">
         <v>43934</v>
       </c>
       <c r="B29">
@@ -3282,7 +3285,7 @@
       </c>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+      <c r="A30" s="14">
         <v>43935</v>
       </c>
       <c r="B30">
@@ -3355,7 +3358,7 @@
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+      <c r="A31" s="14">
         <v>43936</v>
       </c>
       <c r="B31">
@@ -3428,7 +3431,7 @@
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+      <c r="A32" s="14">
         <v>43937</v>
       </c>
       <c r="B32">
@@ -3498,7 +3501,7 @@
       </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+      <c r="A33" s="14">
         <v>43938</v>
       </c>
       <c r="B33">
@@ -3568,7 +3571,7 @@
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+      <c r="A34" s="14">
         <v>43939</v>
       </c>
       <c r="B34">
@@ -3641,7 +3644,7 @@
       </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="A35" s="14">
         <v>43940</v>
       </c>
       <c r="B35">
@@ -3714,7 +3717,7 @@
       </c>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+      <c r="A36" s="14">
         <v>43941</v>
       </c>
       <c r="B36">
@@ -3787,7 +3790,7 @@
       </c>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="A37" s="14">
         <v>43942</v>
       </c>
       <c r="B37">
@@ -3860,7 +3863,7 @@
       </c>
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+      <c r="A38" s="14">
         <v>43943</v>
       </c>
       <c r="B38">
@@ -3933,7 +3936,7 @@
       </c>
     </row>
     <row r="39" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+      <c r="A39" s="14">
         <v>43944</v>
       </c>
       <c r="B39">
@@ -4006,7 +4009,7 @@
       </c>
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+      <c r="A40" s="14">
         <v>43945</v>
       </c>
       <c r="B40">
@@ -4076,7 +4079,7 @@
       </c>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+      <c r="A41" s="14">
         <v>43946</v>
       </c>
       <c r="B41">
@@ -4149,7 +4152,7 @@
       </c>
     </row>
     <row r="42" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+      <c r="A42" s="14">
         <v>43947</v>
       </c>
       <c r="B42">
@@ -4222,7 +4225,7 @@
       </c>
     </row>
     <row r="43" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+      <c r="A43" s="14">
         <v>43948</v>
       </c>
       <c r="B43">
@@ -4295,7 +4298,7 @@
       </c>
     </row>
     <row r="44" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+      <c r="A44" s="14">
         <v>43949</v>
       </c>
       <c r="B44">
@@ -4368,7 +4371,7 @@
       </c>
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+      <c r="A45" s="14">
         <v>43950</v>
       </c>
       <c r="B45">
@@ -4441,7 +4444,7 @@
       </c>
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+      <c r="A46" s="14">
         <v>43951</v>
       </c>
       <c r="B46">
@@ -4514,7 +4517,7 @@
       </c>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+      <c r="A47" s="14">
         <v>43952</v>
       </c>
       <c r="B47">
@@ -4587,7 +4590,7 @@
       </c>
     </row>
     <row r="48" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+      <c r="A48" s="14">
         <v>43953</v>
       </c>
       <c r="B48">
@@ -4660,7 +4663,7 @@
       </c>
     </row>
     <row r="49" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+      <c r="A49" s="14">
         <v>43954</v>
       </c>
       <c r="B49">
@@ -4733,7 +4736,7 @@
       </c>
     </row>
     <row r="50" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+      <c r="A50" s="14">
         <v>43955</v>
       </c>
       <c r="B50">
@@ -4806,7 +4809,7 @@
       </c>
     </row>
     <row r="51" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+      <c r="A51" s="14">
         <v>43956</v>
       </c>
       <c r="B51">
@@ -4879,7 +4882,7 @@
       </c>
     </row>
     <row r="52" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+      <c r="A52" s="14">
         <v>43957</v>
       </c>
       <c r="B52">
@@ -4952,7 +4955,7 @@
       </c>
     </row>
     <row r="53" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+      <c r="A53" s="14">
         <v>43958</v>
       </c>
       <c r="B53">
@@ -5025,7 +5028,7 @@
       </c>
     </row>
     <row r="54" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+      <c r="A54" s="14">
         <v>43959</v>
       </c>
       <c r="B54">
@@ -5098,7 +5101,7 @@
       </c>
     </row>
     <row r="55" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+      <c r="A55" s="14">
         <v>43960</v>
       </c>
       <c r="B55">
@@ -5171,7 +5174,7 @@
       </c>
     </row>
     <row r="56" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+      <c r="A56" s="14">
         <v>43961</v>
       </c>
       <c r="B56">
@@ -5244,7 +5247,7 @@
       </c>
     </row>
     <row r="57" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+      <c r="A57" s="14">
         <v>43962</v>
       </c>
       <c r="B57">
@@ -5317,7 +5320,7 @@
       </c>
     </row>
     <row r="58" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+      <c r="A58" s="14">
         <v>43963</v>
       </c>
       <c r="B58">
@@ -5390,7 +5393,7 @@
       </c>
     </row>
     <row r="59" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+      <c r="A59" s="14">
         <v>43964</v>
       </c>
       <c r="B59">
@@ -5463,7 +5466,7 @@
       </c>
     </row>
     <row r="60" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+      <c r="A60" s="14">
         <v>43965</v>
       </c>
       <c r="B60">
@@ -5536,7 +5539,7 @@
       </c>
     </row>
     <row r="61" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+      <c r="A61" s="14">
         <v>43966</v>
       </c>
       <c r="B61">
@@ -5609,7 +5612,7 @@
       </c>
     </row>
     <row r="62" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+      <c r="A62" s="14">
         <v>43967</v>
       </c>
       <c r="B62">
@@ -5682,7 +5685,7 @@
       </c>
     </row>
     <row r="63" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+      <c r="A63" s="14">
         <v>43968</v>
       </c>
       <c r="B63">
@@ -5755,7 +5758,7 @@
       </c>
     </row>
     <row r="64" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+      <c r="A64" s="14">
         <v>43969</v>
       </c>
       <c r="B64">
@@ -5828,7 +5831,7 @@
       </c>
     </row>
     <row r="65" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+      <c r="A65" s="14">
         <v>43970</v>
       </c>
       <c r="B65">
@@ -5901,7 +5904,7 @@
       </c>
     </row>
     <row r="66" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+      <c r="A66" s="14">
         <v>43971</v>
       </c>
       <c r="B66">
@@ -5974,7 +5977,7 @@
       </c>
     </row>
     <row r="67" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
+      <c r="A67" s="14">
         <v>43972</v>
       </c>
       <c r="B67">
@@ -6047,7 +6050,7 @@
       </c>
     </row>
     <row r="68" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
+      <c r="A68" s="14">
         <v>43973</v>
       </c>
       <c r="B68">
@@ -6120,7 +6123,7 @@
       </c>
     </row>
     <row r="69" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+      <c r="A69" s="14">
         <v>43974</v>
       </c>
       <c r="B69">
@@ -6193,7 +6196,7 @@
       </c>
     </row>
     <row r="70" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
+      <c r="A70" s="14">
         <f>A69+1</f>
         <v>43975</v>
       </c>
@@ -6273,7 +6276,7 @@
       </c>
     </row>
     <row r="71" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
+      <c r="A71" s="14">
         <f t="shared" ref="A71:A76" si="6">A70+1</f>
         <v>43976</v>
       </c>
@@ -6357,7 +6360,7 @@
       </c>
     </row>
     <row r="72" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
+      <c r="A72" s="14">
         <f t="shared" si="6"/>
         <v>43977</v>
       </c>
@@ -6441,7 +6444,7 @@
       </c>
     </row>
     <row r="73" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+      <c r="A73" s="14">
         <f t="shared" si="6"/>
         <v>43978</v>
       </c>
@@ -6525,7 +6528,7 @@
       </c>
     </row>
     <row r="74" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
+      <c r="A74" s="14">
         <f t="shared" si="6"/>
         <v>43979</v>
       </c>
@@ -6609,7 +6612,7 @@
       </c>
     </row>
     <row r="75" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+      <c r="A75" s="14">
         <f t="shared" si="6"/>
         <v>43980</v>
       </c>
@@ -6706,7 +6709,7 @@
       </c>
     </row>
     <row r="76" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+      <c r="A76" s="14">
         <f t="shared" si="6"/>
         <v>43981</v>
       </c>
@@ -6803,7 +6806,7 @@
       </c>
     </row>
     <row r="77" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
+      <c r="A77" s="14">
         <v>43983</v>
       </c>
       <c r="B77">
@@ -6898,7 +6901,7 @@
       </c>
     </row>
     <row r="78" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+      <c r="A78" s="14">
         <f t="shared" ref="A78:A151" si="14">A77+1</f>
         <v>43984</v>
       </c>
@@ -6991,7 +6994,7 @@
       </c>
     </row>
     <row r="79" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+      <c r="A79" s="14">
         <f t="shared" si="14"/>
         <v>43985</v>
       </c>
@@ -7086,7 +7089,7 @@
       </c>
     </row>
     <row r="80" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
+      <c r="A80" s="14">
         <f t="shared" si="14"/>
         <v>43986</v>
       </c>
@@ -7179,7 +7182,7 @@
       </c>
     </row>
     <row r="81" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+      <c r="A81" s="14">
         <f t="shared" si="14"/>
         <v>43987</v>
       </c>
@@ -7272,7 +7275,7 @@
       </c>
     </row>
     <row r="82" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
+      <c r="A82" s="14">
         <f t="shared" si="14"/>
         <v>43988</v>
       </c>
@@ -7365,7 +7368,7 @@
       </c>
     </row>
     <row r="83" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
+      <c r="A83" s="14">
         <f t="shared" si="14"/>
         <v>43989</v>
       </c>
@@ -7458,7 +7461,7 @@
       </c>
     </row>
     <row r="84" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
+      <c r="A84" s="14">
         <f t="shared" si="14"/>
         <v>43990</v>
       </c>
@@ -7551,7 +7554,7 @@
       </c>
     </row>
     <row r="85" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
+      <c r="A85" s="14">
         <f t="shared" si="14"/>
         <v>43991</v>
       </c>
@@ -7644,7 +7647,7 @@
       </c>
     </row>
     <row r="86" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
+      <c r="A86" s="14">
         <f t="shared" si="14"/>
         <v>43992</v>
       </c>
@@ -7737,7 +7740,7 @@
       </c>
     </row>
     <row r="87" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
+      <c r="A87" s="14">
         <f t="shared" si="14"/>
         <v>43993</v>
       </c>
@@ -7830,7 +7833,7 @@
       </c>
     </row>
     <row r="88" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
+      <c r="A88" s="14">
         <f t="shared" si="14"/>
         <v>43994</v>
       </c>
@@ -7923,7 +7926,7 @@
       </c>
     </row>
     <row r="89" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="1">
+      <c r="A89" s="14">
         <f t="shared" si="14"/>
         <v>43995</v>
       </c>
@@ -8016,7 +8019,7 @@
       </c>
     </row>
     <row r="90" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="1">
+      <c r="A90" s="14">
         <f t="shared" si="14"/>
         <v>43996</v>
       </c>
@@ -8113,7 +8116,7 @@
       </c>
     </row>
     <row r="91" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
+      <c r="A91" s="14">
         <f t="shared" si="14"/>
         <v>43997</v>
       </c>
@@ -8206,7 +8209,7 @@
       </c>
     </row>
     <row r="92" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
+      <c r="A92" s="14">
         <f t="shared" si="14"/>
         <v>43998</v>
       </c>
@@ -8299,7 +8302,7 @@
       </c>
     </row>
     <row r="93" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
+      <c r="A93" s="14">
         <f t="shared" si="14"/>
         <v>43999</v>
       </c>
@@ -8392,7 +8395,7 @@
       </c>
     </row>
     <row r="94" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
+      <c r="A94" s="14">
         <f t="shared" si="14"/>
         <v>44000</v>
       </c>
@@ -8485,7 +8488,7 @@
       </c>
     </row>
     <row r="95" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
+      <c r="A95" s="14">
         <f t="shared" si="14"/>
         <v>44001</v>
       </c>
@@ -8578,7 +8581,7 @@
       </c>
     </row>
     <row r="96" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
+      <c r="A96" s="14">
         <f t="shared" si="14"/>
         <v>44002</v>
       </c>
@@ -8671,7 +8674,7 @@
       </c>
     </row>
     <row r="97" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
+      <c r="A97" s="14">
         <f t="shared" si="14"/>
         <v>44003</v>
       </c>
@@ -8764,7 +8767,7 @@
       </c>
     </row>
     <row r="98" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
+      <c r="A98" s="14">
         <f t="shared" si="14"/>
         <v>44004</v>
       </c>
@@ -8857,7 +8860,7 @@
       </c>
     </row>
     <row r="99" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
+      <c r="A99" s="14">
         <f t="shared" si="14"/>
         <v>44005</v>
       </c>
@@ -8950,7 +8953,7 @@
       </c>
     </row>
     <row r="100" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
+      <c r="A100" s="14">
         <f t="shared" si="14"/>
         <v>44006</v>
       </c>
@@ -9043,7 +9046,7 @@
       </c>
     </row>
     <row r="101" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
+      <c r="A101" s="14">
         <f t="shared" si="14"/>
         <v>44007</v>
       </c>
@@ -9136,7 +9139,7 @@
       </c>
     </row>
     <row r="102" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
+      <c r="A102" s="14">
         <f t="shared" si="14"/>
         <v>44008</v>
       </c>
@@ -9229,7 +9232,7 @@
       </c>
     </row>
     <row r="103" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
+      <c r="A103" s="14">
         <f t="shared" si="14"/>
         <v>44009</v>
       </c>
@@ -9322,7 +9325,7 @@
       </c>
     </row>
     <row r="104" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
+      <c r="A104" s="14">
         <f t="shared" si="14"/>
         <v>44010</v>
       </c>
@@ -9415,7 +9418,7 @@
       </c>
     </row>
     <row r="105" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
+      <c r="A105" s="14">
         <f t="shared" si="14"/>
         <v>44011</v>
       </c>
@@ -9508,7 +9511,7 @@
       </c>
     </row>
     <row r="106" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
+      <c r="A106" s="14">
         <f t="shared" si="14"/>
         <v>44012</v>
       </c>
@@ -9601,7 +9604,7 @@
       </c>
     </row>
     <row r="107" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
+      <c r="A107" s="14">
         <f t="shared" si="14"/>
         <v>44013</v>
       </c>
@@ -9700,7 +9703,7 @@
       </c>
     </row>
     <row r="108" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
+      <c r="A108" s="14">
         <f t="shared" si="14"/>
         <v>44014</v>
       </c>
@@ -9799,7 +9802,7 @@
       </c>
     </row>
     <row r="109" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
+      <c r="A109" s="14">
         <f t="shared" si="14"/>
         <v>44015</v>
       </c>
@@ -9890,7 +9893,7 @@
       </c>
     </row>
     <row r="110" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
+      <c r="A110" s="14">
         <f t="shared" si="14"/>
         <v>44016</v>
       </c>
@@ -9981,7 +9984,7 @@
       </c>
     </row>
     <row r="111" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
+      <c r="A111" s="14">
         <f t="shared" si="14"/>
         <v>44017</v>
       </c>
@@ -10072,7 +10075,7 @@
       </c>
     </row>
     <row r="112" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
+      <c r="A112" s="14">
         <f t="shared" si="14"/>
         <v>44018</v>
       </c>
@@ -10163,7 +10166,7 @@
       </c>
     </row>
     <row r="113" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
+      <c r="A113" s="14">
         <f t="shared" si="14"/>
         <v>44019</v>
       </c>
@@ -10254,7 +10257,7 @@
       </c>
     </row>
     <row r="114" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
+      <c r="A114" s="14">
         <f t="shared" si="14"/>
         <v>44020</v>
       </c>
@@ -10345,7 +10348,7 @@
       </c>
     </row>
     <row r="115" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A115" s="1">
+      <c r="A115" s="14">
         <f t="shared" si="14"/>
         <v>44021</v>
       </c>
@@ -10436,7 +10439,7 @@
       </c>
     </row>
     <row r="116" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A116" s="1">
+      <c r="A116" s="14">
         <f t="shared" si="14"/>
         <v>44022</v>
       </c>
@@ -10527,7 +10530,7 @@
       </c>
     </row>
     <row r="117" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A117" s="1">
+      <c r="A117" s="14">
         <f t="shared" si="14"/>
         <v>44023</v>
       </c>
@@ -10617,7 +10620,7 @@
       </c>
     </row>
     <row r="118" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A118" s="1">
+      <c r="A118" s="14">
         <f t="shared" si="14"/>
         <v>44024</v>
       </c>
@@ -10724,7 +10727,7 @@
       </c>
     </row>
     <row r="119" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A119" s="1">
+      <c r="A119" s="14">
         <f t="shared" si="14"/>
         <v>44025</v>
       </c>
@@ -10831,7 +10834,7 @@
       </c>
     </row>
     <row r="120" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A120" s="1">
+      <c r="A120" s="14">
         <f t="shared" si="14"/>
         <v>44026</v>
       </c>
@@ -10938,7 +10941,7 @@
       </c>
     </row>
     <row r="121" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A121" s="1">
+      <c r="A121" s="14">
         <f t="shared" si="14"/>
         <v>44027</v>
       </c>
@@ -11045,7 +11048,7 @@
       </c>
     </row>
     <row r="122" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A122" s="1">
+      <c r="A122" s="14">
         <f t="shared" si="14"/>
         <v>44028</v>
       </c>
@@ -11152,7 +11155,7 @@
       </c>
     </row>
     <row r="123" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A123" s="1">
+      <c r="A123" s="14">
         <f t="shared" si="14"/>
         <v>44029</v>
       </c>
@@ -11259,7 +11262,7 @@
       </c>
     </row>
     <row r="124" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A124" s="1">
+      <c r="A124" s="14">
         <f t="shared" si="14"/>
         <v>44030</v>
       </c>
@@ -11366,7 +11369,7 @@
       </c>
     </row>
     <row r="125" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A125" s="1">
+      <c r="A125" s="14">
         <f t="shared" si="14"/>
         <v>44031</v>
       </c>
@@ -11473,7 +11476,7 @@
       </c>
     </row>
     <row r="126" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A126" s="1">
+      <c r="A126" s="14">
         <f t="shared" si="14"/>
         <v>44032</v>
       </c>
@@ -11580,7 +11583,7 @@
       </c>
     </row>
     <row r="127" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A127" s="1">
+      <c r="A127" s="14">
         <f t="shared" si="14"/>
         <v>44033</v>
       </c>
@@ -11699,7 +11702,7 @@
       </c>
     </row>
     <row r="128" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A128" s="1">
+      <c r="A128" s="14">
         <f t="shared" si="14"/>
         <v>44034</v>
       </c>
@@ -11822,7 +11825,7 @@
       </c>
     </row>
     <row r="129" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A129" s="1">
+      <c r="A129" s="14">
         <f t="shared" si="14"/>
         <v>44035</v>
       </c>
@@ -11945,7 +11948,7 @@
       </c>
     </row>
     <row r="130" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A130" s="1">
+      <c r="A130" s="14">
         <f t="shared" si="14"/>
         <v>44036</v>
       </c>
@@ -12068,7 +12071,7 @@
       </c>
     </row>
     <row r="131" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A131" s="1">
+      <c r="A131" s="14">
         <f t="shared" si="14"/>
         <v>44037</v>
       </c>
@@ -12191,7 +12194,7 @@
       </c>
     </row>
     <row r="132" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A132" s="1">
+      <c r="A132" s="14">
         <f t="shared" si="14"/>
         <v>44038</v>
       </c>
@@ -12314,7 +12317,7 @@
       </c>
     </row>
     <row r="133" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A133" s="1">
+      <c r="A133" s="14">
         <f t="shared" si="14"/>
         <v>44039</v>
       </c>
@@ -12437,7 +12440,7 @@
       </c>
     </row>
     <row r="134" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A134" s="1">
+      <c r="A134" s="14">
         <f t="shared" si="14"/>
         <v>44040</v>
       </c>
@@ -12560,7 +12563,7 @@
       </c>
     </row>
     <row r="135" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A135" s="1">
+      <c r="A135" s="14">
         <f t="shared" si="14"/>
         <v>44041</v>
       </c>
@@ -12683,7 +12686,7 @@
       </c>
     </row>
     <row r="136" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A136" s="1">
+      <c r="A136" s="14">
         <f t="shared" si="14"/>
         <v>44042</v>
       </c>
@@ -12810,7 +12813,7 @@
       </c>
     </row>
     <row r="137" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A137" s="1">
+      <c r="A137" s="14">
         <f t="shared" si="14"/>
         <v>44043</v>
       </c>
@@ -12937,7 +12940,7 @@
       </c>
     </row>
     <row r="138" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A138" s="1">
+      <c r="A138" s="14">
         <f t="shared" si="14"/>
         <v>44044</v>
       </c>
@@ -13064,7 +13067,7 @@
       </c>
     </row>
     <row r="139" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A139" s="1">
+      <c r="A139" s="14">
         <f t="shared" si="14"/>
         <v>44045</v>
       </c>
@@ -13191,7 +13194,7 @@
       </c>
     </row>
     <row r="140" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A140" s="1">
+      <c r="A140" s="14">
         <f t="shared" si="14"/>
         <v>44046</v>
       </c>
@@ -13318,7 +13321,7 @@
       </c>
     </row>
     <row r="141" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A141" s="1">
+      <c r="A141" s="14">
         <f t="shared" si="14"/>
         <v>44047</v>
       </c>
@@ -13445,7 +13448,7 @@
       </c>
     </row>
     <row r="142" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A142" s="1">
+      <c r="A142" s="14">
         <f t="shared" si="14"/>
         <v>44048</v>
       </c>
@@ -13572,7 +13575,7 @@
       </c>
     </row>
     <row r="143" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A143" s="1">
+      <c r="A143" s="14">
         <f t="shared" si="14"/>
         <v>44049</v>
       </c>
@@ -13699,7 +13702,7 @@
       </c>
     </row>
     <row r="144" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A144" s="1">
+      <c r="A144" s="14">
         <f t="shared" si="14"/>
         <v>44050</v>
       </c>
@@ -13826,7 +13829,7 @@
       </c>
     </row>
     <row r="145" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A145" s="1">
+      <c r="A145" s="14">
         <f t="shared" si="14"/>
         <v>44051</v>
       </c>
@@ -13953,7 +13956,7 @@
       </c>
     </row>
     <row r="146" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A146" s="1">
+      <c r="A146" s="14">
         <f t="shared" si="14"/>
         <v>44052</v>
       </c>
@@ -14080,7 +14083,7 @@
       </c>
     </row>
     <row r="147" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A147" s="1">
+      <c r="A147" s="14">
         <f t="shared" si="14"/>
         <v>44053</v>
       </c>
@@ -14207,7 +14210,7 @@
       </c>
     </row>
     <row r="148" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A148" s="1">
+      <c r="A148" s="14">
         <f t="shared" si="14"/>
         <v>44054</v>
       </c>
@@ -14343,7 +14346,7 @@
       </c>
     </row>
     <row r="149" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A149" s="1">
+      <c r="A149" s="14">
         <f t="shared" si="14"/>
         <v>44055</v>
       </c>
@@ -14479,7 +14482,7 @@
       </c>
     </row>
     <row r="150" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A150" s="1">
+      <c r="A150" s="14">
         <f t="shared" si="14"/>
         <v>44056</v>
       </c>
@@ -14606,7 +14609,7 @@
       </c>
     </row>
     <row r="151" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A151" s="1">
+      <c r="A151" s="14">
         <f t="shared" si="14"/>
         <v>44057</v>
       </c>
@@ -14742,8 +14745,8 @@
       </c>
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A152" s="1">
-        <f t="shared" ref="A152:A196" si="49">A151+1</f>
+      <c r="A152" s="14">
+        <f t="shared" ref="A152:A197" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -14878,7 +14881,7 @@
       </c>
     </row>
     <row r="153" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A153" s="1">
+      <c r="A153" s="14">
         <f t="shared" si="49"/>
         <v>44059</v>
       </c>
@@ -15005,7 +15008,7 @@
       </c>
     </row>
     <row r="154" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A154" s="1">
+      <c r="A154" s="14">
         <f t="shared" si="49"/>
         <v>44060</v>
       </c>
@@ -15141,7 +15144,7 @@
       </c>
     </row>
     <row r="155" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A155" s="1">
+      <c r="A155" s="14">
         <f t="shared" si="49"/>
         <v>44061</v>
       </c>
@@ -15268,7 +15271,7 @@
       </c>
     </row>
     <row r="156" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A156" s="1">
+      <c r="A156" s="14">
         <f t="shared" si="49"/>
         <v>44062</v>
       </c>
@@ -15404,7 +15407,7 @@
       </c>
     </row>
     <row r="157" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A157" s="1">
+      <c r="A157" s="14">
         <f t="shared" si="49"/>
         <v>44063</v>
       </c>
@@ -15540,7 +15543,7 @@
       </c>
     </row>
     <row r="158" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A158" s="1">
+      <c r="A158" s="14">
         <f t="shared" si="49"/>
         <v>44064</v>
       </c>
@@ -15676,7 +15679,7 @@
       </c>
     </row>
     <row r="159" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A159" s="1">
+      <c r="A159" s="14">
         <f t="shared" si="49"/>
         <v>44065</v>
       </c>
@@ -15812,7 +15815,7 @@
       </c>
     </row>
     <row r="160" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A160" s="1">
+      <c r="A160" s="14">
         <f t="shared" si="49"/>
         <v>44066</v>
       </c>
@@ -15948,7 +15951,7 @@
       </c>
     </row>
     <row r="161" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A161" s="1">
+      <c r="A161" s="14">
         <f t="shared" si="49"/>
         <v>44067</v>
       </c>
@@ -16075,7 +16078,7 @@
       </c>
     </row>
     <row r="162" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A162" s="1">
+      <c r="A162" s="14">
         <f t="shared" si="49"/>
         <v>44068</v>
       </c>
@@ -16202,7 +16205,7 @@
       </c>
     </row>
     <row r="163" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A163" s="1">
+      <c r="A163" s="14">
         <f t="shared" si="49"/>
         <v>44069</v>
       </c>
@@ -16338,7 +16341,7 @@
       </c>
     </row>
     <row r="164" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A164" s="1">
+      <c r="A164" s="14">
         <f t="shared" si="49"/>
         <v>44070</v>
       </c>
@@ -16474,7 +16477,7 @@
       </c>
     </row>
     <row r="165" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A165" s="1">
+      <c r="A165" s="14">
         <f t="shared" si="49"/>
         <v>44071</v>
       </c>
@@ -16610,7 +16613,7 @@
       </c>
     </row>
     <row r="166" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A166" s="1">
+      <c r="A166" s="14">
         <f t="shared" si="49"/>
         <v>44072</v>
       </c>
@@ -16746,7 +16749,7 @@
       </c>
     </row>
     <row r="167" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A167" s="1">
+      <c r="A167" s="14">
         <f t="shared" si="49"/>
         <v>44073</v>
       </c>
@@ -16873,7 +16876,7 @@
       </c>
     </row>
     <row r="168" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A168" s="1">
+      <c r="A168" s="14">
         <f t="shared" si="49"/>
         <v>44074</v>
       </c>
@@ -17009,7 +17012,7 @@
       </c>
     </row>
     <row r="169" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A169" s="1">
+      <c r="A169" s="14">
         <f t="shared" si="49"/>
         <v>44075</v>
       </c>
@@ -17145,7 +17148,7 @@
       </c>
     </row>
     <row r="170" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A170" s="1">
+      <c r="A170" s="14">
         <f t="shared" si="49"/>
         <v>44076</v>
       </c>
@@ -17281,7 +17284,7 @@
       </c>
     </row>
     <row r="171" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A171" s="1">
+      <c r="A171" s="14">
         <f t="shared" si="49"/>
         <v>44077</v>
       </c>
@@ -17417,7 +17420,7 @@
       </c>
     </row>
     <row r="172" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A172" s="1">
+      <c r="A172" s="14">
         <f t="shared" si="49"/>
         <v>44078</v>
       </c>
@@ -17553,7 +17556,7 @@
       </c>
     </row>
     <row r="173" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A173" s="1">
+      <c r="A173" s="14">
         <f t="shared" si="49"/>
         <v>44079</v>
       </c>
@@ -17689,7 +17692,7 @@
       </c>
     </row>
     <row r="174" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A174" s="1">
+      <c r="A174" s="14">
         <f t="shared" si="49"/>
         <v>44080</v>
       </c>
@@ -17825,7 +17828,7 @@
       </c>
     </row>
     <row r="175" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A175" s="1">
+      <c r="A175" s="14">
         <f t="shared" si="49"/>
         <v>44081</v>
       </c>
@@ -17961,7 +17964,7 @@
       </c>
     </row>
     <row r="176" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A176" s="1">
+      <c r="A176" s="14">
         <f t="shared" si="49"/>
         <v>44082</v>
       </c>
@@ -18097,7 +18100,7 @@
       </c>
     </row>
     <row r="177" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A177" s="1">
+      <c r="A177" s="14">
         <f t="shared" si="49"/>
         <v>44083</v>
       </c>
@@ -18233,7 +18236,7 @@
       </c>
     </row>
     <row r="178" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A178" s="1">
+      <c r="A178" s="14">
         <f t="shared" si="49"/>
         <v>44084</v>
       </c>
@@ -18369,7 +18372,7 @@
       </c>
     </row>
     <row r="179" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A179" s="1">
+      <c r="A179" s="14">
         <f t="shared" si="49"/>
         <v>44085</v>
       </c>
@@ -18505,7 +18508,7 @@
       </c>
     </row>
     <row r="180" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A180" s="1">
+      <c r="A180" s="14">
         <f t="shared" si="49"/>
         <v>44086</v>
       </c>
@@ -18641,7 +18644,7 @@
       </c>
     </row>
     <row r="181" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A181" s="1">
+      <c r="A181" s="14">
         <f t="shared" si="49"/>
         <v>44087</v>
       </c>
@@ -18768,7 +18771,7 @@
       </c>
     </row>
     <row r="182" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A182" s="1">
+      <c r="A182" s="14">
         <f t="shared" si="49"/>
         <v>44088</v>
       </c>
@@ -18904,7 +18907,7 @@
       </c>
     </row>
     <row r="183" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A183" s="1">
+      <c r="A183" s="14">
         <f t="shared" si="49"/>
         <v>44089</v>
       </c>
@@ -19040,7 +19043,7 @@
       </c>
     </row>
     <row r="184" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A184" s="1">
+      <c r="A184" s="14">
         <f t="shared" si="49"/>
         <v>44090</v>
       </c>
@@ -19176,7 +19179,7 @@
       </c>
     </row>
     <row r="185" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A185" s="1">
+      <c r="A185" s="14">
         <f t="shared" si="49"/>
         <v>44091</v>
       </c>
@@ -19312,7 +19315,7 @@
       </c>
     </row>
     <row r="186" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A186" s="1">
+      <c r="A186" s="14">
         <f t="shared" si="49"/>
         <v>44092</v>
       </c>
@@ -19448,7 +19451,7 @@
       </c>
     </row>
     <row r="187" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A187" s="1">
+      <c r="A187" s="14">
         <f t="shared" si="49"/>
         <v>44093</v>
       </c>
@@ -19483,7 +19486,7 @@
         <v>7</v>
       </c>
       <c r="M187" s="7">
-        <f t="shared" ref="M187:M196" si="219">B187-C187</f>
+        <f t="shared" ref="M187:M197" si="219">B187-C187</f>
         <v>653112</v>
       </c>
       <c r="N187" s="4">
@@ -19584,7 +19587,7 @@
       </c>
     </row>
     <row r="188" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A188" s="1">
+      <c r="A188" s="14">
         <f t="shared" si="49"/>
         <v>44094</v>
       </c>
@@ -19720,7 +19723,7 @@
       </c>
     </row>
     <row r="189" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A189" s="1">
+      <c r="A189" s="14">
         <f t="shared" si="49"/>
         <v>44095</v>
       </c>
@@ -19856,7 +19859,7 @@
       </c>
     </row>
     <row r="190" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A190" s="1">
+      <c r="A190" s="14">
         <f t="shared" si="49"/>
         <v>44096</v>
       </c>
@@ -19992,7 +19995,7 @@
       </c>
     </row>
     <row r="191" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A191" s="1">
+      <c r="A191" s="14">
         <f t="shared" si="49"/>
         <v>44097</v>
       </c>
@@ -20128,7 +20131,7 @@
       </c>
     </row>
     <row r="192" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A192" s="1">
+      <c r="A192" s="14">
         <f t="shared" si="49"/>
         <v>44098</v>
       </c>
@@ -20264,7 +20267,7 @@
       </c>
     </row>
     <row r="193" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A193" s="1">
+      <c r="A193" s="14">
         <f t="shared" si="49"/>
         <v>44099</v>
       </c>
@@ -20400,7 +20403,7 @@
       </c>
     </row>
     <row r="194" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A194" s="1">
+      <c r="A194" s="14">
         <f t="shared" si="49"/>
         <v>44100</v>
       </c>
@@ -20439,7 +20442,7 @@
         <v>686333</v>
       </c>
       <c r="N194" s="4">
-        <f t="shared" ref="N194:N196" si="269">C194/B194</f>
+        <f t="shared" ref="N194:N197" si="269">C194/B194</f>
         <v>0.11068538590614897</v>
       </c>
       <c r="Q194">
@@ -20536,7 +20539,7 @@
       </c>
     </row>
     <row r="195" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A195" s="1">
+      <c r="A195" s="14">
         <f t="shared" si="49"/>
         <v>44101</v>
       </c>
@@ -20599,11 +20602,11 @@
         <v>5815</v>
       </c>
       <c r="V195">
-        <f t="shared" ref="V195:V196" si="287">C195-D195-E195</f>
+        <f t="shared" ref="V195" si="287">C195-D195-E195</f>
         <v>19110</v>
       </c>
       <c r="W195" s="3">
-        <f t="shared" ref="W195:W196" si="288">F195/V195</f>
+        <f t="shared" ref="W195" si="288">F195/V195</f>
         <v>1.7948717948717947E-2</v>
       </c>
       <c r="X195">
@@ -20655,7 +20658,7 @@
       </c>
     </row>
     <row r="196" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A196" s="1">
+      <c r="A196" s="14">
         <f t="shared" si="49"/>
         <v>44102</v>
       </c>
@@ -20782,17 +20785,84 @@
         <v>39</v>
       </c>
     </row>
-    <row r="199" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="E199">
-        <f>MAX(F:F)</f>
-        <v>417</v>
+    <row r="197" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A197" s="14">
+        <f t="shared" si="49"/>
+        <v>44103</v>
+      </c>
+      <c r="B197">
+        <v>789287</v>
+      </c>
+      <c r="C197">
+        <v>87304</v>
+      </c>
+      <c r="D197">
+        <v>67359</v>
+      </c>
+      <c r="E197">
+        <v>1324</v>
+      </c>
+      <c r="F197">
+        <v>376</v>
+      </c>
+      <c r="H197">
+        <v>97</v>
+      </c>
+      <c r="I197">
+        <v>59</v>
+      </c>
+      <c r="J197">
+        <v>87</v>
+      </c>
+      <c r="K197">
+        <v>23</v>
+      </c>
+      <c r="L197">
+        <v>11</v>
+      </c>
+      <c r="M197" s="7">
+        <f t="shared" si="219"/>
+        <v>701983</v>
+      </c>
+      <c r="N197" s="4">
+        <f t="shared" si="269"/>
+        <v>0.11061122253375515</v>
+      </c>
+      <c r="Q197">
+        <f t="shared" ref="Q197" si="306">C197-C196</f>
+        <v>643</v>
+      </c>
+      <c r="R197">
+        <f t="shared" ref="R197" si="307">M197-M196</f>
+        <v>3520</v>
+      </c>
+      <c r="S197" s="8">
+        <f t="shared" ref="S197" si="308">Q197/U197</f>
+        <v>0.1544559212106654</v>
+      </c>
+      <c r="T197" s="8">
+        <f t="shared" ref="T197" si="309">SUM(Q191:Q197)/SUM(U191:U197)</f>
+        <v>0.1394634813204545</v>
+      </c>
+      <c r="U197">
+        <f t="shared" ref="U197" si="310">B197-B196</f>
+        <v>4163</v>
+      </c>
+      <c r="V197">
+        <f t="shared" ref="V197" si="311">C197-D197-E197</f>
+        <v>18621</v>
+      </c>
+      <c r="W197" s="3">
+        <f t="shared" ref="W197" si="312">F197/V197</f>
+        <v>2.0192256054991677E-2</v>
+      </c>
+      <c r="X197">
+        <f t="shared" ref="X197" si="313">E197-E196</f>
+        <v>8</v>
       </c>
     </row>
     <row r="200" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="E200" s="1">
-        <f>INDEX(A:A,MATCH(E199,F:F,0))</f>
-        <v>43958</v>
-      </c>
+      <c r="E200" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D3CA1F-086F-46C5-BDB2-9F2277FC98A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93EC611-36C2-471F-8B9E-90DA7694C6D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,13 +18,14 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
     <sheet name="NewRecovered" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="208">
   <si>
     <t>date</t>
   </si>
@@ -642,6 +643,12 @@
   </si>
   <si>
     <t xml:space="preserve">Justin Henry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sam Joerger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claire Marsh </t>
   </si>
 </sst>
 </file>
@@ -1557,10 +1564,10 @@
   <dimension ref="A1:AT200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B190" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A198" sqref="A198:XFD206"/>
+      <selection pane="bottomRight" activeCell="AS197" sqref="AS197:AT198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14746,7 +14753,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="14">
-        <f t="shared" ref="A152:A197" si="49">A151+1</f>
+        <f t="shared" ref="A152:A198" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -19486,7 +19493,7 @@
         <v>7</v>
       </c>
       <c r="M187" s="7">
-        <f t="shared" ref="M187:M197" si="219">B187-C187</f>
+        <f t="shared" ref="M187:M198" si="219">B187-C187</f>
         <v>653112</v>
       </c>
       <c r="N187" s="4">
@@ -20442,7 +20449,7 @@
         <v>686333</v>
       </c>
       <c r="N194" s="4">
-        <f t="shared" ref="N194:N197" si="269">C194/B194</f>
+        <f t="shared" ref="N194:N198" si="269">C194/B194</f>
         <v>0.11068538590614897</v>
       </c>
       <c r="Q194">
@@ -20656,6 +20663,14 @@
         <f t="shared" ref="AK195" si="293">-(J195-J194)+L195</f>
         <v>14</v>
       </c>
+      <c r="AS195">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A195)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A195)</f>
+        <v>71</v>
+      </c>
+      <c r="AT195">
+        <f t="shared" ref="AT195:AT196" si="294">AH195-AS195</f>
+        <v>101</v>
+      </c>
     </row>
     <row r="196" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A196" s="14">
@@ -20701,35 +20716,35 @@
         <v>0.11037874272089504</v>
       </c>
       <c r="Q196">
-        <f t="shared" ref="Q196" si="294">C196-C195</f>
+        <f t="shared" ref="Q196" si="295">C196-C195</f>
         <v>470</v>
       </c>
       <c r="R196">
-        <f t="shared" ref="R196" si="295">M196-M195</f>
+        <f t="shared" ref="R196" si="296">M196-M195</f>
         <v>7084</v>
       </c>
       <c r="S196" s="8">
-        <f t="shared" ref="S196" si="296">Q196/U196</f>
+        <f t="shared" ref="S196" si="297">Q196/U196</f>
         <v>6.2218692083664283E-2</v>
       </c>
       <c r="T196" s="8">
-        <f t="shared" ref="T196" si="297">SUM(Q190:Q196)/SUM(U190:U196)</f>
+        <f t="shared" ref="T196" si="298">SUM(Q190:Q196)/SUM(U190:U196)</f>
         <v>0.13910814275113001</v>
       </c>
       <c r="U196">
-        <f t="shared" ref="U196" si="298">B196-B195</f>
+        <f t="shared" ref="U196" si="299">B196-B195</f>
         <v>7554</v>
       </c>
       <c r="V196">
-        <f t="shared" ref="V196" si="299">C196-D196-E196</f>
+        <f t="shared" ref="V196" si="300">C196-D196-E196</f>
         <v>19183</v>
       </c>
       <c r="W196" s="3">
-        <f t="shared" ref="W196" si="300">F196/V196</f>
+        <f t="shared" ref="W196" si="301">F196/V196</f>
         <v>1.8401709847260594E-2</v>
       </c>
       <c r="X196">
-        <f t="shared" ref="X196" si="301">E196-E195</f>
+        <f t="shared" ref="X196" si="302">E196-E195</f>
         <v>2</v>
       </c>
       <c r="Y196">
@@ -20760,19 +20775,19 @@
         <v>90</v>
       </c>
       <c r="AH196">
-        <f t="shared" ref="AH196" si="302">Y196-AB196-AE196</f>
+        <f t="shared" ref="AH196" si="303">Y196-AB196-AE196</f>
         <v>172</v>
       </c>
       <c r="AI196">
-        <f t="shared" ref="AI196" si="303">Z196-AC196-AF196</f>
+        <f t="shared" ref="AI196" si="304">Z196-AC196-AF196</f>
         <v>17</v>
       </c>
       <c r="AJ196">
-        <f t="shared" ref="AJ196" si="304">AA196-AD196-AG196</f>
+        <f t="shared" ref="AJ196" si="305">AA196-AD196-AG196</f>
         <v>679</v>
       </c>
       <c r="AK196">
-        <f t="shared" ref="AK196" si="305">-(J196-J195)+L196</f>
+        <f t="shared" ref="AK196" si="306">-(J196-J195)+L196</f>
         <v>13</v>
       </c>
       <c r="AL196">
@@ -20783,6 +20798,14 @@
       </c>
       <c r="AN196">
         <v>39</v>
+      </c>
+      <c r="AS196">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A196)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A196)</f>
+        <v>71</v>
+      </c>
+      <c r="AT196">
+        <f t="shared" si="294"/>
+        <v>101</v>
       </c>
     </row>
     <row r="197" spans="1:46" x14ac:dyDescent="0.35">
@@ -20829,36 +20852,232 @@
         <v>0.11061122253375515</v>
       </c>
       <c r="Q197">
-        <f t="shared" ref="Q197" si="306">C197-C196</f>
+        <f t="shared" ref="Q197" si="307">C197-C196</f>
         <v>643</v>
       </c>
       <c r="R197">
-        <f t="shared" ref="R197" si="307">M197-M196</f>
+        <f t="shared" ref="R197" si="308">M197-M196</f>
         <v>3520</v>
       </c>
       <c r="S197" s="8">
-        <f t="shared" ref="S197" si="308">Q197/U197</f>
+        <f t="shared" ref="S197" si="309">Q197/U197</f>
         <v>0.1544559212106654</v>
       </c>
       <c r="T197" s="8">
-        <f t="shared" ref="T197" si="309">SUM(Q191:Q197)/SUM(U191:U197)</f>
+        <f t="shared" ref="T197" si="310">SUM(Q191:Q197)/SUM(U191:U197)</f>
         <v>0.1394634813204545</v>
       </c>
       <c r="U197">
-        <f t="shared" ref="U197" si="310">B197-B196</f>
+        <f t="shared" ref="U197" si="311">B197-B196</f>
         <v>4163</v>
       </c>
       <c r="V197">
-        <f t="shared" ref="V197" si="311">C197-D197-E197</f>
+        <f t="shared" ref="V197:V198" si="312">C197-D197-E197</f>
         <v>18621</v>
       </c>
       <c r="W197" s="3">
-        <f t="shared" ref="W197" si="312">F197/V197</f>
+        <f t="shared" ref="W197:W198" si="313">F197/V197</f>
         <v>2.0192256054991677E-2</v>
       </c>
       <c r="X197">
-        <f t="shared" ref="X197" si="313">E197-E196</f>
+        <f t="shared" ref="X197" si="314">E197-E196</f>
         <v>8</v>
+      </c>
+      <c r="Y197">
+        <v>502</v>
+      </c>
+      <c r="Z197">
+        <v>276</v>
+      </c>
+      <c r="AA197">
+        <v>4510</v>
+      </c>
+      <c r="AB197">
+        <v>343</v>
+      </c>
+      <c r="AC197">
+        <v>253</v>
+      </c>
+      <c r="AD197">
+        <v>3775</v>
+      </c>
+      <c r="AE197">
+        <v>7</v>
+      </c>
+      <c r="AF197">
+        <v>2</v>
+      </c>
+      <c r="AG197">
+        <v>90</v>
+      </c>
+      <c r="AH197">
+        <f t="shared" ref="AH197" si="315">Y197-AB197-AE197</f>
+        <v>152</v>
+      </c>
+      <c r="AI197">
+        <f t="shared" ref="AI197" si="316">Z197-AC197-AF197</f>
+        <v>21</v>
+      </c>
+      <c r="AJ197">
+        <f t="shared" ref="AJ197" si="317">AA197-AD197-AG197</f>
+        <v>645</v>
+      </c>
+      <c r="AK197">
+        <f t="shared" ref="AK197" si="318">-(J197-J196)+L197</f>
+        <v>12</v>
+      </c>
+      <c r="AL197">
+        <v>7</v>
+      </c>
+      <c r="AM197">
+        <v>7</v>
+      </c>
+      <c r="AN197">
+        <v>34</v>
+      </c>
+      <c r="AS197">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A197)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A197)</f>
+        <v>68</v>
+      </c>
+      <c r="AT197">
+        <f t="shared" ref="AT197" si="319">AH197-AS197</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="198" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A198" s="14">
+        <f t="shared" si="49"/>
+        <v>44104</v>
+      </c>
+      <c r="B198">
+        <v>797138</v>
+      </c>
+      <c r="C198">
+        <v>88555</v>
+      </c>
+      <c r="D198">
+        <v>68365</v>
+      </c>
+      <c r="E198">
+        <v>1342</v>
+      </c>
+      <c r="F198">
+        <v>390</v>
+      </c>
+      <c r="H198">
+        <v>100</v>
+      </c>
+      <c r="I198">
+        <v>61</v>
+      </c>
+      <c r="J198">
+        <v>99</v>
+      </c>
+      <c r="K198">
+        <v>27</v>
+      </c>
+      <c r="L198">
+        <v>20</v>
+      </c>
+      <c r="M198" s="7">
+        <f t="shared" si="219"/>
+        <v>708583</v>
+      </c>
+      <c r="N198" s="4">
+        <f t="shared" ref="N198" si="320">C198/B198</f>
+        <v>0.11109117869176981</v>
+      </c>
+      <c r="Q198">
+        <f t="shared" ref="Q198" si="321">C198-C197</f>
+        <v>1251</v>
+      </c>
+      <c r="R198">
+        <f t="shared" ref="R198" si="322">M198-M197</f>
+        <v>6600</v>
+      </c>
+      <c r="S198" s="8">
+        <f t="shared" ref="S198" si="323">Q198/U198</f>
+        <v>0.15934275888421856</v>
+      </c>
+      <c r="T198" s="8">
+        <f t="shared" ref="T198" si="324">SUM(Q192:Q198)/SUM(U192:U198)</f>
+        <v>0.14380210992002723</v>
+      </c>
+      <c r="U198">
+        <f t="shared" ref="U198" si="325">B198-B197</f>
+        <v>7851</v>
+      </c>
+      <c r="V198">
+        <f t="shared" ref="V198" si="326">C198-D198-E198</f>
+        <v>18848</v>
+      </c>
+      <c r="W198" s="3">
+        <f t="shared" ref="W198" si="327">F198/V198</f>
+        <v>2.0691850594227505E-2</v>
+      </c>
+      <c r="X198">
+        <f t="shared" ref="X198" si="328">E198-E197</f>
+        <v>18</v>
+      </c>
+      <c r="Y198">
+        <v>508</v>
+      </c>
+      <c r="Z198">
+        <v>279</v>
+      </c>
+      <c r="AA198">
+        <v>4547</v>
+      </c>
+      <c r="AB198">
+        <v>356</v>
+      </c>
+      <c r="AC198">
+        <v>256</v>
+      </c>
+      <c r="AD198">
+        <v>3826</v>
+      </c>
+      <c r="AE198">
+        <v>7</v>
+      </c>
+      <c r="AF198">
+        <v>2</v>
+      </c>
+      <c r="AG198">
+        <v>92</v>
+      </c>
+      <c r="AH198">
+        <f t="shared" ref="AH198" si="329">Y198-AB198-AE198</f>
+        <v>145</v>
+      </c>
+      <c r="AI198">
+        <f t="shared" ref="AI198" si="330">Z198-AC198-AF198</f>
+        <v>21</v>
+      </c>
+      <c r="AJ198">
+        <f t="shared" ref="AJ198" si="331">AA198-AD198-AG198</f>
+        <v>629</v>
+      </c>
+      <c r="AK198">
+        <f t="shared" ref="AK198" si="332">-(J198-J197)+L198</f>
+        <v>8</v>
+      </c>
+      <c r="AL198">
+        <v>7</v>
+      </c>
+      <c r="AM198">
+        <v>7</v>
+      </c>
+      <c r="AN198">
+        <v>29</v>
+      </c>
+      <c r="AS198">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A198)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A198)</f>
+        <v>54</v>
+      </c>
+      <c r="AT198">
+        <f t="shared" ref="AT198" si="333">AH198-AS198</f>
+        <v>91</v>
       </c>
     </row>
     <row r="200" spans="1:46" x14ac:dyDescent="0.35">
@@ -20872,11 +21091,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5E6789-177F-4707-8258-EFFA27DED671}">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D143"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G142" sqref="G142:H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23930,6 +24149,50 @@
       <c r="H142" s="1">
         <f t="shared" ref="H142" si="7">C142+28</f>
         <v>44124</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>983622</v>
+      </c>
+      <c r="B143" t="s">
+        <v>206</v>
+      </c>
+      <c r="C143" s="1">
+        <v>44102</v>
+      </c>
+      <c r="D143" s="1">
+        <v>44192</v>
+      </c>
+      <c r="G143" s="1">
+        <f t="shared" ref="G143:G144" si="8">C143+10</f>
+        <v>44112</v>
+      </c>
+      <c r="H143" s="1">
+        <f t="shared" ref="H143:H144" si="9">C143+28</f>
+        <v>44130</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>1227911</v>
+      </c>
+      <c r="B144" t="s">
+        <v>207</v>
+      </c>
+      <c r="C144" s="1">
+        <v>44103</v>
+      </c>
+      <c r="D144" s="1">
+        <v>44193</v>
+      </c>
+      <c r="G144" s="1">
+        <f t="shared" si="8"/>
+        <v>44113</v>
+      </c>
+      <c r="H144" s="1">
+        <f t="shared" si="9"/>
+        <v>44131</v>
       </c>
     </row>
   </sheetData>
@@ -45646,4 +45909,2006 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5AAC3F-AAA6-40BA-A465-63F5247F43D4}">
+  <dimension ref="A1:D198"/>
+  <sheetViews>
+    <sheetView topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="D199" sqref="D199"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="str">
+        <f>covid19!A1</f>
+        <v>date</v>
+      </c>
+      <c r="B1" t="str">
+        <f>covid19!F1</f>
+        <v>hospitalized</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <f>covid19!A2</f>
+        <v>43898</v>
+      </c>
+      <c r="B2">
+        <f>covid19!F2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <f>covid19!A3</f>
+        <v>43899</v>
+      </c>
+      <c r="B3">
+        <f>covid19!F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <f>covid19!A4</f>
+        <v>43900</v>
+      </c>
+      <c r="B4">
+        <f>covid19!F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <f>covid19!A5</f>
+        <v>43901</v>
+      </c>
+      <c r="B5">
+        <f>covid19!F5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <f>covid19!A6</f>
+        <v>43903</v>
+      </c>
+      <c r="B6">
+        <f>covid19!F6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <f>covid19!A7</f>
+        <v>43904</v>
+      </c>
+      <c r="B7">
+        <f>covid19!F7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <f>covid19!A8</f>
+        <v>43908</v>
+      </c>
+      <c r="B8">
+        <f>covid19!F8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <f>covid19!A9</f>
+        <v>43909</v>
+      </c>
+      <c r="B9">
+        <f>covid19!F9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <f>covid19!A10</f>
+        <v>43913</v>
+      </c>
+      <c r="B10">
+        <f>covid19!F10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <f>covid19!A11</f>
+        <v>43914</v>
+      </c>
+      <c r="B11">
+        <f>covid19!F11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <f>covid19!A12</f>
+        <v>43917</v>
+      </c>
+      <c r="B12">
+        <f>covid19!F12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <f>covid19!A13</f>
+        <v>43918</v>
+      </c>
+      <c r="B13">
+        <f>covid19!F13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <f>covid19!A14</f>
+        <v>43919</v>
+      </c>
+      <c r="B14">
+        <f>covid19!F14</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <f>covid19!A15</f>
+        <v>43920</v>
+      </c>
+      <c r="B15">
+        <f>covid19!F15</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <f>covid19!A16</f>
+        <v>43921</v>
+      </c>
+      <c r="B16">
+        <f>covid19!F16</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <f>covid19!A17</f>
+        <v>43922</v>
+      </c>
+      <c r="B17">
+        <f>covid19!F17</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <f>covid19!A18</f>
+        <v>43923</v>
+      </c>
+      <c r="B18">
+        <f>covid19!F18</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <f>covid19!A19</f>
+        <v>43924</v>
+      </c>
+      <c r="B19">
+        <f>covid19!F19</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <f>covid19!A20</f>
+        <v>43925</v>
+      </c>
+      <c r="B20">
+        <f>covid19!F20</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <f>covid19!A21</f>
+        <v>43926</v>
+      </c>
+      <c r="B21">
+        <f>covid19!F21</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <f>covid19!A22</f>
+        <v>43927</v>
+      </c>
+      <c r="B22">
+        <f>covid19!F22</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <f>covid19!A23</f>
+        <v>43928</v>
+      </c>
+      <c r="B23">
+        <f>covid19!F23</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <f>covid19!A24</f>
+        <v>43929</v>
+      </c>
+      <c r="B24">
+        <f>covid19!F24</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <f>covid19!A25</f>
+        <v>43930</v>
+      </c>
+      <c r="B25">
+        <f>covid19!F25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <f>covid19!A26</f>
+        <v>43931</v>
+      </c>
+      <c r="B26">
+        <f>covid19!F26</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <f>covid19!A27</f>
+        <v>43932</v>
+      </c>
+      <c r="B27">
+        <f>covid19!F27</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <f>covid19!A28</f>
+        <v>43933</v>
+      </c>
+      <c r="B28">
+        <f>covid19!F28</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <f>covid19!A29</f>
+        <v>43934</v>
+      </c>
+      <c r="B29">
+        <f>covid19!F29</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <f>covid19!A30</f>
+        <v>43935</v>
+      </c>
+      <c r="B30">
+        <f>covid19!F30</f>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <f>covid19!A31</f>
+        <v>43936</v>
+      </c>
+      <c r="B31">
+        <f>covid19!F31</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <f>covid19!A32</f>
+        <v>43937</v>
+      </c>
+      <c r="B32">
+        <f>covid19!F32</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <f>covid19!A33</f>
+        <v>43938</v>
+      </c>
+      <c r="B33">
+        <f>covid19!F33</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <f>covid19!A34</f>
+        <v>43939</v>
+      </c>
+      <c r="B34">
+        <f>covid19!F34</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <f>covid19!A35</f>
+        <v>43940</v>
+      </c>
+      <c r="B35">
+        <f>covid19!F35</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <f>covid19!A36</f>
+        <v>43941</v>
+      </c>
+      <c r="B36">
+        <f>covid19!F36</f>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <f>covid19!A37</f>
+        <v>43942</v>
+      </c>
+      <c r="B37">
+        <f>covid19!F37</f>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <f>covid19!A38</f>
+        <v>43943</v>
+      </c>
+      <c r="B38">
+        <f>covid19!F38</f>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <f>covid19!A39</f>
+        <v>43944</v>
+      </c>
+      <c r="B39">
+        <f>covid19!F39</f>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <f>covid19!A40</f>
+        <v>43945</v>
+      </c>
+      <c r="B40">
+        <f>covid19!F40</f>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <f>covid19!A41</f>
+        <v>43946</v>
+      </c>
+      <c r="B41">
+        <f>covid19!F41</f>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <f>covid19!A42</f>
+        <v>43947</v>
+      </c>
+      <c r="B42">
+        <f>covid19!F42</f>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <f>covid19!A43</f>
+        <v>43948</v>
+      </c>
+      <c r="B43">
+        <f>covid19!F43</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <f>covid19!A44</f>
+        <v>43949</v>
+      </c>
+      <c r="B44">
+        <f>covid19!F44</f>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <f>covid19!A45</f>
+        <v>43950</v>
+      </c>
+      <c r="B45">
+        <f>covid19!F45</f>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <f>covid19!A46</f>
+        <v>43951</v>
+      </c>
+      <c r="B46">
+        <f>covid19!F46</f>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <f>covid19!A47</f>
+        <v>43952</v>
+      </c>
+      <c r="B47">
+        <f>covid19!F47</f>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <f>covid19!A48</f>
+        <v>43953</v>
+      </c>
+      <c r="B48">
+        <f>covid19!F48</f>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <f>covid19!A49</f>
+        <v>43954</v>
+      </c>
+      <c r="B49">
+        <f>covid19!F49</f>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <f>covid19!A50</f>
+        <v>43955</v>
+      </c>
+      <c r="B50">
+        <f>covid19!F50</f>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <f>covid19!A51</f>
+        <v>43956</v>
+      </c>
+      <c r="B51">
+        <f>covid19!F51</f>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <f>covid19!A52</f>
+        <v>43957</v>
+      </c>
+      <c r="B52">
+        <f>covid19!F52</f>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <f>covid19!A53</f>
+        <v>43958</v>
+      </c>
+      <c r="B53">
+        <f>covid19!F53</f>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <f>covid19!A54</f>
+        <v>43959</v>
+      </c>
+      <c r="B54">
+        <f>covid19!F54</f>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <f>covid19!A55</f>
+        <v>43960</v>
+      </c>
+      <c r="B55">
+        <f>covid19!F55</f>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <f>covid19!A56</f>
+        <v>43961</v>
+      </c>
+      <c r="B56">
+        <f>covid19!F56</f>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <f>covid19!A57</f>
+        <v>43962</v>
+      </c>
+      <c r="B57">
+        <f>covid19!F57</f>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <f>covid19!A58</f>
+        <v>43963</v>
+      </c>
+      <c r="B58">
+        <f>covid19!F58</f>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <f>covid19!A59</f>
+        <v>43964</v>
+      </c>
+      <c r="B59">
+        <f>covid19!F59</f>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <f>covid19!A60</f>
+        <v>43965</v>
+      </c>
+      <c r="B60">
+        <f>covid19!F60</f>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <f>covid19!A61</f>
+        <v>43966</v>
+      </c>
+      <c r="B61">
+        <f>covid19!F61</f>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <f>covid19!A62</f>
+        <v>43967</v>
+      </c>
+      <c r="B62">
+        <f>covid19!F62</f>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <f>covid19!A63</f>
+        <v>43968</v>
+      </c>
+      <c r="B63">
+        <f>covid19!F63</f>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <f>covid19!A64</f>
+        <v>43969</v>
+      </c>
+      <c r="B64">
+        <f>covid19!F64</f>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <f>covid19!A65</f>
+        <v>43970</v>
+      </c>
+      <c r="B65">
+        <f>covid19!F65</f>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <f>covid19!A66</f>
+        <v>43971</v>
+      </c>
+      <c r="B66">
+        <f>covid19!F66</f>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <f>covid19!A67</f>
+        <v>43972</v>
+      </c>
+      <c r="B67">
+        <f>covid19!F67</f>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <f>covid19!A68</f>
+        <v>43973</v>
+      </c>
+      <c r="B68">
+        <f>covid19!F68</f>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <f>covid19!A69</f>
+        <v>43974</v>
+      </c>
+      <c r="B69">
+        <f>covid19!F69</f>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <f>covid19!A70</f>
+        <v>43975</v>
+      </c>
+      <c r="B70">
+        <f>covid19!F70</f>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <f>covid19!A71</f>
+        <v>43976</v>
+      </c>
+      <c r="B71">
+        <f>covid19!F71</f>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <f>covid19!A72</f>
+        <v>43977</v>
+      </c>
+      <c r="B72">
+        <f>covid19!F72</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <f>covid19!A73</f>
+        <v>43978</v>
+      </c>
+      <c r="B73">
+        <f>covid19!F73</f>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <f>covid19!A74</f>
+        <v>43979</v>
+      </c>
+      <c r="B74">
+        <f>covid19!F74</f>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <f>covid19!A75</f>
+        <v>43980</v>
+      </c>
+      <c r="B75">
+        <f>covid19!F75</f>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <f>covid19!A76</f>
+        <v>43981</v>
+      </c>
+      <c r="B76">
+        <f>covid19!F76</f>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <f>covid19!A77</f>
+        <v>43983</v>
+      </c>
+      <c r="B77">
+        <f>covid19!F77</f>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <f>covid19!A78</f>
+        <v>43984</v>
+      </c>
+      <c r="B78">
+        <f>covid19!F78</f>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <f>covid19!A79</f>
+        <v>43985</v>
+      </c>
+      <c r="B79">
+        <f>covid19!F79</f>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <f>covid19!A80</f>
+        <v>43986</v>
+      </c>
+      <c r="B80">
+        <f>covid19!F80</f>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <f>covid19!A81</f>
+        <v>43987</v>
+      </c>
+      <c r="B81">
+        <f>covid19!F81</f>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <f>covid19!A82</f>
+        <v>43988</v>
+      </c>
+      <c r="B82">
+        <f>covid19!F82</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <f>covid19!A83</f>
+        <v>43989</v>
+      </c>
+      <c r="B83">
+        <f>covid19!F83</f>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <f>covid19!A84</f>
+        <v>43990</v>
+      </c>
+      <c r="B84">
+        <f>covid19!F84</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <f>covid19!A85</f>
+        <v>43991</v>
+      </c>
+      <c r="B85">
+        <f>covid19!F85</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <f>covid19!A86</f>
+        <v>43992</v>
+      </c>
+      <c r="B86">
+        <f>covid19!F86</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <f>covid19!A87</f>
+        <v>43993</v>
+      </c>
+      <c r="B87">
+        <f>covid19!F87</f>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <f>covid19!A88</f>
+        <v>43994</v>
+      </c>
+      <c r="B88">
+        <f>covid19!F88</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <f>covid19!A89</f>
+        <v>43995</v>
+      </c>
+      <c r="B89">
+        <f>covid19!F89</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <f>covid19!A90</f>
+        <v>43996</v>
+      </c>
+      <c r="B90">
+        <f>covid19!F90</f>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <f>covid19!A91</f>
+        <v>43997</v>
+      </c>
+      <c r="B91">
+        <f>covid19!F91</f>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <f>covid19!A92</f>
+        <v>43998</v>
+      </c>
+      <c r="B92">
+        <f>covid19!F92</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <f>covid19!A93</f>
+        <v>43999</v>
+      </c>
+      <c r="B93">
+        <f>covid19!F93</f>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <f>covid19!A94</f>
+        <v>44000</v>
+      </c>
+      <c r="B94">
+        <f>covid19!F94</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <f>covid19!A95</f>
+        <v>44001</v>
+      </c>
+      <c r="B95">
+        <f>covid19!F95</f>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <f>covid19!A96</f>
+        <v>44002</v>
+      </c>
+      <c r="B96">
+        <f>covid19!F96</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <f>covid19!A97</f>
+        <v>44003</v>
+      </c>
+      <c r="B97">
+        <f>covid19!F97</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <f>covid19!A98</f>
+        <v>44004</v>
+      </c>
+      <c r="B98">
+        <f>covid19!F98</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <f>covid19!A99</f>
+        <v>44005</v>
+      </c>
+      <c r="B99">
+        <f>covid19!F99</f>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <f>covid19!A100</f>
+        <v>44006</v>
+      </c>
+      <c r="B100">
+        <f>covid19!F100</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <f>covid19!A101</f>
+        <v>44007</v>
+      </c>
+      <c r="B101">
+        <f>covid19!F101</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <f>covid19!A102</f>
+        <v>44008</v>
+      </c>
+      <c r="B102">
+        <f>covid19!F102</f>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <f>covid19!A103</f>
+        <v>44009</v>
+      </c>
+      <c r="B103">
+        <f>covid19!F103</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <f>covid19!A104</f>
+        <v>44010</v>
+      </c>
+      <c r="B104">
+        <f>covid19!F104</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <f>covid19!A105</f>
+        <v>44011</v>
+      </c>
+      <c r="B105">
+        <f>covid19!F105</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <f>covid19!A106</f>
+        <v>44012</v>
+      </c>
+      <c r="B106">
+        <f>covid19!F106</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <f>covid19!A107</f>
+        <v>44013</v>
+      </c>
+      <c r="B107">
+        <f>covid19!F107</f>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <f>covid19!A108</f>
+        <v>44014</v>
+      </c>
+      <c r="B108">
+        <f>covid19!F108</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <f>covid19!A109</f>
+        <v>44015</v>
+      </c>
+      <c r="B109">
+        <f>covid19!F109</f>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <f>covid19!A110</f>
+        <v>44016</v>
+      </c>
+      <c r="B110">
+        <f>covid19!F110</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <f>covid19!A111</f>
+        <v>44017</v>
+      </c>
+      <c r="B111">
+        <f>covid19!F111</f>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <f>covid19!A112</f>
+        <v>44018</v>
+      </c>
+      <c r="B112">
+        <f>covid19!F112</f>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <f>covid19!A113</f>
+        <v>44019</v>
+      </c>
+      <c r="B113">
+        <f>covid19!F113</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <f>covid19!A114</f>
+        <v>44020</v>
+      </c>
+      <c r="B114">
+        <f>covid19!F114</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <f>covid19!A115</f>
+        <v>44021</v>
+      </c>
+      <c r="B115">
+        <f>covid19!F115</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <f>covid19!A116</f>
+        <v>44022</v>
+      </c>
+      <c r="B116">
+        <f>covid19!F116</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <f>covid19!A117</f>
+        <v>44023</v>
+      </c>
+      <c r="B117">
+        <f>covid19!F117</f>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <f>covid19!A118</f>
+        <v>44024</v>
+      </c>
+      <c r="B118">
+        <f>covid19!F118</f>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <f>covid19!A119</f>
+        <v>44025</v>
+      </c>
+      <c r="B119">
+        <f>covid19!F119</f>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <f>covid19!A120</f>
+        <v>44026</v>
+      </c>
+      <c r="B120">
+        <f>covid19!F120</f>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <f>covid19!A121</f>
+        <v>44027</v>
+      </c>
+      <c r="B121">
+        <f>covid19!F121</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <f>covid19!A122</f>
+        <v>44028</v>
+      </c>
+      <c r="B122">
+        <f>covid19!F122</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <f>covid19!A123</f>
+        <v>44029</v>
+      </c>
+      <c r="B123">
+        <f>covid19!F123</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <f>covid19!A124</f>
+        <v>44030</v>
+      </c>
+      <c r="B124">
+        <f>covid19!F124</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <f>covid19!A125</f>
+        <v>44031</v>
+      </c>
+      <c r="B125">
+        <f>covid19!F125</f>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <f>covid19!A126</f>
+        <v>44032</v>
+      </c>
+      <c r="B126">
+        <f>covid19!F126</f>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <f>covid19!A127</f>
+        <v>44033</v>
+      </c>
+      <c r="B127">
+        <f>covid19!F127</f>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <f>covid19!A128</f>
+        <v>44034</v>
+      </c>
+      <c r="B128">
+        <f>covid19!F128</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <f>covid19!A129</f>
+        <v>44035</v>
+      </c>
+      <c r="B129">
+        <f>covid19!F129</f>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <f>covid19!A130</f>
+        <v>44036</v>
+      </c>
+      <c r="B130">
+        <f>covid19!F130</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <f>covid19!A131</f>
+        <v>44037</v>
+      </c>
+      <c r="B131">
+        <f>covid19!F131</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <f>covid19!A132</f>
+        <v>44038</v>
+      </c>
+      <c r="B132">
+        <f>covid19!F132</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <f>covid19!A133</f>
+        <v>44039</v>
+      </c>
+      <c r="B133">
+        <f>covid19!F133</f>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <f>covid19!A134</f>
+        <v>44040</v>
+      </c>
+      <c r="B134">
+        <f>covid19!F134</f>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <f>covid19!A135</f>
+        <v>44041</v>
+      </c>
+      <c r="B135">
+        <f>covid19!F135</f>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <f>covid19!A136</f>
+        <v>44042</v>
+      </c>
+      <c r="B136">
+        <f>covid19!F136</f>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <f>covid19!A137</f>
+        <v>44043</v>
+      </c>
+      <c r="B137">
+        <f>covid19!F137</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <f>covid19!A138</f>
+        <v>44044</v>
+      </c>
+      <c r="B138">
+        <f>covid19!F138</f>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <f>covid19!A139</f>
+        <v>44045</v>
+      </c>
+      <c r="B139">
+        <f>covid19!F139</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <f>covid19!A140</f>
+        <v>44046</v>
+      </c>
+      <c r="B140">
+        <f>covid19!F140</f>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <f>covid19!A141</f>
+        <v>44047</v>
+      </c>
+      <c r="B141">
+        <f>covid19!F141</f>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <f>covid19!A142</f>
+        <v>44048</v>
+      </c>
+      <c r="B142">
+        <f>covid19!F142</f>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <f>covid19!A143</f>
+        <v>44049</v>
+      </c>
+      <c r="B143">
+        <f>covid19!F143</f>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <f>covid19!A144</f>
+        <v>44050</v>
+      </c>
+      <c r="B144">
+        <f>covid19!F144</f>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <f>covid19!A145</f>
+        <v>44051</v>
+      </c>
+      <c r="B145">
+        <f>covid19!F145</f>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <f>covid19!A146</f>
+        <v>44052</v>
+      </c>
+      <c r="B146">
+        <f>covid19!F146</f>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <f>covid19!A147</f>
+        <v>44053</v>
+      </c>
+      <c r="B147">
+        <f>covid19!F147</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <f>covid19!A148</f>
+        <v>44054</v>
+      </c>
+      <c r="B148">
+        <f>covid19!F148</f>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <f>covid19!A149</f>
+        <v>44055</v>
+      </c>
+      <c r="B149">
+        <f>covid19!F149</f>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <f>covid19!A150</f>
+        <v>44056</v>
+      </c>
+      <c r="B150">
+        <f>covid19!F150</f>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <f>covid19!A151</f>
+        <v>44057</v>
+      </c>
+      <c r="B151">
+        <f>covid19!F151</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <f>covid19!A152</f>
+        <v>44058</v>
+      </c>
+      <c r="B152">
+        <f>covid19!F152</f>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <f>covid19!A153</f>
+        <v>44059</v>
+      </c>
+      <c r="B153">
+        <f>covid19!F153</f>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <f>covid19!A154</f>
+        <v>44060</v>
+      </c>
+      <c r="B154">
+        <f>covid19!F154</f>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <f>covid19!A155</f>
+        <v>44061</v>
+      </c>
+      <c r="B155">
+        <f>covid19!F155</f>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <f>covid19!A156</f>
+        <v>44062</v>
+      </c>
+      <c r="B156">
+        <f>covid19!F156</f>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <f>covid19!A157</f>
+        <v>44063</v>
+      </c>
+      <c r="B157">
+        <f>covid19!F157</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <f>covid19!A158</f>
+        <v>44064</v>
+      </c>
+      <c r="B158">
+        <f>covid19!F158</f>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <f>covid19!A159</f>
+        <v>44065</v>
+      </c>
+      <c r="B159">
+        <f>covid19!F159</f>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <f>covid19!A160</f>
+        <v>44066</v>
+      </c>
+      <c r="B160">
+        <f>covid19!F160</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <f>covid19!A161</f>
+        <v>44067</v>
+      </c>
+      <c r="B161">
+        <f>covid19!F161</f>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <f>covid19!A162</f>
+        <v>44068</v>
+      </c>
+      <c r="B162">
+        <f>covid19!F162</f>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <f>covid19!A163</f>
+        <v>44069</v>
+      </c>
+      <c r="B163">
+        <f>covid19!F163</f>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <f>covid19!A164</f>
+        <v>44070</v>
+      </c>
+      <c r="B164">
+        <f>covid19!F164</f>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <f>covid19!A165</f>
+        <v>44071</v>
+      </c>
+      <c r="B165">
+        <f>covid19!F165</f>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <f>covid19!A166</f>
+        <v>44072</v>
+      </c>
+      <c r="B166">
+        <f>covid19!F166</f>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <f>covid19!A167</f>
+        <v>44073</v>
+      </c>
+      <c r="B167">
+        <f>covid19!F167</f>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <f>covid19!A168</f>
+        <v>44074</v>
+      </c>
+      <c r="B168">
+        <f>covid19!F168</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <f>covid19!A169</f>
+        <v>44075</v>
+      </c>
+      <c r="B169">
+        <f>covid19!F169</f>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <f>covid19!A170</f>
+        <v>44076</v>
+      </c>
+      <c r="B170">
+        <f>covid19!F170</f>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <f>covid19!A171</f>
+        <v>44077</v>
+      </c>
+      <c r="B171">
+        <f>covid19!F171</f>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <f>covid19!A172</f>
+        <v>44078</v>
+      </c>
+      <c r="B172">
+        <f>covid19!F172</f>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <f>covid19!A173</f>
+        <v>44079</v>
+      </c>
+      <c r="B173">
+        <f>covid19!F173</f>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <f>covid19!A174</f>
+        <v>44080</v>
+      </c>
+      <c r="B174">
+        <f>covid19!F174</f>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <f>covid19!A175</f>
+        <v>44081</v>
+      </c>
+      <c r="B175">
+        <f>covid19!F175</f>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <f>covid19!A176</f>
+        <v>44082</v>
+      </c>
+      <c r="B176">
+        <f>covid19!F176</f>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <f>covid19!A177</f>
+        <v>44083</v>
+      </c>
+      <c r="B177">
+        <f>covid19!F177</f>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <f>covid19!A178</f>
+        <v>44084</v>
+      </c>
+      <c r="B178">
+        <f>covid19!F178</f>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <f>covid19!A179</f>
+        <v>44085</v>
+      </c>
+      <c r="B179">
+        <f>covid19!F179</f>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <f>covid19!A180</f>
+        <v>44086</v>
+      </c>
+      <c r="B180">
+        <f>covid19!F180</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <f>covid19!A181</f>
+        <v>44087</v>
+      </c>
+      <c r="B181">
+        <f>covid19!F181</f>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <f>covid19!A182</f>
+        <v>44088</v>
+      </c>
+      <c r="B182">
+        <f>covid19!F182</f>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <f>covid19!A183</f>
+        <v>44089</v>
+      </c>
+      <c r="B183">
+        <f>covid19!F183</f>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <f>covid19!A184</f>
+        <v>44090</v>
+      </c>
+      <c r="B184">
+        <f>covid19!F184</f>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <f>covid19!A185</f>
+        <v>44091</v>
+      </c>
+      <c r="B185">
+        <f>covid19!F185</f>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <f>covid19!A186</f>
+        <v>44092</v>
+      </c>
+      <c r="B186">
+        <f>covid19!F186</f>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <f>covid19!A187</f>
+        <v>44093</v>
+      </c>
+      <c r="B187">
+        <f>covid19!F187</f>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <f>covid19!A188</f>
+        <v>44094</v>
+      </c>
+      <c r="B188">
+        <f>covid19!F188</f>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <f>covid19!A189</f>
+        <v>44095</v>
+      </c>
+      <c r="B189">
+        <f>covid19!F189</f>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <f>covid19!A190</f>
+        <v>44096</v>
+      </c>
+      <c r="B190">
+        <f>covid19!F190</f>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <f>covid19!A191</f>
+        <v>44097</v>
+      </c>
+      <c r="B191">
+        <f>covid19!F191</f>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <f>covid19!A192</f>
+        <v>44098</v>
+      </c>
+      <c r="B192">
+        <f>covid19!F192</f>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <f>covid19!A193</f>
+        <v>44099</v>
+      </c>
+      <c r="B193">
+        <f>covid19!F193</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <f>covid19!A194</f>
+        <v>44100</v>
+      </c>
+      <c r="B194">
+        <f>covid19!F194</f>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <f>covid19!A195</f>
+        <v>44101</v>
+      </c>
+      <c r="B195">
+        <f>covid19!F195</f>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <f>covid19!A196</f>
+        <v>44102</v>
+      </c>
+      <c r="B196">
+        <f>covid19!F196</f>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <f>covid19!A197</f>
+        <v>44103</v>
+      </c>
+      <c r="B197">
+        <f>covid19!F197</f>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <f>covid19!A198</f>
+        <v>44104</v>
+      </c>
+      <c r="B198">
+        <f>covid19!F198</f>
+        <v>390</v>
+      </c>
+      <c r="D198">
+        <f>MAX(B:B)</f>
+        <v>417</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93EC611-36C2-471F-8B9E-90DA7694C6D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97187FAE-7E09-4B8F-89EE-E90ED0CAF6EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1564,10 +1564,10 @@
   <dimension ref="A1:AT200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD186" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS197" sqref="AS197:AT198"/>
+      <selection pane="bottomRight" activeCell="Y199" sqref="Y199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14753,7 +14753,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="14">
-        <f t="shared" ref="A152:A198" si="49">A151+1</f>
+        <f t="shared" ref="A152:A200" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -19493,7 +19493,7 @@
         <v>7</v>
       </c>
       <c r="M187" s="7">
-        <f t="shared" ref="M187:M198" si="219">B187-C187</f>
+        <f t="shared" ref="M187:M200" si="219">B187-C187</f>
         <v>653112</v>
       </c>
       <c r="N187" s="4">
@@ -20449,7 +20449,7 @@
         <v>686333</v>
       </c>
       <c r="N194" s="4">
-        <f t="shared" ref="N194:N198" si="269">C194/B194</f>
+        <f t="shared" ref="N194:N197" si="269">C194/B194</f>
         <v>0.11068538590614897</v>
       </c>
       <c r="Q194">
@@ -20872,11 +20872,11 @@
         <v>4163</v>
       </c>
       <c r="V197">
-        <f t="shared" ref="V197:V198" si="312">C197-D197-E197</f>
+        <f t="shared" ref="V197" si="312">C197-D197-E197</f>
         <v>18621</v>
       </c>
       <c r="W197" s="3">
-        <f t="shared" ref="W197:W198" si="313">F197/V197</f>
+        <f t="shared" ref="W197" si="313">F197/V197</f>
         <v>2.0192256054991677E-2</v>
       </c>
       <c r="X197">
@@ -20984,7 +20984,7 @@
         <v>708583</v>
       </c>
       <c r="N198" s="4">
-        <f t="shared" ref="N198" si="320">C198/B198</f>
+        <f t="shared" ref="N198:N200" si="320">C198/B198</f>
         <v>0.11109117869176981</v>
       </c>
       <c r="Q198">
@@ -21080,8 +21080,209 @@
         <v>91</v>
       </c>
     </row>
+    <row r="199" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A199" s="14">
+        <f t="shared" si="49"/>
+        <v>44105</v>
+      </c>
+      <c r="B199">
+        <v>802646</v>
+      </c>
+      <c r="C199">
+        <v>89425</v>
+      </c>
+      <c r="D199">
+        <v>69528</v>
+      </c>
+      <c r="E199">
+        <v>1358</v>
+      </c>
+      <c r="F199">
+        <v>407</v>
+      </c>
+      <c r="H199">
+        <v>104</v>
+      </c>
+      <c r="I199">
+        <v>53</v>
+      </c>
+      <c r="J199">
+        <v>97</v>
+      </c>
+      <c r="K199">
+        <v>30</v>
+      </c>
+      <c r="L199">
+        <v>10</v>
+      </c>
+      <c r="M199" s="7">
+        <f t="shared" si="219"/>
+        <v>713221</v>
+      </c>
+      <c r="N199" s="4">
+        <f t="shared" si="320"/>
+        <v>0.11141275232169599</v>
+      </c>
+      <c r="Q199">
+        <f t="shared" ref="Q199" si="334">C199-C198</f>
+        <v>870</v>
+      </c>
+      <c r="R199">
+        <f t="shared" ref="R199" si="335">M199-M198</f>
+        <v>4638</v>
+      </c>
+      <c r="S199" s="8">
+        <f t="shared" ref="S199" si="336">Q199/U199</f>
+        <v>0.15795206971677561</v>
+      </c>
+      <c r="T199" s="8">
+        <f t="shared" ref="T199" si="337">SUM(Q193:Q199)/SUM(U193:U199)</f>
+        <v>0.13881392746659646</v>
+      </c>
+      <c r="U199">
+        <f t="shared" ref="U199" si="338">B199-B198</f>
+        <v>5508</v>
+      </c>
+      <c r="V199">
+        <f t="shared" ref="V199:V200" si="339">C199-D199-E199</f>
+        <v>18539</v>
+      </c>
+      <c r="W199" s="3">
+        <f t="shared" ref="W199:W200" si="340">F199/V199</f>
+        <v>2.1953719186579644E-2</v>
+      </c>
+      <c r="X199">
+        <f t="shared" ref="X199" si="341">E199-E198</f>
+        <v>16</v>
+      </c>
+      <c r="Y199">
+        <v>513</v>
+      </c>
+      <c r="Z199">
+        <v>281</v>
+      </c>
+      <c r="AA199">
+        <v>4567</v>
+      </c>
+      <c r="AB199">
+        <v>377</v>
+      </c>
+      <c r="AC199">
+        <v>259</v>
+      </c>
+      <c r="AD199">
+        <v>3878</v>
+      </c>
+      <c r="AE199">
+        <v>7</v>
+      </c>
+      <c r="AF199">
+        <v>2</v>
+      </c>
+      <c r="AG199">
+        <v>92</v>
+      </c>
+      <c r="AH199">
+        <f t="shared" ref="AH199" si="342">Y199-AB199-AE199</f>
+        <v>129</v>
+      </c>
+      <c r="AI199">
+        <f t="shared" ref="AI199" si="343">Z199-AC199-AF199</f>
+        <v>20</v>
+      </c>
+      <c r="AJ199">
+        <f t="shared" ref="AJ199" si="344">AA199-AD199-AG199</f>
+        <v>597</v>
+      </c>
+      <c r="AK199">
+        <f t="shared" ref="AK199" si="345">-(J199-J198)+L199</f>
+        <v>12</v>
+      </c>
+      <c r="AL199">
+        <v>7</v>
+      </c>
+      <c r="AM199">
+        <v>7</v>
+      </c>
+      <c r="AN199">
+        <v>26</v>
+      </c>
+    </row>
     <row r="200" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="E200" s="9"/>
+      <c r="A200" s="14">
+        <f t="shared" si="49"/>
+        <v>44106</v>
+      </c>
+      <c r="B200">
+        <v>809262</v>
+      </c>
+      <c r="C200">
+        <v>90528</v>
+      </c>
+      <c r="D200">
+        <v>70383</v>
+      </c>
+      <c r="E200" s="9">
+        <v>1366</v>
+      </c>
+      <c r="F200" s="9">
+        <v>393</v>
+      </c>
+      <c r="H200">
+        <v>95</v>
+      </c>
+      <c r="I200">
+        <v>66</v>
+      </c>
+      <c r="J200">
+        <v>95</v>
+      </c>
+      <c r="K200">
+        <v>25</v>
+      </c>
+      <c r="L200">
+        <v>13</v>
+      </c>
+      <c r="M200" s="7">
+        <f t="shared" si="219"/>
+        <v>718734</v>
+      </c>
+      <c r="N200" s="4">
+        <f t="shared" si="320"/>
+        <v>0.11186488430199366</v>
+      </c>
+      <c r="Q200">
+        <f t="shared" ref="Q200" si="346">C200-C199</f>
+        <v>1103</v>
+      </c>
+      <c r="R200">
+        <f t="shared" ref="R200" si="347">M200-M199</f>
+        <v>5513</v>
+      </c>
+      <c r="S200" s="8">
+        <f t="shared" ref="S200" si="348">Q200/U200</f>
+        <v>0.16671704957678354</v>
+      </c>
+      <c r="T200" s="8">
+        <f t="shared" ref="T200" si="349">SUM(Q194:Q200)/SUM(U194:U200)</f>
+        <v>0.13973492495391907</v>
+      </c>
+      <c r="U200">
+        <f t="shared" ref="U200" si="350">B200-B199</f>
+        <v>6616</v>
+      </c>
+      <c r="V200">
+        <f t="shared" ref="V200" si="351">C200-D200-E200</f>
+        <v>18779</v>
+      </c>
+      <c r="W200" s="3">
+        <f t="shared" ref="W200" si="352">F200/V200</f>
+        <v>2.0927631929282708E-2</v>
+      </c>
+      <c r="X200">
+        <f t="shared" ref="X200" si="353">E200-E199</f>
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45913,10 +46114,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5AAC3F-AAA6-40BA-A465-63F5247F43D4}">
-  <dimension ref="A1:D198"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="D199" sqref="D199"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A198" sqref="A198:XFD199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -45924,7 +46125,7 @@
     <col min="1" max="1" width="9.453125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>covid19!A1</f>
         <v>date</v>
@@ -45933,8 +46134,16 @@
         <f>covid19!F1</f>
         <v>hospitalized</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="str">
+        <f>covid19!G1</f>
+        <v>new hospital</v>
+      </c>
+      <c r="D1" t="str">
+        <f>covid19!H1</f>
+        <v>ICU</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <f>covid19!A2</f>
         <v>43898</v>
@@ -45943,8 +46152,16 @@
         <f>covid19!F2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <f>covid19!G2</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>covid19!H2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f>covid19!A3</f>
         <v>43899</v>
@@ -45953,8 +46170,16 @@
         <f>covid19!F3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <f>covid19!G3</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>covid19!H3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f>covid19!A4</f>
         <v>43900</v>
@@ -45963,8 +46188,16 @@
         <f>covid19!F4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <f>covid19!G4</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>covid19!H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f>covid19!A5</f>
         <v>43901</v>
@@ -45973,8 +46206,16 @@
         <f>covid19!F5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <f>covid19!G5</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>covid19!H5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f>covid19!A6</f>
         <v>43903</v>
@@ -45983,8 +46224,16 @@
         <f>covid19!F6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <f>covid19!G6</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>covid19!H6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f>covid19!A7</f>
         <v>43904</v>
@@ -45993,8 +46242,16 @@
         <f>covid19!F7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <f>covid19!G7</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>covid19!H7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f>covid19!A8</f>
         <v>43908</v>
@@ -46003,8 +46260,16 @@
         <f>covid19!F8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <f>covid19!G8</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>covid19!H8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f>covid19!A9</f>
         <v>43909</v>
@@ -46013,8 +46278,16 @@
         <f>covid19!F9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <f>covid19!G9</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>covid19!H9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f>covid19!A10</f>
         <v>43913</v>
@@ -46023,8 +46296,16 @@
         <f>covid19!F10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <f>covid19!G10</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>covid19!H10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f>covid19!A11</f>
         <v>43914</v>
@@ -46033,8 +46314,16 @@
         <f>covid19!F11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <f>covid19!G11</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>covid19!H11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f>covid19!A12</f>
         <v>43917</v>
@@ -46043,8 +46332,16 @@
         <f>covid19!F12</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <f>covid19!G12</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>covid19!H12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <f>covid19!A13</f>
         <v>43918</v>
@@ -46053,8 +46350,16 @@
         <f>covid19!F13</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <f>covid19!G13</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>covid19!H13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <f>covid19!A14</f>
         <v>43919</v>
@@ -46063,8 +46368,16 @@
         <f>covid19!F14</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <f>covid19!G14</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>covid19!H14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f>covid19!A15</f>
         <v>43920</v>
@@ -46073,8 +46386,16 @@
         <f>covid19!F15</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <f>covid19!G15</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>covid19!H15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f>covid19!A16</f>
         <v>43921</v>
@@ -46083,8 +46404,16 @@
         <f>covid19!F16</f>
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <f>covid19!G16</f>
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <f>covid19!H16</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f>covid19!A17</f>
         <v>43922</v>
@@ -46093,8 +46422,16 @@
         <f>covid19!F17</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <f>covid19!G17</f>
+        <v>69</v>
+      </c>
+      <c r="D17">
+        <f>covid19!H17</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f>covid19!A18</f>
         <v>43923</v>
@@ -46103,8 +46440,16 @@
         <f>covid19!F18</f>
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <f>covid19!G18</f>
+        <v>76</v>
+      </c>
+      <c r="D18">
+        <f>covid19!H18</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f>covid19!A19</f>
         <v>43924</v>
@@ -46113,8 +46458,16 @@
         <f>covid19!F19</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <f>covid19!G19</f>
+        <v>87</v>
+      </c>
+      <c r="D19">
+        <f>covid19!H19</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f>covid19!A20</f>
         <v>43925</v>
@@ -46123,8 +46476,16 @@
         <f>covid19!F20</f>
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <f>covid19!G20</f>
+        <v>88</v>
+      </c>
+      <c r="D20">
+        <f>covid19!H20</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f>covid19!A21</f>
         <v>43926</v>
@@ -46133,8 +46494,16 @@
         <f>covid19!F21</f>
         <v>91</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <f>covid19!G21</f>
+        <v>103</v>
+      </c>
+      <c r="D21">
+        <f>covid19!H21</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f>covid19!A22</f>
         <v>43927</v>
@@ -46143,8 +46512,16 @@
         <f>covid19!F22</f>
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <f>covid19!G22</f>
+        <v>123</v>
+      </c>
+      <c r="D22">
+        <f>covid19!H22</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <f>covid19!A23</f>
         <v>43928</v>
@@ -46153,8 +46530,16 @@
         <f>covid19!F23</f>
         <v>104</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <f>covid19!G23</f>
+        <v>130</v>
+      </c>
+      <c r="D23">
+        <f>covid19!H23</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <f>covid19!A24</f>
         <v>43929</v>
@@ -46163,8 +46548,16 @@
         <f>covid19!F24</f>
         <v>122</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <f>covid19!G24</f>
+        <v>125</v>
+      </c>
+      <c r="D24">
+        <f>covid19!H24</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <f>covid19!A25</f>
         <v>43930</v>
@@ -46173,8 +46566,16 @@
         <f>covid19!F25</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <f>covid19!G25</f>
+        <v>118</v>
+      </c>
+      <c r="D25">
+        <f>covid19!H25</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <f>covid19!A26</f>
         <v>43931</v>
@@ -46183,8 +46584,16 @@
         <f>covid19!F26</f>
         <v>119</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <f>covid19!G26</f>
+        <v>125</v>
+      </c>
+      <c r="D26">
+        <f>covid19!H26</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <f>covid19!A27</f>
         <v>43932</v>
@@ -46193,8 +46602,16 @@
         <f>covid19!F27</f>
         <v>118</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <f>covid19!G27</f>
+        <v>124</v>
+      </c>
+      <c r="D27">
+        <f>covid19!H27</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <f>covid19!A28</f>
         <v>43933</v>
@@ -46203,8 +46620,16 @@
         <f>covid19!F28</f>
         <v>129</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <f>covid19!G28</f>
+        <v>136</v>
+      </c>
+      <c r="D28">
+        <f>covid19!H28</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <f>covid19!A29</f>
         <v>43934</v>
@@ -46213,8 +46638,16 @@
         <f>covid19!F29</f>
         <v>142</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <f>covid19!G29</f>
+        <v>142</v>
+      </c>
+      <c r="D29">
+        <f>covid19!H29</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <f>covid19!A30</f>
         <v>43935</v>
@@ -46223,8 +46656,16 @@
         <f>covid19!F30</f>
         <v>163</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <f>covid19!G30</f>
+        <v>163</v>
+      </c>
+      <c r="D30">
+        <f>covid19!H30</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <f>covid19!A31</f>
         <v>43936</v>
@@ -46233,8 +46674,16 @@
         <f>covid19!F31</f>
         <v>171</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <f>covid19!G31</f>
+        <v>167</v>
+      </c>
+      <c r="D31">
+        <f>covid19!H31</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <f>covid19!A32</f>
         <v>43937</v>
@@ -46243,8 +46692,16 @@
         <f>covid19!F32</f>
         <v>176</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C32">
+        <f>covid19!G32</f>
+        <v>176</v>
+      </c>
+      <c r="D32">
+        <f>covid19!H32</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <f>covid19!A33</f>
         <v>43938</v>
@@ -46253,8 +46710,16 @@
         <f>covid19!F33</f>
         <v>182</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <f>covid19!G33</f>
+        <v>182</v>
+      </c>
+      <c r="D33">
+        <f>covid19!H33</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <f>covid19!A34</f>
         <v>43939</v>
@@ -46263,8 +46728,16 @@
         <f>covid19!F34</f>
         <v>193</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C34">
+        <f>covid19!G34</f>
+        <v>193</v>
+      </c>
+      <c r="D34">
+        <f>covid19!H34</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <f>covid19!A35</f>
         <v>43940</v>
@@ -46273,8 +46746,16 @@
         <f>covid19!F35</f>
         <v>198</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C35">
+        <f>covid19!G35</f>
+        <v>198</v>
+      </c>
+      <c r="D35">
+        <f>covid19!H35</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <f>covid19!A36</f>
         <v>43941</v>
@@ -46283,8 +46764,16 @@
         <f>covid19!F36</f>
         <v>214</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <f>covid19!G36</f>
+        <v>214</v>
+      </c>
+      <c r="D36">
+        <f>covid19!H36</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <f>covid19!A37</f>
         <v>43942</v>
@@ -46293,8 +46782,16 @@
         <f>covid19!F37</f>
         <v>214</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <f>covid19!G37</f>
+        <v>214</v>
+      </c>
+      <c r="D37">
+        <f>covid19!H37</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <f>covid19!A38</f>
         <v>43943</v>
@@ -46303,8 +46800,16 @@
         <f>covid19!F38</f>
         <v>272</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <f>covid19!G38</f>
+        <v>272</v>
+      </c>
+      <c r="D38">
+        <f>covid19!H38</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <f>covid19!A39</f>
         <v>43944</v>
@@ -46313,8 +46818,16 @@
         <f>covid19!F39</f>
         <v>282</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <f>covid19!G39</f>
+        <v>282</v>
+      </c>
+      <c r="D39">
+        <f>covid19!H39</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <f>covid19!A40</f>
         <v>43945</v>
@@ -46323,8 +46836,16 @@
         <f>covid19!F40</f>
         <v>407</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C40">
+        <f>covid19!G40</f>
+        <v>278</v>
+      </c>
+      <c r="D40">
+        <f>covid19!H40</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <f>covid19!A41</f>
         <v>43946</v>
@@ -46333,8 +46854,16 @@
         <f>covid19!F41</f>
         <v>293</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C41">
+        <f>covid19!G41</f>
+        <v>293</v>
+      </c>
+      <c r="D41">
+        <f>covid19!H41</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <f>covid19!A42</f>
         <v>43947</v>
@@ -46343,8 +46872,16 @@
         <f>covid19!F42</f>
         <v>286</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C42">
+        <f>covid19!G42</f>
+        <v>286</v>
+      </c>
+      <c r="D42">
+        <f>covid19!H42</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <f>covid19!A43</f>
         <v>43948</v>
@@ -46353,8 +46890,16 @@
         <f>covid19!F43</f>
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C43">
+        <f>covid19!G43</f>
+        <v>300</v>
+      </c>
+      <c r="D43">
+        <f>covid19!H43</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <f>covid19!A44</f>
         <v>43949</v>
@@ -46363,8 +46908,16 @@
         <f>covid19!F44</f>
         <v>304</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C44">
+        <f>covid19!G44</f>
+        <v>304</v>
+      </c>
+      <c r="D44">
+        <f>covid19!H44</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <f>covid19!A45</f>
         <v>43950</v>
@@ -46373,8 +46926,16 @@
         <f>covid19!F45</f>
         <v>323</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C45">
+        <f>covid19!G45</f>
+        <v>323</v>
+      </c>
+      <c r="D45">
+        <f>covid19!H45</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <f>covid19!A46</f>
         <v>43951</v>
@@ -46383,8 +46944,16 @@
         <f>covid19!F46</f>
         <v>335</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C46">
+        <f>covid19!G46</f>
+        <v>335</v>
+      </c>
+      <c r="D46">
+        <f>covid19!H46</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <f>covid19!A47</f>
         <v>43952</v>
@@ -46393,8 +46962,16 @@
         <f>covid19!F47</f>
         <v>345</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C47">
+        <f>covid19!G47</f>
+        <v>348</v>
+      </c>
+      <c r="D47">
+        <f>covid19!H47</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <f>covid19!A48</f>
         <v>43953</v>
@@ -46403,8 +46980,16 @@
         <f>covid19!F48</f>
         <v>353</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C48">
+        <f>covid19!G48</f>
+        <v>353</v>
+      </c>
+      <c r="D48">
+        <f>covid19!H48</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <f>covid19!A49</f>
         <v>43954</v>
@@ -46413,8 +46998,16 @@
         <f>covid19!F49</f>
         <v>378</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C49">
+        <f>covid19!G49</f>
+        <v>378</v>
+      </c>
+      <c r="D49">
+        <f>covid19!H49</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <f>covid19!A50</f>
         <v>43955</v>
@@ -46423,8 +47016,16 @@
         <f>covid19!F50</f>
         <v>389</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C50">
+        <f>covid19!G50</f>
+        <v>389</v>
+      </c>
+      <c r="D50">
+        <f>covid19!H50</f>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <f>covid19!A51</f>
         <v>43956</v>
@@ -46433,8 +47034,16 @@
         <f>covid19!F51</f>
         <v>407</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C51">
+        <f>covid19!G51</f>
+        <v>407</v>
+      </c>
+      <c r="D51">
+        <f>covid19!H51</f>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <f>covid19!A52</f>
         <v>43957</v>
@@ -46443,8 +47052,16 @@
         <f>covid19!F52</f>
         <v>414</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C52">
+        <f>covid19!G52</f>
+        <v>413</v>
+      </c>
+      <c r="D52">
+        <f>covid19!H52</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <f>covid19!A53</f>
         <v>43958</v>
@@ -46453,8 +47070,16 @@
         <f>covid19!F53</f>
         <v>417</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C53">
+        <f>covid19!G53</f>
+        <v>417</v>
+      </c>
+      <c r="D53">
+        <f>covid19!H53</f>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <f>covid19!A54</f>
         <v>43959</v>
@@ -46463,8 +47088,16 @@
         <f>covid19!F54</f>
         <v>407</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C54">
+        <f>covid19!G54</f>
+        <v>407</v>
+      </c>
+      <c r="D54">
+        <f>covid19!H54</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <f>covid19!A55</f>
         <v>43960</v>
@@ -46473,8 +47106,16 @@
         <f>covid19!F55</f>
         <v>402</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C55">
+        <f>covid19!G55</f>
+        <v>402</v>
+      </c>
+      <c r="D55">
+        <f>covid19!H55</f>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <f>covid19!A56</f>
         <v>43961</v>
@@ -46483,8 +47124,16 @@
         <f>covid19!F56</f>
         <v>413</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C56">
+        <f>covid19!G56</f>
+        <v>413</v>
+      </c>
+      <c r="D56">
+        <f>covid19!H56</f>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <f>covid19!A57</f>
         <v>43962</v>
@@ -46493,8 +47142,16 @@
         <f>covid19!F57</f>
         <v>394</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C57">
+        <f>covid19!G57</f>
+        <v>394</v>
+      </c>
+      <c r="D57">
+        <f>covid19!H57</f>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <f>covid19!A58</f>
         <v>43963</v>
@@ -46503,8 +47160,16 @@
         <f>covid19!F58</f>
         <v>385</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C58">
+        <f>covid19!G58</f>
+        <v>385</v>
+      </c>
+      <c r="D58">
+        <f>covid19!H58</f>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <f>covid19!A59</f>
         <v>43964</v>
@@ -46513,8 +47178,16 @@
         <f>covid19!F59</f>
         <v>388</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C59">
+        <f>covid19!G59</f>
+        <v>388</v>
+      </c>
+      <c r="D59">
+        <f>covid19!H59</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <f>covid19!A60</f>
         <v>43965</v>
@@ -46523,8 +47196,16 @@
         <f>covid19!F60</f>
         <v>405</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C60">
+        <f>covid19!G60</f>
+        <v>405</v>
+      </c>
+      <c r="D60">
+        <f>covid19!H60</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <f>covid19!A61</f>
         <v>43966</v>
@@ -46533,8 +47214,16 @@
         <f>covid19!F61</f>
         <v>387</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C61">
+        <f>covid19!G61</f>
+        <v>387</v>
+      </c>
+      <c r="D61">
+        <f>covid19!H61</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <f>covid19!A62</f>
         <v>43967</v>
@@ -46543,8 +47232,16 @@
         <f>covid19!F62</f>
         <v>385</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C62">
+        <f>covid19!G62</f>
+        <v>385</v>
+      </c>
+      <c r="D62">
+        <f>covid19!H62</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <f>covid19!A63</f>
         <v>43968</v>
@@ -46553,8 +47250,16 @@
         <f>covid19!F63</f>
         <v>374</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C63">
+        <f>covid19!G63</f>
+        <v>374</v>
+      </c>
+      <c r="D63">
+        <f>covid19!H63</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <f>covid19!A64</f>
         <v>43969</v>
@@ -46563,8 +47268,16 @@
         <f>covid19!F64</f>
         <v>382</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C64">
+        <f>covid19!G64</f>
+        <v>382</v>
+      </c>
+      <c r="D64">
+        <f>covid19!H64</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <f>covid19!A65</f>
         <v>43970</v>
@@ -46573,8 +47286,16 @@
         <f>covid19!F65</f>
         <v>383</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C65">
+        <f>covid19!G65</f>
+        <v>383</v>
+      </c>
+      <c r="D65">
+        <f>covid19!H65</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <f>covid19!A66</f>
         <v>43971</v>
@@ -46583,8 +47304,16 @@
         <f>covid19!F66</f>
         <v>381</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C66">
+        <f>covid19!G66</f>
+        <v>381</v>
+      </c>
+      <c r="D66">
+        <f>covid19!H66</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <f>covid19!A67</f>
         <v>43972</v>
@@ -46593,8 +47322,16 @@
         <f>covid19!F67</f>
         <v>376</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C67">
+        <f>covid19!G67</f>
+        <v>376</v>
+      </c>
+      <c r="D67">
+        <f>covid19!H67</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <f>covid19!A68</f>
         <v>43973</v>
@@ -46603,8 +47340,16 @@
         <f>covid19!F68</f>
         <v>362</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C68">
+        <f>covid19!G68</f>
+        <v>362</v>
+      </c>
+      <c r="D68">
+        <f>covid19!H68</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <f>covid19!A69</f>
         <v>43974</v>
@@ -46613,8 +47358,16 @@
         <f>covid19!F69</f>
         <v>262</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C69">
+        <f>covid19!G69</f>
+        <v>262</v>
+      </c>
+      <c r="D69">
+        <f>covid19!H69</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <f>covid19!A70</f>
         <v>43975</v>
@@ -46623,8 +47376,16 @@
         <f>covid19!F70</f>
         <v>377</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C70">
+        <f>covid19!G70</f>
+        <v>377</v>
+      </c>
+      <c r="D70">
+        <f>covid19!H70</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <f>covid19!A71</f>
         <v>43976</v>
@@ -46633,8 +47394,16 @@
         <f>covid19!F71</f>
         <v>379</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C71">
+        <f>covid19!G71</f>
+        <v>379</v>
+      </c>
+      <c r="D71">
+        <f>covid19!H71</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <f>covid19!A72</f>
         <v>43977</v>
@@ -46643,8 +47412,16 @@
         <f>covid19!F72</f>
         <v>393</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C72">
+        <f>covid19!G72</f>
+        <v>393</v>
+      </c>
+      <c r="D72">
+        <f>covid19!H72</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <f>covid19!A73</f>
         <v>43978</v>
@@ -46653,8 +47430,16 @@
         <f>covid19!F73</f>
         <v>383</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C73">
+        <f>covid19!G73</f>
+        <v>383</v>
+      </c>
+      <c r="D73">
+        <f>covid19!H73</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <f>covid19!A74</f>
         <v>43979</v>
@@ -46663,8 +47448,16 @@
         <f>covid19!F74</f>
         <v>376</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C74">
+        <f>covid19!G74</f>
+        <v>376</v>
+      </c>
+      <c r="D74">
+        <f>covid19!H74</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <f>covid19!A75</f>
         <v>43980</v>
@@ -46673,8 +47466,16 @@
         <f>covid19!F75</f>
         <v>368</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C75">
+        <f>covid19!G75</f>
+        <v>368</v>
+      </c>
+      <c r="D75">
+        <f>covid19!H75</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <f>covid19!A76</f>
         <v>43981</v>
@@ -46683,8 +47484,16 @@
         <f>covid19!F76</f>
         <v>341</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C76">
+        <f>covid19!G76</f>
+        <v>341</v>
+      </c>
+      <c r="D76">
+        <f>covid19!H76</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <f>covid19!A77</f>
         <v>43983</v>
@@ -46693,8 +47502,16 @@
         <f>covid19!F77</f>
         <v>339</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C77">
+        <f>covid19!G77</f>
+        <v>339</v>
+      </c>
+      <c r="D77">
+        <f>covid19!H77</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <f>covid19!A78</f>
         <v>43984</v>
@@ -46703,8 +47520,16 @@
         <f>covid19!F78</f>
         <v>327</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C78">
+        <f>covid19!G78</f>
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <f>covid19!H78</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <f>covid19!A79</f>
         <v>43985</v>
@@ -46713,8 +47538,16 @@
         <f>covid19!F79</f>
         <v>314</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C79">
+        <f>covid19!G79</f>
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <f>covid19!H79</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <f>covid19!A80</f>
         <v>43986</v>
@@ -46723,8 +47556,16 @@
         <f>covid19!F80</f>
         <v>310</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C80">
+        <f>covid19!G80</f>
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <f>covid19!H80</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <f>covid19!A81</f>
         <v>43987</v>
@@ -46733,8 +47574,16 @@
         <f>covid19!F81</f>
         <v>299</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C81">
+        <f>covid19!G81</f>
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <f>covid19!H81</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <f>covid19!A82</f>
         <v>43988</v>
@@ -46743,8 +47592,16 @@
         <f>covid19!F82</f>
         <v>288</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C82">
+        <f>covid19!G82</f>
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <f>covid19!H82</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <f>covid19!A83</f>
         <v>43989</v>
@@ -46753,8 +47610,16 @@
         <f>covid19!F83</f>
         <v>269</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C83">
+        <f>covid19!G83</f>
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <f>covid19!H83</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <f>covid19!A84</f>
         <v>43990</v>
@@ -46763,8 +47628,16 @@
         <f>covid19!F84</f>
         <v>265</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C84">
+        <f>covid19!G84</f>
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <f>covid19!H84</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <f>covid19!A85</f>
         <v>43991</v>
@@ -46773,8 +47646,16 @@
         <f>covid19!F85</f>
         <v>255</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C85">
+        <f>covid19!G85</f>
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <f>covid19!H85</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <f>covid19!A86</f>
         <v>43992</v>
@@ -46783,8 +47664,16 @@
         <f>covid19!F86</f>
         <v>245</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C86">
+        <f>covid19!G86</f>
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <f>covid19!H86</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <f>covid19!A87</f>
         <v>43993</v>
@@ -46793,8 +47682,16 @@
         <f>covid19!F87</f>
         <v>242</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C87">
+        <f>covid19!G87</f>
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <f>covid19!H87</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <f>covid19!A88</f>
         <v>43994</v>
@@ -46803,8 +47700,16 @@
         <f>covid19!F88</f>
         <v>225</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C88">
+        <f>covid19!G88</f>
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <f>covid19!H88</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <f>covid19!A89</f>
         <v>43995</v>
@@ -46813,8 +47718,16 @@
         <f>covid19!F89</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C89">
+        <f>covid19!G89</f>
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <f>covid19!H89</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <f>covid19!A90</f>
         <v>43996</v>
@@ -46823,8 +47736,16 @@
         <f>covid19!F90</f>
         <v>203</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C90">
+        <f>covid19!G90</f>
+        <v>77</v>
+      </c>
+      <c r="D90">
+        <f>covid19!H90</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <f>covid19!A91</f>
         <v>43997</v>
@@ -46833,8 +47754,16 @@
         <f>covid19!F91</f>
         <v>197</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C91">
+        <f>covid19!G91</f>
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <f>covid19!H91</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <f>covid19!A92</f>
         <v>43998</v>
@@ -46843,8 +47772,16 @@
         <f>covid19!F92</f>
         <v>193</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C92">
+        <f>covid19!G92</f>
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <f>covid19!H92</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <f>covid19!A93</f>
         <v>43999</v>
@@ -46853,8 +47790,16 @@
         <f>covid19!F93</f>
         <v>188</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C93">
+        <f>covid19!G93</f>
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <f>covid19!H93</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <f>covid19!A94</f>
         <v>44000</v>
@@ -46863,8 +47808,16 @@
         <f>covid19!F94</f>
         <v>176</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C94">
+        <f>covid19!G94</f>
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <f>covid19!H94</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <f>covid19!A95</f>
         <v>44001</v>
@@ -46873,8 +47826,16 @@
         <f>covid19!F95</f>
         <v>197</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C95">
+        <f>covid19!G95</f>
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <f>covid19!H95</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <f>covid19!A96</f>
         <v>44002</v>
@@ -46883,8 +47844,16 @@
         <f>covid19!F96</f>
         <v>182</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C96">
+        <f>covid19!G96</f>
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <f>covid19!H96</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <f>covid19!A97</f>
         <v>44003</v>
@@ -46893,8 +47862,16 @@
         <f>covid19!F97</f>
         <v>170</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C97">
+        <f>covid19!G97</f>
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <f>covid19!H97</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <f>covid19!A98</f>
         <v>44004</v>
@@ -46903,8 +47880,16 @@
         <f>covid19!F98</f>
         <v>169</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C98">
+        <f>covid19!G98</f>
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <f>covid19!H98</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <f>covid19!A99</f>
         <v>44005</v>
@@ -46913,8 +47898,16 @@
         <f>covid19!F99</f>
         <v>163</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C99">
+        <f>covid19!G99</f>
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <f>covid19!H99</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <f>covid19!A100</f>
         <v>44006</v>
@@ -46923,8 +47916,16 @@
         <f>covid19!F100</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C100">
+        <f>covid19!G100</f>
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <f>covid19!H100</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <f>covid19!A101</f>
         <v>44007</v>
@@ -46933,8 +47934,16 @@
         <f>covid19!F101</f>
         <v>137</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C101">
+        <f>covid19!G101</f>
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <f>covid19!H101</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <f>covid19!A102</f>
         <v>44008</v>
@@ -46943,8 +47952,16 @@
         <f>covid19!F102</f>
         <v>141</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C102">
+        <f>covid19!G102</f>
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <f>covid19!H102</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <f>covid19!A103</f>
         <v>44009</v>
@@ -46953,8 +47970,16 @@
         <f>covid19!F103</f>
         <v>131</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C103">
+        <f>covid19!G103</f>
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <f>covid19!H103</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <f>covid19!A104</f>
         <v>44010</v>
@@ -46963,8 +47988,16 @@
         <f>covid19!F104</f>
         <v>118</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C104">
+        <f>covid19!G104</f>
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <f>covid19!H104</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <f>covid19!A105</f>
         <v>44011</v>
@@ -46973,8 +48006,16 @@
         <f>covid19!F105</f>
         <v>119</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C105">
+        <f>covid19!G105</f>
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <f>covid19!H105</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <f>covid19!A106</f>
         <v>44012</v>
@@ -46983,8 +48024,16 @@
         <f>covid19!F106</f>
         <v>133</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C106">
+        <f>covid19!G106</f>
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <f>covid19!H106</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <f>covid19!A107</f>
         <v>44013</v>
@@ -46993,8 +48042,16 @@
         <f>covid19!F107</f>
         <v>149</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C107">
+        <f>covid19!G107</f>
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <f>covid19!H107</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <f>covid19!A108</f>
         <v>44014</v>
@@ -47003,8 +48060,16 @@
         <f>covid19!F108</f>
         <v>145</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C108">
+        <f>covid19!G108</f>
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <f>covid19!H108</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <f>covid19!A109</f>
         <v>44015</v>
@@ -47013,8 +48078,16 @@
         <f>covid19!F109</f>
         <v>146</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C109">
+        <f>covid19!G109</f>
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <f>covid19!H109</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <f>covid19!A110</f>
         <v>44016</v>
@@ -47023,8 +48096,16 @@
         <f>covid19!F110</f>
         <v>134</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C110">
+        <f>covid19!G110</f>
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <f>covid19!H110</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <f>covid19!A111</f>
         <v>44017</v>
@@ -47033,8 +48114,16 @@
         <f>covid19!F111</f>
         <v>141</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C111">
+        <f>covid19!G111</f>
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <f>covid19!H111</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <f>covid19!A112</f>
         <v>44018</v>
@@ -47043,8 +48132,16 @@
         <f>covid19!F112</f>
         <v>151</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C112">
+        <f>covid19!G112</f>
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <f>covid19!H112</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <f>covid19!A113</f>
         <v>44019</v>
@@ -47053,8 +48150,16 @@
         <f>covid19!F113</f>
         <v>165</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C113">
+        <f>covid19!G113</f>
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <f>covid19!H113</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <f>covid19!A114</f>
         <v>44020</v>
@@ -47063,8 +48168,16 @@
         <f>covid19!F114</f>
         <v>165</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C114">
+        <f>covid19!G114</f>
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <f>covid19!H114</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <f>covid19!A115</f>
         <v>44021</v>
@@ -47073,8 +48186,16 @@
         <f>covid19!F115</f>
         <v>168</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C115">
+        <f>covid19!G115</f>
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <f>covid19!H115</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <f>covid19!A116</f>
         <v>44022</v>
@@ -47083,8 +48204,16 @@
         <f>covid19!F116</f>
         <v>169</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C116">
+        <f>covid19!G116</f>
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <f>covid19!H116</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <f>covid19!A117</f>
         <v>44023</v>
@@ -47093,8 +48222,16 @@
         <f>covid19!F117</f>
         <v>178</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C117">
+        <f>covid19!G117</f>
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <f>covid19!H117</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <f>covid19!A118</f>
         <v>44024</v>
@@ -47103,8 +48240,16 @@
         <f>covid19!F118</f>
         <v>177</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C118">
+        <f>covid19!G118</f>
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <f>covid19!H118</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <f>covid19!A119</f>
         <v>44025</v>
@@ -47113,8 +48258,16 @@
         <f>covid19!F119</f>
         <v>173</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C119">
+        <f>covid19!G119</f>
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <f>covid19!H119</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <f>covid19!A120</f>
         <v>44026</v>
@@ -47123,8 +48276,16 @@
         <f>covid19!F120</f>
         <v>186</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C120">
+        <f>covid19!G120</f>
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <f>covid19!H120</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <f>covid19!A121</f>
         <v>44027</v>
@@ -47133,8 +48294,16 @@
         <f>covid19!F121</f>
         <v>190</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C121">
+        <f>covid19!G121</f>
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <f>covid19!H121</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <f>covid19!A122</f>
         <v>44028</v>
@@ -47143,8 +48312,16 @@
         <f>covid19!F122</f>
         <v>195</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C122">
+        <f>covid19!G122</f>
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <f>covid19!H122</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <f>covid19!A123</f>
         <v>44029</v>
@@ -47153,8 +48330,16 @@
         <f>covid19!F123</f>
         <v>210</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C123">
+        <f>covid19!G123</f>
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <f>covid19!H123</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <f>covid19!A124</f>
         <v>44030</v>
@@ -47163,8 +48348,16 @@
         <f>covid19!F124</f>
         <v>210</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C124">
+        <f>covid19!G124</f>
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <f>covid19!H124</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <f>covid19!A125</f>
         <v>44031</v>
@@ -47173,8 +48366,16 @@
         <f>covid19!F125</f>
         <v>214</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C125">
+        <f>covid19!G125</f>
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <f>covid19!H125</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <f>covid19!A126</f>
         <v>44032</v>
@@ -47183,8 +48384,16 @@
         <f>covid19!F126</f>
         <v>221</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C126">
+        <f>covid19!G126</f>
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <f>covid19!H126</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <f>covid19!A127</f>
         <v>44033</v>
@@ -47193,8 +48402,16 @@
         <f>covid19!F127</f>
         <v>223</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C127">
+        <f>covid19!G127</f>
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <f>covid19!H127</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <f>covid19!A128</f>
         <v>44034</v>
@@ -47203,8 +48420,16 @@
         <f>covid19!F128</f>
         <v>224</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C128">
+        <f>covid19!G128</f>
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <f>covid19!H128</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <f>covid19!A129</f>
         <v>44035</v>
@@ -47213,8 +48438,16 @@
         <f>covid19!F129</f>
         <v>232</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C129">
+        <f>covid19!G129</f>
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <f>covid19!H129</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <f>covid19!A130</f>
         <v>44036</v>
@@ -47223,8 +48456,16 @@
         <f>covid19!F130</f>
         <v>230</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C130">
+        <f>covid19!G130</f>
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <f>covid19!H130</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <f>covid19!A131</f>
         <v>44037</v>
@@ -47233,8 +48474,16 @@
         <f>covid19!F131</f>
         <v>220</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C131">
+        <f>covid19!G131</f>
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <f>covid19!H131</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <f>covid19!A132</f>
         <v>44038</v>
@@ -47243,8 +48492,16 @@
         <f>covid19!F132</f>
         <v>226</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C132">
+        <f>covid19!G132</f>
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <f>covid19!H132</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <f>covid19!A133</f>
         <v>44039</v>
@@ -47253,8 +48510,16 @@
         <f>covid19!F133</f>
         <v>241</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C133">
+        <f>covid19!G133</f>
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <f>covid19!H133</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <f>covid19!A134</f>
         <v>44040</v>
@@ -47263,8 +48528,16 @@
         <f>covid19!F134</f>
         <v>253</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C134">
+        <f>covid19!G134</f>
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <f>covid19!H134</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <f>covid19!A135</f>
         <v>44041</v>
@@ -47273,8 +48546,16 @@
         <f>covid19!F135</f>
         <v>246</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C135">
+        <f>covid19!G135</f>
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <f>covid19!H135</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <f>covid19!A136</f>
         <v>44042</v>
@@ -47283,8 +48564,16 @@
         <f>covid19!F136</f>
         <v>237</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C136">
+        <f>covid19!G136</f>
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <f>covid19!H136</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <f>covid19!A137</f>
         <v>44043</v>
@@ -47293,8 +48582,16 @@
         <f>covid19!F137</f>
         <v>225</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C137">
+        <f>covid19!G137</f>
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <f>covid19!H137</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <f>covid19!A138</f>
         <v>44044</v>
@@ -47303,8 +48600,16 @@
         <f>covid19!F138</f>
         <v>242</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C138">
+        <f>covid19!G138</f>
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <f>covid19!H138</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <f>covid19!A139</f>
         <v>44045</v>
@@ -47313,8 +48618,16 @@
         <f>covid19!F139</f>
         <v>231</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C139">
+        <f>covid19!G139</f>
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <f>covid19!H139</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <f>covid19!A140</f>
         <v>44046</v>
@@ -47323,8 +48636,16 @@
         <f>covid19!F140</f>
         <v>241</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C140">
+        <f>covid19!G140</f>
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <f>covid19!H140</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <f>covid19!A141</f>
         <v>44047</v>
@@ -47333,8 +48654,16 @@
         <f>covid19!F141</f>
         <v>243</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C141">
+        <f>covid19!G141</f>
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <f>covid19!H141</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <f>covid19!A142</f>
         <v>44048</v>
@@ -47343,8 +48672,16 @@
         <f>covid19!F142</f>
         <v>248</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C142">
+        <f>covid19!G142</f>
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <f>covid19!H142</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <f>covid19!A143</f>
         <v>44049</v>
@@ -47353,8 +48690,16 @@
         <f>covid19!F143</f>
         <v>237</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C143">
+        <f>covid19!G143</f>
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <f>covid19!H143</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <f>covid19!A144</f>
         <v>44050</v>
@@ -47363,8 +48708,16 @@
         <f>covid19!F144</f>
         <v>223</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C144">
+        <f>covid19!G144</f>
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <f>covid19!H144</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <f>covid19!A145</f>
         <v>44051</v>
@@ -47373,8 +48726,16 @@
         <f>covid19!F145</f>
         <v>229</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C145">
+        <f>covid19!G145</f>
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <f>covid19!H145</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <f>covid19!A146</f>
         <v>44052</v>
@@ -47383,8 +48744,16 @@
         <f>covid19!F146</f>
         <v>221</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C146">
+        <f>covid19!G146</f>
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <f>covid19!H146</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <f>covid19!A147</f>
         <v>44053</v>
@@ -47393,8 +48762,16 @@
         <f>covid19!F147</f>
         <v>224</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C147">
+        <f>covid19!G147</f>
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <f>covid19!H147</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <f>covid19!A148</f>
         <v>44054</v>
@@ -47403,8 +48780,16 @@
         <f>covid19!F148</f>
         <v>244</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C148">
+        <f>covid19!G148</f>
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <f>covid19!H148</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <f>covid19!A149</f>
         <v>44055</v>
@@ -47413,8 +48798,16 @@
         <f>covid19!F149</f>
         <v>243</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C149">
+        <f>covid19!G149</f>
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <f>covid19!H149</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <f>covid19!A150</f>
         <v>44056</v>
@@ -47423,8 +48816,16 @@
         <f>covid19!F150</f>
         <v>261</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C150">
+        <f>covid19!G150</f>
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <f>covid19!H150</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <f>covid19!A151</f>
         <v>44057</v>
@@ -47433,8 +48834,16 @@
         <f>covid19!F151</f>
         <v>258</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C151">
+        <f>covid19!G151</f>
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <f>covid19!H151</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <f>covid19!A152</f>
         <v>44058</v>
@@ -47443,8 +48852,16 @@
         <f>covid19!F152</f>
         <v>261</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C152">
+        <f>covid19!G152</f>
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <f>covid19!H152</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <f>covid19!A153</f>
         <v>44059</v>
@@ -47453,8 +48870,16 @@
         <f>covid19!F153</f>
         <v>271</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C153">
+        <f>covid19!G153</f>
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <f>covid19!H153</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <f>covid19!A154</f>
         <v>44060</v>
@@ -47463,8 +48888,16 @@
         <f>covid19!F154</f>
         <v>283</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C154">
+        <f>covid19!G154</f>
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <f>covid19!H154</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <f>covid19!A155</f>
         <v>44061</v>
@@ -47473,8 +48906,16 @@
         <f>covid19!F155</f>
         <v>287</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C155">
+        <f>covid19!G155</f>
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <f>covid19!H155</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <f>covid19!A156</f>
         <v>44062</v>
@@ -47483,8 +48924,16 @@
         <f>covid19!F156</f>
         <v>299</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C156">
+        <f>covid19!G156</f>
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <f>covid19!H156</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <f>covid19!A157</f>
         <v>44063</v>
@@ -47493,8 +48942,16 @@
         <f>covid19!F157</f>
         <v>300</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C157">
+        <f>covid19!G157</f>
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <f>covid19!H157</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <f>covid19!A158</f>
         <v>44064</v>
@@ -47503,8 +48960,16 @@
         <f>covid19!F158</f>
         <v>293</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C158">
+        <f>covid19!G158</f>
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <f>covid19!H158</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <f>covid19!A159</f>
         <v>44065</v>
@@ -47513,8 +48978,16 @@
         <f>covid19!F159</f>
         <v>268</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C159">
+        <f>covid19!G159</f>
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <f>covid19!H159</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <f>covid19!A160</f>
         <v>44066</v>
@@ -47523,8 +48996,16 @@
         <f>covid19!F160</f>
         <v>260</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C160">
+        <f>covid19!G160</f>
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <f>covid19!H160</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <f>covid19!A161</f>
         <v>44067</v>
@@ -47533,8 +49014,16 @@
         <f>covid19!F161</f>
         <v>275</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C161">
+        <f>covid19!G161</f>
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <f>covid19!H161</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <f>covid19!A162</f>
         <v>44068</v>
@@ -47543,8 +49032,16 @@
         <f>covid19!F162</f>
         <v>295</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C162">
+        <f>covid19!G162</f>
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <f>covid19!H162</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <f>covid19!A163</f>
         <v>44069</v>
@@ -47553,8 +49050,16 @@
         <f>covid19!F163</f>
         <v>313</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C163">
+        <f>covid19!G163</f>
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <f>covid19!H163</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <f>covid19!A164</f>
         <v>44070</v>
@@ -47563,8 +49068,16 @@
         <f>covid19!F164</f>
         <v>305</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C164">
+        <f>covid19!G164</f>
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <f>covid19!H164</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <f>covid19!A165</f>
         <v>44071</v>
@@ -47573,8 +49086,16 @@
         <f>covid19!F165</f>
         <v>299</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C165">
+        <f>covid19!G165</f>
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <f>covid19!H165</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <f>covid19!A166</f>
         <v>44072</v>
@@ -47583,8 +49104,16 @@
         <f>covid19!F166</f>
         <v>315</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C166">
+        <f>covid19!G166</f>
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <f>covid19!H166</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <f>covid19!A167</f>
         <v>44073</v>
@@ -47593,8 +49122,16 @@
         <f>covid19!F167</f>
         <v>315</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C167">
+        <f>covid19!G167</f>
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <f>covid19!H167</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <f>covid19!A168</f>
         <v>44074</v>
@@ -47603,8 +49140,16 @@
         <f>covid19!F168</f>
         <v>300</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C168">
+        <f>covid19!G168</f>
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <f>covid19!H168</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <f>covid19!A169</f>
         <v>44075</v>
@@ -47613,8 +49158,16 @@
         <f>covid19!F169</f>
         <v>311</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C169">
+        <f>covid19!G169</f>
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <f>covid19!H169</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <f>covid19!A170</f>
         <v>44076</v>
@@ -47623,8 +49176,16 @@
         <f>covid19!F170</f>
         <v>310</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C170">
+        <f>covid19!G170</f>
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <f>covid19!H170</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <f>covid19!A171</f>
         <v>44077</v>
@@ -47633,8 +49194,16 @@
         <f>covid19!F171</f>
         <v>323</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C171">
+        <f>covid19!G171</f>
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <f>covid19!H171</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <f>covid19!A172</f>
         <v>44078</v>
@@ -47643,8 +49212,16 @@
         <f>covid19!F172</f>
         <v>317</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C172">
+        <f>covid19!G172</f>
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <f>covid19!H172</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <f>covid19!A173</f>
         <v>44079</v>
@@ -47653,8 +49230,16 @@
         <f>covid19!F173</f>
         <v>315</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C173">
+        <f>covid19!G173</f>
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <f>covid19!H173</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <f>covid19!A174</f>
         <v>44080</v>
@@ -47663,8 +49248,16 @@
         <f>covid19!F174</f>
         <v>309</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C174">
+        <f>covid19!G174</f>
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <f>covid19!H174</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <f>covid19!A175</f>
         <v>44081</v>
@@ -47673,8 +49266,16 @@
         <f>covid19!F175</f>
         <v>311</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C175">
+        <f>covid19!G175</f>
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <f>covid19!H175</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <f>covid19!A176</f>
         <v>44082</v>
@@ -47683,8 +49284,16 @@
         <f>covid19!F176</f>
         <v>326</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C176">
+        <f>covid19!G176</f>
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <f>covid19!H176</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <f>covid19!A177</f>
         <v>44083</v>
@@ -47693,8 +49302,16 @@
         <f>covid19!F177</f>
         <v>322</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C177">
+        <f>covid19!G177</f>
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <f>covid19!H177</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <f>covid19!A178</f>
         <v>44084</v>
@@ -47703,8 +49320,16 @@
         <f>covid19!F178</f>
         <v>302</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C178">
+        <f>covid19!G178</f>
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <f>covid19!H178</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <f>covid19!A179</f>
         <v>44085</v>
@@ -47713,8 +49338,16 @@
         <f>covid19!F179</f>
         <v>281</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C179">
+        <f>covid19!G179</f>
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <f>covid19!H179</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <f>covid19!A180</f>
         <v>44086</v>
@@ -47723,8 +49356,16 @@
         <f>covid19!F180</f>
         <v>290</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C180">
+        <f>covid19!G180</f>
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <f>covid19!H180</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <f>covid19!A181</f>
         <v>44087</v>
@@ -47733,8 +49374,16 @@
         <f>covid19!F181</f>
         <v>274</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C181">
+        <f>covid19!G181</f>
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <f>covid19!H181</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <f>covid19!A182</f>
         <v>44088</v>
@@ -47743,8 +49392,16 @@
         <f>covid19!F182</f>
         <v>272</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C182">
+        <f>covid19!G182</f>
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <f>covid19!H182</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <f>covid19!A183</f>
         <v>44089</v>
@@ -47753,8 +49410,16 @@
         <f>covid19!F183</f>
         <v>284</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C183">
+        <f>covid19!G183</f>
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <f>covid19!H183</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <f>covid19!A184</f>
         <v>44090</v>
@@ -47763,8 +49428,16 @@
         <f>covid19!F184</f>
         <v>291</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C184">
+        <f>covid19!G184</f>
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <f>covid19!H184</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <f>covid19!A185</f>
         <v>44091</v>
@@ -47773,8 +49446,16 @@
         <f>covid19!F185</f>
         <v>271</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C185">
+        <f>covid19!G185</f>
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <f>covid19!H185</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <f>covid19!A186</f>
         <v>44092</v>
@@ -47783,8 +49464,16 @@
         <f>covid19!F186</f>
         <v>281</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C186">
+        <f>covid19!G186</f>
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <f>covid19!H186</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <f>covid19!A187</f>
         <v>44093</v>
@@ -47793,8 +49482,16 @@
         <f>covid19!F187</f>
         <v>282</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C187">
+        <f>covid19!G187</f>
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <f>covid19!H187</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <f>covid19!A188</f>
         <v>44094</v>
@@ -47803,8 +49500,16 @@
         <f>covid19!F188</f>
         <v>269</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C188">
+        <f>covid19!G188</f>
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <f>covid19!H188</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <f>covid19!A189</f>
         <v>44095</v>
@@ -47813,8 +49518,16 @@
         <f>covid19!F189</f>
         <v>271</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C189">
+        <f>covid19!G189</f>
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <f>covid19!H189</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <f>covid19!A190</f>
         <v>44096</v>
@@ -47823,8 +49536,16 @@
         <f>covid19!F190</f>
         <v>285</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C190">
+        <f>covid19!G190</f>
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <f>covid19!H190</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <f>covid19!A191</f>
         <v>44097</v>
@@ -47833,8 +49554,16 @@
         <f>covid19!F191</f>
         <v>301</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C191">
+        <f>covid19!G191</f>
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <f>covid19!H191</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <f>covid19!A192</f>
         <v>44098</v>
@@ -47842,6 +49571,14 @@
       <c r="B192">
         <f>covid19!F192</f>
         <v>305</v>
+      </c>
+      <c r="C192">
+        <f>covid19!G192</f>
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <f>covid19!H192</f>
+        <v>79</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
@@ -47853,6 +49590,14 @@
         <f>covid19!F193</f>
         <v>330</v>
       </c>
+      <c r="C193">
+        <f>covid19!G193</f>
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <f>covid19!H193</f>
+        <v>87</v>
+      </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
@@ -47863,6 +49608,14 @@
         <f>covid19!F194</f>
         <v>334</v>
       </c>
+      <c r="C194">
+        <f>covid19!G194</f>
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <f>covid19!H194</f>
+        <v>84</v>
+      </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
@@ -47873,6 +49626,14 @@
         <f>covid19!F195</f>
         <v>343</v>
       </c>
+      <c r="C195">
+        <f>covid19!G195</f>
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <f>covid19!H195</f>
+        <v>89</v>
+      </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
@@ -47883,6 +49644,14 @@
         <f>covid19!F196</f>
         <v>353</v>
       </c>
+      <c r="C196">
+        <f>covid19!G196</f>
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <f>covid19!H196</f>
+        <v>96</v>
+      </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
@@ -47893,6 +49662,14 @@
         <f>covid19!F197</f>
         <v>376</v>
       </c>
+      <c r="C197">
+        <f>covid19!G197</f>
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <f>covid19!H197</f>
+        <v>97</v>
+      </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
@@ -47903,9 +49680,31 @@
         <f>covid19!F198</f>
         <v>390</v>
       </c>
+      <c r="C198">
+        <f>covid19!G198</f>
+        <v>0</v>
+      </c>
       <c r="D198">
-        <f>MAX(B:B)</f>
-        <v>417</v>
+        <f>covid19!H198</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <f>covid19!A199</f>
+        <v>44105</v>
+      </c>
+      <c r="B199">
+        <f>covid19!F199</f>
+        <v>407</v>
+      </c>
+      <c r="C199">
+        <f>covid19!G199</f>
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <f>covid19!H199</f>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97187FAE-7E09-4B8F-89EE-E90ED0CAF6EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79B3F1F-F586-4FD4-A660-8CAFB510FA04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1561,13 +1561,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AT200"/>
+  <dimension ref="A1:AT204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L186" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y199" sqref="Y199"/>
+      <selection pane="bottomRight" activeCell="AH203" sqref="AH203:AK204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14753,7 +14753,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="14">
-        <f t="shared" ref="A152:A200" si="49">A151+1</f>
+        <f t="shared" ref="A152:A204" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -19493,7 +19493,7 @@
         <v>7</v>
       </c>
       <c r="M187" s="7">
-        <f t="shared" ref="M187:M200" si="219">B187-C187</f>
+        <f t="shared" ref="M187:M202" si="219">B187-C187</f>
         <v>653112</v>
       </c>
       <c r="N187" s="4">
@@ -20984,7 +20984,7 @@
         <v>708583</v>
       </c>
       <c r="N198" s="4">
-        <f t="shared" ref="N198:N200" si="320">C198/B198</f>
+        <f t="shared" ref="N198:N202" si="320">C198/B198</f>
         <v>0.11109117869176981</v>
       </c>
       <c r="Q198">
@@ -21144,11 +21144,11 @@
         <v>5508</v>
       </c>
       <c r="V199">
-        <f t="shared" ref="V199:V200" si="339">C199-D199-E199</f>
+        <f t="shared" ref="V199" si="339">C199-D199-E199</f>
         <v>18539</v>
       </c>
       <c r="W199" s="3">
-        <f t="shared" ref="W199:W200" si="340">F199/V199</f>
+        <f t="shared" ref="W199" si="340">F199/V199</f>
         <v>2.1953719186579644E-2</v>
       </c>
       <c r="X199">
@@ -21206,6 +21206,14 @@
       </c>
       <c r="AN199">
         <v>26</v>
+      </c>
+      <c r="AS199">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A199)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A199)</f>
+        <v>55</v>
+      </c>
+      <c r="AT199">
+        <f t="shared" ref="AT199:AT200" si="346">AH199-AS199</f>
+        <v>74</v>
       </c>
     </row>
     <row r="200" spans="1:46" x14ac:dyDescent="0.35">
@@ -21252,36 +21260,608 @@
         <v>0.11186488430199366</v>
       </c>
       <c r="Q200">
-        <f t="shared" ref="Q200" si="346">C200-C199</f>
+        <f t="shared" ref="Q200" si="347">C200-C199</f>
         <v>1103</v>
       </c>
       <c r="R200">
-        <f t="shared" ref="R200" si="347">M200-M199</f>
+        <f t="shared" ref="R200" si="348">M200-M199</f>
         <v>5513</v>
       </c>
       <c r="S200" s="8">
-        <f t="shared" ref="S200" si="348">Q200/U200</f>
+        <f t="shared" ref="S200" si="349">Q200/U200</f>
         <v>0.16671704957678354</v>
       </c>
       <c r="T200" s="8">
-        <f t="shared" ref="T200" si="349">SUM(Q194:Q200)/SUM(U194:U200)</f>
+        <f t="shared" ref="T200" si="350">SUM(Q194:Q200)/SUM(U194:U200)</f>
         <v>0.13973492495391907</v>
       </c>
       <c r="U200">
-        <f t="shared" ref="U200" si="350">B200-B199</f>
+        <f t="shared" ref="U200" si="351">B200-B199</f>
         <v>6616</v>
       </c>
       <c r="V200">
-        <f t="shared" ref="V200" si="351">C200-D200-E200</f>
+        <f t="shared" ref="V200" si="352">C200-D200-E200</f>
         <v>18779</v>
       </c>
       <c r="W200" s="3">
-        <f t="shared" ref="W200" si="352">F200/V200</f>
+        <f t="shared" ref="W200" si="353">F200/V200</f>
         <v>2.0927631929282708E-2</v>
       </c>
       <c r="X200">
-        <f t="shared" ref="X200" si="353">E200-E199</f>
+        <f t="shared" ref="X200" si="354">E200-E199</f>
         <v>8</v>
+      </c>
+      <c r="Y200">
+        <v>516</v>
+      </c>
+      <c r="Z200">
+        <v>283</v>
+      </c>
+      <c r="AA200">
+        <v>4592</v>
+      </c>
+      <c r="AB200">
+        <v>382</v>
+      </c>
+      <c r="AC200">
+        <v>261</v>
+      </c>
+      <c r="AD200">
+        <v>3924</v>
+      </c>
+      <c r="AE200">
+        <v>7</v>
+      </c>
+      <c r="AF200">
+        <v>2</v>
+      </c>
+      <c r="AG200">
+        <v>92</v>
+      </c>
+      <c r="AH200">
+        <f t="shared" ref="AH200" si="355">Y200-AB200-AE200</f>
+        <v>127</v>
+      </c>
+      <c r="AI200">
+        <f t="shared" ref="AI200" si="356">Z200-AC200-AF200</f>
+        <v>20</v>
+      </c>
+      <c r="AJ200">
+        <f t="shared" ref="AJ200" si="357">AA200-AD200-AG200</f>
+        <v>576</v>
+      </c>
+      <c r="AK200">
+        <f t="shared" ref="AK200" si="358">-(J200-J199)+L200</f>
+        <v>15</v>
+      </c>
+      <c r="AL200">
+        <v>4</v>
+      </c>
+      <c r="AM200">
+        <v>4</v>
+      </c>
+      <c r="AN200">
+        <v>19</v>
+      </c>
+      <c r="AS200">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A200)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A200)</f>
+        <v>41</v>
+      </c>
+      <c r="AT200">
+        <f t="shared" si="346"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="201" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A201" s="14">
+        <f t="shared" si="49"/>
+        <v>44107</v>
+      </c>
+      <c r="B201">
+        <v>815884</v>
+      </c>
+      <c r="C201">
+        <v>91693</v>
+      </c>
+      <c r="D201">
+        <v>71293</v>
+      </c>
+      <c r="E201" s="9">
+        <v>1377</v>
+      </c>
+      <c r="F201" s="9">
+        <v>402</v>
+      </c>
+      <c r="H201">
+        <v>100</v>
+      </c>
+      <c r="I201">
+        <v>58</v>
+      </c>
+      <c r="J201">
+        <v>103</v>
+      </c>
+      <c r="K201">
+        <v>28</v>
+      </c>
+      <c r="L201">
+        <v>14</v>
+      </c>
+      <c r="M201" s="7">
+        <f t="shared" si="219"/>
+        <v>724191</v>
+      </c>
+      <c r="N201" s="4">
+        <f t="shared" si="320"/>
+        <v>0.11238484882654887</v>
+      </c>
+      <c r="Q201">
+        <f t="shared" ref="Q201" si="359">C201-C200</f>
+        <v>1165</v>
+      </c>
+      <c r="R201">
+        <f t="shared" ref="R201" si="360">M201-M200</f>
+        <v>5457</v>
+      </c>
+      <c r="S201" s="8">
+        <f t="shared" ref="S201" si="361">Q201/U201</f>
+        <v>0.17592872244035035</v>
+      </c>
+      <c r="T201" s="8">
+        <f t="shared" ref="T201" si="362">SUM(Q195:Q201)/SUM(U195:U201)</f>
+        <v>0.14210609803077343</v>
+      </c>
+      <c r="U201">
+        <f t="shared" ref="U201" si="363">B201-B200</f>
+        <v>6622</v>
+      </c>
+      <c r="V201">
+        <f t="shared" ref="V201" si="364">C201-D201-E201</f>
+        <v>19023</v>
+      </c>
+      <c r="W201" s="3">
+        <f t="shared" ref="W201" si="365">F201/V201</f>
+        <v>2.113231351521842E-2</v>
+      </c>
+      <c r="X201">
+        <f t="shared" ref="X201" si="366">E201-E200</f>
+        <v>11</v>
+      </c>
+      <c r="Y201">
+        <v>519</v>
+      </c>
+      <c r="Z201">
+        <v>289</v>
+      </c>
+      <c r="AA201">
+        <v>4617</v>
+      </c>
+      <c r="AB201">
+        <v>391</v>
+      </c>
+      <c r="AC201">
+        <v>264</v>
+      </c>
+      <c r="AD201">
+        <v>3962</v>
+      </c>
+      <c r="AE201">
+        <v>7</v>
+      </c>
+      <c r="AF201">
+        <v>2</v>
+      </c>
+      <c r="AG201">
+        <v>92</v>
+      </c>
+      <c r="AH201">
+        <f t="shared" ref="AH201:AH202" si="367">Y201-AB201-AE201</f>
+        <v>121</v>
+      </c>
+      <c r="AI201">
+        <f t="shared" ref="AI201:AI202" si="368">Z201-AC201-AF201</f>
+        <v>23</v>
+      </c>
+      <c r="AJ201">
+        <f t="shared" ref="AJ201:AJ202" si="369">AA201-AD201-AG201</f>
+        <v>563</v>
+      </c>
+      <c r="AK201">
+        <f t="shared" ref="AK201:AK202" si="370">-(J201-J200)+L201</f>
+        <v>6</v>
+      </c>
+      <c r="AL201">
+        <v>4</v>
+      </c>
+      <c r="AM201">
+        <v>4</v>
+      </c>
+      <c r="AN201">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A202" s="14">
+        <f t="shared" si="49"/>
+        <v>44108</v>
+      </c>
+      <c r="B202">
+        <v>821403</v>
+      </c>
+      <c r="C202">
+        <v>92544</v>
+      </c>
+      <c r="D202">
+        <v>71581</v>
+      </c>
+      <c r="E202" s="9">
+        <v>1381</v>
+      </c>
+      <c r="F202" s="9">
+        <v>392</v>
+      </c>
+      <c r="H202">
+        <v>104</v>
+      </c>
+      <c r="I202">
+        <v>58</v>
+      </c>
+      <c r="J202">
+        <v>101</v>
+      </c>
+      <c r="K202">
+        <v>29</v>
+      </c>
+      <c r="L202">
+        <v>19</v>
+      </c>
+      <c r="M202" s="7">
+        <f t="shared" si="219"/>
+        <v>728859</v>
+      </c>
+      <c r="N202" s="4">
+        <f t="shared" si="320"/>
+        <v>0.11266576820391452</v>
+      </c>
+      <c r="Q202">
+        <f t="shared" ref="Q202" si="371">C202-C201</f>
+        <v>851</v>
+      </c>
+      <c r="R202">
+        <f t="shared" ref="R202" si="372">M202-M201</f>
+        <v>4668</v>
+      </c>
+      <c r="S202" s="8">
+        <f t="shared" ref="S202" si="373">Q202/U202</f>
+        <v>0.15419460047109984</v>
+      </c>
+      <c r="T202" s="8">
+        <f t="shared" ref="T202" si="374">SUM(Q196:Q202)/SUM(U196:U202)</f>
+        <v>0.14493646339515889</v>
+      </c>
+      <c r="U202">
+        <f t="shared" ref="U202" si="375">B202-B201</f>
+        <v>5519</v>
+      </c>
+      <c r="V202">
+        <f t="shared" ref="V202" si="376">C202-D202-E202</f>
+        <v>19582</v>
+      </c>
+      <c r="W202" s="3">
+        <f t="shared" ref="W202" si="377">F202/V202</f>
+        <v>2.0018384230415687E-2</v>
+      </c>
+      <c r="X202">
+        <f t="shared" ref="X202" si="378">E202-E201</f>
+        <v>4</v>
+      </c>
+      <c r="Y202">
+        <v>525</v>
+      </c>
+      <c r="Z202">
+        <v>293</v>
+      </c>
+      <c r="AA202">
+        <v>4644</v>
+      </c>
+      <c r="AB202">
+        <v>392</v>
+      </c>
+      <c r="AC202">
+        <v>264</v>
+      </c>
+      <c r="AD202">
+        <v>3964</v>
+      </c>
+      <c r="AE202">
+        <v>7</v>
+      </c>
+      <c r="AF202">
+        <v>2</v>
+      </c>
+      <c r="AG202">
+        <v>93</v>
+      </c>
+      <c r="AH202">
+        <f t="shared" si="367"/>
+        <v>126</v>
+      </c>
+      <c r="AI202">
+        <f t="shared" si="368"/>
+        <v>27</v>
+      </c>
+      <c r="AJ202">
+        <f t="shared" si="369"/>
+        <v>587</v>
+      </c>
+      <c r="AK202">
+        <f t="shared" si="370"/>
+        <v>21</v>
+      </c>
+      <c r="AL202">
+        <v>3</v>
+      </c>
+      <c r="AM202">
+        <v>3</v>
+      </c>
+      <c r="AN202">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A203" s="14">
+        <f t="shared" si="49"/>
+        <v>44109</v>
+      </c>
+      <c r="B203">
+        <v>823766</v>
+      </c>
+      <c r="C203">
+        <v>92843</v>
+      </c>
+      <c r="D203">
+        <v>71785</v>
+      </c>
+      <c r="E203" s="9">
+        <v>1387</v>
+      </c>
+      <c r="F203" s="9">
+        <v>398</v>
+      </c>
+      <c r="H203">
+        <v>99</v>
+      </c>
+      <c r="I203">
+        <v>54</v>
+      </c>
+      <c r="J203">
+        <v>103</v>
+      </c>
+      <c r="K203">
+        <v>25</v>
+      </c>
+      <c r="L203">
+        <v>17</v>
+      </c>
+      <c r="M203" s="7">
+        <f t="shared" ref="M203:M204" si="379">B203-C203</f>
+        <v>730923</v>
+      </c>
+      <c r="N203" s="4">
+        <f t="shared" ref="N203:N204" si="380">C203/B203</f>
+        <v>0.11270554987702819</v>
+      </c>
+      <c r="Q203">
+        <f t="shared" ref="Q203" si="381">C203-C202</f>
+        <v>299</v>
+      </c>
+      <c r="R203">
+        <f t="shared" ref="R203" si="382">M203-M202</f>
+        <v>2064</v>
+      </c>
+      <c r="S203" s="8">
+        <f t="shared" ref="S203" si="383">Q203/U203</f>
+        <v>0.12653406686415575</v>
+      </c>
+      <c r="T203" s="8">
+        <f t="shared" ref="T203" si="384">SUM(Q197:Q203)/SUM(U197:U203)</f>
+        <v>0.15998136742404637</v>
+      </c>
+      <c r="U203">
+        <f t="shared" ref="U203" si="385">B203-B202</f>
+        <v>2363</v>
+      </c>
+      <c r="V203">
+        <f t="shared" ref="V203" si="386">C203-D203-E203</f>
+        <v>19671</v>
+      </c>
+      <c r="W203" s="3">
+        <f t="shared" ref="W203" si="387">F203/V203</f>
+        <v>2.0232830054394794E-2</v>
+      </c>
+      <c r="X203">
+        <f t="shared" ref="X203" si="388">E203-E202</f>
+        <v>6</v>
+      </c>
+      <c r="Y203">
+        <v>527</v>
+      </c>
+      <c r="Z203">
+        <v>292</v>
+      </c>
+      <c r="AA203">
+        <v>4648</v>
+      </c>
+      <c r="AB203">
+        <v>394</v>
+      </c>
+      <c r="AC203">
+        <v>264</v>
+      </c>
+      <c r="AD203">
+        <v>3970</v>
+      </c>
+      <c r="AE203">
+        <v>7</v>
+      </c>
+      <c r="AF203">
+        <v>2</v>
+      </c>
+      <c r="AG203">
+        <v>94</v>
+      </c>
+      <c r="AH203">
+        <f t="shared" ref="AH203" si="389">Y203-AB203-AE203</f>
+        <v>126</v>
+      </c>
+      <c r="AI203">
+        <f t="shared" ref="AI203" si="390">Z203-AC203-AF203</f>
+        <v>26</v>
+      </c>
+      <c r="AJ203">
+        <f t="shared" ref="AJ203" si="391">AA203-AD203-AG203</f>
+        <v>584</v>
+      </c>
+      <c r="AK203">
+        <f t="shared" ref="AK203" si="392">-(J203-J202)+L203</f>
+        <v>15</v>
+      </c>
+      <c r="AL203">
+        <v>3</v>
+      </c>
+      <c r="AM203">
+        <v>3</v>
+      </c>
+      <c r="AN203">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A204" s="14">
+        <f t="shared" si="49"/>
+        <v>44110</v>
+      </c>
+      <c r="B204">
+        <v>827172</v>
+      </c>
+      <c r="C204">
+        <v>93380</v>
+      </c>
+      <c r="D204">
+        <v>72139</v>
+      </c>
+      <c r="E204" s="9">
+        <v>1398</v>
+      </c>
+      <c r="F204" s="9">
+        <v>413</v>
+      </c>
+      <c r="H204">
+        <v>104</v>
+      </c>
+      <c r="I204">
+        <v>61</v>
+      </c>
+      <c r="J204">
+        <v>103</v>
+      </c>
+      <c r="K204">
+        <v>26</v>
+      </c>
+      <c r="L204">
+        <v>10</v>
+      </c>
+      <c r="M204" s="7">
+        <f t="shared" si="379"/>
+        <v>733792</v>
+      </c>
+      <c r="N204" s="4">
+        <f t="shared" si="380"/>
+        <v>0.112890668446224</v>
+      </c>
+      <c r="Q204">
+        <f t="shared" ref="Q204" si="393">C204-C203</f>
+        <v>537</v>
+      </c>
+      <c r="R204">
+        <f t="shared" ref="R204" si="394">M204-M203</f>
+        <v>2869</v>
+      </c>
+      <c r="S204" s="8">
+        <f t="shared" ref="S204" si="395">Q204/U204</f>
+        <v>0.1576629477392836</v>
+      </c>
+      <c r="T204" s="8">
+        <f t="shared" ref="T204" si="396">SUM(Q198:Q204)/SUM(U198:U204)</f>
+        <v>0.16038009766398312</v>
+      </c>
+      <c r="U204">
+        <f t="shared" ref="U204" si="397">B204-B203</f>
+        <v>3406</v>
+      </c>
+      <c r="V204">
+        <f t="shared" ref="V204" si="398">C204-D204-E204</f>
+        <v>19843</v>
+      </c>
+      <c r="W204" s="3">
+        <f t="shared" ref="W204" si="399">F204/V204</f>
+        <v>2.0813385072821648E-2</v>
+      </c>
+      <c r="X204">
+        <f t="shared" ref="X204" si="400">E204-E203</f>
+        <v>11</v>
+      </c>
+      <c r="Y204">
+        <v>527</v>
+      </c>
+      <c r="Z204">
+        <v>293</v>
+      </c>
+      <c r="AA204">
+        <v>4664</v>
+      </c>
+      <c r="AB204">
+        <v>397</v>
+      </c>
+      <c r="AC204">
+        <v>264</v>
+      </c>
+      <c r="AD204">
+        <v>3978</v>
+      </c>
+      <c r="AE204">
+        <v>7</v>
+      </c>
+      <c r="AF204">
+        <v>2</v>
+      </c>
+      <c r="AG204">
+        <v>94</v>
+      </c>
+      <c r="AH204">
+        <f t="shared" ref="AH204" si="401">Y204-AB204-AE204</f>
+        <v>123</v>
+      </c>
+      <c r="AI204">
+        <f t="shared" ref="AI204" si="402">Z204-AC204-AF204</f>
+        <v>27</v>
+      </c>
+      <c r="AJ204">
+        <f t="shared" ref="AJ204" si="403">AA204-AD204-AG204</f>
+        <v>592</v>
+      </c>
+      <c r="AK204">
+        <f t="shared" ref="AK204" si="404">-(J204-J203)+L204</f>
+        <v>10</v>
+      </c>
+      <c r="AL204">
+        <v>2</v>
+      </c>
+      <c r="AM204">
+        <v>2</v>
+      </c>
+      <c r="AN204">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -21296,7 +21876,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G142" sqref="G142:H144"/>
+      <selection pane="bottomLeft" sqref="A1:D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79B3F1F-F586-4FD4-A660-8CAFB510FA04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF41A4F-365C-4A37-B8AD-C6FC5E5166CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1561,13 +1561,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AT204"/>
+  <dimension ref="A1:AT206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V186" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J196" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH203" sqref="AH203:AK204"/>
+      <selection pane="bottomRight" activeCell="Y206" sqref="Y206:AJ206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14753,7 +14753,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="14">
-        <f t="shared" ref="A152:A204" si="49">A151+1</f>
+        <f t="shared" ref="A152:A206" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -21536,7 +21536,7 @@
         <v>0.15419460047109984</v>
       </c>
       <c r="T202" s="8">
-        <f t="shared" ref="T202" si="374">SUM(Q196:Q202)/SUM(U196:U202)</f>
+        <f t="shared" ref="T202:T205" si="374">SUM(Q196:Q202)/SUM(U196:U202)</f>
         <v>0.14493646339515889</v>
       </c>
       <c r="U202">
@@ -21644,11 +21644,11 @@
         <v>17</v>
       </c>
       <c r="M203" s="7">
-        <f t="shared" ref="M203:M204" si="379">B203-C203</f>
+        <f t="shared" ref="M203:M206" si="379">B203-C203</f>
         <v>730923</v>
       </c>
       <c r="N203" s="4">
-        <f t="shared" ref="N203:N204" si="380">C203/B203</f>
+        <f t="shared" ref="N203:N206" si="380">C203/B203</f>
         <v>0.11270554987702819</v>
       </c>
       <c r="Q203">
@@ -21664,23 +21664,23 @@
         <v>0.12653406686415575</v>
       </c>
       <c r="T203" s="8">
-        <f t="shared" ref="T203" si="384">SUM(Q197:Q203)/SUM(U197:U203)</f>
+        <f t="shared" si="374"/>
         <v>0.15998136742404637</v>
       </c>
       <c r="U203">
-        <f t="shared" ref="U203" si="385">B203-B202</f>
+        <f t="shared" ref="U203" si="384">B203-B202</f>
         <v>2363</v>
       </c>
       <c r="V203">
-        <f t="shared" ref="V203" si="386">C203-D203-E203</f>
+        <f t="shared" ref="V203" si="385">C203-D203-E203</f>
         <v>19671</v>
       </c>
       <c r="W203" s="3">
-        <f t="shared" ref="W203" si="387">F203/V203</f>
+        <f t="shared" ref="W203" si="386">F203/V203</f>
         <v>2.0232830054394794E-2</v>
       </c>
       <c r="X203">
-        <f t="shared" ref="X203" si="388">E203-E202</f>
+        <f t="shared" ref="X203" si="387">E203-E202</f>
         <v>6</v>
       </c>
       <c r="Y203">
@@ -21711,19 +21711,19 @@
         <v>94</v>
       </c>
       <c r="AH203">
-        <f t="shared" ref="AH203" si="389">Y203-AB203-AE203</f>
+        <f t="shared" ref="AH203" si="388">Y203-AB203-AE203</f>
         <v>126</v>
       </c>
       <c r="AI203">
-        <f t="shared" ref="AI203" si="390">Z203-AC203-AF203</f>
+        <f t="shared" ref="AI203" si="389">Z203-AC203-AF203</f>
         <v>26</v>
       </c>
       <c r="AJ203">
-        <f t="shared" ref="AJ203" si="391">AA203-AD203-AG203</f>
+        <f t="shared" ref="AJ203" si="390">AA203-AD203-AG203</f>
         <v>584</v>
       </c>
       <c r="AK203">
-        <f t="shared" ref="AK203" si="392">-(J203-J202)+L203</f>
+        <f t="shared" ref="AK203" si="391">-(J203-J202)+L203</f>
         <v>15</v>
       </c>
       <c r="AL203">
@@ -21780,35 +21780,35 @@
         <v>0.112890668446224</v>
       </c>
       <c r="Q204">
-        <f t="shared" ref="Q204" si="393">C204-C203</f>
+        <f t="shared" ref="Q204" si="392">C204-C203</f>
         <v>537</v>
       </c>
       <c r="R204">
-        <f t="shared" ref="R204" si="394">M204-M203</f>
+        <f t="shared" ref="R204" si="393">M204-M203</f>
         <v>2869</v>
       </c>
       <c r="S204" s="8">
-        <f t="shared" ref="S204" si="395">Q204/U204</f>
+        <f t="shared" ref="S204" si="394">Q204/U204</f>
         <v>0.1576629477392836</v>
       </c>
       <c r="T204" s="8">
-        <f t="shared" ref="T204" si="396">SUM(Q198:Q204)/SUM(U198:U204)</f>
+        <f t="shared" si="374"/>
         <v>0.16038009766398312</v>
       </c>
       <c r="U204">
-        <f t="shared" ref="U204" si="397">B204-B203</f>
+        <f t="shared" ref="U204" si="395">B204-B203</f>
         <v>3406</v>
       </c>
       <c r="V204">
-        <f t="shared" ref="V204" si="398">C204-D204-E204</f>
+        <f t="shared" ref="V204" si="396">C204-D204-E204</f>
         <v>19843</v>
       </c>
       <c r="W204" s="3">
-        <f t="shared" ref="W204" si="399">F204/V204</f>
+        <f t="shared" ref="W204" si="397">F204/V204</f>
         <v>2.0813385072821648E-2</v>
       </c>
       <c r="X204">
-        <f t="shared" ref="X204" si="400">E204-E203</f>
+        <f t="shared" ref="X204" si="398">E204-E203</f>
         <v>11</v>
       </c>
       <c r="Y204">
@@ -21839,19 +21839,19 @@
         <v>94</v>
       </c>
       <c r="AH204">
-        <f t="shared" ref="AH204" si="401">Y204-AB204-AE204</f>
+        <f t="shared" ref="AH204" si="399">Y204-AB204-AE204</f>
         <v>123</v>
       </c>
       <c r="AI204">
-        <f t="shared" ref="AI204" si="402">Z204-AC204-AF204</f>
+        <f t="shared" ref="AI204" si="400">Z204-AC204-AF204</f>
         <v>27</v>
       </c>
       <c r="AJ204">
-        <f t="shared" ref="AJ204" si="403">AA204-AD204-AG204</f>
+        <f t="shared" ref="AJ204" si="401">AA204-AD204-AG204</f>
         <v>592</v>
       </c>
       <c r="AK204">
-        <f t="shared" ref="AK204" si="404">-(J204-J203)+L204</f>
+        <f t="shared" ref="AK204" si="402">-(J204-J203)+L204</f>
         <v>10</v>
       </c>
       <c r="AL204">
@@ -21862,6 +21862,246 @@
       </c>
       <c r="AN204">
         <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A205" s="14">
+        <f t="shared" si="49"/>
+        <v>44111</v>
+      </c>
+      <c r="B205">
+        <v>832909</v>
+      </c>
+      <c r="C205">
+        <v>94342</v>
+      </c>
+      <c r="D205">
+        <v>73237</v>
+      </c>
+      <c r="E205" s="9">
+        <v>1414</v>
+      </c>
+      <c r="F205" s="9">
+        <v>444</v>
+      </c>
+      <c r="H205">
+        <v>104</v>
+      </c>
+      <c r="I205">
+        <v>97</v>
+      </c>
+      <c r="J205">
+        <v>99</v>
+      </c>
+      <c r="K205">
+        <v>26</v>
+      </c>
+      <c r="L205">
+        <v>16</v>
+      </c>
+      <c r="M205" s="7">
+        <f t="shared" si="379"/>
+        <v>738567</v>
+      </c>
+      <c r="N205" s="4">
+        <f t="shared" si="380"/>
+        <v>0.11326807610435234</v>
+      </c>
+      <c r="Q205">
+        <f t="shared" ref="Q205" si="403">C205-C204</f>
+        <v>962</v>
+      </c>
+      <c r="R205">
+        <f t="shared" ref="R205" si="404">M205-M204</f>
+        <v>4775</v>
+      </c>
+      <c r="S205" s="8">
+        <f t="shared" ref="S205" si="405">Q205/U205</f>
+        <v>0.16768345825344255</v>
+      </c>
+      <c r="T205" s="8">
+        <f t="shared" si="374"/>
+        <v>0.16177909479746164</v>
+      </c>
+      <c r="U205">
+        <f t="shared" ref="U205" si="406">B205-B204</f>
+        <v>5737</v>
+      </c>
+      <c r="V205">
+        <f t="shared" ref="V205" si="407">C205-D205-E205</f>
+        <v>19691</v>
+      </c>
+      <c r="W205" s="3">
+        <f t="shared" ref="W205" si="408">F205/V205</f>
+        <v>2.2548372352851558E-2</v>
+      </c>
+      <c r="X205">
+        <f t="shared" ref="X205" si="409">E205-E204</f>
+        <v>16</v>
+      </c>
+      <c r="Y205">
+        <v>531</v>
+      </c>
+      <c r="Z205">
+        <v>301</v>
+      </c>
+      <c r="AA205">
+        <v>4707</v>
+      </c>
+      <c r="AB205">
+        <v>403</v>
+      </c>
+      <c r="AC205">
+        <v>267</v>
+      </c>
+      <c r="AD205">
+        <v>4024</v>
+      </c>
+      <c r="AE205">
+        <v>7</v>
+      </c>
+      <c r="AF205">
+        <v>2</v>
+      </c>
+      <c r="AG205">
+        <v>95</v>
+      </c>
+      <c r="AH205">
+        <f t="shared" ref="AH205" si="410">Y205-AB205-AE205</f>
+        <v>121</v>
+      </c>
+      <c r="AI205">
+        <f t="shared" ref="AI205" si="411">Z205-AC205-AF205</f>
+        <v>32</v>
+      </c>
+      <c r="AJ205">
+        <f t="shared" ref="AJ205" si="412">AA205-AD205-AG205</f>
+        <v>588</v>
+      </c>
+      <c r="AK205">
+        <f t="shared" ref="AK205" si="413">-(J205-J204)+L205</f>
+        <v>20</v>
+      </c>
+      <c r="AL205">
+        <v>2</v>
+      </c>
+      <c r="AM205">
+        <v>2</v>
+      </c>
+      <c r="AN205">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A206" s="14">
+        <f t="shared" si="49"/>
+        <v>44112</v>
+      </c>
+      <c r="B206">
+        <v>841904</v>
+      </c>
+      <c r="C206">
+        <v>95850</v>
+      </c>
+      <c r="D206">
+        <v>74166</v>
+      </c>
+      <c r="E206" s="9">
+        <v>1419</v>
+      </c>
+      <c r="F206" s="9">
+        <v>449</v>
+      </c>
+      <c r="H206">
+        <v>112</v>
+      </c>
+      <c r="I206">
+        <v>63</v>
+      </c>
+      <c r="J206">
+        <v>105</v>
+      </c>
+      <c r="K206">
+        <v>28</v>
+      </c>
+      <c r="L206">
+        <v>18</v>
+      </c>
+      <c r="M206" s="7">
+        <f t="shared" si="379"/>
+        <v>746054</v>
+      </c>
+      <c r="N206" s="4">
+        <f t="shared" si="380"/>
+        <v>0.11384908493129858</v>
+      </c>
+      <c r="Q206">
+        <f t="shared" ref="Q206" si="414">C206-C205</f>
+        <v>1508</v>
+      </c>
+      <c r="R206">
+        <f t="shared" ref="R206" si="415">M206-M205</f>
+        <v>7487</v>
+      </c>
+      <c r="S206" s="8">
+        <f t="shared" ref="S206" si="416">Q206/U206</f>
+        <v>0.16764869371873262</v>
+      </c>
+      <c r="T206" s="8">
+        <f t="shared" ref="T206" si="417">SUM(Q200:Q206)/SUM(U200:U206)</f>
+        <v>0.16366090987824139</v>
+      </c>
+      <c r="U206">
+        <f t="shared" ref="U206" si="418">B206-B205</f>
+        <v>8995</v>
+      </c>
+      <c r="V206">
+        <f t="shared" ref="V206" si="419">C206-D206-E206</f>
+        <v>20265</v>
+      </c>
+      <c r="W206" s="3">
+        <f t="shared" ref="W206" si="420">F206/V206</f>
+        <v>2.2156427337774488E-2</v>
+      </c>
+      <c r="X206">
+        <f t="shared" ref="X206" si="421">E206-E205</f>
+        <v>5</v>
+      </c>
+      <c r="Y206">
+        <v>534</v>
+      </c>
+      <c r="Z206">
+        <v>304</v>
+      </c>
+      <c r="AA206">
+        <v>4746</v>
+      </c>
+      <c r="AB206">
+        <v>413</v>
+      </c>
+      <c r="AC206">
+        <v>267</v>
+      </c>
+      <c r="AD206">
+        <v>4050</v>
+      </c>
+      <c r="AE206">
+        <v>7</v>
+      </c>
+      <c r="AF206">
+        <v>2</v>
+      </c>
+      <c r="AG206">
+        <v>95</v>
+      </c>
+      <c r="AH206">
+        <v>114</v>
+      </c>
+      <c r="AI206">
+        <v>35</v>
+      </c>
+      <c r="AJ206">
+        <v>601</v>
       </c>
     </row>
   </sheetData>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF41A4F-365C-4A37-B8AD-C6FC5E5166CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D784F6B-3CFA-4D90-AA1B-785D5DC1A9C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1561,13 +1561,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AT206"/>
+  <dimension ref="A1:AT208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J196" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD196" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y206" sqref="Y206:AJ206"/>
+      <selection pane="bottomRight" activeCell="AS207" sqref="AS207:AT208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14753,7 +14753,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="14">
-        <f t="shared" ref="A152:A206" si="49">A151+1</f>
+        <f t="shared" ref="A152:A208" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -21479,6 +21479,14 @@
       <c r="AN201">
         <v>18</v>
       </c>
+      <c r="AS201">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A201)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A201)</f>
+        <v>40</v>
+      </c>
+      <c r="AT201">
+        <f t="shared" ref="AT201:AT207" si="371">AH201-AS201</f>
+        <v>81</v>
+      </c>
     </row>
     <row r="202" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A202" s="14">
@@ -21524,35 +21532,35 @@
         <v>0.11266576820391452</v>
       </c>
       <c r="Q202">
-        <f t="shared" ref="Q202" si="371">C202-C201</f>
+        <f t="shared" ref="Q202" si="372">C202-C201</f>
         <v>851</v>
       </c>
       <c r="R202">
-        <f t="shared" ref="R202" si="372">M202-M201</f>
+        <f t="shared" ref="R202" si="373">M202-M201</f>
         <v>4668</v>
       </c>
       <c r="S202" s="8">
-        <f t="shared" ref="S202" si="373">Q202/U202</f>
+        <f t="shared" ref="S202" si="374">Q202/U202</f>
         <v>0.15419460047109984</v>
       </c>
       <c r="T202" s="8">
-        <f t="shared" ref="T202:T205" si="374">SUM(Q196:Q202)/SUM(U196:U202)</f>
+        <f t="shared" ref="T202:T205" si="375">SUM(Q196:Q202)/SUM(U196:U202)</f>
         <v>0.14493646339515889</v>
       </c>
       <c r="U202">
-        <f t="shared" ref="U202" si="375">B202-B201</f>
+        <f t="shared" ref="U202" si="376">B202-B201</f>
         <v>5519</v>
       </c>
       <c r="V202">
-        <f t="shared" ref="V202" si="376">C202-D202-E202</f>
+        <f t="shared" ref="V202" si="377">C202-D202-E202</f>
         <v>19582</v>
       </c>
       <c r="W202" s="3">
-        <f t="shared" ref="W202" si="377">F202/V202</f>
+        <f t="shared" ref="W202" si="378">F202/V202</f>
         <v>2.0018384230415687E-2</v>
       </c>
       <c r="X202">
-        <f t="shared" ref="X202" si="378">E202-E201</f>
+        <f t="shared" ref="X202" si="379">E202-E201</f>
         <v>4</v>
       </c>
       <c r="Y202">
@@ -21606,6 +21614,14 @@
       </c>
       <c r="AN202">
         <v>13</v>
+      </c>
+      <c r="AS202">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A202)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A202)</f>
+        <v>40</v>
+      </c>
+      <c r="AT202">
+        <f t="shared" si="371"/>
+        <v>86</v>
       </c>
     </row>
     <row r="203" spans="1:46" x14ac:dyDescent="0.35">
@@ -21644,43 +21660,43 @@
         <v>17</v>
       </c>
       <c r="M203" s="7">
-        <f t="shared" ref="M203:M206" si="379">B203-C203</f>
+        <f t="shared" ref="M203:M208" si="380">B203-C203</f>
         <v>730923</v>
       </c>
       <c r="N203" s="4">
-        <f t="shared" ref="N203:N206" si="380">C203/B203</f>
+        <f t="shared" ref="N203:N208" si="381">C203/B203</f>
         <v>0.11270554987702819</v>
       </c>
       <c r="Q203">
-        <f t="shared" ref="Q203" si="381">C203-C202</f>
+        <f t="shared" ref="Q203" si="382">C203-C202</f>
         <v>299</v>
       </c>
       <c r="R203">
-        <f t="shared" ref="R203" si="382">M203-M202</f>
+        <f t="shared" ref="R203" si="383">M203-M202</f>
         <v>2064</v>
       </c>
       <c r="S203" s="8">
-        <f t="shared" ref="S203" si="383">Q203/U203</f>
+        <f t="shared" ref="S203" si="384">Q203/U203</f>
         <v>0.12653406686415575</v>
       </c>
       <c r="T203" s="8">
-        <f t="shared" si="374"/>
+        <f t="shared" si="375"/>
         <v>0.15998136742404637</v>
       </c>
       <c r="U203">
-        <f t="shared" ref="U203" si="384">B203-B202</f>
+        <f t="shared" ref="U203" si="385">B203-B202</f>
         <v>2363</v>
       </c>
       <c r="V203">
-        <f t="shared" ref="V203" si="385">C203-D203-E203</f>
+        <f t="shared" ref="V203" si="386">C203-D203-E203</f>
         <v>19671</v>
       </c>
       <c r="W203" s="3">
-        <f t="shared" ref="W203" si="386">F203/V203</f>
+        <f t="shared" ref="W203" si="387">F203/V203</f>
         <v>2.0232830054394794E-2</v>
       </c>
       <c r="X203">
-        <f t="shared" ref="X203" si="387">E203-E202</f>
+        <f t="shared" ref="X203" si="388">E203-E202</f>
         <v>6</v>
       </c>
       <c r="Y203">
@@ -21711,19 +21727,19 @@
         <v>94</v>
       </c>
       <c r="AH203">
-        <f t="shared" ref="AH203" si="388">Y203-AB203-AE203</f>
+        <f t="shared" ref="AH203" si="389">Y203-AB203-AE203</f>
         <v>126</v>
       </c>
       <c r="AI203">
-        <f t="shared" ref="AI203" si="389">Z203-AC203-AF203</f>
+        <f t="shared" ref="AI203" si="390">Z203-AC203-AF203</f>
         <v>26</v>
       </c>
       <c r="AJ203">
-        <f t="shared" ref="AJ203" si="390">AA203-AD203-AG203</f>
+        <f t="shared" ref="AJ203" si="391">AA203-AD203-AG203</f>
         <v>584</v>
       </c>
       <c r="AK203">
-        <f t="shared" ref="AK203" si="391">-(J203-J202)+L203</f>
+        <f t="shared" ref="AK203" si="392">-(J203-J202)+L203</f>
         <v>15</v>
       </c>
       <c r="AL203">
@@ -21734,6 +21750,14 @@
       </c>
       <c r="AN203">
         <v>13</v>
+      </c>
+      <c r="AS203">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A203)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A203)</f>
+        <v>39</v>
+      </c>
+      <c r="AT203">
+        <f t="shared" si="371"/>
+        <v>87</v>
       </c>
     </row>
     <row r="204" spans="1:46" x14ac:dyDescent="0.35">
@@ -21772,43 +21796,43 @@
         <v>10</v>
       </c>
       <c r="M204" s="7">
-        <f t="shared" si="379"/>
+        <f t="shared" si="380"/>
         <v>733792</v>
       </c>
       <c r="N204" s="4">
-        <f t="shared" si="380"/>
+        <f t="shared" si="381"/>
         <v>0.112890668446224</v>
       </c>
       <c r="Q204">
-        <f t="shared" ref="Q204" si="392">C204-C203</f>
+        <f t="shared" ref="Q204" si="393">C204-C203</f>
         <v>537</v>
       </c>
       <c r="R204">
-        <f t="shared" ref="R204" si="393">M204-M203</f>
+        <f t="shared" ref="R204" si="394">M204-M203</f>
         <v>2869</v>
       </c>
       <c r="S204" s="8">
-        <f t="shared" ref="S204" si="394">Q204/U204</f>
+        <f t="shared" ref="S204" si="395">Q204/U204</f>
         <v>0.1576629477392836</v>
       </c>
       <c r="T204" s="8">
-        <f t="shared" si="374"/>
+        <f t="shared" si="375"/>
         <v>0.16038009766398312</v>
       </c>
       <c r="U204">
-        <f t="shared" ref="U204" si="395">B204-B203</f>
+        <f t="shared" ref="U204" si="396">B204-B203</f>
         <v>3406</v>
       </c>
       <c r="V204">
-        <f t="shared" ref="V204" si="396">C204-D204-E204</f>
+        <f t="shared" ref="V204" si="397">C204-D204-E204</f>
         <v>19843</v>
       </c>
       <c r="W204" s="3">
-        <f t="shared" ref="W204" si="397">F204/V204</f>
+        <f t="shared" ref="W204" si="398">F204/V204</f>
         <v>2.0813385072821648E-2</v>
       </c>
       <c r="X204">
-        <f t="shared" ref="X204" si="398">E204-E203</f>
+        <f t="shared" ref="X204" si="399">E204-E203</f>
         <v>11</v>
       </c>
       <c r="Y204">
@@ -21839,19 +21863,19 @@
         <v>94</v>
       </c>
       <c r="AH204">
-        <f t="shared" ref="AH204" si="399">Y204-AB204-AE204</f>
+        <f t="shared" ref="AH204:AH208" si="400">Y204-AB204-AE204</f>
         <v>123</v>
       </c>
       <c r="AI204">
-        <f t="shared" ref="AI204" si="400">Z204-AC204-AF204</f>
+        <f t="shared" ref="AI204" si="401">Z204-AC204-AF204</f>
         <v>27</v>
       </c>
       <c r="AJ204">
-        <f t="shared" ref="AJ204" si="401">AA204-AD204-AG204</f>
+        <f t="shared" ref="AJ204" si="402">AA204-AD204-AG204</f>
         <v>592</v>
       </c>
       <c r="AK204">
-        <f t="shared" ref="AK204" si="402">-(J204-J203)+L204</f>
+        <f t="shared" ref="AK204" si="403">-(J204-J203)+L204</f>
         <v>10</v>
       </c>
       <c r="AL204">
@@ -21862,6 +21886,14 @@
       </c>
       <c r="AN204">
         <v>9</v>
+      </c>
+      <c r="AS204">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A204)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A204)</f>
+        <v>39</v>
+      </c>
+      <c r="AT204">
+        <f t="shared" si="371"/>
+        <v>84</v>
       </c>
     </row>
     <row r="205" spans="1:46" x14ac:dyDescent="0.35">
@@ -21900,43 +21932,43 @@
         <v>16</v>
       </c>
       <c r="M205" s="7">
-        <f t="shared" si="379"/>
+        <f t="shared" si="380"/>
         <v>738567</v>
       </c>
       <c r="N205" s="4">
-        <f t="shared" si="380"/>
+        <f t="shared" si="381"/>
         <v>0.11326807610435234</v>
       </c>
       <c r="Q205">
-        <f t="shared" ref="Q205" si="403">C205-C204</f>
+        <f t="shared" ref="Q205" si="404">C205-C204</f>
         <v>962</v>
       </c>
       <c r="R205">
-        <f t="shared" ref="R205" si="404">M205-M204</f>
+        <f t="shared" ref="R205" si="405">M205-M204</f>
         <v>4775</v>
       </c>
       <c r="S205" s="8">
-        <f t="shared" ref="S205" si="405">Q205/U205</f>
+        <f t="shared" ref="S205" si="406">Q205/U205</f>
         <v>0.16768345825344255</v>
       </c>
       <c r="T205" s="8">
-        <f t="shared" si="374"/>
+        <f t="shared" si="375"/>
         <v>0.16177909479746164</v>
       </c>
       <c r="U205">
-        <f t="shared" ref="U205" si="406">B205-B204</f>
+        <f t="shared" ref="U205" si="407">B205-B204</f>
         <v>5737</v>
       </c>
       <c r="V205">
-        <f t="shared" ref="V205" si="407">C205-D205-E205</f>
+        <f t="shared" ref="V205" si="408">C205-D205-E205</f>
         <v>19691</v>
       </c>
       <c r="W205" s="3">
-        <f t="shared" ref="W205" si="408">F205/V205</f>
+        <f t="shared" ref="W205" si="409">F205/V205</f>
         <v>2.2548372352851558E-2</v>
       </c>
       <c r="X205">
-        <f t="shared" ref="X205" si="409">E205-E204</f>
+        <f t="shared" ref="X205" si="410">E205-E204</f>
         <v>16</v>
       </c>
       <c r="Y205">
@@ -21967,19 +21999,19 @@
         <v>95</v>
       </c>
       <c r="AH205">
-        <f t="shared" ref="AH205" si="410">Y205-AB205-AE205</f>
+        <f t="shared" ref="AH205:AH208" si="411">Y205-AB205-AE205</f>
         <v>121</v>
       </c>
       <c r="AI205">
-        <f t="shared" ref="AI205" si="411">Z205-AC205-AF205</f>
+        <f t="shared" ref="AI205:AI208" si="412">Z205-AC205-AF205</f>
         <v>32</v>
       </c>
       <c r="AJ205">
-        <f t="shared" ref="AJ205" si="412">AA205-AD205-AG205</f>
+        <f t="shared" ref="AJ205:AJ208" si="413">AA205-AD205-AG205</f>
         <v>588</v>
       </c>
       <c r="AK205">
-        <f t="shared" ref="AK205" si="413">-(J205-J204)+L205</f>
+        <f t="shared" ref="AK205:AK206" si="414">-(J205-J204)+L205</f>
         <v>20</v>
       </c>
       <c r="AL205">
@@ -21990,6 +22022,14 @@
       </c>
       <c r="AN205">
         <v>11</v>
+      </c>
+      <c r="AS205">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A205)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A205)</f>
+        <v>37</v>
+      </c>
+      <c r="AT205">
+        <f t="shared" si="371"/>
+        <v>84</v>
       </c>
     </row>
     <row r="206" spans="1:46" x14ac:dyDescent="0.35">
@@ -22028,43 +22068,43 @@
         <v>18</v>
       </c>
       <c r="M206" s="7">
-        <f t="shared" si="379"/>
+        <f t="shared" si="380"/>
         <v>746054</v>
       </c>
       <c r="N206" s="4">
-        <f t="shared" si="380"/>
+        <f t="shared" si="381"/>
         <v>0.11384908493129858</v>
       </c>
       <c r="Q206">
-        <f t="shared" ref="Q206" si="414">C206-C205</f>
+        <f t="shared" ref="Q206" si="415">C206-C205</f>
         <v>1508</v>
       </c>
       <c r="R206">
-        <f t="shared" ref="R206" si="415">M206-M205</f>
+        <f t="shared" ref="R206" si="416">M206-M205</f>
         <v>7487</v>
       </c>
       <c r="S206" s="8">
-        <f t="shared" ref="S206" si="416">Q206/U206</f>
+        <f t="shared" ref="S206" si="417">Q206/U206</f>
         <v>0.16764869371873262</v>
       </c>
       <c r="T206" s="8">
-        <f t="shared" ref="T206" si="417">SUM(Q200:Q206)/SUM(U200:U206)</f>
+        <f t="shared" ref="T206" si="418">SUM(Q200:Q206)/SUM(U200:U206)</f>
         <v>0.16366090987824139</v>
       </c>
       <c r="U206">
-        <f t="shared" ref="U206" si="418">B206-B205</f>
+        <f t="shared" ref="U206" si="419">B206-B205</f>
         <v>8995</v>
       </c>
       <c r="V206">
-        <f t="shared" ref="V206" si="419">C206-D206-E206</f>
+        <f t="shared" ref="V206" si="420">C206-D206-E206</f>
         <v>20265</v>
       </c>
       <c r="W206" s="3">
-        <f t="shared" ref="W206" si="420">F206/V206</f>
+        <f t="shared" ref="W206" si="421">F206/V206</f>
         <v>2.2156427337774488E-2</v>
       </c>
       <c r="X206">
-        <f t="shared" ref="X206" si="421">E206-E205</f>
+        <f t="shared" ref="X206" si="422">E206-E205</f>
         <v>5</v>
       </c>
       <c r="Y206">
@@ -22095,13 +22135,300 @@
         <v>95</v>
       </c>
       <c r="AH206">
+        <f t="shared" si="411"/>
         <v>114</v>
       </c>
       <c r="AI206">
+        <f t="shared" si="412"/>
         <v>35</v>
       </c>
       <c r="AJ206">
+        <f t="shared" si="413"/>
         <v>601</v>
+      </c>
+      <c r="AK206">
+        <f t="shared" si="414"/>
+        <v>12</v>
+      </c>
+      <c r="AL206">
+        <v>3</v>
+      </c>
+      <c r="AM206">
+        <v>3</v>
+      </c>
+      <c r="AN206">
+        <v>18</v>
+      </c>
+      <c r="AS206">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A206)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A206)</f>
+        <v>38</v>
+      </c>
+      <c r="AT206">
+        <f t="shared" si="371"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="207" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A207" s="14">
+        <f t="shared" si="49"/>
+        <v>44113</v>
+      </c>
+      <c r="B207">
+        <v>847954</v>
+      </c>
+      <c r="C207">
+        <v>96852</v>
+      </c>
+      <c r="D207">
+        <v>74993</v>
+      </c>
+      <c r="E207" s="9">
+        <v>1433</v>
+      </c>
+      <c r="F207" s="9">
+        <v>461</v>
+      </c>
+      <c r="H207">
+        <v>104</v>
+      </c>
+      <c r="I207">
+        <v>77</v>
+      </c>
+      <c r="J207">
+        <v>111</v>
+      </c>
+      <c r="K207">
+        <v>26</v>
+      </c>
+      <c r="L207">
+        <v>21</v>
+      </c>
+      <c r="M207" s="7">
+        <f t="shared" si="380"/>
+        <v>751102</v>
+      </c>
+      <c r="N207" s="4">
+        <f t="shared" si="381"/>
+        <v>0.1142184599636301</v>
+      </c>
+      <c r="Q207">
+        <f t="shared" ref="Q207" si="423">C207-C206</f>
+        <v>1002</v>
+      </c>
+      <c r="R207">
+        <f t="shared" ref="R207" si="424">M207-M206</f>
+        <v>5048</v>
+      </c>
+      <c r="S207" s="8">
+        <f t="shared" ref="S207" si="425">Q207/U207</f>
+        <v>0.16561983471074379</v>
+      </c>
+      <c r="T207" s="8">
+        <f t="shared" ref="T207" si="426">SUM(Q201:Q207)/SUM(U201:U207)</f>
+        <v>0.16344463971880491</v>
+      </c>
+      <c r="U207">
+        <f t="shared" ref="U207" si="427">B207-B206</f>
+        <v>6050</v>
+      </c>
+      <c r="V207">
+        <f t="shared" ref="V207" si="428">C207-D207-E207</f>
+        <v>20426</v>
+      </c>
+      <c r="W207" s="3">
+        <f t="shared" ref="W207" si="429">F207/V207</f>
+        <v>2.2569274454127094E-2</v>
+      </c>
+      <c r="X207">
+        <f t="shared" ref="X207" si="430">E207-E206</f>
+        <v>14</v>
+      </c>
+      <c r="Y207">
+        <v>541</v>
+      </c>
+      <c r="Z207">
+        <v>307</v>
+      </c>
+      <c r="AA207">
+        <v>4794</v>
+      </c>
+      <c r="AB207">
+        <v>420</v>
+      </c>
+      <c r="AC207">
+        <v>273</v>
+      </c>
+      <c r="AD207">
+        <v>4079</v>
+      </c>
+      <c r="AE207">
+        <v>7</v>
+      </c>
+      <c r="AF207">
+        <v>2</v>
+      </c>
+      <c r="AG207">
+        <v>95</v>
+      </c>
+      <c r="AH207">
+        <f t="shared" si="411"/>
+        <v>114</v>
+      </c>
+      <c r="AI207">
+        <f t="shared" si="412"/>
+        <v>32</v>
+      </c>
+      <c r="AJ207">
+        <f t="shared" si="413"/>
+        <v>620</v>
+      </c>
+      <c r="AK207">
+        <f t="shared" ref="AK207" si="431">-(J207-J206)+L207</f>
+        <v>15</v>
+      </c>
+      <c r="AL207">
+        <v>4</v>
+      </c>
+      <c r="AM207">
+        <v>4</v>
+      </c>
+      <c r="AN207">
+        <v>26</v>
+      </c>
+      <c r="AS207">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A207)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A207)</f>
+        <v>38</v>
+      </c>
+      <c r="AT207">
+        <f t="shared" si="371"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="208" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A208" s="14">
+        <f t="shared" si="49"/>
+        <v>44114</v>
+      </c>
+      <c r="B208">
+        <v>855352</v>
+      </c>
+      <c r="C208">
+        <v>98305</v>
+      </c>
+      <c r="D208">
+        <v>75930</v>
+      </c>
+      <c r="E208" s="9">
+        <v>1454</v>
+      </c>
+      <c r="F208" s="9">
+        <v>450</v>
+      </c>
+      <c r="H208">
+        <v>101</v>
+      </c>
+      <c r="I208">
+        <v>63</v>
+      </c>
+      <c r="J208">
+        <v>113</v>
+      </c>
+      <c r="K208">
+        <v>28</v>
+      </c>
+      <c r="L208">
+        <v>23</v>
+      </c>
+      <c r="M208" s="7">
+        <f t="shared" si="380"/>
+        <v>757047</v>
+      </c>
+      <c r="N208" s="4">
+        <f t="shared" si="381"/>
+        <v>0.11492929226797856</v>
+      </c>
+      <c r="Q208">
+        <f t="shared" ref="Q208" si="432">C208-C207</f>
+        <v>1453</v>
+      </c>
+      <c r="R208">
+        <f t="shared" ref="R208" si="433">M208-M207</f>
+        <v>5945</v>
+      </c>
+      <c r="S208" s="8">
+        <f t="shared" ref="S208" si="434">Q208/U208</f>
+        <v>0.196404433630711</v>
+      </c>
+      <c r="T208" s="8">
+        <f t="shared" ref="T208" si="435">SUM(Q202:Q208)/SUM(U202:U208)</f>
+        <v>0.16752812404986317</v>
+      </c>
+      <c r="U208">
+        <f t="shared" ref="U208" si="436">B208-B207</f>
+        <v>7398</v>
+      </c>
+      <c r="V208">
+        <f t="shared" ref="V208" si="437">C208-D208-E208</f>
+        <v>20921</v>
+      </c>
+      <c r="W208" s="3">
+        <f t="shared" ref="W208" si="438">F208/V208</f>
+        <v>2.1509488074183833E-2</v>
+      </c>
+      <c r="X208">
+        <f t="shared" ref="X208" si="439">E208-E207</f>
+        <v>21</v>
+      </c>
+      <c r="Y208">
+        <v>555</v>
+      </c>
+      <c r="Z208">
+        <v>318</v>
+      </c>
+      <c r="AA208">
+        <v>4854</v>
+      </c>
+      <c r="AB208">
+        <v>426</v>
+      </c>
+      <c r="AC208">
+        <v>275</v>
+      </c>
+      <c r="AD208">
+        <v>4103</v>
+      </c>
+      <c r="AE208">
+        <v>7</v>
+      </c>
+      <c r="AF208">
+        <v>2</v>
+      </c>
+      <c r="AG208">
+        <v>96</v>
+      </c>
+      <c r="AH208">
+        <f t="shared" si="411"/>
+        <v>122</v>
+      </c>
+      <c r="AI208">
+        <f t="shared" si="412"/>
+        <v>41</v>
+      </c>
+      <c r="AJ208">
+        <f t="shared" si="413"/>
+        <v>655</v>
+      </c>
+      <c r="AK208">
+        <f t="shared" ref="AK208" si="440">-(J208-J207)+L208</f>
+        <v>21</v>
+      </c>
+      <c r="AS208">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A208)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A208)</f>
+        <v>38</v>
+      </c>
+      <c r="AT208">
+        <f t="shared" ref="AT208" si="441">AH208-AS208</f>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -22112,11 +22439,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5E6789-177F-4707-8258-EFFA27DED671}">
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D145"/>
+      <selection pane="bottomLeft" activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25214,6 +25541,16 @@
       <c r="H144" s="1">
         <f t="shared" si="9"/>
         <v>44131</v>
+      </c>
+    </row>
+    <row r="145" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G145" s="1">
+        <f t="shared" ref="G145" si="10">C145+10</f>
+        <v>10</v>
+      </c>
+      <c r="H145" s="1">
+        <f t="shared" ref="H145" si="11">C145+28</f>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D784F6B-3CFA-4D90-AA1B-785D5DC1A9C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62FE754-3856-4399-BFB9-4D27529356EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1561,13 +1561,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AT208"/>
+  <dimension ref="A1:AT210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD196" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y196" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS207" sqref="AS207:AT208"/>
+      <selection pane="bottomRight" activeCell="AL208" sqref="AL208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14753,7 +14753,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="14">
-        <f t="shared" ref="A152:A208" si="49">A151+1</f>
+        <f t="shared" ref="A152:A210" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -21660,11 +21660,11 @@
         <v>17</v>
       </c>
       <c r="M203" s="7">
-        <f t="shared" ref="M203:M208" si="380">B203-C203</f>
+        <f t="shared" ref="M203:M210" si="380">B203-C203</f>
         <v>730923</v>
       </c>
       <c r="N203" s="4">
-        <f t="shared" ref="N203:N208" si="381">C203/B203</f>
+        <f t="shared" ref="N203:N210" si="381">C203/B203</f>
         <v>0.11270554987702819</v>
       </c>
       <c r="Q203">
@@ -21863,7 +21863,7 @@
         <v>94</v>
       </c>
       <c r="AH204">
-        <f t="shared" ref="AH204:AH208" si="400">Y204-AB204-AE204</f>
+        <f t="shared" ref="AH204" si="400">Y204-AB204-AE204</f>
         <v>123</v>
       </c>
       <c r="AI204">
@@ -22429,6 +22429,201 @@
       <c r="AT208">
         <f t="shared" ref="AT208" si="441">AH208-AS208</f>
         <v>84</v>
+      </c>
+    </row>
+    <row r="209" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A209" s="14">
+        <f t="shared" si="49"/>
+        <v>44115</v>
+      </c>
+      <c r="B209">
+        <v>861858</v>
+      </c>
+      <c r="C209">
+        <v>99619</v>
+      </c>
+      <c r="D209">
+        <v>76254</v>
+      </c>
+      <c r="E209" s="9">
+        <v>1460</v>
+      </c>
+      <c r="F209" s="9">
+        <v>438</v>
+      </c>
+      <c r="H209">
+        <v>100</v>
+      </c>
+      <c r="I209">
+        <v>63</v>
+      </c>
+      <c r="J209">
+        <v>101</v>
+      </c>
+      <c r="K209">
+        <v>20</v>
+      </c>
+      <c r="L209">
+        <v>11</v>
+      </c>
+      <c r="M209" s="7">
+        <f t="shared" si="380"/>
+        <v>762239</v>
+      </c>
+      <c r="N209" s="4">
+        <f t="shared" si="381"/>
+        <v>0.11558632628576865</v>
+      </c>
+      <c r="Q209">
+        <f t="shared" ref="Q209" si="442">C209-C208</f>
+        <v>1314</v>
+      </c>
+      <c r="R209">
+        <f t="shared" ref="R209" si="443">M209-M208</f>
+        <v>5192</v>
+      </c>
+      <c r="S209" s="8">
+        <f t="shared" ref="S209" si="444">Q209/U209</f>
+        <v>0.20196741469412849</v>
+      </c>
+      <c r="T209" s="8">
+        <f t="shared" ref="T209" si="445">SUM(Q203:Q209)/SUM(U203:U209)</f>
+        <v>0.17488567544184896</v>
+      </c>
+      <c r="U209">
+        <f t="shared" ref="U209" si="446">B209-B208</f>
+        <v>6506</v>
+      </c>
+      <c r="V209">
+        <f t="shared" ref="V209" si="447">C209-D209-E209</f>
+        <v>21905</v>
+      </c>
+      <c r="W209" s="3">
+        <f t="shared" ref="W209" si="448">F209/V209</f>
+        <v>1.9995434832230083E-2</v>
+      </c>
+      <c r="X209">
+        <f t="shared" ref="X209" si="449">E209-E208</f>
+        <v>6</v>
+      </c>
+      <c r="Y209">
+        <v>563</v>
+      </c>
+      <c r="Z209">
+        <v>322</v>
+      </c>
+      <c r="AA209">
+        <v>4912</v>
+      </c>
+      <c r="AB209">
+        <v>427</v>
+      </c>
+      <c r="AC209">
+        <v>285</v>
+      </c>
+      <c r="AD209">
+        <v>4108</v>
+      </c>
+      <c r="AE209">
+        <v>7</v>
+      </c>
+      <c r="AF209">
+        <v>2</v>
+      </c>
+      <c r="AG209">
+        <v>96</v>
+      </c>
+      <c r="AH209">
+        <f t="shared" ref="AH209" si="450">Y209-AB209-AE209</f>
+        <v>129</v>
+      </c>
+      <c r="AI209">
+        <f t="shared" ref="AI209" si="451">Z209-AC209-AF209</f>
+        <v>35</v>
+      </c>
+      <c r="AJ209">
+        <f t="shared" ref="AJ209" si="452">AA209-AD209-AG209</f>
+        <v>708</v>
+      </c>
+      <c r="AK209">
+        <f t="shared" ref="AK209" si="453">-(J209-J208)+L209</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="210" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A210" s="14">
+        <f t="shared" si="49"/>
+        <v>44116</v>
+      </c>
+      <c r="B210">
+        <v>864454</v>
+      </c>
+      <c r="C210">
+        <v>100043</v>
+      </c>
+      <c r="D210">
+        <v>76491</v>
+      </c>
+      <c r="E210" s="9">
+        <v>1462</v>
+      </c>
+      <c r="F210" s="9">
+        <v>449</v>
+      </c>
+      <c r="H210">
+        <v>109</v>
+      </c>
+      <c r="I210">
+        <v>53</v>
+      </c>
+      <c r="J210">
+        <v>100</v>
+      </c>
+      <c r="K210">
+        <v>21</v>
+      </c>
+      <c r="L210">
+        <v>13</v>
+      </c>
+      <c r="M210" s="7">
+        <f t="shared" si="380"/>
+        <v>764411</v>
+      </c>
+      <c r="N210" s="4">
+        <f t="shared" si="381"/>
+        <v>0.1157296975894611</v>
+      </c>
+      <c r="Q210">
+        <f t="shared" ref="Q210" si="454">C210-C209</f>
+        <v>424</v>
+      </c>
+      <c r="R210">
+        <f t="shared" ref="R210" si="455">M210-M209</f>
+        <v>2172</v>
+      </c>
+      <c r="S210" s="8">
+        <f t="shared" ref="S210" si="456">Q210/U210</f>
+        <v>0.1633281972265023</v>
+      </c>
+      <c r="T210" s="8">
+        <f t="shared" ref="T210" si="457">SUM(Q204:Q210)/SUM(U204:U210)</f>
+        <v>0.17695635076681085</v>
+      </c>
+      <c r="U210">
+        <f t="shared" ref="U210" si="458">B210-B209</f>
+        <v>2596</v>
+      </c>
+      <c r="V210">
+        <f t="shared" ref="V210" si="459">C210-D210-E210</f>
+        <v>22090</v>
+      </c>
+      <c r="W210" s="3">
+        <f t="shared" ref="W210" si="460">F210/V210</f>
+        <v>2.0325939339067452E-2</v>
+      </c>
+      <c r="X210">
+        <f t="shared" ref="X210" si="461">E210-E209</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62FE754-3856-4399-BFB9-4D27529356EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CDC593-0381-4C0A-B5B6-6464092B4575}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="209">
   <si>
     <t>date</t>
   </si>
@@ -649,6 +649,9 @@
   </si>
   <si>
     <t xml:space="preserve">Claire Marsh </t>
+  </si>
+  <si>
+    <t>Taylor Runchey</t>
   </si>
 </sst>
 </file>
@@ -1561,13 +1564,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AT210"/>
+  <dimension ref="A1:AT211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y196" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AA196" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL208" sqref="AL208"/>
+      <selection pane="bottomRight" activeCell="AH210" sqref="AH210:AK211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12812,11 +12815,11 @@
       </c>
       <c r="AS136">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A136)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A136)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT136">
         <f t="shared" si="25"/>
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="137" spans="1:46" x14ac:dyDescent="0.35">
@@ -12939,11 +12942,11 @@
       </c>
       <c r="AS137">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A137)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A137)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT137">
         <f t="shared" si="25"/>
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="138" spans="1:46" x14ac:dyDescent="0.35">
@@ -13066,11 +13069,11 @@
       </c>
       <c r="AS138">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A138)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A138)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT138">
         <f>AH138-AS138</f>
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="139" spans="1:46" x14ac:dyDescent="0.35">
@@ -13193,11 +13196,11 @@
       </c>
       <c r="AS139">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A139)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A139)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT139">
         <f t="shared" ref="AT139:AT188" si="41">AH139-AS139</f>
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="140" spans="1:46" x14ac:dyDescent="0.35">
@@ -13320,11 +13323,11 @@
       </c>
       <c r="AS140">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A140)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A140)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT140">
         <f t="shared" si="41"/>
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="141" spans="1:46" x14ac:dyDescent="0.35">
@@ -13447,11 +13450,11 @@
       </c>
       <c r="AS141">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A141)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A141)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT141">
         <f t="shared" si="41"/>
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="142" spans="1:46" x14ac:dyDescent="0.35">
@@ -13574,11 +13577,11 @@
       </c>
       <c r="AS142">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A142)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A142)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT142">
         <f t="shared" si="41"/>
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="143" spans="1:46" x14ac:dyDescent="0.35">
@@ -13701,11 +13704,11 @@
       </c>
       <c r="AS143">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A143)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A143)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT143">
         <f t="shared" si="41"/>
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="144" spans="1:46" x14ac:dyDescent="0.35">
@@ -13828,11 +13831,11 @@
       </c>
       <c r="AS144">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A144)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A144)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT144">
         <f t="shared" si="41"/>
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="145" spans="1:46" x14ac:dyDescent="0.35">
@@ -13955,11 +13958,11 @@
       </c>
       <c r="AS145">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A145)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A145)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT145">
         <f t="shared" si="41"/>
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="146" spans="1:46" x14ac:dyDescent="0.35">
@@ -14082,11 +14085,11 @@
       </c>
       <c r="AS146">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A146)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A146)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT146">
         <f t="shared" si="41"/>
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="147" spans="1:46" x14ac:dyDescent="0.35">
@@ -14209,11 +14212,11 @@
       </c>
       <c r="AS147">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A147)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A147)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT147">
         <f t="shared" si="41"/>
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="148" spans="1:46" x14ac:dyDescent="0.35">
@@ -14753,7 +14756,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="14">
-        <f t="shared" ref="A152:A210" si="49">A151+1</f>
+        <f t="shared" ref="A152:A211" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -21660,11 +21663,11 @@
         <v>17</v>
       </c>
       <c r="M203" s="7">
-        <f t="shared" ref="M203:M210" si="380">B203-C203</f>
+        <f t="shared" ref="M203:M211" si="380">B203-C203</f>
         <v>730923</v>
       </c>
       <c r="N203" s="4">
-        <f t="shared" ref="N203:N210" si="381">C203/B203</f>
+        <f t="shared" ref="N203:N211" si="381">C203/B203</f>
         <v>0.11270554987702819</v>
       </c>
       <c r="Q203">
@@ -22427,11 +22430,11 @@
         <v>38</v>
       </c>
       <c r="AT208">
-        <f t="shared" ref="AT208" si="441">AH208-AS208</f>
+        <f t="shared" ref="AT208:AT210" si="441">AH208-AS208</f>
         <v>84</v>
       </c>
     </row>
-    <row r="209" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A209" s="14">
         <f t="shared" si="49"/>
         <v>44115</v>
@@ -22534,23 +22537,31 @@
         <v>96</v>
       </c>
       <c r="AH209">
-        <f t="shared" ref="AH209" si="450">Y209-AB209-AE209</f>
+        <f t="shared" ref="AH209:AH210" si="450">Y209-AB209-AE209</f>
         <v>129</v>
       </c>
       <c r="AI209">
-        <f t="shared" ref="AI209" si="451">Z209-AC209-AF209</f>
+        <f t="shared" ref="AI209:AI210" si="451">Z209-AC209-AF209</f>
         <v>35</v>
       </c>
       <c r="AJ209">
-        <f t="shared" ref="AJ209" si="452">AA209-AD209-AG209</f>
+        <f t="shared" ref="AJ209:AJ210" si="452">AA209-AD209-AG209</f>
         <v>708</v>
       </c>
       <c r="AK209">
-        <f t="shared" ref="AK209" si="453">-(J209-J208)+L209</f>
+        <f t="shared" ref="AK209:AK210" si="453">-(J209-J208)+L209</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="210" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AS209">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A209)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A209)</f>
+        <v>38</v>
+      </c>
+      <c r="AT209">
+        <f t="shared" si="441"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="210" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A210" s="14">
         <f t="shared" si="49"/>
         <v>44116</v>
@@ -22624,6 +22635,185 @@
       <c r="X210">
         <f t="shared" ref="X210" si="461">E210-E209</f>
         <v>2</v>
+      </c>
+      <c r="Y210">
+        <v>564</v>
+      </c>
+      <c r="Z210">
+        <v>322</v>
+      </c>
+      <c r="AA210">
+        <v>4920</v>
+      </c>
+      <c r="AB210">
+        <v>429</v>
+      </c>
+      <c r="AC210">
+        <v>285</v>
+      </c>
+      <c r="AD210">
+        <v>4112</v>
+      </c>
+      <c r="AE210">
+        <v>7</v>
+      </c>
+      <c r="AF210">
+        <v>2</v>
+      </c>
+      <c r="AG210">
+        <v>96</v>
+      </c>
+      <c r="AH210">
+        <f t="shared" si="450"/>
+        <v>128</v>
+      </c>
+      <c r="AI210">
+        <f t="shared" si="451"/>
+        <v>35</v>
+      </c>
+      <c r="AJ210">
+        <f t="shared" si="452"/>
+        <v>712</v>
+      </c>
+      <c r="AK210">
+        <f t="shared" si="453"/>
+        <v>14</v>
+      </c>
+      <c r="AL210">
+        <v>6</v>
+      </c>
+      <c r="AM210">
+        <v>6</v>
+      </c>
+      <c r="AN210">
+        <v>24</v>
+      </c>
+      <c r="AS210">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A210)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A210)</f>
+        <v>26</v>
+      </c>
+      <c r="AT210">
+        <f t="shared" si="441"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="211" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A211" s="14">
+        <f t="shared" si="49"/>
+        <v>44117</v>
+      </c>
+      <c r="B211">
+        <v>867390</v>
+      </c>
+      <c r="C211">
+        <v>100562</v>
+      </c>
+      <c r="D211">
+        <v>78027</v>
+      </c>
+      <c r="E211" s="9">
+        <v>1481</v>
+      </c>
+      <c r="F211" s="9">
+        <v>463</v>
+      </c>
+      <c r="H211">
+        <v>114</v>
+      </c>
+      <c r="I211">
+        <v>62</v>
+      </c>
+      <c r="J211">
+        <v>100</v>
+      </c>
+      <c r="K211">
+        <v>19</v>
+      </c>
+      <c r="L211">
+        <v>16</v>
+      </c>
+      <c r="M211" s="7">
+        <f t="shared" si="380"/>
+        <v>766828</v>
+      </c>
+      <c r="N211" s="4">
+        <f t="shared" si="381"/>
+        <v>0.11593631469120004</v>
+      </c>
+      <c r="Q211">
+        <f t="shared" ref="Q211" si="462">C211-C210</f>
+        <v>519</v>
+      </c>
+      <c r="R211">
+        <f t="shared" ref="R211" si="463">M211-M210</f>
+        <v>2417</v>
+      </c>
+      <c r="S211" s="8">
+        <f t="shared" ref="S211" si="464">Q211/U211</f>
+        <v>0.17677111716621252</v>
+      </c>
+      <c r="T211" s="8">
+        <f t="shared" ref="T211" si="465">SUM(Q205:Q211)/SUM(U205:U211)</f>
+        <v>0.17857675667611517</v>
+      </c>
+      <c r="U211">
+        <f t="shared" ref="U211" si="466">B211-B210</f>
+        <v>2936</v>
+      </c>
+      <c r="V211">
+        <f t="shared" ref="V211" si="467">C211-D211-E211</f>
+        <v>21054</v>
+      </c>
+      <c r="W211" s="3">
+        <f t="shared" ref="W211" si="468">F211/V211</f>
+        <v>2.1991070580412272E-2</v>
+      </c>
+      <c r="X211">
+        <f t="shared" ref="X211" si="469">E211-E210</f>
+        <v>19</v>
+      </c>
+      <c r="Y211">
+        <v>569</v>
+      </c>
+      <c r="Z211">
+        <v>322</v>
+      </c>
+      <c r="AA211">
+        <v>4931</v>
+      </c>
+      <c r="AB211">
+        <v>441</v>
+      </c>
+      <c r="AC211">
+        <v>292</v>
+      </c>
+      <c r="AD211">
+        <v>4150</v>
+      </c>
+      <c r="AE211">
+        <v>7</v>
+      </c>
+      <c r="AF211">
+        <v>2</v>
+      </c>
+      <c r="AG211">
+        <v>96</v>
+      </c>
+      <c r="AH211">
+        <f t="shared" ref="AH211" si="470">Y211-AB211-AE211</f>
+        <v>121</v>
+      </c>
+      <c r="AI211">
+        <f t="shared" ref="AI211" si="471">Z211-AC211-AF211</f>
+        <v>28</v>
+      </c>
+      <c r="AJ211">
+        <f t="shared" ref="AJ211" si="472">AA211-AD211-AG211</f>
+        <v>685</v>
+      </c>
+      <c r="AK211">
+        <f t="shared" ref="AK211" si="473">-(J211-J210)+L211</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -22637,8 +22827,8 @@
   <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G144" sqref="G144"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25738,14 +25928,23 @@
         <v>44131</v>
       </c>
     </row>
-    <row r="145" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B145" t="s">
+        <v>208</v>
+      </c>
+      <c r="C145" s="1">
+        <v>44026</v>
+      </c>
+      <c r="D145" s="1">
+        <v>44116</v>
+      </c>
       <c r="G145" s="1">
         <f t="shared" ref="G145" si="10">C145+10</f>
-        <v>10</v>
+        <v>44036</v>
       </c>
       <c r="H145" s="1">
         <f t="shared" ref="H145" si="11">C145+28</f>
-        <v>28</v>
+        <v>44054</v>
       </c>
     </row>
   </sheetData>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CDC593-0381-4C0A-B5B6-6464092B4575}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421E40CB-83F1-4BD2-ACDB-2EB3C05C6BF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="218">
   <si>
     <t>date</t>
   </si>
@@ -652,6 +652,33 @@
   </si>
   <si>
     <t>Taylor Runchey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carson McSorley </t>
+  </si>
+  <si>
+    <t>Courtney Stucker</t>
+  </si>
+  <si>
+    <t>Auri Redding</t>
+  </si>
+  <si>
+    <t>Nathan Stephany</t>
+  </si>
+  <si>
+    <t>Keagan John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allison Kuehn </t>
+  </si>
+  <si>
+    <t>Rachel Ndjuluwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dani Johnson </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bennett Goettch </t>
   </si>
 </sst>
 </file>
@@ -1564,13 +1591,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AT211"/>
+  <dimension ref="A1:AT219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA196" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE204" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH210" sqref="AH210:AK211"/>
+      <selection pane="bottomRight" activeCell="AS217" sqref="AS217:AT218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14756,7 +14783,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="14">
-        <f t="shared" ref="A152:A211" si="49">A151+1</f>
+        <f t="shared" ref="A152:A219" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -21663,11 +21690,11 @@
         <v>17</v>
       </c>
       <c r="M203" s="7">
-        <f t="shared" ref="M203:M211" si="380">B203-C203</f>
+        <f t="shared" ref="M203:M219" si="380">B203-C203</f>
         <v>730923</v>
       </c>
       <c r="N203" s="4">
-        <f t="shared" ref="N203:N211" si="381">C203/B203</f>
+        <f t="shared" ref="N203:N219" si="381">C203/B203</f>
         <v>0.11270554987702819</v>
       </c>
       <c r="Q203">
@@ -22800,20 +22827,1040 @@
         <v>96</v>
       </c>
       <c r="AH211">
-        <f t="shared" ref="AH211" si="470">Y211-AB211-AE211</f>
+        <f t="shared" ref="AH211:AH212" si="470">Y211-AB211-AE211</f>
         <v>121</v>
       </c>
       <c r="AI211">
-        <f t="shared" ref="AI211" si="471">Z211-AC211-AF211</f>
+        <f t="shared" ref="AI211:AI212" si="471">Z211-AC211-AF211</f>
         <v>28</v>
       </c>
       <c r="AJ211">
-        <f t="shared" ref="AJ211" si="472">AA211-AD211-AG211</f>
+        <f t="shared" ref="AJ211:AJ212" si="472">AA211-AD211-AG211</f>
         <v>685</v>
       </c>
       <c r="AK211">
-        <f t="shared" ref="AK211" si="473">-(J211-J210)+L211</f>
+        <f t="shared" ref="AK211:AK212" si="473">-(J211-J210)+L211</f>
         <v>16</v>
+      </c>
+      <c r="AL211">
+        <v>7</v>
+      </c>
+      <c r="AM211">
+        <v>7</v>
+      </c>
+      <c r="AN211">
+        <v>30</v>
+      </c>
+      <c r="AS211">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A211)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A211)</f>
+        <v>18</v>
+      </c>
+      <c r="AT211">
+        <f t="shared" ref="AT211" si="474">AH211-AS211</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="212" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A212" s="14">
+        <f t="shared" si="49"/>
+        <v>44118</v>
+      </c>
+      <c r="B212">
+        <v>872496</v>
+      </c>
+      <c r="C212">
+        <v>101628</v>
+      </c>
+      <c r="D212">
+        <v>79022</v>
+      </c>
+      <c r="E212" s="9">
+        <v>1491</v>
+      </c>
+      <c r="F212" s="9">
+        <v>473</v>
+      </c>
+      <c r="H212">
+        <v>106</v>
+      </c>
+      <c r="I212">
+        <v>74</v>
+      </c>
+      <c r="J212">
+        <v>104</v>
+      </c>
+      <c r="K212">
+        <v>22</v>
+      </c>
+      <c r="L212">
+        <v>16</v>
+      </c>
+      <c r="M212" s="7">
+        <f t="shared" si="380"/>
+        <v>770868</v>
+      </c>
+      <c r="N212" s="4">
+        <f t="shared" si="381"/>
+        <v>0.11647961709853111</v>
+      </c>
+      <c r="Q212">
+        <f t="shared" ref="Q212" si="475">C212-C211</f>
+        <v>1066</v>
+      </c>
+      <c r="R212">
+        <f t="shared" ref="R212" si="476">M212-M211</f>
+        <v>4040</v>
+      </c>
+      <c r="S212" s="8">
+        <f t="shared" ref="S212" si="477">Q212/U212</f>
+        <v>0.20877399138268704</v>
+      </c>
+      <c r="T212" s="8">
+        <f t="shared" ref="T212" si="478">SUM(Q206:Q212)/SUM(U206:U212)</f>
+        <v>0.184050319549347</v>
+      </c>
+      <c r="U212">
+        <f t="shared" ref="U212" si="479">B212-B211</f>
+        <v>5106</v>
+      </c>
+      <c r="V212">
+        <f t="shared" ref="V212" si="480">C212-D212-E212</f>
+        <v>21115</v>
+      </c>
+      <c r="W212" s="3">
+        <f t="shared" ref="W212" si="481">F212/V212</f>
+        <v>2.2401136632725551E-2</v>
+      </c>
+      <c r="X212">
+        <f t="shared" ref="X212" si="482">E212-E211</f>
+        <v>10</v>
+      </c>
+      <c r="Y212">
+        <v>576</v>
+      </c>
+      <c r="Z212">
+        <v>324</v>
+      </c>
+      <c r="AA212">
+        <v>4967</v>
+      </c>
+      <c r="AB212">
+        <v>448</v>
+      </c>
+      <c r="AC212">
+        <v>294</v>
+      </c>
+      <c r="AD212">
+        <v>4188</v>
+      </c>
+      <c r="AE212">
+        <v>7</v>
+      </c>
+      <c r="AF212">
+        <v>2</v>
+      </c>
+      <c r="AG212">
+        <v>96</v>
+      </c>
+      <c r="AH212">
+        <f t="shared" si="470"/>
+        <v>121</v>
+      </c>
+      <c r="AI212">
+        <f t="shared" si="471"/>
+        <v>28</v>
+      </c>
+      <c r="AJ212">
+        <f t="shared" si="472"/>
+        <v>683</v>
+      </c>
+      <c r="AK212">
+        <f t="shared" si="473"/>
+        <v>12</v>
+      </c>
+      <c r="AL212">
+        <v>8</v>
+      </c>
+      <c r="AM212">
+        <v>8</v>
+      </c>
+      <c r="AN212">
+        <v>32</v>
+      </c>
+      <c r="AS212">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A212)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A212)</f>
+        <v>12</v>
+      </c>
+      <c r="AT212">
+        <f t="shared" ref="AT212:AT214" si="483">AH212-AS212</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="213" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A213" s="14">
+        <f t="shared" si="49"/>
+        <v>44119</v>
+      </c>
+      <c r="B213">
+        <v>879098</v>
+      </c>
+      <c r="C213">
+        <v>103015</v>
+      </c>
+      <c r="D213">
+        <v>80076</v>
+      </c>
+      <c r="E213" s="9">
+        <v>1505</v>
+      </c>
+      <c r="F213" s="9">
+        <v>482</v>
+      </c>
+      <c r="H213">
+        <v>107</v>
+      </c>
+      <c r="I213">
+        <v>66</v>
+      </c>
+      <c r="J213">
+        <v>102</v>
+      </c>
+      <c r="K213">
+        <v>20</v>
+      </c>
+      <c r="L213">
+        <v>17</v>
+      </c>
+      <c r="M213" s="7">
+        <f t="shared" si="380"/>
+        <v>776083</v>
+      </c>
+      <c r="N213" s="4">
+        <f t="shared" si="381"/>
+        <v>0.11718261217748192</v>
+      </c>
+      <c r="Q213">
+        <f t="shared" ref="Q213" si="484">C213-C212</f>
+        <v>1387</v>
+      </c>
+      <c r="R213">
+        <f t="shared" ref="R213" si="485">M213-M212</f>
+        <v>5215</v>
+      </c>
+      <c r="S213" s="8">
+        <f t="shared" ref="S213" si="486">Q213/U213</f>
+        <v>0.21008785216601031</v>
+      </c>
+      <c r="T213" s="8">
+        <f t="shared" ref="T213" si="487">SUM(Q207:Q213)/SUM(U207:U213)</f>
+        <v>0.19263859762327257</v>
+      </c>
+      <c r="U213">
+        <f t="shared" ref="U213" si="488">B213-B212</f>
+        <v>6602</v>
+      </c>
+      <c r="V213">
+        <f t="shared" ref="V213" si="489">C213-D213-E213</f>
+        <v>21434</v>
+      </c>
+      <c r="W213" s="3">
+        <f t="shared" ref="W213" si="490">F213/V213</f>
+        <v>2.2487636465428756E-2</v>
+      </c>
+      <c r="X213">
+        <f t="shared" ref="X213" si="491">E213-E212</f>
+        <v>14</v>
+      </c>
+      <c r="Y213">
+        <v>583</v>
+      </c>
+      <c r="Z213">
+        <v>326</v>
+      </c>
+      <c r="AA213">
+        <v>5008</v>
+      </c>
+      <c r="AB213">
+        <v>455</v>
+      </c>
+      <c r="AC213">
+        <v>295</v>
+      </c>
+      <c r="AD213">
+        <v>4219</v>
+      </c>
+      <c r="AE213">
+        <v>7</v>
+      </c>
+      <c r="AF213">
+        <v>2</v>
+      </c>
+      <c r="AG213">
+        <v>96</v>
+      </c>
+      <c r="AH213">
+        <f t="shared" ref="AH213" si="492">Y213-AB213-AE213</f>
+        <v>121</v>
+      </c>
+      <c r="AI213">
+        <f t="shared" ref="AI213" si="493">Z213-AC213-AF213</f>
+        <v>29</v>
+      </c>
+      <c r="AJ213">
+        <f t="shared" ref="AJ213" si="494">AA213-AD213-AG213</f>
+        <v>693</v>
+      </c>
+      <c r="AK213">
+        <f t="shared" ref="AK213" si="495">-(J213-J212)+L213</f>
+        <v>19</v>
+      </c>
+      <c r="AL213">
+        <v>8</v>
+      </c>
+      <c r="AM213">
+        <v>8</v>
+      </c>
+      <c r="AN213">
+        <v>36</v>
+      </c>
+      <c r="AS213">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A213)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A213)</f>
+        <v>9</v>
+      </c>
+      <c r="AT213">
+        <f t="shared" si="483"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="214" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A214" s="14">
+        <f t="shared" si="49"/>
+        <v>44120</v>
+      </c>
+      <c r="B214">
+        <v>886557</v>
+      </c>
+      <c r="C214">
+        <v>104552</v>
+      </c>
+      <c r="D214">
+        <v>80486</v>
+      </c>
+      <c r="E214" s="9">
+        <v>1521</v>
+      </c>
+      <c r="F214" s="9">
+        <v>468</v>
+      </c>
+      <c r="H214">
+        <v>105</v>
+      </c>
+      <c r="I214">
+        <v>66</v>
+      </c>
+      <c r="J214">
+        <v>94</v>
+      </c>
+      <c r="K214">
+        <v>17</v>
+      </c>
+      <c r="L214">
+        <v>15</v>
+      </c>
+      <c r="M214" s="7">
+        <f t="shared" si="380"/>
+        <v>782005</v>
+      </c>
+      <c r="N214" s="4">
+        <f t="shared" si="381"/>
+        <v>0.11793037559908726</v>
+      </c>
+      <c r="Q214">
+        <f t="shared" ref="Q214" si="496">C214-C213</f>
+        <v>1537</v>
+      </c>
+      <c r="R214">
+        <f t="shared" ref="R214" si="497">M214-M213</f>
+        <v>5922</v>
+      </c>
+      <c r="S214" s="8">
+        <f t="shared" ref="S214" si="498">Q214/U214</f>
+        <v>0.20605979353800777</v>
+      </c>
+      <c r="T214" s="8">
+        <f t="shared" ref="T214" si="499">SUM(Q208:Q214)/SUM(U208:U214)</f>
+        <v>0.19946636271792348</v>
+      </c>
+      <c r="U214">
+        <f t="shared" ref="U214" si="500">B214-B213</f>
+        <v>7459</v>
+      </c>
+      <c r="V214">
+        <f t="shared" ref="V214" si="501">C214-D214-E214</f>
+        <v>22545</v>
+      </c>
+      <c r="W214" s="3">
+        <f t="shared" ref="W214" si="502">F214/V214</f>
+        <v>2.0758483033932136E-2</v>
+      </c>
+      <c r="X214">
+        <f t="shared" ref="X214" si="503">E214-E213</f>
+        <v>16</v>
+      </c>
+      <c r="Y214">
+        <v>594</v>
+      </c>
+      <c r="Z214">
+        <v>333</v>
+      </c>
+      <c r="AA214">
+        <v>5075</v>
+      </c>
+      <c r="AB214">
+        <v>457</v>
+      </c>
+      <c r="AC214">
+        <v>304</v>
+      </c>
+      <c r="AD214">
+        <v>4245</v>
+      </c>
+      <c r="AE214">
+        <v>7</v>
+      </c>
+      <c r="AF214">
+        <v>2</v>
+      </c>
+      <c r="AG214">
+        <v>96</v>
+      </c>
+      <c r="AH214">
+        <f t="shared" ref="AH214" si="504">Y214-AB214-AE214</f>
+        <v>130</v>
+      </c>
+      <c r="AI214">
+        <f t="shared" ref="AI214" si="505">Z214-AC214-AF214</f>
+        <v>27</v>
+      </c>
+      <c r="AJ214">
+        <f t="shared" ref="AJ214" si="506">AA214-AD214-AG214</f>
+        <v>734</v>
+      </c>
+      <c r="AK214">
+        <f t="shared" ref="AK214" si="507">-(J214-J213)+L214</f>
+        <v>23</v>
+      </c>
+      <c r="AL214">
+        <v>8</v>
+      </c>
+      <c r="AM214">
+        <v>8</v>
+      </c>
+      <c r="AN214">
+        <v>62</v>
+      </c>
+      <c r="AS214">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A214)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A214)</f>
+        <v>7</v>
+      </c>
+      <c r="AT214">
+        <f t="shared" si="483"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="215" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A215" s="14">
+        <f t="shared" si="49"/>
+        <v>44121</v>
+      </c>
+      <c r="B215">
+        <v>893668</v>
+      </c>
+      <c r="C215">
+        <v>106047</v>
+      </c>
+      <c r="D215">
+        <v>81468</v>
+      </c>
+      <c r="E215" s="9">
+        <v>1524</v>
+      </c>
+      <c r="F215" s="9">
+        <v>461</v>
+      </c>
+      <c r="H215">
+        <v>104</v>
+      </c>
+      <c r="I215">
+        <v>55</v>
+      </c>
+      <c r="J215">
+        <v>97</v>
+      </c>
+      <c r="K215">
+        <v>17</v>
+      </c>
+      <c r="L215">
+        <v>14</v>
+      </c>
+      <c r="M215" s="7">
+        <f t="shared" si="380"/>
+        <v>787621</v>
+      </c>
+      <c r="N215" s="4">
+        <f t="shared" si="381"/>
+        <v>0.11866487330865601</v>
+      </c>
+      <c r="Q215">
+        <f t="shared" ref="Q215" si="508">C215-C214</f>
+        <v>1495</v>
+      </c>
+      <c r="R215">
+        <f t="shared" ref="R215" si="509">M215-M214</f>
+        <v>5616</v>
+      </c>
+      <c r="S215" s="8">
+        <f t="shared" ref="S215" si="510">Q215/U215</f>
+        <v>0.21023765996343693</v>
+      </c>
+      <c r="T215" s="8">
+        <f t="shared" ref="T215" si="511">SUM(Q209:Q215)/SUM(U209:U215)</f>
+        <v>0.20205658210669172</v>
+      </c>
+      <c r="U215">
+        <f t="shared" ref="U215" si="512">B215-B214</f>
+        <v>7111</v>
+      </c>
+      <c r="V215">
+        <f t="shared" ref="V215" si="513">C215-D215-E215</f>
+        <v>23055</v>
+      </c>
+      <c r="W215" s="3">
+        <f t="shared" ref="W215" si="514">F215/V215</f>
+        <v>1.9995662546085449E-2</v>
+      </c>
+      <c r="X215">
+        <f t="shared" ref="X215" si="515">E215-E214</f>
+        <v>3</v>
+      </c>
+      <c r="Y215">
+        <v>605</v>
+      </c>
+      <c r="Z215">
+        <v>337</v>
+      </c>
+      <c r="AA215">
+        <v>5130</v>
+      </c>
+      <c r="AB215">
+        <v>462</v>
+      </c>
+      <c r="AC215">
+        <v>304</v>
+      </c>
+      <c r="AD215">
+        <v>4281</v>
+      </c>
+      <c r="AE215">
+        <v>7</v>
+      </c>
+      <c r="AF215">
+        <v>2</v>
+      </c>
+      <c r="AG215">
+        <v>96</v>
+      </c>
+      <c r="AH215">
+        <f t="shared" ref="AH215" si="516">Y215-AB215-AE215</f>
+        <v>136</v>
+      </c>
+      <c r="AI215">
+        <f t="shared" ref="AI215" si="517">Z215-AC215-AF215</f>
+        <v>31</v>
+      </c>
+      <c r="AJ215">
+        <f t="shared" ref="AJ215" si="518">AA215-AD215-AG215</f>
+        <v>753</v>
+      </c>
+      <c r="AK215">
+        <f t="shared" ref="AK215" si="519">-(J215-J214)+L215</f>
+        <v>11</v>
+      </c>
+      <c r="AS215">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A215)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A215)</f>
+        <v>8</v>
+      </c>
+      <c r="AT215">
+        <f t="shared" ref="AT215" si="520">AH215-AS215</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="216" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A216" s="14">
+        <f t="shared" si="49"/>
+        <v>44122</v>
+      </c>
+      <c r="B216">
+        <v>898873</v>
+      </c>
+      <c r="C216">
+        <v>107062</v>
+      </c>
+      <c r="D216">
+        <v>81781</v>
+      </c>
+      <c r="E216" s="9">
+        <v>1528</v>
+      </c>
+      <c r="F216" s="9">
+        <v>475</v>
+      </c>
+      <c r="H216">
+        <v>108</v>
+      </c>
+      <c r="I216">
+        <v>84</v>
+      </c>
+      <c r="J216">
+        <v>103</v>
+      </c>
+      <c r="K216">
+        <v>19</v>
+      </c>
+      <c r="L216">
+        <v>21</v>
+      </c>
+      <c r="M216" s="7">
+        <f t="shared" si="380"/>
+        <v>791811</v>
+      </c>
+      <c r="N216" s="4">
+        <f t="shared" si="381"/>
+        <v>0.11910692611748266</v>
+      </c>
+      <c r="Q216">
+        <f t="shared" ref="Q216" si="521">C216-C215</f>
+        <v>1015</v>
+      </c>
+      <c r="R216">
+        <f t="shared" ref="R216" si="522">M216-M215</f>
+        <v>4190</v>
+      </c>
+      <c r="S216" s="8">
+        <f t="shared" ref="S216" si="523">Q216/U216</f>
+        <v>0.19500480307396734</v>
+      </c>
+      <c r="T216" s="8">
+        <f t="shared" ref="T216" si="524">SUM(Q210:Q216)/SUM(U210:U216)</f>
+        <v>0.20108064298257464</v>
+      </c>
+      <c r="U216">
+        <f t="shared" ref="U216" si="525">B216-B215</f>
+        <v>5205</v>
+      </c>
+      <c r="V216">
+        <f t="shared" ref="V216" si="526">C216-D216-E216</f>
+        <v>23753</v>
+      </c>
+      <c r="W216" s="3">
+        <f t="shared" ref="W216" si="527">F216/V216</f>
+        <v>1.9997474003283795E-2</v>
+      </c>
+      <c r="X216">
+        <f t="shared" ref="X216" si="528">E216-E215</f>
+        <v>4</v>
+      </c>
+      <c r="Y216">
+        <v>611</v>
+      </c>
+      <c r="Z216">
+        <v>340</v>
+      </c>
+      <c r="AA216">
+        <v>5167</v>
+      </c>
+      <c r="AB216">
+        <v>464</v>
+      </c>
+      <c r="AC216">
+        <v>304</v>
+      </c>
+      <c r="AD216">
+        <v>4286</v>
+      </c>
+      <c r="AE216">
+        <v>7</v>
+      </c>
+      <c r="AF216">
+        <v>2</v>
+      </c>
+      <c r="AG216">
+        <v>96</v>
+      </c>
+      <c r="AH216">
+        <f t="shared" ref="AH216:AH217" si="529">Y216-AB216-AE216</f>
+        <v>140</v>
+      </c>
+      <c r="AI216">
+        <f t="shared" ref="AI216:AI217" si="530">Z216-AC216-AF216</f>
+        <v>34</v>
+      </c>
+      <c r="AJ216">
+        <f t="shared" ref="AJ216:AJ217" si="531">AA216-AD216-AG216</f>
+        <v>785</v>
+      </c>
+      <c r="AK216">
+        <f t="shared" ref="AK216:AK217" si="532">-(J216-J215)+L216</f>
+        <v>15</v>
+      </c>
+      <c r="AL216">
+        <v>5</v>
+      </c>
+      <c r="AM216">
+        <v>5</v>
+      </c>
+      <c r="AN216">
+        <v>63</v>
+      </c>
+      <c r="AS216">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A216)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A216)</f>
+        <v>11</v>
+      </c>
+      <c r="AT216">
+        <f t="shared" ref="AT216:AT217" si="533">AH216-AS216</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="217" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A217" s="14">
+        <f t="shared" si="49"/>
+        <v>44123</v>
+      </c>
+      <c r="B217">
+        <v>901734</v>
+      </c>
+      <c r="C217">
+        <v>107562</v>
+      </c>
+      <c r="D217">
+        <v>82046</v>
+      </c>
+      <c r="E217" s="9">
+        <v>1532</v>
+      </c>
+      <c r="F217" s="9">
+        <v>480</v>
+      </c>
+      <c r="H217">
+        <v>113</v>
+      </c>
+      <c r="I217">
+        <v>63</v>
+      </c>
+      <c r="J217">
+        <v>97</v>
+      </c>
+      <c r="K217">
+        <v>19</v>
+      </c>
+      <c r="L217">
+        <v>11</v>
+      </c>
+      <c r="M217" s="7">
+        <f t="shared" si="380"/>
+        <v>794172</v>
+      </c>
+      <c r="N217" s="4">
+        <f t="shared" si="381"/>
+        <v>0.11928351376348235</v>
+      </c>
+      <c r="Q217">
+        <f t="shared" ref="Q217" si="534">C217-C216</f>
+        <v>500</v>
+      </c>
+      <c r="R217">
+        <f t="shared" ref="R217" si="535">M217-M216</f>
+        <v>2361</v>
+      </c>
+      <c r="S217" s="8">
+        <f t="shared" ref="S217" si="536">Q217/U217</f>
+        <v>0.17476406850751486</v>
+      </c>
+      <c r="T217" s="8">
+        <f t="shared" ref="T217" si="537">SUM(Q211:Q217)/SUM(U211:U217)</f>
+        <v>0.20168991416309012</v>
+      </c>
+      <c r="U217">
+        <f t="shared" ref="U217" si="538">B217-B216</f>
+        <v>2861</v>
+      </c>
+      <c r="V217">
+        <f t="shared" ref="V217" si="539">C217-D217-E217</f>
+        <v>23984</v>
+      </c>
+      <c r="W217" s="3">
+        <f t="shared" ref="W217" si="540">F217/V217</f>
+        <v>2.0013342228152101E-2</v>
+      </c>
+      <c r="X217">
+        <f t="shared" ref="X217" si="541">E217-E216</f>
+        <v>4</v>
+      </c>
+      <c r="Y217">
+        <v>611</v>
+      </c>
+      <c r="Z217">
+        <v>342</v>
+      </c>
+      <c r="AA217">
+        <v>5176</v>
+      </c>
+      <c r="AB217">
+        <v>465</v>
+      </c>
+      <c r="AC217">
+        <v>304</v>
+      </c>
+      <c r="AD217">
+        <v>4300</v>
+      </c>
+      <c r="AE217">
+        <v>7</v>
+      </c>
+      <c r="AF217">
+        <v>2</v>
+      </c>
+      <c r="AG217">
+        <v>96</v>
+      </c>
+      <c r="AH217">
+        <f t="shared" si="529"/>
+        <v>139</v>
+      </c>
+      <c r="AI217">
+        <f t="shared" si="530"/>
+        <v>36</v>
+      </c>
+      <c r="AJ217">
+        <f t="shared" si="531"/>
+        <v>780</v>
+      </c>
+      <c r="AK217">
+        <f t="shared" si="532"/>
+        <v>17</v>
+      </c>
+      <c r="AL217">
+        <v>3</v>
+      </c>
+      <c r="AM217">
+        <v>3</v>
+      </c>
+      <c r="AN217">
+        <v>60</v>
+      </c>
+      <c r="AS217">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A217)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A217)</f>
+        <v>9</v>
+      </c>
+      <c r="AT217">
+        <f t="shared" si="533"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="218" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A218" s="14">
+        <f t="shared" si="49"/>
+        <v>44124</v>
+      </c>
+      <c r="B218">
+        <v>905212</v>
+      </c>
+      <c r="C218">
+        <v>108176</v>
+      </c>
+      <c r="D218">
+        <v>83416</v>
+      </c>
+      <c r="E218" s="9">
+        <v>1548</v>
+      </c>
+      <c r="F218" s="9">
+        <v>501</v>
+      </c>
+      <c r="H218">
+        <v>122</v>
+      </c>
+      <c r="I218">
+        <v>71</v>
+      </c>
+      <c r="J218">
+        <v>106</v>
+      </c>
+      <c r="K218">
+        <v>24</v>
+      </c>
+      <c r="L218">
+        <v>19</v>
+      </c>
+      <c r="M218" s="7">
+        <f t="shared" si="380"/>
+        <v>797036</v>
+      </c>
+      <c r="N218" s="4">
+        <f t="shared" si="381"/>
+        <v>0.11950349752323212</v>
+      </c>
+      <c r="Q218">
+        <f t="shared" ref="Q218" si="542">C218-C217</f>
+        <v>614</v>
+      </c>
+      <c r="R218">
+        <f t="shared" ref="R218" si="543">M218-M217</f>
+        <v>2864</v>
+      </c>
+      <c r="S218" s="8">
+        <f t="shared" ref="S218" si="544">Q218/U218</f>
+        <v>0.17653824036802759</v>
+      </c>
+      <c r="T218" s="8">
+        <f t="shared" ref="T218" si="545">SUM(Q212:Q218)/SUM(U212:U218)</f>
+        <v>0.20131140605996509</v>
+      </c>
+      <c r="U218">
+        <f t="shared" ref="U218" si="546">B218-B217</f>
+        <v>3478</v>
+      </c>
+      <c r="V218">
+        <f t="shared" ref="V218" si="547">C218-D218-E218</f>
+        <v>23212</v>
+      </c>
+      <c r="W218" s="3">
+        <f t="shared" ref="W218" si="548">F218/V218</f>
+        <v>2.1583663622264347E-2</v>
+      </c>
+      <c r="X218">
+        <f t="shared" ref="X218" si="549">E218-E217</f>
+        <v>16</v>
+      </c>
+      <c r="Y218">
+        <v>614</v>
+      </c>
+      <c r="Z218">
+        <v>344</v>
+      </c>
+      <c r="AA218">
+        <v>5195</v>
+      </c>
+      <c r="AB218">
+        <v>469</v>
+      </c>
+      <c r="AC218">
+        <v>317</v>
+      </c>
+      <c r="AD218">
+        <v>4326</v>
+      </c>
+      <c r="AE218">
+        <v>8</v>
+      </c>
+      <c r="AF218">
+        <v>2</v>
+      </c>
+      <c r="AG218">
+        <v>96</v>
+      </c>
+      <c r="AL218">
+        <v>5</v>
+      </c>
+      <c r="AM218">
+        <v>5</v>
+      </c>
+      <c r="AN218">
+        <v>70</v>
+      </c>
+      <c r="AS218">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A218)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A218)</f>
+        <v>8</v>
+      </c>
+      <c r="AT218">
+        <f t="shared" ref="AT218" si="550">AH218-AS218</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A219" s="14">
+        <f t="shared" si="49"/>
+        <v>44125</v>
+      </c>
+      <c r="B219">
+        <v>910774</v>
+      </c>
+      <c r="C219">
+        <v>109313</v>
+      </c>
+      <c r="D219">
+        <v>84604</v>
+      </c>
+      <c r="E219" s="9">
+        <v>1576</v>
+      </c>
+      <c r="F219" s="9">
+        <v>534</v>
+      </c>
+      <c r="H219">
+        <v>134</v>
+      </c>
+      <c r="I219">
+        <v>90</v>
+      </c>
+      <c r="J219">
+        <v>116</v>
+      </c>
+      <c r="K219">
+        <v>28</v>
+      </c>
+      <c r="L219">
+        <v>21</v>
+      </c>
+      <c r="M219" s="7">
+        <f t="shared" si="380"/>
+        <v>801461</v>
+      </c>
+      <c r="N219" s="4">
+        <f t="shared" si="381"/>
+        <v>0.12002209110053647</v>
+      </c>
+      <c r="Q219">
+        <f t="shared" ref="Q219" si="551">C219-C218</f>
+        <v>1137</v>
+      </c>
+      <c r="R219">
+        <f t="shared" ref="R219" si="552">M219-M218</f>
+        <v>4425</v>
+      </c>
+      <c r="S219" s="8">
+        <f t="shared" ref="S219" si="553">Q219/U219</f>
+        <v>0.20442286947141317</v>
+      </c>
+      <c r="T219" s="8">
+        <f t="shared" ref="T219" si="554">SUM(Q213:Q219)/SUM(U213:U219)</f>
+        <v>0.20076806520716861</v>
+      </c>
+      <c r="U219">
+        <f t="shared" ref="U219" si="555">B219-B218</f>
+        <v>5562</v>
+      </c>
+      <c r="V219">
+        <f t="shared" ref="V219" si="556">C219-D219-E219</f>
+        <v>23133</v>
+      </c>
+      <c r="W219" s="3">
+        <f t="shared" ref="W219" si="557">F219/V219</f>
+        <v>2.3083906108157179E-2</v>
+      </c>
+      <c r="X219">
+        <f t="shared" ref="X219" si="558">E219-E218</f>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -22824,18 +23871,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5E6789-177F-4707-8258-EFFA27DED671}">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D145"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" customWidth="1"/>
     <col min="8" max="8" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22846,10 +23893,10 @@
       <c r="B1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>61</v>
       </c>
       <c r="G1" s="11" t="s">
@@ -25928,7 +26975,7 @@
         <v>44131</v>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>208</v>
       </c>
@@ -25939,12 +26986,210 @@
         <v>44116</v>
       </c>
       <c r="G145" s="1">
-        <f t="shared" ref="G145" si="10">C145+10</f>
+        <f t="shared" ref="G145:G154" si="10">C145+10</f>
         <v>44036</v>
       </c>
       <c r="H145" s="1">
-        <f t="shared" ref="H145" si="11">C145+28</f>
+        <f t="shared" ref="H145:H154" si="11">C145+28</f>
         <v>44054</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>1229446</v>
+      </c>
+      <c r="B146" t="s">
+        <v>209</v>
+      </c>
+      <c r="C146" s="1">
+        <v>44110</v>
+      </c>
+      <c r="D146" s="1">
+        <v>44200</v>
+      </c>
+      <c r="G146" s="1">
+        <f t="shared" si="10"/>
+        <v>44120</v>
+      </c>
+      <c r="H146" s="1">
+        <f t="shared" si="11"/>
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>1222805</v>
+      </c>
+      <c r="B147" t="s">
+        <v>210</v>
+      </c>
+      <c r="C147" s="1">
+        <v>44111</v>
+      </c>
+      <c r="D147" s="1">
+        <v>44201</v>
+      </c>
+      <c r="G147" s="1">
+        <f t="shared" si="10"/>
+        <v>44121</v>
+      </c>
+      <c r="H147" s="1">
+        <f t="shared" si="11"/>
+        <v>44139</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>1222082</v>
+      </c>
+      <c r="B148" t="s">
+        <v>211</v>
+      </c>
+      <c r="C148" s="1">
+        <v>44112</v>
+      </c>
+      <c r="D148" s="1">
+        <v>44202</v>
+      </c>
+      <c r="G148" s="1">
+        <f t="shared" si="10"/>
+        <v>44122</v>
+      </c>
+      <c r="H148" s="1">
+        <f t="shared" si="11"/>
+        <v>44140</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>1223479</v>
+      </c>
+      <c r="B149" t="s">
+        <v>212</v>
+      </c>
+      <c r="C149" s="1">
+        <v>44112</v>
+      </c>
+      <c r="D149" s="1">
+        <v>44202</v>
+      </c>
+      <c r="G149" s="1">
+        <f t="shared" si="10"/>
+        <v>44122</v>
+      </c>
+      <c r="H149" s="1">
+        <f t="shared" si="11"/>
+        <v>44140</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>1102304</v>
+      </c>
+      <c r="B150" t="s">
+        <v>213</v>
+      </c>
+      <c r="C150" s="1">
+        <v>44112</v>
+      </c>
+      <c r="D150" s="1">
+        <v>44202</v>
+      </c>
+      <c r="G150" s="1">
+        <f t="shared" si="10"/>
+        <v>44122</v>
+      </c>
+      <c r="H150" s="1">
+        <f t="shared" si="11"/>
+        <v>44140</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>1222081</v>
+      </c>
+      <c r="B151" t="s">
+        <v>214</v>
+      </c>
+      <c r="C151" s="1">
+        <v>44113</v>
+      </c>
+      <c r="D151" s="1">
+        <v>44203</v>
+      </c>
+      <c r="G151" s="1">
+        <f t="shared" si="10"/>
+        <v>44123</v>
+      </c>
+      <c r="H151" s="1">
+        <f t="shared" si="11"/>
+        <v>44141</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>1225489</v>
+      </c>
+      <c r="B152" t="s">
+        <v>215</v>
+      </c>
+      <c r="C152" s="1">
+        <v>44117</v>
+      </c>
+      <c r="D152" s="1">
+        <v>44207</v>
+      </c>
+      <c r="G152" s="1">
+        <f t="shared" si="10"/>
+        <v>44127</v>
+      </c>
+      <c r="H152" s="1">
+        <f t="shared" si="11"/>
+        <v>44145</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>1221522</v>
+      </c>
+      <c r="B153" t="s">
+        <v>216</v>
+      </c>
+      <c r="C153" s="1">
+        <v>44119</v>
+      </c>
+      <c r="D153" s="1">
+        <v>44209</v>
+      </c>
+      <c r="G153" s="1">
+        <f t="shared" si="10"/>
+        <v>44129</v>
+      </c>
+      <c r="H153" s="1">
+        <f t="shared" si="11"/>
+        <v>44147</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>1224379</v>
+      </c>
+      <c r="B154" t="s">
+        <v>217</v>
+      </c>
+      <c r="C154" s="1">
+        <v>44120</v>
+      </c>
+      <c r="D154" s="1">
+        <v>44210</v>
+      </c>
+      <c r="G154" s="1">
+        <f t="shared" si="10"/>
+        <v>44130</v>
+      </c>
+      <c r="H154" s="1">
+        <f t="shared" si="11"/>
+        <v>44148</v>
       </c>
     </row>
   </sheetData>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421E40CB-83F1-4BD2-ACDB-2EB3C05C6BF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EC3E85-8CF9-4110-8295-96451584F764}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1591,13 +1591,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AT219"/>
+  <dimension ref="A1:AT220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE204" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B204" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS217" sqref="AS217:AT218"/>
+      <selection pane="bottomRight" activeCell="M220" sqref="M220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14783,7 +14783,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="14">
-        <f t="shared" ref="A152:A219" si="49">A151+1</f>
+        <f t="shared" ref="A152:A220" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -21690,11 +21690,11 @@
         <v>17</v>
       </c>
       <c r="M203" s="7">
-        <f t="shared" ref="M203:M219" si="380">B203-C203</f>
+        <f t="shared" ref="M203:M220" si="380">B203-C203</f>
         <v>730923</v>
       </c>
       <c r="N203" s="4">
-        <f t="shared" ref="N203:N219" si="381">C203/B203</f>
+        <f t="shared" ref="N203:N220" si="381">C203/B203</f>
         <v>0.11270554987702819</v>
       </c>
       <c r="Q203">
@@ -23498,19 +23498,19 @@
         <v>96</v>
       </c>
       <c r="AH216">
-        <f t="shared" ref="AH216:AH217" si="529">Y216-AB216-AE216</f>
+        <f t="shared" ref="AH216:AH219" si="529">Y216-AB216-AE216</f>
         <v>140</v>
       </c>
       <c r="AI216">
-        <f t="shared" ref="AI216:AI217" si="530">Z216-AC216-AF216</f>
+        <f t="shared" ref="AI216:AI219" si="530">Z216-AC216-AF216</f>
         <v>34</v>
       </c>
       <c r="AJ216">
-        <f t="shared" ref="AJ216:AJ217" si="531">AA216-AD216-AG216</f>
+        <f t="shared" ref="AJ216:AJ219" si="531">AA216-AD216-AG216</f>
         <v>785</v>
       </c>
       <c r="AK216">
-        <f t="shared" ref="AK216:AK217" si="532">-(J216-J215)+L216</f>
+        <f t="shared" ref="AK216:AK219" si="532">-(J216-J215)+L216</f>
         <v>15</v>
       </c>
       <c r="AL216">
@@ -23769,6 +23769,22 @@
       <c r="AG218">
         <v>96</v>
       </c>
+      <c r="AH218">
+        <f t="shared" si="529"/>
+        <v>137</v>
+      </c>
+      <c r="AI218">
+        <f t="shared" si="530"/>
+        <v>25</v>
+      </c>
+      <c r="AJ218">
+        <f t="shared" si="531"/>
+        <v>773</v>
+      </c>
+      <c r="AK218">
+        <f t="shared" si="532"/>
+        <v>10</v>
+      </c>
       <c r="AL218">
         <v>5</v>
       </c>
@@ -23783,8 +23799,8 @@
         <v>8</v>
       </c>
       <c r="AT218">
-        <f t="shared" ref="AT218" si="550">AH218-AS218</f>
-        <v>-8</v>
+        <f t="shared" ref="AT218:AT219" si="550">AH218-AS218</f>
+        <v>129</v>
       </c>
     </row>
     <row r="219" spans="1:46" x14ac:dyDescent="0.35">
@@ -23851,16 +23867,128 @@
         <v>5562</v>
       </c>
       <c r="V219">
-        <f t="shared" ref="V219" si="556">C219-D219-E219</f>
+        <f t="shared" ref="V219:V220" si="556">C219-D219-E219</f>
         <v>23133</v>
       </c>
       <c r="W219" s="3">
-        <f t="shared" ref="W219" si="557">F219/V219</f>
+        <f t="shared" ref="W219:W220" si="557">F219/V219</f>
         <v>2.3083906108157179E-2</v>
       </c>
       <c r="X219">
         <f t="shared" ref="X219" si="558">E219-E218</f>
         <v>28</v>
+      </c>
+      <c r="Y219">
+        <v>625</v>
+      </c>
+      <c r="Z219">
+        <v>347</v>
+      </c>
+      <c r="AA219">
+        <v>5269</v>
+      </c>
+      <c r="AB219">
+        <v>476</v>
+      </c>
+      <c r="AC219">
+        <v>319</v>
+      </c>
+      <c r="AD219">
+        <v>4345</v>
+      </c>
+      <c r="AE219">
+        <v>9</v>
+      </c>
+      <c r="AF219">
+        <v>2</v>
+      </c>
+      <c r="AG219">
+        <v>96</v>
+      </c>
+      <c r="AH219">
+        <f t="shared" si="529"/>
+        <v>140</v>
+      </c>
+      <c r="AI219">
+        <f t="shared" si="530"/>
+        <v>26</v>
+      </c>
+      <c r="AJ219">
+        <f t="shared" si="531"/>
+        <v>828</v>
+      </c>
+      <c r="AK219">
+        <f t="shared" si="532"/>
+        <v>11</v>
+      </c>
+      <c r="AL219">
+        <v>6</v>
+      </c>
+      <c r="AM219">
+        <v>6</v>
+      </c>
+      <c r="AN219">
+        <v>52</v>
+      </c>
+      <c r="AS219">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A219)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A219)</f>
+        <v>8</v>
+      </c>
+      <c r="AT219">
+        <f t="shared" si="550"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="220" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A220" s="14">
+        <f t="shared" si="49"/>
+        <v>44126</v>
+      </c>
+      <c r="B220">
+        <v>917195</v>
+      </c>
+      <c r="C220">
+        <v>110779</v>
+      </c>
+      <c r="D220">
+        <v>85593</v>
+      </c>
+      <c r="E220" s="9">
+        <v>1594</v>
+      </c>
+      <c r="F220" s="9">
+        <v>530</v>
+      </c>
+      <c r="H220">
+        <v>135</v>
+      </c>
+      <c r="I220">
+        <v>85</v>
+      </c>
+      <c r="J220">
+        <v>124</v>
+      </c>
+      <c r="K220">
+        <v>31</v>
+      </c>
+      <c r="L220">
+        <v>29</v>
+      </c>
+      <c r="M220" s="7">
+        <f t="shared" si="380"/>
+        <v>806416</v>
+      </c>
+      <c r="N220" s="4">
+        <f t="shared" si="381"/>
+        <v>0.12078020486374218</v>
+      </c>
+      <c r="V220">
+        <f t="shared" si="556"/>
+        <v>23592</v>
+      </c>
+      <c r="W220" s="3">
+        <f t="shared" si="557"/>
+        <v>2.2465242455069517E-2</v>
       </c>
     </row>
   </sheetData>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EC3E85-8CF9-4110-8295-96451584F764}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6729441-723E-47C2-9A22-94E8CBA24F92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="221">
   <si>
     <t>date</t>
   </si>
@@ -679,6 +679,15 @@
   </si>
   <si>
     <t xml:space="preserve">Bennett Goettch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan Brandon </t>
+  </si>
+  <si>
+    <t>Freddie Garcia</t>
+  </si>
+  <si>
+    <t>Izik Rodriguez</t>
   </si>
 </sst>
 </file>
@@ -1591,13 +1600,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AT220"/>
+  <dimension ref="A1:AT223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B204" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B212" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M220" sqref="M220"/>
+      <selection pane="bottomRight" activeCell="D224" sqref="D224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14783,7 +14792,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="14">
-        <f t="shared" ref="A152:A220" si="49">A151+1</f>
+        <f t="shared" ref="A152:A223" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -21690,11 +21699,11 @@
         <v>17</v>
       </c>
       <c r="M203" s="7">
-        <f t="shared" ref="M203:M220" si="380">B203-C203</f>
+        <f t="shared" ref="M203:M223" si="380">B203-C203</f>
         <v>730923</v>
       </c>
       <c r="N203" s="4">
-        <f t="shared" ref="N203:N220" si="381">C203/B203</f>
+        <f t="shared" ref="N203:N223" si="381">C203/B203</f>
         <v>0.11270554987702819</v>
       </c>
       <c r="Q203">
@@ -23875,7 +23884,7 @@
         <v>2.3083906108157179E-2</v>
       </c>
       <c r="X219">
-        <f t="shared" ref="X219" si="558">E219-E218</f>
+        <f t="shared" ref="X219:X220" si="558">E219-E218</f>
         <v>28</v>
       </c>
       <c r="Y219">
@@ -23982,6 +23991,26 @@
         <f t="shared" si="381"/>
         <v>0.12078020486374218</v>
       </c>
+      <c r="Q220">
+        <f t="shared" ref="Q220" si="559">C220-C219</f>
+        <v>1466</v>
+      </c>
+      <c r="R220">
+        <f t="shared" ref="R220" si="560">M220-M219</f>
+        <v>4955</v>
+      </c>
+      <c r="S220" s="8">
+        <f t="shared" ref="S220" si="561">Q220/U220</f>
+        <v>0.22831334683071172</v>
+      </c>
+      <c r="T220" s="8">
+        <f t="shared" ref="T220" si="562">SUM(Q214:Q220)/SUM(U214:U220)</f>
+        <v>0.20379557445468147</v>
+      </c>
+      <c r="U220">
+        <f t="shared" ref="U220" si="563">B220-B219</f>
+        <v>6421</v>
+      </c>
       <c r="V220">
         <f t="shared" si="556"/>
         <v>23592</v>
@@ -23989,6 +24018,401 @@
       <c r="W220" s="3">
         <f t="shared" si="557"/>
         <v>2.2465242455069517E-2</v>
+      </c>
+      <c r="X220">
+        <f t="shared" si="558"/>
+        <v>18</v>
+      </c>
+      <c r="Y220">
+        <v>630</v>
+      </c>
+      <c r="Z220">
+        <v>352</v>
+      </c>
+      <c r="AA220">
+        <v>5314</v>
+      </c>
+      <c r="AB220">
+        <v>481</v>
+      </c>
+      <c r="AC220">
+        <v>319</v>
+      </c>
+      <c r="AD220">
+        <v>4366</v>
+      </c>
+      <c r="AE220">
+        <v>9</v>
+      </c>
+      <c r="AF220">
+        <v>2</v>
+      </c>
+      <c r="AG220">
+        <v>98</v>
+      </c>
+      <c r="AH220">
+        <f t="shared" ref="AH220" si="564">Y220-AB220-AE220</f>
+        <v>140</v>
+      </c>
+      <c r="AI220">
+        <f t="shared" ref="AI220" si="565">Z220-AC220-AF220</f>
+        <v>31</v>
+      </c>
+      <c r="AJ220">
+        <f t="shared" ref="AJ220" si="566">AA220-AD220-AG220</f>
+        <v>850</v>
+      </c>
+      <c r="AK220">
+        <f t="shared" ref="AK220" si="567">-(J220-J219)+L220</f>
+        <v>21</v>
+      </c>
+      <c r="AL220">
+        <v>7</v>
+      </c>
+      <c r="AM220">
+        <v>7</v>
+      </c>
+      <c r="AN220">
+        <v>57</v>
+      </c>
+      <c r="AS220">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A220)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A220)</f>
+        <v>8</v>
+      </c>
+      <c r="AT220">
+        <f t="shared" ref="AT220" si="568">AH220-AS220</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="221" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A221" s="14">
+        <f t="shared" si="49"/>
+        <v>44127</v>
+      </c>
+      <c r="B221">
+        <v>923998</v>
+      </c>
+      <c r="C221">
+        <v>112346</v>
+      </c>
+      <c r="D221">
+        <v>86520</v>
+      </c>
+      <c r="E221" s="9">
+        <v>1617</v>
+      </c>
+      <c r="F221" s="9">
+        <v>536</v>
+      </c>
+      <c r="H221">
+        <v>134</v>
+      </c>
+      <c r="I221">
+        <v>78</v>
+      </c>
+      <c r="J221">
+        <v>129</v>
+      </c>
+      <c r="K221">
+        <v>28</v>
+      </c>
+      <c r="L221">
+        <v>20</v>
+      </c>
+      <c r="M221" s="7">
+        <f t="shared" si="380"/>
+        <v>811652</v>
+      </c>
+      <c r="N221" s="4">
+        <f t="shared" si="381"/>
+        <v>0.12158684326156551</v>
+      </c>
+      <c r="Q221">
+        <f t="shared" ref="Q221" si="569">C221-C220</f>
+        <v>1567</v>
+      </c>
+      <c r="R221">
+        <f t="shared" ref="R221" si="570">M221-M220</f>
+        <v>5236</v>
+      </c>
+      <c r="S221" s="8">
+        <f t="shared" ref="S221" si="571">Q221/U221</f>
+        <v>0.23033955607820078</v>
+      </c>
+      <c r="T221" s="8">
+        <f t="shared" ref="T221" si="572">SUM(Q215:Q221)/SUM(U215:U221)</f>
+        <v>0.20816751689324536</v>
+      </c>
+      <c r="U221">
+        <f t="shared" ref="U221" si="573">B221-B220</f>
+        <v>6803</v>
+      </c>
+      <c r="V221">
+        <f t="shared" ref="V221" si="574">C221-D221-E221</f>
+        <v>24209</v>
+      </c>
+      <c r="W221" s="3">
+        <f t="shared" ref="W221" si="575">F221/V221</f>
+        <v>2.214052625056797E-2</v>
+      </c>
+      <c r="X221">
+        <f t="shared" ref="X221" si="576">E221-E220</f>
+        <v>23</v>
+      </c>
+      <c r="Y221">
+        <v>644</v>
+      </c>
+      <c r="Z221">
+        <v>356</v>
+      </c>
+      <c r="AA221">
+        <v>5402</v>
+      </c>
+      <c r="AB221">
+        <v>486</v>
+      </c>
+      <c r="AC221">
+        <v>320</v>
+      </c>
+      <c r="AD221">
+        <v>4389</v>
+      </c>
+      <c r="AE221">
+        <v>9</v>
+      </c>
+      <c r="AF221">
+        <v>2</v>
+      </c>
+      <c r="AG221">
+        <v>98</v>
+      </c>
+      <c r="AH221">
+        <f t="shared" ref="AH221" si="577">Y221-AB221-AE221</f>
+        <v>149</v>
+      </c>
+      <c r="AI221">
+        <f t="shared" ref="AI221" si="578">Z221-AC221-AF221</f>
+        <v>34</v>
+      </c>
+      <c r="AJ221">
+        <f t="shared" ref="AJ221" si="579">AA221-AD221-AG221</f>
+        <v>915</v>
+      </c>
+      <c r="AK221">
+        <f t="shared" ref="AK221" si="580">-(J221-J220)+L221</f>
+        <v>15</v>
+      </c>
+      <c r="AL221">
+        <v>7</v>
+      </c>
+      <c r="AM221">
+        <v>7</v>
+      </c>
+      <c r="AN221">
+        <v>61</v>
+      </c>
+      <c r="AS221">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A221)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A221)</f>
+        <v>9</v>
+      </c>
+      <c r="AT221">
+        <f t="shared" ref="AT221" si="581">AH221-AS221</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="222" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A222" s="14">
+        <f t="shared" si="49"/>
+        <v>44128</v>
+      </c>
+      <c r="B222">
+        <v>931803</v>
+      </c>
+      <c r="C222">
+        <v>114462</v>
+      </c>
+      <c r="D222">
+        <v>87448</v>
+      </c>
+      <c r="E222" s="9">
+        <v>1629</v>
+      </c>
+      <c r="F222" s="9">
+        <v>545</v>
+      </c>
+      <c r="H222">
+        <v>130</v>
+      </c>
+      <c r="I222">
+        <v>101</v>
+      </c>
+      <c r="J222">
+        <v>122</v>
+      </c>
+      <c r="K222">
+        <v>28</v>
+      </c>
+      <c r="L222">
+        <v>26</v>
+      </c>
+      <c r="M222" s="7">
+        <f t="shared" si="380"/>
+        <v>817341</v>
+      </c>
+      <c r="N222" s="4">
+        <f t="shared" si="381"/>
+        <v>0.12283926967395468</v>
+      </c>
+      <c r="Q222">
+        <f t="shared" ref="Q222" si="582">C222-C221</f>
+        <v>2116</v>
+      </c>
+      <c r="R222">
+        <f t="shared" ref="R222" si="583">M222-M221</f>
+        <v>5689</v>
+      </c>
+      <c r="S222" s="8">
+        <f t="shared" ref="S222" si="584">Q222/U222</f>
+        <v>0.27110826393337606</v>
+      </c>
+      <c r="T222" s="8">
+        <f t="shared" ref="T222" si="585">SUM(Q216:Q222)/SUM(U216:U222)</f>
+        <v>0.22066343254228399</v>
+      </c>
+      <c r="U222">
+        <f t="shared" ref="U222" si="586">B222-B221</f>
+        <v>7805</v>
+      </c>
+      <c r="V222">
+        <f t="shared" ref="V222" si="587">C222-D222-E222</f>
+        <v>25385</v>
+      </c>
+      <c r="W222" s="3">
+        <f t="shared" ref="W222" si="588">F222/V222</f>
+        <v>2.1469371676186726E-2</v>
+      </c>
+      <c r="X222">
+        <f t="shared" ref="X222" si="589">E222-E221</f>
+        <v>12</v>
+      </c>
+      <c r="Y222">
+        <v>660</v>
+      </c>
+      <c r="Z222">
+        <v>362</v>
+      </c>
+      <c r="AA222">
+        <v>5498</v>
+      </c>
+      <c r="AB222">
+        <v>489</v>
+      </c>
+      <c r="AC222">
+        <v>323</v>
+      </c>
+      <c r="AD222">
+        <v>4410</v>
+      </c>
+      <c r="AE222">
+        <v>9</v>
+      </c>
+      <c r="AF222">
+        <v>2</v>
+      </c>
+      <c r="AG222">
+        <v>98</v>
+      </c>
+      <c r="AH222">
+        <f t="shared" ref="AH222" si="590">Y222-AB222-AE222</f>
+        <v>162</v>
+      </c>
+      <c r="AI222">
+        <f t="shared" ref="AI222" si="591">Z222-AC222-AF222</f>
+        <v>37</v>
+      </c>
+      <c r="AJ222">
+        <f t="shared" ref="AJ222" si="592">AA222-AD222-AG222</f>
+        <v>990</v>
+      </c>
+      <c r="AK222">
+        <f t="shared" ref="AK222" si="593">-(J222-J221)+L222</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="223" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A223" s="14">
+        <f t="shared" si="49"/>
+        <v>44129</v>
+      </c>
+      <c r="B223">
+        <v>936811</v>
+      </c>
+      <c r="C223">
+        <v>115775</v>
+      </c>
+      <c r="D223">
+        <v>87711</v>
+      </c>
+      <c r="E223" s="9">
+        <v>1634</v>
+      </c>
+      <c r="F223" s="9">
+        <v>541</v>
+      </c>
+      <c r="H223">
+        <v>119</v>
+      </c>
+      <c r="I223">
+        <v>85</v>
+      </c>
+      <c r="J223">
+        <v>112</v>
+      </c>
+      <c r="K223">
+        <v>23</v>
+      </c>
+      <c r="L223">
+        <v>21</v>
+      </c>
+      <c r="M223" s="7">
+        <f t="shared" si="380"/>
+        <v>821036</v>
+      </c>
+      <c r="N223" s="4">
+        <f t="shared" si="381"/>
+        <v>0.12358415945158628</v>
+      </c>
+      <c r="Q223">
+        <f t="shared" ref="Q223" si="594">C223-C222</f>
+        <v>1313</v>
+      </c>
+      <c r="R223">
+        <f t="shared" ref="R223" si="595">M223-M222</f>
+        <v>3695</v>
+      </c>
+      <c r="S223" s="8">
+        <f t="shared" ref="S223" si="596">Q223/U223</f>
+        <v>0.26218051118210861</v>
+      </c>
+      <c r="T223" s="8">
+        <f t="shared" ref="T223" si="597">SUM(Q217:Q223)/SUM(U217:U223)</f>
+        <v>0.22966418893984922</v>
+      </c>
+      <c r="U223">
+        <f t="shared" ref="U223" si="598">B223-B222</f>
+        <v>5008</v>
+      </c>
+      <c r="V223">
+        <f t="shared" ref="V223" si="599">C223-D223-E223</f>
+        <v>26430</v>
+      </c>
+      <c r="W223" s="3">
+        <f t="shared" ref="W223" si="600">F223/V223</f>
+        <v>2.0469163828982218E-2</v>
+      </c>
+      <c r="X223">
+        <f t="shared" ref="X223" si="601">E223-E222</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -23999,11 +24423,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5E6789-177F-4707-8258-EFFA27DED671}">
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="G151" sqref="G151:H157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27114,11 +27538,11 @@
         <v>44116</v>
       </c>
       <c r="G145" s="1">
-        <f t="shared" ref="G145:G154" si="10">C145+10</f>
+        <f t="shared" ref="G145:G151" si="10">C145+10</f>
         <v>44036</v>
       </c>
       <c r="H145" s="1">
-        <f t="shared" ref="H145:H154" si="11">C145+28</f>
+        <f t="shared" ref="H145:H151" si="11">C145+28</f>
         <v>44054</v>
       </c>
     </row>
@@ -27268,11 +27692,11 @@
         <v>44207</v>
       </c>
       <c r="G152" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="G152:G157" si="12">C152+10</f>
         <v>44127</v>
       </c>
       <c r="H152" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H152:H157" si="13">C152+28</f>
         <v>44145</v>
       </c>
     </row>
@@ -27290,11 +27714,11 @@
         <v>44209</v>
       </c>
       <c r="G153" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>44129</v>
       </c>
       <c r="H153" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>44147</v>
       </c>
     </row>
@@ -27312,12 +27736,78 @@
         <v>44210</v>
       </c>
       <c r="G154" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>44130</v>
       </c>
       <c r="H154" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>44148</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>1240856</v>
+      </c>
+      <c r="B155" t="s">
+        <v>218</v>
+      </c>
+      <c r="C155" s="1">
+        <v>44123</v>
+      </c>
+      <c r="D155" s="1">
+        <v>44213</v>
+      </c>
+      <c r="G155" s="1">
+        <f t="shared" si="12"/>
+        <v>44133</v>
+      </c>
+      <c r="H155" s="1">
+        <f t="shared" si="13"/>
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>1244604</v>
+      </c>
+      <c r="B156" t="s">
+        <v>219</v>
+      </c>
+      <c r="C156" s="1">
+        <v>44123</v>
+      </c>
+      <c r="D156" s="1">
+        <v>44213</v>
+      </c>
+      <c r="G156" s="1">
+        <f t="shared" si="12"/>
+        <v>44133</v>
+      </c>
+      <c r="H156" s="1">
+        <f t="shared" si="13"/>
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>1237157</v>
+      </c>
+      <c r="B157" t="s">
+        <v>220</v>
+      </c>
+      <c r="C157" s="1">
+        <v>44124</v>
+      </c>
+      <c r="D157" s="1">
+        <v>44214</v>
+      </c>
+      <c r="G157" s="1">
+        <f t="shared" si="12"/>
+        <v>44134</v>
+      </c>
+      <c r="H157" s="1">
+        <f t="shared" si="13"/>
+        <v>44152</v>
       </c>
     </row>
   </sheetData>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6729441-723E-47C2-9A22-94E8CBA24F92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D31DE4-8C22-4C47-8DD6-15256F9ECAAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="227">
   <si>
     <t>date</t>
   </si>
@@ -688,6 +688,24 @@
   </si>
   <si>
     <t>Izik Rodriguez</t>
+  </si>
+  <si>
+    <t>Brittany Strause</t>
+  </si>
+  <si>
+    <t>Annaka Noss</t>
+  </si>
+  <si>
+    <t>Nickolas Duysen</t>
+  </si>
+  <si>
+    <t>Gage Cates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nolan Schwarting </t>
+  </si>
+  <si>
+    <t>Karly Miner</t>
   </si>
 </sst>
 </file>
@@ -1600,13 +1618,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AT223"/>
+  <dimension ref="A1:AT227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B212" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="X208" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D224" sqref="D224"/>
+      <selection pane="bottomRight" activeCell="AH226" sqref="AH226:AK227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14792,7 +14810,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="14">
-        <f t="shared" ref="A152:A223" si="49">A151+1</f>
+        <f t="shared" ref="A152:A227" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -21699,11 +21717,11 @@
         <v>17</v>
       </c>
       <c r="M203" s="7">
-        <f t="shared" ref="M203:M223" si="380">B203-C203</f>
+        <f t="shared" ref="M203:M227" si="380">B203-C203</f>
         <v>730923</v>
       </c>
       <c r="N203" s="4">
-        <f t="shared" ref="N203:N223" si="381">C203/B203</f>
+        <f t="shared" ref="N203:N227" si="381">C203/B203</f>
         <v>0.11270554987702819</v>
       </c>
       <c r="Q203">
@@ -24276,7 +24294,7 @@
         <v>0.27110826393337606</v>
       </c>
       <c r="T222" s="8">
-        <f t="shared" ref="T222" si="585">SUM(Q216:Q222)/SUM(U216:U222)</f>
+        <f t="shared" ref="T222:T226" si="585">SUM(Q216:Q222)/SUM(U216:U222)</f>
         <v>0.22066343254228399</v>
       </c>
       <c r="U222">
@@ -24337,6 +24355,14 @@
       <c r="AK222">
         <f t="shared" ref="AK222" si="593">-(J222-J221)+L222</f>
         <v>33</v>
+      </c>
+      <c r="AS222">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A222)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A222)</f>
+        <v>9</v>
+      </c>
+      <c r="AT222">
+        <f t="shared" ref="AT222:AT226" si="594">AH222-AS222</f>
+        <v>153</v>
       </c>
     </row>
     <row r="223" spans="1:46" x14ac:dyDescent="0.35">
@@ -24383,19 +24409,19 @@
         <v>0.12358415945158628</v>
       </c>
       <c r="Q223">
-        <f t="shared" ref="Q223" si="594">C223-C222</f>
+        <f t="shared" ref="Q223" si="595">C223-C222</f>
         <v>1313</v>
       </c>
       <c r="R223">
-        <f t="shared" ref="R223" si="595">M223-M222</f>
+        <f t="shared" ref="R223" si="596">M223-M222</f>
         <v>3695</v>
       </c>
       <c r="S223" s="8">
-        <f t="shared" ref="S223" si="596">Q223/U223</f>
+        <f t="shared" ref="S223" si="597">Q223/U223</f>
         <v>0.26218051118210861</v>
       </c>
       <c r="T223" s="8">
-        <f t="shared" ref="T223" si="597">SUM(Q217:Q223)/SUM(U217:U223)</f>
+        <f t="shared" si="585"/>
         <v>0.22966418893984922</v>
       </c>
       <c r="U223">
@@ -24413,6 +24439,584 @@
       <c r="X223">
         <f t="shared" ref="X223" si="601">E223-E222</f>
         <v>5</v>
+      </c>
+      <c r="Y223">
+        <v>669</v>
+      </c>
+      <c r="Z223">
+        <v>373</v>
+      </c>
+      <c r="AA223">
+        <v>5561</v>
+      </c>
+      <c r="AB223">
+        <v>490</v>
+      </c>
+      <c r="AC223">
+        <v>329</v>
+      </c>
+      <c r="AD223">
+        <v>4415</v>
+      </c>
+      <c r="AE223">
+        <v>9</v>
+      </c>
+      <c r="AF223">
+        <v>2</v>
+      </c>
+      <c r="AG223">
+        <v>98</v>
+      </c>
+      <c r="AH223">
+        <f t="shared" ref="AH223:AH224" si="602">Y223-AB223-AE223</f>
+        <v>170</v>
+      </c>
+      <c r="AI223">
+        <f t="shared" ref="AI223:AI224" si="603">Z223-AC223-AF223</f>
+        <v>42</v>
+      </c>
+      <c r="AJ223">
+        <f t="shared" ref="AJ223:AJ224" si="604">AA223-AD223-AG223</f>
+        <v>1048</v>
+      </c>
+      <c r="AK223">
+        <f t="shared" ref="AK223:AK224" si="605">-(J223-J222)+L223</f>
+        <v>31</v>
+      </c>
+      <c r="AS223">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A223)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A223)</f>
+        <v>10</v>
+      </c>
+      <c r="AT223">
+        <f t="shared" si="594"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="224" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A224" s="14">
+        <f t="shared" si="49"/>
+        <v>44130</v>
+      </c>
+      <c r="B224">
+        <v>939205</v>
+      </c>
+      <c r="C224">
+        <v>116350</v>
+      </c>
+      <c r="D224">
+        <v>87970</v>
+      </c>
+      <c r="E224" s="9">
+        <v>1635</v>
+      </c>
+      <c r="F224" s="9">
+        <v>561</v>
+      </c>
+      <c r="H224">
+        <v>129</v>
+      </c>
+      <c r="I224">
+        <v>73</v>
+      </c>
+      <c r="J224">
+        <v>112</v>
+      </c>
+      <c r="K224">
+        <v>23</v>
+      </c>
+      <c r="L224">
+        <v>13</v>
+      </c>
+      <c r="M224" s="7">
+        <f t="shared" si="380"/>
+        <v>822855</v>
+      </c>
+      <c r="N224" s="4">
+        <f t="shared" si="381"/>
+        <v>0.1238813677525141</v>
+      </c>
+      <c r="Q224">
+        <f t="shared" ref="Q224" si="606">C224-C223</f>
+        <v>575</v>
+      </c>
+      <c r="R224">
+        <f t="shared" ref="R224" si="607">M224-M223</f>
+        <v>1819</v>
+      </c>
+      <c r="S224" s="8">
+        <f t="shared" ref="S224" si="608">Q224/U224</f>
+        <v>0.24018379281537175</v>
+      </c>
+      <c r="T224" s="8">
+        <f t="shared" si="585"/>
+        <v>0.23452803501374397</v>
+      </c>
+      <c r="U224">
+        <f t="shared" ref="U224" si="609">B224-B223</f>
+        <v>2394</v>
+      </c>
+      <c r="V224">
+        <f t="shared" ref="V224" si="610">C224-D224-E224</f>
+        <v>26745</v>
+      </c>
+      <c r="W224" s="3">
+        <f t="shared" ref="W224" si="611">F224/V224</f>
+        <v>2.0975883342680874E-2</v>
+      </c>
+      <c r="X224">
+        <f t="shared" ref="X224" si="612">E224-E223</f>
+        <v>1</v>
+      </c>
+      <c r="Y224">
+        <v>672</v>
+      </c>
+      <c r="Z224">
+        <v>378</v>
+      </c>
+      <c r="AA224">
+        <v>5575</v>
+      </c>
+      <c r="AB224">
+        <v>491</v>
+      </c>
+      <c r="AC224">
+        <v>332</v>
+      </c>
+      <c r="AD224">
+        <v>4422</v>
+      </c>
+      <c r="AE224">
+        <v>9</v>
+      </c>
+      <c r="AF224">
+        <v>2</v>
+      </c>
+      <c r="AG224">
+        <v>98</v>
+      </c>
+      <c r="AH224">
+        <f t="shared" si="602"/>
+        <v>172</v>
+      </c>
+      <c r="AI224">
+        <f t="shared" si="603"/>
+        <v>44</v>
+      </c>
+      <c r="AJ224">
+        <f t="shared" si="604"/>
+        <v>1055</v>
+      </c>
+      <c r="AK224">
+        <f t="shared" si="605"/>
+        <v>13</v>
+      </c>
+      <c r="AL224">
+        <v>7</v>
+      </c>
+      <c r="AM224">
+        <v>7</v>
+      </c>
+      <c r="AN224">
+        <v>65</v>
+      </c>
+      <c r="AS224">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A224)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A224)</f>
+        <v>10</v>
+      </c>
+      <c r="AT224">
+        <f t="shared" si="594"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="225" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A225" s="14">
+        <f t="shared" si="49"/>
+        <v>44131</v>
+      </c>
+      <c r="B225">
+        <v>944005</v>
+      </c>
+      <c r="C225">
+        <v>117619</v>
+      </c>
+      <c r="D225">
+        <v>89402</v>
+      </c>
+      <c r="E225" s="9">
+        <v>1657</v>
+      </c>
+      <c r="F225" s="9">
+        <v>564</v>
+      </c>
+      <c r="H225">
+        <v>128</v>
+      </c>
+      <c r="I225">
+        <v>78</v>
+      </c>
+      <c r="J225">
+        <v>124</v>
+      </c>
+      <c r="K225">
+        <v>25</v>
+      </c>
+      <c r="L225">
+        <v>25</v>
+      </c>
+      <c r="M225" s="7">
+        <f t="shared" si="380"/>
+        <v>826386</v>
+      </c>
+      <c r="N225" s="4">
+        <f t="shared" si="381"/>
+        <v>0.12459573837002982</v>
+      </c>
+      <c r="Q225">
+        <f t="shared" ref="Q225" si="613">C225-C224</f>
+        <v>1269</v>
+      </c>
+      <c r="R225">
+        <f t="shared" ref="R225" si="614">M225-M224</f>
+        <v>3531</v>
+      </c>
+      <c r="S225" s="8">
+        <f t="shared" ref="S225" si="615">Q225/U225</f>
+        <v>0.26437500000000003</v>
+      </c>
+      <c r="T225" s="8">
+        <f t="shared" si="585"/>
+        <v>0.24342020467610137</v>
+      </c>
+      <c r="U225">
+        <f t="shared" ref="U225" si="616">B225-B224</f>
+        <v>4800</v>
+      </c>
+      <c r="V225">
+        <f t="shared" ref="V225" si="617">C225-D225-E225</f>
+        <v>26560</v>
+      </c>
+      <c r="W225" s="3">
+        <f t="shared" ref="W225" si="618">F225/V225</f>
+        <v>2.1234939759036144E-2</v>
+      </c>
+      <c r="X225">
+        <f t="shared" ref="X225" si="619">E225-E224</f>
+        <v>22</v>
+      </c>
+      <c r="Y225">
+        <v>677</v>
+      </c>
+      <c r="Z225">
+        <v>384</v>
+      </c>
+      <c r="AA225">
+        <v>5650</v>
+      </c>
+      <c r="AB225">
+        <v>500</v>
+      </c>
+      <c r="AC225">
+        <v>336</v>
+      </c>
+      <c r="AD225">
+        <v>4452</v>
+      </c>
+      <c r="AE225">
+        <v>9</v>
+      </c>
+      <c r="AF225">
+        <v>2</v>
+      </c>
+      <c r="AG225">
+        <v>98</v>
+      </c>
+      <c r="AH225">
+        <f t="shared" ref="AH225:AH226" si="620">Y225-AB225-AE225</f>
+        <v>168</v>
+      </c>
+      <c r="AI225">
+        <f t="shared" ref="AI225:AI226" si="621">Z225-AC225-AF225</f>
+        <v>46</v>
+      </c>
+      <c r="AJ225">
+        <f t="shared" ref="AJ225:AJ226" si="622">AA225-AD225-AG225</f>
+        <v>1100</v>
+      </c>
+      <c r="AK225">
+        <f t="shared" ref="AK225:AK226" si="623">-(J225-J224)+L225</f>
+        <v>13</v>
+      </c>
+      <c r="AL225">
+        <v>10</v>
+      </c>
+      <c r="AM225">
+        <v>10</v>
+      </c>
+      <c r="AN225">
+        <v>70</v>
+      </c>
+      <c r="AS225">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A225)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A225)</f>
+        <v>9</v>
+      </c>
+      <c r="AT225">
+        <f t="shared" si="594"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="226" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A226" s="14">
+        <f t="shared" si="49"/>
+        <v>44132</v>
+      </c>
+      <c r="B226">
+        <v>948490</v>
+      </c>
+      <c r="C226">
+        <v>119187</v>
+      </c>
+      <c r="D226">
+        <v>90406</v>
+      </c>
+      <c r="E226" s="9">
+        <v>1679</v>
+      </c>
+      <c r="F226" s="9">
+        <v>596</v>
+      </c>
+      <c r="H226">
+        <v>136</v>
+      </c>
+      <c r="I226">
+        <v>113</v>
+      </c>
+      <c r="J226">
+        <v>132</v>
+      </c>
+      <c r="K226">
+        <v>27</v>
+      </c>
+      <c r="L226">
+        <v>26</v>
+      </c>
+      <c r="M226" s="7">
+        <f t="shared" si="380"/>
+        <v>829303</v>
+      </c>
+      <c r="N226" s="4">
+        <f t="shared" si="381"/>
+        <v>0.12565973283851173</v>
+      </c>
+      <c r="Q226">
+        <f t="shared" ref="Q226" si="624">C226-C225</f>
+        <v>1568</v>
+      </c>
+      <c r="R226">
+        <f t="shared" ref="R226" si="625">M226-M225</f>
+        <v>2917</v>
+      </c>
+      <c r="S226" s="8">
+        <f t="shared" ref="S226" si="626">Q226/U226</f>
+        <v>0.34960981047937567</v>
+      </c>
+      <c r="T226" s="8">
+        <f t="shared" si="585"/>
+        <v>0.2617987061194188</v>
+      </c>
+      <c r="U226">
+        <f t="shared" ref="U226" si="627">B226-B225</f>
+        <v>4485</v>
+      </c>
+      <c r="V226">
+        <f t="shared" ref="V226" si="628">C226-D226-E226</f>
+        <v>27102</v>
+      </c>
+      <c r="W226" s="3">
+        <f t="shared" ref="W226" si="629">F226/V226</f>
+        <v>2.1990996974393034E-2</v>
+      </c>
+      <c r="X226">
+        <f t="shared" ref="X226" si="630">E226-E225</f>
+        <v>22</v>
+      </c>
+      <c r="Y226">
+        <v>691</v>
+      </c>
+      <c r="Z226">
+        <v>389</v>
+      </c>
+      <c r="AA226">
+        <v>5756</v>
+      </c>
+      <c r="AB226">
+        <v>508</v>
+      </c>
+      <c r="AC226">
+        <v>338</v>
+      </c>
+      <c r="AD226">
+        <v>4489</v>
+      </c>
+      <c r="AE226">
+        <v>9</v>
+      </c>
+      <c r="AF226">
+        <v>3</v>
+      </c>
+      <c r="AG226">
+        <v>101</v>
+      </c>
+      <c r="AH226">
+        <f t="shared" si="620"/>
+        <v>174</v>
+      </c>
+      <c r="AI226">
+        <f t="shared" si="621"/>
+        <v>48</v>
+      </c>
+      <c r="AJ226">
+        <f t="shared" si="622"/>
+        <v>1166</v>
+      </c>
+      <c r="AK226">
+        <f t="shared" si="623"/>
+        <v>18</v>
+      </c>
+      <c r="AL226">
+        <v>13</v>
+      </c>
+      <c r="AM226">
+        <v>13</v>
+      </c>
+      <c r="AN226">
+        <v>76</v>
+      </c>
+      <c r="AS226">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A226)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A226)</f>
+        <v>9</v>
+      </c>
+      <c r="AT226">
+        <f t="shared" si="594"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="227" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A227" s="14">
+        <f t="shared" si="49"/>
+        <v>44133</v>
+      </c>
+      <c r="B227">
+        <v>956356</v>
+      </c>
+      <c r="C227">
+        <v>121742</v>
+      </c>
+      <c r="D227">
+        <v>91376</v>
+      </c>
+      <c r="E227" s="9">
+        <v>1691</v>
+      </c>
+      <c r="F227" s="9">
+        <v>605</v>
+      </c>
+      <c r="H227">
+        <v>135</v>
+      </c>
+      <c r="I227">
+        <v>113</v>
+      </c>
+      <c r="J227">
+        <v>135</v>
+      </c>
+      <c r="K227">
+        <v>28</v>
+      </c>
+      <c r="L227">
+        <v>30</v>
+      </c>
+      <c r="M227" s="7">
+        <f t="shared" si="380"/>
+        <v>834614</v>
+      </c>
+      <c r="N227" s="4">
+        <f t="shared" si="381"/>
+        <v>0.12729778450702459</v>
+      </c>
+      <c r="Q227">
+        <f t="shared" ref="Q227" si="631">C227-C226</f>
+        <v>2555</v>
+      </c>
+      <c r="R227">
+        <f t="shared" ref="R227" si="632">M227-M226</f>
+        <v>5311</v>
+      </c>
+      <c r="S227" s="8">
+        <f t="shared" ref="S227" si="633">Q227/U227</f>
+        <v>0.32481566234426645</v>
+      </c>
+      <c r="T227" s="8">
+        <f t="shared" ref="T227" si="634">SUM(Q221:Q227)/SUM(U221:U227)</f>
+        <v>0.27994688593243278</v>
+      </c>
+      <c r="U227">
+        <f t="shared" ref="U227" si="635">B227-B226</f>
+        <v>7866</v>
+      </c>
+      <c r="V227">
+        <f t="shared" ref="V227" si="636">C227-D227-E227</f>
+        <v>28675</v>
+      </c>
+      <c r="W227" s="3">
+        <f t="shared" ref="W227" si="637">F227/V227</f>
+        <v>2.1098517872711421E-2</v>
+      </c>
+      <c r="X227">
+        <f t="shared" ref="X227" si="638">E227-E226</f>
+        <v>12</v>
+      </c>
+      <c r="Y227">
+        <v>707</v>
+      </c>
+      <c r="Z227">
+        <v>402</v>
+      </c>
+      <c r="AA227">
+        <v>5910</v>
+      </c>
+      <c r="AB227">
+        <v>511</v>
+      </c>
+      <c r="AC227">
+        <v>345</v>
+      </c>
+      <c r="AD227">
+        <v>4511</v>
+      </c>
+      <c r="AE227">
+        <v>9</v>
+      </c>
+      <c r="AF227">
+        <v>3</v>
+      </c>
+      <c r="AG227">
+        <v>102</v>
+      </c>
+      <c r="AH227">
+        <f t="shared" ref="AH227" si="639">Y227-AB227-AE227</f>
+        <v>187</v>
+      </c>
+      <c r="AI227">
+        <f t="shared" ref="AI227" si="640">Z227-AC227-AF227</f>
+        <v>54</v>
+      </c>
+      <c r="AJ227">
+        <f t="shared" ref="AJ227" si="641">AA227-AD227-AG227</f>
+        <v>1297</v>
+      </c>
+      <c r="AK227">
+        <f t="shared" ref="AK227" si="642">-(J227-J226)+L227</f>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -24423,11 +25027,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5E6789-177F-4707-8258-EFFA27DED671}">
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G151" sqref="G151:H157"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G155" sqref="G155:H163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27692,11 +28296,11 @@
         <v>44207</v>
       </c>
       <c r="G152" s="1">
-        <f t="shared" ref="G152:G157" si="12">C152+10</f>
+        <f t="shared" ref="G152:G155" si="12">C152+10</f>
         <v>44127</v>
       </c>
       <c r="H152" s="1">
-        <f t="shared" ref="H152:H157" si="13">C152+28</f>
+        <f t="shared" ref="H152:H155" si="13">C152+28</f>
         <v>44145</v>
       </c>
     </row>
@@ -27780,11 +28384,11 @@
         <v>44213</v>
       </c>
       <c r="G156" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="G156:G163" si="14">C156+10</f>
         <v>44133</v>
       </c>
       <c r="H156" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="H156:H163" si="15">C156+28</f>
         <v>44151</v>
       </c>
     </row>
@@ -27802,12 +28406,144 @@
         <v>44214</v>
       </c>
       <c r="G157" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44134</v>
       </c>
       <c r="H157" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>44152</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>1221448</v>
+      </c>
+      <c r="B158" t="s">
+        <v>221</v>
+      </c>
+      <c r="C158" s="1">
+        <v>44123</v>
+      </c>
+      <c r="D158" s="1">
+        <v>44213</v>
+      </c>
+      <c r="G158" s="1">
+        <f t="shared" si="14"/>
+        <v>44133</v>
+      </c>
+      <c r="H158" s="1">
+        <f t="shared" si="15"/>
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>1223242</v>
+      </c>
+      <c r="B159" t="s">
+        <v>222</v>
+      </c>
+      <c r="C159" s="1">
+        <v>44123</v>
+      </c>
+      <c r="D159" s="1">
+        <v>44213</v>
+      </c>
+      <c r="G159" s="1">
+        <f t="shared" si="14"/>
+        <v>44133</v>
+      </c>
+      <c r="H159" s="1">
+        <f t="shared" si="15"/>
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>1242700</v>
+      </c>
+      <c r="B160" t="s">
+        <v>223</v>
+      </c>
+      <c r="C160" s="1">
+        <v>44123</v>
+      </c>
+      <c r="D160" s="1">
+        <v>44213</v>
+      </c>
+      <c r="G160" s="1">
+        <f t="shared" si="14"/>
+        <v>44133</v>
+      </c>
+      <c r="H160" s="1">
+        <f t="shared" si="15"/>
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>1242244</v>
+      </c>
+      <c r="B161" t="s">
+        <v>224</v>
+      </c>
+      <c r="C161" s="1">
+        <v>44123</v>
+      </c>
+      <c r="D161" s="1">
+        <v>44213</v>
+      </c>
+      <c r="G161" s="1">
+        <f t="shared" si="14"/>
+        <v>44133</v>
+      </c>
+      <c r="H161" s="1">
+        <f t="shared" si="15"/>
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>1243568</v>
+      </c>
+      <c r="B162" t="s">
+        <v>225</v>
+      </c>
+      <c r="C162" s="1">
+        <v>44123</v>
+      </c>
+      <c r="D162" s="1">
+        <v>44213</v>
+      </c>
+      <c r="G162" s="1">
+        <f t="shared" si="14"/>
+        <v>44133</v>
+      </c>
+      <c r="H162" s="1">
+        <f t="shared" si="15"/>
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>1102524</v>
+      </c>
+      <c r="B163" t="s">
+        <v>226</v>
+      </c>
+      <c r="C163" s="1">
+        <v>44123</v>
+      </c>
+      <c r="D163" s="1">
+        <v>44213</v>
+      </c>
+      <c r="G163" s="1">
+        <f t="shared" si="14"/>
+        <v>44133</v>
+      </c>
+      <c r="H163" s="1">
+        <f t="shared" si="15"/>
+        <v>44151</v>
       </c>
     </row>
   </sheetData>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D31DE4-8C22-4C47-8DD6-15256F9ECAAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D351B45B-5286-406F-8881-9FF76C32B296}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="231">
   <si>
     <t>date</t>
   </si>
@@ -707,6 +707,18 @@
   <si>
     <t>Karly Miner</t>
   </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Individuals Reported</t>
+  </si>
+  <si>
+    <t>Individuals Negative</t>
+  </si>
+  <si>
+    <t>Individuals Positive</t>
+  </si>
 </sst>
 </file>
 
@@ -1307,7 +1319,228 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1618,25 +1851,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AT227"/>
+  <dimension ref="A1:AX228"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X208" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ226" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH226" sqref="AH226:AK227"/>
+      <selection pane="bottomRight" activeCell="AX228" sqref="AX228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" style="14" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1775,8 +2008,17 @@
       <c r="AT1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AU1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>43898</v>
       </c>
@@ -1805,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>43899</v>
       </c>
@@ -1840,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>43900</v>
       </c>
@@ -1878,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>43901</v>
       </c>
@@ -1919,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>43903</v>
       </c>
@@ -1954,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>43904</v>
       </c>
@@ -1989,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>43908</v>
       </c>
@@ -2028,7 +2270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>43909</v>
       </c>
@@ -2070,7 +2312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>43913</v>
       </c>
@@ -2119,7 +2361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>43914</v>
       </c>
@@ -2155,7 +2397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>43917</v>
       </c>
@@ -2194,7 +2436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>43918</v>
       </c>
@@ -2246,7 +2488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>43919</v>
       </c>
@@ -2310,7 +2552,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>43920</v>
       </c>
@@ -2374,7 +2616,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>43921</v>
       </c>
@@ -14810,7 +15052,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="14">
-        <f t="shared" ref="A152:A227" si="49">A151+1</f>
+        <f t="shared" ref="A152:A228" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -21717,11 +21959,11 @@
         <v>17</v>
       </c>
       <c r="M203" s="7">
-        <f t="shared" ref="M203:M227" si="380">B203-C203</f>
+        <f t="shared" ref="M203:M228" si="380">B203-C203</f>
         <v>730923</v>
       </c>
       <c r="N203" s="4">
-        <f t="shared" ref="N203:N227" si="381">C203/B203</f>
+        <f t="shared" ref="N203:N228" si="381">C203/B203</f>
         <v>0.11270554987702819</v>
       </c>
       <c r="Q203">
@@ -24628,7 +24870,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="225" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A225" s="14">
         <f t="shared" si="49"/>
         <v>44131</v>
@@ -24764,7 +25006,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="226" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A226" s="14">
         <f t="shared" si="49"/>
         <v>44132</v>
@@ -24836,7 +25078,7 @@
         <v>2.1990996974393034E-2</v>
       </c>
       <c r="X226">
-        <f t="shared" ref="X226" si="630">E226-E225</f>
+        <f t="shared" ref="X226:X228" si="630">E226-E225</f>
         <v>22</v>
       </c>
       <c r="Y226">
@@ -24900,7 +25142,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="227" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A227" s="14">
         <f t="shared" si="49"/>
         <v>44133</v>
@@ -24944,35 +25186,35 @@
         <v>0.12729778450702459</v>
       </c>
       <c r="Q227">
-        <f t="shared" ref="Q227" si="631">C227-C226</f>
+        <f t="shared" ref="Q227:Q228" si="631">C227-C226</f>
         <v>2555</v>
       </c>
       <c r="R227">
-        <f t="shared" ref="R227" si="632">M227-M226</f>
+        <f t="shared" ref="R227:R228" si="632">M227-M226</f>
         <v>5311</v>
       </c>
       <c r="S227" s="8">
-        <f t="shared" ref="S227" si="633">Q227/U227</f>
+        <f t="shared" ref="S227:S228" si="633">Q227/U227</f>
         <v>0.32481566234426645</v>
       </c>
       <c r="T227" s="8">
-        <f t="shared" ref="T227" si="634">SUM(Q221:Q227)/SUM(U221:U227)</f>
+        <f t="shared" ref="T227:T228" si="634">SUM(Q221:Q227)/SUM(U221:U227)</f>
         <v>0.27994688593243278</v>
       </c>
       <c r="U227">
-        <f t="shared" ref="U227" si="635">B227-B226</f>
+        <f t="shared" ref="U227:U228" si="635">B227-B226</f>
         <v>7866</v>
       </c>
       <c r="V227">
-        <f t="shared" ref="V227" si="636">C227-D227-E227</f>
+        <f t="shared" ref="V227:V228" si="636">C227-D227-E227</f>
         <v>28675</v>
       </c>
       <c r="W227" s="3">
-        <f t="shared" ref="W227" si="637">F227/V227</f>
+        <f t="shared" ref="W227:W228" si="637">F227/V227</f>
         <v>2.1098517872711421E-2</v>
       </c>
       <c r="X227">
-        <f t="shared" ref="X227" si="638">E227-E226</f>
+        <f t="shared" si="630"/>
         <v>12</v>
       </c>
       <c r="Y227">
@@ -25003,25 +25245,538 @@
         <v>102</v>
       </c>
       <c r="AH227">
-        <f t="shared" ref="AH227" si="639">Y227-AB227-AE227</f>
+        <f t="shared" ref="AH227" si="638">Y227-AB227-AE227</f>
         <v>187</v>
       </c>
       <c r="AI227">
-        <f t="shared" ref="AI227" si="640">Z227-AC227-AF227</f>
+        <f t="shared" ref="AI227" si="639">Z227-AC227-AF227</f>
         <v>54</v>
       </c>
       <c r="AJ227">
-        <f t="shared" ref="AJ227" si="641">AA227-AD227-AG227</f>
+        <f t="shared" ref="AJ227" si="640">AA227-AD227-AG227</f>
         <v>1297</v>
       </c>
       <c r="AK227">
-        <f t="shared" ref="AK227" si="642">-(J227-J226)+L227</f>
+        <f t="shared" ref="AK227" si="641">-(J227-J226)+L227</f>
         <v>27</v>
       </c>
+      <c r="AL227">
+        <v>11</v>
+      </c>
+      <c r="AM227">
+        <v>11</v>
+      </c>
+      <c r="AN227">
+        <v>66</v>
+      </c>
+      <c r="AS227">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A227)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A227)</f>
+        <v>17</v>
+      </c>
+      <c r="AT227">
+        <f t="shared" ref="AT227:AT228" si="642">AH227-AS227</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="228" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A228" s="14">
+        <f t="shared" si="49"/>
+        <v>44134</v>
+      </c>
+      <c r="B228">
+        <v>963686</v>
+      </c>
+      <c r="C228">
+        <v>124358</v>
+      </c>
+      <c r="D228">
+        <v>92261</v>
+      </c>
+      <c r="E228" s="9">
+        <v>1705</v>
+      </c>
+      <c r="F228" s="9">
+        <v>606</v>
+      </c>
+      <c r="H228">
+        <v>152</v>
+      </c>
+      <c r="I228">
+        <v>95</v>
+      </c>
+      <c r="J228">
+        <v>143</v>
+      </c>
+      <c r="K228">
+        <v>42</v>
+      </c>
+      <c r="L228">
+        <v>29</v>
+      </c>
+      <c r="M228" s="7">
+        <f t="shared" si="380"/>
+        <v>839328</v>
+      </c>
+      <c r="N228" s="4">
+        <f t="shared" si="381"/>
+        <v>0.1290441077280359</v>
+      </c>
+      <c r="Q228">
+        <f t="shared" si="631"/>
+        <v>2616</v>
+      </c>
+      <c r="R228">
+        <f t="shared" si="632"/>
+        <v>4714</v>
+      </c>
+      <c r="S228" s="8">
+        <f t="shared" si="633"/>
+        <v>0.35688949522510233</v>
+      </c>
+      <c r="T228" s="8">
+        <f t="shared" si="634"/>
+        <v>0.30266075388026609</v>
+      </c>
+      <c r="U228">
+        <f t="shared" si="635"/>
+        <v>7330</v>
+      </c>
+      <c r="V228">
+        <f t="shared" si="636"/>
+        <v>30392</v>
+      </c>
+      <c r="W228" s="3">
+        <f t="shared" si="637"/>
+        <v>1.9939457752040011E-2</v>
+      </c>
+      <c r="X228">
+        <f t="shared" si="630"/>
+        <v>14</v>
+      </c>
+      <c r="Y228">
+        <v>728</v>
+      </c>
+      <c r="Z228">
+        <v>410</v>
+      </c>
+      <c r="AA228">
+        <v>6042</v>
+      </c>
+      <c r="AB228">
+        <v>513</v>
+      </c>
+      <c r="AC228">
+        <v>347</v>
+      </c>
+      <c r="AD228">
+        <v>4530</v>
+      </c>
+      <c r="AE228">
+        <v>9</v>
+      </c>
+      <c r="AF228">
+        <v>3</v>
+      </c>
+      <c r="AG228">
+        <v>102</v>
+      </c>
+      <c r="AH228">
+        <f t="shared" ref="AH228" si="643">Y228-AB228-AE228</f>
+        <v>206</v>
+      </c>
+      <c r="AI228">
+        <f t="shared" ref="AI228" si="644">Z228-AC228-AF228</f>
+        <v>60</v>
+      </c>
+      <c r="AJ228">
+        <f t="shared" ref="AJ228" si="645">AA228-AD228-AG228</f>
+        <v>1410</v>
+      </c>
+      <c r="AK228">
+        <f t="shared" ref="AK228" si="646">-(J228-J227)+L228</f>
+        <v>21</v>
+      </c>
+      <c r="AL228">
+        <v>12</v>
+      </c>
+      <c r="AM228">
+        <v>12</v>
+      </c>
+      <c r="AN228">
+        <v>64</v>
+      </c>
+      <c r="AS228">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A228)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A228)</f>
+        <v>18</v>
+      </c>
+      <c r="AT228">
+        <f t="shared" si="642"/>
+        <v>188</v>
+      </c>
+      <c r="AU228">
+        <v>6067</v>
+      </c>
+      <c r="AV228">
+        <v>4737</v>
+      </c>
+      <c r="AW228">
+        <v>1315</v>
+      </c>
+      <c r="AX228">
+        <f>AW228/AU228</f>
+        <v>0.21674633261908685</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="AG228">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+      <formula>"max($AG:$AG)"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{4BFA8ACD-C669-45D0-8FE9-D7E5FDE65DE1}">
+            <xm:f>Sheet2!$K$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>Q228</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{E5309D98-D036-43E8-AE0C-F104DC358831}">
+            <xm:f>Sheet2!$Q$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>X228</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{5269D26C-9211-46B2-914A-48345DF37DEF}">
+            <xm:f>Sheet2!$F$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F228</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{24843253-84F3-44AF-847D-C74D74C4F05A}">
+            <xm:f>Sheet2!$H$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H228</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{2907C4E7-41B4-4142-AC3C-44AADDE98A89}">
+            <xm:f>Sheet2!$I$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J228</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{6F562D16-6A18-4369-973E-028D1B5F7CFF}">
+            <xm:f>Sheet2!$J$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K228</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{735BDD8A-2F04-47F3-825F-41FCBFA8ADD5}">
+            <xm:f>Sheet2!$R$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AE228</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{27EFB46B-2173-495D-9504-76EF39E1783E}">
+            <xm:f>Sheet2!$S$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AF228</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{8BDEBC79-D4A6-4A33-AA11-140D95E39A5A}">
+            <xm:f>Sheet2!$T$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AG228</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{778777A4-820D-4182-842F-56FD616BFD64}">
+            <xm:f>Sheet2!$U$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AH228</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{A5D8B9CD-D171-4616-8063-8E2F3DB2617E}">
+            <xm:f>Sheet2!$V$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AI228</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{525B83D9-8CB5-4E31-BB6E-B59F9B6585E1}">
+            <xm:f>Sheet2!$R$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AE1:AE1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{F01D074C-642F-402A-86C2-FA96328B00D3}">
+            <xm:f>Sheet2!$S$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AF1:AF1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{EF4E51C4-A697-4F45-A157-48E127C46265}">
+            <xm:f>Sheet2!$T$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AG1:AG1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{3872BC11-8E4F-4B07-87B7-E418377175CF}">
+            <xm:f>Sheet2!$U$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AH1:AH1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{47957B24-1740-4C43-AFA0-247581999300}">
+            <xm:f>Sheet2!$V$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AI1:AI1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{A26BEB78-5F6F-424A-9CAF-592A4332B205}">
+            <xm:f>Sheet2!$W$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AJ1:AJ1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{C7ACFAD9-A351-4DE8-9EBB-67A834A43415}">
+            <xm:f>Sheet2!$X$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AL1:AL1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{D2342483-8E59-4E9C-BF69-D946BE3EC580}">
+            <xm:f>Sheet2!$Y$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AM1:AM1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{DCA392FB-E56E-4BF4-8AC7-992ABA725EA9}">
+            <xm:f>Sheet2!$Z$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AN1:AN1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{055CF24B-4FE1-4F98-87A7-89FF51107069}">
+            <xm:f>Sheet2!$H$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H1:H1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -28554,10 +29309,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE6A915-CDE2-4E7D-B4AC-967E21E41E66}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:AB115"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58:D70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28565,7 +29320,7 @@
     <col min="1" max="1" width="9.453125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>covid19!A1</f>
         <v>date</v>
@@ -28578,8 +29333,100 @@
         <f>covid19!U1</f>
         <v>Total Daily Tests</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F1" t="str">
+        <f>covid19!F1</f>
+        <v>hospitalized</v>
+      </c>
+      <c r="G1" t="str">
+        <f>covid19!G1</f>
+        <v>new hospital</v>
+      </c>
+      <c r="H1" t="str">
+        <f>covid19!H1</f>
+        <v>ICU</v>
+      </c>
+      <c r="I1" t="str">
+        <f>covid19!J1</f>
+        <v>RMCC6-Hospitalized</v>
+      </c>
+      <c r="J1" t="str">
+        <f>covid19!K1</f>
+        <v>RMCC6-ICU</v>
+      </c>
+      <c r="K1" t="str">
+        <f>covid19!Q1</f>
+        <v>New Positive</v>
+      </c>
+      <c r="L1" t="str">
+        <f>covid19!S1</f>
+        <v>New Percent Positive</v>
+      </c>
+      <c r="M1" t="str">
+        <f>covid19!T1</f>
+        <v>Week Positivity Rate</v>
+      </c>
+      <c r="N1" t="str">
+        <f>covid19!U1</f>
+        <v>Total Daily Tests</v>
+      </c>
+      <c r="O1" t="str">
+        <f>covid19!V1</f>
+        <v>Still Sick</v>
+      </c>
+      <c r="P1" t="str">
+        <f>covid19!W1</f>
+        <v>Percent Hospitalized</v>
+      </c>
+      <c r="Q1" t="str">
+        <f>covid19!X1</f>
+        <v>New Deaths</v>
+      </c>
+      <c r="R1" t="str">
+        <f>covid19!AE1</f>
+        <v>Bremer Death</v>
+      </c>
+      <c r="S1" t="str">
+        <f>covid19!AF1</f>
+        <v>Butler D</v>
+      </c>
+      <c r="T1" t="str">
+        <f>covid19!AG1</f>
+        <v>BlackHawk D</v>
+      </c>
+      <c r="U1" t="str">
+        <f>covid19!AH1</f>
+        <v>Bremer SS</v>
+      </c>
+      <c r="V1" t="str">
+        <f>covid19!AI1</f>
+        <v>Butler SS</v>
+      </c>
+      <c r="W1" t="str">
+        <f>covid19!AJ1</f>
+        <v>BlackHawk SS</v>
+      </c>
+      <c r="X1" t="str">
+        <f>covid19!AL1</f>
+        <v>Knights Positive</v>
+      </c>
+      <c r="Y1" t="str">
+        <f>covid19!AM1</f>
+        <v>Knights Isolation</v>
+      </c>
+      <c r="Z1" t="str">
+        <f>covid19!AN1</f>
+        <v>Kights Quarantine</v>
+      </c>
+      <c r="AA1" t="str">
+        <f>covid19!AO1</f>
+        <v>TotalTested2</v>
+      </c>
+      <c r="AB1" t="str">
+        <f>covid19!AP1</f>
+        <v>TotalPositive2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <f>covid19!A13</f>
         <v>43918</v>
@@ -28592,8 +29439,103 @@
         <f>covid19!U13</f>
         <v>698</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2">
+        <f>MAX(covid19!F:F)</f>
+        <v>606</v>
+      </c>
+      <c r="G2">
+        <f>MAX(covid19!G:G)</f>
+        <v>417</v>
+      </c>
+      <c r="H2">
+        <f>MAX(covid19!H:H)</f>
+        <v>164</v>
+      </c>
+      <c r="I2">
+        <f>MAX(covid19!J:J)</f>
+        <v>143</v>
+      </c>
+      <c r="J2">
+        <f>MAX(covid19!K:K)</f>
+        <v>42</v>
+      </c>
+      <c r="K2">
+        <f>MAX(covid19!Q:Q)</f>
+        <v>2616</v>
+      </c>
+      <c r="L2">
+        <f>MAX(covid19!S:S)</f>
+        <v>0.89321739130434785</v>
+      </c>
+      <c r="M2">
+        <f>MAX(covid19!T:T)</f>
+        <v>0.30266075388026609</v>
+      </c>
+      <c r="N2">
+        <f>MAX(covid19!U:U)</f>
+        <v>11443</v>
+      </c>
+      <c r="O2">
+        <f>MAX(covid19!V:V)</f>
+        <v>30392</v>
+      </c>
+      <c r="P2">
+        <f>MAX(covid19!W:W)</f>
+        <v>0.16</v>
+      </c>
+      <c r="Q2">
+        <f>MAX(covid19!X:X)</f>
+        <v>28</v>
+      </c>
+      <c r="R2">
+        <f>MAX(covid19!AE:AE)</f>
+        <v>9</v>
+      </c>
+      <c r="S2">
+        <f>MAX(covid19!AF:AF)</f>
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <f>MAX(covid19!AG:AG)</f>
+        <v>102</v>
+      </c>
+      <c r="U2">
+        <f>MAX(covid19!AH:AH)</f>
+        <v>206</v>
+      </c>
+      <c r="V2">
+        <f>MAX(covid19!AI:AI)</f>
+        <v>60</v>
+      </c>
+      <c r="W2">
+        <f>MAX(covid19!AJ:AJ)</f>
+        <v>1410</v>
+      </c>
+      <c r="X2">
+        <f>MAX(covid19!AL:AL)</f>
+        <v>78</v>
+      </c>
+      <c r="Y2">
+        <f>MAX(covid19!AM:AM)</f>
+        <v>78</v>
+      </c>
+      <c r="Z2">
+        <f>MAX(covid19!AN:AN)</f>
+        <v>126</v>
+      </c>
+      <c r="AA2">
+        <f>MAX(covid19!AO:AO)</f>
+        <v>302720</v>
+      </c>
+      <c r="AB2">
+        <f>MAX(covid19!AP:AP)</f>
+        <v>28964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f>covid19!A14</f>
         <v>43919</v>
@@ -28607,7 +29549,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f>covid19!A15</f>
         <v>43920</v>
@@ -28621,7 +29563,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f>covid19!A16</f>
         <v>43921</v>
@@ -28635,7 +29577,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f>covid19!A17</f>
         <v>43922</v>
@@ -28649,7 +29591,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f>covid19!A18</f>
         <v>43923</v>
@@ -28663,7 +29605,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f>covid19!A19</f>
         <v>43924</v>
@@ -28681,7 +29623,7 @@
         <v>9.8870658427445135E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f>covid19!A20</f>
         <v>43925</v>
@@ -28699,7 +29641,7 @@
         <v>0.10292796838512663</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f>covid19!A21</f>
         <v>43926</v>
@@ -28717,7 +29659,7 @@
         <v>0.11234522942461762</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f>covid19!A22</f>
         <v>43927</v>
@@ -28735,7 +29677,7 @@
         <v>0.1210851785358069</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f>covid19!A23</f>
         <v>43928</v>
@@ -28753,7 +29695,7 @@
         <v>0.11925745359084942</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <f>covid19!A24</f>
         <v>43929</v>
@@ -28771,7 +29713,7 @@
         <v>0.11140193031244888</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <f>covid19!A25</f>
         <v>43930</v>
@@ -28789,7 +29731,7 @@
         <v>0.11752577319587629</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f>covid19!A26</f>
         <v>43931</v>
@@ -28807,7 +29749,7 @@
         <v>0.10624571036376115</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f>covid19!A27</f>
         <v>43932</v>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D351B45B-5286-406F-8881-9FF76C32B296}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386E5AFE-5AE5-4AE8-BE32-07261837EC00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1319,7 +1319,237 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="45">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1851,13 +2081,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AX228"/>
+  <dimension ref="A1:AX229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ226" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B226" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AX228" sqref="AX228"/>
+      <selection pane="bottomRight" activeCell="K229" sqref="K229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15052,7 +15282,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="14">
-        <f t="shared" ref="A152:A228" si="49">A151+1</f>
+        <f t="shared" ref="A152:A229" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -21959,11 +22189,11 @@
         <v>17</v>
       </c>
       <c r="M203" s="7">
-        <f t="shared" ref="M203:M228" si="380">B203-C203</f>
+        <f t="shared" ref="M203:M229" si="380">B203-C203</f>
         <v>730923</v>
       </c>
       <c r="N203" s="4">
-        <f t="shared" ref="N203:N228" si="381">C203/B203</f>
+        <f t="shared" ref="N203:N229" si="381">C203/B203</f>
         <v>0.11270554987702819</v>
       </c>
       <c r="Q203">
@@ -25427,9 +25657,128 @@
         <v>0.21674633261908685</v>
       </c>
     </row>
+    <row r="229" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A229" s="14">
+        <f t="shared" si="49"/>
+        <v>44135</v>
+      </c>
+      <c r="B229">
+        <v>971195</v>
+      </c>
+      <c r="C229">
+        <v>127111</v>
+      </c>
+      <c r="D229">
+        <v>93181</v>
+      </c>
+      <c r="E229" s="9">
+        <v>1714</v>
+      </c>
+      <c r="F229" s="9">
+        <v>630</v>
+      </c>
+      <c r="H229">
+        <v>153</v>
+      </c>
+      <c r="I229">
+        <v>99</v>
+      </c>
+      <c r="J229">
+        <v>171</v>
+      </c>
+      <c r="K229">
+        <v>49</v>
+      </c>
+      <c r="L229">
+        <v>40</v>
+      </c>
+      <c r="M229" s="7">
+        <f t="shared" si="380"/>
+        <v>844084</v>
+      </c>
+      <c r="N229" s="4">
+        <f t="shared" si="381"/>
+        <v>0.13088102801188226</v>
+      </c>
+      <c r="Q229">
+        <f t="shared" ref="Q229" si="647">C229-C228</f>
+        <v>2753</v>
+      </c>
+      <c r="R229">
+        <f t="shared" ref="R229" si="648">M229-M228</f>
+        <v>4756</v>
+      </c>
+      <c r="S229" s="8">
+        <f t="shared" ref="S229" si="649">Q229/U229</f>
+        <v>0.36662671460913571</v>
+      </c>
+      <c r="T229" s="8">
+        <f t="shared" ref="T229" si="650">SUM(Q223:Q229)/SUM(U223:U229)</f>
+        <v>0.32110580828594637</v>
+      </c>
+      <c r="U229">
+        <f t="shared" ref="U229" si="651">B229-B228</f>
+        <v>7509</v>
+      </c>
+      <c r="V229">
+        <f t="shared" ref="V229" si="652">C229-D229-E229</f>
+        <v>32216</v>
+      </c>
+      <c r="W229" s="3">
+        <f t="shared" ref="W229" si="653">F229/V229</f>
+        <v>1.9555500372485723E-2</v>
+      </c>
+      <c r="X229">
+        <f t="shared" ref="X229" si="654">E229-E228</f>
+        <v>9</v>
+      </c>
+      <c r="Y229">
+        <v>757</v>
+      </c>
+      <c r="Z229">
+        <v>420</v>
+      </c>
+      <c r="AA229">
+        <v>6212</v>
+      </c>
+      <c r="AB229">
+        <v>518</v>
+      </c>
+      <c r="AC229">
+        <v>348</v>
+      </c>
+      <c r="AD229">
+        <v>4551</v>
+      </c>
+      <c r="AE229">
+        <v>9</v>
+      </c>
+      <c r="AF229">
+        <v>3</v>
+      </c>
+      <c r="AG229">
+        <v>102</v>
+      </c>
+      <c r="AH229">
+        <f t="shared" ref="AH229" si="655">Y229-AB229-AE229</f>
+        <v>230</v>
+      </c>
+      <c r="AI229">
+        <f t="shared" ref="AI229" si="656">Z229-AC229-AF229</f>
+        <v>69</v>
+      </c>
+      <c r="AJ229">
+        <f t="shared" ref="AJ229" si="657">AA229-AD229-AG229</f>
+        <v>1559</v>
+      </c>
+      <c r="AK229">
+        <f t="shared" ref="AK229" si="658">-(J229-J228)+L229</f>
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="AG228">
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="15" operator="equal">
       <formula>"max($AG:$AG)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25439,7 +25788,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{4BFA8ACD-C669-45D0-8FE9-D7E5FDE65DE1}">
+          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{4BFA8ACD-C669-45D0-8FE9-D7E5FDE65DE1}">
             <xm:f>Sheet2!$K$2</xm:f>
             <x14:dxf>
               <font>
@@ -25452,10 +25801,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>Q228</xm:sqref>
+          <xm:sqref>Q228:Q229</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{E5309D98-D036-43E8-AE0C-F104DC358831}">
+          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{E5309D98-D036-43E8-AE0C-F104DC358831}">
             <xm:f>Sheet2!$Q$2</xm:f>
             <x14:dxf>
               <font>
@@ -25468,10 +25817,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>X228</xm:sqref>
+          <xm:sqref>X228:X229</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{5269D26C-9211-46B2-914A-48345DF37DEF}">
+          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5269D26C-9211-46B2-914A-48345DF37DEF}">
             <xm:f>Sheet2!$F$2</xm:f>
             <x14:dxf>
               <font>
@@ -25484,10 +25833,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F228</xm:sqref>
+          <xm:sqref>F228:F229</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{24843253-84F3-44AF-847D-C74D74C4F05A}">
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{24843253-84F3-44AF-847D-C74D74C4F05A}">
             <xm:f>Sheet2!$H$2</xm:f>
             <x14:dxf>
               <font>
@@ -25503,7 +25852,7 @@
           <xm:sqref>H228</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{2907C4E7-41B4-4142-AC3C-44AADDE98A89}">
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{2907C4E7-41B4-4142-AC3C-44AADDE98A89}">
             <xm:f>Sheet2!$I$2</xm:f>
             <x14:dxf>
               <font>
@@ -25516,10 +25865,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J228</xm:sqref>
+          <xm:sqref>J228:J229</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{6F562D16-6A18-4369-973E-028D1B5F7CFF}">
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{6F562D16-6A18-4369-973E-028D1B5F7CFF}">
             <xm:f>Sheet2!$J$2</xm:f>
             <x14:dxf>
               <font>
@@ -25532,10 +25881,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K228</xm:sqref>
+          <xm:sqref>K228:K229</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{735BDD8A-2F04-47F3-825F-41FCBFA8ADD5}">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{735BDD8A-2F04-47F3-825F-41FCBFA8ADD5}">
             <xm:f>Sheet2!$R$2</xm:f>
             <x14:dxf>
               <font>
@@ -25551,7 +25900,7 @@
           <xm:sqref>AE228</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{27EFB46B-2173-495D-9504-76EF39E1783E}">
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{27EFB46B-2173-495D-9504-76EF39E1783E}">
             <xm:f>Sheet2!$S$2</xm:f>
             <x14:dxf>
               <font>
@@ -25567,7 +25916,7 @@
           <xm:sqref>AF228</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{8BDEBC79-D4A6-4A33-AA11-140D95E39A5A}">
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{8BDEBC79-D4A6-4A33-AA11-140D95E39A5A}">
             <xm:f>Sheet2!$T$2</xm:f>
             <x14:dxf>
               <font>
@@ -25583,7 +25932,7 @@
           <xm:sqref>AG228</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{778777A4-820D-4182-842F-56FD616BFD64}">
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{778777A4-820D-4182-842F-56FD616BFD64}">
             <xm:f>Sheet2!$U$2</xm:f>
             <x14:dxf>
               <font>
@@ -25596,10 +25945,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AH228</xm:sqref>
+          <xm:sqref>AH228:AH229</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{A5D8B9CD-D171-4616-8063-8E2F3DB2617E}">
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{A5D8B9CD-D171-4616-8063-8E2F3DB2617E}">
             <xm:f>Sheet2!$V$2</xm:f>
             <x14:dxf>
               <font>
@@ -25612,10 +25961,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AI228</xm:sqref>
+          <xm:sqref>AI228:AI229</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{525B83D9-8CB5-4E31-BB6E-B59F9B6585E1}">
+          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{525B83D9-8CB5-4E31-BB6E-B59F9B6585E1}">
             <xm:f>Sheet2!$R$2</xm:f>
             <x14:dxf>
               <font>
@@ -25631,7 +25980,7 @@
           <xm:sqref>AE1:AE1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{F01D074C-642F-402A-86C2-FA96328B00D3}">
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{F01D074C-642F-402A-86C2-FA96328B00D3}">
             <xm:f>Sheet2!$S$2</xm:f>
             <x14:dxf>
               <font>
@@ -25647,7 +25996,7 @@
           <xm:sqref>AF1:AF1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{EF4E51C4-A697-4F45-A157-48E127C46265}">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{EF4E51C4-A697-4F45-A157-48E127C46265}">
             <xm:f>Sheet2!$T$2</xm:f>
             <x14:dxf>
               <font>
@@ -25663,7 +26012,7 @@
           <xm:sqref>AG1:AG1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{3872BC11-8E4F-4B07-87B7-E418377175CF}">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{3872BC11-8E4F-4B07-87B7-E418377175CF}">
             <xm:f>Sheet2!$U$2</xm:f>
             <x14:dxf>
               <font>
@@ -25679,7 +26028,7 @@
           <xm:sqref>AH1:AH1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{47957B24-1740-4C43-AFA0-247581999300}">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{47957B24-1740-4C43-AFA0-247581999300}">
             <xm:f>Sheet2!$V$2</xm:f>
             <x14:dxf>
               <font>
@@ -25695,7 +26044,7 @@
           <xm:sqref>AI1:AI1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{A26BEB78-5F6F-424A-9CAF-592A4332B205}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{A26BEB78-5F6F-424A-9CAF-592A4332B205}">
             <xm:f>Sheet2!$W$2</xm:f>
             <x14:dxf>
               <font>
@@ -25711,7 +26060,7 @@
           <xm:sqref>AJ1:AJ1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{C7ACFAD9-A351-4DE8-9EBB-67A834A43415}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{C7ACFAD9-A351-4DE8-9EBB-67A834A43415}">
             <xm:f>Sheet2!$X$2</xm:f>
             <x14:dxf>
               <font>
@@ -25727,7 +26076,7 @@
           <xm:sqref>AL1:AL1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{D2342483-8E59-4E9C-BF69-D946BE3EC580}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{D2342483-8E59-4E9C-BF69-D946BE3EC580}">
             <xm:f>Sheet2!$Y$2</xm:f>
             <x14:dxf>
               <font>
@@ -25743,7 +26092,7 @@
           <xm:sqref>AM1:AM1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{DCA392FB-E56E-4BF4-8AC7-992ABA725EA9}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{DCA392FB-E56E-4BF4-8AC7-992ABA725EA9}">
             <xm:f>Sheet2!$Z$2</xm:f>
             <x14:dxf>
               <font>
@@ -25759,7 +26108,7 @@
           <xm:sqref>AN1:AN1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{055CF24B-4FE1-4F98-87A7-89FF51107069}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{055CF24B-4FE1-4F98-87A7-89FF51107069}">
             <xm:f>Sheet2!$H$2</xm:f>
             <x14:dxf>
               <font>
@@ -25772,7 +26121,23 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H1:H1048576</xm:sqref>
+          <xm:sqref>H1:H1048576 I229</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{8F0BE21B-C8AC-4EAD-AE58-244C59D5B0FC}">
+            <xm:f>Sheet2!$O$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>V229</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -29311,7 +29676,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AB115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
@@ -29444,7 +29809,7 @@
       </c>
       <c r="F2">
         <f>MAX(covid19!F:F)</f>
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="G2">
         <f>MAX(covid19!G:G)</f>
@@ -29456,15 +29821,15 @@
       </c>
       <c r="I2">
         <f>MAX(covid19!J:J)</f>
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="J2">
         <f>MAX(covid19!K:K)</f>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K2">
         <f>MAX(covid19!Q:Q)</f>
-        <v>2616</v>
+        <v>2753</v>
       </c>
       <c r="L2">
         <f>MAX(covid19!S:S)</f>
@@ -29472,7 +29837,7 @@
       </c>
       <c r="M2">
         <f>MAX(covid19!T:T)</f>
-        <v>0.30266075388026609</v>
+        <v>0.32110580828594637</v>
       </c>
       <c r="N2">
         <f>MAX(covid19!U:U)</f>
@@ -29480,7 +29845,7 @@
       </c>
       <c r="O2">
         <f>MAX(covid19!V:V)</f>
-        <v>30392</v>
+        <v>32216</v>
       </c>
       <c r="P2">
         <f>MAX(covid19!W:W)</f>
@@ -29504,15 +29869,15 @@
       </c>
       <c r="U2">
         <f>MAX(covid19!AH:AH)</f>
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="V2">
         <f>MAX(covid19!AI:AI)</f>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="W2">
         <f>MAX(covid19!AJ:AJ)</f>
-        <v>1410</v>
+        <v>1559</v>
       </c>
       <c r="X2">
         <f>MAX(covid19!AL:AL)</f>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386E5AFE-5AE5-4AE8-BE32-07261837EC00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABE778E-A8D0-4072-B1E7-E1C69F062B39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="240">
   <si>
     <t>date</t>
   </si>
@@ -719,6 +719,33 @@
   <si>
     <t>Individuals Positive</t>
   </si>
+  <si>
+    <t>Joseline A. Robles Rosales</t>
+  </si>
+  <si>
+    <t>Braydin Farrell</t>
+  </si>
+  <si>
+    <t>Brandt Peterson</t>
+  </si>
+  <si>
+    <t>Allison Keis</t>
+  </si>
+  <si>
+    <t>Kayla Boeke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lindsey Spolidoro </t>
+  </si>
+  <si>
+    <t>Jackie Garza</t>
+  </si>
+  <si>
+    <t>Natalie Clayberg</t>
+  </si>
+  <si>
+    <t>Rachel Macdonald</t>
+  </si>
 </sst>
 </file>
 
@@ -1319,227 +1346,7 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2081,13 +1888,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AX229"/>
+  <dimension ref="A1:AX235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B226" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI234" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K229" sqref="K229"/>
+      <selection pane="bottomRight" activeCell="AO234" sqref="AO234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15282,7 +15089,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="14">
-        <f t="shared" ref="A152:A229" si="49">A151+1</f>
+        <f t="shared" ref="A152:A235" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -22189,11 +21996,11 @@
         <v>17</v>
       </c>
       <c r="M203" s="7">
-        <f t="shared" ref="M203:M229" si="380">B203-C203</f>
+        <f t="shared" ref="M203:M235" si="380">B203-C203</f>
         <v>730923</v>
       </c>
       <c r="N203" s="4">
-        <f t="shared" ref="N203:N229" si="381">C203/B203</f>
+        <f t="shared" ref="N203:N235" si="381">C203/B203</f>
         <v>0.11270554987702819</v>
       </c>
       <c r="Q203">
@@ -25424,7 +25231,7 @@
         <v>5311</v>
       </c>
       <c r="S227" s="8">
-        <f t="shared" ref="S227:S228" si="633">Q227/U227</f>
+        <f t="shared" ref="S227:S229" si="633">Q227/U227</f>
         <v>0.32481566234426645</v>
       </c>
       <c r="T227" s="8">
@@ -25501,11 +25308,11 @@
       </c>
       <c r="AS227">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A227)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A227)</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AT227">
         <f t="shared" ref="AT227:AT228" si="642">AH227-AS227</f>
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="228" spans="1:50" x14ac:dyDescent="0.35">
@@ -25637,11 +25444,11 @@
       </c>
       <c r="AS228">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A228)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A228)</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AT228">
         <f t="shared" si="642"/>
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AU228">
         <v>6067</v>
@@ -25709,27 +25516,27 @@
         <v>4756</v>
       </c>
       <c r="S229" s="8">
-        <f t="shared" ref="S229" si="649">Q229/U229</f>
+        <f t="shared" si="633"/>
         <v>0.36662671460913571</v>
       </c>
       <c r="T229" s="8">
-        <f t="shared" ref="T229" si="650">SUM(Q223:Q229)/SUM(U223:U229)</f>
+        <f t="shared" ref="T229" si="649">SUM(Q223:Q229)/SUM(U223:U229)</f>
         <v>0.32110580828594637</v>
       </c>
       <c r="U229">
-        <f t="shared" ref="U229" si="651">B229-B228</f>
+        <f t="shared" ref="U229" si="650">B229-B228</f>
         <v>7509</v>
       </c>
       <c r="V229">
-        <f t="shared" ref="V229" si="652">C229-D229-E229</f>
+        <f t="shared" ref="V229" si="651">C229-D229-E229</f>
         <v>32216</v>
       </c>
       <c r="W229" s="3">
-        <f t="shared" ref="W229" si="653">F229/V229</f>
+        <f t="shared" ref="W229" si="652">F229/V229</f>
         <v>1.9555500372485723E-2</v>
       </c>
       <c r="X229">
-        <f t="shared" ref="X229" si="654">E229-E228</f>
+        <f t="shared" ref="X229" si="653">E229-E228</f>
         <v>9</v>
       </c>
       <c r="Y229">
@@ -25760,25 +25567,888 @@
         <v>102</v>
       </c>
       <c r="AH229">
-        <f t="shared" ref="AH229" si="655">Y229-AB229-AE229</f>
+        <f t="shared" ref="AH229" si="654">Y229-AB229-AE229</f>
         <v>230</v>
       </c>
       <c r="AI229">
-        <f t="shared" ref="AI229" si="656">Z229-AC229-AF229</f>
+        <f t="shared" ref="AI229" si="655">Z229-AC229-AF229</f>
         <v>69</v>
       </c>
       <c r="AJ229">
-        <f t="shared" ref="AJ229" si="657">AA229-AD229-AG229</f>
+        <f t="shared" ref="AJ229" si="656">AA229-AD229-AG229</f>
         <v>1559</v>
       </c>
       <c r="AK229">
-        <f t="shared" ref="AK229" si="658">-(J229-J228)+L229</f>
+        <f t="shared" ref="AK229" si="657">-(J229-J228)+L229</f>
         <v>12</v>
+      </c>
+      <c r="AL229">
+        <v>10</v>
+      </c>
+      <c r="AM229">
+        <v>10</v>
+      </c>
+      <c r="AN229">
+        <v>62</v>
+      </c>
+      <c r="AS229">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A229)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A229)</f>
+        <v>13</v>
+      </c>
+      <c r="AT229">
+        <f t="shared" ref="AT229" si="658">AH229-AS229</f>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="230" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A230" s="14">
+        <f t="shared" si="49"/>
+        <v>44136</v>
+      </c>
+      <c r="B230">
+        <v>979817</v>
+      </c>
+      <c r="C230">
+        <v>130042</v>
+      </c>
+      <c r="D230">
+        <v>93507</v>
+      </c>
+      <c r="E230" s="9">
+        <v>1716</v>
+      </c>
+      <c r="F230" s="9">
+        <v>676</v>
+      </c>
+      <c r="H230">
+        <v>164</v>
+      </c>
+      <c r="I230">
+        <v>128</v>
+      </c>
+      <c r="J230">
+        <v>176</v>
+      </c>
+      <c r="K230">
+        <v>50</v>
+      </c>
+      <c r="L230">
+        <v>37</v>
+      </c>
+      <c r="M230" s="7">
+        <f t="shared" si="380"/>
+        <v>849775</v>
+      </c>
+      <c r="N230" s="4">
+        <f t="shared" si="381"/>
+        <v>0.13272070192699248</v>
+      </c>
+      <c r="Q230">
+        <f t="shared" ref="Q230" si="659">C230-C229</f>
+        <v>2931</v>
+      </c>
+      <c r="R230">
+        <f t="shared" ref="R230" si="660">M230-M229</f>
+        <v>5691</v>
+      </c>
+      <c r="S230" s="8">
+        <f t="shared" ref="S230" si="661">Q230/U230</f>
+        <v>0.33994432846207379</v>
+      </c>
+      <c r="T230" s="8">
+        <f t="shared" ref="T230" si="662">SUM(Q224:Q230)/SUM(U224:U230)</f>
+        <v>0.33174440775705716</v>
+      </c>
+      <c r="U230">
+        <f t="shared" ref="U230" si="663">B230-B229</f>
+        <v>8622</v>
+      </c>
+      <c r="V230">
+        <f t="shared" ref="V230" si="664">C230-D230-E230</f>
+        <v>34819</v>
+      </c>
+      <c r="W230" s="3">
+        <f t="shared" ref="W230" si="665">F230/V230</f>
+        <v>1.9414687383325194E-2</v>
+      </c>
+      <c r="X230">
+        <f t="shared" ref="X230" si="666">E230-E229</f>
+        <v>2</v>
+      </c>
+      <c r="Y230">
+        <v>781</v>
+      </c>
+      <c r="Z230">
+        <v>435</v>
+      </c>
+      <c r="AA230">
+        <v>6415</v>
+      </c>
+      <c r="AB230">
+        <v>520</v>
+      </c>
+      <c r="AC230">
+        <v>348</v>
+      </c>
+      <c r="AD230">
+        <v>4555</v>
+      </c>
+      <c r="AE230">
+        <v>9</v>
+      </c>
+      <c r="AF230">
+        <v>3</v>
+      </c>
+      <c r="AG230">
+        <v>102</v>
+      </c>
+      <c r="AH230">
+        <f t="shared" ref="AH230" si="667">Y230-AB230-AE230</f>
+        <v>252</v>
+      </c>
+      <c r="AI230">
+        <f t="shared" ref="AI230" si="668">Z230-AC230-AF230</f>
+        <v>84</v>
+      </c>
+      <c r="AJ230">
+        <f t="shared" ref="AJ230" si="669">AA230-AD230-AG230</f>
+        <v>1758</v>
+      </c>
+      <c r="AK230">
+        <f t="shared" ref="AK230" si="670">-(J230-J229)+L230</f>
+        <v>32</v>
+      </c>
+      <c r="AS230">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A230)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A230)</f>
+        <v>14</v>
+      </c>
+      <c r="AT230">
+        <f t="shared" ref="AT230:AT231" si="671">AH230-AS230</f>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="231" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A231" s="14">
+        <f t="shared" si="49"/>
+        <v>44137</v>
+      </c>
+      <c r="B231">
+        <v>983754</v>
+      </c>
+      <c r="C231">
+        <v>131372</v>
+      </c>
+      <c r="D231">
+        <v>93807</v>
+      </c>
+      <c r="E231" s="9">
+        <v>1733</v>
+      </c>
+      <c r="F231" s="9">
+        <v>718</v>
+      </c>
+      <c r="H231">
+        <v>156</v>
+      </c>
+      <c r="I231">
+        <v>108</v>
+      </c>
+      <c r="J231">
+        <v>183</v>
+      </c>
+      <c r="K231">
+        <v>48</v>
+      </c>
+      <c r="L231">
+        <v>29</v>
+      </c>
+      <c r="M231" s="7">
+        <f t="shared" si="380"/>
+        <v>852382</v>
+      </c>
+      <c r="N231" s="4">
+        <f t="shared" si="381"/>
+        <v>0.13354151546016585</v>
+      </c>
+      <c r="Q231">
+        <f t="shared" ref="Q231" si="672">C231-C230</f>
+        <v>1330</v>
+      </c>
+      <c r="R231">
+        <f t="shared" ref="R231" si="673">M231-M230</f>
+        <v>2607</v>
+      </c>
+      <c r="S231" s="8">
+        <f t="shared" ref="S231" si="674">Q231/U231</f>
+        <v>0.33782067564135126</v>
+      </c>
+      <c r="T231" s="8">
+        <f t="shared" ref="T231" si="675">SUM(Q225:Q231)/SUM(U225:U231)</f>
+        <v>0.33720173292329791</v>
+      </c>
+      <c r="U231">
+        <f t="shared" ref="U231" si="676">B231-B230</f>
+        <v>3937</v>
+      </c>
+      <c r="V231">
+        <f t="shared" ref="V231" si="677">C231-D231-E231</f>
+        <v>35832</v>
+      </c>
+      <c r="W231" s="3">
+        <f t="shared" ref="W231" si="678">F231/V231</f>
+        <v>2.0037954900647467E-2</v>
+      </c>
+      <c r="X231">
+        <f t="shared" ref="X231" si="679">E231-E230</f>
+        <v>17</v>
+      </c>
+      <c r="Y231">
+        <v>798</v>
+      </c>
+      <c r="Z231">
+        <v>438</v>
+      </c>
+      <c r="AA231">
+        <v>6468</v>
+      </c>
+      <c r="AB231">
+        <v>523</v>
+      </c>
+      <c r="AC231">
+        <v>351</v>
+      </c>
+      <c r="AD231">
+        <v>4567</v>
+      </c>
+      <c r="AE231">
+        <v>9</v>
+      </c>
+      <c r="AF231">
+        <v>3</v>
+      </c>
+      <c r="AG231">
+        <v>103</v>
+      </c>
+      <c r="AH231">
+        <f t="shared" ref="AH231" si="680">Y231-AB231-AE231</f>
+        <v>266</v>
+      </c>
+      <c r="AI231">
+        <f t="shared" ref="AI231" si="681">Z231-AC231-AF231</f>
+        <v>84</v>
+      </c>
+      <c r="AJ231">
+        <f t="shared" ref="AJ231" si="682">AA231-AD231-AG231</f>
+        <v>1798</v>
+      </c>
+      <c r="AK231">
+        <f t="shared" ref="AK231:AK232" si="683">-(J231-J230)+L231</f>
+        <v>22</v>
+      </c>
+      <c r="AL231">
+        <v>9</v>
+      </c>
+      <c r="AM231">
+        <v>9</v>
+      </c>
+      <c r="AN231">
+        <v>51</v>
+      </c>
+      <c r="AS231">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A231)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A231)</f>
+        <v>15</v>
+      </c>
+      <c r="AT231">
+        <f t="shared" si="671"/>
+        <v>251</v>
+      </c>
+      <c r="AU231">
+        <v>5100</v>
+      </c>
+      <c r="AV231">
+        <v>3997</v>
+      </c>
+      <c r="AW231">
+        <v>1085</v>
+      </c>
+      <c r="AX231">
+        <f>AW231/AU231</f>
+        <v>0.21274509803921568</v>
+      </c>
+    </row>
+    <row r="232" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A232" s="14">
+        <f t="shared" si="49"/>
+        <v>44138</v>
+      </c>
+      <c r="B232">
+        <v>987737</v>
+      </c>
+      <c r="C232">
+        <v>132989</v>
+      </c>
+      <c r="D232">
+        <v>95411</v>
+      </c>
+      <c r="E232" s="9">
+        <v>1755</v>
+      </c>
+      <c r="F232" s="9">
+        <v>730</v>
+      </c>
+      <c r="H232">
+        <v>170</v>
+      </c>
+      <c r="I232">
+        <v>92</v>
+      </c>
+      <c r="J232">
+        <v>198</v>
+      </c>
+      <c r="K232">
+        <v>54</v>
+      </c>
+      <c r="L232">
+        <v>31</v>
+      </c>
+      <c r="M232" s="7">
+        <f t="shared" si="380"/>
+        <v>854748</v>
+      </c>
+      <c r="N232" s="4">
+        <f t="shared" si="381"/>
+        <v>0.13464009144134523</v>
+      </c>
+      <c r="Q232">
+        <f t="shared" ref="Q232" si="684">C232-C231</f>
+        <v>1617</v>
+      </c>
+      <c r="R232">
+        <f t="shared" ref="R232" si="685">M232-M231</f>
+        <v>2366</v>
+      </c>
+      <c r="S232" s="8">
+        <f t="shared" ref="S232" si="686">Q232/U232</f>
+        <v>0.40597539543057998</v>
+      </c>
+      <c r="T232" s="8">
+        <f t="shared" ref="T232" si="687">SUM(Q226:Q232)/SUM(U226:U232)</f>
+        <v>0.35145888594164454</v>
+      </c>
+      <c r="U232">
+        <f t="shared" ref="U232" si="688">B232-B231</f>
+        <v>3983</v>
+      </c>
+      <c r="V232">
+        <f t="shared" ref="V232" si="689">C232-D232-E232</f>
+        <v>35823</v>
+      </c>
+      <c r="W232" s="3">
+        <f t="shared" ref="W232" si="690">F232/V232</f>
+        <v>2.0377969460960835E-2</v>
+      </c>
+      <c r="X232">
+        <f t="shared" ref="X232" si="691">E232-E231</f>
+        <v>22</v>
+      </c>
+      <c r="Y232">
+        <v>833</v>
+      </c>
+      <c r="Z232">
+        <v>455</v>
+      </c>
+      <c r="AA232">
+        <v>6541</v>
+      </c>
+      <c r="AB232">
+        <v>532</v>
+      </c>
+      <c r="AC232">
+        <v>371</v>
+      </c>
+      <c r="AD232">
+        <v>4624</v>
+      </c>
+      <c r="AE232">
+        <v>9</v>
+      </c>
+      <c r="AF232">
+        <v>3</v>
+      </c>
+      <c r="AG232">
+        <v>104</v>
+      </c>
+      <c r="AH232">
+        <f t="shared" ref="AH232" si="692">Y232-AB232-AE232</f>
+        <v>292</v>
+      </c>
+      <c r="AI232">
+        <f t="shared" ref="AI232" si="693">Z232-AC232-AF232</f>
+        <v>81</v>
+      </c>
+      <c r="AJ232">
+        <f t="shared" ref="AJ232" si="694">AA232-AD232-AG232</f>
+        <v>1813</v>
+      </c>
+      <c r="AK232">
+        <f t="shared" si="683"/>
+        <v>16</v>
+      </c>
+      <c r="AS232">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A232)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A232)</f>
+        <v>14</v>
+      </c>
+      <c r="AT232">
+        <f t="shared" ref="AT232:AT234" si="695">AH232-AS232</f>
+        <v>278</v>
+      </c>
+      <c r="AU232">
+        <v>3393</v>
+      </c>
+      <c r="AV232">
+        <v>2511</v>
+      </c>
+      <c r="AW232">
+        <v>866</v>
+      </c>
+      <c r="AX232">
+        <f>AW232/AU232</f>
+        <v>0.25523135867963453</v>
+      </c>
+    </row>
+    <row r="233" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A233" s="14">
+        <f t="shared" si="49"/>
+        <v>44139</v>
+      </c>
+      <c r="B233">
+        <v>994459</v>
+      </c>
+      <c r="C233">
+        <v>135931</v>
+      </c>
+      <c r="D233">
+        <v>96621</v>
+      </c>
+      <c r="E233" s="9">
+        <v>1779</v>
+      </c>
+      <c r="F233" s="9">
+        <v>777</v>
+      </c>
+      <c r="H233">
+        <v>182</v>
+      </c>
+      <c r="I233">
+        <v>164</v>
+      </c>
+      <c r="J233">
+        <v>216</v>
+      </c>
+      <c r="K233">
+        <v>58</v>
+      </c>
+      <c r="L233">
+        <v>55</v>
+      </c>
+      <c r="M233" s="7">
+        <f t="shared" si="380"/>
+        <v>858528</v>
+      </c>
+      <c r="N233" s="4">
+        <f t="shared" si="381"/>
+        <v>0.13668839037104596</v>
+      </c>
+      <c r="Q233">
+        <f t="shared" ref="Q233" si="696">C233-C232</f>
+        <v>2942</v>
+      </c>
+      <c r="R233">
+        <f t="shared" ref="R233" si="697">M233-M232</f>
+        <v>3780</v>
+      </c>
+      <c r="S233" s="8">
+        <f t="shared" ref="S233" si="698">Q233/U233</f>
+        <v>0.43766736090449271</v>
+      </c>
+      <c r="T233" s="8">
+        <f t="shared" ref="T233" si="699">SUM(Q227:Q233)/SUM(U227:U233)</f>
+        <v>0.36424546977310795</v>
+      </c>
+      <c r="U233">
+        <f t="shared" ref="U233" si="700">B233-B232</f>
+        <v>6722</v>
+      </c>
+      <c r="V233">
+        <f t="shared" ref="V233" si="701">C233-D233-E233</f>
+        <v>37531</v>
+      </c>
+      <c r="W233" s="3">
+        <f t="shared" ref="W233" si="702">F233/V233</f>
+        <v>2.070288561455863E-2</v>
+      </c>
+      <c r="X233">
+        <f t="shared" ref="X233" si="703">E233-E232</f>
+        <v>24</v>
+      </c>
+      <c r="Y233">
+        <v>876</v>
+      </c>
+      <c r="Z233">
+        <v>478</v>
+      </c>
+      <c r="AA233">
+        <v>6725</v>
+      </c>
+      <c r="AB233">
+        <v>532</v>
+      </c>
+      <c r="AC233">
+        <v>377</v>
+      </c>
+      <c r="AD233">
+        <v>4669</v>
+      </c>
+      <c r="AE233">
+        <v>9</v>
+      </c>
+      <c r="AF233">
+        <v>3</v>
+      </c>
+      <c r="AG233">
+        <v>106</v>
+      </c>
+      <c r="AH233">
+        <f t="shared" ref="AH233" si="704">Y233-AB233-AE233</f>
+        <v>335</v>
+      </c>
+      <c r="AI233">
+        <f t="shared" ref="AI233" si="705">Z233-AC233-AF233</f>
+        <v>98</v>
+      </c>
+      <c r="AJ233">
+        <f t="shared" ref="AJ233" si="706">AA233-AD233-AG233</f>
+        <v>1950</v>
+      </c>
+      <c r="AK233">
+        <f t="shared" ref="AK233" si="707">-(J233-J232)+L233</f>
+        <v>37</v>
+      </c>
+      <c r="AL233">
+        <v>11</v>
+      </c>
+      <c r="AM233">
+        <v>11</v>
+      </c>
+      <c r="AN233">
+        <v>74</v>
+      </c>
+      <c r="AS233">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A233)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A233)</f>
+        <v>13</v>
+      </c>
+      <c r="AT233">
+        <f t="shared" si="695"/>
+        <v>322</v>
+      </c>
+      <c r="AU233">
+        <v>3862</v>
+      </c>
+      <c r="AV233">
+        <v>2846</v>
+      </c>
+      <c r="AW233">
+        <v>906</v>
+      </c>
+      <c r="AX233">
+        <f>AW233/AU233</f>
+        <v>0.23459347488348006</v>
+      </c>
+    </row>
+    <row r="234" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A234" s="14">
+        <f t="shared" si="49"/>
+        <v>44140</v>
+      </c>
+      <c r="B234">
+        <v>1002772</v>
+      </c>
+      <c r="C234">
+        <v>139605</v>
+      </c>
+      <c r="D234">
+        <v>97927</v>
+      </c>
+      <c r="E234" s="9">
+        <v>1801</v>
+      </c>
+      <c r="F234" s="9">
+        <v>839</v>
+      </c>
+      <c r="H234">
+        <v>188</v>
+      </c>
+      <c r="I234">
+        <v>156</v>
+      </c>
+      <c r="J234">
+        <v>227</v>
+      </c>
+      <c r="K234">
+        <v>60</v>
+      </c>
+      <c r="L234">
+        <v>43</v>
+      </c>
+      <c r="M234" s="7">
+        <f t="shared" si="380"/>
+        <v>863167</v>
+      </c>
+      <c r="N234" s="4">
+        <f t="shared" si="381"/>
+        <v>0.1392190846972193</v>
+      </c>
+      <c r="Q234">
+        <f t="shared" ref="Q234" si="708">C234-C233</f>
+        <v>3674</v>
+      </c>
+      <c r="R234">
+        <f t="shared" ref="R234" si="709">M234-M233</f>
+        <v>4639</v>
+      </c>
+      <c r="S234" s="8">
+        <f t="shared" ref="S234" si="710">Q234/U234</f>
+        <v>0.44195837844340191</v>
+      </c>
+      <c r="T234" s="8">
+        <f t="shared" ref="T234" si="711">SUM(Q228:Q234)/SUM(U228:U234)</f>
+        <v>0.38484574284729406</v>
+      </c>
+      <c r="U234">
+        <f t="shared" ref="U234" si="712">B234-B233</f>
+        <v>8313</v>
+      </c>
+      <c r="V234">
+        <f t="shared" ref="V234" si="713">C234-D234-E234</f>
+        <v>39877</v>
+      </c>
+      <c r="W234" s="3">
+        <f t="shared" ref="W234" si="714">F234/V234</f>
+        <v>2.1039697068485592E-2</v>
+      </c>
+      <c r="X234">
+        <f t="shared" ref="X234" si="715">E234-E233</f>
+        <v>22</v>
+      </c>
+      <c r="Y234">
+        <v>911</v>
+      </c>
+      <c r="Z234">
+        <v>492</v>
+      </c>
+      <c r="AA234">
+        <v>6920</v>
+      </c>
+      <c r="AB234">
+        <v>549</v>
+      </c>
+      <c r="AC234">
+        <v>378</v>
+      </c>
+      <c r="AD234">
+        <v>4718</v>
+      </c>
+      <c r="AE234">
+        <v>10</v>
+      </c>
+      <c r="AF234">
+        <v>3</v>
+      </c>
+      <c r="AG234">
+        <v>106</v>
+      </c>
+      <c r="AH234">
+        <f t="shared" ref="AH234" si="716">Y234-AB234-AE234</f>
+        <v>352</v>
+      </c>
+      <c r="AI234">
+        <f t="shared" ref="AI234" si="717">Z234-AC234-AF234</f>
+        <v>111</v>
+      </c>
+      <c r="AJ234">
+        <f t="shared" ref="AJ234" si="718">AA234-AD234-AG234</f>
+        <v>2096</v>
+      </c>
+      <c r="AK234">
+        <f t="shared" ref="AK234" si="719">-(J234-J233)+L234</f>
+        <v>32</v>
+      </c>
+      <c r="AL234">
+        <v>10</v>
+      </c>
+      <c r="AM234">
+        <v>10</v>
+      </c>
+      <c r="AN234">
+        <v>79</v>
+      </c>
+      <c r="AS234">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A234)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A234)</f>
+        <v>13</v>
+      </c>
+      <c r="AT234">
+        <f t="shared" si="695"/>
+        <v>339</v>
+      </c>
+      <c r="AU234">
+        <v>5729</v>
+      </c>
+      <c r="AV234">
+        <v>4305</v>
+      </c>
+      <c r="AW234">
+        <v>1406</v>
+      </c>
+      <c r="AX234">
+        <f>AW234/AU234</f>
+        <v>0.245418048525048</v>
+      </c>
+    </row>
+    <row r="235" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A235" s="14">
+        <f t="shared" si="49"/>
+        <v>44141</v>
+      </c>
+      <c r="B235">
+        <v>1012646</v>
+      </c>
+      <c r="C235">
+        <v>143860</v>
+      </c>
+      <c r="D235">
+        <v>99178</v>
+      </c>
+      <c r="E235" s="9">
+        <v>1814</v>
+      </c>
+      <c r="F235" s="9">
+        <v>912</v>
+      </c>
+      <c r="H235">
+        <v>188</v>
+      </c>
+      <c r="I235">
+        <v>164</v>
+      </c>
+      <c r="J235">
+        <v>246</v>
+      </c>
+      <c r="K235">
+        <v>43</v>
+      </c>
+      <c r="L235">
+        <v>51</v>
+      </c>
+      <c r="M235" s="7">
+        <f t="shared" si="380"/>
+        <v>868786</v>
+      </c>
+      <c r="N235" s="4">
+        <f t="shared" si="381"/>
+        <v>0.1420634654163449</v>
+      </c>
+      <c r="Q235">
+        <f t="shared" ref="Q235" si="720">C235-C234</f>
+        <v>4255</v>
+      </c>
+      <c r="R235">
+        <f t="shared" ref="R235" si="721">M235-M234</f>
+        <v>5619</v>
+      </c>
+      <c r="S235" s="8">
+        <f t="shared" ref="S235" si="722">Q235/U235</f>
+        <v>0.43092971440145839</v>
+      </c>
+      <c r="T235" s="8">
+        <f t="shared" ref="T235" si="723">SUM(Q229:Q235)/SUM(U229:U235)</f>
+        <v>0.39832516339869278</v>
+      </c>
+      <c r="U235">
+        <f t="shared" ref="U235" si="724">B235-B234</f>
+        <v>9874</v>
+      </c>
+      <c r="V235">
+        <f t="shared" ref="V235" si="725">C235-D235-E235</f>
+        <v>42868</v>
+      </c>
+      <c r="W235" s="3">
+        <f t="shared" ref="W235" si="726">F235/V235</f>
+        <v>2.1274610432023888E-2</v>
+      </c>
+      <c r="X235">
+        <f t="shared" ref="X235" si="727">E235-E234</f>
+        <v>13</v>
+      </c>
+      <c r="Y235">
+        <v>966</v>
+      </c>
+      <c r="Z235">
+        <v>522</v>
+      </c>
+      <c r="AA235">
+        <v>7130</v>
+      </c>
+      <c r="AB235">
+        <v>561</v>
+      </c>
+      <c r="AC235">
+        <v>392</v>
+      </c>
+      <c r="AD235">
+        <v>4770</v>
+      </c>
+      <c r="AE235">
+        <v>10</v>
+      </c>
+      <c r="AF235">
+        <v>3</v>
+      </c>
+      <c r="AG235">
+        <v>107</v>
+      </c>
+      <c r="AH235">
+        <f t="shared" ref="AH235" si="728">Y235-AB235-AE235</f>
+        <v>395</v>
+      </c>
+      <c r="AI235">
+        <f t="shared" ref="AI235" si="729">Z235-AC235-AF235</f>
+        <v>127</v>
+      </c>
+      <c r="AJ235">
+        <f t="shared" ref="AJ235" si="730">AA235-AD235-AG235</f>
+        <v>2253</v>
+      </c>
+      <c r="AK235">
+        <f t="shared" ref="AK235" si="731">-(J235-J234)+L235</f>
+        <v>32</v>
+      </c>
+      <c r="AU235">
+        <v>12336</v>
+      </c>
+      <c r="AV235">
+        <v>8898</v>
+      </c>
+      <c r="AW235">
+        <v>3417</v>
+      </c>
+      <c r="AX235">
+        <f>AW235/AU235</f>
+        <v>0.27699416342412453</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AG228">
-    <cfRule type="cellIs" dxfId="44" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
       <formula>"max($AG:$AG)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25801,7 +26471,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>Q228:Q229</xm:sqref>
+          <xm:sqref>Q228:Q235</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="22" operator="equal" id="{E5309D98-D036-43E8-AE0C-F104DC358831}">
@@ -25817,7 +26487,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>X228:X229</xm:sqref>
+          <xm:sqref>X228:X235</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5269D26C-9211-46B2-914A-48345DF37DEF}">
@@ -25833,7 +26503,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F228:F229</xm:sqref>
+          <xm:sqref>F228:F235</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="20" operator="equal" id="{24843253-84F3-44AF-847D-C74D74C4F05A}">
@@ -25865,7 +26535,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J228:J229</xm:sqref>
+          <xm:sqref>J228:J235</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="18" operator="equal" id="{6F562D16-6A18-4369-973E-028D1B5F7CFF}">
@@ -25881,7 +26551,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K228:K229</xm:sqref>
+          <xm:sqref>K228:K235</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{735BDD8A-2F04-47F3-825F-41FCBFA8ADD5}">
@@ -25945,7 +26615,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AH228:AH229</xm:sqref>
+          <xm:sqref>AH228:AH235</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="12" operator="equal" id="{A5D8B9CD-D171-4616-8063-8E2F3DB2617E}">
@@ -25961,7 +26631,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AI228:AI229</xm:sqref>
+          <xm:sqref>AI228:AI235</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="11" operator="equal" id="{525B83D9-8CB5-4E31-BB6E-B59F9B6585E1}">
@@ -26121,7 +26791,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H1:H1048576 I229</xm:sqref>
+          <xm:sqref>H1:H1048576 I229:I235</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{8F0BE21B-C8AC-4EAD-AE58-244C59D5B0FC}">
@@ -26137,7 +26807,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>V229</xm:sqref>
+          <xm:sqref>V229:V235</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -26147,11 +26817,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5E6789-177F-4707-8258-EFFA27DED671}">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G155" sqref="G155:H163"/>
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G162" sqref="G162:H172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29504,11 +30174,11 @@
         <v>44213</v>
       </c>
       <c r="G156" s="1">
-        <f t="shared" ref="G156:G163" si="14">C156+10</f>
+        <f t="shared" ref="G156:G162" si="14">C156+10</f>
         <v>44133</v>
       </c>
       <c r="H156" s="1">
-        <f t="shared" ref="H156:H163" si="15">C156+28</f>
+        <f t="shared" ref="H156:H162" si="15">C156+28</f>
         <v>44151</v>
       </c>
     </row>
@@ -29542,18 +30212,18 @@
         <v>221</v>
       </c>
       <c r="C158" s="1">
-        <v>44123</v>
+        <v>44125</v>
       </c>
       <c r="D158" s="1">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="G158" s="1">
         <f t="shared" si="14"/>
-        <v>44133</v>
+        <v>44135</v>
       </c>
       <c r="H158" s="1">
         <f t="shared" si="15"/>
-        <v>44151</v>
+        <v>44153</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
@@ -29564,18 +30234,18 @@
         <v>222</v>
       </c>
       <c r="C159" s="1">
-        <v>44123</v>
+        <v>44126</v>
       </c>
       <c r="D159" s="1">
-        <v>44213</v>
+        <v>44216</v>
       </c>
       <c r="G159" s="1">
         <f t="shared" si="14"/>
-        <v>44133</v>
+        <v>44136</v>
       </c>
       <c r="H159" s="1">
         <f t="shared" si="15"/>
-        <v>44151</v>
+        <v>44154</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
@@ -29586,18 +30256,18 @@
         <v>223</v>
       </c>
       <c r="C160" s="1">
-        <v>44123</v>
+        <v>44130</v>
       </c>
       <c r="D160" s="1">
-        <v>44213</v>
+        <v>44220</v>
       </c>
       <c r="G160" s="1">
         <f t="shared" si="14"/>
-        <v>44133</v>
+        <v>44140</v>
       </c>
       <c r="H160" s="1">
         <f t="shared" si="15"/>
-        <v>44151</v>
+        <v>44158</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
@@ -29608,18 +30278,18 @@
         <v>224</v>
       </c>
       <c r="C161" s="1">
-        <v>44123</v>
+        <v>44130</v>
       </c>
       <c r="D161" s="1">
-        <v>44213</v>
+        <v>44220</v>
       </c>
       <c r="G161" s="1">
         <f t="shared" si="14"/>
-        <v>44133</v>
+        <v>44140</v>
       </c>
       <c r="H161" s="1">
         <f t="shared" si="15"/>
-        <v>44151</v>
+        <v>44158</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
@@ -29630,18 +30300,18 @@
         <v>225</v>
       </c>
       <c r="C162" s="1">
-        <v>44123</v>
+        <v>44130</v>
       </c>
       <c r="D162" s="1">
-        <v>44213</v>
+        <v>44220</v>
       </c>
       <c r="G162" s="1">
         <f t="shared" si="14"/>
-        <v>44133</v>
+        <v>44140</v>
       </c>
       <c r="H162" s="1">
         <f t="shared" si="15"/>
-        <v>44151</v>
+        <v>44158</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
@@ -29652,18 +30322,244 @@
         <v>226</v>
       </c>
       <c r="C163" s="1">
-        <v>44123</v>
+        <v>44127</v>
       </c>
       <c r="D163" s="1">
-        <v>44213</v>
+        <v>44217</v>
       </c>
       <c r="G163" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="G163:G172" si="16">C163+10</f>
+        <v>44137</v>
+      </c>
+      <c r="H163" s="1">
+        <f t="shared" ref="H163:H172" si="17">C163+28</f>
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>1230152</v>
+      </c>
+      <c r="B164" t="s">
+        <v>231</v>
+      </c>
+      <c r="C164" s="1">
         <v>44133</v>
       </c>
-      <c r="H163" s="1">
-        <f t="shared" si="15"/>
-        <v>44151</v>
+      <c r="D164" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G164" s="1">
+        <f t="shared" si="16"/>
+        <v>44143</v>
+      </c>
+      <c r="H164" s="1">
+        <f t="shared" si="17"/>
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>1239264</v>
+      </c>
+      <c r="B165" t="s">
+        <v>232</v>
+      </c>
+      <c r="C165" s="1">
+        <v>44133</v>
+      </c>
+      <c r="D165" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G165" s="1">
+        <f t="shared" si="16"/>
+        <v>44143</v>
+      </c>
+      <c r="H165" s="1">
+        <f t="shared" si="17"/>
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>1233238</v>
+      </c>
+      <c r="B166" t="s">
+        <v>233</v>
+      </c>
+      <c r="C166" s="1">
+        <v>44133</v>
+      </c>
+      <c r="D166" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G166" s="1">
+        <f t="shared" si="16"/>
+        <v>44143</v>
+      </c>
+      <c r="H166" s="1">
+        <f t="shared" si="17"/>
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>1233722</v>
+      </c>
+      <c r="B167" t="s">
+        <v>234</v>
+      </c>
+      <c r="C167" s="1">
+        <v>44133</v>
+      </c>
+      <c r="D167" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G167" s="1">
+        <f t="shared" si="16"/>
+        <v>44143</v>
+      </c>
+      <c r="H167" s="1">
+        <f t="shared" si="17"/>
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>1227803</v>
+      </c>
+      <c r="B168" t="s">
+        <v>235</v>
+      </c>
+      <c r="C168" s="1">
+        <v>44133</v>
+      </c>
+      <c r="D168" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G168" s="1">
+        <f t="shared" si="16"/>
+        <v>44143</v>
+      </c>
+      <c r="H168" s="1">
+        <f t="shared" si="17"/>
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>1234192</v>
+      </c>
+      <c r="B169" t="s">
+        <v>236</v>
+      </c>
+      <c r="C169" s="1">
+        <v>44133</v>
+      </c>
+      <c r="D169" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G169" s="1">
+        <f t="shared" si="16"/>
+        <v>44143</v>
+      </c>
+      <c r="H169" s="1">
+        <f t="shared" si="17"/>
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>1221905</v>
+      </c>
+      <c r="B170" t="s">
+        <v>237</v>
+      </c>
+      <c r="C170" s="1">
+        <v>44133</v>
+      </c>
+      <c r="D170" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G170" s="1">
+        <f t="shared" si="16"/>
+        <v>44143</v>
+      </c>
+      <c r="H170" s="1">
+        <f t="shared" si="17"/>
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>1234627</v>
+      </c>
+      <c r="B171" t="s">
+        <v>238</v>
+      </c>
+      <c r="C171" s="1">
+        <v>44133</v>
+      </c>
+      <c r="D171" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G171" s="1">
+        <f t="shared" si="16"/>
+        <v>44143</v>
+      </c>
+      <c r="H171" s="1">
+        <f t="shared" si="17"/>
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>1240846</v>
+      </c>
+      <c r="B172" t="s">
+        <v>239</v>
+      </c>
+      <c r="C172" s="1">
+        <v>44133</v>
+      </c>
+      <c r="D172" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G172" s="1">
+        <f t="shared" si="16"/>
+        <v>44143</v>
+      </c>
+      <c r="H172" s="1">
+        <f t="shared" si="17"/>
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>0</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D173" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>0</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D174" s="1" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -29809,7 +30705,7 @@
       </c>
       <c r="F2">
         <f>MAX(covid19!F:F)</f>
-        <v>630</v>
+        <v>912</v>
       </c>
       <c r="G2">
         <f>MAX(covid19!G:G)</f>
@@ -29817,19 +30713,19 @@
       </c>
       <c r="H2">
         <f>MAX(covid19!H:H)</f>
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="I2">
         <f>MAX(covid19!J:J)</f>
-        <v>171</v>
+        <v>246</v>
       </c>
       <c r="J2">
         <f>MAX(covid19!K:K)</f>
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="K2">
         <f>MAX(covid19!Q:Q)</f>
-        <v>2753</v>
+        <v>4255</v>
       </c>
       <c r="L2">
         <f>MAX(covid19!S:S)</f>
@@ -29837,7 +30733,7 @@
       </c>
       <c r="M2">
         <f>MAX(covid19!T:T)</f>
-        <v>0.32110580828594637</v>
+        <v>0.39832516339869278</v>
       </c>
       <c r="N2">
         <f>MAX(covid19!U:U)</f>
@@ -29845,7 +30741,7 @@
       </c>
       <c r="O2">
         <f>MAX(covid19!V:V)</f>
-        <v>32216</v>
+        <v>42868</v>
       </c>
       <c r="P2">
         <f>MAX(covid19!W:W)</f>
@@ -29857,7 +30753,7 @@
       </c>
       <c r="R2">
         <f>MAX(covid19!AE:AE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S2">
         <f>MAX(covid19!AF:AF)</f>
@@ -29865,19 +30761,19 @@
       </c>
       <c r="T2">
         <f>MAX(covid19!AG:AG)</f>
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="U2">
         <f>MAX(covid19!AH:AH)</f>
-        <v>230</v>
+        <v>395</v>
       </c>
       <c r="V2">
         <f>MAX(covid19!AI:AI)</f>
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="W2">
         <f>MAX(covid19!AJ:AJ)</f>
-        <v>1559</v>
+        <v>2253</v>
       </c>
       <c r="X2">
         <f>MAX(covid19!AL:AL)</f>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABE778E-A8D0-4072-B1E7-E1C69F062B39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30426B53-003F-4A10-A6C5-37924CE1A21C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="249">
   <si>
     <t>date</t>
   </si>
@@ -745,6 +745,33 @@
   </si>
   <si>
     <t>Rachel Macdonald</t>
+  </si>
+  <si>
+    <t>Bremer Rep</t>
+  </si>
+  <si>
+    <t>Bremer Pos</t>
+  </si>
+  <si>
+    <t>Black Hawk Rep</t>
+  </si>
+  <si>
+    <t>Black Hawk Pos</t>
+  </si>
+  <si>
+    <t>Butler Rep</t>
+  </si>
+  <si>
+    <t>Butler Pos</t>
+  </si>
+  <si>
+    <t>Bremer Pct</t>
+  </si>
+  <si>
+    <t>Black Hawk Pct</t>
+  </si>
+  <si>
+    <t>Butler Pct</t>
   </si>
 </sst>
 </file>
@@ -1888,13 +1915,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AX235"/>
+  <dimension ref="A1:BG236"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI234" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y222" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO234" sqref="AO234"/>
+      <selection pane="bottomRight" activeCell="Y236" sqref="Y199:Y236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1906,7 +1933,7 @@
     <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2054,8 +2081,35 @@
       <c r="AW1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AY1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>243</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>244</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>43898</v>
       </c>
@@ -2084,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>43899</v>
       </c>
@@ -2119,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>43900</v>
       </c>
@@ -2157,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>43901</v>
       </c>
@@ -2198,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>43903</v>
       </c>
@@ -2233,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>43904</v>
       </c>
@@ -2268,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>43908</v>
       </c>
@@ -2307,7 +2361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>43909</v>
       </c>
@@ -2349,7 +2403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>43913</v>
       </c>
@@ -2398,7 +2452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>43914</v>
       </c>
@@ -2434,7 +2488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>43917</v>
       </c>
@@ -2473,7 +2527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>43918</v>
       </c>
@@ -2525,7 +2579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>43919</v>
       </c>
@@ -2589,7 +2643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>43920</v>
       </c>
@@ -2653,7 +2707,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>43921</v>
       </c>
@@ -15089,7 +15143,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="14">
-        <f t="shared" ref="A152:A235" si="49">A151+1</f>
+        <f t="shared" ref="A152:A236" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -21996,11 +22050,11 @@
         <v>17</v>
       </c>
       <c r="M203" s="7">
-        <f t="shared" ref="M203:M235" si="380">B203-C203</f>
+        <f t="shared" ref="M203:M236" si="380">B203-C203</f>
         <v>730923</v>
       </c>
       <c r="N203" s="4">
-        <f t="shared" ref="N203:N235" si="381">C203/B203</f>
+        <f t="shared" ref="N203:N236" si="381">C203/B203</f>
         <v>0.11270554987702819</v>
       </c>
       <c r="Q203">
@@ -24907,7 +24961,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="225" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A225" s="14">
         <f t="shared" si="49"/>
         <v>44131</v>
@@ -25043,7 +25097,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="226" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A226" s="14">
         <f t="shared" si="49"/>
         <v>44132</v>
@@ -25179,7 +25233,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="227" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A227" s="14">
         <f t="shared" si="49"/>
         <v>44133</v>
@@ -25315,7 +25369,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="228" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A228" s="14">
         <f t="shared" si="49"/>
         <v>44134</v>
@@ -25464,7 +25518,7 @@
         <v>0.21674633261908685</v>
       </c>
     </row>
-    <row r="229" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A229" s="14">
         <f t="shared" si="49"/>
         <v>44135</v>
@@ -25600,7 +25654,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="230" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A230" s="14">
         <f t="shared" si="49"/>
         <v>44136</v>
@@ -25727,7 +25781,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="231" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A231" s="14">
         <f t="shared" si="49"/>
         <v>44137</v>
@@ -25872,11 +25926,11 @@
         <v>1085</v>
       </c>
       <c r="AX231">
-        <f>AW231/AU231</f>
+        <f t="shared" ref="AX231:AX236" si="684">AW231/AU231</f>
         <v>0.21274509803921568</v>
       </c>
     </row>
-    <row r="232" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A232" s="14">
         <f t="shared" si="49"/>
         <v>44138</v>
@@ -25920,35 +25974,35 @@
         <v>0.13464009144134523</v>
       </c>
       <c r="Q232">
-        <f t="shared" ref="Q232" si="684">C232-C231</f>
+        <f t="shared" ref="Q232" si="685">C232-C231</f>
         <v>1617</v>
       </c>
       <c r="R232">
-        <f t="shared" ref="R232" si="685">M232-M231</f>
+        <f t="shared" ref="R232" si="686">M232-M231</f>
         <v>2366</v>
       </c>
       <c r="S232" s="8">
-        <f t="shared" ref="S232" si="686">Q232/U232</f>
+        <f t="shared" ref="S232" si="687">Q232/U232</f>
         <v>0.40597539543057998</v>
       </c>
       <c r="T232" s="8">
-        <f t="shared" ref="T232" si="687">SUM(Q226:Q232)/SUM(U226:U232)</f>
+        <f t="shared" ref="T232" si="688">SUM(Q226:Q232)/SUM(U226:U232)</f>
         <v>0.35145888594164454</v>
       </c>
       <c r="U232">
-        <f t="shared" ref="U232" si="688">B232-B231</f>
+        <f t="shared" ref="U232" si="689">B232-B231</f>
         <v>3983</v>
       </c>
       <c r="V232">
-        <f t="shared" ref="V232" si="689">C232-D232-E232</f>
+        <f t="shared" ref="V232" si="690">C232-D232-E232</f>
         <v>35823</v>
       </c>
       <c r="W232" s="3">
-        <f t="shared" ref="W232" si="690">F232/V232</f>
+        <f t="shared" ref="W232" si="691">F232/V232</f>
         <v>2.0377969460960835E-2</v>
       </c>
       <c r="X232">
-        <f t="shared" ref="X232" si="691">E232-E231</f>
+        <f t="shared" ref="X232" si="692">E232-E231</f>
         <v>22</v>
       </c>
       <c r="Y232">
@@ -25979,15 +26033,15 @@
         <v>104</v>
       </c>
       <c r="AH232">
-        <f t="shared" ref="AH232" si="692">Y232-AB232-AE232</f>
+        <f t="shared" ref="AH232" si="693">Y232-AB232-AE232</f>
         <v>292</v>
       </c>
       <c r="AI232">
-        <f t="shared" ref="AI232" si="693">Z232-AC232-AF232</f>
+        <f t="shared" ref="AI232" si="694">Z232-AC232-AF232</f>
         <v>81</v>
       </c>
       <c r="AJ232">
-        <f t="shared" ref="AJ232" si="694">AA232-AD232-AG232</f>
+        <f t="shared" ref="AJ232" si="695">AA232-AD232-AG232</f>
         <v>1813</v>
       </c>
       <c r="AK232">
@@ -25999,7 +26053,7 @@
         <v>14</v>
       </c>
       <c r="AT232">
-        <f t="shared" ref="AT232:AT234" si="695">AH232-AS232</f>
+        <f t="shared" ref="AT232:AT234" si="696">AH232-AS232</f>
         <v>278</v>
       </c>
       <c r="AU232">
@@ -26012,11 +26066,11 @@
         <v>866</v>
       </c>
       <c r="AX232">
-        <f>AW232/AU232</f>
+        <f t="shared" si="684"/>
         <v>0.25523135867963453</v>
       </c>
     </row>
-    <row r="233" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A233" s="14">
         <f t="shared" si="49"/>
         <v>44139</v>
@@ -26060,35 +26114,35 @@
         <v>0.13668839037104596</v>
       </c>
       <c r="Q233">
-        <f t="shared" ref="Q233" si="696">C233-C232</f>
+        <f t="shared" ref="Q233" si="697">C233-C232</f>
         <v>2942</v>
       </c>
       <c r="R233">
-        <f t="shared" ref="R233" si="697">M233-M232</f>
+        <f t="shared" ref="R233" si="698">M233-M232</f>
         <v>3780</v>
       </c>
       <c r="S233" s="8">
-        <f t="shared" ref="S233" si="698">Q233/U233</f>
+        <f t="shared" ref="S233" si="699">Q233/U233</f>
         <v>0.43766736090449271</v>
       </c>
       <c r="T233" s="8">
-        <f t="shared" ref="T233" si="699">SUM(Q227:Q233)/SUM(U227:U233)</f>
+        <f t="shared" ref="T233" si="700">SUM(Q227:Q233)/SUM(U227:U233)</f>
         <v>0.36424546977310795</v>
       </c>
       <c r="U233">
-        <f t="shared" ref="U233" si="700">B233-B232</f>
+        <f t="shared" ref="U233" si="701">B233-B232</f>
         <v>6722</v>
       </c>
       <c r="V233">
-        <f t="shared" ref="V233" si="701">C233-D233-E233</f>
+        <f t="shared" ref="V233" si="702">C233-D233-E233</f>
         <v>37531</v>
       </c>
       <c r="W233" s="3">
-        <f t="shared" ref="W233" si="702">F233/V233</f>
+        <f t="shared" ref="W233" si="703">F233/V233</f>
         <v>2.070288561455863E-2</v>
       </c>
       <c r="X233">
-        <f t="shared" ref="X233" si="703">E233-E232</f>
+        <f t="shared" ref="X233" si="704">E233-E232</f>
         <v>24</v>
       </c>
       <c r="Y233">
@@ -26119,19 +26173,19 @@
         <v>106</v>
       </c>
       <c r="AH233">
-        <f t="shared" ref="AH233" si="704">Y233-AB233-AE233</f>
+        <f t="shared" ref="AH233" si="705">Y233-AB233-AE233</f>
         <v>335</v>
       </c>
       <c r="AI233">
-        <f t="shared" ref="AI233" si="705">Z233-AC233-AF233</f>
+        <f t="shared" ref="AI233" si="706">Z233-AC233-AF233</f>
         <v>98</v>
       </c>
       <c r="AJ233">
-        <f t="shared" ref="AJ233" si="706">AA233-AD233-AG233</f>
+        <f t="shared" ref="AJ233" si="707">AA233-AD233-AG233</f>
         <v>1950</v>
       </c>
       <c r="AK233">
-        <f t="shared" ref="AK233" si="707">-(J233-J232)+L233</f>
+        <f t="shared" ref="AK233" si="708">-(J233-J232)+L233</f>
         <v>37</v>
       </c>
       <c r="AL233">
@@ -26148,7 +26202,7 @@
         <v>13</v>
       </c>
       <c r="AT233">
-        <f t="shared" si="695"/>
+        <f t="shared" si="696"/>
         <v>322</v>
       </c>
       <c r="AU233">
@@ -26161,11 +26215,11 @@
         <v>906</v>
       </c>
       <c r="AX233">
-        <f>AW233/AU233</f>
+        <f t="shared" si="684"/>
         <v>0.23459347488348006</v>
       </c>
     </row>
-    <row r="234" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A234" s="14">
         <f t="shared" si="49"/>
         <v>44140</v>
@@ -26209,35 +26263,35 @@
         <v>0.1392190846972193</v>
       </c>
       <c r="Q234">
-        <f t="shared" ref="Q234" si="708">C234-C233</f>
+        <f t="shared" ref="Q234" si="709">C234-C233</f>
         <v>3674</v>
       </c>
       <c r="R234">
-        <f t="shared" ref="R234" si="709">M234-M233</f>
+        <f t="shared" ref="R234" si="710">M234-M233</f>
         <v>4639</v>
       </c>
       <c r="S234" s="8">
-        <f t="shared" ref="S234" si="710">Q234/U234</f>
+        <f t="shared" ref="S234" si="711">Q234/U234</f>
         <v>0.44195837844340191</v>
       </c>
       <c r="T234" s="8">
-        <f t="shared" ref="T234" si="711">SUM(Q228:Q234)/SUM(U228:U234)</f>
+        <f t="shared" ref="T234" si="712">SUM(Q228:Q234)/SUM(U228:U234)</f>
         <v>0.38484574284729406</v>
       </c>
       <c r="U234">
-        <f t="shared" ref="U234" si="712">B234-B233</f>
+        <f t="shared" ref="U234" si="713">B234-B233</f>
         <v>8313</v>
       </c>
       <c r="V234">
-        <f t="shared" ref="V234" si="713">C234-D234-E234</f>
+        <f t="shared" ref="V234" si="714">C234-D234-E234</f>
         <v>39877</v>
       </c>
       <c r="W234" s="3">
-        <f t="shared" ref="W234" si="714">F234/V234</f>
+        <f t="shared" ref="W234" si="715">F234/V234</f>
         <v>2.1039697068485592E-2</v>
       </c>
       <c r="X234">
-        <f t="shared" ref="X234" si="715">E234-E233</f>
+        <f t="shared" ref="X234" si="716">E234-E233</f>
         <v>22</v>
       </c>
       <c r="Y234">
@@ -26268,19 +26322,19 @@
         <v>106</v>
       </c>
       <c r="AH234">
-        <f t="shared" ref="AH234" si="716">Y234-AB234-AE234</f>
+        <f t="shared" ref="AH234" si="717">Y234-AB234-AE234</f>
         <v>352</v>
       </c>
       <c r="AI234">
-        <f t="shared" ref="AI234" si="717">Z234-AC234-AF234</f>
+        <f t="shared" ref="AI234" si="718">Z234-AC234-AF234</f>
         <v>111</v>
       </c>
       <c r="AJ234">
-        <f t="shared" ref="AJ234" si="718">AA234-AD234-AG234</f>
+        <f t="shared" ref="AJ234" si="719">AA234-AD234-AG234</f>
         <v>2096</v>
       </c>
       <c r="AK234">
-        <f t="shared" ref="AK234" si="719">-(J234-J233)+L234</f>
+        <f t="shared" ref="AK234" si="720">-(J234-J233)+L234</f>
         <v>32</v>
       </c>
       <c r="AL234">
@@ -26297,7 +26351,7 @@
         <v>13</v>
       </c>
       <c r="AT234">
-        <f t="shared" si="695"/>
+        <f t="shared" si="696"/>
         <v>339</v>
       </c>
       <c r="AU234">
@@ -26310,11 +26364,11 @@
         <v>1406</v>
       </c>
       <c r="AX234">
-        <f>AW234/AU234</f>
+        <f t="shared" si="684"/>
         <v>0.245418048525048</v>
       </c>
     </row>
-    <row r="235" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A235" s="14">
         <f t="shared" si="49"/>
         <v>44141</v>
@@ -26358,35 +26412,35 @@
         <v>0.1420634654163449</v>
       </c>
       <c r="Q235">
-        <f t="shared" ref="Q235" si="720">C235-C234</f>
+        <f t="shared" ref="Q235" si="721">C235-C234</f>
         <v>4255</v>
       </c>
       <c r="R235">
-        <f t="shared" ref="R235" si="721">M235-M234</f>
+        <f t="shared" ref="R235" si="722">M235-M234</f>
         <v>5619</v>
       </c>
       <c r="S235" s="8">
-        <f t="shared" ref="S235" si="722">Q235/U235</f>
+        <f t="shared" ref="S235" si="723">Q235/U235</f>
         <v>0.43092971440145839</v>
       </c>
       <c r="T235" s="8">
-        <f t="shared" ref="T235" si="723">SUM(Q229:Q235)/SUM(U229:U235)</f>
+        <f t="shared" ref="T235" si="724">SUM(Q229:Q235)/SUM(U229:U235)</f>
         <v>0.39832516339869278</v>
       </c>
       <c r="U235">
-        <f t="shared" ref="U235" si="724">B235-B234</f>
+        <f t="shared" ref="U235" si="725">B235-B234</f>
         <v>9874</v>
       </c>
       <c r="V235">
-        <f t="shared" ref="V235" si="725">C235-D235-E235</f>
+        <f t="shared" ref="V235" si="726">C235-D235-E235</f>
         <v>42868</v>
       </c>
       <c r="W235" s="3">
-        <f t="shared" ref="W235" si="726">F235/V235</f>
+        <f t="shared" ref="W235" si="727">F235/V235</f>
         <v>2.1274610432023888E-2</v>
       </c>
       <c r="X235">
-        <f t="shared" ref="X235" si="727">E235-E234</f>
+        <f t="shared" ref="X235" si="728">E235-E234</f>
         <v>13</v>
       </c>
       <c r="Y235">
@@ -26417,19 +26471,19 @@
         <v>107</v>
       </c>
       <c r="AH235">
-        <f t="shared" ref="AH235" si="728">Y235-AB235-AE235</f>
+        <f t="shared" ref="AH235" si="729">Y235-AB235-AE235</f>
         <v>395</v>
       </c>
       <c r="AI235">
-        <f t="shared" ref="AI235" si="729">Z235-AC235-AF235</f>
+        <f t="shared" ref="AI235" si="730">Z235-AC235-AF235</f>
         <v>127</v>
       </c>
       <c r="AJ235">
-        <f t="shared" ref="AJ235" si="730">AA235-AD235-AG235</f>
+        <f t="shared" ref="AJ235" si="731">AA235-AD235-AG235</f>
         <v>2253</v>
       </c>
       <c r="AK235">
-        <f t="shared" ref="AK235" si="731">-(J235-J234)+L235</f>
+        <f t="shared" ref="AK235" si="732">-(J235-J234)+L235</f>
         <v>32</v>
       </c>
       <c r="AU235">
@@ -26442,8 +26496,200 @@
         <v>3417</v>
       </c>
       <c r="AX235">
-        <f>AW235/AU235</f>
+        <f t="shared" si="684"/>
         <v>0.27699416342412453</v>
+      </c>
+      <c r="AY235">
+        <v>86</v>
+      </c>
+      <c r="AZ235">
+        <v>53</v>
+      </c>
+      <c r="BA235">
+        <v>485</v>
+      </c>
+      <c r="BB235">
+        <v>158</v>
+      </c>
+      <c r="BC235">
+        <v>49</v>
+      </c>
+      <c r="BD235">
+        <v>34</v>
+      </c>
+      <c r="BE235">
+        <f>AZ235/AY235</f>
+        <v>0.61627906976744184</v>
+      </c>
+      <c r="BF235">
+        <f>BB235/BA235</f>
+        <v>0.32577319587628867</v>
+      </c>
+      <c r="BG235">
+        <f>BC235/BB235</f>
+        <v>0.310126582278481</v>
+      </c>
+    </row>
+    <row r="236" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="A236" s="14">
+        <f t="shared" si="49"/>
+        <v>44142</v>
+      </c>
+      <c r="B236">
+        <v>1021619</v>
+      </c>
+      <c r="C236">
+        <v>148246</v>
+      </c>
+      <c r="D236">
+        <v>100343</v>
+      </c>
+      <c r="E236" s="9">
+        <v>1828</v>
+      </c>
+      <c r="F236" s="9">
+        <v>901</v>
+      </c>
+      <c r="H236">
+        <v>194</v>
+      </c>
+      <c r="I236">
+        <v>165</v>
+      </c>
+      <c r="J236">
+        <v>204</v>
+      </c>
+      <c r="K236">
+        <v>30</v>
+      </c>
+      <c r="L236">
+        <v>42</v>
+      </c>
+      <c r="M236" s="7">
+        <f t="shared" si="380"/>
+        <v>873373</v>
+      </c>
+      <c r="N236" s="4">
+        <f t="shared" si="381"/>
+        <v>0.14510889088789461</v>
+      </c>
+      <c r="Q236">
+        <f t="shared" ref="Q236" si="733">C236-C235</f>
+        <v>4386</v>
+      </c>
+      <c r="R236">
+        <f t="shared" ref="R236" si="734">M236-M235</f>
+        <v>4587</v>
+      </c>
+      <c r="S236" s="8">
+        <f t="shared" ref="S236" si="735">Q236/U236</f>
+        <v>0.48879973253092612</v>
+      </c>
+      <c r="T236" s="8">
+        <f t="shared" ref="T236" si="736">SUM(Q230:Q236)/SUM(U230:U236)</f>
+        <v>0.41914564493098527</v>
+      </c>
+      <c r="U236">
+        <f t="shared" ref="U236" si="737">B236-B235</f>
+        <v>8973</v>
+      </c>
+      <c r="V236">
+        <f t="shared" ref="V236" si="738">C236-D236-E236</f>
+        <v>46075</v>
+      </c>
+      <c r="W236" s="3">
+        <f t="shared" ref="W236" si="739">F236/V236</f>
+        <v>1.9555073250135648E-2</v>
+      </c>
+      <c r="X236">
+        <f t="shared" ref="X236" si="740">E236-E235</f>
+        <v>14</v>
+      </c>
+      <c r="Y236">
+        <v>1021</v>
+      </c>
+      <c r="Z236">
+        <v>539</v>
+      </c>
+      <c r="AA236">
+        <v>7319</v>
+      </c>
+      <c r="AB236">
+        <v>567</v>
+      </c>
+      <c r="AC236">
+        <v>405</v>
+      </c>
+      <c r="AD236">
+        <v>4816</v>
+      </c>
+      <c r="AE236">
+        <v>10</v>
+      </c>
+      <c r="AF236">
+        <v>3</v>
+      </c>
+      <c r="AG236">
+        <v>107</v>
+      </c>
+      <c r="AH236">
+        <f t="shared" ref="AH236" si="741">Y236-AB236-AE236</f>
+        <v>444</v>
+      </c>
+      <c r="AI236">
+        <f t="shared" ref="AI236" si="742">Z236-AC236-AF236</f>
+        <v>131</v>
+      </c>
+      <c r="AJ236">
+        <f t="shared" ref="AJ236" si="743">AA236-AD236-AG236</f>
+        <v>2396</v>
+      </c>
+      <c r="AK236">
+        <f t="shared" ref="AK236" si="744">-(J236-J235)+L236</f>
+        <v>84</v>
+      </c>
+      <c r="AU236">
+        <v>6479</v>
+      </c>
+      <c r="AV236">
+        <v>4632</v>
+      </c>
+      <c r="AW236">
+        <v>1841</v>
+      </c>
+      <c r="AX236">
+        <f t="shared" si="684"/>
+        <v>0.28414878839327057</v>
+      </c>
+      <c r="AY236">
+        <v>59</v>
+      </c>
+      <c r="AZ236">
+        <v>14</v>
+      </c>
+      <c r="BA236">
+        <v>231</v>
+      </c>
+      <c r="BB236">
+        <v>65</v>
+      </c>
+      <c r="BC236">
+        <v>29</v>
+      </c>
+      <c r="BD236">
+        <v>14</v>
+      </c>
+      <c r="BE236">
+        <f>AZ236/AY236</f>
+        <v>0.23728813559322035</v>
+      </c>
+      <c r="BF236">
+        <f>BB236/BA236</f>
+        <v>0.2813852813852814</v>
+      </c>
+      <c r="BG236">
+        <f>BC236/BB236</f>
+        <v>0.44615384615384618</v>
       </c>
     </row>
   </sheetData>
@@ -26471,7 +26717,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>Q228:Q235</xm:sqref>
+          <xm:sqref>Q228:Q236</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="22" operator="equal" id="{E5309D98-D036-43E8-AE0C-F104DC358831}">
@@ -26487,7 +26733,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>X228:X235</xm:sqref>
+          <xm:sqref>X228:X236</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5269D26C-9211-46B2-914A-48345DF37DEF}">
@@ -26503,7 +26749,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F228:F235</xm:sqref>
+          <xm:sqref>F228:F236</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="20" operator="equal" id="{24843253-84F3-44AF-847D-C74D74C4F05A}">
@@ -26535,7 +26781,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J228:J235</xm:sqref>
+          <xm:sqref>J228:J236</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="18" operator="equal" id="{6F562D16-6A18-4369-973E-028D1B5F7CFF}">
@@ -26551,7 +26797,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K228:K235</xm:sqref>
+          <xm:sqref>K228:K236</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{735BDD8A-2F04-47F3-825F-41FCBFA8ADD5}">
@@ -26615,7 +26861,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AH228:AH235</xm:sqref>
+          <xm:sqref>AH228:AH236</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="12" operator="equal" id="{A5D8B9CD-D171-4616-8063-8E2F3DB2617E}">
@@ -26631,7 +26877,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AI228:AI235</xm:sqref>
+          <xm:sqref>AI228:AI236</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="11" operator="equal" id="{525B83D9-8CB5-4E31-BB6E-B59F9B6585E1}">
@@ -26791,7 +27037,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H1:H1048576 I229:I235</xm:sqref>
+          <xm:sqref>H1:H1048576 I229:I236</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{8F0BE21B-C8AC-4EAD-AE58-244C59D5B0FC}">
@@ -26807,7 +27053,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>V229:V235</xm:sqref>
+          <xm:sqref>V229:V236</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -30713,7 +30959,7 @@
       </c>
       <c r="H2">
         <f>MAX(covid19!H:H)</f>
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I2">
         <f>MAX(covid19!J:J)</f>
@@ -30725,7 +30971,7 @@
       </c>
       <c r="K2">
         <f>MAX(covid19!Q:Q)</f>
-        <v>4255</v>
+        <v>4386</v>
       </c>
       <c r="L2">
         <f>MAX(covid19!S:S)</f>
@@ -30733,7 +30979,7 @@
       </c>
       <c r="M2">
         <f>MAX(covid19!T:T)</f>
-        <v>0.39832516339869278</v>
+        <v>0.41914564493098527</v>
       </c>
       <c r="N2">
         <f>MAX(covid19!U:U)</f>
@@ -30741,7 +30987,7 @@
       </c>
       <c r="O2">
         <f>MAX(covid19!V:V)</f>
-        <v>42868</v>
+        <v>46075</v>
       </c>
       <c r="P2">
         <f>MAX(covid19!W:W)</f>
@@ -30765,15 +31011,15 @@
       </c>
       <c r="U2">
         <f>MAX(covid19!AH:AH)</f>
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="V2">
         <f>MAX(covid19!AI:AI)</f>
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="W2">
         <f>MAX(covid19!AJ:AJ)</f>
-        <v>2253</v>
+        <v>2396</v>
       </c>
       <c r="X2">
         <f>MAX(covid19!AL:AL)</f>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30426B53-003F-4A10-A6C5-37924CE1A21C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3299F61A-150A-4898-AF7C-15991402D96D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,13 +19,14 @@
     <sheet name="NewRecovered" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="ScreenReader" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="397">
   <si>
     <t>date</t>
   </si>
@@ -654,6 +655,453 @@
     <t>Taylor Runchey</t>
   </si>
   <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Individuals Reported</t>
+  </si>
+  <si>
+    <t>Individuals Negative</t>
+  </si>
+  <si>
+    <t>Individuals Positive</t>
+  </si>
+  <si>
+    <t>Bremer Rep</t>
+  </si>
+  <si>
+    <t>Bremer Pos</t>
+  </si>
+  <si>
+    <t>Black Hawk Rep</t>
+  </si>
+  <si>
+    <t>Black Hawk Pos</t>
+  </si>
+  <si>
+    <t>Butler Rep</t>
+  </si>
+  <si>
+    <t>Butler Pos</t>
+  </si>
+  <si>
+    <t>Bremer Pct</t>
+  </si>
+  <si>
+    <t>Black Hawk Pct</t>
+  </si>
+  <si>
+    <t>Butler Pct</t>
+  </si>
+  <si>
+    <t>Skip Navigation</t>
+  </si>
+  <si>
+    <t>Sign In</t>
+  </si>
+  <si>
+    <t>Explore</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Documents</t>
+  </si>
+  <si>
+    <t>Apps &amp; Maps</t>
+  </si>
+  <si>
+    <t>COVID-19 in Iowa</t>
+  </si>
+  <si>
+    <t>Current Cases Accessibility Page</t>
+  </si>
+  <si>
+    <t>This page is designed to work with screen reader technology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data is updated daily ~11 AM. </t>
+  </si>
+  <si>
+    <t>Last Updated</t>
+  </si>
+  <si>
+    <t>Total Confirmed Cases</t>
+  </si>
+  <si>
+    <t>Deceased</t>
+  </si>
+  <si>
+    <t>Hospitalized</t>
+  </si>
+  <si>
+    <t>Recovering</t>
+  </si>
+  <si>
+    <t>Child Cases (0-17)</t>
+  </si>
+  <si>
+    <t>Adult Cases (18-40)</t>
+  </si>
+  <si>
+    <t>Middle Aged Cases (41-60)</t>
+  </si>
+  <si>
+    <t>Older Adult Cases (61-80)</t>
+  </si>
+  <si>
+    <t>Elderly Cases (81 or Older)</t>
+  </si>
+  <si>
+    <t>Male Cases</t>
+  </si>
+  <si>
+    <t>Female Cases</t>
+  </si>
+  <si>
+    <t>Individuals Tested</t>
+  </si>
+  <si>
+    <t>COVID-19 Patients Admitted in last 24 hrs</t>
+  </si>
+  <si>
+    <t>COVID-19 Patients in ICU</t>
+  </si>
+  <si>
+    <t>Total Ventilators Available</t>
+  </si>
+  <si>
+    <t>COVID-19 Patients on Ventilators</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Total Recovered</t>
+  </si>
+  <si>
+    <t>Polk</t>
+  </si>
+  <si>
+    <t>Woodbury</t>
+  </si>
+  <si>
+    <t>Linn</t>
+  </si>
+  <si>
+    <t>Black Hawk</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Dubuque</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Pottawattamie</t>
+  </si>
+  <si>
+    <t>Sioux</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Buena Vista</t>
+  </si>
+  <si>
+    <t>Webster</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Cerro Gordo</t>
+  </si>
+  <si>
+    <t>Des Moines</t>
+  </si>
+  <si>
+    <t>Clinton</t>
+  </si>
+  <si>
+    <t>Wapello</t>
+  </si>
+  <si>
+    <t>Muscatine</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>Jasper</t>
+  </si>
+  <si>
+    <t>Crawford</t>
+  </si>
+  <si>
+    <t>Carroll</t>
+  </si>
+  <si>
+    <t>Marion</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Tama</t>
+  </si>
+  <si>
+    <t>Bremer</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Dickinson</t>
+  </si>
+  <si>
+    <t>O'Brien</t>
+  </si>
+  <si>
+    <t>Benton</t>
+  </si>
+  <si>
+    <t>Wright</t>
+  </si>
+  <si>
+    <t>Boone</t>
+  </si>
+  <si>
+    <t>Mahaska</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Harrison</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Clayton</t>
+  </si>
+  <si>
+    <t>Buchanan</t>
+  </si>
+  <si>
+    <t>Hardin</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Cedar</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Louisa</t>
+  </si>
+  <si>
+    <t>Calhoun</t>
+  </si>
+  <si>
+    <t>Poweshiek</t>
+  </si>
+  <si>
+    <t>Winnebago</t>
+  </si>
+  <si>
+    <t>Winneshiek</t>
+  </si>
+  <si>
+    <t>Kossuth</t>
+  </si>
+  <si>
+    <t>Mills</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Cass</t>
+  </si>
+  <si>
+    <t>Floyd</t>
+  </si>
+  <si>
+    <t>Fayette</t>
+  </si>
+  <si>
+    <t>Butler</t>
+  </si>
+  <si>
+    <t>Hancock</t>
+  </si>
+  <si>
+    <t>Cherokee</t>
+  </si>
+  <si>
+    <t>Sac</t>
+  </si>
+  <si>
+    <t>Emmet</t>
+  </si>
+  <si>
+    <t>Guthrie</t>
+  </si>
+  <si>
+    <t>Shelby</t>
+  </si>
+  <si>
+    <t>Allamakee</t>
+  </si>
+  <si>
+    <t>Grundy</t>
+  </si>
+  <si>
+    <t>Chickasaw</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Humboldt</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>Palo Alto</t>
+  </si>
+  <si>
+    <t>Clarke</t>
+  </si>
+  <si>
+    <t>Appanoose</t>
+  </si>
+  <si>
+    <t>Osceola</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>Monroe</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Ida</t>
+  </si>
+  <si>
+    <t>Monona</t>
+  </si>
+  <si>
+    <t>Keokuk</t>
+  </si>
+  <si>
+    <t>Adair</t>
+  </si>
+  <si>
+    <t>Greene</t>
+  </si>
+  <si>
+    <t>Montgomery</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Fremont</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Van Buren</t>
+  </si>
+  <si>
+    <t>Pending Investigation</t>
+  </si>
+  <si>
+    <t>Audubon</t>
+  </si>
+  <si>
+    <t>Wayne</t>
+  </si>
+  <si>
+    <t>Decatur</t>
+  </si>
+  <si>
+    <t>Worth</t>
+  </si>
+  <si>
+    <t>Ringgold</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>COVID-19 Questions for Individuals: Dial 2-1-1</t>
+  </si>
+  <si>
+    <t>COVID-19 Questions for Healthcare Providers: 800.362.2736</t>
+  </si>
+  <si>
+    <t>Iowa Multilingual COVID-19 Phone Line: 877.558.2609</t>
+  </si>
+  <si>
+    <t>Legal Information Hotline for COVID-19: 800.332.0419</t>
+  </si>
+  <si>
+    <t>Iowa Domestic Violence Hotline: 800.770.1650</t>
+  </si>
+  <si>
+    <t>Iowa Dept. of Corrections COVID-19 Hotline: 515.373.5457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Carson McSorley </t>
   </si>
   <si>
@@ -708,18 +1156,6 @@
     <t>Karly Miner</t>
   </si>
   <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Individuals Reported</t>
-  </si>
-  <si>
-    <t>Individuals Negative</t>
-  </si>
-  <si>
-    <t>Individuals Positive</t>
-  </si>
-  <si>
     <t>Joseline A. Robles Rosales</t>
   </si>
   <si>
@@ -747,31 +1183,40 @@
     <t>Rachel Macdonald</t>
   </si>
   <si>
-    <t>Bremer Rep</t>
+    <t>Haley Beckert</t>
   </si>
   <si>
-    <t>Bremer Pos</t>
+    <t>Riley Barrett</t>
   </si>
   <si>
-    <t>Black Hawk Rep</t>
+    <t>Allie Nicolaus</t>
   </si>
   <si>
-    <t>Black Hawk Pos</t>
+    <t>Nicole Hasek</t>
   </si>
   <si>
-    <t>Butler Rep</t>
+    <t>Cassidy Tweedt</t>
   </si>
   <si>
-    <t>Butler Pos</t>
+    <t xml:space="preserve">Tate Jones </t>
   </si>
   <si>
-    <t>Bremer Pct</t>
+    <t>Bo McMahon</t>
   </si>
   <si>
-    <t>Black Hawk Pct</t>
+    <t>Natalie Henriksen</t>
   </si>
   <si>
-    <t>Butler Pct</t>
+    <t>Mallory Laube</t>
+  </si>
+  <si>
+    <t>Bremer 7Day</t>
+  </si>
+  <si>
+    <t>Black Hawk 7Day</t>
+  </si>
+  <si>
+    <t>Butler 7Day</t>
   </si>
 </sst>
 </file>
@@ -782,7 +1227,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -929,6 +1374,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1305,7 +1762,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1327,6 +1784,15 @@
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1915,13 +2381,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BG236"/>
+  <dimension ref="A1:BJ240"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y222" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AX234" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y236" sqref="Y199:Y236"/>
+      <selection pane="bottomRight" activeCell="BH235" sqref="BH235:BJ239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1933,7 +2399,7 @@
     <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2073,43 +2539,52 @@
         <v>166</v>
       </c>
       <c r="AU1" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="AV1" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="AW1" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="AY1" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="AZ1" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="BA1" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="BB1" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="BC1" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="BD1" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="BE1" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="BF1" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="BG1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>394</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>395</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>43898</v>
       </c>
@@ -2138,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>43899</v>
       </c>
@@ -2173,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>43900</v>
       </c>
@@ -2211,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>43901</v>
       </c>
@@ -2252,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>43903</v>
       </c>
@@ -2287,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>43904</v>
       </c>
@@ -2322,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>43908</v>
       </c>
@@ -2361,7 +2836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>43909</v>
       </c>
@@ -2403,7 +2878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>43913</v>
       </c>
@@ -2452,7 +2927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>43914</v>
       </c>
@@ -2488,7 +2963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>43917</v>
       </c>
@@ -2527,7 +3002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>43918</v>
       </c>
@@ -2579,7 +3054,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>43919</v>
       </c>
@@ -2643,7 +3118,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>43920</v>
       </c>
@@ -2707,7 +3182,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>43921</v>
       </c>
@@ -15143,7 +15618,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="14">
-        <f t="shared" ref="A152:A236" si="49">A151+1</f>
+        <f t="shared" ref="A152:A240" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -22050,11 +22525,11 @@
         <v>17</v>
       </c>
       <c r="M203" s="7">
-        <f t="shared" ref="M203:M236" si="380">B203-C203</f>
+        <f t="shared" ref="M203:M240" si="380">B203-C203</f>
         <v>730923</v>
       </c>
       <c r="N203" s="4">
-        <f t="shared" ref="N203:N236" si="381">C203/B203</f>
+        <f t="shared" ref="N203:N240" si="381">C203/B203</f>
         <v>0.11270554987702819</v>
       </c>
       <c r="Q203">
@@ -24961,7 +25436,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="225" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A225" s="14">
         <f t="shared" si="49"/>
         <v>44131</v>
@@ -25097,7 +25572,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="226" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A226" s="14">
         <f t="shared" si="49"/>
         <v>44132</v>
@@ -25233,7 +25708,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="227" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A227" s="14">
         <f t="shared" si="49"/>
         <v>44133</v>
@@ -25369,7 +25844,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="228" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A228" s="14">
         <f t="shared" si="49"/>
         <v>44134</v>
@@ -25518,7 +25993,7 @@
         <v>0.21674633261908685</v>
       </c>
     </row>
-    <row r="229" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A229" s="14">
         <f t="shared" si="49"/>
         <v>44135</v>
@@ -25654,7 +26129,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="230" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A230" s="14">
         <f t="shared" si="49"/>
         <v>44136</v>
@@ -25781,7 +26256,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="231" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A231" s="14">
         <f t="shared" si="49"/>
         <v>44137</v>
@@ -25926,11 +26401,11 @@
         <v>1085</v>
       </c>
       <c r="AX231">
-        <f t="shared" ref="AX231:AX236" si="684">AW231/AU231</f>
+        <f t="shared" ref="AX231:AX240" si="684">AW231/AU231</f>
         <v>0.21274509803921568</v>
       </c>
     </row>
-    <row r="232" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A232" s="14">
         <f t="shared" si="49"/>
         <v>44138</v>
@@ -26070,7 +26545,7 @@
         <v>0.25523135867963453</v>
       </c>
     </row>
-    <row r="233" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A233" s="14">
         <f t="shared" si="49"/>
         <v>44139</v>
@@ -26219,7 +26694,7 @@
         <v>0.23459347488348006</v>
       </c>
     </row>
-    <row r="234" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A234" s="14">
         <f t="shared" si="49"/>
         <v>44140</v>
@@ -26368,7 +26843,7 @@
         <v>0.245418048525048</v>
       </c>
     </row>
-    <row r="235" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A235" s="14">
         <f t="shared" si="49"/>
         <v>44141</v>
@@ -26486,6 +26961,23 @@
         <f t="shared" ref="AK235" si="732">-(J235-J234)+L235</f>
         <v>32</v>
       </c>
+      <c r="AL235">
+        <v>12</v>
+      </c>
+      <c r="AM235">
+        <v>12</v>
+      </c>
+      <c r="AN235">
+        <v>73</v>
+      </c>
+      <c r="AS235">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A235)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A235)</f>
+        <v>12</v>
+      </c>
+      <c r="AT235">
+        <f t="shared" ref="AT235:AT237" si="733">AH235-AS235</f>
+        <v>383</v>
+      </c>
       <c r="AU235">
         <v>12336</v>
       </c>
@@ -26518,19 +27010,31 @@
         <v>34</v>
       </c>
       <c r="BE235">
-        <f>AZ235/AY235</f>
+        <f t="shared" ref="BE235:BE240" si="734">AZ235/AY235</f>
         <v>0.61627906976744184</v>
       </c>
       <c r="BF235">
-        <f>BB235/BA235</f>
+        <f t="shared" ref="BF235:BG237" si="735">BB235/BA235</f>
         <v>0.32577319587628867</v>
       </c>
       <c r="BG235">
-        <f>BC235/BB235</f>
+        <f t="shared" si="735"/>
         <v>0.310126582278481</v>
       </c>
-    </row>
-    <row r="236" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="BH235">
+        <f>SUM(AZ229:AZ235)/SUM(AY229:AY235)</f>
+        <v>0.61627906976744184</v>
+      </c>
+      <c r="BI235">
+        <f>SUM(BB229:BB235)/SUM(BA229:BA235)</f>
+        <v>0.32577319587628867</v>
+      </c>
+      <c r="BJ235">
+        <f>SUM(BD229:BD235)/SUM(BC229:BC235)</f>
+        <v>0.69387755102040816</v>
+      </c>
+    </row>
+    <row r="236" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A236" s="14">
         <f t="shared" si="49"/>
         <v>44142</v>
@@ -26548,7 +27052,7 @@
         <v>1828</v>
       </c>
       <c r="F236" s="9">
-        <v>901</v>
+        <v>949</v>
       </c>
       <c r="H236">
         <v>194</v>
@@ -26574,35 +27078,35 @@
         <v>0.14510889088789461</v>
       </c>
       <c r="Q236">
-        <f t="shared" ref="Q236" si="733">C236-C235</f>
+        <f t="shared" ref="Q236" si="736">C236-C235</f>
         <v>4386</v>
       </c>
       <c r="R236">
-        <f t="shared" ref="R236" si="734">M236-M235</f>
+        <f t="shared" ref="R236" si="737">M236-M235</f>
         <v>4587</v>
       </c>
       <c r="S236" s="8">
-        <f t="shared" ref="S236" si="735">Q236/U236</f>
+        <f t="shared" ref="S236" si="738">Q236/U236</f>
         <v>0.48879973253092612</v>
       </c>
       <c r="T236" s="8">
-        <f t="shared" ref="T236" si="736">SUM(Q230:Q236)/SUM(U230:U236)</f>
+        <f t="shared" ref="T236" si="739">SUM(Q230:Q236)/SUM(U230:U236)</f>
         <v>0.41914564493098527</v>
       </c>
       <c r="U236">
-        <f t="shared" ref="U236" si="737">B236-B235</f>
+        <f t="shared" ref="U236" si="740">B236-B235</f>
         <v>8973</v>
       </c>
       <c r="V236">
-        <f t="shared" ref="V236" si="738">C236-D236-E236</f>
+        <f t="shared" ref="V236" si="741">C236-D236-E236</f>
         <v>46075</v>
       </c>
       <c r="W236" s="3">
-        <f t="shared" ref="W236" si="739">F236/V236</f>
-        <v>1.9555073250135648E-2</v>
+        <f t="shared" ref="W236" si="742">F236/V236</f>
+        <v>2.0596852957135106E-2</v>
       </c>
       <c r="X236">
-        <f t="shared" ref="X236" si="740">E236-E235</f>
+        <f t="shared" ref="X236" si="743">E236-E235</f>
         <v>14</v>
       </c>
       <c r="Y236">
@@ -26633,20 +27137,28 @@
         <v>107</v>
       </c>
       <c r="AH236">
-        <f t="shared" ref="AH236" si="741">Y236-AB236-AE236</f>
+        <f t="shared" ref="AH236" si="744">Y236-AB236-AE236</f>
         <v>444</v>
       </c>
       <c r="AI236">
-        <f t="shared" ref="AI236" si="742">Z236-AC236-AF236</f>
+        <f t="shared" ref="AI236" si="745">Z236-AC236-AF236</f>
         <v>131</v>
       </c>
       <c r="AJ236">
-        <f t="shared" ref="AJ236" si="743">AA236-AD236-AG236</f>
+        <f t="shared" ref="AJ236" si="746">AA236-AD236-AG236</f>
         <v>2396</v>
       </c>
       <c r="AK236">
-        <f t="shared" ref="AK236" si="744">-(J236-J235)+L236</f>
+        <f t="shared" ref="AK236" si="747">-(J236-J235)+L236</f>
         <v>84</v>
+      </c>
+      <c r="AS236">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A236)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A236)</f>
+        <v>12</v>
+      </c>
+      <c r="AT236">
+        <f t="shared" si="733"/>
+        <v>432</v>
       </c>
       <c r="AU236">
         <v>6479</v>
@@ -26680,16 +27192,774 @@
         <v>14</v>
       </c>
       <c r="BE236">
-        <f>AZ236/AY236</f>
+        <f t="shared" si="734"/>
         <v>0.23728813559322035</v>
       </c>
       <c r="BF236">
-        <f>BB236/BA236</f>
+        <f t="shared" si="735"/>
         <v>0.2813852813852814</v>
       </c>
       <c r="BG236">
-        <f>BC236/BB236</f>
+        <f t="shared" si="735"/>
         <v>0.44615384615384618</v>
+      </c>
+      <c r="BH236">
+        <f t="shared" ref="BH236:BH239" si="748">SUM(AZ230:AZ236)/SUM(AY230:AY236)</f>
+        <v>0.46206896551724136</v>
+      </c>
+      <c r="BI236">
+        <f t="shared" ref="BI236:BI239" si="749">SUM(BB230:BB236)/SUM(BA230:BA236)</f>
+        <v>0.31145251396648044</v>
+      </c>
+      <c r="BJ236">
+        <f t="shared" ref="BJ236:BJ239" si="750">SUM(BD230:BD236)/SUM(BC230:BC236)</f>
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="237" spans="1:62" x14ac:dyDescent="0.35">
+      <c r="A237" s="14">
+        <f t="shared" si="49"/>
+        <v>44143</v>
+      </c>
+      <c r="B237">
+        <v>1029894</v>
+      </c>
+      <c r="C237">
+        <v>152117</v>
+      </c>
+      <c r="D237">
+        <v>100708</v>
+      </c>
+      <c r="E237" s="9">
+        <v>1842</v>
+      </c>
+      <c r="F237" s="9">
+        <v>992</v>
+      </c>
+      <c r="H237">
+        <v>190</v>
+      </c>
+      <c r="I237">
+        <v>181</v>
+      </c>
+      <c r="J237">
+        <v>269</v>
+      </c>
+      <c r="K237">
+        <v>39</v>
+      </c>
+      <c r="L237">
+        <v>59</v>
+      </c>
+      <c r="M237" s="7">
+        <f t="shared" si="380"/>
+        <v>877777</v>
+      </c>
+      <c r="N237" s="4">
+        <f t="shared" si="381"/>
+        <v>0.14770160812666158</v>
+      </c>
+      <c r="Q237">
+        <f t="shared" ref="Q237" si="751">C237-C236</f>
+        <v>3871</v>
+      </c>
+      <c r="R237">
+        <f t="shared" ref="R237" si="752">M237-M236</f>
+        <v>4404</v>
+      </c>
+      <c r="S237" s="8">
+        <f t="shared" ref="S237" si="753">Q237/U237</f>
+        <v>0.46779456193353475</v>
+      </c>
+      <c r="T237" s="8">
+        <f t="shared" ref="T237" si="754">SUM(Q231:Q237)/SUM(U231:U237)</f>
+        <v>0.44082113545140483</v>
+      </c>
+      <c r="U237">
+        <f t="shared" ref="U237" si="755">B237-B236</f>
+        <v>8275</v>
+      </c>
+      <c r="V237">
+        <f t="shared" ref="V237" si="756">C237-D237-E237</f>
+        <v>49567</v>
+      </c>
+      <c r="W237" s="3">
+        <f t="shared" ref="W237" si="757">F237/V237</f>
+        <v>2.0013315310589707E-2</v>
+      </c>
+      <c r="X237">
+        <f t="shared" ref="X237" si="758">E237-E236</f>
+        <v>14</v>
+      </c>
+      <c r="Y237">
+        <v>1053</v>
+      </c>
+      <c r="Z237">
+        <v>554</v>
+      </c>
+      <c r="AA237">
+        <v>7528</v>
+      </c>
+      <c r="AB237">
+        <v>566</v>
+      </c>
+      <c r="AC237">
+        <v>405</v>
+      </c>
+      <c r="AD237">
+        <v>4824</v>
+      </c>
+      <c r="AE237">
+        <v>11</v>
+      </c>
+      <c r="AF237">
+        <v>3</v>
+      </c>
+      <c r="AG237">
+        <v>108</v>
+      </c>
+      <c r="AH237">
+        <f t="shared" ref="AH237" si="759">Y237-AB237-AE237</f>
+        <v>476</v>
+      </c>
+      <c r="AI237">
+        <f t="shared" ref="AI237" si="760">Z237-AC237-AF237</f>
+        <v>146</v>
+      </c>
+      <c r="AJ237">
+        <f t="shared" ref="AJ237" si="761">AA237-AD237-AG237</f>
+        <v>2596</v>
+      </c>
+      <c r="AK237">
+        <f t="shared" ref="AK237" si="762">-(J237-J236)+L237</f>
+        <v>-6</v>
+      </c>
+      <c r="AS237">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A237)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A237)</f>
+        <v>29</v>
+      </c>
+      <c r="AT237">
+        <f t="shared" si="733"/>
+        <v>447</v>
+      </c>
+      <c r="AU237">
+        <v>7634</v>
+      </c>
+      <c r="AV237">
+        <v>5438</v>
+      </c>
+      <c r="AW237">
+        <v>2162</v>
+      </c>
+      <c r="AX237">
+        <f t="shared" si="684"/>
+        <v>0.28320670683783078</v>
+      </c>
+      <c r="AY237">
+        <v>69</v>
+      </c>
+      <c r="AZ237">
+        <v>20</v>
+      </c>
+      <c r="BA237">
+        <v>362</v>
+      </c>
+      <c r="BB237">
+        <v>109</v>
+      </c>
+      <c r="BC237">
+        <v>34</v>
+      </c>
+      <c r="BD237">
+        <v>9</v>
+      </c>
+      <c r="BE237">
+        <f t="shared" si="734"/>
+        <v>0.28985507246376813</v>
+      </c>
+      <c r="BF237">
+        <f t="shared" si="735"/>
+        <v>0.30110497237569062</v>
+      </c>
+      <c r="BG237">
+        <f t="shared" si="735"/>
+        <v>0.31192660550458717</v>
+      </c>
+      <c r="BH237">
+        <f t="shared" si="748"/>
+        <v>0.40654205607476634</v>
+      </c>
+      <c r="BI237">
+        <f t="shared" si="749"/>
+        <v>0.3079777365491651</v>
+      </c>
+      <c r="BJ237">
+        <f t="shared" si="750"/>
+        <v>0.5089285714285714</v>
+      </c>
+    </row>
+    <row r="238" spans="1:62" x14ac:dyDescent="0.35">
+      <c r="A238" s="14">
+        <f t="shared" si="49"/>
+        <v>44144</v>
+      </c>
+      <c r="B238">
+        <v>1040914</v>
+      </c>
+      <c r="C238">
+        <v>156816</v>
+      </c>
+      <c r="D238">
+        <v>101036</v>
+      </c>
+      <c r="E238" s="9">
+        <v>1845</v>
+      </c>
+      <c r="F238" s="9">
+        <v>1034</v>
+      </c>
+      <c r="H238">
+        <v>184</v>
+      </c>
+      <c r="I238">
+        <v>152</v>
+      </c>
+      <c r="J238">
+        <v>276</v>
+      </c>
+      <c r="K238">
+        <v>33</v>
+      </c>
+      <c r="L238">
+        <v>44</v>
+      </c>
+      <c r="M238" s="7">
+        <f t="shared" si="380"/>
+        <v>884098</v>
+      </c>
+      <c r="N238" s="4">
+        <f t="shared" si="381"/>
+        <v>0.15065221526466163</v>
+      </c>
+      <c r="Q238">
+        <f t="shared" ref="Q238" si="763">C238-C237</f>
+        <v>4699</v>
+      </c>
+      <c r="R238">
+        <f t="shared" ref="R238" si="764">M238-M237</f>
+        <v>6321</v>
+      </c>
+      <c r="S238" s="8">
+        <f t="shared" ref="S238" si="765">Q238/U238</f>
+        <v>0.4264065335753176</v>
+      </c>
+      <c r="T238" s="8">
+        <f t="shared" ref="T238" si="766">SUM(Q232:Q238)/SUM(U232:U238)</f>
+        <v>0.44513645906228133</v>
+      </c>
+      <c r="U238">
+        <f t="shared" ref="U238" si="767">B238-B237</f>
+        <v>11020</v>
+      </c>
+      <c r="V238">
+        <f t="shared" ref="V238" si="768">C238-D238-E238</f>
+        <v>53935</v>
+      </c>
+      <c r="W238" s="3">
+        <f t="shared" ref="W238" si="769">F238/V238</f>
+        <v>1.9171224622230462E-2</v>
+      </c>
+      <c r="X238">
+        <f t="shared" ref="X238" si="770">E238-E237</f>
+        <v>3</v>
+      </c>
+      <c r="Y238">
+        <v>1129</v>
+      </c>
+      <c r="Z238">
+        <v>596</v>
+      </c>
+      <c r="AA238">
+        <v>7750</v>
+      </c>
+      <c r="AB238">
+        <v>568</v>
+      </c>
+      <c r="AC238">
+        <v>430</v>
+      </c>
+      <c r="AD238">
+        <v>4834</v>
+      </c>
+      <c r="AE238">
+        <v>11</v>
+      </c>
+      <c r="AF238">
+        <v>3</v>
+      </c>
+      <c r="AG238">
+        <v>108</v>
+      </c>
+      <c r="AH238">
+        <f t="shared" ref="AH238" si="771">Y238-AB238-AE238</f>
+        <v>550</v>
+      </c>
+      <c r="AI238">
+        <f t="shared" ref="AI238" si="772">Z238-AC238-AF238</f>
+        <v>163</v>
+      </c>
+      <c r="AJ238">
+        <f t="shared" ref="AJ238" si="773">AA238-AD238-AG238</f>
+        <v>2808</v>
+      </c>
+      <c r="AK238">
+        <f t="shared" ref="AK238" si="774">-(J238-J237)+L238</f>
+        <v>37</v>
+      </c>
+      <c r="AL238">
+        <v>20</v>
+      </c>
+      <c r="AM238">
+        <v>20</v>
+      </c>
+      <c r="AN238">
+        <v>89</v>
+      </c>
+      <c r="AS238">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A238)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A238)</f>
+        <v>29</v>
+      </c>
+      <c r="AT238">
+        <f t="shared" ref="AT238" si="775">AH238-AS238</f>
+        <v>521</v>
+      </c>
+      <c r="AU238">
+        <v>10700</v>
+      </c>
+      <c r="AV238">
+        <v>7694</v>
+      </c>
+      <c r="AW238">
+        <v>2952</v>
+      </c>
+      <c r="AX238">
+        <f t="shared" si="684"/>
+        <v>0.2758878504672897</v>
+      </c>
+      <c r="AY238">
+        <v>113</v>
+      </c>
+      <c r="AZ238">
+        <v>37</v>
+      </c>
+      <c r="BA238">
+        <v>375</v>
+      </c>
+      <c r="BB238">
+        <v>100</v>
+      </c>
+      <c r="BC238">
+        <v>41</v>
+      </c>
+      <c r="BD238">
+        <v>17</v>
+      </c>
+      <c r="BE238">
+        <f t="shared" si="734"/>
+        <v>0.32743362831858408</v>
+      </c>
+      <c r="BF238">
+        <f t="shared" ref="BF238:BF240" si="776">BB238/BA238</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="BG238">
+        <f t="shared" ref="BG238:BG240" si="777">BC238/BB238</f>
+        <v>0.41</v>
+      </c>
+      <c r="BH238">
+        <f t="shared" si="748"/>
+        <v>0.37920489296636084</v>
+      </c>
+      <c r="BI238">
+        <f t="shared" si="749"/>
+        <v>0.29731589814177561</v>
+      </c>
+      <c r="BJ238">
+        <f t="shared" si="750"/>
+        <v>0.48366013071895425</v>
+      </c>
+    </row>
+    <row r="239" spans="1:62" x14ac:dyDescent="0.35">
+      <c r="A239" s="14">
+        <f t="shared" si="49"/>
+        <v>44145</v>
+      </c>
+      <c r="B239">
+        <v>1049802</v>
+      </c>
+      <c r="C239">
+        <v>161248</v>
+      </c>
+      <c r="D239">
+        <v>102887</v>
+      </c>
+      <c r="E239" s="9">
+        <v>1872</v>
+      </c>
+      <c r="F239" s="9">
+        <v>1135</v>
+      </c>
+      <c r="H239">
+        <v>196</v>
+      </c>
+      <c r="I239">
+        <v>166</v>
+      </c>
+      <c r="J239">
+        <v>297</v>
+      </c>
+      <c r="K239">
+        <v>32</v>
+      </c>
+      <c r="L239">
+        <v>33</v>
+      </c>
+      <c r="M239" s="7">
+        <f t="shared" si="380"/>
+        <v>888554</v>
+      </c>
+      <c r="N239" s="4">
+        <f t="shared" si="381"/>
+        <v>0.15359848809585044</v>
+      </c>
+      <c r="Q239">
+        <f t="shared" ref="Q239" si="778">C239-C238</f>
+        <v>4432</v>
+      </c>
+      <c r="R239">
+        <f t="shared" ref="R239" si="779">M239-M238</f>
+        <v>4456</v>
+      </c>
+      <c r="S239" s="8">
+        <f t="shared" ref="S239" si="780">Q239/U239</f>
+        <v>0.49864986498649866</v>
+      </c>
+      <c r="T239" s="8">
+        <f t="shared" ref="T239" si="781">SUM(Q233:Q239)/SUM(U233:U239)</f>
+        <v>0.455312978329171</v>
+      </c>
+      <c r="U239">
+        <f t="shared" ref="U239" si="782">B239-B238</f>
+        <v>8888</v>
+      </c>
+      <c r="V239">
+        <f t="shared" ref="V239" si="783">C239-D239-E239</f>
+        <v>56489</v>
+      </c>
+      <c r="W239" s="3">
+        <f t="shared" ref="W239" si="784">F239/V239</f>
+        <v>2.0092407371346634E-2</v>
+      </c>
+      <c r="X239">
+        <f t="shared" ref="X239" si="785">E239-E238</f>
+        <v>27</v>
+      </c>
+      <c r="Y239">
+        <v>1171</v>
+      </c>
+      <c r="Z239">
+        <v>620</v>
+      </c>
+      <c r="AA239">
+        <v>7902</v>
+      </c>
+      <c r="AB239">
+        <v>584</v>
+      </c>
+      <c r="AC239">
+        <v>431</v>
+      </c>
+      <c r="AD239">
+        <v>4896</v>
+      </c>
+      <c r="AE239">
+        <v>12</v>
+      </c>
+      <c r="AF239">
+        <v>3</v>
+      </c>
+      <c r="AG239">
+        <v>110</v>
+      </c>
+      <c r="AH239">
+        <f t="shared" ref="AH239" si="786">Y239-AB239-AE239</f>
+        <v>575</v>
+      </c>
+      <c r="AI239">
+        <f t="shared" ref="AI239" si="787">Z239-AC239-AF239</f>
+        <v>186</v>
+      </c>
+      <c r="AJ239">
+        <f t="shared" ref="AJ239" si="788">AA239-AD239-AG239</f>
+        <v>2896</v>
+      </c>
+      <c r="AK239">
+        <f t="shared" ref="AK239" si="789">-(J239-J238)+L239</f>
+        <v>12</v>
+      </c>
+      <c r="AL239">
+        <v>26</v>
+      </c>
+      <c r="AM239">
+        <v>26</v>
+      </c>
+      <c r="AN239">
+        <v>134</v>
+      </c>
+      <c r="AS239">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A239)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A239)</f>
+        <v>28</v>
+      </c>
+      <c r="AT239">
+        <f t="shared" ref="AT239:AT240" si="790">AH239-AS239</f>
+        <v>547</v>
+      </c>
+      <c r="AU239">
+        <v>9535</v>
+      </c>
+      <c r="AV239">
+        <v>6693</v>
+      </c>
+      <c r="AW239">
+        <v>2782</v>
+      </c>
+      <c r="AX239">
+        <f t="shared" si="684"/>
+        <v>0.29176717357105403</v>
+      </c>
+      <c r="AY239">
+        <v>86</v>
+      </c>
+      <c r="AZ239">
+        <v>37</v>
+      </c>
+      <c r="BA239">
+        <v>402</v>
+      </c>
+      <c r="BB239">
+        <v>129</v>
+      </c>
+      <c r="BC239">
+        <v>58</v>
+      </c>
+      <c r="BD239">
+        <v>21</v>
+      </c>
+      <c r="BE239">
+        <f t="shared" si="734"/>
+        <v>0.43023255813953487</v>
+      </c>
+      <c r="BF239">
+        <f t="shared" si="776"/>
+        <v>0.32089552238805968</v>
+      </c>
+      <c r="BG239">
+        <f t="shared" si="777"/>
+        <v>0.44961240310077522</v>
+      </c>
+      <c r="BH239">
+        <f t="shared" si="748"/>
+        <v>0.38983050847457629</v>
+      </c>
+      <c r="BI239">
+        <f t="shared" si="749"/>
+        <v>0.30242587601078169</v>
+      </c>
+      <c r="BJ239">
+        <f t="shared" si="750"/>
+        <v>0.45023696682464454</v>
+      </c>
+    </row>
+    <row r="240" spans="1:62" x14ac:dyDescent="0.35">
+      <c r="A240" s="14">
+        <f t="shared" si="49"/>
+        <v>44146</v>
+      </c>
+      <c r="B240">
+        <v>1059705</v>
+      </c>
+      <c r="C240">
+        <v>166021</v>
+      </c>
+      <c r="D240">
+        <v>104213</v>
+      </c>
+      <c r="E240" s="9">
+        <v>1898</v>
+      </c>
+      <c r="F240" s="9">
+        <v>1190</v>
+      </c>
+      <c r="H240">
+        <v>210</v>
+      </c>
+      <c r="I240">
+        <v>230</v>
+      </c>
+      <c r="J240">
+        <v>311</v>
+      </c>
+      <c r="K240">
+        <v>40</v>
+      </c>
+      <c r="L240">
+        <v>55</v>
+      </c>
+      <c r="M240" s="7">
+        <f t="shared" si="380"/>
+        <v>893684</v>
+      </c>
+      <c r="N240" s="4">
+        <f t="shared" si="381"/>
+        <v>0.15666718567903332</v>
+      </c>
+      <c r="Q240">
+        <f t="shared" ref="Q240" si="791">C240-C239</f>
+        <v>4773</v>
+      </c>
+      <c r="R240">
+        <f t="shared" ref="R240" si="792">M240-M239</f>
+        <v>5130</v>
+      </c>
+      <c r="S240" s="8">
+        <f t="shared" ref="S240" si="793">Q240/U240</f>
+        <v>0.48197515904271432</v>
+      </c>
+      <c r="T240" s="8">
+        <f t="shared" ref="T240" si="794">SUM(Q234:Q240)/SUM(U234:U240)</f>
+        <v>0.46117769671704012</v>
+      </c>
+      <c r="U240">
+        <f t="shared" ref="U240" si="795">B240-B239</f>
+        <v>9903</v>
+      </c>
+      <c r="V240">
+        <f t="shared" ref="V240" si="796">C240-D240-E240</f>
+        <v>59910</v>
+      </c>
+      <c r="W240" s="3">
+        <f t="shared" ref="W240" si="797">F240/V240</f>
+        <v>1.986312802537139E-2</v>
+      </c>
+      <c r="X240">
+        <f t="shared" ref="X240" si="798">E240-E239</f>
+        <v>26</v>
+      </c>
+      <c r="Y240">
+        <v>1249</v>
+      </c>
+      <c r="Z240">
+        <v>654</v>
+      </c>
+      <c r="AA240">
+        <v>8210</v>
+      </c>
+      <c r="AB240">
+        <v>589</v>
+      </c>
+      <c r="AC240">
+        <v>432</v>
+      </c>
+      <c r="AD240">
+        <v>4944</v>
+      </c>
+      <c r="AE240">
+        <v>12</v>
+      </c>
+      <c r="AF240">
+        <v>3</v>
+      </c>
+      <c r="AG240">
+        <v>110</v>
+      </c>
+      <c r="AH240">
+        <f t="shared" ref="AH240" si="799">Y240-AB240-AE240</f>
+        <v>648</v>
+      </c>
+      <c r="AI240">
+        <f t="shared" ref="AI240" si="800">Z240-AC240-AF240</f>
+        <v>219</v>
+      </c>
+      <c r="AJ240">
+        <f t="shared" ref="AJ240" si="801">AA240-AD240-AG240</f>
+        <v>3156</v>
+      </c>
+      <c r="AK240">
+        <f t="shared" ref="AK240" si="802">-(J240-J239)+L240</f>
+        <v>41</v>
+      </c>
+      <c r="AS240">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A240)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A240)</f>
+        <v>28</v>
+      </c>
+      <c r="AT240">
+        <f t="shared" si="790"/>
+        <v>620</v>
+      </c>
+      <c r="AU240">
+        <v>7551</v>
+      </c>
+      <c r="AV240">
+        <v>5319</v>
+      </c>
+      <c r="AW240">
+        <v>2213</v>
+      </c>
+      <c r="AX240">
+        <f t="shared" si="684"/>
+        <v>0.29307376506422989</v>
+      </c>
+      <c r="AY240">
+        <v>99</v>
+      </c>
+      <c r="AZ240">
+        <v>38</v>
+      </c>
+      <c r="BA240">
+        <v>403</v>
+      </c>
+      <c r="BB240">
+        <v>137</v>
+      </c>
+      <c r="BC240">
+        <v>62</v>
+      </c>
+      <c r="BD240">
+        <v>17</v>
+      </c>
+      <c r="BE240">
+        <f t="shared" si="734"/>
+        <v>0.38383838383838381</v>
+      </c>
+      <c r="BF240">
+        <f t="shared" si="776"/>
+        <v>0.33995037220843671</v>
+      </c>
+      <c r="BG240">
+        <f t="shared" si="777"/>
+        <v>0.45255474452554745</v>
+      </c>
+      <c r="BH240">
+        <f>SUM(AZ234:AZ240)/SUM(AY234:AY240)</f>
+        <v>0.388671875</v>
+      </c>
+      <c r="BI240">
+        <f>SUM(BB234:BB240)/SUM(BA234:BA240)</f>
+        <v>0.30912311780336582</v>
+      </c>
+      <c r="BJ240">
+        <f>SUM(BD234:BD240)/SUM(BC234:BC240)</f>
+        <v>0.41025641025641024</v>
       </c>
     </row>
   </sheetData>
@@ -26717,7 +27987,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>Q228:Q236</xm:sqref>
+          <xm:sqref>Q228:Q240</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="22" operator="equal" id="{E5309D98-D036-43E8-AE0C-F104DC358831}">
@@ -26733,7 +28003,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>X228:X236</xm:sqref>
+          <xm:sqref>X228:X240</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5269D26C-9211-46B2-914A-48345DF37DEF}">
@@ -26749,7 +28019,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F228:F236</xm:sqref>
+          <xm:sqref>F228:F240</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="20" operator="equal" id="{24843253-84F3-44AF-847D-C74D74C4F05A}">
@@ -26781,7 +28051,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J228:J236</xm:sqref>
+          <xm:sqref>J228:J240</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="18" operator="equal" id="{6F562D16-6A18-4369-973E-028D1B5F7CFF}">
@@ -26797,7 +28067,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K228:K236</xm:sqref>
+          <xm:sqref>K228:K240</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{735BDD8A-2F04-47F3-825F-41FCBFA8ADD5}">
@@ -26861,7 +28131,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AH228:AH236</xm:sqref>
+          <xm:sqref>AH228:AH240</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="12" operator="equal" id="{A5D8B9CD-D171-4616-8063-8E2F3DB2617E}">
@@ -26877,7 +28147,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AI228:AI236</xm:sqref>
+          <xm:sqref>AI228:AI240</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="11" operator="equal" id="{525B83D9-8CB5-4E31-BB6E-B59F9B6585E1}">
@@ -27037,7 +28307,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H1:H1048576 I229:I236</xm:sqref>
+          <xm:sqref>H1:H1048576 I229:I240</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{8F0BE21B-C8AC-4EAD-AE58-244C59D5B0FC}">
@@ -27053,7 +28323,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>V229:V236</xm:sqref>
+          <xm:sqref>V229:V240</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -27063,11 +28333,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5E6789-177F-4707-8258-EFFA27DED671}">
-  <dimension ref="A1:H174"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G162" sqref="G162:H172"/>
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27085,10 +28355,10 @@
       <c r="B1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>61</v>
       </c>
       <c r="G1" s="11" t="s">
@@ -29269,16 +30539,16 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104">
+      <c r="A104" s="11">
         <v>1240207</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="12">
         <v>44083</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="12">
         <v>44173</v>
       </c>
       <c r="G104" s="1">
@@ -29290,17 +30560,17 @@
         <v>44111</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105">
+    <row r="105" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A105" s="16">
         <v>1241861</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="12">
         <v>44083</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="12">
         <v>44173</v>
       </c>
       <c r="G105" s="1">
@@ -29313,16 +30583,16 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A106">
+      <c r="A106" s="11">
         <v>1244453</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="12">
         <v>44085</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="12">
         <v>44175</v>
       </c>
       <c r="G106" s="1">
@@ -29335,16 +30605,16 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A107">
+      <c r="A107" s="11">
         <v>1244727</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="12">
         <v>44088</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="12">
         <v>44178</v>
       </c>
       <c r="G107" s="1">
@@ -29357,16 +30627,16 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A108">
+      <c r="A108" s="11">
         <v>1244442</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="12">
         <v>44088</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="12">
         <v>44178</v>
       </c>
       <c r="G108" s="1">
@@ -29379,16 +30649,16 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A109">
+      <c r="A109" s="11">
         <v>1242029</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="12">
         <v>44088</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109" s="12">
         <v>44178</v>
       </c>
       <c r="G109" s="1">
@@ -29400,17 +30670,17 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A110">
+    <row r="110" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A110" s="16">
         <v>1227238</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="12">
         <v>44088</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="12">
         <v>44178</v>
       </c>
       <c r="G110" s="1">
@@ -29423,16 +30693,16 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A111">
+      <c r="A111" s="11">
         <v>1243966</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="12">
         <v>44088</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="12">
         <v>44178</v>
       </c>
       <c r="G111" s="1">
@@ -29445,16 +30715,16 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112">
+      <c r="A112" s="11">
         <v>1244603</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="12">
         <v>44088</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="12">
         <v>44178</v>
       </c>
       <c r="G112" s="1">
@@ -29467,16 +30737,16 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A113">
+      <c r="A113" s="11">
         <v>1244705</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="12">
         <v>44088</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="12">
         <v>44178</v>
       </c>
       <c r="G113" s="1">
@@ -29489,16 +30759,16 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A114">
+      <c r="A114" s="11">
         <v>1240803</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="12">
         <v>44088</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114" s="12">
         <v>44178</v>
       </c>
       <c r="G114" s="1">
@@ -29511,16 +30781,16 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A115">
+      <c r="A115" s="11">
         <v>1235180</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="12">
         <v>44089</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="12">
         <v>44179</v>
       </c>
       <c r="G115" s="1">
@@ -29533,16 +30803,16 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A116">
+      <c r="A116" s="11">
         <v>1233667</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" s="12">
         <v>44089</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116" s="12">
         <v>44179</v>
       </c>
       <c r="G116" s="1">
@@ -29555,16 +30825,16 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A117">
+      <c r="A117" s="11">
         <v>1233385</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="12">
         <v>44089</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117" s="12">
         <v>44179</v>
       </c>
       <c r="G117" s="1">
@@ -29577,16 +30847,16 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A118">
+      <c r="A118" s="11">
         <v>1233380</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="12">
         <v>44088</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118" s="12">
         <v>44178</v>
       </c>
       <c r="G118" s="1">
@@ -29599,16 +30869,16 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A119">
+      <c r="A119" s="11">
         <v>1234200</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="12">
         <v>44089</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119" s="12">
         <v>44178</v>
       </c>
       <c r="G119" s="1">
@@ -29621,16 +30891,16 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A120">
+      <c r="A120" s="11">
         <v>1236149</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" s="12">
         <v>44089</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120" s="12">
         <v>44178</v>
       </c>
       <c r="G120" s="1">
@@ -29643,16 +30913,16 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A121">
+      <c r="A121" s="11">
         <v>1234979</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" s="12">
         <v>44088</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121" s="12">
         <v>44178</v>
       </c>
       <c r="G121" s="1">
@@ -29665,16 +30935,16 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A122">
+      <c r="A122" s="11">
         <v>1234055</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="12">
         <v>44088</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122" s="12">
         <v>44178</v>
       </c>
       <c r="G122" s="1">
@@ -29686,17 +30956,17 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123">
+    <row r="123" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A123" s="16">
         <v>1242671</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123" s="12">
         <v>44090</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123" s="12">
         <v>44180</v>
       </c>
       <c r="G123" s="1">
@@ -29708,17 +30978,17 @@
         <v>44118</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124">
+    <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A124" s="16">
         <v>1244546</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124" s="12">
         <v>44090</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124" s="12">
         <v>44180</v>
       </c>
       <c r="G124" s="1">
@@ -29731,16 +31001,16 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125">
+      <c r="A125" s="11">
         <v>1243657</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" s="12">
         <v>44090</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125" s="12">
         <v>44180</v>
       </c>
       <c r="G125" s="1">
@@ -29753,16 +31023,16 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A126">
+      <c r="A126" s="11">
         <v>1244466</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="12">
         <v>44090</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D126" s="12">
         <v>44180</v>
       </c>
       <c r="G126" s="1">
@@ -29774,17 +31044,17 @@
         <v>44118</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127">
+    <row r="127" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A127" s="16">
         <v>1235741</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127" s="12">
         <v>44090</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D127" s="12">
         <v>44180</v>
       </c>
       <c r="G127" s="1">
@@ -29796,17 +31066,17 @@
         <v>44118</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A128">
+    <row r="128" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A128" s="16">
         <v>1238885</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128" s="12">
         <v>44090</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128" s="12">
         <v>44180</v>
       </c>
       <c r="G128" s="1">
@@ -29819,16 +31089,16 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A129">
+      <c r="A129" s="11">
         <v>1233558</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="12">
         <v>44089</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129" s="12">
         <v>44179</v>
       </c>
       <c r="G129" s="1">
@@ -29841,16 +31111,16 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A130">
+      <c r="A130" s="11">
         <v>1235480</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" s="12">
         <v>44089</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130" s="12">
         <v>44179</v>
       </c>
       <c r="G130" s="1">
@@ -29862,17 +31132,17 @@
         <v>44117</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A131">
+    <row r="131" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A131" s="16">
         <v>1243913</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" s="12">
         <v>44091</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131" s="12">
         <v>44181</v>
       </c>
       <c r="G131" s="1">
@@ -29885,16 +31155,16 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A132">
+      <c r="A132" s="11">
         <v>1236635</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" s="12">
         <v>44091</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132" s="12">
         <v>44181</v>
       </c>
       <c r="G132" s="1">
@@ -29907,16 +31177,16 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A133">
+      <c r="A133" s="11">
         <v>1241405</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="12">
         <v>44088</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133" s="12">
         <v>44178</v>
       </c>
       <c r="G133" s="1">
@@ -29929,16 +31199,16 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A134">
+      <c r="A134" s="11">
         <v>1233006</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="12">
         <v>44089</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134" s="12">
         <v>44179</v>
       </c>
       <c r="G134" s="1">
@@ -29951,16 +31221,16 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A135">
+      <c r="A135" s="11">
         <v>1243924</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="12">
         <v>44092</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D135" s="12">
         <v>44182</v>
       </c>
       <c r="G135" s="1">
@@ -29972,17 +31242,17 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A136">
+    <row r="136" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A136" s="16">
         <v>1236755</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" s="12">
         <v>44091</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D136" s="12">
         <v>44181</v>
       </c>
       <c r="G136" s="1">
@@ -29994,17 +31264,17 @@
         <v>44119</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A137">
+    <row r="137" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A137" s="16">
         <v>1235286</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137" s="12">
         <v>44092</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137" s="12">
         <v>44182</v>
       </c>
       <c r="G137" s="1">
@@ -30017,16 +31287,16 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A138">
+      <c r="A138" s="11">
         <v>1239446</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138" s="12">
         <v>44092</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D138" s="12">
         <v>44182</v>
       </c>
       <c r="G138" s="1">
@@ -30039,13 +31309,14 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B139" t="s">
+      <c r="A139" s="11"/>
+      <c r="B139" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139" s="12">
         <v>44095</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D139" s="12">
         <v>44185</v>
       </c>
       <c r="G139" s="1">
@@ -30057,17 +31328,17 @@
         <v>44123</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A140">
+    <row r="140" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A140" s="16">
         <v>1230738</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140" s="12">
         <v>44095</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140" s="12">
         <v>44185</v>
       </c>
       <c r="G140" s="1">
@@ -30080,16 +31351,16 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A141">
+      <c r="A141" s="11">
         <v>129886</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="12">
         <v>44095</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D141" s="12">
         <v>44185</v>
       </c>
       <c r="G141" s="1">
@@ -30102,16 +31373,16 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A142">
+      <c r="A142" s="17">
         <v>1232531</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142" s="12">
         <v>44096</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142" s="12">
         <v>44186</v>
       </c>
       <c r="G142" s="1">
@@ -30124,16 +31395,16 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A143">
+      <c r="A143" s="11">
         <v>983622</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143" s="18">
         <v>44102</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143" s="19">
         <v>44192</v>
       </c>
       <c r="G143" s="1">
@@ -30146,16 +31417,16 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A144">
+      <c r="A144" s="11">
         <v>1227911</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144" s="12">
         <v>44103</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144" s="12">
         <v>44193</v>
       </c>
       <c r="G144" s="1">
@@ -30168,13 +31439,14 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B145" t="s">
+      <c r="A145" s="11"/>
+      <c r="B145" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145" s="12">
         <v>44026</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145" s="12">
         <v>44116</v>
       </c>
       <c r="G145" s="1">
@@ -30191,7 +31463,7 @@
         <v>1229446</v>
       </c>
       <c r="B146" t="s">
-        <v>209</v>
+        <v>358</v>
       </c>
       <c r="C146" s="1">
         <v>44110</v>
@@ -30213,7 +31485,7 @@
         <v>1222805</v>
       </c>
       <c r="B147" t="s">
-        <v>210</v>
+        <v>359</v>
       </c>
       <c r="C147" s="1">
         <v>44111</v>
@@ -30235,7 +31507,7 @@
         <v>1222082</v>
       </c>
       <c r="B148" t="s">
-        <v>211</v>
+        <v>360</v>
       </c>
       <c r="C148" s="1">
         <v>44112</v>
@@ -30257,7 +31529,7 @@
         <v>1223479</v>
       </c>
       <c r="B149" t="s">
-        <v>212</v>
+        <v>361</v>
       </c>
       <c r="C149" s="1">
         <v>44112</v>
@@ -30279,7 +31551,7 @@
         <v>1102304</v>
       </c>
       <c r="B150" t="s">
-        <v>213</v>
+        <v>362</v>
       </c>
       <c r="C150" s="1">
         <v>44112</v>
@@ -30301,7 +31573,7 @@
         <v>1222081</v>
       </c>
       <c r="B151" t="s">
-        <v>214</v>
+        <v>363</v>
       </c>
       <c r="C151" s="1">
         <v>44113</v>
@@ -30323,7 +31595,7 @@
         <v>1225489</v>
       </c>
       <c r="B152" t="s">
-        <v>215</v>
+        <v>364</v>
       </c>
       <c r="C152" s="1">
         <v>44117</v>
@@ -30345,7 +31617,7 @@
         <v>1221522</v>
       </c>
       <c r="B153" t="s">
-        <v>216</v>
+        <v>365</v>
       </c>
       <c r="C153" s="1">
         <v>44119</v>
@@ -30367,7 +31639,7 @@
         <v>1224379</v>
       </c>
       <c r="B154" t="s">
-        <v>217</v>
+        <v>366</v>
       </c>
       <c r="C154" s="1">
         <v>44120</v>
@@ -30389,7 +31661,7 @@
         <v>1240856</v>
       </c>
       <c r="B155" t="s">
-        <v>218</v>
+        <v>367</v>
       </c>
       <c r="C155" s="1">
         <v>44123</v>
@@ -30411,7 +31683,7 @@
         <v>1244604</v>
       </c>
       <c r="B156" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="C156" s="1">
         <v>44123</v>
@@ -30433,7 +31705,7 @@
         <v>1237157</v>
       </c>
       <c r="B157" t="s">
-        <v>220</v>
+        <v>369</v>
       </c>
       <c r="C157" s="1">
         <v>44124</v>
@@ -30455,7 +31727,7 @@
         <v>1221448</v>
       </c>
       <c r="B158" t="s">
-        <v>221</v>
+        <v>370</v>
       </c>
       <c r="C158" s="1">
         <v>44125</v>
@@ -30477,7 +31749,7 @@
         <v>1223242</v>
       </c>
       <c r="B159" t="s">
-        <v>222</v>
+        <v>371</v>
       </c>
       <c r="C159" s="1">
         <v>44126</v>
@@ -30499,7 +31771,7 @@
         <v>1242700</v>
       </c>
       <c r="B160" t="s">
-        <v>223</v>
+        <v>372</v>
       </c>
       <c r="C160" s="1">
         <v>44130</v>
@@ -30521,7 +31793,7 @@
         <v>1242244</v>
       </c>
       <c r="B161" t="s">
-        <v>224</v>
+        <v>373</v>
       </c>
       <c r="C161" s="1">
         <v>44130</v>
@@ -30543,7 +31815,7 @@
         <v>1243568</v>
       </c>
       <c r="B162" t="s">
-        <v>225</v>
+        <v>374</v>
       </c>
       <c r="C162" s="1">
         <v>44130</v>
@@ -30565,7 +31837,7 @@
         <v>1102524</v>
       </c>
       <c r="B163" t="s">
-        <v>226</v>
+        <v>375</v>
       </c>
       <c r="C163" s="1">
         <v>44127</v>
@@ -30574,11 +31846,11 @@
         <v>44217</v>
       </c>
       <c r="G163" s="1">
-        <f t="shared" ref="G163:G172" si="16">C163+10</f>
+        <f t="shared" ref="G163:G170" si="16">C163+10</f>
         <v>44137</v>
       </c>
       <c r="H163" s="1">
-        <f t="shared" ref="H163:H172" si="17">C163+28</f>
+        <f t="shared" ref="H163:H170" si="17">C163+28</f>
         <v>44155</v>
       </c>
     </row>
@@ -30587,7 +31859,7 @@
         <v>1230152</v>
       </c>
       <c r="B164" t="s">
-        <v>231</v>
+        <v>376</v>
       </c>
       <c r="C164" s="1">
         <v>44133</v>
@@ -30609,7 +31881,7 @@
         <v>1239264</v>
       </c>
       <c r="B165" t="s">
-        <v>232</v>
+        <v>377</v>
       </c>
       <c r="C165" s="1">
         <v>44133</v>
@@ -30631,7 +31903,7 @@
         <v>1233238</v>
       </c>
       <c r="B166" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="C166" s="1">
         <v>44133</v>
@@ -30653,7 +31925,7 @@
         <v>1233722</v>
       </c>
       <c r="B167" t="s">
-        <v>234</v>
+        <v>379</v>
       </c>
       <c r="C167" s="1">
         <v>44133</v>
@@ -30675,7 +31947,7 @@
         <v>1227803</v>
       </c>
       <c r="B168" t="s">
-        <v>235</v>
+        <v>380</v>
       </c>
       <c r="C168" s="1">
         <v>44133</v>
@@ -30697,7 +31969,7 @@
         <v>1234192</v>
       </c>
       <c r="B169" t="s">
-        <v>236</v>
+        <v>381</v>
       </c>
       <c r="C169" s="1">
         <v>44133</v>
@@ -30719,7 +31991,7 @@
         <v>1221905</v>
       </c>
       <c r="B170" t="s">
-        <v>237</v>
+        <v>382</v>
       </c>
       <c r="C170" s="1">
         <v>44133</v>
@@ -30741,7 +32013,7 @@
         <v>1234627</v>
       </c>
       <c r="B171" t="s">
-        <v>238</v>
+        <v>383</v>
       </c>
       <c r="C171" s="1">
         <v>44133</v>
@@ -30750,11 +32022,11 @@
         <v>44223</v>
       </c>
       <c r="G171" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="G171:G181" si="18">C171+10</f>
         <v>44143</v>
       </c>
       <c r="H171" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="H171:H181" si="19">C171+28</f>
         <v>44161</v>
       </c>
     </row>
@@ -30763,7 +32035,7 @@
         <v>1240846</v>
       </c>
       <c r="B172" t="s">
-        <v>239</v>
+        <v>384</v>
       </c>
       <c r="C172" s="1">
         <v>44133</v>
@@ -30772,40 +32044,210 @@
         <v>44223</v>
       </c>
       <c r="G172" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>44143</v>
       </c>
       <c r="H172" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>44161</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>0</v>
-      </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-      <c r="C173" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D173" s="1" t="e">
-        <v>#N/A</v>
+        <v>1093922</v>
+      </c>
+      <c r="B173" t="s">
+        <v>385</v>
+      </c>
+      <c r="C173" s="1">
+        <v>44133</v>
+      </c>
+      <c r="D173" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G173" s="1">
+        <f t="shared" si="18"/>
+        <v>44143</v>
+      </c>
+      <c r="H173" s="1">
+        <f t="shared" si="19"/>
+        <v>44161</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>0</v>
-      </c>
-      <c r="B174">
-        <v>0</v>
-      </c>
-      <c r="C174" s="1" t="e">
+        <v>1224940</v>
+      </c>
+      <c r="B174" t="s">
+        <v>386</v>
+      </c>
+      <c r="C174" s="1">
+        <v>44133</v>
+      </c>
+      <c r="D174" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G174" s="1">
+        <f t="shared" si="18"/>
+        <v>44143</v>
+      </c>
+      <c r="H174" s="1">
+        <f t="shared" si="19"/>
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>387</v>
+      </c>
+      <c r="C175" s="1" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D174" s="1" t="e">
+      <c r="D175" s="1" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="G175" s="1" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H175" s="1" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>1233860</v>
+      </c>
+      <c r="B176" t="s">
+        <v>388</v>
+      </c>
+      <c r="C176" s="1">
+        <v>44133</v>
+      </c>
+      <c r="D176" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G176" s="1">
+        <f t="shared" si="18"/>
+        <v>44143</v>
+      </c>
+      <c r="H176" s="1">
+        <f t="shared" si="19"/>
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>1238899</v>
+      </c>
+      <c r="B177" t="s">
+        <v>389</v>
+      </c>
+      <c r="C177" s="1">
+        <v>44133</v>
+      </c>
+      <c r="D177" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G177" s="1">
+        <f t="shared" si="18"/>
+        <v>44143</v>
+      </c>
+      <c r="H177" s="1">
+        <f t="shared" si="19"/>
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>1240655</v>
+      </c>
+      <c r="B178" t="s">
+        <v>390</v>
+      </c>
+      <c r="C178" s="1">
+        <v>44133</v>
+      </c>
+      <c r="D178" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G178" s="1">
+        <f t="shared" si="18"/>
+        <v>44143</v>
+      </c>
+      <c r="H178" s="1">
+        <f t="shared" si="19"/>
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>983760</v>
+      </c>
+      <c r="B179" t="s">
+        <v>391</v>
+      </c>
+      <c r="C179" s="1">
+        <v>44133</v>
+      </c>
+      <c r="D179" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G179" s="1">
+        <f t="shared" si="18"/>
+        <v>44143</v>
+      </c>
+      <c r="H179" s="1">
+        <f t="shared" si="19"/>
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>1225136</v>
+      </c>
+      <c r="B180" t="s">
+        <v>392</v>
+      </c>
+      <c r="C180" s="1">
+        <v>44133</v>
+      </c>
+      <c r="D180" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G180" s="1">
+        <f t="shared" si="18"/>
+        <v>44143</v>
+      </c>
+      <c r="H180" s="1">
+        <f t="shared" si="19"/>
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>1093304</v>
+      </c>
+      <c r="B181" t="s">
+        <v>393</v>
+      </c>
+      <c r="C181" s="1">
+        <v>44133</v>
+      </c>
+      <c r="D181" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G181" s="1">
+        <f t="shared" si="18"/>
+        <v>44143</v>
+      </c>
+      <c r="H181" s="1">
+        <f t="shared" si="19"/>
+        <v>44161</v>
       </c>
     </row>
   </sheetData>
@@ -30947,11 +32389,11 @@
         <v>698</v>
       </c>
       <c r="E2" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="F2">
         <f>MAX(covid19!F:F)</f>
-        <v>912</v>
+        <v>1190</v>
       </c>
       <c r="G2">
         <f>MAX(covid19!G:G)</f>
@@ -30959,11 +32401,11 @@
       </c>
       <c r="H2">
         <f>MAX(covid19!H:H)</f>
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="I2">
         <f>MAX(covid19!J:J)</f>
-        <v>246</v>
+        <v>311</v>
       </c>
       <c r="J2">
         <f>MAX(covid19!K:K)</f>
@@ -30971,7 +32413,7 @@
       </c>
       <c r="K2">
         <f>MAX(covid19!Q:Q)</f>
-        <v>4386</v>
+        <v>4773</v>
       </c>
       <c r="L2">
         <f>MAX(covid19!S:S)</f>
@@ -30979,7 +32421,7 @@
       </c>
       <c r="M2">
         <f>MAX(covid19!T:T)</f>
-        <v>0.41914564493098527</v>
+        <v>0.46117769671704012</v>
       </c>
       <c r="N2">
         <f>MAX(covid19!U:U)</f>
@@ -30987,7 +32429,7 @@
       </c>
       <c r="O2">
         <f>MAX(covid19!V:V)</f>
-        <v>46075</v>
+        <v>59910</v>
       </c>
       <c r="P2">
         <f>MAX(covid19!W:W)</f>
@@ -30999,7 +32441,7 @@
       </c>
       <c r="R2">
         <f>MAX(covid19!AE:AE)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S2">
         <f>MAX(covid19!AF:AF)</f>
@@ -31007,19 +32449,19 @@
       </c>
       <c r="T2">
         <f>MAX(covid19!AG:AG)</f>
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U2">
         <f>MAX(covid19!AH:AH)</f>
-        <v>444</v>
+        <v>648</v>
       </c>
       <c r="V2">
         <f>MAX(covid19!AI:AI)</f>
-        <v>131</v>
+        <v>219</v>
       </c>
       <c r="W2">
         <f>MAX(covid19!AJ:AJ)</f>
-        <v>2396</v>
+        <v>3156</v>
       </c>
       <c r="X2">
         <f>MAX(covid19!AL:AL)</f>
@@ -31031,7 +32473,7 @@
       </c>
       <c r="Z2">
         <f>MAX(covid19!AN:AN)</f>
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="AA2">
         <f>MAX(covid19!AO:AO)</f>
@@ -56309,4 +57751,1991 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7217CD08-4F15-43AF-B357-5E03469C0ACB}">
+  <dimension ref="A1:E164"/>
+  <sheetViews>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection sqref="A1:E164"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>44141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="15">
+        <v>144142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="15">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="15">
+        <v>99195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="15">
+        <v>13031</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="15">
+        <v>63377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15">
+        <v>40587</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="15">
+        <v>21079</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="15">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="15">
+        <v>68438</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="15">
+        <v>73614</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="15">
+        <v>1013209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>249</v>
+      </c>
+      <c r="B50" t="s">
+        <v>244</v>
+      </c>
+      <c r="C50" t="s">
+        <v>212</v>
+      </c>
+      <c r="D50" t="s">
+        <v>250</v>
+      </c>
+      <c r="E50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51">
+        <v>166035</v>
+      </c>
+      <c r="C51">
+        <v>22605</v>
+      </c>
+      <c r="D51">
+        <v>16902</v>
+      </c>
+      <c r="E51">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>252</v>
+      </c>
+      <c r="B52">
+        <v>39906</v>
+      </c>
+      <c r="C52">
+        <v>8246</v>
+      </c>
+      <c r="D52">
+        <v>6325</v>
+      </c>
+      <c r="E52">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>253</v>
+      </c>
+      <c r="B53">
+        <v>70110</v>
+      </c>
+      <c r="C53">
+        <v>8227</v>
+      </c>
+      <c r="D53">
+        <v>4543</v>
+      </c>
+      <c r="E53">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54">
+        <v>44343</v>
+      </c>
+      <c r="C54">
+        <v>7324</v>
+      </c>
+      <c r="D54">
+        <v>4817</v>
+      </c>
+      <c r="E54">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>255</v>
+      </c>
+      <c r="B55">
+        <v>49436</v>
+      </c>
+      <c r="C55">
+        <v>6800</v>
+      </c>
+      <c r="D55">
+        <v>5417</v>
+      </c>
+      <c r="E55">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>256</v>
+      </c>
+      <c r="B56">
+        <v>38461</v>
+      </c>
+      <c r="C56">
+        <v>6572</v>
+      </c>
+      <c r="D56">
+        <v>4170</v>
+      </c>
+      <c r="E56">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>257</v>
+      </c>
+      <c r="B57">
+        <v>50502</v>
+      </c>
+      <c r="C57">
+        <v>6174</v>
+      </c>
+      <c r="D57">
+        <v>3675</v>
+      </c>
+      <c r="E57">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>258</v>
+      </c>
+      <c r="B58">
+        <v>35486</v>
+      </c>
+      <c r="C58">
+        <v>4720</v>
+      </c>
+      <c r="D58">
+        <v>3694</v>
+      </c>
+      <c r="E58">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>259</v>
+      </c>
+      <c r="B59">
+        <v>32511</v>
+      </c>
+      <c r="C59">
+        <v>4230</v>
+      </c>
+      <c r="D59">
+        <v>3065</v>
+      </c>
+      <c r="E59">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>260</v>
+      </c>
+      <c r="B60">
+        <v>28649</v>
+      </c>
+      <c r="C60">
+        <v>3928</v>
+      </c>
+      <c r="D60">
+        <v>2811</v>
+      </c>
+      <c r="E60">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>261</v>
+      </c>
+      <c r="B61">
+        <v>10298</v>
+      </c>
+      <c r="C61">
+        <v>2849</v>
+      </c>
+      <c r="D61">
+        <v>2096</v>
+      </c>
+      <c r="E61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>262</v>
+      </c>
+      <c r="B62">
+        <v>13681</v>
+      </c>
+      <c r="C62">
+        <v>2495</v>
+      </c>
+      <c r="D62">
+        <v>1834</v>
+      </c>
+      <c r="E62">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>263</v>
+      </c>
+      <c r="B63">
+        <v>10712</v>
+      </c>
+      <c r="C63">
+        <v>2475</v>
+      </c>
+      <c r="D63">
+        <v>2128</v>
+      </c>
+      <c r="E63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>264</v>
+      </c>
+      <c r="B64">
+        <v>14948</v>
+      </c>
+      <c r="C64">
+        <v>2368</v>
+      </c>
+      <c r="D64">
+        <v>1544</v>
+      </c>
+      <c r="E64">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>265</v>
+      </c>
+      <c r="B65">
+        <v>8740</v>
+      </c>
+      <c r="C65">
+        <v>2036</v>
+      </c>
+      <c r="D65">
+        <v>1349</v>
+      </c>
+      <c r="E65">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>266</v>
+      </c>
+      <c r="B66">
+        <v>14609</v>
+      </c>
+      <c r="C66">
+        <v>1961</v>
+      </c>
+      <c r="D66">
+        <v>1156</v>
+      </c>
+      <c r="E66">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>267</v>
+      </c>
+      <c r="B67">
+        <v>13047</v>
+      </c>
+      <c r="C67">
+        <v>1925</v>
+      </c>
+      <c r="D67">
+        <v>1010</v>
+      </c>
+      <c r="E67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>268</v>
+      </c>
+      <c r="B68">
+        <v>12859</v>
+      </c>
+      <c r="C68">
+        <v>1889</v>
+      </c>
+      <c r="D68">
+        <v>1259</v>
+      </c>
+      <c r="E68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>269</v>
+      </c>
+      <c r="B69">
+        <v>10185</v>
+      </c>
+      <c r="C69">
+        <v>1810</v>
+      </c>
+      <c r="D69">
+        <v>1455</v>
+      </c>
+      <c r="E69">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>270</v>
+      </c>
+      <c r="B70">
+        <v>12641</v>
+      </c>
+      <c r="C70">
+        <v>1793</v>
+      </c>
+      <c r="D70">
+        <v>1168</v>
+      </c>
+      <c r="E70">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>271</v>
+      </c>
+      <c r="B71">
+        <v>16343</v>
+      </c>
+      <c r="C71">
+        <v>1611</v>
+      </c>
+      <c r="D71">
+        <v>1056</v>
+      </c>
+      <c r="E71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>272</v>
+      </c>
+      <c r="B72">
+        <v>10589</v>
+      </c>
+      <c r="C72">
+        <v>1488</v>
+      </c>
+      <c r="D72">
+        <v>930</v>
+      </c>
+      <c r="E72">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>273</v>
+      </c>
+      <c r="B73">
+        <v>6286</v>
+      </c>
+      <c r="C73">
+        <v>1488</v>
+      </c>
+      <c r="D73">
+        <v>1217</v>
+      </c>
+      <c r="E73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>274</v>
+      </c>
+      <c r="B74">
+        <v>7564</v>
+      </c>
+      <c r="C74">
+        <v>1412</v>
+      </c>
+      <c r="D74">
+        <v>907</v>
+      </c>
+      <c r="E74">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>275</v>
+      </c>
+      <c r="B75">
+        <v>9030</v>
+      </c>
+      <c r="C75">
+        <v>1312</v>
+      </c>
+      <c r="D75">
+        <v>997</v>
+      </c>
+      <c r="E75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>276</v>
+      </c>
+      <c r="B76">
+        <v>6734</v>
+      </c>
+      <c r="C76">
+        <v>1290</v>
+      </c>
+      <c r="D76">
+        <v>914</v>
+      </c>
+      <c r="E76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>277</v>
+      </c>
+      <c r="B77">
+        <v>6161</v>
+      </c>
+      <c r="C77">
+        <v>1285</v>
+      </c>
+      <c r="D77">
+        <v>352</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>278</v>
+      </c>
+      <c r="B78">
+        <v>9275</v>
+      </c>
+      <c r="C78">
+        <v>1264</v>
+      </c>
+      <c r="D78">
+        <v>761</v>
+      </c>
+      <c r="E78">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>279</v>
+      </c>
+      <c r="B79">
+        <v>5572</v>
+      </c>
+      <c r="C79">
+        <v>1138</v>
+      </c>
+      <c r="D79">
+        <v>812</v>
+      </c>
+      <c r="E79">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>280</v>
+      </c>
+      <c r="B80">
+        <v>6924</v>
+      </c>
+      <c r="C80">
+        <v>1022</v>
+      </c>
+      <c r="D80">
+        <v>568</v>
+      </c>
+      <c r="E80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>281</v>
+      </c>
+      <c r="B81">
+        <v>5094</v>
+      </c>
+      <c r="C81">
+        <v>988</v>
+      </c>
+      <c r="D81">
+        <v>571</v>
+      </c>
+      <c r="E81">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>282</v>
+      </c>
+      <c r="B82">
+        <v>5507</v>
+      </c>
+      <c r="C82">
+        <v>940</v>
+      </c>
+      <c r="D82">
+        <v>451</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>283</v>
+      </c>
+      <c r="B83">
+        <v>6654</v>
+      </c>
+      <c r="C83">
+        <v>929</v>
+      </c>
+      <c r="D83">
+        <v>625</v>
+      </c>
+      <c r="E83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>284</v>
+      </c>
+      <c r="B84">
+        <v>4158</v>
+      </c>
+      <c r="C84">
+        <v>922</v>
+      </c>
+      <c r="D84">
+        <v>506</v>
+      </c>
+      <c r="E84">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>285</v>
+      </c>
+      <c r="B85">
+        <v>7584</v>
+      </c>
+      <c r="C85">
+        <v>906</v>
+      </c>
+      <c r="D85">
+        <v>404</v>
+      </c>
+      <c r="E85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>286</v>
+      </c>
+      <c r="B86">
+        <v>5434</v>
+      </c>
+      <c r="C86">
+        <v>899</v>
+      </c>
+      <c r="D86">
+        <v>660</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>287</v>
+      </c>
+      <c r="B87">
+        <v>8054</v>
+      </c>
+      <c r="C87">
+        <v>887</v>
+      </c>
+      <c r="D87">
+        <v>609</v>
+      </c>
+      <c r="E87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>288</v>
+      </c>
+      <c r="B88">
+        <v>6418</v>
+      </c>
+      <c r="C88">
+        <v>879</v>
+      </c>
+      <c r="D88">
+        <v>511</v>
+      </c>
+      <c r="E88">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>289</v>
+      </c>
+      <c r="B89">
+        <v>7067</v>
+      </c>
+      <c r="C89">
+        <v>843</v>
+      </c>
+      <c r="D89">
+        <v>550</v>
+      </c>
+      <c r="E89">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>290</v>
+      </c>
+      <c r="B90">
+        <v>4013</v>
+      </c>
+      <c r="C90">
+        <v>799</v>
+      </c>
+      <c r="D90">
+        <v>474</v>
+      </c>
+      <c r="E90">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>291</v>
+      </c>
+      <c r="B91">
+        <v>4993</v>
+      </c>
+      <c r="C91">
+        <v>687</v>
+      </c>
+      <c r="D91">
+        <v>427</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>292</v>
+      </c>
+      <c r="B92">
+        <v>4280</v>
+      </c>
+      <c r="C92">
+        <v>664</v>
+      </c>
+      <c r="D92">
+        <v>367</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>293</v>
+      </c>
+      <c r="B93">
+        <v>5793</v>
+      </c>
+      <c r="C93">
+        <v>659</v>
+      </c>
+      <c r="D93">
+        <v>347</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>294</v>
+      </c>
+      <c r="B94">
+        <v>5001</v>
+      </c>
+      <c r="C94">
+        <v>654</v>
+      </c>
+      <c r="D94">
+        <v>368</v>
+      </c>
+      <c r="E94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>295</v>
+      </c>
+      <c r="B95">
+        <v>3809</v>
+      </c>
+      <c r="C95">
+        <v>632</v>
+      </c>
+      <c r="D95">
+        <v>409</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>296</v>
+      </c>
+      <c r="B96">
+        <v>5381</v>
+      </c>
+      <c r="C96">
+        <v>631</v>
+      </c>
+      <c r="D96">
+        <v>300</v>
+      </c>
+      <c r="E96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>297</v>
+      </c>
+      <c r="B97">
+        <v>2665</v>
+      </c>
+      <c r="C97">
+        <v>629</v>
+      </c>
+      <c r="D97">
+        <v>464</v>
+      </c>
+      <c r="E97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>298</v>
+      </c>
+      <c r="B98">
+        <v>3415</v>
+      </c>
+      <c r="C98">
+        <v>615</v>
+      </c>
+      <c r="D98">
+        <v>448</v>
+      </c>
+      <c r="E98">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>299</v>
+      </c>
+      <c r="B99">
+        <v>3587</v>
+      </c>
+      <c r="C99">
+        <v>613</v>
+      </c>
+      <c r="D99">
+        <v>311</v>
+      </c>
+      <c r="E99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>300</v>
+      </c>
+      <c r="B100">
+        <v>5141</v>
+      </c>
+      <c r="C100">
+        <v>612</v>
+      </c>
+      <c r="D100">
+        <v>424</v>
+      </c>
+      <c r="E100">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>301</v>
+      </c>
+      <c r="B101">
+        <v>3907</v>
+      </c>
+      <c r="C101">
+        <v>612</v>
+      </c>
+      <c r="D101">
+        <v>351</v>
+      </c>
+      <c r="E101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>302</v>
+      </c>
+      <c r="B102">
+        <v>5777</v>
+      </c>
+      <c r="C102">
+        <v>602</v>
+      </c>
+      <c r="D102">
+        <v>426</v>
+      </c>
+      <c r="E102">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>303</v>
+      </c>
+      <c r="B103">
+        <v>4609</v>
+      </c>
+      <c r="C103">
+        <v>586</v>
+      </c>
+      <c r="D103">
+        <v>377</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>304</v>
+      </c>
+      <c r="B104">
+        <v>4846</v>
+      </c>
+      <c r="C104">
+        <v>578</v>
+      </c>
+      <c r="D104">
+        <v>285</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>305</v>
+      </c>
+      <c r="B105">
+        <v>5098</v>
+      </c>
+      <c r="C105">
+        <v>571</v>
+      </c>
+      <c r="D105">
+        <v>307</v>
+      </c>
+      <c r="E105">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>306</v>
+      </c>
+      <c r="B106">
+        <v>4578</v>
+      </c>
+      <c r="C106">
+        <v>569</v>
+      </c>
+      <c r="D106">
+        <v>472</v>
+      </c>
+      <c r="E106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>307</v>
+      </c>
+      <c r="B107">
+        <v>3911</v>
+      </c>
+      <c r="C107">
+        <v>563</v>
+      </c>
+      <c r="D107">
+        <v>364</v>
+      </c>
+      <c r="E107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>308</v>
+      </c>
+      <c r="B108">
+        <v>4750</v>
+      </c>
+      <c r="C108">
+        <v>556</v>
+      </c>
+      <c r="D108">
+        <v>454</v>
+      </c>
+      <c r="E108">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>309</v>
+      </c>
+      <c r="B109">
+        <v>5362</v>
+      </c>
+      <c r="C109">
+        <v>555</v>
+      </c>
+      <c r="D109">
+        <v>288</v>
+      </c>
+      <c r="E109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>310</v>
+      </c>
+      <c r="B110">
+        <v>4261</v>
+      </c>
+      <c r="C110">
+        <v>539</v>
+      </c>
+      <c r="D110">
+        <v>405</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>311</v>
+      </c>
+      <c r="B111">
+        <v>3436</v>
+      </c>
+      <c r="C111">
+        <v>514</v>
+      </c>
+      <c r="D111">
+        <v>294</v>
+      </c>
+      <c r="E111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>312</v>
+      </c>
+      <c r="B112">
+        <v>3600</v>
+      </c>
+      <c r="C112">
+        <v>509</v>
+      </c>
+      <c r="D112">
+        <v>331</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>313</v>
+      </c>
+      <c r="B113">
+        <v>3473</v>
+      </c>
+      <c r="C113">
+        <v>506</v>
+      </c>
+      <c r="D113">
+        <v>330</v>
+      </c>
+      <c r="E113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>314</v>
+      </c>
+      <c r="B114">
+        <v>3004</v>
+      </c>
+      <c r="C114">
+        <v>501</v>
+      </c>
+      <c r="D114">
+        <v>344</v>
+      </c>
+      <c r="E114">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>315</v>
+      </c>
+      <c r="B115">
+        <v>3465</v>
+      </c>
+      <c r="C115">
+        <v>495</v>
+      </c>
+      <c r="D115">
+        <v>322</v>
+      </c>
+      <c r="E115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>316</v>
+      </c>
+      <c r="B116">
+        <v>3170</v>
+      </c>
+      <c r="C116">
+        <v>483</v>
+      </c>
+      <c r="D116">
+        <v>429</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>317</v>
+      </c>
+      <c r="B117">
+        <v>3601</v>
+      </c>
+      <c r="C117">
+        <v>482</v>
+      </c>
+      <c r="D117">
+        <v>287</v>
+      </c>
+      <c r="E117">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>318</v>
+      </c>
+      <c r="B118">
+        <v>3497</v>
+      </c>
+      <c r="C118">
+        <v>456</v>
+      </c>
+      <c r="D118">
+        <v>250</v>
+      </c>
+      <c r="E118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>319</v>
+      </c>
+      <c r="B119">
+        <v>3217</v>
+      </c>
+      <c r="C119">
+        <v>456</v>
+      </c>
+      <c r="D119">
+        <v>396</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>320</v>
+      </c>
+      <c r="B120">
+        <v>3057</v>
+      </c>
+      <c r="C120">
+        <v>455</v>
+      </c>
+      <c r="D120">
+        <v>365</v>
+      </c>
+      <c r="E120">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>321</v>
+      </c>
+      <c r="B121">
+        <v>3044</v>
+      </c>
+      <c r="C121">
+        <v>453</v>
+      </c>
+      <c r="D121">
+        <v>280</v>
+      </c>
+      <c r="E121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>322</v>
+      </c>
+      <c r="B122">
+        <v>4453</v>
+      </c>
+      <c r="C122">
+        <v>443</v>
+      </c>
+      <c r="D122">
+        <v>312</v>
+      </c>
+      <c r="E122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>323</v>
+      </c>
+      <c r="B123">
+        <v>3447</v>
+      </c>
+      <c r="C123">
+        <v>403</v>
+      </c>
+      <c r="D123">
+        <v>211</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>324</v>
+      </c>
+      <c r="B124">
+        <v>2779</v>
+      </c>
+      <c r="C124">
+        <v>395</v>
+      </c>
+      <c r="D124">
+        <v>260</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>325</v>
+      </c>
+      <c r="B125">
+        <v>2912</v>
+      </c>
+      <c r="C125">
+        <v>391</v>
+      </c>
+      <c r="D125">
+        <v>286</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>326</v>
+      </c>
+      <c r="B126">
+        <v>3471</v>
+      </c>
+      <c r="C126">
+        <v>368</v>
+      </c>
+      <c r="D126">
+        <v>185</v>
+      </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>327</v>
+      </c>
+      <c r="B127">
+        <v>1489</v>
+      </c>
+      <c r="C127">
+        <v>347</v>
+      </c>
+      <c r="D127">
+        <v>220</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>328</v>
+      </c>
+      <c r="B128">
+        <v>4105</v>
+      </c>
+      <c r="C128">
+        <v>342</v>
+      </c>
+      <c r="D128">
+        <v>254</v>
+      </c>
+      <c r="E128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>329</v>
+      </c>
+      <c r="B129">
+        <v>3946</v>
+      </c>
+      <c r="C129">
+        <v>342</v>
+      </c>
+      <c r="D129">
+        <v>167</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>330</v>
+      </c>
+      <c r="B130">
+        <v>2286</v>
+      </c>
+      <c r="C130">
+        <v>328</v>
+      </c>
+      <c r="D130">
+        <v>190</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>331</v>
+      </c>
+      <c r="B131">
+        <v>2586</v>
+      </c>
+      <c r="C131">
+        <v>322</v>
+      </c>
+      <c r="D131">
+        <v>209</v>
+      </c>
+      <c r="E131">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>332</v>
+      </c>
+      <c r="B132">
+        <v>1877</v>
+      </c>
+      <c r="C132">
+        <v>309</v>
+      </c>
+      <c r="D132">
+        <v>180</v>
+      </c>
+      <c r="E132">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>333</v>
+      </c>
+      <c r="B133">
+        <v>1649</v>
+      </c>
+      <c r="C133">
+        <v>308</v>
+      </c>
+      <c r="D133">
+        <v>206</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>334</v>
+      </c>
+      <c r="B134">
+        <v>1967</v>
+      </c>
+      <c r="C134">
+        <v>303</v>
+      </c>
+      <c r="D134">
+        <v>163</v>
+      </c>
+      <c r="E134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>335</v>
+      </c>
+      <c r="B135">
+        <v>2386</v>
+      </c>
+      <c r="C135">
+        <v>289</v>
+      </c>
+      <c r="D135">
+        <v>210</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>336</v>
+      </c>
+      <c r="B136">
+        <v>2306</v>
+      </c>
+      <c r="C136">
+        <v>284</v>
+      </c>
+      <c r="D136">
+        <v>132</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>337</v>
+      </c>
+      <c r="B137">
+        <v>2200</v>
+      </c>
+      <c r="C137">
+        <v>265</v>
+      </c>
+      <c r="D137">
+        <v>98</v>
+      </c>
+      <c r="E137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>338</v>
+      </c>
+      <c r="B138">
+        <v>2656</v>
+      </c>
+      <c r="C138">
+        <v>258</v>
+      </c>
+      <c r="D138">
+        <v>151</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>339</v>
+      </c>
+      <c r="B139">
+        <v>2522</v>
+      </c>
+      <c r="C139">
+        <v>255</v>
+      </c>
+      <c r="D139">
+        <v>200</v>
+      </c>
+      <c r="E139">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>340</v>
+      </c>
+      <c r="B140">
+        <v>1785</v>
+      </c>
+      <c r="C140">
+        <v>254</v>
+      </c>
+      <c r="D140">
+        <v>141</v>
+      </c>
+      <c r="E140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>341</v>
+      </c>
+      <c r="B141">
+        <v>1653</v>
+      </c>
+      <c r="C141">
+        <v>247</v>
+      </c>
+      <c r="D141">
+        <v>166</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>342</v>
+      </c>
+      <c r="B142">
+        <v>2174</v>
+      </c>
+      <c r="C142">
+        <v>244</v>
+      </c>
+      <c r="D142">
+        <v>161</v>
+      </c>
+      <c r="E142">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>343</v>
+      </c>
+      <c r="B143">
+        <v>1608</v>
+      </c>
+      <c r="C143">
+        <v>233</v>
+      </c>
+      <c r="D143">
+        <v>136</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>344</v>
+      </c>
+      <c r="B144">
+        <v>6561</v>
+      </c>
+      <c r="C144">
+        <v>225</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>345</v>
+      </c>
+      <c r="B145">
+        <v>1568</v>
+      </c>
+      <c r="C145">
+        <v>221</v>
+      </c>
+      <c r="D145">
+        <v>115</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>346</v>
+      </c>
+      <c r="B146">
+        <v>1430</v>
+      </c>
+      <c r="C146">
+        <v>219</v>
+      </c>
+      <c r="D146">
+        <v>112</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>347</v>
+      </c>
+      <c r="B147">
+        <v>2088</v>
+      </c>
+      <c r="C147">
+        <v>216</v>
+      </c>
+      <c r="D147">
+        <v>101</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>348</v>
+      </c>
+      <c r="B148">
+        <v>2169</v>
+      </c>
+      <c r="C148">
+        <v>200</v>
+      </c>
+      <c r="D148">
+        <v>118</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>349</v>
+      </c>
+      <c r="B149">
+        <v>1533</v>
+      </c>
+      <c r="C149">
+        <v>121</v>
+      </c>
+      <c r="D149">
+        <v>88</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>350</v>
+      </c>
+      <c r="B150">
+        <v>904</v>
+      </c>
+      <c r="C150">
+        <v>93</v>
+      </c>
+      <c r="D150">
+        <v>59</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3299F61A-150A-4898-AF7C-15991402D96D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682E5C43-5D13-44B6-84EE-54C2334C6CA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="396">
   <si>
     <t>date</t>
   </si>
@@ -659,9 +659,6 @@
   </si>
   <si>
     <t>Individuals Reported</t>
-  </si>
-  <si>
-    <t>Individuals Negative</t>
   </si>
   <si>
     <t>Individuals Positive</t>
@@ -2381,13 +2378,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BJ240"/>
+  <dimension ref="A1:BI241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AX234" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AZ234" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BH235" sqref="BH235:BJ239"/>
+      <selection pane="bottomRight" activeCell="AK240" sqref="AK240:AK241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2399,7 +2396,7 @@
     <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2544,7 +2541,7 @@
       <c r="AV1" t="s">
         <v>211</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>212</v>
       </c>
       <c r="AY1" t="s">
@@ -2572,7 +2569,7 @@
         <v>220</v>
       </c>
       <c r="BG1" t="s">
-        <v>221</v>
+        <v>393</v>
       </c>
       <c r="BH1" t="s">
         <v>394</v>
@@ -2580,11 +2577,8 @@
       <c r="BI1" t="s">
         <v>395</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>43898</v>
       </c>
@@ -2613,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>43899</v>
       </c>
@@ -2648,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>43900</v>
       </c>
@@ -2686,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>43901</v>
       </c>
@@ -2727,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>43903</v>
       </c>
@@ -2762,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>43904</v>
       </c>
@@ -2797,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>43908</v>
       </c>
@@ -2836,7 +2830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>43909</v>
       </c>
@@ -2878,7 +2872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>43913</v>
       </c>
@@ -2927,7 +2921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>43914</v>
       </c>
@@ -2963,7 +2957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>43917</v>
       </c>
@@ -3002,7 +2996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>43918</v>
       </c>
@@ -3054,7 +3048,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>43919</v>
       </c>
@@ -3118,7 +3112,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>43920</v>
       </c>
@@ -3182,7 +3176,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>43921</v>
       </c>
@@ -15618,7 +15612,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="14">
-        <f t="shared" ref="A152:A240" si="49">A151+1</f>
+        <f t="shared" ref="A152:A241" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -22525,11 +22519,11 @@
         <v>17</v>
       </c>
       <c r="M203" s="7">
-        <f t="shared" ref="M203:M240" si="380">B203-C203</f>
+        <f t="shared" ref="M203:M241" si="380">B203-C203</f>
         <v>730923</v>
       </c>
       <c r="N203" s="4">
-        <f t="shared" ref="N203:N240" si="381">C203/B203</f>
+        <f t="shared" ref="N203:N241" si="381">C203/B203</f>
         <v>0.11270554987702819</v>
       </c>
       <c r="Q203">
@@ -25436,7 +25430,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="225" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A225" s="14">
         <f t="shared" si="49"/>
         <v>44131</v>
@@ -25572,7 +25566,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="226" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A226" s="14">
         <f t="shared" si="49"/>
         <v>44132</v>
@@ -25708,7 +25702,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="227" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A227" s="14">
         <f t="shared" si="49"/>
         <v>44133</v>
@@ -25844,7 +25838,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="228" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A228" s="14">
         <f t="shared" si="49"/>
         <v>44134</v>
@@ -25983,17 +25977,14 @@
         <v>6067</v>
       </c>
       <c r="AV228">
-        <v>4737</v>
+        <v>1315</v>
       </c>
       <c r="AW228">
-        <v>1315</v>
-      </c>
-      <c r="AX228">
-        <f>AW228/AU228</f>
+        <f>AV228/AU228</f>
         <v>0.21674633261908685</v>
       </c>
     </row>
-    <row r="229" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A229" s="14">
         <f t="shared" si="49"/>
         <v>44135</v>
@@ -26129,7 +26120,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="230" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A230" s="14">
         <f t="shared" si="49"/>
         <v>44136</v>
@@ -26256,7 +26247,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="231" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A231" s="14">
         <f t="shared" si="49"/>
         <v>44137</v>
@@ -26395,17 +26386,14 @@
         <v>5100</v>
       </c>
       <c r="AV231">
-        <v>3997</v>
+        <v>1085</v>
       </c>
       <c r="AW231">
-        <v>1085</v>
-      </c>
-      <c r="AX231">
-        <f t="shared" ref="AX231:AX240" si="684">AW231/AU231</f>
+        <f>AV231/AU231</f>
         <v>0.21274509803921568</v>
       </c>
     </row>
-    <row r="232" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A232" s="14">
         <f t="shared" si="49"/>
         <v>44138</v>
@@ -26449,35 +26437,35 @@
         <v>0.13464009144134523</v>
       </c>
       <c r="Q232">
-        <f t="shared" ref="Q232" si="685">C232-C231</f>
+        <f t="shared" ref="Q232" si="684">C232-C231</f>
         <v>1617</v>
       </c>
       <c r="R232">
-        <f t="shared" ref="R232" si="686">M232-M231</f>
+        <f t="shared" ref="R232" si="685">M232-M231</f>
         <v>2366</v>
       </c>
       <c r="S232" s="8">
-        <f t="shared" ref="S232" si="687">Q232/U232</f>
+        <f t="shared" ref="S232" si="686">Q232/U232</f>
         <v>0.40597539543057998</v>
       </c>
       <c r="T232" s="8">
-        <f t="shared" ref="T232" si="688">SUM(Q226:Q232)/SUM(U226:U232)</f>
+        <f t="shared" ref="T232" si="687">SUM(Q226:Q232)/SUM(U226:U232)</f>
         <v>0.35145888594164454</v>
       </c>
       <c r="U232">
-        <f t="shared" ref="U232" si="689">B232-B231</f>
+        <f t="shared" ref="U232" si="688">B232-B231</f>
         <v>3983</v>
       </c>
       <c r="V232">
-        <f t="shared" ref="V232" si="690">C232-D232-E232</f>
+        <f t="shared" ref="V232" si="689">C232-D232-E232</f>
         <v>35823</v>
       </c>
       <c r="W232" s="3">
-        <f t="shared" ref="W232" si="691">F232/V232</f>
+        <f t="shared" ref="W232" si="690">F232/V232</f>
         <v>2.0377969460960835E-2</v>
       </c>
       <c r="X232">
-        <f t="shared" ref="X232" si="692">E232-E231</f>
+        <f t="shared" ref="X232" si="691">E232-E231</f>
         <v>22</v>
       </c>
       <c r="Y232">
@@ -26508,15 +26496,15 @@
         <v>104</v>
       </c>
       <c r="AH232">
-        <f t="shared" ref="AH232" si="693">Y232-AB232-AE232</f>
+        <f t="shared" ref="AH232" si="692">Y232-AB232-AE232</f>
         <v>292</v>
       </c>
       <c r="AI232">
-        <f t="shared" ref="AI232" si="694">Z232-AC232-AF232</f>
+        <f t="shared" ref="AI232" si="693">Z232-AC232-AF232</f>
         <v>81</v>
       </c>
       <c r="AJ232">
-        <f t="shared" ref="AJ232" si="695">AA232-AD232-AG232</f>
+        <f t="shared" ref="AJ232" si="694">AA232-AD232-AG232</f>
         <v>1813</v>
       </c>
       <c r="AK232">
@@ -26528,24 +26516,21 @@
         <v>14</v>
       </c>
       <c r="AT232">
-        <f t="shared" ref="AT232:AT234" si="696">AH232-AS232</f>
+        <f t="shared" ref="AT232:AT234" si="695">AH232-AS232</f>
         <v>278</v>
       </c>
       <c r="AU232">
         <v>3393</v>
       </c>
       <c r="AV232">
-        <v>2511</v>
+        <v>866</v>
       </c>
       <c r="AW232">
-        <v>866</v>
-      </c>
-      <c r="AX232">
-        <f t="shared" si="684"/>
+        <f>AV232/AU232</f>
         <v>0.25523135867963453</v>
       </c>
     </row>
-    <row r="233" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A233" s="14">
         <f t="shared" si="49"/>
         <v>44139</v>
@@ -26589,35 +26574,35 @@
         <v>0.13668839037104596</v>
       </c>
       <c r="Q233">
-        <f t="shared" ref="Q233" si="697">C233-C232</f>
+        <f t="shared" ref="Q233" si="696">C233-C232</f>
         <v>2942</v>
       </c>
       <c r="R233">
-        <f t="shared" ref="R233" si="698">M233-M232</f>
+        <f t="shared" ref="R233" si="697">M233-M232</f>
         <v>3780</v>
       </c>
       <c r="S233" s="8">
-        <f t="shared" ref="S233" si="699">Q233/U233</f>
+        <f t="shared" ref="S233" si="698">Q233/U233</f>
         <v>0.43766736090449271</v>
       </c>
       <c r="T233" s="8">
-        <f t="shared" ref="T233" si="700">SUM(Q227:Q233)/SUM(U227:U233)</f>
+        <f t="shared" ref="T233" si="699">SUM(Q227:Q233)/SUM(U227:U233)</f>
         <v>0.36424546977310795</v>
       </c>
       <c r="U233">
-        <f t="shared" ref="U233" si="701">B233-B232</f>
+        <f t="shared" ref="U233" si="700">B233-B232</f>
         <v>6722</v>
       </c>
       <c r="V233">
-        <f t="shared" ref="V233" si="702">C233-D233-E233</f>
+        <f t="shared" ref="V233" si="701">C233-D233-E233</f>
         <v>37531</v>
       </c>
       <c r="W233" s="3">
-        <f t="shared" ref="W233" si="703">F233/V233</f>
+        <f t="shared" ref="W233" si="702">F233/V233</f>
         <v>2.070288561455863E-2</v>
       </c>
       <c r="X233">
-        <f t="shared" ref="X233" si="704">E233-E232</f>
+        <f t="shared" ref="X233" si="703">E233-E232</f>
         <v>24</v>
       </c>
       <c r="Y233">
@@ -26648,19 +26633,19 @@
         <v>106</v>
       </c>
       <c r="AH233">
-        <f t="shared" ref="AH233" si="705">Y233-AB233-AE233</f>
+        <f t="shared" ref="AH233" si="704">Y233-AB233-AE233</f>
         <v>335</v>
       </c>
       <c r="AI233">
-        <f t="shared" ref="AI233" si="706">Z233-AC233-AF233</f>
+        <f t="shared" ref="AI233" si="705">Z233-AC233-AF233</f>
         <v>98</v>
       </c>
       <c r="AJ233">
-        <f t="shared" ref="AJ233" si="707">AA233-AD233-AG233</f>
+        <f t="shared" ref="AJ233" si="706">AA233-AD233-AG233</f>
         <v>1950</v>
       </c>
       <c r="AK233">
-        <f t="shared" ref="AK233" si="708">-(J233-J232)+L233</f>
+        <f t="shared" ref="AK233" si="707">-(J233-J232)+L233</f>
         <v>37</v>
       </c>
       <c r="AL233">
@@ -26677,24 +26662,21 @@
         <v>13</v>
       </c>
       <c r="AT233">
-        <f t="shared" si="696"/>
+        <f t="shared" si="695"/>
         <v>322</v>
       </c>
       <c r="AU233">
         <v>3862</v>
       </c>
       <c r="AV233">
-        <v>2846</v>
+        <v>906</v>
       </c>
       <c r="AW233">
-        <v>906</v>
-      </c>
-      <c r="AX233">
-        <f t="shared" si="684"/>
+        <f>AV233/AU233</f>
         <v>0.23459347488348006</v>
       </c>
     </row>
-    <row r="234" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A234" s="14">
         <f t="shared" si="49"/>
         <v>44140</v>
@@ -26738,35 +26720,35 @@
         <v>0.1392190846972193</v>
       </c>
       <c r="Q234">
-        <f t="shared" ref="Q234" si="709">C234-C233</f>
+        <f t="shared" ref="Q234" si="708">C234-C233</f>
         <v>3674</v>
       </c>
       <c r="R234">
-        <f t="shared" ref="R234" si="710">M234-M233</f>
+        <f t="shared" ref="R234" si="709">M234-M233</f>
         <v>4639</v>
       </c>
       <c r="S234" s="8">
-        <f t="shared" ref="S234" si="711">Q234/U234</f>
+        <f t="shared" ref="S234" si="710">Q234/U234</f>
         <v>0.44195837844340191</v>
       </c>
       <c r="T234" s="8">
-        <f t="shared" ref="T234" si="712">SUM(Q228:Q234)/SUM(U228:U234)</f>
+        <f t="shared" ref="T234" si="711">SUM(Q228:Q234)/SUM(U228:U234)</f>
         <v>0.38484574284729406</v>
       </c>
       <c r="U234">
-        <f t="shared" ref="U234" si="713">B234-B233</f>
+        <f t="shared" ref="U234" si="712">B234-B233</f>
         <v>8313</v>
       </c>
       <c r="V234">
-        <f t="shared" ref="V234" si="714">C234-D234-E234</f>
+        <f t="shared" ref="V234" si="713">C234-D234-E234</f>
         <v>39877</v>
       </c>
       <c r="W234" s="3">
-        <f t="shared" ref="W234" si="715">F234/V234</f>
+        <f t="shared" ref="W234" si="714">F234/V234</f>
         <v>2.1039697068485592E-2</v>
       </c>
       <c r="X234">
-        <f t="shared" ref="X234" si="716">E234-E233</f>
+        <f t="shared" ref="X234" si="715">E234-E233</f>
         <v>22</v>
       </c>
       <c r="Y234">
@@ -26797,19 +26779,19 @@
         <v>106</v>
       </c>
       <c r="AH234">
-        <f t="shared" ref="AH234" si="717">Y234-AB234-AE234</f>
+        <f t="shared" ref="AH234" si="716">Y234-AB234-AE234</f>
         <v>352</v>
       </c>
       <c r="AI234">
-        <f t="shared" ref="AI234" si="718">Z234-AC234-AF234</f>
+        <f t="shared" ref="AI234" si="717">Z234-AC234-AF234</f>
         <v>111</v>
       </c>
       <c r="AJ234">
-        <f t="shared" ref="AJ234" si="719">AA234-AD234-AG234</f>
+        <f t="shared" ref="AJ234" si="718">AA234-AD234-AG234</f>
         <v>2096</v>
       </c>
       <c r="AK234">
-        <f t="shared" ref="AK234" si="720">-(J234-J233)+L234</f>
+        <f t="shared" ref="AK234" si="719">-(J234-J233)+L234</f>
         <v>32</v>
       </c>
       <c r="AL234">
@@ -26826,24 +26808,21 @@
         <v>13</v>
       </c>
       <c r="AT234">
-        <f t="shared" si="696"/>
+        <f t="shared" si="695"/>
         <v>339</v>
       </c>
       <c r="AU234">
         <v>5729</v>
       </c>
       <c r="AV234">
-        <v>4305</v>
+        <v>1406</v>
       </c>
       <c r="AW234">
-        <v>1406</v>
-      </c>
-      <c r="AX234">
-        <f t="shared" si="684"/>
+        <f>AV234/AU234</f>
         <v>0.245418048525048</v>
       </c>
     </row>
-    <row r="235" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A235" s="14">
         <f t="shared" si="49"/>
         <v>44141</v>
@@ -26887,35 +26866,35 @@
         <v>0.1420634654163449</v>
       </c>
       <c r="Q235">
-        <f t="shared" ref="Q235" si="721">C235-C234</f>
+        <f t="shared" ref="Q235" si="720">C235-C234</f>
         <v>4255</v>
       </c>
       <c r="R235">
-        <f t="shared" ref="R235" si="722">M235-M234</f>
+        <f t="shared" ref="R235" si="721">M235-M234</f>
         <v>5619</v>
       </c>
       <c r="S235" s="8">
-        <f t="shared" ref="S235" si="723">Q235/U235</f>
+        <f t="shared" ref="S235" si="722">Q235/U235</f>
         <v>0.43092971440145839</v>
       </c>
       <c r="T235" s="8">
-        <f t="shared" ref="T235" si="724">SUM(Q229:Q235)/SUM(U229:U235)</f>
+        <f t="shared" ref="T235" si="723">SUM(Q229:Q235)/SUM(U229:U235)</f>
         <v>0.39832516339869278</v>
       </c>
       <c r="U235">
-        <f t="shared" ref="U235" si="725">B235-B234</f>
+        <f t="shared" ref="U235" si="724">B235-B234</f>
         <v>9874</v>
       </c>
       <c r="V235">
-        <f t="shared" ref="V235" si="726">C235-D235-E235</f>
+        <f t="shared" ref="V235" si="725">C235-D235-E235</f>
         <v>42868</v>
       </c>
       <c r="W235" s="3">
-        <f t="shared" ref="W235" si="727">F235/V235</f>
+        <f t="shared" ref="W235" si="726">F235/V235</f>
         <v>2.1274610432023888E-2</v>
       </c>
       <c r="X235">
-        <f t="shared" ref="X235" si="728">E235-E234</f>
+        <f t="shared" ref="X235" si="727">E235-E234</f>
         <v>13</v>
       </c>
       <c r="Y235">
@@ -26946,19 +26925,19 @@
         <v>107</v>
       </c>
       <c r="AH235">
-        <f t="shared" ref="AH235" si="729">Y235-AB235-AE235</f>
+        <f t="shared" ref="AH235" si="728">Y235-AB235-AE235</f>
         <v>395</v>
       </c>
       <c r="AI235">
-        <f t="shared" ref="AI235" si="730">Z235-AC235-AF235</f>
+        <f t="shared" ref="AI235" si="729">Z235-AC235-AF235</f>
         <v>127</v>
       </c>
       <c r="AJ235">
-        <f t="shared" ref="AJ235" si="731">AA235-AD235-AG235</f>
+        <f t="shared" ref="AJ235" si="730">AA235-AD235-AG235</f>
         <v>2253</v>
       </c>
       <c r="AK235">
-        <f t="shared" ref="AK235" si="732">-(J235-J234)+L235</f>
+        <f t="shared" ref="AK235" si="731">-(J235-J234)+L235</f>
         <v>32</v>
       </c>
       <c r="AL235">
@@ -26975,66 +26954,63 @@
         <v>12</v>
       </c>
       <c r="AT235">
-        <f t="shared" ref="AT235:AT237" si="733">AH235-AS235</f>
+        <f t="shared" ref="AT235:AT237" si="732">AH235-AS235</f>
         <v>383</v>
       </c>
       <c r="AU235">
         <v>12336</v>
       </c>
       <c r="AV235">
-        <v>8898</v>
+        <v>3417</v>
       </c>
       <c r="AW235">
-        <v>3417</v>
+        <f>AV235/AU235</f>
+        <v>0.27699416342412453</v>
       </c>
       <c r="AX235">
-        <f t="shared" si="684"/>
-        <v>0.27699416342412453</v>
+        <v>86</v>
       </c>
       <c r="AY235">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="AZ235">
-        <v>53</v>
+        <v>485</v>
       </c>
       <c r="BA235">
-        <v>485</v>
+        <v>158</v>
       </c>
       <c r="BB235">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="BC235">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="BD235">
-        <v>34</v>
+        <f t="shared" ref="BD235:BD241" si="733">AY235/AX235</f>
+        <v>0.61627906976744184</v>
       </c>
       <c r="BE235">
-        <f t="shared" ref="BE235:BE240" si="734">AZ235/AY235</f>
+        <f t="shared" ref="BE235:BF237" si="734">BA235/AZ235</f>
+        <v>0.32577319587628867</v>
+      </c>
+      <c r="BF235">
+        <f t="shared" si="734"/>
+        <v>0.310126582278481</v>
+      </c>
+      <c r="BG235">
+        <f>SUM(AY229:AY235)/SUM(AX229:AX235)</f>
         <v>0.61627906976744184</v>
       </c>
-      <c r="BF235">
-        <f t="shared" ref="BF235:BG237" si="735">BB235/BA235</f>
+      <c r="BH235">
+        <f>SUM(BA229:BA235)/SUM(AZ229:AZ235)</f>
         <v>0.32577319587628867</v>
       </c>
-      <c r="BG235">
-        <f t="shared" si="735"/>
-        <v>0.310126582278481</v>
-      </c>
-      <c r="BH235">
-        <f>SUM(AZ229:AZ235)/SUM(AY229:AY235)</f>
-        <v>0.61627906976744184</v>
-      </c>
       <c r="BI235">
-        <f>SUM(BB229:BB235)/SUM(BA229:BA235)</f>
-        <v>0.32577319587628867</v>
-      </c>
-      <c r="BJ235">
-        <f>SUM(BD229:BD235)/SUM(BC229:BC235)</f>
+        <f>SUM(BC229:BC235)/SUM(BB229:BB235)</f>
         <v>0.69387755102040816</v>
       </c>
     </row>
-    <row r="236" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A236" s="14">
         <f t="shared" si="49"/>
         <v>44142</v>
@@ -27078,35 +27054,35 @@
         <v>0.14510889088789461</v>
       </c>
       <c r="Q236">
-        <f t="shared" ref="Q236" si="736">C236-C235</f>
+        <f t="shared" ref="Q236" si="735">C236-C235</f>
         <v>4386</v>
       </c>
       <c r="R236">
-        <f t="shared" ref="R236" si="737">M236-M235</f>
+        <f t="shared" ref="R236" si="736">M236-M235</f>
         <v>4587</v>
       </c>
       <c r="S236" s="8">
-        <f t="shared" ref="S236" si="738">Q236/U236</f>
+        <f t="shared" ref="S236" si="737">Q236/U236</f>
         <v>0.48879973253092612</v>
       </c>
       <c r="T236" s="8">
-        <f t="shared" ref="T236" si="739">SUM(Q230:Q236)/SUM(U230:U236)</f>
+        <f t="shared" ref="T236" si="738">SUM(Q230:Q236)/SUM(U230:U236)</f>
         <v>0.41914564493098527</v>
       </c>
       <c r="U236">
-        <f t="shared" ref="U236" si="740">B236-B235</f>
+        <f t="shared" ref="U236" si="739">B236-B235</f>
         <v>8973</v>
       </c>
       <c r="V236">
-        <f t="shared" ref="V236" si="741">C236-D236-E236</f>
+        <f t="shared" ref="V236" si="740">C236-D236-E236</f>
         <v>46075</v>
       </c>
       <c r="W236" s="3">
-        <f t="shared" ref="W236" si="742">F236/V236</f>
+        <f t="shared" ref="W236" si="741">F236/V236</f>
         <v>2.0596852957135106E-2</v>
       </c>
       <c r="X236">
-        <f t="shared" ref="X236" si="743">E236-E235</f>
+        <f t="shared" ref="X236" si="742">E236-E235</f>
         <v>14</v>
       </c>
       <c r="Y236">
@@ -27137,19 +27113,19 @@
         <v>107</v>
       </c>
       <c r="AH236">
-        <f t="shared" ref="AH236" si="744">Y236-AB236-AE236</f>
+        <f t="shared" ref="AH236" si="743">Y236-AB236-AE236</f>
         <v>444</v>
       </c>
       <c r="AI236">
-        <f t="shared" ref="AI236" si="745">Z236-AC236-AF236</f>
+        <f t="shared" ref="AI236" si="744">Z236-AC236-AF236</f>
         <v>131</v>
       </c>
       <c r="AJ236">
-        <f t="shared" ref="AJ236" si="746">AA236-AD236-AG236</f>
+        <f t="shared" ref="AJ236" si="745">AA236-AD236-AG236</f>
         <v>2396</v>
       </c>
       <c r="AK236">
-        <f t="shared" ref="AK236" si="747">-(J236-J235)+L236</f>
+        <f t="shared" ref="AK236" si="746">-(J236-J235)+L236</f>
         <v>84</v>
       </c>
       <c r="AS236">
@@ -27157,66 +27133,63 @@
         <v>12</v>
       </c>
       <c r="AT236">
-        <f t="shared" si="733"/>
+        <f t="shared" si="732"/>
         <v>432</v>
       </c>
       <c r="AU236">
         <v>6479</v>
       </c>
       <c r="AV236">
-        <v>4632</v>
+        <v>1841</v>
       </c>
       <c r="AW236">
-        <v>1841</v>
+        <f>AV236/AU236</f>
+        <v>0.28414878839327057</v>
       </c>
       <c r="AX236">
-        <f t="shared" si="684"/>
-        <v>0.28414878839327057</v>
+        <v>59</v>
       </c>
       <c r="AY236">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="AZ236">
+        <v>231</v>
+      </c>
+      <c r="BA236">
+        <v>65</v>
+      </c>
+      <c r="BB236">
+        <v>29</v>
+      </c>
+      <c r="BC236">
         <v>14</v>
       </c>
-      <c r="BA236">
-        <v>231</v>
-      </c>
-      <c r="BB236">
-        <v>65</v>
-      </c>
-      <c r="BC236">
-        <v>29</v>
-      </c>
       <c r="BD236">
-        <v>14</v>
+        <f t="shared" si="733"/>
+        <v>0.23728813559322035</v>
       </c>
       <c r="BE236">
         <f t="shared" si="734"/>
-        <v>0.23728813559322035</v>
+        <v>0.2813852813852814</v>
       </c>
       <c r="BF236">
-        <f t="shared" si="735"/>
-        <v>0.2813852813852814</v>
+        <f t="shared" si="734"/>
+        <v>0.44615384615384618</v>
       </c>
       <c r="BG236">
-        <f t="shared" si="735"/>
-        <v>0.44615384615384618</v>
+        <f t="shared" ref="BG236:BG239" si="747">SUM(AY230:AY236)/SUM(AX230:AX236)</f>
+        <v>0.46206896551724136</v>
       </c>
       <c r="BH236">
-        <f t="shared" ref="BH236:BH239" si="748">SUM(AZ230:AZ236)/SUM(AY230:AY236)</f>
-        <v>0.46206896551724136</v>
+        <f t="shared" ref="BH236:BH239" si="748">SUM(BA230:BA236)/SUM(AZ230:AZ236)</f>
+        <v>0.31145251396648044</v>
       </c>
       <c r="BI236">
-        <f t="shared" ref="BI236:BI239" si="749">SUM(BB230:BB236)/SUM(BA230:BA236)</f>
-        <v>0.31145251396648044</v>
-      </c>
-      <c r="BJ236">
-        <f t="shared" ref="BJ236:BJ239" si="750">SUM(BD230:BD236)/SUM(BC230:BC236)</f>
+        <f t="shared" ref="BI236:BI239" si="749">SUM(BC230:BC236)/SUM(BB230:BB236)</f>
         <v>0.61538461538461542</v>
       </c>
     </row>
-    <row r="237" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A237" s="14">
         <f t="shared" si="49"/>
         <v>44143</v>
@@ -27260,35 +27233,35 @@
         <v>0.14770160812666158</v>
       </c>
       <c r="Q237">
-        <f t="shared" ref="Q237" si="751">C237-C236</f>
+        <f t="shared" ref="Q237" si="750">C237-C236</f>
         <v>3871</v>
       </c>
       <c r="R237">
-        <f t="shared" ref="R237" si="752">M237-M236</f>
+        <f t="shared" ref="R237" si="751">M237-M236</f>
         <v>4404</v>
       </c>
       <c r="S237" s="8">
-        <f t="shared" ref="S237" si="753">Q237/U237</f>
+        <f t="shared" ref="S237" si="752">Q237/U237</f>
         <v>0.46779456193353475</v>
       </c>
       <c r="T237" s="8">
-        <f t="shared" ref="T237" si="754">SUM(Q231:Q237)/SUM(U231:U237)</f>
+        <f t="shared" ref="T237" si="753">SUM(Q231:Q237)/SUM(U231:U237)</f>
         <v>0.44082113545140483</v>
       </c>
       <c r="U237">
-        <f t="shared" ref="U237" si="755">B237-B236</f>
+        <f t="shared" ref="U237" si="754">B237-B236</f>
         <v>8275</v>
       </c>
       <c r="V237">
-        <f t="shared" ref="V237" si="756">C237-D237-E237</f>
+        <f t="shared" ref="V237" si="755">C237-D237-E237</f>
         <v>49567</v>
       </c>
       <c r="W237" s="3">
-        <f t="shared" ref="W237" si="757">F237/V237</f>
+        <f t="shared" ref="W237" si="756">F237/V237</f>
         <v>2.0013315310589707E-2</v>
       </c>
       <c r="X237">
-        <f t="shared" ref="X237" si="758">E237-E236</f>
+        <f t="shared" ref="X237" si="757">E237-E236</f>
         <v>14</v>
       </c>
       <c r="Y237">
@@ -27319,19 +27292,19 @@
         <v>108</v>
       </c>
       <c r="AH237">
-        <f t="shared" ref="AH237" si="759">Y237-AB237-AE237</f>
+        <f t="shared" ref="AH237" si="758">Y237-AB237-AE237</f>
         <v>476</v>
       </c>
       <c r="AI237">
-        <f t="shared" ref="AI237" si="760">Z237-AC237-AF237</f>
+        <f t="shared" ref="AI237" si="759">Z237-AC237-AF237</f>
         <v>146</v>
       </c>
       <c r="AJ237">
-        <f t="shared" ref="AJ237" si="761">AA237-AD237-AG237</f>
+        <f t="shared" ref="AJ237" si="760">AA237-AD237-AG237</f>
         <v>2596</v>
       </c>
       <c r="AK237">
-        <f t="shared" ref="AK237" si="762">-(J237-J236)+L237</f>
+        <f t="shared" ref="AK237" si="761">-(J237-J236)+L237</f>
         <v>-6</v>
       </c>
       <c r="AS237">
@@ -27339,66 +27312,63 @@
         <v>29</v>
       </c>
       <c r="AT237">
-        <f t="shared" si="733"/>
+        <f t="shared" si="732"/>
         <v>447</v>
       </c>
       <c r="AU237">
         <v>7634</v>
       </c>
       <c r="AV237">
-        <v>5438</v>
+        <v>2162</v>
       </c>
       <c r="AW237">
-        <v>2162</v>
+        <f>AV237/AU237</f>
+        <v>0.28320670683783078</v>
       </c>
       <c r="AX237">
-        <f t="shared" si="684"/>
-        <v>0.28320670683783078</v>
+        <v>69</v>
       </c>
       <c r="AY237">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="AZ237">
-        <v>20</v>
+        <v>362</v>
       </c>
       <c r="BA237">
-        <v>362</v>
+        <v>109</v>
       </c>
       <c r="BB237">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="BC237">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="BD237">
-        <v>9</v>
+        <f t="shared" si="733"/>
+        <v>0.28985507246376813</v>
       </c>
       <c r="BE237">
         <f t="shared" si="734"/>
-        <v>0.28985507246376813</v>
+        <v>0.30110497237569062</v>
       </c>
       <c r="BF237">
-        <f t="shared" si="735"/>
-        <v>0.30110497237569062</v>
+        <f t="shared" si="734"/>
+        <v>0.31192660550458717</v>
       </c>
       <c r="BG237">
-        <f t="shared" si="735"/>
-        <v>0.31192660550458717</v>
+        <f t="shared" si="747"/>
+        <v>0.40654205607476634</v>
       </c>
       <c r="BH237">
         <f t="shared" si="748"/>
-        <v>0.40654205607476634</v>
+        <v>0.3079777365491651</v>
       </c>
       <c r="BI237">
         <f t="shared" si="749"/>
-        <v>0.3079777365491651</v>
-      </c>
-      <c r="BJ237">
-        <f t="shared" si="750"/>
         <v>0.5089285714285714</v>
       </c>
     </row>
-    <row r="238" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A238" s="14">
         <f t="shared" si="49"/>
         <v>44144</v>
@@ -27442,35 +27412,35 @@
         <v>0.15065221526466163</v>
       </c>
       <c r="Q238">
-        <f t="shared" ref="Q238" si="763">C238-C237</f>
+        <f t="shared" ref="Q238" si="762">C238-C237</f>
         <v>4699</v>
       </c>
       <c r="R238">
-        <f t="shared" ref="R238" si="764">M238-M237</f>
+        <f t="shared" ref="R238" si="763">M238-M237</f>
         <v>6321</v>
       </c>
       <c r="S238" s="8">
-        <f t="shared" ref="S238" si="765">Q238/U238</f>
+        <f t="shared" ref="S238" si="764">Q238/U238</f>
         <v>0.4264065335753176</v>
       </c>
       <c r="T238" s="8">
-        <f t="shared" ref="T238" si="766">SUM(Q232:Q238)/SUM(U232:U238)</f>
+        <f t="shared" ref="T238" si="765">SUM(Q232:Q238)/SUM(U232:U238)</f>
         <v>0.44513645906228133</v>
       </c>
       <c r="U238">
-        <f t="shared" ref="U238" si="767">B238-B237</f>
+        <f t="shared" ref="U238" si="766">B238-B237</f>
         <v>11020</v>
       </c>
       <c r="V238">
-        <f t="shared" ref="V238" si="768">C238-D238-E238</f>
+        <f t="shared" ref="V238" si="767">C238-D238-E238</f>
         <v>53935</v>
       </c>
       <c r="W238" s="3">
-        <f t="shared" ref="W238" si="769">F238/V238</f>
+        <f t="shared" ref="W238" si="768">F238/V238</f>
         <v>1.9171224622230462E-2</v>
       </c>
       <c r="X238">
-        <f t="shared" ref="X238" si="770">E238-E237</f>
+        <f t="shared" ref="X238" si="769">E238-E237</f>
         <v>3</v>
       </c>
       <c r="Y238">
@@ -27501,19 +27471,19 @@
         <v>108</v>
       </c>
       <c r="AH238">
-        <f t="shared" ref="AH238" si="771">Y238-AB238-AE238</f>
+        <f t="shared" ref="AH238" si="770">Y238-AB238-AE238</f>
         <v>550</v>
       </c>
       <c r="AI238">
-        <f t="shared" ref="AI238" si="772">Z238-AC238-AF238</f>
+        <f t="shared" ref="AI238" si="771">Z238-AC238-AF238</f>
         <v>163</v>
       </c>
       <c r="AJ238">
-        <f t="shared" ref="AJ238" si="773">AA238-AD238-AG238</f>
+        <f t="shared" ref="AJ238" si="772">AA238-AD238-AG238</f>
         <v>2808</v>
       </c>
       <c r="AK238">
-        <f t="shared" ref="AK238" si="774">-(J238-J237)+L238</f>
+        <f t="shared" ref="AK238" si="773">-(J238-J237)+L238</f>
         <v>37</v>
       </c>
       <c r="AL238">
@@ -27530,66 +27500,63 @@
         <v>29</v>
       </c>
       <c r="AT238">
-        <f t="shared" ref="AT238" si="775">AH238-AS238</f>
+        <f t="shared" ref="AT238" si="774">AH238-AS238</f>
         <v>521</v>
       </c>
       <c r="AU238">
         <v>10700</v>
       </c>
       <c r="AV238">
-        <v>7694</v>
+        <v>2952</v>
       </c>
       <c r="AW238">
-        <v>2952</v>
+        <f>AV238/AU238</f>
+        <v>0.2758878504672897</v>
       </c>
       <c r="AX238">
-        <f t="shared" si="684"/>
-        <v>0.2758878504672897</v>
+        <v>113</v>
       </c>
       <c r="AY238">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="AZ238">
-        <v>37</v>
+        <v>375</v>
       </c>
       <c r="BA238">
-        <v>375</v>
+        <v>100</v>
       </c>
       <c r="BB238">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="BC238">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="BD238">
-        <v>17</v>
+        <f t="shared" si="733"/>
+        <v>0.32743362831858408</v>
       </c>
       <c r="BE238">
-        <f t="shared" si="734"/>
-        <v>0.32743362831858408</v>
+        <f t="shared" ref="BE238:BE241" si="775">BA238/AZ238</f>
+        <v>0.26666666666666666</v>
       </c>
       <c r="BF238">
-        <f t="shared" ref="BF238:BF240" si="776">BB238/BA238</f>
-        <v>0.26666666666666666</v>
+        <f t="shared" ref="BF238:BF241" si="776">BB238/BA238</f>
+        <v>0.41</v>
       </c>
       <c r="BG238">
-        <f t="shared" ref="BG238:BG240" si="777">BC238/BB238</f>
-        <v>0.41</v>
+        <f t="shared" si="747"/>
+        <v>0.37920489296636084</v>
       </c>
       <c r="BH238">
         <f t="shared" si="748"/>
-        <v>0.37920489296636084</v>
+        <v>0.29731589814177561</v>
       </c>
       <c r="BI238">
         <f t="shared" si="749"/>
-        <v>0.29731589814177561</v>
-      </c>
-      <c r="BJ238">
-        <f t="shared" si="750"/>
         <v>0.48366013071895425</v>
       </c>
     </row>
-    <row r="239" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A239" s="14">
         <f t="shared" si="49"/>
         <v>44145</v>
@@ -27633,35 +27600,35 @@
         <v>0.15359848809585044</v>
       </c>
       <c r="Q239">
-        <f t="shared" ref="Q239" si="778">C239-C238</f>
+        <f t="shared" ref="Q239" si="777">C239-C238</f>
         <v>4432</v>
       </c>
       <c r="R239">
-        <f t="shared" ref="R239" si="779">M239-M238</f>
+        <f t="shared" ref="R239" si="778">M239-M238</f>
         <v>4456</v>
       </c>
       <c r="S239" s="8">
-        <f t="shared" ref="S239" si="780">Q239/U239</f>
+        <f t="shared" ref="S239" si="779">Q239/U239</f>
         <v>0.49864986498649866</v>
       </c>
       <c r="T239" s="8">
-        <f t="shared" ref="T239" si="781">SUM(Q233:Q239)/SUM(U233:U239)</f>
+        <f t="shared" ref="T239" si="780">SUM(Q233:Q239)/SUM(U233:U239)</f>
         <v>0.455312978329171</v>
       </c>
       <c r="U239">
-        <f t="shared" ref="U239" si="782">B239-B238</f>
+        <f t="shared" ref="U239" si="781">B239-B238</f>
         <v>8888</v>
       </c>
       <c r="V239">
-        <f t="shared" ref="V239" si="783">C239-D239-E239</f>
+        <f t="shared" ref="V239" si="782">C239-D239-E239</f>
         <v>56489</v>
       </c>
       <c r="W239" s="3">
-        <f t="shared" ref="W239" si="784">F239/V239</f>
+        <f t="shared" ref="W239" si="783">F239/V239</f>
         <v>2.0092407371346634E-2</v>
       </c>
       <c r="X239">
-        <f t="shared" ref="X239" si="785">E239-E238</f>
+        <f t="shared" ref="X239" si="784">E239-E238</f>
         <v>27</v>
       </c>
       <c r="Y239">
@@ -27692,19 +27659,19 @@
         <v>110</v>
       </c>
       <c r="AH239">
-        <f t="shared" ref="AH239" si="786">Y239-AB239-AE239</f>
+        <f t="shared" ref="AH239" si="785">Y239-AB239-AE239</f>
         <v>575</v>
       </c>
       <c r="AI239">
-        <f t="shared" ref="AI239" si="787">Z239-AC239-AF239</f>
+        <f t="shared" ref="AI239" si="786">Z239-AC239-AF239</f>
         <v>186</v>
       </c>
       <c r="AJ239">
-        <f t="shared" ref="AJ239" si="788">AA239-AD239-AG239</f>
+        <f t="shared" ref="AJ239" si="787">AA239-AD239-AG239</f>
         <v>2896</v>
       </c>
       <c r="AK239">
-        <f t="shared" ref="AK239" si="789">-(J239-J238)+L239</f>
+        <f t="shared" ref="AK239" si="788">-(J239-J238)+L239</f>
         <v>12</v>
       </c>
       <c r="AL239">
@@ -27721,66 +27688,63 @@
         <v>28</v>
       </c>
       <c r="AT239">
-        <f t="shared" ref="AT239:AT240" si="790">AH239-AS239</f>
+        <f t="shared" ref="AT239:AT240" si="789">AH239-AS239</f>
         <v>547</v>
       </c>
       <c r="AU239">
         <v>9535</v>
       </c>
       <c r="AV239">
-        <v>6693</v>
+        <v>2782</v>
       </c>
       <c r="AW239">
-        <v>2782</v>
+        <f>AV239/AU239</f>
+        <v>0.29176717357105403</v>
       </c>
       <c r="AX239">
-        <f t="shared" si="684"/>
-        <v>0.29176717357105403</v>
+        <v>86</v>
       </c>
       <c r="AY239">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="AZ239">
-        <v>37</v>
+        <v>402</v>
       </c>
       <c r="BA239">
-        <v>402</v>
+        <v>129</v>
       </c>
       <c r="BB239">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="BC239">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="BD239">
-        <v>21</v>
+        <f t="shared" si="733"/>
+        <v>0.43023255813953487</v>
       </c>
       <c r="BE239">
-        <f t="shared" si="734"/>
-        <v>0.43023255813953487</v>
+        <f t="shared" si="775"/>
+        <v>0.32089552238805968</v>
       </c>
       <c r="BF239">
         <f t="shared" si="776"/>
-        <v>0.32089552238805968</v>
+        <v>0.44961240310077522</v>
       </c>
       <c r="BG239">
-        <f t="shared" si="777"/>
-        <v>0.44961240310077522</v>
+        <f t="shared" si="747"/>
+        <v>0.38983050847457629</v>
       </c>
       <c r="BH239">
         <f t="shared" si="748"/>
-        <v>0.38983050847457629</v>
+        <v>0.30242587601078169</v>
       </c>
       <c r="BI239">
         <f t="shared" si="749"/>
-        <v>0.30242587601078169</v>
-      </c>
-      <c r="BJ239">
-        <f t="shared" si="750"/>
         <v>0.45023696682464454</v>
       </c>
     </row>
-    <row r="240" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A240" s="14">
         <f t="shared" si="49"/>
         <v>44146</v>
@@ -27824,35 +27788,35 @@
         <v>0.15666718567903332</v>
       </c>
       <c r="Q240">
-        <f t="shared" ref="Q240" si="791">C240-C239</f>
+        <f t="shared" ref="Q240" si="790">C240-C239</f>
         <v>4773</v>
       </c>
       <c r="R240">
-        <f t="shared" ref="R240" si="792">M240-M239</f>
+        <f t="shared" ref="R240" si="791">M240-M239</f>
         <v>5130</v>
       </c>
       <c r="S240" s="8">
-        <f t="shared" ref="S240" si="793">Q240/U240</f>
+        <f t="shared" ref="S240" si="792">Q240/U240</f>
         <v>0.48197515904271432</v>
       </c>
       <c r="T240" s="8">
-        <f t="shared" ref="T240" si="794">SUM(Q234:Q240)/SUM(U234:U240)</f>
+        <f t="shared" ref="T240" si="793">SUM(Q234:Q240)/SUM(U234:U240)</f>
         <v>0.46117769671704012</v>
       </c>
       <c r="U240">
-        <f t="shared" ref="U240" si="795">B240-B239</f>
+        <f t="shared" ref="U240" si="794">B240-B239</f>
         <v>9903</v>
       </c>
       <c r="V240">
-        <f t="shared" ref="V240" si="796">C240-D240-E240</f>
+        <f t="shared" ref="V240" si="795">C240-D240-E240</f>
         <v>59910</v>
       </c>
       <c r="W240" s="3">
-        <f t="shared" ref="W240" si="797">F240/V240</f>
+        <f t="shared" ref="W240" si="796">F240/V240</f>
         <v>1.986312802537139E-2</v>
       </c>
       <c r="X240">
-        <f t="shared" ref="X240" si="798">E240-E239</f>
+        <f t="shared" ref="X240" si="797">E240-E239</f>
         <v>26</v>
       </c>
       <c r="Y240">
@@ -27883,83 +27847,260 @@
         <v>110</v>
       </c>
       <c r="AH240">
-        <f t="shared" ref="AH240" si="799">Y240-AB240-AE240</f>
+        <f t="shared" ref="AH240" si="798">Y240-AB240-AE240</f>
         <v>648</v>
       </c>
       <c r="AI240">
-        <f t="shared" ref="AI240" si="800">Z240-AC240-AF240</f>
+        <f t="shared" ref="AI240" si="799">Z240-AC240-AF240</f>
         <v>219</v>
       </c>
       <c r="AJ240">
-        <f t="shared" ref="AJ240" si="801">AA240-AD240-AG240</f>
+        <f t="shared" ref="AJ240" si="800">AA240-AD240-AG240</f>
         <v>3156</v>
       </c>
       <c r="AK240">
-        <f t="shared" ref="AK240" si="802">-(J240-J239)+L240</f>
+        <f t="shared" ref="AK240:AK241" si="801">-(J240-J239)+L240</f>
         <v>41</v>
+      </c>
+      <c r="AL240">
+        <v>33</v>
+      </c>
+      <c r="AM240">
+        <v>33</v>
+      </c>
+      <c r="AN240">
+        <v>140</v>
       </c>
       <c r="AS240">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A240)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A240)</f>
         <v>28</v>
       </c>
       <c r="AT240">
-        <f t="shared" si="790"/>
+        <f t="shared" si="789"/>
         <v>620</v>
       </c>
       <c r="AU240">
         <v>7551</v>
       </c>
       <c r="AV240">
-        <v>5319</v>
+        <v>2213</v>
       </c>
       <c r="AW240">
-        <v>2213</v>
+        <f>AV240/AU240</f>
+        <v>0.29307376506422989</v>
       </c>
       <c r="AX240">
-        <f t="shared" si="684"/>
-        <v>0.29307376506422989</v>
+        <v>99</v>
       </c>
       <c r="AY240">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AZ240">
-        <v>38</v>
+        <v>403</v>
       </c>
       <c r="BA240">
-        <v>403</v>
+        <v>137</v>
       </c>
       <c r="BB240">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="BC240">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="BD240">
-        <v>17</v>
+        <f t="shared" si="733"/>
+        <v>0.38383838383838381</v>
       </c>
       <c r="BE240">
-        <f t="shared" si="734"/>
-        <v>0.38383838383838381</v>
+        <f t="shared" si="775"/>
+        <v>0.33995037220843671</v>
       </c>
       <c r="BF240">
         <f t="shared" si="776"/>
-        <v>0.33995037220843671</v>
+        <v>0.45255474452554745</v>
       </c>
       <c r="BG240">
-        <f t="shared" si="777"/>
-        <v>0.45255474452554745</v>
+        <f>SUM(AY234:AY240)/SUM(AX234:AX240)</f>
+        <v>0.388671875</v>
       </c>
       <c r="BH240">
-        <f>SUM(AZ234:AZ240)/SUM(AY234:AY240)</f>
-        <v>0.388671875</v>
+        <f>SUM(BA234:BA240)/SUM(AZ234:AZ240)</f>
+        <v>0.30912311780336582</v>
       </c>
       <c r="BI240">
-        <f>SUM(BB234:BB240)/SUM(BA234:BA240)</f>
-        <v>0.30912311780336582</v>
-      </c>
-      <c r="BJ240">
-        <f>SUM(BD234:BD240)/SUM(BC234:BC240)</f>
+        <f>SUM(BC234:BC240)/SUM(BB234:BB240)</f>
         <v>0.41025641025641024</v>
+      </c>
+    </row>
+    <row r="241" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A241" s="14">
+        <f t="shared" si="49"/>
+        <v>44147</v>
+      </c>
+      <c r="B241">
+        <v>1068253</v>
+      </c>
+      <c r="C241">
+        <v>170338</v>
+      </c>
+      <c r="D241">
+        <v>105356</v>
+      </c>
+      <c r="E241" s="9">
+        <v>1927</v>
+      </c>
+      <c r="F241" s="9">
+        <v>1208</v>
+      </c>
+      <c r="H241">
+        <v>215</v>
+      </c>
+      <c r="I241">
+        <v>207</v>
+      </c>
+      <c r="J241">
+        <v>323</v>
+      </c>
+      <c r="K241">
+        <v>44</v>
+      </c>
+      <c r="L241">
+        <v>52</v>
+      </c>
+      <c r="M241" s="7">
+        <f t="shared" si="380"/>
+        <v>897915</v>
+      </c>
+      <c r="N241" s="4">
+        <f t="shared" si="381"/>
+        <v>0.15945473590993894</v>
+      </c>
+      <c r="Q241">
+        <f t="shared" ref="Q241" si="802">C241-C240</f>
+        <v>4317</v>
+      </c>
+      <c r="R241">
+        <f t="shared" ref="R241" si="803">M241-M240</f>
+        <v>4231</v>
+      </c>
+      <c r="S241" s="8">
+        <f t="shared" ref="S241" si="804">Q241/U241</f>
+        <v>0.50503041647168934</v>
+      </c>
+      <c r="T241" s="8">
+        <f t="shared" ref="T241" si="805">SUM(Q235:Q241)/SUM(U235:U241)</f>
+        <v>0.46934225195094759</v>
+      </c>
+      <c r="U241">
+        <f t="shared" ref="U241" si="806">B241-B240</f>
+        <v>8548</v>
+      </c>
+      <c r="V241">
+        <f t="shared" ref="V241" si="807">C241-D241-E241</f>
+        <v>63055</v>
+      </c>
+      <c r="W241" s="3">
+        <f t="shared" ref="W241" si="808">F241/V241</f>
+        <v>1.9157878042978353E-2</v>
+      </c>
+      <c r="X241">
+        <f t="shared" ref="X241" si="809">E241-E240</f>
+        <v>29</v>
+      </c>
+      <c r="Y241">
+        <v>1285</v>
+      </c>
+      <c r="Z241">
+        <v>679</v>
+      </c>
+      <c r="AA241">
+        <v>8384</v>
+      </c>
+      <c r="AB241">
+        <v>598</v>
+      </c>
+      <c r="AC241">
+        <v>432</v>
+      </c>
+      <c r="AD241">
+        <v>4996</v>
+      </c>
+      <c r="AE241">
+        <v>12</v>
+      </c>
+      <c r="AF241">
+        <v>3</v>
+      </c>
+      <c r="AG241">
+        <v>112</v>
+      </c>
+      <c r="AH241">
+        <f t="shared" ref="AH241" si="810">Y241-AB241-AE241</f>
+        <v>675</v>
+      </c>
+      <c r="AI241">
+        <f t="shared" ref="AI241" si="811">Z241-AC241-AF241</f>
+        <v>244</v>
+      </c>
+      <c r="AJ241">
+        <f t="shared" ref="AJ241" si="812">AA241-AD241-AG241</f>
+        <v>3276</v>
+      </c>
+      <c r="AK241">
+        <f t="shared" si="801"/>
+        <v>40</v>
+      </c>
+      <c r="AU241">
+        <v>9410</v>
+      </c>
+      <c r="AV241">
+        <v>2752</v>
+      </c>
+      <c r="AW241">
+        <f>AV241/AU241</f>
+        <v>0.29245483528161531</v>
+      </c>
+      <c r="AX241">
+        <v>110</v>
+      </c>
+      <c r="AY241">
+        <v>31</v>
+      </c>
+      <c r="AZ241">
+        <v>336</v>
+      </c>
+      <c r="BA241">
+        <v>115</v>
+      </c>
+      <c r="BB241">
+        <v>27</v>
+      </c>
+      <c r="BC241">
+        <v>15</v>
+      </c>
+      <c r="BD241">
+        <f t="shared" si="733"/>
+        <v>0.2818181818181818</v>
+      </c>
+      <c r="BE241">
+        <f t="shared" si="775"/>
+        <v>0.34226190476190477</v>
+      </c>
+      <c r="BF241">
+        <f t="shared" si="776"/>
+        <v>0.23478260869565218</v>
+      </c>
+      <c r="BG241">
+        <f>SUM(AY235:AY241)/SUM(AX235:AX241)</f>
+        <v>0.36977491961414793</v>
+      </c>
+      <c r="BH241">
+        <f>SUM(BA235:BA241)/SUM(AZ235:AZ241)</f>
+        <v>0.31341557440246726</v>
+      </c>
+      <c r="BI241">
+        <f>SUM(BC235:BC241)/SUM(BB235:BB241)</f>
+        <v>0.42333333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -27987,7 +28128,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>Q228:Q240</xm:sqref>
+          <xm:sqref>Q228:Q241</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="22" operator="equal" id="{E5309D98-D036-43E8-AE0C-F104DC358831}">
@@ -28003,7 +28144,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>X228:X240</xm:sqref>
+          <xm:sqref>X228:X241</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5269D26C-9211-46B2-914A-48345DF37DEF}">
@@ -28019,7 +28160,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F228:F240</xm:sqref>
+          <xm:sqref>F228:F241</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="20" operator="equal" id="{24843253-84F3-44AF-847D-C74D74C4F05A}">
@@ -28051,7 +28192,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J228:J240</xm:sqref>
+          <xm:sqref>J228:J241</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="18" operator="equal" id="{6F562D16-6A18-4369-973E-028D1B5F7CFF}">
@@ -28067,7 +28208,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K228:K240</xm:sqref>
+          <xm:sqref>K228:K241</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{735BDD8A-2F04-47F3-825F-41FCBFA8ADD5}">
@@ -28131,7 +28272,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AH228:AH240</xm:sqref>
+          <xm:sqref>AH228:AH241</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="12" operator="equal" id="{A5D8B9CD-D171-4616-8063-8E2F3DB2617E}">
@@ -28147,7 +28288,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AI228:AI240</xm:sqref>
+          <xm:sqref>AI228:AI241</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="11" operator="equal" id="{525B83D9-8CB5-4E31-BB6E-B59F9B6585E1}">
@@ -28307,7 +28448,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H1:H1048576 I229:I240</xm:sqref>
+          <xm:sqref>H1:H1048576 I229:I241</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{8F0BE21B-C8AC-4EAD-AE58-244C59D5B0FC}">
@@ -28323,7 +28464,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>V229:V240</xm:sqref>
+          <xm:sqref>V229:V241</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -31463,7 +31604,7 @@
         <v>1229446</v>
       </c>
       <c r="B146" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C146" s="1">
         <v>44110</v>
@@ -31485,7 +31626,7 @@
         <v>1222805</v>
       </c>
       <c r="B147" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C147" s="1">
         <v>44111</v>
@@ -31507,7 +31648,7 @@
         <v>1222082</v>
       </c>
       <c r="B148" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C148" s="1">
         <v>44112</v>
@@ -31529,7 +31670,7 @@
         <v>1223479</v>
       </c>
       <c r="B149" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C149" s="1">
         <v>44112</v>
@@ -31551,7 +31692,7 @@
         <v>1102304</v>
       </c>
       <c r="B150" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C150" s="1">
         <v>44112</v>
@@ -31573,7 +31714,7 @@
         <v>1222081</v>
       </c>
       <c r="B151" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C151" s="1">
         <v>44113</v>
@@ -31595,7 +31736,7 @@
         <v>1225489</v>
       </c>
       <c r="B152" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C152" s="1">
         <v>44117</v>
@@ -31617,7 +31758,7 @@
         <v>1221522</v>
       </c>
       <c r="B153" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C153" s="1">
         <v>44119</v>
@@ -31639,7 +31780,7 @@
         <v>1224379</v>
       </c>
       <c r="B154" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C154" s="1">
         <v>44120</v>
@@ -31661,7 +31802,7 @@
         <v>1240856</v>
       </c>
       <c r="B155" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C155" s="1">
         <v>44123</v>
@@ -31683,7 +31824,7 @@
         <v>1244604</v>
       </c>
       <c r="B156" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C156" s="1">
         <v>44123</v>
@@ -31705,7 +31846,7 @@
         <v>1237157</v>
       </c>
       <c r="B157" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C157" s="1">
         <v>44124</v>
@@ -31727,7 +31868,7 @@
         <v>1221448</v>
       </c>
       <c r="B158" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C158" s="1">
         <v>44125</v>
@@ -31749,7 +31890,7 @@
         <v>1223242</v>
       </c>
       <c r="B159" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C159" s="1">
         <v>44126</v>
@@ -31771,7 +31912,7 @@
         <v>1242700</v>
       </c>
       <c r="B160" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C160" s="1">
         <v>44130</v>
@@ -31793,7 +31934,7 @@
         <v>1242244</v>
       </c>
       <c r="B161" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C161" s="1">
         <v>44130</v>
@@ -31815,7 +31956,7 @@
         <v>1243568</v>
       </c>
       <c r="B162" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C162" s="1">
         <v>44130</v>
@@ -31837,7 +31978,7 @@
         <v>1102524</v>
       </c>
       <c r="B163" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C163" s="1">
         <v>44127</v>
@@ -31859,7 +32000,7 @@
         <v>1230152</v>
       </c>
       <c r="B164" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C164" s="1">
         <v>44133</v>
@@ -31881,7 +32022,7 @@
         <v>1239264</v>
       </c>
       <c r="B165" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C165" s="1">
         <v>44133</v>
@@ -31903,7 +32044,7 @@
         <v>1233238</v>
       </c>
       <c r="B166" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C166" s="1">
         <v>44133</v>
@@ -31925,7 +32066,7 @@
         <v>1233722</v>
       </c>
       <c r="B167" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C167" s="1">
         <v>44133</v>
@@ -31947,7 +32088,7 @@
         <v>1227803</v>
       </c>
       <c r="B168" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C168" s="1">
         <v>44133</v>
@@ -31969,7 +32110,7 @@
         <v>1234192</v>
       </c>
       <c r="B169" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C169" s="1">
         <v>44133</v>
@@ -31991,7 +32132,7 @@
         <v>1221905</v>
       </c>
       <c r="B170" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C170" s="1">
         <v>44133</v>
@@ -32013,7 +32154,7 @@
         <v>1234627</v>
       </c>
       <c r="B171" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C171" s="1">
         <v>44133</v>
@@ -32035,7 +32176,7 @@
         <v>1240846</v>
       </c>
       <c r="B172" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C172" s="1">
         <v>44133</v>
@@ -32057,7 +32198,7 @@
         <v>1093922</v>
       </c>
       <c r="B173" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C173" s="1">
         <v>44133</v>
@@ -32079,7 +32220,7 @@
         <v>1224940</v>
       </c>
       <c r="B174" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C174" s="1">
         <v>44133</v>
@@ -32101,7 +32242,7 @@
         <v>0</v>
       </c>
       <c r="B175" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C175" s="1" t="e">
         <v>#N/A</v>
@@ -32123,7 +32264,7 @@
         <v>1233860</v>
       </c>
       <c r="B176" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C176" s="1">
         <v>44133</v>
@@ -32145,7 +32286,7 @@
         <v>1238899</v>
       </c>
       <c r="B177" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C177" s="1">
         <v>44133</v>
@@ -32167,7 +32308,7 @@
         <v>1240655</v>
       </c>
       <c r="B178" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C178" s="1">
         <v>44133</v>
@@ -32189,7 +32330,7 @@
         <v>983760</v>
       </c>
       <c r="B179" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C179" s="1">
         <v>44133</v>
@@ -32211,7 +32352,7 @@
         <v>1225136</v>
       </c>
       <c r="B180" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C180" s="1">
         <v>44133</v>
@@ -32233,7 +32374,7 @@
         <v>1093304</v>
       </c>
       <c r="B181" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C181" s="1">
         <v>44133</v>
@@ -32393,7 +32534,7 @@
       </c>
       <c r="F2">
         <f>MAX(covid19!F:F)</f>
-        <v>1190</v>
+        <v>1208</v>
       </c>
       <c r="G2">
         <f>MAX(covid19!G:G)</f>
@@ -32401,11 +32542,11 @@
       </c>
       <c r="H2">
         <f>MAX(covid19!H:H)</f>
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="I2">
         <f>MAX(covid19!J:J)</f>
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="J2">
         <f>MAX(covid19!K:K)</f>
@@ -32421,7 +32562,7 @@
       </c>
       <c r="M2">
         <f>MAX(covid19!T:T)</f>
-        <v>0.46117769671704012</v>
+        <v>0.46934225195094759</v>
       </c>
       <c r="N2">
         <f>MAX(covid19!U:U)</f>
@@ -32429,7 +32570,7 @@
       </c>
       <c r="O2">
         <f>MAX(covid19!V:V)</f>
-        <v>59910</v>
+        <v>63055</v>
       </c>
       <c r="P2">
         <f>MAX(covid19!W:W)</f>
@@ -32437,7 +32578,7 @@
       </c>
       <c r="Q2">
         <f>MAX(covid19!X:X)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R2">
         <f>MAX(covid19!AE:AE)</f>
@@ -32449,19 +32590,19 @@
       </c>
       <c r="T2">
         <f>MAX(covid19!AG:AG)</f>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U2">
         <f>MAX(covid19!AH:AH)</f>
-        <v>648</v>
+        <v>675</v>
       </c>
       <c r="V2">
         <f>MAX(covid19!AI:AI)</f>
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="W2">
         <f>MAX(covid19!AJ:AJ)</f>
-        <v>3156</v>
+        <v>3276</v>
       </c>
       <c r="X2">
         <f>MAX(covid19!AL:AL)</f>
@@ -32473,7 +32614,7 @@
       </c>
       <c r="Z2">
         <f>MAX(covid19!AN:AN)</f>
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA2">
         <f>MAX(covid19!AO:AO)</f>
@@ -57765,57 +57906,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
@@ -57825,7 +57966,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
@@ -57835,7 +57976,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
@@ -57845,7 +57986,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
@@ -57855,7 +57996,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
@@ -57865,7 +58006,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
@@ -57875,7 +58016,7 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
@@ -57885,7 +58026,7 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
@@ -57895,7 +58036,7 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
@@ -57905,7 +58046,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
@@ -57915,7 +58056,7 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
@@ -57925,7 +58066,7 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
@@ -57935,7 +58076,7 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
@@ -57945,7 +58086,7 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
@@ -57955,7 +58096,7 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
@@ -57965,7 +58106,7 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
@@ -57975,7 +58116,7 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -57985,16 +58126,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" t="s">
+        <v>243</v>
+      </c>
+      <c r="C50" t="s">
+        <v>211</v>
+      </c>
+      <c r="D50" t="s">
         <v>249</v>
-      </c>
-      <c r="B50" t="s">
-        <v>244</v>
-      </c>
-      <c r="C50" t="s">
-        <v>212</v>
-      </c>
-      <c r="D50" t="s">
-        <v>250</v>
       </c>
       <c r="E50" t="s">
         <v>38</v>
@@ -58002,7 +58143,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B51">
         <v>166035</v>
@@ -58019,7 +58160,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B52">
         <v>39906</v>
@@ -58036,7 +58177,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B53">
         <v>70110</v>
@@ -58053,7 +58194,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B54">
         <v>44343</v>
@@ -58070,7 +58211,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B55">
         <v>49436</v>
@@ -58087,7 +58228,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B56">
         <v>38461</v>
@@ -58104,7 +58245,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B57">
         <v>50502</v>
@@ -58121,7 +58262,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B58">
         <v>35486</v>
@@ -58138,7 +58279,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B59">
         <v>32511</v>
@@ -58155,7 +58296,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B60">
         <v>28649</v>
@@ -58172,7 +58313,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B61">
         <v>10298</v>
@@ -58189,7 +58330,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B62">
         <v>13681</v>
@@ -58206,7 +58347,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B63">
         <v>10712</v>
@@ -58223,7 +58364,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B64">
         <v>14948</v>
@@ -58240,7 +58381,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B65">
         <v>8740</v>
@@ -58257,7 +58398,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B66">
         <v>14609</v>
@@ -58274,7 +58415,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B67">
         <v>13047</v>
@@ -58291,7 +58432,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B68">
         <v>12859</v>
@@ -58308,7 +58449,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B69">
         <v>10185</v>
@@ -58325,7 +58466,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B70">
         <v>12641</v>
@@ -58342,7 +58483,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B71">
         <v>16343</v>
@@ -58359,7 +58500,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B72">
         <v>10589</v>
@@ -58376,7 +58517,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B73">
         <v>6286</v>
@@ -58393,7 +58534,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B74">
         <v>7564</v>
@@ -58410,7 +58551,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B75">
         <v>9030</v>
@@ -58427,7 +58568,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B76">
         <v>6734</v>
@@ -58444,7 +58585,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B77">
         <v>6161</v>
@@ -58461,7 +58602,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B78">
         <v>9275</v>
@@ -58478,7 +58619,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B79">
         <v>5572</v>
@@ -58495,7 +58636,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B80">
         <v>6924</v>
@@ -58512,7 +58653,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B81">
         <v>5094</v>
@@ -58529,7 +58670,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B82">
         <v>5507</v>
@@ -58546,7 +58687,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B83">
         <v>6654</v>
@@ -58563,7 +58704,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B84">
         <v>4158</v>
@@ -58580,7 +58721,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B85">
         <v>7584</v>
@@ -58597,7 +58738,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B86">
         <v>5434</v>
@@ -58614,7 +58755,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B87">
         <v>8054</v>
@@ -58631,7 +58772,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B88">
         <v>6418</v>
@@ -58648,7 +58789,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B89">
         <v>7067</v>
@@ -58665,7 +58806,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B90">
         <v>4013</v>
@@ -58682,7 +58823,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B91">
         <v>4993</v>
@@ -58699,7 +58840,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B92">
         <v>4280</v>
@@ -58716,7 +58857,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B93">
         <v>5793</v>
@@ -58733,7 +58874,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B94">
         <v>5001</v>
@@ -58750,7 +58891,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B95">
         <v>3809</v>
@@ -58767,7 +58908,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B96">
         <v>5381</v>
@@ -58784,7 +58925,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B97">
         <v>2665</v>
@@ -58801,7 +58942,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B98">
         <v>3415</v>
@@ -58818,7 +58959,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B99">
         <v>3587</v>
@@ -58835,7 +58976,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B100">
         <v>5141</v>
@@ -58852,7 +58993,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B101">
         <v>3907</v>
@@ -58869,7 +59010,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B102">
         <v>5777</v>
@@ -58886,7 +59027,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B103">
         <v>4609</v>
@@ -58903,7 +59044,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B104">
         <v>4846</v>
@@ -58920,7 +59061,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B105">
         <v>5098</v>
@@ -58937,7 +59078,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B106">
         <v>4578</v>
@@ -58954,7 +59095,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B107">
         <v>3911</v>
@@ -58971,7 +59112,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B108">
         <v>4750</v>
@@ -58988,7 +59129,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B109">
         <v>5362</v>
@@ -59005,7 +59146,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B110">
         <v>4261</v>
@@ -59022,7 +59163,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B111">
         <v>3436</v>
@@ -59039,7 +59180,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B112">
         <v>3600</v>
@@ -59056,7 +59197,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B113">
         <v>3473</v>
@@ -59073,7 +59214,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B114">
         <v>3004</v>
@@ -59090,7 +59231,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B115">
         <v>3465</v>
@@ -59107,7 +59248,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B116">
         <v>3170</v>
@@ -59124,7 +59265,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B117">
         <v>3601</v>
@@ -59141,7 +59282,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B118">
         <v>3497</v>
@@ -59158,7 +59299,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B119">
         <v>3217</v>
@@ -59175,7 +59316,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B120">
         <v>3057</v>
@@ -59192,7 +59333,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B121">
         <v>3044</v>
@@ -59209,7 +59350,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B122">
         <v>4453</v>
@@ -59226,7 +59367,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B123">
         <v>3447</v>
@@ -59243,7 +59384,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B124">
         <v>2779</v>
@@ -59260,7 +59401,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B125">
         <v>2912</v>
@@ -59277,7 +59418,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B126">
         <v>3471</v>
@@ -59294,7 +59435,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B127">
         <v>1489</v>
@@ -59311,7 +59452,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B128">
         <v>4105</v>
@@ -59328,7 +59469,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B129">
         <v>3946</v>
@@ -59345,7 +59486,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B130">
         <v>2286</v>
@@ -59362,7 +59503,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B131">
         <v>2586</v>
@@ -59379,7 +59520,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B132">
         <v>1877</v>
@@ -59396,7 +59537,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B133">
         <v>1649</v>
@@ -59413,7 +59554,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B134">
         <v>1967</v>
@@ -59430,7 +59571,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B135">
         <v>2386</v>
@@ -59447,7 +59588,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B136">
         <v>2306</v>
@@ -59464,7 +59605,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B137">
         <v>2200</v>
@@ -59481,7 +59622,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B138">
         <v>2656</v>
@@ -59498,7 +59639,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B139">
         <v>2522</v>
@@ -59515,7 +59656,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B140">
         <v>1785</v>
@@ -59532,7 +59673,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B141">
         <v>1653</v>
@@ -59549,7 +59690,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B142">
         <v>2174</v>
@@ -59566,7 +59707,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B143">
         <v>1608</v>
@@ -59583,7 +59724,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B144">
         <v>6561</v>
@@ -59600,7 +59741,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B145">
         <v>1568</v>
@@ -59617,7 +59758,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B146">
         <v>1430</v>
@@ -59634,7 +59775,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B147">
         <v>2088</v>
@@ -59651,7 +59792,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B148">
         <v>2169</v>
@@ -59668,7 +59809,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B149">
         <v>1533</v>
@@ -59685,7 +59826,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B150">
         <v>904</v>
@@ -59702,37 +59843,37 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682E5C43-5D13-44B6-84EE-54C2334C6CA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0394C5AF-3BD1-4AFB-9B1E-403AEA1D25CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="399">
   <si>
     <t>date</t>
   </si>
@@ -1215,6 +1215,15 @@
   <si>
     <t>Butler 7Day</t>
   </si>
+  <si>
+    <t>Bremer School</t>
+  </si>
+  <si>
+    <t>Black Hawk School</t>
+  </si>
+  <si>
+    <t>Butler School</t>
+  </si>
 </sst>
 </file>
 
@@ -2378,13 +2387,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BI241"/>
+  <dimension ref="A1:BL242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AZ234" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AW232" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK240" sqref="AK240:AK241"/>
+      <selection pane="bottomRight" activeCell="BF247" sqref="BF247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2394,9 +2403,10 @@
     <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="41" max="45" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2577,8 +2587,17 @@
       <c r="BI1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="BJ1" t="s">
+        <v>396</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>397</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>43898</v>
       </c>
@@ -2607,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>43899</v>
       </c>
@@ -2642,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>43900</v>
       </c>
@@ -2680,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>43901</v>
       </c>
@@ -2721,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>43903</v>
       </c>
@@ -2756,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>43904</v>
       </c>
@@ -2791,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>43908</v>
       </c>
@@ -2830,7 +2849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>43909</v>
       </c>
@@ -2872,7 +2891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>43913</v>
       </c>
@@ -2921,7 +2940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>43914</v>
       </c>
@@ -2957,7 +2976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>43917</v>
       </c>
@@ -2996,7 +3015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>43918</v>
       </c>
@@ -3048,7 +3067,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>43919</v>
       </c>
@@ -3112,7 +3131,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>43920</v>
       </c>
@@ -3176,7 +3195,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>43921</v>
       </c>
@@ -15612,7 +15631,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="14">
-        <f t="shared" ref="A152:A241" si="49">A151+1</f>
+        <f t="shared" ref="A152:A242" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -22519,11 +22538,11 @@
         <v>17</v>
       </c>
       <c r="M203" s="7">
-        <f t="shared" ref="M203:M241" si="380">B203-C203</f>
+        <f t="shared" ref="M203:M242" si="380">B203-C203</f>
         <v>730923</v>
       </c>
       <c r="N203" s="4">
-        <f t="shared" ref="N203:N241" si="381">C203/B203</f>
+        <f t="shared" ref="N203:N242" si="381">C203/B203</f>
         <v>0.11270554987702819</v>
       </c>
       <c r="Q203">
@@ -26389,7 +26408,7 @@
         <v>1085</v>
       </c>
       <c r="AW231">
-        <f>AV231/AU231</f>
+        <f t="shared" ref="AW231:AW242" si="684">AV231/AU231</f>
         <v>0.21274509803921568</v>
       </c>
     </row>
@@ -26437,35 +26456,35 @@
         <v>0.13464009144134523</v>
       </c>
       <c r="Q232">
-        <f t="shared" ref="Q232" si="684">C232-C231</f>
+        <f t="shared" ref="Q232" si="685">C232-C231</f>
         <v>1617</v>
       </c>
       <c r="R232">
-        <f t="shared" ref="R232" si="685">M232-M231</f>
+        <f t="shared" ref="R232" si="686">M232-M231</f>
         <v>2366</v>
       </c>
       <c r="S232" s="8">
-        <f t="shared" ref="S232" si="686">Q232/U232</f>
+        <f t="shared" ref="S232" si="687">Q232/U232</f>
         <v>0.40597539543057998</v>
       </c>
       <c r="T232" s="8">
-        <f t="shared" ref="T232" si="687">SUM(Q226:Q232)/SUM(U226:U232)</f>
+        <f t="shared" ref="T232" si="688">SUM(Q226:Q232)/SUM(U226:U232)</f>
         <v>0.35145888594164454</v>
       </c>
       <c r="U232">
-        <f t="shared" ref="U232" si="688">B232-B231</f>
+        <f t="shared" ref="U232" si="689">B232-B231</f>
         <v>3983</v>
       </c>
       <c r="V232">
-        <f t="shared" ref="V232" si="689">C232-D232-E232</f>
+        <f t="shared" ref="V232" si="690">C232-D232-E232</f>
         <v>35823</v>
       </c>
       <c r="W232" s="3">
-        <f t="shared" ref="W232" si="690">F232/V232</f>
+        <f t="shared" ref="W232" si="691">F232/V232</f>
         <v>2.0377969460960835E-2</v>
       </c>
       <c r="X232">
-        <f t="shared" ref="X232" si="691">E232-E231</f>
+        <f t="shared" ref="X232" si="692">E232-E231</f>
         <v>22</v>
       </c>
       <c r="Y232">
@@ -26496,15 +26515,15 @@
         <v>104</v>
       </c>
       <c r="AH232">
-        <f t="shared" ref="AH232" si="692">Y232-AB232-AE232</f>
+        <f t="shared" ref="AH232" si="693">Y232-AB232-AE232</f>
         <v>292</v>
       </c>
       <c r="AI232">
-        <f t="shared" ref="AI232" si="693">Z232-AC232-AF232</f>
+        <f t="shared" ref="AI232" si="694">Z232-AC232-AF232</f>
         <v>81</v>
       </c>
       <c r="AJ232">
-        <f t="shared" ref="AJ232" si="694">AA232-AD232-AG232</f>
+        <f t="shared" ref="AJ232" si="695">AA232-AD232-AG232</f>
         <v>1813</v>
       </c>
       <c r="AK232">
@@ -26516,7 +26535,7 @@
         <v>14</v>
       </c>
       <c r="AT232">
-        <f t="shared" ref="AT232:AT234" si="695">AH232-AS232</f>
+        <f t="shared" ref="AT232:AT234" si="696">AH232-AS232</f>
         <v>278</v>
       </c>
       <c r="AU232">
@@ -26526,7 +26545,7 @@
         <v>866</v>
       </c>
       <c r="AW232">
-        <f>AV232/AU232</f>
+        <f t="shared" si="684"/>
         <v>0.25523135867963453</v>
       </c>
     </row>
@@ -26574,35 +26593,35 @@
         <v>0.13668839037104596</v>
       </c>
       <c r="Q233">
-        <f t="shared" ref="Q233" si="696">C233-C232</f>
+        <f t="shared" ref="Q233" si="697">C233-C232</f>
         <v>2942</v>
       </c>
       <c r="R233">
-        <f t="shared" ref="R233" si="697">M233-M232</f>
+        <f t="shared" ref="R233" si="698">M233-M232</f>
         <v>3780</v>
       </c>
       <c r="S233" s="8">
-        <f t="shared" ref="S233" si="698">Q233/U233</f>
+        <f t="shared" ref="S233" si="699">Q233/U233</f>
         <v>0.43766736090449271</v>
       </c>
       <c r="T233" s="8">
-        <f t="shared" ref="T233" si="699">SUM(Q227:Q233)/SUM(U227:U233)</f>
+        <f t="shared" ref="T233" si="700">SUM(Q227:Q233)/SUM(U227:U233)</f>
         <v>0.36424546977310795</v>
       </c>
       <c r="U233">
-        <f t="shared" ref="U233" si="700">B233-B232</f>
+        <f t="shared" ref="U233" si="701">B233-B232</f>
         <v>6722</v>
       </c>
       <c r="V233">
-        <f t="shared" ref="V233" si="701">C233-D233-E233</f>
+        <f t="shared" ref="V233" si="702">C233-D233-E233</f>
         <v>37531</v>
       </c>
       <c r="W233" s="3">
-        <f t="shared" ref="W233" si="702">F233/V233</f>
+        <f t="shared" ref="W233" si="703">F233/V233</f>
         <v>2.070288561455863E-2</v>
       </c>
       <c r="X233">
-        <f t="shared" ref="X233" si="703">E233-E232</f>
+        <f t="shared" ref="X233" si="704">E233-E232</f>
         <v>24</v>
       </c>
       <c r="Y233">
@@ -26633,19 +26652,19 @@
         <v>106</v>
       </c>
       <c r="AH233">
-        <f t="shared" ref="AH233" si="704">Y233-AB233-AE233</f>
+        <f t="shared" ref="AH233" si="705">Y233-AB233-AE233</f>
         <v>335</v>
       </c>
       <c r="AI233">
-        <f t="shared" ref="AI233" si="705">Z233-AC233-AF233</f>
+        <f t="shared" ref="AI233" si="706">Z233-AC233-AF233</f>
         <v>98</v>
       </c>
       <c r="AJ233">
-        <f t="shared" ref="AJ233" si="706">AA233-AD233-AG233</f>
+        <f t="shared" ref="AJ233" si="707">AA233-AD233-AG233</f>
         <v>1950</v>
       </c>
       <c r="AK233">
-        <f t="shared" ref="AK233" si="707">-(J233-J232)+L233</f>
+        <f t="shared" ref="AK233" si="708">-(J233-J232)+L233</f>
         <v>37</v>
       </c>
       <c r="AL233">
@@ -26662,7 +26681,7 @@
         <v>13</v>
       </c>
       <c r="AT233">
-        <f t="shared" si="695"/>
+        <f t="shared" si="696"/>
         <v>322</v>
       </c>
       <c r="AU233">
@@ -26672,7 +26691,7 @@
         <v>906</v>
       </c>
       <c r="AW233">
-        <f>AV233/AU233</f>
+        <f t="shared" si="684"/>
         <v>0.23459347488348006</v>
       </c>
     </row>
@@ -26720,35 +26739,35 @@
         <v>0.1392190846972193</v>
       </c>
       <c r="Q234">
-        <f t="shared" ref="Q234" si="708">C234-C233</f>
+        <f t="shared" ref="Q234" si="709">C234-C233</f>
         <v>3674</v>
       </c>
       <c r="R234">
-        <f t="shared" ref="R234" si="709">M234-M233</f>
+        <f t="shared" ref="R234" si="710">M234-M233</f>
         <v>4639</v>
       </c>
       <c r="S234" s="8">
-        <f t="shared" ref="S234" si="710">Q234/U234</f>
+        <f t="shared" ref="S234" si="711">Q234/U234</f>
         <v>0.44195837844340191</v>
       </c>
       <c r="T234" s="8">
-        <f t="shared" ref="T234" si="711">SUM(Q228:Q234)/SUM(U228:U234)</f>
+        <f t="shared" ref="T234" si="712">SUM(Q228:Q234)/SUM(U228:U234)</f>
         <v>0.38484574284729406</v>
       </c>
       <c r="U234">
-        <f t="shared" ref="U234" si="712">B234-B233</f>
+        <f t="shared" ref="U234" si="713">B234-B233</f>
         <v>8313</v>
       </c>
       <c r="V234">
-        <f t="shared" ref="V234" si="713">C234-D234-E234</f>
+        <f t="shared" ref="V234" si="714">C234-D234-E234</f>
         <v>39877</v>
       </c>
       <c r="W234" s="3">
-        <f t="shared" ref="W234" si="714">F234/V234</f>
+        <f t="shared" ref="W234" si="715">F234/V234</f>
         <v>2.1039697068485592E-2</v>
       </c>
       <c r="X234">
-        <f t="shared" ref="X234" si="715">E234-E233</f>
+        <f t="shared" ref="X234" si="716">E234-E233</f>
         <v>22</v>
       </c>
       <c r="Y234">
@@ -26779,19 +26798,19 @@
         <v>106</v>
       </c>
       <c r="AH234">
-        <f t="shared" ref="AH234" si="716">Y234-AB234-AE234</f>
+        <f t="shared" ref="AH234" si="717">Y234-AB234-AE234</f>
         <v>352</v>
       </c>
       <c r="AI234">
-        <f t="shared" ref="AI234" si="717">Z234-AC234-AF234</f>
+        <f t="shared" ref="AI234" si="718">Z234-AC234-AF234</f>
         <v>111</v>
       </c>
       <c r="AJ234">
-        <f t="shared" ref="AJ234" si="718">AA234-AD234-AG234</f>
+        <f t="shared" ref="AJ234" si="719">AA234-AD234-AG234</f>
         <v>2096</v>
       </c>
       <c r="AK234">
-        <f t="shared" ref="AK234" si="719">-(J234-J233)+L234</f>
+        <f t="shared" ref="AK234" si="720">-(J234-J233)+L234</f>
         <v>32</v>
       </c>
       <c r="AL234">
@@ -26808,7 +26827,7 @@
         <v>13</v>
       </c>
       <c r="AT234">
-        <f t="shared" si="695"/>
+        <f t="shared" si="696"/>
         <v>339</v>
       </c>
       <c r="AU234">
@@ -26818,7 +26837,7 @@
         <v>1406</v>
       </c>
       <c r="AW234">
-        <f>AV234/AU234</f>
+        <f t="shared" si="684"/>
         <v>0.245418048525048</v>
       </c>
     </row>
@@ -26866,35 +26885,35 @@
         <v>0.1420634654163449</v>
       </c>
       <c r="Q235">
-        <f t="shared" ref="Q235" si="720">C235-C234</f>
+        <f t="shared" ref="Q235" si="721">C235-C234</f>
         <v>4255</v>
       </c>
       <c r="R235">
-        <f t="shared" ref="R235" si="721">M235-M234</f>
+        <f t="shared" ref="R235" si="722">M235-M234</f>
         <v>5619</v>
       </c>
       <c r="S235" s="8">
-        <f t="shared" ref="S235" si="722">Q235/U235</f>
+        <f t="shared" ref="S235" si="723">Q235/U235</f>
         <v>0.43092971440145839</v>
       </c>
       <c r="T235" s="8">
-        <f t="shared" ref="T235" si="723">SUM(Q229:Q235)/SUM(U229:U235)</f>
+        <f t="shared" ref="T235" si="724">SUM(Q229:Q235)/SUM(U229:U235)</f>
         <v>0.39832516339869278</v>
       </c>
       <c r="U235">
-        <f t="shared" ref="U235" si="724">B235-B234</f>
+        <f t="shared" ref="U235" si="725">B235-B234</f>
         <v>9874</v>
       </c>
       <c r="V235">
-        <f t="shared" ref="V235" si="725">C235-D235-E235</f>
+        <f t="shared" ref="V235" si="726">C235-D235-E235</f>
         <v>42868</v>
       </c>
       <c r="W235" s="3">
-        <f t="shared" ref="W235" si="726">F235/V235</f>
+        <f t="shared" ref="W235" si="727">F235/V235</f>
         <v>2.1274610432023888E-2</v>
       </c>
       <c r="X235">
-        <f t="shared" ref="X235" si="727">E235-E234</f>
+        <f t="shared" ref="X235" si="728">E235-E234</f>
         <v>13</v>
       </c>
       <c r="Y235">
@@ -26925,19 +26944,19 @@
         <v>107</v>
       </c>
       <c r="AH235">
-        <f t="shared" ref="AH235" si="728">Y235-AB235-AE235</f>
+        <f t="shared" ref="AH235" si="729">Y235-AB235-AE235</f>
         <v>395</v>
       </c>
       <c r="AI235">
-        <f t="shared" ref="AI235" si="729">Z235-AC235-AF235</f>
+        <f t="shared" ref="AI235" si="730">Z235-AC235-AF235</f>
         <v>127</v>
       </c>
       <c r="AJ235">
-        <f t="shared" ref="AJ235" si="730">AA235-AD235-AG235</f>
+        <f t="shared" ref="AJ235" si="731">AA235-AD235-AG235</f>
         <v>2253</v>
       </c>
       <c r="AK235">
-        <f t="shared" ref="AK235" si="731">-(J235-J234)+L235</f>
+        <f t="shared" ref="AK235" si="732">-(J235-J234)+L235</f>
         <v>32</v>
       </c>
       <c r="AL235">
@@ -26954,7 +26973,7 @@
         <v>12</v>
       </c>
       <c r="AT235">
-        <f t="shared" ref="AT235:AT237" si="732">AH235-AS235</f>
+        <f t="shared" ref="AT235:AT237" si="733">AH235-AS235</f>
         <v>383</v>
       </c>
       <c r="AU235">
@@ -26964,7 +26983,7 @@
         <v>3417</v>
       </c>
       <c r="AW235">
-        <f>AV235/AU235</f>
+        <f t="shared" si="684"/>
         <v>0.27699416342412453</v>
       </c>
       <c r="AX235">
@@ -26986,15 +27005,15 @@
         <v>34</v>
       </c>
       <c r="BD235">
-        <f t="shared" ref="BD235:BD241" si="733">AY235/AX235</f>
+        <f t="shared" ref="BD235:BD242" si="734">AY235/AX235</f>
         <v>0.61627906976744184</v>
       </c>
       <c r="BE235">
-        <f t="shared" ref="BE235:BF237" si="734">BA235/AZ235</f>
+        <f t="shared" ref="BE235:BF237" si="735">BA235/AZ235</f>
         <v>0.32577319587628867</v>
       </c>
       <c r="BF235">
-        <f t="shared" si="734"/>
+        <f t="shared" si="735"/>
         <v>0.310126582278481</v>
       </c>
       <c r="BG235">
@@ -27054,35 +27073,35 @@
         <v>0.14510889088789461</v>
       </c>
       <c r="Q236">
-        <f t="shared" ref="Q236" si="735">C236-C235</f>
+        <f t="shared" ref="Q236" si="736">C236-C235</f>
         <v>4386</v>
       </c>
       <c r="R236">
-        <f t="shared" ref="R236" si="736">M236-M235</f>
+        <f t="shared" ref="R236" si="737">M236-M235</f>
         <v>4587</v>
       </c>
       <c r="S236" s="8">
-        <f t="shared" ref="S236" si="737">Q236/U236</f>
+        <f t="shared" ref="S236" si="738">Q236/U236</f>
         <v>0.48879973253092612</v>
       </c>
       <c r="T236" s="8">
-        <f t="shared" ref="T236" si="738">SUM(Q230:Q236)/SUM(U230:U236)</f>
+        <f t="shared" ref="T236" si="739">SUM(Q230:Q236)/SUM(U230:U236)</f>
         <v>0.41914564493098527</v>
       </c>
       <c r="U236">
-        <f t="shared" ref="U236" si="739">B236-B235</f>
+        <f t="shared" ref="U236" si="740">B236-B235</f>
         <v>8973</v>
       </c>
       <c r="V236">
-        <f t="shared" ref="V236" si="740">C236-D236-E236</f>
+        <f t="shared" ref="V236" si="741">C236-D236-E236</f>
         <v>46075</v>
       </c>
       <c r="W236" s="3">
-        <f t="shared" ref="W236" si="741">F236/V236</f>
+        <f t="shared" ref="W236" si="742">F236/V236</f>
         <v>2.0596852957135106E-2</v>
       </c>
       <c r="X236">
-        <f t="shared" ref="X236" si="742">E236-E235</f>
+        <f t="shared" ref="X236" si="743">E236-E235</f>
         <v>14</v>
       </c>
       <c r="Y236">
@@ -27113,19 +27132,19 @@
         <v>107</v>
       </c>
       <c r="AH236">
-        <f t="shared" ref="AH236" si="743">Y236-AB236-AE236</f>
+        <f t="shared" ref="AH236" si="744">Y236-AB236-AE236</f>
         <v>444</v>
       </c>
       <c r="AI236">
-        <f t="shared" ref="AI236" si="744">Z236-AC236-AF236</f>
+        <f t="shared" ref="AI236" si="745">Z236-AC236-AF236</f>
         <v>131</v>
       </c>
       <c r="AJ236">
-        <f t="shared" ref="AJ236" si="745">AA236-AD236-AG236</f>
+        <f t="shared" ref="AJ236" si="746">AA236-AD236-AG236</f>
         <v>2396</v>
       </c>
       <c r="AK236">
-        <f t="shared" ref="AK236" si="746">-(J236-J235)+L236</f>
+        <f t="shared" ref="AK236" si="747">-(J236-J235)+L236</f>
         <v>84</v>
       </c>
       <c r="AS236">
@@ -27133,7 +27152,7 @@
         <v>12</v>
       </c>
       <c r="AT236">
-        <f t="shared" si="732"/>
+        <f t="shared" si="733"/>
         <v>432</v>
       </c>
       <c r="AU236">
@@ -27143,7 +27162,7 @@
         <v>1841</v>
       </c>
       <c r="AW236">
-        <f>AV236/AU236</f>
+        <f t="shared" si="684"/>
         <v>0.28414878839327057</v>
       </c>
       <c r="AX236">
@@ -27165,27 +27184,27 @@
         <v>14</v>
       </c>
       <c r="BD236">
-        <f t="shared" si="733"/>
+        <f t="shared" si="734"/>
         <v>0.23728813559322035</v>
       </c>
       <c r="BE236">
-        <f t="shared" si="734"/>
+        <f t="shared" si="735"/>
         <v>0.2813852813852814</v>
       </c>
       <c r="BF236">
-        <f t="shared" si="734"/>
+        <f t="shared" si="735"/>
         <v>0.44615384615384618</v>
       </c>
       <c r="BG236">
-        <f t="shared" ref="BG236:BG239" si="747">SUM(AY230:AY236)/SUM(AX230:AX236)</f>
+        <f t="shared" ref="BG236:BG239" si="748">SUM(AY230:AY236)/SUM(AX230:AX236)</f>
         <v>0.46206896551724136</v>
       </c>
       <c r="BH236">
-        <f t="shared" ref="BH236:BH239" si="748">SUM(BA230:BA236)/SUM(AZ230:AZ236)</f>
+        <f t="shared" ref="BH236:BH239" si="749">SUM(BA230:BA236)/SUM(AZ230:AZ236)</f>
         <v>0.31145251396648044</v>
       </c>
       <c r="BI236">
-        <f t="shared" ref="BI236:BI239" si="749">SUM(BC230:BC236)/SUM(BB230:BB236)</f>
+        <f t="shared" ref="BI236:BI239" si="750">SUM(BC230:BC236)/SUM(BB230:BB236)</f>
         <v>0.61538461538461542</v>
       </c>
     </row>
@@ -27233,35 +27252,35 @@
         <v>0.14770160812666158</v>
       </c>
       <c r="Q237">
-        <f t="shared" ref="Q237" si="750">C237-C236</f>
+        <f t="shared" ref="Q237" si="751">C237-C236</f>
         <v>3871</v>
       </c>
       <c r="R237">
-        <f t="shared" ref="R237" si="751">M237-M236</f>
+        <f t="shared" ref="R237" si="752">M237-M236</f>
         <v>4404</v>
       </c>
       <c r="S237" s="8">
-        <f t="shared" ref="S237" si="752">Q237/U237</f>
+        <f t="shared" ref="S237" si="753">Q237/U237</f>
         <v>0.46779456193353475</v>
       </c>
       <c r="T237" s="8">
-        <f t="shared" ref="T237" si="753">SUM(Q231:Q237)/SUM(U231:U237)</f>
+        <f t="shared" ref="T237" si="754">SUM(Q231:Q237)/SUM(U231:U237)</f>
         <v>0.44082113545140483</v>
       </c>
       <c r="U237">
-        <f t="shared" ref="U237" si="754">B237-B236</f>
+        <f t="shared" ref="U237" si="755">B237-B236</f>
         <v>8275</v>
       </c>
       <c r="V237">
-        <f t="shared" ref="V237" si="755">C237-D237-E237</f>
+        <f t="shared" ref="V237" si="756">C237-D237-E237</f>
         <v>49567</v>
       </c>
       <c r="W237" s="3">
-        <f t="shared" ref="W237" si="756">F237/V237</f>
+        <f t="shared" ref="W237" si="757">F237/V237</f>
         <v>2.0013315310589707E-2</v>
       </c>
       <c r="X237">
-        <f t="shared" ref="X237" si="757">E237-E236</f>
+        <f t="shared" ref="X237" si="758">E237-E236</f>
         <v>14</v>
       </c>
       <c r="Y237">
@@ -27292,19 +27311,19 @@
         <v>108</v>
       </c>
       <c r="AH237">
-        <f t="shared" ref="AH237" si="758">Y237-AB237-AE237</f>
+        <f t="shared" ref="AH237" si="759">Y237-AB237-AE237</f>
         <v>476</v>
       </c>
       <c r="AI237">
-        <f t="shared" ref="AI237" si="759">Z237-AC237-AF237</f>
+        <f t="shared" ref="AI237" si="760">Z237-AC237-AF237</f>
         <v>146</v>
       </c>
       <c r="AJ237">
-        <f t="shared" ref="AJ237" si="760">AA237-AD237-AG237</f>
+        <f t="shared" ref="AJ237" si="761">AA237-AD237-AG237</f>
         <v>2596</v>
       </c>
       <c r="AK237">
-        <f t="shared" ref="AK237" si="761">-(J237-J236)+L237</f>
+        <f t="shared" ref="AK237" si="762">-(J237-J236)+L237</f>
         <v>-6</v>
       </c>
       <c r="AS237">
@@ -27312,7 +27331,7 @@
         <v>29</v>
       </c>
       <c r="AT237">
-        <f t="shared" si="732"/>
+        <f t="shared" si="733"/>
         <v>447</v>
       </c>
       <c r="AU237">
@@ -27322,7 +27341,7 @@
         <v>2162</v>
       </c>
       <c r="AW237">
-        <f>AV237/AU237</f>
+        <f t="shared" si="684"/>
         <v>0.28320670683783078</v>
       </c>
       <c r="AX237">
@@ -27344,27 +27363,27 @@
         <v>9</v>
       </c>
       <c r="BD237">
-        <f t="shared" si="733"/>
+        <f t="shared" si="734"/>
         <v>0.28985507246376813</v>
       </c>
       <c r="BE237">
-        <f t="shared" si="734"/>
+        <f t="shared" si="735"/>
         <v>0.30110497237569062</v>
       </c>
       <c r="BF237">
-        <f t="shared" si="734"/>
+        <f t="shared" si="735"/>
         <v>0.31192660550458717</v>
       </c>
       <c r="BG237">
-        <f t="shared" si="747"/>
+        <f t="shared" si="748"/>
         <v>0.40654205607476634</v>
       </c>
       <c r="BH237">
-        <f t="shared" si="748"/>
+        <f t="shared" si="749"/>
         <v>0.3079777365491651</v>
       </c>
       <c r="BI237">
-        <f t="shared" si="749"/>
+        <f t="shared" si="750"/>
         <v>0.5089285714285714</v>
       </c>
     </row>
@@ -27412,35 +27431,35 @@
         <v>0.15065221526466163</v>
       </c>
       <c r="Q238">
-        <f t="shared" ref="Q238" si="762">C238-C237</f>
+        <f t="shared" ref="Q238" si="763">C238-C237</f>
         <v>4699</v>
       </c>
       <c r="R238">
-        <f t="shared" ref="R238" si="763">M238-M237</f>
+        <f t="shared" ref="R238" si="764">M238-M237</f>
         <v>6321</v>
       </c>
       <c r="S238" s="8">
-        <f t="shared" ref="S238" si="764">Q238/U238</f>
+        <f t="shared" ref="S238" si="765">Q238/U238</f>
         <v>0.4264065335753176</v>
       </c>
       <c r="T238" s="8">
-        <f t="shared" ref="T238" si="765">SUM(Q232:Q238)/SUM(U232:U238)</f>
+        <f t="shared" ref="T238" si="766">SUM(Q232:Q238)/SUM(U232:U238)</f>
         <v>0.44513645906228133</v>
       </c>
       <c r="U238">
-        <f t="shared" ref="U238" si="766">B238-B237</f>
+        <f t="shared" ref="U238" si="767">B238-B237</f>
         <v>11020</v>
       </c>
       <c r="V238">
-        <f t="shared" ref="V238" si="767">C238-D238-E238</f>
+        <f t="shared" ref="V238" si="768">C238-D238-E238</f>
         <v>53935</v>
       </c>
       <c r="W238" s="3">
-        <f t="shared" ref="W238" si="768">F238/V238</f>
+        <f t="shared" ref="W238" si="769">F238/V238</f>
         <v>1.9171224622230462E-2</v>
       </c>
       <c r="X238">
-        <f t="shared" ref="X238" si="769">E238-E237</f>
+        <f t="shared" ref="X238" si="770">E238-E237</f>
         <v>3</v>
       </c>
       <c r="Y238">
@@ -27471,19 +27490,19 @@
         <v>108</v>
       </c>
       <c r="AH238">
-        <f t="shared" ref="AH238" si="770">Y238-AB238-AE238</f>
+        <f t="shared" ref="AH238" si="771">Y238-AB238-AE238</f>
         <v>550</v>
       </c>
       <c r="AI238">
-        <f t="shared" ref="AI238" si="771">Z238-AC238-AF238</f>
+        <f t="shared" ref="AI238" si="772">Z238-AC238-AF238</f>
         <v>163</v>
       </c>
       <c r="AJ238">
-        <f t="shared" ref="AJ238" si="772">AA238-AD238-AG238</f>
+        <f t="shared" ref="AJ238" si="773">AA238-AD238-AG238</f>
         <v>2808</v>
       </c>
       <c r="AK238">
-        <f t="shared" ref="AK238" si="773">-(J238-J237)+L238</f>
+        <f t="shared" ref="AK238" si="774">-(J238-J237)+L238</f>
         <v>37</v>
       </c>
       <c r="AL238">
@@ -27500,7 +27519,7 @@
         <v>29</v>
       </c>
       <c r="AT238">
-        <f t="shared" ref="AT238" si="774">AH238-AS238</f>
+        <f t="shared" ref="AT238" si="775">AH238-AS238</f>
         <v>521</v>
       </c>
       <c r="AU238">
@@ -27510,7 +27529,7 @@
         <v>2952</v>
       </c>
       <c r="AW238">
-        <f>AV238/AU238</f>
+        <f t="shared" si="684"/>
         <v>0.2758878504672897</v>
       </c>
       <c r="AX238">
@@ -27532,27 +27551,27 @@
         <v>17</v>
       </c>
       <c r="BD238">
-        <f t="shared" si="733"/>
+        <f t="shared" si="734"/>
         <v>0.32743362831858408</v>
       </c>
       <c r="BE238">
-        <f t="shared" ref="BE238:BE241" si="775">BA238/AZ238</f>
+        <f t="shared" ref="BE238:BE242" si="776">BA238/AZ238</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="BF238">
-        <f t="shared" ref="BF238:BF241" si="776">BB238/BA238</f>
+        <f t="shared" ref="BF238:BF242" si="777">BB238/BA238</f>
         <v>0.41</v>
       </c>
       <c r="BG238">
-        <f t="shared" si="747"/>
+        <f t="shared" si="748"/>
         <v>0.37920489296636084</v>
       </c>
       <c r="BH238">
-        <f t="shared" si="748"/>
+        <f t="shared" si="749"/>
         <v>0.29731589814177561</v>
       </c>
       <c r="BI238">
-        <f t="shared" si="749"/>
+        <f t="shared" si="750"/>
         <v>0.48366013071895425</v>
       </c>
     </row>
@@ -27600,35 +27619,35 @@
         <v>0.15359848809585044</v>
       </c>
       <c r="Q239">
-        <f t="shared" ref="Q239" si="777">C239-C238</f>
+        <f t="shared" ref="Q239" si="778">C239-C238</f>
         <v>4432</v>
       </c>
       <c r="R239">
-        <f t="shared" ref="R239" si="778">M239-M238</f>
+        <f t="shared" ref="R239" si="779">M239-M238</f>
         <v>4456</v>
       </c>
       <c r="S239" s="8">
-        <f t="shared" ref="S239" si="779">Q239/U239</f>
+        <f t="shared" ref="S239" si="780">Q239/U239</f>
         <v>0.49864986498649866</v>
       </c>
       <c r="T239" s="8">
-        <f t="shared" ref="T239" si="780">SUM(Q233:Q239)/SUM(U233:U239)</f>
+        <f t="shared" ref="T239" si="781">SUM(Q233:Q239)/SUM(U233:U239)</f>
         <v>0.455312978329171</v>
       </c>
       <c r="U239">
-        <f t="shared" ref="U239" si="781">B239-B238</f>
+        <f t="shared" ref="U239" si="782">B239-B238</f>
         <v>8888</v>
       </c>
       <c r="V239">
-        <f t="shared" ref="V239" si="782">C239-D239-E239</f>
+        <f t="shared" ref="V239" si="783">C239-D239-E239</f>
         <v>56489</v>
       </c>
       <c r="W239" s="3">
-        <f t="shared" ref="W239" si="783">F239/V239</f>
+        <f t="shared" ref="W239" si="784">F239/V239</f>
         <v>2.0092407371346634E-2</v>
       </c>
       <c r="X239">
-        <f t="shared" ref="X239" si="784">E239-E238</f>
+        <f t="shared" ref="X239" si="785">E239-E238</f>
         <v>27</v>
       </c>
       <c r="Y239">
@@ -27659,19 +27678,19 @@
         <v>110</v>
       </c>
       <c r="AH239">
-        <f t="shared" ref="AH239" si="785">Y239-AB239-AE239</f>
+        <f t="shared" ref="AH239:AH242" si="786">Y239-AB239-AE239</f>
         <v>575</v>
       </c>
       <c r="AI239">
-        <f t="shared" ref="AI239" si="786">Z239-AC239-AF239</f>
+        <f t="shared" ref="AI239:AI242" si="787">Z239-AC239-AF239</f>
         <v>186</v>
       </c>
       <c r="AJ239">
-        <f t="shared" ref="AJ239" si="787">AA239-AD239-AG239</f>
+        <f t="shared" ref="AJ239:AJ242" si="788">AA239-AD239-AG239</f>
         <v>2896</v>
       </c>
       <c r="AK239">
-        <f t="shared" ref="AK239" si="788">-(J239-J238)+L239</f>
+        <f t="shared" ref="AK239:AK242" si="789">-(J239-J238)+L239</f>
         <v>12</v>
       </c>
       <c r="AL239">
@@ -27688,7 +27707,7 @@
         <v>28</v>
       </c>
       <c r="AT239">
-        <f t="shared" ref="AT239:AT240" si="789">AH239-AS239</f>
+        <f t="shared" ref="AT239:AT240" si="790">AH239-AS239</f>
         <v>547</v>
       </c>
       <c r="AU239">
@@ -27698,7 +27717,7 @@
         <v>2782</v>
       </c>
       <c r="AW239">
-        <f>AV239/AU239</f>
+        <f t="shared" si="684"/>
         <v>0.29176717357105403</v>
       </c>
       <c r="AX239">
@@ -27720,27 +27739,27 @@
         <v>21</v>
       </c>
       <c r="BD239">
-        <f t="shared" si="733"/>
+        <f t="shared" si="734"/>
         <v>0.43023255813953487</v>
       </c>
       <c r="BE239">
-        <f t="shared" si="775"/>
+        <f t="shared" si="776"/>
         <v>0.32089552238805968</v>
       </c>
       <c r="BF239">
-        <f t="shared" si="776"/>
+        <f t="shared" si="777"/>
         <v>0.44961240310077522</v>
       </c>
       <c r="BG239">
-        <f t="shared" si="747"/>
+        <f t="shared" si="748"/>
         <v>0.38983050847457629</v>
       </c>
       <c r="BH239">
-        <f t="shared" si="748"/>
+        <f t="shared" si="749"/>
         <v>0.30242587601078169</v>
       </c>
       <c r="BI239">
-        <f t="shared" si="749"/>
+        <f t="shared" si="750"/>
         <v>0.45023696682464454</v>
       </c>
     </row>
@@ -27788,35 +27807,35 @@
         <v>0.15666718567903332</v>
       </c>
       <c r="Q240">
-        <f t="shared" ref="Q240" si="790">C240-C239</f>
+        <f t="shared" ref="Q240" si="791">C240-C239</f>
         <v>4773</v>
       </c>
       <c r="R240">
-        <f t="shared" ref="R240" si="791">M240-M239</f>
+        <f t="shared" ref="R240" si="792">M240-M239</f>
         <v>5130</v>
       </c>
       <c r="S240" s="8">
-        <f t="shared" ref="S240" si="792">Q240/U240</f>
+        <f t="shared" ref="S240" si="793">Q240/U240</f>
         <v>0.48197515904271432</v>
       </c>
       <c r="T240" s="8">
-        <f t="shared" ref="T240" si="793">SUM(Q234:Q240)/SUM(U234:U240)</f>
+        <f t="shared" ref="T240" si="794">SUM(Q234:Q240)/SUM(U234:U240)</f>
         <v>0.46117769671704012</v>
       </c>
       <c r="U240">
-        <f t="shared" ref="U240" si="794">B240-B239</f>
+        <f t="shared" ref="U240" si="795">B240-B239</f>
         <v>9903</v>
       </c>
       <c r="V240">
-        <f t="shared" ref="V240" si="795">C240-D240-E240</f>
+        <f t="shared" ref="V240" si="796">C240-D240-E240</f>
         <v>59910</v>
       </c>
       <c r="W240" s="3">
-        <f t="shared" ref="W240" si="796">F240/V240</f>
+        <f t="shared" ref="W240" si="797">F240/V240</f>
         <v>1.986312802537139E-2</v>
       </c>
       <c r="X240">
-        <f t="shared" ref="X240" si="797">E240-E239</f>
+        <f t="shared" ref="X240" si="798">E240-E239</f>
         <v>26</v>
       </c>
       <c r="Y240">
@@ -27847,19 +27866,19 @@
         <v>110</v>
       </c>
       <c r="AH240">
-        <f t="shared" ref="AH240" si="798">Y240-AB240-AE240</f>
+        <f t="shared" si="786"/>
         <v>648</v>
       </c>
       <c r="AI240">
-        <f t="shared" ref="AI240" si="799">Z240-AC240-AF240</f>
+        <f t="shared" si="787"/>
         <v>219</v>
       </c>
       <c r="AJ240">
-        <f t="shared" ref="AJ240" si="800">AA240-AD240-AG240</f>
+        <f t="shared" si="788"/>
         <v>3156</v>
       </c>
       <c r="AK240">
-        <f t="shared" ref="AK240:AK241" si="801">-(J240-J239)+L240</f>
+        <f t="shared" si="789"/>
         <v>41</v>
       </c>
       <c r="AL240">
@@ -27876,7 +27895,7 @@
         <v>28</v>
       </c>
       <c r="AT240">
-        <f t="shared" si="789"/>
+        <f t="shared" si="790"/>
         <v>620</v>
       </c>
       <c r="AU240">
@@ -27886,7 +27905,7 @@
         <v>2213</v>
       </c>
       <c r="AW240">
-        <f>AV240/AU240</f>
+        <f t="shared" si="684"/>
         <v>0.29307376506422989</v>
       </c>
       <c r="AX240">
@@ -27908,15 +27927,15 @@
         <v>17</v>
       </c>
       <c r="BD240">
-        <f t="shared" si="733"/>
+        <f t="shared" si="734"/>
         <v>0.38383838383838381</v>
       </c>
       <c r="BE240">
-        <f t="shared" si="775"/>
+        <f t="shared" si="776"/>
         <v>0.33995037220843671</v>
       </c>
       <c r="BF240">
-        <f t="shared" si="776"/>
+        <f t="shared" si="777"/>
         <v>0.45255474452554745</v>
       </c>
       <c r="BG240">
@@ -27932,7 +27951,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="241" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A241" s="14">
         <f t="shared" si="49"/>
         <v>44147</v>
@@ -27976,35 +27995,35 @@
         <v>0.15945473590993894</v>
       </c>
       <c r="Q241">
-        <f t="shared" ref="Q241" si="802">C241-C240</f>
+        <f t="shared" ref="Q241" si="799">C241-C240</f>
         <v>4317</v>
       </c>
       <c r="R241">
-        <f t="shared" ref="R241" si="803">M241-M240</f>
+        <f t="shared" ref="R241" si="800">M241-M240</f>
         <v>4231</v>
       </c>
       <c r="S241" s="8">
-        <f t="shared" ref="S241" si="804">Q241/U241</f>
+        <f t="shared" ref="S241" si="801">Q241/U241</f>
         <v>0.50503041647168934</v>
       </c>
       <c r="T241" s="8">
-        <f t="shared" ref="T241" si="805">SUM(Q235:Q241)/SUM(U235:U241)</f>
+        <f t="shared" ref="T241" si="802">SUM(Q235:Q241)/SUM(U235:U241)</f>
         <v>0.46934225195094759</v>
       </c>
       <c r="U241">
-        <f t="shared" ref="U241" si="806">B241-B240</f>
+        <f t="shared" ref="U241" si="803">B241-B240</f>
         <v>8548</v>
       </c>
       <c r="V241">
-        <f t="shared" ref="V241" si="807">C241-D241-E241</f>
+        <f t="shared" ref="V241" si="804">C241-D241-E241</f>
         <v>63055</v>
       </c>
       <c r="W241" s="3">
-        <f t="shared" ref="W241" si="808">F241/V241</f>
+        <f t="shared" ref="W241" si="805">F241/V241</f>
         <v>1.9157878042978353E-2</v>
       </c>
       <c r="X241">
-        <f t="shared" ref="X241" si="809">E241-E240</f>
+        <f t="shared" ref="X241" si="806">E241-E240</f>
         <v>29</v>
       </c>
       <c r="Y241">
@@ -28035,20 +28054,37 @@
         <v>112</v>
       </c>
       <c r="AH241">
-        <f t="shared" ref="AH241" si="810">Y241-AB241-AE241</f>
+        <f t="shared" si="786"/>
         <v>675</v>
       </c>
       <c r="AI241">
-        <f t="shared" ref="AI241" si="811">Z241-AC241-AF241</f>
+        <f t="shared" si="787"/>
         <v>244</v>
       </c>
       <c r="AJ241">
-        <f t="shared" ref="AJ241" si="812">AA241-AD241-AG241</f>
+        <f t="shared" si="788"/>
         <v>3276</v>
       </c>
       <c r="AK241">
-        <f t="shared" si="801"/>
+        <f t="shared" si="789"/>
         <v>40</v>
+      </c>
+      <c r="AL241">
+        <v>38</v>
+      </c>
+      <c r="AM241">
+        <v>38</v>
+      </c>
+      <c r="AN241">
+        <v>169</v>
+      </c>
+      <c r="AS241">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A241)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A241)</f>
+        <v>27</v>
+      </c>
+      <c r="AT241">
+        <f t="shared" ref="AT241:AT242" si="807">AH241-AS241</f>
+        <v>648</v>
       </c>
       <c r="AU241">
         <v>9410</v>
@@ -28057,7 +28093,7 @@
         <v>2752</v>
       </c>
       <c r="AW241">
-        <f>AV241/AU241</f>
+        <f t="shared" si="684"/>
         <v>0.29245483528161531</v>
       </c>
       <c r="AX241">
@@ -28079,15 +28115,15 @@
         <v>15</v>
       </c>
       <c r="BD241">
-        <f t="shared" si="733"/>
+        <f t="shared" si="734"/>
         <v>0.2818181818181818</v>
       </c>
       <c r="BE241">
-        <f t="shared" si="775"/>
+        <f t="shared" si="776"/>
         <v>0.34226190476190477</v>
       </c>
       <c r="BF241">
-        <f t="shared" si="776"/>
+        <f t="shared" si="777"/>
         <v>0.23478260869565218</v>
       </c>
       <c r="BG241">
@@ -28101,6 +28137,203 @@
       <c r="BI241">
         <f>SUM(BC235:BC241)/SUM(BB235:BB241)</f>
         <v>0.42333333333333334</v>
+      </c>
+    </row>
+    <row r="242" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A242" s="14">
+        <f t="shared" si="49"/>
+        <v>44148</v>
+      </c>
+      <c r="B242">
+        <v>1079246</v>
+      </c>
+      <c r="C242">
+        <v>175425</v>
+      </c>
+      <c r="D242">
+        <v>106492</v>
+      </c>
+      <c r="E242" s="9">
+        <v>1947</v>
+      </c>
+      <c r="F242" s="9">
+        <v>1227</v>
+      </c>
+      <c r="H242">
+        <v>240</v>
+      </c>
+      <c r="I242">
+        <v>213</v>
+      </c>
+      <c r="J242">
+        <v>319</v>
+      </c>
+      <c r="K242">
+        <v>44</v>
+      </c>
+      <c r="L242">
+        <v>43</v>
+      </c>
+      <c r="M242" s="7">
+        <f t="shared" si="380"/>
+        <v>903821</v>
+      </c>
+      <c r="N242" s="4">
+        <f t="shared" si="381"/>
+        <v>0.16254403537284362</v>
+      </c>
+      <c r="Q242">
+        <f t="shared" ref="Q242" si="808">C242-C241</f>
+        <v>5087</v>
+      </c>
+      <c r="R242">
+        <f t="shared" ref="R242" si="809">M242-M241</f>
+        <v>5906</v>
+      </c>
+      <c r="S242" s="8">
+        <f t="shared" ref="S242" si="810">Q242/U242</f>
+        <v>0.46274902210497587</v>
+      </c>
+      <c r="T242" s="8">
+        <f t="shared" ref="T242" si="811">SUM(Q236:Q242)/SUM(U236:U242)</f>
+        <v>0.47394894894894896</v>
+      </c>
+      <c r="U242">
+        <f t="shared" ref="U242" si="812">B242-B241</f>
+        <v>10993</v>
+      </c>
+      <c r="V242">
+        <f t="shared" ref="V242" si="813">C242-D242-E242</f>
+        <v>66986</v>
+      </c>
+      <c r="W242" s="3">
+        <f t="shared" ref="W242" si="814">F242/V242</f>
+        <v>1.831726032305258E-2</v>
+      </c>
+      <c r="X242">
+        <f t="shared" ref="X242" si="815">E242-E241</f>
+        <v>20</v>
+      </c>
+      <c r="Y242">
+        <v>1341</v>
+      </c>
+      <c r="Z242">
+        <v>699</v>
+      </c>
+      <c r="AA242">
+        <v>8593</v>
+      </c>
+      <c r="AB242">
+        <v>603</v>
+      </c>
+      <c r="AC242">
+        <v>434</v>
+      </c>
+      <c r="AD242">
+        <v>5038</v>
+      </c>
+      <c r="AE242">
+        <v>12</v>
+      </c>
+      <c r="AF242">
+        <v>3</v>
+      </c>
+      <c r="AG242">
+        <v>112</v>
+      </c>
+      <c r="AH242">
+        <f t="shared" si="786"/>
+        <v>726</v>
+      </c>
+      <c r="AI242">
+        <f t="shared" si="787"/>
+        <v>262</v>
+      </c>
+      <c r="AJ242">
+        <f t="shared" si="788"/>
+        <v>3443</v>
+      </c>
+      <c r="AK242">
+        <f t="shared" si="789"/>
+        <v>47</v>
+      </c>
+      <c r="AL242">
+        <v>35</v>
+      </c>
+      <c r="AM242">
+        <v>35</v>
+      </c>
+      <c r="AN242">
+        <v>161</v>
+      </c>
+      <c r="AS242">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A242)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A242)</f>
+        <v>26</v>
+      </c>
+      <c r="AT242">
+        <f t="shared" si="807"/>
+        <v>700</v>
+      </c>
+      <c r="AU242">
+        <v>10099</v>
+      </c>
+      <c r="AV242">
+        <v>2912</v>
+      </c>
+      <c r="AW242">
+        <f t="shared" si="684"/>
+        <v>0.28834538073076543</v>
+      </c>
+      <c r="AX242">
+        <v>89</v>
+      </c>
+      <c r="AY242">
+        <v>34</v>
+      </c>
+      <c r="AZ242">
+        <v>455</v>
+      </c>
+      <c r="BA242">
+        <v>140</v>
+      </c>
+      <c r="BB242">
+        <v>40</v>
+      </c>
+      <c r="BC242">
+        <v>15</v>
+      </c>
+      <c r="BD242">
+        <f t="shared" si="734"/>
+        <v>0.38202247191011235</v>
+      </c>
+      <c r="BE242">
+        <f t="shared" si="776"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="BF242">
+        <f t="shared" si="777"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="BG242">
+        <f>SUM(AY236:AY242)/SUM(AX236:AX242)</f>
+        <v>0.33760000000000001</v>
+      </c>
+      <c r="BH242">
+        <f>SUM(BA236:BA242)/SUM(AZ236:AZ242)</f>
+        <v>0.31006240249609984</v>
+      </c>
+      <c r="BI242">
+        <f>SUM(BC236:BC242)/SUM(BB236:BB242)</f>
+        <v>0.37113402061855671</v>
+      </c>
+      <c r="BJ242">
+        <v>30.8</v>
+      </c>
+      <c r="BK242">
+        <v>26.4</v>
+      </c>
+      <c r="BL242">
+        <v>22.3</v>
       </c>
     </row>
   </sheetData>
@@ -28128,7 +28361,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>Q228:Q241</xm:sqref>
+          <xm:sqref>Q228:Q242</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="22" operator="equal" id="{E5309D98-D036-43E8-AE0C-F104DC358831}">
@@ -28144,7 +28377,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>X228:X241</xm:sqref>
+          <xm:sqref>X228:X242</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5269D26C-9211-46B2-914A-48345DF37DEF}">
@@ -28160,7 +28393,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F228:F241</xm:sqref>
+          <xm:sqref>F228:F242</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="20" operator="equal" id="{24843253-84F3-44AF-847D-C74D74C4F05A}">
@@ -28192,7 +28425,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J228:J241</xm:sqref>
+          <xm:sqref>J228:J242</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="18" operator="equal" id="{6F562D16-6A18-4369-973E-028D1B5F7CFF}">
@@ -28208,7 +28441,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K228:K241</xm:sqref>
+          <xm:sqref>K228:K242</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{735BDD8A-2F04-47F3-825F-41FCBFA8ADD5}">
@@ -28272,7 +28505,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AH228:AH241</xm:sqref>
+          <xm:sqref>AH228:AH242</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="12" operator="equal" id="{A5D8B9CD-D171-4616-8063-8E2F3DB2617E}">
@@ -28288,7 +28521,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AI228:AI241</xm:sqref>
+          <xm:sqref>AI228:AI242</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="11" operator="equal" id="{525B83D9-8CB5-4E31-BB6E-B59F9B6585E1}">
@@ -28448,7 +28681,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H1:H1048576 I229:I241</xm:sqref>
+          <xm:sqref>H1:H1048576 I229:I242</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{8F0BE21B-C8AC-4EAD-AE58-244C59D5B0FC}">
@@ -28464,7 +28697,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>V229:V241</xm:sqref>
+          <xm:sqref>V229:V242</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -32534,7 +32767,7 @@
       </c>
       <c r="F2">
         <f>MAX(covid19!F:F)</f>
-        <v>1208</v>
+        <v>1227</v>
       </c>
       <c r="G2">
         <f>MAX(covid19!G:G)</f>
@@ -32542,7 +32775,7 @@
       </c>
       <c r="H2">
         <f>MAX(covid19!H:H)</f>
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="I2">
         <f>MAX(covid19!J:J)</f>
@@ -32554,7 +32787,7 @@
       </c>
       <c r="K2">
         <f>MAX(covid19!Q:Q)</f>
-        <v>4773</v>
+        <v>5087</v>
       </c>
       <c r="L2">
         <f>MAX(covid19!S:S)</f>
@@ -32562,7 +32795,7 @@
       </c>
       <c r="M2">
         <f>MAX(covid19!T:T)</f>
-        <v>0.46934225195094759</v>
+        <v>0.47394894894894896</v>
       </c>
       <c r="N2">
         <f>MAX(covid19!U:U)</f>
@@ -32570,7 +32803,7 @@
       </c>
       <c r="O2">
         <f>MAX(covid19!V:V)</f>
-        <v>63055</v>
+        <v>66986</v>
       </c>
       <c r="P2">
         <f>MAX(covid19!W:W)</f>
@@ -32594,15 +32827,15 @@
       </c>
       <c r="U2">
         <f>MAX(covid19!AH:AH)</f>
-        <v>675</v>
+        <v>726</v>
       </c>
       <c r="V2">
         <f>MAX(covid19!AI:AI)</f>
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="W2">
         <f>MAX(covid19!AJ:AJ)</f>
-        <v>3276</v>
+        <v>3443</v>
       </c>
       <c r="X2">
         <f>MAX(covid19!AL:AL)</f>
@@ -32614,7 +32847,7 @@
       </c>
       <c r="Z2">
         <f>MAX(covid19!AN:AN)</f>
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="AA2">
         <f>MAX(covid19!AO:AO)</f>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0394C5AF-3BD1-4AFB-9B1E-403AEA1D25CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A78BF86-960C-4899-ABC1-BA500ECC5252}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="401">
   <si>
     <t>date</t>
   </si>
@@ -1224,6 +1224,12 @@
   <si>
     <t>Butler School</t>
   </si>
+  <si>
+    <t>State 7Day</t>
+  </si>
+  <si>
+    <t>State 14Day</t>
+  </si>
 </sst>
 </file>
 
@@ -2387,13 +2393,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BL242"/>
+  <dimension ref="A1:BN244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AW232" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X228" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BF247" sqref="BF247"/>
+      <selection pane="bottomRight" activeCell="AH243" sqref="AH243:AK244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2406,7 +2412,7 @@
     <col min="41" max="45" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2579,25 +2585,31 @@
         <v>220</v>
       </c>
       <c r="BG1" t="s">
+        <v>399</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>400</v>
+      </c>
+      <c r="BI1" t="s">
         <v>393</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>394</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>395</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>396</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>397</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>43898</v>
       </c>
@@ -2626,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>43899</v>
       </c>
@@ -2661,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>43900</v>
       </c>
@@ -2699,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>43901</v>
       </c>
@@ -2740,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>43903</v>
       </c>
@@ -2775,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>43904</v>
       </c>
@@ -2810,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>43908</v>
       </c>
@@ -2849,7 +2861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>43909</v>
       </c>
@@ -2891,7 +2903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>43913</v>
       </c>
@@ -2940,7 +2952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>43914</v>
       </c>
@@ -2976,7 +2988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>43917</v>
       </c>
@@ -3015,7 +3027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>43918</v>
       </c>
@@ -3067,7 +3079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>43919</v>
       </c>
@@ -3131,7 +3143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>43920</v>
       </c>
@@ -3195,7 +3207,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>43921</v>
       </c>
@@ -15631,7 +15643,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="14">
-        <f t="shared" ref="A152:A242" si="49">A151+1</f>
+        <f t="shared" ref="A152:A244" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -22538,11 +22550,11 @@
         <v>17</v>
       </c>
       <c r="M203" s="7">
-        <f t="shared" ref="M203:M242" si="380">B203-C203</f>
+        <f t="shared" ref="M203:M244" si="380">B203-C203</f>
         <v>730923</v>
       </c>
       <c r="N203" s="4">
-        <f t="shared" ref="N203:N242" si="381">C203/B203</f>
+        <f t="shared" ref="N203:N244" si="381">C203/B203</f>
         <v>0.11270554987702819</v>
       </c>
       <c r="Q203">
@@ -25449,7 +25461,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="225" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A225" s="14">
         <f t="shared" si="49"/>
         <v>44131</v>
@@ -25585,7 +25597,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="226" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A226" s="14">
         <f t="shared" si="49"/>
         <v>44132</v>
@@ -25721,7 +25733,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="227" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A227" s="14">
         <f t="shared" si="49"/>
         <v>44133</v>
@@ -25857,7 +25869,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="228" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A228" s="14">
         <f t="shared" si="49"/>
         <v>44134</v>
@@ -26003,7 +26015,7 @@
         <v>0.21674633261908685</v>
       </c>
     </row>
-    <row r="229" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A229" s="14">
         <f t="shared" si="49"/>
         <v>44135</v>
@@ -26139,7 +26151,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="230" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A230" s="14">
         <f t="shared" si="49"/>
         <v>44136</v>
@@ -26266,7 +26278,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="231" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A231" s="14">
         <f t="shared" si="49"/>
         <v>44137</v>
@@ -26408,11 +26420,11 @@
         <v>1085</v>
       </c>
       <c r="AW231">
-        <f t="shared" ref="AW231:AW242" si="684">AV231/AU231</f>
+        <f t="shared" ref="AW231:AW244" si="684">AV231/AU231</f>
         <v>0.21274509803921568</v>
       </c>
     </row>
-    <row r="232" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A232" s="14">
         <f t="shared" si="49"/>
         <v>44138</v>
@@ -26549,7 +26561,7 @@
         <v>0.25523135867963453</v>
       </c>
     </row>
-    <row r="233" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A233" s="14">
         <f t="shared" si="49"/>
         <v>44139</v>
@@ -26695,7 +26707,7 @@
         <v>0.23459347488348006</v>
       </c>
     </row>
-    <row r="234" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A234" s="14">
         <f t="shared" si="49"/>
         <v>44140</v>
@@ -26841,7 +26853,7 @@
         <v>0.245418048525048</v>
       </c>
     </row>
-    <row r="235" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A235" s="14">
         <f t="shared" si="49"/>
         <v>44141</v>
@@ -27005,7 +27017,7 @@
         <v>34</v>
       </c>
       <c r="BD235">
-        <f t="shared" ref="BD235:BD242" si="734">AY235/AX235</f>
+        <f t="shared" ref="BD235:BD244" si="734">AY235/AX235</f>
         <v>0.61627906976744184</v>
       </c>
       <c r="BE235">
@@ -27017,19 +27029,27 @@
         <v>0.310126582278481</v>
       </c>
       <c r="BG235">
+        <f>SUM(AV229:AV235)/SUM(AU229:AU235)</f>
+        <v>0.25246548323471402</v>
+      </c>
+      <c r="BH235">
+        <f>SUM(AV222:AV235)/SUM(AU222:AU235)</f>
+        <v>0.24652616000219257</v>
+      </c>
+      <c r="BI235">
         <f>SUM(AY229:AY235)/SUM(AX229:AX235)</f>
         <v>0.61627906976744184</v>
       </c>
-      <c r="BH235">
+      <c r="BJ235">
         <f>SUM(BA229:BA235)/SUM(AZ229:AZ235)</f>
         <v>0.32577319587628867</v>
       </c>
-      <c r="BI235">
+      <c r="BK235">
         <f>SUM(BC229:BC235)/SUM(BB229:BB235)</f>
         <v>0.69387755102040816</v>
       </c>
     </row>
-    <row r="236" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A236" s="14">
         <f t="shared" si="49"/>
         <v>44142</v>
@@ -27196,19 +27216,27 @@
         <v>0.44615384615384618</v>
       </c>
       <c r="BG236">
-        <f t="shared" ref="BG236:BG239" si="748">SUM(AY230:AY236)/SUM(AX230:AX236)</f>
+        <f t="shared" ref="BG236:BG243" si="748">SUM(AV230:AV236)/SUM(AU230:AU236)</f>
+        <v>0.25802867286376324</v>
+      </c>
+      <c r="BH236">
+        <f t="shared" ref="BH236:BH243" si="749">SUM(AV223:AV236)/SUM(AU223:AU236)</f>
+        <v>0.25219941348973607</v>
+      </c>
+      <c r="BI236">
+        <f t="shared" ref="BI236:BI239" si="750">SUM(AY230:AY236)/SUM(AX230:AX236)</f>
         <v>0.46206896551724136</v>
       </c>
-      <c r="BH236">
-        <f t="shared" ref="BH236:BH239" si="749">SUM(BA230:BA236)/SUM(AZ230:AZ236)</f>
+      <c r="BJ236">
+        <f t="shared" ref="BJ236:BJ239" si="751">SUM(BA230:BA236)/SUM(AZ230:AZ236)</f>
         <v>0.31145251396648044</v>
       </c>
-      <c r="BI236">
-        <f t="shared" ref="BI236:BI239" si="750">SUM(BC230:BC236)/SUM(BB230:BB236)</f>
+      <c r="BK236">
+        <f t="shared" ref="BK236:BK239" si="752">SUM(BC230:BC236)/SUM(BB230:BB236)</f>
         <v>0.61538461538461542</v>
       </c>
     </row>
-    <row r="237" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A237" s="14">
         <f t="shared" si="49"/>
         <v>44143</v>
@@ -27252,35 +27280,35 @@
         <v>0.14770160812666158</v>
       </c>
       <c r="Q237">
-        <f t="shared" ref="Q237" si="751">C237-C236</f>
+        <f t="shared" ref="Q237" si="753">C237-C236</f>
         <v>3871</v>
       </c>
       <c r="R237">
-        <f t="shared" ref="R237" si="752">M237-M236</f>
+        <f t="shared" ref="R237" si="754">M237-M236</f>
         <v>4404</v>
       </c>
       <c r="S237" s="8">
-        <f t="shared" ref="S237" si="753">Q237/U237</f>
+        <f t="shared" ref="S237" si="755">Q237/U237</f>
         <v>0.46779456193353475</v>
       </c>
       <c r="T237" s="8">
-        <f t="shared" ref="T237" si="754">SUM(Q231:Q237)/SUM(U231:U237)</f>
+        <f t="shared" ref="T237" si="756">SUM(Q231:Q237)/SUM(U231:U237)</f>
         <v>0.44082113545140483</v>
       </c>
       <c r="U237">
-        <f t="shared" ref="U237" si="755">B237-B236</f>
+        <f t="shared" ref="U237" si="757">B237-B236</f>
         <v>8275</v>
       </c>
       <c r="V237">
-        <f t="shared" ref="V237" si="756">C237-D237-E237</f>
+        <f t="shared" ref="V237" si="758">C237-D237-E237</f>
         <v>49567</v>
       </c>
       <c r="W237" s="3">
-        <f t="shared" ref="W237" si="757">F237/V237</f>
+        <f t="shared" ref="W237" si="759">F237/V237</f>
         <v>2.0013315310589707E-2</v>
       </c>
       <c r="X237">
-        <f t="shared" ref="X237" si="758">E237-E236</f>
+        <f t="shared" ref="X237" si="760">E237-E236</f>
         <v>14</v>
       </c>
       <c r="Y237">
@@ -27311,19 +27339,19 @@
         <v>108</v>
       </c>
       <c r="AH237">
-        <f t="shared" ref="AH237" si="759">Y237-AB237-AE237</f>
+        <f t="shared" ref="AH237" si="761">Y237-AB237-AE237</f>
         <v>476</v>
       </c>
       <c r="AI237">
-        <f t="shared" ref="AI237" si="760">Z237-AC237-AF237</f>
+        <f t="shared" ref="AI237" si="762">Z237-AC237-AF237</f>
         <v>146</v>
       </c>
       <c r="AJ237">
-        <f t="shared" ref="AJ237" si="761">AA237-AD237-AG237</f>
+        <f t="shared" ref="AJ237" si="763">AA237-AD237-AG237</f>
         <v>2596</v>
       </c>
       <c r="AK237">
-        <f t="shared" ref="AK237" si="762">-(J237-J236)+L237</f>
+        <f t="shared" ref="AK237" si="764">-(J237-J236)+L237</f>
         <v>-6</v>
       </c>
       <c r="AS237">
@@ -27376,18 +27404,26 @@
       </c>
       <c r="BG237">
         <f t="shared" si="748"/>
-        <v>0.40654205607476634</v>
+        <v>0.26234477802977568</v>
       </c>
       <c r="BH237">
         <f t="shared" si="749"/>
-        <v>0.3079777365491651</v>
+        <v>0.25687747035573122</v>
       </c>
       <c r="BI237">
         <f t="shared" si="750"/>
+        <v>0.40654205607476634</v>
+      </c>
+      <c r="BJ237">
+        <f t="shared" si="751"/>
+        <v>0.3079777365491651</v>
+      </c>
+      <c r="BK237">
+        <f t="shared" si="752"/>
         <v>0.5089285714285714</v>
       </c>
     </row>
-    <row r="238" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A238" s="14">
         <f t="shared" si="49"/>
         <v>44144</v>
@@ -27431,35 +27467,35 @@
         <v>0.15065221526466163</v>
       </c>
       <c r="Q238">
-        <f t="shared" ref="Q238" si="763">C238-C237</f>
+        <f t="shared" ref="Q238" si="765">C238-C237</f>
         <v>4699</v>
       </c>
       <c r="R238">
-        <f t="shared" ref="R238" si="764">M238-M237</f>
+        <f t="shared" ref="R238" si="766">M238-M237</f>
         <v>6321</v>
       </c>
       <c r="S238" s="8">
-        <f t="shared" ref="S238" si="765">Q238/U238</f>
+        <f t="shared" ref="S238" si="767">Q238/U238</f>
         <v>0.4264065335753176</v>
       </c>
       <c r="T238" s="8">
-        <f t="shared" ref="T238" si="766">SUM(Q232:Q238)/SUM(U232:U238)</f>
+        <f t="shared" ref="T238" si="768">SUM(Q232:Q238)/SUM(U232:U238)</f>
         <v>0.44513645906228133</v>
       </c>
       <c r="U238">
-        <f t="shared" ref="U238" si="767">B238-B237</f>
+        <f t="shared" ref="U238" si="769">B238-B237</f>
         <v>11020</v>
       </c>
       <c r="V238">
-        <f t="shared" ref="V238" si="768">C238-D238-E238</f>
+        <f t="shared" ref="V238" si="770">C238-D238-E238</f>
         <v>53935</v>
       </c>
       <c r="W238" s="3">
-        <f t="shared" ref="W238" si="769">F238/V238</f>
+        <f t="shared" ref="W238" si="771">F238/V238</f>
         <v>1.9171224622230462E-2</v>
       </c>
       <c r="X238">
-        <f t="shared" ref="X238" si="770">E238-E237</f>
+        <f t="shared" ref="X238" si="772">E238-E237</f>
         <v>3</v>
       </c>
       <c r="Y238">
@@ -27490,19 +27526,19 @@
         <v>108</v>
       </c>
       <c r="AH238">
-        <f t="shared" ref="AH238" si="771">Y238-AB238-AE238</f>
+        <f t="shared" ref="AH238" si="773">Y238-AB238-AE238</f>
         <v>550</v>
       </c>
       <c r="AI238">
-        <f t="shared" ref="AI238" si="772">Z238-AC238-AF238</f>
+        <f t="shared" ref="AI238" si="774">Z238-AC238-AF238</f>
         <v>163</v>
       </c>
       <c r="AJ238">
-        <f t="shared" ref="AJ238" si="773">AA238-AD238-AG238</f>
+        <f t="shared" ref="AJ238" si="775">AA238-AD238-AG238</f>
         <v>2808</v>
       </c>
       <c r="AK238">
-        <f t="shared" ref="AK238" si="774">-(J238-J237)+L238</f>
+        <f t="shared" ref="AK238" si="776">-(J238-J237)+L238</f>
         <v>37</v>
       </c>
       <c r="AL238">
@@ -27519,7 +27555,7 @@
         <v>29</v>
       </c>
       <c r="AT238">
-        <f t="shared" ref="AT238" si="775">AH238-AS238</f>
+        <f t="shared" ref="AT238" si="777">AH238-AS238</f>
         <v>521</v>
       </c>
       <c r="AU238">
@@ -27555,27 +27591,35 @@
         <v>0.32743362831858408</v>
       </c>
       <c r="BE238">
-        <f t="shared" ref="BE238:BE242" si="776">BA238/AZ238</f>
+        <f t="shared" ref="BE238:BE244" si="778">BA238/AZ238</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="BF238">
-        <f t="shared" ref="BF238:BF242" si="777">BB238/BA238</f>
+        <f t="shared" ref="BF238:BF244" si="779">BB238/BA238</f>
         <v>0.41</v>
       </c>
       <c r="BG238">
         <f t="shared" si="748"/>
-        <v>0.37920489296636084</v>
+        <v>0.27028105240061434</v>
       </c>
       <c r="BH238">
         <f t="shared" si="749"/>
-        <v>0.29731589814177561</v>
+        <v>0.26019575856443722</v>
       </c>
       <c r="BI238">
         <f t="shared" si="750"/>
+        <v>0.37920489296636084</v>
+      </c>
+      <c r="BJ238">
+        <f t="shared" si="751"/>
+        <v>0.29731589814177561</v>
+      </c>
+      <c r="BK238">
+        <f t="shared" si="752"/>
         <v>0.48366013071895425</v>
       </c>
     </row>
-    <row r="239" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A239" s="14">
         <f t="shared" si="49"/>
         <v>44145</v>
@@ -27619,35 +27663,35 @@
         <v>0.15359848809585044</v>
       </c>
       <c r="Q239">
-        <f t="shared" ref="Q239" si="778">C239-C238</f>
+        <f t="shared" ref="Q239" si="780">C239-C238</f>
         <v>4432</v>
       </c>
       <c r="R239">
-        <f t="shared" ref="R239" si="779">M239-M238</f>
+        <f t="shared" ref="R239" si="781">M239-M238</f>
         <v>4456</v>
       </c>
       <c r="S239" s="8">
-        <f t="shared" ref="S239" si="780">Q239/U239</f>
+        <f t="shared" ref="S239" si="782">Q239/U239</f>
         <v>0.49864986498649866</v>
       </c>
       <c r="T239" s="8">
-        <f t="shared" ref="T239" si="781">SUM(Q233:Q239)/SUM(U233:U239)</f>
+        <f t="shared" ref="T239" si="783">SUM(Q233:Q239)/SUM(U233:U239)</f>
         <v>0.455312978329171</v>
       </c>
       <c r="U239">
-        <f t="shared" ref="U239" si="782">B239-B238</f>
+        <f t="shared" ref="U239" si="784">B239-B238</f>
         <v>8888</v>
       </c>
       <c r="V239">
-        <f t="shared" ref="V239" si="783">C239-D239-E239</f>
+        <f t="shared" ref="V239" si="785">C239-D239-E239</f>
         <v>56489</v>
       </c>
       <c r="W239" s="3">
-        <f t="shared" ref="W239" si="784">F239/V239</f>
+        <f t="shared" ref="W239" si="786">F239/V239</f>
         <v>2.0092407371346634E-2</v>
       </c>
       <c r="X239">
-        <f t="shared" ref="X239" si="785">E239-E238</f>
+        <f t="shared" ref="X239" si="787">E239-E238</f>
         <v>27</v>
       </c>
       <c r="Y239">
@@ -27678,19 +27722,19 @@
         <v>110</v>
       </c>
       <c r="AH239">
-        <f t="shared" ref="AH239:AH242" si="786">Y239-AB239-AE239</f>
+        <f t="shared" ref="AH239:AH242" si="788">Y239-AB239-AE239</f>
         <v>575</v>
       </c>
       <c r="AI239">
-        <f t="shared" ref="AI239:AI242" si="787">Z239-AC239-AF239</f>
+        <f t="shared" ref="AI239:AI242" si="789">Z239-AC239-AF239</f>
         <v>186</v>
       </c>
       <c r="AJ239">
-        <f t="shared" ref="AJ239:AJ242" si="788">AA239-AD239-AG239</f>
+        <f t="shared" ref="AJ239:AJ242" si="790">AA239-AD239-AG239</f>
         <v>2896</v>
       </c>
       <c r="AK239">
-        <f t="shared" ref="AK239:AK242" si="789">-(J239-J238)+L239</f>
+        <f t="shared" ref="AK239:AK242" si="791">-(J239-J238)+L239</f>
         <v>12</v>
       </c>
       <c r="AL239">
@@ -27707,7 +27751,7 @@
         <v>28</v>
       </c>
       <c r="AT239">
-        <f t="shared" ref="AT239:AT240" si="790">AH239-AS239</f>
+        <f t="shared" ref="AT239:AT240" si="792">AH239-AS239</f>
         <v>547</v>
       </c>
       <c r="AU239">
@@ -27743,27 +27787,35 @@
         <v>0.43023255813953487</v>
       </c>
       <c r="BE239">
-        <f t="shared" si="776"/>
+        <f t="shared" si="778"/>
         <v>0.32089552238805968</v>
       </c>
       <c r="BF239">
-        <f t="shared" si="777"/>
+        <f t="shared" si="779"/>
         <v>0.44961240310077522</v>
       </c>
       <c r="BG239">
         <f t="shared" si="748"/>
-        <v>0.38983050847457629</v>
+        <v>0.27482896490448688</v>
       </c>
       <c r="BH239">
         <f t="shared" si="749"/>
-        <v>0.30242587601078169</v>
+        <v>0.26444554245782453</v>
       </c>
       <c r="BI239">
         <f t="shared" si="750"/>
+        <v>0.38983050847457629</v>
+      </c>
+      <c r="BJ239">
+        <f t="shared" si="751"/>
+        <v>0.30242587601078169</v>
+      </c>
+      <c r="BK239">
+        <f t="shared" si="752"/>
         <v>0.45023696682464454</v>
       </c>
     </row>
-    <row r="240" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A240" s="14">
         <f t="shared" si="49"/>
         <v>44146</v>
@@ -27807,35 +27859,35 @@
         <v>0.15666718567903332</v>
       </c>
       <c r="Q240">
-        <f t="shared" ref="Q240" si="791">C240-C239</f>
+        <f t="shared" ref="Q240" si="793">C240-C239</f>
         <v>4773</v>
       </c>
       <c r="R240">
-        <f t="shared" ref="R240" si="792">M240-M239</f>
+        <f t="shared" ref="R240" si="794">M240-M239</f>
         <v>5130</v>
       </c>
       <c r="S240" s="8">
-        <f t="shared" ref="S240" si="793">Q240/U240</f>
+        <f t="shared" ref="S240" si="795">Q240/U240</f>
         <v>0.48197515904271432</v>
       </c>
       <c r="T240" s="8">
-        <f t="shared" ref="T240" si="794">SUM(Q234:Q240)/SUM(U234:U240)</f>
+        <f t="shared" ref="T240" si="796">SUM(Q234:Q240)/SUM(U234:U240)</f>
         <v>0.46117769671704012</v>
       </c>
       <c r="U240">
-        <f t="shared" ref="U240" si="795">B240-B239</f>
+        <f t="shared" ref="U240" si="797">B240-B239</f>
         <v>9903</v>
       </c>
       <c r="V240">
-        <f t="shared" ref="V240" si="796">C240-D240-E240</f>
+        <f t="shared" ref="V240" si="798">C240-D240-E240</f>
         <v>59910</v>
       </c>
       <c r="W240" s="3">
-        <f t="shared" ref="W240" si="797">F240/V240</f>
+        <f t="shared" ref="W240" si="799">F240/V240</f>
         <v>1.986312802537139E-2</v>
       </c>
       <c r="X240">
-        <f t="shared" ref="X240" si="798">E240-E239</f>
+        <f t="shared" ref="X240" si="800">E240-E239</f>
         <v>26</v>
       </c>
       <c r="Y240">
@@ -27866,19 +27918,19 @@
         <v>110</v>
       </c>
       <c r="AH240">
-        <f t="shared" si="786"/>
+        <f t="shared" si="788"/>
         <v>648</v>
       </c>
       <c r="AI240">
-        <f t="shared" si="787"/>
+        <f t="shared" si="789"/>
         <v>219</v>
       </c>
       <c r="AJ240">
-        <f t="shared" si="788"/>
+        <f t="shared" si="790"/>
         <v>3156</v>
       </c>
       <c r="AK240">
-        <f t="shared" si="789"/>
+        <f t="shared" si="791"/>
         <v>41</v>
       </c>
       <c r="AL240">
@@ -27895,7 +27947,7 @@
         <v>28</v>
       </c>
       <c r="AT240">
-        <f t="shared" si="790"/>
+        <f t="shared" si="792"/>
         <v>620</v>
       </c>
       <c r="AU240">
@@ -27931,27 +27983,35 @@
         <v>0.38383838383838381</v>
       </c>
       <c r="BE240">
-        <f t="shared" si="776"/>
+        <f t="shared" si="778"/>
         <v>0.33995037220843671</v>
       </c>
       <c r="BF240">
-        <f t="shared" si="777"/>
+        <f t="shared" si="779"/>
         <v>0.45255474452554745</v>
       </c>
       <c r="BG240">
+        <f t="shared" si="748"/>
+        <v>0.27971783069841905</v>
+      </c>
+      <c r="BH240">
+        <f t="shared" si="749"/>
+        <v>0.26720332712474165</v>
+      </c>
+      <c r="BI240">
         <f>SUM(AY234:AY240)/SUM(AX234:AX240)</f>
         <v>0.388671875</v>
       </c>
-      <c r="BH240">
+      <c r="BJ240">
         <f>SUM(BA234:BA240)/SUM(AZ234:AZ240)</f>
         <v>0.30912311780336582</v>
       </c>
-      <c r="BI240">
+      <c r="BK240">
         <f>SUM(BC234:BC240)/SUM(BB234:BB240)</f>
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="241" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A241" s="14">
         <f t="shared" si="49"/>
         <v>44147</v>
@@ -27995,35 +28055,35 @@
         <v>0.15945473590993894</v>
       </c>
       <c r="Q241">
-        <f t="shared" ref="Q241" si="799">C241-C240</f>
+        <f t="shared" ref="Q241" si="801">C241-C240</f>
         <v>4317</v>
       </c>
       <c r="R241">
-        <f t="shared" ref="R241" si="800">M241-M240</f>
+        <f t="shared" ref="R241" si="802">M241-M240</f>
         <v>4231</v>
       </c>
       <c r="S241" s="8">
-        <f t="shared" ref="S241" si="801">Q241/U241</f>
+        <f t="shared" ref="S241" si="803">Q241/U241</f>
         <v>0.50503041647168934</v>
       </c>
       <c r="T241" s="8">
-        <f t="shared" ref="T241" si="802">SUM(Q235:Q241)/SUM(U235:U241)</f>
+        <f t="shared" ref="T241" si="804">SUM(Q235:Q241)/SUM(U235:U241)</f>
         <v>0.46934225195094759</v>
       </c>
       <c r="U241">
-        <f t="shared" ref="U241" si="803">B241-B240</f>
+        <f t="shared" ref="U241" si="805">B241-B240</f>
         <v>8548</v>
       </c>
       <c r="V241">
-        <f t="shared" ref="V241" si="804">C241-D241-E241</f>
+        <f t="shared" ref="V241" si="806">C241-D241-E241</f>
         <v>63055</v>
       </c>
       <c r="W241" s="3">
-        <f t="shared" ref="W241" si="805">F241/V241</f>
+        <f t="shared" ref="W241" si="807">F241/V241</f>
         <v>1.9157878042978353E-2</v>
       </c>
       <c r="X241">
-        <f t="shared" ref="X241" si="806">E241-E240</f>
+        <f t="shared" ref="X241" si="808">E241-E240</f>
         <v>29</v>
       </c>
       <c r="Y241">
@@ -28054,19 +28114,19 @@
         <v>112</v>
       </c>
       <c r="AH241">
-        <f t="shared" si="786"/>
+        <f t="shared" si="788"/>
         <v>675</v>
       </c>
       <c r="AI241">
-        <f t="shared" si="787"/>
+        <f t="shared" si="789"/>
         <v>244</v>
       </c>
       <c r="AJ241">
-        <f t="shared" si="788"/>
+        <f t="shared" si="790"/>
         <v>3276</v>
       </c>
       <c r="AK241">
-        <f t="shared" si="789"/>
+        <f t="shared" si="791"/>
         <v>40</v>
       </c>
       <c r="AL241">
@@ -28083,7 +28143,7 @@
         <v>27</v>
       </c>
       <c r="AT241">
-        <f t="shared" ref="AT241:AT242" si="807">AH241-AS241</f>
+        <f t="shared" ref="AT241:AT242" si="809">AH241-AS241</f>
         <v>648</v>
       </c>
       <c r="AU241">
@@ -28119,27 +28179,35 @@
         <v>0.2818181818181818</v>
       </c>
       <c r="BE241">
-        <f t="shared" si="776"/>
+        <f t="shared" si="778"/>
         <v>0.34226190476190477</v>
       </c>
       <c r="BF241">
-        <f t="shared" si="777"/>
+        <f t="shared" si="779"/>
         <v>0.23478260869565218</v>
       </c>
       <c r="BG241">
+        <f t="shared" si="748"/>
+        <v>0.28468850655982403</v>
+      </c>
+      <c r="BH241">
+        <f t="shared" si="749"/>
+        <v>0.26990979087885553</v>
+      </c>
+      <c r="BI241">
         <f>SUM(AY235:AY241)/SUM(AX235:AX241)</f>
         <v>0.36977491961414793</v>
       </c>
-      <c r="BH241">
+      <c r="BJ241">
         <f>SUM(BA235:BA241)/SUM(AZ235:AZ241)</f>
         <v>0.31341557440246726</v>
       </c>
-      <c r="BI241">
+      <c r="BK241">
         <f>SUM(BC235:BC241)/SUM(BB235:BB241)</f>
         <v>0.42333333333333334</v>
       </c>
     </row>
-    <row r="242" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A242" s="14">
         <f t="shared" si="49"/>
         <v>44148</v>
@@ -28183,35 +28251,35 @@
         <v>0.16254403537284362</v>
       </c>
       <c r="Q242">
-        <f t="shared" ref="Q242" si="808">C242-C241</f>
+        <f t="shared" ref="Q242" si="810">C242-C241</f>
         <v>5087</v>
       </c>
       <c r="R242">
-        <f t="shared" ref="R242" si="809">M242-M241</f>
+        <f t="shared" ref="R242" si="811">M242-M241</f>
         <v>5906</v>
       </c>
       <c r="S242" s="8">
-        <f t="shared" ref="S242" si="810">Q242/U242</f>
+        <f t="shared" ref="S242" si="812">Q242/U242</f>
         <v>0.46274902210497587</v>
       </c>
       <c r="T242" s="8">
-        <f t="shared" ref="T242" si="811">SUM(Q236:Q242)/SUM(U236:U242)</f>
+        <f t="shared" ref="T242" si="813">SUM(Q236:Q242)/SUM(U236:U242)</f>
         <v>0.47394894894894896</v>
       </c>
       <c r="U242">
-        <f t="shared" ref="U242" si="812">B242-B241</f>
+        <f t="shared" ref="U242" si="814">B242-B241</f>
         <v>10993</v>
       </c>
       <c r="V242">
-        <f t="shared" ref="V242" si="813">C242-D242-E242</f>
+        <f t="shared" ref="V242" si="815">C242-D242-E242</f>
         <v>66986</v>
       </c>
       <c r="W242" s="3">
-        <f t="shared" ref="W242" si="814">F242/V242</f>
+        <f t="shared" ref="W242" si="816">F242/V242</f>
         <v>1.831726032305258E-2</v>
       </c>
       <c r="X242">
-        <f t="shared" ref="X242" si="815">E242-E241</f>
+        <f t="shared" ref="X242" si="817">E242-E241</f>
         <v>20</v>
       </c>
       <c r="Y242">
@@ -28242,19 +28310,19 @@
         <v>112</v>
       </c>
       <c r="AH242">
-        <f t="shared" si="786"/>
+        <f t="shared" si="788"/>
         <v>726</v>
       </c>
       <c r="AI242">
-        <f t="shared" si="787"/>
+        <f t="shared" si="789"/>
         <v>262</v>
       </c>
       <c r="AJ242">
-        <f t="shared" si="788"/>
+        <f t="shared" si="790"/>
         <v>3443</v>
       </c>
       <c r="AK242">
-        <f t="shared" si="789"/>
+        <f t="shared" si="791"/>
         <v>47</v>
       </c>
       <c r="AL242">
@@ -28271,7 +28339,7 @@
         <v>26</v>
       </c>
       <c r="AT242">
-        <f t="shared" si="807"/>
+        <f t="shared" si="809"/>
         <v>700</v>
       </c>
       <c r="AU242">
@@ -28307,33 +28375,417 @@
         <v>0.38202247191011235</v>
       </c>
       <c r="BE242">
-        <f t="shared" si="776"/>
+        <f t="shared" si="778"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="BF242">
-        <f t="shared" si="777"/>
+        <f t="shared" si="779"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="BG242">
+        <f t="shared" si="748"/>
+        <v>0.28683559145388221</v>
+      </c>
+      <c r="BH242">
+        <f t="shared" si="749"/>
+        <v>0.2754497538877031</v>
+      </c>
+      <c r="BI242">
         <f>SUM(AY236:AY242)/SUM(AX236:AX242)</f>
         <v>0.33760000000000001</v>
       </c>
-      <c r="BH242">
+      <c r="BJ242">
         <f>SUM(BA236:BA242)/SUM(AZ236:AZ242)</f>
         <v>0.31006240249609984</v>
       </c>
-      <c r="BI242">
+      <c r="BK242">
         <f>SUM(BC236:BC242)/SUM(BB236:BB242)</f>
         <v>0.37113402061855671</v>
       </c>
-      <c r="BJ242">
+      <c r="BL242">
         <v>30.8</v>
       </c>
-      <c r="BK242">
+      <c r="BM242">
         <v>26.4</v>
       </c>
-      <c r="BL242">
+      <c r="BN242">
         <v>22.3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A243" s="14">
+        <f t="shared" si="49"/>
+        <v>44149</v>
+      </c>
+      <c r="B243">
+        <v>1089765</v>
+      </c>
+      <c r="C243">
+        <v>180251</v>
+      </c>
+      <c r="D243">
+        <v>107593</v>
+      </c>
+      <c r="E243" s="9">
+        <v>1972</v>
+      </c>
+      <c r="F243" s="9">
+        <v>1261</v>
+      </c>
+      <c r="H243">
+        <v>246</v>
+      </c>
+      <c r="I243">
+        <v>217</v>
+      </c>
+      <c r="J243">
+        <v>327</v>
+      </c>
+      <c r="K243">
+        <v>48</v>
+      </c>
+      <c r="L243">
+        <v>56</v>
+      </c>
+      <c r="M243" s="7">
+        <f t="shared" si="380"/>
+        <v>909514</v>
+      </c>
+      <c r="N243" s="4">
+        <f t="shared" si="381"/>
+        <v>0.1654035503067175</v>
+      </c>
+      <c r="Q243">
+        <f t="shared" ref="Q243" si="818">C243-C242</f>
+        <v>4826</v>
+      </c>
+      <c r="R243">
+        <f t="shared" ref="R243" si="819">M243-M242</f>
+        <v>5693</v>
+      </c>
+      <c r="S243" s="8">
+        <f t="shared" ref="S243" si="820">Q243/U243</f>
+        <v>0.45878885825648824</v>
+      </c>
+      <c r="T243" s="8">
+        <f t="shared" ref="T243" si="821">SUM(Q237:Q243)/SUM(U237:U243)</f>
+        <v>0.46965339124820238</v>
+      </c>
+      <c r="U243">
+        <f t="shared" ref="U243" si="822">B243-B242</f>
+        <v>10519</v>
+      </c>
+      <c r="V243">
+        <f t="shared" ref="V243" si="823">C243-D243-E243</f>
+        <v>70686</v>
+      </c>
+      <c r="W243" s="3">
+        <f t="shared" ref="W243" si="824">F243/V243</f>
+        <v>1.7839459015929603E-2</v>
+      </c>
+      <c r="X243">
+        <f t="shared" ref="X243" si="825">E243-E242</f>
+        <v>25</v>
+      </c>
+      <c r="Y243">
+        <v>1423</v>
+      </c>
+      <c r="Z243">
+        <v>738</v>
+      </c>
+      <c r="AA243">
+        <v>8866</v>
+      </c>
+      <c r="AB243">
+        <v>610</v>
+      </c>
+      <c r="AC243">
+        <v>434</v>
+      </c>
+      <c r="AD243">
+        <v>5075</v>
+      </c>
+      <c r="AE243">
+        <v>12</v>
+      </c>
+      <c r="AF243">
+        <v>3</v>
+      </c>
+      <c r="AG243">
+        <v>113</v>
+      </c>
+      <c r="AH243">
+        <f t="shared" ref="AH243" si="826">Y243-AB243-AE243</f>
+        <v>801</v>
+      </c>
+      <c r="AI243">
+        <f t="shared" ref="AI243" si="827">Z243-AC243-AF243</f>
+        <v>301</v>
+      </c>
+      <c r="AJ243">
+        <f t="shared" ref="AJ243" si="828">AA243-AD243-AG243</f>
+        <v>3678</v>
+      </c>
+      <c r="AK243">
+        <f t="shared" ref="AK243" si="829">-(J243-J242)+L243</f>
+        <v>48</v>
+      </c>
+      <c r="AU243">
+        <v>11959</v>
+      </c>
+      <c r="AV243">
+        <v>3412</v>
+      </c>
+      <c r="AW243">
+        <f t="shared" si="684"/>
+        <v>0.28530813613178357</v>
+      </c>
+      <c r="AX243">
+        <v>90</v>
+      </c>
+      <c r="AY243">
+        <v>36</v>
+      </c>
+      <c r="AZ243">
+        <v>343</v>
+      </c>
+      <c r="BA243">
+        <v>108</v>
+      </c>
+      <c r="BB243">
+        <v>39</v>
+      </c>
+      <c r="BC243">
+        <v>11</v>
+      </c>
+      <c r="BD243">
+        <f t="shared" si="734"/>
+        <v>0.4</v>
+      </c>
+      <c r="BE243">
+        <f t="shared" si="778"/>
+        <v>0.31486880466472306</v>
+      </c>
+      <c r="BF243">
+        <f t="shared" si="779"/>
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="BG243">
+        <f t="shared" si="748"/>
+        <v>0.28682274847506278</v>
+      </c>
+      <c r="BH243">
+        <f t="shared" si="749"/>
+        <v>0.27658569955774809</v>
+      </c>
+      <c r="BI243">
+        <f>SUM(AY237:AY243)/SUM(AX237:AX243)</f>
+        <v>0.35518292682926828</v>
+      </c>
+      <c r="BJ243">
+        <f>SUM(BA237:BA243)/SUM(AZ237:AZ243)</f>
+        <v>0.3131539611360239</v>
+      </c>
+      <c r="BK243">
+        <f>SUM(BC237:BC243)/SUM(BB237:BB243)</f>
+        <v>0.34883720930232559</v>
+      </c>
+      <c r="BL243">
+        <v>30.1</v>
+      </c>
+      <c r="BM243">
+        <v>26.4</v>
+      </c>
+      <c r="BN243">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="244" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A244" s="14">
+        <f t="shared" si="49"/>
+        <v>44150</v>
+      </c>
+      <c r="B244">
+        <v>1100077</v>
+      </c>
+      <c r="C244">
+        <v>184684</v>
+      </c>
+      <c r="D244">
+        <v>107880</v>
+      </c>
+      <c r="E244" s="9">
+        <v>1985</v>
+      </c>
+      <c r="F244" s="9">
+        <v>1279</v>
+      </c>
+      <c r="H244">
+        <v>247</v>
+      </c>
+      <c r="I244">
+        <v>208</v>
+      </c>
+      <c r="J244">
+        <v>336</v>
+      </c>
+      <c r="K244">
+        <v>52</v>
+      </c>
+      <c r="L244">
+        <v>60</v>
+      </c>
+      <c r="M244" s="7">
+        <f t="shared" si="380"/>
+        <v>915393</v>
+      </c>
+      <c r="N244" s="4">
+        <f t="shared" si="381"/>
+        <v>0.16788279365898934</v>
+      </c>
+      <c r="Q244">
+        <f t="shared" ref="Q244" si="830">C244-C243</f>
+        <v>4433</v>
+      </c>
+      <c r="R244">
+        <f t="shared" ref="R244" si="831">M244-M243</f>
+        <v>5879</v>
+      </c>
+      <c r="S244" s="8">
+        <f t="shared" ref="S244" si="832">Q244/U244</f>
+        <v>0.42988750969743988</v>
+      </c>
+      <c r="T244" s="8">
+        <f t="shared" ref="T244" si="833">SUM(Q238:Q244)/SUM(U238:U244)</f>
+        <v>0.46402975079435194</v>
+      </c>
+      <c r="U244">
+        <f t="shared" ref="U244" si="834">B244-B243</f>
+        <v>10312</v>
+      </c>
+      <c r="V244">
+        <f t="shared" ref="V244" si="835">C244-D244-E244</f>
+        <v>74819</v>
+      </c>
+      <c r="W244" s="3">
+        <f t="shared" ref="W244" si="836">F244/V244</f>
+        <v>1.709458827303225E-2</v>
+      </c>
+      <c r="X244">
+        <f t="shared" ref="X244" si="837">E244-E243</f>
+        <v>13</v>
+      </c>
+      <c r="Y244">
+        <v>1485</v>
+      </c>
+      <c r="Z244">
+        <v>767</v>
+      </c>
+      <c r="AA244">
+        <v>9060</v>
+      </c>
+      <c r="AB244">
+        <v>610</v>
+      </c>
+      <c r="AC244">
+        <v>434</v>
+      </c>
+      <c r="AD244">
+        <v>5086</v>
+      </c>
+      <c r="AE244">
+        <v>12</v>
+      </c>
+      <c r="AF244">
+        <v>3</v>
+      </c>
+      <c r="AG244">
+        <v>115</v>
+      </c>
+      <c r="AH244">
+        <f t="shared" ref="AH244" si="838">Y244-AB244-AE244</f>
+        <v>863</v>
+      </c>
+      <c r="AI244">
+        <f t="shared" ref="AI244" si="839">Z244-AC244-AF244</f>
+        <v>330</v>
+      </c>
+      <c r="AJ244">
+        <f t="shared" ref="AJ244" si="840">AA244-AD244-AG244</f>
+        <v>3859</v>
+      </c>
+      <c r="AK244">
+        <f t="shared" ref="AK244" si="841">-(J244-J243)+L244</f>
+        <v>51</v>
+      </c>
+      <c r="AU244">
+        <v>10735</v>
+      </c>
+      <c r="AV244">
+        <v>2719</v>
+      </c>
+      <c r="AW244">
+        <f t="shared" si="684"/>
+        <v>0.25328365160689331</v>
+      </c>
+      <c r="AX244">
+        <v>107</v>
+      </c>
+      <c r="AY244">
+        <v>25</v>
+      </c>
+      <c r="AZ244">
+        <v>453</v>
+      </c>
+      <c r="BA244">
+        <v>105</v>
+      </c>
+      <c r="BB244">
+        <v>54</v>
+      </c>
+      <c r="BC244">
+        <v>22</v>
+      </c>
+      <c r="BD244">
+        <f t="shared" si="734"/>
+        <v>0.23364485981308411</v>
+      </c>
+      <c r="BE244">
+        <f t="shared" si="778"/>
+        <v>0.23178807947019867</v>
+      </c>
+      <c r="BF244">
+        <f t="shared" si="779"/>
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="BG244">
+        <f t="shared" ref="BG244" si="842">SUM(AV238:AV244)/SUM(AU238:AU244)</f>
+        <v>0.28207289716955519</v>
+      </c>
+      <c r="BH244">
+        <f t="shared" ref="BH244" si="843">SUM(AV231:AV244)/SUM(AU231:AU244)</f>
+        <v>0.27440142505370146</v>
+      </c>
+      <c r="BI244">
+        <f>SUM(AY238:AY244)/SUM(AX238:AX244)</f>
+        <v>0.34293948126801155</v>
+      </c>
+      <c r="BJ244">
+        <f>SUM(BA238:BA244)/SUM(AZ238:AZ244)</f>
+        <v>0.30140946873870617</v>
+      </c>
+      <c r="BK244">
+        <f>SUM(BC238:BC244)/SUM(BB238:BB244)</f>
+        <v>0.36760124610591899</v>
+      </c>
+      <c r="BL244">
+        <v>29.3</v>
+      </c>
+      <c r="BM244">
+        <v>25.9</v>
+      </c>
+      <c r="BN244">
+        <v>23.8</v>
       </c>
     </row>
   </sheetData>
@@ -28361,7 +28813,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>Q228:Q242</xm:sqref>
+          <xm:sqref>Q228:Q244</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="22" operator="equal" id="{E5309D98-D036-43E8-AE0C-F104DC358831}">
@@ -28377,7 +28829,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>X228:X242</xm:sqref>
+          <xm:sqref>X228:X244</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5269D26C-9211-46B2-914A-48345DF37DEF}">
@@ -28393,7 +28845,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F228:F242</xm:sqref>
+          <xm:sqref>F228:F244</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="20" operator="equal" id="{24843253-84F3-44AF-847D-C74D74C4F05A}">
@@ -28425,7 +28877,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J228:J242</xm:sqref>
+          <xm:sqref>J228:J244</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="18" operator="equal" id="{6F562D16-6A18-4369-973E-028D1B5F7CFF}">
@@ -28441,7 +28893,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K228:K242</xm:sqref>
+          <xm:sqref>K228:K244</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{735BDD8A-2F04-47F3-825F-41FCBFA8ADD5}">
@@ -28505,7 +28957,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AH228:AH242</xm:sqref>
+          <xm:sqref>AH228:AH244</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="12" operator="equal" id="{A5D8B9CD-D171-4616-8063-8E2F3DB2617E}">
@@ -28521,7 +28973,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AI228:AI242</xm:sqref>
+          <xm:sqref>AI228:AI244</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="11" operator="equal" id="{525B83D9-8CB5-4E31-BB6E-B59F9B6585E1}">
@@ -28681,7 +29133,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H1:H1048576 I229:I242</xm:sqref>
+          <xm:sqref>H1:H1048576 I229:I244</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{8F0BE21B-C8AC-4EAD-AE58-244C59D5B0FC}">
@@ -28697,7 +29149,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>V229:V242</xm:sqref>
+          <xm:sqref>V229:V244</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -32767,7 +33219,7 @@
       </c>
       <c r="F2">
         <f>MAX(covid19!F:F)</f>
-        <v>1227</v>
+        <v>1279</v>
       </c>
       <c r="G2">
         <f>MAX(covid19!G:G)</f>
@@ -32775,11 +33227,11 @@
       </c>
       <c r="H2">
         <f>MAX(covid19!H:H)</f>
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="I2">
         <f>MAX(covid19!J:J)</f>
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="J2">
         <f>MAX(covid19!K:K)</f>
@@ -32803,7 +33255,7 @@
       </c>
       <c r="O2">
         <f>MAX(covid19!V:V)</f>
-        <v>66986</v>
+        <v>74819</v>
       </c>
       <c r="P2">
         <f>MAX(covid19!W:W)</f>
@@ -32823,19 +33275,19 @@
       </c>
       <c r="T2">
         <f>MAX(covid19!AG:AG)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="U2">
         <f>MAX(covid19!AH:AH)</f>
-        <v>726</v>
+        <v>863</v>
       </c>
       <c r="V2">
         <f>MAX(covid19!AI:AI)</f>
-        <v>262</v>
+        <v>330</v>
       </c>
       <c r="W2">
         <f>MAX(covid19!AJ:AJ)</f>
-        <v>3443</v>
+        <v>3859</v>
       </c>
       <c r="X2">
         <f>MAX(covid19!AL:AL)</f>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A78BF86-960C-4899-ABC1-BA500ECC5252}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EABCED5-E47F-4816-8119-A88737CDC9F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="401">
   <si>
     <t>date</t>
   </si>
@@ -2393,13 +2393,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BN244"/>
+  <dimension ref="A1:BN246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X228" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AG179" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH243" sqref="AH243:AK244"/>
+      <selection pane="bottomRight" activeCell="AN187" sqref="AL187:AN187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15643,7 +15643,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" s="14">
-        <f t="shared" ref="A152:A244" si="49">A151+1</f>
+        <f t="shared" ref="A152:A246" si="49">A151+1</f>
         <v>44058</v>
       </c>
       <c r="B152">
@@ -20465,15 +20465,6 @@
         <f t="shared" ref="AK187:AK190" si="232">-(J187-J186)+L187</f>
         <v>6</v>
       </c>
-      <c r="AL187" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM187" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN187" t="s">
-        <v>19</v>
-      </c>
       <c r="AS187">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A187)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A187)</f>
         <v>65</v>
@@ -22550,11 +22541,11 @@
         <v>17</v>
       </c>
       <c r="M203" s="7">
-        <f t="shared" ref="M203:M244" si="380">B203-C203</f>
+        <f t="shared" ref="M203:M246" si="380">B203-C203</f>
         <v>730923</v>
       </c>
       <c r="N203" s="4">
-        <f t="shared" ref="N203:N244" si="381">C203/B203</f>
+        <f t="shared" ref="N203:N246" si="381">C203/B203</f>
         <v>0.11270554987702819</v>
       </c>
       <c r="Q203">
@@ -26420,7 +26411,7 @@
         <v>1085</v>
       </c>
       <c r="AW231">
-        <f t="shared" ref="AW231:AW244" si="684">AV231/AU231</f>
+        <f t="shared" ref="AW231:AW246" si="684">AV231/AU231</f>
         <v>0.21274509803921568</v>
       </c>
     </row>
@@ -27017,7 +27008,7 @@
         <v>34</v>
       </c>
       <c r="BD235">
-        <f t="shared" ref="BD235:BD244" si="734">AY235/AX235</f>
+        <f t="shared" ref="BD235:BD246" si="734">AY235/AX235</f>
         <v>0.61627906976744184</v>
       </c>
       <c r="BE235">
@@ -27591,11 +27582,11 @@
         <v>0.32743362831858408</v>
       </c>
       <c r="BE238">
-        <f t="shared" ref="BE238:BE244" si="778">BA238/AZ238</f>
+        <f t="shared" ref="BE238:BE246" si="778">BA238/AZ238</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="BF238">
-        <f t="shared" ref="BF238:BF244" si="779">BB238/BA238</f>
+        <f t="shared" ref="BF238:BF246" si="779">BB238/BA238</f>
         <v>0.41</v>
       </c>
       <c r="BG238">
@@ -27999,15 +27990,15 @@
         <v>0.26720332712474165</v>
       </c>
       <c r="BI240">
-        <f>SUM(AY234:AY240)/SUM(AX234:AX240)</f>
+        <f t="shared" ref="BI240:BI245" si="801">SUM(AY234:AY240)/SUM(AX234:AX240)</f>
         <v>0.388671875</v>
       </c>
       <c r="BJ240">
-        <f>SUM(BA234:BA240)/SUM(AZ234:AZ240)</f>
+        <f t="shared" ref="BJ240:BJ245" si="802">SUM(BA234:BA240)/SUM(AZ234:AZ240)</f>
         <v>0.30912311780336582</v>
       </c>
       <c r="BK240">
-        <f>SUM(BC234:BC240)/SUM(BB234:BB240)</f>
+        <f t="shared" ref="BK240:BK245" si="803">SUM(BC234:BC240)/SUM(BB234:BB240)</f>
         <v>0.41025641025641024</v>
       </c>
     </row>
@@ -28055,35 +28046,35 @@
         <v>0.15945473590993894</v>
       </c>
       <c r="Q241">
-        <f t="shared" ref="Q241" si="801">C241-C240</f>
+        <f t="shared" ref="Q241" si="804">C241-C240</f>
         <v>4317</v>
       </c>
       <c r="R241">
-        <f t="shared" ref="R241" si="802">M241-M240</f>
+        <f t="shared" ref="R241" si="805">M241-M240</f>
         <v>4231</v>
       </c>
       <c r="S241" s="8">
-        <f t="shared" ref="S241" si="803">Q241/U241</f>
+        <f t="shared" ref="S241" si="806">Q241/U241</f>
         <v>0.50503041647168934</v>
       </c>
       <c r="T241" s="8">
-        <f t="shared" ref="T241" si="804">SUM(Q235:Q241)/SUM(U235:U241)</f>
+        <f t="shared" ref="T241" si="807">SUM(Q235:Q241)/SUM(U235:U241)</f>
         <v>0.46934225195094759</v>
       </c>
       <c r="U241">
-        <f t="shared" ref="U241" si="805">B241-B240</f>
+        <f t="shared" ref="U241" si="808">B241-B240</f>
         <v>8548</v>
       </c>
       <c r="V241">
-        <f t="shared" ref="V241" si="806">C241-D241-E241</f>
+        <f t="shared" ref="V241" si="809">C241-D241-E241</f>
         <v>63055</v>
       </c>
       <c r="W241" s="3">
-        <f t="shared" ref="W241" si="807">F241/V241</f>
+        <f t="shared" ref="W241" si="810">F241/V241</f>
         <v>1.9157878042978353E-2</v>
       </c>
       <c r="X241">
-        <f t="shared" ref="X241" si="808">E241-E240</f>
+        <f t="shared" ref="X241" si="811">E241-E240</f>
         <v>29</v>
       </c>
       <c r="Y241">
@@ -28143,7 +28134,7 @@
         <v>27</v>
       </c>
       <c r="AT241">
-        <f t="shared" ref="AT241:AT242" si="809">AH241-AS241</f>
+        <f t="shared" ref="AT241:AT242" si="812">AH241-AS241</f>
         <v>648</v>
       </c>
       <c r="AU241">
@@ -28195,15 +28186,15 @@
         <v>0.26990979087885553</v>
       </c>
       <c r="BI241">
-        <f>SUM(AY235:AY241)/SUM(AX235:AX241)</f>
+        <f t="shared" si="801"/>
         <v>0.36977491961414793</v>
       </c>
       <c r="BJ241">
-        <f>SUM(BA235:BA241)/SUM(AZ235:AZ241)</f>
+        <f t="shared" si="802"/>
         <v>0.31341557440246726</v>
       </c>
       <c r="BK241">
-        <f>SUM(BC235:BC241)/SUM(BB235:BB241)</f>
+        <f t="shared" si="803"/>
         <v>0.42333333333333334</v>
       </c>
     </row>
@@ -28251,35 +28242,35 @@
         <v>0.16254403537284362</v>
       </c>
       <c r="Q242">
-        <f t="shared" ref="Q242" si="810">C242-C241</f>
+        <f t="shared" ref="Q242" si="813">C242-C241</f>
         <v>5087</v>
       </c>
       <c r="R242">
-        <f t="shared" ref="R242" si="811">M242-M241</f>
+        <f t="shared" ref="R242" si="814">M242-M241</f>
         <v>5906</v>
       </c>
       <c r="S242" s="8">
-        <f t="shared" ref="S242" si="812">Q242/U242</f>
+        <f t="shared" ref="S242" si="815">Q242/U242</f>
         <v>0.46274902210497587</v>
       </c>
       <c r="T242" s="8">
-        <f t="shared" ref="T242" si="813">SUM(Q236:Q242)/SUM(U236:U242)</f>
+        <f t="shared" ref="T242" si="816">SUM(Q236:Q242)/SUM(U236:U242)</f>
         <v>0.47394894894894896</v>
       </c>
       <c r="U242">
-        <f t="shared" ref="U242" si="814">B242-B241</f>
+        <f t="shared" ref="U242" si="817">B242-B241</f>
         <v>10993</v>
       </c>
       <c r="V242">
-        <f t="shared" ref="V242" si="815">C242-D242-E242</f>
+        <f t="shared" ref="V242" si="818">C242-D242-E242</f>
         <v>66986</v>
       </c>
       <c r="W242" s="3">
-        <f t="shared" ref="W242" si="816">F242/V242</f>
+        <f t="shared" ref="W242" si="819">F242/V242</f>
         <v>1.831726032305258E-2</v>
       </c>
       <c r="X242">
-        <f t="shared" ref="X242" si="817">E242-E241</f>
+        <f t="shared" ref="X242" si="820">E242-E241</f>
         <v>20</v>
       </c>
       <c r="Y242">
@@ -28339,7 +28330,7 @@
         <v>26</v>
       </c>
       <c r="AT242">
-        <f t="shared" si="809"/>
+        <f t="shared" si="812"/>
         <v>700</v>
       </c>
       <c r="AU242">
@@ -28391,15 +28382,15 @@
         <v>0.2754497538877031</v>
       </c>
       <c r="BI242">
-        <f>SUM(AY236:AY242)/SUM(AX236:AX242)</f>
+        <f t="shared" si="801"/>
         <v>0.33760000000000001</v>
       </c>
       <c r="BJ242">
-        <f>SUM(BA236:BA242)/SUM(AZ236:AZ242)</f>
+        <f t="shared" si="802"/>
         <v>0.31006240249609984</v>
       </c>
       <c r="BK242">
-        <f>SUM(BC236:BC242)/SUM(BB236:BB242)</f>
+        <f t="shared" si="803"/>
         <v>0.37113402061855671</v>
       </c>
       <c r="BL242">
@@ -28456,35 +28447,35 @@
         <v>0.1654035503067175</v>
       </c>
       <c r="Q243">
-        <f t="shared" ref="Q243" si="818">C243-C242</f>
+        <f t="shared" ref="Q243" si="821">C243-C242</f>
         <v>4826</v>
       </c>
       <c r="R243">
-        <f t="shared" ref="R243" si="819">M243-M242</f>
+        <f t="shared" ref="R243" si="822">M243-M242</f>
         <v>5693</v>
       </c>
       <c r="S243" s="8">
-        <f t="shared" ref="S243" si="820">Q243/U243</f>
+        <f t="shared" ref="S243" si="823">Q243/U243</f>
         <v>0.45878885825648824</v>
       </c>
       <c r="T243" s="8">
-        <f t="shared" ref="T243" si="821">SUM(Q237:Q243)/SUM(U237:U243)</f>
+        <f t="shared" ref="T243" si="824">SUM(Q237:Q243)/SUM(U237:U243)</f>
         <v>0.46965339124820238</v>
       </c>
       <c r="U243">
-        <f t="shared" ref="U243" si="822">B243-B242</f>
+        <f t="shared" ref="U243" si="825">B243-B242</f>
         <v>10519</v>
       </c>
       <c r="V243">
-        <f t="shared" ref="V243" si="823">C243-D243-E243</f>
+        <f t="shared" ref="V243" si="826">C243-D243-E243</f>
         <v>70686</v>
       </c>
       <c r="W243" s="3">
-        <f t="shared" ref="W243" si="824">F243/V243</f>
+        <f t="shared" ref="W243" si="827">F243/V243</f>
         <v>1.7839459015929603E-2</v>
       </c>
       <c r="X243">
-        <f t="shared" ref="X243" si="825">E243-E242</f>
+        <f t="shared" ref="X243" si="828">E243-E242</f>
         <v>25</v>
       </c>
       <c r="Y243">
@@ -28515,20 +28506,28 @@
         <v>113</v>
       </c>
       <c r="AH243">
-        <f t="shared" ref="AH243" si="826">Y243-AB243-AE243</f>
+        <f t="shared" ref="AH243" si="829">Y243-AB243-AE243</f>
         <v>801</v>
       </c>
       <c r="AI243">
-        <f t="shared" ref="AI243" si="827">Z243-AC243-AF243</f>
+        <f t="shared" ref="AI243" si="830">Z243-AC243-AF243</f>
         <v>301</v>
       </c>
       <c r="AJ243">
-        <f t="shared" ref="AJ243" si="828">AA243-AD243-AG243</f>
+        <f t="shared" ref="AJ243" si="831">AA243-AD243-AG243</f>
         <v>3678</v>
       </c>
       <c r="AK243">
-        <f t="shared" ref="AK243" si="829">-(J243-J242)+L243</f>
+        <f t="shared" ref="AK243" si="832">-(J243-J242)+L243</f>
         <v>48</v>
+      </c>
+      <c r="AS243">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A243)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A243)</f>
+        <v>26</v>
+      </c>
+      <c r="AT243">
+        <f t="shared" ref="AT243:AT245" si="833">AH243-AS243</f>
+        <v>775</v>
       </c>
       <c r="AU243">
         <v>11959</v>
@@ -28579,15 +28578,15 @@
         <v>0.27658569955774809</v>
       </c>
       <c r="BI243">
-        <f>SUM(AY237:AY243)/SUM(AX237:AX243)</f>
+        <f t="shared" si="801"/>
         <v>0.35518292682926828</v>
       </c>
       <c r="BJ243">
-        <f>SUM(BA237:BA243)/SUM(AZ237:AZ243)</f>
+        <f t="shared" si="802"/>
         <v>0.3131539611360239</v>
       </c>
       <c r="BK243">
-        <f>SUM(BC237:BC243)/SUM(BB237:BB243)</f>
+        <f t="shared" si="803"/>
         <v>0.34883720930232559</v>
       </c>
       <c r="BL243">
@@ -28644,35 +28643,35 @@
         <v>0.16788279365898934</v>
       </c>
       <c r="Q244">
-        <f t="shared" ref="Q244" si="830">C244-C243</f>
+        <f t="shared" ref="Q244" si="834">C244-C243</f>
         <v>4433</v>
       </c>
       <c r="R244">
-        <f t="shared" ref="R244" si="831">M244-M243</f>
+        <f t="shared" ref="R244" si="835">M244-M243</f>
         <v>5879</v>
       </c>
       <c r="S244" s="8">
-        <f t="shared" ref="S244" si="832">Q244/U244</f>
+        <f t="shared" ref="S244" si="836">Q244/U244</f>
         <v>0.42988750969743988</v>
       </c>
       <c r="T244" s="8">
-        <f t="shared" ref="T244" si="833">SUM(Q238:Q244)/SUM(U238:U244)</f>
+        <f t="shared" ref="T244" si="837">SUM(Q238:Q244)/SUM(U238:U244)</f>
         <v>0.46402975079435194</v>
       </c>
       <c r="U244">
-        <f t="shared" ref="U244" si="834">B244-B243</f>
+        <f t="shared" ref="U244" si="838">B244-B243</f>
         <v>10312</v>
       </c>
       <c r="V244">
-        <f t="shared" ref="V244" si="835">C244-D244-E244</f>
+        <f t="shared" ref="V244" si="839">C244-D244-E244</f>
         <v>74819</v>
       </c>
       <c r="W244" s="3">
-        <f t="shared" ref="W244" si="836">F244/V244</f>
+        <f t="shared" ref="W244" si="840">F244/V244</f>
         <v>1.709458827303225E-2</v>
       </c>
       <c r="X244">
-        <f t="shared" ref="X244" si="837">E244-E243</f>
+        <f t="shared" ref="X244" si="841">E244-E243</f>
         <v>13</v>
       </c>
       <c r="Y244">
@@ -28703,20 +28702,28 @@
         <v>115</v>
       </c>
       <c r="AH244">
-        <f t="shared" ref="AH244" si="838">Y244-AB244-AE244</f>
+        <f t="shared" ref="AH244" si="842">Y244-AB244-AE244</f>
         <v>863</v>
       </c>
       <c r="AI244">
-        <f t="shared" ref="AI244" si="839">Z244-AC244-AF244</f>
+        <f t="shared" ref="AI244" si="843">Z244-AC244-AF244</f>
         <v>330</v>
       </c>
       <c r="AJ244">
-        <f t="shared" ref="AJ244" si="840">AA244-AD244-AG244</f>
+        <f t="shared" ref="AJ244" si="844">AA244-AD244-AG244</f>
         <v>3859</v>
       </c>
       <c r="AK244">
-        <f t="shared" ref="AK244" si="841">-(J244-J243)+L244</f>
+        <f t="shared" ref="AK244" si="845">-(J244-J243)+L244</f>
         <v>51</v>
+      </c>
+      <c r="AS244">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A244)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A244)</f>
+        <v>26</v>
+      </c>
+      <c r="AT244">
+        <f t="shared" si="833"/>
+        <v>837</v>
       </c>
       <c r="AU244">
         <v>10735</v>
@@ -28759,23 +28766,23 @@
         <v>0.51428571428571423</v>
       </c>
       <c r="BG244">
-        <f t="shared" ref="BG244" si="842">SUM(AV238:AV244)/SUM(AU238:AU244)</f>
+        <f t="shared" ref="BG244" si="846">SUM(AV238:AV244)/SUM(AU238:AU244)</f>
         <v>0.28207289716955519</v>
       </c>
       <c r="BH244">
-        <f t="shared" ref="BH244" si="843">SUM(AV231:AV244)/SUM(AU231:AU244)</f>
+        <f t="shared" ref="BH244" si="847">SUM(AV231:AV244)/SUM(AU231:AU244)</f>
         <v>0.27440142505370146</v>
       </c>
       <c r="BI244">
-        <f>SUM(AY238:AY244)/SUM(AX238:AX244)</f>
+        <f t="shared" si="801"/>
         <v>0.34293948126801155</v>
       </c>
       <c r="BJ244">
-        <f>SUM(BA238:BA244)/SUM(AZ238:AZ244)</f>
+        <f t="shared" si="802"/>
         <v>0.30140946873870617</v>
       </c>
       <c r="BK244">
-        <f>SUM(BC238:BC244)/SUM(BB238:BB244)</f>
+        <f t="shared" si="803"/>
         <v>0.36760124610591899</v>
       </c>
       <c r="BL244">
@@ -28786,6 +28793,408 @@
       </c>
       <c r="BN244">
         <v>23.8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A245" s="14">
+        <f t="shared" si="49"/>
+        <v>44151</v>
+      </c>
+      <c r="B245">
+        <v>1105462</v>
+      </c>
+      <c r="C245">
+        <v>187001</v>
+      </c>
+      <c r="D245">
+        <v>108175</v>
+      </c>
+      <c r="E245" s="9">
+        <v>1989</v>
+      </c>
+      <c r="F245" s="9">
+        <v>1392</v>
+      </c>
+      <c r="H245">
+        <v>271</v>
+      </c>
+      <c r="I245">
+        <v>243</v>
+      </c>
+      <c r="J245">
+        <v>347</v>
+      </c>
+      <c r="K245">
+        <v>51</v>
+      </c>
+      <c r="L245">
+        <v>47</v>
+      </c>
+      <c r="M245" s="7">
+        <f t="shared" si="380"/>
+        <v>918461</v>
+      </c>
+      <c r="N245" s="4">
+        <f t="shared" si="381"/>
+        <v>0.16916094809229082</v>
+      </c>
+      <c r="Q245">
+        <f t="shared" ref="Q245" si="848">C245-C244</f>
+        <v>2317</v>
+      </c>
+      <c r="R245">
+        <f t="shared" ref="R245" si="849">M245-M244</f>
+        <v>3068</v>
+      </c>
+      <c r="S245" s="8">
+        <f t="shared" ref="S245" si="850">Q245/U245</f>
+        <v>0.43026926648096564</v>
+      </c>
+      <c r="T245" s="8">
+        <f t="shared" ref="T245" si="851">SUM(Q239:Q245)/SUM(U239:U245)</f>
+        <v>0.46763648757513787</v>
+      </c>
+      <c r="U245">
+        <f t="shared" ref="U245" si="852">B245-B244</f>
+        <v>5385</v>
+      </c>
+      <c r="V245">
+        <f t="shared" ref="V245" si="853">C245-D245-E245</f>
+        <v>76837</v>
+      </c>
+      <c r="W245" s="3">
+        <f t="shared" ref="W245" si="854">F245/V245</f>
+        <v>1.8116272108489401E-2</v>
+      </c>
+      <c r="X245">
+        <f t="shared" ref="X245" si="855">E245-E244</f>
+        <v>4</v>
+      </c>
+      <c r="Y245">
+        <v>1511</v>
+      </c>
+      <c r="Z245">
+        <v>774</v>
+      </c>
+      <c r="AA245">
+        <v>9143</v>
+      </c>
+      <c r="AB245">
+        <v>612</v>
+      </c>
+      <c r="AC245">
+        <v>434</v>
+      </c>
+      <c r="AD245">
+        <v>5094</v>
+      </c>
+      <c r="AE245">
+        <v>12</v>
+      </c>
+      <c r="AF245">
+        <v>3</v>
+      </c>
+      <c r="AG245">
+        <v>116</v>
+      </c>
+      <c r="AH245">
+        <f t="shared" ref="AH245" si="856">Y245-AB245-AE245</f>
+        <v>887</v>
+      </c>
+      <c r="AI245">
+        <f t="shared" ref="AI245" si="857">Z245-AC245-AF245</f>
+        <v>337</v>
+      </c>
+      <c r="AJ245">
+        <f t="shared" ref="AJ245" si="858">AA245-AD245-AG245</f>
+        <v>3933</v>
+      </c>
+      <c r="AK245">
+        <f t="shared" ref="AK245" si="859">-(J245-J244)+L245</f>
+        <v>36</v>
+      </c>
+      <c r="AL245">
+        <v>34</v>
+      </c>
+      <c r="AM245">
+        <v>34</v>
+      </c>
+      <c r="AN245">
+        <v>124</v>
+      </c>
+      <c r="AS245">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A245)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A245)</f>
+        <v>24</v>
+      </c>
+      <c r="AT245">
+        <f t="shared" si="833"/>
+        <v>863</v>
+      </c>
+      <c r="AU245">
+        <v>6334</v>
+      </c>
+      <c r="AV245">
+        <v>1698</v>
+      </c>
+      <c r="AW245">
+        <f t="shared" si="684"/>
+        <v>0.26807704452162928</v>
+      </c>
+      <c r="AX245">
+        <v>97</v>
+      </c>
+      <c r="AY245">
+        <v>29</v>
+      </c>
+      <c r="AZ245">
+        <v>310</v>
+      </c>
+      <c r="BA245">
+        <v>90</v>
+      </c>
+      <c r="BB245">
+        <v>35</v>
+      </c>
+      <c r="BC245">
+        <v>10</v>
+      </c>
+      <c r="BD245">
+        <f t="shared" si="734"/>
+        <v>0.29896907216494845</v>
+      </c>
+      <c r="BE245">
+        <f t="shared" si="778"/>
+        <v>0.29032258064516131</v>
+      </c>
+      <c r="BF245">
+        <f t="shared" si="779"/>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="BG245">
+        <f t="shared" ref="BG245" si="860">SUM(AV239:AV245)/SUM(AU239:AU245)</f>
+        <v>0.28173049083400636</v>
+      </c>
+      <c r="BH245">
+        <f t="shared" ref="BH245" si="861">SUM(AV232:AV245)/SUM(AU232:AU245)</f>
+        <v>0.2767718304018798</v>
+      </c>
+      <c r="BI245">
+        <f t="shared" si="801"/>
+        <v>0.33923303834808261</v>
+      </c>
+      <c r="BJ245">
+        <f t="shared" si="802"/>
+        <v>0.30495928941524797</v>
+      </c>
+      <c r="BK245">
+        <f t="shared" si="803"/>
+        <v>0.35238095238095241</v>
+      </c>
+      <c r="BL245">
+        <v>30.1</v>
+      </c>
+      <c r="BM245">
+        <v>25.9</v>
+      </c>
+      <c r="BN245">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A246" s="14">
+        <f t="shared" si="49"/>
+        <v>44152</v>
+      </c>
+      <c r="B246">
+        <v>1114058</v>
+      </c>
+      <c r="C246">
+        <v>190580</v>
+      </c>
+      <c r="D246">
+        <v>109929</v>
+      </c>
+      <c r="E246" s="9">
+        <v>2023</v>
+      </c>
+      <c r="F246" s="9">
+        <v>1510</v>
+      </c>
+      <c r="H246">
+        <v>288</v>
+      </c>
+      <c r="I246">
+        <v>215</v>
+      </c>
+      <c r="J246">
+        <v>374</v>
+      </c>
+      <c r="K246">
+        <v>58</v>
+      </c>
+      <c r="L246">
+        <v>60</v>
+      </c>
+      <c r="M246" s="7">
+        <f t="shared" si="380"/>
+        <v>923478</v>
+      </c>
+      <c r="N246" s="4">
+        <f t="shared" si="381"/>
+        <v>0.17106829267416956</v>
+      </c>
+      <c r="Q246">
+        <f t="shared" ref="Q246" si="862">C246-C245</f>
+        <v>3579</v>
+      </c>
+      <c r="R246">
+        <f t="shared" ref="R246" si="863">M246-M245</f>
+        <v>5017</v>
+      </c>
+      <c r="S246" s="8">
+        <f t="shared" ref="S246" si="864">Q246/U246</f>
+        <v>0.41635644485807355</v>
+      </c>
+      <c r="T246" s="8">
+        <f t="shared" ref="T246" si="865">SUM(Q240:Q246)/SUM(U240:U246)</f>
+        <v>0.45648655378486058</v>
+      </c>
+      <c r="U246">
+        <f t="shared" ref="U246" si="866">B246-B245</f>
+        <v>8596</v>
+      </c>
+      <c r="V246">
+        <f t="shared" ref="V246" si="867">C246-D246-E246</f>
+        <v>78628</v>
+      </c>
+      <c r="W246" s="3">
+        <f t="shared" ref="W246" si="868">F246/V246</f>
+        <v>1.9204354682810194E-2</v>
+      </c>
+      <c r="X246">
+        <f t="shared" ref="X246" si="869">E246-E245</f>
+        <v>34</v>
+      </c>
+      <c r="Y246">
+        <v>1549</v>
+      </c>
+      <c r="Z246">
+        <v>793</v>
+      </c>
+      <c r="AA246">
+        <v>9309</v>
+      </c>
+      <c r="AB246">
+        <v>622</v>
+      </c>
+      <c r="AC246">
+        <v>439</v>
+      </c>
+      <c r="AD246">
+        <v>5182</v>
+      </c>
+      <c r="AE246">
+        <v>12</v>
+      </c>
+      <c r="AF246">
+        <v>3</v>
+      </c>
+      <c r="AG246">
+        <v>118</v>
+      </c>
+      <c r="AH246">
+        <f t="shared" ref="AH246" si="870">Y246-AB246-AE246</f>
+        <v>915</v>
+      </c>
+      <c r="AI246">
+        <f t="shared" ref="AI246" si="871">Z246-AC246-AF246</f>
+        <v>351</v>
+      </c>
+      <c r="AJ246">
+        <f t="shared" ref="AJ246" si="872">AA246-AD246-AG246</f>
+        <v>4009</v>
+      </c>
+      <c r="AK246">
+        <f t="shared" ref="AK246" si="873">-(J246-J245)+L246</f>
+        <v>33</v>
+      </c>
+      <c r="AL246">
+        <v>41</v>
+      </c>
+      <c r="AM246">
+        <v>41</v>
+      </c>
+      <c r="AN246">
+        <v>130</v>
+      </c>
+      <c r="AU246">
+        <v>8218</v>
+      </c>
+      <c r="AV246">
+        <v>2003</v>
+      </c>
+      <c r="AW246">
+        <f t="shared" si="684"/>
+        <v>0.24373326843514237</v>
+      </c>
+      <c r="AX246">
+        <v>71</v>
+      </c>
+      <c r="AY246">
+        <v>20</v>
+      </c>
+      <c r="AZ246">
+        <v>292</v>
+      </c>
+      <c r="BA246">
+        <v>77</v>
+      </c>
+      <c r="BB246">
+        <v>38</v>
+      </c>
+      <c r="BC246">
+        <v>10</v>
+      </c>
+      <c r="BD246">
+        <f t="shared" si="734"/>
+        <v>0.28169014084507044</v>
+      </c>
+      <c r="BE246">
+        <f t="shared" si="778"/>
+        <v>0.2636986301369863</v>
+      </c>
+      <c r="BF246">
+        <f t="shared" si="779"/>
+        <v>0.4935064935064935</v>
+      </c>
+      <c r="BG246">
+        <f t="shared" ref="BG246" si="874">SUM(AV240:AV246)/SUM(AU240:AU246)</f>
+        <v>0.27538643361428172</v>
+      </c>
+      <c r="BH246">
+        <f t="shared" ref="BH246" si="875">SUM(AV233:AV246)/SUM(AU233:AU246)</f>
+        <v>0.27512626367338139</v>
+      </c>
+      <c r="BI246">
+        <f t="shared" ref="BI246" si="876">SUM(AY240:AY246)/SUM(AX240:AX246)</f>
+        <v>0.32126696832579188</v>
+      </c>
+      <c r="BJ246">
+        <f t="shared" ref="BJ246" si="877">SUM(BA240:BA246)/SUM(AZ240:AZ246)</f>
+        <v>0.2978395061728395</v>
+      </c>
+      <c r="BK246">
+        <f t="shared" ref="BK246" si="878">SUM(BC240:BC246)/SUM(BB240:BB246)</f>
+        <v>0.33898305084745761</v>
+      </c>
+      <c r="BL246">
+        <v>29.4</v>
+      </c>
+      <c r="BM246">
+        <v>25.4</v>
+      </c>
+      <c r="BN246">
+        <v>22.8</v>
       </c>
     </row>
   </sheetData>
@@ -28813,7 +29222,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>Q228:Q244</xm:sqref>
+          <xm:sqref>Q228:Q246</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="22" operator="equal" id="{E5309D98-D036-43E8-AE0C-F104DC358831}">
@@ -28829,7 +29238,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>X228:X244</xm:sqref>
+          <xm:sqref>X228:X246</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5269D26C-9211-46B2-914A-48345DF37DEF}">
@@ -28845,7 +29254,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F228:F244</xm:sqref>
+          <xm:sqref>F228:F246</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="20" operator="equal" id="{24843253-84F3-44AF-847D-C74D74C4F05A}">
@@ -28877,7 +29286,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J228:J244</xm:sqref>
+          <xm:sqref>J228:J246</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="18" operator="equal" id="{6F562D16-6A18-4369-973E-028D1B5F7CFF}">
@@ -28893,7 +29302,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K228:K244</xm:sqref>
+          <xm:sqref>K228:K246</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{735BDD8A-2F04-47F3-825F-41FCBFA8ADD5}">
@@ -28957,7 +29366,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AH228:AH244</xm:sqref>
+          <xm:sqref>AH228:AH246</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="12" operator="equal" id="{A5D8B9CD-D171-4616-8063-8E2F3DB2617E}">
@@ -28973,7 +29382,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AI228:AI244</xm:sqref>
+          <xm:sqref>AI228:AI246</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="11" operator="equal" id="{525B83D9-8CB5-4E31-BB6E-B59F9B6585E1}">
@@ -29133,7 +29542,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H1:H1048576 I229:I244</xm:sqref>
+          <xm:sqref>H1:H1048576 I229:I246</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{8F0BE21B-C8AC-4EAD-AE58-244C59D5B0FC}">
@@ -29149,7 +29558,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>V229:V244</xm:sqref>
+          <xm:sqref>V229:V246</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -33219,7 +33628,7 @@
       </c>
       <c r="F2">
         <f>MAX(covid19!F:F)</f>
-        <v>1279</v>
+        <v>1510</v>
       </c>
       <c r="G2">
         <f>MAX(covid19!G:G)</f>
@@ -33227,11 +33636,11 @@
       </c>
       <c r="H2">
         <f>MAX(covid19!H:H)</f>
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="I2">
         <f>MAX(covid19!J:J)</f>
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="J2">
         <f>MAX(covid19!K:K)</f>
@@ -33255,7 +33664,7 @@
       </c>
       <c r="O2">
         <f>MAX(covid19!V:V)</f>
-        <v>74819</v>
+        <v>78628</v>
       </c>
       <c r="P2">
         <f>MAX(covid19!W:W)</f>
@@ -33263,7 +33672,7 @@
       </c>
       <c r="Q2">
         <f>MAX(covid19!X:X)</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="R2">
         <f>MAX(covid19!AE:AE)</f>
@@ -33275,19 +33684,19 @@
       </c>
       <c r="T2">
         <f>MAX(covid19!AG:AG)</f>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="U2">
         <f>MAX(covid19!AH:AH)</f>
-        <v>863</v>
+        <v>915</v>
       </c>
       <c r="V2">
         <f>MAX(covid19!AI:AI)</f>
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="W2">
         <f>MAX(covid19!AJ:AJ)</f>
-        <v>3859</v>
+        <v>4009</v>
       </c>
       <c r="X2">
         <f>MAX(covid19!AL:AL)</f>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EABCED5-E47F-4816-8119-A88737CDC9F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A11481-3F0B-4ED9-B19C-23909022AF30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="440">
   <si>
     <t>date</t>
   </si>
@@ -1230,6 +1230,123 @@
   <si>
     <t>State 14Day</t>
   </si>
+  <si>
+    <t>Marked Recovered</t>
+  </si>
+  <si>
+    <t>Out of Isolation</t>
+  </si>
+  <si>
+    <t>Cody Christopherson</t>
+  </si>
+  <si>
+    <t>Amelia Ouverson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChyAnne Jha </t>
+  </si>
+  <si>
+    <t>Hannah Boecker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emma Strong </t>
+  </si>
+  <si>
+    <t>Theo Herbst-Ulmer</t>
+  </si>
+  <si>
+    <t>Charlie Otto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derek Jordan </t>
+  </si>
+  <si>
+    <t>Max Miller</t>
+  </si>
+  <si>
+    <t>Sidney Baumgartner</t>
+  </si>
+  <si>
+    <t>Annie Place</t>
+  </si>
+  <si>
+    <t>Jack Priske</t>
+  </si>
+  <si>
+    <t>Mike Schilling</t>
+  </si>
+  <si>
+    <t>Grace Morningstar</t>
+  </si>
+  <si>
+    <t>Hidaly Hernandez</t>
+  </si>
+  <si>
+    <t>Mikayla Holub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halle Siegler </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melissa Shockley </t>
+  </si>
+  <si>
+    <t>Lauren Holtz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katie Hirv </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lura Ajdini </t>
+  </si>
+  <si>
+    <t>Britta Solheim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brianna Hull </t>
+  </si>
+  <si>
+    <t>Micah Decker</t>
+  </si>
+  <si>
+    <t>Keith Castillo</t>
+  </si>
+  <si>
+    <t>Alonso Pacheco</t>
+  </si>
+  <si>
+    <t>Samuel Bast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gene Anne Berst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathan Hickox-Young </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon Merritt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danielle Pattison </t>
+  </si>
+  <si>
+    <t>Caitlyn Owen</t>
+  </si>
+  <si>
+    <t>Hunter Davis</t>
+  </si>
+  <si>
+    <t>Julia Evans</t>
+  </si>
+  <si>
+    <t>Megan Bywater</t>
+  </si>
+  <si>
+    <t>Grace Pistek</t>
+  </si>
+  <si>
+    <t>Connor Elumba</t>
+  </si>
 </sst>
 </file>
 
@@ -2393,13 +2510,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BN246"/>
+  <dimension ref="A1:BN248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG179" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B243" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AN187" sqref="AL187:AN187"/>
+      <selection pane="bottomRight" activeCell="AO1" sqref="AO1:AR1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2409,7 +2526,8 @@
     <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
-    <col min="41" max="45" width="0" hidden="1" customWidth="1"/>
+    <col min="41" max="44" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.35">
@@ -22541,11 +22659,11 @@
         <v>17</v>
       </c>
       <c r="M203" s="7">
-        <f t="shared" ref="M203:M246" si="380">B203-C203</f>
+        <f t="shared" ref="M203:M248" si="380">B203-C203</f>
         <v>730923</v>
       </c>
       <c r="N203" s="4">
-        <f t="shared" ref="N203:N246" si="381">C203/B203</f>
+        <f t="shared" ref="N203:N247" si="381">C203/B203</f>
         <v>0.11270554987702819</v>
       </c>
       <c r="Q203">
@@ -26411,7 +26529,7 @@
         <v>1085</v>
       </c>
       <c r="AW231">
-        <f t="shared" ref="AW231:AW246" si="684">AV231/AU231</f>
+        <f t="shared" ref="AW231:AW248" si="684">AV231/AU231</f>
         <v>0.21274509803921568</v>
       </c>
     </row>
@@ -27008,7 +27126,7 @@
         <v>34</v>
       </c>
       <c r="BD235">
-        <f t="shared" ref="BD235:BD246" si="734">AY235/AX235</f>
+        <f t="shared" ref="BD235:BD248" si="734">AY235/AX235</f>
         <v>0.61627906976744184</v>
       </c>
       <c r="BE235">
@@ -27347,11 +27465,11 @@
       </c>
       <c r="AS237">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A237)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A237)</f>
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AT237">
         <f t="shared" si="733"/>
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="AU237">
         <v>7634</v>
@@ -27543,11 +27661,11 @@
       </c>
       <c r="AS238">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A238)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A238)</f>
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AT238">
         <f t="shared" ref="AT238" si="777">AH238-AS238</f>
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="AU238">
         <v>10700</v>
@@ -27582,11 +27700,11 @@
         <v>0.32743362831858408</v>
       </c>
       <c r="BE238">
-        <f t="shared" ref="BE238:BE246" si="778">BA238/AZ238</f>
+        <f t="shared" ref="BE238:BE248" si="778">BA238/AZ238</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="BF238">
-        <f t="shared" ref="BF238:BF246" si="779">BB238/BA238</f>
+        <f t="shared" ref="BF238:BF248" si="779">BB238/BA238</f>
         <v>0.41</v>
       </c>
       <c r="BG238">
@@ -27739,11 +27857,11 @@
       </c>
       <c r="AS239">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A239)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A239)</f>
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AT239">
         <f t="shared" ref="AT239:AT240" si="792">AH239-AS239</f>
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="AU239">
         <v>9535</v>
@@ -27935,11 +28053,11 @@
       </c>
       <c r="AS240">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A240)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A240)</f>
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AT240">
         <f t="shared" si="792"/>
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="AU240">
         <v>7551</v>
@@ -28131,11 +28249,11 @@
       </c>
       <c r="AS241">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A241)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A241)</f>
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AT241">
         <f t="shared" ref="AT241:AT242" si="812">AH241-AS241</f>
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="AU241">
         <v>9410</v>
@@ -28327,11 +28445,11 @@
       </c>
       <c r="AS242">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A242)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A242)</f>
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AT242">
         <f t="shared" si="812"/>
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="AU242">
         <v>10099</v>
@@ -28523,11 +28641,11 @@
       </c>
       <c r="AS243">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A243)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A243)</f>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AT243">
-        <f t="shared" ref="AT243:AT245" si="833">AH243-AS243</f>
-        <v>775</v>
+        <f t="shared" ref="AT243:AT248" si="833">AH243-AS243</f>
+        <v>780</v>
       </c>
       <c r="AU243">
         <v>11959</v>
@@ -28719,11 +28837,11 @@
       </c>
       <c r="AS244">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A244)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A244)</f>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AT244">
         <f t="shared" si="833"/>
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="AU244">
         <v>10735</v>
@@ -28924,11 +29042,11 @@
       </c>
       <c r="AS245">
         <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A245)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A245)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT245">
         <f t="shared" si="833"/>
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="AU245">
         <v>6334</v>
@@ -29127,6 +29245,14 @@
       <c r="AN246">
         <v>130</v>
       </c>
+      <c r="AS246">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A246)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A246)</f>
+        <v>21</v>
+      </c>
+      <c r="AT246">
+        <f t="shared" si="833"/>
+        <v>894</v>
+      </c>
       <c r="AU246">
         <v>8218</v>
       </c>
@@ -29195,6 +29321,416 @@
       </c>
       <c r="BN246">
         <v>22.8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A247" s="14">
+        <f>A246+1</f>
+        <v>44153</v>
+      </c>
+      <c r="B247">
+        <v>1123441</v>
+      </c>
+      <c r="C247">
+        <v>194464</v>
+      </c>
+      <c r="D247">
+        <v>111285</v>
+      </c>
+      <c r="E247" s="9">
+        <v>2064</v>
+      </c>
+      <c r="F247" s="9">
+        <v>1527</v>
+      </c>
+      <c r="H247">
+        <v>283</v>
+      </c>
+      <c r="I247">
+        <v>234</v>
+      </c>
+      <c r="J247">
+        <v>383</v>
+      </c>
+      <c r="K247">
+        <v>58</v>
+      </c>
+      <c r="L247">
+        <v>71</v>
+      </c>
+      <c r="M247" s="7">
+        <f t="shared" si="380"/>
+        <v>928977</v>
+      </c>
+      <c r="N247" s="4">
+        <f t="shared" si="381"/>
+        <v>0.1730967625358163</v>
+      </c>
+      <c r="Q247">
+        <f t="shared" ref="Q247" si="879">C247-C246</f>
+        <v>3884</v>
+      </c>
+      <c r="R247">
+        <f t="shared" ref="R247" si="880">M247-M246</f>
+        <v>5499</v>
+      </c>
+      <c r="S247" s="8">
+        <f t="shared" ref="S247" si="881">Q247/U247</f>
+        <v>0.41394010444420759</v>
+      </c>
+      <c r="T247" s="8">
+        <f t="shared" ref="T247" si="882">SUM(Q241:Q247)/SUM(U241:U247)</f>
+        <v>0.44626270867327728</v>
+      </c>
+      <c r="U247">
+        <f t="shared" ref="U247" si="883">B247-B246</f>
+        <v>9383</v>
+      </c>
+      <c r="V247">
+        <f t="shared" ref="V247" si="884">C247-D247-E247</f>
+        <v>81115</v>
+      </c>
+      <c r="W247" s="3">
+        <f t="shared" ref="W247" si="885">F247/V247</f>
+        <v>1.8825124822782469E-2</v>
+      </c>
+      <c r="X247">
+        <f t="shared" ref="X247" si="886">E247-E246</f>
+        <v>41</v>
+      </c>
+      <c r="Y247">
+        <v>1594</v>
+      </c>
+      <c r="Z247">
+        <v>809</v>
+      </c>
+      <c r="AA247">
+        <v>9523</v>
+      </c>
+      <c r="AB247">
+        <v>630</v>
+      </c>
+      <c r="AC247">
+        <v>441</v>
+      </c>
+      <c r="AD247">
+        <v>5252</v>
+      </c>
+      <c r="AE247">
+        <v>12</v>
+      </c>
+      <c r="AF247">
+        <v>3</v>
+      </c>
+      <c r="AG247">
+        <v>122</v>
+      </c>
+      <c r="AH247">
+        <f t="shared" ref="AH247" si="887">Y247-AB247-AE247</f>
+        <v>952</v>
+      </c>
+      <c r="AI247">
+        <f t="shared" ref="AI247" si="888">Z247-AC247-AF247</f>
+        <v>365</v>
+      </c>
+      <c r="AJ247">
+        <f t="shared" ref="AJ247" si="889">AA247-AD247-AG247</f>
+        <v>4149</v>
+      </c>
+      <c r="AK247">
+        <f t="shared" ref="AK247" si="890">-(J247-J246)+L247</f>
+        <v>62</v>
+      </c>
+      <c r="AL247">
+        <v>35</v>
+      </c>
+      <c r="AM247">
+        <v>35</v>
+      </c>
+      <c r="AN247">
+        <v>126</v>
+      </c>
+      <c r="AS247">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A247)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A247)</f>
+        <v>23</v>
+      </c>
+      <c r="AT247">
+        <f t="shared" si="833"/>
+        <v>929</v>
+      </c>
+      <c r="AU247">
+        <v>8110</v>
+      </c>
+      <c r="AV247">
+        <v>2133</v>
+      </c>
+      <c r="AW247">
+        <f t="shared" si="684"/>
+        <v>0.26300863131935881</v>
+      </c>
+      <c r="AX247">
+        <v>62</v>
+      </c>
+      <c r="AY247">
+        <v>19</v>
+      </c>
+      <c r="AZ247">
+        <v>328</v>
+      </c>
+      <c r="BA247">
+        <v>78</v>
+      </c>
+      <c r="BB247">
+        <v>32</v>
+      </c>
+      <c r="BC247">
+        <v>5</v>
+      </c>
+      <c r="BD247">
+        <f t="shared" si="734"/>
+        <v>0.30645161290322581</v>
+      </c>
+      <c r="BE247">
+        <f t="shared" si="778"/>
+        <v>0.23780487804878048</v>
+      </c>
+      <c r="BF247">
+        <f t="shared" si="779"/>
+        <v>0.41025641025641024</v>
+      </c>
+      <c r="BG247">
+        <f t="shared" ref="BG247" si="891">SUM(AV241:AV247)/SUM(AU241:AU247)</f>
+        <v>0.27177985045864489</v>
+      </c>
+      <c r="BH247">
+        <f t="shared" ref="BH247" si="892">SUM(AV234:AV247)/SUM(AU234:AU247)</f>
+        <v>0.27559301123937546</v>
+      </c>
+      <c r="BI247">
+        <f t="shared" ref="BI247" si="893">SUM(AY241:AY247)/SUM(AX241:AX247)</f>
+        <v>0.30990415335463256</v>
+      </c>
+      <c r="BJ247">
+        <f t="shared" ref="BJ247" si="894">SUM(BA241:BA247)/SUM(AZ241:AZ247)</f>
+        <v>0.28327373857767185</v>
+      </c>
+      <c r="BK247">
+        <f t="shared" ref="BK247" si="895">SUM(BC241:BC247)/SUM(BB241:BB247)</f>
+        <v>0.33207547169811319</v>
+      </c>
+      <c r="BL247">
+        <v>29.3</v>
+      </c>
+      <c r="BM247">
+        <v>25</v>
+      </c>
+      <c r="BN247">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A248" s="14">
+        <f>A247+1</f>
+        <v>44154</v>
+      </c>
+      <c r="B248">
+        <v>1133850</v>
+      </c>
+      <c r="C248">
+        <v>198641</v>
+      </c>
+      <c r="D248">
+        <v>112777</v>
+      </c>
+      <c r="E248" s="9">
+        <v>2102</v>
+      </c>
+      <c r="F248" s="9">
+        <v>1516</v>
+      </c>
+      <c r="H248">
+        <v>286</v>
+      </c>
+      <c r="I248">
+        <v>233</v>
+      </c>
+      <c r="J248">
+        <v>373</v>
+      </c>
+      <c r="K248">
+        <v>51</v>
+      </c>
+      <c r="L248">
+        <v>62</v>
+      </c>
+      <c r="M248" s="7">
+        <f t="shared" si="380"/>
+        <v>935209</v>
+      </c>
+      <c r="N248" s="4">
+        <f t="shared" ref="N248" si="896">C248/B248</f>
+        <v>0.1751916038276668</v>
+      </c>
+      <c r="Q248">
+        <f t="shared" ref="Q248" si="897">C248-C247</f>
+        <v>4177</v>
+      </c>
+      <c r="R248">
+        <f t="shared" ref="R248" si="898">M248-M247</f>
+        <v>6232</v>
+      </c>
+      <c r="S248" s="8">
+        <f t="shared" ref="S248" si="899">Q248/U248</f>
+        <v>0.40128734748775097</v>
+      </c>
+      <c r="T248" s="8">
+        <f t="shared" ref="T248" si="900">SUM(Q242:Q248)/SUM(U242:U248)</f>
+        <v>0.43146790249554096</v>
+      </c>
+      <c r="U248">
+        <f t="shared" ref="U248" si="901">B248-B247</f>
+        <v>10409</v>
+      </c>
+      <c r="V248">
+        <f t="shared" ref="V248" si="902">C248-D248-E248</f>
+        <v>83762</v>
+      </c>
+      <c r="W248" s="3">
+        <f t="shared" ref="W248" si="903">F248/V248</f>
+        <v>1.8098899262195267E-2</v>
+      </c>
+      <c r="X248">
+        <f t="shared" ref="X248" si="904">E248-E247</f>
+        <v>38</v>
+      </c>
+      <c r="Y248">
+        <v>1620</v>
+      </c>
+      <c r="Z248">
+        <v>829</v>
+      </c>
+      <c r="AA248">
+        <v>9624</v>
+      </c>
+      <c r="AB248">
+        <v>642</v>
+      </c>
+      <c r="AC248">
+        <v>442</v>
+      </c>
+      <c r="AD248">
+        <v>5345</v>
+      </c>
+      <c r="AE248">
+        <v>12</v>
+      </c>
+      <c r="AF248">
+        <v>3</v>
+      </c>
+      <c r="AG248">
+        <v>124</v>
+      </c>
+      <c r="AH248">
+        <f t="shared" ref="AH248" si="905">Y248-AB248-AE248</f>
+        <v>966</v>
+      </c>
+      <c r="AI248">
+        <f t="shared" ref="AI248" si="906">Z248-AC248-AF248</f>
+        <v>384</v>
+      </c>
+      <c r="AJ248">
+        <f t="shared" ref="AJ248" si="907">AA248-AD248-AG248</f>
+        <v>4155</v>
+      </c>
+      <c r="AK248">
+        <f t="shared" ref="AK248" si="908">-(J248-J247)+L248</f>
+        <v>72</v>
+      </c>
+      <c r="AL248">
+        <v>31</v>
+      </c>
+      <c r="AM248">
+        <v>31</v>
+      </c>
+      <c r="AN248">
+        <v>129</v>
+      </c>
+      <c r="AS248">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A248)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A248)</f>
+        <v>30</v>
+      </c>
+      <c r="AT248">
+        <f t="shared" si="833"/>
+        <v>936</v>
+      </c>
+      <c r="AU248">
+        <v>10903</v>
+      </c>
+      <c r="AV248">
+        <v>2570</v>
+      </c>
+      <c r="AW248">
+        <f t="shared" si="684"/>
+        <v>0.23571494084197009</v>
+      </c>
+      <c r="AX248">
+        <v>73</v>
+      </c>
+      <c r="AY248">
+        <v>20</v>
+      </c>
+      <c r="AZ248">
+        <v>392</v>
+      </c>
+      <c r="BA248">
+        <v>98</v>
+      </c>
+      <c r="BB248">
+        <v>44</v>
+      </c>
+      <c r="BC248">
+        <v>11</v>
+      </c>
+      <c r="BD248">
+        <f t="shared" si="734"/>
+        <v>0.27397260273972601</v>
+      </c>
+      <c r="BE248">
+        <f t="shared" si="778"/>
+        <v>0.25</v>
+      </c>
+      <c r="BF248">
+        <f t="shared" si="779"/>
+        <v>0.44897959183673469</v>
+      </c>
+      <c r="BG248">
+        <f t="shared" ref="BG248" si="909">SUM(AV242:AV248)/SUM(AU242:AU248)</f>
+        <v>0.26292233038970431</v>
+      </c>
+      <c r="BH248">
+        <f t="shared" ref="BH248" si="910">SUM(AV235:AV248)/SUM(AU235:AU248)</f>
+        <v>0.27357830203918371</v>
+      </c>
+      <c r="BI248">
+        <f t="shared" ref="BI248" si="911">SUM(AY242:AY248)/SUM(AX242:AX248)</f>
+        <v>0.31069609507640067</v>
+      </c>
+      <c r="BJ248">
+        <f t="shared" ref="BJ248" si="912">SUM(BA242:BA248)/SUM(AZ242:AZ248)</f>
+        <v>0.27050136027982902</v>
+      </c>
+      <c r="BK248">
+        <f t="shared" ref="BK248" si="913">SUM(BC242:BC248)/SUM(BB242:BB248)</f>
+        <v>0.2978723404255319</v>
+      </c>
+      <c r="BL248">
+        <v>28.9</v>
+      </c>
+      <c r="BM248">
+        <v>24.4</v>
+      </c>
+      <c r="BN248">
+        <v>28.9</v>
       </c>
     </row>
   </sheetData>
@@ -29222,7 +29758,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>Q228:Q246</xm:sqref>
+          <xm:sqref>Q228:Q248</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="22" operator="equal" id="{E5309D98-D036-43E8-AE0C-F104DC358831}">
@@ -29238,7 +29774,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>X228:X246</xm:sqref>
+          <xm:sqref>X228:X248</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5269D26C-9211-46B2-914A-48345DF37DEF}">
@@ -29254,7 +29790,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F228:F246</xm:sqref>
+          <xm:sqref>F228:F248</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="20" operator="equal" id="{24843253-84F3-44AF-847D-C74D74C4F05A}">
@@ -29286,7 +29822,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J228:J246</xm:sqref>
+          <xm:sqref>J228:J248</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="18" operator="equal" id="{6F562D16-6A18-4369-973E-028D1B5F7CFF}">
@@ -29302,7 +29838,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K228:K246</xm:sqref>
+          <xm:sqref>K228:K248</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{735BDD8A-2F04-47F3-825F-41FCBFA8ADD5}">
@@ -29366,7 +29902,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AH228:AH246</xm:sqref>
+          <xm:sqref>AH228:AH248</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="12" operator="equal" id="{A5D8B9CD-D171-4616-8063-8E2F3DB2617E}">
@@ -29382,7 +29918,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AI228:AI246</xm:sqref>
+          <xm:sqref>AI228:AI248</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="11" operator="equal" id="{525B83D9-8CB5-4E31-BB6E-B59F9B6585E1}">
@@ -29542,7 +30078,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H1:H1048576 I229:I246</xm:sqref>
+          <xm:sqref>H1:H1048576 I229:I248</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{8F0BE21B-C8AC-4EAD-AE58-244C59D5B0FC}">
@@ -29558,7 +30094,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>V229:V246</xm:sqref>
+          <xm:sqref>V229:V248</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -29568,11 +30104,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5E6789-177F-4707-8258-EFFA27DED671}">
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:H226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1048576"/>
+      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G180" sqref="G180:H226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29596,6 +30132,12 @@
       <c r="D1" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="E1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F1" t="s">
+        <v>402</v>
+      </c>
       <c r="G1" s="11" t="s">
         <v>164</v>
       </c>
@@ -29614,6 +30156,12 @@
       <c r="D2" s="12">
         <v>44134</v>
       </c>
+      <c r="E2">
+        <v>44071</v>
+      </c>
+      <c r="F2">
+        <v>44053</v>
+      </c>
       <c r="G2" s="1">
         <f>C2+10</f>
         <v>44053</v>
@@ -29634,6 +30182,12 @@
       <c r="D3" s="12">
         <v>44137</v>
       </c>
+      <c r="E3">
+        <v>44075</v>
+      </c>
+      <c r="F3">
+        <v>44057</v>
+      </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G66" si="0">C3+10</f>
         <v>44057</v>
@@ -29654,6 +30208,12 @@
       <c r="D4" s="12">
         <v>44137</v>
       </c>
+      <c r="E4">
+        <v>44075</v>
+      </c>
+      <c r="F4">
+        <v>44057</v>
+      </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>44057</v>
@@ -29674,6 +30234,12 @@
       <c r="D5" s="12">
         <v>44137</v>
       </c>
+      <c r="E5">
+        <v>44075</v>
+      </c>
+      <c r="F5">
+        <v>44057</v>
+      </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>44057</v>
@@ -29694,6 +30260,12 @@
       <c r="D6" s="12">
         <v>44137</v>
       </c>
+      <c r="E6">
+        <v>44075</v>
+      </c>
+      <c r="F6">
+        <v>44057</v>
+      </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>44057</v>
@@ -29714,6 +30286,12 @@
       <c r="D7" s="12">
         <v>44137</v>
       </c>
+      <c r="E7">
+        <v>44075</v>
+      </c>
+      <c r="F7">
+        <v>44057</v>
+      </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>44057</v>
@@ -29734,6 +30312,12 @@
       <c r="D8" s="12">
         <v>44137</v>
       </c>
+      <c r="E8">
+        <v>44075</v>
+      </c>
+      <c r="F8">
+        <v>44057</v>
+      </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>44057</v>
@@ -29754,6 +30338,12 @@
       <c r="D9" s="12">
         <v>44137</v>
       </c>
+      <c r="E9">
+        <v>44075</v>
+      </c>
+      <c r="F9">
+        <v>44057</v>
+      </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>44057</v>
@@ -29774,6 +30364,12 @@
       <c r="D10" s="12">
         <v>44137</v>
       </c>
+      <c r="E10">
+        <v>44075</v>
+      </c>
+      <c r="F10">
+        <v>44057</v>
+      </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>44057</v>
@@ -29794,6 +30390,12 @@
       <c r="D11" s="12">
         <v>44137</v>
       </c>
+      <c r="E11">
+        <v>44075</v>
+      </c>
+      <c r="F11">
+        <v>44057</v>
+      </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>44057</v>
@@ -29814,6 +30416,12 @@
       <c r="D12" s="12">
         <v>44137</v>
       </c>
+      <c r="E12">
+        <v>44075</v>
+      </c>
+      <c r="F12">
+        <v>44057</v>
+      </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
         <v>44057</v>
@@ -29834,6 +30442,12 @@
       <c r="D13" s="12">
         <v>44137</v>
       </c>
+      <c r="E13">
+        <v>44075</v>
+      </c>
+      <c r="F13">
+        <v>44057</v>
+      </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>44057</v>
@@ -29854,6 +30468,12 @@
       <c r="D14" s="12">
         <v>44137</v>
       </c>
+      <c r="E14">
+        <v>44075</v>
+      </c>
+      <c r="F14">
+        <v>44057</v>
+      </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
         <v>44057</v>
@@ -29874,6 +30494,12 @@
       <c r="D15" s="12">
         <v>44137</v>
       </c>
+      <c r="E15">
+        <v>44075</v>
+      </c>
+      <c r="F15">
+        <v>44057</v>
+      </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
         <v>44057</v>
@@ -29894,6 +30520,12 @@
       <c r="D16" s="12">
         <v>44137</v>
       </c>
+      <c r="E16">
+        <v>44075</v>
+      </c>
+      <c r="F16">
+        <v>44057</v>
+      </c>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
         <v>44057</v>
@@ -29914,6 +30546,12 @@
       <c r="D17" s="12">
         <v>44137</v>
       </c>
+      <c r="E17">
+        <v>44075</v>
+      </c>
+      <c r="F17">
+        <v>44057</v>
+      </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
         <v>44057</v>
@@ -29934,6 +30572,12 @@
       <c r="D18" s="12">
         <v>44140</v>
       </c>
+      <c r="E18">
+        <v>44078</v>
+      </c>
+      <c r="F18">
+        <v>44060</v>
+      </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
         <v>44060</v>
@@ -29954,6 +30598,12 @@
       <c r="D19" s="12">
         <v>44149</v>
       </c>
+      <c r="E19">
+        <v>44087</v>
+      </c>
+      <c r="F19">
+        <v>44069</v>
+      </c>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
         <v>44069</v>
@@ -29974,6 +30624,12 @@
       <c r="D20" s="12">
         <v>44148</v>
       </c>
+      <c r="E20">
+        <v>44086</v>
+      </c>
+      <c r="F20">
+        <v>44068</v>
+      </c>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
         <v>44068</v>
@@ -29994,6 +30650,12 @@
       <c r="D21" s="12">
         <v>44152</v>
       </c>
+      <c r="E21">
+        <v>44090</v>
+      </c>
+      <c r="F21">
+        <v>44072</v>
+      </c>
       <c r="G21" s="1">
         <f t="shared" si="0"/>
         <v>44072</v>
@@ -30014,6 +30676,12 @@
       <c r="D22" s="12">
         <v>44161</v>
       </c>
+      <c r="E22">
+        <v>44099</v>
+      </c>
+      <c r="F22">
+        <v>44081</v>
+      </c>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
         <v>44081</v>
@@ -30036,6 +30704,12 @@
       <c r="D23" s="12">
         <v>44151</v>
       </c>
+      <c r="E23">
+        <v>44089</v>
+      </c>
+      <c r="F23">
+        <v>44071</v>
+      </c>
       <c r="G23" s="1">
         <f t="shared" si="0"/>
         <v>44071</v>
@@ -30058,6 +30732,12 @@
       <c r="D24" s="12">
         <v>44157</v>
       </c>
+      <c r="E24">
+        <v>44095</v>
+      </c>
+      <c r="F24">
+        <v>44077</v>
+      </c>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
         <v>44077</v>
@@ -30080,6 +30760,12 @@
       <c r="D25" s="12">
         <v>44160</v>
       </c>
+      <c r="E25">
+        <v>44098</v>
+      </c>
+      <c r="F25">
+        <v>44080</v>
+      </c>
       <c r="G25" s="1">
         <f t="shared" si="0"/>
         <v>44080</v>
@@ -30101,6 +30787,12 @@
       </c>
       <c r="D26" s="12">
         <v>44159</v>
+      </c>
+      <c r="E26">
+        <v>44097</v>
+      </c>
+      <c r="F26">
+        <v>44079</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="0"/>
@@ -30122,6 +30814,12 @@
       <c r="D27" s="12">
         <v>44160</v>
       </c>
+      <c r="E27">
+        <v>44098</v>
+      </c>
+      <c r="F27">
+        <v>44080</v>
+      </c>
       <c r="G27" s="1">
         <f t="shared" si="0"/>
         <v>44080</v>
@@ -30142,6 +30840,12 @@
       <c r="D28" s="12">
         <v>44160</v>
       </c>
+      <c r="E28">
+        <v>44098</v>
+      </c>
+      <c r="F28">
+        <v>44080</v>
+      </c>
       <c r="G28" s="1">
         <f t="shared" si="0"/>
         <v>44080</v>
@@ -30162,6 +30866,12 @@
       <c r="D29" s="12">
         <v>44160</v>
       </c>
+      <c r="E29">
+        <v>44098</v>
+      </c>
+      <c r="F29">
+        <v>44080</v>
+      </c>
       <c r="G29" s="1">
         <f t="shared" si="0"/>
         <v>44080</v>
@@ -30182,6 +30892,12 @@
       <c r="D30" s="12">
         <v>44161</v>
       </c>
+      <c r="E30">
+        <v>44099</v>
+      </c>
+      <c r="F30">
+        <v>44081</v>
+      </c>
       <c r="G30" s="1">
         <f t="shared" si="0"/>
         <v>44081</v>
@@ -30202,6 +30918,12 @@
       <c r="D31" s="12">
         <v>44161</v>
       </c>
+      <c r="E31">
+        <v>44099</v>
+      </c>
+      <c r="F31">
+        <v>44081</v>
+      </c>
       <c r="G31" s="1">
         <f t="shared" si="0"/>
         <v>44081</v>
@@ -30222,6 +30944,12 @@
       <c r="D32" s="12">
         <v>44161</v>
       </c>
+      <c r="E32">
+        <v>44099</v>
+      </c>
+      <c r="F32">
+        <v>44081</v>
+      </c>
       <c r="G32" s="1">
         <f t="shared" si="0"/>
         <v>44081</v>
@@ -30242,6 +30970,12 @@
       <c r="D33" s="12">
         <v>44161</v>
       </c>
+      <c r="E33">
+        <v>44099</v>
+      </c>
+      <c r="F33">
+        <v>44081</v>
+      </c>
       <c r="G33" s="1">
         <f t="shared" si="0"/>
         <v>44081</v>
@@ -30262,6 +30996,12 @@
       <c r="D34" s="12">
         <v>44161</v>
       </c>
+      <c r="E34">
+        <v>44099</v>
+      </c>
+      <c r="F34">
+        <v>44081</v>
+      </c>
       <c r="G34" s="1">
         <f t="shared" si="0"/>
         <v>44081</v>
@@ -30282,6 +31022,12 @@
       <c r="D35" s="12">
         <v>44161</v>
       </c>
+      <c r="E35">
+        <v>44099</v>
+      </c>
+      <c r="F35">
+        <v>44081</v>
+      </c>
       <c r="G35" s="1">
         <f t="shared" si="0"/>
         <v>44081</v>
@@ -30302,6 +31048,12 @@
       <c r="D36" s="12">
         <v>44161</v>
       </c>
+      <c r="E36">
+        <v>44099</v>
+      </c>
+      <c r="F36">
+        <v>44081</v>
+      </c>
       <c r="G36" s="1">
         <f t="shared" si="0"/>
         <v>44081</v>
@@ -30322,6 +31074,12 @@
       <c r="D37" s="12">
         <v>44162</v>
       </c>
+      <c r="E37">
+        <v>44100</v>
+      </c>
+      <c r="F37">
+        <v>44082</v>
+      </c>
       <c r="G37" s="1">
         <f t="shared" si="0"/>
         <v>44082</v>
@@ -30342,6 +31100,12 @@
       <c r="D38" s="12">
         <v>44162</v>
       </c>
+      <c r="E38">
+        <v>44100</v>
+      </c>
+      <c r="F38">
+        <v>44082</v>
+      </c>
       <c r="G38" s="1">
         <f t="shared" si="0"/>
         <v>44082</v>
@@ -30362,6 +31126,12 @@
       <c r="D39" s="12">
         <v>44162</v>
       </c>
+      <c r="E39">
+        <v>44100</v>
+      </c>
+      <c r="F39">
+        <v>44082</v>
+      </c>
       <c r="G39" s="1">
         <f t="shared" si="0"/>
         <v>44082</v>
@@ -30382,6 +31152,12 @@
       <c r="D40" s="12">
         <v>44163</v>
       </c>
+      <c r="E40">
+        <v>44101</v>
+      </c>
+      <c r="F40">
+        <v>44083</v>
+      </c>
       <c r="G40" s="1">
         <f t="shared" si="0"/>
         <v>44083</v>
@@ -30402,6 +31178,12 @@
       <c r="D41" s="12">
         <v>44164</v>
       </c>
+      <c r="E41">
+        <v>44102</v>
+      </c>
+      <c r="F41">
+        <v>44084</v>
+      </c>
       <c r="G41" s="1">
         <f t="shared" si="0"/>
         <v>44084</v>
@@ -30424,6 +31206,12 @@
       <c r="D42" s="12">
         <v>44161</v>
       </c>
+      <c r="E42">
+        <v>44099</v>
+      </c>
+      <c r="F42">
+        <v>44081</v>
+      </c>
       <c r="G42" s="1">
         <f t="shared" si="0"/>
         <v>44081</v>
@@ -30446,6 +31234,12 @@
       <c r="D43" s="12">
         <v>44161</v>
       </c>
+      <c r="E43">
+        <v>44099</v>
+      </c>
+      <c r="F43">
+        <v>44081</v>
+      </c>
       <c r="G43" s="1">
         <f t="shared" si="0"/>
         <v>44081</v>
@@ -30468,6 +31262,12 @@
       <c r="D44" s="12">
         <v>44161</v>
       </c>
+      <c r="E44">
+        <v>44099</v>
+      </c>
+      <c r="F44">
+        <v>44081</v>
+      </c>
       <c r="G44" s="1">
         <f t="shared" si="0"/>
         <v>44081</v>
@@ -30490,6 +31290,12 @@
       <c r="D45" s="12">
         <v>44161</v>
       </c>
+      <c r="E45">
+        <v>44099</v>
+      </c>
+      <c r="F45">
+        <v>44081</v>
+      </c>
       <c r="G45" s="1">
         <f t="shared" si="0"/>
         <v>44081</v>
@@ -30512,6 +31318,12 @@
       <c r="D46" s="12">
         <v>44160</v>
       </c>
+      <c r="E46">
+        <v>44098</v>
+      </c>
+      <c r="F46">
+        <v>44080</v>
+      </c>
       <c r="G46" s="1">
         <f t="shared" si="0"/>
         <v>44080</v>
@@ -30534,6 +31346,12 @@
       <c r="D47" s="12">
         <v>44164</v>
       </c>
+      <c r="E47">
+        <v>44102</v>
+      </c>
+      <c r="F47">
+        <v>44084</v>
+      </c>
       <c r="G47" s="1">
         <f t="shared" si="0"/>
         <v>44084</v>
@@ -30556,6 +31374,12 @@
       <c r="D48" s="12">
         <v>44161</v>
       </c>
+      <c r="E48">
+        <v>44099</v>
+      </c>
+      <c r="F48">
+        <v>44081</v>
+      </c>
       <c r="G48" s="1">
         <f t="shared" si="0"/>
         <v>44081</v>
@@ -30578,6 +31402,12 @@
       <c r="D49" s="12">
         <v>44161</v>
       </c>
+      <c r="E49">
+        <v>44464</v>
+      </c>
+      <c r="F49">
+        <v>44446</v>
+      </c>
       <c r="G49" s="1">
         <f t="shared" si="0"/>
         <v>44446</v>
@@ -30600,6 +31430,12 @@
       <c r="D50" s="12">
         <v>44161</v>
       </c>
+      <c r="E50">
+        <v>44829</v>
+      </c>
+      <c r="F50">
+        <v>44811</v>
+      </c>
       <c r="G50" s="1">
         <f t="shared" si="0"/>
         <v>44811</v>
@@ -30622,6 +31458,12 @@
       <c r="D51" s="12">
         <v>44161</v>
       </c>
+      <c r="E51">
+        <v>45194</v>
+      </c>
+      <c r="F51">
+        <v>45176</v>
+      </c>
       <c r="G51" s="1">
         <f t="shared" si="0"/>
         <v>45176</v>
@@ -30644,6 +31486,12 @@
       <c r="D52" s="12">
         <v>44161</v>
       </c>
+      <c r="E52">
+        <v>45560</v>
+      </c>
+      <c r="F52">
+        <v>45542</v>
+      </c>
       <c r="G52" s="1">
         <f t="shared" si="0"/>
         <v>45542</v>
@@ -30666,6 +31514,12 @@
       <c r="D53" s="12">
         <v>44161</v>
       </c>
+      <c r="E53">
+        <v>45925</v>
+      </c>
+      <c r="F53">
+        <v>45907</v>
+      </c>
       <c r="G53" s="1">
         <f t="shared" si="0"/>
         <v>45907</v>
@@ -30688,6 +31542,12 @@
       <c r="D54" s="12">
         <v>44161</v>
       </c>
+      <c r="E54">
+        <v>46290</v>
+      </c>
+      <c r="F54">
+        <v>46272</v>
+      </c>
       <c r="G54" s="1">
         <f t="shared" si="0"/>
         <v>46272</v>
@@ -30710,6 +31570,12 @@
       <c r="D55" s="12">
         <v>44161</v>
       </c>
+      <c r="E55">
+        <v>46655</v>
+      </c>
+      <c r="F55">
+        <v>46637</v>
+      </c>
       <c r="G55" s="1">
         <f t="shared" si="0"/>
         <v>46637</v>
@@ -30732,6 +31598,12 @@
       <c r="D56" s="12">
         <v>44161</v>
       </c>
+      <c r="E56">
+        <v>47021</v>
+      </c>
+      <c r="F56">
+        <v>47003</v>
+      </c>
       <c r="G56" s="1">
         <f t="shared" si="0"/>
         <v>47003</v>
@@ -30754,6 +31626,12 @@
       <c r="D57" s="12">
         <v>44161</v>
       </c>
+      <c r="E57">
+        <v>47386</v>
+      </c>
+      <c r="F57">
+        <v>47368</v>
+      </c>
       <c r="G57" s="1">
         <f t="shared" si="0"/>
         <v>47368</v>
@@ -30776,6 +31654,12 @@
       <c r="D58" s="12">
         <v>44161</v>
       </c>
+      <c r="E58">
+        <v>47751</v>
+      </c>
+      <c r="F58">
+        <v>47733</v>
+      </c>
       <c r="G58" s="1">
         <f t="shared" si="0"/>
         <v>47733</v>
@@ -30798,6 +31682,12 @@
       <c r="D59" s="12">
         <v>44161</v>
       </c>
+      <c r="E59">
+        <v>48116</v>
+      </c>
+      <c r="F59">
+        <v>48098</v>
+      </c>
       <c r="G59" s="1">
         <f t="shared" si="0"/>
         <v>48098</v>
@@ -30820,6 +31710,12 @@
       <c r="D60" s="12">
         <v>44161</v>
       </c>
+      <c r="E60">
+        <v>48482</v>
+      </c>
+      <c r="F60">
+        <v>48464</v>
+      </c>
       <c r="G60" s="1">
         <f t="shared" si="0"/>
         <v>48464</v>
@@ -30842,6 +31738,12 @@
       <c r="D61" s="12">
         <v>44161</v>
       </c>
+      <c r="E61">
+        <v>48847</v>
+      </c>
+      <c r="F61">
+        <v>48829</v>
+      </c>
       <c r="G61" s="1">
         <f t="shared" si="0"/>
         <v>48829</v>
@@ -30864,6 +31766,12 @@
       <c r="D62" s="12">
         <v>44161</v>
       </c>
+      <c r="E62">
+        <v>49212</v>
+      </c>
+      <c r="F62">
+        <v>49194</v>
+      </c>
       <c r="G62" s="1">
         <f t="shared" si="0"/>
         <v>49194</v>
@@ -30886,6 +31794,12 @@
       <c r="D63" s="12">
         <v>44161</v>
       </c>
+      <c r="E63">
+        <v>49577</v>
+      </c>
+      <c r="F63">
+        <v>49559</v>
+      </c>
       <c r="G63" s="1">
         <f t="shared" si="0"/>
         <v>49559</v>
@@ -30908,6 +31822,12 @@
       <c r="D64" s="12">
         <v>44161</v>
       </c>
+      <c r="E64">
+        <v>49943</v>
+      </c>
+      <c r="F64">
+        <v>49925</v>
+      </c>
       <c r="G64" s="1">
         <f t="shared" si="0"/>
         <v>49925</v>
@@ -30930,6 +31850,12 @@
       <c r="D65" s="12">
         <v>44164</v>
       </c>
+      <c r="E65">
+        <v>44102</v>
+      </c>
+      <c r="F65">
+        <v>44084</v>
+      </c>
       <c r="G65" s="1">
         <f t="shared" si="0"/>
         <v>44084</v>
@@ -30952,6 +31878,12 @@
       <c r="D66" s="13">
         <v>44091</v>
       </c>
+      <c r="E66">
+        <v>44029</v>
+      </c>
+      <c r="F66">
+        <v>44011</v>
+      </c>
       <c r="G66" s="1">
         <f t="shared" si="0"/>
         <v>44011</v>
@@ -30974,6 +31906,12 @@
       <c r="D67" s="12">
         <v>44164</v>
       </c>
+      <c r="E67">
+        <v>44103</v>
+      </c>
+      <c r="F67">
+        <v>44085</v>
+      </c>
       <c r="G67" s="1">
         <f t="shared" ref="G67:G103" si="2">C67+10</f>
         <v>44085</v>
@@ -30996,6 +31934,12 @@
       <c r="D68" s="12">
         <v>44164</v>
       </c>
+      <c r="E68">
+        <v>44103</v>
+      </c>
+      <c r="F68">
+        <v>44085</v>
+      </c>
       <c r="G68" s="1">
         <f t="shared" si="2"/>
         <v>44085</v>
@@ -31018,6 +31962,12 @@
       <c r="D69" s="12">
         <v>44164</v>
       </c>
+      <c r="E69">
+        <v>44103</v>
+      </c>
+      <c r="F69">
+        <v>44085</v>
+      </c>
       <c r="G69" s="1">
         <f t="shared" si="2"/>
         <v>44085</v>
@@ -31040,6 +31990,12 @@
       <c r="D70" s="12">
         <v>44168</v>
       </c>
+      <c r="E70">
+        <v>44107</v>
+      </c>
+      <c r="F70">
+        <v>44089</v>
+      </c>
       <c r="G70" s="1">
         <f t="shared" si="2"/>
         <v>44089</v>
@@ -31062,6 +32018,12 @@
       <c r="D71" s="12">
         <v>44167</v>
       </c>
+      <c r="E71">
+        <v>44106</v>
+      </c>
+      <c r="F71">
+        <v>44088</v>
+      </c>
       <c r="G71" s="1">
         <f t="shared" si="2"/>
         <v>44088</v>
@@ -31084,6 +32046,12 @@
       <c r="D72" s="12">
         <v>44167</v>
       </c>
+      <c r="E72">
+        <v>44106</v>
+      </c>
+      <c r="F72">
+        <v>44088</v>
+      </c>
       <c r="G72" s="1">
         <f t="shared" si="2"/>
         <v>44088</v>
@@ -31106,6 +32074,12 @@
       <c r="D73" s="12">
         <v>44167</v>
       </c>
+      <c r="E73">
+        <v>44106</v>
+      </c>
+      <c r="F73">
+        <v>44088</v>
+      </c>
       <c r="G73" s="1">
         <f t="shared" si="2"/>
         <v>44088</v>
@@ -31128,6 +32102,12 @@
       <c r="D74" s="12">
         <v>44167</v>
       </c>
+      <c r="E74">
+        <v>44106</v>
+      </c>
+      <c r="F74">
+        <v>44088</v>
+      </c>
       <c r="G74" s="1">
         <f t="shared" si="2"/>
         <v>44088</v>
@@ -31150,6 +32130,12 @@
       <c r="D75" s="12">
         <v>44167</v>
       </c>
+      <c r="E75">
+        <v>44106</v>
+      </c>
+      <c r="F75">
+        <v>44088</v>
+      </c>
       <c r="G75" s="1">
         <f t="shared" si="2"/>
         <v>44088</v>
@@ -31172,6 +32158,12 @@
       <c r="D76" s="12">
         <v>44167</v>
       </c>
+      <c r="E76">
+        <v>44106</v>
+      </c>
+      <c r="F76">
+        <v>44088</v>
+      </c>
       <c r="G76" s="1">
         <f t="shared" si="2"/>
         <v>44088</v>
@@ -31194,6 +32186,12 @@
       <c r="D77" s="12">
         <v>44167</v>
       </c>
+      <c r="E77">
+        <v>44106</v>
+      </c>
+      <c r="F77">
+        <v>44088</v>
+      </c>
       <c r="G77" s="1">
         <f t="shared" si="2"/>
         <v>44088</v>
@@ -31216,6 +32214,12 @@
       <c r="D78" s="12">
         <v>44167</v>
       </c>
+      <c r="E78">
+        <v>44106</v>
+      </c>
+      <c r="F78">
+        <v>44088</v>
+      </c>
       <c r="G78" s="1">
         <f t="shared" si="2"/>
         <v>44088</v>
@@ -31238,6 +32242,12 @@
       <c r="D79" s="12">
         <v>44167</v>
       </c>
+      <c r="E79">
+        <v>44106</v>
+      </c>
+      <c r="F79">
+        <v>44088</v>
+      </c>
       <c r="G79" s="1">
         <f t="shared" si="2"/>
         <v>44088</v>
@@ -31260,6 +32270,12 @@
       <c r="D80" s="12">
         <v>44167</v>
       </c>
+      <c r="E80">
+        <v>44106</v>
+      </c>
+      <c r="F80">
+        <v>44088</v>
+      </c>
       <c r="G80" s="1">
         <f t="shared" si="2"/>
         <v>44088</v>
@@ -31282,6 +32298,12 @@
       <c r="D81" s="12">
         <v>44167</v>
       </c>
+      <c r="E81">
+        <v>44106</v>
+      </c>
+      <c r="F81">
+        <v>44088</v>
+      </c>
       <c r="G81" s="1">
         <f t="shared" si="2"/>
         <v>44088</v>
@@ -31304,6 +32326,12 @@
       <c r="D82" s="12">
         <v>44167</v>
       </c>
+      <c r="E82">
+        <v>44106</v>
+      </c>
+      <c r="F82">
+        <v>44088</v>
+      </c>
       <c r="G82" s="1">
         <f t="shared" si="2"/>
         <v>44088</v>
@@ -31326,6 +32354,12 @@
       <c r="D83" s="12">
         <v>44167</v>
       </c>
+      <c r="E83">
+        <v>44106</v>
+      </c>
+      <c r="F83">
+        <v>44088</v>
+      </c>
       <c r="G83" s="1">
         <f t="shared" si="2"/>
         <v>44088</v>
@@ -31348,6 +32382,12 @@
       <c r="D84" s="12">
         <v>44167</v>
       </c>
+      <c r="E84">
+        <v>44106</v>
+      </c>
+      <c r="F84">
+        <v>44088</v>
+      </c>
       <c r="G84" s="1">
         <f t="shared" si="2"/>
         <v>44088</v>
@@ -31370,6 +32410,12 @@
       <c r="D85" s="12">
         <v>44167</v>
       </c>
+      <c r="E85">
+        <v>44106</v>
+      </c>
+      <c r="F85">
+        <v>44088</v>
+      </c>
       <c r="G85" s="1">
         <f t="shared" si="2"/>
         <v>44088</v>
@@ -31392,6 +32438,12 @@
       <c r="D86" s="12">
         <v>44167</v>
       </c>
+      <c r="E86">
+        <v>44105</v>
+      </c>
+      <c r="F86">
+        <v>44087</v>
+      </c>
       <c r="G86" s="1">
         <f t="shared" si="2"/>
         <v>44087</v>
@@ -31414,6 +32466,12 @@
       <c r="D87" s="12">
         <v>44167</v>
       </c>
+      <c r="E87">
+        <v>44105</v>
+      </c>
+      <c r="F87">
+        <v>44087</v>
+      </c>
       <c r="G87" s="1">
         <f t="shared" si="2"/>
         <v>44087</v>
@@ -31436,6 +32494,12 @@
       <c r="D88" s="12">
         <v>44166</v>
       </c>
+      <c r="E88">
+        <v>44104</v>
+      </c>
+      <c r="F88">
+        <v>44086</v>
+      </c>
       <c r="G88" s="1">
         <f t="shared" si="2"/>
         <v>44086</v>
@@ -31458,6 +32522,12 @@
       <c r="D89" s="12">
         <v>44166</v>
       </c>
+      <c r="E89">
+        <v>44104</v>
+      </c>
+      <c r="F89">
+        <v>44086</v>
+      </c>
       <c r="G89" s="1">
         <f t="shared" si="2"/>
         <v>44086</v>
@@ -31480,6 +32550,12 @@
       <c r="D90" s="12">
         <v>44166</v>
       </c>
+      <c r="E90">
+        <v>44104</v>
+      </c>
+      <c r="F90">
+        <v>44086</v>
+      </c>
       <c r="G90" s="1">
         <f t="shared" si="2"/>
         <v>44086</v>
@@ -31502,6 +32578,12 @@
       <c r="D91" s="12">
         <v>44166</v>
       </c>
+      <c r="E91">
+        <v>44104</v>
+      </c>
+      <c r="F91">
+        <v>44086</v>
+      </c>
       <c r="G91" s="1">
         <f t="shared" si="2"/>
         <v>44086</v>
@@ -31524,6 +32606,12 @@
       <c r="D92" s="12">
         <v>44166</v>
       </c>
+      <c r="E92">
+        <v>44104</v>
+      </c>
+      <c r="F92">
+        <v>44086</v>
+      </c>
       <c r="G92" s="1">
         <f t="shared" si="2"/>
         <v>44086</v>
@@ -31546,6 +32634,12 @@
       <c r="D93" s="12">
         <v>44166</v>
       </c>
+      <c r="E93">
+        <v>44104</v>
+      </c>
+      <c r="F93">
+        <v>44086</v>
+      </c>
       <c r="G93" s="1">
         <f t="shared" si="2"/>
         <v>44086</v>
@@ -31568,6 +32662,12 @@
       <c r="D94" s="12">
         <v>44166</v>
       </c>
+      <c r="E94">
+        <v>44104</v>
+      </c>
+      <c r="F94">
+        <v>44086</v>
+      </c>
       <c r="G94" s="1">
         <f t="shared" si="2"/>
         <v>44086</v>
@@ -31590,6 +32690,12 @@
       <c r="D95" s="12">
         <v>44166</v>
       </c>
+      <c r="E95">
+        <v>44104</v>
+      </c>
+      <c r="F95">
+        <v>44086</v>
+      </c>
       <c r="G95" s="1">
         <f t="shared" si="2"/>
         <v>44086</v>
@@ -31612,6 +32718,12 @@
       <c r="D96" s="12">
         <v>44166</v>
       </c>
+      <c r="E96">
+        <v>44104</v>
+      </c>
+      <c r="F96">
+        <v>44086</v>
+      </c>
       <c r="G96" s="1">
         <f t="shared" si="2"/>
         <v>44086</v>
@@ -31634,6 +32746,12 @@
       <c r="D97" s="12">
         <v>44166</v>
       </c>
+      <c r="E97">
+        <v>44104</v>
+      </c>
+      <c r="F97">
+        <v>44086</v>
+      </c>
       <c r="G97" s="1">
         <f t="shared" si="2"/>
         <v>44086</v>
@@ -31656,6 +32774,12 @@
       <c r="D98" s="12">
         <v>44166</v>
       </c>
+      <c r="E98">
+        <v>44104</v>
+      </c>
+      <c r="F98">
+        <v>44086</v>
+      </c>
       <c r="G98" s="1">
         <f t="shared" si="2"/>
         <v>44086</v>
@@ -31678,6 +32802,12 @@
       <c r="D99" s="12">
         <v>44166</v>
       </c>
+      <c r="E99">
+        <v>44104</v>
+      </c>
+      <c r="F99">
+        <v>44086</v>
+      </c>
       <c r="G99" s="1">
         <f t="shared" si="2"/>
         <v>44086</v>
@@ -31700,6 +32830,12 @@
       <c r="D100" s="12">
         <v>44166</v>
       </c>
+      <c r="E100">
+        <v>44104</v>
+      </c>
+      <c r="F100">
+        <v>44086</v>
+      </c>
       <c r="G100" s="1">
         <f t="shared" si="2"/>
         <v>44086</v>
@@ -31721,6 +32857,12 @@
       </c>
       <c r="D101" s="12">
         <v>44166</v>
+      </c>
+      <c r="E101">
+        <v>44104</v>
+      </c>
+      <c r="F101">
+        <v>44086</v>
       </c>
       <c r="G101" s="1">
         <f t="shared" si="2"/>
@@ -31742,6 +32884,12 @@
       <c r="D102" s="12">
         <v>44125</v>
       </c>
+      <c r="E102">
+        <v>44062</v>
+      </c>
+      <c r="F102">
+        <v>44044</v>
+      </c>
       <c r="G102" s="1">
         <f t="shared" si="2"/>
         <v>44044</v>
@@ -31764,6 +32912,12 @@
       <c r="D103" s="12">
         <v>44171</v>
       </c>
+      <c r="E103">
+        <v>44109</v>
+      </c>
+      <c r="F103">
+        <v>44091</v>
+      </c>
       <c r="G103" s="1">
         <f t="shared" si="2"/>
         <v>44091</v>
@@ -31786,6 +32940,12 @@
       <c r="D104" s="12">
         <v>44173</v>
       </c>
+      <c r="E104">
+        <v>44111</v>
+      </c>
+      <c r="F104">
+        <v>44093</v>
+      </c>
       <c r="G104" s="1">
         <f t="shared" ref="G104:G141" si="4">C104+10</f>
         <v>44093</v>
@@ -31808,6 +32968,12 @@
       <c r="D105" s="12">
         <v>44173</v>
       </c>
+      <c r="E105">
+        <v>44111</v>
+      </c>
+      <c r="F105">
+        <v>44093</v>
+      </c>
       <c r="G105" s="1">
         <f t="shared" si="4"/>
         <v>44093</v>
@@ -31830,6 +32996,12 @@
       <c r="D106" s="12">
         <v>44175</v>
       </c>
+      <c r="E106">
+        <v>44113</v>
+      </c>
+      <c r="F106">
+        <v>44095</v>
+      </c>
       <c r="G106" s="1">
         <f t="shared" si="4"/>
         <v>44095</v>
@@ -31852,6 +33024,12 @@
       <c r="D107" s="12">
         <v>44178</v>
       </c>
+      <c r="E107">
+        <v>44116</v>
+      </c>
+      <c r="F107">
+        <v>44098</v>
+      </c>
       <c r="G107" s="1">
         <f t="shared" si="4"/>
         <v>44098</v>
@@ -31874,6 +33052,12 @@
       <c r="D108" s="12">
         <v>44178</v>
       </c>
+      <c r="E108">
+        <v>44116</v>
+      </c>
+      <c r="F108">
+        <v>44098</v>
+      </c>
       <c r="G108" s="1">
         <f t="shared" si="4"/>
         <v>44098</v>
@@ -31896,6 +33080,12 @@
       <c r="D109" s="12">
         <v>44178</v>
       </c>
+      <c r="E109">
+        <v>44116</v>
+      </c>
+      <c r="F109">
+        <v>44098</v>
+      </c>
       <c r="G109" s="1">
         <f t="shared" si="4"/>
         <v>44098</v>
@@ -31918,6 +33108,12 @@
       <c r="D110" s="12">
         <v>44178</v>
       </c>
+      <c r="E110">
+        <v>44116</v>
+      </c>
+      <c r="F110">
+        <v>44098</v>
+      </c>
       <c r="G110" s="1">
         <f t="shared" si="4"/>
         <v>44098</v>
@@ -31940,6 +33136,12 @@
       <c r="D111" s="12">
         <v>44178</v>
       </c>
+      <c r="E111">
+        <v>44116</v>
+      </c>
+      <c r="F111">
+        <v>44098</v>
+      </c>
       <c r="G111" s="1">
         <f t="shared" si="4"/>
         <v>44098</v>
@@ -31962,6 +33164,12 @@
       <c r="D112" s="12">
         <v>44178</v>
       </c>
+      <c r="E112">
+        <v>44116</v>
+      </c>
+      <c r="F112">
+        <v>44098</v>
+      </c>
       <c r="G112" s="1">
         <f t="shared" si="4"/>
         <v>44098</v>
@@ -31984,6 +33192,12 @@
       <c r="D113" s="12">
         <v>44178</v>
       </c>
+      <c r="E113">
+        <v>44116</v>
+      </c>
+      <c r="F113">
+        <v>44098</v>
+      </c>
       <c r="G113" s="1">
         <f t="shared" si="4"/>
         <v>44098</v>
@@ -32006,6 +33220,12 @@
       <c r="D114" s="12">
         <v>44178</v>
       </c>
+      <c r="E114">
+        <v>44116</v>
+      </c>
+      <c r="F114">
+        <v>44098</v>
+      </c>
       <c r="G114" s="1">
         <f t="shared" si="4"/>
         <v>44098</v>
@@ -32028,6 +33248,12 @@
       <c r="D115" s="12">
         <v>44179</v>
       </c>
+      <c r="E115">
+        <v>44117</v>
+      </c>
+      <c r="F115">
+        <v>44099</v>
+      </c>
       <c r="G115" s="1">
         <f t="shared" si="4"/>
         <v>44099</v>
@@ -32050,6 +33276,12 @@
       <c r="D116" s="12">
         <v>44179</v>
       </c>
+      <c r="E116">
+        <v>44117</v>
+      </c>
+      <c r="F116">
+        <v>44099</v>
+      </c>
       <c r="G116" s="1">
         <f t="shared" si="4"/>
         <v>44099</v>
@@ -32072,6 +33304,12 @@
       <c r="D117" s="12">
         <v>44179</v>
       </c>
+      <c r="E117">
+        <v>44117</v>
+      </c>
+      <c r="F117">
+        <v>44099</v>
+      </c>
       <c r="G117" s="1">
         <f t="shared" si="4"/>
         <v>44099</v>
@@ -32094,6 +33332,12 @@
       <c r="D118" s="12">
         <v>44178</v>
       </c>
+      <c r="E118">
+        <v>44116</v>
+      </c>
+      <c r="F118">
+        <v>44098</v>
+      </c>
       <c r="G118" s="1">
         <f t="shared" si="4"/>
         <v>44098</v>
@@ -32116,6 +33360,12 @@
       <c r="D119" s="12">
         <v>44178</v>
       </c>
+      <c r="E119">
+        <v>44117</v>
+      </c>
+      <c r="F119">
+        <v>44099</v>
+      </c>
       <c r="G119" s="1">
         <f t="shared" si="4"/>
         <v>44099</v>
@@ -32138,6 +33388,12 @@
       <c r="D120" s="12">
         <v>44178</v>
       </c>
+      <c r="E120">
+        <v>44117</v>
+      </c>
+      <c r="F120">
+        <v>44099</v>
+      </c>
       <c r="G120" s="1">
         <f t="shared" si="4"/>
         <v>44099</v>
@@ -32160,6 +33416,12 @@
       <c r="D121" s="12">
         <v>44178</v>
       </c>
+      <c r="E121">
+        <v>44116</v>
+      </c>
+      <c r="F121">
+        <v>44098</v>
+      </c>
       <c r="G121" s="1">
         <f t="shared" si="4"/>
         <v>44098</v>
@@ -32182,6 +33444,12 @@
       <c r="D122" s="12">
         <v>44178</v>
       </c>
+      <c r="E122">
+        <v>44116</v>
+      </c>
+      <c r="F122">
+        <v>44098</v>
+      </c>
       <c r="G122" s="1">
         <f t="shared" si="4"/>
         <v>44098</v>
@@ -32204,6 +33472,12 @@
       <c r="D123" s="12">
         <v>44180</v>
       </c>
+      <c r="E123">
+        <v>44118</v>
+      </c>
+      <c r="F123">
+        <v>44100</v>
+      </c>
       <c r="G123" s="1">
         <f t="shared" si="4"/>
         <v>44100</v>
@@ -32226,6 +33500,12 @@
       <c r="D124" s="12">
         <v>44180</v>
       </c>
+      <c r="E124">
+        <v>44118</v>
+      </c>
+      <c r="F124">
+        <v>44100</v>
+      </c>
       <c r="G124" s="1">
         <f t="shared" si="4"/>
         <v>44100</v>
@@ -32248,6 +33528,12 @@
       <c r="D125" s="12">
         <v>44180</v>
       </c>
+      <c r="E125">
+        <v>44118</v>
+      </c>
+      <c r="F125">
+        <v>44100</v>
+      </c>
       <c r="G125" s="1">
         <f t="shared" si="4"/>
         <v>44100</v>
@@ -32270,6 +33556,12 @@
       <c r="D126" s="12">
         <v>44180</v>
       </c>
+      <c r="E126">
+        <v>44118</v>
+      </c>
+      <c r="F126">
+        <v>44100</v>
+      </c>
       <c r="G126" s="1">
         <f t="shared" si="4"/>
         <v>44100</v>
@@ -32292,6 +33584,12 @@
       <c r="D127" s="12">
         <v>44180</v>
       </c>
+      <c r="E127">
+        <v>44118</v>
+      </c>
+      <c r="F127">
+        <v>44100</v>
+      </c>
       <c r="G127" s="1">
         <f t="shared" si="4"/>
         <v>44100</v>
@@ -32314,6 +33612,12 @@
       <c r="D128" s="12">
         <v>44180</v>
       </c>
+      <c r="E128">
+        <v>44118</v>
+      </c>
+      <c r="F128">
+        <v>44100</v>
+      </c>
       <c r="G128" s="1">
         <f t="shared" si="4"/>
         <v>44100</v>
@@ -32336,6 +33640,12 @@
       <c r="D129" s="12">
         <v>44179</v>
       </c>
+      <c r="E129">
+        <v>44117</v>
+      </c>
+      <c r="F129">
+        <v>44099</v>
+      </c>
       <c r="G129" s="1">
         <f t="shared" si="4"/>
         <v>44099</v>
@@ -32358,6 +33668,12 @@
       <c r="D130" s="12">
         <v>44179</v>
       </c>
+      <c r="E130">
+        <v>44117</v>
+      </c>
+      <c r="F130">
+        <v>44099</v>
+      </c>
       <c r="G130" s="1">
         <f t="shared" si="4"/>
         <v>44099</v>
@@ -32380,6 +33696,12 @@
       <c r="D131" s="12">
         <v>44181</v>
       </c>
+      <c r="E131">
+        <v>44119</v>
+      </c>
+      <c r="F131">
+        <v>44101</v>
+      </c>
       <c r="G131" s="1">
         <f t="shared" si="4"/>
         <v>44101</v>
@@ -32402,6 +33724,12 @@
       <c r="D132" s="12">
         <v>44181</v>
       </c>
+      <c r="E132">
+        <v>44119</v>
+      </c>
+      <c r="F132">
+        <v>44101</v>
+      </c>
       <c r="G132" s="1">
         <f t="shared" si="4"/>
         <v>44101</v>
@@ -32424,6 +33752,12 @@
       <c r="D133" s="12">
         <v>44178</v>
       </c>
+      <c r="E133">
+        <v>44116</v>
+      </c>
+      <c r="F133">
+        <v>44098</v>
+      </c>
       <c r="G133" s="1">
         <f t="shared" si="4"/>
         <v>44098</v>
@@ -32446,6 +33780,12 @@
       <c r="D134" s="12">
         <v>44179</v>
       </c>
+      <c r="E134">
+        <v>44117</v>
+      </c>
+      <c r="F134">
+        <v>44099</v>
+      </c>
       <c r="G134" s="1">
         <f t="shared" si="4"/>
         <v>44099</v>
@@ -32468,6 +33808,12 @@
       <c r="D135" s="12">
         <v>44182</v>
       </c>
+      <c r="E135">
+        <v>44120</v>
+      </c>
+      <c r="F135">
+        <v>44102</v>
+      </c>
       <c r="G135" s="1">
         <f t="shared" si="4"/>
         <v>44102</v>
@@ -32490,6 +33836,12 @@
       <c r="D136" s="12">
         <v>44181</v>
       </c>
+      <c r="E136">
+        <v>44119</v>
+      </c>
+      <c r="F136">
+        <v>44101</v>
+      </c>
       <c r="G136" s="1">
         <f t="shared" si="4"/>
         <v>44101</v>
@@ -32512,6 +33864,12 @@
       <c r="D137" s="12">
         <v>44182</v>
       </c>
+      <c r="E137">
+        <v>44120</v>
+      </c>
+      <c r="F137">
+        <v>44102</v>
+      </c>
       <c r="G137" s="1">
         <f t="shared" si="4"/>
         <v>44102</v>
@@ -32533,6 +33891,12 @@
       </c>
       <c r="D138" s="12">
         <v>44182</v>
+      </c>
+      <c r="E138">
+        <v>44120</v>
+      </c>
+      <c r="F138">
+        <v>44102</v>
       </c>
       <c r="G138" s="1">
         <f t="shared" si="4"/>
@@ -32554,6 +33918,12 @@
       <c r="D139" s="12">
         <v>44185</v>
       </c>
+      <c r="E139">
+        <v>44123</v>
+      </c>
+      <c r="F139">
+        <v>44105</v>
+      </c>
       <c r="G139" s="1">
         <f t="shared" si="4"/>
         <v>44105</v>
@@ -32576,6 +33946,12 @@
       <c r="D140" s="12">
         <v>44185</v>
       </c>
+      <c r="E140">
+        <v>44123</v>
+      </c>
+      <c r="F140">
+        <v>44105</v>
+      </c>
       <c r="G140" s="1">
         <f t="shared" si="4"/>
         <v>44105</v>
@@ -32598,6 +33974,12 @@
       <c r="D141" s="12">
         <v>44185</v>
       </c>
+      <c r="E141">
+        <v>44123</v>
+      </c>
+      <c r="F141">
+        <v>44105</v>
+      </c>
       <c r="G141" s="1">
         <f t="shared" si="4"/>
         <v>44105</v>
@@ -32620,6 +34002,12 @@
       <c r="D142" s="12">
         <v>44186</v>
       </c>
+      <c r="E142">
+        <v>44124</v>
+      </c>
+      <c r="F142">
+        <v>44106</v>
+      </c>
       <c r="G142" s="1">
         <f t="shared" ref="G142" si="6">C142+10</f>
         <v>44106</v>
@@ -32642,6 +34030,12 @@
       <c r="D143" s="19">
         <v>44192</v>
       </c>
+      <c r="E143">
+        <v>44130</v>
+      </c>
+      <c r="F143">
+        <v>44112</v>
+      </c>
       <c r="G143" s="1">
         <f t="shared" ref="G143:G144" si="8">C143+10</f>
         <v>44112</v>
@@ -32663,6 +34057,12 @@
       </c>
       <c r="D144" s="12">
         <v>44193</v>
+      </c>
+      <c r="E144">
+        <v>44131</v>
+      </c>
+      <c r="F144">
+        <v>44113</v>
       </c>
       <c r="G144" s="1">
         <f t="shared" si="8"/>
@@ -32684,6 +34084,12 @@
       <c r="D145" s="12">
         <v>44116</v>
       </c>
+      <c r="E145">
+        <v>44054</v>
+      </c>
+      <c r="F145">
+        <v>44036</v>
+      </c>
       <c r="G145" s="1">
         <f t="shared" ref="G145:G151" si="10">C145+10</f>
         <v>44036</v>
@@ -32706,6 +34112,12 @@
       <c r="D146" s="1">
         <v>44200</v>
       </c>
+      <c r="E146">
+        <v>44138</v>
+      </c>
+      <c r="F146">
+        <v>44120</v>
+      </c>
       <c r="G146" s="1">
         <f t="shared" si="10"/>
         <v>44120</v>
@@ -32728,6 +34140,12 @@
       <c r="D147" s="1">
         <v>44201</v>
       </c>
+      <c r="E147">
+        <v>44139</v>
+      </c>
+      <c r="F147">
+        <v>44121</v>
+      </c>
       <c r="G147" s="1">
         <f t="shared" si="10"/>
         <v>44121</v>
@@ -32750,6 +34168,12 @@
       <c r="D148" s="1">
         <v>44202</v>
       </c>
+      <c r="E148">
+        <v>44140</v>
+      </c>
+      <c r="F148">
+        <v>44122</v>
+      </c>
       <c r="G148" s="1">
         <f t="shared" si="10"/>
         <v>44122</v>
@@ -32772,6 +34196,12 @@
       <c r="D149" s="1">
         <v>44202</v>
       </c>
+      <c r="E149">
+        <v>44140</v>
+      </c>
+      <c r="F149">
+        <v>44122</v>
+      </c>
       <c r="G149" s="1">
         <f t="shared" si="10"/>
         <v>44122</v>
@@ -32794,6 +34224,12 @@
       <c r="D150" s="1">
         <v>44202</v>
       </c>
+      <c r="E150">
+        <v>44140</v>
+      </c>
+      <c r="F150">
+        <v>44122</v>
+      </c>
       <c r="G150" s="1">
         <f t="shared" si="10"/>
         <v>44122</v>
@@ -32816,6 +34252,12 @@
       <c r="D151" s="1">
         <v>44203</v>
       </c>
+      <c r="E151">
+        <v>44141</v>
+      </c>
+      <c r="F151">
+        <v>44123</v>
+      </c>
       <c r="G151" s="1">
         <f t="shared" si="10"/>
         <v>44123</v>
@@ -32838,6 +34280,12 @@
       <c r="D152" s="1">
         <v>44207</v>
       </c>
+      <c r="E152">
+        <v>44145</v>
+      </c>
+      <c r="F152">
+        <v>44127</v>
+      </c>
       <c r="G152" s="1">
         <f t="shared" ref="G152:G155" si="12">C152+10</f>
         <v>44127</v>
@@ -32860,6 +34308,12 @@
       <c r="D153" s="1">
         <v>44209</v>
       </c>
+      <c r="E153">
+        <v>44147</v>
+      </c>
+      <c r="F153">
+        <v>44129</v>
+      </c>
       <c r="G153" s="1">
         <f t="shared" si="12"/>
         <v>44129</v>
@@ -32882,6 +34336,12 @@
       <c r="D154" s="1">
         <v>44210</v>
       </c>
+      <c r="E154">
+        <v>44148</v>
+      </c>
+      <c r="F154">
+        <v>44130</v>
+      </c>
       <c r="G154" s="1">
         <f t="shared" si="12"/>
         <v>44130</v>
@@ -32904,6 +34364,12 @@
       <c r="D155" s="1">
         <v>44213</v>
       </c>
+      <c r="E155">
+        <v>44151</v>
+      </c>
+      <c r="F155">
+        <v>44133</v>
+      </c>
       <c r="G155" s="1">
         <f t="shared" si="12"/>
         <v>44133</v>
@@ -32926,6 +34392,12 @@
       <c r="D156" s="1">
         <v>44213</v>
       </c>
+      <c r="E156">
+        <v>44151</v>
+      </c>
+      <c r="F156">
+        <v>44133</v>
+      </c>
       <c r="G156" s="1">
         <f t="shared" ref="G156:G162" si="14">C156+10</f>
         <v>44133</v>
@@ -32948,6 +34420,12 @@
       <c r="D157" s="1">
         <v>44214</v>
       </c>
+      <c r="E157">
+        <v>44152</v>
+      </c>
+      <c r="F157">
+        <v>44134</v>
+      </c>
       <c r="G157" s="1">
         <f t="shared" si="14"/>
         <v>44134</v>
@@ -32970,6 +34448,12 @@
       <c r="D158" s="1">
         <v>44215</v>
       </c>
+      <c r="E158">
+        <v>44153</v>
+      </c>
+      <c r="F158">
+        <v>44135</v>
+      </c>
       <c r="G158" s="1">
         <f t="shared" si="14"/>
         <v>44135</v>
@@ -32992,6 +34476,12 @@
       <c r="D159" s="1">
         <v>44216</v>
       </c>
+      <c r="E159">
+        <v>44154</v>
+      </c>
+      <c r="F159">
+        <v>44136</v>
+      </c>
       <c r="G159" s="1">
         <f t="shared" si="14"/>
         <v>44136</v>
@@ -33014,6 +34504,12 @@
       <c r="D160" s="1">
         <v>44220</v>
       </c>
+      <c r="E160">
+        <v>44158</v>
+      </c>
+      <c r="F160">
+        <v>44140</v>
+      </c>
       <c r="G160" s="1">
         <f t="shared" si="14"/>
         <v>44140</v>
@@ -33036,6 +34532,12 @@
       <c r="D161" s="1">
         <v>44220</v>
       </c>
+      <c r="E161">
+        <v>44158</v>
+      </c>
+      <c r="F161">
+        <v>44140</v>
+      </c>
       <c r="G161" s="1">
         <f t="shared" si="14"/>
         <v>44140</v>
@@ -33058,6 +34560,12 @@
       <c r="D162" s="1">
         <v>44220</v>
       </c>
+      <c r="E162">
+        <v>44158</v>
+      </c>
+      <c r="F162">
+        <v>44140</v>
+      </c>
       <c r="G162" s="1">
         <f t="shared" si="14"/>
         <v>44140</v>
@@ -33080,6 +34588,12 @@
       <c r="D163" s="1">
         <v>44217</v>
       </c>
+      <c r="E163">
+        <v>44155</v>
+      </c>
+      <c r="F163">
+        <v>44137</v>
+      </c>
       <c r="G163" s="1">
         <f t="shared" ref="G163:G170" si="16">C163+10</f>
         <v>44137</v>
@@ -33102,6 +34616,12 @@
       <c r="D164" s="1">
         <v>44223</v>
       </c>
+      <c r="E164">
+        <v>44161</v>
+      </c>
+      <c r="F164">
+        <v>44143</v>
+      </c>
       <c r="G164" s="1">
         <f t="shared" si="16"/>
         <v>44143</v>
@@ -33124,6 +34644,12 @@
       <c r="D165" s="1">
         <v>44223</v>
       </c>
+      <c r="E165">
+        <v>44161</v>
+      </c>
+      <c r="F165">
+        <v>44143</v>
+      </c>
       <c r="G165" s="1">
         <f t="shared" si="16"/>
         <v>44143</v>
@@ -33146,6 +34672,12 @@
       <c r="D166" s="1">
         <v>44223</v>
       </c>
+      <c r="E166">
+        <v>44161</v>
+      </c>
+      <c r="F166">
+        <v>44143</v>
+      </c>
       <c r="G166" s="1">
         <f t="shared" si="16"/>
         <v>44143</v>
@@ -33163,18 +34695,24 @@
         <v>378</v>
       </c>
       <c r="C167" s="1">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="D167" s="1">
-        <v>44223</v>
+        <v>44224</v>
+      </c>
+      <c r="E167">
+        <v>44162</v>
+      </c>
+      <c r="F167">
+        <v>44144</v>
       </c>
       <c r="G167" s="1">
         <f t="shared" si="16"/>
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="H167" s="1">
         <f t="shared" si="17"/>
-        <v>44161</v>
+        <v>44162</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
@@ -33185,18 +34723,24 @@
         <v>379</v>
       </c>
       <c r="C168" s="1">
-        <v>44133</v>
+        <v>44137</v>
       </c>
       <c r="D168" s="1">
-        <v>44223</v>
+        <v>44227</v>
+      </c>
+      <c r="E168">
+        <v>44165</v>
+      </c>
+      <c r="F168">
+        <v>44147</v>
       </c>
       <c r="G168" s="1">
         <f t="shared" si="16"/>
-        <v>44143</v>
+        <v>44147</v>
       </c>
       <c r="H168" s="1">
         <f t="shared" si="17"/>
-        <v>44161</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
@@ -33207,18 +34751,24 @@
         <v>380</v>
       </c>
       <c r="C169" s="1">
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="D169" s="1">
-        <v>44223</v>
+        <v>44228</v>
+      </c>
+      <c r="E169">
+        <v>44166</v>
+      </c>
+      <c r="F169">
+        <v>44148</v>
       </c>
       <c r="G169" s="1">
         <f t="shared" si="16"/>
-        <v>44143</v>
+        <v>44148</v>
       </c>
       <c r="H169" s="1">
         <f t="shared" si="17"/>
-        <v>44161</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
@@ -33229,18 +34779,24 @@
         <v>381</v>
       </c>
       <c r="C170" s="1">
-        <v>44133</v>
+        <v>44137</v>
       </c>
       <c r="D170" s="1">
-        <v>44223</v>
+        <v>44227</v>
+      </c>
+      <c r="E170">
+        <v>44165</v>
+      </c>
+      <c r="F170">
+        <v>44147</v>
       </c>
       <c r="G170" s="1">
         <f t="shared" si="16"/>
-        <v>44143</v>
+        <v>44147</v>
       </c>
       <c r="H170" s="1">
         <f t="shared" si="17"/>
-        <v>44161</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
@@ -33251,18 +34807,24 @@
         <v>382</v>
       </c>
       <c r="C171" s="1">
-        <v>44133</v>
+        <v>44139</v>
       </c>
       <c r="D171" s="1">
-        <v>44223</v>
+        <v>44229</v>
+      </c>
+      <c r="E171">
+        <v>44167</v>
+      </c>
+      <c r="F171">
+        <v>44149</v>
       </c>
       <c r="G171" s="1">
         <f t="shared" ref="G171:G181" si="18">C171+10</f>
-        <v>44143</v>
+        <v>44149</v>
       </c>
       <c r="H171" s="1">
         <f t="shared" ref="H171:H181" si="19">C171+28</f>
-        <v>44161</v>
+        <v>44167</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
@@ -33273,18 +34835,24 @@
         <v>383</v>
       </c>
       <c r="C172" s="1">
-        <v>44133</v>
+        <v>44139</v>
       </c>
       <c r="D172" s="1">
-        <v>44223</v>
+        <v>44229</v>
+      </c>
+      <c r="E172">
+        <v>44167</v>
+      </c>
+      <c r="F172">
+        <v>44149</v>
       </c>
       <c r="G172" s="1">
         <f t="shared" si="18"/>
-        <v>44143</v>
+        <v>44149</v>
       </c>
       <c r="H172" s="1">
         <f t="shared" si="19"/>
-        <v>44161</v>
+        <v>44167</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
@@ -33295,18 +34863,24 @@
         <v>384</v>
       </c>
       <c r="C173" s="1">
-        <v>44133</v>
+        <v>44140</v>
       </c>
       <c r="D173" s="1">
-        <v>44223</v>
+        <v>44230</v>
+      </c>
+      <c r="E173">
+        <v>44168</v>
+      </c>
+      <c r="F173">
+        <v>44150</v>
       </c>
       <c r="G173" s="1">
         <f t="shared" si="18"/>
-        <v>44143</v>
+        <v>44150</v>
       </c>
       <c r="H173" s="1">
         <f t="shared" si="19"/>
-        <v>44161</v>
+        <v>44168</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
@@ -33317,18 +34891,24 @@
         <v>385</v>
       </c>
       <c r="C174" s="1">
-        <v>44133</v>
+        <v>44139</v>
       </c>
       <c r="D174" s="1">
-        <v>44223</v>
+        <v>44229</v>
+      </c>
+      <c r="E174">
+        <v>44167</v>
+      </c>
+      <c r="F174">
+        <v>44149</v>
       </c>
       <c r="G174" s="1">
         <f t="shared" si="18"/>
-        <v>44143</v>
+        <v>44149</v>
       </c>
       <c r="H174" s="1">
         <f t="shared" si="19"/>
-        <v>44161</v>
+        <v>44167</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
@@ -33342,6 +34922,12 @@
         <v>#N/A</v>
       </c>
       <c r="D175" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E175" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F175" t="e">
         <v>#N/A</v>
       </c>
       <c r="G175" s="1" t="e">
@@ -33361,18 +34947,24 @@
         <v>387</v>
       </c>
       <c r="C176" s="1">
-        <v>44133</v>
+        <v>44139</v>
       </c>
       <c r="D176" s="1">
-        <v>44223</v>
+        <v>44229</v>
+      </c>
+      <c r="E176">
+        <v>44167</v>
+      </c>
+      <c r="F176">
+        <v>44149</v>
       </c>
       <c r="G176" s="1">
         <f t="shared" si="18"/>
-        <v>44143</v>
+        <v>44149</v>
       </c>
       <c r="H176" s="1">
         <f t="shared" si="19"/>
-        <v>44161</v>
+        <v>44167</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
@@ -33383,18 +34975,24 @@
         <v>388</v>
       </c>
       <c r="C177" s="1">
-        <v>44133</v>
+        <v>44141</v>
       </c>
       <c r="D177" s="1">
-        <v>44223</v>
+        <v>44231</v>
+      </c>
+      <c r="E177">
+        <v>44169</v>
+      </c>
+      <c r="F177">
+        <v>44151</v>
       </c>
       <c r="G177" s="1">
         <f t="shared" si="18"/>
-        <v>44143</v>
+        <v>44151</v>
       </c>
       <c r="H177" s="1">
         <f t="shared" si="19"/>
-        <v>44161</v>
+        <v>44169</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
@@ -33405,18 +35003,24 @@
         <v>389</v>
       </c>
       <c r="C178" s="1">
-        <v>44133</v>
+        <v>44141</v>
       </c>
       <c r="D178" s="1">
-        <v>44223</v>
+        <v>44231</v>
+      </c>
+      <c r="E178">
+        <v>44169</v>
+      </c>
+      <c r="F178">
+        <v>44151</v>
       </c>
       <c r="G178" s="1">
         <f t="shared" si="18"/>
-        <v>44143</v>
+        <v>44151</v>
       </c>
       <c r="H178" s="1">
         <f t="shared" si="19"/>
-        <v>44161</v>
+        <v>44169</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
@@ -33427,18 +35031,24 @@
         <v>390</v>
       </c>
       <c r="C179" s="1">
-        <v>44133</v>
+        <v>44143</v>
       </c>
       <c r="D179" s="1">
-        <v>44223</v>
+        <v>44233</v>
+      </c>
+      <c r="E179">
+        <v>44171</v>
+      </c>
+      <c r="F179">
+        <v>44153</v>
       </c>
       <c r="G179" s="1">
         <f t="shared" si="18"/>
-        <v>44143</v>
+        <v>44153</v>
       </c>
       <c r="H179" s="1">
         <f t="shared" si="19"/>
-        <v>44161</v>
+        <v>44171</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
@@ -33449,18 +35059,24 @@
         <v>391</v>
       </c>
       <c r="C180" s="1">
-        <v>44133</v>
+        <v>44143</v>
       </c>
       <c r="D180" s="1">
-        <v>44223</v>
+        <v>44233</v>
+      </c>
+      <c r="E180">
+        <v>44171</v>
+      </c>
+      <c r="F180">
+        <v>44153</v>
       </c>
       <c r="G180" s="1">
         <f t="shared" si="18"/>
-        <v>44143</v>
+        <v>44153</v>
       </c>
       <c r="H180" s="1">
         <f t="shared" si="19"/>
-        <v>44161</v>
+        <v>44171</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.35">
@@ -33471,18 +35087,1284 @@
         <v>392</v>
       </c>
       <c r="C181" s="1">
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="D181" s="1">
-        <v>44223</v>
+        <v>44228</v>
+      </c>
+      <c r="E181">
+        <v>44166</v>
+      </c>
+      <c r="F181">
+        <v>44148</v>
       </c>
       <c r="G181" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="G181:G226" si="20">C181+10</f>
+        <v>44148</v>
+      </c>
+      <c r="H181" s="1">
+        <f t="shared" ref="H181:H226" si="21">C181+28</f>
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>1229912</v>
+      </c>
+      <c r="B182" t="s">
+        <v>403</v>
+      </c>
+      <c r="C182" s="1">
+        <v>44144</v>
+      </c>
+      <c r="D182" s="1">
+        <v>44234</v>
+      </c>
+      <c r="E182">
+        <v>44172</v>
+      </c>
+      <c r="F182">
+        <v>44154</v>
+      </c>
+      <c r="G182" s="1">
+        <f t="shared" si="20"/>
+        <v>44154</v>
+      </c>
+      <c r="H182" s="1">
+        <f t="shared" si="21"/>
+        <v>44172</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>1229353</v>
+      </c>
+      <c r="B183" t="s">
+        <v>404</v>
+      </c>
+      <c r="C183" s="1">
+        <v>44144</v>
+      </c>
+      <c r="D183" s="1">
+        <v>44234</v>
+      </c>
+      <c r="E183">
+        <v>44172</v>
+      </c>
+      <c r="F183">
+        <v>44154</v>
+      </c>
+      <c r="G183" s="1">
+        <f t="shared" si="20"/>
+        <v>44154</v>
+      </c>
+      <c r="H183" s="1">
+        <f t="shared" si="21"/>
+        <v>44172</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>1238265</v>
+      </c>
+      <c r="B184" t="s">
+        <v>405</v>
+      </c>
+      <c r="C184" s="1">
         <v>44143</v>
       </c>
-      <c r="H181" s="1">
-        <f t="shared" si="19"/>
+      <c r="D184" s="1">
+        <v>44233</v>
+      </c>
+      <c r="E184">
+        <v>44171</v>
+      </c>
+      <c r="F184">
+        <v>44153</v>
+      </c>
+      <c r="G184" s="1">
+        <f t="shared" si="20"/>
+        <v>44153</v>
+      </c>
+      <c r="H184" s="1">
+        <f t="shared" si="21"/>
+        <v>44171</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>1227429</v>
+      </c>
+      <c r="B185" t="s">
+        <v>406</v>
+      </c>
+      <c r="C185" s="1">
+        <v>44145</v>
+      </c>
+      <c r="D185" s="1">
+        <v>44235</v>
+      </c>
+      <c r="E185">
+        <v>44173</v>
+      </c>
+      <c r="F185">
+        <v>44155</v>
+      </c>
+      <c r="G185" s="1">
+        <f t="shared" si="20"/>
+        <v>44155</v>
+      </c>
+      <c r="H185" s="1">
+        <f t="shared" si="21"/>
+        <v>44173</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>1093651</v>
+      </c>
+      <c r="B186" t="s">
+        <v>407</v>
+      </c>
+      <c r="C186" s="1">
+        <v>44145</v>
+      </c>
+      <c r="D186" s="1">
+        <v>44235</v>
+      </c>
+      <c r="E186">
+        <v>44173</v>
+      </c>
+      <c r="F186">
+        <v>44155</v>
+      </c>
+      <c r="G186" s="1">
+        <f t="shared" si="20"/>
+        <v>44155</v>
+      </c>
+      <c r="H186" s="1">
+        <f t="shared" si="21"/>
+        <v>44173</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>1223371</v>
+      </c>
+      <c r="B187" t="s">
+        <v>408</v>
+      </c>
+      <c r="C187" s="1">
+        <v>44144</v>
+      </c>
+      <c r="D187" s="1">
+        <v>44234</v>
+      </c>
+      <c r="E187">
+        <v>44172</v>
+      </c>
+      <c r="F187">
+        <v>44154</v>
+      </c>
+      <c r="G187" s="1">
+        <f t="shared" si="20"/>
+        <v>44154</v>
+      </c>
+      <c r="H187" s="1">
+        <f t="shared" si="21"/>
+        <v>44172</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>1212744</v>
+      </c>
+      <c r="B188" t="s">
+        <v>409</v>
+      </c>
+      <c r="C188" s="1">
+        <v>44144</v>
+      </c>
+      <c r="D188" s="1">
+        <v>44234</v>
+      </c>
+      <c r="E188">
+        <v>44172</v>
+      </c>
+      <c r="F188">
+        <v>44154</v>
+      </c>
+      <c r="G188" s="1">
+        <f t="shared" si="20"/>
+        <v>44154</v>
+      </c>
+      <c r="H188" s="1">
+        <f t="shared" si="21"/>
+        <v>44172</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>1239683</v>
+      </c>
+      <c r="B189" t="s">
+        <v>410</v>
+      </c>
+      <c r="C189" s="1">
+        <v>44144</v>
+      </c>
+      <c r="D189" s="1">
+        <v>44234</v>
+      </c>
+      <c r="E189">
+        <v>44172</v>
+      </c>
+      <c r="F189">
+        <v>44154</v>
+      </c>
+      <c r="G189" s="1">
+        <f t="shared" si="20"/>
+        <v>44154</v>
+      </c>
+      <c r="H189" s="1">
+        <f t="shared" si="21"/>
+        <v>44172</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>1240515</v>
+      </c>
+      <c r="B190" t="s">
+        <v>411</v>
+      </c>
+      <c r="C190" s="1">
+        <v>44144</v>
+      </c>
+      <c r="D190" s="1">
+        <v>44234</v>
+      </c>
+      <c r="E190">
+        <v>44172</v>
+      </c>
+      <c r="F190">
+        <v>44154</v>
+      </c>
+      <c r="G190" s="1">
+        <f t="shared" si="20"/>
+        <v>44154</v>
+      </c>
+      <c r="H190" s="1">
+        <f t="shared" si="21"/>
+        <v>44172</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>1227426</v>
+      </c>
+      <c r="B191" t="s">
+        <v>412</v>
+      </c>
+      <c r="C191" s="1">
+        <v>44144</v>
+      </c>
+      <c r="D191" s="1">
+        <v>44234</v>
+      </c>
+      <c r="E191">
+        <v>44172</v>
+      </c>
+      <c r="F191">
+        <v>44154</v>
+      </c>
+      <c r="G191" s="1">
+        <f t="shared" si="20"/>
+        <v>44154</v>
+      </c>
+      <c r="H191" s="1">
+        <f t="shared" si="21"/>
+        <v>44172</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>1229247</v>
+      </c>
+      <c r="B192" t="s">
+        <v>413</v>
+      </c>
+      <c r="C192" s="1">
+        <v>44146</v>
+      </c>
+      <c r="D192" s="1">
+        <v>44236</v>
+      </c>
+      <c r="E192">
+        <v>44174</v>
+      </c>
+      <c r="F192">
+        <v>44156</v>
+      </c>
+      <c r="G192" s="1">
+        <f t="shared" si="20"/>
+        <v>44156</v>
+      </c>
+      <c r="H192" s="1">
+        <f t="shared" si="21"/>
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>1239070</v>
+      </c>
+      <c r="B193" t="s">
+        <v>414</v>
+      </c>
+      <c r="C193" s="1">
+        <v>44146</v>
+      </c>
+      <c r="D193" s="1">
+        <v>44236</v>
+      </c>
+      <c r="E193">
+        <v>44174</v>
+      </c>
+      <c r="F193">
+        <v>44156</v>
+      </c>
+      <c r="G193" s="1">
+        <f t="shared" si="20"/>
+        <v>44156</v>
+      </c>
+      <c r="H193" s="1">
+        <f t="shared" si="21"/>
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>1219474</v>
+      </c>
+      <c r="B194" t="s">
+        <v>415</v>
+      </c>
+      <c r="C194" s="1">
+        <v>44146</v>
+      </c>
+      <c r="D194" s="1">
+        <v>44236</v>
+      </c>
+      <c r="E194">
+        <v>44174</v>
+      </c>
+      <c r="F194">
+        <v>44156</v>
+      </c>
+      <c r="G194" s="1">
+        <f t="shared" si="20"/>
+        <v>44156</v>
+      </c>
+      <c r="H194" s="1">
+        <f t="shared" si="21"/>
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>1224244</v>
+      </c>
+      <c r="B195" t="s">
+        <v>416</v>
+      </c>
+      <c r="C195" s="1">
+        <v>44146</v>
+      </c>
+      <c r="D195" s="1">
+        <v>44236</v>
+      </c>
+      <c r="E195">
+        <v>44174</v>
+      </c>
+      <c r="F195">
+        <v>44156</v>
+      </c>
+      <c r="G195" s="1">
+        <f t="shared" si="20"/>
+        <v>44156</v>
+      </c>
+      <c r="H195" s="1">
+        <f t="shared" si="21"/>
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>1235729</v>
+      </c>
+      <c r="B196" t="s">
+        <v>417</v>
+      </c>
+      <c r="C196" s="1">
+        <v>44147</v>
+      </c>
+      <c r="D196" s="1">
+        <v>44237</v>
+      </c>
+      <c r="E196">
+        <v>44175</v>
+      </c>
+      <c r="F196">
+        <v>44157</v>
+      </c>
+      <c r="G196" s="1">
+        <f t="shared" si="20"/>
+        <v>44157</v>
+      </c>
+      <c r="H196" s="1">
+        <f t="shared" si="21"/>
+        <v>44175</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>1094103</v>
+      </c>
+      <c r="B197" t="s">
+        <v>418</v>
+      </c>
+      <c r="C197" s="1">
+        <v>44144</v>
+      </c>
+      <c r="D197" s="1">
+        <v>44234</v>
+      </c>
+      <c r="E197">
+        <v>44172</v>
+      </c>
+      <c r="F197">
+        <v>44154</v>
+      </c>
+      <c r="G197" s="1">
+        <f t="shared" si="20"/>
+        <v>44154</v>
+      </c>
+      <c r="H197" s="1">
+        <f t="shared" si="21"/>
+        <v>44172</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>1236939</v>
+      </c>
+      <c r="B198" t="s">
+        <v>419</v>
+      </c>
+      <c r="C198" s="1">
+        <v>44147</v>
+      </c>
+      <c r="D198" s="1">
+        <v>44237</v>
+      </c>
+      <c r="E198">
+        <v>44175</v>
+      </c>
+      <c r="F198">
+        <v>44157</v>
+      </c>
+      <c r="G198" s="1">
+        <f t="shared" si="20"/>
+        <v>44157</v>
+      </c>
+      <c r="H198" s="1">
+        <f t="shared" si="21"/>
+        <v>44175</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>1228964</v>
+      </c>
+      <c r="B199" t="s">
+        <v>420</v>
+      </c>
+      <c r="C199" s="1">
+        <v>44148</v>
+      </c>
+      <c r="D199" s="1">
+        <v>44238</v>
+      </c>
+      <c r="E199">
+        <v>44176</v>
+      </c>
+      <c r="F199">
+        <v>44158</v>
+      </c>
+      <c r="G199" s="1">
+        <f t="shared" si="20"/>
+        <v>44158</v>
+      </c>
+      <c r="H199" s="1">
+        <f t="shared" si="21"/>
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>1234109</v>
+      </c>
+      <c r="B200" t="s">
+        <v>421</v>
+      </c>
+      <c r="C200" s="1">
+        <v>44148</v>
+      </c>
+      <c r="D200" s="1">
+        <v>44238</v>
+      </c>
+      <c r="E200">
+        <v>44176</v>
+      </c>
+      <c r="F200">
+        <v>44158</v>
+      </c>
+      <c r="G200" s="1">
+        <f t="shared" si="20"/>
+        <v>44158</v>
+      </c>
+      <c r="H200" s="1">
+        <f t="shared" si="21"/>
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>1227237</v>
+      </c>
+      <c r="B201" t="s">
+        <v>422</v>
+      </c>
+      <c r="C201" s="1">
+        <v>44148</v>
+      </c>
+      <c r="D201" s="1">
+        <v>44238</v>
+      </c>
+      <c r="E201">
+        <v>44176</v>
+      </c>
+      <c r="F201">
+        <v>44158</v>
+      </c>
+      <c r="G201" s="1">
+        <f t="shared" si="20"/>
+        <v>44158</v>
+      </c>
+      <c r="H201" s="1">
+        <f t="shared" si="21"/>
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>1231648</v>
+      </c>
+      <c r="B202" t="s">
+        <v>423</v>
+      </c>
+      <c r="C202" s="1">
+        <v>44148</v>
+      </c>
+      <c r="D202" s="1">
+        <v>44238</v>
+      </c>
+      <c r="E202">
+        <v>44176</v>
+      </c>
+      <c r="F202">
+        <v>44158</v>
+      </c>
+      <c r="G202" s="1">
+        <f t="shared" si="20"/>
+        <v>44158</v>
+      </c>
+      <c r="H202" s="1">
+        <f t="shared" si="21"/>
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>1239583</v>
+      </c>
+      <c r="B203" t="s">
+        <v>424</v>
+      </c>
+      <c r="C203" s="1">
+        <v>44148</v>
+      </c>
+      <c r="D203" s="1">
+        <v>44238</v>
+      </c>
+      <c r="E203">
+        <v>44176</v>
+      </c>
+      <c r="F203">
+        <v>44158</v>
+      </c>
+      <c r="G203" s="1">
+        <f t="shared" si="20"/>
+        <v>44158</v>
+      </c>
+      <c r="H203" s="1">
+        <f t="shared" si="21"/>
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>1225085</v>
+      </c>
+      <c r="B204" t="s">
+        <v>425</v>
+      </c>
+      <c r="C204" s="1">
+        <v>44148</v>
+      </c>
+      <c r="D204" s="1">
+        <v>44238</v>
+      </c>
+      <c r="E204">
+        <v>44176</v>
+      </c>
+      <c r="F204">
+        <v>44158</v>
+      </c>
+      <c r="G204" s="1">
+        <f t="shared" si="20"/>
+        <v>44158</v>
+      </c>
+      <c r="H204" s="1">
+        <f t="shared" si="21"/>
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>1230737</v>
+      </c>
+      <c r="B205" t="s">
+        <v>426</v>
+      </c>
+      <c r="C205" s="1">
+        <v>44148</v>
+      </c>
+      <c r="D205" s="1">
+        <v>44238</v>
+      </c>
+      <c r="E205">
+        <v>44176</v>
+      </c>
+      <c r="F205">
+        <v>44158</v>
+      </c>
+      <c r="G205" s="1">
+        <f t="shared" si="20"/>
+        <v>44158</v>
+      </c>
+      <c r="H205" s="1">
+        <f t="shared" si="21"/>
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>1237033</v>
+      </c>
+      <c r="B206" t="s">
+        <v>427</v>
+      </c>
+      <c r="C206" s="1">
+        <v>44148</v>
+      </c>
+      <c r="D206" s="1">
+        <v>44238</v>
+      </c>
+      <c r="E206">
+        <v>44176</v>
+      </c>
+      <c r="F206">
+        <v>44158</v>
+      </c>
+      <c r="G206" s="1">
+        <f t="shared" si="20"/>
+        <v>44158</v>
+      </c>
+      <c r="H206" s="1">
+        <f t="shared" si="21"/>
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>1228109</v>
+      </c>
+      <c r="B207" t="s">
+        <v>428</v>
+      </c>
+      <c r="C207" s="1">
+        <v>44148</v>
+      </c>
+      <c r="D207" s="1">
+        <v>44238</v>
+      </c>
+      <c r="E207">
+        <v>44176</v>
+      </c>
+      <c r="F207">
+        <v>44158</v>
+      </c>
+      <c r="G207" s="1">
+        <f t="shared" si="20"/>
+        <v>44158</v>
+      </c>
+      <c r="H207" s="1">
+        <f t="shared" si="21"/>
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>1227670</v>
+      </c>
+      <c r="B208" t="s">
+        <v>429</v>
+      </c>
+      <c r="C208" s="1">
+        <v>44148</v>
+      </c>
+      <c r="D208" s="1">
+        <v>44238</v>
+      </c>
+      <c r="E208">
+        <v>44176</v>
+      </c>
+      <c r="F208">
+        <v>44158</v>
+      </c>
+      <c r="G208" s="1">
+        <f t="shared" si="20"/>
+        <v>44158</v>
+      </c>
+      <c r="H208" s="1">
+        <f t="shared" si="21"/>
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>1227407</v>
+      </c>
+      <c r="B209" t="s">
+        <v>430</v>
+      </c>
+      <c r="C209" s="1">
+        <v>44148</v>
+      </c>
+      <c r="D209" s="1">
+        <v>44238</v>
+      </c>
+      <c r="E209">
+        <v>44176</v>
+      </c>
+      <c r="F209">
+        <v>44158</v>
+      </c>
+      <c r="G209" s="1">
+        <f t="shared" si="20"/>
+        <v>44158</v>
+      </c>
+      <c r="H209" s="1">
+        <f t="shared" si="21"/>
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>1226431</v>
+      </c>
+      <c r="B210" t="s">
+        <v>431</v>
+      </c>
+      <c r="C210" s="1">
+        <v>44146</v>
+      </c>
+      <c r="D210" s="1">
+        <v>44236</v>
+      </c>
+      <c r="E210">
+        <v>44174</v>
+      </c>
+      <c r="F210">
+        <v>44156</v>
+      </c>
+      <c r="G210" s="1">
+        <f t="shared" si="20"/>
+        <v>44156</v>
+      </c>
+      <c r="H210" s="1">
+        <f t="shared" si="21"/>
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>1232223</v>
+      </c>
+      <c r="B211" t="s">
+        <v>432</v>
+      </c>
+      <c r="C211" s="1">
+        <v>44151</v>
+      </c>
+      <c r="D211" s="1">
+        <v>44241</v>
+      </c>
+      <c r="E211">
+        <v>44179</v>
+      </c>
+      <c r="F211">
         <v>44161</v>
+      </c>
+      <c r="G211" s="1">
+        <f t="shared" si="20"/>
+        <v>44161</v>
+      </c>
+      <c r="H211" s="1">
+        <f t="shared" si="21"/>
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>1223712</v>
+      </c>
+      <c r="B212" t="s">
+        <v>433</v>
+      </c>
+      <c r="C212" s="1">
+        <v>44151</v>
+      </c>
+      <c r="D212" s="1">
+        <v>44241</v>
+      </c>
+      <c r="E212">
+        <v>44179</v>
+      </c>
+      <c r="F212">
+        <v>44161</v>
+      </c>
+      <c r="G212" s="1">
+        <f t="shared" si="20"/>
+        <v>44161</v>
+      </c>
+      <c r="H212" s="1">
+        <f t="shared" si="21"/>
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>1223409</v>
+      </c>
+      <c r="B213" t="s">
+        <v>434</v>
+      </c>
+      <c r="C213" s="1">
+        <v>44151</v>
+      </c>
+      <c r="D213" s="1">
+        <v>44241</v>
+      </c>
+      <c r="E213">
+        <v>44179</v>
+      </c>
+      <c r="F213">
+        <v>44161</v>
+      </c>
+      <c r="G213" s="1">
+        <f t="shared" si="20"/>
+        <v>44161</v>
+      </c>
+      <c r="H213" s="1">
+        <f t="shared" si="21"/>
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>1237239</v>
+      </c>
+      <c r="B214" t="s">
+        <v>435</v>
+      </c>
+      <c r="C214" s="1">
+        <v>44151</v>
+      </c>
+      <c r="D214" s="1">
+        <v>44241</v>
+      </c>
+      <c r="E214">
+        <v>44179</v>
+      </c>
+      <c r="F214">
+        <v>44161</v>
+      </c>
+      <c r="G214" s="1">
+        <f t="shared" si="20"/>
+        <v>44161</v>
+      </c>
+      <c r="H214" s="1">
+        <f t="shared" si="21"/>
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>1224228</v>
+      </c>
+      <c r="B215" t="s">
+        <v>436</v>
+      </c>
+      <c r="C215" s="1">
+        <v>44151</v>
+      </c>
+      <c r="D215" s="1">
+        <v>44241</v>
+      </c>
+      <c r="E215">
+        <v>44179</v>
+      </c>
+      <c r="F215">
+        <v>44161</v>
+      </c>
+      <c r="G215" s="1">
+        <f t="shared" si="20"/>
+        <v>44161</v>
+      </c>
+      <c r="H215" s="1">
+        <f t="shared" si="21"/>
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>1232223</v>
+      </c>
+      <c r="B216" t="s">
+        <v>432</v>
+      </c>
+      <c r="C216" s="1">
+        <v>44151</v>
+      </c>
+      <c r="D216" s="1">
+        <v>44241</v>
+      </c>
+      <c r="E216">
+        <v>44179</v>
+      </c>
+      <c r="F216">
+        <v>44161</v>
+      </c>
+      <c r="G216" s="1">
+        <f t="shared" si="20"/>
+        <v>44161</v>
+      </c>
+      <c r="H216" s="1">
+        <f t="shared" si="21"/>
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>1232890</v>
+      </c>
+      <c r="B217" t="s">
+        <v>437</v>
+      </c>
+      <c r="C217" s="1">
+        <v>0</v>
+      </c>
+      <c r="D217" s="1">
+        <v>90</v>
+      </c>
+      <c r="E217">
+        <v>28</v>
+      </c>
+      <c r="F217">
+        <v>10</v>
+      </c>
+      <c r="G217" s="1">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="H217" s="1">
+        <f t="shared" si="21"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>1224112</v>
+      </c>
+      <c r="B218" t="s">
+        <v>438</v>
+      </c>
+      <c r="C218" s="1">
+        <v>44152</v>
+      </c>
+      <c r="D218" s="1">
+        <v>44242</v>
+      </c>
+      <c r="E218">
+        <v>44180</v>
+      </c>
+      <c r="F218">
+        <v>44162</v>
+      </c>
+      <c r="G218" s="1">
+        <f t="shared" si="20"/>
+        <v>44162</v>
+      </c>
+      <c r="H218" s="1">
+        <f t="shared" si="21"/>
+        <v>44180</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>1240140</v>
+      </c>
+      <c r="B219" t="s">
+        <v>439</v>
+      </c>
+      <c r="C219" s="1">
+        <v>44149</v>
+      </c>
+      <c r="D219" s="1">
+        <v>44239</v>
+      </c>
+      <c r="E219">
+        <v>44177</v>
+      </c>
+      <c r="F219">
+        <v>44159</v>
+      </c>
+      <c r="G219" s="1">
+        <f t="shared" si="20"/>
+        <v>44159</v>
+      </c>
+      <c r="H219" s="1">
+        <f t="shared" si="21"/>
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>1224228</v>
+      </c>
+      <c r="B220" t="s">
+        <v>436</v>
+      </c>
+      <c r="C220" s="1">
+        <v>44151</v>
+      </c>
+      <c r="D220" s="1">
+        <v>44241</v>
+      </c>
+      <c r="E220">
+        <v>44179</v>
+      </c>
+      <c r="F220">
+        <v>44161</v>
+      </c>
+      <c r="G220" s="1">
+        <f t="shared" si="20"/>
+        <v>44161</v>
+      </c>
+      <c r="H220" s="1">
+        <f t="shared" si="21"/>
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>1223409</v>
+      </c>
+      <c r="B221" t="s">
+        <v>434</v>
+      </c>
+      <c r="C221" s="1">
+        <v>44151</v>
+      </c>
+      <c r="D221" s="1">
+        <v>44241</v>
+      </c>
+      <c r="E221">
+        <v>44179</v>
+      </c>
+      <c r="F221">
+        <v>44161</v>
+      </c>
+      <c r="G221" s="1">
+        <f t="shared" si="20"/>
+        <v>44161</v>
+      </c>
+      <c r="H221" s="1">
+        <f t="shared" si="21"/>
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>1223712</v>
+      </c>
+      <c r="B222" t="s">
+        <v>433</v>
+      </c>
+      <c r="C222" s="1">
+        <v>44151</v>
+      </c>
+      <c r="D222" s="1">
+        <v>44241</v>
+      </c>
+      <c r="E222">
+        <v>44179</v>
+      </c>
+      <c r="F222">
+        <v>44161</v>
+      </c>
+      <c r="G222" s="1">
+        <f t="shared" si="20"/>
+        <v>44161</v>
+      </c>
+      <c r="H222" s="1">
+        <f t="shared" si="21"/>
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>1224112</v>
+      </c>
+      <c r="B223" t="s">
+        <v>438</v>
+      </c>
+      <c r="C223" s="1">
+        <v>44152</v>
+      </c>
+      <c r="D223" s="1">
+        <v>44242</v>
+      </c>
+      <c r="E223">
+        <v>44180</v>
+      </c>
+      <c r="F223">
+        <v>44162</v>
+      </c>
+      <c r="G223" s="1">
+        <f t="shared" si="20"/>
+        <v>44162</v>
+      </c>
+      <c r="H223" s="1">
+        <f t="shared" si="21"/>
+        <v>44180</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>1237239</v>
+      </c>
+      <c r="B224" t="s">
+        <v>435</v>
+      </c>
+      <c r="C224" s="1">
+        <v>44151</v>
+      </c>
+      <c r="D224" s="1">
+        <v>44241</v>
+      </c>
+      <c r="E224">
+        <v>44179</v>
+      </c>
+      <c r="F224">
+        <v>44161</v>
+      </c>
+      <c r="G224" s="1">
+        <f t="shared" si="20"/>
+        <v>44161</v>
+      </c>
+      <c r="H224" s="1">
+        <f t="shared" si="21"/>
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>1232223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>432</v>
+      </c>
+      <c r="C225" s="1">
+        <v>44151</v>
+      </c>
+      <c r="D225" s="1">
+        <v>44241</v>
+      </c>
+      <c r="E225">
+        <v>44179</v>
+      </c>
+      <c r="F225">
+        <v>44161</v>
+      </c>
+      <c r="G225" s="1">
+        <f t="shared" si="20"/>
+        <v>44161</v>
+      </c>
+      <c r="H225" s="1">
+        <f t="shared" si="21"/>
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>1226431</v>
+      </c>
+      <c r="B226" t="s">
+        <v>431</v>
+      </c>
+      <c r="C226" s="1">
+        <v>44146</v>
+      </c>
+      <c r="D226" s="1">
+        <v>44236</v>
+      </c>
+      <c r="E226">
+        <v>44174</v>
+      </c>
+      <c r="F226">
+        <v>44156</v>
+      </c>
+      <c r="G226" s="1">
+        <f t="shared" si="20"/>
+        <v>44156</v>
+      </c>
+      <c r="H226" s="1">
+        <f t="shared" si="21"/>
+        <v>44174</v>
       </c>
     </row>
   </sheetData>
@@ -33628,7 +36510,7 @@
       </c>
       <c r="F2">
         <f>MAX(covid19!F:F)</f>
-        <v>1510</v>
+        <v>1527</v>
       </c>
       <c r="G2">
         <f>MAX(covid19!G:G)</f>
@@ -33640,7 +36522,7 @@
       </c>
       <c r="I2">
         <f>MAX(covid19!J:J)</f>
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="J2">
         <f>MAX(covid19!K:K)</f>
@@ -33664,7 +36546,7 @@
       </c>
       <c r="O2">
         <f>MAX(covid19!V:V)</f>
-        <v>78628</v>
+        <v>83762</v>
       </c>
       <c r="P2">
         <f>MAX(covid19!W:W)</f>
@@ -33672,7 +36554,7 @@
       </c>
       <c r="Q2">
         <f>MAX(covid19!X:X)</f>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="R2">
         <f>MAX(covid19!AE:AE)</f>
@@ -33684,19 +36566,19 @@
       </c>
       <c r="T2">
         <f>MAX(covid19!AG:AG)</f>
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="U2">
         <f>MAX(covid19!AH:AH)</f>
-        <v>915</v>
+        <v>966</v>
       </c>
       <c r="V2">
         <f>MAX(covid19!AI:AI)</f>
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="W2">
         <f>MAX(covid19!AJ:AJ)</f>
-        <v>4009</v>
+        <v>4155</v>
       </c>
       <c r="X2">
         <f>MAX(covid19!AL:AL)</f>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A11481-3F0B-4ED9-B19C-23909022AF30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAAF289-D34B-4EF9-BDC3-1BE1FA827878}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2510,13 +2510,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BN248"/>
+  <dimension ref="A1:BN249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B243" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE243" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO1" sqref="AO1:AR1048576"/>
+      <selection pane="bottomRight" activeCell="AE249" sqref="AE249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22659,7 +22659,7 @@
         <v>17</v>
       </c>
       <c r="M203" s="7">
-        <f t="shared" ref="M203:M248" si="380">B203-C203</f>
+        <f t="shared" ref="M203:M249" si="380">B203-C203</f>
         <v>730923</v>
       </c>
       <c r="N203" s="4">
@@ -26529,7 +26529,7 @@
         <v>1085</v>
       </c>
       <c r="AW231">
-        <f t="shared" ref="AW231:AW248" si="684">AV231/AU231</f>
+        <f t="shared" ref="AW231:AW249" si="684">AV231/AU231</f>
         <v>0.21274509803921568</v>
       </c>
     </row>
@@ -27126,7 +27126,7 @@
         <v>34</v>
       </c>
       <c r="BD235">
-        <f t="shared" ref="BD235:BD248" si="734">AY235/AX235</f>
+        <f t="shared" ref="BD235:BD249" si="734">AY235/AX235</f>
         <v>0.61627906976744184</v>
       </c>
       <c r="BE235">
@@ -27700,11 +27700,11 @@
         <v>0.32743362831858408</v>
       </c>
       <c r="BE238">
-        <f t="shared" ref="BE238:BE248" si="778">BA238/AZ238</f>
+        <f t="shared" ref="BE238:BE249" si="778">BA238/AZ238</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="BF238">
-        <f t="shared" ref="BF238:BF248" si="779">BB238/BA238</f>
+        <f t="shared" ref="BF238:BF249" si="779">BB238/BA238</f>
         <v>0.41</v>
       </c>
       <c r="BG238">
@@ -29568,7 +29568,7 @@
         <v>935209</v>
       </c>
       <c r="N248" s="4">
-        <f t="shared" ref="N248" si="896">C248/B248</f>
+        <f t="shared" ref="N248:N249" si="896">C248/B248</f>
         <v>0.1751916038276668</v>
       </c>
       <c r="Q248">
@@ -29592,11 +29592,11 @@
         <v>10409</v>
       </c>
       <c r="V248">
-        <f t="shared" ref="V248" si="902">C248-D248-E248</f>
+        <f t="shared" ref="V248:V249" si="902">C248-D248-E248</f>
         <v>83762</v>
       </c>
       <c r="W248" s="3">
-        <f t="shared" ref="W248" si="903">F248/V248</f>
+        <f t="shared" ref="W248:W249" si="903">F248/V248</f>
         <v>1.8098899262195267E-2</v>
       </c>
       <c r="X248">
@@ -29731,6 +29731,151 @@
       </c>
       <c r="BN248">
         <v>28.9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A249" s="14">
+        <f>A248+1</f>
+        <v>44155</v>
+      </c>
+      <c r="B249">
+        <v>1144660</v>
+      </c>
+      <c r="C249">
+        <v>203023</v>
+      </c>
+      <c r="D249">
+        <v>114293</v>
+      </c>
+      <c r="E249" s="9">
+        <v>2127</v>
+      </c>
+      <c r="F249" s="9">
+        <v>1447</v>
+      </c>
+      <c r="H249">
+        <v>275</v>
+      </c>
+      <c r="I249">
+        <v>207</v>
+      </c>
+      <c r="J249">
+        <v>346</v>
+      </c>
+      <c r="K249">
+        <v>49</v>
+      </c>
+      <c r="L249">
+        <v>56</v>
+      </c>
+      <c r="M249" s="7">
+        <f t="shared" si="380"/>
+        <v>941637</v>
+      </c>
+      <c r="N249" s="4">
+        <f t="shared" si="896"/>
+        <v>0.17736533119004769</v>
+      </c>
+      <c r="Q249">
+        <f t="shared" ref="Q249" si="914">C249-C248</f>
+        <v>4382</v>
+      </c>
+      <c r="R249">
+        <f t="shared" ref="R249" si="915">M249-M248</f>
+        <v>6428</v>
+      </c>
+      <c r="S249" s="8">
+        <f t="shared" ref="S249" si="916">Q249/U249</f>
+        <v>0.40536540240518038</v>
+      </c>
+      <c r="T249" s="8">
+        <f t="shared" ref="T249" si="917">SUM(Q243:Q249)/SUM(U243:U249)</f>
+        <v>0.42189745314458676</v>
+      </c>
+      <c r="U249">
+        <f t="shared" ref="U249" si="918">B249-B248</f>
+        <v>10810</v>
+      </c>
+      <c r="V249">
+        <f t="shared" ref="V249" si="919">C249-D249-E249</f>
+        <v>86603</v>
+      </c>
+      <c r="W249" s="3">
+        <f t="shared" ref="W249" si="920">F249/V249</f>
+        <v>1.6708428114499498E-2</v>
+      </c>
+      <c r="X249">
+        <f t="shared" ref="X249" si="921">E249-E248</f>
+        <v>25</v>
+      </c>
+      <c r="AU249">
+        <v>10022</v>
+      </c>
+      <c r="AV249">
+        <v>2342</v>
+      </c>
+      <c r="AW249">
+        <f t="shared" si="684"/>
+        <v>0.23368589103971263</v>
+      </c>
+      <c r="AX249">
+        <v>83</v>
+      </c>
+      <c r="AY249">
+        <v>34</v>
+      </c>
+      <c r="AZ249">
+        <v>419</v>
+      </c>
+      <c r="BA249">
+        <v>90</v>
+      </c>
+      <c r="BB249">
+        <v>41</v>
+      </c>
+      <c r="BC249">
+        <v>15</v>
+      </c>
+      <c r="BD249">
+        <f t="shared" si="734"/>
+        <v>0.40963855421686746</v>
+      </c>
+      <c r="BE249">
+        <f t="shared" si="778"/>
+        <v>0.21479713603818615</v>
+      </c>
+      <c r="BF249">
+        <f t="shared" si="779"/>
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="BG249">
+        <f t="shared" ref="BG249" si="922">SUM(AV243:AV249)/SUM(AU243:AU249)</f>
+        <v>0.25462802311371285</v>
+      </c>
+      <c r="BH249">
+        <f t="shared" ref="BH249" si="923">SUM(AV236:AV249)/SUM(AU236:AU249)</f>
+        <v>0.27011723797664638</v>
+      </c>
+      <c r="BI249">
+        <f t="shared" ref="BI249" si="924">SUM(AY243:AY249)/SUM(AX243:AX249)</f>
+        <v>0.313893653516295</v>
+      </c>
+      <c r="BJ249">
+        <f t="shared" ref="BJ249" si="925">SUM(BA243:BA249)/SUM(AZ243:AZ249)</f>
+        <v>0.25463145447378793</v>
+      </c>
+      <c r="BK249">
+        <f t="shared" ref="BK249" si="926">SUM(BC243:BC249)/SUM(BB243:BB249)</f>
+        <v>0.29681978798586572</v>
+      </c>
+      <c r="BL249">
+        <v>28.6</v>
+      </c>
+      <c r="BM249">
+        <v>23.7</v>
+      </c>
+      <c r="BN249">
+        <v>22.5</v>
       </c>
     </row>
   </sheetData>
@@ -29758,7 +29903,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>Q228:Q248</xm:sqref>
+          <xm:sqref>Q228:Q249</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="22" operator="equal" id="{E5309D98-D036-43E8-AE0C-F104DC358831}">
@@ -29774,7 +29919,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>X228:X248</xm:sqref>
+          <xm:sqref>X228:X249</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5269D26C-9211-46B2-914A-48345DF37DEF}">
@@ -29790,7 +29935,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F228:F248</xm:sqref>
+          <xm:sqref>F228:F249</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="20" operator="equal" id="{24843253-84F3-44AF-847D-C74D74C4F05A}">
@@ -29822,7 +29967,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J228:J248</xm:sqref>
+          <xm:sqref>J228:J249</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="18" operator="equal" id="{6F562D16-6A18-4369-973E-028D1B5F7CFF}">
@@ -29838,7 +29983,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K228:K248</xm:sqref>
+          <xm:sqref>K228:K249</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{735BDD8A-2F04-47F3-825F-41FCBFA8ADD5}">
@@ -30078,7 +30223,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H1:H1048576 I229:I248</xm:sqref>
+          <xm:sqref>H1:H1048576 I229:I249</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{8F0BE21B-C8AC-4EAD-AE58-244C59D5B0FC}">
@@ -30094,7 +30239,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>V229:V248</xm:sqref>
+          <xm:sqref>V229:V249</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -34819,11 +34964,11 @@
         <v>44149</v>
       </c>
       <c r="G171" s="1">
-        <f t="shared" ref="G171:G181" si="18">C171+10</f>
+        <f t="shared" ref="G171:G180" si="18">C171+10</f>
         <v>44149</v>
       </c>
       <c r="H171" s="1">
-        <f t="shared" ref="H171:H181" si="19">C171+28</f>
+        <f t="shared" ref="H171:H180" si="19">C171+28</f>
         <v>44167</v>
       </c>
     </row>
@@ -36546,7 +36691,7 @@
       </c>
       <c r="O2">
         <f>MAX(covid19!V:V)</f>
-        <v>83762</v>
+        <v>86603</v>
       </c>
       <c r="P2">
         <f>MAX(covid19!W:W)</f>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAAF289-D34B-4EF9-BDC3-1BE1FA827878}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79276C30-185D-4B48-B4BC-C0C86BEB18EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="444">
   <si>
     <t>date</t>
   </si>
@@ -1347,6 +1347,18 @@
   <si>
     <t>Connor Elumba</t>
   </si>
+  <si>
+    <t>Malcom Newell</t>
+  </si>
+  <si>
+    <t>Londyn Witmer</t>
+  </si>
+  <si>
+    <t>Carlea Jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lexi Shaffer </t>
+  </si>
 </sst>
 </file>
 
@@ -2510,13 +2522,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BN249"/>
+  <dimension ref="A1:BN258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE243" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BG243" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE249" sqref="AE249"/>
+      <selection pane="bottomRight" activeCell="BP258" sqref="BP258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22659,7 +22671,7 @@
         <v>17</v>
       </c>
       <c r="M203" s="7">
-        <f t="shared" ref="M203:M249" si="380">B203-C203</f>
+        <f t="shared" ref="M203:M258" si="380">B203-C203</f>
         <v>730923</v>
       </c>
       <c r="N203" s="4">
@@ -26529,7 +26541,7 @@
         <v>1085</v>
       </c>
       <c r="AW231">
-        <f t="shared" ref="AW231:AW249" si="684">AV231/AU231</f>
+        <f t="shared" ref="AW231:AW258" si="684">AV231/AU231</f>
         <v>0.21274509803921568</v>
       </c>
     </row>
@@ -27126,7 +27138,7 @@
         <v>34</v>
       </c>
       <c r="BD235">
-        <f t="shared" ref="BD235:BD249" si="734">AY235/AX235</f>
+        <f t="shared" ref="BD235:BD258" si="734">AY235/AX235</f>
         <v>0.61627906976744184</v>
       </c>
       <c r="BE235">
@@ -27341,7 +27353,7 @@
         <v>0.31145251396648044</v>
       </c>
       <c r="BK236">
-        <f t="shared" ref="BK236:BK239" si="752">SUM(BC230:BC236)/SUM(BB230:BB236)</f>
+        <f t="shared" ref="BK236:BK256" si="752">SUM(BC230:BC236)/SUM(BB230:BB236)</f>
         <v>0.61538461538461542</v>
       </c>
     </row>
@@ -27700,11 +27712,11 @@
         <v>0.32743362831858408</v>
       </c>
       <c r="BE238">
-        <f t="shared" ref="BE238:BE249" si="778">BA238/AZ238</f>
+        <f t="shared" ref="BE238:BE258" si="778">BA238/AZ238</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="BF238">
-        <f t="shared" ref="BF238:BF249" si="779">BB238/BA238</f>
+        <f t="shared" ref="BF238:BF258" si="779">BB238/BA238</f>
         <v>0.41</v>
       </c>
       <c r="BG238">
@@ -28116,7 +28128,7 @@
         <v>0.30912311780336582</v>
       </c>
       <c r="BK240">
-        <f t="shared" ref="BK240:BK245" si="803">SUM(BC234:BC240)/SUM(BB234:BB240)</f>
+        <f t="shared" si="752"/>
         <v>0.41025641025641024</v>
       </c>
     </row>
@@ -28164,35 +28176,35 @@
         <v>0.15945473590993894</v>
       </c>
       <c r="Q241">
-        <f t="shared" ref="Q241" si="804">C241-C240</f>
+        <f t="shared" ref="Q241" si="803">C241-C240</f>
         <v>4317</v>
       </c>
       <c r="R241">
-        <f t="shared" ref="R241" si="805">M241-M240</f>
+        <f t="shared" ref="R241" si="804">M241-M240</f>
         <v>4231</v>
       </c>
       <c r="S241" s="8">
-        <f t="shared" ref="S241" si="806">Q241/U241</f>
+        <f t="shared" ref="S241" si="805">Q241/U241</f>
         <v>0.50503041647168934</v>
       </c>
       <c r="T241" s="8">
-        <f t="shared" ref="T241" si="807">SUM(Q235:Q241)/SUM(U235:U241)</f>
+        <f t="shared" ref="T241" si="806">SUM(Q235:Q241)/SUM(U235:U241)</f>
         <v>0.46934225195094759</v>
       </c>
       <c r="U241">
-        <f t="shared" ref="U241" si="808">B241-B240</f>
+        <f t="shared" ref="U241" si="807">B241-B240</f>
         <v>8548</v>
       </c>
       <c r="V241">
-        <f t="shared" ref="V241" si="809">C241-D241-E241</f>
+        <f t="shared" ref="V241" si="808">C241-D241-E241</f>
         <v>63055</v>
       </c>
       <c r="W241" s="3">
-        <f t="shared" ref="W241" si="810">F241/V241</f>
+        <f t="shared" ref="W241" si="809">F241/V241</f>
         <v>1.9157878042978353E-2</v>
       </c>
       <c r="X241">
-        <f t="shared" ref="X241" si="811">E241-E240</f>
+        <f t="shared" ref="X241" si="810">E241-E240</f>
         <v>29</v>
       </c>
       <c r="Y241">
@@ -28252,7 +28264,7 @@
         <v>16</v>
       </c>
       <c r="AT241">
-        <f t="shared" ref="AT241:AT242" si="812">AH241-AS241</f>
+        <f t="shared" ref="AT241:AT242" si="811">AH241-AS241</f>
         <v>659</v>
       </c>
       <c r="AU241">
@@ -28312,7 +28324,7 @@
         <v>0.31341557440246726</v>
       </c>
       <c r="BK241">
-        <f t="shared" si="803"/>
+        <f t="shared" si="752"/>
         <v>0.42333333333333334</v>
       </c>
     </row>
@@ -28360,35 +28372,35 @@
         <v>0.16254403537284362</v>
       </c>
       <c r="Q242">
-        <f t="shared" ref="Q242" si="813">C242-C241</f>
+        <f t="shared" ref="Q242" si="812">C242-C241</f>
         <v>5087</v>
       </c>
       <c r="R242">
-        <f t="shared" ref="R242" si="814">M242-M241</f>
+        <f t="shared" ref="R242" si="813">M242-M241</f>
         <v>5906</v>
       </c>
       <c r="S242" s="8">
-        <f t="shared" ref="S242" si="815">Q242/U242</f>
+        <f t="shared" ref="S242" si="814">Q242/U242</f>
         <v>0.46274902210497587</v>
       </c>
       <c r="T242" s="8">
-        <f t="shared" ref="T242" si="816">SUM(Q236:Q242)/SUM(U236:U242)</f>
+        <f t="shared" ref="T242" si="815">SUM(Q236:Q242)/SUM(U236:U242)</f>
         <v>0.47394894894894896</v>
       </c>
       <c r="U242">
-        <f t="shared" ref="U242" si="817">B242-B241</f>
+        <f t="shared" ref="U242" si="816">B242-B241</f>
         <v>10993</v>
       </c>
       <c r="V242">
-        <f t="shared" ref="V242" si="818">C242-D242-E242</f>
+        <f t="shared" ref="V242" si="817">C242-D242-E242</f>
         <v>66986</v>
       </c>
       <c r="W242" s="3">
-        <f t="shared" ref="W242" si="819">F242/V242</f>
+        <f t="shared" ref="W242" si="818">F242/V242</f>
         <v>1.831726032305258E-2</v>
       </c>
       <c r="X242">
-        <f t="shared" ref="X242" si="820">E242-E241</f>
+        <f t="shared" ref="X242" si="819">E242-E241</f>
         <v>20</v>
       </c>
       <c r="Y242">
@@ -28448,7 +28460,7 @@
         <v>17</v>
       </c>
       <c r="AT242">
-        <f t="shared" si="812"/>
+        <f t="shared" si="811"/>
         <v>709</v>
       </c>
       <c r="AU242">
@@ -28508,17 +28520,17 @@
         <v>0.31006240249609984</v>
       </c>
       <c r="BK242">
-        <f t="shared" si="803"/>
+        <f t="shared" si="752"/>
         <v>0.37113402061855671</v>
       </c>
       <c r="BL242">
-        <v>30.8</v>
+        <v>0.308</v>
       </c>
       <c r="BM242">
-        <v>26.4</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="BN242">
-        <v>22.3</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="243" spans="1:66" x14ac:dyDescent="0.35">
@@ -28565,35 +28577,35 @@
         <v>0.1654035503067175</v>
       </c>
       <c r="Q243">
-        <f t="shared" ref="Q243" si="821">C243-C242</f>
+        <f t="shared" ref="Q243" si="820">C243-C242</f>
         <v>4826</v>
       </c>
       <c r="R243">
-        <f t="shared" ref="R243" si="822">M243-M242</f>
+        <f t="shared" ref="R243" si="821">M243-M242</f>
         <v>5693</v>
       </c>
       <c r="S243" s="8">
-        <f t="shared" ref="S243" si="823">Q243/U243</f>
+        <f t="shared" ref="S243" si="822">Q243/U243</f>
         <v>0.45878885825648824</v>
       </c>
       <c r="T243" s="8">
-        <f t="shared" ref="T243" si="824">SUM(Q237:Q243)/SUM(U237:U243)</f>
+        <f t="shared" ref="T243" si="823">SUM(Q237:Q243)/SUM(U237:U243)</f>
         <v>0.46965339124820238</v>
       </c>
       <c r="U243">
-        <f t="shared" ref="U243" si="825">B243-B242</f>
+        <f t="shared" ref="U243" si="824">B243-B242</f>
         <v>10519</v>
       </c>
       <c r="V243">
-        <f t="shared" ref="V243" si="826">C243-D243-E243</f>
+        <f t="shared" ref="V243" si="825">C243-D243-E243</f>
         <v>70686</v>
       </c>
       <c r="W243" s="3">
-        <f t="shared" ref="W243" si="827">F243/V243</f>
+        <f t="shared" ref="W243" si="826">F243/V243</f>
         <v>1.7839459015929603E-2</v>
       </c>
       <c r="X243">
-        <f t="shared" ref="X243" si="828">E243-E242</f>
+        <f t="shared" ref="X243" si="827">E243-E242</f>
         <v>25</v>
       </c>
       <c r="Y243">
@@ -28624,19 +28636,19 @@
         <v>113</v>
       </c>
       <c r="AH243">
-        <f t="shared" ref="AH243" si="829">Y243-AB243-AE243</f>
+        <f t="shared" ref="AH243" si="828">Y243-AB243-AE243</f>
         <v>801</v>
       </c>
       <c r="AI243">
-        <f t="shared" ref="AI243" si="830">Z243-AC243-AF243</f>
+        <f t="shared" ref="AI243" si="829">Z243-AC243-AF243</f>
         <v>301</v>
       </c>
       <c r="AJ243">
-        <f t="shared" ref="AJ243" si="831">AA243-AD243-AG243</f>
+        <f t="shared" ref="AJ243" si="830">AA243-AD243-AG243</f>
         <v>3678</v>
       </c>
       <c r="AK243">
-        <f t="shared" ref="AK243" si="832">-(J243-J242)+L243</f>
+        <f t="shared" ref="AK243" si="831">-(J243-J242)+L243</f>
         <v>48</v>
       </c>
       <c r="AS243">
@@ -28644,7 +28656,7 @@
         <v>21</v>
       </c>
       <c r="AT243">
-        <f t="shared" ref="AT243:AT248" si="833">AH243-AS243</f>
+        <f t="shared" ref="AT243:AT248" si="832">AH243-AS243</f>
         <v>780</v>
       </c>
       <c r="AU243">
@@ -28704,17 +28716,17 @@
         <v>0.3131539611360239</v>
       </c>
       <c r="BK243">
-        <f t="shared" si="803"/>
+        <f t="shared" si="752"/>
         <v>0.34883720930232559</v>
       </c>
       <c r="BL243">
-        <v>30.1</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="BM243">
-        <v>26.4</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="BN243">
-        <v>23</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="244" spans="1:66" x14ac:dyDescent="0.35">
@@ -28761,35 +28773,35 @@
         <v>0.16788279365898934</v>
       </c>
       <c r="Q244">
-        <f t="shared" ref="Q244" si="834">C244-C243</f>
+        <f t="shared" ref="Q244" si="833">C244-C243</f>
         <v>4433</v>
       </c>
       <c r="R244">
-        <f t="shared" ref="R244" si="835">M244-M243</f>
+        <f t="shared" ref="R244" si="834">M244-M243</f>
         <v>5879</v>
       </c>
       <c r="S244" s="8">
-        <f t="shared" ref="S244" si="836">Q244/U244</f>
+        <f t="shared" ref="S244" si="835">Q244/U244</f>
         <v>0.42988750969743988</v>
       </c>
       <c r="T244" s="8">
-        <f t="shared" ref="T244" si="837">SUM(Q238:Q244)/SUM(U238:U244)</f>
+        <f t="shared" ref="T244" si="836">SUM(Q238:Q244)/SUM(U238:U244)</f>
         <v>0.46402975079435194</v>
       </c>
       <c r="U244">
-        <f t="shared" ref="U244" si="838">B244-B243</f>
+        <f t="shared" ref="U244" si="837">B244-B243</f>
         <v>10312</v>
       </c>
       <c r="V244">
-        <f t="shared" ref="V244" si="839">C244-D244-E244</f>
+        <f t="shared" ref="V244" si="838">C244-D244-E244</f>
         <v>74819</v>
       </c>
       <c r="W244" s="3">
-        <f t="shared" ref="W244" si="840">F244/V244</f>
+        <f t="shared" ref="W244" si="839">F244/V244</f>
         <v>1.709458827303225E-2</v>
       </c>
       <c r="X244">
-        <f t="shared" ref="X244" si="841">E244-E243</f>
+        <f t="shared" ref="X244" si="840">E244-E243</f>
         <v>13</v>
       </c>
       <c r="Y244">
@@ -28820,19 +28832,19 @@
         <v>115</v>
       </c>
       <c r="AH244">
-        <f t="shared" ref="AH244" si="842">Y244-AB244-AE244</f>
+        <f t="shared" ref="AH244" si="841">Y244-AB244-AE244</f>
         <v>863</v>
       </c>
       <c r="AI244">
-        <f t="shared" ref="AI244" si="843">Z244-AC244-AF244</f>
+        <f t="shared" ref="AI244" si="842">Z244-AC244-AF244</f>
         <v>330</v>
       </c>
       <c r="AJ244">
-        <f t="shared" ref="AJ244" si="844">AA244-AD244-AG244</f>
+        <f t="shared" ref="AJ244" si="843">AA244-AD244-AG244</f>
         <v>3859</v>
       </c>
       <c r="AK244">
-        <f t="shared" ref="AK244" si="845">-(J244-J243)+L244</f>
+        <f t="shared" ref="AK244" si="844">-(J244-J243)+L244</f>
         <v>51</v>
       </c>
       <c r="AS244">
@@ -28840,7 +28852,7 @@
         <v>22</v>
       </c>
       <c r="AT244">
-        <f t="shared" si="833"/>
+        <f t="shared" si="832"/>
         <v>841</v>
       </c>
       <c r="AU244">
@@ -28884,11 +28896,11 @@
         <v>0.51428571428571423</v>
       </c>
       <c r="BG244">
-        <f t="shared" ref="BG244" si="846">SUM(AV238:AV244)/SUM(AU238:AU244)</f>
+        <f t="shared" ref="BG244" si="845">SUM(AV238:AV244)/SUM(AU238:AU244)</f>
         <v>0.28207289716955519</v>
       </c>
       <c r="BH244">
-        <f t="shared" ref="BH244" si="847">SUM(AV231:AV244)/SUM(AU231:AU244)</f>
+        <f t="shared" ref="BH244" si="846">SUM(AV231:AV244)/SUM(AU231:AU244)</f>
         <v>0.27440142505370146</v>
       </c>
       <c r="BI244">
@@ -28900,17 +28912,17 @@
         <v>0.30140946873870617</v>
       </c>
       <c r="BK244">
-        <f t="shared" si="803"/>
+        <f t="shared" si="752"/>
         <v>0.36760124610591899</v>
       </c>
       <c r="BL244">
-        <v>29.3</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="BM244">
-        <v>25.9</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="BN244">
-        <v>23.8</v>
+        <v>0.23800000000000002</v>
       </c>
     </row>
     <row r="245" spans="1:66" x14ac:dyDescent="0.35">
@@ -28957,35 +28969,35 @@
         <v>0.16916094809229082</v>
       </c>
       <c r="Q245">
-        <f t="shared" ref="Q245" si="848">C245-C244</f>
+        <f t="shared" ref="Q245" si="847">C245-C244</f>
         <v>2317</v>
       </c>
       <c r="R245">
-        <f t="shared" ref="R245" si="849">M245-M244</f>
+        <f t="shared" ref="R245" si="848">M245-M244</f>
         <v>3068</v>
       </c>
       <c r="S245" s="8">
-        <f t="shared" ref="S245" si="850">Q245/U245</f>
+        <f t="shared" ref="S245" si="849">Q245/U245</f>
         <v>0.43026926648096564</v>
       </c>
       <c r="T245" s="8">
-        <f t="shared" ref="T245" si="851">SUM(Q239:Q245)/SUM(U239:U245)</f>
+        <f t="shared" ref="T245" si="850">SUM(Q239:Q245)/SUM(U239:U245)</f>
         <v>0.46763648757513787</v>
       </c>
       <c r="U245">
-        <f t="shared" ref="U245" si="852">B245-B244</f>
+        <f t="shared" ref="U245" si="851">B245-B244</f>
         <v>5385</v>
       </c>
       <c r="V245">
-        <f t="shared" ref="V245" si="853">C245-D245-E245</f>
+        <f t="shared" ref="V245" si="852">C245-D245-E245</f>
         <v>76837</v>
       </c>
       <c r="W245" s="3">
-        <f t="shared" ref="W245" si="854">F245/V245</f>
+        <f t="shared" ref="W245" si="853">F245/V245</f>
         <v>1.8116272108489401E-2</v>
       </c>
       <c r="X245">
-        <f t="shared" ref="X245" si="855">E245-E244</f>
+        <f t="shared" ref="X245" si="854">E245-E244</f>
         <v>4</v>
       </c>
       <c r="Y245">
@@ -29016,19 +29028,19 @@
         <v>116</v>
       </c>
       <c r="AH245">
-        <f t="shared" ref="AH245" si="856">Y245-AB245-AE245</f>
+        <f t="shared" ref="AH245" si="855">Y245-AB245-AE245</f>
         <v>887</v>
       </c>
       <c r="AI245">
-        <f t="shared" ref="AI245" si="857">Z245-AC245-AF245</f>
+        <f t="shared" ref="AI245" si="856">Z245-AC245-AF245</f>
         <v>337</v>
       </c>
       <c r="AJ245">
-        <f t="shared" ref="AJ245" si="858">AA245-AD245-AG245</f>
+        <f t="shared" ref="AJ245" si="857">AA245-AD245-AG245</f>
         <v>3933</v>
       </c>
       <c r="AK245">
-        <f t="shared" ref="AK245" si="859">-(J245-J244)+L245</f>
+        <f t="shared" ref="AK245" si="858">-(J245-J244)+L245</f>
         <v>36</v>
       </c>
       <c r="AL245">
@@ -29045,7 +29057,7 @@
         <v>22</v>
       </c>
       <c r="AT245">
-        <f t="shared" si="833"/>
+        <f t="shared" si="832"/>
         <v>865</v>
       </c>
       <c r="AU245">
@@ -29089,11 +29101,11 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="BG245">
-        <f t="shared" ref="BG245" si="860">SUM(AV239:AV245)/SUM(AU239:AU245)</f>
+        <f t="shared" ref="BG245" si="859">SUM(AV239:AV245)/SUM(AU239:AU245)</f>
         <v>0.28173049083400636</v>
       </c>
       <c r="BH245">
-        <f t="shared" ref="BH245" si="861">SUM(AV232:AV245)/SUM(AU232:AU245)</f>
+        <f t="shared" ref="BH245" si="860">SUM(AV232:AV245)/SUM(AU232:AU245)</f>
         <v>0.2767718304018798</v>
       </c>
       <c r="BI245">
@@ -29105,17 +29117,17 @@
         <v>0.30495928941524797</v>
       </c>
       <c r="BK245">
-        <f t="shared" si="803"/>
+        <f t="shared" si="752"/>
         <v>0.35238095238095241</v>
       </c>
       <c r="BL245">
-        <v>30.1</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="BM245">
-        <v>25.9</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="BN245">
-        <v>23.5</v>
+        <v>0.23499999999999999</v>
       </c>
     </row>
     <row r="246" spans="1:66" x14ac:dyDescent="0.35">
@@ -29162,35 +29174,35 @@
         <v>0.17106829267416956</v>
       </c>
       <c r="Q246">
-        <f t="shared" ref="Q246" si="862">C246-C245</f>
+        <f t="shared" ref="Q246" si="861">C246-C245</f>
         <v>3579</v>
       </c>
       <c r="R246">
-        <f t="shared" ref="R246" si="863">M246-M245</f>
+        <f t="shared" ref="R246" si="862">M246-M245</f>
         <v>5017</v>
       </c>
       <c r="S246" s="8">
-        <f t="shared" ref="S246" si="864">Q246/U246</f>
+        <f t="shared" ref="S246" si="863">Q246/U246</f>
         <v>0.41635644485807355</v>
       </c>
       <c r="T246" s="8">
-        <f t="shared" ref="T246" si="865">SUM(Q240:Q246)/SUM(U240:U246)</f>
+        <f t="shared" ref="T246" si="864">SUM(Q240:Q246)/SUM(U240:U246)</f>
         <v>0.45648655378486058</v>
       </c>
       <c r="U246">
-        <f t="shared" ref="U246" si="866">B246-B245</f>
+        <f t="shared" ref="U246" si="865">B246-B245</f>
         <v>8596</v>
       </c>
       <c r="V246">
-        <f t="shared" ref="V246" si="867">C246-D246-E246</f>
+        <f t="shared" ref="V246" si="866">C246-D246-E246</f>
         <v>78628</v>
       </c>
       <c r="W246" s="3">
-        <f t="shared" ref="W246" si="868">F246/V246</f>
+        <f t="shared" ref="W246" si="867">F246/V246</f>
         <v>1.9204354682810194E-2</v>
       </c>
       <c r="X246">
-        <f t="shared" ref="X246" si="869">E246-E245</f>
+        <f t="shared" ref="X246" si="868">E246-E245</f>
         <v>34</v>
       </c>
       <c r="Y246">
@@ -29221,19 +29233,19 @@
         <v>118</v>
       </c>
       <c r="AH246">
-        <f t="shared" ref="AH246" si="870">Y246-AB246-AE246</f>
+        <f t="shared" ref="AH246" si="869">Y246-AB246-AE246</f>
         <v>915</v>
       </c>
       <c r="AI246">
-        <f t="shared" ref="AI246" si="871">Z246-AC246-AF246</f>
+        <f t="shared" ref="AI246" si="870">Z246-AC246-AF246</f>
         <v>351</v>
       </c>
       <c r="AJ246">
-        <f t="shared" ref="AJ246" si="872">AA246-AD246-AG246</f>
+        <f t="shared" ref="AJ246" si="871">AA246-AD246-AG246</f>
         <v>4009</v>
       </c>
       <c r="AK246">
-        <f t="shared" ref="AK246" si="873">-(J246-J245)+L246</f>
+        <f t="shared" ref="AK246" si="872">-(J246-J245)+L246</f>
         <v>33</v>
       </c>
       <c r="AL246">
@@ -29250,7 +29262,7 @@
         <v>21</v>
       </c>
       <c r="AT246">
-        <f t="shared" si="833"/>
+        <f t="shared" si="832"/>
         <v>894</v>
       </c>
       <c r="AU246">
@@ -29294,38 +29306,38 @@
         <v>0.4935064935064935</v>
       </c>
       <c r="BG246">
-        <f t="shared" ref="BG246" si="874">SUM(AV240:AV246)/SUM(AU240:AU246)</f>
+        <f t="shared" ref="BG246" si="873">SUM(AV240:AV246)/SUM(AU240:AU246)</f>
         <v>0.27538643361428172</v>
       </c>
       <c r="BH246">
-        <f t="shared" ref="BH246" si="875">SUM(AV233:AV246)/SUM(AU233:AU246)</f>
+        <f t="shared" ref="BH246" si="874">SUM(AV233:AV246)/SUM(AU233:AU246)</f>
         <v>0.27512626367338139</v>
       </c>
       <c r="BI246">
-        <f t="shared" ref="BI246" si="876">SUM(AY240:AY246)/SUM(AX240:AX246)</f>
+        <f t="shared" ref="BI246" si="875">SUM(AY240:AY246)/SUM(AX240:AX246)</f>
         <v>0.32126696832579188</v>
       </c>
       <c r="BJ246">
-        <f t="shared" ref="BJ246" si="877">SUM(BA240:BA246)/SUM(AZ240:AZ246)</f>
+        <f t="shared" ref="BJ246" si="876">SUM(BA240:BA246)/SUM(AZ240:AZ246)</f>
         <v>0.2978395061728395</v>
       </c>
       <c r="BK246">
-        <f t="shared" ref="BK246" si="878">SUM(BC240:BC246)/SUM(BB240:BB246)</f>
+        <f t="shared" si="752"/>
         <v>0.33898305084745761</v>
       </c>
       <c r="BL246">
-        <v>29.4</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="BM246">
-        <v>25.4</v>
+        <v>0.254</v>
       </c>
       <c r="BN246">
-        <v>22.8</v>
+        <v>0.22800000000000001</v>
       </c>
     </row>
     <row r="247" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A247" s="14">
-        <f>A246+1</f>
+        <f t="shared" ref="A247:A258" si="877">A246+1</f>
         <v>44153</v>
       </c>
       <c r="B247">
@@ -29367,35 +29379,35 @@
         <v>0.1730967625358163</v>
       </c>
       <c r="Q247">
-        <f t="shared" ref="Q247" si="879">C247-C246</f>
+        <f t="shared" ref="Q247" si="878">C247-C246</f>
         <v>3884</v>
       </c>
       <c r="R247">
-        <f t="shared" ref="R247" si="880">M247-M246</f>
+        <f t="shared" ref="R247" si="879">M247-M246</f>
         <v>5499</v>
       </c>
       <c r="S247" s="8">
-        <f t="shared" ref="S247" si="881">Q247/U247</f>
+        <f t="shared" ref="S247" si="880">Q247/U247</f>
         <v>0.41394010444420759</v>
       </c>
       <c r="T247" s="8">
-        <f t="shared" ref="T247" si="882">SUM(Q241:Q247)/SUM(U241:U247)</f>
+        <f t="shared" ref="T247" si="881">SUM(Q241:Q247)/SUM(U241:U247)</f>
         <v>0.44626270867327728</v>
       </c>
       <c r="U247">
-        <f t="shared" ref="U247" si="883">B247-B246</f>
+        <f t="shared" ref="U247" si="882">B247-B246</f>
         <v>9383</v>
       </c>
       <c r="V247">
-        <f t="shared" ref="V247" si="884">C247-D247-E247</f>
+        <f t="shared" ref="V247" si="883">C247-D247-E247</f>
         <v>81115</v>
       </c>
       <c r="W247" s="3">
-        <f t="shared" ref="W247" si="885">F247/V247</f>
+        <f t="shared" ref="W247" si="884">F247/V247</f>
         <v>1.8825124822782469E-2</v>
       </c>
       <c r="X247">
-        <f t="shared" ref="X247" si="886">E247-E246</f>
+        <f t="shared" ref="X247" si="885">E247-E246</f>
         <v>41</v>
       </c>
       <c r="Y247">
@@ -29426,19 +29438,19 @@
         <v>122</v>
       </c>
       <c r="AH247">
-        <f t="shared" ref="AH247" si="887">Y247-AB247-AE247</f>
+        <f t="shared" ref="AH247" si="886">Y247-AB247-AE247</f>
         <v>952</v>
       </c>
       <c r="AI247">
-        <f t="shared" ref="AI247" si="888">Z247-AC247-AF247</f>
+        <f t="shared" ref="AI247" si="887">Z247-AC247-AF247</f>
         <v>365</v>
       </c>
       <c r="AJ247">
-        <f t="shared" ref="AJ247" si="889">AA247-AD247-AG247</f>
+        <f t="shared" ref="AJ247" si="888">AA247-AD247-AG247</f>
         <v>4149</v>
       </c>
       <c r="AK247">
-        <f t="shared" ref="AK247" si="890">-(J247-J246)+L247</f>
+        <f t="shared" ref="AK247" si="889">-(J247-J246)+L247</f>
         <v>62</v>
       </c>
       <c r="AL247">
@@ -29455,7 +29467,7 @@
         <v>23</v>
       </c>
       <c r="AT247">
-        <f t="shared" si="833"/>
+        <f t="shared" si="832"/>
         <v>929</v>
       </c>
       <c r="AU247">
@@ -29499,38 +29511,38 @@
         <v>0.41025641025641024</v>
       </c>
       <c r="BG247">
-        <f t="shared" ref="BG247" si="891">SUM(AV241:AV247)/SUM(AU241:AU247)</f>
+        <f t="shared" ref="BG247" si="890">SUM(AV241:AV247)/SUM(AU241:AU247)</f>
         <v>0.27177985045864489</v>
       </c>
       <c r="BH247">
-        <f t="shared" ref="BH247" si="892">SUM(AV234:AV247)/SUM(AU234:AU247)</f>
+        <f t="shared" ref="BH247" si="891">SUM(AV234:AV247)/SUM(AU234:AU247)</f>
         <v>0.27559301123937546</v>
       </c>
       <c r="BI247">
-        <f t="shared" ref="BI247" si="893">SUM(AY241:AY247)/SUM(AX241:AX247)</f>
+        <f t="shared" ref="BI247" si="892">SUM(AY241:AY247)/SUM(AX241:AX247)</f>
         <v>0.30990415335463256</v>
       </c>
       <c r="BJ247">
-        <f t="shared" ref="BJ247" si="894">SUM(BA241:BA247)/SUM(AZ241:AZ247)</f>
+        <f t="shared" ref="BJ247" si="893">SUM(BA241:BA247)/SUM(AZ241:AZ247)</f>
         <v>0.28327373857767185</v>
       </c>
       <c r="BK247">
-        <f t="shared" ref="BK247" si="895">SUM(BC241:BC247)/SUM(BB241:BB247)</f>
+        <f t="shared" si="752"/>
         <v>0.33207547169811319</v>
       </c>
       <c r="BL247">
-        <v>29.3</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="BM247">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="BN247">
-        <v>22.5</v>
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="248" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A248" s="14">
-        <f>A247+1</f>
+        <f t="shared" si="877"/>
         <v>44154</v>
       </c>
       <c r="B248">
@@ -29568,39 +29580,39 @@
         <v>935209</v>
       </c>
       <c r="N248" s="4">
-        <f t="shared" ref="N248:N249" si="896">C248/B248</f>
+        <f t="shared" ref="N248:N254" si="894">C248/B248</f>
         <v>0.1751916038276668</v>
       </c>
       <c r="Q248">
-        <f t="shared" ref="Q248" si="897">C248-C247</f>
+        <f t="shared" ref="Q248" si="895">C248-C247</f>
         <v>4177</v>
       </c>
       <c r="R248">
-        <f t="shared" ref="R248" si="898">M248-M247</f>
+        <f t="shared" ref="R248" si="896">M248-M247</f>
         <v>6232</v>
       </c>
       <c r="S248" s="8">
-        <f t="shared" ref="S248" si="899">Q248/U248</f>
+        <f t="shared" ref="S248" si="897">Q248/U248</f>
         <v>0.40128734748775097</v>
       </c>
       <c r="T248" s="8">
-        <f t="shared" ref="T248" si="900">SUM(Q242:Q248)/SUM(U242:U248)</f>
+        <f t="shared" ref="T248" si="898">SUM(Q242:Q248)/SUM(U242:U248)</f>
         <v>0.43146790249554096</v>
       </c>
       <c r="U248">
-        <f t="shared" ref="U248" si="901">B248-B247</f>
+        <f t="shared" ref="U248" si="899">B248-B247</f>
         <v>10409</v>
       </c>
       <c r="V248">
-        <f t="shared" ref="V248:V249" si="902">C248-D248-E248</f>
+        <f t="shared" ref="V248" si="900">C248-D248-E248</f>
         <v>83762</v>
       </c>
       <c r="W248" s="3">
-        <f t="shared" ref="W248:W249" si="903">F248/V248</f>
+        <f t="shared" ref="W248" si="901">F248/V248</f>
         <v>1.8098899262195267E-2</v>
       </c>
       <c r="X248">
-        <f t="shared" ref="X248" si="904">E248-E247</f>
+        <f t="shared" ref="X248" si="902">E248-E247</f>
         <v>38</v>
       </c>
       <c r="Y248">
@@ -29631,19 +29643,19 @@
         <v>124</v>
       </c>
       <c r="AH248">
-        <f t="shared" ref="AH248" si="905">Y248-AB248-AE248</f>
+        <f t="shared" ref="AH248" si="903">Y248-AB248-AE248</f>
         <v>966</v>
       </c>
       <c r="AI248">
-        <f t="shared" ref="AI248" si="906">Z248-AC248-AF248</f>
+        <f t="shared" ref="AI248" si="904">Z248-AC248-AF248</f>
         <v>384</v>
       </c>
       <c r="AJ248">
-        <f t="shared" ref="AJ248" si="907">AA248-AD248-AG248</f>
+        <f t="shared" ref="AJ248" si="905">AA248-AD248-AG248</f>
         <v>4155</v>
       </c>
       <c r="AK248">
-        <f t="shared" ref="AK248" si="908">-(J248-J247)+L248</f>
+        <f t="shared" ref="AK248" si="906">-(J248-J247)+L248</f>
         <v>72</v>
       </c>
       <c r="AL248">
@@ -29660,7 +29672,7 @@
         <v>30</v>
       </c>
       <c r="AT248">
-        <f t="shared" si="833"/>
+        <f t="shared" si="832"/>
         <v>936</v>
       </c>
       <c r="AU248">
@@ -29704,38 +29716,38 @@
         <v>0.44897959183673469</v>
       </c>
       <c r="BG248">
-        <f t="shared" ref="BG248" si="909">SUM(AV242:AV248)/SUM(AU242:AU248)</f>
+        <f t="shared" ref="BG248" si="907">SUM(AV242:AV248)/SUM(AU242:AU248)</f>
         <v>0.26292233038970431</v>
       </c>
       <c r="BH248">
-        <f t="shared" ref="BH248" si="910">SUM(AV235:AV248)/SUM(AU235:AU248)</f>
+        <f t="shared" ref="BH248" si="908">SUM(AV235:AV248)/SUM(AU235:AU248)</f>
         <v>0.27357830203918371</v>
       </c>
       <c r="BI248">
-        <f t="shared" ref="BI248" si="911">SUM(AY242:AY248)/SUM(AX242:AX248)</f>
+        <f t="shared" ref="BI248" si="909">SUM(AY242:AY248)/SUM(AX242:AX248)</f>
         <v>0.31069609507640067</v>
       </c>
       <c r="BJ248">
-        <f t="shared" ref="BJ248" si="912">SUM(BA242:BA248)/SUM(AZ242:AZ248)</f>
+        <f t="shared" ref="BJ248" si="910">SUM(BA242:BA248)/SUM(AZ242:AZ248)</f>
         <v>0.27050136027982902</v>
       </c>
       <c r="BK248">
-        <f t="shared" ref="BK248" si="913">SUM(BC242:BC248)/SUM(BB242:BB248)</f>
+        <f t="shared" si="752"/>
         <v>0.2978723404255319</v>
       </c>
       <c r="BL248">
-        <v>28.9</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="BM248">
-        <v>24.4</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="BN248">
-        <v>28.9</v>
+        <v>0.28899999999999998</v>
       </c>
     </row>
     <row r="249" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A249" s="14">
-        <f>A248+1</f>
+        <f t="shared" si="877"/>
         <v>44155</v>
       </c>
       <c r="B249">
@@ -29773,40 +29785,100 @@
         <v>941637</v>
       </c>
       <c r="N249" s="4">
-        <f t="shared" si="896"/>
+        <f t="shared" si="894"/>
         <v>0.17736533119004769</v>
       </c>
       <c r="Q249">
-        <f t="shared" ref="Q249" si="914">C249-C248</f>
+        <f t="shared" ref="Q249" si="911">C249-C248</f>
         <v>4382</v>
       </c>
       <c r="R249">
-        <f t="shared" ref="R249" si="915">M249-M248</f>
+        <f t="shared" ref="R249" si="912">M249-M248</f>
         <v>6428</v>
       </c>
       <c r="S249" s="8">
-        <f t="shared" ref="S249" si="916">Q249/U249</f>
+        <f t="shared" ref="S249" si="913">Q249/U249</f>
         <v>0.40536540240518038</v>
       </c>
       <c r="T249" s="8">
-        <f t="shared" ref="T249" si="917">SUM(Q243:Q249)/SUM(U243:U249)</f>
+        <f t="shared" ref="T249" si="914">SUM(Q243:Q249)/SUM(U243:U249)</f>
         <v>0.42189745314458676</v>
       </c>
       <c r="U249">
-        <f t="shared" ref="U249" si="918">B249-B248</f>
+        <f t="shared" ref="U249" si="915">B249-B248</f>
         <v>10810</v>
       </c>
       <c r="V249">
-        <f t="shared" ref="V249" si="919">C249-D249-E249</f>
+        <f t="shared" ref="V249" si="916">C249-D249-E249</f>
         <v>86603</v>
       </c>
       <c r="W249" s="3">
-        <f t="shared" ref="W249" si="920">F249/V249</f>
+        <f t="shared" ref="W249" si="917">F249/V249</f>
         <v>1.6708428114499498E-2</v>
       </c>
       <c r="X249">
-        <f t="shared" ref="X249" si="921">E249-E248</f>
+        <f t="shared" ref="X249" si="918">E249-E248</f>
         <v>25</v>
+      </c>
+      <c r="Y249">
+        <v>1688</v>
+      </c>
+      <c r="Z249">
+        <v>865</v>
+      </c>
+      <c r="AA249">
+        <v>9911</v>
+      </c>
+      <c r="AB249">
+        <v>650</v>
+      </c>
+      <c r="AC249">
+        <v>448</v>
+      </c>
+      <c r="AD249">
+        <v>5431</v>
+      </c>
+      <c r="AE249">
+        <v>12</v>
+      </c>
+      <c r="AF249">
+        <v>3</v>
+      </c>
+      <c r="AG249">
+        <v>125</v>
+      </c>
+      <c r="AH249">
+        <f t="shared" ref="AH249" si="919">Y249-AB249-AE249</f>
+        <v>1026</v>
+      </c>
+      <c r="AI249">
+        <f t="shared" ref="AI249" si="920">Z249-AC249-AF249</f>
+        <v>414</v>
+      </c>
+      <c r="AJ249">
+        <f t="shared" ref="AJ249" si="921">AA249-AD249-AG249</f>
+        <v>4355</v>
+      </c>
+      <c r="AK249">
+        <f t="shared" ref="AK249" si="922">-(J249-J248)+L249</f>
+        <v>83</v>
+      </c>
+      <c r="AL249">
+        <v>36</v>
+      </c>
+      <c r="AM249">
+        <v>36</v>
+      </c>
+      <c r="AN249">
+        <v>123</v>
+      </c>
+      <c r="AS249">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A249)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A249)</f>
+        <v>31</v>
+      </c>
+      <c r="AT249">
+        <f t="shared" ref="AT249" si="923">AH249-AS249</f>
+        <v>995</v>
       </c>
       <c r="AU249">
         <v>10022</v>
@@ -29849,33 +29921,1786 @@
         <v>0.45555555555555555</v>
       </c>
       <c r="BG249">
-        <f t="shared" ref="BG249" si="922">SUM(AV243:AV249)/SUM(AU243:AU249)</f>
+        <f t="shared" ref="BG249" si="924">SUM(AV243:AV249)/SUM(AU243:AU249)</f>
         <v>0.25462802311371285</v>
       </c>
       <c r="BH249">
-        <f t="shared" ref="BH249" si="923">SUM(AV236:AV249)/SUM(AU236:AU249)</f>
+        <f t="shared" ref="BH249" si="925">SUM(AV236:AV249)/SUM(AU236:AU249)</f>
         <v>0.27011723797664638</v>
       </c>
       <c r="BI249">
-        <f t="shared" ref="BI249" si="924">SUM(AY243:AY249)/SUM(AX243:AX249)</f>
+        <f t="shared" ref="BI249" si="926">SUM(AY243:AY249)/SUM(AX243:AX249)</f>
         <v>0.313893653516295</v>
       </c>
       <c r="BJ249">
-        <f t="shared" ref="BJ249" si="925">SUM(BA243:BA249)/SUM(AZ243:AZ249)</f>
+        <f t="shared" ref="BJ249" si="927">SUM(BA243:BA249)/SUM(AZ243:AZ249)</f>
         <v>0.25463145447378793</v>
       </c>
       <c r="BK249">
-        <f t="shared" ref="BK249" si="926">SUM(BC243:BC249)/SUM(BB243:BB249)</f>
+        <f t="shared" si="752"/>
         <v>0.29681978798586572</v>
       </c>
       <c r="BL249">
-        <v>28.6</v>
+        <v>0.28600000000000003</v>
       </c>
       <c r="BM249">
-        <v>23.7</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="BN249">
-        <v>22.5</v>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A250" s="14">
+        <f t="shared" si="877"/>
+        <v>44156</v>
+      </c>
+      <c r="B250" s="9">
+        <v>1153797</v>
+      </c>
+      <c r="C250">
+        <v>206648</v>
+      </c>
+      <c r="D250">
+        <v>115732</v>
+      </c>
+      <c r="E250" s="9">
+        <v>2159</v>
+      </c>
+      <c r="F250" s="9">
+        <v>1416</v>
+      </c>
+      <c r="H250">
+        <v>273</v>
+      </c>
+      <c r="I250">
+        <v>200</v>
+      </c>
+      <c r="J250">
+        <v>351</v>
+      </c>
+      <c r="K250">
+        <v>47</v>
+      </c>
+      <c r="L250">
+        <v>52</v>
+      </c>
+      <c r="M250" s="7">
+        <f t="shared" si="380"/>
+        <v>947149</v>
+      </c>
+      <c r="N250" s="4">
+        <f t="shared" si="894"/>
+        <v>0.17910256310252151</v>
+      </c>
+      <c r="Q250">
+        <f t="shared" ref="Q250" si="928">C250-C249</f>
+        <v>3625</v>
+      </c>
+      <c r="R250">
+        <f t="shared" ref="R250" si="929">M250-M249</f>
+        <v>5512</v>
+      </c>
+      <c r="S250" s="8">
+        <f t="shared" ref="S250" si="930">Q250/U250</f>
+        <v>0.39673853562438438</v>
+      </c>
+      <c r="T250" s="8">
+        <f t="shared" ref="T250" si="931">SUM(Q244:Q250)/SUM(U244:U250)</f>
+        <v>0.41224700149925037</v>
+      </c>
+      <c r="U250">
+        <f t="shared" ref="U250" si="932">B250-B249</f>
+        <v>9137</v>
+      </c>
+      <c r="V250">
+        <f t="shared" ref="V250" si="933">C250-D250-E250</f>
+        <v>88757</v>
+      </c>
+      <c r="W250" s="3">
+        <f t="shared" ref="W250" si="934">F250/V250</f>
+        <v>1.5953671259731628E-2</v>
+      </c>
+      <c r="X250">
+        <f t="shared" ref="X250" si="935">E250-E249</f>
+        <v>32</v>
+      </c>
+      <c r="Y250">
+        <v>1714</v>
+      </c>
+      <c r="Z250">
+        <v>876</v>
+      </c>
+      <c r="AA250">
+        <v>10044</v>
+      </c>
+      <c r="AB250">
+        <v>662</v>
+      </c>
+      <c r="AC250">
+        <v>448</v>
+      </c>
+      <c r="AD250">
+        <v>5506</v>
+      </c>
+      <c r="AE250">
+        <v>12</v>
+      </c>
+      <c r="AF250">
+        <v>3</v>
+      </c>
+      <c r="AG250">
+        <v>125</v>
+      </c>
+      <c r="AH250">
+        <f t="shared" ref="AH250" si="936">Y250-AB250-AE250</f>
+        <v>1040</v>
+      </c>
+      <c r="AI250">
+        <f t="shared" ref="AI250" si="937">Z250-AC250-AF250</f>
+        <v>425</v>
+      </c>
+      <c r="AJ250">
+        <f t="shared" ref="AJ250" si="938">AA250-AD250-AG250</f>
+        <v>4413</v>
+      </c>
+      <c r="AK250">
+        <f t="shared" ref="AK250" si="939">-(J250-J249)+L250</f>
+        <v>47</v>
+      </c>
+      <c r="AS250">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A250)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A250)</f>
+        <v>37</v>
+      </c>
+      <c r="AT250">
+        <f t="shared" ref="AT250:AT252" si="940">AH250-AS250</f>
+        <v>1003</v>
+      </c>
+      <c r="AU250">
+        <v>10558</v>
+      </c>
+      <c r="AV250">
+        <v>2489</v>
+      </c>
+      <c r="AW250">
+        <f t="shared" si="684"/>
+        <v>0.23574540632695587</v>
+      </c>
+      <c r="AX250">
+        <v>58</v>
+      </c>
+      <c r="AY250">
+        <v>13</v>
+      </c>
+      <c r="AZ250">
+        <v>419</v>
+      </c>
+      <c r="BA250">
+        <v>100</v>
+      </c>
+      <c r="BB250">
+        <v>37</v>
+      </c>
+      <c r="BC250">
+        <v>8</v>
+      </c>
+      <c r="BD250">
+        <f t="shared" si="734"/>
+        <v>0.22413793103448276</v>
+      </c>
+      <c r="BE250">
+        <f t="shared" si="778"/>
+        <v>0.2386634844868735</v>
+      </c>
+      <c r="BF250">
+        <f t="shared" si="779"/>
+        <v>0.37</v>
+      </c>
+      <c r="BG250">
+        <f t="shared" ref="BG250" si="941">SUM(AV244:AV250)/SUM(AU244:AU250)</f>
+        <v>0.24590012330456226</v>
+      </c>
+      <c r="BH250">
+        <f t="shared" ref="BH250" si="942">SUM(AV237:AV250)/SUM(AU237:AU250)</f>
+        <v>0.26667324388318864</v>
+      </c>
+      <c r="BI250">
+        <f t="shared" ref="BI250" si="943">SUM(AY244:AY250)/SUM(AX244:AX250)</f>
+        <v>0.29038112522686027</v>
+      </c>
+      <c r="BJ250">
+        <f t="shared" ref="BJ250" si="944">SUM(BA244:BA250)/SUM(AZ244:AZ250)</f>
+        <v>0.24416379640260238</v>
+      </c>
+      <c r="BK250">
+        <f t="shared" si="752"/>
+        <v>0.28825622775800713</v>
+      </c>
+      <c r="BL250">
+        <v>0.27899999999999997</v>
+      </c>
+      <c r="BM250">
+        <v>0.23</v>
+      </c>
+      <c r="BN250">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="251" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A251" s="14">
+        <f t="shared" si="877"/>
+        <v>44157</v>
+      </c>
+      <c r="B251" s="9">
+        <v>1162482</v>
+      </c>
+      <c r="C251">
+        <v>210055</v>
+      </c>
+      <c r="D251">
+        <v>116307</v>
+      </c>
+      <c r="E251" s="9">
+        <v>2192</v>
+      </c>
+      <c r="F251" s="9">
+        <v>1340</v>
+      </c>
+      <c r="H251">
+        <v>255</v>
+      </c>
+      <c r="I251">
+        <v>186</v>
+      </c>
+      <c r="J251">
+        <v>314</v>
+      </c>
+      <c r="K251">
+        <v>41</v>
+      </c>
+      <c r="L251">
+        <v>37</v>
+      </c>
+      <c r="M251" s="7">
+        <f t="shared" si="380"/>
+        <v>952427</v>
+      </c>
+      <c r="N251" s="4">
+        <f t="shared" si="894"/>
+        <v>0.18069527098053992</v>
+      </c>
+      <c r="Q251">
+        <f t="shared" ref="Q251" si="945">C251-C250</f>
+        <v>3407</v>
+      </c>
+      <c r="R251">
+        <f t="shared" ref="R251" si="946">M251-M250</f>
+        <v>5278</v>
+      </c>
+      <c r="S251" s="8">
+        <f t="shared" ref="S251" si="947">Q251/U251</f>
+        <v>0.39228554979850316</v>
+      </c>
+      <c r="T251" s="8">
+        <f t="shared" ref="T251" si="948">SUM(Q245:Q251)/SUM(U245:U251)</f>
+        <v>0.40655396202227384</v>
+      </c>
+      <c r="U251">
+        <f t="shared" ref="U251" si="949">B251-B250</f>
+        <v>8685</v>
+      </c>
+      <c r="V251">
+        <f t="shared" ref="V251" si="950">C251-D251-E251</f>
+        <v>91556</v>
+      </c>
+      <c r="W251" s="3">
+        <f t="shared" ref="W251" si="951">F251/V251</f>
+        <v>1.4635851282275328E-2</v>
+      </c>
+      <c r="X251">
+        <f t="shared" ref="X251" si="952">E251-E250</f>
+        <v>33</v>
+      </c>
+      <c r="Y251">
+        <v>1749</v>
+      </c>
+      <c r="Z251">
+        <v>891</v>
+      </c>
+      <c r="AA251">
+        <v>10175</v>
+      </c>
+      <c r="AB251">
+        <v>664</v>
+      </c>
+      <c r="AC251">
+        <v>448</v>
+      </c>
+      <c r="AD251">
+        <v>5537</v>
+      </c>
+      <c r="AE251">
+        <v>12</v>
+      </c>
+      <c r="AF251">
+        <v>3</v>
+      </c>
+      <c r="AG251">
+        <v>126</v>
+      </c>
+      <c r="AH251">
+        <f t="shared" ref="AH251" si="953">Y251-AB251-AE251</f>
+        <v>1073</v>
+      </c>
+      <c r="AI251">
+        <f t="shared" ref="AI251" si="954">Z251-AC251-AF251</f>
+        <v>440</v>
+      </c>
+      <c r="AJ251">
+        <f t="shared" ref="AJ251" si="955">AA251-AD251-AG251</f>
+        <v>4512</v>
+      </c>
+      <c r="AK251">
+        <f t="shared" ref="AK251:AK252" si="956">-(J251-J250)+L251</f>
+        <v>74</v>
+      </c>
+      <c r="AS251">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A251)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A251)</f>
+        <v>39</v>
+      </c>
+      <c r="AT251">
+        <f t="shared" si="940"/>
+        <v>1034</v>
+      </c>
+      <c r="AU251">
+        <v>8418</v>
+      </c>
+      <c r="AV251">
+        <v>1905</v>
+      </c>
+      <c r="AW251">
+        <f t="shared" si="684"/>
+        <v>0.22630078403421242</v>
+      </c>
+      <c r="AX251">
+        <v>67</v>
+      </c>
+      <c r="AY251">
+        <v>16</v>
+      </c>
+      <c r="AZ251">
+        <v>370</v>
+      </c>
+      <c r="BA251">
+        <v>68</v>
+      </c>
+      <c r="BB251">
+        <v>29</v>
+      </c>
+      <c r="BC251">
+        <v>6</v>
+      </c>
+      <c r="BD251">
+        <f t="shared" si="734"/>
+        <v>0.23880597014925373</v>
+      </c>
+      <c r="BE251">
+        <f t="shared" si="778"/>
+        <v>0.18378378378378379</v>
+      </c>
+      <c r="BF251">
+        <f t="shared" si="779"/>
+        <v>0.4264705882352941</v>
+      </c>
+      <c r="BG251">
+        <f t="shared" ref="BG251" si="957">SUM(AV245:AV251)/SUM(AU245:AU251)</f>
+        <v>0.24199606796349279</v>
+      </c>
+      <c r="BH251">
+        <f t="shared" ref="BH251" si="958">SUM(AV238:AV251)/SUM(AU238:AU251)</f>
+        <v>0.26315710060957209</v>
+      </c>
+      <c r="BI251">
+        <f t="shared" ref="BI251" si="959">SUM(AY245:AY251)/SUM(AX245:AX251)</f>
+        <v>0.29549902152641877</v>
+      </c>
+      <c r="BJ251">
+        <f t="shared" ref="BJ251" si="960">SUM(BA245:BA251)/SUM(AZ245:AZ251)</f>
+        <v>0.23754940711462449</v>
+      </c>
+      <c r="BK251">
+        <f t="shared" si="752"/>
+        <v>0.25390625</v>
+      </c>
+      <c r="BL251">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="BM251">
+        <v>0.22699999999999998</v>
+      </c>
+      <c r="BN251">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A252" s="14">
+        <f t="shared" si="877"/>
+        <v>44158</v>
+      </c>
+      <c r="B252" s="9">
+        <v>1167506</v>
+      </c>
+      <c r="C252">
+        <v>211718</v>
+      </c>
+      <c r="D252">
+        <v>116805</v>
+      </c>
+      <c r="E252" s="9">
+        <v>2202</v>
+      </c>
+      <c r="F252" s="9">
+        <v>1333</v>
+      </c>
+      <c r="H252">
+        <v>273</v>
+      </c>
+      <c r="I252">
+        <v>135</v>
+      </c>
+      <c r="J252">
+        <v>309</v>
+      </c>
+      <c r="K252">
+        <v>50</v>
+      </c>
+      <c r="L252">
+        <v>36</v>
+      </c>
+      <c r="M252" s="7">
+        <f t="shared" si="380"/>
+        <v>955788</v>
+      </c>
+      <c r="N252" s="4">
+        <f t="shared" si="894"/>
+        <v>0.18134210873434484</v>
+      </c>
+      <c r="Q252">
+        <f t="shared" ref="Q252" si="961">C252-C251</f>
+        <v>1663</v>
+      </c>
+      <c r="R252">
+        <f t="shared" ref="R252" si="962">M252-M251</f>
+        <v>3361</v>
+      </c>
+      <c r="S252" s="8">
+        <f t="shared" ref="S252" si="963">Q252/U252</f>
+        <v>0.33101114649681529</v>
+      </c>
+      <c r="T252" s="8">
+        <f t="shared" ref="T252" si="964">SUM(Q246:Q252)/SUM(U246:U252)</f>
+        <v>0.3983785700470634</v>
+      </c>
+      <c r="U252">
+        <f t="shared" ref="U252" si="965">B252-B251</f>
+        <v>5024</v>
+      </c>
+      <c r="V252">
+        <f t="shared" ref="V252" si="966">C252-D252-E252</f>
+        <v>92711</v>
+      </c>
+      <c r="W252" s="3">
+        <f t="shared" ref="W252" si="967">F252/V252</f>
+        <v>1.4378013396468596E-2</v>
+      </c>
+      <c r="X252">
+        <f t="shared" ref="X252" si="968">E252-E251</f>
+        <v>10</v>
+      </c>
+      <c r="Y252">
+        <v>1760</v>
+      </c>
+      <c r="Z252">
+        <v>894</v>
+      </c>
+      <c r="AA252">
+        <v>10209</v>
+      </c>
+      <c r="AB252">
+        <v>669</v>
+      </c>
+      <c r="AC252">
+        <v>451</v>
+      </c>
+      <c r="AD252">
+        <v>5568</v>
+      </c>
+      <c r="AE252">
+        <v>12</v>
+      </c>
+      <c r="AF252">
+        <v>3</v>
+      </c>
+      <c r="AG252">
+        <v>126</v>
+      </c>
+      <c r="AH252">
+        <f t="shared" ref="AH252" si="969">Y252-AB252-AE252</f>
+        <v>1079</v>
+      </c>
+      <c r="AI252">
+        <f t="shared" ref="AI252" si="970">Z252-AC252-AF252</f>
+        <v>440</v>
+      </c>
+      <c r="AJ252">
+        <f t="shared" ref="AJ252" si="971">AA252-AD252-AG252</f>
+        <v>4515</v>
+      </c>
+      <c r="AK252">
+        <f t="shared" si="956"/>
+        <v>41</v>
+      </c>
+      <c r="AL252">
+        <v>21</v>
+      </c>
+      <c r="AM252">
+        <v>21</v>
+      </c>
+      <c r="AN252">
+        <v>75</v>
+      </c>
+      <c r="AS252">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A252)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A252)</f>
+        <v>47</v>
+      </c>
+      <c r="AT252">
+        <f t="shared" si="940"/>
+        <v>1032</v>
+      </c>
+      <c r="AU252">
+        <v>6870</v>
+      </c>
+      <c r="AV252">
+        <v>1468</v>
+      </c>
+      <c r="AW252">
+        <f t="shared" si="684"/>
+        <v>0.21368267831149929</v>
+      </c>
+      <c r="AX252">
+        <v>28</v>
+      </c>
+      <c r="AY252">
+        <v>14</v>
+      </c>
+      <c r="AZ252">
+        <v>166</v>
+      </c>
+      <c r="BA252">
+        <v>29</v>
+      </c>
+      <c r="BB252">
+        <v>20</v>
+      </c>
+      <c r="BC252">
+        <v>5</v>
+      </c>
+      <c r="BD252">
+        <f t="shared" si="734"/>
+        <v>0.5</v>
+      </c>
+      <c r="BE252">
+        <f t="shared" si="778"/>
+        <v>0.1746987951807229</v>
+      </c>
+      <c r="BF252">
+        <f t="shared" si="779"/>
+        <v>0.68965517241379315</v>
+      </c>
+      <c r="BG252">
+        <f t="shared" ref="BG252" si="972">SUM(AV246:AV252)/SUM(AU246:AU252)</f>
+        <v>0.23629534540959446</v>
+      </c>
+      <c r="BH252">
+        <f t="shared" ref="BH252" si="973">SUM(AV239:AV252)/SUM(AU239:AU252)</f>
+        <v>0.25945836764500241</v>
+      </c>
+      <c r="BI252">
+        <f t="shared" ref="BI252" si="974">SUM(AY246:AY252)/SUM(AX246:AX252)</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="BJ252">
+        <f t="shared" ref="BJ252" si="975">SUM(BA246:BA252)/SUM(AZ246:AZ252)</f>
+        <v>0.22632020117351215</v>
+      </c>
+      <c r="BK252">
+        <f t="shared" si="752"/>
+        <v>0.24896265560165975</v>
+      </c>
+      <c r="BL252">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="BM252">
+        <v>0.222</v>
+      </c>
+      <c r="BN252">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A253" s="14">
+        <f t="shared" si="877"/>
+        <v>44159</v>
+      </c>
+      <c r="B253" s="9">
+        <v>1177279</v>
+      </c>
+      <c r="C253">
+        <v>215569</v>
+      </c>
+      <c r="D253">
+        <v>119681</v>
+      </c>
+      <c r="E253" s="9">
+        <v>2222</v>
+      </c>
+      <c r="F253" s="9">
+        <v>1351</v>
+      </c>
+      <c r="H253">
+        <v>275</v>
+      </c>
+      <c r="I253">
+        <v>165</v>
+      </c>
+      <c r="J253">
+        <v>313</v>
+      </c>
+      <c r="K253">
+        <v>53</v>
+      </c>
+      <c r="L253">
+        <v>39</v>
+      </c>
+      <c r="M253" s="7">
+        <f t="shared" si="380"/>
+        <v>961710</v>
+      </c>
+      <c r="N253" s="4">
+        <f t="shared" si="894"/>
+        <v>0.18310782745636336</v>
+      </c>
+      <c r="Q253">
+        <f t="shared" ref="Q253" si="976">C253-C252</f>
+        <v>3851</v>
+      </c>
+      <c r="R253">
+        <f t="shared" ref="R253" si="977">M253-M252</f>
+        <v>5922</v>
+      </c>
+      <c r="S253" s="8">
+        <f t="shared" ref="S253" si="978">Q253/U253</f>
+        <v>0.39404481735393432</v>
+      </c>
+      <c r="T253" s="8">
+        <f t="shared" ref="T253" si="979">SUM(Q247:Q253)/SUM(U247:U253)</f>
+        <v>0.39526423182170484</v>
+      </c>
+      <c r="U253">
+        <f t="shared" ref="U253" si="980">B253-B252</f>
+        <v>9773</v>
+      </c>
+      <c r="V253">
+        <f t="shared" ref="V253" si="981">C253-D253-E253</f>
+        <v>93666</v>
+      </c>
+      <c r="W253" s="3">
+        <f t="shared" ref="W253" si="982">F253/V253</f>
+        <v>1.4423590203488993E-2</v>
+      </c>
+      <c r="X253">
+        <f t="shared" ref="X253" si="983">E253-E252</f>
+        <v>20</v>
+      </c>
+      <c r="Y253">
+        <v>1830</v>
+      </c>
+      <c r="Z253">
+        <v>913</v>
+      </c>
+      <c r="AA253">
+        <v>10413</v>
+      </c>
+      <c r="AB253">
+        <v>704</v>
+      </c>
+      <c r="AC253">
+        <v>452</v>
+      </c>
+      <c r="AD253">
+        <v>5738</v>
+      </c>
+      <c r="AE253">
+        <v>12</v>
+      </c>
+      <c r="AF253">
+        <v>4</v>
+      </c>
+      <c r="AG253">
+        <v>127</v>
+      </c>
+      <c r="AH253">
+        <f t="shared" ref="AH253" si="984">Y253-AB253-AE253</f>
+        <v>1114</v>
+      </c>
+      <c r="AI253">
+        <f t="shared" ref="AI253" si="985">Z253-AC253-AF253</f>
+        <v>457</v>
+      </c>
+      <c r="AJ253">
+        <f t="shared" ref="AJ253" si="986">AA253-AD253-AG253</f>
+        <v>4548</v>
+      </c>
+      <c r="AK253">
+        <f t="shared" ref="AK253" si="987">-(J253-J252)+L253</f>
+        <v>35</v>
+      </c>
+      <c r="AL253">
+        <v>20</v>
+      </c>
+      <c r="AM253">
+        <v>20</v>
+      </c>
+      <c r="AN253">
+        <v>61</v>
+      </c>
+      <c r="AS253">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A253)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A253)</f>
+        <v>48</v>
+      </c>
+      <c r="AT253">
+        <f t="shared" ref="AT253" si="988">AH253-AS253</f>
+        <v>1066</v>
+      </c>
+      <c r="AU253">
+        <v>8101</v>
+      </c>
+      <c r="AV253">
+        <v>1800</v>
+      </c>
+      <c r="AW253">
+        <f t="shared" si="684"/>
+        <v>0.22219479076657203</v>
+      </c>
+      <c r="AX253">
+        <v>80</v>
+      </c>
+      <c r="AY253">
+        <v>22</v>
+      </c>
+      <c r="AZ253">
+        <v>404</v>
+      </c>
+      <c r="BA253">
+        <v>78</v>
+      </c>
+      <c r="BB253">
+        <v>34</v>
+      </c>
+      <c r="BC253">
+        <v>7</v>
+      </c>
+      <c r="BD253">
+        <f t="shared" si="734"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="BE253">
+        <f t="shared" si="778"/>
+        <v>0.19306930693069307</v>
+      </c>
+      <c r="BF253">
+        <f t="shared" si="779"/>
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="BG253">
+        <f t="shared" ref="BG253" si="989">SUM(AV247:AV253)/SUM(AU247:AU253)</f>
+        <v>0.23351116191927854</v>
+      </c>
+      <c r="BH253">
+        <f t="shared" ref="BH253" si="990">SUM(AV240:AV253)/SUM(AU240:AU253)</f>
+        <v>0.25466658286719879</v>
+      </c>
+      <c r="BI253">
+        <f t="shared" ref="BI253" si="991">SUM(AY247:AY253)/SUM(AX247:AX253)</f>
+        <v>0.30598669623059865</v>
+      </c>
+      <c r="BJ253">
+        <f t="shared" ref="BJ253" si="992">SUM(BA247:BA253)/SUM(AZ247:AZ253)</f>
+        <v>0.2165732586068855</v>
+      </c>
+      <c r="BK253">
+        <f t="shared" si="752"/>
+        <v>0.24050632911392406</v>
+      </c>
+      <c r="BL253">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="BM253">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="BN253">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="254" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A254" s="14">
+        <f t="shared" si="877"/>
+        <v>44160</v>
+      </c>
+      <c r="B254" s="9">
+        <v>1185848</v>
+      </c>
+      <c r="C254">
+        <v>218943</v>
+      </c>
+      <c r="D254">
+        <v>122048</v>
+      </c>
+      <c r="E254" s="9">
+        <v>2271</v>
+      </c>
+      <c r="F254" s="9">
+        <v>1305</v>
+      </c>
+      <c r="H254">
+        <v>269</v>
+      </c>
+      <c r="I254">
+        <v>198</v>
+      </c>
+      <c r="J254">
+        <v>313</v>
+      </c>
+      <c r="K254">
+        <v>47</v>
+      </c>
+      <c r="L254">
+        <v>42</v>
+      </c>
+      <c r="M254" s="7">
+        <f t="shared" si="380"/>
+        <v>966905</v>
+      </c>
+      <c r="N254" s="4">
+        <f t="shared" si="894"/>
+        <v>0.18462990197731918</v>
+      </c>
+      <c r="Q254">
+        <f t="shared" ref="Q254" si="993">C254-C253</f>
+        <v>3374</v>
+      </c>
+      <c r="R254">
+        <f t="shared" ref="R254" si="994">M254-M253</f>
+        <v>5195</v>
+      </c>
+      <c r="S254" s="8">
+        <f t="shared" ref="S254" si="995">Q254/U254</f>
+        <v>0.39374489438674293</v>
+      </c>
+      <c r="T254" s="8">
+        <f t="shared" ref="T254" si="996">SUM(Q248:Q254)/SUM(U248:U254)</f>
+        <v>0.39224766452481291</v>
+      </c>
+      <c r="U254">
+        <f t="shared" ref="U254" si="997">B254-B253</f>
+        <v>8569</v>
+      </c>
+      <c r="V254">
+        <f t="shared" ref="V254" si="998">C254-D254-E254</f>
+        <v>94624</v>
+      </c>
+      <c r="W254" s="3">
+        <f t="shared" ref="W254" si="999">F254/V254</f>
+        <v>1.3791427122083193E-2</v>
+      </c>
+      <c r="X254">
+        <f t="shared" ref="X254" si="1000">E254-E253</f>
+        <v>49</v>
+      </c>
+      <c r="Y254">
+        <v>1881</v>
+      </c>
+      <c r="Z254">
+        <v>950</v>
+      </c>
+      <c r="AA254">
+        <v>10600</v>
+      </c>
+      <c r="AB254">
+        <v>722</v>
+      </c>
+      <c r="AC254">
+        <v>453</v>
+      </c>
+      <c r="AD254">
+        <v>5875</v>
+      </c>
+      <c r="AE254">
+        <v>12</v>
+      </c>
+      <c r="AF254">
+        <v>5</v>
+      </c>
+      <c r="AG254">
+        <v>131</v>
+      </c>
+      <c r="AH254">
+        <f t="shared" ref="AH254" si="1001">Y254-AB254-AE254</f>
+        <v>1147</v>
+      </c>
+      <c r="AI254">
+        <f t="shared" ref="AI254" si="1002">Z254-AC254-AF254</f>
+        <v>492</v>
+      </c>
+      <c r="AJ254">
+        <f t="shared" ref="AJ254" si="1003">AA254-AD254-AG254</f>
+        <v>4594</v>
+      </c>
+      <c r="AK254">
+        <f t="shared" ref="AK254" si="1004">-(J254-J253)+L254</f>
+        <v>42</v>
+      </c>
+      <c r="AL254">
+        <v>15</v>
+      </c>
+      <c r="AM254">
+        <v>15</v>
+      </c>
+      <c r="AN254">
+        <v>48</v>
+      </c>
+      <c r="AS254">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A254)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A254)</f>
+        <v>49</v>
+      </c>
+      <c r="AT254">
+        <f t="shared" ref="AT254" si="1005">AH254-AS254</f>
+        <v>1098</v>
+      </c>
+      <c r="AU254">
+        <v>7167</v>
+      </c>
+      <c r="AV254">
+        <v>1576</v>
+      </c>
+      <c r="AW254">
+        <f t="shared" si="684"/>
+        <v>0.21989674898841916</v>
+      </c>
+      <c r="AX254">
+        <v>67</v>
+      </c>
+      <c r="AY254">
+        <v>21</v>
+      </c>
+      <c r="AZ254">
+        <v>245</v>
+      </c>
+      <c r="BA254">
+        <v>51</v>
+      </c>
+      <c r="BB254">
+        <v>22</v>
+      </c>
+      <c r="BC254">
+        <v>8</v>
+      </c>
+      <c r="BD254">
+        <f t="shared" si="734"/>
+        <v>0.31343283582089554</v>
+      </c>
+      <c r="BE254">
+        <f t="shared" si="778"/>
+        <v>0.20816326530612245</v>
+      </c>
+      <c r="BF254">
+        <f t="shared" si="779"/>
+        <v>0.43137254901960786</v>
+      </c>
+      <c r="BG254">
+        <f t="shared" ref="BG254" si="1006">SUM(AV248:AV254)/SUM(AU248:AU254)</f>
+        <v>0.22808233530521124</v>
+      </c>
+      <c r="BH254">
+        <f t="shared" ref="BH254" si="1007">SUM(AV241:AV254)/SUM(AU241:AU254)</f>
+        <v>0.25041763852991239</v>
+      </c>
+      <c r="BI254">
+        <f t="shared" ref="BI254" si="1008">SUM(AY248:AY254)/SUM(AX248:AX254)</f>
+        <v>0.30701754385964913</v>
+      </c>
+      <c r="BJ254">
+        <f t="shared" ref="BJ254" si="1009">SUM(BA248:BA254)/SUM(AZ248:AZ254)</f>
+        <v>0.21283643892339543</v>
+      </c>
+      <c r="BK254">
+        <f t="shared" si="752"/>
+        <v>0.26431718061674009</v>
+      </c>
+      <c r="BL254">
+        <v>0.26899999999999996</v>
+      </c>
+      <c r="BM254">
+        <v>0.19699999999999998</v>
+      </c>
+      <c r="BN254">
+        <v>0.19399999999999998</v>
+      </c>
+    </row>
+    <row r="255" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A255" s="14">
+        <f t="shared" si="877"/>
+        <v>44161</v>
+      </c>
+      <c r="B255" s="9">
+        <v>1194529</v>
+      </c>
+      <c r="C255">
+        <v>222278</v>
+      </c>
+      <c r="D255">
+        <v>124521</v>
+      </c>
+      <c r="E255" s="9">
+        <v>2312</v>
+      </c>
+      <c r="F255" s="9">
+        <v>1269</v>
+      </c>
+      <c r="H255">
+        <v>271</v>
+      </c>
+      <c r="I255">
+        <v>193</v>
+      </c>
+      <c r="J255">
+        <v>308</v>
+      </c>
+      <c r="K255">
+        <v>43</v>
+      </c>
+      <c r="L255">
+        <v>44</v>
+      </c>
+      <c r="M255" s="7">
+        <f t="shared" si="380"/>
+        <v>972251</v>
+      </c>
+      <c r="N255" s="4">
+        <f t="shared" ref="N255:N258" si="1010">C255/B255</f>
+        <v>0.18608003656671374</v>
+      </c>
+      <c r="Q255">
+        <f t="shared" ref="Q255" si="1011">C255-C254</f>
+        <v>3335</v>
+      </c>
+      <c r="R255">
+        <f t="shared" ref="R255" si="1012">M255-M254</f>
+        <v>5346</v>
+      </c>
+      <c r="S255" s="8">
+        <f t="shared" ref="S255" si="1013">Q255/U255</f>
+        <v>0.38417233037668469</v>
+      </c>
+      <c r="T255" s="8">
+        <f t="shared" ref="T255" si="1014">SUM(Q249:Q255)/SUM(U249:U255)</f>
+        <v>0.38954168658020072</v>
+      </c>
+      <c r="U255">
+        <f t="shared" ref="U255" si="1015">B255-B254</f>
+        <v>8681</v>
+      </c>
+      <c r="V255">
+        <f t="shared" ref="V255" si="1016">C255-D255-E255</f>
+        <v>95445</v>
+      </c>
+      <c r="W255" s="3">
+        <f t="shared" ref="W255" si="1017">F255/V255</f>
+        <v>1.3295615275813296E-2</v>
+      </c>
+      <c r="X255">
+        <f t="shared" ref="X255" si="1018">E255-E254</f>
+        <v>41</v>
+      </c>
+      <c r="Y255">
+        <v>1907</v>
+      </c>
+      <c r="Z255">
+        <v>964</v>
+      </c>
+      <c r="AA255">
+        <v>10724</v>
+      </c>
+      <c r="AB255">
+        <v>742</v>
+      </c>
+      <c r="AC255">
+        <v>453</v>
+      </c>
+      <c r="AD255">
+        <v>6030</v>
+      </c>
+      <c r="AE255">
+        <v>12</v>
+      </c>
+      <c r="AF255">
+        <v>6</v>
+      </c>
+      <c r="AG255">
+        <v>132</v>
+      </c>
+      <c r="AH255">
+        <f t="shared" ref="AH255" si="1019">Y255-AB255-AE255</f>
+        <v>1153</v>
+      </c>
+      <c r="AI255">
+        <f t="shared" ref="AI255" si="1020">Z255-AC255-AF255</f>
+        <v>505</v>
+      </c>
+      <c r="AJ255">
+        <f t="shared" ref="AJ255" si="1021">AA255-AD255-AG255</f>
+        <v>4562</v>
+      </c>
+      <c r="AK255">
+        <f t="shared" ref="AK255:AK258" si="1022">-(J255-J254)+L255</f>
+        <v>49</v>
+      </c>
+      <c r="AL255">
+        <v>9</v>
+      </c>
+      <c r="AM255">
+        <v>9</v>
+      </c>
+      <c r="AN255">
+        <v>35</v>
+      </c>
+      <c r="AS255">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A255)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A255)</f>
+        <v>58</v>
+      </c>
+      <c r="AT255">
+        <f t="shared" ref="AT255:AT257" si="1023">AH255-AS255</f>
+        <v>1095</v>
+      </c>
+      <c r="AU255">
+        <v>8712</v>
+      </c>
+      <c r="AV255">
+        <v>1923</v>
+      </c>
+      <c r="AW255">
+        <f t="shared" si="684"/>
+        <v>0.22073002754820936</v>
+      </c>
+      <c r="AX255">
+        <v>52</v>
+      </c>
+      <c r="AY255">
+        <v>9</v>
+      </c>
+      <c r="AZ255">
+        <v>292</v>
+      </c>
+      <c r="BA255">
+        <v>46</v>
+      </c>
+      <c r="BB255">
+        <v>25</v>
+      </c>
+      <c r="BC255">
+        <v>8</v>
+      </c>
+      <c r="BD255">
+        <f t="shared" si="734"/>
+        <v>0.17307692307692307</v>
+      </c>
+      <c r="BE255">
+        <f t="shared" si="778"/>
+        <v>0.15753424657534246</v>
+      </c>
+      <c r="BF255">
+        <f t="shared" si="779"/>
+        <v>0.54347826086956519</v>
+      </c>
+      <c r="BG255">
+        <f t="shared" ref="BG255" si="1024">SUM(AV249:AV255)/SUM(AU249:AU255)</f>
+        <v>0.22562157465579469</v>
+      </c>
+      <c r="BH255">
+        <f t="shared" ref="BH255" si="1025">SUM(AV242:AV255)/SUM(AU242:AU255)</f>
+        <v>0.24523398253648795</v>
+      </c>
+      <c r="BI255">
+        <f t="shared" ref="BI255" si="1026">SUM(AY249:AY255)/SUM(AX249:AX255)</f>
+        <v>0.29655172413793102</v>
+      </c>
+      <c r="BJ255">
+        <f t="shared" ref="BJ255" si="1027">SUM(BA249:BA255)/SUM(AZ249:AZ255)</f>
+        <v>0.19956803455723543</v>
+      </c>
+      <c r="BK255">
+        <f t="shared" si="752"/>
+        <v>0.27403846153846156</v>
+      </c>
+      <c r="BL255">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="BM255">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="BN255">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A256" s="14">
+        <f t="shared" si="877"/>
+        <v>44162</v>
+      </c>
+      <c r="B256" s="9">
+        <v>1197769</v>
+      </c>
+      <c r="C256">
+        <v>223538</v>
+      </c>
+      <c r="D256">
+        <v>127349</v>
+      </c>
+      <c r="E256" s="9">
+        <v>2349</v>
+      </c>
+      <c r="F256" s="9">
+        <v>1226</v>
+      </c>
+      <c r="H256">
+        <v>256</v>
+      </c>
+      <c r="I256">
+        <v>183</v>
+      </c>
+      <c r="J256">
+        <v>289</v>
+      </c>
+      <c r="K256">
+        <v>42</v>
+      </c>
+      <c r="L256">
+        <v>41</v>
+      </c>
+      <c r="M256" s="7">
+        <f t="shared" si="380"/>
+        <v>974231</v>
+      </c>
+      <c r="N256" s="4">
+        <f t="shared" si="1010"/>
+        <v>0.18662864041396965</v>
+      </c>
+      <c r="Q256">
+        <f t="shared" ref="Q256" si="1028">C256-C255</f>
+        <v>1260</v>
+      </c>
+      <c r="R256">
+        <f t="shared" ref="R256" si="1029">M256-M255</f>
+        <v>1980</v>
+      </c>
+      <c r="S256" s="8">
+        <f t="shared" ref="S256" si="1030">Q256/U256</f>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="T256" s="8">
+        <f t="shared" ref="T256" si="1031">SUM(Q250:Q256)/SUM(U250:U256)</f>
+        <v>0.38628104464403396</v>
+      </c>
+      <c r="U256">
+        <f t="shared" ref="U256" si="1032">B256-B255</f>
+        <v>3240</v>
+      </c>
+      <c r="V256">
+        <f t="shared" ref="V256" si="1033">C256-D256-E256</f>
+        <v>93840</v>
+      </c>
+      <c r="W256" s="3">
+        <f t="shared" ref="W256" si="1034">F256/V256</f>
+        <v>1.3064791133844842E-2</v>
+      </c>
+      <c r="X256">
+        <f t="shared" ref="X256" si="1035">E256-E255</f>
+        <v>37</v>
+      </c>
+      <c r="Y256">
+        <v>1915</v>
+      </c>
+      <c r="Z256">
+        <v>977</v>
+      </c>
+      <c r="AA256">
+        <v>10736</v>
+      </c>
+      <c r="AB256">
+        <v>780</v>
+      </c>
+      <c r="AC256">
+        <v>457</v>
+      </c>
+      <c r="AD256">
+        <v>6242</v>
+      </c>
+      <c r="AE256">
+        <v>12</v>
+      </c>
+      <c r="AF256">
+        <v>6</v>
+      </c>
+      <c r="AG256">
+        <v>134</v>
+      </c>
+      <c r="AH256">
+        <f t="shared" ref="AH256" si="1036">Y256-AB256-AE256</f>
+        <v>1123</v>
+      </c>
+      <c r="AI256">
+        <f t="shared" ref="AI256" si="1037">Z256-AC256-AF256</f>
+        <v>514</v>
+      </c>
+      <c r="AJ256">
+        <f t="shared" ref="AJ256" si="1038">AA256-AD256-AG256</f>
+        <v>4360</v>
+      </c>
+      <c r="AK256">
+        <f t="shared" si="1022"/>
+        <v>60</v>
+      </c>
+      <c r="AS256">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A256)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A256)</f>
+        <v>59</v>
+      </c>
+      <c r="AT256">
+        <f t="shared" si="1023"/>
+        <v>1064</v>
+      </c>
+      <c r="AU256">
+        <v>5495</v>
+      </c>
+      <c r="AV256">
+        <v>1185</v>
+      </c>
+      <c r="AW256">
+        <f t="shared" si="684"/>
+        <v>0.21565059144676979</v>
+      </c>
+      <c r="AX256">
+        <v>42</v>
+      </c>
+      <c r="AY256">
+        <v>10</v>
+      </c>
+      <c r="AZ256">
+        <v>243</v>
+      </c>
+      <c r="BA256">
+        <v>54</v>
+      </c>
+      <c r="BB256">
+        <v>26</v>
+      </c>
+      <c r="BC256">
+        <v>10</v>
+      </c>
+      <c r="BD256">
+        <f t="shared" si="734"/>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="BE256">
+        <f t="shared" si="778"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="BF256">
+        <f>BB256/BA256</f>
+        <v>0.48148148148148145</v>
+      </c>
+      <c r="BG256">
+        <f t="shared" ref="BG256" si="1039">SUM(AV250:AV256)/SUM(AU250:AU256)</f>
+        <v>0.22317022468863543</v>
+      </c>
+      <c r="BH256">
+        <f t="shared" ref="BH256" si="1040">SUM(AV243:AV256)/SUM(AU243:AU256)</f>
+        <v>0.2403167711057384</v>
+      </c>
+      <c r="BI256">
+        <f t="shared" ref="BI256" si="1041">SUM(AY250:AY256)/SUM(AX250:AX256)</f>
+        <v>0.26649746192893403</v>
+      </c>
+      <c r="BJ256">
+        <f t="shared" ref="BJ256" si="1042">SUM(BA250:BA256)/SUM(AZ250:AZ256)</f>
+        <v>0.19915848527349228</v>
+      </c>
+      <c r="BK256">
+        <f t="shared" si="752"/>
+        <v>0.26943005181347152</v>
+      </c>
+      <c r="BL256">
+        <v>0.252</v>
+      </c>
+      <c r="BM256">
+        <v>0.184</v>
+      </c>
+      <c r="BN256">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A257" s="14">
+        <f t="shared" si="877"/>
+        <v>44163</v>
+      </c>
+      <c r="B257" s="9">
+        <v>1203506</v>
+      </c>
+      <c r="C257">
+        <v>225780</v>
+      </c>
+      <c r="D257">
+        <v>130008</v>
+      </c>
+      <c r="E257" s="9">
+        <v>2360</v>
+      </c>
+      <c r="F257" s="9">
+        <v>1221</v>
+      </c>
+      <c r="H257">
+        <v>244</v>
+      </c>
+      <c r="I257">
+        <v>127</v>
+      </c>
+      <c r="J257">
+        <v>267</v>
+      </c>
+      <c r="K257">
+        <v>37</v>
+      </c>
+      <c r="L257">
+        <v>18</v>
+      </c>
+      <c r="M257" s="7">
+        <f t="shared" si="380"/>
+        <v>977726</v>
+      </c>
+      <c r="N257" s="4">
+        <f t="shared" si="1010"/>
+        <v>0.18760188981193279</v>
+      </c>
+      <c r="Q257">
+        <f t="shared" ref="Q257" si="1043">C257-C256</f>
+        <v>2242</v>
+      </c>
+      <c r="R257">
+        <f t="shared" ref="R257" si="1044">M257-M256</f>
+        <v>3495</v>
+      </c>
+      <c r="S257" s="8">
+        <f t="shared" ref="S257" si="1045">Q257/U257</f>
+        <v>0.39079658358026842</v>
+      </c>
+      <c r="T257" s="8">
+        <f t="shared" ref="T257" si="1046">SUM(Q251:Q257)/SUM(U251:U257)</f>
+        <v>0.38488000160936653</v>
+      </c>
+      <c r="U257">
+        <f t="shared" ref="U257" si="1047">B257-B256</f>
+        <v>5737</v>
+      </c>
+      <c r="V257">
+        <f t="shared" ref="V257:V258" si="1048">C257-D257-E257</f>
+        <v>93412</v>
+      </c>
+      <c r="W257" s="3">
+        <f t="shared" ref="W257:W258" si="1049">F257/V257</f>
+        <v>1.3071125765426284E-2</v>
+      </c>
+      <c r="X257">
+        <f t="shared" ref="X257" si="1050">E257-E256</f>
+        <v>11</v>
+      </c>
+      <c r="Y257">
+        <v>1928</v>
+      </c>
+      <c r="Z257">
+        <v>992</v>
+      </c>
+      <c r="AA257">
+        <v>10813</v>
+      </c>
+      <c r="AB257">
+        <v>816</v>
+      </c>
+      <c r="AC257">
+        <v>462</v>
+      </c>
+      <c r="AD257">
+        <v>6419</v>
+      </c>
+      <c r="AE257">
+        <v>12</v>
+      </c>
+      <c r="AF257">
+        <v>6</v>
+      </c>
+      <c r="AG257">
+        <v>134</v>
+      </c>
+      <c r="AH257">
+        <f t="shared" ref="AH257" si="1051">Y257-AB257-AE257</f>
+        <v>1100</v>
+      </c>
+      <c r="AI257">
+        <f t="shared" ref="AI257" si="1052">Z257-AC257-AF257</f>
+        <v>524</v>
+      </c>
+      <c r="AJ257">
+        <f>AA257-AD257-AG257</f>
+        <v>4260</v>
+      </c>
+      <c r="AK257">
+        <f t="shared" si="1022"/>
+        <v>40</v>
+      </c>
+      <c r="AS257">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A257)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A257)</f>
+        <v>59</v>
+      </c>
+      <c r="AT257">
+        <f t="shared" si="1023"/>
+        <v>1041</v>
+      </c>
+      <c r="AU257">
+        <v>4834</v>
+      </c>
+      <c r="AV257">
+        <v>928</v>
+      </c>
+      <c r="AW257">
+        <f t="shared" si="684"/>
+        <v>0.19197352089366984</v>
+      </c>
+      <c r="AX257">
+        <v>37</v>
+      </c>
+      <c r="AY257">
+        <v>5</v>
+      </c>
+      <c r="AZ257">
+        <v>245</v>
+      </c>
+      <c r="BA257">
+        <v>39</v>
+      </c>
+      <c r="BB257">
+        <v>25</v>
+      </c>
+      <c r="BC257">
+        <v>6</v>
+      </c>
+      <c r="BD257">
+        <f t="shared" si="734"/>
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="BE257">
+        <f t="shared" si="778"/>
+        <v>0.15918367346938775</v>
+      </c>
+      <c r="BF257">
+        <f t="shared" si="779"/>
+        <v>0.64102564102564108</v>
+      </c>
+      <c r="BG257">
+        <f t="shared" ref="BG257" si="1053">SUM(AV251:AV257)/SUM(AU251:AU257)</f>
+        <v>0.21745266850817591</v>
+      </c>
+      <c r="BH257">
+        <f t="shared" ref="BH257" si="1054">SUM(AV244:AV257)/SUM(AU244:AU257)</f>
+        <v>0.23357530333604129</v>
+      </c>
+      <c r="BI257">
+        <f t="shared" ref="BI257" si="1055">SUM(AY251:AY257)/SUM(AX251:AX257)</f>
+        <v>0.26005361930294907</v>
+      </c>
+      <c r="BJ257">
+        <f t="shared" ref="BJ257" si="1056">SUM(BA251:BA257)/SUM(AZ251:AZ257)</f>
+        <v>0.18575063613231552</v>
+      </c>
+      <c r="BK257">
+        <f>SUM(BC251:BC257)/SUM(BB251:BB257)</f>
+        <v>0.27624309392265195</v>
+      </c>
+      <c r="BL257">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="BM257">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="BN257">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="258" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A258" s="14">
+        <f t="shared" si="877"/>
+        <v>44164</v>
+      </c>
+      <c r="B258" s="9">
+        <v>1208053</v>
+      </c>
+      <c r="C258">
+        <v>227796</v>
+      </c>
+      <c r="D258">
+        <v>131098</v>
+      </c>
+      <c r="E258" s="9">
+        <v>2375</v>
+      </c>
+      <c r="F258" s="9">
+        <v>1175</v>
+      </c>
+      <c r="H258">
+        <v>235</v>
+      </c>
+      <c r="I258">
+        <v>131</v>
+      </c>
+      <c r="J258">
+        <v>253</v>
+      </c>
+      <c r="K258">
+        <v>38</v>
+      </c>
+      <c r="L258">
+        <v>30</v>
+      </c>
+      <c r="M258" s="7">
+        <f t="shared" si="380"/>
+        <v>980257</v>
+      </c>
+      <c r="N258" s="4">
+        <f t="shared" si="1010"/>
+        <v>0.18856457456750655</v>
+      </c>
+      <c r="Q258">
+        <f t="shared" ref="Q258" si="1057">C258-C257</f>
+        <v>2016</v>
+      </c>
+      <c r="R258">
+        <f t="shared" ref="R258" si="1058">M258-M257</f>
+        <v>2531</v>
+      </c>
+      <c r="S258" s="8">
+        <f t="shared" ref="S258" si="1059">Q258/U258</f>
+        <v>0.44336925445348579</v>
+      </c>
+      <c r="T258" s="8">
+        <f t="shared" ref="T258" si="1060">SUM(Q252:Q258)/SUM(U252:U258)</f>
+        <v>0.38930460161067343</v>
+      </c>
+      <c r="U258">
+        <f t="shared" ref="U258" si="1061">B258-B257</f>
+        <v>4547</v>
+      </c>
+      <c r="V258">
+        <f t="shared" ref="V258" si="1062">C258-D258-E258</f>
+        <v>94323</v>
+      </c>
+      <c r="W258" s="3">
+        <f t="shared" ref="W258" si="1063">F258/V258</f>
+        <v>1.2457194957751556E-2</v>
+      </c>
+      <c r="X258">
+        <f t="shared" ref="X258" si="1064">E258-E257</f>
+        <v>15</v>
+      </c>
+      <c r="AK258">
+        <f t="shared" si="1022"/>
+        <v>44</v>
+      </c>
+      <c r="AU258">
+        <v>4853</v>
+      </c>
+      <c r="AV258">
+        <v>1171</v>
+      </c>
+      <c r="AW258">
+        <f t="shared" si="684"/>
+        <v>0.24129404492066764</v>
+      </c>
+      <c r="AX258">
+        <v>35</v>
+      </c>
+      <c r="AY258">
+        <v>7</v>
+      </c>
+      <c r="AZ258">
+        <v>168</v>
+      </c>
+      <c r="BA258">
+        <v>27</v>
+      </c>
+      <c r="BB258">
+        <v>10</v>
+      </c>
+      <c r="BC258">
+        <v>4</v>
+      </c>
+      <c r="BD258">
+        <f t="shared" si="734"/>
+        <v>0.2</v>
+      </c>
+      <c r="BE258">
+        <f t="shared" si="778"/>
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="BF258">
+        <f t="shared" si="779"/>
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="BG258">
+        <f t="shared" ref="BG258" si="1065">SUM(AV252:AV258)/SUM(AU252:AU258)</f>
+        <v>0.2183481056656239</v>
+      </c>
+      <c r="BH258">
+        <f t="shared" ref="BH258" si="1066">SUM(AV245:AV258)/SUM(AU245:AU258)</f>
+        <v>0.23197200607762788</v>
+      </c>
+      <c r="BI258">
+        <f t="shared" ref="BI258" si="1067">SUM(AY252:AY258)/SUM(AX252:AX258)</f>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="BJ258">
+        <f t="shared" ref="BJ258" si="1068">SUM(BA252:BA258)/SUM(AZ252:AZ258)</f>
+        <v>0.18377765173000568</v>
+      </c>
+      <c r="BK258">
+        <f>SUM(BC252:BC258)/SUM(BB252:BB258)</f>
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="BL258">
+        <v>0.246</v>
+      </c>
+      <c r="BM258">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="BN258">
+        <v>0.20200000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -29903,7 +31728,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>Q228:Q249</xm:sqref>
+          <xm:sqref>Q228:Q258</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="22" operator="equal" id="{E5309D98-D036-43E8-AE0C-F104DC358831}">
@@ -29919,7 +31744,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>X228:X249</xm:sqref>
+          <xm:sqref>X228:X258</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5269D26C-9211-46B2-914A-48345DF37DEF}">
@@ -29935,7 +31760,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F228:F249</xm:sqref>
+          <xm:sqref>F228:F258</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="20" operator="equal" id="{24843253-84F3-44AF-847D-C74D74C4F05A}">
@@ -29967,7 +31792,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J228:J249</xm:sqref>
+          <xm:sqref>J228:J258</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="18" operator="equal" id="{6F562D16-6A18-4369-973E-028D1B5F7CFF}">
@@ -29983,7 +31808,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K228:K249</xm:sqref>
+          <xm:sqref>K228:K258</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{735BDD8A-2F04-47F3-825F-41FCBFA8ADD5}">
@@ -30047,7 +31872,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AH228:AH248</xm:sqref>
+          <xm:sqref>AH228:AH257</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="12" operator="equal" id="{A5D8B9CD-D171-4616-8063-8E2F3DB2617E}">
@@ -30063,7 +31888,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AI228:AI248</xm:sqref>
+          <xm:sqref>AI228:AI257</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="11" operator="equal" id="{525B83D9-8CB5-4E31-BB6E-B59F9B6585E1}">
@@ -30223,7 +32048,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H1:H1048576 I229:I249</xm:sqref>
+          <xm:sqref>H1:H1048576 I229:I258</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{8F0BE21B-C8AC-4EAD-AE58-244C59D5B0FC}">
@@ -30239,7 +32064,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>V229:V249</xm:sqref>
+          <xm:sqref>V229:V258</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -30249,11 +32074,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5E6789-177F-4707-8258-EFFA27DED671}">
-  <dimension ref="A1:H226"/>
+  <dimension ref="A1:H230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G180" sqref="G180:H226"/>
+      <selection pane="bottomLeft" activeCell="G225" sqref="G225:H230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35244,11 +37069,11 @@
         <v>44148</v>
       </c>
       <c r="G181" s="1">
-        <f t="shared" ref="G181:G226" si="20">C181+10</f>
+        <f t="shared" ref="G181:G225" si="20">C181+10</f>
         <v>44148</v>
       </c>
       <c r="H181" s="1">
-        <f t="shared" ref="H181:H226" si="21">C181+28</f>
+        <f t="shared" ref="H181:H225" si="21">C181+28</f>
         <v>44166</v>
       </c>
     </row>
@@ -36504,12 +38329,124 @@
         <v>44156</v>
       </c>
       <c r="G226" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="G226:G230" si="22">C226+10</f>
         <v>44156</v>
       </c>
       <c r="H226" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="H226:H230" si="23">C226+28</f>
         <v>44174</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>1225498</v>
+      </c>
+      <c r="B227" t="s">
+        <v>440</v>
+      </c>
+      <c r="C227" s="1">
+        <v>44155</v>
+      </c>
+      <c r="D227" s="1">
+        <v>44245</v>
+      </c>
+      <c r="E227">
+        <v>44183</v>
+      </c>
+      <c r="F227">
+        <v>44165</v>
+      </c>
+      <c r="G227" s="1">
+        <f t="shared" si="22"/>
+        <v>44165</v>
+      </c>
+      <c r="H227" s="1">
+        <f t="shared" si="23"/>
+        <v>44183</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>1221926</v>
+      </c>
+      <c r="B228" t="s">
+        <v>441</v>
+      </c>
+      <c r="C228" s="1">
+        <v>44155</v>
+      </c>
+      <c r="D228" s="1">
+        <v>44245</v>
+      </c>
+      <c r="E228">
+        <v>44183</v>
+      </c>
+      <c r="F228">
+        <v>44165</v>
+      </c>
+      <c r="G228" s="1">
+        <f t="shared" si="22"/>
+        <v>44165</v>
+      </c>
+      <c r="H228" s="1">
+        <f t="shared" si="23"/>
+        <v>44183</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>1241394</v>
+      </c>
+      <c r="B229" t="s">
+        <v>442</v>
+      </c>
+      <c r="C229" s="1">
+        <v>44151</v>
+      </c>
+      <c r="D229" s="1">
+        <v>44241</v>
+      </c>
+      <c r="E229">
+        <v>44179</v>
+      </c>
+      <c r="F229">
+        <v>44161</v>
+      </c>
+      <c r="G229" s="1">
+        <f t="shared" si="22"/>
+        <v>44161</v>
+      </c>
+      <c r="H229" s="1">
+        <f t="shared" si="23"/>
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>1222644</v>
+      </c>
+      <c r="B230" t="s">
+        <v>443</v>
+      </c>
+      <c r="C230" s="1">
+        <v>44150</v>
+      </c>
+      <c r="D230" s="1">
+        <v>44240</v>
+      </c>
+      <c r="E230">
+        <v>44178</v>
+      </c>
+      <c r="F230">
+        <v>44160</v>
+      </c>
+      <c r="G230" s="1">
+        <f t="shared" si="22"/>
+        <v>44160</v>
+      </c>
+      <c r="H230" s="1">
+        <f t="shared" si="23"/>
+        <v>44178</v>
       </c>
     </row>
   </sheetData>
@@ -36691,7 +38628,7 @@
       </c>
       <c r="O2">
         <f>MAX(covid19!V:V)</f>
-        <v>86603</v>
+        <v>95445</v>
       </c>
       <c r="P2">
         <f>MAX(covid19!W:W)</f>
@@ -36699,7 +38636,7 @@
       </c>
       <c r="Q2">
         <f>MAX(covid19!X:X)</f>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="R2">
         <f>MAX(covid19!AE:AE)</f>
@@ -36707,23 +38644,23 @@
       </c>
       <c r="S2">
         <f>MAX(covid19!AF:AF)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T2">
         <f>MAX(covid19!AG:AG)</f>
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="U2">
         <f>MAX(covid19!AH:AH)</f>
-        <v>966</v>
+        <v>1153</v>
       </c>
       <c r="V2">
         <f>MAX(covid19!AI:AI)</f>
-        <v>384</v>
+        <v>524</v>
       </c>
       <c r="W2">
         <f>MAX(covid19!AJ:AJ)</f>
-        <v>4155</v>
+        <v>4594</v>
       </c>
       <c r="X2">
         <f>MAX(covid19!AL:AL)</f>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79276C30-185D-4B48-B4BC-C0C86BEB18EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E631ADDD-3124-493A-9800-BB7E44DBFD99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2525,10 +2525,10 @@
   <dimension ref="A1:BN258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BG243" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X243" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BP258" sqref="BP258"/>
+      <selection pane="bottomRight" activeCell="AH257" sqref="AH257:AJ258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31422,11 +31422,11 @@
         <v>5737</v>
       </c>
       <c r="V257">
-        <f t="shared" ref="V257:V258" si="1048">C257-D257-E257</f>
+        <f t="shared" ref="V257" si="1048">C257-D257-E257</f>
         <v>93412</v>
       </c>
       <c r="W257" s="3">
-        <f t="shared" ref="W257:W258" si="1049">F257/V257</f>
+        <f t="shared" ref="W257" si="1049">F257/V257</f>
         <v>1.3071125765426284E-2</v>
       </c>
       <c r="X257">
@@ -31629,6 +31629,45 @@
         <f t="shared" ref="X258" si="1064">E258-E257</f>
         <v>15</v>
       </c>
+      <c r="Y258">
+        <v>1950</v>
+      </c>
+      <c r="Z258">
+        <v>1018</v>
+      </c>
+      <c r="AA258">
+        <v>10886</v>
+      </c>
+      <c r="AB258">
+        <v>835</v>
+      </c>
+      <c r="AC258">
+        <v>465</v>
+      </c>
+      <c r="AD258">
+        <v>6470</v>
+      </c>
+      <c r="AE258">
+        <v>12</v>
+      </c>
+      <c r="AF258">
+        <v>6</v>
+      </c>
+      <c r="AG258">
+        <v>134</v>
+      </c>
+      <c r="AH258">
+        <f t="shared" ref="AH258" si="1065">Y258-AB258-AE258</f>
+        <v>1103</v>
+      </c>
+      <c r="AI258">
+        <f t="shared" ref="AI258" si="1066">Z258-AC258-AF258</f>
+        <v>547</v>
+      </c>
+      <c r="AJ258">
+        <f>AA258-AD258-AG258</f>
+        <v>4282</v>
+      </c>
       <c r="AK258">
         <f t="shared" si="1022"/>
         <v>44</v>
@@ -31674,19 +31713,19 @@
         <v>0.37037037037037035</v>
       </c>
       <c r="BG258">
-        <f t="shared" ref="BG258" si="1065">SUM(AV252:AV258)/SUM(AU252:AU258)</f>
+        <f t="shared" ref="BG258" si="1067">SUM(AV252:AV258)/SUM(AU252:AU258)</f>
         <v>0.2183481056656239</v>
       </c>
       <c r="BH258">
-        <f t="shared" ref="BH258" si="1066">SUM(AV245:AV258)/SUM(AU245:AU258)</f>
+        <f t="shared" ref="BH258" si="1068">SUM(AV245:AV258)/SUM(AU245:AU258)</f>
         <v>0.23197200607762788</v>
       </c>
       <c r="BI258">
-        <f t="shared" ref="BI258" si="1067">SUM(AY252:AY258)/SUM(AX252:AX258)</f>
+        <f t="shared" ref="BI258" si="1069">SUM(AY252:AY258)/SUM(AX252:AX258)</f>
         <v>0.25806451612903225</v>
       </c>
       <c r="BJ258">
-        <f t="shared" ref="BJ258" si="1068">SUM(BA252:BA258)/SUM(AZ252:AZ258)</f>
+        <f t="shared" ref="BJ258" si="1070">SUM(BA252:BA258)/SUM(AZ252:AZ258)</f>
         <v>0.18377765173000568</v>
       </c>
       <c r="BK258">
@@ -31872,7 +31911,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AH228:AH257</xm:sqref>
+          <xm:sqref>AH228:AH258</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="12" operator="equal" id="{A5D8B9CD-D171-4616-8063-8E2F3DB2617E}">
@@ -31888,7 +31927,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AI228:AI257</xm:sqref>
+          <xm:sqref>AI228:AI258</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="11" operator="equal" id="{525B83D9-8CB5-4E31-BB6E-B59F9B6585E1}">
@@ -38656,7 +38695,7 @@
       </c>
       <c r="V2">
         <f>MAX(covid19!AI:AI)</f>
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="W2">
         <f>MAX(covid19!AJ:AJ)</f>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CEFE35-C945-4D41-A418-43C9036D93B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39D1503-8B80-4CF6-B68B-0780B6D14F15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2528,13 +2528,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CD266"/>
+  <dimension ref="A1:CD267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BV250" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AN259" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CE266" sqref="CE266"/>
+      <selection pane="bottomRight" activeCell="BR266" sqref="BR266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29401,7 +29401,7 @@
     </row>
     <row r="247" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A247" s="14">
-        <f t="shared" ref="A247:A266" si="807">A246+1</f>
+        <f t="shared" ref="A247:A267" si="807">A246+1</f>
         <v>44153</v>
       </c>
       <c r="B247">
@@ -33040,7 +33040,7 @@
         <v>1005068</v>
       </c>
       <c r="O265" s="4">
-        <f t="shared" ref="O265:O266" si="1088">C265/B265</f>
+        <f t="shared" ref="O265" si="1088">C265/B265</f>
         <v>0.19529990864669811</v>
       </c>
       <c r="R265">
@@ -33064,11 +33064,11 @@
         <v>5407</v>
       </c>
       <c r="W265">
-        <f t="shared" ref="W265:W266" si="1094">C265-D265-E265</f>
+        <f t="shared" ref="W265" si="1094">C265-D265-E265</f>
         <v>82252</v>
       </c>
       <c r="X265" s="3">
-        <f t="shared" ref="X265:X266" si="1095">F265/W265</f>
+        <f t="shared" ref="X265" si="1095">F265/W265</f>
         <v>1.1160822837134659E-2</v>
       </c>
       <c r="Y265">
@@ -33259,6 +33259,45 @@
         <f t="shared" ref="Y266" si="1107">E266-E265</f>
         <v>34</v>
       </c>
+      <c r="Z266">
+        <v>2058</v>
+      </c>
+      <c r="AA266">
+        <v>1098</v>
+      </c>
+      <c r="AB266">
+        <v>11456</v>
+      </c>
+      <c r="AC266">
+        <v>1222</v>
+      </c>
+      <c r="AD266">
+        <v>640</v>
+      </c>
+      <c r="AE266">
+        <v>8020</v>
+      </c>
+      <c r="AF266">
+        <v>14</v>
+      </c>
+      <c r="AG266">
+        <v>12</v>
+      </c>
+      <c r="AH266">
+        <v>156</v>
+      </c>
+      <c r="AI266">
+        <f t="shared" ref="AI266:AI267" si="1108">Z266-AC266-AF266</f>
+        <v>822</v>
+      </c>
+      <c r="AJ266">
+        <f t="shared" ref="AJ266:AJ267" si="1109">AA266-AD266-AG266</f>
+        <v>446</v>
+      </c>
+      <c r="AK266">
+        <f t="shared" ref="AK266:AK267" si="1110">AB266-AE266-AH266</f>
+        <v>3280</v>
+      </c>
       <c r="BL266">
         <v>0.18099999999999999</v>
       </c>
@@ -33268,17 +33307,12 @@
       <c r="BN266">
         <v>0.184</v>
       </c>
-      <c r="BO266">
-        <v>1983671</v>
-      </c>
-      <c r="BP266">
-        <v>1102409</v>
-      </c>
-      <c r="BQ266">
-        <v>231602</v>
+      <c r="BP266" s="9">
+        <v>1251393</v>
       </c>
       <c r="BR266">
-        <v>213857</v>
+        <f>C266</f>
+        <v>244848</v>
       </c>
       <c r="BS266">
         <v>19768</v>
@@ -33315,6 +33349,182 @@
       </c>
       <c r="CD266">
         <v>11456</v>
+      </c>
+    </row>
+    <row r="267" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="A267" s="14">
+        <f t="shared" si="807"/>
+        <v>44173</v>
+      </c>
+      <c r="B267" s="9">
+        <v>1255021</v>
+      </c>
+      <c r="C267">
+        <v>246240</v>
+      </c>
+      <c r="D267">
+        <v>168057</v>
+      </c>
+      <c r="E267" s="9">
+        <v>2898</v>
+      </c>
+      <c r="F267" s="9">
+        <v>900</v>
+      </c>
+      <c r="H267">
+        <v>191</v>
+      </c>
+      <c r="I267">
+        <v>111</v>
+      </c>
+      <c r="J267">
+        <v>168</v>
+      </c>
+      <c r="K267">
+        <v>27</v>
+      </c>
+      <c r="L267">
+        <v>20</v>
+      </c>
+      <c r="M267">
+        <f t="shared" ref="M267" si="1111">-(J267-J266)+L267</f>
+        <v>27</v>
+      </c>
+      <c r="N267" s="7">
+        <f t="shared" ref="N267" si="1112">B267-C267</f>
+        <v>1008781</v>
+      </c>
+      <c r="O267" s="4">
+        <f t="shared" ref="O267" si="1113">C267/B267</f>
+        <v>0.19620388822179072</v>
+      </c>
+      <c r="R267">
+        <f t="shared" ref="R267" si="1114">C267-C266</f>
+        <v>1392</v>
+      </c>
+      <c r="S267">
+        <f t="shared" ref="S267" si="1115">N267-N266</f>
+        <v>2236</v>
+      </c>
+      <c r="T267" s="8">
+        <f t="shared" ref="T267" si="1116">R267/V267</f>
+        <v>0.38368246968026459</v>
+      </c>
+      <c r="U267" s="8">
+        <f t="shared" ref="U267" si="1117">SUM(R261:R267)/SUM(V261:V267)</f>
+        <v>0.38987573378059009</v>
+      </c>
+      <c r="V267">
+        <f t="shared" ref="V267" si="1118">B267-B266</f>
+        <v>3628</v>
+      </c>
+      <c r="W267">
+        <f t="shared" ref="W267" si="1119">C267-D267-E267</f>
+        <v>75285</v>
+      </c>
+      <c r="X267" s="3">
+        <f t="shared" ref="X267" si="1120">F267/W267</f>
+        <v>1.1954572624028692E-2</v>
+      </c>
+      <c r="Y267">
+        <f t="shared" ref="Y267" si="1121">E267-E266</f>
+        <v>181</v>
+      </c>
+      <c r="Z267">
+        <v>2067</v>
+      </c>
+      <c r="AA267">
+        <v>1102</v>
+      </c>
+      <c r="AB267">
+        <v>11469</v>
+      </c>
+      <c r="AC267">
+        <v>1222</v>
+      </c>
+      <c r="AD267">
+        <v>640</v>
+      </c>
+      <c r="AE267">
+        <v>8019</v>
+      </c>
+      <c r="AF267">
+        <v>27</v>
+      </c>
+      <c r="AG267">
+        <v>8</v>
+      </c>
+      <c r="AH267">
+        <v>158</v>
+      </c>
+      <c r="AI267">
+        <f t="shared" si="1108"/>
+        <v>818</v>
+      </c>
+      <c r="AJ267">
+        <f t="shared" si="1109"/>
+        <v>454</v>
+      </c>
+      <c r="AK267">
+        <f t="shared" si="1110"/>
+        <v>3292</v>
+      </c>
+      <c r="BL267">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="BM267">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="BN267">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="BO267">
+        <v>2619543</v>
+      </c>
+      <c r="BP267">
+        <v>1256462</v>
+      </c>
+      <c r="BQ267">
+        <v>266756</v>
+      </c>
+      <c r="BR267">
+        <v>246784</v>
+      </c>
+      <c r="BS267">
+        <v>20018</v>
+      </c>
+      <c r="BT267">
+        <v>8895</v>
+      </c>
+      <c r="BU267">
+        <v>2173</v>
+      </c>
+      <c r="BV267">
+        <v>2076</v>
+      </c>
+      <c r="BW267">
+        <v>14926</v>
+      </c>
+      <c r="BX267">
+        <v>5234</v>
+      </c>
+      <c r="BY267">
+        <v>1179</v>
+      </c>
+      <c r="BZ267">
+        <v>1111</v>
+      </c>
+      <c r="CA267">
+        <v>115362</v>
+      </c>
+      <c r="CB267">
+        <v>53720</v>
+      </c>
+      <c r="CC267">
+        <v>12581</v>
+      </c>
+      <c r="CD267">
+        <v>11515</v>
       </c>
     </row>
   </sheetData>
@@ -33342,7 +33552,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>R228:R266</xm:sqref>
+          <xm:sqref>R228:R267</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="22" operator="equal" id="{E5309D98-D036-43E8-AE0C-F104DC358831}">
@@ -33358,7 +33568,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>Y228:Y266</xm:sqref>
+          <xm:sqref>Y228:Y267</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5269D26C-9211-46B2-914A-48345DF37DEF}">
@@ -33374,7 +33584,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F228:F266</xm:sqref>
+          <xm:sqref>F228:F267</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="20" operator="equal" id="{24843253-84F3-44AF-847D-C74D74C4F05A}">
@@ -33406,7 +33616,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J228:J266</xm:sqref>
+          <xm:sqref>J228:J267</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="18" operator="equal" id="{6F562D16-6A18-4369-973E-028D1B5F7CFF}">
@@ -33422,7 +33632,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K228:K266</xm:sqref>
+          <xm:sqref>K228:K267</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{735BDD8A-2F04-47F3-825F-41FCBFA8ADD5}">
@@ -33486,7 +33696,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AI228:AI265</xm:sqref>
+          <xm:sqref>AI228:AI266</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="12" operator="equal" id="{A5D8B9CD-D171-4616-8063-8E2F3DB2617E}">
@@ -33502,7 +33712,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AJ228:AJ265</xm:sqref>
+          <xm:sqref>AJ228:AJ266</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="11" operator="equal" id="{525B83D9-8CB5-4E31-BB6E-B59F9B6585E1}">
@@ -33662,7 +33872,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H1:H1048576 I229:I266</xm:sqref>
+          <xm:sqref>H1:H1048576 I229:I267</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{8F0BE21B-C8AC-4EAD-AE58-244C59D5B0FC}">
@@ -33678,7 +33888,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>W229:W266</xm:sqref>
+          <xm:sqref>W229:W267</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -40250,11 +40460,11 @@
       </c>
       <c r="Q2">
         <f>MAX(covid19!Y:Y)</f>
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="R2">
         <f>MAX(covid19!AF:AF)</f>
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="S2">
         <f>MAX(covid19!AG:AG)</f>
@@ -40262,7 +40472,7 @@
       </c>
       <c r="T2">
         <f>MAX(covid19!AH:AH)</f>
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="U2">
         <f>MAX(covid19!AI:AI)</f>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396F0C34-758F-463B-B7B4-B05AD187AEBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF0BB13-4F1D-4605-B175-54BB0C08F523}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2531,13 +2531,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CD269"/>
+  <dimension ref="A1:CD274"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BU266" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BD260" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CA1" sqref="CA1:CD1"/>
+      <selection pane="bottomRight" activeCell="AU273" sqref="AU273:BK274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2549,7 +2549,7 @@
     <col min="16" max="17" width="0" hidden="1" customWidth="1"/>
     <col min="41" max="44" width="8.7265625" hidden="1" customWidth="1"/>
     <col min="45" max="45" width="8.7265625" customWidth="1"/>
-    <col min="47" max="63" width="0" hidden="1" customWidth="1"/>
+    <col min="47" max="63" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:82" x14ac:dyDescent="0.35">
@@ -26611,7 +26611,7 @@
         <v>1085</v>
       </c>
       <c r="AW231">
-        <f t="shared" ref="AW231:AW263" si="630">AV231/AU231</f>
+        <f t="shared" ref="AW231:AW270" si="630">AV231/AU231</f>
         <v>0.21274509803921568</v>
       </c>
     </row>
@@ -28202,7 +28202,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="241" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A241" s="14">
         <f t="shared" si="52"/>
         <v>44147</v>
@@ -28398,7 +28398,7 @@
         <v>0.42333333333333334</v>
       </c>
     </row>
-    <row r="242" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A242" s="14">
         <f t="shared" si="52"/>
         <v>44148</v>
@@ -28602,8 +28602,40 @@
       <c r="BN242">
         <v>0.223</v>
       </c>
-    </row>
-    <row r="243" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="BP242" s="9">
+        <f>B242</f>
+        <v>1079246</v>
+      </c>
+      <c r="BR242">
+        <f>C242</f>
+        <v>175425</v>
+      </c>
+      <c r="BS242">
+        <f>BS243-AX243</f>
+        <v>18418</v>
+      </c>
+      <c r="BV242">
+        <f>Z242</f>
+        <v>1341</v>
+      </c>
+      <c r="BW242">
+        <f>BW243-BB242</f>
+        <v>13814</v>
+      </c>
+      <c r="BZ242">
+        <f>AA242</f>
+        <v>699</v>
+      </c>
+      <c r="CA242">
+        <f>CA243-AZ242</f>
+        <v>106361</v>
+      </c>
+      <c r="CD242">
+        <f>AB242</f>
+        <v>8593</v>
+      </c>
+    </row>
+    <row r="243" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A243" s="14">
         <f t="shared" si="52"/>
         <v>44149</v>
@@ -28798,8 +28830,40 @@
       <c r="BN243">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="244" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="BP243" s="9">
+        <f t="shared" ref="BP243:BP261" si="765">B243</f>
+        <v>1089765</v>
+      </c>
+      <c r="BR243">
+        <f t="shared" ref="BR243:BR259" si="766">C243</f>
+        <v>180251</v>
+      </c>
+      <c r="BS243">
+        <f t="shared" ref="BS243:BS260" si="767">BS244-AX244</f>
+        <v>18508</v>
+      </c>
+      <c r="BV243">
+        <f t="shared" ref="BV243:BV260" si="768">Z243</f>
+        <v>1423</v>
+      </c>
+      <c r="BW243">
+        <f t="shared" ref="BW243:BW260" si="769">BW244-BB243</f>
+        <v>13854</v>
+      </c>
+      <c r="BZ243">
+        <f t="shared" ref="BZ243:BZ260" si="770">AA243</f>
+        <v>738</v>
+      </c>
+      <c r="CA243">
+        <f t="shared" ref="CA243:CA260" si="771">CA244-AZ243</f>
+        <v>106816</v>
+      </c>
+      <c r="CD243">
+        <f t="shared" ref="CD243:CD260" si="772">AB243</f>
+        <v>8866</v>
+      </c>
+    </row>
+    <row r="244" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A244" s="14">
         <f t="shared" si="52"/>
         <v>44150</v>
@@ -28847,35 +28911,35 @@
         <v>0.16788279365898934</v>
       </c>
       <c r="R244">
-        <f t="shared" ref="R244" si="765">C244-C243</f>
+        <f t="shared" ref="R244" si="773">C244-C243</f>
         <v>4433</v>
       </c>
       <c r="S244">
-        <f t="shared" ref="S244" si="766">N244-N243</f>
+        <f t="shared" ref="S244" si="774">N244-N243</f>
         <v>5879</v>
       </c>
       <c r="T244" s="8">
-        <f t="shared" ref="T244" si="767">R244/V244</f>
+        <f t="shared" ref="T244" si="775">R244/V244</f>
         <v>0.42988750969743988</v>
       </c>
       <c r="U244" s="8">
-        <f t="shared" ref="U244" si="768">SUM(R238:R244)/SUM(V238:V244)</f>
+        <f t="shared" ref="U244" si="776">SUM(R238:R244)/SUM(V238:V244)</f>
         <v>0.46402975079435194</v>
       </c>
       <c r="V244">
-        <f t="shared" ref="V244" si="769">B244-B243</f>
+        <f t="shared" ref="V244" si="777">B244-B243</f>
         <v>10312</v>
       </c>
       <c r="W244">
-        <f t="shared" ref="W244" si="770">C244-D244-E244</f>
+        <f t="shared" ref="W244" si="778">C244-D244-E244</f>
         <v>74819</v>
       </c>
       <c r="X244" s="3">
-        <f t="shared" ref="X244" si="771">F244/W244</f>
+        <f t="shared" ref="X244" si="779">F244/W244</f>
         <v>1.709458827303225E-2</v>
       </c>
       <c r="Y244">
-        <f t="shared" ref="Y244" si="772">E244-E243</f>
+        <f t="shared" ref="Y244" si="780">E244-E243</f>
         <v>13</v>
       </c>
       <c r="Z244">
@@ -28906,15 +28970,15 @@
         <v>115</v>
       </c>
       <c r="AI244">
-        <f t="shared" ref="AI244" si="773">Z244-AC244-AF244</f>
+        <f t="shared" ref="AI244" si="781">Z244-AC244-AF244</f>
         <v>863</v>
       </c>
       <c r="AJ244">
-        <f t="shared" ref="AJ244" si="774">AA244-AD244-AG244</f>
+        <f t="shared" ref="AJ244" si="782">AA244-AD244-AG244</f>
         <v>330</v>
       </c>
       <c r="AK244">
-        <f t="shared" ref="AK244" si="775">AB244-AE244-AH244</f>
+        <f t="shared" ref="AK244" si="783">AB244-AE244-AH244</f>
         <v>3859</v>
       </c>
       <c r="AS244">
@@ -28966,11 +29030,11 @@
         <v>0.51428571428571423</v>
       </c>
       <c r="BG244">
-        <f t="shared" ref="BG244" si="776">SUM(AV238:AV244)/SUM(AU238:AU244)</f>
+        <f t="shared" ref="BG244" si="784">SUM(AV238:AV244)/SUM(AU238:AU244)</f>
         <v>0.28207289716955519</v>
       </c>
       <c r="BH244">
-        <f t="shared" ref="BH244" si="777">SUM(AV231:AV244)/SUM(AU231:AU244)</f>
+        <f t="shared" ref="BH244" si="785">SUM(AV231:AV244)/SUM(AU231:AU244)</f>
         <v>0.27440142505370146</v>
       </c>
       <c r="BI244">
@@ -28994,8 +29058,40 @@
       <c r="BN244">
         <v>0.23800000000000002</v>
       </c>
-    </row>
-    <row r="245" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="BP244" s="9">
+        <f t="shared" si="765"/>
+        <v>1100077</v>
+      </c>
+      <c r="BR244">
+        <f t="shared" si="766"/>
+        <v>184684</v>
+      </c>
+      <c r="BS244">
+        <f t="shared" si="767"/>
+        <v>18615</v>
+      </c>
+      <c r="BV244">
+        <f t="shared" si="768"/>
+        <v>1485</v>
+      </c>
+      <c r="BW244">
+        <f t="shared" si="769"/>
+        <v>13893</v>
+      </c>
+      <c r="BZ244">
+        <f t="shared" si="770"/>
+        <v>767</v>
+      </c>
+      <c r="CA244">
+        <f t="shared" si="771"/>
+        <v>107159</v>
+      </c>
+      <c r="CD244">
+        <f t="shared" si="772"/>
+        <v>9060</v>
+      </c>
+    </row>
+    <row r="245" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A245" s="14">
         <f t="shared" si="52"/>
         <v>44151</v>
@@ -29043,35 +29139,35 @@
         <v>0.16916094809229082</v>
       </c>
       <c r="R245">
-        <f t="shared" ref="R245" si="778">C245-C244</f>
+        <f t="shared" ref="R245" si="786">C245-C244</f>
         <v>2317</v>
       </c>
       <c r="S245">
-        <f t="shared" ref="S245" si="779">N245-N244</f>
+        <f t="shared" ref="S245" si="787">N245-N244</f>
         <v>3068</v>
       </c>
       <c r="T245" s="8">
-        <f t="shared" ref="T245" si="780">R245/V245</f>
+        <f t="shared" ref="T245" si="788">R245/V245</f>
         <v>0.43026926648096564</v>
       </c>
       <c r="U245" s="8">
-        <f t="shared" ref="U245" si="781">SUM(R239:R245)/SUM(V239:V245)</f>
+        <f t="shared" ref="U245" si="789">SUM(R239:R245)/SUM(V239:V245)</f>
         <v>0.46763648757513787</v>
       </c>
       <c r="V245">
-        <f t="shared" ref="V245" si="782">B245-B244</f>
+        <f t="shared" ref="V245" si="790">B245-B244</f>
         <v>5385</v>
       </c>
       <c r="W245">
-        <f t="shared" ref="W245" si="783">C245-D245-E245</f>
+        <f t="shared" ref="W245" si="791">C245-D245-E245</f>
         <v>76837</v>
       </c>
       <c r="X245" s="3">
-        <f t="shared" ref="X245" si="784">F245/W245</f>
+        <f t="shared" ref="X245" si="792">F245/W245</f>
         <v>1.8116272108489401E-2</v>
       </c>
       <c r="Y245">
-        <f t="shared" ref="Y245" si="785">E245-E244</f>
+        <f t="shared" ref="Y245" si="793">E245-E244</f>
         <v>4</v>
       </c>
       <c r="Z245">
@@ -29102,15 +29198,15 @@
         <v>116</v>
       </c>
       <c r="AI245">
-        <f t="shared" ref="AI245" si="786">Z245-AC245-AF245</f>
+        <f t="shared" ref="AI245" si="794">Z245-AC245-AF245</f>
         <v>887</v>
       </c>
       <c r="AJ245">
-        <f t="shared" ref="AJ245" si="787">AA245-AD245-AG245</f>
+        <f t="shared" ref="AJ245" si="795">AA245-AD245-AG245</f>
         <v>337</v>
       </c>
       <c r="AK245">
-        <f t="shared" ref="AK245" si="788">AB245-AE245-AH245</f>
+        <f t="shared" ref="AK245" si="796">AB245-AE245-AH245</f>
         <v>3933</v>
       </c>
       <c r="AL245">
@@ -29171,11 +29267,11 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="BG245">
-        <f t="shared" ref="BG245" si="789">SUM(AV239:AV245)/SUM(AU239:AU245)</f>
+        <f t="shared" ref="BG245" si="797">SUM(AV239:AV245)/SUM(AU239:AU245)</f>
         <v>0.28173049083400636</v>
       </c>
       <c r="BH245">
-        <f t="shared" ref="BH245" si="790">SUM(AV232:AV245)/SUM(AU232:AU245)</f>
+        <f t="shared" ref="BH245" si="798">SUM(AV232:AV245)/SUM(AU232:AU245)</f>
         <v>0.2767718304018798</v>
       </c>
       <c r="BI245">
@@ -29199,8 +29295,40 @@
       <c r="BN245">
         <v>0.23499999999999999</v>
       </c>
-    </row>
-    <row r="246" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="BP245" s="9">
+        <f t="shared" si="765"/>
+        <v>1105462</v>
+      </c>
+      <c r="BR245">
+        <f t="shared" si="766"/>
+        <v>187001</v>
+      </c>
+      <c r="BS245">
+        <f t="shared" si="767"/>
+        <v>18712</v>
+      </c>
+      <c r="BV245">
+        <f t="shared" si="768"/>
+        <v>1511</v>
+      </c>
+      <c r="BW245">
+        <f t="shared" si="769"/>
+        <v>13947</v>
+      </c>
+      <c r="BZ245">
+        <f t="shared" si="770"/>
+        <v>774</v>
+      </c>
+      <c r="CA245">
+        <f t="shared" si="771"/>
+        <v>107612</v>
+      </c>
+      <c r="CD245">
+        <f t="shared" si="772"/>
+        <v>9143</v>
+      </c>
+    </row>
+    <row r="246" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A246" s="14">
         <f t="shared" si="52"/>
         <v>44152</v>
@@ -29248,35 +29376,35 @@
         <v>0.17106829267416956</v>
       </c>
       <c r="R246">
-        <f t="shared" ref="R246" si="791">C246-C245</f>
+        <f t="shared" ref="R246" si="799">C246-C245</f>
         <v>3579</v>
       </c>
       <c r="S246">
-        <f t="shared" ref="S246" si="792">N246-N245</f>
+        <f t="shared" ref="S246" si="800">N246-N245</f>
         <v>5017</v>
       </c>
       <c r="T246" s="8">
-        <f t="shared" ref="T246" si="793">R246/V246</f>
+        <f t="shared" ref="T246" si="801">R246/V246</f>
         <v>0.41635644485807355</v>
       </c>
       <c r="U246" s="8">
-        <f t="shared" ref="U246" si="794">SUM(R240:R246)/SUM(V240:V246)</f>
+        <f t="shared" ref="U246" si="802">SUM(R240:R246)/SUM(V240:V246)</f>
         <v>0.45648655378486058</v>
       </c>
       <c r="V246">
-        <f t="shared" ref="V246" si="795">B246-B245</f>
+        <f t="shared" ref="V246" si="803">B246-B245</f>
         <v>8596</v>
       </c>
       <c r="W246">
-        <f t="shared" ref="W246" si="796">C246-D246-E246</f>
+        <f t="shared" ref="W246" si="804">C246-D246-E246</f>
         <v>78628</v>
       </c>
       <c r="X246" s="3">
-        <f t="shared" ref="X246" si="797">F246/W246</f>
+        <f t="shared" ref="X246" si="805">F246/W246</f>
         <v>1.9204354682810194E-2</v>
       </c>
       <c r="Y246">
-        <f t="shared" ref="Y246" si="798">E246-E245</f>
+        <f t="shared" ref="Y246" si="806">E246-E245</f>
         <v>34</v>
       </c>
       <c r="Z246">
@@ -29307,15 +29435,15 @@
         <v>118</v>
       </c>
       <c r="AI246">
-        <f t="shared" ref="AI246" si="799">Z246-AC246-AF246</f>
+        <f t="shared" ref="AI246" si="807">Z246-AC246-AF246</f>
         <v>915</v>
       </c>
       <c r="AJ246">
-        <f t="shared" ref="AJ246" si="800">AA246-AD246-AG246</f>
+        <f t="shared" ref="AJ246" si="808">AA246-AD246-AG246</f>
         <v>351</v>
       </c>
       <c r="AK246">
-        <f t="shared" ref="AK246" si="801">AB246-AE246-AH246</f>
+        <f t="shared" ref="AK246" si="809">AB246-AE246-AH246</f>
         <v>4009</v>
       </c>
       <c r="AL246">
@@ -29332,7 +29460,7 @@
         <v>21</v>
       </c>
       <c r="AT246">
-        <f t="shared" ref="AT246:AT256" si="802">AI246-AS246</f>
+        <f t="shared" ref="AT246:AT256" si="810">AI246-AS246</f>
         <v>894</v>
       </c>
       <c r="AU246">
@@ -29376,19 +29504,19 @@
         <v>0.4935064935064935</v>
       </c>
       <c r="BG246">
-        <f t="shared" ref="BG246" si="803">SUM(AV240:AV246)/SUM(AU240:AU246)</f>
+        <f t="shared" ref="BG246" si="811">SUM(AV240:AV246)/SUM(AU240:AU246)</f>
         <v>0.27538643361428172</v>
       </c>
       <c r="BH246">
-        <f t="shared" ref="BH246" si="804">SUM(AV233:AV246)/SUM(AU233:AU246)</f>
+        <f t="shared" ref="BH246" si="812">SUM(AV233:AV246)/SUM(AU233:AU246)</f>
         <v>0.27512626367338139</v>
       </c>
       <c r="BI246">
-        <f t="shared" ref="BI246" si="805">SUM(AY240:AY246)/SUM(AX240:AX246)</f>
+        <f t="shared" ref="BI246" si="813">SUM(AY240:AY246)/SUM(AX240:AX246)</f>
         <v>0.32126696832579188</v>
       </c>
       <c r="BJ246">
-        <f t="shared" ref="BJ246" si="806">SUM(BA240:BA246)/SUM(AZ240:AZ246)</f>
+        <f t="shared" ref="BJ246" si="814">SUM(BA240:BA246)/SUM(AZ240:AZ246)</f>
         <v>0.2978395061728395</v>
       </c>
       <c r="BK246">
@@ -29404,10 +29532,42 @@
       <c r="BN246">
         <v>0.22800000000000001</v>
       </c>
-    </row>
-    <row r="247" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="BP246" s="9">
+        <f t="shared" si="765"/>
+        <v>1114058</v>
+      </c>
+      <c r="BR246">
+        <f t="shared" si="766"/>
+        <v>190580</v>
+      </c>
+      <c r="BS246">
+        <f t="shared" si="767"/>
+        <v>18783</v>
+      </c>
+      <c r="BV246">
+        <f t="shared" si="768"/>
+        <v>1549</v>
+      </c>
+      <c r="BW246">
+        <f t="shared" si="769"/>
+        <v>13982</v>
+      </c>
+      <c r="BZ246">
+        <f t="shared" si="770"/>
+        <v>793</v>
+      </c>
+      <c r="CA246">
+        <f t="shared" si="771"/>
+        <v>107922</v>
+      </c>
+      <c r="CD246">
+        <f t="shared" si="772"/>
+        <v>9309</v>
+      </c>
+    </row>
+    <row r="247" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A247" s="14">
-        <f t="shared" ref="A247:A269" si="807">A246+1</f>
+        <f t="shared" ref="A247:A269" si="815">A246+1</f>
         <v>44153</v>
       </c>
       <c r="B247">
@@ -29453,35 +29613,35 @@
         <v>0.1730967625358163</v>
       </c>
       <c r="R247">
-        <f t="shared" ref="R247" si="808">C247-C246</f>
+        <f t="shared" ref="R247" si="816">C247-C246</f>
         <v>3884</v>
       </c>
       <c r="S247">
-        <f t="shared" ref="S247" si="809">N247-N246</f>
+        <f t="shared" ref="S247" si="817">N247-N246</f>
         <v>5499</v>
       </c>
       <c r="T247" s="8">
-        <f t="shared" ref="T247" si="810">R247/V247</f>
+        <f t="shared" ref="T247" si="818">R247/V247</f>
         <v>0.41394010444420759</v>
       </c>
       <c r="U247" s="8">
-        <f t="shared" ref="U247" si="811">SUM(R241:R247)/SUM(V241:V247)</f>
+        <f t="shared" ref="U247" si="819">SUM(R241:R247)/SUM(V241:V247)</f>
         <v>0.44626270867327728</v>
       </c>
       <c r="V247">
-        <f t="shared" ref="V247" si="812">B247-B246</f>
+        <f t="shared" ref="V247" si="820">B247-B246</f>
         <v>9383</v>
       </c>
       <c r="W247">
-        <f t="shared" ref="W247" si="813">C247-D247-E247</f>
+        <f t="shared" ref="W247" si="821">C247-D247-E247</f>
         <v>81115</v>
       </c>
       <c r="X247" s="3">
-        <f t="shared" ref="X247" si="814">F247/W247</f>
+        <f t="shared" ref="X247" si="822">F247/W247</f>
         <v>1.8825124822782469E-2</v>
       </c>
       <c r="Y247">
-        <f t="shared" ref="Y247" si="815">E247-E246</f>
+        <f t="shared" ref="Y247" si="823">E247-E246</f>
         <v>41</v>
       </c>
       <c r="Z247">
@@ -29512,15 +29672,15 @@
         <v>122</v>
       </c>
       <c r="AI247">
-        <f t="shared" ref="AI247" si="816">Z247-AC247-AF247</f>
+        <f t="shared" ref="AI247" si="824">Z247-AC247-AF247</f>
         <v>952</v>
       </c>
       <c r="AJ247">
-        <f t="shared" ref="AJ247" si="817">AA247-AD247-AG247</f>
+        <f t="shared" ref="AJ247" si="825">AA247-AD247-AG247</f>
         <v>365</v>
       </c>
       <c r="AK247">
-        <f t="shared" ref="AK247" si="818">AB247-AE247-AH247</f>
+        <f t="shared" ref="AK247" si="826">AB247-AE247-AH247</f>
         <v>4149</v>
       </c>
       <c r="AL247">
@@ -29537,7 +29697,7 @@
         <v>23</v>
       </c>
       <c r="AT247">
-        <f t="shared" si="802"/>
+        <f t="shared" si="810"/>
         <v>929</v>
       </c>
       <c r="AU247">
@@ -29581,19 +29741,19 @@
         <v>0.41025641025641024</v>
       </c>
       <c r="BG247">
-        <f t="shared" ref="BG247" si="819">SUM(AV241:AV247)/SUM(AU241:AU247)</f>
+        <f t="shared" ref="BG247" si="827">SUM(AV241:AV247)/SUM(AU241:AU247)</f>
         <v>0.27177985045864489</v>
       </c>
       <c r="BH247">
-        <f t="shared" ref="BH247" si="820">SUM(AV234:AV247)/SUM(AU234:AU247)</f>
+        <f t="shared" ref="BH247" si="828">SUM(AV234:AV247)/SUM(AU234:AU247)</f>
         <v>0.27559301123937546</v>
       </c>
       <c r="BI247">
-        <f t="shared" ref="BI247" si="821">SUM(AY241:AY247)/SUM(AX241:AX247)</f>
+        <f t="shared" ref="BI247" si="829">SUM(AY241:AY247)/SUM(AX241:AX247)</f>
         <v>0.30990415335463256</v>
       </c>
       <c r="BJ247">
-        <f t="shared" ref="BJ247" si="822">SUM(BA241:BA247)/SUM(AZ241:AZ247)</f>
+        <f t="shared" ref="BJ247" si="830">SUM(BA241:BA247)/SUM(AZ241:AZ247)</f>
         <v>0.28327373857767185</v>
       </c>
       <c r="BK247">
@@ -29609,10 +29769,42 @@
       <c r="BN247">
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="248" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="BP247" s="9">
+        <f t="shared" si="765"/>
+        <v>1123441</v>
+      </c>
+      <c r="BR247">
+        <f t="shared" si="766"/>
+        <v>194464</v>
+      </c>
+      <c r="BS247">
+        <f t="shared" si="767"/>
+        <v>18845</v>
+      </c>
+      <c r="BV247">
+        <f t="shared" si="768"/>
+        <v>1594</v>
+      </c>
+      <c r="BW247">
+        <f t="shared" si="769"/>
+        <v>14020</v>
+      </c>
+      <c r="BZ247">
+        <f t="shared" si="770"/>
+        <v>809</v>
+      </c>
+      <c r="CA247">
+        <f t="shared" si="771"/>
+        <v>108214</v>
+      </c>
+      <c r="CD247">
+        <f t="shared" si="772"/>
+        <v>9523</v>
+      </c>
+    </row>
+    <row r="248" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A248" s="14">
-        <f t="shared" si="807"/>
+        <f t="shared" si="815"/>
         <v>44154</v>
       </c>
       <c r="B248">
@@ -29654,39 +29846,39 @@
         <v>935209</v>
       </c>
       <c r="O248" s="4">
-        <f t="shared" ref="O248:O254" si="823">C248/B248</f>
+        <f t="shared" ref="O248:O254" si="831">C248/B248</f>
         <v>0.1751916038276668</v>
       </c>
       <c r="R248">
-        <f t="shared" ref="R248" si="824">C248-C247</f>
+        <f t="shared" ref="R248" si="832">C248-C247</f>
         <v>4177</v>
       </c>
       <c r="S248">
-        <f t="shared" ref="S248" si="825">N248-N247</f>
+        <f t="shared" ref="S248" si="833">N248-N247</f>
         <v>6232</v>
       </c>
       <c r="T248" s="8">
-        <f t="shared" ref="T248" si="826">R248/V248</f>
+        <f t="shared" ref="T248" si="834">R248/V248</f>
         <v>0.40128734748775097</v>
       </c>
       <c r="U248" s="8">
-        <f t="shared" ref="U248" si="827">SUM(R242:R248)/SUM(V242:V248)</f>
+        <f t="shared" ref="U248" si="835">SUM(R242:R248)/SUM(V242:V248)</f>
         <v>0.43146790249554096</v>
       </c>
       <c r="V248">
-        <f t="shared" ref="V248" si="828">B248-B247</f>
+        <f t="shared" ref="V248" si="836">B248-B247</f>
         <v>10409</v>
       </c>
       <c r="W248">
-        <f t="shared" ref="W248" si="829">C248-D248-E248</f>
+        <f t="shared" ref="W248" si="837">C248-D248-E248</f>
         <v>83762</v>
       </c>
       <c r="X248" s="3">
-        <f t="shared" ref="X248" si="830">F248/W248</f>
+        <f t="shared" ref="X248" si="838">F248/W248</f>
         <v>1.8098899262195267E-2</v>
       </c>
       <c r="Y248">
-        <f t="shared" ref="Y248" si="831">E248-E247</f>
+        <f t="shared" ref="Y248" si="839">E248-E247</f>
         <v>38</v>
       </c>
       <c r="Z248">
@@ -29717,15 +29909,15 @@
         <v>124</v>
       </c>
       <c r="AI248">
-        <f t="shared" ref="AI248" si="832">Z248-AC248-AF248</f>
+        <f t="shared" ref="AI248" si="840">Z248-AC248-AF248</f>
         <v>966</v>
       </c>
       <c r="AJ248">
-        <f t="shared" ref="AJ248" si="833">AA248-AD248-AG248</f>
+        <f t="shared" ref="AJ248" si="841">AA248-AD248-AG248</f>
         <v>384</v>
       </c>
       <c r="AK248">
-        <f t="shared" ref="AK248" si="834">AB248-AE248-AH248</f>
+        <f t="shared" ref="AK248" si="842">AB248-AE248-AH248</f>
         <v>4155</v>
       </c>
       <c r="AL248">
@@ -29742,7 +29934,7 @@
         <v>30</v>
       </c>
       <c r="AT248">
-        <f t="shared" si="802"/>
+        <f t="shared" si="810"/>
         <v>936</v>
       </c>
       <c r="AU248">
@@ -29786,19 +29978,19 @@
         <v>0.44897959183673469</v>
       </c>
       <c r="BG248">
-        <f t="shared" ref="BG248" si="835">SUM(AV242:AV248)/SUM(AU242:AU248)</f>
+        <f t="shared" ref="BG248" si="843">SUM(AV242:AV248)/SUM(AU242:AU248)</f>
         <v>0.26292233038970431</v>
       </c>
       <c r="BH248">
-        <f t="shared" ref="BH248" si="836">SUM(AV235:AV248)/SUM(AU235:AU248)</f>
+        <f t="shared" ref="BH248" si="844">SUM(AV235:AV248)/SUM(AU235:AU248)</f>
         <v>0.27357830203918371</v>
       </c>
       <c r="BI248">
-        <f t="shared" ref="BI248" si="837">SUM(AY242:AY248)/SUM(AX242:AX248)</f>
+        <f t="shared" ref="BI248" si="845">SUM(AY242:AY248)/SUM(AX242:AX248)</f>
         <v>0.31069609507640067</v>
       </c>
       <c r="BJ248">
-        <f t="shared" ref="BJ248" si="838">SUM(BA242:BA248)/SUM(AZ242:AZ248)</f>
+        <f t="shared" ref="BJ248" si="846">SUM(BA242:BA248)/SUM(AZ242:AZ248)</f>
         <v>0.27050136027982902</v>
       </c>
       <c r="BK248">
@@ -29814,10 +30006,42 @@
       <c r="BN248">
         <v>0.28899999999999998</v>
       </c>
-    </row>
-    <row r="249" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="BP248" s="9">
+        <f t="shared" si="765"/>
+        <v>1133850</v>
+      </c>
+      <c r="BR248">
+        <f t="shared" si="766"/>
+        <v>198641</v>
+      </c>
+      <c r="BS248">
+        <f t="shared" si="767"/>
+        <v>18918</v>
+      </c>
+      <c r="BV248">
+        <f t="shared" si="768"/>
+        <v>1620</v>
+      </c>
+      <c r="BW248">
+        <f t="shared" si="769"/>
+        <v>14052</v>
+      </c>
+      <c r="BZ248">
+        <f t="shared" si="770"/>
+        <v>829</v>
+      </c>
+      <c r="CA248">
+        <f t="shared" si="771"/>
+        <v>108542</v>
+      </c>
+      <c r="CD248">
+        <f t="shared" si="772"/>
+        <v>9624</v>
+      </c>
+    </row>
+    <row r="249" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A249" s="14">
-        <f t="shared" si="807"/>
+        <f t="shared" si="815"/>
         <v>44155</v>
       </c>
       <c r="B249">
@@ -29859,39 +30083,39 @@
         <v>941637</v>
       </c>
       <c r="O249" s="4">
-        <f t="shared" si="823"/>
+        <f t="shared" si="831"/>
         <v>0.17736533119004769</v>
       </c>
       <c r="R249">
-        <f t="shared" ref="R249" si="839">C249-C248</f>
+        <f t="shared" ref="R249" si="847">C249-C248</f>
         <v>4382</v>
       </c>
       <c r="S249">
-        <f t="shared" ref="S249" si="840">N249-N248</f>
+        <f t="shared" ref="S249" si="848">N249-N248</f>
         <v>6428</v>
       </c>
       <c r="T249" s="8">
-        <f t="shared" ref="T249" si="841">R249/V249</f>
+        <f t="shared" ref="T249" si="849">R249/V249</f>
         <v>0.40536540240518038</v>
       </c>
       <c r="U249" s="8">
-        <f t="shared" ref="U249" si="842">SUM(R243:R249)/SUM(V243:V249)</f>
+        <f t="shared" ref="U249" si="850">SUM(R243:R249)/SUM(V243:V249)</f>
         <v>0.42189745314458676</v>
       </c>
       <c r="V249">
-        <f t="shared" ref="V249" si="843">B249-B248</f>
+        <f t="shared" ref="V249" si="851">B249-B248</f>
         <v>10810</v>
       </c>
       <c r="W249">
-        <f t="shared" ref="W249" si="844">C249-D249-E249</f>
+        <f t="shared" ref="W249" si="852">C249-D249-E249</f>
         <v>86603</v>
       </c>
       <c r="X249" s="3">
-        <f t="shared" ref="X249" si="845">F249/W249</f>
+        <f t="shared" ref="X249" si="853">F249/W249</f>
         <v>1.6708428114499498E-2</v>
       </c>
       <c r="Y249">
-        <f t="shared" ref="Y249" si="846">E249-E248</f>
+        <f t="shared" ref="Y249" si="854">E249-E248</f>
         <v>25</v>
       </c>
       <c r="Z249">
@@ -29922,15 +30146,15 @@
         <v>125</v>
       </c>
       <c r="AI249">
-        <f t="shared" ref="AI249" si="847">Z249-AC249-AF249</f>
+        <f t="shared" ref="AI249" si="855">Z249-AC249-AF249</f>
         <v>1026</v>
       </c>
       <c r="AJ249">
-        <f t="shared" ref="AJ249" si="848">AA249-AD249-AG249</f>
+        <f t="shared" ref="AJ249" si="856">AA249-AD249-AG249</f>
         <v>414</v>
       </c>
       <c r="AK249">
-        <f t="shared" ref="AK249" si="849">AB249-AE249-AH249</f>
+        <f t="shared" ref="AK249" si="857">AB249-AE249-AH249</f>
         <v>4355</v>
       </c>
       <c r="AL249">
@@ -29947,7 +30171,7 @@
         <v>31</v>
       </c>
       <c r="AT249">
-        <f t="shared" si="802"/>
+        <f t="shared" si="810"/>
         <v>995</v>
       </c>
       <c r="AU249">
@@ -29991,19 +30215,19 @@
         <v>0.45555555555555555</v>
       </c>
       <c r="BG249">
-        <f t="shared" ref="BG249" si="850">SUM(AV243:AV249)/SUM(AU243:AU249)</f>
+        <f t="shared" ref="BG249" si="858">SUM(AV243:AV249)/SUM(AU243:AU249)</f>
         <v>0.25462802311371285</v>
       </c>
       <c r="BH249">
-        <f t="shared" ref="BH249" si="851">SUM(AV236:AV249)/SUM(AU236:AU249)</f>
+        <f t="shared" ref="BH249" si="859">SUM(AV236:AV249)/SUM(AU236:AU249)</f>
         <v>0.27011723797664638</v>
       </c>
       <c r="BI249">
-        <f t="shared" ref="BI249" si="852">SUM(AY243:AY249)/SUM(AX243:AX249)</f>
+        <f t="shared" ref="BI249" si="860">SUM(AY243:AY249)/SUM(AX243:AX249)</f>
         <v>0.313893653516295</v>
       </c>
       <c r="BJ249">
-        <f t="shared" ref="BJ249" si="853">SUM(BA243:BA249)/SUM(AZ243:AZ249)</f>
+        <f t="shared" ref="BJ249" si="861">SUM(BA243:BA249)/SUM(AZ243:AZ249)</f>
         <v>0.25463145447378793</v>
       </c>
       <c r="BK249">
@@ -30019,10 +30243,42 @@
       <c r="BN249">
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="250" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="BP249" s="9">
+        <f t="shared" si="765"/>
+        <v>1144660</v>
+      </c>
+      <c r="BR249">
+        <f t="shared" si="766"/>
+        <v>203023</v>
+      </c>
+      <c r="BS249">
+        <f t="shared" si="767"/>
+        <v>19001</v>
+      </c>
+      <c r="BV249">
+        <f t="shared" si="768"/>
+        <v>1688</v>
+      </c>
+      <c r="BW249">
+        <f t="shared" si="769"/>
+        <v>14096</v>
+      </c>
+      <c r="BZ249">
+        <f t="shared" si="770"/>
+        <v>865</v>
+      </c>
+      <c r="CA249">
+        <f t="shared" si="771"/>
+        <v>108934</v>
+      </c>
+      <c r="CD249">
+        <f t="shared" si="772"/>
+        <v>9911</v>
+      </c>
+    </row>
+    <row r="250" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A250" s="14">
-        <f t="shared" si="807"/>
+        <f t="shared" si="815"/>
         <v>44156</v>
       </c>
       <c r="B250" s="9">
@@ -30064,39 +30320,39 @@
         <v>947149</v>
       </c>
       <c r="O250" s="4">
-        <f t="shared" si="823"/>
+        <f t="shared" si="831"/>
         <v>0.17910256310252151</v>
       </c>
       <c r="R250">
-        <f t="shared" ref="R250" si="854">C250-C249</f>
+        <f t="shared" ref="R250" si="862">C250-C249</f>
         <v>3625</v>
       </c>
       <c r="S250">
-        <f t="shared" ref="S250" si="855">N250-N249</f>
+        <f t="shared" ref="S250" si="863">N250-N249</f>
         <v>5512</v>
       </c>
       <c r="T250" s="8">
-        <f t="shared" ref="T250" si="856">R250/V250</f>
+        <f t="shared" ref="T250" si="864">R250/V250</f>
         <v>0.39673853562438438</v>
       </c>
       <c r="U250" s="8">
-        <f t="shared" ref="U250" si="857">SUM(R244:R250)/SUM(V244:V250)</f>
+        <f t="shared" ref="U250" si="865">SUM(R244:R250)/SUM(V244:V250)</f>
         <v>0.41224700149925037</v>
       </c>
       <c r="V250">
-        <f t="shared" ref="V250" si="858">B250-B249</f>
+        <f t="shared" ref="V250" si="866">B250-B249</f>
         <v>9137</v>
       </c>
       <c r="W250">
-        <f t="shared" ref="W250" si="859">C250-D250-E250</f>
+        <f t="shared" ref="W250" si="867">C250-D250-E250</f>
         <v>88757</v>
       </c>
       <c r="X250" s="3">
-        <f t="shared" ref="X250" si="860">F250/W250</f>
+        <f t="shared" ref="X250" si="868">F250/W250</f>
         <v>1.5953671259731628E-2</v>
       </c>
       <c r="Y250">
-        <f t="shared" ref="Y250" si="861">E250-E249</f>
+        <f t="shared" ref="Y250" si="869">E250-E249</f>
         <v>32</v>
       </c>
       <c r="Z250">
@@ -30127,15 +30383,15 @@
         <v>125</v>
       </c>
       <c r="AI250">
-        <f t="shared" ref="AI250" si="862">Z250-AC250-AF250</f>
+        <f t="shared" ref="AI250" si="870">Z250-AC250-AF250</f>
         <v>1040</v>
       </c>
       <c r="AJ250">
-        <f t="shared" ref="AJ250" si="863">AA250-AD250-AG250</f>
+        <f t="shared" ref="AJ250" si="871">AA250-AD250-AG250</f>
         <v>425</v>
       </c>
       <c r="AK250">
-        <f t="shared" ref="AK250" si="864">AB250-AE250-AH250</f>
+        <f t="shared" ref="AK250" si="872">AB250-AE250-AH250</f>
         <v>4413</v>
       </c>
       <c r="AS250">
@@ -30143,7 +30399,7 @@
         <v>37</v>
       </c>
       <c r="AT250">
-        <f t="shared" si="802"/>
+        <f t="shared" si="810"/>
         <v>1003</v>
       </c>
       <c r="AU250">
@@ -30187,19 +30443,19 @@
         <v>0.37</v>
       </c>
       <c r="BG250">
-        <f t="shared" ref="BG250" si="865">SUM(AV244:AV250)/SUM(AU244:AU250)</f>
+        <f t="shared" ref="BG250" si="873">SUM(AV244:AV250)/SUM(AU244:AU250)</f>
         <v>0.24590012330456226</v>
       </c>
       <c r="BH250">
-        <f t="shared" ref="BH250" si="866">SUM(AV237:AV250)/SUM(AU237:AU250)</f>
+        <f t="shared" ref="BH250" si="874">SUM(AV237:AV250)/SUM(AU237:AU250)</f>
         <v>0.26667324388318864</v>
       </c>
       <c r="BI250">
-        <f t="shared" ref="BI250" si="867">SUM(AY244:AY250)/SUM(AX244:AX250)</f>
+        <f t="shared" ref="BI250" si="875">SUM(AY244:AY250)/SUM(AX244:AX250)</f>
         <v>0.29038112522686027</v>
       </c>
       <c r="BJ250">
-        <f t="shared" ref="BJ250" si="868">SUM(BA244:BA250)/SUM(AZ244:AZ250)</f>
+        <f t="shared" ref="BJ250" si="876">SUM(BA244:BA250)/SUM(AZ244:AZ250)</f>
         <v>0.24416379640260238</v>
       </c>
       <c r="BK250">
@@ -30215,10 +30471,42 @@
       <c r="BN250">
         <v>0.215</v>
       </c>
-    </row>
-    <row r="251" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="BP250" s="9">
+        <f t="shared" si="765"/>
+        <v>1153797</v>
+      </c>
+      <c r="BR250">
+        <f t="shared" si="766"/>
+        <v>206648</v>
+      </c>
+      <c r="BS250">
+        <f t="shared" si="767"/>
+        <v>19059</v>
+      </c>
+      <c r="BV250">
+        <f t="shared" si="768"/>
+        <v>1714</v>
+      </c>
+      <c r="BW250">
+        <f t="shared" si="769"/>
+        <v>14137</v>
+      </c>
+      <c r="BZ250">
+        <f t="shared" si="770"/>
+        <v>876</v>
+      </c>
+      <c r="CA250">
+        <f t="shared" si="771"/>
+        <v>109353</v>
+      </c>
+      <c r="CD250">
+        <f t="shared" si="772"/>
+        <v>10044</v>
+      </c>
+    </row>
+    <row r="251" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A251" s="14">
-        <f t="shared" si="807"/>
+        <f t="shared" si="815"/>
         <v>44157</v>
       </c>
       <c r="B251" s="9">
@@ -30260,39 +30548,39 @@
         <v>952427</v>
       </c>
       <c r="O251" s="4">
-        <f t="shared" si="823"/>
+        <f t="shared" si="831"/>
         <v>0.18069527098053992</v>
       </c>
       <c r="R251">
-        <f t="shared" ref="R251" si="869">C251-C250</f>
+        <f t="shared" ref="R251" si="877">C251-C250</f>
         <v>3407</v>
       </c>
       <c r="S251">
-        <f t="shared" ref="S251" si="870">N251-N250</f>
+        <f t="shared" ref="S251" si="878">N251-N250</f>
         <v>5278</v>
       </c>
       <c r="T251" s="8">
-        <f t="shared" ref="T251" si="871">R251/V251</f>
+        <f t="shared" ref="T251" si="879">R251/V251</f>
         <v>0.39228554979850316</v>
       </c>
       <c r="U251" s="8">
-        <f t="shared" ref="U251" si="872">SUM(R245:R251)/SUM(V245:V251)</f>
+        <f t="shared" ref="U251" si="880">SUM(R245:R251)/SUM(V245:V251)</f>
         <v>0.40655396202227384</v>
       </c>
       <c r="V251">
-        <f t="shared" ref="V251" si="873">B251-B250</f>
+        <f t="shared" ref="V251" si="881">B251-B250</f>
         <v>8685</v>
       </c>
       <c r="W251">
-        <f t="shared" ref="W251" si="874">C251-D251-E251</f>
+        <f t="shared" ref="W251" si="882">C251-D251-E251</f>
         <v>91556</v>
       </c>
       <c r="X251" s="3">
-        <f t="shared" ref="X251" si="875">F251/W251</f>
+        <f t="shared" ref="X251" si="883">F251/W251</f>
         <v>1.4635851282275328E-2</v>
       </c>
       <c r="Y251">
-        <f t="shared" ref="Y251" si="876">E251-E250</f>
+        <f t="shared" ref="Y251" si="884">E251-E250</f>
         <v>33</v>
       </c>
       <c r="Z251">
@@ -30323,15 +30611,15 @@
         <v>126</v>
       </c>
       <c r="AI251">
-        <f t="shared" ref="AI251" si="877">Z251-AC251-AF251</f>
+        <f t="shared" ref="AI251" si="885">Z251-AC251-AF251</f>
         <v>1073</v>
       </c>
       <c r="AJ251">
-        <f t="shared" ref="AJ251" si="878">AA251-AD251-AG251</f>
+        <f t="shared" ref="AJ251" si="886">AA251-AD251-AG251</f>
         <v>440</v>
       </c>
       <c r="AK251">
-        <f t="shared" ref="AK251" si="879">AB251-AE251-AH251</f>
+        <f t="shared" ref="AK251" si="887">AB251-AE251-AH251</f>
         <v>4512</v>
       </c>
       <c r="AS251">
@@ -30339,7 +30627,7 @@
         <v>39</v>
       </c>
       <c r="AT251">
-        <f t="shared" si="802"/>
+        <f t="shared" si="810"/>
         <v>1034</v>
       </c>
       <c r="AU251">
@@ -30383,19 +30671,19 @@
         <v>0.4264705882352941</v>
       </c>
       <c r="BG251">
-        <f t="shared" ref="BG251" si="880">SUM(AV245:AV251)/SUM(AU245:AU251)</f>
+        <f t="shared" ref="BG251" si="888">SUM(AV245:AV251)/SUM(AU245:AU251)</f>
         <v>0.24199606796349279</v>
       </c>
       <c r="BH251">
-        <f t="shared" ref="BH251" si="881">SUM(AV238:AV251)/SUM(AU238:AU251)</f>
+        <f t="shared" ref="BH251" si="889">SUM(AV238:AV251)/SUM(AU238:AU251)</f>
         <v>0.26315710060957209</v>
       </c>
       <c r="BI251">
-        <f t="shared" ref="BI251" si="882">SUM(AY245:AY251)/SUM(AX245:AX251)</f>
+        <f t="shared" ref="BI251" si="890">SUM(AY245:AY251)/SUM(AX245:AX251)</f>
         <v>0.29549902152641877</v>
       </c>
       <c r="BJ251">
-        <f t="shared" ref="BJ251" si="883">SUM(BA245:BA251)/SUM(AZ245:AZ251)</f>
+        <f t="shared" ref="BJ251" si="891">SUM(BA245:BA251)/SUM(AZ245:AZ251)</f>
         <v>0.23754940711462449</v>
       </c>
       <c r="BK251">
@@ -30411,10 +30699,42 @@
       <c r="BN251">
         <v>0.21299999999999999</v>
       </c>
-    </row>
-    <row r="252" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="BP251" s="9">
+        <f t="shared" si="765"/>
+        <v>1162482</v>
+      </c>
+      <c r="BR251">
+        <f t="shared" si="766"/>
+        <v>210055</v>
+      </c>
+      <c r="BS251">
+        <f t="shared" si="767"/>
+        <v>19126</v>
+      </c>
+      <c r="BV251">
+        <f t="shared" si="768"/>
+        <v>1749</v>
+      </c>
+      <c r="BW251">
+        <f t="shared" si="769"/>
+        <v>14174</v>
+      </c>
+      <c r="BZ251">
+        <f t="shared" si="770"/>
+        <v>891</v>
+      </c>
+      <c r="CA251">
+        <f t="shared" si="771"/>
+        <v>109772</v>
+      </c>
+      <c r="CD251">
+        <f t="shared" si="772"/>
+        <v>10175</v>
+      </c>
+    </row>
+    <row r="252" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A252" s="14">
-        <f t="shared" si="807"/>
+        <f t="shared" si="815"/>
         <v>44158</v>
       </c>
       <c r="B252" s="9">
@@ -30456,39 +30776,39 @@
         <v>955788</v>
       </c>
       <c r="O252" s="4">
-        <f t="shared" si="823"/>
+        <f t="shared" si="831"/>
         <v>0.18134210873434484</v>
       </c>
       <c r="R252">
-        <f t="shared" ref="R252" si="884">C252-C251</f>
+        <f t="shared" ref="R252" si="892">C252-C251</f>
         <v>1663</v>
       </c>
       <c r="S252">
-        <f t="shared" ref="S252" si="885">N252-N251</f>
+        <f t="shared" ref="S252" si="893">N252-N251</f>
         <v>3361</v>
       </c>
       <c r="T252" s="8">
-        <f t="shared" ref="T252" si="886">R252/V252</f>
+        <f t="shared" ref="T252" si="894">R252/V252</f>
         <v>0.33101114649681529</v>
       </c>
       <c r="U252" s="8">
-        <f t="shared" ref="U252" si="887">SUM(R246:R252)/SUM(V246:V252)</f>
+        <f t="shared" ref="U252" si="895">SUM(R246:R252)/SUM(V246:V252)</f>
         <v>0.3983785700470634</v>
       </c>
       <c r="V252">
-        <f t="shared" ref="V252" si="888">B252-B251</f>
+        <f t="shared" ref="V252" si="896">B252-B251</f>
         <v>5024</v>
       </c>
       <c r="W252">
-        <f t="shared" ref="W252" si="889">C252-D252-E252</f>
+        <f t="shared" ref="W252" si="897">C252-D252-E252</f>
         <v>92711</v>
       </c>
       <c r="X252" s="3">
-        <f t="shared" ref="X252" si="890">F252/W252</f>
+        <f t="shared" ref="X252" si="898">F252/W252</f>
         <v>1.4378013396468596E-2</v>
       </c>
       <c r="Y252">
-        <f t="shared" ref="Y252" si="891">E252-E251</f>
+        <f t="shared" ref="Y252" si="899">E252-E251</f>
         <v>10</v>
       </c>
       <c r="Z252">
@@ -30519,15 +30839,15 @@
         <v>126</v>
       </c>
       <c r="AI252">
-        <f t="shared" ref="AI252" si="892">Z252-AC252-AF252</f>
+        <f t="shared" ref="AI252" si="900">Z252-AC252-AF252</f>
         <v>1079</v>
       </c>
       <c r="AJ252">
-        <f t="shared" ref="AJ252" si="893">AA252-AD252-AG252</f>
+        <f t="shared" ref="AJ252" si="901">AA252-AD252-AG252</f>
         <v>440</v>
       </c>
       <c r="AK252">
-        <f t="shared" ref="AK252" si="894">AB252-AE252-AH252</f>
+        <f t="shared" ref="AK252" si="902">AB252-AE252-AH252</f>
         <v>4515</v>
       </c>
       <c r="AL252">
@@ -30544,7 +30864,7 @@
         <v>47</v>
       </c>
       <c r="AT252">
-        <f t="shared" si="802"/>
+        <f t="shared" si="810"/>
         <v>1032</v>
       </c>
       <c r="AU252">
@@ -30588,19 +30908,19 @@
         <v>0.68965517241379315</v>
       </c>
       <c r="BG252">
-        <f t="shared" ref="BG252" si="895">SUM(AV246:AV252)/SUM(AU246:AU252)</f>
+        <f t="shared" ref="BG252" si="903">SUM(AV246:AV252)/SUM(AU246:AU252)</f>
         <v>0.23629534540959446</v>
       </c>
       <c r="BH252">
-        <f t="shared" ref="BH252" si="896">SUM(AV239:AV252)/SUM(AU239:AU252)</f>
+        <f t="shared" ref="BH252" si="904">SUM(AV239:AV252)/SUM(AU239:AU252)</f>
         <v>0.25945836764500241</v>
       </c>
       <c r="BI252">
-        <f t="shared" ref="BI252" si="897">SUM(AY246:AY252)/SUM(AX246:AX252)</f>
+        <f t="shared" ref="BI252" si="905">SUM(AY246:AY252)/SUM(AX246:AX252)</f>
         <v>0.30769230769230771</v>
       </c>
       <c r="BJ252">
-        <f t="shared" ref="BJ252" si="898">SUM(BA246:BA252)/SUM(AZ246:AZ252)</f>
+        <f t="shared" ref="BJ252" si="906">SUM(BA246:BA252)/SUM(AZ246:AZ252)</f>
         <v>0.22632020117351215</v>
       </c>
       <c r="BK252">
@@ -30616,10 +30936,42 @@
       <c r="BN252">
         <v>0.20499999999999999</v>
       </c>
-    </row>
-    <row r="253" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="BP252" s="9">
+        <f t="shared" si="765"/>
+        <v>1167506</v>
+      </c>
+      <c r="BR252">
+        <f t="shared" si="766"/>
+        <v>211718</v>
+      </c>
+      <c r="BS252">
+        <f t="shared" si="767"/>
+        <v>19154</v>
+      </c>
+      <c r="BV252">
+        <f t="shared" si="768"/>
+        <v>1760</v>
+      </c>
+      <c r="BW252">
+        <f t="shared" si="769"/>
+        <v>14203</v>
+      </c>
+      <c r="BZ252">
+        <f t="shared" si="770"/>
+        <v>894</v>
+      </c>
+      <c r="CA252">
+        <f t="shared" si="771"/>
+        <v>110142</v>
+      </c>
+      <c r="CD252">
+        <f t="shared" si="772"/>
+        <v>10209</v>
+      </c>
+    </row>
+    <row r="253" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A253" s="14">
-        <f t="shared" si="807"/>
+        <f t="shared" si="815"/>
         <v>44159</v>
       </c>
       <c r="B253" s="9">
@@ -30661,39 +31013,39 @@
         <v>961710</v>
       </c>
       <c r="O253" s="4">
-        <f t="shared" si="823"/>
+        <f t="shared" si="831"/>
         <v>0.18310782745636336</v>
       </c>
       <c r="R253">
-        <f t="shared" ref="R253" si="899">C253-C252</f>
+        <f t="shared" ref="R253" si="907">C253-C252</f>
         <v>3851</v>
       </c>
       <c r="S253">
-        <f t="shared" ref="S253" si="900">N253-N252</f>
+        <f t="shared" ref="S253" si="908">N253-N252</f>
         <v>5922</v>
       </c>
       <c r="T253" s="8">
-        <f t="shared" ref="T253" si="901">R253/V253</f>
+        <f t="shared" ref="T253" si="909">R253/V253</f>
         <v>0.39404481735393432</v>
       </c>
       <c r="U253" s="8">
-        <f t="shared" ref="U253" si="902">SUM(R247:R253)/SUM(V247:V253)</f>
+        <f t="shared" ref="U253" si="910">SUM(R247:R253)/SUM(V247:V253)</f>
         <v>0.39526423182170484</v>
       </c>
       <c r="V253">
-        <f t="shared" ref="V253" si="903">B253-B252</f>
+        <f t="shared" ref="V253" si="911">B253-B252</f>
         <v>9773</v>
       </c>
       <c r="W253">
-        <f t="shared" ref="W253" si="904">C253-D253-E253</f>
+        <f t="shared" ref="W253" si="912">C253-D253-E253</f>
         <v>93666</v>
       </c>
       <c r="X253" s="3">
-        <f t="shared" ref="X253" si="905">F253/W253</f>
+        <f t="shared" ref="X253" si="913">F253/W253</f>
         <v>1.4423590203488993E-2</v>
       </c>
       <c r="Y253">
-        <f t="shared" ref="Y253" si="906">E253-E252</f>
+        <f t="shared" ref="Y253" si="914">E253-E252</f>
         <v>20</v>
       </c>
       <c r="Z253">
@@ -30724,15 +31076,15 @@
         <v>127</v>
       </c>
       <c r="AI253">
-        <f t="shared" ref="AI253" si="907">Z253-AC253-AF253</f>
+        <f t="shared" ref="AI253" si="915">Z253-AC253-AF253</f>
         <v>1114</v>
       </c>
       <c r="AJ253">
-        <f t="shared" ref="AJ253" si="908">AA253-AD253-AG253</f>
+        <f t="shared" ref="AJ253" si="916">AA253-AD253-AG253</f>
         <v>457</v>
       </c>
       <c r="AK253">
-        <f t="shared" ref="AK253" si="909">AB253-AE253-AH253</f>
+        <f t="shared" ref="AK253" si="917">AB253-AE253-AH253</f>
         <v>4548</v>
       </c>
       <c r="AL253">
@@ -30749,7 +31101,7 @@
         <v>48</v>
       </c>
       <c r="AT253">
-        <f t="shared" si="802"/>
+        <f t="shared" si="810"/>
         <v>1066</v>
       </c>
       <c r="AU253">
@@ -30793,19 +31145,19 @@
         <v>0.4358974358974359</v>
       </c>
       <c r="BG253">
-        <f t="shared" ref="BG253" si="910">SUM(AV247:AV253)/SUM(AU247:AU253)</f>
+        <f t="shared" ref="BG253" si="918">SUM(AV247:AV253)/SUM(AU247:AU253)</f>
         <v>0.23351116191927854</v>
       </c>
       <c r="BH253">
-        <f t="shared" ref="BH253" si="911">SUM(AV240:AV253)/SUM(AU240:AU253)</f>
+        <f t="shared" ref="BH253" si="919">SUM(AV240:AV253)/SUM(AU240:AU253)</f>
         <v>0.25466658286719879</v>
       </c>
       <c r="BI253">
-        <f t="shared" ref="BI253" si="912">SUM(AY247:AY253)/SUM(AX247:AX253)</f>
+        <f t="shared" ref="BI253" si="920">SUM(AY247:AY253)/SUM(AX247:AX253)</f>
         <v>0.30598669623059865</v>
       </c>
       <c r="BJ253">
-        <f t="shared" ref="BJ253" si="913">SUM(BA247:BA253)/SUM(AZ247:AZ253)</f>
+        <f t="shared" ref="BJ253" si="921">SUM(BA247:BA253)/SUM(AZ247:AZ253)</f>
         <v>0.2165732586068855</v>
       </c>
       <c r="BK253">
@@ -30821,10 +31173,42 @@
       <c r="BN253">
         <v>0.187</v>
       </c>
-    </row>
-    <row r="254" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="BP253" s="9">
+        <f t="shared" si="765"/>
+        <v>1177279</v>
+      </c>
+      <c r="BR253">
+        <f t="shared" si="766"/>
+        <v>215569</v>
+      </c>
+      <c r="BS253">
+        <f t="shared" si="767"/>
+        <v>19234</v>
+      </c>
+      <c r="BV253">
+        <f t="shared" si="768"/>
+        <v>1830</v>
+      </c>
+      <c r="BW253">
+        <f t="shared" si="769"/>
+        <v>14223</v>
+      </c>
+      <c r="BZ253">
+        <f t="shared" si="770"/>
+        <v>913</v>
+      </c>
+      <c r="CA253">
+        <f t="shared" si="771"/>
+        <v>110308</v>
+      </c>
+      <c r="CD253">
+        <f t="shared" si="772"/>
+        <v>10413</v>
+      </c>
+    </row>
+    <row r="254" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A254" s="14">
-        <f t="shared" si="807"/>
+        <f t="shared" si="815"/>
         <v>44160</v>
       </c>
       <c r="B254" s="9">
@@ -30866,39 +31250,39 @@
         <v>966905</v>
       </c>
       <c r="O254" s="4">
-        <f t="shared" si="823"/>
+        <f t="shared" si="831"/>
         <v>0.18462990197731918</v>
       </c>
       <c r="R254">
-        <f t="shared" ref="R254" si="914">C254-C253</f>
+        <f t="shared" ref="R254" si="922">C254-C253</f>
         <v>3374</v>
       </c>
       <c r="S254">
-        <f t="shared" ref="S254" si="915">N254-N253</f>
+        <f t="shared" ref="S254" si="923">N254-N253</f>
         <v>5195</v>
       </c>
       <c r="T254" s="8">
-        <f t="shared" ref="T254" si="916">R254/V254</f>
+        <f t="shared" ref="T254" si="924">R254/V254</f>
         <v>0.39374489438674293</v>
       </c>
       <c r="U254" s="8">
-        <f t="shared" ref="U254" si="917">SUM(R248:R254)/SUM(V248:V254)</f>
+        <f t="shared" ref="U254" si="925">SUM(R248:R254)/SUM(V248:V254)</f>
         <v>0.39224766452481291</v>
       </c>
       <c r="V254">
-        <f t="shared" ref="V254" si="918">B254-B253</f>
+        <f t="shared" ref="V254" si="926">B254-B253</f>
         <v>8569</v>
       </c>
       <c r="W254">
-        <f t="shared" ref="W254" si="919">C254-D254-E254</f>
+        <f t="shared" ref="W254" si="927">C254-D254-E254</f>
         <v>94624</v>
       </c>
       <c r="X254" s="3">
-        <f t="shared" ref="X254" si="920">F254/W254</f>
+        <f t="shared" ref="X254" si="928">F254/W254</f>
         <v>1.3791427122083193E-2</v>
       </c>
       <c r="Y254">
-        <f t="shared" ref="Y254" si="921">E254-E253</f>
+        <f t="shared" ref="Y254" si="929">E254-E253</f>
         <v>49</v>
       </c>
       <c r="Z254">
@@ -30929,15 +31313,15 @@
         <v>131</v>
       </c>
       <c r="AI254">
-        <f t="shared" ref="AI254" si="922">Z254-AC254-AF254</f>
+        <f t="shared" ref="AI254" si="930">Z254-AC254-AF254</f>
         <v>1147</v>
       </c>
       <c r="AJ254">
-        <f t="shared" ref="AJ254" si="923">AA254-AD254-AG254</f>
+        <f t="shared" ref="AJ254" si="931">AA254-AD254-AG254</f>
         <v>492</v>
       </c>
       <c r="AK254">
-        <f t="shared" ref="AK254" si="924">AB254-AE254-AH254</f>
+        <f t="shared" ref="AK254" si="932">AB254-AE254-AH254</f>
         <v>4594</v>
       </c>
       <c r="AL254">
@@ -30954,7 +31338,7 @@
         <v>49</v>
       </c>
       <c r="AT254">
-        <f t="shared" si="802"/>
+        <f t="shared" si="810"/>
         <v>1098</v>
       </c>
       <c r="AU254">
@@ -30998,19 +31382,19 @@
         <v>0.43137254901960786</v>
       </c>
       <c r="BG254">
-        <f t="shared" ref="BG254" si="925">SUM(AV248:AV254)/SUM(AU248:AU254)</f>
+        <f t="shared" ref="BG254" si="933">SUM(AV248:AV254)/SUM(AU248:AU254)</f>
         <v>0.22808233530521124</v>
       </c>
       <c r="BH254">
-        <f t="shared" ref="BH254" si="926">SUM(AV241:AV254)/SUM(AU241:AU254)</f>
+        <f t="shared" ref="BH254" si="934">SUM(AV241:AV254)/SUM(AU241:AU254)</f>
         <v>0.25041763852991239</v>
       </c>
       <c r="BI254">
-        <f t="shared" ref="BI254" si="927">SUM(AY248:AY254)/SUM(AX248:AX254)</f>
+        <f t="shared" ref="BI254" si="935">SUM(AY248:AY254)/SUM(AX248:AX254)</f>
         <v>0.30701754385964913</v>
       </c>
       <c r="BJ254">
-        <f t="shared" ref="BJ254" si="928">SUM(BA248:BA254)/SUM(AZ248:AZ254)</f>
+        <f t="shared" ref="BJ254" si="936">SUM(BA248:BA254)/SUM(AZ248:AZ254)</f>
         <v>0.21283643892339543</v>
       </c>
       <c r="BK254">
@@ -31026,10 +31410,42 @@
       <c r="BN254">
         <v>0.19399999999999998</v>
       </c>
-    </row>
-    <row r="255" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="BP254" s="9">
+        <f t="shared" si="765"/>
+        <v>1185848</v>
+      </c>
+      <c r="BR254">
+        <f t="shared" si="766"/>
+        <v>218943</v>
+      </c>
+      <c r="BS254">
+        <f t="shared" si="767"/>
+        <v>19301</v>
+      </c>
+      <c r="BV254">
+        <f t="shared" si="768"/>
+        <v>1881</v>
+      </c>
+      <c r="BW254">
+        <f t="shared" si="769"/>
+        <v>14257</v>
+      </c>
+      <c r="BZ254">
+        <f t="shared" si="770"/>
+        <v>950</v>
+      </c>
+      <c r="CA254">
+        <f t="shared" si="771"/>
+        <v>110712</v>
+      </c>
+      <c r="CD254">
+        <f t="shared" si="772"/>
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="255" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A255" s="14">
-        <f t="shared" si="807"/>
+        <f t="shared" si="815"/>
         <v>44161</v>
       </c>
       <c r="B255" s="9">
@@ -31071,39 +31487,39 @@
         <v>972251</v>
       </c>
       <c r="O255" s="4">
-        <f t="shared" ref="O255:O259" si="929">C255/B255</f>
+        <f t="shared" ref="O255:O259" si="937">C255/B255</f>
         <v>0.18608003656671374</v>
       </c>
       <c r="R255">
-        <f t="shared" ref="R255" si="930">C255-C254</f>
+        <f t="shared" ref="R255" si="938">C255-C254</f>
         <v>3335</v>
       </c>
       <c r="S255">
-        <f t="shared" ref="S255" si="931">N255-N254</f>
+        <f t="shared" ref="S255" si="939">N255-N254</f>
         <v>5346</v>
       </c>
       <c r="T255" s="8">
-        <f t="shared" ref="T255" si="932">R255/V255</f>
+        <f t="shared" ref="T255" si="940">R255/V255</f>
         <v>0.38417233037668469</v>
       </c>
       <c r="U255" s="8">
-        <f t="shared" ref="U255" si="933">SUM(R249:R255)/SUM(V249:V255)</f>
+        <f t="shared" ref="U255" si="941">SUM(R249:R255)/SUM(V249:V255)</f>
         <v>0.38954168658020072</v>
       </c>
       <c r="V255">
-        <f t="shared" ref="V255" si="934">B255-B254</f>
+        <f t="shared" ref="V255" si="942">B255-B254</f>
         <v>8681</v>
       </c>
       <c r="W255">
-        <f t="shared" ref="W255" si="935">C255-D255-E255</f>
+        <f t="shared" ref="W255" si="943">C255-D255-E255</f>
         <v>95445</v>
       </c>
       <c r="X255" s="3">
-        <f t="shared" ref="X255" si="936">F255/W255</f>
+        <f t="shared" ref="X255" si="944">F255/W255</f>
         <v>1.3295615275813296E-2</v>
       </c>
       <c r="Y255">
-        <f t="shared" ref="Y255" si="937">E255-E254</f>
+        <f t="shared" ref="Y255" si="945">E255-E254</f>
         <v>41</v>
       </c>
       <c r="Z255">
@@ -31134,15 +31550,15 @@
         <v>132</v>
       </c>
       <c r="AI255">
-        <f t="shared" ref="AI255" si="938">Z255-AC255-AF255</f>
+        <f t="shared" ref="AI255" si="946">Z255-AC255-AF255</f>
         <v>1153</v>
       </c>
       <c r="AJ255">
-        <f t="shared" ref="AJ255" si="939">AA255-AD255-AG255</f>
+        <f t="shared" ref="AJ255" si="947">AA255-AD255-AG255</f>
         <v>505</v>
       </c>
       <c r="AK255">
-        <f t="shared" ref="AK255" si="940">AB255-AE255-AH255</f>
+        <f t="shared" ref="AK255" si="948">AB255-AE255-AH255</f>
         <v>4562</v>
       </c>
       <c r="AL255">
@@ -31159,7 +31575,7 @@
         <v>58</v>
       </c>
       <c r="AT255">
-        <f t="shared" si="802"/>
+        <f t="shared" si="810"/>
         <v>1095</v>
       </c>
       <c r="AU255">
@@ -31203,19 +31619,19 @@
         <v>0.54347826086956519</v>
       </c>
       <c r="BG255">
-        <f t="shared" ref="BG255" si="941">SUM(AV249:AV255)/SUM(AU249:AU255)</f>
+        <f t="shared" ref="BG255" si="949">SUM(AV249:AV255)/SUM(AU249:AU255)</f>
         <v>0.22562157465579469</v>
       </c>
       <c r="BH255">
-        <f t="shared" ref="BH255" si="942">SUM(AV242:AV255)/SUM(AU242:AU255)</f>
+        <f t="shared" ref="BH255" si="950">SUM(AV242:AV255)/SUM(AU242:AU255)</f>
         <v>0.24523398253648795</v>
       </c>
       <c r="BI255">
-        <f t="shared" ref="BI255" si="943">SUM(AY249:AY255)/SUM(AX249:AX255)</f>
+        <f t="shared" ref="BI255" si="951">SUM(AY249:AY255)/SUM(AX249:AX255)</f>
         <v>0.29655172413793102</v>
       </c>
       <c r="BJ255">
-        <f t="shared" ref="BJ255" si="944">SUM(BA249:BA255)/SUM(AZ249:AZ255)</f>
+        <f t="shared" ref="BJ255" si="952">SUM(BA249:BA255)/SUM(AZ249:AZ255)</f>
         <v>0.19956803455723543</v>
       </c>
       <c r="BK255">
@@ -31231,10 +31647,42 @@
       <c r="BN255">
         <v>0.19900000000000001</v>
       </c>
-    </row>
-    <row r="256" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="BP255" s="9">
+        <f t="shared" si="765"/>
+        <v>1194529</v>
+      </c>
+      <c r="BR255">
+        <f t="shared" si="766"/>
+        <v>222278</v>
+      </c>
+      <c r="BS255">
+        <f t="shared" si="767"/>
+        <v>19353</v>
+      </c>
+      <c r="BV255">
+        <f t="shared" si="768"/>
+        <v>1907</v>
+      </c>
+      <c r="BW255">
+        <f t="shared" si="769"/>
+        <v>14279</v>
+      </c>
+      <c r="BZ255">
+        <f t="shared" si="770"/>
+        <v>964</v>
+      </c>
+      <c r="CA255">
+        <f t="shared" si="771"/>
+        <v>110957</v>
+      </c>
+      <c r="CD255">
+        <f t="shared" si="772"/>
+        <v>10724</v>
+      </c>
+    </row>
+    <row r="256" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A256" s="14">
-        <f t="shared" si="807"/>
+        <f t="shared" si="815"/>
         <v>44162</v>
       </c>
       <c r="B256" s="9">
@@ -31268,7 +31716,7 @@
         <v>41</v>
       </c>
       <c r="M256">
-        <f t="shared" ref="M256:M259" si="945">-(J256-J255)+L256</f>
+        <f t="shared" ref="M256:M259" si="953">-(J256-J255)+L256</f>
         <v>60</v>
       </c>
       <c r="N256" s="7">
@@ -31276,39 +31724,39 @@
         <v>974231</v>
       </c>
       <c r="O256" s="4">
-        <f t="shared" si="929"/>
+        <f t="shared" si="937"/>
         <v>0.18662864041396965</v>
       </c>
       <c r="R256">
-        <f t="shared" ref="R256" si="946">C256-C255</f>
+        <f t="shared" ref="R256" si="954">C256-C255</f>
         <v>1260</v>
       </c>
       <c r="S256">
-        <f t="shared" ref="S256" si="947">N256-N255</f>
+        <f t="shared" ref="S256" si="955">N256-N255</f>
         <v>1980</v>
       </c>
       <c r="T256" s="8">
-        <f t="shared" ref="T256" si="948">R256/V256</f>
+        <f t="shared" ref="T256" si="956">R256/V256</f>
         <v>0.3888888888888889</v>
       </c>
       <c r="U256" s="8">
-        <f t="shared" ref="U256" si="949">SUM(R250:R256)/SUM(V250:V256)</f>
+        <f t="shared" ref="U256" si="957">SUM(R250:R256)/SUM(V250:V256)</f>
         <v>0.38628104464403396</v>
       </c>
       <c r="V256">
-        <f t="shared" ref="V256" si="950">B256-B255</f>
+        <f t="shared" ref="V256" si="958">B256-B255</f>
         <v>3240</v>
       </c>
       <c r="W256">
-        <f t="shared" ref="W256" si="951">C256-D256-E256</f>
+        <f t="shared" ref="W256" si="959">C256-D256-E256</f>
         <v>93840</v>
       </c>
       <c r="X256" s="3">
-        <f t="shared" ref="X256" si="952">F256/W256</f>
+        <f t="shared" ref="X256" si="960">F256/W256</f>
         <v>1.3064791133844842E-2</v>
       </c>
       <c r="Y256">
-        <f t="shared" ref="Y256" si="953">E256-E255</f>
+        <f t="shared" ref="Y256" si="961">E256-E255</f>
         <v>37</v>
       </c>
       <c r="Z256">
@@ -31339,15 +31787,15 @@
         <v>134</v>
       </c>
       <c r="AI256">
-        <f t="shared" ref="AI256" si="954">Z256-AC256-AF256</f>
+        <f t="shared" ref="AI256" si="962">Z256-AC256-AF256</f>
         <v>1123</v>
       </c>
       <c r="AJ256">
-        <f t="shared" ref="AJ256" si="955">AA256-AD256-AG256</f>
+        <f t="shared" ref="AJ256" si="963">AA256-AD256-AG256</f>
         <v>514</v>
       </c>
       <c r="AK256">
-        <f t="shared" ref="AK256" si="956">AB256-AE256-AH256</f>
+        <f t="shared" ref="AK256" si="964">AB256-AE256-AH256</f>
         <v>4360</v>
       </c>
       <c r="AS256">
@@ -31355,7 +31803,7 @@
         <v>59</v>
       </c>
       <c r="AT256">
-        <f t="shared" si="802"/>
+        <f t="shared" si="810"/>
         <v>1064</v>
       </c>
       <c r="AU256">
@@ -31399,19 +31847,19 @@
         <v>0.48148148148148145</v>
       </c>
       <c r="BG256">
-        <f t="shared" ref="BG256" si="957">SUM(AV250:AV256)/SUM(AU250:AU256)</f>
+        <f t="shared" ref="BG256" si="965">SUM(AV250:AV256)/SUM(AU250:AU256)</f>
         <v>0.22317022468863543</v>
       </c>
       <c r="BH256">
-        <f t="shared" ref="BH256" si="958">SUM(AV243:AV256)/SUM(AU243:AU256)</f>
+        <f t="shared" ref="BH256" si="966">SUM(AV243:AV256)/SUM(AU243:AU256)</f>
         <v>0.2403167711057384</v>
       </c>
       <c r="BI256">
-        <f t="shared" ref="BI256" si="959">SUM(AY250:AY256)/SUM(AX250:AX256)</f>
+        <f t="shared" ref="BI256" si="967">SUM(AY250:AY256)/SUM(AX250:AX256)</f>
         <v>0.26649746192893403</v>
       </c>
       <c r="BJ256">
-        <f t="shared" ref="BJ256" si="960">SUM(BA250:BA256)/SUM(AZ250:AZ256)</f>
+        <f t="shared" ref="BJ256" si="968">SUM(BA250:BA256)/SUM(AZ250:AZ256)</f>
         <v>0.19915848527349228</v>
       </c>
       <c r="BK256">
@@ -31427,10 +31875,42 @@
       <c r="BN256">
         <v>0.19400000000000001</v>
       </c>
+      <c r="BP256" s="9">
+        <f t="shared" si="765"/>
+        <v>1197769</v>
+      </c>
+      <c r="BR256">
+        <f t="shared" si="766"/>
+        <v>223538</v>
+      </c>
+      <c r="BS256">
+        <f t="shared" si="767"/>
+        <v>19395</v>
+      </c>
+      <c r="BV256">
+        <f t="shared" si="768"/>
+        <v>1915</v>
+      </c>
+      <c r="BW256">
+        <f t="shared" si="769"/>
+        <v>14304</v>
+      </c>
+      <c r="BZ256">
+        <f t="shared" si="770"/>
+        <v>977</v>
+      </c>
+      <c r="CA256">
+        <f t="shared" si="771"/>
+        <v>111249</v>
+      </c>
+      <c r="CD256">
+        <f t="shared" si="772"/>
+        <v>10736</v>
+      </c>
     </row>
     <row r="257" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A257" s="14">
-        <f t="shared" si="807"/>
+        <f t="shared" si="815"/>
         <v>44163</v>
       </c>
       <c r="B257" s="9">
@@ -31464,7 +31944,7 @@
         <v>18</v>
       </c>
       <c r="M257">
-        <f t="shared" si="945"/>
+        <f t="shared" si="953"/>
         <v>40</v>
       </c>
       <c r="N257" s="7">
@@ -31472,39 +31952,39 @@
         <v>977726</v>
       </c>
       <c r="O257" s="4">
-        <f t="shared" si="929"/>
+        <f t="shared" si="937"/>
         <v>0.18760188981193279</v>
       </c>
       <c r="R257">
-        <f t="shared" ref="R257" si="961">C257-C256</f>
+        <f t="shared" ref="R257" si="969">C257-C256</f>
         <v>2242</v>
       </c>
       <c r="S257">
-        <f t="shared" ref="S257" si="962">N257-N256</f>
+        <f t="shared" ref="S257" si="970">N257-N256</f>
         <v>3495</v>
       </c>
       <c r="T257" s="8">
-        <f t="shared" ref="T257" si="963">R257/V257</f>
+        <f t="shared" ref="T257" si="971">R257/V257</f>
         <v>0.39079658358026842</v>
       </c>
       <c r="U257" s="8">
-        <f t="shared" ref="U257" si="964">SUM(R251:R257)/SUM(V251:V257)</f>
+        <f t="shared" ref="U257" si="972">SUM(R251:R257)/SUM(V251:V257)</f>
         <v>0.38488000160936653</v>
       </c>
       <c r="V257">
-        <f t="shared" ref="V257" si="965">B257-B256</f>
+        <f t="shared" ref="V257" si="973">B257-B256</f>
         <v>5737</v>
       </c>
       <c r="W257">
-        <f t="shared" ref="W257" si="966">C257-D257-E257</f>
+        <f t="shared" ref="W257" si="974">C257-D257-E257</f>
         <v>93412</v>
       </c>
       <c r="X257" s="3">
-        <f t="shared" ref="X257" si="967">F257/W257</f>
+        <f t="shared" ref="X257" si="975">F257/W257</f>
         <v>1.3071125765426284E-2</v>
       </c>
       <c r="Y257">
-        <f t="shared" ref="Y257" si="968">E257-E256</f>
+        <f t="shared" ref="Y257" si="976">E257-E256</f>
         <v>11</v>
       </c>
       <c r="Z257">
@@ -31535,15 +32015,15 @@
         <v>134</v>
       </c>
       <c r="AI257">
-        <f t="shared" ref="AI257" si="969">Z257-AC257-AF257</f>
+        <f t="shared" ref="AI257" si="977">Z257-AC257-AF257</f>
         <v>1100</v>
       </c>
       <c r="AJ257">
-        <f t="shared" ref="AJ257" si="970">AA257-AD257-AG257</f>
+        <f t="shared" ref="AJ257" si="978">AA257-AD257-AG257</f>
         <v>524</v>
       </c>
       <c r="AK257">
-        <f t="shared" ref="AK257:AK262" si="971">AB257-AE257-AH257</f>
+        <f t="shared" ref="AK257:AK262" si="979">AB257-AE257-AH257</f>
         <v>4260</v>
       </c>
       <c r="AS257">
@@ -31551,7 +32031,7 @@
         <v>59</v>
       </c>
       <c r="AT257">
-        <f t="shared" ref="AT257:AT259" si="972">AI257-AS257</f>
+        <f t="shared" ref="AT257:AT259" si="980">AI257-AS257</f>
         <v>1041</v>
       </c>
       <c r="AU257">
@@ -31595,23 +32075,23 @@
         <v>0.64102564102564108</v>
       </c>
       <c r="BG257">
-        <f t="shared" ref="BG257" si="973">SUM(AV251:AV257)/SUM(AU251:AU257)</f>
+        <f t="shared" ref="BG257" si="981">SUM(AV251:AV257)/SUM(AU251:AU257)</f>
         <v>0.21745266850817591</v>
       </c>
       <c r="BH257">
-        <f t="shared" ref="BH257" si="974">SUM(AV244:AV257)/SUM(AU244:AU257)</f>
+        <f t="shared" ref="BH257" si="982">SUM(AV244:AV257)/SUM(AU244:AU257)</f>
         <v>0.23357530333604129</v>
       </c>
       <c r="BI257">
-        <f t="shared" ref="BI257" si="975">SUM(AY251:AY257)/SUM(AX251:AX257)</f>
+        <f t="shared" ref="BI257" si="983">SUM(AY251:AY257)/SUM(AX251:AX257)</f>
         <v>0.26005361930294907</v>
       </c>
       <c r="BJ257">
-        <f t="shared" ref="BJ257" si="976">SUM(BA251:BA257)/SUM(AZ251:AZ257)</f>
+        <f t="shared" ref="BJ257" si="984">SUM(BA251:BA257)/SUM(AZ251:AZ257)</f>
         <v>0.18575063613231552</v>
       </c>
       <c r="BK257">
-        <f t="shared" ref="BK257:BK262" si="977">SUM(BC251:BC257)/SUM(BB251:BB257)</f>
+        <f t="shared" ref="BK257:BK262" si="985">SUM(BC251:BC257)/SUM(BB251:BB257)</f>
         <v>0.27624309392265195</v>
       </c>
       <c r="BL257">
@@ -31623,10 +32103,42 @@
       <c r="BN257">
         <v>0.186</v>
       </c>
+      <c r="BP257" s="9">
+        <f t="shared" si="765"/>
+        <v>1203506</v>
+      </c>
+      <c r="BR257">
+        <f t="shared" si="766"/>
+        <v>225780</v>
+      </c>
+      <c r="BS257">
+        <f t="shared" si="767"/>
+        <v>19432</v>
+      </c>
+      <c r="BV257">
+        <f t="shared" si="768"/>
+        <v>1928</v>
+      </c>
+      <c r="BW257">
+        <f t="shared" si="769"/>
+        <v>14330</v>
+      </c>
+      <c r="BZ257">
+        <f t="shared" si="770"/>
+        <v>992</v>
+      </c>
+      <c r="CA257">
+        <f t="shared" si="771"/>
+        <v>111492</v>
+      </c>
+      <c r="CD257">
+        <f t="shared" si="772"/>
+        <v>10813</v>
+      </c>
     </row>
     <row r="258" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A258" s="14">
-        <f t="shared" si="807"/>
+        <f t="shared" si="815"/>
         <v>44164</v>
       </c>
       <c r="B258" s="9">
@@ -31660,7 +32172,7 @@
         <v>30</v>
       </c>
       <c r="M258">
-        <f t="shared" si="945"/>
+        <f t="shared" si="953"/>
         <v>44</v>
       </c>
       <c r="N258" s="7">
@@ -31668,27 +32180,27 @@
         <v>980257</v>
       </c>
       <c r="O258" s="4">
-        <f t="shared" si="929"/>
+        <f t="shared" si="937"/>
         <v>0.18856457456750655</v>
       </c>
       <c r="R258">
-        <f t="shared" ref="R258" si="978">C258-C257</f>
+        <f t="shared" ref="R258" si="986">C258-C257</f>
         <v>2016</v>
       </c>
       <c r="S258">
-        <f t="shared" ref="S258" si="979">N258-N257</f>
+        <f t="shared" ref="S258" si="987">N258-N257</f>
         <v>2531</v>
       </c>
       <c r="T258" s="8">
-        <f t="shared" ref="T258" si="980">R258/V258</f>
+        <f t="shared" ref="T258" si="988">R258/V258</f>
         <v>0.44336925445348579</v>
       </c>
       <c r="U258" s="8">
-        <f t="shared" ref="U258" si="981">SUM(R252:R258)/SUM(V252:V258)</f>
+        <f t="shared" ref="U258" si="989">SUM(R252:R258)/SUM(V252:V258)</f>
         <v>0.38930460161067343</v>
       </c>
       <c r="V258">
-        <f t="shared" ref="V258" si="982">B258-B257</f>
+        <f t="shared" ref="V258" si="990">B258-B257</f>
         <v>4547</v>
       </c>
       <c r="W258">
@@ -31700,7 +32212,7 @@
         <v>1.2457194957751556E-2</v>
       </c>
       <c r="Y258">
-        <f t="shared" ref="Y258" si="983">E258-E257</f>
+        <f t="shared" ref="Y258" si="991">E258-E257</f>
         <v>15</v>
       </c>
       <c r="Z258">
@@ -31731,15 +32243,15 @@
         <v>134</v>
       </c>
       <c r="AI258">
-        <f t="shared" ref="AI258" si="984">Z258-AC258-AF258</f>
+        <f t="shared" ref="AI258" si="992">Z258-AC258-AF258</f>
         <v>1103</v>
       </c>
       <c r="AJ258">
-        <f t="shared" ref="AJ258" si="985">AA258-AD258-AG258</f>
+        <f t="shared" ref="AJ258" si="993">AA258-AD258-AG258</f>
         <v>547</v>
       </c>
       <c r="AK258">
-        <f t="shared" si="971"/>
+        <f t="shared" si="979"/>
         <v>4282</v>
       </c>
       <c r="AS258">
@@ -31747,7 +32259,7 @@
         <v>59</v>
       </c>
       <c r="AT258">
-        <f t="shared" si="972"/>
+        <f t="shared" si="980"/>
         <v>1044</v>
       </c>
       <c r="AU258">
@@ -31791,23 +32303,23 @@
         <v>0.37037037037037035</v>
       </c>
       <c r="BG258">
-        <f t="shared" ref="BG258" si="986">SUM(AV252:AV258)/SUM(AU252:AU258)</f>
+        <f t="shared" ref="BG258" si="994">SUM(AV252:AV258)/SUM(AU252:AU258)</f>
         <v>0.2183481056656239</v>
       </c>
       <c r="BH258">
-        <f t="shared" ref="BH258" si="987">SUM(AV245:AV258)/SUM(AU245:AU258)</f>
+        <f t="shared" ref="BH258" si="995">SUM(AV245:AV258)/SUM(AU245:AU258)</f>
         <v>0.23197200607762788</v>
       </c>
       <c r="BI258">
-        <f t="shared" ref="BI258" si="988">SUM(AY252:AY258)/SUM(AX252:AX258)</f>
+        <f t="shared" ref="BI258" si="996">SUM(AY252:AY258)/SUM(AX252:AX258)</f>
         <v>0.25806451612903225</v>
       </c>
       <c r="BJ258">
-        <f t="shared" ref="BJ258" si="989">SUM(BA252:BA258)/SUM(AZ252:AZ258)</f>
+        <f t="shared" ref="BJ258" si="997">SUM(BA252:BA258)/SUM(AZ252:AZ258)</f>
         <v>0.18377765173000568</v>
       </c>
       <c r="BK258">
-        <f t="shared" si="977"/>
+        <f t="shared" si="985"/>
         <v>0.29629629629629628</v>
       </c>
       <c r="BL258">
@@ -31819,10 +32331,42 @@
       <c r="BN258">
         <v>0.20200000000000001</v>
       </c>
+      <c r="BP258" s="9">
+        <f t="shared" si="765"/>
+        <v>1208053</v>
+      </c>
+      <c r="BR258">
+        <f t="shared" si="766"/>
+        <v>227796</v>
+      </c>
+      <c r="BS258">
+        <f t="shared" si="767"/>
+        <v>19467</v>
+      </c>
+      <c r="BV258">
+        <f t="shared" si="768"/>
+        <v>1950</v>
+      </c>
+      <c r="BW258">
+        <f t="shared" si="769"/>
+        <v>14355</v>
+      </c>
+      <c r="BZ258">
+        <f t="shared" si="770"/>
+        <v>1018</v>
+      </c>
+      <c r="CA258">
+        <f t="shared" si="771"/>
+        <v>111737</v>
+      </c>
+      <c r="CD258">
+        <f t="shared" si="772"/>
+        <v>10886</v>
+      </c>
     </row>
     <row r="259" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A259" s="14">
-        <f t="shared" si="807"/>
+        <f t="shared" si="815"/>
         <v>44165</v>
       </c>
       <c r="B259" s="9">
@@ -31856,7 +32400,7 @@
         <v>29</v>
       </c>
       <c r="M259">
-        <f t="shared" si="945"/>
+        <f t="shared" si="953"/>
         <v>38</v>
       </c>
       <c r="N259" s="7">
@@ -31864,39 +32408,39 @@
         <v>982088</v>
       </c>
       <c r="O259" s="4">
-        <f t="shared" si="929"/>
+        <f t="shared" si="937"/>
         <v>0.18906742853368125</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259" si="990">C259-C258</f>
+        <f t="shared" ref="R259" si="998">C259-C258</f>
         <v>1176</v>
       </c>
       <c r="S259">
-        <f t="shared" ref="S259" si="991">N259-N258</f>
+        <f t="shared" ref="S259" si="999">N259-N258</f>
         <v>1831</v>
       </c>
       <c r="T259" s="8">
-        <f t="shared" ref="T259" si="992">R259/V259</f>
+        <f t="shared" ref="T259" si="1000">R259/V259</f>
         <v>0.39108746258729632</v>
       </c>
       <c r="U259" s="8">
-        <f t="shared" ref="U259" si="993">SUM(R253:R259)/SUM(V253:V259)</f>
+        <f t="shared" ref="U259" si="1001">SUM(R253:R259)/SUM(V253:V259)</f>
         <v>0.39615190338430456</v>
       </c>
       <c r="V259">
-        <f t="shared" ref="V259" si="994">B259-B258</f>
+        <f t="shared" ref="V259" si="1002">B259-B258</f>
         <v>3007</v>
       </c>
       <c r="W259">
-        <f t="shared" ref="W259" si="995">C259-D259-E259</f>
+        <f t="shared" ref="W259" si="1003">C259-D259-E259</f>
         <v>94360</v>
       </c>
       <c r="X259" s="3">
-        <f t="shared" ref="X259" si="996">F259/W259</f>
+        <f t="shared" ref="X259" si="1004">F259/W259</f>
         <v>1.2314540059347181E-2</v>
       </c>
       <c r="Y259">
-        <f t="shared" ref="Y259" si="997">E259-E258</f>
+        <f t="shared" ref="Y259" si="1005">E259-E258</f>
         <v>25</v>
       </c>
       <c r="Z259">
@@ -31927,15 +32471,15 @@
         <v>135</v>
       </c>
       <c r="AI259">
-        <f t="shared" ref="AI259" si="998">Z259-AC259-AF259</f>
+        <f t="shared" ref="AI259" si="1006">Z259-AC259-AF259</f>
         <v>1091</v>
       </c>
       <c r="AJ259">
-        <f t="shared" ref="AJ259" si="999">AA259-AD259-AG259</f>
+        <f t="shared" ref="AJ259" si="1007">AA259-AD259-AG259</f>
         <v>546</v>
       </c>
       <c r="AK259">
-        <f t="shared" si="971"/>
+        <f t="shared" si="979"/>
         <v>4214</v>
       </c>
       <c r="AL259">
@@ -31952,7 +32496,7 @@
         <v>59</v>
       </c>
       <c r="AT259">
-        <f t="shared" si="972"/>
+        <f t="shared" si="980"/>
         <v>1032</v>
       </c>
       <c r="AU259">
@@ -31996,23 +32540,23 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="BG259">
-        <f t="shared" ref="BG259" si="1000">SUM(AV253:AV259)/SUM(AU253:AU259)</f>
+        <f t="shared" ref="BG259" si="1008">SUM(AV253:AV259)/SUM(AU253:AU259)</f>
         <v>0.21970755332029432</v>
       </c>
       <c r="BH259">
-        <f t="shared" ref="BH259" si="1001">SUM(AV246:AV259)/SUM(AU246:AU259)</f>
+        <f t="shared" ref="BH259" si="1009">SUM(AV246:AV259)/SUM(AU246:AU259)</f>
         <v>0.22957745150735051</v>
       </c>
       <c r="BI259">
-        <f t="shared" ref="BI259" si="1002">SUM(AY253:AY259)/SUM(AX253:AX259)</f>
+        <f t="shared" ref="BI259" si="1010">SUM(AY253:AY259)/SUM(AX253:AX259)</f>
         <v>0.24085365853658536</v>
       </c>
       <c r="BJ259">
-        <f t="shared" ref="BJ259" si="1003">SUM(BA253:BA259)/SUM(AZ253:AZ259)</f>
+        <f t="shared" ref="BJ259" si="1011">SUM(BA253:BA259)/SUM(AZ253:AZ259)</f>
         <v>0.18113858539390454</v>
       </c>
       <c r="BK259">
-        <f t="shared" si="977"/>
+        <f t="shared" si="985"/>
         <v>0.31372549019607843</v>
       </c>
       <c r="BL259">
@@ -32024,10 +32568,42 @@
       <c r="BN259">
         <v>0.20499999999999999</v>
       </c>
+      <c r="BP259" s="9">
+        <f t="shared" si="765"/>
+        <v>1211060</v>
+      </c>
+      <c r="BR259">
+        <f t="shared" si="766"/>
+        <v>228972</v>
+      </c>
+      <c r="BS259">
+        <f t="shared" si="767"/>
+        <v>19482</v>
+      </c>
+      <c r="BV259">
+        <f t="shared" si="768"/>
+        <v>1953</v>
+      </c>
+      <c r="BW259">
+        <f t="shared" si="769"/>
+        <v>14365</v>
+      </c>
+      <c r="BZ259">
+        <f t="shared" si="770"/>
+        <v>1023</v>
+      </c>
+      <c r="CA259">
+        <f t="shared" si="771"/>
+        <v>111905</v>
+      </c>
+      <c r="CD259">
+        <f t="shared" si="772"/>
+        <v>10899</v>
+      </c>
     </row>
     <row r="260" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A260" s="14">
-        <f t="shared" si="807"/>
+        <f t="shared" si="815"/>
         <v>44166</v>
       </c>
       <c r="B260" s="9">
@@ -32061,47 +32637,47 @@
         <v>42</v>
       </c>
       <c r="M260">
-        <f t="shared" ref="M260:M261" si="1004">-(J260-J259)+L260</f>
+        <f t="shared" ref="M260:M261" si="1012">-(J260-J259)+L260</f>
         <v>32</v>
       </c>
       <c r="N260" s="7">
-        <f t="shared" ref="N260:N261" si="1005">B260-C260</f>
+        <f t="shared" ref="N260:N261" si="1013">B260-C260</f>
         <v>984772</v>
       </c>
       <c r="O260" s="4">
-        <f t="shared" ref="O260:O261" si="1006">C260/B260</f>
+        <f t="shared" ref="O260:O261" si="1014">C260/B260</f>
         <v>0.18993476848157806</v>
       </c>
       <c r="R260">
-        <f t="shared" ref="R260" si="1007">C260-C259</f>
+        <f t="shared" ref="R260" si="1015">C260-C259</f>
         <v>1926</v>
       </c>
       <c r="S260">
-        <f t="shared" ref="S260" si="1008">N260-N259</f>
+        <f t="shared" ref="S260" si="1016">N260-N259</f>
         <v>2684</v>
       </c>
       <c r="T260" s="8">
-        <f t="shared" ref="T260" si="1009">R260/V260</f>
+        <f t="shared" ref="T260" si="1017">R260/V260</f>
         <v>0.41778741865509761</v>
       </c>
       <c r="U260" s="8">
-        <f t="shared" ref="U260" si="1010">SUM(R254:R260)/SUM(V254:V260)</f>
+        <f t="shared" ref="U260" si="1018">SUM(R254:R260)/SUM(V254:V260)</f>
         <v>0.3992862910578</v>
       </c>
       <c r="V260">
-        <f t="shared" ref="V260" si="1011">B260-B259</f>
+        <f t="shared" ref="V260" si="1019">B260-B259</f>
         <v>4610</v>
       </c>
       <c r="W260">
-        <f t="shared" ref="W260" si="1012">C260-D260-E260</f>
+        <f t="shared" ref="W260" si="1020">C260-D260-E260</f>
         <v>91041</v>
       </c>
       <c r="X260" s="3">
-        <f t="shared" ref="X260" si="1013">F260/W260</f>
+        <f t="shared" ref="X260" si="1021">F260/W260</f>
         <v>1.287332081150251E-2</v>
       </c>
       <c r="Y260">
-        <f t="shared" ref="Y260" si="1014">E260-E259</f>
+        <f t="shared" ref="Y260" si="1022">E260-E259</f>
         <v>27</v>
       </c>
       <c r="Z260">
@@ -32132,15 +32708,15 @@
         <v>137</v>
       </c>
       <c r="AI260">
-        <f t="shared" ref="AI260" si="1015">Z260-AC260-AF260</f>
+        <f t="shared" ref="AI260" si="1023">Z260-AC260-AF260</f>
         <v>1041</v>
       </c>
       <c r="AJ260">
-        <f t="shared" ref="AJ260" si="1016">AA260-AD260-AG260</f>
+        <f t="shared" ref="AJ260" si="1024">AA260-AD260-AG260</f>
         <v>517</v>
       </c>
       <c r="AK260">
-        <f t="shared" si="971"/>
+        <f t="shared" si="979"/>
         <v>3993</v>
       </c>
       <c r="AS260">
@@ -32148,7 +32724,7 @@
         <v>57</v>
       </c>
       <c r="AT260">
-        <f t="shared" ref="AT260:AT263" si="1017">AI260-AS260</f>
+        <f t="shared" ref="AT260:AT263" si="1025">AI260-AS260</f>
         <v>984</v>
       </c>
       <c r="AU260">
@@ -32192,23 +32768,23 @@
         <v>0.32558139534883723</v>
       </c>
       <c r="BG260">
-        <f t="shared" ref="BG260" si="1018">SUM(AV254:AV260)/SUM(AU254:AU260)</f>
+        <f t="shared" ref="BG260" si="1026">SUM(AV254:AV260)/SUM(AU254:AU260)</f>
         <v>0.22318803852002028</v>
       </c>
       <c r="BH260">
-        <f t="shared" ref="BH260" si="1019">SUM(AV247:AV260)/SUM(AU247:AU260)</f>
+        <f t="shared" ref="BH260" si="1027">SUM(AV247:AV260)/SUM(AU247:AU260)</f>
         <v>0.22953476113312898</v>
       </c>
       <c r="BI260">
-        <f t="shared" ref="BI260" si="1020">SUM(AY254:AY260)/SUM(AX254:AX260)</f>
+        <f t="shared" ref="BI260" si="1028">SUM(AY254:AY260)/SUM(AX254:AX260)</f>
         <v>0.2342007434944238</v>
       </c>
       <c r="BJ260">
-        <f t="shared" ref="BJ260" si="1021">SUM(BA254:BA260)/SUM(AZ254:AZ260)</f>
+        <f t="shared" ref="BJ260" si="1029">SUM(BA254:BA260)/SUM(AZ254:AZ260)</f>
         <v>0.18704074816299265</v>
       </c>
       <c r="BK260">
-        <f t="shared" si="977"/>
+        <f t="shared" si="985"/>
         <v>0.33082706766917291</v>
       </c>
       <c r="BL260">
@@ -32220,10 +32796,42 @@
       <c r="BN260">
         <v>0.20100000000000001</v>
       </c>
+      <c r="BP260" s="9">
+        <f t="shared" si="765"/>
+        <v>1215670</v>
+      </c>
+      <c r="BR260">
+        <f>C260</f>
+        <v>230898</v>
+      </c>
+      <c r="BS260">
+        <f t="shared" si="767"/>
+        <v>19503</v>
+      </c>
+      <c r="BV260">
+        <f t="shared" si="768"/>
+        <v>1967</v>
+      </c>
+      <c r="BW260">
+        <f t="shared" si="769"/>
+        <v>14376</v>
+      </c>
+      <c r="BZ260">
+        <f t="shared" si="770"/>
+        <v>1026</v>
+      </c>
+      <c r="CA260">
+        <f t="shared" si="771"/>
+        <v>112047</v>
+      </c>
+      <c r="CD260">
+        <f t="shared" si="772"/>
+        <v>10974</v>
+      </c>
     </row>
     <row r="261" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A261" s="14">
-        <f t="shared" si="807"/>
+        <f t="shared" si="815"/>
         <v>44167</v>
       </c>
       <c r="B261" s="9">
@@ -32257,47 +32865,47 @@
         <v>51</v>
       </c>
       <c r="M261">
-        <f t="shared" si="1004"/>
+        <f t="shared" si="1012"/>
         <v>43</v>
       </c>
       <c r="N261" s="7">
-        <f t="shared" si="1005"/>
+        <f t="shared" si="1013"/>
         <v>988707</v>
       </c>
       <c r="O261" s="4">
-        <f t="shared" si="1006"/>
+        <f t="shared" si="1014"/>
         <v>0.19129133182013375</v>
       </c>
       <c r="R261">
-        <f t="shared" ref="R261" si="1022">C261-C260</f>
+        <f t="shared" ref="R261" si="1030">C261-C260</f>
         <v>2970</v>
       </c>
       <c r="S261">
-        <f t="shared" ref="S261" si="1023">N261-N260</f>
+        <f t="shared" ref="S261" si="1031">N261-N260</f>
         <v>3935</v>
       </c>
       <c r="T261" s="8">
-        <f t="shared" ref="T261" si="1024">R261/V261</f>
+        <f t="shared" ref="T261" si="1032">R261/V261</f>
         <v>0.43012309920347574</v>
       </c>
       <c r="U261" s="8">
-        <f t="shared" ref="U261" si="1025">SUM(R255:R261)/SUM(V255:V261)</f>
+        <f t="shared" ref="U261" si="1033">SUM(R255:R261)/SUM(V255:V261)</f>
         <v>0.40637678002559424</v>
       </c>
       <c r="V261">
-        <f t="shared" ref="V261" si="1026">B261-B260</f>
+        <f t="shared" ref="V261" si="1034">B261-B260</f>
         <v>6905</v>
       </c>
       <c r="W261">
-        <f t="shared" ref="W261" si="1027">C261-D261-E261</f>
+        <f t="shared" ref="W261" si="1035">C261-D261-E261</f>
         <v>89168</v>
       </c>
       <c r="X261" s="3">
-        <f t="shared" ref="X261" si="1028">F261/W261</f>
+        <f t="shared" ref="X261" si="1036">F261/W261</f>
         <v>1.3031580836174412E-2</v>
       </c>
       <c r="Y261">
-        <f t="shared" ref="Y261" si="1029">E261-E260</f>
+        <f t="shared" ref="Y261" si="1037">E261-E260</f>
         <v>22</v>
       </c>
       <c r="Z261">
@@ -32328,15 +32936,15 @@
         <v>137</v>
       </c>
       <c r="AI261">
-        <f t="shared" ref="AI261" si="1030">Z261-AC261-AF261</f>
+        <f t="shared" ref="AI261" si="1038">Z261-AC261-AF261</f>
         <v>1009</v>
       </c>
       <c r="AJ261">
-        <f t="shared" ref="AJ261" si="1031">AA261-AD261-AG261</f>
+        <f t="shared" ref="AJ261" si="1039">AA261-AD261-AG261</f>
         <v>518</v>
       </c>
       <c r="AK261">
-        <f t="shared" si="971"/>
+        <f t="shared" si="979"/>
         <v>3936</v>
       </c>
       <c r="AS261">
@@ -32344,7 +32952,7 @@
         <v>53</v>
       </c>
       <c r="AT261">
-        <f t="shared" si="1017"/>
+        <f t="shared" si="1025"/>
         <v>956</v>
       </c>
       <c r="AU261">
@@ -32388,23 +32996,23 @@
         <v>0.40350877192982454</v>
       </c>
       <c r="BG261">
-        <f t="shared" ref="BG261" si="1032">SUM(AV255:AV261)/SUM(AU255:AU261)</f>
+        <f t="shared" ref="BG261" si="1040">SUM(AV255:AV261)/SUM(AU255:AU261)</f>
         <v>0.22132186031779549</v>
       </c>
       <c r="BH261">
-        <f t="shared" ref="BH261" si="1033">SUM(AV248:AV261)/SUM(AU248:AU261)</f>
+        <f t="shared" ref="BH261" si="1041">SUM(AV248:AV261)/SUM(AU248:AU261)</f>
         <v>0.2255191393545159</v>
       </c>
       <c r="BI261">
-        <f t="shared" ref="BI261" si="1034">SUM(AY255:AY261)/SUM(AX255:AX261)</f>
+        <f t="shared" ref="BI261" si="1042">SUM(AY255:AY261)/SUM(AX255:AX261)</f>
         <v>0.19028340080971659</v>
       </c>
       <c r="BJ261">
-        <f t="shared" ref="BJ261" si="1035">SUM(BA255:BA261)/SUM(AZ255:AZ261)</f>
+        <f t="shared" ref="BJ261" si="1043">SUM(BA255:BA261)/SUM(AZ255:AZ261)</f>
         <v>0.16417910447761194</v>
       </c>
       <c r="BK261">
-        <f t="shared" si="977"/>
+        <f t="shared" si="985"/>
         <v>0.32835820895522388</v>
       </c>
       <c r="BL261">
@@ -32416,10 +33024,42 @@
       <c r="BN261">
         <v>0.2</v>
       </c>
+      <c r="BP261" s="9">
+        <f t="shared" si="765"/>
+        <v>1222575</v>
+      </c>
+      <c r="BR261">
+        <f>C261</f>
+        <v>233868</v>
+      </c>
+      <c r="BS261">
+        <f>BS262-AX262</f>
+        <v>19548</v>
+      </c>
+      <c r="BV261">
+        <f>Z261</f>
+        <v>1986</v>
+      </c>
+      <c r="BW261">
+        <f>BW262-BB261</f>
+        <v>14390</v>
+      </c>
+      <c r="BZ261">
+        <f>AA261</f>
+        <v>1050</v>
+      </c>
+      <c r="CA261">
+        <f>CA262-AZ261</f>
+        <v>112209</v>
+      </c>
+      <c r="CD261">
+        <f>AB261</f>
+        <v>11159</v>
+      </c>
     </row>
     <row r="262" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A262" s="14">
-        <f t="shared" si="807"/>
+        <f t="shared" si="815"/>
         <v>44168</v>
       </c>
       <c r="B262" s="9">
@@ -32453,47 +33093,47 @@
         <v>34</v>
       </c>
       <c r="M262">
-        <f t="shared" ref="M262" si="1036">-(J262-J261)+L262</f>
+        <f t="shared" ref="M262" si="1044">-(J262-J261)+L262</f>
         <v>22</v>
       </c>
       <c r="N262" s="7">
-        <f t="shared" ref="N262" si="1037">B262-C262</f>
+        <f t="shared" ref="N262" si="1045">B262-C262</f>
         <v>992781</v>
       </c>
       <c r="O262" s="4">
-        <f t="shared" ref="O262" si="1038">C262/B262</f>
+        <f t="shared" ref="O262" si="1046">C262/B262</f>
         <v>0.19258330303836196</v>
       </c>
       <c r="R262">
-        <f t="shared" ref="R262" si="1039">C262-C261</f>
+        <f t="shared" ref="R262" si="1047">C262-C261</f>
         <v>2928</v>
       </c>
       <c r="S262">
-        <f t="shared" ref="S262" si="1040">N262-N261</f>
+        <f t="shared" ref="S262" si="1048">N262-N261</f>
         <v>4074</v>
       </c>
       <c r="T262" s="8">
-        <f t="shared" ref="T262" si="1041">R262/V262</f>
+        <f t="shared" ref="T262" si="1049">R262/V262</f>
         <v>0.41816623821765209</v>
       </c>
       <c r="U262" s="8">
-        <f t="shared" ref="U262" si="1042">SUM(R256:R262)/SUM(V256:V262)</f>
+        <f t="shared" ref="U262" si="1050">SUM(R256:R262)/SUM(V256:V262)</f>
         <v>0.41423191052271169</v>
       </c>
       <c r="V262">
-        <f t="shared" ref="V262" si="1043">B262-B261</f>
+        <f t="shared" ref="V262" si="1051">B262-B261</f>
         <v>7002</v>
       </c>
       <c r="W262">
-        <f t="shared" ref="W262" si="1044">C262-D262-E262</f>
+        <f t="shared" ref="W262" si="1052">C262-D262-E262</f>
         <v>87124</v>
       </c>
       <c r="X262" s="3">
-        <f t="shared" ref="X262" si="1045">F262/W262</f>
+        <f t="shared" ref="X262" si="1053">F262/W262</f>
         <v>1.2901152380515127E-2</v>
       </c>
       <c r="Y262">
-        <f t="shared" ref="Y262" si="1046">E262-E261</f>
+        <f t="shared" ref="Y262" si="1054">E262-E261</f>
         <v>70</v>
       </c>
       <c r="Z262">
@@ -32524,15 +33164,15 @@
         <v>139</v>
       </c>
       <c r="AI262">
-        <f t="shared" ref="AI262" si="1047">Z262-AC262-AF262</f>
+        <f t="shared" ref="AI262" si="1055">Z262-AC262-AF262</f>
         <v>968</v>
       </c>
       <c r="AJ262">
-        <f t="shared" ref="AJ262" si="1048">AA262-AD262-AG262</f>
+        <f t="shared" ref="AJ262" si="1056">AA262-AD262-AG262</f>
         <v>510</v>
       </c>
       <c r="AK262">
-        <f t="shared" si="971"/>
+        <f t="shared" si="979"/>
         <v>3750</v>
       </c>
       <c r="AS262">
@@ -32540,7 +33180,7 @@
         <v>52</v>
       </c>
       <c r="AT262">
-        <f t="shared" si="1017"/>
+        <f t="shared" si="1025"/>
         <v>916</v>
       </c>
       <c r="AU262">
@@ -32584,23 +33224,23 @@
         <v>0.61764705882352944</v>
       </c>
       <c r="BG262">
-        <f t="shared" ref="BG262" si="1049">SUM(AV256:AV262)/SUM(AU256:AU262)</f>
+        <f t="shared" ref="BG262" si="1057">SUM(AV256:AV262)/SUM(AU256:AU262)</f>
         <v>0.21961280387196128</v>
       </c>
       <c r="BH262">
-        <f t="shared" ref="BH262" si="1050">SUM(AV249:AV262)/SUM(AU249:AU262)</f>
+        <f t="shared" ref="BH262" si="1058">SUM(AV249:AV262)/SUM(AU249:AU262)</f>
         <v>0.22335051760695132</v>
       </c>
       <c r="BI262">
-        <f t="shared" ref="BI262" si="1051">SUM(AY256:AY262)/SUM(AX256:AX262)</f>
+        <f t="shared" ref="BI262" si="1059">SUM(AY256:AY262)/SUM(AX256:AX262)</f>
         <v>0.19665271966527198</v>
       </c>
       <c r="BJ262">
-        <f t="shared" ref="BJ262" si="1052">SUM(BA256:BA262)/SUM(AZ256:AZ262)</f>
+        <f t="shared" ref="BJ262" si="1060">SUM(BA256:BA262)/SUM(AZ256:AZ262)</f>
         <v>0.16555891238670695</v>
       </c>
       <c r="BK262">
-        <f t="shared" si="977"/>
+        <f t="shared" si="985"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="BL262">
@@ -32612,10 +33252,46 @@
       <c r="BN262">
         <v>0.20100000000000001</v>
       </c>
+      <c r="BO262">
+        <f>BO264-AU262</f>
+        <v>2553984</v>
+      </c>
+      <c r="BP262" s="9">
+        <f>B262</f>
+        <v>1229577</v>
+      </c>
+      <c r="BR262">
+        <f>C262</f>
+        <v>236796</v>
+      </c>
+      <c r="BS262">
+        <f>BS263-AX263</f>
+        <v>19592</v>
+      </c>
+      <c r="BV262">
+        <f>Z262</f>
+        <v>2007</v>
+      </c>
+      <c r="BW262">
+        <f>BW263-BB262</f>
+        <v>14413</v>
+      </c>
+      <c r="BZ262">
+        <f>AA262</f>
+        <v>1062</v>
+      </c>
+      <c r="CA262">
+        <f>CA263-AZ262</f>
+        <v>112699</v>
+      </c>
+      <c r="CD262">
+        <f>AB262</f>
+        <v>11221</v>
+      </c>
     </row>
     <row r="263" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A263" s="14">
-        <f t="shared" si="807"/>
+        <f t="shared" si="815"/>
         <v>44169</v>
       </c>
       <c r="B263" s="9">
@@ -32649,47 +33325,47 @@
         <v>26</v>
       </c>
       <c r="M263">
-        <f t="shared" ref="M263" si="1053">-(J263-J262)+L263</f>
+        <f t="shared" ref="M263" si="1061">-(J263-J262)+L263</f>
         <v>79</v>
       </c>
       <c r="N263" s="7">
-        <f t="shared" ref="N263" si="1054">B263-C263</f>
+        <f t="shared" ref="N263" si="1062">B263-C263</f>
         <v>997477</v>
       </c>
       <c r="O263" s="4">
-        <f t="shared" ref="O263" si="1055">C263/B263</f>
+        <f t="shared" ref="O263" si="1063">C263/B263</f>
         <v>0.19373906773879615</v>
       </c>
       <c r="R263">
-        <f t="shared" ref="R263" si="1056">C263-C262</f>
+        <f t="shared" ref="R263" si="1064">C263-C262</f>
         <v>2891</v>
       </c>
       <c r="S263">
-        <f t="shared" ref="S263" si="1057">N263-N262</f>
+        <f t="shared" ref="S263" si="1065">N263-N262</f>
         <v>4696</v>
       </c>
       <c r="T263" s="8">
-        <f t="shared" ref="T263" si="1058">R263/V263</f>
+        <f t="shared" ref="T263" si="1066">R263/V263</f>
         <v>0.38104652695400026</v>
       </c>
       <c r="U263" s="8">
-        <f t="shared" ref="U263" si="1059">SUM(R257:R263)/SUM(V257:V263)</f>
+        <f t="shared" ref="U263" si="1067">SUM(R257:R263)/SUM(V257:V263)</f>
         <v>0.40992511740068538</v>
       </c>
       <c r="V263">
-        <f t="shared" ref="V263" si="1060">B263-B262</f>
+        <f t="shared" ref="V263" si="1068">B263-B262</f>
         <v>7587</v>
       </c>
       <c r="W263">
-        <f t="shared" ref="W263" si="1061">C263-D263-E263</f>
+        <f t="shared" ref="W263" si="1069">C263-D263-E263</f>
         <v>84752</v>
       </c>
       <c r="X263" s="3">
-        <f t="shared" ref="X263" si="1062">F263/W263</f>
+        <f t="shared" ref="X263" si="1070">F263/W263</f>
         <v>1.1799131583915424E-2</v>
       </c>
       <c r="Y263">
-        <f t="shared" ref="Y263:Y264" si="1063">E263-E262</f>
+        <f t="shared" ref="Y263:Y264" si="1071">E263-E262</f>
         <v>84</v>
       </c>
       <c r="Z263">
@@ -32720,15 +33396,15 @@
         <v>147</v>
       </c>
       <c r="AI263">
-        <f t="shared" ref="AI263" si="1064">Z263-AC263-AF263</f>
+        <f t="shared" ref="AI263" si="1072">Z263-AC263-AF263</f>
         <v>914</v>
       </c>
       <c r="AJ263">
-        <f t="shared" ref="AJ263" si="1065">AA263-AD263-AG263</f>
+        <f t="shared" ref="AJ263" si="1073">AA263-AD263-AG263</f>
         <v>491</v>
       </c>
       <c r="AK263">
-        <f t="shared" ref="AK263" si="1066">AB263-AE263-AH263</f>
+        <f t="shared" ref="AK263" si="1074">AB263-AE263-AH263</f>
         <v>3550</v>
       </c>
       <c r="AL263">
@@ -32745,7 +33421,7 @@
         <v>50</v>
       </c>
       <c r="AT263">
-        <f t="shared" si="1017"/>
+        <f t="shared" si="1025"/>
         <v>864</v>
       </c>
       <c r="AU263">
@@ -32789,23 +33465,23 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="BG263">
-        <f t="shared" ref="BG263" si="1067">SUM(AV257:AV263)/SUM(AU257:AU263)</f>
+        <f t="shared" ref="BG263" si="1075">SUM(AV257:AV263)/SUM(AU257:AU263)</f>
         <v>0.21712756940029668</v>
       </c>
       <c r="BH263">
-        <f t="shared" ref="BH263" si="1068">SUM(AV250:AV263)/SUM(AU250:AU263)</f>
+        <f t="shared" ref="BH263" si="1076">SUM(AV250:AV263)/SUM(AU250:AU263)</f>
         <v>0.22071922039689276</v>
       </c>
       <c r="BI263">
-        <f t="shared" ref="BI263" si="1069">SUM(AY257:AY263)/SUM(AX257:AX263)</f>
+        <f t="shared" ref="BI263" si="1077">SUM(AY257:AY263)/SUM(AX257:AX263)</f>
         <v>0.19183673469387755</v>
       </c>
       <c r="BJ263">
-        <f t="shared" ref="BJ263" si="1070">SUM(BA257:BA263)/SUM(AZ257:AZ263)</f>
+        <f t="shared" ref="BJ263" si="1078">SUM(BA257:BA263)/SUM(AZ257:AZ263)</f>
         <v>0.15728977616454931</v>
       </c>
       <c r="BK263">
-        <f t="shared" ref="BK263" si="1071">SUM(BC257:BC263)/SUM(BB257:BB263)</f>
+        <f t="shared" ref="BK263" si="1079">SUM(BC257:BC263)/SUM(BB257:BB263)</f>
         <v>0.28244274809160308</v>
       </c>
       <c r="BL263">
@@ -32817,10 +33493,42 @@
       <c r="BN263">
         <v>0.185</v>
       </c>
+      <c r="BP263" s="9">
+        <f>B263</f>
+        <v>1237164</v>
+      </c>
+      <c r="BR263">
+        <f>C263</f>
+        <v>239687</v>
+      </c>
+      <c r="BS263">
+        <f>BS264-AX264</f>
+        <v>19640</v>
+      </c>
+      <c r="BV263">
+        <f>Z263</f>
+        <v>2030</v>
+      </c>
+      <c r="BW263">
+        <f>BW264-BB263</f>
+        <v>14434</v>
+      </c>
+      <c r="BZ263">
+        <f>AA263</f>
+        <v>1076</v>
+      </c>
+      <c r="CA263">
+        <f>CA264-AZ263</f>
+        <v>112904</v>
+      </c>
+      <c r="CD263">
+        <f>AB263</f>
+        <v>11297</v>
+      </c>
     </row>
     <row r="264" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A264" s="14">
-        <f t="shared" si="807"/>
+        <f t="shared" si="815"/>
         <v>44170</v>
       </c>
       <c r="B264" s="9">
@@ -32854,47 +33562,47 @@
         <v>30</v>
       </c>
       <c r="M264">
-        <f t="shared" ref="M264" si="1072">-(J264-J263)+L264</f>
+        <f t="shared" ref="M264" si="1080">-(J264-J263)+L264</f>
         <v>51</v>
       </c>
       <c r="N264" s="7">
-        <f t="shared" ref="N264" si="1073">B264-C264</f>
+        <f t="shared" ref="N264" si="1081">B264-C264</f>
         <v>1001527</v>
       </c>
       <c r="O264" s="4">
-        <f t="shared" ref="O264" si="1074">C264/B264</f>
+        <f t="shared" ref="O264" si="1082">C264/B264</f>
         <v>0.19464855780442109</v>
       </c>
       <c r="R264">
-        <f t="shared" ref="R264" si="1075">C264-C263</f>
+        <f t="shared" ref="R264" si="1083">C264-C263</f>
         <v>2376</v>
       </c>
       <c r="S264">
-        <f t="shared" ref="S264" si="1076">N264-N263</f>
+        <f t="shared" ref="S264" si="1084">N264-N263</f>
         <v>4050</v>
       </c>
       <c r="T264" s="8">
-        <f t="shared" ref="T264" si="1077">R264/V264</f>
+        <f t="shared" ref="T264" si="1085">R264/V264</f>
         <v>0.36974789915966388</v>
       </c>
       <c r="U264" s="8">
-        <f t="shared" ref="U264" si="1078">SUM(R258:R264)/SUM(V258:V264)</f>
+        <f t="shared" ref="U264" si="1086">SUM(R258:R264)/SUM(V258:V264)</f>
         <v>0.40622193393872869</v>
       </c>
       <c r="V264">
-        <f t="shared" ref="V264" si="1079">B264-B263</f>
+        <f t="shared" ref="V264" si="1087">B264-B263</f>
         <v>6426</v>
       </c>
       <c r="W264">
-        <f t="shared" ref="W264" si="1080">C264-D264-E264</f>
+        <f t="shared" ref="W264" si="1088">C264-D264-E264</f>
         <v>82370</v>
       </c>
       <c r="X264" s="3">
-        <f t="shared" ref="X264" si="1081">F264/W264</f>
+        <f t="shared" ref="X264" si="1089">F264/W264</f>
         <v>1.1654728663348306E-2</v>
       </c>
       <c r="Y264">
-        <f t="shared" si="1063"/>
+        <f t="shared" si="1071"/>
         <v>62</v>
       </c>
       <c r="Z264">
@@ -32925,15 +33633,15 @@
         <v>149</v>
       </c>
       <c r="AI264">
-        <f t="shared" ref="AI264" si="1082">Z264-AC264-AF264</f>
+        <f t="shared" ref="AI264" si="1090">Z264-AC264-AF264</f>
         <v>874</v>
       </c>
       <c r="AJ264">
-        <f t="shared" ref="AJ264" si="1083">AA264-AD264-AG264</f>
+        <f t="shared" ref="AJ264" si="1091">AA264-AD264-AG264</f>
         <v>465</v>
       </c>
       <c r="AK264">
-        <f t="shared" ref="AK264:AK265" si="1084">AB264-AE264-AH264</f>
+        <f t="shared" ref="AK264:AK265" si="1092">AB264-AE264-AH264</f>
         <v>3382</v>
       </c>
       <c r="AS264">
@@ -32941,8 +33649,28 @@
         <v>50</v>
       </c>
       <c r="AT264">
-        <f t="shared" ref="AT264:AT265" si="1085">AI264-AS264</f>
+        <f t="shared" ref="AT264:AT265" si="1093">AI264-AS264</f>
         <v>824</v>
+      </c>
+      <c r="BG264">
+        <f t="shared" ref="BG264:BG270" si="1094">SUM(AV258:AV264)/SUM(AU258:AU264)</f>
+        <v>0.22082143508111063</v>
+      </c>
+      <c r="BH264">
+        <f t="shared" ref="BH264:BH270" si="1095">SUM(AV251:AV264)/SUM(AU251:AU264)</f>
+        <v>0.21879658243955644</v>
+      </c>
+      <c r="BI264">
+        <f t="shared" ref="BI264:BI270" si="1096">SUM(AY258:AY264)/SUM(AX258:AX264)</f>
+        <v>0.20192307692307693</v>
+      </c>
+      <c r="BJ264">
+        <f t="shared" ref="BJ264:BJ270" si="1097">SUM(BA258:BA264)/SUM(AZ258:AZ264)</f>
+        <v>0.15696022727272727</v>
+      </c>
+      <c r="BK264">
+        <f t="shared" ref="BK264:BK270" si="1098">SUM(BC258:BC264)/SUM(BB258:BB264)</f>
+        <v>0.29245283018867924</v>
       </c>
       <c r="BL264">
         <v>0.2</v>
@@ -33004,7 +33732,7 @@
     </row>
     <row r="265" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A265" s="14">
-        <f t="shared" si="807"/>
+        <f t="shared" si="815"/>
         <v>44171</v>
       </c>
       <c r="B265" s="9">
@@ -33038,47 +33766,47 @@
         <v>29</v>
       </c>
       <c r="M265">
-        <f t="shared" ref="M265:M266" si="1086">-(J265-J264)+L265</f>
+        <f t="shared" ref="M265:M266" si="1099">-(J265-J264)+L265</f>
         <v>43</v>
       </c>
       <c r="N265" s="7">
-        <f t="shared" ref="N265:N266" si="1087">B265-C265</f>
+        <f t="shared" ref="N265:N266" si="1100">B265-C265</f>
         <v>1005068</v>
       </c>
       <c r="O265" s="4">
-        <f t="shared" ref="O265" si="1088">C265/B265</f>
+        <f t="shared" ref="O265" si="1101">C265/B265</f>
         <v>0.19529990864669811</v>
       </c>
       <c r="R265">
-        <f t="shared" ref="R265" si="1089">C265-C264</f>
+        <f t="shared" ref="R265" si="1102">C265-C264</f>
         <v>1866</v>
       </c>
       <c r="S265">
-        <f t="shared" ref="S265" si="1090">N265-N264</f>
+        <f t="shared" ref="S265" si="1103">N265-N264</f>
         <v>3541</v>
       </c>
       <c r="T265" s="8">
-        <f t="shared" ref="T265" si="1091">R265/V265</f>
+        <f t="shared" ref="T265" si="1104">R265/V265</f>
         <v>0.34510819308304053</v>
       </c>
       <c r="U265" s="8">
-        <f t="shared" ref="U265" si="1092">SUM(R259:R265)/SUM(V259:V265)</f>
+        <f t="shared" ref="U265" si="1105">SUM(R259:R265)/SUM(V259:V265)</f>
         <v>0.39402598671355998</v>
       </c>
       <c r="V265">
-        <f t="shared" ref="V265" si="1093">B265-B264</f>
+        <f t="shared" ref="V265" si="1106">B265-B264</f>
         <v>5407</v>
       </c>
       <c r="W265">
-        <f t="shared" ref="W265" si="1094">C265-D265-E265</f>
+        <f t="shared" ref="W265" si="1107">C265-D265-E265</f>
         <v>82252</v>
       </c>
       <c r="X265" s="3">
-        <f t="shared" ref="X265" si="1095">F265/W265</f>
+        <f t="shared" ref="X265" si="1108">F265/W265</f>
         <v>1.1160822837134659E-2</v>
       </c>
       <c r="Y265">
-        <f t="shared" ref="Y265" si="1096">E265-E264</f>
+        <f t="shared" ref="Y265" si="1109">E265-E264</f>
         <v>18</v>
       </c>
       <c r="Z265">
@@ -33109,15 +33837,15 @@
         <v>152</v>
       </c>
       <c r="AI265">
-        <f t="shared" ref="AI265" si="1097">Z265-AC265-AF265</f>
+        <f t="shared" ref="AI265" si="1110">Z265-AC265-AF265</f>
         <v>850</v>
       </c>
       <c r="AJ265">
-        <f t="shared" ref="AJ265" si="1098">AA265-AD265-AG265</f>
+        <f t="shared" ref="AJ265" si="1111">AA265-AD265-AG265</f>
         <v>461</v>
       </c>
       <c r="AK265">
-        <f t="shared" si="1084"/>
+        <f t="shared" si="1092"/>
         <v>3362</v>
       </c>
       <c r="AS265">
@@ -33125,8 +33853,76 @@
         <v>47</v>
       </c>
       <c r="AT265">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1093"/>
         <v>803</v>
+      </c>
+      <c r="AU265">
+        <f t="shared" ref="AU265:AU270" si="1112">BO265-BO264</f>
+        <v>18816</v>
+      </c>
+      <c r="AV265">
+        <f t="shared" ref="AV265:AV270" si="1113">BQ265-BQ264</f>
+        <v>2030</v>
+      </c>
+      <c r="AW265">
+        <f t="shared" si="630"/>
+        <v>0.10788690476190477</v>
+      </c>
+      <c r="AX265">
+        <f>BS265-BS264</f>
+        <v>74</v>
+      </c>
+      <c r="AY265">
+        <f>BU265-BU264</f>
+        <v>8</v>
+      </c>
+      <c r="AZ265">
+        <f>CA265-CA264</f>
+        <v>687</v>
+      </c>
+      <c r="BA265">
+        <f>CC265-CC264</f>
+        <v>73</v>
+      </c>
+      <c r="BB265">
+        <f>BW265-BW264</f>
+        <v>204</v>
+      </c>
+      <c r="BC265">
+        <f>BY265-BY264</f>
+        <v>8</v>
+      </c>
+      <c r="BD265">
+        <f t="shared" ref="BD265:BD270" si="1114">AY265/AX265</f>
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="BE265">
+        <f t="shared" ref="BE265:BE270" si="1115">BA265/AZ265</f>
+        <v>0.10625909752547306</v>
+      </c>
+      <c r="BF265">
+        <f t="shared" ref="BF265:BF270" si="1116">BB265/BA265</f>
+        <v>2.7945205479452055</v>
+      </c>
+      <c r="BG265">
+        <f t="shared" si="1094"/>
+        <v>0.17337514131524498</v>
+      </c>
+      <c r="BH265">
+        <f t="shared" si="1095"/>
+        <v>0.19565615145351029</v>
+      </c>
+      <c r="BI265">
+        <f t="shared" si="1096"/>
+        <v>0.17408906882591094</v>
+      </c>
+      <c r="BJ265">
+        <f t="shared" si="1097"/>
+        <v>0.13855734302023873</v>
+      </c>
+      <c r="BK265">
+        <f t="shared" si="1098"/>
+        <v>0.11666666666666667</v>
       </c>
       <c r="BL265">
         <v>0.187</v>
@@ -33188,7 +33984,7 @@
     </row>
     <row r="266" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A266" s="14">
-        <f t="shared" si="807"/>
+        <f t="shared" si="815"/>
         <v>44172</v>
       </c>
       <c r="B266" s="9">
@@ -33222,47 +34018,47 @@
         <v>14</v>
       </c>
       <c r="M266">
-        <f t="shared" si="1086"/>
+        <f t="shared" si="1099"/>
         <v>25</v>
       </c>
       <c r="N266" s="7">
-        <f t="shared" si="1087"/>
+        <f t="shared" si="1100"/>
         <v>1006545</v>
       </c>
       <c r="O266" s="4">
-        <f t="shared" ref="O266" si="1099">C266/B266</f>
+        <f t="shared" ref="O266" si="1117">C266/B266</f>
         <v>0.1956603560991631</v>
       </c>
       <c r="R266">
-        <f t="shared" ref="R266" si="1100">C266-C265</f>
+        <f t="shared" ref="R266" si="1118">C266-C265</f>
         <v>919</v>
       </c>
       <c r="S266">
-        <f t="shared" ref="S266" si="1101">N266-N265</f>
+        <f t="shared" ref="S266" si="1119">N266-N265</f>
         <v>1477</v>
       </c>
       <c r="T266" s="8">
-        <f t="shared" ref="T266" si="1102">R266/V266</f>
+        <f t="shared" ref="T266" si="1120">R266/V266</f>
         <v>0.38355592654424042</v>
       </c>
       <c r="U266" s="8">
-        <f t="shared" ref="U266" si="1103">SUM(R260:R266)/SUM(V260:V266)</f>
+        <f t="shared" ref="U266" si="1121">SUM(R260:R266)/SUM(V260:V266)</f>
         <v>0.39362308779411398</v>
       </c>
       <c r="V266">
-        <f t="shared" ref="V266" si="1104">B266-B265</f>
+        <f t="shared" ref="V266" si="1122">B266-B265</f>
         <v>2396</v>
       </c>
       <c r="W266">
-        <f t="shared" ref="W266" si="1105">C266-D266-E266</f>
+        <f t="shared" ref="W266" si="1123">C266-D266-E266</f>
         <v>81294</v>
       </c>
       <c r="X266" s="3">
-        <f t="shared" ref="X266" si="1106">F266/W266</f>
+        <f t="shared" ref="X266" si="1124">F266/W266</f>
         <v>1.104632568209216E-2</v>
       </c>
       <c r="Y266">
-        <f t="shared" ref="Y266" si="1107">E266-E265</f>
+        <f t="shared" ref="Y266" si="1125">E266-E265</f>
         <v>34</v>
       </c>
       <c r="Z266">
@@ -33293,15 +34089,15 @@
         <v>156</v>
       </c>
       <c r="AI266">
-        <f t="shared" ref="AI266:AI268" si="1108">Z266-AC266-AF266</f>
+        <f t="shared" ref="AI266:AI268" si="1126">Z266-AC266-AF266</f>
         <v>822</v>
       </c>
       <c r="AJ266">
-        <f t="shared" ref="AJ266:AJ268" si="1109">AA266-AD266-AG266</f>
+        <f t="shared" ref="AJ266:AJ268" si="1127">AA266-AD266-AG266</f>
         <v>446</v>
       </c>
       <c r="AK266">
-        <f t="shared" ref="AK266:AK268" si="1110">AB266-AE266-AH266</f>
+        <f t="shared" ref="AK266:AK268" si="1128">AB266-AE266-AH266</f>
         <v>3280</v>
       </c>
       <c r="AS266">
@@ -33309,8 +34105,64 @@
         <v>39</v>
       </c>
       <c r="AT266">
-        <f t="shared" ref="AT266:AT269" si="1111">AI266-AS266</f>
+        <f t="shared" ref="AT266:AT268" si="1129">AI266-AS266</f>
         <v>783</v>
+      </c>
+      <c r="AX266">
+        <f t="shared" ref="AX266:AX270" si="1130">BS266-BS265</f>
+        <v>54</v>
+      </c>
+      <c r="AY266">
+        <f t="shared" ref="AY266:AY270" si="1131">BU266-BU265</f>
+        <v>2</v>
+      </c>
+      <c r="AZ266">
+        <f t="shared" ref="AZ266:AZ270" si="1132">CA266-CA265</f>
+        <v>285</v>
+      </c>
+      <c r="BA266">
+        <f t="shared" ref="BA266:BA270" si="1133">CC266-CC265</f>
+        <v>19</v>
+      </c>
+      <c r="BB266">
+        <f t="shared" ref="BB266:BB270" si="1134">BW266-BW265</f>
+        <v>29</v>
+      </c>
+      <c r="BC266">
+        <f t="shared" ref="BC266:BC270" si="1135">BY266-BY265</f>
+        <v>3</v>
+      </c>
+      <c r="BD266">
+        <f t="shared" si="1114"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="BE266">
+        <f t="shared" si="1115"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="BF266">
+        <f t="shared" si="1116"/>
+        <v>1.5263157894736843</v>
+      </c>
+      <c r="BG266">
+        <f t="shared" si="1094"/>
+        <v>0.16881308736512357</v>
+      </c>
+      <c r="BH266">
+        <f t="shared" si="1095"/>
+        <v>0.19421684506583917</v>
+      </c>
+      <c r="BI266">
+        <f t="shared" si="1096"/>
+        <v>0.13986013986013987</v>
+      </c>
+      <c r="BJ266">
+        <f t="shared" si="1097"/>
+        <v>0.1285024154589372</v>
+      </c>
+      <c r="BK266">
+        <f t="shared" si="1098"/>
+        <v>0.10377358490566038</v>
       </c>
       <c r="BL266">
         <v>0.18099999999999999</v>
@@ -33367,7 +34219,7 @@
     </row>
     <row r="267" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A267" s="14">
-        <f t="shared" si="807"/>
+        <f t="shared" si="815"/>
         <v>44173</v>
       </c>
       <c r="B267" s="9">
@@ -33401,47 +34253,47 @@
         <v>20</v>
       </c>
       <c r="M267">
-        <f t="shared" ref="M267" si="1112">-(J267-J266)+L267</f>
+        <f t="shared" ref="M267" si="1136">-(J267-J266)+L267</f>
         <v>27</v>
       </c>
       <c r="N267" s="7">
-        <f t="shared" ref="N267" si="1113">B267-C267</f>
+        <f t="shared" ref="N267" si="1137">B267-C267</f>
         <v>1008781</v>
       </c>
       <c r="O267" s="4">
-        <f t="shared" ref="O267" si="1114">C267/B267</f>
+        <f t="shared" ref="O267" si="1138">C267/B267</f>
         <v>0.19620388822179072</v>
       </c>
       <c r="R267">
-        <f t="shared" ref="R267" si="1115">C267-C266</f>
+        <f t="shared" ref="R267" si="1139">C267-C266</f>
         <v>1392</v>
       </c>
       <c r="S267">
-        <f t="shared" ref="S267" si="1116">N267-N266</f>
+        <f t="shared" ref="S267" si="1140">N267-N266</f>
         <v>2236</v>
       </c>
       <c r="T267" s="8">
-        <f t="shared" ref="T267" si="1117">R267/V267</f>
+        <f t="shared" ref="T267" si="1141">R267/V267</f>
         <v>0.38368246968026459</v>
       </c>
       <c r="U267" s="8">
-        <f t="shared" ref="U267" si="1118">SUM(R261:R267)/SUM(V261:V267)</f>
+        <f t="shared" ref="U267" si="1142">SUM(R261:R267)/SUM(V261:V267)</f>
         <v>0.38987573378059009</v>
       </c>
       <c r="V267">
-        <f t="shared" ref="V267" si="1119">B267-B266</f>
+        <f t="shared" ref="V267" si="1143">B267-B266</f>
         <v>3628</v>
       </c>
       <c r="W267">
-        <f t="shared" ref="W267" si="1120">C267-D267-E267</f>
+        <f t="shared" ref="W267" si="1144">C267-D267-E267</f>
         <v>75285</v>
       </c>
       <c r="X267" s="3">
-        <f t="shared" ref="X267" si="1121">F267/W267</f>
+        <f t="shared" ref="X267" si="1145">F267/W267</f>
         <v>1.1954572624028692E-2</v>
       </c>
       <c r="Y267">
-        <f t="shared" ref="Y267" si="1122">E267-E266</f>
+        <f t="shared" ref="Y267" si="1146">E267-E266</f>
         <v>181</v>
       </c>
       <c r="Z267">
@@ -33472,15 +34324,15 @@
         <v>158</v>
       </c>
       <c r="AI267">
-        <f t="shared" si="1108"/>
+        <f t="shared" si="1126"/>
         <v>818</v>
       </c>
       <c r="AJ267">
-        <f t="shared" si="1109"/>
+        <f t="shared" si="1127"/>
         <v>454</v>
       </c>
       <c r="AK267">
-        <f t="shared" si="1110"/>
+        <f t="shared" si="1128"/>
         <v>3292</v>
       </c>
       <c r="AS267">
@@ -33488,8 +34340,64 @@
         <v>37</v>
       </c>
       <c r="AT267">
-        <f t="shared" si="1111"/>
+        <f t="shared" si="1129"/>
         <v>781</v>
+      </c>
+      <c r="AX267">
+        <f t="shared" si="1130"/>
+        <v>250</v>
+      </c>
+      <c r="AY267">
+        <f t="shared" si="1131"/>
+        <v>18</v>
+      </c>
+      <c r="AZ267">
+        <f t="shared" si="1132"/>
+        <v>1245</v>
+      </c>
+      <c r="BA267">
+        <f t="shared" si="1133"/>
+        <v>63</v>
+      </c>
+      <c r="BB267">
+        <f t="shared" si="1134"/>
+        <v>232</v>
+      </c>
+      <c r="BC267">
+        <f t="shared" si="1135"/>
+        <v>14</v>
+      </c>
+      <c r="BD267">
+        <f t="shared" si="1114"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="BE267">
+        <f t="shared" si="1115"/>
+        <v>5.0602409638554217E-2</v>
+      </c>
+      <c r="BF267">
+        <f t="shared" si="1116"/>
+        <v>3.6825396825396823</v>
+      </c>
+      <c r="BG267">
+        <f t="shared" si="1094"/>
+        <v>0.15861961436515773</v>
+      </c>
+      <c r="BH267">
+        <f t="shared" si="1095"/>
+        <v>0.19130892201893715</v>
+      </c>
+      <c r="BI267">
+        <f t="shared" si="1096"/>
+        <v>0.10097087378640776</v>
+      </c>
+      <c r="BJ267">
+        <f t="shared" si="1097"/>
+        <v>9.0707262924199172E-2</v>
+      </c>
+      <c r="BK267">
+        <f t="shared" si="1098"/>
+        <v>8.2089552238805971E-2</v>
       </c>
       <c r="BL267">
         <v>0.17100000000000001</v>
@@ -33551,7 +34459,7 @@
     </row>
     <row r="268" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A268" s="14">
-        <f t="shared" si="807"/>
+        <f t="shared" si="815"/>
         <v>44174</v>
       </c>
       <c r="B268" s="9">
@@ -33585,47 +34493,47 @@
         <v>35</v>
       </c>
       <c r="M268">
-        <f t="shared" ref="M268" si="1123">-(J268-J267)+L268</f>
+        <f t="shared" ref="M268" si="1147">-(J268-J267)+L268</f>
         <v>22</v>
       </c>
       <c r="N268" s="7">
-        <f t="shared" ref="N268" si="1124">B268-C268</f>
+        <f t="shared" ref="N268" si="1148">B268-C268</f>
         <v>1009677</v>
       </c>
       <c r="O268" s="4">
-        <f t="shared" ref="O268" si="1125">C268/B268</f>
+        <f t="shared" ref="O268" si="1149">C268/B268</f>
         <v>0.19641518353859158</v>
       </c>
       <c r="R268">
-        <f t="shared" ref="R268" si="1126">C268-C267</f>
+        <f t="shared" ref="R268" si="1150">C268-C267</f>
         <v>549</v>
       </c>
       <c r="S268">
-        <f t="shared" ref="S268" si="1127">N268-N267</f>
+        <f t="shared" ref="S268" si="1151">N268-N267</f>
         <v>896</v>
       </c>
       <c r="T268" s="8">
-        <f t="shared" ref="T268" si="1128">R268/V268</f>
+        <f t="shared" ref="T268" si="1152">R268/V268</f>
         <v>0.37993079584775086</v>
       </c>
       <c r="U268" s="8">
-        <f t="shared" ref="U268" si="1129">SUM(R262:R268)/SUM(V262:V268)</f>
+        <f t="shared" ref="U268" si="1153">SUM(R262:R268)/SUM(V262:V268)</f>
         <v>0.38125165973267239</v>
       </c>
       <c r="V268">
-        <f t="shared" ref="V268" si="1130">B268-B267</f>
+        <f t="shared" ref="V268" si="1154">B268-B267</f>
         <v>1445</v>
       </c>
       <c r="W268">
-        <f t="shared" ref="W268" si="1131">C268-D268-E268</f>
+        <f t="shared" ref="W268" si="1155">C268-D268-E268</f>
         <v>75814</v>
       </c>
       <c r="X268" s="3">
-        <f t="shared" ref="X268" si="1132">F268/W268</f>
+        <f t="shared" ref="X268" si="1156">F268/W268</f>
         <v>1.1792017305510856E-2</v>
       </c>
       <c r="Y268">
-        <f t="shared" ref="Y268" si="1133">E268-E267</f>
+        <f t="shared" ref="Y268" si="1157">E268-E267</f>
         <v>21</v>
       </c>
       <c r="Z268">
@@ -33656,15 +34564,15 @@
         <v>161</v>
       </c>
       <c r="AI268">
-        <f t="shared" si="1108"/>
+        <f t="shared" si="1126"/>
         <v>722</v>
       </c>
       <c r="AJ268">
-        <f t="shared" si="1109"/>
+        <f t="shared" si="1127"/>
         <v>415</v>
       </c>
       <c r="AK268">
-        <f t="shared" si="1110"/>
+        <f t="shared" si="1128"/>
         <v>2953</v>
       </c>
       <c r="AS268">
@@ -33672,8 +34580,76 @@
         <v>31</v>
       </c>
       <c r="AT268">
-        <f t="shared" si="1111"/>
+        <f t="shared" si="1129"/>
         <v>691</v>
+      </c>
+      <c r="AU268">
+        <f t="shared" si="1112"/>
+        <v>23942</v>
+      </c>
+      <c r="AV268">
+        <f t="shared" si="1113"/>
+        <v>2203</v>
+      </c>
+      <c r="AW268">
+        <f t="shared" si="630"/>
+        <v>9.2014033915295293E-2</v>
+      </c>
+      <c r="AX268">
+        <f t="shared" si="1130"/>
+        <v>101</v>
+      </c>
+      <c r="AY268">
+        <f t="shared" si="1131"/>
+        <v>13</v>
+      </c>
+      <c r="AZ268">
+        <f t="shared" si="1132"/>
+        <v>882</v>
+      </c>
+      <c r="BA268">
+        <f t="shared" si="1133"/>
+        <v>77</v>
+      </c>
+      <c r="BB268">
+        <f t="shared" si="1134"/>
+        <v>156</v>
+      </c>
+      <c r="BC268">
+        <f t="shared" si="1135"/>
+        <v>14</v>
+      </c>
+      <c r="BD268">
+        <f t="shared" si="1114"/>
+        <v>0.12871287128712872</v>
+      </c>
+      <c r="BE268">
+        <f t="shared" si="1115"/>
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="BF268">
+        <f t="shared" si="1116"/>
+        <v>2.0259740259740258</v>
+      </c>
+      <c r="BG268">
+        <f t="shared" si="1094"/>
+        <v>0.12586440499023421</v>
+      </c>
+      <c r="BH268">
+        <f t="shared" si="1095"/>
+        <v>0.16404658086721496</v>
+      </c>
+      <c r="BI268">
+        <f t="shared" si="1096"/>
+        <v>0.10507880910683012</v>
+      </c>
+      <c r="BJ268">
+        <f t="shared" si="1097"/>
+        <v>8.6318758815232724E-2</v>
+      </c>
+      <c r="BK268">
+        <f t="shared" si="1098"/>
+        <v>7.4738415545590436E-2</v>
       </c>
       <c r="BL268">
         <v>0.16700000000000001</v>
@@ -33735,7 +34711,7 @@
     </row>
     <row r="269" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A269" s="14">
-        <f t="shared" si="807"/>
+        <f t="shared" si="815"/>
         <v>44175</v>
       </c>
       <c r="B269" s="9">
@@ -33769,47 +34745,47 @@
         <v>28</v>
       </c>
       <c r="M269">
-        <f t="shared" ref="M269" si="1134">-(J269-J268)+L269</f>
+        <f t="shared" ref="M269" si="1158">-(J269-J268)+L269</f>
         <v>21</v>
       </c>
       <c r="N269" s="7">
-        <f t="shared" ref="N269" si="1135">B269-C269</f>
+        <f t="shared" ref="N269" si="1159">B269-C269</f>
         <v>1017052</v>
       </c>
       <c r="O269" s="4">
-        <f t="shared" ref="O269" si="1136">C269/B269</f>
+        <f t="shared" ref="O269" si="1160">C269/B269</f>
         <v>0.19795848681351871</v>
       </c>
       <c r="R269">
-        <f t="shared" ref="R269" si="1137">C269-C268</f>
+        <f t="shared" ref="R269" si="1161">C269-C268</f>
         <v>4238</v>
       </c>
       <c r="S269">
-        <f t="shared" ref="S269" si="1138">N269-N268</f>
+        <f t="shared" ref="S269" si="1162">N269-N268</f>
         <v>7375</v>
       </c>
       <c r="T269" s="8">
-        <f t="shared" ref="T269" si="1139">R269/V269</f>
+        <f t="shared" ref="T269" si="1163">R269/V269</f>
         <v>0.36493584775682425</v>
       </c>
       <c r="U269" s="8">
-        <f t="shared" ref="U269" si="1140">SUM(R263:R269)/SUM(V263:V269)</f>
+        <f t="shared" ref="U269" si="1164">SUM(R263:R269)/SUM(V263:V269)</f>
         <v>0.3696171627447925</v>
       </c>
       <c r="V269">
-        <f t="shared" ref="V269" si="1141">B269-B268</f>
+        <f t="shared" ref="V269" si="1165">B269-B268</f>
         <v>11613</v>
       </c>
       <c r="W269">
-        <f t="shared" ref="W269" si="1142">C269-D269-E269</f>
+        <f t="shared" ref="W269" si="1166">C269-D269-E269</f>
         <v>70207</v>
       </c>
       <c r="X269" s="3">
-        <f t="shared" ref="X269" si="1143">F269/W269</f>
+        <f t="shared" ref="X269" si="1167">F269/W269</f>
         <v>1.2292221573347388E-2</v>
       </c>
       <c r="Y269">
-        <f t="shared" ref="Y269" si="1144">E269-E268</f>
+        <f t="shared" ref="Y269" si="1168">E269-E268</f>
         <v>102</v>
       </c>
       <c r="Z269">
@@ -33840,15 +34816,15 @@
         <v>169</v>
       </c>
       <c r="AI269">
-        <f t="shared" ref="AI269" si="1145">Z269-AC269-AF269</f>
+        <f t="shared" ref="AI269" si="1169">Z269-AC269-AF269</f>
         <v>694</v>
       </c>
       <c r="AJ269">
-        <f t="shared" ref="AJ269" si="1146">AA269-AD269-AG269</f>
+        <f t="shared" ref="AJ269" si="1170">AA269-AD269-AG269</f>
         <v>402</v>
       </c>
       <c r="AK269">
-        <f t="shared" ref="AK269" si="1147">AB269-AE269-AH269</f>
+        <f t="shared" ref="AK269" si="1171">AB269-AE269-AH269</f>
         <v>2789</v>
       </c>
       <c r="AS269">
@@ -33856,8 +34832,76 @@
         <v>29</v>
       </c>
       <c r="AT269">
-        <f t="shared" si="1111"/>
+        <f t="shared" ref="AT269:AT272" si="1172">AI269-AS269</f>
         <v>665</v>
+      </c>
+      <c r="AU269">
+        <f t="shared" si="1112"/>
+        <v>21830</v>
+      </c>
+      <c r="AV269">
+        <f t="shared" si="1113"/>
+        <v>2462</v>
+      </c>
+      <c r="AW269">
+        <f t="shared" si="630"/>
+        <v>0.11278057718735685</v>
+      </c>
+      <c r="AX269">
+        <f t="shared" si="1130"/>
+        <v>127</v>
+      </c>
+      <c r="AY269">
+        <f t="shared" si="1131"/>
+        <v>9</v>
+      </c>
+      <c r="AZ269">
+        <f t="shared" si="1132"/>
+        <v>1052</v>
+      </c>
+      <c r="BA269">
+        <f t="shared" si="1133"/>
+        <v>82</v>
+      </c>
+      <c r="BB269">
+        <f t="shared" si="1134"/>
+        <v>138</v>
+      </c>
+      <c r="BC269">
+        <f t="shared" si="1135"/>
+        <v>9</v>
+      </c>
+      <c r="BD269">
+        <f t="shared" si="1114"/>
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="BE269">
+        <f t="shared" si="1115"/>
+        <v>7.7946768060836502E-2</v>
+      </c>
+      <c r="BF269">
+        <f t="shared" si="1116"/>
+        <v>1.6829268292682926</v>
+      </c>
+      <c r="BG269">
+        <f t="shared" si="1094"/>
+        <v>0.11320675518741867</v>
+      </c>
+      <c r="BH269">
+        <f t="shared" si="1095"/>
+        <v>0.14908888579774657</v>
+      </c>
+      <c r="BI269">
+        <f t="shared" si="1096"/>
+        <v>9.1743119266055051E-2</v>
+      </c>
+      <c r="BJ269">
+        <f t="shared" si="1097"/>
+        <v>8.060109289617487E-2</v>
+      </c>
+      <c r="BK269">
+        <f t="shared" si="1098"/>
+        <v>6.9974554707379136E-2</v>
       </c>
       <c r="BL269">
         <v>0.17299999999999999</v>
@@ -33915,6 +34959,1219 @@
       </c>
       <c r="CD269">
         <v>11662</v>
+      </c>
+    </row>
+    <row r="270" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="A270" s="14">
+        <f>A269+1</f>
+        <v>44176</v>
+      </c>
+      <c r="B270" s="9">
+        <v>1273644</v>
+      </c>
+      <c r="C270">
+        <v>253067</v>
+      </c>
+      <c r="D270">
+        <v>183211</v>
+      </c>
+      <c r="E270" s="9">
+        <v>3120</v>
+      </c>
+      <c r="F270" s="9">
+        <v>833</v>
+      </c>
+      <c r="H270">
+        <v>175</v>
+      </c>
+      <c r="I270">
+        <v>128</v>
+      </c>
+      <c r="J270">
+        <v>173</v>
+      </c>
+      <c r="K270">
+        <v>26</v>
+      </c>
+      <c r="L270">
+        <v>24</v>
+      </c>
+      <c r="M270">
+        <f t="shared" ref="M270" si="1173">-(J270-J269)+L270</f>
+        <v>39</v>
+      </c>
+      <c r="N270" s="7">
+        <f t="shared" ref="N270" si="1174">B270-C270</f>
+        <v>1020577</v>
+      </c>
+      <c r="O270" s="4">
+        <f t="shared" ref="O270" si="1175">C270/B270</f>
+        <v>0.19869523980013254</v>
+      </c>
+      <c r="R270">
+        <f t="shared" ref="R270" si="1176">C270-C269</f>
+        <v>2040</v>
+      </c>
+      <c r="S270">
+        <f t="shared" ref="S270" si="1177">N270-N269</f>
+        <v>3525</v>
+      </c>
+      <c r="T270" s="8">
+        <f t="shared" ref="T270" si="1178">R270/V270</f>
+        <v>0.36657681940700809</v>
+      </c>
+      <c r="U270" s="8">
+        <f t="shared" ref="U270" si="1179">SUM(R264:R270)/SUM(V264:V270)</f>
+        <v>0.36677631578947367</v>
+      </c>
+      <c r="V270">
+        <f t="shared" ref="V270" si="1180">B270-B269</f>
+        <v>5565</v>
+      </c>
+      <c r="W270">
+        <f t="shared" ref="W270" si="1181">C270-D270-E270</f>
+        <v>66736</v>
+      </c>
+      <c r="X270" s="3">
+        <f t="shared" ref="X270" si="1182">F270/W270</f>
+        <v>1.2482018700551427E-2</v>
+      </c>
+      <c r="Y270">
+        <f t="shared" ref="Y270" si="1183">E270-E269</f>
+        <v>99</v>
+      </c>
+      <c r="Z270">
+        <v>2088</v>
+      </c>
+      <c r="AA270">
+        <v>1124</v>
+      </c>
+      <c r="AB270">
+        <v>11582</v>
+      </c>
+      <c r="AC270">
+        <v>1367</v>
+      </c>
+      <c r="AD270">
+        <v>714</v>
+      </c>
+      <c r="AE270">
+        <v>8624</v>
+      </c>
+      <c r="AF270">
+        <v>27</v>
+      </c>
+      <c r="AG270">
+        <v>8</v>
+      </c>
+      <c r="AH270">
+        <v>169</v>
+      </c>
+      <c r="AI270">
+        <f t="shared" ref="AI270" si="1184">Z270-AC270-AF270</f>
+        <v>694</v>
+      </c>
+      <c r="AJ270">
+        <f t="shared" ref="AJ270" si="1185">AA270-AD270-AG270</f>
+        <v>402</v>
+      </c>
+      <c r="AK270">
+        <f t="shared" ref="AK270" si="1186">AB270-AE270-AH270</f>
+        <v>2789</v>
+      </c>
+      <c r="AS270">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A270)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A270)</f>
+        <v>18</v>
+      </c>
+      <c r="AT270">
+        <f t="shared" si="1172"/>
+        <v>676</v>
+      </c>
+      <c r="AU270">
+        <f t="shared" si="1112"/>
+        <v>26494</v>
+      </c>
+      <c r="AV270">
+        <f t="shared" si="1113"/>
+        <v>2126</v>
+      </c>
+      <c r="AW270">
+        <f t="shared" si="630"/>
+        <v>8.0244583679323619E-2</v>
+      </c>
+      <c r="AX270">
+        <f t="shared" si="1130"/>
+        <v>274</v>
+      </c>
+      <c r="AY270">
+        <f t="shared" si="1131"/>
+        <v>16</v>
+      </c>
+      <c r="AZ270">
+        <f t="shared" si="1132"/>
+        <v>1153</v>
+      </c>
+      <c r="BA270">
+        <f t="shared" si="1133"/>
+        <v>65</v>
+      </c>
+      <c r="BB270">
+        <f t="shared" si="1134"/>
+        <v>158</v>
+      </c>
+      <c r="BC270">
+        <f t="shared" si="1135"/>
+        <v>10</v>
+      </c>
+      <c r="BD270">
+        <f t="shared" si="1114"/>
+        <v>5.8394160583941604E-2</v>
+      </c>
+      <c r="BE270">
+        <f t="shared" si="1115"/>
+        <v>5.6374674761491758E-2</v>
+      </c>
+      <c r="BF270">
+        <f t="shared" si="1116"/>
+        <v>2.4307692307692306</v>
+      </c>
+      <c r="BG270">
+        <f t="shared" si="1094"/>
+        <v>9.6846797391361636E-2</v>
+      </c>
+      <c r="BH270">
+        <f t="shared" si="1095"/>
+        <v>0.1320924600648897</v>
+      </c>
+      <c r="BI270">
+        <f t="shared" si="1096"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BJ270">
+        <f t="shared" si="1097"/>
+        <v>7.1455505279034687E-2</v>
+      </c>
+      <c r="BK270">
+        <f t="shared" si="1098"/>
+        <v>6.3249727371864781E-2</v>
+      </c>
+      <c r="BL270">
+        <v>0.153</v>
+      </c>
+      <c r="BM270">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="BN270">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="BO270">
+        <v>2691809</v>
+      </c>
+      <c r="BP270">
+        <v>1273644</v>
+      </c>
+      <c r="BQ270">
+        <v>273547</v>
+      </c>
+      <c r="BR270">
+        <v>253067</v>
+      </c>
+      <c r="BS270">
+        <v>20520</v>
+      </c>
+      <c r="BT270">
+        <v>9009</v>
+      </c>
+      <c r="BU270">
+        <v>2211</v>
+      </c>
+      <c r="BV270">
+        <v>2110</v>
+      </c>
+      <c r="BW270">
+        <v>15378</v>
+      </c>
+      <c r="BX270">
+        <v>5312</v>
+      </c>
+      <c r="BY270">
+        <v>1212</v>
+      </c>
+      <c r="BZ270">
+        <v>1144</v>
+      </c>
+      <c r="CA270">
+        <v>118449</v>
+      </c>
+      <c r="CB270">
+        <v>54324</v>
+      </c>
+      <c r="CC270">
+        <v>12805</v>
+      </c>
+      <c r="CD270">
+        <v>11731</v>
+      </c>
+    </row>
+    <row r="271" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="A271" s="14">
+        <f>A270+1</f>
+        <v>44177</v>
+      </c>
+      <c r="B271" s="9">
+        <v>1278953</v>
+      </c>
+      <c r="C271">
+        <v>255011</v>
+      </c>
+      <c r="D271">
+        <v>187464</v>
+      </c>
+      <c r="E271" s="9">
+        <v>3197</v>
+      </c>
+      <c r="F271" s="9">
+        <v>820</v>
+      </c>
+      <c r="H271">
+        <v>170</v>
+      </c>
+      <c r="I271">
+        <v>125</v>
+      </c>
+      <c r="J271">
+        <v>165</v>
+      </c>
+      <c r="K271">
+        <v>27</v>
+      </c>
+      <c r="L271">
+        <v>32</v>
+      </c>
+      <c r="M271">
+        <f t="shared" ref="M271" si="1187">-(J271-J270)+L271</f>
+        <v>40</v>
+      </c>
+      <c r="N271" s="7">
+        <f t="shared" ref="N271" si="1188">B271-C271</f>
+        <v>1023942</v>
+      </c>
+      <c r="O271" s="4">
+        <f t="shared" ref="O271" si="1189">C271/B271</f>
+        <v>0.1993904388980674</v>
+      </c>
+      <c r="R271">
+        <f t="shared" ref="R271" si="1190">C271-C270</f>
+        <v>1944</v>
+      </c>
+      <c r="S271">
+        <f t="shared" ref="S271" si="1191">N271-N270</f>
+        <v>3365</v>
+      </c>
+      <c r="T271" s="8">
+        <f t="shared" ref="T271" si="1192">R271/V271</f>
+        <v>0.36617065360708229</v>
+      </c>
+      <c r="U271" s="8">
+        <f t="shared" ref="U271" si="1193">SUM(R265:R271)/SUM(V265:V271)</f>
+        <v>0.36614540621553598</v>
+      </c>
+      <c r="V271">
+        <f t="shared" ref="V271" si="1194">B271-B270</f>
+        <v>5309</v>
+      </c>
+      <c r="W271">
+        <f t="shared" ref="W271" si="1195">C271-D271-E271</f>
+        <v>64350</v>
+      </c>
+      <c r="X271" s="3">
+        <f t="shared" ref="X271" si="1196">F271/W271</f>
+        <v>1.2742812742812743E-2</v>
+      </c>
+      <c r="Y271">
+        <f t="shared" ref="Y271" si="1197">E271-E270</f>
+        <v>77</v>
+      </c>
+      <c r="Z271">
+        <v>2118</v>
+      </c>
+      <c r="AA271">
+        <v>1147</v>
+      </c>
+      <c r="AB271">
+        <v>11747</v>
+      </c>
+      <c r="AC271">
+        <v>1490</v>
+      </c>
+      <c r="AD271">
+        <v>763</v>
+      </c>
+      <c r="AE271">
+        <v>9050</v>
+      </c>
+      <c r="AF271">
+        <v>32</v>
+      </c>
+      <c r="AG271">
+        <v>12</v>
+      </c>
+      <c r="AH271">
+        <v>183</v>
+      </c>
+      <c r="AI271">
+        <f t="shared" ref="AI271" si="1198">Z271-AC271-AF271</f>
+        <v>596</v>
+      </c>
+      <c r="AJ271">
+        <f t="shared" ref="AJ271" si="1199">AA271-AD271-AG271</f>
+        <v>372</v>
+      </c>
+      <c r="AK271">
+        <f t="shared" ref="AK271" si="1200">AB271-AE271-AH271</f>
+        <v>2514</v>
+      </c>
+      <c r="AS271">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A271)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A271)</f>
+        <v>17</v>
+      </c>
+      <c r="AT271">
+        <f t="shared" si="1172"/>
+        <v>579</v>
+      </c>
+      <c r="AU271">
+        <f t="shared" ref="AU271" si="1201">BO271-BO270</f>
+        <v>25526</v>
+      </c>
+      <c r="AV271">
+        <f t="shared" ref="AV271" si="1202">BQ271-BQ270</f>
+        <v>2124</v>
+      </c>
+      <c r="AW271">
+        <f t="shared" ref="AW271" si="1203">AV271/AU271</f>
+        <v>8.3209276815795666E-2</v>
+      </c>
+      <c r="AX271">
+        <f t="shared" ref="AX271" si="1204">BS271-BS270</f>
+        <v>177</v>
+      </c>
+      <c r="AY271">
+        <f t="shared" ref="AY271" si="1205">BU271-BU270</f>
+        <v>17</v>
+      </c>
+      <c r="AZ271">
+        <f t="shared" ref="AZ271" si="1206">CA271-CA270</f>
+        <v>820</v>
+      </c>
+      <c r="BA271">
+        <f t="shared" ref="BA271" si="1207">CC271-CC270</f>
+        <v>85</v>
+      </c>
+      <c r="BB271">
+        <f t="shared" ref="BB271" si="1208">BW271-BW270</f>
+        <v>157</v>
+      </c>
+      <c r="BC271">
+        <f t="shared" ref="BC271" si="1209">BY271-BY270</f>
+        <v>9</v>
+      </c>
+      <c r="BD271">
+        <f t="shared" ref="BD271" si="1210">AY271/AX271</f>
+        <v>9.6045197740112997E-2</v>
+      </c>
+      <c r="BE271">
+        <f t="shared" ref="BE271" si="1211">BA271/AZ271</f>
+        <v>0.10365853658536585</v>
+      </c>
+      <c r="BF271">
+        <f t="shared" ref="BF271" si="1212">BB271/BA271</f>
+        <v>1.8470588235294119</v>
+      </c>
+      <c r="BG271">
+        <f t="shared" ref="BG271" si="1213">SUM(AV265:AV271)/SUM(AU265:AU271)</f>
+        <v>9.386148463227223E-2</v>
+      </c>
+      <c r="BH271">
+        <f t="shared" ref="BH271" si="1214">SUM(AV258:AV271)/SUM(AU258:AU271)</f>
+        <v>0.12181159129515937</v>
+      </c>
+      <c r="BI271">
+        <f t="shared" ref="BI271" si="1215">SUM(AY265:AY271)/SUM(AX265:AX271)</f>
+        <v>7.8524124881740778E-2</v>
+      </c>
+      <c r="BJ271">
+        <f t="shared" ref="BJ271" si="1216">SUM(BA265:BA271)/SUM(AZ265:AZ271)</f>
+        <v>7.5767472240365771E-2</v>
+      </c>
+      <c r="BK271">
+        <f t="shared" ref="BK271" si="1217">SUM(BC265:BC271)/SUM(BB265:BB271)</f>
+        <v>6.2383612662942269E-2</v>
+      </c>
+      <c r="BL271">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="BM271">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="BN271">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="BO271">
+        <v>2717335</v>
+      </c>
+      <c r="BP271">
+        <v>1278953</v>
+      </c>
+      <c r="BQ271">
+        <v>275671</v>
+      </c>
+      <c r="BR271">
+        <v>255011</v>
+      </c>
+      <c r="BS271">
+        <v>20697</v>
+      </c>
+      <c r="BT271">
+        <v>9044</v>
+      </c>
+      <c r="BU271">
+        <v>2228</v>
+      </c>
+      <c r="BV271">
+        <v>2123</v>
+      </c>
+      <c r="BW271">
+        <v>15535</v>
+      </c>
+      <c r="BX271">
+        <v>5326</v>
+      </c>
+      <c r="BY271">
+        <v>1221</v>
+      </c>
+      <c r="BZ271">
+        <v>1151</v>
+      </c>
+      <c r="CA271">
+        <v>119269</v>
+      </c>
+      <c r="CB271">
+        <v>54487</v>
+      </c>
+      <c r="CC271">
+        <v>12890</v>
+      </c>
+      <c r="CD271">
+        <v>11803</v>
+      </c>
+    </row>
+    <row r="272" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="A272" s="14">
+        <f>A271+1</f>
+        <v>44178</v>
+      </c>
+      <c r="B272" s="9">
+        <v>1282699</v>
+      </c>
+      <c r="C272">
+        <v>256248</v>
+      </c>
+      <c r="D272">
+        <v>188927</v>
+      </c>
+      <c r="E272" s="9">
+        <v>3212</v>
+      </c>
+      <c r="F272" s="9">
+        <v>749</v>
+      </c>
+      <c r="H272">
+        <v>170</v>
+      </c>
+      <c r="I272">
+        <v>95</v>
+      </c>
+      <c r="J272">
+        <v>147</v>
+      </c>
+      <c r="K272">
+        <v>24</v>
+      </c>
+      <c r="L272">
+        <v>19</v>
+      </c>
+      <c r="M272">
+        <f t="shared" ref="M272" si="1218">-(J272-J271)+L272</f>
+        <v>37</v>
+      </c>
+      <c r="N272" s="7">
+        <f t="shared" ref="N272" si="1219">B272-C272</f>
+        <v>1026451</v>
+      </c>
+      <c r="O272" s="4">
+        <f t="shared" ref="O272" si="1220">C272/B272</f>
+        <v>0.19977251093202691</v>
+      </c>
+      <c r="R272">
+        <f t="shared" ref="R272" si="1221">C272-C271</f>
+        <v>1237</v>
+      </c>
+      <c r="S272">
+        <f t="shared" ref="S272" si="1222">N272-N271</f>
+        <v>2509</v>
+      </c>
+      <c r="T272" s="8">
+        <f t="shared" ref="T272" si="1223">R272/V272</f>
+        <v>0.33021890016017086</v>
+      </c>
+      <c r="U272" s="8">
+        <f t="shared" ref="U272" si="1224">SUM(R266:R272)/SUM(V266:V272)</f>
+        <v>0.36552726841137023</v>
+      </c>
+      <c r="V272">
+        <f t="shared" ref="V272" si="1225">B272-B271</f>
+        <v>3746</v>
+      </c>
+      <c r="W272">
+        <f t="shared" ref="W272" si="1226">C272-D272-E272</f>
+        <v>64109</v>
+      </c>
+      <c r="X272" s="3">
+        <f t="shared" ref="X272" si="1227">F272/W272</f>
+        <v>1.1683227004008798E-2</v>
+      </c>
+      <c r="Y272">
+        <f t="shared" ref="Y272" si="1228">E272-E271</f>
+        <v>15</v>
+      </c>
+      <c r="Z272">
+        <v>2123</v>
+      </c>
+      <c r="AA272">
+        <v>1151</v>
+      </c>
+      <c r="AB272">
+        <v>11802</v>
+      </c>
+      <c r="AC272">
+        <v>1543</v>
+      </c>
+      <c r="AD272">
+        <v>792</v>
+      </c>
+      <c r="AE272">
+        <v>9235</v>
+      </c>
+      <c r="AF272">
+        <v>32</v>
+      </c>
+      <c r="AG272">
+        <v>12</v>
+      </c>
+      <c r="AH272">
+        <v>184</v>
+      </c>
+      <c r="AI272">
+        <f t="shared" ref="AI272" si="1229">Z272-AC272-AF272</f>
+        <v>548</v>
+      </c>
+      <c r="AJ272">
+        <f t="shared" ref="AJ272" si="1230">AA272-AD272-AG272</f>
+        <v>347</v>
+      </c>
+      <c r="AK272">
+        <f t="shared" ref="AK272" si="1231">AB272-AE272-AH272</f>
+        <v>2383</v>
+      </c>
+      <c r="AS272">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A272)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A272)</f>
+        <v>16</v>
+      </c>
+      <c r="AT272">
+        <f t="shared" si="1172"/>
+        <v>532</v>
+      </c>
+      <c r="AU272">
+        <f t="shared" ref="AU272" si="1232">BO272-BO271</f>
+        <v>10268</v>
+      </c>
+      <c r="AV272">
+        <f t="shared" ref="AV272" si="1233">BQ272-BQ271</f>
+        <v>1335</v>
+      </c>
+      <c r="AW272">
+        <f t="shared" ref="AW272" si="1234">AV272/AU272</f>
+        <v>0.13001558239189714</v>
+      </c>
+      <c r="AX272">
+        <f t="shared" ref="AX272" si="1235">BS272-BS271</f>
+        <v>57</v>
+      </c>
+      <c r="AY272">
+        <f t="shared" ref="AY272" si="1236">BU272-BU271</f>
+        <v>4</v>
+      </c>
+      <c r="AZ272">
+        <f t="shared" ref="AZ272" si="1237">CA272-CA271</f>
+        <v>509</v>
+      </c>
+      <c r="BA272">
+        <f t="shared" ref="BA272" si="1238">CC272-CC271</f>
+        <v>35</v>
+      </c>
+      <c r="BB272">
+        <f t="shared" ref="BB272" si="1239">BW272-BW271</f>
+        <v>33</v>
+      </c>
+      <c r="BC272">
+        <f t="shared" ref="BC272" si="1240">BY272-BY271</f>
+        <v>1</v>
+      </c>
+      <c r="BD272">
+        <f t="shared" ref="BD272" si="1241">AY272/AX272</f>
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="BE272">
+        <f t="shared" ref="BE272" si="1242">BA272/AZ272</f>
+        <v>6.8762278978389005E-2</v>
+      </c>
+      <c r="BF272">
+        <f t="shared" ref="BF272" si="1243">BB272/BA272</f>
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="BG272">
+        <f t="shared" ref="BG272" si="1244">SUM(AV266:AV272)/SUM(AU266:AU272)</f>
+        <v>9.4854710346104015E-2</v>
+      </c>
+      <c r="BH272">
+        <f t="shared" ref="BH272" si="1245">SUM(AV259:AV272)/SUM(AU259:AU272)</f>
+        <v>0.11861289135864619</v>
+      </c>
+      <c r="BI272">
+        <f t="shared" ref="BI272" si="1246">SUM(AY266:AY272)/SUM(AX266:AX272)</f>
+        <v>7.5961538461538455E-2</v>
+      </c>
+      <c r="BJ272">
+        <f t="shared" ref="BJ272" si="1247">SUM(BA266:BA272)/SUM(AZ266:AZ272)</f>
+        <v>7.1644803229061554E-2</v>
+      </c>
+      <c r="BK272">
+        <f t="shared" ref="BK272" si="1248">SUM(BC266:BC272)/SUM(BB266:BB272)</f>
+        <v>6.6445182724252497E-2</v>
+      </c>
+      <c r="BL272">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="BM272">
+        <v>0.128</v>
+      </c>
+      <c r="BN272">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="BO272">
+        <v>2727603</v>
+      </c>
+      <c r="BP272">
+        <v>1282699</v>
+      </c>
+      <c r="BQ272">
+        <v>277006</v>
+      </c>
+      <c r="BR272">
+        <v>256248</v>
+      </c>
+      <c r="BS272">
+        <v>20754</v>
+      </c>
+      <c r="BT272">
+        <v>9064</v>
+      </c>
+      <c r="BU272">
+        <v>2232</v>
+      </c>
+      <c r="BV272">
+        <v>2124</v>
+      </c>
+      <c r="BW272">
+        <v>15568</v>
+      </c>
+      <c r="BX272">
+        <v>5338</v>
+      </c>
+      <c r="BY272">
+        <v>1222</v>
+      </c>
+      <c r="BZ272">
+        <v>1152</v>
+      </c>
+      <c r="CA272">
+        <v>119778</v>
+      </c>
+      <c r="CB272">
+        <v>59591</v>
+      </c>
+      <c r="CC272">
+        <v>12925</v>
+      </c>
+      <c r="CD272">
+        <v>11841</v>
+      </c>
+    </row>
+    <row r="273" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="A273" s="14">
+        <f>A272+1</f>
+        <v>44179</v>
+      </c>
+      <c r="B273" s="9">
+        <v>1284887</v>
+      </c>
+      <c r="C273">
+        <v>256898</v>
+      </c>
+      <c r="D273">
+        <v>190221</v>
+      </c>
+      <c r="E273" s="9">
+        <v>3213</v>
+      </c>
+      <c r="F273" s="9">
+        <v>764</v>
+      </c>
+      <c r="H273">
+        <v>160</v>
+      </c>
+      <c r="I273">
+        <v>76</v>
+      </c>
+      <c r="J273">
+        <v>143</v>
+      </c>
+      <c r="K273">
+        <v>25</v>
+      </c>
+      <c r="L273">
+        <v>14</v>
+      </c>
+      <c r="M273">
+        <f t="shared" ref="M273" si="1249">-(J273-J272)+L273</f>
+        <v>18</v>
+      </c>
+      <c r="N273" s="7">
+        <f t="shared" ref="N273:N274" si="1250">B273-C273</f>
+        <v>1027989</v>
+      </c>
+      <c r="O273" s="4">
+        <f t="shared" ref="O273:O274" si="1251">C273/B273</f>
+        <v>0.19993820468259077</v>
+      </c>
+      <c r="R273">
+        <f t="shared" ref="R273" si="1252">C273-C272</f>
+        <v>650</v>
+      </c>
+      <c r="S273">
+        <f t="shared" ref="S273" si="1253">N273-N272</f>
+        <v>1538</v>
+      </c>
+      <c r="T273" s="8">
+        <f t="shared" ref="T273" si="1254">R273/V273</f>
+        <v>0.29707495429616088</v>
+      </c>
+      <c r="U273" s="8">
+        <f t="shared" ref="U273" si="1255">SUM(R267:R273)/SUM(V267:V273)</f>
+        <v>0.35976592822595094</v>
+      </c>
+      <c r="V273">
+        <f t="shared" ref="V273" si="1256">B273-B272</f>
+        <v>2188</v>
+      </c>
+      <c r="W273">
+        <f t="shared" ref="W273:W274" si="1257">C273-D273-E273</f>
+        <v>63464</v>
+      </c>
+      <c r="X273" s="3">
+        <f t="shared" ref="X273:X274" si="1258">F273/W273</f>
+        <v>1.2038320937854532E-2</v>
+      </c>
+      <c r="Y273">
+        <f t="shared" ref="Y273" si="1259">E273-E272</f>
+        <v>1</v>
+      </c>
+      <c r="Z273">
+        <v>2124</v>
+      </c>
+      <c r="AA273">
+        <v>1152</v>
+      </c>
+      <c r="AB273">
+        <v>11839</v>
+      </c>
+      <c r="AC273">
+        <v>1558</v>
+      </c>
+      <c r="AD273">
+        <v>800</v>
+      </c>
+      <c r="AE273">
+        <v>9294</v>
+      </c>
+      <c r="AF273">
+        <v>32</v>
+      </c>
+      <c r="AG273">
+        <v>12</v>
+      </c>
+      <c r="AH273">
+        <v>184</v>
+      </c>
+      <c r="AI273">
+        <f t="shared" ref="AI273" si="1260">Z273-AC273-AF273</f>
+        <v>534</v>
+      </c>
+      <c r="AJ273">
+        <f t="shared" ref="AJ273" si="1261">AA273-AD273-AG273</f>
+        <v>340</v>
+      </c>
+      <c r="AK273">
+        <f t="shared" ref="AK273" si="1262">AB273-AE273-AH273</f>
+        <v>2361</v>
+      </c>
+      <c r="AS273">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A273)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A273)</f>
+        <v>4</v>
+      </c>
+      <c r="AT273">
+        <f t="shared" ref="AT273" si="1263">AI273-AS273</f>
+        <v>530</v>
+      </c>
+      <c r="AU273">
+        <f>BO273-BO272</f>
+        <v>6233</v>
+      </c>
+      <c r="AV273">
+        <f t="shared" ref="AV273" si="1264">BQ273-BQ272</f>
+        <v>702</v>
+      </c>
+      <c r="AW273">
+        <f t="shared" ref="AW273" si="1265">AV273/AU273</f>
+        <v>0.11262634365474089</v>
+      </c>
+      <c r="AX273">
+        <f t="shared" ref="AX273" si="1266">BS273-BS272</f>
+        <v>25</v>
+      </c>
+      <c r="AY273">
+        <f t="shared" ref="AY273" si="1267">BU273-BU272</f>
+        <v>-3</v>
+      </c>
+      <c r="AZ273">
+        <f t="shared" ref="AZ273" si="1268">CA273-CA272</f>
+        <v>189</v>
+      </c>
+      <c r="BA273">
+        <f t="shared" ref="BA273" si="1269">CC273-CC272</f>
+        <v>8</v>
+      </c>
+      <c r="BB273">
+        <f t="shared" ref="BB273" si="1270">BW273-BW272</f>
+        <v>24</v>
+      </c>
+      <c r="BC273">
+        <f t="shared" ref="BC273" si="1271">BY273-BY272</f>
+        <v>3</v>
+      </c>
+      <c r="BD273">
+        <f t="shared" ref="BD273" si="1272">AY273/AX273</f>
+        <v>-0.12</v>
+      </c>
+      <c r="BE273">
+        <f t="shared" ref="BE273" si="1273">BA273/AZ273</f>
+        <v>4.2328042328042326E-2</v>
+      </c>
+      <c r="BF273">
+        <f t="shared" ref="BF273" si="1274">BB273/BA273</f>
+        <v>3</v>
+      </c>
+      <c r="BG273">
+        <f t="shared" ref="BG273" si="1275">SUM(AV267:AV273)/SUM(AU267:AU273)</f>
+        <v>9.5823891226934285E-2</v>
+      </c>
+      <c r="BH273">
+        <f t="shared" ref="BH273" si="1276">SUM(AV260:AV273)/SUM(AU260:AU273)</f>
+        <v>0.11580933743360358</v>
+      </c>
+      <c r="BI273">
+        <f t="shared" ref="BI273" si="1277">SUM(AY267:AY273)/SUM(AX267:AX273)</f>
+        <v>7.3194856577645892E-2</v>
+      </c>
+      <c r="BJ273">
+        <f t="shared" ref="BJ273" si="1278">SUM(BA267:BA273)/SUM(AZ267:AZ273)</f>
+        <v>7.0940170940170938E-2</v>
+      </c>
+      <c r="BK273">
+        <f t="shared" ref="BK273" si="1279">SUM(BC267:BC273)/SUM(BB267:BB273)</f>
+        <v>6.6815144766147E-2</v>
+      </c>
+      <c r="BL273">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="BM273">
+        <v>0.126</v>
+      </c>
+      <c r="BN273">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="BO273">
+        <v>2733836</v>
+      </c>
+      <c r="BP273">
+        <v>1284887</v>
+      </c>
+      <c r="BQ273">
+        <v>277708</v>
+      </c>
+      <c r="BR273">
+        <v>256898</v>
+      </c>
+      <c r="BS273">
+        <v>20779</v>
+      </c>
+      <c r="BT273">
+        <v>9076</v>
+      </c>
+      <c r="BU273">
+        <v>2229</v>
+      </c>
+      <c r="BV273">
+        <v>2127</v>
+      </c>
+      <c r="BW273">
+        <v>15592</v>
+      </c>
+      <c r="BX273">
+        <v>5345</v>
+      </c>
+      <c r="BY273">
+        <v>1225</v>
+      </c>
+      <c r="BZ273">
+        <v>1153</v>
+      </c>
+      <c r="CA273">
+        <v>119967</v>
+      </c>
+      <c r="CB273">
+        <v>54635</v>
+      </c>
+      <c r="CC273">
+        <v>12933</v>
+      </c>
+      <c r="CD273">
+        <v>11847</v>
+      </c>
+    </row>
+    <row r="274" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="A274" s="14">
+        <f>A273+1</f>
+        <v>44180</v>
+      </c>
+      <c r="B274" s="9">
+        <v>1288885</v>
+      </c>
+      <c r="C274">
+        <v>258250</v>
+      </c>
+      <c r="D274">
+        <v>196145</v>
+      </c>
+      <c r="E274" s="9">
+        <v>3273</v>
+      </c>
+      <c r="F274" s="9">
+        <v>798</v>
+      </c>
+      <c r="H274">
+        <v>166</v>
+      </c>
+      <c r="I274">
+        <v>85</v>
+      </c>
+      <c r="J274">
+        <v>143</v>
+      </c>
+      <c r="K274">
+        <v>26</v>
+      </c>
+      <c r="L274">
+        <v>14</v>
+      </c>
+      <c r="M274">
+        <f t="shared" ref="M274" si="1280">-(J274-J273)+L274</f>
+        <v>14</v>
+      </c>
+      <c r="N274" s="7">
+        <f t="shared" ref="N274" si="1281">B274-C274</f>
+        <v>1030635</v>
+      </c>
+      <c r="O274" s="4">
+        <f t="shared" ref="O274" si="1282">C274/B274</f>
+        <v>0.2003669838658996</v>
+      </c>
+      <c r="R274">
+        <f t="shared" ref="R274" si="1283">C274-C273</f>
+        <v>1352</v>
+      </c>
+      <c r="S274">
+        <f t="shared" ref="S274" si="1284">N274-N273</f>
+        <v>2646</v>
+      </c>
+      <c r="T274" s="8">
+        <f t="shared" ref="T274" si="1285">R274/V274</f>
+        <v>0.33816908454227113</v>
+      </c>
+      <c r="U274" s="8">
+        <f t="shared" ref="U274" si="1286">SUM(R268:R274)/SUM(V268:V274)</f>
+        <v>0.35465390975667377</v>
+      </c>
+      <c r="V274">
+        <f t="shared" ref="V274" si="1287">B274-B273</f>
+        <v>3998</v>
+      </c>
+      <c r="W274">
+        <f t="shared" ref="W274" si="1288">C274-D274-E274</f>
+        <v>58832</v>
+      </c>
+      <c r="X274" s="3">
+        <f t="shared" ref="X274" si="1289">F274/W274</f>
+        <v>1.3564046777264074E-2</v>
+      </c>
+      <c r="Y274">
+        <f t="shared" ref="Y274" si="1290">E274-E273</f>
+        <v>60</v>
+      </c>
+      <c r="AU274">
+        <f>BO274-BO273</f>
+        <v>22731</v>
+      </c>
+      <c r="AV274">
+        <f t="shared" ref="AV274" si="1291">BQ274-BQ273</f>
+        <v>1436</v>
+      </c>
+      <c r="AW274">
+        <f t="shared" ref="AW274" si="1292">AV274/AU274</f>
+        <v>6.3173639523118205E-2</v>
+      </c>
+      <c r="AX274">
+        <f t="shared" ref="AX274" si="1293">BS274-BS273</f>
+        <v>231</v>
+      </c>
+      <c r="AY274">
+        <f t="shared" ref="AY274" si="1294">BU274-BU273</f>
+        <v>13</v>
+      </c>
+      <c r="AZ274">
+        <f t="shared" ref="AZ274" si="1295">CA274-CA273</f>
+        <v>920</v>
+      </c>
+      <c r="BA274">
+        <f t="shared" ref="BA274" si="1296">CC274-CC273</f>
+        <v>40</v>
+      </c>
+      <c r="BB274">
+        <f t="shared" ref="BB274" si="1297">BW274-BW273</f>
+        <v>209</v>
+      </c>
+      <c r="BC274">
+        <f t="shared" ref="BC274" si="1298">BY274-BY273</f>
+        <v>4</v>
+      </c>
+      <c r="BD274">
+        <f t="shared" ref="BD274" si="1299">AY274/AX274</f>
+        <v>5.627705627705628E-2</v>
+      </c>
+      <c r="BE274">
+        <f t="shared" ref="BE274" si="1300">BA274/AZ274</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="BF274">
+        <f t="shared" ref="BF274" si="1301">BB274/BA274</f>
+        <v>5.2249999999999996</v>
+      </c>
+      <c r="BG274">
+        <f t="shared" ref="BG274" si="1302">SUM(AV268:AV274)/SUM(AU268:AU274)</f>
+        <v>9.0407519850537132E-2</v>
+      </c>
+      <c r="BH274">
+        <f t="shared" ref="BH274" si="1303">SUM(AV261:AV274)/SUM(AU261:AU274)</f>
+        <v>0.10536391918225017</v>
+      </c>
+      <c r="BI274">
+        <f t="shared" ref="BI274" si="1304">SUM(AY268:AY274)/SUM(AX268:AX274)</f>
+        <v>6.955645161290322E-2</v>
+      </c>
+      <c r="BJ274">
+        <f t="shared" ref="BJ274" si="1305">SUM(BA268:BA274)/SUM(AZ268:AZ274)</f>
+        <v>7.0950226244343897E-2</v>
+      </c>
+      <c r="BK274">
+        <f t="shared" ref="BK274" si="1306">SUM(BC268:BC274)/SUM(BB268:BB274)</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="BL274">
+        <v>0.13</v>
+      </c>
+      <c r="BM274">
+        <v>0.112</v>
+      </c>
+      <c r="BN274">
+        <v>0.123</v>
+      </c>
+      <c r="BO274">
+        <v>2756567</v>
+      </c>
+      <c r="BP274">
+        <v>1288885</v>
+      </c>
+      <c r="BQ274">
+        <v>279144</v>
+      </c>
+      <c r="BR274">
+        <v>258250</v>
+      </c>
+      <c r="BS274">
+        <v>21010</v>
+      </c>
+      <c r="BT274">
+        <v>9116</v>
+      </c>
+      <c r="BU274">
+        <v>2242</v>
+      </c>
+      <c r="BV274">
+        <v>2141</v>
+      </c>
+      <c r="BW274">
+        <v>15801</v>
+      </c>
+      <c r="BX274">
+        <v>5358</v>
+      </c>
+      <c r="BY274">
+        <v>1229</v>
+      </c>
+      <c r="BZ274">
+        <v>1157</v>
+      </c>
+      <c r="CA274">
+        <v>120887</v>
+      </c>
+      <c r="CB274">
+        <v>54765</v>
+      </c>
+      <c r="CC274">
+        <v>12973</v>
+      </c>
+      <c r="CD274">
+        <v>11883</v>
       </c>
     </row>
   </sheetData>
@@ -33942,7 +36199,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>R228:R269</xm:sqref>
+          <xm:sqref>R228:R274</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="22" operator="equal" id="{E5309D98-D036-43E8-AE0C-F104DC358831}">
@@ -33958,7 +36215,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>Y228:Y269</xm:sqref>
+          <xm:sqref>Y228:Y274</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5269D26C-9211-46B2-914A-48345DF37DEF}">
@@ -33974,7 +36231,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F228:F269</xm:sqref>
+          <xm:sqref>F228:F274</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="20" operator="equal" id="{24843253-84F3-44AF-847D-C74D74C4F05A}">
@@ -34006,7 +36263,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J228:J269</xm:sqref>
+          <xm:sqref>J228:J274</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="18" operator="equal" id="{6F562D16-6A18-4369-973E-028D1B5F7CFF}">
@@ -34022,7 +36279,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K228:K269</xm:sqref>
+          <xm:sqref>K228:K274</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{735BDD8A-2F04-47F3-825F-41FCBFA8ADD5}">
@@ -34262,7 +36519,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H1:H1048576 I229:I269</xm:sqref>
+          <xm:sqref>H1:H1048576 I229:I274</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{8F0BE21B-C8AC-4EAD-AE58-244C59D5B0FC}">
@@ -34278,7 +36535,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>W229:W269</xm:sqref>
+          <xm:sqref>W229:W274</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -40854,7 +43111,7 @@
       </c>
       <c r="R2">
         <f>MAX(covid19!AF:AF)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="S2">
         <f>MAX(covid19!AG:AG)</f>
@@ -40862,7 +43119,7 @@
       </c>
       <c r="T2">
         <f>MAX(covid19!AH:AH)</f>
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="U2">
         <f>MAX(covid19!AI:AI)</f>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF0BB13-4F1D-4605-B175-54BB0C08F523}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20E8999-1369-482F-A030-680B2A14B310}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2531,13 +2531,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CD274"/>
+  <dimension ref="A1:CD276"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BD260" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BU260" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AU273" sqref="AU273:BK274"/>
+      <selection pane="bottomRight" activeCell="BZ276" sqref="BZ276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34963,7 +34963,7 @@
     </row>
     <row r="270" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A270" s="14">
-        <f>A269+1</f>
+        <f t="shared" ref="A270:A276" si="1173">A269+1</f>
         <v>44176</v>
       </c>
       <c r="B270" s="9">
@@ -34997,47 +34997,47 @@
         <v>24</v>
       </c>
       <c r="M270">
-        <f t="shared" ref="M270" si="1173">-(J270-J269)+L270</f>
+        <f t="shared" ref="M270" si="1174">-(J270-J269)+L270</f>
         <v>39</v>
       </c>
       <c r="N270" s="7">
-        <f t="shared" ref="N270" si="1174">B270-C270</f>
+        <f t="shared" ref="N270" si="1175">B270-C270</f>
         <v>1020577</v>
       </c>
       <c r="O270" s="4">
-        <f t="shared" ref="O270" si="1175">C270/B270</f>
+        <f t="shared" ref="O270" si="1176">C270/B270</f>
         <v>0.19869523980013254</v>
       </c>
       <c r="R270">
-        <f t="shared" ref="R270" si="1176">C270-C269</f>
+        <f t="shared" ref="R270" si="1177">C270-C269</f>
         <v>2040</v>
       </c>
       <c r="S270">
-        <f t="shared" ref="S270" si="1177">N270-N269</f>
+        <f t="shared" ref="S270" si="1178">N270-N269</f>
         <v>3525</v>
       </c>
       <c r="T270" s="8">
-        <f t="shared" ref="T270" si="1178">R270/V270</f>
+        <f t="shared" ref="T270" si="1179">R270/V270</f>
         <v>0.36657681940700809</v>
       </c>
       <c r="U270" s="8">
-        <f t="shared" ref="U270" si="1179">SUM(R264:R270)/SUM(V264:V270)</f>
+        <f t="shared" ref="U270" si="1180">SUM(R264:R270)/SUM(V264:V270)</f>
         <v>0.36677631578947367</v>
       </c>
       <c r="V270">
-        <f t="shared" ref="V270" si="1180">B270-B269</f>
+        <f t="shared" ref="V270" si="1181">B270-B269</f>
         <v>5565</v>
       </c>
       <c r="W270">
-        <f t="shared" ref="W270" si="1181">C270-D270-E270</f>
+        <f t="shared" ref="W270" si="1182">C270-D270-E270</f>
         <v>66736</v>
       </c>
       <c r="X270" s="3">
-        <f t="shared" ref="X270" si="1182">F270/W270</f>
+        <f t="shared" ref="X270" si="1183">F270/W270</f>
         <v>1.2482018700551427E-2</v>
       </c>
       <c r="Y270">
-        <f t="shared" ref="Y270" si="1183">E270-E269</f>
+        <f t="shared" ref="Y270" si="1184">E270-E269</f>
         <v>99</v>
       </c>
       <c r="Z270">
@@ -35068,15 +35068,15 @@
         <v>169</v>
       </c>
       <c r="AI270">
-        <f t="shared" ref="AI270" si="1184">Z270-AC270-AF270</f>
+        <f t="shared" ref="AI270" si="1185">Z270-AC270-AF270</f>
         <v>694</v>
       </c>
       <c r="AJ270">
-        <f t="shared" ref="AJ270" si="1185">AA270-AD270-AG270</f>
+        <f t="shared" ref="AJ270" si="1186">AA270-AD270-AG270</f>
         <v>402</v>
       </c>
       <c r="AK270">
-        <f t="shared" ref="AK270" si="1186">AB270-AE270-AH270</f>
+        <f t="shared" ref="AK270" si="1187">AB270-AE270-AH270</f>
         <v>2789</v>
       </c>
       <c r="AS270">
@@ -35215,7 +35215,7 @@
     </row>
     <row r="271" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A271" s="14">
-        <f>A270+1</f>
+        <f t="shared" si="1173"/>
         <v>44177</v>
       </c>
       <c r="B271" s="9">
@@ -35249,47 +35249,47 @@
         <v>32</v>
       </c>
       <c r="M271">
-        <f t="shared" ref="M271" si="1187">-(J271-J270)+L271</f>
+        <f t="shared" ref="M271" si="1188">-(J271-J270)+L271</f>
         <v>40</v>
       </c>
       <c r="N271" s="7">
-        <f t="shared" ref="N271" si="1188">B271-C271</f>
+        <f t="shared" ref="N271" si="1189">B271-C271</f>
         <v>1023942</v>
       </c>
       <c r="O271" s="4">
-        <f t="shared" ref="O271" si="1189">C271/B271</f>
+        <f t="shared" ref="O271" si="1190">C271/B271</f>
         <v>0.1993904388980674</v>
       </c>
       <c r="R271">
-        <f t="shared" ref="R271" si="1190">C271-C270</f>
+        <f t="shared" ref="R271" si="1191">C271-C270</f>
         <v>1944</v>
       </c>
       <c r="S271">
-        <f t="shared" ref="S271" si="1191">N271-N270</f>
+        <f t="shared" ref="S271" si="1192">N271-N270</f>
         <v>3365</v>
       </c>
       <c r="T271" s="8">
-        <f t="shared" ref="T271" si="1192">R271/V271</f>
+        <f t="shared" ref="T271" si="1193">R271/V271</f>
         <v>0.36617065360708229</v>
       </c>
       <c r="U271" s="8">
-        <f t="shared" ref="U271" si="1193">SUM(R265:R271)/SUM(V265:V271)</f>
+        <f t="shared" ref="U271" si="1194">SUM(R265:R271)/SUM(V265:V271)</f>
         <v>0.36614540621553598</v>
       </c>
       <c r="V271">
-        <f t="shared" ref="V271" si="1194">B271-B270</f>
+        <f t="shared" ref="V271" si="1195">B271-B270</f>
         <v>5309</v>
       </c>
       <c r="W271">
-        <f t="shared" ref="W271" si="1195">C271-D271-E271</f>
+        <f t="shared" ref="W271" si="1196">C271-D271-E271</f>
         <v>64350</v>
       </c>
       <c r="X271" s="3">
-        <f t="shared" ref="X271" si="1196">F271/W271</f>
+        <f t="shared" ref="X271" si="1197">F271/W271</f>
         <v>1.2742812742812743E-2</v>
       </c>
       <c r="Y271">
-        <f t="shared" ref="Y271" si="1197">E271-E270</f>
+        <f t="shared" ref="Y271" si="1198">E271-E270</f>
         <v>77</v>
       </c>
       <c r="Z271">
@@ -35320,15 +35320,15 @@
         <v>183</v>
       </c>
       <c r="AI271">
-        <f t="shared" ref="AI271" si="1198">Z271-AC271-AF271</f>
+        <f t="shared" ref="AI271" si="1199">Z271-AC271-AF271</f>
         <v>596</v>
       </c>
       <c r="AJ271">
-        <f t="shared" ref="AJ271" si="1199">AA271-AD271-AG271</f>
+        <f t="shared" ref="AJ271" si="1200">AA271-AD271-AG271</f>
         <v>372</v>
       </c>
       <c r="AK271">
-        <f t="shared" ref="AK271" si="1200">AB271-AE271-AH271</f>
+        <f t="shared" ref="AK271" si="1201">AB271-AE271-AH271</f>
         <v>2514</v>
       </c>
       <c r="AS271">
@@ -35340,71 +35340,71 @@
         <v>579</v>
       </c>
       <c r="AU271">
-        <f t="shared" ref="AU271" si="1201">BO271-BO270</f>
+        <f t="shared" ref="AU271" si="1202">BO271-BO270</f>
         <v>25526</v>
       </c>
       <c r="AV271">
-        <f t="shared" ref="AV271" si="1202">BQ271-BQ270</f>
+        <f t="shared" ref="AV271" si="1203">BQ271-BQ270</f>
         <v>2124</v>
       </c>
       <c r="AW271">
-        <f t="shared" ref="AW271" si="1203">AV271/AU271</f>
+        <f t="shared" ref="AW271" si="1204">AV271/AU271</f>
         <v>8.3209276815795666E-2</v>
       </c>
       <c r="AX271">
-        <f t="shared" ref="AX271" si="1204">BS271-BS270</f>
+        <f t="shared" ref="AX271" si="1205">BS271-BS270</f>
         <v>177</v>
       </c>
       <c r="AY271">
-        <f t="shared" ref="AY271" si="1205">BU271-BU270</f>
+        <f t="shared" ref="AY271" si="1206">BU271-BU270</f>
         <v>17</v>
       </c>
       <c r="AZ271">
-        <f t="shared" ref="AZ271" si="1206">CA271-CA270</f>
+        <f t="shared" ref="AZ271" si="1207">CA271-CA270</f>
         <v>820</v>
       </c>
       <c r="BA271">
-        <f t="shared" ref="BA271" si="1207">CC271-CC270</f>
+        <f t="shared" ref="BA271" si="1208">CC271-CC270</f>
         <v>85</v>
       </c>
       <c r="BB271">
-        <f t="shared" ref="BB271" si="1208">BW271-BW270</f>
+        <f t="shared" ref="BB271" si="1209">BW271-BW270</f>
         <v>157</v>
       </c>
       <c r="BC271">
-        <f t="shared" ref="BC271" si="1209">BY271-BY270</f>
+        <f t="shared" ref="BC271" si="1210">BY271-BY270</f>
         <v>9</v>
       </c>
       <c r="BD271">
-        <f t="shared" ref="BD271" si="1210">AY271/AX271</f>
+        <f t="shared" ref="BD271" si="1211">AY271/AX271</f>
         <v>9.6045197740112997E-2</v>
       </c>
       <c r="BE271">
-        <f t="shared" ref="BE271" si="1211">BA271/AZ271</f>
+        <f t="shared" ref="BE271" si="1212">BA271/AZ271</f>
         <v>0.10365853658536585</v>
       </c>
       <c r="BF271">
-        <f t="shared" ref="BF271" si="1212">BB271/BA271</f>
+        <f t="shared" ref="BF271" si="1213">BB271/BA271</f>
         <v>1.8470588235294119</v>
       </c>
       <c r="BG271">
-        <f t="shared" ref="BG271" si="1213">SUM(AV265:AV271)/SUM(AU265:AU271)</f>
+        <f t="shared" ref="BG271" si="1214">SUM(AV265:AV271)/SUM(AU265:AU271)</f>
         <v>9.386148463227223E-2</v>
       </c>
       <c r="BH271">
-        <f t="shared" ref="BH271" si="1214">SUM(AV258:AV271)/SUM(AU258:AU271)</f>
+        <f t="shared" ref="BH271" si="1215">SUM(AV258:AV271)/SUM(AU258:AU271)</f>
         <v>0.12181159129515937</v>
       </c>
       <c r="BI271">
-        <f t="shared" ref="BI271" si="1215">SUM(AY265:AY271)/SUM(AX265:AX271)</f>
+        <f t="shared" ref="BI271" si="1216">SUM(AY265:AY271)/SUM(AX265:AX271)</f>
         <v>7.8524124881740778E-2</v>
       </c>
       <c r="BJ271">
-        <f t="shared" ref="BJ271" si="1216">SUM(BA265:BA271)/SUM(AZ265:AZ271)</f>
+        <f t="shared" ref="BJ271" si="1217">SUM(BA265:BA271)/SUM(AZ265:AZ271)</f>
         <v>7.5767472240365771E-2</v>
       </c>
       <c r="BK271">
-        <f t="shared" ref="BK271" si="1217">SUM(BC265:BC271)/SUM(BB265:BB271)</f>
+        <f t="shared" ref="BK271" si="1218">SUM(BC265:BC271)/SUM(BB265:BB271)</f>
         <v>6.2383612662942269E-2</v>
       </c>
       <c r="BL271">
@@ -35467,7 +35467,7 @@
     </row>
     <row r="272" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A272" s="14">
-        <f>A271+1</f>
+        <f t="shared" si="1173"/>
         <v>44178</v>
       </c>
       <c r="B272" s="9">
@@ -35501,47 +35501,47 @@
         <v>19</v>
       </c>
       <c r="M272">
-        <f t="shared" ref="M272" si="1218">-(J272-J271)+L272</f>
+        <f t="shared" ref="M272" si="1219">-(J272-J271)+L272</f>
         <v>37</v>
       </c>
       <c r="N272" s="7">
-        <f t="shared" ref="N272" si="1219">B272-C272</f>
+        <f t="shared" ref="N272" si="1220">B272-C272</f>
         <v>1026451</v>
       </c>
       <c r="O272" s="4">
-        <f t="shared" ref="O272" si="1220">C272/B272</f>
+        <f t="shared" ref="O272" si="1221">C272/B272</f>
         <v>0.19977251093202691</v>
       </c>
       <c r="R272">
-        <f t="shared" ref="R272" si="1221">C272-C271</f>
+        <f t="shared" ref="R272" si="1222">C272-C271</f>
         <v>1237</v>
       </c>
       <c r="S272">
-        <f t="shared" ref="S272" si="1222">N272-N271</f>
+        <f t="shared" ref="S272" si="1223">N272-N271</f>
         <v>2509</v>
       </c>
       <c r="T272" s="8">
-        <f t="shared" ref="T272" si="1223">R272/V272</f>
+        <f t="shared" ref="T272" si="1224">R272/V272</f>
         <v>0.33021890016017086</v>
       </c>
       <c r="U272" s="8">
-        <f t="shared" ref="U272" si="1224">SUM(R266:R272)/SUM(V266:V272)</f>
+        <f t="shared" ref="U272" si="1225">SUM(R266:R272)/SUM(V266:V272)</f>
         <v>0.36552726841137023</v>
       </c>
       <c r="V272">
-        <f t="shared" ref="V272" si="1225">B272-B271</f>
+        <f t="shared" ref="V272" si="1226">B272-B271</f>
         <v>3746</v>
       </c>
       <c r="W272">
-        <f t="shared" ref="W272" si="1226">C272-D272-E272</f>
+        <f t="shared" ref="W272" si="1227">C272-D272-E272</f>
         <v>64109</v>
       </c>
       <c r="X272" s="3">
-        <f t="shared" ref="X272" si="1227">F272/W272</f>
+        <f t="shared" ref="X272" si="1228">F272/W272</f>
         <v>1.1683227004008798E-2</v>
       </c>
       <c r="Y272">
-        <f t="shared" ref="Y272" si="1228">E272-E271</f>
+        <f t="shared" ref="Y272" si="1229">E272-E271</f>
         <v>15</v>
       </c>
       <c r="Z272">
@@ -35572,15 +35572,15 @@
         <v>184</v>
       </c>
       <c r="AI272">
-        <f t="shared" ref="AI272" si="1229">Z272-AC272-AF272</f>
+        <f t="shared" ref="AI272" si="1230">Z272-AC272-AF272</f>
         <v>548</v>
       </c>
       <c r="AJ272">
-        <f t="shared" ref="AJ272" si="1230">AA272-AD272-AG272</f>
+        <f t="shared" ref="AJ272" si="1231">AA272-AD272-AG272</f>
         <v>347</v>
       </c>
       <c r="AK272">
-        <f t="shared" ref="AK272" si="1231">AB272-AE272-AH272</f>
+        <f t="shared" ref="AK272" si="1232">AB272-AE272-AH272</f>
         <v>2383</v>
       </c>
       <c r="AS272">
@@ -35592,71 +35592,71 @@
         <v>532</v>
       </c>
       <c r="AU272">
-        <f t="shared" ref="AU272" si="1232">BO272-BO271</f>
+        <f t="shared" ref="AU272" si="1233">BO272-BO271</f>
         <v>10268</v>
       </c>
       <c r="AV272">
-        <f t="shared" ref="AV272" si="1233">BQ272-BQ271</f>
+        <f t="shared" ref="AV272" si="1234">BQ272-BQ271</f>
         <v>1335</v>
       </c>
       <c r="AW272">
-        <f t="shared" ref="AW272" si="1234">AV272/AU272</f>
+        <f t="shared" ref="AW272" si="1235">AV272/AU272</f>
         <v>0.13001558239189714</v>
       </c>
       <c r="AX272">
-        <f t="shared" ref="AX272" si="1235">BS272-BS271</f>
+        <f t="shared" ref="AX272" si="1236">BS272-BS271</f>
         <v>57</v>
       </c>
       <c r="AY272">
-        <f t="shared" ref="AY272" si="1236">BU272-BU271</f>
+        <f t="shared" ref="AY272" si="1237">BU272-BU271</f>
         <v>4</v>
       </c>
       <c r="AZ272">
-        <f t="shared" ref="AZ272" si="1237">CA272-CA271</f>
+        <f t="shared" ref="AZ272" si="1238">CA272-CA271</f>
         <v>509</v>
       </c>
       <c r="BA272">
-        <f t="shared" ref="BA272" si="1238">CC272-CC271</f>
+        <f t="shared" ref="BA272" si="1239">CC272-CC271</f>
         <v>35</v>
       </c>
       <c r="BB272">
-        <f t="shared" ref="BB272" si="1239">BW272-BW271</f>
+        <f t="shared" ref="BB272" si="1240">BW272-BW271</f>
         <v>33</v>
       </c>
       <c r="BC272">
-        <f t="shared" ref="BC272" si="1240">BY272-BY271</f>
+        <f t="shared" ref="BC272" si="1241">BY272-BY271</f>
         <v>1</v>
       </c>
       <c r="BD272">
-        <f t="shared" ref="BD272" si="1241">AY272/AX272</f>
+        <f t="shared" ref="BD272" si="1242">AY272/AX272</f>
         <v>7.0175438596491224E-2</v>
       </c>
       <c r="BE272">
-        <f t="shared" ref="BE272" si="1242">BA272/AZ272</f>
+        <f t="shared" ref="BE272" si="1243">BA272/AZ272</f>
         <v>6.8762278978389005E-2</v>
       </c>
       <c r="BF272">
-        <f t="shared" ref="BF272" si="1243">BB272/BA272</f>
+        <f t="shared" ref="BF272" si="1244">BB272/BA272</f>
         <v>0.94285714285714284</v>
       </c>
       <c r="BG272">
-        <f t="shared" ref="BG272" si="1244">SUM(AV266:AV272)/SUM(AU266:AU272)</f>
+        <f t="shared" ref="BG272" si="1245">SUM(AV266:AV272)/SUM(AU266:AU272)</f>
         <v>9.4854710346104015E-2</v>
       </c>
       <c r="BH272">
-        <f t="shared" ref="BH272" si="1245">SUM(AV259:AV272)/SUM(AU259:AU272)</f>
+        <f t="shared" ref="BH272" si="1246">SUM(AV259:AV272)/SUM(AU259:AU272)</f>
         <v>0.11861289135864619</v>
       </c>
       <c r="BI272">
-        <f t="shared" ref="BI272" si="1246">SUM(AY266:AY272)/SUM(AX266:AX272)</f>
+        <f t="shared" ref="BI272" si="1247">SUM(AY266:AY272)/SUM(AX266:AX272)</f>
         <v>7.5961538461538455E-2</v>
       </c>
       <c r="BJ272">
-        <f t="shared" ref="BJ272" si="1247">SUM(BA266:BA272)/SUM(AZ266:AZ272)</f>
+        <f t="shared" ref="BJ272" si="1248">SUM(BA266:BA272)/SUM(AZ266:AZ272)</f>
         <v>7.1644803229061554E-2</v>
       </c>
       <c r="BK272">
-        <f t="shared" ref="BK272" si="1248">SUM(BC266:BC272)/SUM(BB266:BB272)</f>
+        <f t="shared" ref="BK272" si="1249">SUM(BC266:BC272)/SUM(BB266:BB272)</f>
         <v>6.6445182724252497E-2</v>
       </c>
       <c r="BL272">
@@ -35719,7 +35719,7 @@
     </row>
     <row r="273" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A273" s="14">
-        <f>A272+1</f>
+        <f t="shared" si="1173"/>
         <v>44179</v>
       </c>
       <c r="B273" s="9">
@@ -35753,47 +35753,47 @@
         <v>14</v>
       </c>
       <c r="M273">
-        <f t="shared" ref="M273" si="1249">-(J273-J272)+L273</f>
+        <f t="shared" ref="M273" si="1250">-(J273-J272)+L273</f>
         <v>18</v>
       </c>
       <c r="N273" s="7">
-        <f t="shared" ref="N273:N274" si="1250">B273-C273</f>
+        <f t="shared" ref="N273" si="1251">B273-C273</f>
         <v>1027989</v>
       </c>
       <c r="O273" s="4">
-        <f t="shared" ref="O273:O274" si="1251">C273/B273</f>
+        <f t="shared" ref="O273" si="1252">C273/B273</f>
         <v>0.19993820468259077</v>
       </c>
       <c r="R273">
-        <f t="shared" ref="R273" si="1252">C273-C272</f>
+        <f t="shared" ref="R273" si="1253">C273-C272</f>
         <v>650</v>
       </c>
       <c r="S273">
-        <f t="shared" ref="S273" si="1253">N273-N272</f>
+        <f t="shared" ref="S273" si="1254">N273-N272</f>
         <v>1538</v>
       </c>
       <c r="T273" s="8">
-        <f t="shared" ref="T273" si="1254">R273/V273</f>
+        <f t="shared" ref="T273" si="1255">R273/V273</f>
         <v>0.29707495429616088</v>
       </c>
       <c r="U273" s="8">
-        <f t="shared" ref="U273" si="1255">SUM(R267:R273)/SUM(V267:V273)</f>
+        <f t="shared" ref="U273" si="1256">SUM(R267:R273)/SUM(V267:V273)</f>
         <v>0.35976592822595094</v>
       </c>
       <c r="V273">
-        <f t="shared" ref="V273" si="1256">B273-B272</f>
+        <f t="shared" ref="V273" si="1257">B273-B272</f>
         <v>2188</v>
       </c>
       <c r="W273">
-        <f t="shared" ref="W273:W274" si="1257">C273-D273-E273</f>
+        <f t="shared" ref="W273" si="1258">C273-D273-E273</f>
         <v>63464</v>
       </c>
       <c r="X273" s="3">
-        <f t="shared" ref="X273:X274" si="1258">F273/W273</f>
+        <f t="shared" ref="X273" si="1259">F273/W273</f>
         <v>1.2038320937854532E-2</v>
       </c>
       <c r="Y273">
-        <f t="shared" ref="Y273" si="1259">E273-E272</f>
+        <f t="shared" ref="Y273" si="1260">E273-E272</f>
         <v>1</v>
       </c>
       <c r="Z273">
@@ -35824,15 +35824,15 @@
         <v>184</v>
       </c>
       <c r="AI273">
-        <f t="shared" ref="AI273" si="1260">Z273-AC273-AF273</f>
+        <f t="shared" ref="AI273" si="1261">Z273-AC273-AF273</f>
         <v>534</v>
       </c>
       <c r="AJ273">
-        <f t="shared" ref="AJ273" si="1261">AA273-AD273-AG273</f>
+        <f t="shared" ref="AJ273" si="1262">AA273-AD273-AG273</f>
         <v>340</v>
       </c>
       <c r="AK273">
-        <f t="shared" ref="AK273" si="1262">AB273-AE273-AH273</f>
+        <f t="shared" ref="AK273" si="1263">AB273-AE273-AH273</f>
         <v>2361</v>
       </c>
       <c r="AS273">
@@ -35840,7 +35840,7 @@
         <v>4</v>
       </c>
       <c r="AT273">
-        <f t="shared" ref="AT273" si="1263">AI273-AS273</f>
+        <f t="shared" ref="AT273" si="1264">AI273-AS273</f>
         <v>530</v>
       </c>
       <c r="AU273">
@@ -35848,67 +35848,67 @@
         <v>6233</v>
       </c>
       <c r="AV273">
-        <f t="shared" ref="AV273" si="1264">BQ273-BQ272</f>
+        <f t="shared" ref="AV273" si="1265">BQ273-BQ272</f>
         <v>702</v>
       </c>
       <c r="AW273">
-        <f t="shared" ref="AW273" si="1265">AV273/AU273</f>
+        <f t="shared" ref="AW273" si="1266">AV273/AU273</f>
         <v>0.11262634365474089</v>
       </c>
       <c r="AX273">
-        <f t="shared" ref="AX273" si="1266">BS273-BS272</f>
+        <f t="shared" ref="AX273" si="1267">BS273-BS272</f>
         <v>25</v>
       </c>
       <c r="AY273">
-        <f t="shared" ref="AY273" si="1267">BU273-BU272</f>
+        <f t="shared" ref="AY273" si="1268">BU273-BU272</f>
         <v>-3</v>
       </c>
       <c r="AZ273">
-        <f t="shared" ref="AZ273" si="1268">CA273-CA272</f>
+        <f t="shared" ref="AZ273" si="1269">CA273-CA272</f>
         <v>189</v>
       </c>
       <c r="BA273">
-        <f t="shared" ref="BA273" si="1269">CC273-CC272</f>
+        <f t="shared" ref="BA273" si="1270">CC273-CC272</f>
         <v>8</v>
       </c>
       <c r="BB273">
-        <f t="shared" ref="BB273" si="1270">BW273-BW272</f>
+        <f t="shared" ref="BB273" si="1271">BW273-BW272</f>
         <v>24</v>
       </c>
       <c r="BC273">
-        <f t="shared" ref="BC273" si="1271">BY273-BY272</f>
+        <f t="shared" ref="BC273" si="1272">BY273-BY272</f>
         <v>3</v>
       </c>
       <c r="BD273">
-        <f t="shared" ref="BD273" si="1272">AY273/AX273</f>
+        <f t="shared" ref="BD273" si="1273">AY273/AX273</f>
         <v>-0.12</v>
       </c>
       <c r="BE273">
-        <f t="shared" ref="BE273" si="1273">BA273/AZ273</f>
+        <f t="shared" ref="BE273" si="1274">BA273/AZ273</f>
         <v>4.2328042328042326E-2</v>
       </c>
       <c r="BF273">
-        <f t="shared" ref="BF273" si="1274">BB273/BA273</f>
+        <f t="shared" ref="BF273" si="1275">BB273/BA273</f>
         <v>3</v>
       </c>
       <c r="BG273">
-        <f t="shared" ref="BG273" si="1275">SUM(AV267:AV273)/SUM(AU267:AU273)</f>
+        <f t="shared" ref="BG273" si="1276">SUM(AV267:AV273)/SUM(AU267:AU273)</f>
         <v>9.5823891226934285E-2</v>
       </c>
       <c r="BH273">
-        <f t="shared" ref="BH273" si="1276">SUM(AV260:AV273)/SUM(AU260:AU273)</f>
+        <f t="shared" ref="BH273" si="1277">SUM(AV260:AV273)/SUM(AU260:AU273)</f>
         <v>0.11580933743360358</v>
       </c>
       <c r="BI273">
-        <f t="shared" ref="BI273" si="1277">SUM(AY267:AY273)/SUM(AX267:AX273)</f>
+        <f t="shared" ref="BI273" si="1278">SUM(AY267:AY273)/SUM(AX267:AX273)</f>
         <v>7.3194856577645892E-2</v>
       </c>
       <c r="BJ273">
-        <f t="shared" ref="BJ273" si="1278">SUM(BA267:BA273)/SUM(AZ267:AZ273)</f>
+        <f t="shared" ref="BJ273" si="1279">SUM(BA267:BA273)/SUM(AZ267:AZ273)</f>
         <v>7.0940170940170938E-2</v>
       </c>
       <c r="BK273">
-        <f t="shared" ref="BK273" si="1279">SUM(BC267:BC273)/SUM(BB267:BB273)</f>
+        <f t="shared" ref="BK273" si="1280">SUM(BC267:BC273)/SUM(BB267:BB273)</f>
         <v>6.6815144766147E-2</v>
       </c>
       <c r="BL273">
@@ -35971,7 +35971,7 @@
     </row>
     <row r="274" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A274" s="14">
-        <f>A273+1</f>
+        <f t="shared" si="1173"/>
         <v>44180</v>
       </c>
       <c r="B274" s="9">
@@ -36005,115 +36005,162 @@
         <v>14</v>
       </c>
       <c r="M274">
-        <f t="shared" ref="M274" si="1280">-(J274-J273)+L274</f>
+        <f t="shared" ref="M274" si="1281">-(J274-J273)+L274</f>
         <v>14</v>
       </c>
       <c r="N274" s="7">
-        <f t="shared" ref="N274" si="1281">B274-C274</f>
+        <f t="shared" ref="N274" si="1282">B274-C274</f>
         <v>1030635</v>
       </c>
       <c r="O274" s="4">
-        <f t="shared" ref="O274" si="1282">C274/B274</f>
+        <f t="shared" ref="O274" si="1283">C274/B274</f>
         <v>0.2003669838658996</v>
       </c>
       <c r="R274">
-        <f t="shared" ref="R274" si="1283">C274-C273</f>
+        <f t="shared" ref="R274" si="1284">C274-C273</f>
         <v>1352</v>
       </c>
       <c r="S274">
-        <f t="shared" ref="S274" si="1284">N274-N273</f>
+        <f t="shared" ref="S274" si="1285">N274-N273</f>
         <v>2646</v>
       </c>
       <c r="T274" s="8">
-        <f t="shared" ref="T274" si="1285">R274/V274</f>
+        <f t="shared" ref="T274" si="1286">R274/V274</f>
         <v>0.33816908454227113</v>
       </c>
       <c r="U274" s="8">
-        <f t="shared" ref="U274" si="1286">SUM(R268:R274)/SUM(V268:V274)</f>
+        <f t="shared" ref="U274" si="1287">SUM(R268:R274)/SUM(V268:V274)</f>
         <v>0.35465390975667377</v>
       </c>
       <c r="V274">
-        <f t="shared" ref="V274" si="1287">B274-B273</f>
+        <f t="shared" ref="V274" si="1288">B274-B273</f>
         <v>3998</v>
       </c>
       <c r="W274">
-        <f t="shared" ref="W274" si="1288">C274-D274-E274</f>
+        <f t="shared" ref="W274" si="1289">C274-D274-E274</f>
         <v>58832</v>
       </c>
       <c r="X274" s="3">
-        <f t="shared" ref="X274" si="1289">F274/W274</f>
+        <f t="shared" ref="X274" si="1290">F274/W274</f>
         <v>1.3564046777264074E-2</v>
       </c>
       <c r="Y274">
-        <f t="shared" ref="Y274" si="1290">E274-E273</f>
+        <f t="shared" ref="Y274" si="1291">E274-E273</f>
         <v>60</v>
+      </c>
+      <c r="Z274">
+        <v>2137</v>
+      </c>
+      <c r="AA274">
+        <v>1154</v>
+      </c>
+      <c r="AB274">
+        <v>11855</v>
+      </c>
+      <c r="AC274">
+        <v>1573</v>
+      </c>
+      <c r="AD274">
+        <v>805</v>
+      </c>
+      <c r="AE274">
+        <v>9352</v>
+      </c>
+      <c r="AF274">
+        <v>35</v>
+      </c>
+      <c r="AG274">
+        <v>15</v>
+      </c>
+      <c r="AH274">
+        <v>189</v>
+      </c>
+      <c r="AI274">
+        <f t="shared" ref="AI274:AI275" si="1292">Z274-AC274-AF274</f>
+        <v>529</v>
+      </c>
+      <c r="AJ274">
+        <f t="shared" ref="AJ274:AJ275" si="1293">AA274-AD274-AG274</f>
+        <v>334</v>
+      </c>
+      <c r="AK274">
+        <f t="shared" ref="AK274:AK275" si="1294">AB274-AE274-AH274</f>
+        <v>2314</v>
+      </c>
+      <c r="AS274">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A274)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A274)</f>
+        <v>2</v>
+      </c>
+      <c r="AT274">
+        <f t="shared" ref="AT274" si="1295">AI274-AS274</f>
+        <v>527</v>
       </c>
       <c r="AU274">
         <f>BO274-BO273</f>
         <v>22731</v>
       </c>
       <c r="AV274">
-        <f t="shared" ref="AV274" si="1291">BQ274-BQ273</f>
+        <f t="shared" ref="AV274" si="1296">BQ274-BQ273</f>
         <v>1436</v>
       </c>
       <c r="AW274">
-        <f t="shared" ref="AW274" si="1292">AV274/AU274</f>
+        <f t="shared" ref="AW274" si="1297">AV274/AU274</f>
         <v>6.3173639523118205E-2</v>
       </c>
       <c r="AX274">
-        <f t="shared" ref="AX274" si="1293">BS274-BS273</f>
+        <f t="shared" ref="AX274" si="1298">BS274-BS273</f>
         <v>231</v>
       </c>
       <c r="AY274">
-        <f t="shared" ref="AY274" si="1294">BU274-BU273</f>
+        <f t="shared" ref="AY274" si="1299">BU274-BU273</f>
         <v>13</v>
       </c>
       <c r="AZ274">
-        <f t="shared" ref="AZ274" si="1295">CA274-CA273</f>
+        <f t="shared" ref="AZ274" si="1300">CA274-CA273</f>
         <v>920</v>
       </c>
       <c r="BA274">
-        <f t="shared" ref="BA274" si="1296">CC274-CC273</f>
+        <f t="shared" ref="BA274" si="1301">CC274-CC273</f>
         <v>40</v>
       </c>
       <c r="BB274">
-        <f t="shared" ref="BB274" si="1297">BW274-BW273</f>
+        <f t="shared" ref="BB274" si="1302">BW274-BW273</f>
         <v>209</v>
       </c>
       <c r="BC274">
-        <f t="shared" ref="BC274" si="1298">BY274-BY273</f>
+        <f t="shared" ref="BC274" si="1303">BY274-BY273</f>
         <v>4</v>
       </c>
       <c r="BD274">
-        <f t="shared" ref="BD274" si="1299">AY274/AX274</f>
+        <f t="shared" ref="BD274" si="1304">AY274/AX274</f>
         <v>5.627705627705628E-2</v>
       </c>
       <c r="BE274">
-        <f t="shared" ref="BE274" si="1300">BA274/AZ274</f>
+        <f t="shared" ref="BE274" si="1305">BA274/AZ274</f>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="BF274">
-        <f t="shared" ref="BF274" si="1301">BB274/BA274</f>
+        <f t="shared" ref="BF274" si="1306">BB274/BA274</f>
         <v>5.2249999999999996</v>
       </c>
       <c r="BG274">
-        <f t="shared" ref="BG274" si="1302">SUM(AV268:AV274)/SUM(AU268:AU274)</f>
+        <f t="shared" ref="BG274" si="1307">SUM(AV268:AV274)/SUM(AU268:AU274)</f>
         <v>9.0407519850537132E-2</v>
       </c>
       <c r="BH274">
-        <f t="shared" ref="BH274" si="1303">SUM(AV261:AV274)/SUM(AU261:AU274)</f>
+        <f t="shared" ref="BH274" si="1308">SUM(AV261:AV274)/SUM(AU261:AU274)</f>
         <v>0.10536391918225017</v>
       </c>
       <c r="BI274">
-        <f t="shared" ref="BI274" si="1304">SUM(AY268:AY274)/SUM(AX268:AX274)</f>
+        <f t="shared" ref="BI274" si="1309">SUM(AY268:AY274)/SUM(AX268:AX274)</f>
         <v>6.955645161290322E-2</v>
       </c>
       <c r="BJ274">
-        <f t="shared" ref="BJ274" si="1305">SUM(BA268:BA274)/SUM(AZ268:AZ274)</f>
+        <f t="shared" ref="BJ274" si="1310">SUM(BA268:BA274)/SUM(AZ268:AZ274)</f>
         <v>7.0950226244343897E-2</v>
       </c>
       <c r="BK274">
-        <f t="shared" ref="BK274" si="1306">SUM(BC268:BC274)/SUM(BB268:BB274)</f>
+        <f t="shared" ref="BK274" si="1311">SUM(BC268:BC274)/SUM(BB268:BB274)</f>
         <v>5.7142857142857141E-2</v>
       </c>
       <c r="BL274">
@@ -36172,6 +36219,463 @@
       </c>
       <c r="CD274">
         <v>11883</v>
+      </c>
+    </row>
+    <row r="275" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="A275" s="14">
+        <f t="shared" si="1173"/>
+        <v>44181</v>
+      </c>
+      <c r="B275" s="9">
+        <v>1294596</v>
+      </c>
+      <c r="C275">
+        <v>260221</v>
+      </c>
+      <c r="D275">
+        <v>200774</v>
+      </c>
+      <c r="E275" s="9">
+        <v>3340</v>
+      </c>
+      <c r="F275" s="9">
+        <v>776</v>
+      </c>
+      <c r="H275">
+        <v>152</v>
+      </c>
+      <c r="I275">
+        <v>108</v>
+      </c>
+      <c r="J275">
+        <v>148</v>
+      </c>
+      <c r="K275">
+        <v>24</v>
+      </c>
+      <c r="L275">
+        <v>32</v>
+      </c>
+      <c r="M275">
+        <f t="shared" ref="M275" si="1312">-(J275-J274)+L275</f>
+        <v>27</v>
+      </c>
+      <c r="N275" s="7">
+        <f t="shared" ref="N275:N276" si="1313">B275-C275</f>
+        <v>1034375</v>
+      </c>
+      <c r="O275" s="4">
+        <f t="shared" ref="O275:O276" si="1314">C275/B275</f>
+        <v>0.2010055646703682</v>
+      </c>
+      <c r="R275">
+        <f t="shared" ref="R275" si="1315">C275-C274</f>
+        <v>1971</v>
+      </c>
+      <c r="S275">
+        <f t="shared" ref="S275" si="1316">N275-N274</f>
+        <v>3740</v>
+      </c>
+      <c r="T275" s="8">
+        <f t="shared" ref="T275" si="1317">R275/V275</f>
+        <v>0.34512344598143935</v>
+      </c>
+      <c r="U275" s="8">
+        <f t="shared" ref="U275" si="1318">SUM(R269:R275)/SUM(V269:V275)</f>
+        <v>0.35226855494361398</v>
+      </c>
+      <c r="V275">
+        <f t="shared" ref="V275" si="1319">B275-B274</f>
+        <v>5711</v>
+      </c>
+      <c r="W275">
+        <f t="shared" ref="W275:W276" si="1320">C275-D275-E275</f>
+        <v>56107</v>
+      </c>
+      <c r="X275" s="3">
+        <f t="shared" ref="X275:X276" si="1321">F275/W275</f>
+        <v>1.3830716309907854E-2</v>
+      </c>
+      <c r="Y275">
+        <f>E275-E274</f>
+        <v>67</v>
+      </c>
+      <c r="Z275">
+        <v>2140</v>
+      </c>
+      <c r="AA275">
+        <v>1157</v>
+      </c>
+      <c r="AB275">
+        <v>11882</v>
+      </c>
+      <c r="AC275">
+        <v>1635</v>
+      </c>
+      <c r="AD275">
+        <v>828</v>
+      </c>
+      <c r="AE275">
+        <v>9609</v>
+      </c>
+      <c r="AF275">
+        <v>38</v>
+      </c>
+      <c r="AG275">
+        <v>15</v>
+      </c>
+      <c r="AH275">
+        <v>193</v>
+      </c>
+      <c r="AI275">
+        <f t="shared" si="1292"/>
+        <v>467</v>
+      </c>
+      <c r="AJ275">
+        <f t="shared" si="1293"/>
+        <v>314</v>
+      </c>
+      <c r="AK275">
+        <f t="shared" si="1294"/>
+        <v>2080</v>
+      </c>
+      <c r="AS275">
+        <f>COUNTIF('Wartburg Positive Tests'!G:G,"&lt;="&amp;covid19!A275)-COUNTIF('Wartburg Positive Tests'!H:H,"&lt;="&amp;covid19!A275)</f>
+        <v>2</v>
+      </c>
+      <c r="AT275">
+        <f t="shared" ref="AT275" si="1322">AI275-AS275</f>
+        <v>465</v>
+      </c>
+      <c r="AU275">
+        <f>BO275-BO274</f>
+        <v>28642</v>
+      </c>
+      <c r="AV275">
+        <f t="shared" ref="AV275" si="1323">BQ275-BQ274</f>
+        <v>2139</v>
+      </c>
+      <c r="AW275">
+        <f t="shared" ref="AW275" si="1324">AV275/AU275</f>
+        <v>7.4680539068500806E-2</v>
+      </c>
+      <c r="AX275">
+        <f t="shared" ref="AX275" si="1325">BS275-BS274</f>
+        <v>118</v>
+      </c>
+      <c r="AY275">
+        <f t="shared" ref="AY275" si="1326">BU275-BU274</f>
+        <v>11</v>
+      </c>
+      <c r="AZ275">
+        <f t="shared" ref="AZ275" si="1327">CA275-CA274</f>
+        <v>778</v>
+      </c>
+      <c r="BA275">
+        <f t="shared" ref="BA275" si="1328">CC275-CC274</f>
+        <v>62</v>
+      </c>
+      <c r="BB275">
+        <f t="shared" ref="BB275" si="1329">BW275-BW274</f>
+        <v>128</v>
+      </c>
+      <c r="BC275">
+        <f t="shared" ref="BC275" si="1330">BY275-BY274</f>
+        <v>6</v>
+      </c>
+      <c r="BD275">
+        <f t="shared" ref="BD275" si="1331">AY275/AX275</f>
+        <v>9.3220338983050849E-2</v>
+      </c>
+      <c r="BE275">
+        <f t="shared" ref="BE275" si="1332">BA275/AZ275</f>
+        <v>7.9691516709511565E-2</v>
+      </c>
+      <c r="BF275">
+        <f t="shared" ref="BF275" si="1333">BB275/BA275</f>
+        <v>2.064516129032258</v>
+      </c>
+      <c r="BG275">
+        <f t="shared" ref="BG275" si="1334">SUM(AV269:AV275)/SUM(AU269:AU275)</f>
+        <v>8.6957748863989159E-2</v>
+      </c>
+      <c r="BH275">
+        <f t="shared" ref="BH275" si="1335">SUM(AV262:AV275)/SUM(AU262:AU275)</f>
+        <v>9.8093727178867315E-2</v>
+      </c>
+      <c r="BI275">
+        <f t="shared" ref="BI275" si="1336">SUM(AY269:AY275)/SUM(AX269:AX275)</f>
+        <v>6.6402378592666012E-2</v>
+      </c>
+      <c r="BJ275">
+        <f t="shared" ref="BJ275" si="1337">SUM(BA269:BA275)/SUM(AZ269:AZ275)</f>
+        <v>6.9544364508393283E-2</v>
+      </c>
+      <c r="BK275">
+        <f t="shared" ref="BK275" si="1338">SUM(BC269:BC275)/SUM(BB269:BB275)</f>
+        <v>4.9586776859504134E-2</v>
+      </c>
+      <c r="BL275">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="BM275">
+        <v>0.113</v>
+      </c>
+      <c r="BN275">
+        <v>0.12</v>
+      </c>
+      <c r="BO275">
+        <v>2785209</v>
+      </c>
+      <c r="BP275">
+        <v>1294597</v>
+      </c>
+      <c r="BQ275">
+        <v>281283</v>
+      </c>
+      <c r="BR275">
+        <v>260220</v>
+      </c>
+      <c r="BS275">
+        <v>21128</v>
+      </c>
+      <c r="BT275">
+        <v>9142</v>
+      </c>
+      <c r="BU275">
+        <v>2253</v>
+      </c>
+      <c r="BV275">
+        <v>2147</v>
+      </c>
+      <c r="BW275">
+        <v>15929</v>
+      </c>
+      <c r="BX275">
+        <v>5369</v>
+      </c>
+      <c r="BY275">
+        <v>1235</v>
+      </c>
+      <c r="BZ275">
+        <v>1164</v>
+      </c>
+      <c r="CA275">
+        <v>121665</v>
+      </c>
+      <c r="CB275">
+        <v>54933</v>
+      </c>
+      <c r="CC275">
+        <v>13035</v>
+      </c>
+      <c r="CD275">
+        <v>11941</v>
+      </c>
+    </row>
+    <row r="276" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="A276" s="14">
+        <f t="shared" si="1173"/>
+        <v>44182</v>
+      </c>
+      <c r="B276" s="9">
+        <v>1300446</v>
+      </c>
+      <c r="C276">
+        <v>262198</v>
+      </c>
+      <c r="D276">
+        <v>204840</v>
+      </c>
+      <c r="E276" s="9">
+        <v>3354</v>
+      </c>
+      <c r="F276" s="9">
+        <v>746</v>
+      </c>
+      <c r="H276">
+        <v>146</v>
+      </c>
+      <c r="I276">
+        <v>95</v>
+      </c>
+      <c r="J276">
+        <v>135</v>
+      </c>
+      <c r="K276">
+        <v>24</v>
+      </c>
+      <c r="L276">
+        <v>14</v>
+      </c>
+      <c r="M276">
+        <f t="shared" ref="M276" si="1339">-(J276-J275)+L276</f>
+        <v>27</v>
+      </c>
+      <c r="N276" s="7">
+        <f t="shared" ref="N276" si="1340">B276-C276</f>
+        <v>1038248</v>
+      </c>
+      <c r="O276" s="4">
+        <f t="shared" ref="O276" si="1341">C276/B276</f>
+        <v>0.20162159751346845</v>
+      </c>
+      <c r="R276">
+        <f t="shared" ref="R276" si="1342">C276-C275</f>
+        <v>1977</v>
+      </c>
+      <c r="S276">
+        <f t="shared" ref="S276" si="1343">N276-N275</f>
+        <v>3873</v>
+      </c>
+      <c r="T276" s="8">
+        <f t="shared" ref="T276" si="1344">R276/V276</f>
+        <v>0.33794871794871795</v>
+      </c>
+      <c r="U276" s="8">
+        <f t="shared" ref="U276" si="1345">SUM(R270:R276)/SUM(V270:V276)</f>
+        <v>0.34513547749250778</v>
+      </c>
+      <c r="V276">
+        <f t="shared" ref="V276" si="1346">B276-B275</f>
+        <v>5850</v>
+      </c>
+      <c r="W276">
+        <f t="shared" ref="W276" si="1347">C276-D276-E276</f>
+        <v>54004</v>
+      </c>
+      <c r="X276" s="3">
+        <f t="shared" ref="X276" si="1348">F276/W276</f>
+        <v>1.3813791570994742E-2</v>
+      </c>
+      <c r="Y276">
+        <f>E276-E275</f>
+        <v>14</v>
+      </c>
+      <c r="AU276">
+        <f>BO276-BO275</f>
+        <v>23372</v>
+      </c>
+      <c r="AV276">
+        <f t="shared" ref="AV276" si="1349">BQ276-BQ275</f>
+        <v>2138</v>
+      </c>
+      <c r="AW276">
+        <f t="shared" ref="AW276" si="1350">AV276/AU276</f>
+        <v>9.1476981002909463E-2</v>
+      </c>
+      <c r="AX276">
+        <f t="shared" ref="AX276" si="1351">BS276-BS275</f>
+        <v>193</v>
+      </c>
+      <c r="AY276">
+        <f t="shared" ref="AY276" si="1352">BU276-BU275</f>
+        <v>9</v>
+      </c>
+      <c r="AZ276">
+        <f t="shared" ref="AZ276" si="1353">CA276-CA275</f>
+        <v>801</v>
+      </c>
+      <c r="BA276">
+        <f t="shared" ref="BA276" si="1354">CC276-CC275</f>
+        <v>65</v>
+      </c>
+      <c r="BB276">
+        <f t="shared" ref="BB276" si="1355">BW276-BW275</f>
+        <v>118</v>
+      </c>
+      <c r="BC276">
+        <f t="shared" ref="BC276" si="1356">BY276-BY275</f>
+        <v>8</v>
+      </c>
+      <c r="BD276">
+        <f t="shared" ref="BD276" si="1357">AY276/AX276</f>
+        <v>4.6632124352331605E-2</v>
+      </c>
+      <c r="BE276">
+        <f t="shared" ref="BE276" si="1358">BA276/AZ276</f>
+        <v>8.1148564294631714E-2</v>
+      </c>
+      <c r="BF276">
+        <f t="shared" ref="BF276" si="1359">BB276/BA276</f>
+        <v>1.8153846153846154</v>
+      </c>
+      <c r="BG276">
+        <f t="shared" ref="BG276" si="1360">SUM(AV270:AV276)/SUM(AU270:AU276)</f>
+        <v>8.3760278084123244E-2</v>
+      </c>
+      <c r="BH276">
+        <f t="shared" ref="BH276" si="1361">SUM(AV263:AV276)/SUM(AU263:AU276)</f>
+        <v>9.3560960616940719E-2</v>
+      </c>
+      <c r="BI276">
+        <f t="shared" ref="BI276" si="1362">SUM(AY270:AY276)/SUM(AX270:AX276)</f>
+        <v>6.2325581395348835E-2</v>
+      </c>
+      <c r="BJ276">
+        <f t="shared" ref="BJ276" si="1363">SUM(BA270:BA276)/SUM(AZ270:AZ276)</f>
+        <v>6.9632495164410058E-2</v>
+      </c>
+      <c r="BK276">
+        <f t="shared" ref="BK276" si="1364">SUM(BC270:BC276)/SUM(BB270:BB276)</f>
+        <v>4.9576783555018135E-2</v>
+      </c>
+      <c r="BL276">
+        <v>0.11</v>
+      </c>
+      <c r="BM276">
+        <v>0.113</v>
+      </c>
+      <c r="BN276">
+        <v>0.107</v>
+      </c>
+      <c r="BO276">
+        <v>2808581</v>
+      </c>
+      <c r="BP276">
+        <v>1300446</v>
+      </c>
+      <c r="BQ276">
+        <v>283421</v>
+      </c>
+      <c r="BR276">
+        <v>262198</v>
+      </c>
+      <c r="BS276">
+        <v>21321</v>
+      </c>
+      <c r="BT276">
+        <v>9177</v>
+      </c>
+      <c r="BU276">
+        <v>2262</v>
+      </c>
+      <c r="BV276">
+        <v>2154</v>
+      </c>
+      <c r="BW276">
+        <v>16047</v>
+      </c>
+      <c r="BX276">
+        <v>5390</v>
+      </c>
+      <c r="BY276">
+        <v>1243</v>
+      </c>
+      <c r="BZ276">
+        <v>1172</v>
+      </c>
+      <c r="CA276">
+        <v>122466</v>
+      </c>
+      <c r="CB276">
+        <v>55170</v>
+      </c>
+      <c r="CC276">
+        <v>13100</v>
+      </c>
+      <c r="CD276">
+        <v>12005</v>
       </c>
     </row>
   </sheetData>
@@ -36199,7 +36703,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>R228:R274</xm:sqref>
+          <xm:sqref>R228:R276</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="22" operator="equal" id="{E5309D98-D036-43E8-AE0C-F104DC358831}">
@@ -36215,7 +36719,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>Y228:Y274</xm:sqref>
+          <xm:sqref>Y228:Y276</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5269D26C-9211-46B2-914A-48345DF37DEF}">
@@ -36231,7 +36735,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F228:F274</xm:sqref>
+          <xm:sqref>F228:F276</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="20" operator="equal" id="{24843253-84F3-44AF-847D-C74D74C4F05A}">
@@ -36263,7 +36767,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J228:J274</xm:sqref>
+          <xm:sqref>J228:J276</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="18" operator="equal" id="{6F562D16-6A18-4369-973E-028D1B5F7CFF}">
@@ -36279,7 +36783,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K228:K274</xm:sqref>
+          <xm:sqref>K228:K276</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{735BDD8A-2F04-47F3-825F-41FCBFA8ADD5}">
@@ -36519,7 +37023,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H1:H1048576 I229:I274</xm:sqref>
+          <xm:sqref>H1:H1048576 I229:I276</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{8F0BE21B-C8AC-4EAD-AE58-244C59D5B0FC}">
@@ -36535,7 +37039,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>W229:W274</xm:sqref>
+          <xm:sqref>W229:W276</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -43111,15 +43615,15 @@
       </c>
       <c r="R2">
         <f>MAX(covid19!AF:AF)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="S2">
         <f>MAX(covid19!AG:AG)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T2">
         <f>MAX(covid19!AH:AH)</f>
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="U2">
         <f>MAX(covid19!AI:AI)</f>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20E8999-1369-482F-A030-680B2A14B310}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BDAADC-BD64-4EA9-866A-9E7068173995}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2531,13 +2531,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CD276"/>
+  <dimension ref="A1:CD279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BU260" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AC263" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BZ276" sqref="BZ276"/>
+      <selection pane="bottomRight" activeCell="AI278" sqref="AI278:AK279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34963,7 +34963,7 @@
     </row>
     <row r="270" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A270" s="14">
-        <f t="shared" ref="A270:A276" si="1173">A269+1</f>
+        <f t="shared" ref="A270:A279" si="1173">A269+1</f>
         <v>44176</v>
       </c>
       <c r="B270" s="9">
@@ -35844,71 +35844,71 @@
         <v>530</v>
       </c>
       <c r="AU273">
-        <f>BO273-BO272</f>
+        <f t="shared" ref="AU273:AU278" si="1265">BO273-BO272</f>
         <v>6233</v>
       </c>
       <c r="AV273">
-        <f t="shared" ref="AV273" si="1265">BQ273-BQ272</f>
+        <f t="shared" ref="AV273" si="1266">BQ273-BQ272</f>
         <v>702</v>
       </c>
       <c r="AW273">
-        <f t="shared" ref="AW273" si="1266">AV273/AU273</f>
+        <f t="shared" ref="AW273" si="1267">AV273/AU273</f>
         <v>0.11262634365474089</v>
       </c>
       <c r="AX273">
-        <f t="shared" ref="AX273" si="1267">BS273-BS272</f>
+        <f t="shared" ref="AX273" si="1268">BS273-BS272</f>
         <v>25</v>
       </c>
       <c r="AY273">
-        <f t="shared" ref="AY273" si="1268">BU273-BU272</f>
+        <f t="shared" ref="AY273" si="1269">BU273-BU272</f>
         <v>-3</v>
       </c>
       <c r="AZ273">
-        <f t="shared" ref="AZ273" si="1269">CA273-CA272</f>
+        <f t="shared" ref="AZ273" si="1270">CA273-CA272</f>
         <v>189</v>
       </c>
       <c r="BA273">
-        <f t="shared" ref="BA273" si="1270">CC273-CC272</f>
+        <f t="shared" ref="BA273" si="1271">CC273-CC272</f>
         <v>8</v>
       </c>
       <c r="BB273">
-        <f t="shared" ref="BB273" si="1271">BW273-BW272</f>
+        <f t="shared" ref="BB273" si="1272">BW273-BW272</f>
         <v>24</v>
       </c>
       <c r="BC273">
-        <f t="shared" ref="BC273" si="1272">BY273-BY272</f>
+        <f t="shared" ref="BC273" si="1273">BY273-BY272</f>
         <v>3</v>
       </c>
       <c r="BD273">
-        <f t="shared" ref="BD273" si="1273">AY273/AX273</f>
+        <f t="shared" ref="BD273" si="1274">AY273/AX273</f>
         <v>-0.12</v>
       </c>
       <c r="BE273">
-        <f t="shared" ref="BE273" si="1274">BA273/AZ273</f>
+        <f t="shared" ref="BE273" si="1275">BA273/AZ273</f>
         <v>4.2328042328042326E-2</v>
       </c>
       <c r="BF273">
-        <f t="shared" ref="BF273" si="1275">BB273/BA273</f>
+        <f t="shared" ref="BF273" si="1276">BB273/BA273</f>
         <v>3</v>
       </c>
       <c r="BG273">
-        <f t="shared" ref="BG273" si="1276">SUM(AV267:AV273)/SUM(AU267:AU273)</f>
+        <f t="shared" ref="BG273" si="1277">SUM(AV267:AV273)/SUM(AU267:AU273)</f>
         <v>9.5823891226934285E-2</v>
       </c>
       <c r="BH273">
-        <f t="shared" ref="BH273" si="1277">SUM(AV260:AV273)/SUM(AU260:AU273)</f>
+        <f t="shared" ref="BH273" si="1278">SUM(AV260:AV273)/SUM(AU260:AU273)</f>
         <v>0.11580933743360358</v>
       </c>
       <c r="BI273">
-        <f t="shared" ref="BI273" si="1278">SUM(AY267:AY273)/SUM(AX267:AX273)</f>
+        <f t="shared" ref="BI273" si="1279">SUM(AY267:AY273)/SUM(AX267:AX273)</f>
         <v>7.3194856577645892E-2</v>
       </c>
       <c r="BJ273">
-        <f t="shared" ref="BJ273" si="1279">SUM(BA267:BA273)/SUM(AZ267:AZ273)</f>
+        <f t="shared" ref="BJ273" si="1280">SUM(BA267:BA273)/SUM(AZ267:AZ273)</f>
         <v>7.0940170940170938E-2</v>
       </c>
       <c r="BK273">
-        <f t="shared" ref="BK273" si="1280">SUM(BC267:BC273)/SUM(BB267:BB273)</f>
+        <f t="shared" ref="BK273" si="1281">SUM(BC267:BC273)/SUM(BB267:BB273)</f>
         <v>6.6815144766147E-2</v>
       </c>
       <c r="BL273">
@@ -36005,47 +36005,47 @@
         <v>14</v>
       </c>
       <c r="M274">
-        <f t="shared" ref="M274" si="1281">-(J274-J273)+L274</f>
+        <f t="shared" ref="M274" si="1282">-(J274-J273)+L274</f>
         <v>14</v>
       </c>
       <c r="N274" s="7">
-        <f t="shared" ref="N274" si="1282">B274-C274</f>
+        <f t="shared" ref="N274" si="1283">B274-C274</f>
         <v>1030635</v>
       </c>
       <c r="O274" s="4">
-        <f t="shared" ref="O274" si="1283">C274/B274</f>
+        <f t="shared" ref="O274" si="1284">C274/B274</f>
         <v>0.2003669838658996</v>
       </c>
       <c r="R274">
-        <f t="shared" ref="R274" si="1284">C274-C273</f>
+        <f t="shared" ref="R274" si="1285">C274-C273</f>
         <v>1352</v>
       </c>
       <c r="S274">
-        <f t="shared" ref="S274" si="1285">N274-N273</f>
+        <f t="shared" ref="S274" si="1286">N274-N273</f>
         <v>2646</v>
       </c>
       <c r="T274" s="8">
-        <f t="shared" ref="T274" si="1286">R274/V274</f>
+        <f t="shared" ref="T274" si="1287">R274/V274</f>
         <v>0.33816908454227113</v>
       </c>
       <c r="U274" s="8">
-        <f t="shared" ref="U274" si="1287">SUM(R268:R274)/SUM(V268:V274)</f>
+        <f t="shared" ref="U274" si="1288">SUM(R268:R274)/SUM(V268:V274)</f>
         <v>0.35465390975667377</v>
       </c>
       <c r="V274">
-        <f t="shared" ref="V274" si="1288">B274-B273</f>
+        <f t="shared" ref="V274" si="1289">B274-B273</f>
         <v>3998</v>
       </c>
       <c r="W274">
-        <f t="shared" ref="W274" si="1289">C274-D274-E274</f>
+        <f t="shared" ref="W274" si="1290">C274-D274-E274</f>
         <v>58832</v>
       </c>
       <c r="X274" s="3">
-        <f t="shared" ref="X274" si="1290">F274/W274</f>
+        <f t="shared" ref="X274" si="1291">F274/W274</f>
         <v>1.3564046777264074E-2</v>
       </c>
       <c r="Y274">
-        <f t="shared" ref="Y274" si="1291">E274-E273</f>
+        <f t="shared" ref="Y274" si="1292">E274-E273</f>
         <v>60</v>
       </c>
       <c r="Z274">
@@ -36076,15 +36076,15 @@
         <v>189</v>
       </c>
       <c r="AI274">
-        <f t="shared" ref="AI274:AI275" si="1292">Z274-AC274-AF274</f>
+        <f t="shared" ref="AI274:AI276" si="1293">Z274-AC274-AF274</f>
         <v>529</v>
       </c>
       <c r="AJ274">
-        <f t="shared" ref="AJ274:AJ275" si="1293">AA274-AD274-AG274</f>
+        <f t="shared" ref="AJ274:AJ276" si="1294">AA274-AD274-AG274</f>
         <v>334</v>
       </c>
       <c r="AK274">
-        <f t="shared" ref="AK274:AK275" si="1294">AB274-AE274-AH274</f>
+        <f t="shared" ref="AK274:AK276" si="1295">AB274-AE274-AH274</f>
         <v>2314</v>
       </c>
       <c r="AS274">
@@ -36092,75 +36092,75 @@
         <v>2</v>
       </c>
       <c r="AT274">
-        <f t="shared" ref="AT274" si="1295">AI274-AS274</f>
+        <f t="shared" ref="AT274" si="1296">AI274-AS274</f>
         <v>527</v>
       </c>
       <c r="AU274">
-        <f>BO274-BO273</f>
+        <f t="shared" si="1265"/>
         <v>22731</v>
       </c>
       <c r="AV274">
-        <f t="shared" ref="AV274" si="1296">BQ274-BQ273</f>
+        <f t="shared" ref="AV274" si="1297">BQ274-BQ273</f>
         <v>1436</v>
       </c>
       <c r="AW274">
-        <f t="shared" ref="AW274" si="1297">AV274/AU274</f>
+        <f t="shared" ref="AW274" si="1298">AV274/AU274</f>
         <v>6.3173639523118205E-2</v>
       </c>
       <c r="AX274">
-        <f t="shared" ref="AX274" si="1298">BS274-BS273</f>
+        <f t="shared" ref="AX274" si="1299">BS274-BS273</f>
         <v>231</v>
       </c>
       <c r="AY274">
-        <f t="shared" ref="AY274" si="1299">BU274-BU273</f>
+        <f t="shared" ref="AY274" si="1300">BU274-BU273</f>
         <v>13</v>
       </c>
       <c r="AZ274">
-        <f t="shared" ref="AZ274" si="1300">CA274-CA273</f>
+        <f t="shared" ref="AZ274" si="1301">CA274-CA273</f>
         <v>920</v>
       </c>
       <c r="BA274">
-        <f t="shared" ref="BA274" si="1301">CC274-CC273</f>
+        <f t="shared" ref="BA274" si="1302">CC274-CC273</f>
         <v>40</v>
       </c>
       <c r="BB274">
-        <f t="shared" ref="BB274" si="1302">BW274-BW273</f>
+        <f t="shared" ref="BB274" si="1303">BW274-BW273</f>
         <v>209</v>
       </c>
       <c r="BC274">
-        <f t="shared" ref="BC274" si="1303">BY274-BY273</f>
+        <f t="shared" ref="BC274" si="1304">BY274-BY273</f>
         <v>4</v>
       </c>
       <c r="BD274">
-        <f t="shared" ref="BD274" si="1304">AY274/AX274</f>
+        <f t="shared" ref="BD274" si="1305">AY274/AX274</f>
         <v>5.627705627705628E-2</v>
       </c>
       <c r="BE274">
-        <f t="shared" ref="BE274" si="1305">BA274/AZ274</f>
+        <f t="shared" ref="BE274" si="1306">BA274/AZ274</f>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="BF274">
-        <f t="shared" ref="BF274" si="1306">BB274/BA274</f>
+        <f t="shared" ref="BF274" si="1307">BB274/BA274</f>
         <v>5.2249999999999996</v>
       </c>
       <c r="BG274">
-        <f t="shared" ref="BG274" si="1307">SUM(AV268:AV274)/SUM(AU268:AU274)</f>
+        <f t="shared" ref="BG274" si="1308">SUM(AV268:AV274)/SUM(AU268:AU274)</f>
         <v>9.0407519850537132E-2</v>
       </c>
       <c r="BH274">
-        <f t="shared" ref="BH274" si="1308">SUM(AV261:AV274)/SUM(AU261:AU274)</f>
+        <f t="shared" ref="BH274" si="1309">SUM(AV261:AV274)/SUM(AU261:AU274)</f>
         <v>0.10536391918225017</v>
       </c>
       <c r="BI274">
-        <f t="shared" ref="BI274" si="1309">SUM(AY268:AY274)/SUM(AX268:AX274)</f>
+        <f t="shared" ref="BI274" si="1310">SUM(AY268:AY274)/SUM(AX268:AX274)</f>
         <v>6.955645161290322E-2</v>
       </c>
       <c r="BJ274">
-        <f t="shared" ref="BJ274" si="1310">SUM(BA268:BA274)/SUM(AZ268:AZ274)</f>
+        <f t="shared" ref="BJ274" si="1311">SUM(BA268:BA274)/SUM(AZ268:AZ274)</f>
         <v>7.0950226244343897E-2</v>
       </c>
       <c r="BK274">
-        <f t="shared" ref="BK274" si="1311">SUM(BC268:BC274)/SUM(BB268:BB274)</f>
+        <f t="shared" ref="BK274" si="1312">SUM(BC268:BC274)/SUM(BB268:BB274)</f>
         <v>5.7142857142857141E-2</v>
       </c>
       <c r="BL274">
@@ -36257,43 +36257,43 @@
         <v>32</v>
       </c>
       <c r="M275">
-        <f t="shared" ref="M275" si="1312">-(J275-J274)+L275</f>
+        <f t="shared" ref="M275" si="1313">-(J275-J274)+L275</f>
         <v>27</v>
       </c>
       <c r="N275" s="7">
-        <f t="shared" ref="N275:N276" si="1313">B275-C275</f>
+        <f t="shared" ref="N275" si="1314">B275-C275</f>
         <v>1034375</v>
       </c>
       <c r="O275" s="4">
-        <f t="shared" ref="O275:O276" si="1314">C275/B275</f>
+        <f t="shared" ref="O275" si="1315">C275/B275</f>
         <v>0.2010055646703682</v>
       </c>
       <c r="R275">
-        <f t="shared" ref="R275" si="1315">C275-C274</f>
+        <f t="shared" ref="R275" si="1316">C275-C274</f>
         <v>1971</v>
       </c>
       <c r="S275">
-        <f t="shared" ref="S275" si="1316">N275-N274</f>
+        <f t="shared" ref="S275" si="1317">N275-N274</f>
         <v>3740</v>
       </c>
       <c r="T275" s="8">
-        <f t="shared" ref="T275" si="1317">R275/V275</f>
+        <f t="shared" ref="T275" si="1318">R275/V275</f>
         <v>0.34512344598143935</v>
       </c>
       <c r="U275" s="8">
-        <f t="shared" ref="U275" si="1318">SUM(R269:R275)/SUM(V269:V275)</f>
+        <f t="shared" ref="U275" si="1319">SUM(R269:R275)/SUM(V269:V275)</f>
         <v>0.35226855494361398</v>
       </c>
       <c r="V275">
-        <f t="shared" ref="V275" si="1319">B275-B274</f>
+        <f t="shared" ref="V275" si="1320">B275-B274</f>
         <v>5711</v>
       </c>
       <c r="W275">
-        <f t="shared" ref="W275:W276" si="1320">C275-D275-E275</f>
+        <f t="shared" ref="W275" si="1321">C275-D275-E275</f>
         <v>56107</v>
       </c>
       <c r="X275" s="3">
-        <f t="shared" ref="X275:X276" si="1321">F275/W275</f>
+        <f t="shared" ref="X275" si="1322">F275/W275</f>
         <v>1.3830716309907854E-2</v>
       </c>
       <c r="Y275">
@@ -36328,15 +36328,15 @@
         <v>193</v>
       </c>
       <c r="AI275">
-        <f t="shared" si="1292"/>
+        <f t="shared" si="1293"/>
         <v>467</v>
       </c>
       <c r="AJ275">
-        <f t="shared" si="1293"/>
+        <f t="shared" si="1294"/>
         <v>314</v>
       </c>
       <c r="AK275">
-        <f t="shared" si="1294"/>
+        <f t="shared" si="1295"/>
         <v>2080</v>
       </c>
       <c r="AS275">
@@ -36344,75 +36344,75 @@
         <v>2</v>
       </c>
       <c r="AT275">
-        <f t="shared" ref="AT275" si="1322">AI275-AS275</f>
+        <f t="shared" ref="AT275" si="1323">AI275-AS275</f>
         <v>465</v>
       </c>
       <c r="AU275">
-        <f>BO275-BO274</f>
+        <f t="shared" si="1265"/>
         <v>28642</v>
       </c>
       <c r="AV275">
-        <f t="shared" ref="AV275" si="1323">BQ275-BQ274</f>
+        <f t="shared" ref="AV275" si="1324">BQ275-BQ274</f>
         <v>2139</v>
       </c>
       <c r="AW275">
-        <f t="shared" ref="AW275" si="1324">AV275/AU275</f>
+        <f t="shared" ref="AW275" si="1325">AV275/AU275</f>
         <v>7.4680539068500806E-2</v>
       </c>
       <c r="AX275">
-        <f t="shared" ref="AX275" si="1325">BS275-BS274</f>
+        <f t="shared" ref="AX275" si="1326">BS275-BS274</f>
         <v>118</v>
       </c>
       <c r="AY275">
-        <f t="shared" ref="AY275" si="1326">BU275-BU274</f>
+        <f t="shared" ref="AY275" si="1327">BU275-BU274</f>
         <v>11</v>
       </c>
       <c r="AZ275">
-        <f t="shared" ref="AZ275" si="1327">CA275-CA274</f>
+        <f t="shared" ref="AZ275" si="1328">CA275-CA274</f>
         <v>778</v>
       </c>
       <c r="BA275">
-        <f t="shared" ref="BA275" si="1328">CC275-CC274</f>
+        <f t="shared" ref="BA275" si="1329">CC275-CC274</f>
         <v>62</v>
       </c>
       <c r="BB275">
-        <f t="shared" ref="BB275" si="1329">BW275-BW274</f>
+        <f t="shared" ref="BB275" si="1330">BW275-BW274</f>
         <v>128</v>
       </c>
       <c r="BC275">
-        <f t="shared" ref="BC275" si="1330">BY275-BY274</f>
+        <f t="shared" ref="BC275" si="1331">BY275-BY274</f>
         <v>6</v>
       </c>
       <c r="BD275">
-        <f t="shared" ref="BD275" si="1331">AY275/AX275</f>
+        <f t="shared" ref="BD275" si="1332">AY275/AX275</f>
         <v>9.3220338983050849E-2</v>
       </c>
       <c r="BE275">
-        <f t="shared" ref="BE275" si="1332">BA275/AZ275</f>
+        <f t="shared" ref="BE275" si="1333">BA275/AZ275</f>
         <v>7.9691516709511565E-2</v>
       </c>
       <c r="BF275">
-        <f t="shared" ref="BF275" si="1333">BB275/BA275</f>
+        <f t="shared" ref="BF275" si="1334">BB275/BA275</f>
         <v>2.064516129032258</v>
       </c>
       <c r="BG275">
-        <f t="shared" ref="BG275" si="1334">SUM(AV269:AV275)/SUM(AU269:AU275)</f>
+        <f t="shared" ref="BG275" si="1335">SUM(AV269:AV275)/SUM(AU269:AU275)</f>
         <v>8.6957748863989159E-2</v>
       </c>
       <c r="BH275">
-        <f t="shared" ref="BH275" si="1335">SUM(AV262:AV275)/SUM(AU262:AU275)</f>
+        <f t="shared" ref="BH275" si="1336">SUM(AV262:AV275)/SUM(AU262:AU275)</f>
         <v>9.8093727178867315E-2</v>
       </c>
       <c r="BI275">
-        <f t="shared" ref="BI275" si="1336">SUM(AY269:AY275)/SUM(AX269:AX275)</f>
+        <f t="shared" ref="BI275" si="1337">SUM(AY269:AY275)/SUM(AX269:AX275)</f>
         <v>6.6402378592666012E-2</v>
       </c>
       <c r="BJ275">
-        <f t="shared" ref="BJ275" si="1337">SUM(BA269:BA275)/SUM(AZ269:AZ275)</f>
+        <f t="shared" ref="BJ275" si="1338">SUM(BA269:BA275)/SUM(AZ269:AZ275)</f>
         <v>6.9544364508393283E-2</v>
       </c>
       <c r="BK275">
-        <f t="shared" ref="BK275" si="1338">SUM(BC269:BC275)/SUM(BB269:BB275)</f>
+        <f t="shared" ref="BK275" si="1339">SUM(BC269:BC275)/SUM(BB269:BB275)</f>
         <v>4.9586776859504134E-2</v>
       </c>
       <c r="BL275">
@@ -36488,7 +36488,7 @@
         <v>204840</v>
       </c>
       <c r="E276" s="9">
-        <v>3354</v>
+        <v>3450</v>
       </c>
       <c r="F276" s="9">
         <v>746</v>
@@ -36509,115 +36509,154 @@
         <v>14</v>
       </c>
       <c r="M276">
-        <f t="shared" ref="M276" si="1339">-(J276-J275)+L276</f>
+        <f t="shared" ref="M276" si="1340">-(J276-J275)+L276</f>
         <v>27</v>
       </c>
       <c r="N276" s="7">
-        <f t="shared" ref="N276" si="1340">B276-C276</f>
+        <f t="shared" ref="N276" si="1341">B276-C276</f>
         <v>1038248</v>
       </c>
       <c r="O276" s="4">
-        <f t="shared" ref="O276" si="1341">C276/B276</f>
+        <f t="shared" ref="O276" si="1342">C276/B276</f>
         <v>0.20162159751346845</v>
       </c>
       <c r="R276">
-        <f t="shared" ref="R276" si="1342">C276-C275</f>
+        <f t="shared" ref="R276" si="1343">C276-C275</f>
         <v>1977</v>
       </c>
       <c r="S276">
-        <f t="shared" ref="S276" si="1343">N276-N275</f>
+        <f t="shared" ref="S276" si="1344">N276-N275</f>
         <v>3873</v>
       </c>
       <c r="T276" s="8">
-        <f t="shared" ref="T276" si="1344">R276/V276</f>
+        <f t="shared" ref="T276" si="1345">R276/V276</f>
         <v>0.33794871794871795</v>
       </c>
       <c r="U276" s="8">
-        <f t="shared" ref="U276" si="1345">SUM(R270:R276)/SUM(V270:V276)</f>
+        <f t="shared" ref="U276" si="1346">SUM(R270:R276)/SUM(V270:V276)</f>
         <v>0.34513547749250778</v>
       </c>
       <c r="V276">
-        <f t="shared" ref="V276" si="1346">B276-B275</f>
+        <f t="shared" ref="V276" si="1347">B276-B275</f>
         <v>5850</v>
       </c>
       <c r="W276">
-        <f t="shared" ref="W276" si="1347">C276-D276-E276</f>
-        <v>54004</v>
+        <f t="shared" ref="W276" si="1348">C276-D276-E276</f>
+        <v>53908</v>
       </c>
       <c r="X276" s="3">
-        <f t="shared" ref="X276" si="1348">F276/W276</f>
-        <v>1.3813791570994742E-2</v>
+        <f t="shared" ref="X276" si="1349">F276/W276</f>
+        <v>1.3838391333382801E-2</v>
       </c>
       <c r="Y276">
         <f>E276-E275</f>
-        <v>14</v>
+        <v>110</v>
+      </c>
+      <c r="Z276">
+        <v>2148</v>
+      </c>
+      <c r="AA276">
+        <v>1168</v>
+      </c>
+      <c r="AB276">
+        <v>11950</v>
+      </c>
+      <c r="AC276">
+        <v>1674</v>
+      </c>
+      <c r="AD276">
+        <v>856</v>
+      </c>
+      <c r="AE276">
+        <v>9804</v>
+      </c>
+      <c r="AF276">
+        <v>38</v>
+      </c>
+      <c r="AG276">
+        <v>15</v>
+      </c>
+      <c r="AH276">
+        <v>195</v>
+      </c>
+      <c r="AI276">
+        <f t="shared" si="1293"/>
+        <v>436</v>
+      </c>
+      <c r="AJ276">
+        <f t="shared" si="1294"/>
+        <v>297</v>
+      </c>
+      <c r="AK276">
+        <f t="shared" si="1295"/>
+        <v>1951</v>
       </c>
       <c r="AU276">
-        <f>BO276-BO275</f>
+        <f t="shared" si="1265"/>
         <v>23372</v>
       </c>
       <c r="AV276">
-        <f t="shared" ref="AV276" si="1349">BQ276-BQ275</f>
+        <f t="shared" ref="AV276" si="1350">BQ276-BQ275</f>
         <v>2138</v>
       </c>
       <c r="AW276">
-        <f t="shared" ref="AW276" si="1350">AV276/AU276</f>
+        <f t="shared" ref="AW276" si="1351">AV276/AU276</f>
         <v>9.1476981002909463E-2</v>
       </c>
       <c r="AX276">
-        <f t="shared" ref="AX276" si="1351">BS276-BS275</f>
+        <f t="shared" ref="AX276" si="1352">BS276-BS275</f>
         <v>193</v>
       </c>
       <c r="AY276">
-        <f t="shared" ref="AY276" si="1352">BU276-BU275</f>
+        <f t="shared" ref="AY276" si="1353">BU276-BU275</f>
         <v>9</v>
       </c>
       <c r="AZ276">
-        <f t="shared" ref="AZ276" si="1353">CA276-CA275</f>
+        <f t="shared" ref="AZ276" si="1354">CA276-CA275</f>
         <v>801</v>
       </c>
       <c r="BA276">
-        <f t="shared" ref="BA276" si="1354">CC276-CC275</f>
+        <f t="shared" ref="BA276" si="1355">CC276-CC275</f>
         <v>65</v>
       </c>
       <c r="BB276">
-        <f t="shared" ref="BB276" si="1355">BW276-BW275</f>
+        <f t="shared" ref="BB276" si="1356">BW276-BW275</f>
         <v>118</v>
       </c>
       <c r="BC276">
-        <f t="shared" ref="BC276" si="1356">BY276-BY275</f>
+        <f t="shared" ref="BC276" si="1357">BY276-BY275</f>
         <v>8</v>
       </c>
       <c r="BD276">
-        <f t="shared" ref="BD276" si="1357">AY276/AX276</f>
+        <f t="shared" ref="BD276" si="1358">AY276/AX276</f>
         <v>4.6632124352331605E-2</v>
       </c>
       <c r="BE276">
-        <f t="shared" ref="BE276" si="1358">BA276/AZ276</f>
+        <f t="shared" ref="BE276" si="1359">BA276/AZ276</f>
         <v>8.1148564294631714E-2</v>
       </c>
       <c r="BF276">
-        <f t="shared" ref="BF276" si="1359">BB276/BA276</f>
+        <f t="shared" ref="BF276" si="1360">BB276/BA276</f>
         <v>1.8153846153846154</v>
       </c>
       <c r="BG276">
-        <f t="shared" ref="BG276" si="1360">SUM(AV270:AV276)/SUM(AU270:AU276)</f>
+        <f t="shared" ref="BG276" si="1361">SUM(AV270:AV276)/SUM(AU270:AU276)</f>
         <v>8.3760278084123244E-2</v>
       </c>
       <c r="BH276">
-        <f t="shared" ref="BH276" si="1361">SUM(AV263:AV276)/SUM(AU263:AU276)</f>
+        <f t="shared" ref="BH276" si="1362">SUM(AV263:AV276)/SUM(AU263:AU276)</f>
         <v>9.3560960616940719E-2</v>
       </c>
       <c r="BI276">
-        <f t="shared" ref="BI276" si="1362">SUM(AY270:AY276)/SUM(AX270:AX276)</f>
+        <f t="shared" ref="BI276" si="1363">SUM(AY270:AY276)/SUM(AX270:AX276)</f>
         <v>6.2325581395348835E-2</v>
       </c>
       <c r="BJ276">
-        <f t="shared" ref="BJ276" si="1363">SUM(BA270:BA276)/SUM(AZ270:AZ276)</f>
+        <f t="shared" ref="BJ276" si="1364">SUM(BA270:BA276)/SUM(AZ270:AZ276)</f>
         <v>6.9632495164410058E-2</v>
       </c>
       <c r="BK276">
-        <f t="shared" ref="BK276" si="1364">SUM(BC270:BC276)/SUM(BB270:BB276)</f>
+        <f t="shared" ref="BK276" si="1365">SUM(BC270:BC276)/SUM(BB270:BB276)</f>
         <v>4.9576783555018135E-2</v>
       </c>
       <c r="BL276">
@@ -36676,6 +36715,738 @@
       </c>
       <c r="CD276">
         <v>12005</v>
+      </c>
+    </row>
+    <row r="277" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="A277" s="14">
+        <f t="shared" si="1173"/>
+        <v>44183</v>
+      </c>
+      <c r="B277" s="9">
+        <v>1305931</v>
+      </c>
+      <c r="C277">
+        <v>264103</v>
+      </c>
+      <c r="D277">
+        <v>208681</v>
+      </c>
+      <c r="E277" s="9">
+        <v>3451</v>
+      </c>
+      <c r="F277" s="9">
+        <v>701</v>
+      </c>
+      <c r="H277">
+        <v>136</v>
+      </c>
+      <c r="I277">
+        <v>96</v>
+      </c>
+      <c r="J277">
+        <v>124</v>
+      </c>
+      <c r="K277">
+        <v>23</v>
+      </c>
+      <c r="L277">
+        <v>14</v>
+      </c>
+      <c r="M277">
+        <f t="shared" ref="M277" si="1366">-(J277-J276)+L277</f>
+        <v>25</v>
+      </c>
+      <c r="N277" s="7">
+        <f t="shared" ref="N277" si="1367">B277-C277</f>
+        <v>1041828</v>
+      </c>
+      <c r="O277" s="4">
+        <f t="shared" ref="O277" si="1368">C277/B277</f>
+        <v>0.20223350238259141</v>
+      </c>
+      <c r="R277">
+        <f t="shared" ref="R277" si="1369">C277-C276</f>
+        <v>1905</v>
+      </c>
+      <c r="S277">
+        <f t="shared" ref="S277" si="1370">N277-N276</f>
+        <v>3580</v>
+      </c>
+      <c r="T277" s="8">
+        <f t="shared" ref="T277" si="1371">R277/V277</f>
+        <v>0.34731084776663629</v>
+      </c>
+      <c r="U277" s="8">
+        <f t="shared" ref="U277" si="1372">SUM(R271:R277)/SUM(V271:V277)</f>
+        <v>0.34180939697091711</v>
+      </c>
+      <c r="V277">
+        <f t="shared" ref="V277" si="1373">B277-B276</f>
+        <v>5485</v>
+      </c>
+      <c r="W277">
+        <f t="shared" ref="W277" si="1374">C277-D277-E277</f>
+        <v>51971</v>
+      </c>
+      <c r="X277" s="3">
+        <f t="shared" ref="X277" si="1375">F277/W277</f>
+        <v>1.3488291547209021E-2</v>
+      </c>
+      <c r="Y277">
+        <f>E277-E276</f>
+        <v>1</v>
+      </c>
+      <c r="Z277">
+        <v>2155</v>
+      </c>
+      <c r="AA277">
+        <v>1172</v>
+      </c>
+      <c r="AB277">
+        <v>12004</v>
+      </c>
+      <c r="AC277">
+        <v>1716</v>
+      </c>
+      <c r="AD277">
+        <v>870</v>
+      </c>
+      <c r="AE277">
+        <v>10037</v>
+      </c>
+      <c r="AF277">
+        <v>40</v>
+      </c>
+      <c r="AG277">
+        <v>15</v>
+      </c>
+      <c r="AH277">
+        <v>200</v>
+      </c>
+      <c r="AI277">
+        <f t="shared" ref="AI277:AI278" si="1376">Z277-AC277-AF277</f>
+        <v>399</v>
+      </c>
+      <c r="AJ277">
+        <f t="shared" ref="AJ277:AJ278" si="1377">AA277-AD277-AG277</f>
+        <v>287</v>
+      </c>
+      <c r="AK277">
+        <f t="shared" ref="AK277:AK278" si="1378">AB277-AE277-AH277</f>
+        <v>1767</v>
+      </c>
+      <c r="AU277">
+        <f t="shared" si="1265"/>
+        <v>25389</v>
+      </c>
+      <c r="AV277">
+        <f t="shared" ref="AV277" si="1379">BQ277-BQ276</f>
+        <v>2055</v>
+      </c>
+      <c r="AW277">
+        <f t="shared" ref="AW277" si="1380">AV277/AU277</f>
+        <v>8.0940564811532556E-2</v>
+      </c>
+      <c r="AX277">
+        <f t="shared" ref="AX277" si="1381">BS277-BS276</f>
+        <v>239</v>
+      </c>
+      <c r="AY277">
+        <f t="shared" ref="AY277" si="1382">BU277-BU276</f>
+        <v>8</v>
+      </c>
+      <c r="AZ277">
+        <f t="shared" ref="AZ277" si="1383">CA277-CA276</f>
+        <v>1479</v>
+      </c>
+      <c r="BA277">
+        <f t="shared" ref="BA277" si="1384">CC277-CC276</f>
+        <v>106</v>
+      </c>
+      <c r="BB277">
+        <f t="shared" ref="BB277" si="1385">BW277-BW276</f>
+        <v>160</v>
+      </c>
+      <c r="BC277">
+        <f t="shared" ref="BC277" si="1386">BY277-BY276</f>
+        <v>7</v>
+      </c>
+      <c r="BD277">
+        <f t="shared" ref="BD277" si="1387">AY277/AX277</f>
+        <v>3.3472803347280332E-2</v>
+      </c>
+      <c r="BE277">
+        <f t="shared" ref="BE277" si="1388">BA277/AZ277</f>
+        <v>7.1670047329276537E-2</v>
+      </c>
+      <c r="BF277">
+        <f t="shared" ref="BF277" si="1389">BB277/BA277</f>
+        <v>1.5094339622641511</v>
+      </c>
+      <c r="BG277">
+        <f t="shared" ref="BG277" si="1390">SUM(AV271:AV277)/SUM(AU271:AU277)</f>
+        <v>8.3911902701866201E-2</v>
+      </c>
+      <c r="BH277">
+        <f t="shared" ref="BH277" si="1391">SUM(AV264:AV277)/SUM(AU264:AU277)</f>
+        <v>8.896301282353597E-2</v>
+      </c>
+      <c r="BI277">
+        <f t="shared" ref="BI277" si="1392">SUM(AY271:AY277)/SUM(AX271:AX277)</f>
+        <v>5.673076923076923E-2</v>
+      </c>
+      <c r="BJ277">
+        <f t="shared" ref="BJ277" si="1393">SUM(BA271:BA277)/SUM(AZ271:AZ277)</f>
+        <v>7.2962154294032022E-2</v>
+      </c>
+      <c r="BK277">
+        <f t="shared" ref="BK277" si="1394">SUM(BC271:BC277)/SUM(BB271:BB277)</f>
+        <v>4.5838359469240045E-2</v>
+      </c>
+      <c r="BL277">
+        <v>0.104</v>
+      </c>
+      <c r="BM277">
+        <v>0.115</v>
+      </c>
+      <c r="BN277">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="BO277">
+        <v>2833970</v>
+      </c>
+      <c r="BP277">
+        <v>1305931</v>
+      </c>
+      <c r="BQ277">
+        <v>285476</v>
+      </c>
+      <c r="BR277">
+        <v>264103</v>
+      </c>
+      <c r="BS277">
+        <v>21560</v>
+      </c>
+      <c r="BT277">
+        <v>9213</v>
+      </c>
+      <c r="BU277">
+        <v>2270</v>
+      </c>
+      <c r="BV277">
+        <v>2165</v>
+      </c>
+      <c r="BW277">
+        <v>16207</v>
+      </c>
+      <c r="BX277">
+        <v>5412</v>
+      </c>
+      <c r="BY277">
+        <v>1250</v>
+      </c>
+      <c r="BZ277">
+        <v>1177</v>
+      </c>
+      <c r="CA277">
+        <v>123945</v>
+      </c>
+      <c r="CB277">
+        <v>55428</v>
+      </c>
+      <c r="CC277">
+        <v>13206</v>
+      </c>
+      <c r="CD277">
+        <v>12098</v>
+      </c>
+    </row>
+    <row r="278" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="A278" s="14">
+        <f t="shared" si="1173"/>
+        <v>44184</v>
+      </c>
+      <c r="B278" s="9">
+        <v>1311809</v>
+      </c>
+      <c r="C278">
+        <v>265987</v>
+      </c>
+      <c r="D278">
+        <v>212384</v>
+      </c>
+      <c r="E278" s="9">
+        <v>3451</v>
+      </c>
+      <c r="F278" s="9">
+        <v>679</v>
+      </c>
+      <c r="H278">
+        <v>140</v>
+      </c>
+      <c r="I278">
+        <v>95</v>
+      </c>
+      <c r="J278">
+        <v>129</v>
+      </c>
+      <c r="K278">
+        <v>25</v>
+      </c>
+      <c r="L278">
+        <v>22</v>
+      </c>
+      <c r="M278">
+        <f t="shared" ref="M278" si="1395">-(J278-J277)+L278</f>
+        <v>17</v>
+      </c>
+      <c r="N278" s="7">
+        <f t="shared" ref="N278" si="1396">B278-C278</f>
+        <v>1045822</v>
+      </c>
+      <c r="O278" s="4">
+        <f t="shared" ref="O278" si="1397">C278/B278</f>
+        <v>0.20276351206616208</v>
+      </c>
+      <c r="R278">
+        <f t="shared" ref="R278" si="1398">C278-C277</f>
+        <v>1884</v>
+      </c>
+      <c r="S278">
+        <f t="shared" ref="S278" si="1399">N278-N277</f>
+        <v>3994</v>
+      </c>
+      <c r="T278" s="8">
+        <f t="shared" ref="T278" si="1400">R278/V278</f>
+        <v>0.32051718271520924</v>
+      </c>
+      <c r="U278" s="8">
+        <f t="shared" ref="U278" si="1401">SUM(R272:R278)/SUM(V272:V278)</f>
+        <v>0.33406379352325299</v>
+      </c>
+      <c r="V278">
+        <f t="shared" ref="V278" si="1402">B278-B277</f>
+        <v>5878</v>
+      </c>
+      <c r="W278">
+        <f t="shared" ref="W278" si="1403">C278-D278-E278</f>
+        <v>50152</v>
+      </c>
+      <c r="X278" s="3">
+        <f t="shared" ref="X278" si="1404">F278/W278</f>
+        <v>1.3538841920561493E-2</v>
+      </c>
+      <c r="Y278">
+        <f>E278-E277</f>
+        <v>0</v>
+      </c>
+      <c r="Z278">
+        <v>2169</v>
+      </c>
+      <c r="AA278">
+        <v>1178</v>
+      </c>
+      <c r="AB278">
+        <v>12114</v>
+      </c>
+      <c r="AC278">
+        <v>1757</v>
+      </c>
+      <c r="AD278">
+        <v>904</v>
+      </c>
+      <c r="AE278">
+        <v>10206</v>
+      </c>
+      <c r="AF278">
+        <v>40</v>
+      </c>
+      <c r="AG278">
+        <v>15</v>
+      </c>
+      <c r="AH278">
+        <v>200</v>
+      </c>
+      <c r="AI278">
+        <f t="shared" si="1376"/>
+        <v>372</v>
+      </c>
+      <c r="AJ278">
+        <f t="shared" si="1377"/>
+        <v>259</v>
+      </c>
+      <c r="AK278">
+        <f t="shared" si="1378"/>
+        <v>1708</v>
+      </c>
+      <c r="AU278">
+        <f t="shared" si="1265"/>
+        <v>28124</v>
+      </c>
+      <c r="AV278">
+        <f t="shared" ref="AV278" si="1405">BQ278-BQ277</f>
+        <v>1961</v>
+      </c>
+      <c r="AW278">
+        <f t="shared" ref="AW278" si="1406">AV278/AU278</f>
+        <v>6.9726923623951068E-2</v>
+      </c>
+      <c r="AX278">
+        <f t="shared" ref="AX278" si="1407">BS278-BS277</f>
+        <v>171</v>
+      </c>
+      <c r="AY278">
+        <f t="shared" ref="AY278" si="1408">BU278-BU277</f>
+        <v>13</v>
+      </c>
+      <c r="AZ278">
+        <f t="shared" ref="AZ278" si="1409">CA278-CA277</f>
+        <v>1098</v>
+      </c>
+      <c r="BA278">
+        <f t="shared" ref="BA278" si="1410">CC278-CC277</f>
+        <v>82</v>
+      </c>
+      <c r="BB278">
+        <f t="shared" ref="BB278" si="1411">BW278-BW277</f>
+        <v>133</v>
+      </c>
+      <c r="BC278">
+        <f t="shared" ref="BC278" si="1412">BY278-BY277</f>
+        <v>6</v>
+      </c>
+      <c r="BD278">
+        <f t="shared" ref="BD278" si="1413">AY278/AX278</f>
+        <v>7.6023391812865493E-2</v>
+      </c>
+      <c r="BE278">
+        <f t="shared" ref="BE278" si="1414">BA278/AZ278</f>
+        <v>7.4681238615664849E-2</v>
+      </c>
+      <c r="BF278">
+        <f t="shared" ref="BF278" si="1415">BB278/BA278</f>
+        <v>1.6219512195121952</v>
+      </c>
+      <c r="BG278">
+        <f t="shared" ref="BG278" si="1416">SUM(AV272:AV278)/SUM(AU272:AU278)</f>
+        <v>8.1279920419455781E-2</v>
+      </c>
+      <c r="BH278">
+        <f t="shared" ref="BH278" si="1417">SUM(AV265:AV278)/SUM(AU265:AU278)</f>
+        <v>8.6893142592599684E-2</v>
+      </c>
+      <c r="BI278">
+        <f t="shared" ref="BI278" si="1418">SUM(AY272:AY278)/SUM(AX272:AX278)</f>
+        <v>5.3191489361702128E-2</v>
+      </c>
+      <c r="BJ278">
+        <f t="shared" ref="BJ278" si="1419">SUM(BA272:BA278)/SUM(AZ272:AZ278)</f>
+        <v>6.8929684793903712E-2</v>
+      </c>
+      <c r="BK278">
+        <f t="shared" ref="BK278" si="1420">SUM(BC272:BC278)/SUM(BB272:BB278)</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="BL278">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="BM278">
+        <v>0.114</v>
+      </c>
+      <c r="BN278">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="BO278">
+        <v>2862094</v>
+      </c>
+      <c r="BP278">
+        <v>1311809</v>
+      </c>
+      <c r="BQ278">
+        <v>287437</v>
+      </c>
+      <c r="BR278">
+        <v>165987</v>
+      </c>
+      <c r="BS278">
+        <v>21731</v>
+      </c>
+      <c r="BT278">
+        <v>9240</v>
+      </c>
+      <c r="BU278">
+        <v>2283</v>
+      </c>
+      <c r="BV278">
+        <v>2178</v>
+      </c>
+      <c r="BW278">
+        <v>16340</v>
+      </c>
+      <c r="BX278">
+        <v>5427</v>
+      </c>
+      <c r="BY278">
+        <v>1256</v>
+      </c>
+      <c r="BZ278">
+        <v>1183</v>
+      </c>
+      <c r="CA278">
+        <v>125043</v>
+      </c>
+      <c r="CB278">
+        <v>55608</v>
+      </c>
+      <c r="CC278">
+        <v>13288</v>
+      </c>
+      <c r="CD278">
+        <v>12174</v>
+      </c>
+    </row>
+    <row r="279" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="A279" s="14">
+        <f t="shared" si="1173"/>
+        <v>44185</v>
+      </c>
+      <c r="B279" s="9">
+        <v>1315996</v>
+      </c>
+      <c r="C279">
+        <v>267144</v>
+      </c>
+      <c r="D279">
+        <v>213643</v>
+      </c>
+      <c r="E279" s="9">
+        <v>3588</v>
+      </c>
+      <c r="F279" s="9">
+        <v>639</v>
+      </c>
+      <c r="H279">
+        <v>149</v>
+      </c>
+      <c r="I279">
+        <v>93</v>
+      </c>
+      <c r="J279">
+        <v>114</v>
+      </c>
+      <c r="K279">
+        <v>23</v>
+      </c>
+      <c r="L279">
+        <v>15</v>
+      </c>
+      <c r="M279">
+        <f t="shared" ref="M279" si="1421">-(J279-J278)+L279</f>
+        <v>30</v>
+      </c>
+      <c r="N279" s="7">
+        <f t="shared" ref="N279" si="1422">B279-C279</f>
+        <v>1048852</v>
+      </c>
+      <c r="O279" s="4">
+        <f t="shared" ref="O279" si="1423">C279/B279</f>
+        <v>0.20299757750023556</v>
+      </c>
+      <c r="R279">
+        <f t="shared" ref="R279" si="1424">C279-C278</f>
+        <v>1157</v>
+      </c>
+      <c r="S279">
+        <f t="shared" ref="S279" si="1425">N279-N278</f>
+        <v>3030</v>
+      </c>
+      <c r="T279" s="8">
+        <f t="shared" ref="T279" si="1426">R279/V279</f>
+        <v>0.27633150226892761</v>
+      </c>
+      <c r="U279" s="8">
+        <f t="shared" ref="U279" si="1427">SUM(R273:R279)/SUM(V273:V279)</f>
+        <v>0.32723668798990901</v>
+      </c>
+      <c r="V279">
+        <f t="shared" ref="V279" si="1428">B279-B278</f>
+        <v>4187</v>
+      </c>
+      <c r="W279">
+        <f t="shared" ref="W279" si="1429">C279-D279-E279</f>
+        <v>49913</v>
+      </c>
+      <c r="X279" s="3">
+        <f t="shared" ref="X279" si="1430">F279/W279</f>
+        <v>1.2802275960170697E-2</v>
+      </c>
+      <c r="Y279">
+        <f>E279-E278</f>
+        <v>137</v>
+      </c>
+      <c r="Z279">
+        <v>2183</v>
+      </c>
+      <c r="AA279">
+        <v>1187</v>
+      </c>
+      <c r="AB279">
+        <v>12217</v>
+      </c>
+      <c r="AC279">
+        <v>1820</v>
+      </c>
+      <c r="AD279">
+        <v>929</v>
+      </c>
+      <c r="AE279">
+        <v>10350</v>
+      </c>
+      <c r="AF279">
+        <v>40</v>
+      </c>
+      <c r="AG279">
+        <v>16</v>
+      </c>
+      <c r="AH279">
+        <v>207</v>
+      </c>
+      <c r="AI279">
+        <f t="shared" ref="AI279" si="1431">Z279-AC279-AF279</f>
+        <v>323</v>
+      </c>
+      <c r="AJ279">
+        <f t="shared" ref="AJ279" si="1432">AA279-AD279-AG279</f>
+        <v>242</v>
+      </c>
+      <c r="AK279">
+        <f t="shared" ref="AK279" si="1433">AB279-AE279-AH279</f>
+        <v>1660</v>
+      </c>
+      <c r="AU279">
+        <f t="shared" ref="AU279" si="1434">BO279-BO278</f>
+        <v>11908</v>
+      </c>
+      <c r="AV279">
+        <f t="shared" ref="AV279" si="1435">BQ279-BQ278</f>
+        <v>1264</v>
+      </c>
+      <c r="AW279">
+        <f t="shared" ref="AW279" si="1436">AV279/AU279</f>
+        <v>0.10614712798118911</v>
+      </c>
+      <c r="AX279">
+        <f t="shared" ref="AX279" si="1437">BS279-BS278</f>
+        <v>67</v>
+      </c>
+      <c r="AY279">
+        <f t="shared" ref="AY279" si="1438">BU279-BU278</f>
+        <v>4</v>
+      </c>
+      <c r="AZ279">
+        <f t="shared" ref="AZ279" si="1439">CA279-CA278</f>
+        <v>501</v>
+      </c>
+      <c r="BA279">
+        <f t="shared" ref="BA279" si="1440">CC279-CC278</f>
+        <v>51</v>
+      </c>
+      <c r="BB279">
+        <f t="shared" ref="BB279" si="1441">BW279-BW278</f>
+        <v>54</v>
+      </c>
+      <c r="BC279">
+        <f t="shared" ref="BC279" si="1442">BY279-BY278</f>
+        <v>6</v>
+      </c>
+      <c r="BD279">
+        <f t="shared" ref="BD279" si="1443">AY279/AX279</f>
+        <v>5.9701492537313432E-2</v>
+      </c>
+      <c r="BE279">
+        <f t="shared" ref="BE279" si="1444">BA279/AZ279</f>
+        <v>0.10179640718562874</v>
+      </c>
+      <c r="BF279">
+        <f t="shared" ref="BF279" si="1445">BB279/BA279</f>
+        <v>1.0588235294117647</v>
+      </c>
+      <c r="BG279">
+        <f t="shared" ref="BG279" si="1446">SUM(AV273:AV279)/SUM(AU273:AU279)</f>
+        <v>7.988442544006448E-2</v>
+      </c>
+      <c r="BH279">
+        <f t="shared" ref="BH279" si="1447">SUM(AV266:AV279)/SUM(AU266:AU279)</f>
+        <v>8.6241791408439086E-2</v>
+      </c>
+      <c r="BI279">
+        <f t="shared" ref="BI279" si="1448">SUM(AY273:AY279)/SUM(AX273:AX279)</f>
+        <v>5.2681992337164751E-2</v>
+      </c>
+      <c r="BJ279">
+        <f t="shared" ref="BJ279" si="1449">SUM(BA273:BA279)/SUM(AZ273:AZ279)</f>
+        <v>7.1800208116545264E-2</v>
+      </c>
+      <c r="BK279">
+        <f t="shared" ref="BK279" si="1450">SUM(BC273:BC279)/SUM(BB273:BB279)</f>
+        <v>4.8426150121065374E-2</v>
+      </c>
+      <c r="BL279">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="BM279">
+        <v>0.114</v>
+      </c>
+      <c r="BN279">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="BO279">
+        <v>2874002</v>
+      </c>
+      <c r="BP279">
+        <v>1315996</v>
+      </c>
+      <c r="BQ279">
+        <v>288701</v>
+      </c>
+      <c r="BR279">
+        <v>267144</v>
+      </c>
+      <c r="BS279">
+        <v>21798</v>
+      </c>
+      <c r="BT279">
+        <v>9265</v>
+      </c>
+      <c r="BU279">
+        <v>2287</v>
+      </c>
+      <c r="BV279">
+        <v>2183</v>
+      </c>
+      <c r="BW279">
+        <v>16394</v>
+      </c>
+      <c r="BX279">
+        <v>5448</v>
+      </c>
+      <c r="BY279">
+        <v>1262</v>
+      </c>
+      <c r="BZ279">
+        <v>1187</v>
+      </c>
+      <c r="CA279">
+        <v>125544</v>
+      </c>
+      <c r="CB279">
+        <v>55761</v>
+      </c>
+      <c r="CC279">
+        <v>13339</v>
+      </c>
+      <c r="CD279">
+        <v>12217</v>
       </c>
     </row>
   </sheetData>
@@ -36703,7 +37474,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>R228:R276</xm:sqref>
+          <xm:sqref>R228:R279</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="22" operator="equal" id="{E5309D98-D036-43E8-AE0C-F104DC358831}">
@@ -36719,7 +37490,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>Y228:Y276</xm:sqref>
+          <xm:sqref>Y228:Y279</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5269D26C-9211-46B2-914A-48345DF37DEF}">
@@ -36735,7 +37506,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F228:F276</xm:sqref>
+          <xm:sqref>F228:F279</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="20" operator="equal" id="{24843253-84F3-44AF-847D-C74D74C4F05A}">
@@ -36767,7 +37538,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J228:J276</xm:sqref>
+          <xm:sqref>J228:J279</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="18" operator="equal" id="{6F562D16-6A18-4369-973E-028D1B5F7CFF}">
@@ -36783,7 +37554,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K228:K276</xm:sqref>
+          <xm:sqref>K228:K279</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{735BDD8A-2F04-47F3-825F-41FCBFA8ADD5}">
@@ -37023,7 +37794,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H1:H1048576 I229:I276</xm:sqref>
+          <xm:sqref>H1:H1048576 I229:I279</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{8F0BE21B-C8AC-4EAD-AE58-244C59D5B0FC}">
@@ -37039,7 +37810,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>W229:W276</xm:sqref>
+          <xm:sqref>W229:W279</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -43611,19 +44382,19 @@
       </c>
       <c r="Q2">
         <f>LARGE(covid19!Y:Y,2)</f>
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="R2">
         <f>MAX(covid19!AF:AF)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S2">
         <f>MAX(covid19!AG:AG)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T2">
         <f>MAX(covid19!AH:AH)</f>
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="U2">
         <f>MAX(covid19!AI:AI)</f>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282806CA-2B46-4BD0-BADF-EE1A0FC867C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4090FD69-DA80-46F4-A87F-128ABF1D90E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2534,13 +2534,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CB286"/>
+  <dimension ref="A1:CB289"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AH272" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AN273" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BI285" sqref="AS285:BI286"/>
+      <selection pane="bottomRight" activeCell="BI288" sqref="AS288:BI289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33544,7 +33544,7 @@
     </row>
     <row r="270" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A270" s="14">
-        <f t="shared" ref="A270:A286" si="1163">A269+1</f>
+        <f t="shared" ref="A270:A289" si="1163">A269+1</f>
         <v>44176</v>
       </c>
       <c r="B270" s="9">
@@ -37153,52 +37153,52 @@
       <c r="BL284" s="20">
         <v>0.11799999999999999</v>
       </c>
-      <c r="BM284" s="20">
+      <c r="BM284" s="21">
         <v>2985079</v>
       </c>
-      <c r="BN284" s="20">
+      <c r="BN284" s="21">
         <v>1337938</v>
       </c>
-      <c r="BO284" s="20">
+      <c r="BO284" s="21">
         <v>296017</v>
       </c>
-      <c r="BP284" s="20">
+      <c r="BP284" s="21">
         <v>273915</v>
       </c>
-      <c r="BQ284" s="20">
+      <c r="BQ284" s="21">
         <v>22541</v>
       </c>
-      <c r="BR284" s="20">
+      <c r="BR284" s="21">
         <v>9382</v>
       </c>
-      <c r="BS284" s="20">
+      <c r="BS284" s="21">
         <v>2320</v>
       </c>
-      <c r="BT284" s="20">
+      <c r="BT284" s="21">
         <v>2214</v>
       </c>
-      <c r="BU284" s="20">
+      <c r="BU284" s="21">
         <v>17118</v>
       </c>
-      <c r="BV284" s="20">
+      <c r="BV284" s="21">
         <v>5537</v>
       </c>
-      <c r="BW284" s="20">
+      <c r="BW284" s="21">
         <v>1314</v>
       </c>
-      <c r="BX284" s="20">
+      <c r="BX284" s="21">
         <v>1240</v>
       </c>
-      <c r="BY284" s="20">
+      <c r="BY284" s="21">
         <v>130751</v>
       </c>
-      <c r="BZ284" s="20">
+      <c r="BZ284" s="21">
         <v>56557</v>
       </c>
-      <c r="CA284" s="20">
+      <c r="CA284" s="21">
         <v>13622</v>
       </c>
-      <c r="CB284" s="20">
+      <c r="CB284" s="21">
         <v>12486</v>
       </c>
     </row>
@@ -37242,11 +37242,11 @@
         <v>27</v>
       </c>
       <c r="N285" s="7">
-        <f t="shared" ref="N285:N286" si="1594">B285-C285</f>
+        <f t="shared" ref="N285" si="1594">B285-C285</f>
         <v>1065177</v>
       </c>
       <c r="O285" s="4">
-        <f t="shared" ref="O285:O286" si="1595">C285/B285</f>
+        <f t="shared" ref="O285" si="1595">C285/B285</f>
         <v>0.204787948828209</v>
       </c>
       <c r="R285">
@@ -37270,11 +37270,11 @@
         <v>1550</v>
       </c>
       <c r="W285">
-        <f t="shared" ref="W285:W286" si="1601">C285-D285-E285</f>
+        <f t="shared" ref="W285" si="1601">C285-D285-E285</f>
         <v>42896</v>
       </c>
       <c r="X285" s="3">
-        <f t="shared" ref="X285:X286" si="1602">F285/W285</f>
+        <f t="shared" ref="X285" si="1602">F285/W285</f>
         <v>1.3008205893323388E-2</v>
       </c>
       <c r="Y285">
@@ -37397,52 +37397,52 @@
       <c r="BL285" s="20">
         <v>0.122</v>
       </c>
-      <c r="BM285" s="20">
+      <c r="BM285" s="21">
         <v>2990643</v>
       </c>
-      <c r="BN285" s="20">
+      <c r="BN285" s="21">
         <v>1339488</v>
       </c>
-      <c r="BO285" s="20">
+      <c r="BO285" s="21">
         <v>296441</v>
       </c>
-      <c r="BP285" s="20">
+      <c r="BP285" s="21">
         <v>274311</v>
       </c>
-      <c r="BQ285" s="20">
+      <c r="BQ285" s="21">
         <v>22567</v>
       </c>
-      <c r="BR285" s="20">
+      <c r="BR285" s="21">
         <v>9393</v>
       </c>
-      <c r="BS285" s="20">
+      <c r="BS285" s="21">
         <v>2326</v>
       </c>
-      <c r="BT285" s="20">
+      <c r="BT285" s="21">
         <v>2221</v>
       </c>
-      <c r="BU285" s="20">
+      <c r="BU285" s="21">
         <v>17154</v>
       </c>
-      <c r="BV285" s="20">
+      <c r="BV285" s="21">
         <v>5542</v>
       </c>
-      <c r="BW285" s="20">
+      <c r="BW285" s="21">
         <v>1317</v>
       </c>
-      <c r="BX285" s="20">
+      <c r="BX285" s="21">
         <v>1243</v>
       </c>
-      <c r="BY285" s="20">
+      <c r="BY285" s="21">
         <v>130996</v>
       </c>
-      <c r="BZ285" s="20">
+      <c r="BZ285" s="21">
         <v>56601</v>
       </c>
-      <c r="CA285" s="20">
+      <c r="CA285" s="21">
         <v>13637</v>
       </c>
-      <c r="CB285" s="20">
+      <c r="CB285" s="21">
         <v>12501</v>
       </c>
     </row>
@@ -37525,72 +37525,111 @@
         <f t="shared" ref="Y286" si="1631">E286-E285</f>
         <v>0</v>
       </c>
+      <c r="Z286">
+        <v>2223</v>
+      </c>
+      <c r="AA286">
+        <v>1246</v>
+      </c>
+      <c r="AB286">
+        <v>12521</v>
+      </c>
+      <c r="AC286">
+        <v>1971</v>
+      </c>
+      <c r="AD286">
+        <v>1028</v>
+      </c>
+      <c r="AE286">
+        <v>10902</v>
+      </c>
+      <c r="AF286">
+        <v>41</v>
+      </c>
+      <c r="AG286">
+        <v>18</v>
+      </c>
+      <c r="AH286">
+        <v>215</v>
+      </c>
+      <c r="AI286">
+        <f t="shared" ref="AI286" si="1632">Z286-AC286-AF286</f>
+        <v>211</v>
+      </c>
+      <c r="AJ286">
+        <f t="shared" ref="AJ286" si="1633">AA286-AD286-AG286</f>
+        <v>200</v>
+      </c>
+      <c r="AK286">
+        <f t="shared" ref="AK286" si="1634">AB286-AE286-AH286</f>
+        <v>1404</v>
+      </c>
       <c r="AS286">
-        <f t="shared" ref="AS286" si="1632">BM286-BM285</f>
+        <f t="shared" ref="AS286" si="1635">BM286-BM285</f>
         <v>6385</v>
       </c>
       <c r="AT286">
-        <f t="shared" ref="AT286" si="1633">BO286-BO285</f>
+        <f t="shared" ref="AT286" si="1636">BO286-BO285</f>
         <v>681</v>
       </c>
       <c r="AU286">
-        <f t="shared" ref="AU286" si="1634">AT286/AS286</f>
+        <f t="shared" ref="AU286" si="1637">AT286/AS286</f>
         <v>0.10665622552858262</v>
       </c>
       <c r="AV286">
-        <f t="shared" ref="AV286" si="1635">BQ286-BQ285</f>
+        <f t="shared" ref="AV286" si="1638">BQ286-BQ285</f>
         <v>37</v>
       </c>
       <c r="AW286">
-        <f t="shared" ref="AW286" si="1636">BS286-BS285</f>
+        <f t="shared" ref="AW286" si="1639">BS286-BS285</f>
         <v>2</v>
       </c>
       <c r="AX286">
-        <f t="shared" ref="AX286" si="1637">BY286-BY285</f>
+        <f t="shared" ref="AX286" si="1640">BY286-BY285</f>
         <v>283</v>
       </c>
       <c r="AY286">
-        <f t="shared" ref="AY286" si="1638">CA286-CA285</f>
+        <f t="shared" ref="AY286" si="1641">CA286-CA285</f>
         <v>23</v>
       </c>
       <c r="AZ286">
-        <f t="shared" ref="AZ286" si="1639">BU286-BU285</f>
+        <f t="shared" ref="AZ286" si="1642">BU286-BU285</f>
         <v>41</v>
       </c>
       <c r="BA286">
-        <f t="shared" ref="BA286" si="1640">BW286-BW285</f>
+        <f t="shared" ref="BA286" si="1643">BW286-BW285</f>
         <v>4</v>
       </c>
       <c r="BB286">
-        <f t="shared" ref="BB286" si="1641">AW286/AV286</f>
+        <f t="shared" ref="BB286" si="1644">AW286/AV286</f>
         <v>5.4054054054054057E-2</v>
       </c>
       <c r="BC286">
-        <f t="shared" ref="BC286" si="1642">AY286/AX286</f>
+        <f t="shared" ref="BC286" si="1645">AY286/AX286</f>
         <v>8.1272084805653705E-2</v>
       </c>
       <c r="BD286">
-        <f t="shared" ref="BD286" si="1643">AZ286/AY286</f>
+        <f t="shared" ref="BD286" si="1646">AZ286/AY286</f>
         <v>1.7826086956521738</v>
       </c>
       <c r="BE286">
-        <f t="shared" ref="BE286" si="1644">SUM(AT280:AT286)/SUM(AS280:AS286)</f>
+        <f t="shared" ref="BE286" si="1647">SUM(AT280:AT286)/SUM(AS280:AS286)</f>
         <v>6.8448945751304599E-2</v>
       </c>
       <c r="BF286">
-        <f t="shared" ref="BF286" si="1645">SUM(AT273:AT286)/SUM(AS273:AS286)</f>
+        <f t="shared" ref="BF286" si="1648">SUM(AT273:AT286)/SUM(AS273:AS286)</f>
         <v>7.466270761807553E-2</v>
       </c>
       <c r="BG286">
-        <f t="shared" ref="BG286" si="1646">SUM(AW280:AW286)/SUM(AV280:AV286)</f>
+        <f t="shared" ref="BG286" si="1649">SUM(AW280:AW286)/SUM(AV280:AV286)</f>
         <v>5.0868486352357321E-2</v>
       </c>
       <c r="BH286">
-        <f t="shared" ref="BH286" si="1647">SUM(AY280:AY286)/SUM(AX280:AX286)</f>
+        <f t="shared" ref="BH286" si="1650">SUM(AY280:AY286)/SUM(AX280:AX286)</f>
         <v>5.5972101133391454E-2</v>
       </c>
       <c r="BI286">
-        <f t="shared" ref="BI286" si="1648">SUM(BA280:BA286)/SUM(AZ280:AZ286)</f>
+        <f t="shared" ref="BI286" si="1651">SUM(BA280:BA286)/SUM(AZ280:AZ286)</f>
         <v>7.365792759051186E-2</v>
       </c>
       <c r="BJ286" s="20">
@@ -37602,53 +37641,746 @@
       <c r="BL286" s="20">
         <v>0.123</v>
       </c>
-      <c r="BM286" s="20">
+      <c r="BM286" s="21">
         <v>2997028</v>
       </c>
-      <c r="BN286" s="20">
+      <c r="BN286" s="21">
         <v>1341403</v>
       </c>
-      <c r="BO286" s="20">
+      <c r="BO286" s="21">
         <v>297122</v>
       </c>
-      <c r="BP286" s="20">
+      <c r="BP286" s="21">
         <v>274936</v>
       </c>
-      <c r="BQ286" s="20">
+      <c r="BQ286" s="21">
         <v>22604</v>
       </c>
-      <c r="BR286" s="20">
+      <c r="BR286" s="21">
         <v>9405</v>
       </c>
-      <c r="BS286" s="20">
+      <c r="BS286" s="21">
         <v>2328</v>
       </c>
-      <c r="BT286" s="20">
+      <c r="BT286" s="21">
         <v>2223</v>
       </c>
-      <c r="BU286" s="20">
+      <c r="BU286" s="21">
         <v>17195</v>
       </c>
-      <c r="BV286" s="20">
+      <c r="BV286" s="21">
         <v>5550</v>
       </c>
-      <c r="BW286" s="20">
+      <c r="BW286" s="21">
         <v>1321</v>
       </c>
-      <c r="BX286" s="20">
+      <c r="BX286" s="21">
         <v>1246</v>
       </c>
-      <c r="BY286" s="20">
+      <c r="BY286" s="21">
         <v>131279</v>
       </c>
-      <c r="BZ286" s="20">
+      <c r="BZ286" s="21">
         <v>56679</v>
       </c>
-      <c r="CA286" s="20">
+      <c r="CA286" s="21">
         <v>13660</v>
       </c>
-      <c r="CB286" s="20">
+      <c r="CB286" s="21">
         <v>12521</v>
+      </c>
+    </row>
+    <row r="287" spans="1:80" x14ac:dyDescent="0.35">
+      <c r="A287" s="14">
+        <f t="shared" si="1163"/>
+        <v>44193</v>
+      </c>
+      <c r="B287" s="9">
+        <v>1342809</v>
+      </c>
+      <c r="C287">
+        <v>275471</v>
+      </c>
+      <c r="D287">
+        <v>229624</v>
+      </c>
+      <c r="E287" s="9">
+        <v>3745</v>
+      </c>
+      <c r="F287" s="9">
+        <v>586</v>
+      </c>
+      <c r="H287">
+        <v>111</v>
+      </c>
+      <c r="I287">
+        <v>82</v>
+      </c>
+      <c r="J287">
+        <v>113</v>
+      </c>
+      <c r="K287">
+        <v>21</v>
+      </c>
+      <c r="L287">
+        <v>33</v>
+      </c>
+      <c r="M287">
+        <f t="shared" ref="M287" si="1652">-(J287-J286)+L287</f>
+        <v>23</v>
+      </c>
+      <c r="N287" s="7">
+        <f t="shared" ref="N287" si="1653">B287-C287</f>
+        <v>1067338</v>
+      </c>
+      <c r="O287" s="4">
+        <f t="shared" ref="O287" si="1654">C287/B287</f>
+        <v>0.20514533340184643</v>
+      </c>
+      <c r="R287">
+        <f t="shared" ref="R287" si="1655">C287-C286</f>
+        <v>535</v>
+      </c>
+      <c r="S287">
+        <f t="shared" ref="S287" si="1656">N287-N286</f>
+        <v>871</v>
+      </c>
+      <c r="T287" s="8">
+        <f t="shared" ref="T287" si="1657">R287/V287</f>
+        <v>0.38051209103840683</v>
+      </c>
+      <c r="U287" s="8">
+        <f t="shared" ref="U287" si="1658">SUM(R281:R287)/SUM(V281:V287)</f>
+        <v>0.31095406360424027</v>
+      </c>
+      <c r="V287">
+        <f t="shared" ref="V287" si="1659">B287-B286</f>
+        <v>1406</v>
+      </c>
+      <c r="W287">
+        <f t="shared" ref="W287" si="1660">C287-D287-E287</f>
+        <v>42102</v>
+      </c>
+      <c r="X287" s="3">
+        <f t="shared" ref="X287" si="1661">F287/W287</f>
+        <v>1.3918578689848464E-2</v>
+      </c>
+      <c r="Y287">
+        <f t="shared" ref="Y287" si="1662">E287-E286</f>
+        <v>1</v>
+      </c>
+      <c r="Z287">
+        <v>2226</v>
+      </c>
+      <c r="AA287">
+        <v>1248</v>
+      </c>
+      <c r="AB287">
+        <v>12554</v>
+      </c>
+      <c r="AC287">
+        <v>1977</v>
+      </c>
+      <c r="AD287">
+        <v>1032</v>
+      </c>
+      <c r="AE287">
+        <v>10925</v>
+      </c>
+      <c r="AF287">
+        <v>41</v>
+      </c>
+      <c r="AG287">
+        <v>18</v>
+      </c>
+      <c r="AH287">
+        <v>215</v>
+      </c>
+      <c r="AI287">
+        <f t="shared" ref="AI287" si="1663">Z287-AC287-AF287</f>
+        <v>208</v>
+      </c>
+      <c r="AJ287">
+        <f t="shared" ref="AJ287" si="1664">AA287-AD287-AG287</f>
+        <v>198</v>
+      </c>
+      <c r="AK287">
+        <f t="shared" ref="AK287" si="1665">AB287-AE287-AH287</f>
+        <v>1414</v>
+      </c>
+      <c r="AS287">
+        <f t="shared" ref="AS287" si="1666">BM287-BM286</f>
+        <v>5415</v>
+      </c>
+      <c r="AT287">
+        <f t="shared" ref="AT287" si="1667">BO287-BO286</f>
+        <v>576</v>
+      </c>
+      <c r="AU287">
+        <f t="shared" ref="AU287" si="1668">AT287/AS287</f>
+        <v>0.10637119113573407</v>
+      </c>
+      <c r="AV287">
+        <f t="shared" ref="AV287" si="1669">BQ287-BQ286</f>
+        <v>36</v>
+      </c>
+      <c r="AW287">
+        <f t="shared" ref="AW287" si="1670">BS287-BS286</f>
+        <v>5</v>
+      </c>
+      <c r="AX287">
+        <f t="shared" ref="AX287" si="1671">BY287-BY286</f>
+        <v>405</v>
+      </c>
+      <c r="AY287">
+        <f t="shared" ref="AY287" si="1672">CA287-CA286</f>
+        <v>37</v>
+      </c>
+      <c r="AZ287">
+        <f t="shared" ref="AZ287" si="1673">BU287-BU286</f>
+        <v>55</v>
+      </c>
+      <c r="BA287">
+        <f t="shared" ref="BA287" si="1674">BW287-BW286</f>
+        <v>1</v>
+      </c>
+      <c r="BB287">
+        <f t="shared" ref="BB287" si="1675">AW287/AV287</f>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="BC287">
+        <f t="shared" ref="BC287" si="1676">AY287/AX287</f>
+        <v>9.1358024691358022E-2</v>
+      </c>
+      <c r="BD287">
+        <f t="shared" ref="BD287" si="1677">AZ287/AY287</f>
+        <v>1.4864864864864864</v>
+      </c>
+      <c r="BE287">
+        <f t="shared" ref="BE287" si="1678">SUM(AT281:AT287)/SUM(AS281:AS287)</f>
+        <v>6.8366136093948204E-2</v>
+      </c>
+      <c r="BF287">
+        <f t="shared" ref="BF287" si="1679">SUM(AT274:AT287)/SUM(AS274:AS287)</f>
+        <v>7.442099424065643E-2</v>
+      </c>
+      <c r="BG287">
+        <f t="shared" ref="BG287" si="1680">SUM(AW281:AW287)/SUM(AV281:AV287)</f>
+        <v>4.9200492004920049E-2</v>
+      </c>
+      <c r="BH287">
+        <f t="shared" ref="BH287" si="1681">SUM(AY281:AY287)/SUM(AX281:AX287)</f>
+        <v>5.7446091644204854E-2</v>
+      </c>
+      <c r="BI287">
+        <f t="shared" ref="BI287" si="1682">SUM(BA281:BA287)/SUM(AZ281:AZ287)</f>
+        <v>7.0828331332533009E-2</v>
+      </c>
+      <c r="BJ287" s="20">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="BK287" s="20">
+        <v>0.109</v>
+      </c>
+      <c r="BL287" s="20">
+        <v>0.123</v>
+      </c>
+      <c r="BM287" s="21">
+        <v>3002443</v>
+      </c>
+      <c r="BN287" s="21">
+        <v>1342809</v>
+      </c>
+      <c r="BO287" s="21">
+        <v>297698</v>
+      </c>
+      <c r="BP287" s="21">
+        <v>275471</v>
+      </c>
+      <c r="BQ287" s="21">
+        <v>22640</v>
+      </c>
+      <c r="BR287" s="21">
+        <v>9410</v>
+      </c>
+      <c r="BS287" s="21">
+        <v>2333</v>
+      </c>
+      <c r="BT287" s="21">
+        <v>2226</v>
+      </c>
+      <c r="BU287" s="21">
+        <v>17250</v>
+      </c>
+      <c r="BV287" s="21">
+        <v>5562</v>
+      </c>
+      <c r="BW287" s="21">
+        <v>1322</v>
+      </c>
+      <c r="BX287" s="21">
+        <v>1248</v>
+      </c>
+      <c r="BY287" s="21">
+        <v>131684</v>
+      </c>
+      <c r="BZ287" s="21">
+        <v>56771</v>
+      </c>
+      <c r="CA287" s="21">
+        <v>13697</v>
+      </c>
+      <c r="CB287" s="21">
+        <v>12554</v>
+      </c>
+    </row>
+    <row r="288" spans="1:80" x14ac:dyDescent="0.35">
+      <c r="A288" s="14">
+        <f t="shared" si="1163"/>
+        <v>44194</v>
+      </c>
+      <c r="B288" s="9">
+        <v>1346710</v>
+      </c>
+      <c r="C288">
+        <v>276946</v>
+      </c>
+      <c r="D288">
+        <v>233725</v>
+      </c>
+      <c r="E288" s="9">
+        <v>3745</v>
+      </c>
+      <c r="F288" s="9">
+        <v>620</v>
+      </c>
+      <c r="H288">
+        <v>117</v>
+      </c>
+      <c r="I288">
+        <v>77</v>
+      </c>
+      <c r="J288">
+        <v>118</v>
+      </c>
+      <c r="K288">
+        <v>19</v>
+      </c>
+      <c r="L288">
+        <v>14</v>
+      </c>
+      <c r="M288">
+        <f t="shared" ref="M288" si="1683">-(J288-J287)+L288</f>
+        <v>9</v>
+      </c>
+      <c r="N288" s="7">
+        <f t="shared" ref="N288:N289" si="1684">B288-C288</f>
+        <v>1069764</v>
+      </c>
+      <c r="O288" s="4">
+        <f t="shared" ref="O288:O289" si="1685">C288/B288</f>
+        <v>0.20564635296388978</v>
+      </c>
+      <c r="R288">
+        <f t="shared" ref="R288" si="1686">C288-C287</f>
+        <v>1475</v>
+      </c>
+      <c r="S288">
+        <f t="shared" ref="S288" si="1687">N288-N287</f>
+        <v>2426</v>
+      </c>
+      <c r="T288" s="8">
+        <f t="shared" ref="T288" si="1688">R288/V288</f>
+        <v>0.37810817739041269</v>
+      </c>
+      <c r="U288" s="8">
+        <f t="shared" ref="U288" si="1689">SUM(R282:R288)/SUM(V282:V288)</f>
+        <v>0.322509765625</v>
+      </c>
+      <c r="V288">
+        <f t="shared" ref="V288" si="1690">B288-B287</f>
+        <v>3901</v>
+      </c>
+      <c r="W288">
+        <f t="shared" ref="W288:W289" si="1691">C288-D288-E288</f>
+        <v>39476</v>
+      </c>
+      <c r="X288" s="3">
+        <f t="shared" ref="X288:X289" si="1692">F288/W288</f>
+        <v>1.5705745262944572E-2</v>
+      </c>
+      <c r="Y288">
+        <f t="shared" ref="Y288" si="1693">E288-E287</f>
+        <v>0</v>
+      </c>
+      <c r="Z288">
+        <v>2234</v>
+      </c>
+      <c r="AA288">
+        <v>1249</v>
+      </c>
+      <c r="AB288">
+        <v>12600</v>
+      </c>
+      <c r="AC288">
+        <v>2002</v>
+      </c>
+      <c r="AD288">
+        <v>1056</v>
+      </c>
+      <c r="AE288">
+        <v>11096</v>
+      </c>
+      <c r="AF288">
+        <v>41</v>
+      </c>
+      <c r="AG288">
+        <v>18</v>
+      </c>
+      <c r="AH288">
+        <v>215</v>
+      </c>
+      <c r="AI288">
+        <f t="shared" ref="AI288" si="1694">Z288-AC288-AF288</f>
+        <v>191</v>
+      </c>
+      <c r="AJ288">
+        <f t="shared" ref="AJ288" si="1695">AA288-AD288-AG288</f>
+        <v>175</v>
+      </c>
+      <c r="AK288">
+        <f t="shared" ref="AK288" si="1696">AB288-AE288-AH288</f>
+        <v>1289</v>
+      </c>
+      <c r="AS288">
+        <f t="shared" ref="AS288" si="1697">BM288-BM287</f>
+        <v>26081</v>
+      </c>
+      <c r="AT288">
+        <f t="shared" ref="AT288" si="1698">BO288-BO287</f>
+        <v>1558</v>
+      </c>
+      <c r="AU288">
+        <f t="shared" ref="AU288" si="1699">AT288/AS288</f>
+        <v>5.9736973275564584E-2</v>
+      </c>
+      <c r="AV288">
+        <f t="shared" ref="AV288" si="1700">BQ288-BQ287</f>
+        <v>106</v>
+      </c>
+      <c r="AW288">
+        <f t="shared" ref="AW288" si="1701">BS288-BS287</f>
+        <v>13</v>
+      </c>
+      <c r="AX288">
+        <f t="shared" ref="AX288" si="1702">BY288-BY287</f>
+        <v>1737</v>
+      </c>
+      <c r="AY288">
+        <f t="shared" ref="AY288" si="1703">CA288-CA287</f>
+        <v>53</v>
+      </c>
+      <c r="AZ288">
+        <f t="shared" ref="AZ288" si="1704">BU288-BU287</f>
+        <v>133</v>
+      </c>
+      <c r="BA288">
+        <f t="shared" ref="BA288" si="1705">BW288-BW287</f>
+        <v>1</v>
+      </c>
+      <c r="BB288">
+        <f t="shared" ref="BB288" si="1706">AW288/AV288</f>
+        <v>0.12264150943396226</v>
+      </c>
+      <c r="BC288">
+        <f t="shared" ref="BC288" si="1707">AY288/AX288</f>
+        <v>3.051237766263673E-2</v>
+      </c>
+      <c r="BD288">
+        <f t="shared" ref="BD288" si="1708">AZ288/AY288</f>
+        <v>2.5094339622641511</v>
+      </c>
+      <c r="BE288">
+        <f t="shared" ref="BE288" si="1709">SUM(AT282:AT288)/SUM(AS282:AS288)</f>
+        <v>7.2713203343565846E-2</v>
+      </c>
+      <c r="BF288">
+        <f t="shared" ref="BF288" si="1710">SUM(AT275:AT288)/SUM(AS275:AS288)</f>
+        <v>7.3952867548913989E-2</v>
+      </c>
+      <c r="BG288">
+        <f t="shared" ref="BG288" si="1711">SUM(AW282:AW288)/SUM(AV282:AV288)</f>
+        <v>7.03125E-2</v>
+      </c>
+      <c r="BH288">
+        <f t="shared" ref="BH288" si="1712">SUM(AY282:AY288)/SUM(AX282:AX288)</f>
+        <v>5.6606851549755303E-2</v>
+      </c>
+      <c r="BI288">
+        <f t="shared" ref="BI288" si="1713">SUM(BA282:BA288)/SUM(AZ282:AZ288)</f>
+        <v>7.2423398328690811E-2</v>
+      </c>
+      <c r="BJ288" s="20">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="BK288" s="20">
+        <v>0.109</v>
+      </c>
+      <c r="BL288" s="20">
+        <v>0.113</v>
+      </c>
+      <c r="BM288" s="20">
+        <v>3028524</v>
+      </c>
+      <c r="BN288" s="20">
+        <v>1346710</v>
+      </c>
+      <c r="BO288" s="20">
+        <v>299256</v>
+      </c>
+      <c r="BP288" s="20">
+        <v>276946</v>
+      </c>
+      <c r="BQ288" s="20">
+        <v>22746</v>
+      </c>
+      <c r="BR288" s="20">
+        <v>9431</v>
+      </c>
+      <c r="BS288" s="20">
+        <v>2346</v>
+      </c>
+      <c r="BT288" s="20">
+        <v>2234</v>
+      </c>
+      <c r="BU288" s="20">
+        <v>17383</v>
+      </c>
+      <c r="BV288" s="20">
+        <v>5570</v>
+      </c>
+      <c r="BW288" s="20">
+        <v>1323</v>
+      </c>
+      <c r="BX288" s="20">
+        <v>1249</v>
+      </c>
+      <c r="BY288" s="20">
+        <v>133421</v>
+      </c>
+      <c r="BZ288" s="20">
+        <v>56885</v>
+      </c>
+      <c r="CA288" s="20">
+        <v>13750</v>
+      </c>
+      <c r="CB288" s="20">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="289" spans="1:80" x14ac:dyDescent="0.35">
+      <c r="A289" s="14">
+        <f t="shared" si="1163"/>
+        <v>44195</v>
+      </c>
+      <c r="B289" s="9">
+        <v>1350876</v>
+      </c>
+      <c r="C289">
+        <v>278593</v>
+      </c>
+      <c r="D289">
+        <v>236657</v>
+      </c>
+      <c r="E289" s="9">
+        <v>3812</v>
+      </c>
+      <c r="F289" s="9">
+        <v>612</v>
+      </c>
+      <c r="H289">
+        <v>127</v>
+      </c>
+      <c r="I289">
+        <v>105</v>
+      </c>
+      <c r="J289">
+        <v>111</v>
+      </c>
+      <c r="K289">
+        <v>20</v>
+      </c>
+      <c r="L289">
+        <v>19</v>
+      </c>
+      <c r="M289">
+        <f t="shared" ref="M289" si="1714">-(J289-J288)+L289</f>
+        <v>26</v>
+      </c>
+      <c r="N289" s="7">
+        <f t="shared" ref="N289" si="1715">B289-C289</f>
+        <v>1072283</v>
+      </c>
+      <c r="O289" s="4">
+        <f t="shared" ref="O289" si="1716">C289/B289</f>
+        <v>0.20623136394458114</v>
+      </c>
+      <c r="R289">
+        <f t="shared" ref="R289" si="1717">C289-C288</f>
+        <v>1647</v>
+      </c>
+      <c r="S289">
+        <f t="shared" ref="S289" si="1718">N289-N288</f>
+        <v>2519</v>
+      </c>
+      <c r="T289" s="8">
+        <f t="shared" ref="T289" si="1719">R289/V289</f>
+        <v>0.39534325492078731</v>
+      </c>
+      <c r="U289" s="8">
+        <f t="shared" ref="U289" si="1720">SUM(R283:R289)/SUM(V283:V289)</f>
+        <v>0.33596487337561537</v>
+      </c>
+      <c r="V289">
+        <f t="shared" ref="V289" si="1721">B289-B288</f>
+        <v>4166</v>
+      </c>
+      <c r="W289">
+        <f t="shared" ref="W289" si="1722">C289-D289-E289</f>
+        <v>38124</v>
+      </c>
+      <c r="X289" s="3">
+        <f t="shared" ref="X289" si="1723">F289/W289</f>
+        <v>1.6052880075542966E-2</v>
+      </c>
+      <c r="Y289">
+        <f t="shared" ref="Y289" si="1724">E289-E288</f>
+        <v>67</v>
+      </c>
+      <c r="AS289">
+        <f t="shared" ref="AS289" si="1725">BM289-BM288</f>
+        <v>20590</v>
+      </c>
+      <c r="AT289">
+        <f t="shared" ref="AT289" si="1726">BO289-BO288</f>
+        <v>1727</v>
+      </c>
+      <c r="AU289">
+        <f t="shared" ref="AU289" si="1727">AT289/AS289</f>
+        <v>8.3875667799902867E-2</v>
+      </c>
+      <c r="AV289">
+        <f t="shared" ref="AV289" si="1728">BQ289-BQ288</f>
+        <v>160</v>
+      </c>
+      <c r="AW289">
+        <f t="shared" ref="AW289" si="1729">BS289-BS288</f>
+        <v>10</v>
+      </c>
+      <c r="AX289">
+        <f t="shared" ref="AX289" si="1730">BY289-BY288</f>
+        <v>881</v>
+      </c>
+      <c r="AY289">
+        <f t="shared" ref="AY289" si="1731">CA289-CA288</f>
+        <v>80</v>
+      </c>
+      <c r="AZ289">
+        <f t="shared" ref="AZ289" si="1732">BU289-BU288</f>
+        <v>144</v>
+      </c>
+      <c r="BA289">
+        <f t="shared" ref="BA289" si="1733">BW289-BW288</f>
+        <v>9</v>
+      </c>
+      <c r="BB289">
+        <f t="shared" ref="BB289" si="1734">AW289/AV289</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="BC289">
+        <f t="shared" ref="BC289" si="1735">AY289/AX289</f>
+        <v>9.0805902383654935E-2</v>
+      </c>
+      <c r="BD289">
+        <f t="shared" ref="BD289" si="1736">AZ289/AY289</f>
+        <v>1.8</v>
+      </c>
+      <c r="BE289">
+        <f t="shared" ref="BE289" si="1737">SUM(AT283:AT289)/SUM(AS283:AS289)</f>
+        <v>7.4583310463435609E-2</v>
+      </c>
+      <c r="BF289">
+        <f t="shared" ref="BF289" si="1738">SUM(AT276:AT289)/SUM(AS276:AS289)</f>
+        <v>7.464807411758019E-2</v>
+      </c>
+      <c r="BG289">
+        <f t="shared" ref="BG289" si="1739">SUM(AW283:AW289)/SUM(AV283:AV289)</f>
+        <v>7.716049382716049E-2</v>
+      </c>
+      <c r="BH289">
+        <f t="shared" ref="BH289" si="1740">SUM(AY283:AY289)/SUM(AX283:AX289)</f>
+        <v>5.9456598447424139E-2</v>
+      </c>
+      <c r="BI289">
+        <f t="shared" ref="BI289" si="1741">SUM(BA283:BA289)/SUM(AZ283:AZ289)</f>
+        <v>6.8017366136034735E-2</v>
+      </c>
+      <c r="BJ289" s="20">
+        <v>0.09</v>
+      </c>
+      <c r="BK289" s="20">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="BL289" s="20">
+        <v>0.124</v>
+      </c>
+      <c r="BM289" s="20">
+        <v>3049114</v>
+      </c>
+      <c r="BN289" s="20">
+        <v>1350876</v>
+      </c>
+      <c r="BO289" s="20">
+        <v>300983</v>
+      </c>
+      <c r="BP289" s="20">
+        <v>278593</v>
+      </c>
+      <c r="BQ289" s="20">
+        <v>22906</v>
+      </c>
+      <c r="BR289" s="20">
+        <v>9462</v>
+      </c>
+      <c r="BS289" s="20">
+        <v>2356</v>
+      </c>
+      <c r="BT289" s="20">
+        <v>2247</v>
+      </c>
+      <c r="BU289" s="20">
+        <v>17527</v>
+      </c>
+      <c r="BV289" s="20">
+        <v>5595</v>
+      </c>
+      <c r="BW289" s="20">
+        <v>1332</v>
+      </c>
+      <c r="BX289" s="20">
+        <v>1258</v>
+      </c>
+      <c r="BY289" s="20">
+        <v>134302</v>
+      </c>
+      <c r="BZ289" s="20">
+        <v>57087</v>
+      </c>
+      <c r="CA289" s="20">
+        <v>13830</v>
+      </c>
+      <c r="CB289" s="20">
+        <v>12680</v>
       </c>
     </row>
   </sheetData>
@@ -37676,7 +38408,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>R228:R286</xm:sqref>
+          <xm:sqref>R228:R289</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="22" operator="equal" id="{E5309D98-D036-43E8-AE0C-F104DC358831}">
@@ -37692,7 +38424,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>Y228:Y286</xm:sqref>
+          <xm:sqref>Y228:Y289</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5269D26C-9211-46B2-914A-48345DF37DEF}">
@@ -37708,7 +38440,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F228:F286</xm:sqref>
+          <xm:sqref>F228:F289</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="20" operator="equal" id="{24843253-84F3-44AF-847D-C74D74C4F05A}">
@@ -37740,7 +38472,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J228:J286</xm:sqref>
+          <xm:sqref>J228:J289</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="18" operator="equal" id="{6F562D16-6A18-4369-973E-028D1B5F7CFF}">
@@ -37756,7 +38488,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K228:K286</xm:sqref>
+          <xm:sqref>K228:K289</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{735BDD8A-2F04-47F3-825F-41FCBFA8ADD5}">
@@ -37996,7 +38728,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H1:H1048576 I229:I286</xm:sqref>
+          <xm:sqref>H1:H1048576 I229:I289</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{8F0BE21B-C8AC-4EAD-AE58-244C59D5B0FC}">
@@ -38012,7 +38744,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>W229:W286</xm:sqref>
+          <xm:sqref>W229:W289</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4090FD69-DA80-46F4-A87F-128ABF1D90E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F317B41-03FF-4728-A327-8329F47BE326}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2534,13 +2534,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CB289"/>
+  <dimension ref="A1:CB290"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AN273" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD274" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BI288" sqref="AS288:BI289"/>
+      <selection pane="bottomRight" activeCell="AF280" sqref="AF280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33544,7 +33544,7 @@
     </row>
     <row r="270" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A270" s="14">
-        <f t="shared" ref="A270:A289" si="1163">A269+1</f>
+        <f t="shared" ref="A270:A290" si="1163">A269+1</f>
         <v>44176</v>
       </c>
       <c r="B270" s="9">
@@ -37974,11 +37974,11 @@
         <v>9</v>
       </c>
       <c r="N288" s="7">
-        <f t="shared" ref="N288:N289" si="1684">B288-C288</f>
+        <f t="shared" ref="N288" si="1684">B288-C288</f>
         <v>1069764</v>
       </c>
       <c r="O288" s="4">
-        <f t="shared" ref="O288:O289" si="1685">C288/B288</f>
+        <f t="shared" ref="O288" si="1685">C288/B288</f>
         <v>0.20564635296388978</v>
       </c>
       <c r="R288">
@@ -38002,11 +38002,11 @@
         <v>3901</v>
       </c>
       <c r="W288">
-        <f t="shared" ref="W288:W289" si="1691">C288-D288-E288</f>
+        <f t="shared" ref="W288" si="1691">C288-D288-E288</f>
         <v>39476</v>
       </c>
       <c r="X288" s="3">
-        <f t="shared" ref="X288:X289" si="1692">F288/W288</f>
+        <f t="shared" ref="X288" si="1692">F288/W288</f>
         <v>1.5705745262944572E-2</v>
       </c>
       <c r="Y288">
@@ -38257,72 +38257,111 @@
         <f t="shared" ref="Y289" si="1724">E289-E288</f>
         <v>67</v>
       </c>
+      <c r="Z289">
+        <v>2247</v>
+      </c>
+      <c r="AA289">
+        <v>1258</v>
+      </c>
+      <c r="AB289">
+        <v>12680</v>
+      </c>
+      <c r="AC289">
+        <v>2028</v>
+      </c>
+      <c r="AD289">
+        <v>1068</v>
+      </c>
+      <c r="AE289">
+        <v>11173</v>
+      </c>
+      <c r="AF289">
+        <v>44</v>
+      </c>
+      <c r="AG289">
+        <v>21</v>
+      </c>
+      <c r="AH289">
+        <v>218</v>
+      </c>
+      <c r="AI289">
+        <f t="shared" ref="AI289" si="1725">Z289-AC289-AF289</f>
+        <v>175</v>
+      </c>
+      <c r="AJ289">
+        <f t="shared" ref="AJ289" si="1726">AA289-AD289-AG289</f>
+        <v>169</v>
+      </c>
+      <c r="AK289">
+        <f t="shared" ref="AK289" si="1727">AB289-AE289-AH289</f>
+        <v>1289</v>
+      </c>
       <c r="AS289">
-        <f t="shared" ref="AS289" si="1725">BM289-BM288</f>
+        <f t="shared" ref="AS289" si="1728">BM289-BM288</f>
         <v>20590</v>
       </c>
       <c r="AT289">
-        <f t="shared" ref="AT289" si="1726">BO289-BO288</f>
+        <f t="shared" ref="AT289" si="1729">BO289-BO288</f>
         <v>1727</v>
       </c>
       <c r="AU289">
-        <f t="shared" ref="AU289" si="1727">AT289/AS289</f>
+        <f t="shared" ref="AU289" si="1730">AT289/AS289</f>
         <v>8.3875667799902867E-2</v>
       </c>
       <c r="AV289">
-        <f t="shared" ref="AV289" si="1728">BQ289-BQ288</f>
+        <f t="shared" ref="AV289" si="1731">BQ289-BQ288</f>
         <v>160</v>
       </c>
       <c r="AW289">
-        <f t="shared" ref="AW289" si="1729">BS289-BS288</f>
+        <f t="shared" ref="AW289" si="1732">BS289-BS288</f>
         <v>10</v>
       </c>
       <c r="AX289">
-        <f t="shared" ref="AX289" si="1730">BY289-BY288</f>
+        <f t="shared" ref="AX289" si="1733">BY289-BY288</f>
         <v>881</v>
       </c>
       <c r="AY289">
-        <f t="shared" ref="AY289" si="1731">CA289-CA288</f>
+        <f t="shared" ref="AY289" si="1734">CA289-CA288</f>
         <v>80</v>
       </c>
       <c r="AZ289">
-        <f t="shared" ref="AZ289" si="1732">BU289-BU288</f>
+        <f t="shared" ref="AZ289" si="1735">BU289-BU288</f>
         <v>144</v>
       </c>
       <c r="BA289">
-        <f t="shared" ref="BA289" si="1733">BW289-BW288</f>
+        <f t="shared" ref="BA289" si="1736">BW289-BW288</f>
         <v>9</v>
       </c>
       <c r="BB289">
-        <f t="shared" ref="BB289" si="1734">AW289/AV289</f>
+        <f t="shared" ref="BB289" si="1737">AW289/AV289</f>
         <v>6.25E-2</v>
       </c>
       <c r="BC289">
-        <f t="shared" ref="BC289" si="1735">AY289/AX289</f>
+        <f t="shared" ref="BC289" si="1738">AY289/AX289</f>
         <v>9.0805902383654935E-2</v>
       </c>
       <c r="BD289">
-        <f t="shared" ref="BD289" si="1736">AZ289/AY289</f>
+        <f t="shared" ref="BD289" si="1739">AZ289/AY289</f>
         <v>1.8</v>
       </c>
       <c r="BE289">
-        <f t="shared" ref="BE289" si="1737">SUM(AT283:AT289)/SUM(AS283:AS289)</f>
+        <f t="shared" ref="BE289" si="1740">SUM(AT283:AT289)/SUM(AS283:AS289)</f>
         <v>7.4583310463435609E-2</v>
       </c>
       <c r="BF289">
-        <f t="shared" ref="BF289" si="1738">SUM(AT276:AT289)/SUM(AS276:AS289)</f>
+        <f t="shared" ref="BF289" si="1741">SUM(AT276:AT289)/SUM(AS276:AS289)</f>
         <v>7.464807411758019E-2</v>
       </c>
       <c r="BG289">
-        <f t="shared" ref="BG289" si="1739">SUM(AW283:AW289)/SUM(AV283:AV289)</f>
+        <f t="shared" ref="BG289" si="1742">SUM(AW283:AW289)/SUM(AV283:AV289)</f>
         <v>7.716049382716049E-2</v>
       </c>
       <c r="BH289">
-        <f t="shared" ref="BH289" si="1740">SUM(AY283:AY289)/SUM(AX283:AX289)</f>
+        <f t="shared" ref="BH289" si="1743">SUM(AY283:AY289)/SUM(AX283:AX289)</f>
         <v>5.9456598447424139E-2</v>
       </c>
       <c r="BI289">
-        <f t="shared" ref="BI289" si="1741">SUM(BA283:BA289)/SUM(AZ283:AZ289)</f>
+        <f t="shared" ref="BI289" si="1744">SUM(BA283:BA289)/SUM(AZ283:AZ289)</f>
         <v>6.8017366136034735E-2</v>
       </c>
       <c r="BJ289" s="20">
@@ -38381,6 +38420,250 @@
       </c>
       <c r="CB289" s="20">
         <v>12680</v>
+      </c>
+    </row>
+    <row r="290" spans="1:80" x14ac:dyDescent="0.35">
+      <c r="A290" s="14">
+        <f t="shared" si="1163"/>
+        <v>44196</v>
+      </c>
+      <c r="B290" s="9">
+        <v>1355010</v>
+      </c>
+      <c r="C290">
+        <v>280298</v>
+      </c>
+      <c r="D290">
+        <v>238977</v>
+      </c>
+      <c r="E290" s="9">
+        <v>3822</v>
+      </c>
+      <c r="F290" s="9">
+        <v>600</v>
+      </c>
+      <c r="H290">
+        <v>134</v>
+      </c>
+      <c r="I290">
+        <v>76</v>
+      </c>
+      <c r="J290">
+        <v>108</v>
+      </c>
+      <c r="K290">
+        <v>21</v>
+      </c>
+      <c r="L290">
+        <v>20</v>
+      </c>
+      <c r="M290">
+        <f t="shared" ref="M290" si="1745">-(J290-J289)+L290</f>
+        <v>23</v>
+      </c>
+      <c r="N290" s="7">
+        <f t="shared" ref="N290" si="1746">B290-C290</f>
+        <v>1074712</v>
+      </c>
+      <c r="O290" s="4">
+        <f t="shared" ref="O290" si="1747">C290/B290</f>
+        <v>0.20686046597442084</v>
+      </c>
+      <c r="R290">
+        <f t="shared" ref="R290" si="1748">C290-C289</f>
+        <v>1705</v>
+      </c>
+      <c r="S290">
+        <f t="shared" ref="S290" si="1749">N290-N289</f>
+        <v>2429</v>
+      </c>
+      <c r="T290" s="8">
+        <f t="shared" ref="T290" si="1750">R290/V290</f>
+        <v>0.41243347847121431</v>
+      </c>
+      <c r="U290" s="8">
+        <f t="shared" ref="U290" si="1751">SUM(R284:R290)/SUM(V284:V290)</f>
+        <v>0.35583544762595143</v>
+      </c>
+      <c r="V290">
+        <f t="shared" ref="V290" si="1752">B290-B289</f>
+        <v>4134</v>
+      </c>
+      <c r="W290">
+        <f t="shared" ref="W290" si="1753">C290-D290-E290</f>
+        <v>37499</v>
+      </c>
+      <c r="X290" s="3">
+        <f t="shared" ref="X290" si="1754">F290/W290</f>
+        <v>1.6000426678044747E-2</v>
+      </c>
+      <c r="Y290">
+        <f t="shared" ref="Y290" si="1755">E290-E289</f>
+        <v>10</v>
+      </c>
+      <c r="Z290">
+        <v>2259</v>
+      </c>
+      <c r="AA290">
+        <v>1267</v>
+      </c>
+      <c r="AB290">
+        <v>12746</v>
+      </c>
+      <c r="AC290">
+        <v>2045</v>
+      </c>
+      <c r="AD290">
+        <v>1084</v>
+      </c>
+      <c r="AE290">
+        <v>11240</v>
+      </c>
+      <c r="AF290">
+        <v>44</v>
+      </c>
+      <c r="AG290">
+        <v>21</v>
+      </c>
+      <c r="AH290">
+        <v>218</v>
+      </c>
+      <c r="AI290">
+        <f t="shared" ref="AI290" si="1756">Z290-AC290-AF290</f>
+        <v>170</v>
+      </c>
+      <c r="AJ290">
+        <f t="shared" ref="AJ290" si="1757">AA290-AD290-AG290</f>
+        <v>162</v>
+      </c>
+      <c r="AK290">
+        <f t="shared" ref="AK290" si="1758">AB290-AE290-AH290</f>
+        <v>1288</v>
+      </c>
+      <c r="AS290">
+        <f t="shared" ref="AS290" si="1759">BM290-BM289</f>
+        <v>15418</v>
+      </c>
+      <c r="AT290">
+        <f t="shared" ref="AT290" si="1760">BO290-BO289</f>
+        <v>1909</v>
+      </c>
+      <c r="AU290">
+        <f t="shared" ref="AU290" si="1761">AT290/AS290</f>
+        <v>0.1238163185886626</v>
+      </c>
+      <c r="AV290">
+        <f t="shared" ref="AV290" si="1762">BQ290-BQ289</f>
+        <v>93</v>
+      </c>
+      <c r="AW290">
+        <f t="shared" ref="AW290" si="1763">BS290-BS289</f>
+        <v>14</v>
+      </c>
+      <c r="AX290">
+        <f t="shared" ref="AX290" si="1764">BY290-BY289</f>
+        <v>719</v>
+      </c>
+      <c r="AY290">
+        <f t="shared" ref="AY290" si="1765">CA290-CA289</f>
+        <v>74</v>
+      </c>
+      <c r="AZ290">
+        <f t="shared" ref="AZ290" si="1766">BU290-BU289</f>
+        <v>69</v>
+      </c>
+      <c r="BA290">
+        <f t="shared" ref="BA290" si="1767">BW290-BW289</f>
+        <v>9</v>
+      </c>
+      <c r="BB290">
+        <f t="shared" ref="BB290" si="1768">AW290/AV290</f>
+        <v>0.15053763440860216</v>
+      </c>
+      <c r="BC290">
+        <f t="shared" ref="BC290" si="1769">AY290/AX290</f>
+        <v>0.10292072322670376</v>
+      </c>
+      <c r="BD290">
+        <f t="shared" ref="BD290" si="1770">AZ290/AY290</f>
+        <v>0.93243243243243246</v>
+      </c>
+      <c r="BE290">
+        <f t="shared" ref="BE290" si="1771">SUM(AT284:AT290)/SUM(AS284:AS290)</f>
+        <v>8.2899942646615668E-2</v>
+      </c>
+      <c r="BF290">
+        <f t="shared" ref="BF290" si="1772">SUM(AT277:AT290)/SUM(AS277:AS290)</f>
+        <v>7.6073154627252879E-2</v>
+      </c>
+      <c r="BG290">
+        <f t="shared" ref="BG290" si="1773">SUM(AW284:AW290)/SUM(AV284:AV290)</f>
+        <v>8.3462132921174659E-2</v>
+      </c>
+      <c r="BH290">
+        <f t="shared" ref="BH290" si="1774">SUM(AY284:AY290)/SUM(AX284:AX290)</f>
+        <v>6.5997130559540887E-2</v>
+      </c>
+      <c r="BI290">
+        <f t="shared" ref="BI290" si="1775">SUM(BA284:BA290)/SUM(AZ284:AZ290)</f>
+        <v>6.7082683307332289E-2</v>
+      </c>
+      <c r="BJ290" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="BK290" s="20">
+        <v>0.121</v>
+      </c>
+      <c r="BL290" s="20">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="BM290" s="20">
+        <v>3064532</v>
+      </c>
+      <c r="BN290" s="20">
+        <v>1355010</v>
+      </c>
+      <c r="BO290" s="20">
+        <v>302892</v>
+      </c>
+      <c r="BP290" s="20">
+        <v>280298</v>
+      </c>
+      <c r="BQ290" s="20">
+        <v>22999</v>
+      </c>
+      <c r="BR290" s="20">
+        <v>9479</v>
+      </c>
+      <c r="BS290" s="20">
+        <v>2370</v>
+      </c>
+      <c r="BT290" s="20">
+        <v>2259</v>
+      </c>
+      <c r="BU290" s="20">
+        <v>17596</v>
+      </c>
+      <c r="BV290" s="20">
+        <v>5609</v>
+      </c>
+      <c r="BW290" s="20">
+        <v>1341</v>
+      </c>
+      <c r="BX290" s="20">
+        <v>1267</v>
+      </c>
+      <c r="BY290" s="20">
+        <v>135021</v>
+      </c>
+      <c r="BZ290" s="20">
+        <v>57247</v>
+      </c>
+      <c r="CA290" s="20">
+        <v>13904</v>
+      </c>
+      <c r="CB290" s="20">
+        <v>12746</v>
       </c>
     </row>
   </sheetData>
@@ -38408,7 +38691,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>R228:R289</xm:sqref>
+          <xm:sqref>R228:R290</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="22" operator="equal" id="{E5309D98-D036-43E8-AE0C-F104DC358831}">
@@ -38424,7 +38707,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>Y228:Y289</xm:sqref>
+          <xm:sqref>Y228:Y290</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5269D26C-9211-46B2-914A-48345DF37DEF}">
@@ -38440,7 +38723,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F228:F289</xm:sqref>
+          <xm:sqref>F228:F290</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="20" operator="equal" id="{24843253-84F3-44AF-847D-C74D74C4F05A}">
@@ -38472,7 +38755,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J228:J289</xm:sqref>
+          <xm:sqref>J228:J290</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="18" operator="equal" id="{6F562D16-6A18-4369-973E-028D1B5F7CFF}">
@@ -38488,7 +38771,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K228:K289</xm:sqref>
+          <xm:sqref>K228:K290</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{735BDD8A-2F04-47F3-825F-41FCBFA8ADD5}">
@@ -38728,7 +39011,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H1:H1048576 I229:I289</xm:sqref>
+          <xm:sqref>H1:H1048576 I229:I290</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{8F0BE21B-C8AC-4EAD-AE58-244C59D5B0FC}">
@@ -38744,7 +39027,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>W229:W289</xm:sqref>
+          <xm:sqref>W229:W290</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -45320,15 +45603,15 @@
       </c>
       <c r="R2">
         <f>MAX(covid19!AF:AF)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="S2">
         <f>MAX(covid19!AG:AG)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="T2">
         <f>MAX(covid19!AH:AH)</f>
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="U2">
         <f>MAX(covid19!AI:AI)</f>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F317B41-03FF-4728-A327-8329F47BE326}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAF419B-4E21-4313-A707-3289FA7FD0BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2534,13 +2534,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CB290"/>
+  <dimension ref="A1:CB295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD274" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AN279" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF280" sqref="AF280"/>
+      <selection pane="bottomRight" activeCell="BI294" sqref="AS294:BI295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33544,7 +33544,7 @@
     </row>
     <row r="270" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A270" s="14">
-        <f t="shared" ref="A270:A290" si="1163">A269+1</f>
+        <f t="shared" ref="A270:A295" si="1163">A269+1</f>
         <v>44176</v>
       </c>
       <c r="B270" s="9">
@@ -38664,6 +38664,1187 @@
       </c>
       <c r="CB290" s="20">
         <v>12746</v>
+      </c>
+    </row>
+    <row r="291" spans="1:80" x14ac:dyDescent="0.35">
+      <c r="A291" s="14">
+        <f t="shared" si="1163"/>
+        <v>44197</v>
+      </c>
+      <c r="B291" s="9">
+        <v>1359659</v>
+      </c>
+      <c r="C291">
+        <v>282437</v>
+      </c>
+      <c r="D291">
+        <v>241230</v>
+      </c>
+      <c r="E291" s="9">
+        <v>3891</v>
+      </c>
+      <c r="F291" s="9">
+        <v>575</v>
+      </c>
+      <c r="H291">
+        <v>117</v>
+      </c>
+      <c r="I291">
+        <v>83</v>
+      </c>
+      <c r="J291">
+        <v>113</v>
+      </c>
+      <c r="K291">
+        <v>17</v>
+      </c>
+      <c r="L291">
+        <v>25</v>
+      </c>
+      <c r="M291">
+        <f t="shared" ref="M291" si="1776">-(J291-J290)+L291</f>
+        <v>20</v>
+      </c>
+      <c r="N291" s="7">
+        <f t="shared" ref="N291" si="1777">B291-C291</f>
+        <v>1077222</v>
+      </c>
+      <c r="O291" s="4">
+        <f t="shared" ref="O291" si="1778">C291/B291</f>
+        <v>0.20772634903310316</v>
+      </c>
+      <c r="R291">
+        <f t="shared" ref="R291" si="1779">C291-C290</f>
+        <v>2139</v>
+      </c>
+      <c r="S291">
+        <f t="shared" ref="S291" si="1780">N291-N290</f>
+        <v>2510</v>
+      </c>
+      <c r="T291" s="8">
+        <f t="shared" ref="T291" si="1781">R291/V291</f>
+        <v>0.46009894600989459</v>
+      </c>
+      <c r="U291" s="8">
+        <f t="shared" ref="U291" si="1782">SUM(R285:R291)/SUM(V285:V291)</f>
+        <v>0.39233921090189217</v>
+      </c>
+      <c r="V291">
+        <f t="shared" ref="V291" si="1783">B291-B290</f>
+        <v>4649</v>
+      </c>
+      <c r="W291">
+        <f t="shared" ref="W291" si="1784">C291-D291-E291</f>
+        <v>37316</v>
+      </c>
+      <c r="X291" s="3">
+        <f t="shared" ref="X291" si="1785">F291/W291</f>
+        <v>1.5408939864937292E-2</v>
+      </c>
+      <c r="Y291">
+        <f t="shared" ref="Y291" si="1786">E291-E290</f>
+        <v>69</v>
+      </c>
+      <c r="Z291">
+        <v>2269</v>
+      </c>
+      <c r="AA291">
+        <v>1282</v>
+      </c>
+      <c r="AB291">
+        <v>12804</v>
+      </c>
+      <c r="AC291">
+        <v>2056</v>
+      </c>
+      <c r="AD291">
+        <v>1092</v>
+      </c>
+      <c r="AE291">
+        <v>11304</v>
+      </c>
+      <c r="AF291">
+        <v>44</v>
+      </c>
+      <c r="AG291">
+        <v>22</v>
+      </c>
+      <c r="AH291">
+        <v>218</v>
+      </c>
+      <c r="AI291">
+        <f t="shared" ref="AI291" si="1787">Z291-AC291-AF291</f>
+        <v>169</v>
+      </c>
+      <c r="AJ291">
+        <f t="shared" ref="AJ291" si="1788">AA291-AD291-AG291</f>
+        <v>168</v>
+      </c>
+      <c r="AK291">
+        <f t="shared" ref="AK291" si="1789">AB291-AE291-AH291</f>
+        <v>1282</v>
+      </c>
+      <c r="AS291">
+        <f t="shared" ref="AS291" si="1790">BM291-BM290</f>
+        <v>29441</v>
+      </c>
+      <c r="AT291">
+        <f t="shared" ref="AT291" si="1791">BO291-BO290</f>
+        <v>2268</v>
+      </c>
+      <c r="AU291">
+        <f t="shared" ref="AU291" si="1792">AT291/AS291</f>
+        <v>7.7035426785774935E-2</v>
+      </c>
+      <c r="AV291">
+        <f t="shared" ref="AV291" si="1793">BQ291-BQ290</f>
+        <v>143</v>
+      </c>
+      <c r="AW291">
+        <f t="shared" ref="AW291" si="1794">BS291-BS290</f>
+        <v>7</v>
+      </c>
+      <c r="AX291">
+        <f t="shared" ref="AX291" si="1795">BY291-BY290</f>
+        <v>1297</v>
+      </c>
+      <c r="AY291">
+        <f t="shared" ref="AY291" si="1796">CA291-CA290</f>
+        <v>61</v>
+      </c>
+      <c r="AZ291">
+        <f t="shared" ref="AZ291" si="1797">BU291-BU290</f>
+        <v>239</v>
+      </c>
+      <c r="BA291">
+        <f t="shared" ref="BA291" si="1798">BW291-BW290</f>
+        <v>15</v>
+      </c>
+      <c r="BB291">
+        <f t="shared" ref="BB291" si="1799">AW291/AV291</f>
+        <v>4.8951048951048952E-2</v>
+      </c>
+      <c r="BC291">
+        <f t="shared" ref="BC291" si="1800">AY291/AX291</f>
+        <v>4.7031611410948346E-2</v>
+      </c>
+      <c r="BD291">
+        <f t="shared" ref="BD291" si="1801">AZ291/AY291</f>
+        <v>3.918032786885246</v>
+      </c>
+      <c r="BE291">
+        <f t="shared" ref="BE291" si="1802">SUM(AT285:AT291)/SUM(AS285:AS291)</f>
+        <v>8.3962385439050824E-2</v>
+      </c>
+      <c r="BF291">
+        <f t="shared" ref="BF291" si="1803">SUM(AT278:AT291)/SUM(AS278:AS291)</f>
+        <v>7.5706818767475759E-2</v>
+      </c>
+      <c r="BG291">
+        <f t="shared" ref="BG291" si="1804">SUM(AW285:AW291)/SUM(AV285:AV291)</f>
+        <v>9.4841930116472545E-2</v>
+      </c>
+      <c r="BH291">
+        <f t="shared" ref="BH291" si="1805">SUM(AY285:AY291)/SUM(AX285:AX291)</f>
+        <v>6.1613077061253817E-2</v>
+      </c>
+      <c r="BI291">
+        <f t="shared" ref="BI291" si="1806">SUM(BA285:BA291)/SUM(AZ285:AZ291)</f>
+        <v>5.8577405857740586E-2</v>
+      </c>
+      <c r="BJ291" s="20">
+        <v>0.104</v>
+      </c>
+      <c r="BK291" s="20">
+        <v>0.122</v>
+      </c>
+      <c r="BL291" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="BM291" s="20">
+        <v>3093973</v>
+      </c>
+      <c r="BN291" s="20">
+        <v>1359659</v>
+      </c>
+      <c r="BO291" s="20">
+        <v>305160</v>
+      </c>
+      <c r="BP291" s="20">
+        <v>282437</v>
+      </c>
+      <c r="BQ291" s="20">
+        <v>23142</v>
+      </c>
+      <c r="BR291" s="20">
+        <v>9501</v>
+      </c>
+      <c r="BS291" s="20">
+        <v>2377</v>
+      </c>
+      <c r="BT291" s="20">
+        <v>2269</v>
+      </c>
+      <c r="BU291" s="20">
+        <v>17835</v>
+      </c>
+      <c r="BV291" s="20">
+        <v>5631</v>
+      </c>
+      <c r="BW291" s="20">
+        <v>1356</v>
+      </c>
+      <c r="BX291" s="20">
+        <v>1282</v>
+      </c>
+      <c r="BY291" s="20">
+        <v>136318</v>
+      </c>
+      <c r="BZ291" s="20">
+        <v>57394</v>
+      </c>
+      <c r="CA291" s="20">
+        <v>13965</v>
+      </c>
+      <c r="CB291" s="20">
+        <v>12804</v>
+      </c>
+    </row>
+    <row r="292" spans="1:80" x14ac:dyDescent="0.35">
+      <c r="A292" s="14">
+        <f t="shared" si="1163"/>
+        <v>44198</v>
+      </c>
+      <c r="B292" s="9">
+        <v>1361710</v>
+      </c>
+      <c r="C292">
+        <v>283144</v>
+      </c>
+      <c r="D292">
+        <v>243218</v>
+      </c>
+      <c r="E292" s="9">
+        <v>3946</v>
+      </c>
+      <c r="F292" s="9">
+        <v>572</v>
+      </c>
+      <c r="H292">
+        <v>119</v>
+      </c>
+      <c r="I292">
+        <v>88</v>
+      </c>
+      <c r="J292">
+        <v>103</v>
+      </c>
+      <c r="K292">
+        <v>18</v>
+      </c>
+      <c r="L292">
+        <v>15</v>
+      </c>
+      <c r="M292">
+        <f t="shared" ref="M292" si="1807">-(J292-J291)+L292</f>
+        <v>25</v>
+      </c>
+      <c r="N292" s="7">
+        <f t="shared" ref="N292" si="1808">B292-C292</f>
+        <v>1078566</v>
+      </c>
+      <c r="O292" s="4">
+        <f t="shared" ref="O292" si="1809">C292/B292</f>
+        <v>0.20793267288923487</v>
+      </c>
+      <c r="R292">
+        <f t="shared" ref="R292" si="1810">C292-C291</f>
+        <v>707</v>
+      </c>
+      <c r="S292">
+        <f t="shared" ref="S292" si="1811">N292-N291</f>
+        <v>1344</v>
+      </c>
+      <c r="T292" s="8">
+        <f t="shared" ref="T292" si="1812">R292/V292</f>
+        <v>0.34470989761092152</v>
+      </c>
+      <c r="U292" s="8">
+        <f t="shared" ref="U292" si="1813">SUM(R286:R292)/SUM(V286:V292)</f>
+        <v>0.39748897488974888</v>
+      </c>
+      <c r="V292">
+        <f t="shared" ref="V292" si="1814">B292-B291</f>
+        <v>2051</v>
+      </c>
+      <c r="W292">
+        <f t="shared" ref="W292" si="1815">C292-D292-E292</f>
+        <v>35980</v>
+      </c>
+      <c r="X292" s="3">
+        <f t="shared" ref="X292" si="1816">F292/W292</f>
+        <v>1.5897720956086714E-2</v>
+      </c>
+      <c r="Y292">
+        <f t="shared" ref="Y292" si="1817">E292-E291</f>
+        <v>55</v>
+      </c>
+      <c r="Z292">
+        <v>2271</v>
+      </c>
+      <c r="AA292">
+        <v>1290</v>
+      </c>
+      <c r="AB292">
+        <v>12823</v>
+      </c>
+      <c r="AC292">
+        <v>2067</v>
+      </c>
+      <c r="AD292">
+        <v>1101</v>
+      </c>
+      <c r="AE292">
+        <v>11379</v>
+      </c>
+      <c r="AF292">
+        <v>44</v>
+      </c>
+      <c r="AG292">
+        <v>23</v>
+      </c>
+      <c r="AH292">
+        <v>220</v>
+      </c>
+      <c r="AI292">
+        <f t="shared" ref="AI292:AI293" si="1818">Z292-AC292-AF292</f>
+        <v>160</v>
+      </c>
+      <c r="AJ292">
+        <f t="shared" ref="AJ292:AJ293" si="1819">AA292-AD292-AG292</f>
+        <v>166</v>
+      </c>
+      <c r="AK292">
+        <f t="shared" ref="AK292:AK293" si="1820">AB292-AE292-AH292</f>
+        <v>1224</v>
+      </c>
+      <c r="AS292">
+        <f t="shared" ref="AS292" si="1821">BM292-BM291</f>
+        <v>8336</v>
+      </c>
+      <c r="AT292">
+        <f t="shared" ref="AT292" si="1822">BO292-BO291</f>
+        <v>735</v>
+      </c>
+      <c r="AU292">
+        <f t="shared" ref="AU292" si="1823">AT292/AS292</f>
+        <v>8.8171785028790792E-2</v>
+      </c>
+      <c r="AV292">
+        <f t="shared" ref="AV292" si="1824">BQ292-BQ291</f>
+        <v>39</v>
+      </c>
+      <c r="AW292">
+        <f t="shared" ref="AW292" si="1825">BS292-BS291</f>
+        <v>1</v>
+      </c>
+      <c r="AX292">
+        <f t="shared" ref="AX292" si="1826">BY292-BY291</f>
+        <v>449</v>
+      </c>
+      <c r="AY292">
+        <f t="shared" ref="AY292" si="1827">CA292-CA291</f>
+        <v>21</v>
+      </c>
+      <c r="AZ292">
+        <f t="shared" ref="AZ292" si="1828">BU292-BU291</f>
+        <v>33</v>
+      </c>
+      <c r="BA292">
+        <f t="shared" ref="BA292" si="1829">BW292-BW291</f>
+        <v>9</v>
+      </c>
+      <c r="BB292">
+        <f t="shared" ref="BB292" si="1830">AW292/AV292</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="BC292">
+        <f t="shared" ref="BC292" si="1831">AY292/AX292</f>
+        <v>4.6770601336302897E-2</v>
+      </c>
+      <c r="BD292">
+        <f t="shared" ref="BD292" si="1832">AZ292/AY292</f>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="BE292">
+        <f t="shared" ref="BE292" si="1833">SUM(AT286:AT292)/SUM(AS286:AS292)</f>
+        <v>8.4663192019056824E-2</v>
+      </c>
+      <c r="BF292">
+        <f t="shared" ref="BF292" si="1834">SUM(AT279:AT292)/SUM(AS279:AS292)</f>
+        <v>7.6839497949753352E-2</v>
+      </c>
+      <c r="BG292">
+        <f t="shared" ref="BG292" si="1835">SUM(AW286:AW292)/SUM(AV286:AV292)</f>
+        <v>8.4690553745928335E-2</v>
+      </c>
+      <c r="BH292">
+        <f t="shared" ref="BH292" si="1836">SUM(AY286:AY292)/SUM(AX286:AX292)</f>
+        <v>6.0474787731762257E-2</v>
+      </c>
+      <c r="BI292">
+        <f t="shared" ref="BI292" si="1837">SUM(BA286:BA292)/SUM(AZ286:AZ292)</f>
+        <v>6.7226890756302518E-2</v>
+      </c>
+      <c r="BJ292" s="20">
+        <v>0.105</v>
+      </c>
+      <c r="BK292" s="20">
+        <v>0.122</v>
+      </c>
+      <c r="BL292" s="20">
+        <v>0.155</v>
+      </c>
+      <c r="BM292" s="20">
+        <v>3102309</v>
+      </c>
+      <c r="BN292" s="20">
+        <v>1361710</v>
+      </c>
+      <c r="BO292" s="20">
+        <v>305895</v>
+      </c>
+      <c r="BP292" s="20">
+        <v>283144</v>
+      </c>
+      <c r="BQ292" s="20">
+        <v>23181</v>
+      </c>
+      <c r="BR292" s="20">
+        <v>9509</v>
+      </c>
+      <c r="BS292" s="20">
+        <v>2378</v>
+      </c>
+      <c r="BT292" s="20">
+        <v>2271</v>
+      </c>
+      <c r="BU292" s="20">
+        <v>17868</v>
+      </c>
+      <c r="BV292" s="20">
+        <v>5646</v>
+      </c>
+      <c r="BW292" s="20">
+        <v>1365</v>
+      </c>
+      <c r="BX292" s="20">
+        <v>1290</v>
+      </c>
+      <c r="BY292" s="20">
+        <v>136767</v>
+      </c>
+      <c r="BZ292" s="20">
+        <v>57453</v>
+      </c>
+      <c r="CA292" s="20">
+        <v>13986</v>
+      </c>
+      <c r="CB292" s="20">
+        <v>12823</v>
+      </c>
+    </row>
+    <row r="293" spans="1:80" x14ac:dyDescent="0.35">
+      <c r="A293" s="14">
+        <f t="shared" si="1163"/>
+        <v>44199</v>
+      </c>
+      <c r="B293" s="9">
+        <v>1364349</v>
+      </c>
+      <c r="C293">
+        <v>284265</v>
+      </c>
+      <c r="D293">
+        <v>244022</v>
+      </c>
+      <c r="E293" s="9">
+        <v>3946</v>
+      </c>
+      <c r="F293" s="9">
+        <v>577</v>
+      </c>
+      <c r="H293">
+        <v>120</v>
+      </c>
+      <c r="I293">
+        <v>66</v>
+      </c>
+      <c r="J293">
+        <v>98</v>
+      </c>
+      <c r="K293">
+        <v>16</v>
+      </c>
+      <c r="L293">
+        <v>10</v>
+      </c>
+      <c r="M293">
+        <f t="shared" ref="M293" si="1838">-(J293-J292)+L293</f>
+        <v>15</v>
+      </c>
+      <c r="N293" s="7">
+        <f t="shared" ref="N293" si="1839">B293-C293</f>
+        <v>1080084</v>
+      </c>
+      <c r="O293" s="4">
+        <f t="shared" ref="O293" si="1840">C293/B293</f>
+        <v>0.20835211518460453</v>
+      </c>
+      <c r="R293">
+        <f t="shared" ref="R293" si="1841">C293-C292</f>
+        <v>1121</v>
+      </c>
+      <c r="S293">
+        <f t="shared" ref="S293" si="1842">N293-N292</f>
+        <v>1518</v>
+      </c>
+      <c r="T293" s="8">
+        <f t="shared" ref="T293" si="1843">R293/V293</f>
+        <v>0.42478211443728686</v>
+      </c>
+      <c r="U293" s="8">
+        <f t="shared" ref="U293" si="1844">SUM(R287:R293)/SUM(V287:V293)</f>
+        <v>0.40656323542229583</v>
+      </c>
+      <c r="V293">
+        <f t="shared" ref="V293" si="1845">B293-B292</f>
+        <v>2639</v>
+      </c>
+      <c r="W293">
+        <f t="shared" ref="W293" si="1846">C293-D293-E293</f>
+        <v>36297</v>
+      </c>
+      <c r="X293" s="3">
+        <f t="shared" ref="X293" si="1847">F293/W293</f>
+        <v>1.5896630575529657E-2</v>
+      </c>
+      <c r="Y293">
+        <f t="shared" ref="Y293" si="1848">E293-E292</f>
+        <v>0</v>
+      </c>
+      <c r="Z293">
+        <v>2273</v>
+      </c>
+      <c r="AA293">
+        <v>1298</v>
+      </c>
+      <c r="AB293">
+        <v>12869</v>
+      </c>
+      <c r="AC293">
+        <v>2071</v>
+      </c>
+      <c r="AD293">
+        <v>1103</v>
+      </c>
+      <c r="AE293">
+        <v>11402</v>
+      </c>
+      <c r="AF293">
+        <v>44</v>
+      </c>
+      <c r="AG293">
+        <v>23</v>
+      </c>
+      <c r="AH293">
+        <v>220</v>
+      </c>
+      <c r="AI293">
+        <f t="shared" si="1818"/>
+        <v>158</v>
+      </c>
+      <c r="AJ293">
+        <f t="shared" si="1819"/>
+        <v>172</v>
+      </c>
+      <c r="AK293">
+        <f t="shared" si="1820"/>
+        <v>1247</v>
+      </c>
+      <c r="AS293">
+        <f t="shared" ref="AS293" si="1849">BM293-BM292</f>
+        <v>8560</v>
+      </c>
+      <c r="AT293">
+        <f t="shared" ref="AT293" si="1850">BO293-BO292</f>
+        <v>1215</v>
+      </c>
+      <c r="AU293">
+        <f t="shared" ref="AU293" si="1851">AT293/AS293</f>
+        <v>0.14193925233644861</v>
+      </c>
+      <c r="AV293">
+        <f t="shared" ref="AV293" si="1852">BQ293-BQ292</f>
+        <v>48</v>
+      </c>
+      <c r="AW293">
+        <f t="shared" ref="AW293" si="1853">BS293-BS292</f>
+        <v>4</v>
+      </c>
+      <c r="AX293">
+        <f t="shared" ref="AX293" si="1854">BY293-BY292</f>
+        <v>422</v>
+      </c>
+      <c r="AY293">
+        <f t="shared" ref="AY293" si="1855">CA293-CA292</f>
+        <v>55</v>
+      </c>
+      <c r="AZ293">
+        <f t="shared" ref="AZ293" si="1856">BU293-BU292</f>
+        <v>54</v>
+      </c>
+      <c r="BA293">
+        <f t="shared" ref="BA293" si="1857">BW293-BW292</f>
+        <v>7</v>
+      </c>
+      <c r="BB293">
+        <f t="shared" ref="BB293" si="1858">AW293/AV293</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="BC293">
+        <f t="shared" ref="BC293" si="1859">AY293/AX293</f>
+        <v>0.13033175355450238</v>
+      </c>
+      <c r="BD293">
+        <f t="shared" ref="BD293" si="1860">AZ293/AY293</f>
+        <v>0.98181818181818181</v>
+      </c>
+      <c r="BE293">
+        <f t="shared" ref="BE293" si="1861">SUM(AT287:AT293)/SUM(AS287:AS293)</f>
+        <v>8.7736404283166869E-2</v>
+      </c>
+      <c r="BF293">
+        <f t="shared" ref="BF293" si="1862">SUM(AT280:AT293)/SUM(AS280:AS293)</f>
+        <v>7.771871978789785E-2</v>
+      </c>
+      <c r="BG293">
+        <f t="shared" ref="BG293" si="1863">SUM(AW287:AW293)/SUM(AV287:AV293)</f>
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="BH293">
+        <f t="shared" ref="BH293" si="1864">SUM(AY287:AY293)/SUM(AX287:AX293)</f>
+        <v>6.4467005076142128E-2</v>
+      </c>
+      <c r="BI293">
+        <f t="shared" ref="BI293" si="1865">SUM(BA287:BA293)/SUM(AZ287:AZ293)</f>
+        <v>7.0151306740027508E-2</v>
+      </c>
+      <c r="BJ293" s="20">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="BK293" s="20">
+        <v>0.124</v>
+      </c>
+      <c r="BL293" s="20">
+        <v>0.16</v>
+      </c>
+      <c r="BM293" s="20">
+        <v>3110869</v>
+      </c>
+      <c r="BN293" s="20">
+        <v>1364349</v>
+      </c>
+      <c r="BO293" s="20">
+        <v>307110</v>
+      </c>
+      <c r="BP293" s="20">
+        <v>284265</v>
+      </c>
+      <c r="BQ293" s="20">
+        <v>23229</v>
+      </c>
+      <c r="BR293" s="20">
+        <v>9531</v>
+      </c>
+      <c r="BS293" s="20">
+        <v>2382</v>
+      </c>
+      <c r="BT293" s="20">
+        <v>2273</v>
+      </c>
+      <c r="BU293" s="20">
+        <v>17922</v>
+      </c>
+      <c r="BV293" s="20">
+        <v>5660</v>
+      </c>
+      <c r="BW293" s="20">
+        <v>1372</v>
+      </c>
+      <c r="BX293" s="20">
+        <v>1298</v>
+      </c>
+      <c r="BY293" s="20">
+        <v>137189</v>
+      </c>
+      <c r="BZ293" s="20">
+        <v>57597</v>
+      </c>
+      <c r="CA293" s="20">
+        <v>14041</v>
+      </c>
+      <c r="CB293" s="20">
+        <v>12869</v>
+      </c>
+    </row>
+    <row r="294" spans="1:80" x14ac:dyDescent="0.35">
+      <c r="A294" s="14">
+        <f t="shared" si="1163"/>
+        <v>44200</v>
+      </c>
+      <c r="B294" s="9">
+        <v>1365704</v>
+      </c>
+      <c r="C294">
+        <v>284858</v>
+      </c>
+      <c r="D294">
+        <v>244620</v>
+      </c>
+      <c r="E294" s="9">
+        <v>3946</v>
+      </c>
+      <c r="F294" s="9">
+        <v>571</v>
+      </c>
+      <c r="H294">
+        <v>117</v>
+      </c>
+      <c r="I294">
+        <v>60</v>
+      </c>
+      <c r="J294">
+        <v>90</v>
+      </c>
+      <c r="K294">
+        <v>14</v>
+      </c>
+      <c r="L294">
+        <v>7</v>
+      </c>
+      <c r="M294">
+        <f t="shared" ref="M294" si="1866">-(J294-J293)+L294</f>
+        <v>15</v>
+      </c>
+      <c r="N294" s="7">
+        <f t="shared" ref="N294:N295" si="1867">B294-C294</f>
+        <v>1080846</v>
+      </c>
+      <c r="O294" s="4">
+        <f t="shared" ref="O294:O295" si="1868">C294/B294</f>
+        <v>0.20857960436522116</v>
+      </c>
+      <c r="R294">
+        <f t="shared" ref="R294" si="1869">C294-C293</f>
+        <v>593</v>
+      </c>
+      <c r="S294">
+        <f t="shared" ref="S294" si="1870">N294-N293</f>
+        <v>762</v>
+      </c>
+      <c r="T294" s="8">
+        <f t="shared" ref="T294" si="1871">R294/V294</f>
+        <v>0.43763837638376385</v>
+      </c>
+      <c r="U294" s="8">
+        <f t="shared" ref="U294" si="1872">SUM(R288:R294)/SUM(V288:V294)</f>
+        <v>0.41000218388294385</v>
+      </c>
+      <c r="V294">
+        <f t="shared" ref="V294" si="1873">B294-B293</f>
+        <v>1355</v>
+      </c>
+      <c r="W294">
+        <f t="shared" ref="W294:W295" si="1874">C294-D294-E294</f>
+        <v>36292</v>
+      </c>
+      <c r="X294" s="3">
+        <f t="shared" ref="X294:X295" si="1875">F294/W294</f>
+        <v>1.5733494985120687E-2</v>
+      </c>
+      <c r="Y294">
+        <f t="shared" ref="Y294" si="1876">E294-E293</f>
+        <v>0</v>
+      </c>
+      <c r="Z294">
+        <v>2279</v>
+      </c>
+      <c r="AA294">
+        <v>1300</v>
+      </c>
+      <c r="AB294">
+        <v>12906</v>
+      </c>
+      <c r="AC294">
+        <v>2076</v>
+      </c>
+      <c r="AD294">
+        <v>1110</v>
+      </c>
+      <c r="AE294">
+        <v>11424</v>
+      </c>
+      <c r="AF294">
+        <v>44</v>
+      </c>
+      <c r="AG294">
+        <v>23</v>
+      </c>
+      <c r="AH294">
+        <v>220</v>
+      </c>
+      <c r="AI294">
+        <f t="shared" ref="AI294" si="1877">Z294-AC294-AF294</f>
+        <v>159</v>
+      </c>
+      <c r="AJ294">
+        <f t="shared" ref="AJ294" si="1878">AA294-AD294-AG294</f>
+        <v>167</v>
+      </c>
+      <c r="AK294">
+        <f t="shared" ref="AK294" si="1879">AB294-AE294-AH294</f>
+        <v>1262</v>
+      </c>
+      <c r="AS294">
+        <f t="shared" ref="AS294" si="1880">BM294-BM293</f>
+        <v>5106</v>
+      </c>
+      <c r="AT294">
+        <f t="shared" ref="AT294" si="1881">BO294-BO293</f>
+        <v>646</v>
+      </c>
+      <c r="AU294">
+        <f t="shared" ref="AU294" si="1882">AT294/AS294</f>
+        <v>0.12651782216999607</v>
+      </c>
+      <c r="AV294">
+        <f t="shared" ref="AV294" si="1883">BQ294-BQ293</f>
+        <v>35</v>
+      </c>
+      <c r="AW294">
+        <f t="shared" ref="AW294" si="1884">BS294-BS293</f>
+        <v>5</v>
+      </c>
+      <c r="AX294">
+        <f t="shared" ref="AX294" si="1885">BY294-BY293</f>
+        <v>347</v>
+      </c>
+      <c r="AY294">
+        <f t="shared" ref="AY294" si="1886">CA294-CA293</f>
+        <v>35</v>
+      </c>
+      <c r="AZ294">
+        <f t="shared" ref="AZ294" si="1887">BU294-BU293</f>
+        <v>113</v>
+      </c>
+      <c r="BA294">
+        <f t="shared" ref="BA294" si="1888">BW294-BW293</f>
+        <v>3</v>
+      </c>
+      <c r="BB294">
+        <f t="shared" ref="BB294" si="1889">AW294/AV294</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="BC294">
+        <f t="shared" ref="BC294" si="1890">AY294/AX294</f>
+        <v>0.10086455331412104</v>
+      </c>
+      <c r="BD294">
+        <f t="shared" ref="BD294" si="1891">AZ294/AY294</f>
+        <v>3.2285714285714286</v>
+      </c>
+      <c r="BE294">
+        <f t="shared" ref="BE294" si="1892">SUM(AT288:AT294)/SUM(AS288:AS294)</f>
+        <v>8.8591762674840577E-2</v>
+      </c>
+      <c r="BF294">
+        <f t="shared" ref="BF294" si="1893">SUM(AT281:AT294)/SUM(AS281:AS294)</f>
+        <v>7.8107302090978117E-2</v>
+      </c>
+      <c r="BG294">
+        <f t="shared" ref="BG294" si="1894">SUM(AW288:AW294)/SUM(AV288:AV294)</f>
+        <v>8.6538461538461536E-2</v>
+      </c>
+      <c r="BH294">
+        <f t="shared" ref="BH294" si="1895">SUM(AY288:AY294)/SUM(AX288:AX294)</f>
+        <v>6.4764183185235816E-2</v>
+      </c>
+      <c r="BI294">
+        <f t="shared" ref="BI294" si="1896">SUM(BA288:BA294)/SUM(AZ288:AZ294)</f>
+        <v>6.751592356687898E-2</v>
+      </c>
+      <c r="BJ294" s="20">
+        <v>0.109</v>
+      </c>
+      <c r="BK294" s="20">
+        <v>0.126</v>
+      </c>
+      <c r="BL294" s="20">
+        <v>0.158</v>
+      </c>
+      <c r="BM294" s="20">
+        <v>3115975</v>
+      </c>
+      <c r="BN294" s="20">
+        <v>1365703</v>
+      </c>
+      <c r="BO294" s="20">
+        <v>307756</v>
+      </c>
+      <c r="BP294" s="20">
+        <v>284860</v>
+      </c>
+      <c r="BQ294" s="20">
+        <v>23264</v>
+      </c>
+      <c r="BR294" s="20">
+        <v>9539</v>
+      </c>
+      <c r="BS294" s="20">
+        <v>2387</v>
+      </c>
+      <c r="BT294" s="20">
+        <v>2279</v>
+      </c>
+      <c r="BU294" s="20">
+        <v>18035</v>
+      </c>
+      <c r="BV294" s="20">
+        <v>5665</v>
+      </c>
+      <c r="BW294" s="20">
+        <v>1375</v>
+      </c>
+      <c r="BX294" s="20">
+        <v>1300</v>
+      </c>
+      <c r="BY294" s="20">
+        <v>137536</v>
+      </c>
+      <c r="BZ294" s="20">
+        <v>57691</v>
+      </c>
+      <c r="CA294" s="20">
+        <v>14076</v>
+      </c>
+      <c r="CB294" s="20">
+        <v>12906</v>
+      </c>
+    </row>
+    <row r="295" spans="1:80" x14ac:dyDescent="0.35">
+      <c r="A295" s="14">
+        <f t="shared" si="1163"/>
+        <v>44201</v>
+      </c>
+      <c r="B295" s="9">
+        <v>1369643</v>
+      </c>
+      <c r="C295">
+        <v>286677</v>
+      </c>
+      <c r="D295">
+        <v>247719</v>
+      </c>
+      <c r="E295" s="9">
+        <v>3992</v>
+      </c>
+      <c r="F295" s="9">
+        <v>582</v>
+      </c>
+      <c r="H295">
+        <v>115</v>
+      </c>
+      <c r="I295">
+        <v>69</v>
+      </c>
+      <c r="J295">
+        <v>88</v>
+      </c>
+      <c r="K295">
+        <v>12</v>
+      </c>
+      <c r="L295">
+        <v>8</v>
+      </c>
+      <c r="M295">
+        <f t="shared" ref="M295" si="1897">-(J295-J294)+L295</f>
+        <v>10</v>
+      </c>
+      <c r="N295" s="7">
+        <f t="shared" ref="N295" si="1898">B295-C295</f>
+        <v>1082966</v>
+      </c>
+      <c r="O295" s="4">
+        <f t="shared" ref="O295" si="1899">C295/B295</f>
+        <v>0.20930782693008324</v>
+      </c>
+      <c r="R295">
+        <f t="shared" ref="R295" si="1900">C295-C294</f>
+        <v>1819</v>
+      </c>
+      <c r="S295">
+        <f t="shared" ref="S295" si="1901">N295-N294</f>
+        <v>2120</v>
+      </c>
+      <c r="T295" s="8">
+        <f t="shared" ref="T295" si="1902">R295/V295</f>
+        <v>0.46179233307946177</v>
+      </c>
+      <c r="U295" s="8">
+        <f t="shared" ref="U295" si="1903">SUM(R289:R295)/SUM(V289:V295)</f>
+        <v>0.42432302795098764</v>
+      </c>
+      <c r="V295">
+        <f t="shared" ref="V295" si="1904">B295-B294</f>
+        <v>3939</v>
+      </c>
+      <c r="W295">
+        <f t="shared" ref="W295" si="1905">C295-D295-E295</f>
+        <v>34966</v>
+      </c>
+      <c r="X295" s="3">
+        <f t="shared" ref="X295" si="1906">F295/W295</f>
+        <v>1.6644740605159299E-2</v>
+      </c>
+      <c r="Y295">
+        <f t="shared" ref="Y295" si="1907">E295-E294</f>
+        <v>46</v>
+      </c>
+      <c r="AS295">
+        <f t="shared" ref="AS295" si="1908">BM295-BM294</f>
+        <v>24726</v>
+      </c>
+      <c r="AT295">
+        <f t="shared" ref="AT295" si="1909">BO295-BO294</f>
+        <v>1877</v>
+      </c>
+      <c r="AU295">
+        <f t="shared" ref="AU295" si="1910">AT295/AS295</f>
+        <v>7.5911995470355098E-2</v>
+      </c>
+      <c r="AV295">
+        <f t="shared" ref="AV295" si="1911">BQ295-BQ294</f>
+        <v>299</v>
+      </c>
+      <c r="AW295">
+        <f t="shared" ref="AW295" si="1912">BS295-BS294</f>
+        <v>11</v>
+      </c>
+      <c r="AX295">
+        <f t="shared" ref="AX295" si="1913">BY295-BY294</f>
+        <v>1067</v>
+      </c>
+      <c r="AY295">
+        <f t="shared" ref="AY295" si="1914">CA295-CA294</f>
+        <v>51</v>
+      </c>
+      <c r="AZ295">
+        <f t="shared" ref="AZ295" si="1915">BU295-BU294</f>
+        <v>200</v>
+      </c>
+      <c r="BA295">
+        <f t="shared" ref="BA295" si="1916">BW295-BW294</f>
+        <v>11</v>
+      </c>
+      <c r="BB295">
+        <f t="shared" ref="BB295" si="1917">AW295/AV295</f>
+        <v>3.678929765886288E-2</v>
+      </c>
+      <c r="BC295">
+        <f t="shared" ref="BC295" si="1918">AY295/AX295</f>
+        <v>4.779756326148079E-2</v>
+      </c>
+      <c r="BD295">
+        <f t="shared" ref="BD295" si="1919">AZ295/AY295</f>
+        <v>3.9215686274509802</v>
+      </c>
+      <c r="BE295">
+        <f t="shared" ref="BE295" si="1920">SUM(AT289:AT295)/SUM(AS289:AS295)</f>
+        <v>9.25055938383091E-2</v>
+      </c>
+      <c r="BF295">
+        <f t="shared" ref="BF295" si="1921">SUM(AT282:AT295)/SUM(AS282:AS295)</f>
+        <v>8.237587911705313E-2</v>
+      </c>
+      <c r="BG295">
+        <f t="shared" ref="BG295" si="1922">SUM(AW289:AW295)/SUM(AV289:AV295)</f>
+        <v>6.3647490820073441E-2</v>
+      </c>
+      <c r="BH295">
+        <f t="shared" ref="BH295" si="1923">SUM(AY289:AY295)/SUM(AX289:AX295)</f>
+        <v>7.2751833269008109E-2</v>
+      </c>
+      <c r="BI295">
+        <f t="shared" ref="BI295" si="1924">SUM(BA289:BA295)/SUM(AZ289:AZ295)</f>
+        <v>7.3943661971830985E-2</v>
+      </c>
+      <c r="BJ295" s="20">
+        <v>0.115</v>
+      </c>
+      <c r="BK295" s="20">
+        <v>0.124</v>
+      </c>
+      <c r="BL295" s="20">
+        <v>0.156</v>
+      </c>
+      <c r="BM295" s="20">
+        <v>3140701</v>
+      </c>
+      <c r="BN295" s="20">
+        <v>1369643</v>
+      </c>
+      <c r="BO295" s="20">
+        <v>309633</v>
+      </c>
+      <c r="BP295" s="20">
+        <v>286677</v>
+      </c>
+      <c r="BQ295" s="20">
+        <v>23563</v>
+      </c>
+      <c r="BR295" s="20">
+        <v>9561</v>
+      </c>
+      <c r="BS295" s="20">
+        <v>2398</v>
+      </c>
+      <c r="BT295" s="20">
+        <v>2291</v>
+      </c>
+      <c r="BU295" s="20">
+        <v>18235</v>
+      </c>
+      <c r="BV295" s="20">
+        <v>5677</v>
+      </c>
+      <c r="BW295" s="20">
+        <v>1386</v>
+      </c>
+      <c r="BX295" s="20">
+        <v>1310</v>
+      </c>
+      <c r="BY295" s="20">
+        <v>138603</v>
+      </c>
+      <c r="BZ295" s="20">
+        <v>57787</v>
+      </c>
+      <c r="CA295" s="20">
+        <v>14127</v>
+      </c>
+      <c r="CB295" s="20">
+        <v>12946</v>
       </c>
     </row>
   </sheetData>
@@ -38691,7 +39872,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>R228:R290</xm:sqref>
+          <xm:sqref>R228:R295</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="22" operator="equal" id="{E5309D98-D036-43E8-AE0C-F104DC358831}">
@@ -38707,7 +39888,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>Y228:Y290</xm:sqref>
+          <xm:sqref>Y228:Y295</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5269D26C-9211-46B2-914A-48345DF37DEF}">
@@ -38723,7 +39904,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F228:F290</xm:sqref>
+          <xm:sqref>F228:F295</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="20" operator="equal" id="{24843253-84F3-44AF-847D-C74D74C4F05A}">
@@ -38755,7 +39936,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J228:J290</xm:sqref>
+          <xm:sqref>J228:J295</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="18" operator="equal" id="{6F562D16-6A18-4369-973E-028D1B5F7CFF}">
@@ -38771,7 +39952,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K228:K290</xm:sqref>
+          <xm:sqref>K228:K295</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{735BDD8A-2F04-47F3-825F-41FCBFA8ADD5}">
@@ -39011,7 +40192,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H1:H1048576 I229:I290</xm:sqref>
+          <xm:sqref>H1:H1048576 I229:I295</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{8F0BE21B-C8AC-4EAD-AE58-244C59D5B0FC}">
@@ -39027,7 +40208,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>W229:W290</xm:sqref>
+          <xm:sqref>W229:W295</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -45607,11 +46788,11 @@
       </c>
       <c r="S2">
         <f>MAX(covid19!AG:AG)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T2">
         <f>MAX(covid19!AH:AH)</f>
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="U2">
         <f>MAX(covid19!AI:AI)</f>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAF419B-4E21-4313-A707-3289FA7FD0BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C316A8F-8661-480C-857F-BCB36FCEDB3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2534,13 +2534,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CB295"/>
+  <dimension ref="A1:CB296"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AN279" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AN280" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BI294" sqref="AS294:BI295"/>
+      <selection pane="bottomRight" activeCell="BI295" sqref="AS295:BI296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33544,7 +33544,7 @@
     </row>
     <row r="270" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A270" s="14">
-        <f t="shared" ref="A270:A295" si="1163">A269+1</f>
+        <f t="shared" ref="A270:A296" si="1163">A269+1</f>
         <v>44176</v>
       </c>
       <c r="B270" s="9">
@@ -39438,11 +39438,11 @@
         <v>15</v>
       </c>
       <c r="N294" s="7">
-        <f t="shared" ref="N294:N295" si="1867">B294-C294</f>
+        <f t="shared" ref="N294" si="1867">B294-C294</f>
         <v>1080846</v>
       </c>
       <c r="O294" s="4">
-        <f t="shared" ref="O294:O295" si="1868">C294/B294</f>
+        <f t="shared" ref="O294" si="1868">C294/B294</f>
         <v>0.20857960436522116</v>
       </c>
       <c r="R294">
@@ -39466,11 +39466,11 @@
         <v>1355</v>
       </c>
       <c r="W294">
-        <f t="shared" ref="W294:W295" si="1874">C294-D294-E294</f>
+        <f t="shared" ref="W294" si="1874">C294-D294-E294</f>
         <v>36292</v>
       </c>
       <c r="X294" s="3">
-        <f t="shared" ref="X294:X295" si="1875">F294/W294</f>
+        <f t="shared" ref="X294" si="1875">F294/W294</f>
         <v>1.5733494985120687E-2</v>
       </c>
       <c r="Y294">
@@ -39682,11 +39682,11 @@
         <v>10</v>
       </c>
       <c r="N295" s="7">
-        <f t="shared" ref="N295" si="1898">B295-C295</f>
+        <f t="shared" ref="N295:N296" si="1898">B295-C295</f>
         <v>1082966</v>
       </c>
       <c r="O295" s="4">
-        <f t="shared" ref="O295" si="1899">C295/B295</f>
+        <f t="shared" ref="O295:O296" si="1899">C295/B295</f>
         <v>0.20930782693008324</v>
       </c>
       <c r="R295">
@@ -39710,83 +39710,122 @@
         <v>3939</v>
       </c>
       <c r="W295">
-        <f t="shared" ref="W295" si="1905">C295-D295-E295</f>
+        <f t="shared" ref="W295:W296" si="1905">C295-D295-E295</f>
         <v>34966</v>
       </c>
       <c r="X295" s="3">
-        <f t="shared" ref="X295" si="1906">F295/W295</f>
+        <f t="shared" ref="X295:X296" si="1906">F295/W295</f>
         <v>1.6644740605159299E-2</v>
       </c>
       <c r="Y295">
         <f t="shared" ref="Y295" si="1907">E295-E294</f>
         <v>46</v>
       </c>
+      <c r="Z295">
+        <v>2291</v>
+      </c>
+      <c r="AA295">
+        <v>1310</v>
+      </c>
+      <c r="AB295">
+        <v>12946</v>
+      </c>
+      <c r="AC295">
+        <v>2094</v>
+      </c>
+      <c r="AD295">
+        <v>1123</v>
+      </c>
+      <c r="AE295">
+        <v>11536</v>
+      </c>
+      <c r="AF295">
+        <v>45</v>
+      </c>
+      <c r="AG295">
+        <v>23</v>
+      </c>
+      <c r="AH295">
+        <v>220</v>
+      </c>
+      <c r="AI295">
+        <f t="shared" ref="AI295" si="1908">Z295-AC295-AF295</f>
+        <v>152</v>
+      </c>
+      <c r="AJ295">
+        <f t="shared" ref="AJ295" si="1909">AA295-AD295-AG295</f>
+        <v>164</v>
+      </c>
+      <c r="AK295">
+        <f t="shared" ref="AK295" si="1910">AB295-AE295-AH295</f>
+        <v>1190</v>
+      </c>
       <c r="AS295">
-        <f t="shared" ref="AS295" si="1908">BM295-BM294</f>
+        <f t="shared" ref="AS295" si="1911">BM295-BM294</f>
         <v>24726</v>
       </c>
       <c r="AT295">
-        <f t="shared" ref="AT295" si="1909">BO295-BO294</f>
+        <f t="shared" ref="AT295" si="1912">BO295-BO294</f>
         <v>1877</v>
       </c>
       <c r="AU295">
-        <f t="shared" ref="AU295" si="1910">AT295/AS295</f>
+        <f t="shared" ref="AU295" si="1913">AT295/AS295</f>
         <v>7.5911995470355098E-2</v>
       </c>
       <c r="AV295">
-        <f t="shared" ref="AV295" si="1911">BQ295-BQ294</f>
+        <f t="shared" ref="AV295" si="1914">BQ295-BQ294</f>
         <v>299</v>
       </c>
       <c r="AW295">
-        <f t="shared" ref="AW295" si="1912">BS295-BS294</f>
+        <f t="shared" ref="AW295" si="1915">BS295-BS294</f>
         <v>11</v>
       </c>
       <c r="AX295">
-        <f t="shared" ref="AX295" si="1913">BY295-BY294</f>
+        <f t="shared" ref="AX295" si="1916">BY295-BY294</f>
         <v>1067</v>
       </c>
       <c r="AY295">
-        <f t="shared" ref="AY295" si="1914">CA295-CA294</f>
+        <f t="shared" ref="AY295" si="1917">CA295-CA294</f>
         <v>51</v>
       </c>
       <c r="AZ295">
-        <f t="shared" ref="AZ295" si="1915">BU295-BU294</f>
+        <f t="shared" ref="AZ295" si="1918">BU295-BU294</f>
         <v>200</v>
       </c>
       <c r="BA295">
-        <f t="shared" ref="BA295" si="1916">BW295-BW294</f>
+        <f t="shared" ref="BA295" si="1919">BW295-BW294</f>
         <v>11</v>
       </c>
       <c r="BB295">
-        <f t="shared" ref="BB295" si="1917">AW295/AV295</f>
+        <f t="shared" ref="BB295" si="1920">AW295/AV295</f>
         <v>3.678929765886288E-2</v>
       </c>
       <c r="BC295">
-        <f t="shared" ref="BC295" si="1918">AY295/AX295</f>
+        <f t="shared" ref="BC295" si="1921">AY295/AX295</f>
         <v>4.779756326148079E-2</v>
       </c>
       <c r="BD295">
-        <f t="shared" ref="BD295" si="1919">AZ295/AY295</f>
+        <f t="shared" ref="BD295" si="1922">AZ295/AY295</f>
         <v>3.9215686274509802</v>
       </c>
       <c r="BE295">
-        <f t="shared" ref="BE295" si="1920">SUM(AT289:AT295)/SUM(AS289:AS295)</f>
+        <f t="shared" ref="BE295" si="1923">SUM(AT289:AT295)/SUM(AS289:AS295)</f>
         <v>9.25055938383091E-2</v>
       </c>
       <c r="BF295">
-        <f t="shared" ref="BF295" si="1921">SUM(AT282:AT295)/SUM(AS282:AS295)</f>
+        <f t="shared" ref="BF295" si="1924">SUM(AT282:AT295)/SUM(AS282:AS295)</f>
         <v>8.237587911705313E-2</v>
       </c>
       <c r="BG295">
-        <f t="shared" ref="BG295" si="1922">SUM(AW289:AW295)/SUM(AV289:AV295)</f>
+        <f t="shared" ref="BG295" si="1925">SUM(AW289:AW295)/SUM(AV289:AV295)</f>
         <v>6.3647490820073441E-2</v>
       </c>
       <c r="BH295">
-        <f t="shared" ref="BH295" si="1923">SUM(AY289:AY295)/SUM(AX289:AX295)</f>
+        <f t="shared" ref="BH295" si="1926">SUM(AY289:AY295)/SUM(AX289:AX295)</f>
         <v>7.2751833269008109E-2</v>
       </c>
       <c r="BI295">
-        <f t="shared" ref="BI295" si="1924">SUM(BA289:BA295)/SUM(AZ289:AZ295)</f>
+        <f t="shared" ref="BI295" si="1927">SUM(BA289:BA295)/SUM(AZ289:AZ295)</f>
         <v>7.3943661971830985E-2</v>
       </c>
       <c r="BJ295" s="20">
@@ -39845,6 +39884,211 @@
       </c>
       <c r="CB295" s="20">
         <v>12946</v>
+      </c>
+    </row>
+    <row r="296" spans="1:80" x14ac:dyDescent="0.35">
+      <c r="A296" s="14">
+        <f t="shared" si="1163"/>
+        <v>44202</v>
+      </c>
+      <c r="B296" s="9">
+        <v>1375685</v>
+      </c>
+      <c r="C296">
+        <v>289466</v>
+      </c>
+      <c r="D296">
+        <v>249869</v>
+      </c>
+      <c r="E296" s="9">
+        <v>3999</v>
+      </c>
+      <c r="F296" s="9">
+        <v>604</v>
+      </c>
+      <c r="H296">
+        <v>116</v>
+      </c>
+      <c r="I296">
+        <v>125</v>
+      </c>
+      <c r="J296">
+        <v>94</v>
+      </c>
+      <c r="K296">
+        <v>12</v>
+      </c>
+      <c r="L296">
+        <v>24</v>
+      </c>
+      <c r="M296">
+        <f t="shared" ref="M296" si="1928">-(J296-J295)+L296</f>
+        <v>18</v>
+      </c>
+      <c r="N296" s="7">
+        <f t="shared" ref="N296" si="1929">B296-C296</f>
+        <v>1086219</v>
+      </c>
+      <c r="O296" s="4">
+        <f t="shared" ref="O296" si="1930">C296/B296</f>
+        <v>0.21041590189614628</v>
+      </c>
+      <c r="R296">
+        <f t="shared" ref="R296" si="1931">C296-C295</f>
+        <v>2789</v>
+      </c>
+      <c r="S296">
+        <f t="shared" ref="S296" si="1932">N296-N295</f>
+        <v>3253</v>
+      </c>
+      <c r="T296" s="8">
+        <f t="shared" ref="T296" si="1933">R296/V296</f>
+        <v>0.46160211850380667</v>
+      </c>
+      <c r="U296" s="8">
+        <f t="shared" ref="U296" si="1934">SUM(R290:R296)/SUM(V290:V296)</f>
+        <v>0.43826837034946997</v>
+      </c>
+      <c r="V296">
+        <f t="shared" ref="V296" si="1935">B296-B295</f>
+        <v>6042</v>
+      </c>
+      <c r="W296">
+        <f t="shared" ref="W296" si="1936">C296-D296-E296</f>
+        <v>35598</v>
+      </c>
+      <c r="X296" s="3">
+        <f t="shared" ref="X296" si="1937">F296/W296</f>
+        <v>1.6967245350862407E-2</v>
+      </c>
+      <c r="Y296">
+        <f t="shared" ref="Y296" si="1938">E296-E295</f>
+        <v>7</v>
+      </c>
+      <c r="AS296">
+        <f t="shared" ref="AS296" si="1939">BM296-BM295</f>
+        <v>25169</v>
+      </c>
+      <c r="AT296">
+        <f t="shared" ref="AT296" si="1940">BO296-BO295</f>
+        <v>2940</v>
+      </c>
+      <c r="AU296">
+        <f t="shared" ref="AU296" si="1941">AT296/AS296</f>
+        <v>0.1168103619531964</v>
+      </c>
+      <c r="AV296">
+        <f t="shared" ref="AV296" si="1942">BQ296-BQ295</f>
+        <v>159</v>
+      </c>
+      <c r="AW296">
+        <f t="shared" ref="AW296" si="1943">BS296-BS295</f>
+        <v>15</v>
+      </c>
+      <c r="AX296">
+        <f t="shared" ref="AX296" si="1944">BY296-BY295</f>
+        <v>1010</v>
+      </c>
+      <c r="AY296">
+        <f t="shared" ref="AY296" si="1945">CA296-CA295</f>
+        <v>172</v>
+      </c>
+      <c r="AZ296">
+        <f t="shared" ref="AZ296" si="1946">BU296-BU295</f>
+        <v>211</v>
+      </c>
+      <c r="BA296">
+        <f t="shared" ref="BA296" si="1947">BW296-BW295</f>
+        <v>26</v>
+      </c>
+      <c r="BB296">
+        <f t="shared" ref="BB296" si="1948">AW296/AV296</f>
+        <v>9.4339622641509441E-2</v>
+      </c>
+      <c r="BC296">
+        <f t="shared" ref="BC296" si="1949">AY296/AX296</f>
+        <v>0.17029702970297031</v>
+      </c>
+      <c r="BD296">
+        <f t="shared" ref="BD296" si="1950">AZ296/AY296</f>
+        <v>1.2267441860465116</v>
+      </c>
+      <c r="BE296">
+        <f t="shared" ref="BE296" si="1951">SUM(AT290:AT296)/SUM(AS290:AS296)</f>
+        <v>9.9266847099934913E-2</v>
+      </c>
+      <c r="BF296">
+        <f t="shared" ref="BF296" si="1952">SUM(AT283:AT296)/SUM(AS283:AS296)</f>
+        <v>8.7331357544123508E-2</v>
+      </c>
+      <c r="BG296">
+        <f t="shared" ref="BG296" si="1953">SUM(AW290:AW296)/SUM(AV290:AV296)</f>
+        <v>6.985294117647059E-2</v>
+      </c>
+      <c r="BH296">
+        <f t="shared" ref="BH296" si="1954">SUM(AY290:AY296)/SUM(AX290:AX296)</f>
+        <v>8.8307286763321405E-2</v>
+      </c>
+      <c r="BI296">
+        <f t="shared" ref="BI296" si="1955">SUM(BA290:BA296)/SUM(AZ290:AZ296)</f>
+        <v>8.7051142546245922E-2</v>
+      </c>
+      <c r="BJ296" s="20">
+        <v>0.12</v>
+      </c>
+      <c r="BK296" s="20">
+        <v>0.128</v>
+      </c>
+      <c r="BL296" s="20">
+        <v>0.16</v>
+      </c>
+      <c r="BM296" s="20">
+        <v>3165870</v>
+      </c>
+      <c r="BN296" s="20">
+        <v>1375680</v>
+      </c>
+      <c r="BO296" s="20">
+        <v>312573</v>
+      </c>
+      <c r="BP296" s="20">
+        <v>289463</v>
+      </c>
+      <c r="BQ296" s="20">
+        <v>23722</v>
+      </c>
+      <c r="BR296" s="20">
+        <v>9599</v>
+      </c>
+      <c r="BS296" s="20">
+        <v>2413</v>
+      </c>
+      <c r="BT296" s="20">
+        <v>2304</v>
+      </c>
+      <c r="BU296" s="20">
+        <v>18446</v>
+      </c>
+      <c r="BV296" s="20">
+        <v>5712</v>
+      </c>
+      <c r="BW296" s="20">
+        <v>1412</v>
+      </c>
+      <c r="BX296" s="20">
+        <v>1337</v>
+      </c>
+      <c r="BY296" s="20">
+        <v>139613</v>
+      </c>
+      <c r="BZ296" s="20">
+        <v>58011</v>
+      </c>
+      <c r="CA296" s="20">
+        <v>14299</v>
+      </c>
+      <c r="CB296" s="20">
+        <v>13039</v>
       </c>
     </row>
   </sheetData>
@@ -39872,7 +40116,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>R228:R295</xm:sqref>
+          <xm:sqref>R228:R296</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="22" operator="equal" id="{E5309D98-D036-43E8-AE0C-F104DC358831}">
@@ -39888,7 +40132,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>Y228:Y295</xm:sqref>
+          <xm:sqref>Y228:Y296</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5269D26C-9211-46B2-914A-48345DF37DEF}">
@@ -39904,7 +40148,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F228:F295</xm:sqref>
+          <xm:sqref>F228:F296</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="20" operator="equal" id="{24843253-84F3-44AF-847D-C74D74C4F05A}">
@@ -39936,7 +40180,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J228:J295</xm:sqref>
+          <xm:sqref>J228:J296</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="18" operator="equal" id="{6F562D16-6A18-4369-973E-028D1B5F7CFF}">
@@ -39952,7 +40196,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K228:K295</xm:sqref>
+          <xm:sqref>K228:K296</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{735BDD8A-2F04-47F3-825F-41FCBFA8ADD5}">
@@ -40192,7 +40436,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H1:H1048576 I229:I295</xm:sqref>
+          <xm:sqref>H1:H1048576 I229:I296</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{8F0BE21B-C8AC-4EAD-AE58-244C59D5B0FC}">
@@ -40208,7 +40452,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>W229:W295</xm:sqref>
+          <xm:sqref>W229:W296</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -46784,7 +47028,7 @@
       </c>
       <c r="R2">
         <f>MAX(covid19!AF:AF)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S2">
         <f>MAX(covid19!AG:AG)</f>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C316A8F-8661-480C-857F-BCB36FCEDB3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825EE069-1075-48CC-8847-1ED95D2496E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2534,13 +2534,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CB296"/>
+  <dimension ref="A1:CB297"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AN280" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AM281" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BI295" sqref="AS295:BI296"/>
+      <selection pane="bottomRight" activeCell="BI296" sqref="AS296:BI297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33544,7 +33544,7 @@
     </row>
     <row r="270" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A270" s="14">
-        <f t="shared" ref="A270:A296" si="1163">A269+1</f>
+        <f t="shared" ref="A270:A297" si="1163">A269+1</f>
         <v>44176</v>
       </c>
       <c r="B270" s="9">
@@ -39682,11 +39682,11 @@
         <v>10</v>
       </c>
       <c r="N295" s="7">
-        <f t="shared" ref="N295:N296" si="1898">B295-C295</f>
+        <f t="shared" ref="N295" si="1898">B295-C295</f>
         <v>1082966</v>
       </c>
       <c r="O295" s="4">
-        <f t="shared" ref="O295:O296" si="1899">C295/B295</f>
+        <f t="shared" ref="O295" si="1899">C295/B295</f>
         <v>0.20930782693008324</v>
       </c>
       <c r="R295">
@@ -39710,11 +39710,11 @@
         <v>3939</v>
       </c>
       <c r="W295">
-        <f t="shared" ref="W295:W296" si="1905">C295-D295-E295</f>
+        <f t="shared" ref="W295" si="1905">C295-D295-E295</f>
         <v>34966</v>
       </c>
       <c r="X295" s="3">
-        <f t="shared" ref="X295:X296" si="1906">F295/W295</f>
+        <f t="shared" ref="X295" si="1906">F295/W295</f>
         <v>1.6644740605159299E-2</v>
       </c>
       <c r="Y295">
@@ -39926,11 +39926,11 @@
         <v>18</v>
       </c>
       <c r="N296" s="7">
-        <f t="shared" ref="N296" si="1929">B296-C296</f>
+        <f t="shared" ref="N296:N297" si="1929">B296-C296</f>
         <v>1086219</v>
       </c>
       <c r="O296" s="4">
-        <f t="shared" ref="O296" si="1930">C296/B296</f>
+        <f t="shared" ref="O296:O297" si="1930">C296/B296</f>
         <v>0.21041590189614628</v>
       </c>
       <c r="R296">
@@ -39954,83 +39954,122 @@
         <v>6042</v>
       </c>
       <c r="W296">
-        <f t="shared" ref="W296" si="1936">C296-D296-E296</f>
+        <f t="shared" ref="W296:W297" si="1936">C296-D296-E296</f>
         <v>35598</v>
       </c>
       <c r="X296" s="3">
-        <f t="shared" ref="X296" si="1937">F296/W296</f>
+        <f t="shared" ref="X296:X297" si="1937">F296/W296</f>
         <v>1.6967245350862407E-2</v>
       </c>
       <c r="Y296">
         <f t="shared" ref="Y296" si="1938">E296-E295</f>
         <v>7</v>
       </c>
+      <c r="Z296">
+        <v>2304</v>
+      </c>
+      <c r="AA296">
+        <v>1337</v>
+      </c>
+      <c r="AB296">
+        <v>13039</v>
+      </c>
+      <c r="AC296">
+        <v>2105</v>
+      </c>
+      <c r="AD296">
+        <v>1134</v>
+      </c>
+      <c r="AE296">
+        <v>11594</v>
+      </c>
+      <c r="AF296">
+        <v>44</v>
+      </c>
+      <c r="AG296">
+        <v>23</v>
+      </c>
+      <c r="AH296">
+        <v>220</v>
+      </c>
+      <c r="AI296">
+        <f t="shared" ref="AI296" si="1939">Z296-AC296-AF296</f>
+        <v>155</v>
+      </c>
+      <c r="AJ296">
+        <f t="shared" ref="AJ296" si="1940">AA296-AD296-AG296</f>
+        <v>180</v>
+      </c>
+      <c r="AK296">
+        <f t="shared" ref="AK296" si="1941">AB296-AE296-AH296</f>
+        <v>1225</v>
+      </c>
       <c r="AS296">
-        <f t="shared" ref="AS296" si="1939">BM296-BM295</f>
+        <f t="shared" ref="AS296" si="1942">BM296-BM295</f>
         <v>25169</v>
       </c>
       <c r="AT296">
-        <f t="shared" ref="AT296" si="1940">BO296-BO295</f>
+        <f t="shared" ref="AT296" si="1943">BO296-BO295</f>
         <v>2940</v>
       </c>
       <c r="AU296">
-        <f t="shared" ref="AU296" si="1941">AT296/AS296</f>
+        <f t="shared" ref="AU296" si="1944">AT296/AS296</f>
         <v>0.1168103619531964</v>
       </c>
       <c r="AV296">
-        <f t="shared" ref="AV296" si="1942">BQ296-BQ295</f>
+        <f t="shared" ref="AV296" si="1945">BQ296-BQ295</f>
         <v>159</v>
       </c>
       <c r="AW296">
-        <f t="shared" ref="AW296" si="1943">BS296-BS295</f>
+        <f t="shared" ref="AW296" si="1946">BS296-BS295</f>
         <v>15</v>
       </c>
       <c r="AX296">
-        <f t="shared" ref="AX296" si="1944">BY296-BY295</f>
+        <f t="shared" ref="AX296" si="1947">BY296-BY295</f>
         <v>1010</v>
       </c>
       <c r="AY296">
-        <f t="shared" ref="AY296" si="1945">CA296-CA295</f>
+        <f t="shared" ref="AY296" si="1948">CA296-CA295</f>
         <v>172</v>
       </c>
       <c r="AZ296">
-        <f t="shared" ref="AZ296" si="1946">BU296-BU295</f>
+        <f t="shared" ref="AZ296" si="1949">BU296-BU295</f>
         <v>211</v>
       </c>
       <c r="BA296">
-        <f t="shared" ref="BA296" si="1947">BW296-BW295</f>
+        <f t="shared" ref="BA296" si="1950">BW296-BW295</f>
         <v>26</v>
       </c>
       <c r="BB296">
-        <f t="shared" ref="BB296" si="1948">AW296/AV296</f>
+        <f t="shared" ref="BB296" si="1951">AW296/AV296</f>
         <v>9.4339622641509441E-2</v>
       </c>
       <c r="BC296">
-        <f t="shared" ref="BC296" si="1949">AY296/AX296</f>
+        <f t="shared" ref="BC296" si="1952">AY296/AX296</f>
         <v>0.17029702970297031</v>
       </c>
       <c r="BD296">
-        <f t="shared" ref="BD296" si="1950">AZ296/AY296</f>
+        <f t="shared" ref="BD296" si="1953">AZ296/AY296</f>
         <v>1.2267441860465116</v>
       </c>
       <c r="BE296">
-        <f t="shared" ref="BE296" si="1951">SUM(AT290:AT296)/SUM(AS290:AS296)</f>
+        <f t="shared" ref="BE296" si="1954">SUM(AT290:AT296)/SUM(AS290:AS296)</f>
         <v>9.9266847099934913E-2</v>
       </c>
       <c r="BF296">
-        <f t="shared" ref="BF296" si="1952">SUM(AT283:AT296)/SUM(AS283:AS296)</f>
+        <f t="shared" ref="BF296" si="1955">SUM(AT283:AT296)/SUM(AS283:AS296)</f>
         <v>8.7331357544123508E-2</v>
       </c>
       <c r="BG296">
-        <f t="shared" ref="BG296" si="1953">SUM(AW290:AW296)/SUM(AV290:AV296)</f>
+        <f t="shared" ref="BG296" si="1956">SUM(AW290:AW296)/SUM(AV290:AV296)</f>
         <v>6.985294117647059E-2</v>
       </c>
       <c r="BH296">
-        <f t="shared" ref="BH296" si="1954">SUM(AY290:AY296)/SUM(AX290:AX296)</f>
+        <f t="shared" ref="BH296" si="1957">SUM(AY290:AY296)/SUM(AX290:AX296)</f>
         <v>8.8307286763321405E-2</v>
       </c>
       <c r="BI296">
-        <f t="shared" ref="BI296" si="1955">SUM(BA290:BA296)/SUM(AZ290:AZ296)</f>
+        <f t="shared" ref="BI296" si="1958">SUM(BA290:BA296)/SUM(AZ290:AZ296)</f>
         <v>8.7051142546245922E-2</v>
       </c>
       <c r="BJ296" s="20">
@@ -40089,6 +40128,211 @@
       </c>
       <c r="CB296" s="20">
         <v>13039</v>
+      </c>
+    </row>
+    <row r="297" spans="1:80" x14ac:dyDescent="0.35">
+      <c r="A297" s="14">
+        <f t="shared" si="1163"/>
+        <v>44203</v>
+      </c>
+      <c r="B297" s="9">
+        <v>1380542</v>
+      </c>
+      <c r="C297">
+        <v>291370</v>
+      </c>
+      <c r="D297">
+        <v>251657</v>
+      </c>
+      <c r="E297" s="9">
+        <v>4060</v>
+      </c>
+      <c r="F297" s="9">
+        <v>613</v>
+      </c>
+      <c r="H297">
+        <v>119</v>
+      </c>
+      <c r="I297">
+        <v>97</v>
+      </c>
+      <c r="J297">
+        <v>105</v>
+      </c>
+      <c r="K297">
+        <v>13</v>
+      </c>
+      <c r="L297">
+        <v>22</v>
+      </c>
+      <c r="M297">
+        <f t="shared" ref="M297" si="1959">-(J297-J296)+L297</f>
+        <v>11</v>
+      </c>
+      <c r="N297" s="7">
+        <f t="shared" ref="N297" si="1960">B297-C297</f>
+        <v>1089172</v>
+      </c>
+      <c r="O297" s="4">
+        <f t="shared" ref="O297" si="1961">C297/B297</f>
+        <v>0.21105478862649596</v>
+      </c>
+      <c r="R297">
+        <f t="shared" ref="R297" si="1962">C297-C296</f>
+        <v>1904</v>
+      </c>
+      <c r="S297">
+        <f t="shared" ref="S297" si="1963">N297-N296</f>
+        <v>2953</v>
+      </c>
+      <c r="T297" s="8">
+        <f t="shared" ref="T297" si="1964">R297/V297</f>
+        <v>0.392011529750875</v>
+      </c>
+      <c r="U297" s="8">
+        <f t="shared" ref="U297" si="1965">SUM(R291:R297)/SUM(V291:V297)</f>
+        <v>0.43365188782704056</v>
+      </c>
+      <c r="V297">
+        <f t="shared" ref="V297" si="1966">B297-B296</f>
+        <v>4857</v>
+      </c>
+      <c r="W297">
+        <f t="shared" ref="W297" si="1967">C297-D297-E297</f>
+        <v>35653</v>
+      </c>
+      <c r="X297" s="3">
+        <f t="shared" ref="X297" si="1968">F297/W297</f>
+        <v>1.7193504052954871E-2</v>
+      </c>
+      <c r="Y297">
+        <f t="shared" ref="Y297" si="1969">E297-E296</f>
+        <v>61</v>
+      </c>
+      <c r="AS297">
+        <f t="shared" ref="AS297" si="1970">BM297-BM296</f>
+        <v>19238</v>
+      </c>
+      <c r="AT297">
+        <f t="shared" ref="AT297" si="1971">BO297-BO296</f>
+        <v>2057</v>
+      </c>
+      <c r="AU297">
+        <f t="shared" ref="AU297" si="1972">AT297/AS297</f>
+        <v>0.10692379665245867</v>
+      </c>
+      <c r="AV297">
+        <f t="shared" ref="AV297" si="1973">BQ297-BQ296</f>
+        <v>150</v>
+      </c>
+      <c r="AW297">
+        <f t="shared" ref="AW297" si="1974">BS297-BS296</f>
+        <v>7</v>
+      </c>
+      <c r="AX297">
+        <f t="shared" ref="AX297" si="1975">BY297-BY296</f>
+        <v>687</v>
+      </c>
+      <c r="AY297">
+        <f t="shared" ref="AY297" si="1976">CA297-CA296</f>
+        <v>-19</v>
+      </c>
+      <c r="AZ297">
+        <f t="shared" ref="AZ297" si="1977">BU297-BU296</f>
+        <v>137</v>
+      </c>
+      <c r="BA297">
+        <f t="shared" ref="BA297" si="1978">BW297-BW296</f>
+        <v>20</v>
+      </c>
+      <c r="BB297">
+        <f t="shared" ref="BB297" si="1979">AW297/AV297</f>
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="BC297">
+        <f t="shared" ref="BC297" si="1980">AY297/AX297</f>
+        <v>-2.7656477438136828E-2</v>
+      </c>
+      <c r="BD297">
+        <f t="shared" ref="BD297" si="1981">AZ297/AY297</f>
+        <v>-7.2105263157894735</v>
+      </c>
+      <c r="BE297">
+        <f t="shared" ref="BE297" si="1982">SUM(AT291:AT297)/SUM(AS291:AS297)</f>
+        <v>9.734938959660297E-2</v>
+      </c>
+      <c r="BF297">
+        <f t="shared" ref="BF297" si="1983">SUM(AT284:AT297)/SUM(AS284:AS297)</f>
+        <v>9.0697122807645664E-2</v>
+      </c>
+      <c r="BG297">
+        <f t="shared" ref="BG297" si="1984">SUM(AW291:AW297)/SUM(AV291:AV297)</f>
+        <v>5.7273768613974797E-2</v>
+      </c>
+      <c r="BH297">
+        <f t="shared" ref="BH297" si="1985">SUM(AY291:AY297)/SUM(AX291:AX297)</f>
+        <v>7.1225610911157422E-2</v>
+      </c>
+      <c r="BI297">
+        <f t="shared" ref="BI297" si="1986">SUM(BA291:BA297)/SUM(AZ291:AZ297)</f>
+        <v>9.2198581560283682E-2</v>
+      </c>
+      <c r="BJ297" s="20">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="BK297" s="20">
+        <v>0.125</v>
+      </c>
+      <c r="BL297" s="20">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="BM297" s="20">
+        <v>3185108</v>
+      </c>
+      <c r="BN297" s="20">
+        <v>1380524</v>
+      </c>
+      <c r="BO297" s="20">
+        <v>314630</v>
+      </c>
+      <c r="BP297" s="20">
+        <v>291370</v>
+      </c>
+      <c r="BQ297" s="20">
+        <v>23872</v>
+      </c>
+      <c r="BR297" s="20">
+        <v>9630</v>
+      </c>
+      <c r="BS297" s="20">
+        <v>2420</v>
+      </c>
+      <c r="BT297" s="20">
+        <v>2314</v>
+      </c>
+      <c r="BU297" s="20">
+        <v>18583</v>
+      </c>
+      <c r="BV297" s="20">
+        <v>5732</v>
+      </c>
+      <c r="BW297" s="20">
+        <v>1432</v>
+      </c>
+      <c r="BX297" s="20">
+        <v>1355</v>
+      </c>
+      <c r="BY297" s="20">
+        <v>140300</v>
+      </c>
+      <c r="BZ297" s="20">
+        <v>58187</v>
+      </c>
+      <c r="CA297" s="20">
+        <v>14280</v>
+      </c>
+      <c r="CB297" s="20">
+        <v>13084</v>
       </c>
     </row>
   </sheetData>
@@ -40116,7 +40360,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>R228:R296</xm:sqref>
+          <xm:sqref>R228:R297</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="22" operator="equal" id="{E5309D98-D036-43E8-AE0C-F104DC358831}">
@@ -40132,7 +40376,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>Y228:Y296</xm:sqref>
+          <xm:sqref>Y228:Y297</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5269D26C-9211-46B2-914A-48345DF37DEF}">
@@ -40148,7 +40392,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F228:F296</xm:sqref>
+          <xm:sqref>F228:F297</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="20" operator="equal" id="{24843253-84F3-44AF-847D-C74D74C4F05A}">
@@ -40180,7 +40424,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J228:J296</xm:sqref>
+          <xm:sqref>J228:J297</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="18" operator="equal" id="{6F562D16-6A18-4369-973E-028D1B5F7CFF}">
@@ -40196,7 +40440,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K228:K296</xm:sqref>
+          <xm:sqref>K228:K297</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{735BDD8A-2F04-47F3-825F-41FCBFA8ADD5}">
@@ -40436,7 +40680,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H1:H1048576 I229:I296</xm:sqref>
+          <xm:sqref>H1:H1048576 I229:I297</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{8F0BE21B-C8AC-4EAD-AE58-244C59D5B0FC}">
@@ -40452,7 +40696,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>W229:W296</xm:sqref>
+          <xm:sqref>W229:W297</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2020-2021\Fall 2020\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825EE069-1075-48CC-8847-1ED95D2496E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD715A4-33A6-44DC-B728-82A27758061D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2534,13 +2534,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CB297"/>
+  <dimension ref="A1:CB298"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AM281" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AM282" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BI296" sqref="AS296:BI297"/>
+      <selection pane="bottomRight" activeCell="BI297" sqref="AS297:BI298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33544,7 +33544,7 @@
     </row>
     <row r="270" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A270" s="14">
-        <f t="shared" ref="A270:A297" si="1163">A269+1</f>
+        <f t="shared" ref="A270:A298" si="1163">A269+1</f>
         <v>44176</v>
       </c>
       <c r="B270" s="9">
@@ -39926,11 +39926,11 @@
         <v>18</v>
       </c>
       <c r="N296" s="7">
-        <f t="shared" ref="N296:N297" si="1929">B296-C296</f>
+        <f t="shared" ref="N296" si="1929">B296-C296</f>
         <v>1086219</v>
       </c>
       <c r="O296" s="4">
-        <f t="shared" ref="O296:O297" si="1930">C296/B296</f>
+        <f t="shared" ref="O296" si="1930">C296/B296</f>
         <v>0.21041590189614628</v>
       </c>
       <c r="R296">
@@ -39954,11 +39954,11 @@
         <v>6042</v>
       </c>
       <c r="W296">
-        <f t="shared" ref="W296:W297" si="1936">C296-D296-E296</f>
+        <f t="shared" ref="W296" si="1936">C296-D296-E296</f>
         <v>35598</v>
       </c>
       <c r="X296" s="3">
-        <f t="shared" ref="X296:X297" si="1937">F296/W296</f>
+        <f t="shared" ref="X296" si="1937">F296/W296</f>
         <v>1.6967245350862407E-2</v>
       </c>
       <c r="Y296">
@@ -40170,11 +40170,11 @@
         <v>11</v>
       </c>
       <c r="N297" s="7">
-        <f t="shared" ref="N297" si="1960">B297-C297</f>
+        <f t="shared" ref="N297:N298" si="1960">B297-C297</f>
         <v>1089172</v>
       </c>
       <c r="O297" s="4">
-        <f t="shared" ref="O297" si="1961">C297/B297</f>
+        <f t="shared" ref="O297:O298" si="1961">C297/B297</f>
         <v>0.21105478862649596</v>
       </c>
       <c r="R297">
@@ -40198,83 +40198,122 @@
         <v>4857</v>
       </c>
       <c r="W297">
-        <f t="shared" ref="W297" si="1967">C297-D297-E297</f>
+        <f t="shared" ref="W297:W298" si="1967">C297-D297-E297</f>
         <v>35653</v>
       </c>
       <c r="X297" s="3">
-        <f t="shared" ref="X297" si="1968">F297/W297</f>
+        <f t="shared" ref="X297:X298" si="1968">F297/W297</f>
         <v>1.7193504052954871E-2</v>
       </c>
       <c r="Y297">
         <f t="shared" ref="Y297" si="1969">E297-E296</f>
         <v>61</v>
       </c>
+      <c r="Z297">
+        <v>2314</v>
+      </c>
+      <c r="AA297">
+        <v>1355</v>
+      </c>
+      <c r="AB297">
+        <v>13084</v>
+      </c>
+      <c r="AC297">
+        <v>2119</v>
+      </c>
+      <c r="AD297">
+        <v>1141</v>
+      </c>
+      <c r="AE297">
+        <v>11654</v>
+      </c>
+      <c r="AF297">
+        <v>46</v>
+      </c>
+      <c r="AG297">
+        <v>23</v>
+      </c>
+      <c r="AH297">
+        <v>222</v>
+      </c>
+      <c r="AI297">
+        <f t="shared" ref="AI297" si="1970">Z297-AC297-AF297</f>
+        <v>149</v>
+      </c>
+      <c r="AJ297">
+        <f t="shared" ref="AJ297" si="1971">AA297-AD297-AG297</f>
+        <v>191</v>
+      </c>
+      <c r="AK297">
+        <f t="shared" ref="AK297" si="1972">AB297-AE297-AH297</f>
+        <v>1208</v>
+      </c>
       <c r="AS297">
-        <f t="shared" ref="AS297" si="1970">BM297-BM296</f>
+        <f t="shared" ref="AS297" si="1973">BM297-BM296</f>
         <v>19238</v>
       </c>
       <c r="AT297">
-        <f t="shared" ref="AT297" si="1971">BO297-BO296</f>
+        <f t="shared" ref="AT297" si="1974">BO297-BO296</f>
         <v>2057</v>
       </c>
       <c r="AU297">
-        <f t="shared" ref="AU297" si="1972">AT297/AS297</f>
+        <f t="shared" ref="AU297" si="1975">AT297/AS297</f>
         <v>0.10692379665245867</v>
       </c>
       <c r="AV297">
-        <f t="shared" ref="AV297" si="1973">BQ297-BQ296</f>
+        <f t="shared" ref="AV297" si="1976">BQ297-BQ296</f>
         <v>150</v>
       </c>
       <c r="AW297">
-        <f t="shared" ref="AW297" si="1974">BS297-BS296</f>
+        <f t="shared" ref="AW297" si="1977">BS297-BS296</f>
         <v>7</v>
       </c>
       <c r="AX297">
-        <f t="shared" ref="AX297" si="1975">BY297-BY296</f>
+        <f t="shared" ref="AX297" si="1978">BY297-BY296</f>
         <v>687</v>
       </c>
       <c r="AY297">
-        <f t="shared" ref="AY297" si="1976">CA297-CA296</f>
+        <f t="shared" ref="AY297" si="1979">CA297-CA296</f>
         <v>-19</v>
       </c>
       <c r="AZ297">
-        <f t="shared" ref="AZ297" si="1977">BU297-BU296</f>
+        <f t="shared" ref="AZ297" si="1980">BU297-BU296</f>
         <v>137</v>
       </c>
       <c r="BA297">
-        <f t="shared" ref="BA297" si="1978">BW297-BW296</f>
+        <f t="shared" ref="BA297" si="1981">BW297-BW296</f>
         <v>20</v>
       </c>
       <c r="BB297">
-        <f t="shared" ref="BB297" si="1979">AW297/AV297</f>
+        <f t="shared" ref="BB297" si="1982">AW297/AV297</f>
         <v>4.6666666666666669E-2</v>
       </c>
       <c r="BC297">
-        <f t="shared" ref="BC297" si="1980">AY297/AX297</f>
+        <f t="shared" ref="BC297